--- a/microgrid_base/设备信息库各参数.xlsx
+++ b/microgrid_base/设备信息库各参数.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\works\jubilant-adventure2\microgrid_base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99691CC-A20E-498D-9BB6-50B0CEE4DB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CDA30E-2FB2-4165-A8E3-E5F090D49D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="8180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6555,7 +6555,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6564,35 +6564,26 @@
     <xf numFmtId="0" fontId="65" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="77" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6605,13 +6596,16 @@
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6620,13 +6614,16 @@
     <xf numFmtId="0" fontId="69" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6635,13 +6632,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6659,8 +6650,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6679,39 +6679,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6720,8 +6689,17 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6735,28 +6713,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6780,6 +6771,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -8843,7 +8843,7 @@
       <c r="C15" s="370">
         <v>560</v>
       </c>
-      <c r="D15" s="644"/>
+      <c r="D15" s="635"/>
       <c r="E15" s="365"/>
       <c r="F15" s="363"/>
       <c r="G15" s="363"/>
@@ -8924,7 +8924,7 @@
       <c r="B21" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="639"/>
+      <c r="C21" s="638"/>
       <c r="D21" s="363"/>
       <c r="E21" s="363"/>
       <c r="F21" s="363"/>
@@ -9205,7 +9205,7 @@
       <c r="C41" s="375">
         <v>560</v>
       </c>
-      <c r="D41" s="635"/>
+      <c r="D41" s="639"/>
       <c r="E41" s="366"/>
       <c r="F41" s="363"/>
       <c r="G41" s="363"/>
@@ -9286,7 +9286,7 @@
       <c r="B47" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="639"/>
+      <c r="C47" s="638"/>
       <c r="D47" s="363"/>
       <c r="E47" s="363"/>
       <c r="F47" s="363"/>
@@ -9621,7 +9621,7 @@
       <c r="C71" s="370">
         <v>560</v>
       </c>
-      <c r="D71" s="635"/>
+      <c r="D71" s="639"/>
       <c r="E71" s="363"/>
       <c r="F71" s="363"/>
       <c r="G71" s="363"/>
@@ -9702,7 +9702,7 @@
       <c r="B77" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C77" s="639"/>
+      <c r="C77" s="638"/>
       <c r="D77" s="363"/>
       <c r="E77" s="363"/>
       <c r="F77" s="363"/>
@@ -9876,10 +9876,10 @@
       </c>
       <c r="E91" s="363"/>
       <c r="F91" s="363"/>
-      <c r="G91" s="642" t="s">
+      <c r="G91" s="640" t="s">
         <v>59</v>
       </c>
-      <c r="H91" s="643"/>
+      <c r="H91" s="641"/>
     </row>
     <row r="92" spans="1:8" ht="14.35">
       <c r="A92" s="363"/>
@@ -10007,7 +10007,7 @@
       <c r="C99" s="370">
         <v>560</v>
       </c>
-      <c r="D99" s="635"/>
+      <c r="D99" s="639"/>
       <c r="E99" s="363"/>
       <c r="F99" s="363"/>
       <c r="G99" s="363"/>
@@ -10088,7 +10088,7 @@
       <c r="B105" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C105" s="638"/>
+      <c r="C105" s="642"/>
       <c r="D105" s="363"/>
       <c r="E105" s="363"/>
       <c r="F105" s="363"/>
@@ -10387,7 +10387,7 @@
       <c r="C128" s="370">
         <v>560</v>
       </c>
-      <c r="D128" s="635"/>
+      <c r="D128" s="639"/>
       <c r="E128" s="363"/>
       <c r="F128" s="363"/>
       <c r="G128" s="363"/>
@@ -10468,7 +10468,7 @@
       <c r="B134" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C134" s="638"/>
+      <c r="C134" s="642"/>
       <c r="D134" s="363"/>
       <c r="E134" s="363"/>
       <c r="F134" s="363"/>
@@ -10741,7 +10741,7 @@
       <c r="C158" s="370">
         <v>560</v>
       </c>
-      <c r="D158" s="635"/>
+      <c r="D158" s="639"/>
       <c r="E158" s="363"/>
     </row>
     <row r="159" spans="1:8" ht="14.35">
@@ -10804,7 +10804,7 @@
       <c r="B164" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C164" s="638"/>
+      <c r="C164" s="642"/>
       <c r="D164" s="363"/>
       <c r="E164" s="363"/>
     </row>
@@ -10944,7 +10944,7 @@
       <c r="C179" s="375">
         <v>560</v>
       </c>
-      <c r="D179" s="635"/>
+      <c r="D179" s="639"/>
       <c r="E179" s="363"/>
       <c r="F179" s="363"/>
       <c r="G179" s="363"/>
@@ -11025,7 +11025,7 @@
       <c r="B185" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C185" s="639"/>
+      <c r="C185" s="638"/>
       <c r="D185" s="363"/>
       <c r="E185" s="363"/>
       <c r="F185" s="363"/>
@@ -11222,7 +11222,7 @@
       <c r="C201" s="375">
         <v>560</v>
       </c>
-      <c r="D201" s="635"/>
+      <c r="D201" s="639"/>
       <c r="E201" s="363"/>
       <c r="F201" s="363"/>
       <c r="G201" s="363"/>
@@ -11302,7 +11302,7 @@
       <c r="B207" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C207" s="639"/>
+      <c r="C207" s="638"/>
       <c r="D207" s="363"/>
       <c r="E207" s="363"/>
       <c r="F207" s="363"/>
@@ -11797,7 +11797,7 @@
       <c r="C242" s="370">
         <v>560</v>
       </c>
-      <c r="D242" s="635"/>
+      <c r="D242" s="639"/>
       <c r="E242" s="363"/>
       <c r="F242" s="363"/>
       <c r="G242" s="363"/>
@@ -11878,7 +11878,7 @@
       <c r="B248" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C248" s="638"/>
+      <c r="C248" s="642"/>
       <c r="D248" s="363"/>
       <c r="E248" s="363"/>
       <c r="F248" s="363"/>
@@ -12267,7 +12267,7 @@
       <c r="C278" s="370">
         <v>560</v>
       </c>
-      <c r="D278" s="635"/>
+      <c r="D278" s="639"/>
       <c r="E278" s="363"/>
       <c r="F278" s="363"/>
       <c r="G278" s="363"/>
@@ -12348,7 +12348,7 @@
       <c r="B284" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C284" s="638"/>
+      <c r="C284" s="642"/>
       <c r="D284" s="363"/>
       <c r="E284" s="363"/>
       <c r="F284" s="363"/>
@@ -12578,7 +12578,7 @@
       <c r="C304" s="370">
         <v>560</v>
       </c>
-      <c r="D304" s="635"/>
+      <c r="D304" s="639"/>
       <c r="E304" s="363"/>
       <c r="F304" s="363"/>
       <c r="G304" s="363"/>
@@ -12659,7 +12659,7 @@
       <c r="B310" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C310" s="638"/>
+      <c r="C310" s="642"/>
       <c r="D310" s="363"/>
       <c r="E310" s="363"/>
       <c r="F310" s="363"/>
@@ -12846,7 +12846,7 @@
       <c r="C327" s="370">
         <v>560</v>
       </c>
-      <c r="D327" s="635"/>
+      <c r="D327" s="639"/>
       <c r="E327" s="363"/>
       <c r="F327" s="363"/>
       <c r="G327" s="363"/>
@@ -12927,7 +12927,7 @@
       <c r="B333" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C333" s="638"/>
+      <c r="C333" s="642"/>
       <c r="D333" s="363"/>
       <c r="E333" s="363"/>
       <c r="F333" s="363"/>
@@ -13120,7 +13120,7 @@
       <c r="C349" s="370">
         <v>560</v>
       </c>
-      <c r="D349" s="635"/>
+      <c r="D349" s="639"/>
       <c r="F349" s="363"/>
       <c r="G349" s="363"/>
       <c r="H349" s="363"/>
@@ -13195,7 +13195,7 @@
       <c r="B355" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C355" s="638"/>
+      <c r="C355" s="642"/>
       <c r="D355" s="363"/>
       <c r="F355" s="363"/>
       <c r="G355" s="363"/>
@@ -13540,7 +13540,7 @@
       <c r="C383" s="370">
         <v>560</v>
       </c>
-      <c r="D383" s="635"/>
+      <c r="D383" s="639"/>
       <c r="E383" s="363"/>
       <c r="F383" s="363"/>
       <c r="G383" s="363"/>
@@ -13621,7 +13621,7 @@
       <c r="B389" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C389" s="638"/>
+      <c r="C389" s="642"/>
       <c r="D389" s="363"/>
       <c r="E389" s="363"/>
       <c r="F389" s="363"/>
@@ -13969,7 +13969,7 @@
       <c r="C418" s="370">
         <v>560</v>
       </c>
-      <c r="D418" s="635"/>
+      <c r="D418" s="639"/>
       <c r="E418" s="363"/>
       <c r="F418" s="363"/>
       <c r="G418" s="363"/>
@@ -14050,7 +14050,7 @@
       <c r="B424" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C424" s="638"/>
+      <c r="C424" s="642"/>
       <c r="D424" s="363"/>
       <c r="E424" s="363"/>
       <c r="F424" s="363"/>
@@ -14376,7 +14376,7 @@
       <c r="B451" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C451" s="638"/>
+      <c r="C451" s="642"/>
       <c r="D451" s="363"/>
       <c r="E451" s="363"/>
       <c r="F451" s="363"/>
@@ -14591,7 +14591,7 @@
       <c r="C469" s="370">
         <v>560</v>
       </c>
-      <c r="D469" s="635"/>
+      <c r="D469" s="639"/>
       <c r="E469" s="363"/>
       <c r="F469" s="363"/>
       <c r="G469" s="363"/>
@@ -14672,7 +14672,7 @@
       <c r="B475" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C475" s="638"/>
+      <c r="C475" s="642"/>
       <c r="D475" s="363"/>
       <c r="E475" s="363"/>
       <c r="F475" s="363"/>
@@ -14899,7 +14899,7 @@
       <c r="C494" s="370">
         <v>560</v>
       </c>
-      <c r="D494" s="635"/>
+      <c r="D494" s="639"/>
       <c r="E494" s="365" t="s">
         <v>684</v>
       </c>
@@ -14982,7 +14982,7 @@
       <c r="B500" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C500" s="638"/>
+      <c r="C500" s="642"/>
       <c r="D500" s="363"/>
       <c r="E500" s="363"/>
       <c r="F500" s="363"/>
@@ -15203,7 +15203,7 @@
       <c r="C519" s="370">
         <v>560</v>
       </c>
-      <c r="D519" s="635"/>
+      <c r="D519" s="639"/>
       <c r="E519" s="365" t="s">
         <v>686</v>
       </c>
@@ -15286,7 +15286,7 @@
       <c r="B525" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C525" s="638"/>
+      <c r="C525" s="642"/>
       <c r="D525" s="363"/>
       <c r="E525" s="363"/>
       <c r="F525" s="363"/>
@@ -15553,7 +15553,7 @@
       <c r="C547" s="370">
         <v>560</v>
       </c>
-      <c r="D547" s="635"/>
+      <c r="D547" s="639"/>
       <c r="E547" s="363"/>
       <c r="F547" s="363"/>
       <c r="G547" s="363"/>
@@ -15634,7 +15634,7 @@
       <c r="B553" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C553" s="638"/>
+      <c r="C553" s="642"/>
       <c r="D553" s="363"/>
       <c r="E553" s="363"/>
       <c r="F553" s="363"/>
@@ -15965,7 +15965,7 @@
       <c r="C580" s="370">
         <v>560</v>
       </c>
-      <c r="D580" s="635"/>
+      <c r="D580" s="639"/>
       <c r="E580" s="363"/>
       <c r="F580" s="363"/>
       <c r="G580" s="363"/>
@@ -16046,7 +16046,7 @@
       <c r="B586" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C586" s="638"/>
+      <c r="C586" s="642"/>
       <c r="D586" s="363"/>
       <c r="E586" s="363"/>
       <c r="F586" s="363"/>
@@ -16310,7 +16310,7 @@
       <c r="C608" s="370">
         <v>560</v>
       </c>
-      <c r="D608" s="635"/>
+      <c r="D608" s="639"/>
       <c r="E608" s="363"/>
       <c r="F608" s="363"/>
       <c r="G608" s="363"/>
@@ -16391,7 +16391,7 @@
       <c r="B614" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C614" s="638"/>
+      <c r="C614" s="642"/>
       <c r="D614" s="363"/>
       <c r="E614" s="363"/>
       <c r="F614" s="363"/>
@@ -16675,7 +16675,7 @@
       <c r="B637" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C637" s="638"/>
+      <c r="C637" s="642"/>
       <c r="D637" s="363"/>
       <c r="E637" s="363"/>
       <c r="F637" s="363"/>
@@ -16970,10 +16970,10 @@
     </row>
     <row r="660" spans="1:8" ht="14.35">
       <c r="A660" s="363"/>
-      <c r="B660" s="640" t="s">
+      <c r="B660" s="643" t="s">
         <v>34</v>
       </c>
-      <c r="C660" s="641"/>
+      <c r="C660" s="644"/>
       <c r="D660" s="363"/>
       <c r="E660" s="363"/>
       <c r="F660" s="363"/>
@@ -17272,10 +17272,10 @@
     </row>
     <row r="683" spans="1:8" ht="14.35">
       <c r="A683" s="363"/>
-      <c r="B683" s="640" t="s">
+      <c r="B683" s="643" t="s">
         <v>34</v>
       </c>
-      <c r="C683" s="641"/>
+      <c r="C683" s="644"/>
       <c r="D683" s="363"/>
       <c r="E683" s="363"/>
       <c r="F683" s="363"/>
@@ -17639,7 +17639,7 @@
       <c r="B711" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C711" s="638"/>
+      <c r="C711" s="642"/>
       <c r="D711" s="363"/>
       <c r="E711" s="363"/>
       <c r="F711" s="363"/>
@@ -17884,7 +17884,7 @@
       <c r="C729" s="370">
         <v>560</v>
       </c>
-      <c r="D729" s="635"/>
+      <c r="D729" s="639"/>
       <c r="E729" s="363"/>
       <c r="F729" s="363"/>
       <c r="G729" s="363"/>
@@ -17965,7 +17965,7 @@
       <c r="B735" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C735" s="638"/>
+      <c r="C735" s="642"/>
       <c r="D735" s="363"/>
       <c r="E735" s="363"/>
       <c r="F735" s="363"/>
@@ -18226,7 +18226,7 @@
       <c r="C756" s="370">
         <v>560</v>
       </c>
-      <c r="D756" s="635"/>
+      <c r="D756" s="639"/>
       <c r="E756" s="363"/>
       <c r="F756" s="363"/>
       <c r="G756" s="363"/>
@@ -18307,7 +18307,7 @@
       <c r="B762" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C762" s="638"/>
+      <c r="C762" s="642"/>
       <c r="D762" s="363"/>
       <c r="E762" s="363"/>
       <c r="F762" s="363"/>
@@ -18633,7 +18633,7 @@
       <c r="B789" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C789" s="639"/>
+      <c r="C789" s="638"/>
       <c r="D789" s="363"/>
       <c r="E789" s="363"/>
       <c r="F789" s="363"/>
@@ -18959,7 +18959,7 @@
       <c r="B816" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C816" s="639"/>
+      <c r="C816" s="638"/>
       <c r="D816" s="363"/>
       <c r="E816" s="363"/>
       <c r="F816" s="363"/>
@@ -19250,7 +19250,7 @@
       <c r="C839" s="375">
         <v>560</v>
       </c>
-      <c r="D839" s="635"/>
+      <c r="D839" s="639"/>
       <c r="E839" s="365"/>
       <c r="F839" s="363"/>
       <c r="G839" s="363"/>
@@ -19331,7 +19331,7 @@
       <c r="B845" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C845" s="639"/>
+      <c r="C845" s="638"/>
       <c r="D845" s="363"/>
       <c r="E845" s="363"/>
       <c r="F845" s="363"/>
@@ -19712,7 +19712,7 @@
       <c r="B876" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C876" s="639"/>
+      <c r="C876" s="638"/>
       <c r="D876" s="363"/>
       <c r="E876" s="363"/>
       <c r="F876" s="363"/>
@@ -20068,7 +20068,7 @@
       <c r="B907" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C907" s="639"/>
+      <c r="C907" s="638"/>
       <c r="D907" s="363"/>
       <c r="E907" s="363"/>
       <c r="F907" s="363"/>
@@ -20341,7 +20341,7 @@
       <c r="B931" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C931" s="639"/>
+      <c r="C931" s="638"/>
       <c r="D931" s="363"/>
       <c r="E931" s="363"/>
       <c r="F931" s="363"/>
@@ -20691,7 +20691,7 @@
       <c r="B958" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C958" s="639"/>
+      <c r="C958" s="638"/>
       <c r="D958" s="363"/>
       <c r="E958" s="363"/>
       <c r="F958" s="363"/>
@@ -20987,7 +20987,7 @@
       <c r="B981" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C981" s="639"/>
+      <c r="C981" s="638"/>
       <c r="D981" s="363"/>
       <c r="E981" s="363"/>
       <c r="F981" s="363"/>
@@ -21283,7 +21283,7 @@
       <c r="B1005" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1005" s="639"/>
+      <c r="C1005" s="638"/>
       <c r="D1005" s="363"/>
       <c r="E1005" s="363"/>
       <c r="F1005" s="363"/>
@@ -21479,7 +21479,7 @@
       <c r="B1024" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1024" s="639"/>
+      <c r="C1024" s="638"/>
       <c r="F1024" s="363"/>
       <c r="G1024" s="363"/>
       <c r="H1024" s="363"/>
@@ -21706,7 +21706,7 @@
       <c r="C1042" s="370">
         <v>560</v>
       </c>
-      <c r="D1042" s="635"/>
+      <c r="D1042" s="639"/>
       <c r="E1042" s="363"/>
       <c r="F1042" s="363"/>
       <c r="G1042" s="363"/>
@@ -21787,7 +21787,7 @@
       <c r="B1048" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1048" s="638"/>
+      <c r="C1048" s="642"/>
       <c r="D1048" s="363"/>
       <c r="E1048" s="363"/>
       <c r="F1048" s="363"/>
@@ -22053,7 +22053,7 @@
       <c r="B1070" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1070" s="639"/>
+      <c r="C1070" s="638"/>
       <c r="D1070" s="363"/>
       <c r="E1070" s="363"/>
       <c r="F1070" s="363"/>
@@ -22298,7 +22298,7 @@
       <c r="C1089" s="370">
         <v>560</v>
       </c>
-      <c r="D1089" s="635"/>
+      <c r="D1089" s="639"/>
       <c r="E1089" s="363"/>
       <c r="F1089" s="363"/>
       <c r="G1089" s="363"/>
@@ -22373,7 +22373,7 @@
       <c r="B1095" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1095" s="638"/>
+      <c r="C1095" s="642"/>
       <c r="D1095" s="363"/>
       <c r="E1095" s="363"/>
       <c r="F1095" s="363"/>
@@ -22649,7 +22649,7 @@
       <c r="C1120" s="370">
         <v>560</v>
       </c>
-      <c r="D1120" s="635"/>
+      <c r="D1120" s="639"/>
       <c r="E1120" s="363"/>
       <c r="F1120" s="363"/>
       <c r="G1120" s="363"/>
@@ -22726,7 +22726,7 @@
       <c r="B1126" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1126" s="638"/>
+      <c r="C1126" s="642"/>
       <c r="D1126" s="363"/>
       <c r="E1126" s="363"/>
       <c r="F1126" s="363"/>
@@ -23089,7 +23089,7 @@
       <c r="B1155" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1155" s="638"/>
+      <c r="C1155" s="642"/>
       <c r="D1155" s="363"/>
       <c r="E1155" s="363"/>
       <c r="F1155" s="363"/>
@@ -23198,61 +23198,6 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D41:D46"/>
-    <mergeCell ref="D71:D75"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="D99:D103"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="D128:D132"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="D158:D162"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="D179:D184"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="D201:D206"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="D242:D246"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="D278:D282"/>
-    <mergeCell ref="B284:C284"/>
-    <mergeCell ref="D304:D308"/>
-    <mergeCell ref="B310:C310"/>
-    <mergeCell ref="D327:D331"/>
-    <mergeCell ref="B333:C333"/>
-    <mergeCell ref="D383:D387"/>
-    <mergeCell ref="B389:C389"/>
-    <mergeCell ref="D418:D422"/>
-    <mergeCell ref="B424:C424"/>
-    <mergeCell ref="B451:C451"/>
-    <mergeCell ref="D469:D473"/>
-    <mergeCell ref="B475:C475"/>
-    <mergeCell ref="D494:D498"/>
-    <mergeCell ref="B500:C500"/>
-    <mergeCell ref="D519:D523"/>
-    <mergeCell ref="B525:C525"/>
-    <mergeCell ref="D547:D551"/>
-    <mergeCell ref="B553:C553"/>
-    <mergeCell ref="D580:D584"/>
-    <mergeCell ref="B586:C586"/>
-    <mergeCell ref="D608:D612"/>
-    <mergeCell ref="B614:C614"/>
-    <mergeCell ref="B637:C637"/>
-    <mergeCell ref="B660:C660"/>
-    <mergeCell ref="B683:C683"/>
-    <mergeCell ref="B711:C711"/>
-    <mergeCell ref="D839:D844"/>
-    <mergeCell ref="B845:C845"/>
-    <mergeCell ref="B876:C876"/>
-    <mergeCell ref="B907:C907"/>
-    <mergeCell ref="D729:D733"/>
-    <mergeCell ref="B735:C735"/>
-    <mergeCell ref="D756:D760"/>
-    <mergeCell ref="B762:C762"/>
-    <mergeCell ref="B789:C789"/>
     <mergeCell ref="D1120:D1124"/>
     <mergeCell ref="B1126:C1126"/>
     <mergeCell ref="B1155:C1155"/>
@@ -23269,6 +23214,61 @@
     <mergeCell ref="B1005:C1005"/>
     <mergeCell ref="B1024:C1024"/>
     <mergeCell ref="B816:C816"/>
+    <mergeCell ref="D839:D844"/>
+    <mergeCell ref="B845:C845"/>
+    <mergeCell ref="B876:C876"/>
+    <mergeCell ref="B907:C907"/>
+    <mergeCell ref="D729:D733"/>
+    <mergeCell ref="B735:C735"/>
+    <mergeCell ref="D756:D760"/>
+    <mergeCell ref="B762:C762"/>
+    <mergeCell ref="B789:C789"/>
+    <mergeCell ref="B614:C614"/>
+    <mergeCell ref="B637:C637"/>
+    <mergeCell ref="B660:C660"/>
+    <mergeCell ref="B683:C683"/>
+    <mergeCell ref="B711:C711"/>
+    <mergeCell ref="D547:D551"/>
+    <mergeCell ref="B553:C553"/>
+    <mergeCell ref="D580:D584"/>
+    <mergeCell ref="B586:C586"/>
+    <mergeCell ref="D608:D612"/>
+    <mergeCell ref="B475:C475"/>
+    <mergeCell ref="D494:D498"/>
+    <mergeCell ref="B500:C500"/>
+    <mergeCell ref="D519:D523"/>
+    <mergeCell ref="B525:C525"/>
+    <mergeCell ref="B389:C389"/>
+    <mergeCell ref="D418:D422"/>
+    <mergeCell ref="B424:C424"/>
+    <mergeCell ref="B451:C451"/>
+    <mergeCell ref="D469:D473"/>
+    <mergeCell ref="D304:D308"/>
+    <mergeCell ref="B310:C310"/>
+    <mergeCell ref="D327:D331"/>
+    <mergeCell ref="B333:C333"/>
+    <mergeCell ref="D383:D387"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="D242:D246"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="D278:D282"/>
+    <mergeCell ref="B284:C284"/>
+    <mergeCell ref="D158:D162"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="D179:D184"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="D201:D206"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="D99:D103"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="D128:D132"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D41:D46"/>
+    <mergeCell ref="D71:D75"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23614,7 +23614,7 @@
       <c r="B20" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="639"/>
+      <c r="C20" s="638"/>
       <c r="D20" s="363"/>
       <c r="E20" s="363"/>
       <c r="F20" s="363"/>
@@ -23789,7 +23789,7 @@
         <v>29</v>
       </c>
       <c r="C36" s="375"/>
-      <c r="D36" s="645"/>
+      <c r="D36" s="650"/>
       <c r="E36" s="26"/>
       <c r="K36" s="10"/>
     </row>
@@ -23799,7 +23799,7 @@
         <v>45</v>
       </c>
       <c r="C37" s="370"/>
-      <c r="D37" s="646"/>
+      <c r="D37" s="651"/>
       <c r="E37" s="26"/>
       <c r="K37" s="10"/>
     </row>
@@ -23809,7 +23809,7 @@
         <v>30</v>
       </c>
       <c r="C38" s="370"/>
-      <c r="D38" s="646"/>
+      <c r="D38" s="651"/>
       <c r="E38" s="28"/>
       <c r="K38" s="10"/>
     </row>
@@ -23819,7 +23819,7 @@
         <v>31</v>
       </c>
       <c r="C39" s="370"/>
-      <c r="D39" s="646"/>
+      <c r="D39" s="651"/>
       <c r="E39" s="28"/>
       <c r="K39" s="10"/>
     </row>
@@ -23829,7 +23829,7 @@
         <v>32</v>
       </c>
       <c r="C40" s="370"/>
-      <c r="D40" s="646"/>
+      <c r="D40" s="651"/>
       <c r="E40" s="28"/>
       <c r="K40" s="10"/>
     </row>
@@ -23839,7 +23839,7 @@
         <v>876</v>
       </c>
       <c r="C41" s="370"/>
-      <c r="D41" s="646"/>
+      <c r="D41" s="651"/>
       <c r="E41" s="28"/>
       <c r="K41" s="10"/>
     </row>
@@ -23848,7 +23848,7 @@
       <c r="B42" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="639"/>
+      <c r="C42" s="638"/>
       <c r="D42" s="501"/>
       <c r="E42" s="28"/>
       <c r="K42" s="10"/>
@@ -24276,10 +24276,10 @@
       <c r="D75" s="518" t="s">
         <v>58</v>
       </c>
-      <c r="E75" s="649" t="s">
+      <c r="E75" s="646" t="s">
         <v>59</v>
       </c>
-      <c r="F75" s="650"/>
+      <c r="F75" s="647"/>
       <c r="G75" s="520"/>
       <c r="H75" s="488"/>
       <c r="K75" s="10"/>
@@ -24376,7 +24376,7 @@
         <v>65</v>
       </c>
       <c r="C81" s="370"/>
-      <c r="D81" s="645"/>
+      <c r="D81" s="650"/>
       <c r="E81" s="525">
         <v>1</v>
       </c>
@@ -24393,7 +24393,7 @@
         <v>30</v>
       </c>
       <c r="C82" s="370"/>
-      <c r="D82" s="646"/>
+      <c r="D82" s="651"/>
       <c r="E82" s="526" t="s">
         <v>66</v>
       </c>
@@ -24408,7 +24408,7 @@
         <v>31</v>
       </c>
       <c r="C83" s="370"/>
-      <c r="D83" s="646"/>
+      <c r="D83" s="651"/>
       <c r="E83" s="527" t="s">
         <v>67</v>
       </c>
@@ -24423,7 +24423,7 @@
         <v>68</v>
       </c>
       <c r="C84" s="499"/>
-      <c r="D84" s="646"/>
+      <c r="D84" s="651"/>
       <c r="E84" s="363"/>
       <c r="F84" s="363"/>
       <c r="G84" s="363"/>
@@ -24435,7 +24435,7 @@
       <c r="B85" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C85" s="639"/>
+      <c r="C85" s="638"/>
       <c r="D85" s="363"/>
       <c r="E85" s="363"/>
       <c r="F85" s="363"/>
@@ -24542,8 +24542,8 @@
       <c r="D94" s="373"/>
       <c r="E94" s="363"/>
       <c r="F94" s="363"/>
-      <c r="G94" s="642"/>
-      <c r="H94" s="643"/>
+      <c r="G94" s="640"/>
+      <c r="H94" s="641"/>
       <c r="K94" s="10"/>
     </row>
     <row r="95" spans="1:11" ht="14.35">
@@ -24567,10 +24567,10 @@
       <c r="C96" s="399" t="s">
         <v>57</v>
       </c>
-      <c r="D96" s="651" t="s">
+      <c r="D96" s="648" t="s">
         <v>59</v>
       </c>
-      <c r="E96" s="650"/>
+      <c r="E96" s="647"/>
       <c r="F96" s="363"/>
       <c r="G96" s="410"/>
       <c r="H96" s="409"/>
@@ -24716,10 +24716,10 @@
     </row>
     <row r="106" spans="1:11" ht="14.35">
       <c r="A106" s="363"/>
-      <c r="B106" s="653" t="s">
+      <c r="B106" s="652" t="s">
         <v>34</v>
       </c>
-      <c r="C106" s="654"/>
+      <c r="C106" s="653"/>
       <c r="E106" s="363"/>
       <c r="F106" s="363"/>
       <c r="G106" s="363"/>
@@ -24838,7 +24838,7 @@
       </c>
       <c r="C116" s="401"/>
       <c r="D116" s="365"/>
-      <c r="E116" s="652" t="s">
+      <c r="E116" s="649" t="s">
         <v>59</v>
       </c>
       <c r="F116" s="633"/>
@@ -25005,7 +25005,7 @@
       <c r="B127" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C127" s="638"/>
+      <c r="C127" s="642"/>
       <c r="D127" s="363"/>
       <c r="E127" s="363"/>
       <c r="F127" s="363"/>
@@ -25283,7 +25283,7 @@
       <c r="B153" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C153" s="638"/>
+      <c r="C153" s="642"/>
       <c r="D153" s="363"/>
       <c r="E153" s="363"/>
       <c r="H153" s="10"/>
@@ -25483,7 +25483,7 @@
       <c r="B171" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C171" s="639"/>
+      <c r="C171" s="638"/>
       <c r="D171" s="363"/>
       <c r="E171" s="363"/>
       <c r="F171" s="363"/>
@@ -25716,7 +25716,7 @@
       <c r="B189" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C189" s="639"/>
+      <c r="C189" s="638"/>
       <c r="D189" s="363"/>
       <c r="E189" s="363"/>
       <c r="F189" s="363"/>
@@ -25942,7 +25942,7 @@
       <c r="B207" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C207" s="638"/>
+      <c r="C207" s="642"/>
       <c r="D207" s="363"/>
       <c r="E207" s="363"/>
       <c r="F207" s="363"/>
@@ -26127,7 +26127,7 @@
       <c r="B223" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C223" s="638"/>
+      <c r="C223" s="642"/>
       <c r="D223" s="363"/>
       <c r="F223" s="2"/>
       <c r="G223" s="2"/>
@@ -26492,7 +26492,7 @@
         <v>143</v>
       </c>
       <c r="C249" s="370"/>
-      <c r="D249" s="656"/>
+      <c r="D249" s="654"/>
       <c r="E249" s="363"/>
       <c r="F249" s="363"/>
       <c r="G249" s="363"/>
@@ -26505,7 +26505,7 @@
         <v>144</v>
       </c>
       <c r="C250" s="370"/>
-      <c r="D250" s="657"/>
+      <c r="D250" s="655"/>
       <c r="E250" s="363"/>
       <c r="F250" s="363"/>
       <c r="G250" s="363"/>
@@ -26518,7 +26518,7 @@
         <v>30</v>
       </c>
       <c r="C251" s="370"/>
-      <c r="D251" s="657"/>
+      <c r="D251" s="655"/>
       <c r="E251" s="363"/>
       <c r="F251" s="363"/>
       <c r="G251" s="363"/>
@@ -26531,7 +26531,7 @@
         <v>31</v>
       </c>
       <c r="C252" s="370"/>
-      <c r="D252" s="657"/>
+      <c r="D252" s="655"/>
       <c r="E252" s="363"/>
       <c r="F252" s="363"/>
       <c r="G252" s="363"/>
@@ -26544,7 +26544,7 @@
         <v>145</v>
       </c>
       <c r="C253" s="370"/>
-      <c r="D253" s="657"/>
+      <c r="D253" s="655"/>
       <c r="E253" s="363"/>
       <c r="F253" s="363"/>
       <c r="G253" s="363"/>
@@ -26569,7 +26569,7 @@
       <c r="B255" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C255" s="639"/>
+      <c r="C255" s="638"/>
       <c r="D255" s="363"/>
       <c r="E255" s="363"/>
       <c r="F255" s="363"/>
@@ -26995,7 +26995,7 @@
         <v>143</v>
       </c>
       <c r="C285" s="370"/>
-      <c r="D285" s="645"/>
+      <c r="D285" s="650"/>
       <c r="E285" s="563"/>
       <c r="F285" s="562"/>
       <c r="G285" s="363"/>
@@ -27008,7 +27008,7 @@
         <v>144</v>
       </c>
       <c r="C286" s="370"/>
-      <c r="D286" s="646"/>
+      <c r="D286" s="651"/>
       <c r="E286" s="563"/>
       <c r="F286" s="562"/>
       <c r="G286" s="363"/>
@@ -27021,7 +27021,7 @@
         <v>30</v>
       </c>
       <c r="C287" s="370"/>
-      <c r="D287" s="646"/>
+      <c r="D287" s="651"/>
       <c r="E287" s="563"/>
       <c r="F287" s="562"/>
       <c r="G287" s="363"/>
@@ -27034,7 +27034,7 @@
         <v>31</v>
       </c>
       <c r="C288" s="370"/>
-      <c r="D288" s="646"/>
+      <c r="D288" s="651"/>
       <c r="E288" s="563"/>
       <c r="F288" s="562"/>
       <c r="G288" s="363"/>
@@ -27047,7 +27047,7 @@
         <v>145</v>
       </c>
       <c r="C289" s="370"/>
-      <c r="D289" s="646"/>
+      <c r="D289" s="651"/>
       <c r="E289" s="563"/>
       <c r="F289" s="562"/>
       <c r="G289" s="363"/>
@@ -27072,7 +27072,7 @@
       <c r="B291" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C291" s="639"/>
+      <c r="C291" s="638"/>
       <c r="D291" s="501"/>
       <c r="E291" s="363"/>
       <c r="F291" s="363"/>
@@ -27253,7 +27253,7 @@
         <v>143</v>
       </c>
       <c r="C305" s="370"/>
-      <c r="D305" s="645"/>
+      <c r="D305" s="650"/>
       <c r="F305" s="363"/>
       <c r="G305" s="363"/>
       <c r="H305" s="488"/>
@@ -27265,7 +27265,7 @@
         <v>144</v>
       </c>
       <c r="C306" s="370"/>
-      <c r="D306" s="646"/>
+      <c r="D306" s="651"/>
       <c r="F306" s="363"/>
       <c r="G306" s="363"/>
       <c r="H306" s="488"/>
@@ -27277,7 +27277,7 @@
         <v>30</v>
       </c>
       <c r="C307" s="370"/>
-      <c r="D307" s="646"/>
+      <c r="D307" s="651"/>
       <c r="F307" s="363"/>
       <c r="G307" s="363"/>
       <c r="H307" s="488"/>
@@ -27289,7 +27289,7 @@
         <v>31</v>
       </c>
       <c r="C308" s="370"/>
-      <c r="D308" s="646"/>
+      <c r="D308" s="651"/>
       <c r="F308" s="363"/>
       <c r="G308" s="363"/>
       <c r="H308" s="488"/>
@@ -27301,7 +27301,7 @@
         <v>145</v>
       </c>
       <c r="C309" s="370"/>
-      <c r="D309" s="646"/>
+      <c r="D309" s="651"/>
       <c r="F309" s="363"/>
       <c r="G309" s="363"/>
       <c r="H309" s="488"/>
@@ -27324,7 +27324,7 @@
       <c r="B311" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C311" s="639"/>
+      <c r="C311" s="638"/>
       <c r="D311" s="501"/>
       <c r="F311" s="363"/>
       <c r="G311" s="363"/>
@@ -27587,10 +27587,10 @@
     </row>
     <row r="333" spans="1:11" ht="14.35">
       <c r="A333" s="2"/>
-      <c r="B333" s="647" t="s">
+      <c r="B333" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C333" s="648"/>
+      <c r="C333" s="657"/>
       <c r="D333" s="2"/>
       <c r="F333" s="363"/>
       <c r="G333" s="2"/>
@@ -27799,7 +27799,7 @@
       <c r="B351" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C351" s="638"/>
+      <c r="C351" s="642"/>
       <c r="F351" s="2"/>
       <c r="G351" s="2"/>
       <c r="H351" s="8"/>
@@ -28339,10 +28339,10 @@
     </row>
     <row r="388" spans="1:11" ht="14.7">
       <c r="A388" s="2"/>
-      <c r="B388" s="655" t="s">
+      <c r="B388" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C388" s="641"/>
+      <c r="C388" s="644"/>
       <c r="D388" s="97"/>
       <c r="F388" s="2"/>
       <c r="G388" s="2"/>
@@ -28914,10 +28914,10 @@
     </row>
     <row r="425" spans="1:11" ht="14.7">
       <c r="A425" s="2"/>
-      <c r="B425" s="655" t="s">
+      <c r="B425" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C425" s="641"/>
+      <c r="C425" s="644"/>
       <c r="D425" s="97"/>
       <c r="E425" s="97"/>
       <c r="F425" s="2"/>
@@ -29469,10 +29469,10 @@
     </row>
     <row r="461" spans="1:11" ht="14.7">
       <c r="A461" s="2"/>
-      <c r="B461" s="655" t="s">
+      <c r="B461" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C461" s="641"/>
+      <c r="C461" s="644"/>
       <c r="D461" s="97"/>
       <c r="E461" s="97"/>
       <c r="F461" s="97"/>
@@ -30020,10 +30020,10 @@
     </row>
     <row r="497" spans="1:11" ht="14.7">
       <c r="A497" s="2"/>
-      <c r="B497" s="655" t="s">
+      <c r="B497" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C497" s="641"/>
+      <c r="C497" s="644"/>
       <c r="D497" s="97"/>
       <c r="E497" s="97"/>
       <c r="F497" s="97"/>
@@ -30915,10 +30915,10 @@
     </row>
     <row r="552" spans="1:11" ht="14.7">
       <c r="A552" s="2"/>
-      <c r="B552" s="655" t="s">
+      <c r="B552" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C552" s="641"/>
+      <c r="C552" s="644"/>
       <c r="D552" s="97"/>
       <c r="E552" s="97"/>
       <c r="F552" s="97"/>
@@ -31345,7 +31345,7 @@
       <c r="B590" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C590" s="638"/>
+      <c r="C590" s="642"/>
       <c r="D590" s="363"/>
       <c r="E590" s="363"/>
       <c r="F590" s="363"/>
@@ -31560,7 +31560,7 @@
       <c r="B607" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C607" s="638"/>
+      <c r="C607" s="642"/>
       <c r="D607" s="363"/>
       <c r="E607" s="363"/>
       <c r="F607" s="363"/>
@@ -31756,7 +31756,7 @@
       <c r="B623" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C623" s="639"/>
+      <c r="C623" s="638"/>
       <c r="D623" s="590"/>
       <c r="E623" s="363"/>
       <c r="F623" s="363"/>
@@ -31971,7 +31971,7 @@
       <c r="B640" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C640" s="638"/>
+      <c r="C640" s="642"/>
       <c r="D640" s="363"/>
       <c r="E640" s="363"/>
       <c r="F640" s="363"/>
@@ -32154,7 +32154,7 @@
       <c r="B655" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C655" s="639"/>
+      <c r="C655" s="638"/>
       <c r="D655" s="363"/>
       <c r="E655" s="363"/>
       <c r="F655" s="363"/>
@@ -32360,10 +32360,10 @@
     </row>
     <row r="672" spans="1:11" ht="14.35">
       <c r="A672" s="363"/>
-      <c r="B672" s="640" t="s">
+      <c r="B672" s="643" t="s">
         <v>34</v>
       </c>
-      <c r="C672" s="641"/>
+      <c r="C672" s="644"/>
       <c r="D672" s="363"/>
       <c r="E672" s="363"/>
       <c r="F672" s="363"/>
@@ -32551,10 +32551,10 @@
     </row>
     <row r="687" spans="1:11" ht="14.35">
       <c r="A687" s="363"/>
-      <c r="B687" s="640" t="s">
+      <c r="B687" s="643" t="s">
         <v>34</v>
       </c>
-      <c r="C687" s="641"/>
+      <c r="C687" s="644"/>
       <c r="D687" s="363"/>
       <c r="E687" s="363"/>
       <c r="F687" s="363"/>
@@ -32831,7 +32831,7 @@
       <c r="B710" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C710" s="638"/>
+      <c r="C710" s="642"/>
       <c r="D710" s="363"/>
       <c r="E710" s="363"/>
       <c r="F710" s="363"/>
@@ -33033,7 +33033,7 @@
       <c r="B726" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C726" s="638"/>
+      <c r="C726" s="642"/>
       <c r="D726" s="363"/>
       <c r="E726" s="363"/>
       <c r="F726" s="363"/>
@@ -33264,7 +33264,7 @@
       <c r="B745" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C745" s="638"/>
+      <c r="C745" s="642"/>
       <c r="D745" s="363"/>
       <c r="E745" s="363"/>
       <c r="F745" s="363"/>
@@ -33553,7 +33553,7 @@
       <c r="B768" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C768" s="639"/>
+      <c r="C768" s="638"/>
       <c r="D768" s="363"/>
       <c r="E768" s="363"/>
       <c r="F768" s="363"/>
@@ -33835,7 +33835,7 @@
       <c r="B790" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C790" s="639"/>
+      <c r="C790" s="638"/>
       <c r="D790" s="363"/>
       <c r="E790" s="363"/>
       <c r="F790" s="363"/>
@@ -34146,7 +34146,7 @@
       <c r="B815" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C815" s="639"/>
+      <c r="C815" s="638"/>
       <c r="D815" s="605"/>
       <c r="E815" s="363"/>
       <c r="F815" s="363"/>
@@ -34454,7 +34454,7 @@
       <c r="B840" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C840" s="639"/>
+      <c r="C840" s="638"/>
       <c r="D840" s="363"/>
       <c r="E840" s="363"/>
       <c r="F840" s="363"/>
@@ -34763,7 +34763,7 @@
       <c r="B866" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C866" s="639"/>
+      <c r="C866" s="638"/>
       <c r="D866" s="363"/>
       <c r="E866" s="363"/>
       <c r="F866" s="363"/>
@@ -34996,7 +34996,7 @@
       <c r="B886" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C886" s="639"/>
+      <c r="C886" s="638"/>
       <c r="D886" s="363"/>
       <c r="E886" s="363"/>
       <c r="F886" s="363"/>
@@ -35276,7 +35276,7 @@
       <c r="B908" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C908" s="639"/>
+      <c r="C908" s="638"/>
       <c r="D908" s="363"/>
       <c r="E908" s="363"/>
       <c r="F908" s="363"/>
@@ -35523,7 +35523,7 @@
       <c r="B927" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C927" s="639"/>
+      <c r="C927" s="638"/>
       <c r="D927" s="363"/>
       <c r="E927" s="363"/>
       <c r="F927" s="363"/>
@@ -35766,7 +35766,7 @@
       <c r="B946" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C946" s="639"/>
+      <c r="C946" s="638"/>
       <c r="D946" s="363"/>
       <c r="E946" s="363"/>
       <c r="F946" s="363"/>
@@ -35910,7 +35910,7 @@
       <c r="B960" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C960" s="639"/>
+      <c r="C960" s="638"/>
       <c r="F960" s="363"/>
       <c r="G960" s="363"/>
       <c r="H960" s="488"/>
@@ -36160,7 +36160,7 @@
       <c r="B980" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C980" s="638"/>
+      <c r="C980" s="642"/>
       <c r="D980" s="363"/>
       <c r="E980" s="363"/>
       <c r="F980" s="363"/>
@@ -36365,7 +36365,7 @@
       <c r="B997" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C997" s="639"/>
+      <c r="C997" s="638"/>
       <c r="D997" s="363"/>
       <c r="E997" s="363"/>
       <c r="F997" s="363"/>
@@ -36611,7 +36611,7 @@
       <c r="B1017" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1017" s="638"/>
+      <c r="C1017" s="642"/>
       <c r="D1017" s="363"/>
       <c r="E1017" s="363"/>
       <c r="F1017" s="363"/>
@@ -36875,7 +36875,7 @@
       <c r="B1039" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1039" s="638"/>
+      <c r="C1039" s="642"/>
       <c r="D1039" s="363"/>
       <c r="E1039" s="363"/>
       <c r="F1039" s="363"/>
@@ -37174,7 +37174,7 @@
       <c r="B1062" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1062" s="638"/>
+      <c r="C1062" s="642"/>
       <c r="D1062" s="363"/>
       <c r="E1062" s="363"/>
       <c r="F1062" s="363"/>
@@ -37198,21 +37198,30 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="B590:C590"/>
-    <mergeCell ref="B710:C710"/>
-    <mergeCell ref="B726:C726"/>
-    <mergeCell ref="B745:C745"/>
-    <mergeCell ref="B768:C768"/>
-    <mergeCell ref="B790:C790"/>
-    <mergeCell ref="B815:C815"/>
-    <mergeCell ref="B840:C840"/>
-    <mergeCell ref="B866:C866"/>
-    <mergeCell ref="B886:C886"/>
-    <mergeCell ref="B908:C908"/>
-    <mergeCell ref="B927:C927"/>
-    <mergeCell ref="B946:C946"/>
-    <mergeCell ref="B960:C960"/>
-    <mergeCell ref="B980:C980"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="B333:C333"/>
+    <mergeCell ref="B351:C351"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B311:C311"/>
+    <mergeCell ref="D36:D41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="D305:D309"/>
+    <mergeCell ref="B223:C223"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="D249:D253"/>
+    <mergeCell ref="B255:C255"/>
+    <mergeCell ref="D285:D289"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="B207:C207"/>
     <mergeCell ref="B997:C997"/>
     <mergeCell ref="B1017:C1017"/>
     <mergeCell ref="B1039:C1039"/>
@@ -37229,30 +37238,21 @@
     <mergeCell ref="B655:C655"/>
     <mergeCell ref="B672:C672"/>
     <mergeCell ref="B687:C687"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="D305:D309"/>
-    <mergeCell ref="B223:C223"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="D249:D253"/>
-    <mergeCell ref="B255:C255"/>
-    <mergeCell ref="D285:D289"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="B189:C189"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="B333:C333"/>
-    <mergeCell ref="B351:C351"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B311:C311"/>
-    <mergeCell ref="D36:D41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B908:C908"/>
+    <mergeCell ref="B927:C927"/>
+    <mergeCell ref="B946:C946"/>
+    <mergeCell ref="B960:C960"/>
+    <mergeCell ref="B980:C980"/>
+    <mergeCell ref="B790:C790"/>
+    <mergeCell ref="B815:C815"/>
+    <mergeCell ref="B840:C840"/>
+    <mergeCell ref="B866:C866"/>
+    <mergeCell ref="B886:C886"/>
+    <mergeCell ref="B590:C590"/>
+    <mergeCell ref="B710:C710"/>
+    <mergeCell ref="B726:C726"/>
+    <mergeCell ref="B745:C745"/>
+    <mergeCell ref="B768:C768"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37594,7 +37594,7 @@
     </row>
     <row r="20" spans="1:11" ht="14.35">
       <c r="A20" s="2"/>
-      <c r="B20" s="647" t="s">
+      <c r="B20" s="656" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="659"/>
@@ -37770,7 +37770,7 @@
         <v>29</v>
       </c>
       <c r="C36" s="14"/>
-      <c r="D36" s="661"/>
+      <c r="D36" s="660"/>
       <c r="E36" s="26"/>
       <c r="K36" s="10"/>
     </row>
@@ -37780,7 +37780,7 @@
         <v>45</v>
       </c>
       <c r="C37" s="11"/>
-      <c r="D37" s="662"/>
+      <c r="D37" s="661"/>
       <c r="E37" s="26"/>
       <c r="K37" s="10"/>
     </row>
@@ -37790,7 +37790,7 @@
         <v>30</v>
       </c>
       <c r="C38" s="11"/>
-      <c r="D38" s="662"/>
+      <c r="D38" s="661"/>
       <c r="E38" s="28"/>
       <c r="K38" s="10"/>
     </row>
@@ -37800,7 +37800,7 @@
         <v>31</v>
       </c>
       <c r="C39" s="11"/>
-      <c r="D39" s="662"/>
+      <c r="D39" s="661"/>
       <c r="E39" s="28"/>
       <c r="K39" s="10"/>
     </row>
@@ -37810,7 +37810,7 @@
         <v>32</v>
       </c>
       <c r="C40" s="11"/>
-      <c r="D40" s="662"/>
+      <c r="D40" s="661"/>
       <c r="E40" s="28"/>
       <c r="K40" s="10"/>
     </row>
@@ -37820,13 +37820,13 @@
         <v>876</v>
       </c>
       <c r="C41" s="11"/>
-      <c r="D41" s="662"/>
+      <c r="D41" s="661"/>
       <c r="E41" s="28"/>
       <c r="K41" s="10"/>
     </row>
     <row r="42" spans="1:11" ht="14.35">
       <c r="A42" s="2"/>
-      <c r="B42" s="647" t="s">
+      <c r="B42" s="656" t="s">
         <v>34</v>
       </c>
       <c r="C42" s="659"/>
@@ -38068,7 +38068,7 @@
     </row>
     <row r="61" spans="1:11" ht="14.35">
       <c r="A61" s="2"/>
-      <c r="B61" s="647" t="s">
+      <c r="B61" s="656" t="s">
         <v>34</v>
       </c>
       <c r="C61" s="659"/>
@@ -38255,10 +38255,10 @@
       <c r="D75" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="E75" s="671" t="s">
+      <c r="E75" s="662" t="s">
         <v>59</v>
       </c>
-      <c r="F75" s="650"/>
+      <c r="F75" s="647"/>
       <c r="G75" s="44"/>
       <c r="H75" s="8"/>
       <c r="K75" s="10"/>
@@ -38356,7 +38356,7 @@
         <v>65</v>
       </c>
       <c r="C81" s="11"/>
-      <c r="D81" s="661"/>
+      <c r="D81" s="660"/>
       <c r="E81" s="49">
         <v>1</v>
       </c>
@@ -38373,7 +38373,7 @@
         <v>30</v>
       </c>
       <c r="C82" s="11"/>
-      <c r="D82" s="662"/>
+      <c r="D82" s="661"/>
       <c r="E82" s="29" t="s">
         <v>66</v>
       </c>
@@ -38388,7 +38388,7 @@
         <v>31</v>
       </c>
       <c r="C83" s="11"/>
-      <c r="D83" s="662"/>
+      <c r="D83" s="661"/>
       <c r="E83" s="29" t="s">
         <v>67</v>
       </c>
@@ -38403,7 +38403,7 @@
         <v>68</v>
       </c>
       <c r="C84" s="24"/>
-      <c r="D84" s="662"/>
+      <c r="D84" s="661"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
@@ -38412,7 +38412,7 @@
     </row>
     <row r="85" spans="1:11" ht="14.35">
       <c r="A85" s="2"/>
-      <c r="B85" s="647" t="s">
+      <c r="B85" s="656" t="s">
         <v>34</v>
       </c>
       <c r="C85" s="659"/>
@@ -38520,8 +38520,8 @@
       <c r="D94" s="37"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
-      <c r="G94" s="666"/>
-      <c r="H94" s="667"/>
+      <c r="G94" s="663"/>
+      <c r="H94" s="664"/>
       <c r="K94" s="10"/>
     </row>
     <row r="95" spans="1:11" ht="14.35">
@@ -38545,10 +38545,10 @@
       <c r="C96" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="D96" s="668" t="s">
+      <c r="D96" s="665" t="s">
         <v>59</v>
       </c>
-      <c r="E96" s="650"/>
+      <c r="E96" s="647"/>
       <c r="F96" s="2"/>
       <c r="G96" s="54"/>
       <c r="H96" s="12"/>
@@ -38694,10 +38694,10 @@
     </row>
     <row r="106" spans="1:11" ht="14.35">
       <c r="A106" s="2"/>
-      <c r="B106" s="669" t="s">
+      <c r="B106" s="666" t="s">
         <v>34</v>
       </c>
-      <c r="C106" s="670"/>
+      <c r="C106" s="667"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
@@ -38816,7 +38816,7 @@
         <v>80</v>
       </c>
       <c r="D116" s="23"/>
-      <c r="E116" s="665" t="s">
+      <c r="E116" s="668" t="s">
         <v>59</v>
       </c>
       <c r="F116" s="633"/>
@@ -39023,10 +39023,10 @@
     </row>
     <row r="130" spans="1:11" ht="14.35">
       <c r="A130" s="2"/>
-      <c r="B130" s="647" t="s">
+      <c r="B130" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C130" s="648"/>
+      <c r="C130" s="657"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
@@ -39313,10 +39313,10 @@
     </row>
     <row r="156" spans="1:11" ht="14.35">
       <c r="A156" s="2"/>
-      <c r="B156" s="647" t="s">
+      <c r="B156" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C156" s="648"/>
+      <c r="C156" s="657"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
       <c r="H156" s="10"/>
@@ -39511,7 +39511,7 @@
     </row>
     <row r="174" spans="1:11" ht="14.35">
       <c r="A174" s="2"/>
-      <c r="B174" s="647" t="s">
+      <c r="B174" s="656" t="s">
         <v>34</v>
       </c>
       <c r="C174" s="659"/>
@@ -39742,7 +39742,7 @@
     </row>
     <row r="192" spans="1:11" ht="14.35">
       <c r="A192" s="2"/>
-      <c r="B192" s="647" t="s">
+      <c r="B192" s="656" t="s">
         <v>34</v>
       </c>
       <c r="C192" s="659"/>
@@ -40073,10 +40073,10 @@
     </row>
     <row r="217" spans="1:11" ht="14.35">
       <c r="A217" s="2"/>
-      <c r="B217" s="647" t="s">
+      <c r="B217" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C217" s="648"/>
+      <c r="C217" s="657"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
@@ -40382,10 +40382,10 @@
     </row>
     <row r="242" spans="1:11" ht="14.35">
       <c r="A242" s="2"/>
-      <c r="B242" s="647" t="s">
+      <c r="B242" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C242" s="648"/>
+      <c r="C242" s="657"/>
       <c r="D242" s="2"/>
       <c r="F242" s="2"/>
       <c r="G242" s="2"/>
@@ -40748,7 +40748,7 @@
         <v>143</v>
       </c>
       <c r="C268" s="11"/>
-      <c r="D268" s="663"/>
+      <c r="D268" s="669"/>
       <c r="E268" s="2"/>
       <c r="F268" s="2"/>
       <c r="G268" s="2"/>
@@ -40761,7 +40761,7 @@
         <v>144</v>
       </c>
       <c r="C269" s="11"/>
-      <c r="D269" s="664"/>
+      <c r="D269" s="670"/>
       <c r="E269" s="2"/>
       <c r="F269" s="2"/>
       <c r="G269" s="2"/>
@@ -40774,7 +40774,7 @@
         <v>30</v>
       </c>
       <c r="C270" s="11"/>
-      <c r="D270" s="664"/>
+      <c r="D270" s="670"/>
       <c r="E270" s="2"/>
       <c r="F270" s="2"/>
       <c r="G270" s="2"/>
@@ -40787,7 +40787,7 @@
         <v>31</v>
       </c>
       <c r="C271" s="11"/>
-      <c r="D271" s="664"/>
+      <c r="D271" s="670"/>
       <c r="E271" s="2"/>
       <c r="F271" s="2"/>
       <c r="G271" s="2"/>
@@ -40800,7 +40800,7 @@
         <v>145</v>
       </c>
       <c r="C272" s="11"/>
-      <c r="D272" s="664"/>
+      <c r="D272" s="670"/>
       <c r="E272" s="2"/>
       <c r="F272" s="2"/>
       <c r="G272" s="2"/>
@@ -40822,7 +40822,7 @@
     </row>
     <row r="274" spans="1:11" ht="14.35">
       <c r="A274" s="2"/>
-      <c r="B274" s="647" t="s">
+      <c r="B274" s="656" t="s">
         <v>34</v>
       </c>
       <c r="C274" s="659"/>
@@ -41249,7 +41249,7 @@
         <v>143</v>
       </c>
       <c r="C304" s="11"/>
-      <c r="D304" s="661"/>
+      <c r="D304" s="660"/>
       <c r="E304" s="84"/>
       <c r="F304" s="85"/>
       <c r="G304" s="2"/>
@@ -41262,7 +41262,7 @@
         <v>144</v>
       </c>
       <c r="C305" s="11"/>
-      <c r="D305" s="662"/>
+      <c r="D305" s="661"/>
       <c r="E305" s="84"/>
       <c r="F305" s="85"/>
       <c r="G305" s="2"/>
@@ -41275,7 +41275,7 @@
         <v>30</v>
       </c>
       <c r="C306" s="11"/>
-      <c r="D306" s="662"/>
+      <c r="D306" s="661"/>
       <c r="E306" s="84"/>
       <c r="F306" s="85"/>
       <c r="G306" s="2"/>
@@ -41288,7 +41288,7 @@
         <v>31</v>
       </c>
       <c r="C307" s="11"/>
-      <c r="D307" s="662"/>
+      <c r="D307" s="661"/>
       <c r="E307" s="84"/>
       <c r="F307" s="85"/>
       <c r="G307" s="2"/>
@@ -41301,7 +41301,7 @@
         <v>145</v>
       </c>
       <c r="C308" s="11"/>
-      <c r="D308" s="662"/>
+      <c r="D308" s="661"/>
       <c r="E308" s="84"/>
       <c r="F308" s="85"/>
       <c r="G308" s="2"/>
@@ -41323,7 +41323,7 @@
     </row>
     <row r="310" spans="1:11" ht="14.35">
       <c r="A310" s="2"/>
-      <c r="B310" s="647" t="s">
+      <c r="B310" s="656" t="s">
         <v>34</v>
       </c>
       <c r="C310" s="659"/>
@@ -41497,7 +41497,7 @@
         <v>64</v>
       </c>
       <c r="C324" s="11"/>
-      <c r="D324" s="661"/>
+      <c r="D324" s="660"/>
       <c r="F324" s="2"/>
       <c r="G324" s="2"/>
       <c r="H324" s="8"/>
@@ -41509,7 +41509,7 @@
         <v>65</v>
       </c>
       <c r="C325" s="11"/>
-      <c r="D325" s="662"/>
+      <c r="D325" s="661"/>
       <c r="F325" s="2"/>
       <c r="G325" s="2"/>
       <c r="H325" s="8"/>
@@ -41521,7 +41521,7 @@
         <v>30</v>
       </c>
       <c r="C326" s="11"/>
-      <c r="D326" s="662"/>
+      <c r="D326" s="661"/>
       <c r="F326" s="2"/>
       <c r="G326" s="2"/>
       <c r="H326" s="8"/>
@@ -41533,7 +41533,7 @@
         <v>31</v>
       </c>
       <c r="C327" s="11"/>
-      <c r="D327" s="662"/>
+      <c r="D327" s="661"/>
       <c r="F327" s="2"/>
       <c r="G327" s="2"/>
       <c r="H327" s="8"/>
@@ -41545,7 +41545,7 @@
         <v>68</v>
       </c>
       <c r="C328" s="11"/>
-      <c r="D328" s="662"/>
+      <c r="D328" s="661"/>
       <c r="F328" s="2"/>
       <c r="G328" s="2"/>
       <c r="H328" s="8"/>
@@ -41565,7 +41565,7 @@
     </row>
     <row r="330" spans="1:11" ht="14.35">
       <c r="A330" s="2"/>
-      <c r="B330" s="647" t="s">
+      <c r="B330" s="656" t="s">
         <v>34</v>
       </c>
       <c r="C330" s="659"/>
@@ -41827,10 +41827,10 @@
     </row>
     <row r="352" spans="1:11" ht="14.35">
       <c r="A352" s="2"/>
-      <c r="B352" s="647" t="s">
+      <c r="B352" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C352" s="648"/>
+      <c r="C352" s="657"/>
       <c r="D352" s="2"/>
       <c r="F352" s="2"/>
       <c r="G352" s="2"/>
@@ -42034,10 +42034,10 @@
     </row>
     <row r="370" spans="1:11" ht="14.35">
       <c r="A370" s="2"/>
-      <c r="B370" s="647" t="s">
+      <c r="B370" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C370" s="648"/>
+      <c r="C370" s="657"/>
       <c r="F370" s="2"/>
       <c r="G370" s="2"/>
       <c r="H370" s="8"/>
@@ -42517,10 +42517,10 @@
     </row>
     <row r="405" spans="1:11" ht="14.7">
       <c r="A405" s="2"/>
-      <c r="B405" s="655" t="s">
+      <c r="B405" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C405" s="641"/>
+      <c r="C405" s="644"/>
       <c r="D405" s="97"/>
       <c r="F405" s="2"/>
       <c r="G405" s="2"/>
@@ -43033,10 +43033,10 @@
     </row>
     <row r="440" spans="1:11" ht="14.7">
       <c r="A440" s="2"/>
-      <c r="B440" s="655" t="s">
+      <c r="B440" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C440" s="641"/>
+      <c r="C440" s="644"/>
       <c r="D440" s="97"/>
       <c r="E440" s="97"/>
       <c r="F440" s="2"/>
@@ -43512,10 +43512,10 @@
     </row>
     <row r="473" spans="1:11" ht="14.7">
       <c r="A473" s="2"/>
-      <c r="B473" s="655" t="s">
+      <c r="B473" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C473" s="641"/>
+      <c r="C473" s="644"/>
       <c r="D473" s="97"/>
       <c r="E473" s="97"/>
       <c r="F473" s="97"/>
@@ -43987,10 +43987,10 @@
     </row>
     <row r="506" spans="1:11" ht="14.7">
       <c r="A506" s="2"/>
-      <c r="B506" s="655" t="s">
+      <c r="B506" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C506" s="641"/>
+      <c r="C506" s="644"/>
       <c r="D506" s="97"/>
       <c r="E506" s="97"/>
       <c r="F506" s="97"/>
@@ -44861,10 +44861,10 @@
     </row>
     <row r="559" spans="1:11" ht="14.7">
       <c r="A559" s="2"/>
-      <c r="B559" s="655" t="s">
+      <c r="B559" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C559" s="641"/>
+      <c r="C559" s="644"/>
       <c r="D559" s="97"/>
       <c r="E559" s="97"/>
       <c r="F559" s="97"/>
@@ -45288,10 +45288,10 @@
     </row>
     <row r="597" spans="1:11" ht="14.35">
       <c r="A597" s="2"/>
-      <c r="B597" s="647" t="s">
+      <c r="B597" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C597" s="648"/>
+      <c r="C597" s="657"/>
       <c r="D597" s="2"/>
       <c r="E597" s="2"/>
       <c r="F597" s="2"/>
@@ -45533,10 +45533,10 @@
     </row>
     <row r="616" spans="1:11" ht="14.35">
       <c r="A616" s="2"/>
-      <c r="B616" s="647" t="s">
+      <c r="B616" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C616" s="648"/>
+      <c r="C616" s="657"/>
       <c r="D616" s="2"/>
       <c r="E616" s="2"/>
       <c r="F616" s="2"/>
@@ -45774,7 +45774,7 @@
     </row>
     <row r="635" spans="1:11" ht="14.35">
       <c r="A635" s="2"/>
-      <c r="B635" s="647" t="s">
+      <c r="B635" s="656" t="s">
         <v>34</v>
       </c>
       <c r="C635" s="659"/>
@@ -46034,10 +46034,10 @@
     </row>
     <row r="655" spans="1:11" ht="14.35">
       <c r="A655" s="2"/>
-      <c r="B655" s="647" t="s">
+      <c r="B655" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C655" s="648"/>
+      <c r="C655" s="657"/>
       <c r="D655" s="2"/>
       <c r="E655" s="2"/>
       <c r="F655" s="2"/>
@@ -46262,7 +46262,7 @@
     </row>
     <row r="673" spans="1:11" ht="14.35">
       <c r="A673" s="2"/>
-      <c r="B673" s="647" t="s">
+      <c r="B673" s="656" t="s">
         <v>34</v>
       </c>
       <c r="C673" s="659"/>
@@ -46501,10 +46501,10 @@
     </row>
     <row r="692" spans="1:11" ht="14.35">
       <c r="A692" s="2"/>
-      <c r="B692" s="660" t="s">
+      <c r="B692" s="671" t="s">
         <v>34</v>
       </c>
-      <c r="C692" s="641"/>
+      <c r="C692" s="644"/>
       <c r="D692" s="2"/>
       <c r="E692" s="2"/>
       <c r="F692" s="2"/>
@@ -46737,10 +46737,10 @@
     </row>
     <row r="710" spans="1:11" ht="14.35">
       <c r="A710" s="2"/>
-      <c r="B710" s="660" t="s">
+      <c r="B710" s="671" t="s">
         <v>34</v>
       </c>
-      <c r="C710" s="641"/>
+      <c r="C710" s="644"/>
       <c r="D710" s="2"/>
       <c r="E710" s="2"/>
       <c r="F710" s="2"/>
@@ -47059,10 +47059,10 @@
     </row>
     <row r="736" spans="1:11" ht="14.35">
       <c r="A736" s="2"/>
-      <c r="B736" s="647" t="s">
+      <c r="B736" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C736" s="648"/>
+      <c r="C736" s="657"/>
       <c r="D736" s="2"/>
       <c r="E736" s="2"/>
       <c r="F736" s="2"/>
@@ -47325,10 +47325,10 @@
     </row>
     <row r="756" spans="1:11" ht="14.35">
       <c r="A756" s="2"/>
-      <c r="B756" s="647" t="s">
+      <c r="B756" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C756" s="648"/>
+      <c r="C756" s="657"/>
       <c r="D756" s="2"/>
       <c r="E756" s="2"/>
       <c r="F756" s="2"/>
@@ -47616,10 +47616,10 @@
     </row>
     <row r="779" spans="1:11" ht="14.35">
       <c r="A779" s="2"/>
-      <c r="B779" s="647" t="s">
+      <c r="B779" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C779" s="648"/>
+      <c r="C779" s="657"/>
       <c r="D779" s="2"/>
       <c r="E779" s="2"/>
       <c r="F779" s="2"/>
@@ -47905,7 +47905,7 @@
     </row>
     <row r="802" spans="1:11" ht="14.35">
       <c r="A802" s="2"/>
-      <c r="B802" s="647" t="s">
+      <c r="B802" s="656" t="s">
         <v>34</v>
       </c>
       <c r="C802" s="659"/>
@@ -48187,7 +48187,7 @@
     </row>
     <row r="824" spans="1:11" ht="14.35">
       <c r="A824" s="2"/>
-      <c r="B824" s="647" t="s">
+      <c r="B824" s="656" t="s">
         <v>34</v>
       </c>
       <c r="C824" s="659"/>
@@ -48498,7 +48498,7 @@
     </row>
     <row r="849" spans="1:11" ht="14.35">
       <c r="A849" s="2"/>
-      <c r="B849" s="647" t="s">
+      <c r="B849" s="656" t="s">
         <v>34</v>
       </c>
       <c r="C849" s="659"/>
@@ -48806,7 +48806,7 @@
       <c r="K873" s="10"/>
     </row>
     <row r="874" spans="2:11" ht="14.35">
-      <c r="B874" s="647" t="s">
+      <c r="B874" s="656" t="s">
         <v>34</v>
       </c>
       <c r="C874" s="659"/>
@@ -49115,7 +49115,7 @@
       <c r="K899" s="10"/>
     </row>
     <row r="900" spans="1:11" ht="14.35">
-      <c r="B900" s="647" t="s">
+      <c r="B900" s="656" t="s">
         <v>34</v>
       </c>
       <c r="C900" s="659"/>
@@ -49348,7 +49348,7 @@
     </row>
     <row r="920" spans="1:11" ht="14.35">
       <c r="A920" s="2"/>
-      <c r="B920" s="647" t="s">
+      <c r="B920" s="656" t="s">
         <v>34</v>
       </c>
       <c r="C920" s="659"/>
@@ -49628,7 +49628,7 @@
     </row>
     <row r="942" spans="1:11" ht="14.35">
       <c r="A942" s="2"/>
-      <c r="B942" s="647" t="s">
+      <c r="B942" s="656" t="s">
         <v>34</v>
       </c>
       <c r="C942" s="659"/>
@@ -49875,7 +49875,7 @@
     </row>
     <row r="961" spans="1:11" ht="14.35">
       <c r="A961" s="2"/>
-      <c r="B961" s="647" t="s">
+      <c r="B961" s="656" t="s">
         <v>34</v>
       </c>
       <c r="C961" s="659"/>
@@ -50118,7 +50118,7 @@
     </row>
     <row r="980" spans="1:11" ht="14.35">
       <c r="A980" s="2"/>
-      <c r="B980" s="647" t="s">
+      <c r="B980" s="656" t="s">
         <v>34</v>
       </c>
       <c r="C980" s="659"/>
@@ -50262,7 +50262,7 @@
     </row>
     <row r="994" spans="1:11" ht="14.35">
       <c r="A994" s="2"/>
-      <c r="B994" s="647" t="s">
+      <c r="B994" s="656" t="s">
         <v>34</v>
       </c>
       <c r="C994" s="659"/>
@@ -50512,10 +50512,10 @@
     </row>
     <row r="1014" spans="1:11" ht="14.35">
       <c r="A1014" s="2"/>
-      <c r="B1014" s="647" t="s">
+      <c r="B1014" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C1014" s="648"/>
+      <c r="C1014" s="657"/>
       <c r="D1014" s="2"/>
       <c r="E1014" s="2"/>
       <c r="F1014" s="2"/>
@@ -50717,7 +50717,7 @@
     </row>
     <row r="1031" spans="1:11" ht="14.35">
       <c r="A1031" s="2"/>
-      <c r="B1031" s="647" t="s">
+      <c r="B1031" s="656" t="s">
         <v>34</v>
       </c>
       <c r="C1031" s="659"/>
@@ -50963,10 +50963,10 @@
       <c r="K1050" s="10"/>
     </row>
     <row r="1051" spans="2:11" ht="14.35">
-      <c r="B1051" s="647" t="s">
+      <c r="B1051" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C1051" s="648"/>
+      <c r="C1051" s="657"/>
       <c r="D1051" s="2"/>
       <c r="E1051" s="2"/>
       <c r="F1051" s="2"/>
@@ -51227,10 +51227,10 @@
     </row>
     <row r="1073" spans="1:11" ht="14.35">
       <c r="A1073" s="2"/>
-      <c r="B1073" s="647" t="s">
+      <c r="B1073" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C1073" s="648"/>
+      <c r="C1073" s="657"/>
       <c r="D1073" s="2"/>
       <c r="E1073" s="2"/>
       <c r="F1073" s="2"/>
@@ -51526,10 +51526,10 @@
     </row>
     <row r="1096" spans="1:11" ht="14.35">
       <c r="A1096" s="2"/>
-      <c r="B1096" s="647" t="s">
+      <c r="B1096" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C1096" s="648"/>
+      <c r="C1096" s="657"/>
       <c r="D1096" s="2"/>
       <c r="E1096" s="2"/>
       <c r="F1096" s="2"/>
@@ -51553,61 +51553,61 @@
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="B1014:C1014"/>
+    <mergeCell ref="B1031:C1031"/>
+    <mergeCell ref="B1051:C1051"/>
+    <mergeCell ref="B1073:C1073"/>
+    <mergeCell ref="B1096:C1096"/>
+    <mergeCell ref="B920:C920"/>
+    <mergeCell ref="B942:C942"/>
+    <mergeCell ref="B961:C961"/>
+    <mergeCell ref="B980:C980"/>
+    <mergeCell ref="B994:C994"/>
+    <mergeCell ref="B802:C802"/>
+    <mergeCell ref="B824:C824"/>
+    <mergeCell ref="B849:C849"/>
+    <mergeCell ref="B874:C874"/>
+    <mergeCell ref="B900:C900"/>
+    <mergeCell ref="B692:C692"/>
+    <mergeCell ref="B710:C710"/>
+    <mergeCell ref="B736:C736"/>
+    <mergeCell ref="B756:C756"/>
+    <mergeCell ref="B779:C779"/>
+    <mergeCell ref="B597:C597"/>
+    <mergeCell ref="B616:C616"/>
+    <mergeCell ref="B635:C635"/>
+    <mergeCell ref="B655:C655"/>
+    <mergeCell ref="B673:C673"/>
+    <mergeCell ref="B405:C405"/>
+    <mergeCell ref="B440:C440"/>
+    <mergeCell ref="B473:C473"/>
+    <mergeCell ref="B506:C506"/>
+    <mergeCell ref="B559:C559"/>
+    <mergeCell ref="B310:C310"/>
+    <mergeCell ref="D324:D328"/>
+    <mergeCell ref="B330:C330"/>
+    <mergeCell ref="B352:C352"/>
+    <mergeCell ref="B370:C370"/>
+    <mergeCell ref="B217:C217"/>
+    <mergeCell ref="B242:C242"/>
+    <mergeCell ref="D268:D272"/>
+    <mergeCell ref="B274:C274"/>
+    <mergeCell ref="D304:D308"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="B106:C106"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D36:D41"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B61:C61"/>
     <mergeCell ref="E75:F75"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="B217:C217"/>
-    <mergeCell ref="B242:C242"/>
-    <mergeCell ref="D268:D272"/>
-    <mergeCell ref="B274:C274"/>
-    <mergeCell ref="D304:D308"/>
-    <mergeCell ref="B310:C310"/>
-    <mergeCell ref="D324:D328"/>
-    <mergeCell ref="B330:C330"/>
-    <mergeCell ref="B352:C352"/>
-    <mergeCell ref="B370:C370"/>
-    <mergeCell ref="B405:C405"/>
-    <mergeCell ref="B440:C440"/>
-    <mergeCell ref="B473:C473"/>
-    <mergeCell ref="B506:C506"/>
-    <mergeCell ref="B559:C559"/>
-    <mergeCell ref="B597:C597"/>
-    <mergeCell ref="B616:C616"/>
-    <mergeCell ref="B635:C635"/>
-    <mergeCell ref="B655:C655"/>
-    <mergeCell ref="B673:C673"/>
-    <mergeCell ref="B692:C692"/>
-    <mergeCell ref="B710:C710"/>
-    <mergeCell ref="B736:C736"/>
-    <mergeCell ref="B756:C756"/>
-    <mergeCell ref="B779:C779"/>
-    <mergeCell ref="B802:C802"/>
-    <mergeCell ref="B824:C824"/>
-    <mergeCell ref="B849:C849"/>
-    <mergeCell ref="B874:C874"/>
-    <mergeCell ref="B900:C900"/>
-    <mergeCell ref="B920:C920"/>
-    <mergeCell ref="B942:C942"/>
-    <mergeCell ref="B961:C961"/>
-    <mergeCell ref="B980:C980"/>
-    <mergeCell ref="B994:C994"/>
-    <mergeCell ref="B1014:C1014"/>
-    <mergeCell ref="B1031:C1031"/>
-    <mergeCell ref="B1051:C1051"/>
-    <mergeCell ref="B1073:C1073"/>
-    <mergeCell ref="B1096:C1096"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -51677,10 +51677,10 @@
       <c r="D2" s="246" t="s">
         <v>508</v>
       </c>
-      <c r="E2" s="682" t="s">
+      <c r="E2" s="698" t="s">
         <v>509</v>
       </c>
-      <c r="F2" s="683"/>
+      <c r="F2" s="699"/>
       <c r="G2" s="252" t="s">
         <v>510</v>
       </c>
@@ -51713,71 +51713,71 @@
       <c r="A3" s="253">
         <v>1</v>
       </c>
-      <c r="B3" s="692" t="s">
+      <c r="B3" s="681" t="s">
         <v>456</v>
       </c>
-      <c r="C3" s="693"/>
-      <c r="D3" s="693"/>
-      <c r="E3" s="693"/>
-      <c r="F3" s="693"/>
-      <c r="G3" s="693"/>
-      <c r="H3" s="693"/>
-      <c r="I3" s="693"/>
-      <c r="J3" s="693"/>
-      <c r="K3" s="688" t="s">
+      <c r="C3" s="682"/>
+      <c r="D3" s="682"/>
+      <c r="E3" s="682"/>
+      <c r="F3" s="682"/>
+      <c r="G3" s="682"/>
+      <c r="H3" s="682"/>
+      <c r="I3" s="682"/>
+      <c r="J3" s="682"/>
+      <c r="K3" s="683" t="s">
         <v>457</v>
       </c>
-      <c r="L3" s="687"/>
-      <c r="M3" s="687"/>
-      <c r="N3" s="687"/>
-      <c r="O3" s="687"/>
-      <c r="P3" s="687"/>
-      <c r="Q3" s="687"/>
-      <c r="R3" s="687"/>
-      <c r="S3" s="687"/>
-      <c r="T3" s="687"/>
-      <c r="U3" s="687"/>
-      <c r="V3" s="687"/>
-      <c r="W3" s="687"/>
+      <c r="L3" s="684"/>
+      <c r="M3" s="684"/>
+      <c r="N3" s="684"/>
+      <c r="O3" s="684"/>
+      <c r="P3" s="684"/>
+      <c r="Q3" s="684"/>
+      <c r="R3" s="684"/>
+      <c r="S3" s="684"/>
+      <c r="T3" s="684"/>
+      <c r="U3" s="684"/>
+      <c r="V3" s="684"/>
+      <c r="W3" s="684"/>
     </row>
     <row r="4" spans="1:23" ht="14">
       <c r="A4" s="244"/>
-      <c r="B4" s="694" t="s">
+      <c r="B4" s="685" t="s">
         <v>459</v>
       </c>
-      <c r="C4" s="691"/>
-      <c r="D4" s="691"/>
+      <c r="C4" s="686"/>
+      <c r="D4" s="686"/>
       <c r="E4" s="674" t="s">
         <v>515</v>
       </c>
-      <c r="F4" s="691"/>
-      <c r="G4" s="691"/>
-      <c r="H4" s="695" t="s">
+      <c r="F4" s="686"/>
+      <c r="G4" s="686"/>
+      <c r="H4" s="687" t="s">
         <v>516</v>
       </c>
-      <c r="I4" s="696"/>
-      <c r="J4" s="696"/>
+      <c r="I4" s="688"/>
+      <c r="J4" s="688"/>
       <c r="K4" s="674" t="s">
         <v>460</v>
       </c>
-      <c r="L4" s="691"/>
-      <c r="M4" s="691"/>
+      <c r="L4" s="686"/>
+      <c r="M4" s="686"/>
       <c r="N4" s="674" t="s">
         <v>517</v>
       </c>
-      <c r="O4" s="691"/>
-      <c r="P4" s="691"/>
+      <c r="O4" s="686"/>
+      <c r="P4" s="686"/>
       <c r="Q4" s="674" t="s">
         <v>518</v>
       </c>
-      <c r="R4" s="691"/>
-      <c r="S4" s="691"/>
-      <c r="T4" s="697" t="s">
+      <c r="R4" s="686"/>
+      <c r="S4" s="686"/>
+      <c r="T4" s="689" t="s">
         <v>519</v>
       </c>
-      <c r="U4" s="698"/>
-      <c r="V4" s="698"/>
-      <c r="W4" s="698"/>
+      <c r="U4" s="690"/>
+      <c r="V4" s="690"/>
+      <c r="W4" s="690"/>
     </row>
     <row r="5" spans="1:23" ht="15.35">
       <c r="A5" s="244"/>
@@ -51835,7 +51835,7 @@
       <c r="S5" s="259" t="s">
         <v>463</v>
       </c>
-      <c r="T5" s="681" t="s">
+      <c r="T5" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U5" s="171" t="s">
@@ -51880,7 +51880,7 @@
       <c r="Q6" s="184"/>
       <c r="R6" s="183"/>
       <c r="S6" s="268"/>
-      <c r="T6" s="641"/>
+      <c r="T6" s="644"/>
       <c r="U6" s="171" t="s">
         <v>524</v>
       </c>
@@ -52327,32 +52327,32 @@
       </c>
     </row>
     <row r="23" spans="1:23" ht="14">
-      <c r="B23" s="684" t="s">
+      <c r="B23" s="695" t="s">
         <v>456</v>
       </c>
-      <c r="C23" s="641"/>
-      <c r="D23" s="641"/>
-      <c r="E23" s="641"/>
-      <c r="F23" s="641"/>
-      <c r="G23" s="641"/>
-      <c r="H23" s="641"/>
-      <c r="I23" s="641"/>
-      <c r="J23" s="641"/>
-      <c r="K23" s="685" t="s">
+      <c r="C23" s="644"/>
+      <c r="D23" s="644"/>
+      <c r="E23" s="644"/>
+      <c r="F23" s="644"/>
+      <c r="G23" s="644"/>
+      <c r="H23" s="644"/>
+      <c r="I23" s="644"/>
+      <c r="J23" s="644"/>
+      <c r="K23" s="694" t="s">
         <v>911</v>
       </c>
-      <c r="L23" s="641"/>
-      <c r="M23" s="641"/>
-      <c r="N23" s="641"/>
-      <c r="O23" s="641"/>
-      <c r="P23" s="641"/>
-      <c r="Q23" s="641"/>
-      <c r="R23" s="641"/>
-      <c r="S23" s="641"/>
-      <c r="T23" s="641"/>
-      <c r="U23" s="641"/>
-      <c r="V23" s="641"/>
-      <c r="W23" s="641"/>
+      <c r="L23" s="644"/>
+      <c r="M23" s="644"/>
+      <c r="N23" s="644"/>
+      <c r="O23" s="644"/>
+      <c r="P23" s="644"/>
+      <c r="Q23" s="644"/>
+      <c r="R23" s="644"/>
+      <c r="S23" s="644"/>
+      <c r="T23" s="644"/>
+      <c r="U23" s="644"/>
+      <c r="V23" s="644"/>
+      <c r="W23" s="644"/>
     </row>
     <row r="24" spans="1:23" ht="14">
       <c r="A24" s="253">
@@ -52388,12 +52388,12 @@
       </c>
       <c r="R24" s="678"/>
       <c r="S24" s="678"/>
-      <c r="T24" s="679" t="s">
+      <c r="T24" s="692" t="s">
         <v>519</v>
       </c>
-      <c r="U24" s="680"/>
-      <c r="V24" s="680"/>
-      <c r="W24" s="680"/>
+      <c r="U24" s="693"/>
+      <c r="V24" s="693"/>
+      <c r="W24" s="693"/>
     </row>
     <row r="25" spans="1:23" ht="15.35">
       <c r="A25" s="288"/>
@@ -52451,7 +52451,7 @@
       <c r="S25" s="258" t="s">
         <v>914</v>
       </c>
-      <c r="T25" s="681" t="s">
+      <c r="T25" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U25" s="171" t="s">
@@ -52496,7 +52496,7 @@
       <c r="Q26" s="184"/>
       <c r="R26" s="188"/>
       <c r="S26" s="188"/>
-      <c r="T26" s="641"/>
+      <c r="T26" s="644"/>
       <c r="U26" s="171" t="s">
         <v>524</v>
       </c>
@@ -52760,32 +52760,32 @@
       <c r="E43" s="307"/>
     </row>
     <row r="44" spans="1:23" ht="14">
-      <c r="B44" s="684" t="s">
+      <c r="B44" s="695" t="s">
         <v>456</v>
       </c>
-      <c r="C44" s="641"/>
-      <c r="D44" s="641"/>
-      <c r="E44" s="641"/>
-      <c r="F44" s="641"/>
-      <c r="G44" s="641"/>
-      <c r="H44" s="641"/>
-      <c r="I44" s="641"/>
-      <c r="J44" s="641"/>
-      <c r="K44" s="684" t="s">
+      <c r="C44" s="644"/>
+      <c r="D44" s="644"/>
+      <c r="E44" s="644"/>
+      <c r="F44" s="644"/>
+      <c r="G44" s="644"/>
+      <c r="H44" s="644"/>
+      <c r="I44" s="644"/>
+      <c r="J44" s="644"/>
+      <c r="K44" s="695" t="s">
         <v>457</v>
       </c>
-      <c r="L44" s="641"/>
-      <c r="M44" s="641"/>
-      <c r="N44" s="641"/>
-      <c r="O44" s="641"/>
-      <c r="P44" s="641"/>
-      <c r="Q44" s="641"/>
-      <c r="R44" s="641"/>
-      <c r="S44" s="641"/>
-      <c r="T44" s="641"/>
-      <c r="U44" s="641"/>
-      <c r="V44" s="641"/>
-      <c r="W44" s="641"/>
+      <c r="L44" s="644"/>
+      <c r="M44" s="644"/>
+      <c r="N44" s="644"/>
+      <c r="O44" s="644"/>
+      <c r="P44" s="644"/>
+      <c r="Q44" s="644"/>
+      <c r="R44" s="644"/>
+      <c r="S44" s="644"/>
+      <c r="T44" s="644"/>
+      <c r="U44" s="644"/>
+      <c r="V44" s="644"/>
+      <c r="W44" s="644"/>
     </row>
     <row r="45" spans="1:23" ht="14">
       <c r="A45" s="253">
@@ -52821,12 +52821,12 @@
       </c>
       <c r="R45" s="678"/>
       <c r="S45" s="678"/>
-      <c r="T45" s="690" t="s">
+      <c r="T45" s="696" t="s">
         <v>519</v>
       </c>
-      <c r="U45" s="691"/>
-      <c r="V45" s="691"/>
-      <c r="W45" s="691"/>
+      <c r="U45" s="686"/>
+      <c r="V45" s="686"/>
+      <c r="W45" s="686"/>
     </row>
     <row r="46" spans="1:23" ht="15.35">
       <c r="A46" s="288"/>
@@ -52884,7 +52884,7 @@
       <c r="S46" s="287" t="s">
         <v>914</v>
       </c>
-      <c r="T46" s="689" t="s">
+      <c r="T46" s="701" t="s">
         <v>520</v>
       </c>
       <c r="U46" s="318" t="s">
@@ -52929,7 +52929,7 @@
       <c r="Q47" s="184"/>
       <c r="R47" s="188"/>
       <c r="S47" s="188"/>
-      <c r="T47" s="641"/>
+      <c r="T47" s="644"/>
       <c r="U47" s="171" t="s">
         <v>524</v>
       </c>
@@ -53161,32 +53161,32 @@
       <c r="C61" s="170"/>
     </row>
     <row r="62" spans="1:23" ht="14">
-      <c r="B62" s="684" t="s">
+      <c r="B62" s="695" t="s">
         <v>456</v>
       </c>
-      <c r="C62" s="641"/>
-      <c r="D62" s="641"/>
-      <c r="E62" s="641"/>
-      <c r="F62" s="641"/>
-      <c r="G62" s="641"/>
-      <c r="H62" s="641"/>
-      <c r="I62" s="641"/>
-      <c r="J62" s="641"/>
-      <c r="K62" s="684" t="s">
+      <c r="C62" s="644"/>
+      <c r="D62" s="644"/>
+      <c r="E62" s="644"/>
+      <c r="F62" s="644"/>
+      <c r="G62" s="644"/>
+      <c r="H62" s="644"/>
+      <c r="I62" s="644"/>
+      <c r="J62" s="644"/>
+      <c r="K62" s="695" t="s">
         <v>457</v>
       </c>
-      <c r="L62" s="641"/>
-      <c r="M62" s="641"/>
-      <c r="N62" s="641"/>
-      <c r="O62" s="641"/>
-      <c r="P62" s="641"/>
-      <c r="Q62" s="641"/>
-      <c r="R62" s="641"/>
-      <c r="S62" s="641"/>
-      <c r="T62" s="641"/>
-      <c r="U62" s="641"/>
-      <c r="V62" s="641"/>
-      <c r="W62" s="641"/>
+      <c r="L62" s="644"/>
+      <c r="M62" s="644"/>
+      <c r="N62" s="644"/>
+      <c r="O62" s="644"/>
+      <c r="P62" s="644"/>
+      <c r="Q62" s="644"/>
+      <c r="R62" s="644"/>
+      <c r="S62" s="644"/>
+      <c r="T62" s="644"/>
+      <c r="U62" s="644"/>
+      <c r="V62" s="644"/>
+      <c r="W62" s="644"/>
     </row>
     <row r="63" spans="1:23" ht="14">
       <c r="A63" s="253">
@@ -53222,12 +53222,12 @@
       </c>
       <c r="R63" s="678"/>
       <c r="S63" s="678"/>
-      <c r="T63" s="679" t="s">
+      <c r="T63" s="692" t="s">
         <v>519</v>
       </c>
-      <c r="U63" s="680"/>
-      <c r="V63" s="680"/>
-      <c r="W63" s="680"/>
+      <c r="U63" s="693"/>
+      <c r="V63" s="693"/>
+      <c r="W63" s="693"/>
     </row>
     <row r="64" spans="1:23" ht="15.35">
       <c r="A64" s="288"/>
@@ -53285,7 +53285,7 @@
       <c r="S64" s="254" t="s">
         <v>463</v>
       </c>
-      <c r="T64" s="681" t="s">
+      <c r="T64" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U64" s="171" t="s">
@@ -53330,7 +53330,7 @@
       <c r="Q65" s="184"/>
       <c r="R65" s="184"/>
       <c r="S65" s="184"/>
-      <c r="T65" s="641"/>
+      <c r="T65" s="644"/>
       <c r="U65" s="171" t="s">
         <v>524</v>
       </c>
@@ -53595,32 +53595,32 @@
       </c>
     </row>
     <row r="85" spans="1:23" ht="14">
-      <c r="B85" s="685" t="s">
+      <c r="B85" s="694" t="s">
         <v>919</v>
       </c>
-      <c r="C85" s="641"/>
-      <c r="D85" s="641"/>
-      <c r="E85" s="641"/>
-      <c r="F85" s="641"/>
-      <c r="G85" s="641"/>
-      <c r="H85" s="641"/>
-      <c r="I85" s="641"/>
-      <c r="J85" s="641"/>
-      <c r="K85" s="685" t="s">
+      <c r="C85" s="644"/>
+      <c r="D85" s="644"/>
+      <c r="E85" s="644"/>
+      <c r="F85" s="644"/>
+      <c r="G85" s="644"/>
+      <c r="H85" s="644"/>
+      <c r="I85" s="644"/>
+      <c r="J85" s="644"/>
+      <c r="K85" s="694" t="s">
         <v>911</v>
       </c>
-      <c r="L85" s="641"/>
-      <c r="M85" s="641"/>
-      <c r="N85" s="641"/>
-      <c r="O85" s="641"/>
-      <c r="P85" s="641"/>
-      <c r="Q85" s="641"/>
-      <c r="R85" s="641"/>
-      <c r="S85" s="641"/>
-      <c r="T85" s="641"/>
-      <c r="U85" s="641"/>
-      <c r="V85" s="641"/>
-      <c r="W85" s="641"/>
+      <c r="L85" s="644"/>
+      <c r="M85" s="644"/>
+      <c r="N85" s="644"/>
+      <c r="O85" s="644"/>
+      <c r="P85" s="644"/>
+      <c r="Q85" s="644"/>
+      <c r="R85" s="644"/>
+      <c r="S85" s="644"/>
+      <c r="T85" s="644"/>
+      <c r="U85" s="644"/>
+      <c r="V85" s="644"/>
+      <c r="W85" s="644"/>
     </row>
     <row r="86" spans="1:23" ht="14">
       <c r="A86" s="253">
@@ -53631,17 +53631,17 @@
       </c>
       <c r="C86" s="673"/>
       <c r="D86" s="673"/>
-      <c r="E86" s="700" t="s">
+      <c r="E86" s="680" t="s">
         <v>920</v>
       </c>
       <c r="F86" s="675"/>
       <c r="G86" s="675"/>
-      <c r="H86" s="701" t="s">
+      <c r="H86" s="697" t="s">
         <v>921</v>
       </c>
       <c r="I86" s="677"/>
       <c r="J86" s="677"/>
-      <c r="K86" s="700" t="s">
+      <c r="K86" s="680" t="s">
         <v>922</v>
       </c>
       <c r="L86" s="678"/>
@@ -53656,12 +53656,12 @@
       </c>
       <c r="R86" s="678"/>
       <c r="S86" s="678"/>
-      <c r="T86" s="679" t="s">
+      <c r="T86" s="692" t="s">
         <v>519</v>
       </c>
-      <c r="U86" s="680"/>
-      <c r="V86" s="680"/>
-      <c r="W86" s="680"/>
+      <c r="U86" s="693"/>
+      <c r="V86" s="693"/>
+      <c r="W86" s="693"/>
     </row>
     <row r="87" spans="1:23" ht="15.35">
       <c r="A87" s="288"/>
@@ -53719,7 +53719,7 @@
       <c r="S87" s="254" t="s">
         <v>463</v>
       </c>
-      <c r="T87" s="681" t="s">
+      <c r="T87" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U87" s="171" t="s">
@@ -53764,7 +53764,7 @@
       <c r="Q88" s="184"/>
       <c r="R88" s="184"/>
       <c r="S88" s="184"/>
-      <c r="T88" s="641"/>
+      <c r="T88" s="644"/>
       <c r="U88" s="171" t="s">
         <v>524</v>
       </c>
@@ -54028,32 +54028,32 @@
       <c r="C106" s="170"/>
     </row>
     <row r="107" spans="1:23" ht="14">
-      <c r="B107" s="685" t="s">
+      <c r="B107" s="694" t="s">
         <v>919</v>
       </c>
-      <c r="C107" s="641"/>
-      <c r="D107" s="641"/>
-      <c r="E107" s="641"/>
-      <c r="F107" s="641"/>
-      <c r="G107" s="641"/>
-      <c r="H107" s="641"/>
-      <c r="I107" s="641"/>
-      <c r="J107" s="641"/>
-      <c r="K107" s="684" t="s">
+      <c r="C107" s="644"/>
+      <c r="D107" s="644"/>
+      <c r="E107" s="644"/>
+      <c r="F107" s="644"/>
+      <c r="G107" s="644"/>
+      <c r="H107" s="644"/>
+      <c r="I107" s="644"/>
+      <c r="J107" s="644"/>
+      <c r="K107" s="695" t="s">
         <v>457</v>
       </c>
-      <c r="L107" s="641"/>
-      <c r="M107" s="641"/>
-      <c r="N107" s="641"/>
-      <c r="O107" s="641"/>
-      <c r="P107" s="641"/>
-      <c r="Q107" s="641"/>
-      <c r="R107" s="641"/>
-      <c r="S107" s="641"/>
-      <c r="T107" s="641"/>
-      <c r="U107" s="641"/>
-      <c r="V107" s="641"/>
-      <c r="W107" s="641"/>
+      <c r="L107" s="644"/>
+      <c r="M107" s="644"/>
+      <c r="N107" s="644"/>
+      <c r="O107" s="644"/>
+      <c r="P107" s="644"/>
+      <c r="Q107" s="644"/>
+      <c r="R107" s="644"/>
+      <c r="S107" s="644"/>
+      <c r="T107" s="644"/>
+      <c r="U107" s="644"/>
+      <c r="V107" s="644"/>
+      <c r="W107" s="644"/>
     </row>
     <row r="108" spans="1:23" ht="14">
       <c r="A108" s="253">
@@ -54064,7 +54064,7 @@
       </c>
       <c r="C108" s="673"/>
       <c r="D108" s="673"/>
-      <c r="E108" s="700" t="s">
+      <c r="E108" s="680" t="s">
         <v>920</v>
       </c>
       <c r="F108" s="675"/>
@@ -54089,12 +54089,12 @@
       </c>
       <c r="R108" s="678"/>
       <c r="S108" s="678"/>
-      <c r="T108" s="679" t="s">
+      <c r="T108" s="692" t="s">
         <v>519</v>
       </c>
-      <c r="U108" s="680"/>
-      <c r="V108" s="680"/>
-      <c r="W108" s="680"/>
+      <c r="U108" s="693"/>
+      <c r="V108" s="693"/>
+      <c r="W108" s="693"/>
     </row>
     <row r="109" spans="1:23" ht="15.35">
       <c r="A109" s="288"/>
@@ -54152,7 +54152,7 @@
       <c r="S109" s="346" t="s">
         <v>463</v>
       </c>
-      <c r="T109" s="681" t="s">
+      <c r="T109" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U109" s="171" t="s">
@@ -54197,7 +54197,7 @@
       <c r="Q110" s="184"/>
       <c r="R110" s="184"/>
       <c r="S110" s="184"/>
-      <c r="T110" s="641"/>
+      <c r="T110" s="644"/>
       <c r="U110" s="171" t="s">
         <v>524</v>
       </c>
@@ -54411,32 +54411,32 @@
       </c>
     </row>
     <row r="128" spans="1:23" ht="14">
-      <c r="B128" s="684" t="s">
+      <c r="B128" s="695" t="s">
         <v>456</v>
       </c>
-      <c r="C128" s="641"/>
-      <c r="D128" s="641"/>
-      <c r="E128" s="641"/>
-      <c r="F128" s="641"/>
-      <c r="G128" s="641"/>
-      <c r="H128" s="641"/>
-      <c r="I128" s="641"/>
-      <c r="J128" s="641"/>
-      <c r="K128" s="684" t="s">
+      <c r="C128" s="644"/>
+      <c r="D128" s="644"/>
+      <c r="E128" s="644"/>
+      <c r="F128" s="644"/>
+      <c r="G128" s="644"/>
+      <c r="H128" s="644"/>
+      <c r="I128" s="644"/>
+      <c r="J128" s="644"/>
+      <c r="K128" s="695" t="s">
         <v>457</v>
       </c>
-      <c r="L128" s="641"/>
-      <c r="M128" s="641"/>
-      <c r="N128" s="641"/>
-      <c r="O128" s="641"/>
-      <c r="P128" s="641"/>
-      <c r="Q128" s="641"/>
-      <c r="R128" s="641"/>
-      <c r="S128" s="641"/>
-      <c r="T128" s="641"/>
-      <c r="U128" s="641"/>
-      <c r="V128" s="641"/>
-      <c r="W128" s="641"/>
+      <c r="L128" s="644"/>
+      <c r="M128" s="644"/>
+      <c r="N128" s="644"/>
+      <c r="O128" s="644"/>
+      <c r="P128" s="644"/>
+      <c r="Q128" s="644"/>
+      <c r="R128" s="644"/>
+      <c r="S128" s="644"/>
+      <c r="T128" s="644"/>
+      <c r="U128" s="644"/>
+      <c r="V128" s="644"/>
+      <c r="W128" s="644"/>
     </row>
     <row r="129" spans="1:23" ht="14">
       <c r="A129" s="253">
@@ -54472,12 +54472,12 @@
       </c>
       <c r="R129" s="678"/>
       <c r="S129" s="678"/>
-      <c r="T129" s="679" t="s">
+      <c r="T129" s="692" t="s">
         <v>519</v>
       </c>
-      <c r="U129" s="680"/>
-      <c r="V129" s="680"/>
-      <c r="W129" s="680"/>
+      <c r="U129" s="693"/>
+      <c r="V129" s="693"/>
+      <c r="W129" s="693"/>
     </row>
     <row r="130" spans="1:23" ht="15.35">
       <c r="A130" s="288"/>
@@ -54535,7 +54535,7 @@
       <c r="S130" s="346" t="s">
         <v>463</v>
       </c>
-      <c r="T130" s="681" t="s">
+      <c r="T130" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U130" s="171" t="s">
@@ -54580,7 +54580,7 @@
       <c r="Q131" s="184"/>
       <c r="R131" s="184"/>
       <c r="S131" s="184"/>
-      <c r="T131" s="641"/>
+      <c r="T131" s="644"/>
       <c r="U131" s="171" t="s">
         <v>524</v>
       </c>
@@ -54780,32 +54780,32 @@
       </c>
     </row>
     <row r="142" spans="1:23" ht="14">
-      <c r="B142" s="684" t="s">
+      <c r="B142" s="695" t="s">
         <v>456</v>
       </c>
-      <c r="C142" s="641"/>
-      <c r="D142" s="641"/>
-      <c r="E142" s="641"/>
-      <c r="F142" s="641"/>
-      <c r="G142" s="641"/>
-      <c r="H142" s="641"/>
-      <c r="I142" s="641"/>
-      <c r="J142" s="641"/>
-      <c r="K142" s="684" t="s">
+      <c r="C142" s="644"/>
+      <c r="D142" s="644"/>
+      <c r="E142" s="644"/>
+      <c r="F142" s="644"/>
+      <c r="G142" s="644"/>
+      <c r="H142" s="644"/>
+      <c r="I142" s="644"/>
+      <c r="J142" s="644"/>
+      <c r="K142" s="695" t="s">
         <v>457</v>
       </c>
-      <c r="L142" s="641"/>
-      <c r="M142" s="641"/>
-      <c r="N142" s="641"/>
-      <c r="O142" s="641"/>
-      <c r="P142" s="641"/>
-      <c r="Q142" s="641"/>
-      <c r="R142" s="641"/>
-      <c r="S142" s="641"/>
-      <c r="T142" s="641"/>
-      <c r="U142" s="641"/>
-      <c r="V142" s="641"/>
-      <c r="W142" s="641"/>
+      <c r="L142" s="644"/>
+      <c r="M142" s="644"/>
+      <c r="N142" s="644"/>
+      <c r="O142" s="644"/>
+      <c r="P142" s="644"/>
+      <c r="Q142" s="644"/>
+      <c r="R142" s="644"/>
+      <c r="S142" s="644"/>
+      <c r="T142" s="644"/>
+      <c r="U142" s="644"/>
+      <c r="V142" s="644"/>
+      <c r="W142" s="644"/>
     </row>
     <row r="143" spans="1:23" ht="14">
       <c r="A143" s="253">
@@ -54839,14 +54839,14 @@
       <c r="Q143" s="674" t="s">
         <v>916</v>
       </c>
-      <c r="R143" s="699"/>
-      <c r="S143" s="699"/>
-      <c r="T143" s="679" t="s">
+      <c r="R143" s="679"/>
+      <c r="S143" s="679"/>
+      <c r="T143" s="692" t="s">
         <v>519</v>
       </c>
-      <c r="U143" s="680"/>
-      <c r="V143" s="680"/>
-      <c r="W143" s="680"/>
+      <c r="U143" s="693"/>
+      <c r="V143" s="693"/>
+      <c r="W143" s="693"/>
     </row>
     <row r="144" spans="1:23" ht="15.35">
       <c r="A144" s="288"/>
@@ -54904,7 +54904,7 @@
       <c r="S144" s="254" t="s">
         <v>463</v>
       </c>
-      <c r="T144" s="681" t="s">
+      <c r="T144" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U144" s="171" t="s">
@@ -54949,7 +54949,7 @@
       <c r="Q145" s="184"/>
       <c r="R145" s="184"/>
       <c r="S145" s="184"/>
-      <c r="T145" s="641"/>
+      <c r="T145" s="644"/>
       <c r="U145" s="171" t="s">
         <v>524</v>
       </c>
@@ -55141,32 +55141,32 @@
       </c>
     </row>
     <row r="157" spans="1:23" ht="14">
-      <c r="B157" s="686" t="s">
+      <c r="B157" s="700" t="s">
         <v>456</v>
       </c>
-      <c r="C157" s="687"/>
-      <c r="D157" s="687"/>
-      <c r="E157" s="687"/>
-      <c r="F157" s="687"/>
-      <c r="G157" s="687"/>
-      <c r="H157" s="687"/>
-      <c r="I157" s="687"/>
-      <c r="J157" s="687"/>
-      <c r="K157" s="688" t="s">
+      <c r="C157" s="684"/>
+      <c r="D157" s="684"/>
+      <c r="E157" s="684"/>
+      <c r="F157" s="684"/>
+      <c r="G157" s="684"/>
+      <c r="H157" s="684"/>
+      <c r="I157" s="684"/>
+      <c r="J157" s="684"/>
+      <c r="K157" s="683" t="s">
         <v>911</v>
       </c>
-      <c r="L157" s="687"/>
-      <c r="M157" s="687"/>
-      <c r="N157" s="687"/>
-      <c r="O157" s="687"/>
-      <c r="P157" s="687"/>
-      <c r="Q157" s="687"/>
-      <c r="R157" s="687"/>
-      <c r="S157" s="687"/>
-      <c r="T157" s="687"/>
-      <c r="U157" s="687"/>
-      <c r="V157" s="687"/>
-      <c r="W157" s="687"/>
+      <c r="L157" s="684"/>
+      <c r="M157" s="684"/>
+      <c r="N157" s="684"/>
+      <c r="O157" s="684"/>
+      <c r="P157" s="684"/>
+      <c r="Q157" s="684"/>
+      <c r="R157" s="684"/>
+      <c r="S157" s="684"/>
+      <c r="T157" s="684"/>
+      <c r="U157" s="684"/>
+      <c r="V157" s="684"/>
+      <c r="W157" s="684"/>
     </row>
     <row r="158" spans="1:23" ht="14">
       <c r="A158" s="253">
@@ -55202,12 +55202,12 @@
       </c>
       <c r="R158" s="678"/>
       <c r="S158" s="678"/>
-      <c r="T158" s="679" t="s">
+      <c r="T158" s="692" t="s">
         <v>519</v>
       </c>
-      <c r="U158" s="680"/>
-      <c r="V158" s="680"/>
-      <c r="W158" s="680"/>
+      <c r="U158" s="693"/>
+      <c r="V158" s="693"/>
+      <c r="W158" s="693"/>
     </row>
     <row r="159" spans="1:23" ht="15.35">
       <c r="A159" s="288"/>
@@ -55265,7 +55265,7 @@
       <c r="S159" s="258" t="s">
         <v>914</v>
       </c>
-      <c r="T159" s="681" t="s">
+      <c r="T159" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U159" s="171" t="s">
@@ -55310,7 +55310,7 @@
       <c r="Q160" s="321"/>
       <c r="R160" s="275"/>
       <c r="S160" s="275"/>
-      <c r="T160" s="641"/>
+      <c r="T160" s="644"/>
       <c r="U160" s="171"/>
       <c r="V160" s="266"/>
       <c r="W160" s="266"/>
@@ -55347,7 +55347,7 @@
       <c r="Q161" s="184"/>
       <c r="R161" s="188"/>
       <c r="S161" s="188"/>
-      <c r="T161" s="641"/>
+      <c r="T161" s="644"/>
       <c r="U161" s="171" t="s">
         <v>524</v>
       </c>
@@ -55548,32 +55548,32 @@
     </row>
     <row r="172" spans="1:23" ht="14">
       <c r="A172" s="293"/>
-      <c r="B172" s="684" t="s">
+      <c r="B172" s="695" t="s">
         <v>456</v>
       </c>
-      <c r="C172" s="641"/>
-      <c r="D172" s="641"/>
-      <c r="E172" s="641"/>
-      <c r="F172" s="641"/>
-      <c r="G172" s="641"/>
-      <c r="H172" s="641"/>
-      <c r="I172" s="641"/>
-      <c r="J172" s="641"/>
-      <c r="K172" s="685" t="s">
+      <c r="C172" s="644"/>
+      <c r="D172" s="644"/>
+      <c r="E172" s="644"/>
+      <c r="F172" s="644"/>
+      <c r="G172" s="644"/>
+      <c r="H172" s="644"/>
+      <c r="I172" s="644"/>
+      <c r="J172" s="644"/>
+      <c r="K172" s="694" t="s">
         <v>911</v>
       </c>
-      <c r="L172" s="641"/>
-      <c r="M172" s="641"/>
-      <c r="N172" s="641"/>
-      <c r="O172" s="641"/>
-      <c r="P172" s="641"/>
-      <c r="Q172" s="641"/>
-      <c r="R172" s="641"/>
-      <c r="S172" s="641"/>
-      <c r="T172" s="641"/>
-      <c r="U172" s="641"/>
-      <c r="V172" s="641"/>
-      <c r="W172" s="641"/>
+      <c r="L172" s="644"/>
+      <c r="M172" s="644"/>
+      <c r="N172" s="644"/>
+      <c r="O172" s="644"/>
+      <c r="P172" s="644"/>
+      <c r="Q172" s="644"/>
+      <c r="R172" s="644"/>
+      <c r="S172" s="644"/>
+      <c r="T172" s="644"/>
+      <c r="U172" s="644"/>
+      <c r="V172" s="644"/>
+      <c r="W172" s="644"/>
     </row>
     <row r="173" spans="1:23" ht="14">
       <c r="A173" s="293"/>
@@ -55607,12 +55607,12 @@
       </c>
       <c r="R173" s="678"/>
       <c r="S173" s="678"/>
-      <c r="T173" s="679" t="s">
+      <c r="T173" s="692" t="s">
         <v>519</v>
       </c>
-      <c r="U173" s="680"/>
-      <c r="V173" s="680"/>
-      <c r="W173" s="680"/>
+      <c r="U173" s="693"/>
+      <c r="V173" s="693"/>
+      <c r="W173" s="693"/>
     </row>
     <row r="174" spans="1:23" ht="15.35">
       <c r="A174" s="293"/>
@@ -55670,7 +55670,7 @@
       <c r="S174" s="258" t="s">
         <v>914</v>
       </c>
-      <c r="T174" s="681" t="s">
+      <c r="T174" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U174" s="171" t="s">
@@ -55715,7 +55715,7 @@
       <c r="Q175" s="184"/>
       <c r="R175" s="188"/>
       <c r="S175" s="188"/>
-      <c r="T175" s="641"/>
+      <c r="T175" s="644"/>
       <c r="U175" s="171" t="s">
         <v>524</v>
       </c>
@@ -57861,50 +57861,39 @@
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="B143:D143"/>
-    <mergeCell ref="E143:G143"/>
-    <mergeCell ref="H143:J143"/>
-    <mergeCell ref="K143:M143"/>
-    <mergeCell ref="N143:P143"/>
-    <mergeCell ref="Q143:S143"/>
-    <mergeCell ref="K108:M108"/>
-    <mergeCell ref="H108:J108"/>
-    <mergeCell ref="E108:G108"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="Q129:S129"/>
-    <mergeCell ref="B129:D129"/>
-    <mergeCell ref="E129:G129"/>
-    <mergeCell ref="H129:J129"/>
-    <mergeCell ref="K129:M129"/>
-    <mergeCell ref="N129:P129"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="K3:W3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="K23:W23"/>
-    <mergeCell ref="B44:J44"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="T45:W45"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="B173:D173"/>
+    <mergeCell ref="E173:G173"/>
+    <mergeCell ref="H173:J173"/>
+    <mergeCell ref="K173:M173"/>
+    <mergeCell ref="N173:P173"/>
+    <mergeCell ref="Q173:S173"/>
+    <mergeCell ref="T173:W173"/>
+    <mergeCell ref="T174:T175"/>
+    <mergeCell ref="T159:T161"/>
+    <mergeCell ref="B158:D158"/>
+    <mergeCell ref="E158:G158"/>
+    <mergeCell ref="H158:J158"/>
+    <mergeCell ref="K158:M158"/>
+    <mergeCell ref="N158:P158"/>
+    <mergeCell ref="Q158:S158"/>
+    <mergeCell ref="T158:W158"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B172:J172"/>
+    <mergeCell ref="K172:W172"/>
+    <mergeCell ref="T129:W129"/>
+    <mergeCell ref="T130:T131"/>
+    <mergeCell ref="K128:W128"/>
+    <mergeCell ref="B142:J142"/>
+    <mergeCell ref="T143:W143"/>
+    <mergeCell ref="T144:T145"/>
+    <mergeCell ref="K142:W142"/>
+    <mergeCell ref="B157:J157"/>
+    <mergeCell ref="K157:W157"/>
+    <mergeCell ref="T46:T47"/>
+    <mergeCell ref="K44:W44"/>
+    <mergeCell ref="B62:J62"/>
+    <mergeCell ref="T63:W63"/>
+    <mergeCell ref="T64:T65"/>
     <mergeCell ref="K62:W62"/>
     <mergeCell ref="B85:J85"/>
     <mergeCell ref="B107:J107"/>
@@ -57929,39 +57918,50 @@
     <mergeCell ref="H86:J86"/>
     <mergeCell ref="E86:G86"/>
     <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B158:D158"/>
-    <mergeCell ref="E158:G158"/>
-    <mergeCell ref="H158:J158"/>
-    <mergeCell ref="K158:M158"/>
-    <mergeCell ref="N158:P158"/>
-    <mergeCell ref="Q158:S158"/>
-    <mergeCell ref="T158:W158"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B172:J172"/>
-    <mergeCell ref="K172:W172"/>
-    <mergeCell ref="T129:W129"/>
-    <mergeCell ref="T130:T131"/>
-    <mergeCell ref="K128:W128"/>
-    <mergeCell ref="B142:J142"/>
-    <mergeCell ref="T143:W143"/>
-    <mergeCell ref="T144:T145"/>
-    <mergeCell ref="K142:W142"/>
-    <mergeCell ref="B157:J157"/>
-    <mergeCell ref="K157:W157"/>
-    <mergeCell ref="T46:T47"/>
-    <mergeCell ref="K44:W44"/>
-    <mergeCell ref="B62:J62"/>
-    <mergeCell ref="T63:W63"/>
-    <mergeCell ref="T64:T65"/>
-    <mergeCell ref="B173:D173"/>
-    <mergeCell ref="E173:G173"/>
-    <mergeCell ref="H173:J173"/>
-    <mergeCell ref="K173:M173"/>
-    <mergeCell ref="N173:P173"/>
-    <mergeCell ref="Q173:S173"/>
-    <mergeCell ref="T173:W173"/>
-    <mergeCell ref="T174:T175"/>
-    <mergeCell ref="T159:T161"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="K23:W23"/>
+    <mergeCell ref="B44:J44"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="T45:W45"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="K3:W3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="B143:D143"/>
+    <mergeCell ref="E143:G143"/>
+    <mergeCell ref="H143:J143"/>
+    <mergeCell ref="K143:M143"/>
+    <mergeCell ref="N143:P143"/>
+    <mergeCell ref="Q143:S143"/>
+    <mergeCell ref="K108:M108"/>
+    <mergeCell ref="H108:J108"/>
+    <mergeCell ref="E108:G108"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="Q129:S129"/>
+    <mergeCell ref="B129:D129"/>
+    <mergeCell ref="E129:G129"/>
+    <mergeCell ref="H129:J129"/>
+    <mergeCell ref="K129:M129"/>
+    <mergeCell ref="N129:P129"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -58002,16 +58002,16 @@
       <c r="A2" s="196" t="s">
         <v>455</v>
       </c>
-      <c r="B2" s="709" t="s">
+      <c r="B2" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C2" s="710"/>
-      <c r="D2" s="710"/>
-      <c r="E2" s="711" t="s">
+      <c r="C2" s="705"/>
+      <c r="D2" s="705"/>
+      <c r="E2" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F2" s="696"/>
-      <c r="G2" s="696"/>
+      <c r="F2" s="688"/>
+      <c r="G2" s="688"/>
     </row>
     <row r="3" spans="1:7" ht="14">
       <c r="A3" s="197" t="s">
@@ -58020,13 +58020,13 @@
       <c r="B3" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C3" s="691"/>
-      <c r="D3" s="691"/>
+      <c r="C3" s="686"/>
+      <c r="D3" s="686"/>
       <c r="E3" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F3" s="691"/>
-      <c r="G3" s="691"/>
+      <c r="F3" s="686"/>
+      <c r="G3" s="686"/>
     </row>
     <row r="4" spans="1:7" ht="15.35">
       <c r="A4" s="197"/>
@@ -58163,16 +58163,16 @@
       <c r="A13" s="196" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="709" t="s">
+      <c r="B13" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C13" s="710"/>
-      <c r="D13" s="710"/>
-      <c r="E13" s="711" t="s">
+      <c r="C13" s="705"/>
+      <c r="D13" s="705"/>
+      <c r="E13" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F13" s="696"/>
-      <c r="G13" s="696"/>
+      <c r="F13" s="688"/>
+      <c r="G13" s="688"/>
     </row>
     <row r="14" spans="1:7" ht="14">
       <c r="A14" s="197" t="s">
@@ -58181,13 +58181,13 @@
       <c r="B14" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C14" s="691"/>
-      <c r="D14" s="691"/>
+      <c r="C14" s="686"/>
+      <c r="D14" s="686"/>
       <c r="E14" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F14" s="691"/>
-      <c r="G14" s="691"/>
+      <c r="F14" s="686"/>
+      <c r="G14" s="686"/>
     </row>
     <row r="15" spans="1:7" ht="15.35">
       <c r="A15" s="197"/>
@@ -58342,16 +58342,16 @@
       <c r="A24" s="196" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="709" t="s">
+      <c r="B24" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C24" s="710"/>
-      <c r="D24" s="710"/>
-      <c r="E24" s="711" t="s">
+      <c r="C24" s="705"/>
+      <c r="D24" s="705"/>
+      <c r="E24" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F24" s="696"/>
-      <c r="G24" s="696"/>
+      <c r="F24" s="688"/>
+      <c r="G24" s="688"/>
     </row>
     <row r="25" spans="1:7" ht="14">
       <c r="A25" s="197" t="s">
@@ -58360,13 +58360,13 @@
       <c r="B25" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C25" s="691"/>
-      <c r="D25" s="691"/>
+      <c r="C25" s="686"/>
+      <c r="D25" s="686"/>
       <c r="E25" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F25" s="691"/>
-      <c r="G25" s="691"/>
+      <c r="F25" s="686"/>
+      <c r="G25" s="686"/>
     </row>
     <row r="26" spans="1:7" ht="15.35">
       <c r="A26" s="197"/>
@@ -58503,16 +58503,16 @@
       <c r="A35" s="196" t="s">
         <v>92</v>
       </c>
-      <c r="B35" s="709" t="s">
+      <c r="B35" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C35" s="710"/>
-      <c r="D35" s="710"/>
-      <c r="E35" s="711" t="s">
+      <c r="C35" s="705"/>
+      <c r="D35" s="705"/>
+      <c r="E35" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F35" s="696"/>
-      <c r="G35" s="696"/>
+      <c r="F35" s="688"/>
+      <c r="G35" s="688"/>
     </row>
     <row r="36" spans="1:8" ht="25.35">
       <c r="A36" s="10" t="s">
@@ -58521,13 +58521,13 @@
       <c r="B36" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C36" s="691"/>
-      <c r="D36" s="691"/>
+      <c r="C36" s="686"/>
+      <c r="D36" s="686"/>
       <c r="E36" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F36" s="691"/>
-      <c r="G36" s="691"/>
+      <c r="F36" s="686"/>
+      <c r="G36" s="686"/>
     </row>
     <row r="37" spans="1:8" ht="15.35">
       <c r="B37" s="198" t="s">
@@ -58659,16 +58659,16 @@
       <c r="A48" s="196" t="s">
         <v>99</v>
       </c>
-      <c r="B48" s="709" t="s">
+      <c r="B48" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C48" s="710"/>
-      <c r="D48" s="710"/>
-      <c r="E48" s="711" t="s">
+      <c r="C48" s="705"/>
+      <c r="D48" s="705"/>
+      <c r="E48" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F48" s="696"/>
-      <c r="G48" s="696"/>
+      <c r="F48" s="688"/>
+      <c r="G48" s="688"/>
     </row>
     <row r="49" spans="1:8" ht="25.35">
       <c r="A49" s="10" t="s">
@@ -58677,13 +58677,13 @@
       <c r="B49" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C49" s="691"/>
-      <c r="D49" s="691"/>
+      <c r="C49" s="686"/>
+      <c r="D49" s="686"/>
       <c r="E49" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F49" s="691"/>
-      <c r="G49" s="691"/>
+      <c r="F49" s="686"/>
+      <c r="G49" s="686"/>
     </row>
     <row r="50" spans="1:8" ht="15.35">
       <c r="B50" s="198" t="s">
@@ -58815,16 +58815,16 @@
       <c r="A62" s="196" t="s">
         <v>104</v>
       </c>
-      <c r="B62" s="709" t="s">
+      <c r="B62" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C62" s="710"/>
-      <c r="D62" s="710"/>
-      <c r="E62" s="711" t="s">
+      <c r="C62" s="705"/>
+      <c r="D62" s="705"/>
+      <c r="E62" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F62" s="696"/>
-      <c r="G62" s="696"/>
+      <c r="F62" s="688"/>
+      <c r="G62" s="688"/>
     </row>
     <row r="63" spans="1:8" ht="25.35">
       <c r="A63" s="10" t="s">
@@ -58833,13 +58833,13 @@
       <c r="B63" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C63" s="691"/>
-      <c r="D63" s="691"/>
+      <c r="C63" s="686"/>
+      <c r="D63" s="686"/>
       <c r="E63" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F63" s="691"/>
-      <c r="G63" s="691"/>
+      <c r="F63" s="686"/>
+      <c r="G63" s="686"/>
     </row>
     <row r="64" spans="1:8" ht="15.35">
       <c r="B64" s="198" t="s">
@@ -58964,16 +58964,16 @@
       <c r="A79" s="191" t="s">
         <v>91</v>
       </c>
-      <c r="B79" s="709" t="s">
+      <c r="B79" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C79" s="710"/>
-      <c r="D79" s="710"/>
-      <c r="E79" s="711" t="s">
+      <c r="C79" s="705"/>
+      <c r="D79" s="705"/>
+      <c r="E79" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F79" s="696"/>
-      <c r="G79" s="696"/>
+      <c r="F79" s="688"/>
+      <c r="G79" s="688"/>
     </row>
     <row r="80" spans="1:9" ht="27.35">
       <c r="A80" s="196" t="s">
@@ -58982,13 +58982,13 @@
       <c r="B80" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C80" s="691"/>
-      <c r="D80" s="691"/>
+      <c r="C80" s="686"/>
+      <c r="D80" s="686"/>
       <c r="E80" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F80" s="691"/>
-      <c r="G80" s="691"/>
+      <c r="F80" s="686"/>
+      <c r="G80" s="686"/>
     </row>
     <row r="81" spans="1:7" ht="25.35">
       <c r="A81" s="10" t="s">
@@ -59126,16 +59126,16 @@
       <c r="A99" s="196" t="s">
         <v>119</v>
       </c>
-      <c r="B99" s="709" t="s">
+      <c r="B99" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C99" s="710"/>
-      <c r="D99" s="710"/>
-      <c r="E99" s="711" t="s">
+      <c r="C99" s="705"/>
+      <c r="D99" s="705"/>
+      <c r="E99" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F99" s="696"/>
-      <c r="G99" s="696"/>
+      <c r="F99" s="688"/>
+      <c r="G99" s="688"/>
     </row>
     <row r="100" spans="1:7" ht="14">
       <c r="A100" s="197" t="s">
@@ -59144,13 +59144,13 @@
       <c r="B100" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C100" s="691"/>
-      <c r="D100" s="691"/>
+      <c r="C100" s="686"/>
+      <c r="D100" s="686"/>
       <c r="E100" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F100" s="691"/>
-      <c r="G100" s="691"/>
+      <c r="F100" s="686"/>
+      <c r="G100" s="686"/>
     </row>
     <row r="101" spans="1:7" ht="15.35">
       <c r="A101" s="197"/>
@@ -59308,16 +59308,16 @@
       <c r="A112" s="196" t="s">
         <v>146</v>
       </c>
-      <c r="B112" s="709" t="s">
+      <c r="B112" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C112" s="710"/>
-      <c r="D112" s="710"/>
-      <c r="E112" s="711" t="s">
+      <c r="C112" s="705"/>
+      <c r="D112" s="705"/>
+      <c r="E112" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F112" s="696"/>
-      <c r="G112" s="696"/>
+      <c r="F112" s="688"/>
+      <c r="G112" s="688"/>
     </row>
     <row r="113" spans="1:7" ht="14">
       <c r="A113" s="197" t="s">
@@ -59326,13 +59326,13 @@
       <c r="B113" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C113" s="691"/>
-      <c r="D113" s="691"/>
+      <c r="C113" s="686"/>
+      <c r="D113" s="686"/>
       <c r="E113" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F113" s="691"/>
-      <c r="G113" s="691"/>
+      <c r="F113" s="686"/>
+      <c r="G113" s="686"/>
     </row>
     <row r="114" spans="1:7" ht="15.35">
       <c r="A114" s="197"/>
@@ -59461,31 +59461,31 @@
       <c r="A123" s="196" t="s">
         <v>163</v>
       </c>
-      <c r="B123" s="704" t="s">
+      <c r="B123" s="713" t="s">
         <v>456</v>
       </c>
-      <c r="C123" s="707"/>
-      <c r="D123" s="707"/>
-      <c r="E123" s="705" t="s">
+      <c r="C123" s="714"/>
+      <c r="D123" s="714"/>
+      <c r="E123" s="715" t="s">
         <v>457</v>
       </c>
-      <c r="F123" s="708"/>
-      <c r="G123" s="708"/>
+      <c r="F123" s="716"/>
+      <c r="G123" s="716"/>
     </row>
     <row r="124" spans="1:7" ht="14.35">
       <c r="A124" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B124" s="714" t="s">
+      <c r="B124" s="709" t="s">
         <v>459</v>
       </c>
-      <c r="C124" s="715"/>
-      <c r="D124" s="715"/>
-      <c r="E124" s="716" t="s">
+      <c r="C124" s="710"/>
+      <c r="D124" s="710"/>
+      <c r="E124" s="711" t="s">
         <v>460</v>
       </c>
-      <c r="F124" s="717"/>
-      <c r="G124" s="717"/>
+      <c r="F124" s="712"/>
+      <c r="G124" s="712"/>
     </row>
     <row r="125" spans="1:7" ht="14.35">
       <c r="A125" s="197"/>
@@ -59675,31 +59675,31 @@
       <c r="A136" s="196" t="s">
         <v>167</v>
       </c>
-      <c r="B136" s="709" t="s">
+      <c r="B136" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C136" s="710"/>
-      <c r="D136" s="710"/>
-      <c r="E136" s="711" t="s">
+      <c r="C136" s="705"/>
+      <c r="D136" s="705"/>
+      <c r="E136" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F136" s="712"/>
-      <c r="G136" s="712"/>
+      <c r="F136" s="707"/>
+      <c r="G136" s="707"/>
     </row>
     <row r="137" spans="1:7" ht="14">
       <c r="A137" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B137" s="709" t="s">
+      <c r="B137" s="704" t="s">
         <v>459</v>
       </c>
-      <c r="C137" s="712"/>
-      <c r="D137" s="713"/>
-      <c r="E137" s="711" t="s">
+      <c r="C137" s="707"/>
+      <c r="D137" s="708"/>
+      <c r="E137" s="706" t="s">
         <v>460</v>
       </c>
-      <c r="F137" s="712"/>
-      <c r="G137" s="712"/>
+      <c r="F137" s="707"/>
+      <c r="G137" s="707"/>
     </row>
     <row r="138" spans="1:7" ht="15.35">
       <c r="A138" s="197"/>
@@ -59843,31 +59843,31 @@
       <c r="A152" s="196" t="s">
         <v>186</v>
       </c>
-      <c r="B152" s="704" t="s">
+      <c r="B152" s="713" t="s">
         <v>456</v>
       </c>
-      <c r="C152" s="707"/>
-      <c r="D152" s="707"/>
-      <c r="E152" s="705" t="s">
+      <c r="C152" s="714"/>
+      <c r="D152" s="714"/>
+      <c r="E152" s="715" t="s">
         <v>457</v>
       </c>
-      <c r="F152" s="708"/>
-      <c r="G152" s="708"/>
+      <c r="F152" s="716"/>
+      <c r="G152" s="716"/>
     </row>
     <row r="153" spans="1:7" ht="21" customHeight="1">
       <c r="A153" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B153" s="704" t="s">
+      <c r="B153" s="713" t="s">
         <v>459</v>
       </c>
-      <c r="C153" s="707"/>
-      <c r="D153" s="707"/>
-      <c r="E153" s="705" t="s">
+      <c r="C153" s="714"/>
+      <c r="D153" s="714"/>
+      <c r="E153" s="715" t="s">
         <v>460</v>
       </c>
-      <c r="F153" s="708"/>
-      <c r="G153" s="708"/>
+      <c r="F153" s="716"/>
+      <c r="G153" s="716"/>
     </row>
     <row r="154" spans="1:7" ht="14.35">
       <c r="B154" s="220" t="s">
@@ -60143,31 +60143,31 @@
       <c r="A171" s="196" t="s">
         <v>208</v>
       </c>
-      <c r="B171" s="704" t="s">
+      <c r="B171" s="713" t="s">
         <v>456</v>
       </c>
-      <c r="C171" s="707"/>
-      <c r="D171" s="707"/>
-      <c r="E171" s="705" t="s">
+      <c r="C171" s="714"/>
+      <c r="D171" s="714"/>
+      <c r="E171" s="715" t="s">
         <v>457</v>
       </c>
-      <c r="F171" s="708"/>
-      <c r="G171" s="708"/>
+      <c r="F171" s="716"/>
+      <c r="G171" s="716"/>
     </row>
     <row r="172" spans="1:7" ht="27.35">
       <c r="A172" s="197" t="s">
         <v>476</v>
       </c>
-      <c r="B172" s="704" t="s">
+      <c r="B172" s="713" t="s">
         <v>459</v>
       </c>
-      <c r="C172" s="707"/>
-      <c r="D172" s="707"/>
-      <c r="E172" s="705" t="s">
+      <c r="C172" s="714"/>
+      <c r="D172" s="714"/>
+      <c r="E172" s="715" t="s">
         <v>460</v>
       </c>
-      <c r="F172" s="708"/>
-      <c r="G172" s="708"/>
+      <c r="F172" s="716"/>
+      <c r="G172" s="716"/>
     </row>
     <row r="173" spans="1:7" ht="14.35">
       <c r="A173" s="201"/>
@@ -60443,31 +60443,31 @@
       <c r="A190" s="196" t="s">
         <v>210</v>
       </c>
-      <c r="B190" s="704" t="s">
+      <c r="B190" s="713" t="s">
         <v>456</v>
       </c>
-      <c r="C190" s="707"/>
-      <c r="D190" s="707"/>
-      <c r="E190" s="705" t="s">
+      <c r="C190" s="714"/>
+      <c r="D190" s="714"/>
+      <c r="E190" s="715" t="s">
         <v>457</v>
       </c>
-      <c r="F190" s="708"/>
-      <c r="G190" s="708"/>
+      <c r="F190" s="716"/>
+      <c r="G190" s="716"/>
     </row>
     <row r="191" spans="1:7" ht="25.35">
       <c r="A191" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B191" s="704" t="s">
+      <c r="B191" s="713" t="s">
         <v>459</v>
       </c>
-      <c r="C191" s="707"/>
-      <c r="D191" s="707"/>
-      <c r="E191" s="705" t="s">
+      <c r="C191" s="714"/>
+      <c r="D191" s="714"/>
+      <c r="E191" s="715" t="s">
         <v>460</v>
       </c>
-      <c r="F191" s="708"/>
-      <c r="G191" s="708"/>
+      <c r="F191" s="716"/>
+      <c r="G191" s="716"/>
     </row>
     <row r="192" spans="1:7" ht="14.35">
       <c r="B192" s="220" t="s">
@@ -60721,31 +60721,31 @@
       <c r="A208" s="196" t="s">
         <v>215</v>
       </c>
-      <c r="B208" s="704" t="s">
+      <c r="B208" s="713" t="s">
         <v>456</v>
       </c>
-      <c r="C208" s="707"/>
-      <c r="D208" s="707"/>
-      <c r="E208" s="705" t="s">
+      <c r="C208" s="714"/>
+      <c r="D208" s="714"/>
+      <c r="E208" s="715" t="s">
         <v>457</v>
       </c>
-      <c r="F208" s="708"/>
-      <c r="G208" s="708"/>
+      <c r="F208" s="716"/>
+      <c r="G208" s="716"/>
     </row>
     <row r="209" spans="1:7" ht="25.35">
       <c r="A209" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B209" s="704" t="s">
+      <c r="B209" s="713" t="s">
         <v>459</v>
       </c>
-      <c r="C209" s="707"/>
-      <c r="D209" s="707"/>
-      <c r="E209" s="705" t="s">
+      <c r="C209" s="714"/>
+      <c r="D209" s="714"/>
+      <c r="E209" s="715" t="s">
         <v>460</v>
       </c>
-      <c r="F209" s="708"/>
-      <c r="G209" s="708"/>
+      <c r="F209" s="716"/>
+      <c r="G209" s="716"/>
     </row>
     <row r="210" spans="1:7" ht="14.35">
       <c r="B210" s="220" t="s">
@@ -61009,31 +61009,31 @@
       <c r="A226" s="196" t="s">
         <v>218</v>
       </c>
-      <c r="B226" s="704" t="s">
+      <c r="B226" s="713" t="s">
         <v>456</v>
       </c>
-      <c r="C226" s="707"/>
-      <c r="D226" s="707"/>
-      <c r="E226" s="705" t="s">
+      <c r="C226" s="714"/>
+      <c r="D226" s="714"/>
+      <c r="E226" s="715" t="s">
         <v>457</v>
       </c>
-      <c r="F226" s="706"/>
-      <c r="G226" s="706"/>
+      <c r="F226" s="717"/>
+      <c r="G226" s="717"/>
     </row>
     <row r="227" spans="1:7" ht="27.35">
       <c r="A227" s="197" t="s">
         <v>476</v>
       </c>
-      <c r="B227" s="704" t="s">
+      <c r="B227" s="713" t="s">
         <v>459</v>
       </c>
-      <c r="C227" s="641"/>
-      <c r="D227" s="641"/>
-      <c r="E227" s="705" t="s">
+      <c r="C227" s="644"/>
+      <c r="D227" s="644"/>
+      <c r="E227" s="715" t="s">
         <v>460</v>
       </c>
-      <c r="F227" s="706"/>
-      <c r="G227" s="706"/>
+      <c r="F227" s="717"/>
+      <c r="G227" s="717"/>
     </row>
     <row r="228" spans="1:7" ht="14.35">
       <c r="A228" s="197"/>
@@ -61231,31 +61231,31 @@
       <c r="A240" s="196" t="s">
         <v>223</v>
       </c>
-      <c r="B240" s="704" t="s">
+      <c r="B240" s="713" t="s">
         <v>456</v>
       </c>
-      <c r="C240" s="707"/>
-      <c r="D240" s="707"/>
-      <c r="E240" s="705" t="s">
+      <c r="C240" s="714"/>
+      <c r="D240" s="714"/>
+      <c r="E240" s="715" t="s">
         <v>457</v>
       </c>
-      <c r="F240" s="706"/>
-      <c r="G240" s="706"/>
+      <c r="F240" s="717"/>
+      <c r="G240" s="717"/>
     </row>
     <row r="241" spans="1:7" ht="27.35">
       <c r="A241" s="197" t="s">
         <v>476</v>
       </c>
-      <c r="B241" s="704" t="s">
+      <c r="B241" s="713" t="s">
         <v>459</v>
       </c>
-      <c r="C241" s="641"/>
-      <c r="D241" s="641"/>
-      <c r="E241" s="705" t="s">
+      <c r="C241" s="644"/>
+      <c r="D241" s="644"/>
+      <c r="E241" s="715" t="s">
         <v>460</v>
       </c>
-      <c r="F241" s="706"/>
-      <c r="G241" s="706"/>
+      <c r="F241" s="717"/>
+      <c r="G241" s="717"/>
     </row>
     <row r="242" spans="1:7" ht="14.35">
       <c r="A242" s="197"/>
@@ -61514,34 +61514,28 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="B137:D137"/>
-    <mergeCell ref="E137:G137"/>
-    <mergeCell ref="B124:D124"/>
-    <mergeCell ref="E124:G124"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="E112:G112"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="E113:G113"/>
-    <mergeCell ref="B136:D136"/>
-    <mergeCell ref="E136:G136"/>
+    <mergeCell ref="B152:D152"/>
+    <mergeCell ref="E152:G152"/>
+    <mergeCell ref="B153:D153"/>
+    <mergeCell ref="E153:G153"/>
+    <mergeCell ref="B172:D172"/>
+    <mergeCell ref="E172:G172"/>
+    <mergeCell ref="B190:D190"/>
+    <mergeCell ref="E190:G190"/>
+    <mergeCell ref="B191:D191"/>
+    <mergeCell ref="E191:G191"/>
+    <mergeCell ref="B241:D241"/>
+    <mergeCell ref="E241:G241"/>
+    <mergeCell ref="B208:D208"/>
+    <mergeCell ref="E208:G208"/>
+    <mergeCell ref="B209:D209"/>
+    <mergeCell ref="E209:G209"/>
+    <mergeCell ref="B226:D226"/>
+    <mergeCell ref="E226:G226"/>
+    <mergeCell ref="B227:D227"/>
+    <mergeCell ref="E227:G227"/>
+    <mergeCell ref="B240:D240"/>
+    <mergeCell ref="E240:G240"/>
     <mergeCell ref="B171:D171"/>
     <mergeCell ref="E171:G171"/>
     <mergeCell ref="B35:D35"/>
@@ -61558,30 +61552,36 @@
     <mergeCell ref="E62:G62"/>
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="E63:G63"/>
-    <mergeCell ref="B241:D241"/>
-    <mergeCell ref="E241:G241"/>
-    <mergeCell ref="B208:D208"/>
-    <mergeCell ref="E208:G208"/>
-    <mergeCell ref="B209:D209"/>
-    <mergeCell ref="E209:G209"/>
-    <mergeCell ref="B226:D226"/>
-    <mergeCell ref="E226:G226"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="E113:G113"/>
+    <mergeCell ref="B136:D136"/>
+    <mergeCell ref="E136:G136"/>
     <mergeCell ref="B80:D80"/>
     <mergeCell ref="E80:G80"/>
-    <mergeCell ref="B227:D227"/>
-    <mergeCell ref="E227:G227"/>
-    <mergeCell ref="B240:D240"/>
-    <mergeCell ref="E240:G240"/>
-    <mergeCell ref="B172:D172"/>
-    <mergeCell ref="E172:G172"/>
-    <mergeCell ref="B190:D190"/>
-    <mergeCell ref="E190:G190"/>
-    <mergeCell ref="B191:D191"/>
-    <mergeCell ref="E191:G191"/>
-    <mergeCell ref="B152:D152"/>
-    <mergeCell ref="E152:G152"/>
-    <mergeCell ref="B153:D153"/>
-    <mergeCell ref="E153:G153"/>
+    <mergeCell ref="B137:D137"/>
+    <mergeCell ref="E137:G137"/>
+    <mergeCell ref="B124:D124"/>
+    <mergeCell ref="E124:G124"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="E112:G112"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -62324,9 +62324,9 @@
       <c r="A1" s="722" t="s">
         <v>448</v>
       </c>
-      <c r="B1" s="696"/>
-      <c r="C1" s="696"/>
-      <c r="D1" s="696"/>
+      <c r="B1" s="688"/>
+      <c r="C1" s="688"/>
+      <c r="D1" s="688"/>
       <c r="E1" s="723" t="s">
         <v>449</v>
       </c>

--- a/microgrid_base/设备信息库各参数.xlsx
+++ b/microgrid_base/设备信息库各参数.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\works\jubilant-adventure2\microgrid_base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CDA30E-2FB2-4165-A8E3-E5F090D49D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BEB01C-BA02-4539-8126-D3A0103A9041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="8180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6555,7 +6555,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6564,54 +6564,29 @@
     <xf numFmtId="0" fontId="65" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="67" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6626,13 +6601,47 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6650,17 +6659,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6679,8 +6679,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6689,17 +6726,8 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6713,41 +6741,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6755,6 +6758,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6771,15 +6780,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -8843,7 +8843,7 @@
       <c r="C15" s="370">
         <v>560</v>
       </c>
-      <c r="D15" s="635"/>
+      <c r="D15" s="644"/>
       <c r="E15" s="365"/>
       <c r="F15" s="363"/>
       <c r="G15" s="363"/>
@@ -8924,7 +8924,7 @@
       <c r="B21" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="638"/>
+      <c r="C21" s="639"/>
       <c r="D21" s="363"/>
       <c r="E21" s="363"/>
       <c r="F21" s="363"/>
@@ -9205,7 +9205,7 @@
       <c r="C41" s="375">
         <v>560</v>
       </c>
-      <c r="D41" s="639"/>
+      <c r="D41" s="635"/>
       <c r="E41" s="366"/>
       <c r="F41" s="363"/>
       <c r="G41" s="363"/>
@@ -9286,7 +9286,7 @@
       <c r="B47" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="638"/>
+      <c r="C47" s="639"/>
       <c r="D47" s="363"/>
       <c r="E47" s="363"/>
       <c r="F47" s="363"/>
@@ -9621,7 +9621,7 @@
       <c r="C71" s="370">
         <v>560</v>
       </c>
-      <c r="D71" s="639"/>
+      <c r="D71" s="635"/>
       <c r="E71" s="363"/>
       <c r="F71" s="363"/>
       <c r="G71" s="363"/>
@@ -9702,7 +9702,7 @@
       <c r="B77" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C77" s="638"/>
+      <c r="C77" s="639"/>
       <c r="D77" s="363"/>
       <c r="E77" s="363"/>
       <c r="F77" s="363"/>
@@ -9876,10 +9876,10 @@
       </c>
       <c r="E91" s="363"/>
       <c r="F91" s="363"/>
-      <c r="G91" s="640" t="s">
+      <c r="G91" s="642" t="s">
         <v>59</v>
       </c>
-      <c r="H91" s="641"/>
+      <c r="H91" s="643"/>
     </row>
     <row r="92" spans="1:8" ht="14.35">
       <c r="A92" s="363"/>
@@ -10007,7 +10007,7 @@
       <c r="C99" s="370">
         <v>560</v>
       </c>
-      <c r="D99" s="639"/>
+      <c r="D99" s="635"/>
       <c r="E99" s="363"/>
       <c r="F99" s="363"/>
       <c r="G99" s="363"/>
@@ -10088,7 +10088,7 @@
       <c r="B105" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C105" s="642"/>
+      <c r="C105" s="638"/>
       <c r="D105" s="363"/>
       <c r="E105" s="363"/>
       <c r="F105" s="363"/>
@@ -10387,7 +10387,7 @@
       <c r="C128" s="370">
         <v>560</v>
       </c>
-      <c r="D128" s="639"/>
+      <c r="D128" s="635"/>
       <c r="E128" s="363"/>
       <c r="F128" s="363"/>
       <c r="G128" s="363"/>
@@ -10468,7 +10468,7 @@
       <c r="B134" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C134" s="642"/>
+      <c r="C134" s="638"/>
       <c r="D134" s="363"/>
       <c r="E134" s="363"/>
       <c r="F134" s="363"/>
@@ -10741,7 +10741,7 @@
       <c r="C158" s="370">
         <v>560</v>
       </c>
-      <c r="D158" s="639"/>
+      <c r="D158" s="635"/>
       <c r="E158" s="363"/>
     </row>
     <row r="159" spans="1:8" ht="14.35">
@@ -10804,7 +10804,7 @@
       <c r="B164" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C164" s="642"/>
+      <c r="C164" s="638"/>
       <c r="D164" s="363"/>
       <c r="E164" s="363"/>
     </row>
@@ -10944,7 +10944,7 @@
       <c r="C179" s="375">
         <v>560</v>
       </c>
-      <c r="D179" s="639"/>
+      <c r="D179" s="635"/>
       <c r="E179" s="363"/>
       <c r="F179" s="363"/>
       <c r="G179" s="363"/>
@@ -11025,7 +11025,7 @@
       <c r="B185" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C185" s="638"/>
+      <c r="C185" s="639"/>
       <c r="D185" s="363"/>
       <c r="E185" s="363"/>
       <c r="F185" s="363"/>
@@ -11222,7 +11222,7 @@
       <c r="C201" s="375">
         <v>560</v>
       </c>
-      <c r="D201" s="639"/>
+      <c r="D201" s="635"/>
       <c r="E201" s="363"/>
       <c r="F201" s="363"/>
       <c r="G201" s="363"/>
@@ -11302,7 +11302,7 @@
       <c r="B207" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C207" s="638"/>
+      <c r="C207" s="639"/>
       <c r="D207" s="363"/>
       <c r="E207" s="363"/>
       <c r="F207" s="363"/>
@@ -11797,7 +11797,7 @@
       <c r="C242" s="370">
         <v>560</v>
       </c>
-      <c r="D242" s="639"/>
+      <c r="D242" s="635"/>
       <c r="E242" s="363"/>
       <c r="F242" s="363"/>
       <c r="G242" s="363"/>
@@ -11878,7 +11878,7 @@
       <c r="B248" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C248" s="642"/>
+      <c r="C248" s="638"/>
       <c r="D248" s="363"/>
       <c r="E248" s="363"/>
       <c r="F248" s="363"/>
@@ -12267,7 +12267,7 @@
       <c r="C278" s="370">
         <v>560</v>
       </c>
-      <c r="D278" s="639"/>
+      <c r="D278" s="635"/>
       <c r="E278" s="363"/>
       <c r="F278" s="363"/>
       <c r="G278" s="363"/>
@@ -12348,7 +12348,7 @@
       <c r="B284" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C284" s="642"/>
+      <c r="C284" s="638"/>
       <c r="D284" s="363"/>
       <c r="E284" s="363"/>
       <c r="F284" s="363"/>
@@ -12578,7 +12578,7 @@
       <c r="C304" s="370">
         <v>560</v>
       </c>
-      <c r="D304" s="639"/>
+      <c r="D304" s="635"/>
       <c r="E304" s="363"/>
       <c r="F304" s="363"/>
       <c r="G304" s="363"/>
@@ -12659,7 +12659,7 @@
       <c r="B310" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C310" s="642"/>
+      <c r="C310" s="638"/>
       <c r="D310" s="363"/>
       <c r="E310" s="363"/>
       <c r="F310" s="363"/>
@@ -12846,7 +12846,7 @@
       <c r="C327" s="370">
         <v>560</v>
       </c>
-      <c r="D327" s="639"/>
+      <c r="D327" s="635"/>
       <c r="E327" s="363"/>
       <c r="F327" s="363"/>
       <c r="G327" s="363"/>
@@ -12927,7 +12927,7 @@
       <c r="B333" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C333" s="642"/>
+      <c r="C333" s="638"/>
       <c r="D333" s="363"/>
       <c r="E333" s="363"/>
       <c r="F333" s="363"/>
@@ -13120,7 +13120,7 @@
       <c r="C349" s="370">
         <v>560</v>
       </c>
-      <c r="D349" s="639"/>
+      <c r="D349" s="635"/>
       <c r="F349" s="363"/>
       <c r="G349" s="363"/>
       <c r="H349" s="363"/>
@@ -13195,7 +13195,7 @@
       <c r="B355" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C355" s="642"/>
+      <c r="C355" s="638"/>
       <c r="D355" s="363"/>
       <c r="F355" s="363"/>
       <c r="G355" s="363"/>
@@ -13540,7 +13540,7 @@
       <c r="C383" s="370">
         <v>560</v>
       </c>
-      <c r="D383" s="639"/>
+      <c r="D383" s="635"/>
       <c r="E383" s="363"/>
       <c r="F383" s="363"/>
       <c r="G383" s="363"/>
@@ -13621,7 +13621,7 @@
       <c r="B389" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C389" s="642"/>
+      <c r="C389" s="638"/>
       <c r="D389" s="363"/>
       <c r="E389" s="363"/>
       <c r="F389" s="363"/>
@@ -13969,7 +13969,7 @@
       <c r="C418" s="370">
         <v>560</v>
       </c>
-      <c r="D418" s="639"/>
+      <c r="D418" s="635"/>
       <c r="E418" s="363"/>
       <c r="F418" s="363"/>
       <c r="G418" s="363"/>
@@ -14050,7 +14050,7 @@
       <c r="B424" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C424" s="642"/>
+      <c r="C424" s="638"/>
       <c r="D424" s="363"/>
       <c r="E424" s="363"/>
       <c r="F424" s="363"/>
@@ -14376,7 +14376,7 @@
       <c r="B451" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C451" s="642"/>
+      <c r="C451" s="638"/>
       <c r="D451" s="363"/>
       <c r="E451" s="363"/>
       <c r="F451" s="363"/>
@@ -14591,7 +14591,7 @@
       <c r="C469" s="370">
         <v>560</v>
       </c>
-      <c r="D469" s="639"/>
+      <c r="D469" s="635"/>
       <c r="E469" s="363"/>
       <c r="F469" s="363"/>
       <c r="G469" s="363"/>
@@ -14672,7 +14672,7 @@
       <c r="B475" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C475" s="642"/>
+      <c r="C475" s="638"/>
       <c r="D475" s="363"/>
       <c r="E475" s="363"/>
       <c r="F475" s="363"/>
@@ -14899,7 +14899,7 @@
       <c r="C494" s="370">
         <v>560</v>
       </c>
-      <c r="D494" s="639"/>
+      <c r="D494" s="635"/>
       <c r="E494" s="365" t="s">
         <v>684</v>
       </c>
@@ -14982,7 +14982,7 @@
       <c r="B500" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C500" s="642"/>
+      <c r="C500" s="638"/>
       <c r="D500" s="363"/>
       <c r="E500" s="363"/>
       <c r="F500" s="363"/>
@@ -15203,7 +15203,7 @@
       <c r="C519" s="370">
         <v>560</v>
       </c>
-      <c r="D519" s="639"/>
+      <c r="D519" s="635"/>
       <c r="E519" s="365" t="s">
         <v>686</v>
       </c>
@@ -15286,7 +15286,7 @@
       <c r="B525" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C525" s="642"/>
+      <c r="C525" s="638"/>
       <c r="D525" s="363"/>
       <c r="E525" s="363"/>
       <c r="F525" s="363"/>
@@ -15553,7 +15553,7 @@
       <c r="C547" s="370">
         <v>560</v>
       </c>
-      <c r="D547" s="639"/>
+      <c r="D547" s="635"/>
       <c r="E547" s="363"/>
       <c r="F547" s="363"/>
       <c r="G547" s="363"/>
@@ -15634,7 +15634,7 @@
       <c r="B553" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C553" s="642"/>
+      <c r="C553" s="638"/>
       <c r="D553" s="363"/>
       <c r="E553" s="363"/>
       <c r="F553" s="363"/>
@@ -15965,7 +15965,7 @@
       <c r="C580" s="370">
         <v>560</v>
       </c>
-      <c r="D580" s="639"/>
+      <c r="D580" s="635"/>
       <c r="E580" s="363"/>
       <c r="F580" s="363"/>
       <c r="G580" s="363"/>
@@ -16046,7 +16046,7 @@
       <c r="B586" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C586" s="642"/>
+      <c r="C586" s="638"/>
       <c r="D586" s="363"/>
       <c r="E586" s="363"/>
       <c r="F586" s="363"/>
@@ -16310,7 +16310,7 @@
       <c r="C608" s="370">
         <v>560</v>
       </c>
-      <c r="D608" s="639"/>
+      <c r="D608" s="635"/>
       <c r="E608" s="363"/>
       <c r="F608" s="363"/>
       <c r="G608" s="363"/>
@@ -16391,7 +16391,7 @@
       <c r="B614" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C614" s="642"/>
+      <c r="C614" s="638"/>
       <c r="D614" s="363"/>
       <c r="E614" s="363"/>
       <c r="F614" s="363"/>
@@ -16675,7 +16675,7 @@
       <c r="B637" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C637" s="642"/>
+      <c r="C637" s="638"/>
       <c r="D637" s="363"/>
       <c r="E637" s="363"/>
       <c r="F637" s="363"/>
@@ -16970,10 +16970,10 @@
     </row>
     <row r="660" spans="1:8" ht="14.35">
       <c r="A660" s="363"/>
-      <c r="B660" s="643" t="s">
+      <c r="B660" s="640" t="s">
         <v>34</v>
       </c>
-      <c r="C660" s="644"/>
+      <c r="C660" s="641"/>
       <c r="D660" s="363"/>
       <c r="E660" s="363"/>
       <c r="F660" s="363"/>
@@ -17272,10 +17272,10 @@
     </row>
     <row r="683" spans="1:8" ht="14.35">
       <c r="A683" s="363"/>
-      <c r="B683" s="643" t="s">
+      <c r="B683" s="640" t="s">
         <v>34</v>
       </c>
-      <c r="C683" s="644"/>
+      <c r="C683" s="641"/>
       <c r="D683" s="363"/>
       <c r="E683" s="363"/>
       <c r="F683" s="363"/>
@@ -17639,7 +17639,7 @@
       <c r="B711" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C711" s="642"/>
+      <c r="C711" s="638"/>
       <c r="D711" s="363"/>
       <c r="E711" s="363"/>
       <c r="F711" s="363"/>
@@ -17884,7 +17884,7 @@
       <c r="C729" s="370">
         <v>560</v>
       </c>
-      <c r="D729" s="639"/>
+      <c r="D729" s="635"/>
       <c r="E729" s="363"/>
       <c r="F729" s="363"/>
       <c r="G729" s="363"/>
@@ -17965,7 +17965,7 @@
       <c r="B735" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C735" s="642"/>
+      <c r="C735" s="638"/>
       <c r="D735" s="363"/>
       <c r="E735" s="363"/>
       <c r="F735" s="363"/>
@@ -18226,7 +18226,7 @@
       <c r="C756" s="370">
         <v>560</v>
       </c>
-      <c r="D756" s="639"/>
+      <c r="D756" s="635"/>
       <c r="E756" s="363"/>
       <c r="F756" s="363"/>
       <c r="G756" s="363"/>
@@ -18307,7 +18307,7 @@
       <c r="B762" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C762" s="642"/>
+      <c r="C762" s="638"/>
       <c r="D762" s="363"/>
       <c r="E762" s="363"/>
       <c r="F762" s="363"/>
@@ -18633,7 +18633,7 @@
       <c r="B789" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C789" s="638"/>
+      <c r="C789" s="639"/>
       <c r="D789" s="363"/>
       <c r="E789" s="363"/>
       <c r="F789" s="363"/>
@@ -18959,7 +18959,7 @@
       <c r="B816" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C816" s="638"/>
+      <c r="C816" s="639"/>
       <c r="D816" s="363"/>
       <c r="E816" s="363"/>
       <c r="F816" s="363"/>
@@ -19250,7 +19250,7 @@
       <c r="C839" s="375">
         <v>560</v>
       </c>
-      <c r="D839" s="639"/>
+      <c r="D839" s="635"/>
       <c r="E839" s="365"/>
       <c r="F839" s="363"/>
       <c r="G839" s="363"/>
@@ -19331,7 +19331,7 @@
       <c r="B845" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C845" s="638"/>
+      <c r="C845" s="639"/>
       <c r="D845" s="363"/>
       <c r="E845" s="363"/>
       <c r="F845" s="363"/>
@@ -19712,7 +19712,7 @@
       <c r="B876" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C876" s="638"/>
+      <c r="C876" s="639"/>
       <c r="D876" s="363"/>
       <c r="E876" s="363"/>
       <c r="F876" s="363"/>
@@ -20068,7 +20068,7 @@
       <c r="B907" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C907" s="638"/>
+      <c r="C907" s="639"/>
       <c r="D907" s="363"/>
       <c r="E907" s="363"/>
       <c r="F907" s="363"/>
@@ -20341,7 +20341,7 @@
       <c r="B931" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C931" s="638"/>
+      <c r="C931" s="639"/>
       <c r="D931" s="363"/>
       <c r="E931" s="363"/>
       <c r="F931" s="363"/>
@@ -20691,7 +20691,7 @@
       <c r="B958" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C958" s="638"/>
+      <c r="C958" s="639"/>
       <c r="D958" s="363"/>
       <c r="E958" s="363"/>
       <c r="F958" s="363"/>
@@ -20987,7 +20987,7 @@
       <c r="B981" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C981" s="638"/>
+      <c r="C981" s="639"/>
       <c r="D981" s="363"/>
       <c r="E981" s="363"/>
       <c r="F981" s="363"/>
@@ -21283,7 +21283,7 @@
       <c r="B1005" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1005" s="638"/>
+      <c r="C1005" s="639"/>
       <c r="D1005" s="363"/>
       <c r="E1005" s="363"/>
       <c r="F1005" s="363"/>
@@ -21479,7 +21479,7 @@
       <c r="B1024" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1024" s="638"/>
+      <c r="C1024" s="639"/>
       <c r="F1024" s="363"/>
       <c r="G1024" s="363"/>
       <c r="H1024" s="363"/>
@@ -21706,7 +21706,7 @@
       <c r="C1042" s="370">
         <v>560</v>
       </c>
-      <c r="D1042" s="639"/>
+      <c r="D1042" s="635"/>
       <c r="E1042" s="363"/>
       <c r="F1042" s="363"/>
       <c r="G1042" s="363"/>
@@ -21787,7 +21787,7 @@
       <c r="B1048" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1048" s="642"/>
+      <c r="C1048" s="638"/>
       <c r="D1048" s="363"/>
       <c r="E1048" s="363"/>
       <c r="F1048" s="363"/>
@@ -22053,7 +22053,7 @@
       <c r="B1070" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1070" s="638"/>
+      <c r="C1070" s="639"/>
       <c r="D1070" s="363"/>
       <c r="E1070" s="363"/>
       <c r="F1070" s="363"/>
@@ -22298,7 +22298,7 @@
       <c r="C1089" s="370">
         <v>560</v>
       </c>
-      <c r="D1089" s="639"/>
+      <c r="D1089" s="635"/>
       <c r="E1089" s="363"/>
       <c r="F1089" s="363"/>
       <c r="G1089" s="363"/>
@@ -22373,7 +22373,7 @@
       <c r="B1095" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1095" s="642"/>
+      <c r="C1095" s="638"/>
       <c r="D1095" s="363"/>
       <c r="E1095" s="363"/>
       <c r="F1095" s="363"/>
@@ -22649,7 +22649,7 @@
       <c r="C1120" s="370">
         <v>560</v>
       </c>
-      <c r="D1120" s="639"/>
+      <c r="D1120" s="635"/>
       <c r="E1120" s="363"/>
       <c r="F1120" s="363"/>
       <c r="G1120" s="363"/>
@@ -22726,7 +22726,7 @@
       <c r="B1126" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1126" s="642"/>
+      <c r="C1126" s="638"/>
       <c r="D1126" s="363"/>
       <c r="E1126" s="363"/>
       <c r="F1126" s="363"/>
@@ -23089,7 +23089,7 @@
       <c r="B1155" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1155" s="642"/>
+      <c r="C1155" s="638"/>
       <c r="D1155" s="363"/>
       <c r="E1155" s="363"/>
       <c r="F1155" s="363"/>
@@ -23198,6 +23198,61 @@
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D41:D46"/>
+    <mergeCell ref="D71:D75"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="D99:D103"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="D128:D132"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="D158:D162"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="D179:D184"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="D201:D206"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="D242:D246"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="D278:D282"/>
+    <mergeCell ref="B284:C284"/>
+    <mergeCell ref="D304:D308"/>
+    <mergeCell ref="B310:C310"/>
+    <mergeCell ref="D327:D331"/>
+    <mergeCell ref="B333:C333"/>
+    <mergeCell ref="D383:D387"/>
+    <mergeCell ref="B389:C389"/>
+    <mergeCell ref="D418:D422"/>
+    <mergeCell ref="B424:C424"/>
+    <mergeCell ref="B451:C451"/>
+    <mergeCell ref="D469:D473"/>
+    <mergeCell ref="B475:C475"/>
+    <mergeCell ref="D494:D498"/>
+    <mergeCell ref="B500:C500"/>
+    <mergeCell ref="D519:D523"/>
+    <mergeCell ref="B525:C525"/>
+    <mergeCell ref="D547:D551"/>
+    <mergeCell ref="B553:C553"/>
+    <mergeCell ref="D580:D584"/>
+    <mergeCell ref="B586:C586"/>
+    <mergeCell ref="D608:D612"/>
+    <mergeCell ref="B614:C614"/>
+    <mergeCell ref="B637:C637"/>
+    <mergeCell ref="B660:C660"/>
+    <mergeCell ref="B683:C683"/>
+    <mergeCell ref="B711:C711"/>
+    <mergeCell ref="D839:D844"/>
+    <mergeCell ref="B845:C845"/>
+    <mergeCell ref="B876:C876"/>
+    <mergeCell ref="B907:C907"/>
+    <mergeCell ref="D729:D733"/>
+    <mergeCell ref="B735:C735"/>
+    <mergeCell ref="D756:D760"/>
+    <mergeCell ref="B762:C762"/>
+    <mergeCell ref="B789:C789"/>
     <mergeCell ref="D1120:D1124"/>
     <mergeCell ref="B1126:C1126"/>
     <mergeCell ref="B1155:C1155"/>
@@ -23214,61 +23269,6 @@
     <mergeCell ref="B1005:C1005"/>
     <mergeCell ref="B1024:C1024"/>
     <mergeCell ref="B816:C816"/>
-    <mergeCell ref="D839:D844"/>
-    <mergeCell ref="B845:C845"/>
-    <mergeCell ref="B876:C876"/>
-    <mergeCell ref="B907:C907"/>
-    <mergeCell ref="D729:D733"/>
-    <mergeCell ref="B735:C735"/>
-    <mergeCell ref="D756:D760"/>
-    <mergeCell ref="B762:C762"/>
-    <mergeCell ref="B789:C789"/>
-    <mergeCell ref="B614:C614"/>
-    <mergeCell ref="B637:C637"/>
-    <mergeCell ref="B660:C660"/>
-    <mergeCell ref="B683:C683"/>
-    <mergeCell ref="B711:C711"/>
-    <mergeCell ref="D547:D551"/>
-    <mergeCell ref="B553:C553"/>
-    <mergeCell ref="D580:D584"/>
-    <mergeCell ref="B586:C586"/>
-    <mergeCell ref="D608:D612"/>
-    <mergeCell ref="B475:C475"/>
-    <mergeCell ref="D494:D498"/>
-    <mergeCell ref="B500:C500"/>
-    <mergeCell ref="D519:D523"/>
-    <mergeCell ref="B525:C525"/>
-    <mergeCell ref="B389:C389"/>
-    <mergeCell ref="D418:D422"/>
-    <mergeCell ref="B424:C424"/>
-    <mergeCell ref="B451:C451"/>
-    <mergeCell ref="D469:D473"/>
-    <mergeCell ref="D304:D308"/>
-    <mergeCell ref="B310:C310"/>
-    <mergeCell ref="D327:D331"/>
-    <mergeCell ref="B333:C333"/>
-    <mergeCell ref="D383:D387"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="D242:D246"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="D278:D282"/>
-    <mergeCell ref="B284:C284"/>
-    <mergeCell ref="D158:D162"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="D179:D184"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="D201:D206"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="D99:D103"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="D128:D132"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D41:D46"/>
-    <mergeCell ref="D71:D75"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23614,7 +23614,7 @@
       <c r="B20" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="638"/>
+      <c r="C20" s="639"/>
       <c r="D20" s="363"/>
       <c r="E20" s="363"/>
       <c r="F20" s="363"/>
@@ -23789,7 +23789,7 @@
         <v>29</v>
       </c>
       <c r="C36" s="375"/>
-      <c r="D36" s="650"/>
+      <c r="D36" s="645"/>
       <c r="E36" s="26"/>
       <c r="K36" s="10"/>
     </row>
@@ -23799,7 +23799,7 @@
         <v>45</v>
       </c>
       <c r="C37" s="370"/>
-      <c r="D37" s="651"/>
+      <c r="D37" s="646"/>
       <c r="E37" s="26"/>
       <c r="K37" s="10"/>
     </row>
@@ -23809,7 +23809,7 @@
         <v>30</v>
       </c>
       <c r="C38" s="370"/>
-      <c r="D38" s="651"/>
+      <c r="D38" s="646"/>
       <c r="E38" s="28"/>
       <c r="K38" s="10"/>
     </row>
@@ -23819,7 +23819,7 @@
         <v>31</v>
       </c>
       <c r="C39" s="370"/>
-      <c r="D39" s="651"/>
+      <c r="D39" s="646"/>
       <c r="E39" s="28"/>
       <c r="K39" s="10"/>
     </row>
@@ -23829,7 +23829,7 @@
         <v>32</v>
       </c>
       <c r="C40" s="370"/>
-      <c r="D40" s="651"/>
+      <c r="D40" s="646"/>
       <c r="E40" s="28"/>
       <c r="K40" s="10"/>
     </row>
@@ -23839,7 +23839,7 @@
         <v>876</v>
       </c>
       <c r="C41" s="370"/>
-      <c r="D41" s="651"/>
+      <c r="D41" s="646"/>
       <c r="E41" s="28"/>
       <c r="K41" s="10"/>
     </row>
@@ -23848,7 +23848,7 @@
       <c r="B42" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="638"/>
+      <c r="C42" s="639"/>
       <c r="D42" s="501"/>
       <c r="E42" s="28"/>
       <c r="K42" s="10"/>
@@ -24087,10 +24087,10 @@
     </row>
     <row r="61" spans="1:11" ht="14.35">
       <c r="A61" s="2"/>
-      <c r="B61" s="658" t="s">
+      <c r="B61" s="649" t="s">
         <v>34</v>
       </c>
-      <c r="C61" s="659"/>
+      <c r="C61" s="650"/>
       <c r="D61" s="8"/>
       <c r="E61" s="393"/>
       <c r="F61" s="2"/>
@@ -24276,10 +24276,10 @@
       <c r="D75" s="518" t="s">
         <v>58</v>
       </c>
-      <c r="E75" s="646" t="s">
+      <c r="E75" s="651" t="s">
         <v>59</v>
       </c>
-      <c r="F75" s="647"/>
+      <c r="F75" s="652"/>
       <c r="G75" s="520"/>
       <c r="H75" s="488"/>
       <c r="K75" s="10"/>
@@ -24376,7 +24376,7 @@
         <v>65</v>
       </c>
       <c r="C81" s="370"/>
-      <c r="D81" s="650"/>
+      <c r="D81" s="645"/>
       <c r="E81" s="525">
         <v>1</v>
       </c>
@@ -24393,7 +24393,7 @@
         <v>30</v>
       </c>
       <c r="C82" s="370"/>
-      <c r="D82" s="651"/>
+      <c r="D82" s="646"/>
       <c r="E82" s="526" t="s">
         <v>66</v>
       </c>
@@ -24408,7 +24408,7 @@
         <v>31</v>
       </c>
       <c r="C83" s="370"/>
-      <c r="D83" s="651"/>
+      <c r="D83" s="646"/>
       <c r="E83" s="527" t="s">
         <v>67</v>
       </c>
@@ -24423,7 +24423,7 @@
         <v>68</v>
       </c>
       <c r="C84" s="499"/>
-      <c r="D84" s="651"/>
+      <c r="D84" s="646"/>
       <c r="E84" s="363"/>
       <c r="F84" s="363"/>
       <c r="G84" s="363"/>
@@ -24435,7 +24435,7 @@
       <c r="B85" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C85" s="638"/>
+      <c r="C85" s="639"/>
       <c r="D85" s="363"/>
       <c r="E85" s="363"/>
       <c r="F85" s="363"/>
@@ -24542,8 +24542,8 @@
       <c r="D94" s="373"/>
       <c r="E94" s="363"/>
       <c r="F94" s="363"/>
-      <c r="G94" s="640"/>
-      <c r="H94" s="641"/>
+      <c r="G94" s="642"/>
+      <c r="H94" s="643"/>
       <c r="K94" s="10"/>
     </row>
     <row r="95" spans="1:11" ht="14.35">
@@ -24567,10 +24567,10 @@
       <c r="C96" s="399" t="s">
         <v>57</v>
       </c>
-      <c r="D96" s="648" t="s">
+      <c r="D96" s="653" t="s">
         <v>59</v>
       </c>
-      <c r="E96" s="647"/>
+      <c r="E96" s="652"/>
       <c r="F96" s="363"/>
       <c r="G96" s="410"/>
       <c r="H96" s="409"/>
@@ -24716,10 +24716,10 @@
     </row>
     <row r="106" spans="1:11" ht="14.35">
       <c r="A106" s="363"/>
-      <c r="B106" s="652" t="s">
+      <c r="B106" s="655" t="s">
         <v>34</v>
       </c>
-      <c r="C106" s="653"/>
+      <c r="C106" s="656"/>
       <c r="E106" s="363"/>
       <c r="F106" s="363"/>
       <c r="G106" s="363"/>
@@ -24838,7 +24838,7 @@
       </c>
       <c r="C116" s="401"/>
       <c r="D116" s="365"/>
-      <c r="E116" s="649" t="s">
+      <c r="E116" s="654" t="s">
         <v>59</v>
       </c>
       <c r="F116" s="633"/>
@@ -25005,7 +25005,7 @@
       <c r="B127" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C127" s="642"/>
+      <c r="C127" s="638"/>
       <c r="D127" s="363"/>
       <c r="E127" s="363"/>
       <c r="F127" s="363"/>
@@ -25283,7 +25283,7 @@
       <c r="B153" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C153" s="642"/>
+      <c r="C153" s="638"/>
       <c r="D153" s="363"/>
       <c r="E153" s="363"/>
       <c r="H153" s="10"/>
@@ -25483,7 +25483,7 @@
       <c r="B171" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C171" s="638"/>
+      <c r="C171" s="639"/>
       <c r="D171" s="363"/>
       <c r="E171" s="363"/>
       <c r="F171" s="363"/>
@@ -25716,7 +25716,7 @@
       <c r="B189" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C189" s="638"/>
+      <c r="C189" s="639"/>
       <c r="D189" s="363"/>
       <c r="E189" s="363"/>
       <c r="F189" s="363"/>
@@ -25942,7 +25942,7 @@
       <c r="B207" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C207" s="642"/>
+      <c r="C207" s="638"/>
       <c r="D207" s="363"/>
       <c r="E207" s="363"/>
       <c r="F207" s="363"/>
@@ -26127,7 +26127,7 @@
       <c r="B223" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C223" s="642"/>
+      <c r="C223" s="638"/>
       <c r="D223" s="363"/>
       <c r="F223" s="2"/>
       <c r="G223" s="2"/>
@@ -26492,7 +26492,7 @@
         <v>143</v>
       </c>
       <c r="C249" s="370"/>
-      <c r="D249" s="654"/>
+      <c r="D249" s="657"/>
       <c r="E249" s="363"/>
       <c r="F249" s="363"/>
       <c r="G249" s="363"/>
@@ -26505,7 +26505,7 @@
         <v>144</v>
       </c>
       <c r="C250" s="370"/>
-      <c r="D250" s="655"/>
+      <c r="D250" s="658"/>
       <c r="E250" s="363"/>
       <c r="F250" s="363"/>
       <c r="G250" s="363"/>
@@ -26518,7 +26518,7 @@
         <v>30</v>
       </c>
       <c r="C251" s="370"/>
-      <c r="D251" s="655"/>
+      <c r="D251" s="658"/>
       <c r="E251" s="363"/>
       <c r="F251" s="363"/>
       <c r="G251" s="363"/>
@@ -26531,7 +26531,7 @@
         <v>31</v>
       </c>
       <c r="C252" s="370"/>
-      <c r="D252" s="655"/>
+      <c r="D252" s="658"/>
       <c r="E252" s="363"/>
       <c r="F252" s="363"/>
       <c r="G252" s="363"/>
@@ -26544,7 +26544,7 @@
         <v>145</v>
       </c>
       <c r="C253" s="370"/>
-      <c r="D253" s="655"/>
+      <c r="D253" s="658"/>
       <c r="E253" s="363"/>
       <c r="F253" s="363"/>
       <c r="G253" s="363"/>
@@ -26569,7 +26569,7 @@
       <c r="B255" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C255" s="638"/>
+      <c r="C255" s="639"/>
       <c r="D255" s="363"/>
       <c r="E255" s="363"/>
       <c r="F255" s="363"/>
@@ -26995,7 +26995,7 @@
         <v>143</v>
       </c>
       <c r="C285" s="370"/>
-      <c r="D285" s="650"/>
+      <c r="D285" s="645"/>
       <c r="E285" s="563"/>
       <c r="F285" s="562"/>
       <c r="G285" s="363"/>
@@ -27008,7 +27008,7 @@
         <v>144</v>
       </c>
       <c r="C286" s="370"/>
-      <c r="D286" s="651"/>
+      <c r="D286" s="646"/>
       <c r="E286" s="563"/>
       <c r="F286" s="562"/>
       <c r="G286" s="363"/>
@@ -27021,7 +27021,7 @@
         <v>30</v>
       </c>
       <c r="C287" s="370"/>
-      <c r="D287" s="651"/>
+      <c r="D287" s="646"/>
       <c r="E287" s="563"/>
       <c r="F287" s="562"/>
       <c r="G287" s="363"/>
@@ -27034,7 +27034,7 @@
         <v>31</v>
       </c>
       <c r="C288" s="370"/>
-      <c r="D288" s="651"/>
+      <c r="D288" s="646"/>
       <c r="E288" s="563"/>
       <c r="F288" s="562"/>
       <c r="G288" s="363"/>
@@ -27047,7 +27047,7 @@
         <v>145</v>
       </c>
       <c r="C289" s="370"/>
-      <c r="D289" s="651"/>
+      <c r="D289" s="646"/>
       <c r="E289" s="563"/>
       <c r="F289" s="562"/>
       <c r="G289" s="363"/>
@@ -27072,7 +27072,7 @@
       <c r="B291" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C291" s="638"/>
+      <c r="C291" s="639"/>
       <c r="D291" s="501"/>
       <c r="E291" s="363"/>
       <c r="F291" s="363"/>
@@ -27253,7 +27253,7 @@
         <v>143</v>
       </c>
       <c r="C305" s="370"/>
-      <c r="D305" s="650"/>
+      <c r="D305" s="645"/>
       <c r="F305" s="363"/>
       <c r="G305" s="363"/>
       <c r="H305" s="488"/>
@@ -27265,7 +27265,7 @@
         <v>144</v>
       </c>
       <c r="C306" s="370"/>
-      <c r="D306" s="651"/>
+      <c r="D306" s="646"/>
       <c r="F306" s="363"/>
       <c r="G306" s="363"/>
       <c r="H306" s="488"/>
@@ -27277,7 +27277,7 @@
         <v>30</v>
       </c>
       <c r="C307" s="370"/>
-      <c r="D307" s="651"/>
+      <c r="D307" s="646"/>
       <c r="F307" s="363"/>
       <c r="G307" s="363"/>
       <c r="H307" s="488"/>
@@ -27289,7 +27289,7 @@
         <v>31</v>
       </c>
       <c r="C308" s="370"/>
-      <c r="D308" s="651"/>
+      <c r="D308" s="646"/>
       <c r="F308" s="363"/>
       <c r="G308" s="363"/>
       <c r="H308" s="488"/>
@@ -27301,7 +27301,7 @@
         <v>145</v>
       </c>
       <c r="C309" s="370"/>
-      <c r="D309" s="651"/>
+      <c r="D309" s="646"/>
       <c r="F309" s="363"/>
       <c r="G309" s="363"/>
       <c r="H309" s="488"/>
@@ -27324,7 +27324,7 @@
       <c r="B311" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C311" s="638"/>
+      <c r="C311" s="639"/>
       <c r="D311" s="501"/>
       <c r="F311" s="363"/>
       <c r="G311" s="363"/>
@@ -27587,10 +27587,10 @@
     </row>
     <row r="333" spans="1:11" ht="14.35">
       <c r="A333" s="2"/>
-      <c r="B333" s="656" t="s">
+      <c r="B333" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C333" s="657"/>
+      <c r="C333" s="648"/>
       <c r="D333" s="2"/>
       <c r="F333" s="363"/>
       <c r="G333" s="2"/>
@@ -27799,7 +27799,7 @@
       <c r="B351" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C351" s="642"/>
+      <c r="C351" s="638"/>
       <c r="F351" s="2"/>
       <c r="G351" s="2"/>
       <c r="H351" s="8"/>
@@ -28339,10 +28339,10 @@
     </row>
     <row r="388" spans="1:11" ht="14.7">
       <c r="A388" s="2"/>
-      <c r="B388" s="645" t="s">
+      <c r="B388" s="659" t="s">
         <v>34</v>
       </c>
-      <c r="C388" s="644"/>
+      <c r="C388" s="641"/>
       <c r="D388" s="97"/>
       <c r="F388" s="2"/>
       <c r="G388" s="2"/>
@@ -28914,10 +28914,10 @@
     </row>
     <row r="425" spans="1:11" ht="14.7">
       <c r="A425" s="2"/>
-      <c r="B425" s="645" t="s">
+      <c r="B425" s="659" t="s">
         <v>34</v>
       </c>
-      <c r="C425" s="644"/>
+      <c r="C425" s="641"/>
       <c r="D425" s="97"/>
       <c r="E425" s="97"/>
       <c r="F425" s="2"/>
@@ -29469,10 +29469,10 @@
     </row>
     <row r="461" spans="1:11" ht="14.7">
       <c r="A461" s="2"/>
-      <c r="B461" s="645" t="s">
+      <c r="B461" s="659" t="s">
         <v>34</v>
       </c>
-      <c r="C461" s="644"/>
+      <c r="C461" s="641"/>
       <c r="D461" s="97"/>
       <c r="E461" s="97"/>
       <c r="F461" s="97"/>
@@ -30020,10 +30020,10 @@
     </row>
     <row r="497" spans="1:11" ht="14.7">
       <c r="A497" s="2"/>
-      <c r="B497" s="645" t="s">
+      <c r="B497" s="659" t="s">
         <v>34</v>
       </c>
-      <c r="C497" s="644"/>
+      <c r="C497" s="641"/>
       <c r="D497" s="97"/>
       <c r="E497" s="97"/>
       <c r="F497" s="97"/>
@@ -30915,10 +30915,10 @@
     </row>
     <row r="552" spans="1:11" ht="14.7">
       <c r="A552" s="2"/>
-      <c r="B552" s="645" t="s">
+      <c r="B552" s="659" t="s">
         <v>34</v>
       </c>
-      <c r="C552" s="644"/>
+      <c r="C552" s="641"/>
       <c r="D552" s="97"/>
       <c r="E552" s="97"/>
       <c r="F552" s="97"/>
@@ -31345,7 +31345,7 @@
       <c r="B590" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C590" s="642"/>
+      <c r="C590" s="638"/>
       <c r="D590" s="363"/>
       <c r="E590" s="363"/>
       <c r="F590" s="363"/>
@@ -31560,7 +31560,7 @@
       <c r="B607" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C607" s="642"/>
+      <c r="C607" s="638"/>
       <c r="D607" s="363"/>
       <c r="E607" s="363"/>
       <c r="F607" s="363"/>
@@ -31756,7 +31756,7 @@
       <c r="B623" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C623" s="638"/>
+      <c r="C623" s="639"/>
       <c r="D623" s="590"/>
       <c r="E623" s="363"/>
       <c r="F623" s="363"/>
@@ -31971,7 +31971,7 @@
       <c r="B640" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C640" s="642"/>
+      <c r="C640" s="638"/>
       <c r="D640" s="363"/>
       <c r="E640" s="363"/>
       <c r="F640" s="363"/>
@@ -32154,7 +32154,7 @@
       <c r="B655" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C655" s="638"/>
+      <c r="C655" s="639"/>
       <c r="D655" s="363"/>
       <c r="E655" s="363"/>
       <c r="F655" s="363"/>
@@ -32360,10 +32360,10 @@
     </row>
     <row r="672" spans="1:11" ht="14.35">
       <c r="A672" s="363"/>
-      <c r="B672" s="643" t="s">
+      <c r="B672" s="640" t="s">
         <v>34</v>
       </c>
-      <c r="C672" s="644"/>
+      <c r="C672" s="641"/>
       <c r="D672" s="363"/>
       <c r="E672" s="363"/>
       <c r="F672" s="363"/>
@@ -32551,10 +32551,10 @@
     </row>
     <row r="687" spans="1:11" ht="14.35">
       <c r="A687" s="363"/>
-      <c r="B687" s="643" t="s">
+      <c r="B687" s="640" t="s">
         <v>34</v>
       </c>
-      <c r="C687" s="644"/>
+      <c r="C687" s="641"/>
       <c r="D687" s="363"/>
       <c r="E687" s="363"/>
       <c r="F687" s="363"/>
@@ -32831,7 +32831,7 @@
       <c r="B710" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C710" s="642"/>
+      <c r="C710" s="638"/>
       <c r="D710" s="363"/>
       <c r="E710" s="363"/>
       <c r="F710" s="363"/>
@@ -33033,7 +33033,7 @@
       <c r="B726" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C726" s="642"/>
+      <c r="C726" s="638"/>
       <c r="D726" s="363"/>
       <c r="E726" s="363"/>
       <c r="F726" s="363"/>
@@ -33264,7 +33264,7 @@
       <c r="B745" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C745" s="642"/>
+      <c r="C745" s="638"/>
       <c r="D745" s="363"/>
       <c r="E745" s="363"/>
       <c r="F745" s="363"/>
@@ -33553,7 +33553,7 @@
       <c r="B768" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C768" s="638"/>
+      <c r="C768" s="639"/>
       <c r="D768" s="363"/>
       <c r="E768" s="363"/>
       <c r="F768" s="363"/>
@@ -33835,7 +33835,7 @@
       <c r="B790" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C790" s="638"/>
+      <c r="C790" s="639"/>
       <c r="D790" s="363"/>
       <c r="E790" s="363"/>
       <c r="F790" s="363"/>
@@ -34146,7 +34146,7 @@
       <c r="B815" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C815" s="638"/>
+      <c r="C815" s="639"/>
       <c r="D815" s="605"/>
       <c r="E815" s="363"/>
       <c r="F815" s="363"/>
@@ -34454,7 +34454,7 @@
       <c r="B840" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C840" s="638"/>
+      <c r="C840" s="639"/>
       <c r="D840" s="363"/>
       <c r="E840" s="363"/>
       <c r="F840" s="363"/>
@@ -34763,7 +34763,7 @@
       <c r="B866" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C866" s="638"/>
+      <c r="C866" s="639"/>
       <c r="D866" s="363"/>
       <c r="E866" s="363"/>
       <c r="F866" s="363"/>
@@ -34996,7 +34996,7 @@
       <c r="B886" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C886" s="638"/>
+      <c r="C886" s="639"/>
       <c r="D886" s="363"/>
       <c r="E886" s="363"/>
       <c r="F886" s="363"/>
@@ -35276,7 +35276,7 @@
       <c r="B908" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C908" s="638"/>
+      <c r="C908" s="639"/>
       <c r="D908" s="363"/>
       <c r="E908" s="363"/>
       <c r="F908" s="363"/>
@@ -35523,7 +35523,7 @@
       <c r="B927" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C927" s="638"/>
+      <c r="C927" s="639"/>
       <c r="D927" s="363"/>
       <c r="E927" s="363"/>
       <c r="F927" s="363"/>
@@ -35766,7 +35766,7 @@
       <c r="B946" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C946" s="638"/>
+      <c r="C946" s="639"/>
       <c r="D946" s="363"/>
       <c r="E946" s="363"/>
       <c r="F946" s="363"/>
@@ -35910,7 +35910,7 @@
       <c r="B960" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C960" s="638"/>
+      <c r="C960" s="639"/>
       <c r="F960" s="363"/>
       <c r="G960" s="363"/>
       <c r="H960" s="488"/>
@@ -36160,7 +36160,7 @@
       <c r="B980" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C980" s="642"/>
+      <c r="C980" s="638"/>
       <c r="D980" s="363"/>
       <c r="E980" s="363"/>
       <c r="F980" s="363"/>
@@ -36365,7 +36365,7 @@
       <c r="B997" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C997" s="638"/>
+      <c r="C997" s="639"/>
       <c r="D997" s="363"/>
       <c r="E997" s="363"/>
       <c r="F997" s="363"/>
@@ -36611,7 +36611,7 @@
       <c r="B1017" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1017" s="642"/>
+      <c r="C1017" s="638"/>
       <c r="D1017" s="363"/>
       <c r="E1017" s="363"/>
       <c r="F1017" s="363"/>
@@ -36875,7 +36875,7 @@
       <c r="B1039" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1039" s="642"/>
+      <c r="C1039" s="638"/>
       <c r="D1039" s="363"/>
       <c r="E1039" s="363"/>
       <c r="F1039" s="363"/>
@@ -37174,7 +37174,7 @@
       <c r="B1062" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1062" s="642"/>
+      <c r="C1062" s="638"/>
       <c r="D1062" s="363"/>
       <c r="E1062" s="363"/>
       <c r="F1062" s="363"/>
@@ -37198,30 +37198,21 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="B333:C333"/>
-    <mergeCell ref="B351:C351"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B311:C311"/>
-    <mergeCell ref="D36:D41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="D305:D309"/>
-    <mergeCell ref="B223:C223"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="D249:D253"/>
-    <mergeCell ref="B255:C255"/>
-    <mergeCell ref="D285:D289"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="B189:C189"/>
-    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="B590:C590"/>
+    <mergeCell ref="B710:C710"/>
+    <mergeCell ref="B726:C726"/>
+    <mergeCell ref="B745:C745"/>
+    <mergeCell ref="B768:C768"/>
+    <mergeCell ref="B790:C790"/>
+    <mergeCell ref="B815:C815"/>
+    <mergeCell ref="B840:C840"/>
+    <mergeCell ref="B866:C866"/>
+    <mergeCell ref="B886:C886"/>
+    <mergeCell ref="B908:C908"/>
+    <mergeCell ref="B927:C927"/>
+    <mergeCell ref="B946:C946"/>
+    <mergeCell ref="B960:C960"/>
+    <mergeCell ref="B980:C980"/>
     <mergeCell ref="B997:C997"/>
     <mergeCell ref="B1017:C1017"/>
     <mergeCell ref="B1039:C1039"/>
@@ -37238,21 +37229,30 @@
     <mergeCell ref="B655:C655"/>
     <mergeCell ref="B672:C672"/>
     <mergeCell ref="B687:C687"/>
-    <mergeCell ref="B908:C908"/>
-    <mergeCell ref="B927:C927"/>
-    <mergeCell ref="B946:C946"/>
-    <mergeCell ref="B960:C960"/>
-    <mergeCell ref="B980:C980"/>
-    <mergeCell ref="B790:C790"/>
-    <mergeCell ref="B815:C815"/>
-    <mergeCell ref="B840:C840"/>
-    <mergeCell ref="B866:C866"/>
-    <mergeCell ref="B886:C886"/>
-    <mergeCell ref="B590:C590"/>
-    <mergeCell ref="B710:C710"/>
-    <mergeCell ref="B726:C726"/>
-    <mergeCell ref="B745:C745"/>
-    <mergeCell ref="B768:C768"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="D305:D309"/>
+    <mergeCell ref="B223:C223"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="D249:D253"/>
+    <mergeCell ref="B255:C255"/>
+    <mergeCell ref="D285:D289"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="B333:C333"/>
+    <mergeCell ref="B351:C351"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B311:C311"/>
+    <mergeCell ref="D36:D41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B61:C61"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37594,10 +37594,10 @@
     </row>
     <row r="20" spans="1:11" ht="14.35">
       <c r="A20" s="2"/>
-      <c r="B20" s="656" t="s">
+      <c r="B20" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="659"/>
+      <c r="C20" s="650"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -37770,7 +37770,7 @@
         <v>29</v>
       </c>
       <c r="C36" s="14"/>
-      <c r="D36" s="660"/>
+      <c r="D36" s="661"/>
       <c r="E36" s="26"/>
       <c r="K36" s="10"/>
     </row>
@@ -37780,7 +37780,7 @@
         <v>45</v>
       </c>
       <c r="C37" s="11"/>
-      <c r="D37" s="661"/>
+      <c r="D37" s="662"/>
       <c r="E37" s="26"/>
       <c r="K37" s="10"/>
     </row>
@@ -37790,7 +37790,7 @@
         <v>30</v>
       </c>
       <c r="C38" s="11"/>
-      <c r="D38" s="661"/>
+      <c r="D38" s="662"/>
       <c r="E38" s="28"/>
       <c r="K38" s="10"/>
     </row>
@@ -37800,7 +37800,7 @@
         <v>31</v>
       </c>
       <c r="C39" s="11"/>
-      <c r="D39" s="661"/>
+      <c r="D39" s="662"/>
       <c r="E39" s="28"/>
       <c r="K39" s="10"/>
     </row>
@@ -37810,7 +37810,7 @@
         <v>32</v>
       </c>
       <c r="C40" s="11"/>
-      <c r="D40" s="661"/>
+      <c r="D40" s="662"/>
       <c r="E40" s="28"/>
       <c r="K40" s="10"/>
     </row>
@@ -37820,16 +37820,16 @@
         <v>876</v>
       </c>
       <c r="C41" s="11"/>
-      <c r="D41" s="661"/>
+      <c r="D41" s="662"/>
       <c r="E41" s="28"/>
       <c r="K41" s="10"/>
     </row>
     <row r="42" spans="1:11" ht="14.35">
       <c r="A42" s="2"/>
-      <c r="B42" s="656" t="s">
+      <c r="B42" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="659"/>
+      <c r="C42" s="650"/>
       <c r="D42" s="28"/>
       <c r="E42" s="28"/>
       <c r="K42" s="10"/>
@@ -38068,10 +38068,10 @@
     </row>
     <row r="61" spans="1:11" ht="14.35">
       <c r="A61" s="2"/>
-      <c r="B61" s="656" t="s">
+      <c r="B61" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C61" s="659"/>
+      <c r="C61" s="650"/>
       <c r="D61" s="8"/>
       <c r="E61" s="23"/>
       <c r="F61" s="2"/>
@@ -38255,10 +38255,10 @@
       <c r="D75" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="E75" s="662" t="s">
+      <c r="E75" s="671" t="s">
         <v>59</v>
       </c>
-      <c r="F75" s="647"/>
+      <c r="F75" s="652"/>
       <c r="G75" s="44"/>
       <c r="H75" s="8"/>
       <c r="K75" s="10"/>
@@ -38356,7 +38356,7 @@
         <v>65</v>
       </c>
       <c r="C81" s="11"/>
-      <c r="D81" s="660"/>
+      <c r="D81" s="661"/>
       <c r="E81" s="49">
         <v>1</v>
       </c>
@@ -38373,7 +38373,7 @@
         <v>30</v>
       </c>
       <c r="C82" s="11"/>
-      <c r="D82" s="661"/>
+      <c r="D82" s="662"/>
       <c r="E82" s="29" t="s">
         <v>66</v>
       </c>
@@ -38388,7 +38388,7 @@
         <v>31</v>
       </c>
       <c r="C83" s="11"/>
-      <c r="D83" s="661"/>
+      <c r="D83" s="662"/>
       <c r="E83" s="29" t="s">
         <v>67</v>
       </c>
@@ -38403,7 +38403,7 @@
         <v>68</v>
       </c>
       <c r="C84" s="24"/>
-      <c r="D84" s="661"/>
+      <c r="D84" s="662"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
@@ -38412,10 +38412,10 @@
     </row>
     <row r="85" spans="1:11" ht="14.35">
       <c r="A85" s="2"/>
-      <c r="B85" s="656" t="s">
+      <c r="B85" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C85" s="659"/>
+      <c r="C85" s="650"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
@@ -38520,8 +38520,8 @@
       <c r="D94" s="37"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
-      <c r="G94" s="663"/>
-      <c r="H94" s="664"/>
+      <c r="G94" s="666"/>
+      <c r="H94" s="667"/>
       <c r="K94" s="10"/>
     </row>
     <row r="95" spans="1:11" ht="14.35">
@@ -38545,10 +38545,10 @@
       <c r="C96" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="D96" s="665" t="s">
+      <c r="D96" s="668" t="s">
         <v>59</v>
       </c>
-      <c r="E96" s="647"/>
+      <c r="E96" s="652"/>
       <c r="F96" s="2"/>
       <c r="G96" s="54"/>
       <c r="H96" s="12"/>
@@ -38694,10 +38694,10 @@
     </row>
     <row r="106" spans="1:11" ht="14.35">
       <c r="A106" s="2"/>
-      <c r="B106" s="666" t="s">
+      <c r="B106" s="669" t="s">
         <v>34</v>
       </c>
-      <c r="C106" s="667"/>
+      <c r="C106" s="670"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
@@ -38816,7 +38816,7 @@
         <v>80</v>
       </c>
       <c r="D116" s="23"/>
-      <c r="E116" s="668" t="s">
+      <c r="E116" s="665" t="s">
         <v>59</v>
       </c>
       <c r="F116" s="633"/>
@@ -39023,10 +39023,10 @@
     </row>
     <row r="130" spans="1:11" ht="14.35">
       <c r="A130" s="2"/>
-      <c r="B130" s="656" t="s">
+      <c r="B130" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C130" s="657"/>
+      <c r="C130" s="648"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
@@ -39313,10 +39313,10 @@
     </row>
     <row r="156" spans="1:11" ht="14.35">
       <c r="A156" s="2"/>
-      <c r="B156" s="656" t="s">
+      <c r="B156" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C156" s="657"/>
+      <c r="C156" s="648"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
       <c r="H156" s="10"/>
@@ -39511,10 +39511,10 @@
     </row>
     <row r="174" spans="1:11" ht="14.35">
       <c r="A174" s="2"/>
-      <c r="B174" s="656" t="s">
+      <c r="B174" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C174" s="659"/>
+      <c r="C174" s="650"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
@@ -39742,10 +39742,10 @@
     </row>
     <row r="192" spans="1:11" ht="14.35">
       <c r="A192" s="2"/>
-      <c r="B192" s="656" t="s">
+      <c r="B192" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C192" s="659"/>
+      <c r="C192" s="650"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
@@ -40073,10 +40073,10 @@
     </row>
     <row r="217" spans="1:11" ht="14.35">
       <c r="A217" s="2"/>
-      <c r="B217" s="656" t="s">
+      <c r="B217" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C217" s="657"/>
+      <c r="C217" s="648"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
@@ -40382,10 +40382,10 @@
     </row>
     <row r="242" spans="1:11" ht="14.35">
       <c r="A242" s="2"/>
-      <c r="B242" s="656" t="s">
+      <c r="B242" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C242" s="657"/>
+      <c r="C242" s="648"/>
       <c r="D242" s="2"/>
       <c r="F242" s="2"/>
       <c r="G242" s="2"/>
@@ -40748,7 +40748,7 @@
         <v>143</v>
       </c>
       <c r="C268" s="11"/>
-      <c r="D268" s="669"/>
+      <c r="D268" s="663"/>
       <c r="E268" s="2"/>
       <c r="F268" s="2"/>
       <c r="G268" s="2"/>
@@ -40761,7 +40761,7 @@
         <v>144</v>
       </c>
       <c r="C269" s="11"/>
-      <c r="D269" s="670"/>
+      <c r="D269" s="664"/>
       <c r="E269" s="2"/>
       <c r="F269" s="2"/>
       <c r="G269" s="2"/>
@@ -40774,7 +40774,7 @@
         <v>30</v>
       </c>
       <c r="C270" s="11"/>
-      <c r="D270" s="670"/>
+      <c r="D270" s="664"/>
       <c r="E270" s="2"/>
       <c r="F270" s="2"/>
       <c r="G270" s="2"/>
@@ -40787,7 +40787,7 @@
         <v>31</v>
       </c>
       <c r="C271" s="11"/>
-      <c r="D271" s="670"/>
+      <c r="D271" s="664"/>
       <c r="E271" s="2"/>
       <c r="F271" s="2"/>
       <c r="G271" s="2"/>
@@ -40800,7 +40800,7 @@
         <v>145</v>
       </c>
       <c r="C272" s="11"/>
-      <c r="D272" s="670"/>
+      <c r="D272" s="664"/>
       <c r="E272" s="2"/>
       <c r="F272" s="2"/>
       <c r="G272" s="2"/>
@@ -40822,10 +40822,10 @@
     </row>
     <row r="274" spans="1:11" ht="14.35">
       <c r="A274" s="2"/>
-      <c r="B274" s="656" t="s">
+      <c r="B274" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C274" s="659"/>
+      <c r="C274" s="650"/>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
       <c r="F274" s="2"/>
@@ -41249,7 +41249,7 @@
         <v>143</v>
       </c>
       <c r="C304" s="11"/>
-      <c r="D304" s="660"/>
+      <c r="D304" s="661"/>
       <c r="E304" s="84"/>
       <c r="F304" s="85"/>
       <c r="G304" s="2"/>
@@ -41262,7 +41262,7 @@
         <v>144</v>
       </c>
       <c r="C305" s="11"/>
-      <c r="D305" s="661"/>
+      <c r="D305" s="662"/>
       <c r="E305" s="84"/>
       <c r="F305" s="85"/>
       <c r="G305" s="2"/>
@@ -41275,7 +41275,7 @@
         <v>30</v>
       </c>
       <c r="C306" s="11"/>
-      <c r="D306" s="661"/>
+      <c r="D306" s="662"/>
       <c r="E306" s="84"/>
       <c r="F306" s="85"/>
       <c r="G306" s="2"/>
@@ -41288,7 +41288,7 @@
         <v>31</v>
       </c>
       <c r="C307" s="11"/>
-      <c r="D307" s="661"/>
+      <c r="D307" s="662"/>
       <c r="E307" s="84"/>
       <c r="F307" s="85"/>
       <c r="G307" s="2"/>
@@ -41301,7 +41301,7 @@
         <v>145</v>
       </c>
       <c r="C308" s="11"/>
-      <c r="D308" s="661"/>
+      <c r="D308" s="662"/>
       <c r="E308" s="84"/>
       <c r="F308" s="85"/>
       <c r="G308" s="2"/>
@@ -41323,10 +41323,10 @@
     </row>
     <row r="310" spans="1:11" ht="14.35">
       <c r="A310" s="2"/>
-      <c r="B310" s="656" t="s">
+      <c r="B310" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C310" s="659"/>
+      <c r="C310" s="650"/>
       <c r="D310" s="28"/>
       <c r="E310" s="2"/>
       <c r="F310" s="2"/>
@@ -41497,7 +41497,7 @@
         <v>64</v>
       </c>
       <c r="C324" s="11"/>
-      <c r="D324" s="660"/>
+      <c r="D324" s="661"/>
       <c r="F324" s="2"/>
       <c r="G324" s="2"/>
       <c r="H324" s="8"/>
@@ -41509,7 +41509,7 @@
         <v>65</v>
       </c>
       <c r="C325" s="11"/>
-      <c r="D325" s="661"/>
+      <c r="D325" s="662"/>
       <c r="F325" s="2"/>
       <c r="G325" s="2"/>
       <c r="H325" s="8"/>
@@ -41521,7 +41521,7 @@
         <v>30</v>
       </c>
       <c r="C326" s="11"/>
-      <c r="D326" s="661"/>
+      <c r="D326" s="662"/>
       <c r="F326" s="2"/>
       <c r="G326" s="2"/>
       <c r="H326" s="8"/>
@@ -41533,7 +41533,7 @@
         <v>31</v>
       </c>
       <c r="C327" s="11"/>
-      <c r="D327" s="661"/>
+      <c r="D327" s="662"/>
       <c r="F327" s="2"/>
       <c r="G327" s="2"/>
       <c r="H327" s="8"/>
@@ -41545,7 +41545,7 @@
         <v>68</v>
       </c>
       <c r="C328" s="11"/>
-      <c r="D328" s="661"/>
+      <c r="D328" s="662"/>
       <c r="F328" s="2"/>
       <c r="G328" s="2"/>
       <c r="H328" s="8"/>
@@ -41565,10 +41565,10 @@
     </row>
     <row r="330" spans="1:11" ht="14.35">
       <c r="A330" s="2"/>
-      <c r="B330" s="656" t="s">
+      <c r="B330" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C330" s="659"/>
+      <c r="C330" s="650"/>
       <c r="D330" s="28"/>
       <c r="F330" s="2"/>
       <c r="G330" s="2"/>
@@ -41827,10 +41827,10 @@
     </row>
     <row r="352" spans="1:11" ht="14.35">
       <c r="A352" s="2"/>
-      <c r="B352" s="656" t="s">
+      <c r="B352" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C352" s="657"/>
+      <c r="C352" s="648"/>
       <c r="D352" s="2"/>
       <c r="F352" s="2"/>
       <c r="G352" s="2"/>
@@ -42034,10 +42034,10 @@
     </row>
     <row r="370" spans="1:11" ht="14.35">
       <c r="A370" s="2"/>
-      <c r="B370" s="656" t="s">
+      <c r="B370" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C370" s="657"/>
+      <c r="C370" s="648"/>
       <c r="F370" s="2"/>
       <c r="G370" s="2"/>
       <c r="H370" s="8"/>
@@ -42517,10 +42517,10 @@
     </row>
     <row r="405" spans="1:11" ht="14.7">
       <c r="A405" s="2"/>
-      <c r="B405" s="645" t="s">
+      <c r="B405" s="659" t="s">
         <v>34</v>
       </c>
-      <c r="C405" s="644"/>
+      <c r="C405" s="641"/>
       <c r="D405" s="97"/>
       <c r="F405" s="2"/>
       <c r="G405" s="2"/>
@@ -43033,10 +43033,10 @@
     </row>
     <row r="440" spans="1:11" ht="14.7">
       <c r="A440" s="2"/>
-      <c r="B440" s="645" t="s">
+      <c r="B440" s="659" t="s">
         <v>34</v>
       </c>
-      <c r="C440" s="644"/>
+      <c r="C440" s="641"/>
       <c r="D440" s="97"/>
       <c r="E440" s="97"/>
       <c r="F440" s="2"/>
@@ -43512,10 +43512,10 @@
     </row>
     <row r="473" spans="1:11" ht="14.7">
       <c r="A473" s="2"/>
-      <c r="B473" s="645" t="s">
+      <c r="B473" s="659" t="s">
         <v>34</v>
       </c>
-      <c r="C473" s="644"/>
+      <c r="C473" s="641"/>
       <c r="D473" s="97"/>
       <c r="E473" s="97"/>
       <c r="F473" s="97"/>
@@ -43987,10 +43987,10 @@
     </row>
     <row r="506" spans="1:11" ht="14.7">
       <c r="A506" s="2"/>
-      <c r="B506" s="645" t="s">
+      <c r="B506" s="659" t="s">
         <v>34</v>
       </c>
-      <c r="C506" s="644"/>
+      <c r="C506" s="641"/>
       <c r="D506" s="97"/>
       <c r="E506" s="97"/>
       <c r="F506" s="97"/>
@@ -44861,10 +44861,10 @@
     </row>
     <row r="559" spans="1:11" ht="14.7">
       <c r="A559" s="2"/>
-      <c r="B559" s="645" t="s">
+      <c r="B559" s="659" t="s">
         <v>34</v>
       </c>
-      <c r="C559" s="644"/>
+      <c r="C559" s="641"/>
       <c r="D559" s="97"/>
       <c r="E559" s="97"/>
       <c r="F559" s="97"/>
@@ -45288,10 +45288,10 @@
     </row>
     <row r="597" spans="1:11" ht="14.35">
       <c r="A597" s="2"/>
-      <c r="B597" s="656" t="s">
+      <c r="B597" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C597" s="657"/>
+      <c r="C597" s="648"/>
       <c r="D597" s="2"/>
       <c r="E597" s="2"/>
       <c r="F597" s="2"/>
@@ -45533,10 +45533,10 @@
     </row>
     <row r="616" spans="1:11" ht="14.35">
       <c r="A616" s="2"/>
-      <c r="B616" s="656" t="s">
+      <c r="B616" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C616" s="657"/>
+      <c r="C616" s="648"/>
       <c r="D616" s="2"/>
       <c r="E616" s="2"/>
       <c r="F616" s="2"/>
@@ -45774,10 +45774,10 @@
     </row>
     <row r="635" spans="1:11" ht="14.35">
       <c r="A635" s="2"/>
-      <c r="B635" s="656" t="s">
+      <c r="B635" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C635" s="659"/>
+      <c r="C635" s="650"/>
       <c r="D635" s="127"/>
       <c r="E635" s="2"/>
       <c r="F635" s="2"/>
@@ -46034,10 +46034,10 @@
     </row>
     <row r="655" spans="1:11" ht="14.35">
       <c r="A655" s="2"/>
-      <c r="B655" s="656" t="s">
+      <c r="B655" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C655" s="657"/>
+      <c r="C655" s="648"/>
       <c r="D655" s="2"/>
       <c r="E655" s="2"/>
       <c r="F655" s="2"/>
@@ -46262,10 +46262,10 @@
     </row>
     <row r="673" spans="1:11" ht="14.35">
       <c r="A673" s="2"/>
-      <c r="B673" s="656" t="s">
+      <c r="B673" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C673" s="659"/>
+      <c r="C673" s="650"/>
       <c r="D673" s="2"/>
       <c r="E673" s="2"/>
       <c r="F673" s="2"/>
@@ -46501,10 +46501,10 @@
     </row>
     <row r="692" spans="1:11" ht="14.35">
       <c r="A692" s="2"/>
-      <c r="B692" s="671" t="s">
+      <c r="B692" s="660" t="s">
         <v>34</v>
       </c>
-      <c r="C692" s="644"/>
+      <c r="C692" s="641"/>
       <c r="D692" s="2"/>
       <c r="E692" s="2"/>
       <c r="F692" s="2"/>
@@ -46737,10 +46737,10 @@
     </row>
     <row r="710" spans="1:11" ht="14.35">
       <c r="A710" s="2"/>
-      <c r="B710" s="671" t="s">
+      <c r="B710" s="660" t="s">
         <v>34</v>
       </c>
-      <c r="C710" s="644"/>
+      <c r="C710" s="641"/>
       <c r="D710" s="2"/>
       <c r="E710" s="2"/>
       <c r="F710" s="2"/>
@@ -47059,10 +47059,10 @@
     </row>
     <row r="736" spans="1:11" ht="14.35">
       <c r="A736" s="2"/>
-      <c r="B736" s="656" t="s">
+      <c r="B736" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C736" s="657"/>
+      <c r="C736" s="648"/>
       <c r="D736" s="2"/>
       <c r="E736" s="2"/>
       <c r="F736" s="2"/>
@@ -47325,10 +47325,10 @@
     </row>
     <row r="756" spans="1:11" ht="14.35">
       <c r="A756" s="2"/>
-      <c r="B756" s="656" t="s">
+      <c r="B756" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C756" s="657"/>
+      <c r="C756" s="648"/>
       <c r="D756" s="2"/>
       <c r="E756" s="2"/>
       <c r="F756" s="2"/>
@@ -47616,10 +47616,10 @@
     </row>
     <row r="779" spans="1:11" ht="14.35">
       <c r="A779" s="2"/>
-      <c r="B779" s="656" t="s">
+      <c r="B779" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C779" s="657"/>
+      <c r="C779" s="648"/>
       <c r="D779" s="2"/>
       <c r="E779" s="2"/>
       <c r="F779" s="2"/>
@@ -47905,10 +47905,10 @@
     </row>
     <row r="802" spans="1:11" ht="14.35">
       <c r="A802" s="2"/>
-      <c r="B802" s="656" t="s">
+      <c r="B802" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C802" s="659"/>
+      <c r="C802" s="650"/>
       <c r="D802" s="2"/>
       <c r="E802" s="2"/>
       <c r="F802" s="2"/>
@@ -48187,10 +48187,10 @@
     </row>
     <row r="824" spans="1:11" ht="14.35">
       <c r="A824" s="2"/>
-      <c r="B824" s="656" t="s">
+      <c r="B824" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C824" s="659"/>
+      <c r="C824" s="650"/>
       <c r="D824" s="2"/>
       <c r="E824" s="2"/>
       <c r="F824" s="2"/>
@@ -48498,10 +48498,10 @@
     </row>
     <row r="849" spans="1:11" ht="14.35">
       <c r="A849" s="2"/>
-      <c r="B849" s="656" t="s">
+      <c r="B849" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C849" s="659"/>
+      <c r="C849" s="650"/>
       <c r="D849" s="149"/>
       <c r="E849" s="2"/>
       <c r="F849" s="2"/>
@@ -48806,10 +48806,10 @@
       <c r="K873" s="10"/>
     </row>
     <row r="874" spans="2:11" ht="14.35">
-      <c r="B874" s="656" t="s">
+      <c r="B874" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C874" s="659"/>
+      <c r="C874" s="650"/>
       <c r="D874" s="2"/>
       <c r="E874" s="2"/>
       <c r="F874" s="2"/>
@@ -49115,10 +49115,10 @@
       <c r="K899" s="10"/>
     </row>
     <row r="900" spans="1:11" ht="14.35">
-      <c r="B900" s="656" t="s">
+      <c r="B900" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C900" s="659"/>
+      <c r="C900" s="650"/>
       <c r="D900" s="2"/>
       <c r="E900" s="2"/>
       <c r="F900" s="2"/>
@@ -49348,10 +49348,10 @@
     </row>
     <row r="920" spans="1:11" ht="14.35">
       <c r="A920" s="2"/>
-      <c r="B920" s="656" t="s">
+      <c r="B920" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C920" s="659"/>
+      <c r="C920" s="650"/>
       <c r="D920" s="2"/>
       <c r="E920" s="2"/>
       <c r="F920" s="2"/>
@@ -49628,10 +49628,10 @@
     </row>
     <row r="942" spans="1:11" ht="14.35">
       <c r="A942" s="2"/>
-      <c r="B942" s="656" t="s">
+      <c r="B942" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C942" s="659"/>
+      <c r="C942" s="650"/>
       <c r="D942" s="2"/>
       <c r="E942" s="2"/>
       <c r="F942" s="2"/>
@@ -49875,10 +49875,10 @@
     </row>
     <row r="961" spans="1:11" ht="14.35">
       <c r="A961" s="2"/>
-      <c r="B961" s="656" t="s">
+      <c r="B961" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C961" s="659"/>
+      <c r="C961" s="650"/>
       <c r="D961" s="2"/>
       <c r="E961" s="2"/>
       <c r="F961" s="2"/>
@@ -50118,10 +50118,10 @@
     </row>
     <row r="980" spans="1:11" ht="14.35">
       <c r="A980" s="2"/>
-      <c r="B980" s="656" t="s">
+      <c r="B980" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C980" s="659"/>
+      <c r="C980" s="650"/>
       <c r="D980" s="2"/>
       <c r="E980" s="2"/>
       <c r="F980" s="2"/>
@@ -50262,10 +50262,10 @@
     </row>
     <row r="994" spans="1:11" ht="14.35">
       <c r="A994" s="2"/>
-      <c r="B994" s="656" t="s">
+      <c r="B994" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C994" s="659"/>
+      <c r="C994" s="650"/>
       <c r="F994" s="2"/>
       <c r="G994" s="2"/>
       <c r="H994" s="8"/>
@@ -50512,10 +50512,10 @@
     </row>
     <row r="1014" spans="1:11" ht="14.35">
       <c r="A1014" s="2"/>
-      <c r="B1014" s="656" t="s">
+      <c r="B1014" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C1014" s="657"/>
+      <c r="C1014" s="648"/>
       <c r="D1014" s="2"/>
       <c r="E1014" s="2"/>
       <c r="F1014" s="2"/>
@@ -50717,10 +50717,10 @@
     </row>
     <row r="1031" spans="1:11" ht="14.35">
       <c r="A1031" s="2"/>
-      <c r="B1031" s="656" t="s">
+      <c r="B1031" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C1031" s="659"/>
+      <c r="C1031" s="650"/>
       <c r="D1031" s="2"/>
       <c r="E1031" s="2"/>
       <c r="F1031" s="2"/>
@@ -50963,10 +50963,10 @@
       <c r="K1050" s="10"/>
     </row>
     <row r="1051" spans="2:11" ht="14.35">
-      <c r="B1051" s="656" t="s">
+      <c r="B1051" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C1051" s="657"/>
+      <c r="C1051" s="648"/>
       <c r="D1051" s="2"/>
       <c r="E1051" s="2"/>
       <c r="F1051" s="2"/>
@@ -51227,10 +51227,10 @@
     </row>
     <row r="1073" spans="1:11" ht="14.35">
       <c r="A1073" s="2"/>
-      <c r="B1073" s="656" t="s">
+      <c r="B1073" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C1073" s="657"/>
+      <c r="C1073" s="648"/>
       <c r="D1073" s="2"/>
       <c r="E1073" s="2"/>
       <c r="F1073" s="2"/>
@@ -51526,10 +51526,10 @@
     </row>
     <row r="1096" spans="1:11" ht="14.35">
       <c r="A1096" s="2"/>
-      <c r="B1096" s="656" t="s">
+      <c r="B1096" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C1096" s="657"/>
+      <c r="C1096" s="648"/>
       <c r="D1096" s="2"/>
       <c r="E1096" s="2"/>
       <c r="F1096" s="2"/>
@@ -51553,61 +51553,61 @@
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D36:D41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="B217:C217"/>
+    <mergeCell ref="B242:C242"/>
+    <mergeCell ref="D268:D272"/>
+    <mergeCell ref="B274:C274"/>
+    <mergeCell ref="D304:D308"/>
+    <mergeCell ref="B310:C310"/>
+    <mergeCell ref="D324:D328"/>
+    <mergeCell ref="B330:C330"/>
+    <mergeCell ref="B352:C352"/>
+    <mergeCell ref="B370:C370"/>
+    <mergeCell ref="B405:C405"/>
+    <mergeCell ref="B440:C440"/>
+    <mergeCell ref="B473:C473"/>
+    <mergeCell ref="B506:C506"/>
+    <mergeCell ref="B559:C559"/>
+    <mergeCell ref="B597:C597"/>
+    <mergeCell ref="B616:C616"/>
+    <mergeCell ref="B635:C635"/>
+    <mergeCell ref="B655:C655"/>
+    <mergeCell ref="B673:C673"/>
+    <mergeCell ref="B692:C692"/>
+    <mergeCell ref="B710:C710"/>
+    <mergeCell ref="B736:C736"/>
+    <mergeCell ref="B756:C756"/>
+    <mergeCell ref="B779:C779"/>
+    <mergeCell ref="B802:C802"/>
+    <mergeCell ref="B824:C824"/>
+    <mergeCell ref="B849:C849"/>
+    <mergeCell ref="B874:C874"/>
+    <mergeCell ref="B900:C900"/>
+    <mergeCell ref="B920:C920"/>
+    <mergeCell ref="B942:C942"/>
+    <mergeCell ref="B961:C961"/>
+    <mergeCell ref="B980:C980"/>
+    <mergeCell ref="B994:C994"/>
     <mergeCell ref="B1014:C1014"/>
     <mergeCell ref="B1031:C1031"/>
     <mergeCell ref="B1051:C1051"/>
     <mergeCell ref="B1073:C1073"/>
     <mergeCell ref="B1096:C1096"/>
-    <mergeCell ref="B920:C920"/>
-    <mergeCell ref="B942:C942"/>
-    <mergeCell ref="B961:C961"/>
-    <mergeCell ref="B980:C980"/>
-    <mergeCell ref="B994:C994"/>
-    <mergeCell ref="B802:C802"/>
-    <mergeCell ref="B824:C824"/>
-    <mergeCell ref="B849:C849"/>
-    <mergeCell ref="B874:C874"/>
-    <mergeCell ref="B900:C900"/>
-    <mergeCell ref="B692:C692"/>
-    <mergeCell ref="B710:C710"/>
-    <mergeCell ref="B736:C736"/>
-    <mergeCell ref="B756:C756"/>
-    <mergeCell ref="B779:C779"/>
-    <mergeCell ref="B597:C597"/>
-    <mergeCell ref="B616:C616"/>
-    <mergeCell ref="B635:C635"/>
-    <mergeCell ref="B655:C655"/>
-    <mergeCell ref="B673:C673"/>
-    <mergeCell ref="B405:C405"/>
-    <mergeCell ref="B440:C440"/>
-    <mergeCell ref="B473:C473"/>
-    <mergeCell ref="B506:C506"/>
-    <mergeCell ref="B559:C559"/>
-    <mergeCell ref="B310:C310"/>
-    <mergeCell ref="D324:D328"/>
-    <mergeCell ref="B330:C330"/>
-    <mergeCell ref="B352:C352"/>
-    <mergeCell ref="B370:C370"/>
-    <mergeCell ref="B217:C217"/>
-    <mergeCell ref="B242:C242"/>
-    <mergeCell ref="D268:D272"/>
-    <mergeCell ref="B274:C274"/>
-    <mergeCell ref="D304:D308"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D36:D41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="E75:F75"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -51677,10 +51677,10 @@
       <c r="D2" s="246" t="s">
         <v>508</v>
       </c>
-      <c r="E2" s="698" t="s">
+      <c r="E2" s="682" t="s">
         <v>509</v>
       </c>
-      <c r="F2" s="699"/>
+      <c r="F2" s="683"/>
       <c r="G2" s="252" t="s">
         <v>510</v>
       </c>
@@ -51713,71 +51713,71 @@
       <c r="A3" s="253">
         <v>1</v>
       </c>
-      <c r="B3" s="681" t="s">
+      <c r="B3" s="694" t="s">
         <v>456</v>
       </c>
-      <c r="C3" s="682"/>
-      <c r="D3" s="682"/>
-      <c r="E3" s="682"/>
-      <c r="F3" s="682"/>
-      <c r="G3" s="682"/>
-      <c r="H3" s="682"/>
-      <c r="I3" s="682"/>
-      <c r="J3" s="682"/>
-      <c r="K3" s="683" t="s">
+      <c r="C3" s="695"/>
+      <c r="D3" s="695"/>
+      <c r="E3" s="695"/>
+      <c r="F3" s="695"/>
+      <c r="G3" s="695"/>
+      <c r="H3" s="695"/>
+      <c r="I3" s="695"/>
+      <c r="J3" s="695"/>
+      <c r="K3" s="688" t="s">
         <v>457</v>
       </c>
-      <c r="L3" s="684"/>
-      <c r="M3" s="684"/>
-      <c r="N3" s="684"/>
-      <c r="O3" s="684"/>
-      <c r="P3" s="684"/>
-      <c r="Q3" s="684"/>
-      <c r="R3" s="684"/>
-      <c r="S3" s="684"/>
-      <c r="T3" s="684"/>
-      <c r="U3" s="684"/>
-      <c r="V3" s="684"/>
-      <c r="W3" s="684"/>
+      <c r="L3" s="687"/>
+      <c r="M3" s="687"/>
+      <c r="N3" s="687"/>
+      <c r="O3" s="687"/>
+      <c r="P3" s="687"/>
+      <c r="Q3" s="687"/>
+      <c r="R3" s="687"/>
+      <c r="S3" s="687"/>
+      <c r="T3" s="687"/>
+      <c r="U3" s="687"/>
+      <c r="V3" s="687"/>
+      <c r="W3" s="687"/>
     </row>
     <row r="4" spans="1:23" ht="14">
       <c r="A4" s="244"/>
-      <c r="B4" s="685" t="s">
+      <c r="B4" s="696" t="s">
         <v>459</v>
       </c>
-      <c r="C4" s="686"/>
-      <c r="D4" s="686"/>
+      <c r="C4" s="693"/>
+      <c r="D4" s="693"/>
       <c r="E4" s="674" t="s">
         <v>515</v>
       </c>
-      <c r="F4" s="686"/>
-      <c r="G4" s="686"/>
-      <c r="H4" s="687" t="s">
+      <c r="F4" s="693"/>
+      <c r="G4" s="693"/>
+      <c r="H4" s="697" t="s">
         <v>516</v>
       </c>
-      <c r="I4" s="688"/>
-      <c r="J4" s="688"/>
+      <c r="I4" s="698"/>
+      <c r="J4" s="698"/>
       <c r="K4" s="674" t="s">
         <v>460</v>
       </c>
-      <c r="L4" s="686"/>
-      <c r="M4" s="686"/>
+      <c r="L4" s="693"/>
+      <c r="M4" s="693"/>
       <c r="N4" s="674" t="s">
         <v>517</v>
       </c>
-      <c r="O4" s="686"/>
-      <c r="P4" s="686"/>
+      <c r="O4" s="693"/>
+      <c r="P4" s="693"/>
       <c r="Q4" s="674" t="s">
         <v>518</v>
       </c>
-      <c r="R4" s="686"/>
-      <c r="S4" s="686"/>
-      <c r="T4" s="689" t="s">
+      <c r="R4" s="693"/>
+      <c r="S4" s="693"/>
+      <c r="T4" s="699" t="s">
         <v>519</v>
       </c>
-      <c r="U4" s="690"/>
-      <c r="V4" s="690"/>
-      <c r="W4" s="690"/>
+      <c r="U4" s="700"/>
+      <c r="V4" s="700"/>
+      <c r="W4" s="700"/>
     </row>
     <row r="5" spans="1:23" ht="15.35">
       <c r="A5" s="244"/>
@@ -51835,7 +51835,7 @@
       <c r="S5" s="259" t="s">
         <v>463</v>
       </c>
-      <c r="T5" s="691" t="s">
+      <c r="T5" s="681" t="s">
         <v>520</v>
       </c>
       <c r="U5" s="171" t="s">
@@ -51880,7 +51880,7 @@
       <c r="Q6" s="184"/>
       <c r="R6" s="183"/>
       <c r="S6" s="268"/>
-      <c r="T6" s="644"/>
+      <c r="T6" s="641"/>
       <c r="U6" s="171" t="s">
         <v>524</v>
       </c>
@@ -52327,32 +52327,32 @@
       </c>
     </row>
     <row r="23" spans="1:23" ht="14">
-      <c r="B23" s="695" t="s">
+      <c r="B23" s="684" t="s">
         <v>456</v>
       </c>
-      <c r="C23" s="644"/>
-      <c r="D23" s="644"/>
-      <c r="E23" s="644"/>
-      <c r="F23" s="644"/>
-      <c r="G23" s="644"/>
-      <c r="H23" s="644"/>
-      <c r="I23" s="644"/>
-      <c r="J23" s="644"/>
-      <c r="K23" s="694" t="s">
+      <c r="C23" s="641"/>
+      <c r="D23" s="641"/>
+      <c r="E23" s="641"/>
+      <c r="F23" s="641"/>
+      <c r="G23" s="641"/>
+      <c r="H23" s="641"/>
+      <c r="I23" s="641"/>
+      <c r="J23" s="641"/>
+      <c r="K23" s="685" t="s">
         <v>911</v>
       </c>
-      <c r="L23" s="644"/>
-      <c r="M23" s="644"/>
-      <c r="N23" s="644"/>
-      <c r="O23" s="644"/>
-      <c r="P23" s="644"/>
-      <c r="Q23" s="644"/>
-      <c r="R23" s="644"/>
-      <c r="S23" s="644"/>
-      <c r="T23" s="644"/>
-      <c r="U23" s="644"/>
-      <c r="V23" s="644"/>
-      <c r="W23" s="644"/>
+      <c r="L23" s="641"/>
+      <c r="M23" s="641"/>
+      <c r="N23" s="641"/>
+      <c r="O23" s="641"/>
+      <c r="P23" s="641"/>
+      <c r="Q23" s="641"/>
+      <c r="R23" s="641"/>
+      <c r="S23" s="641"/>
+      <c r="T23" s="641"/>
+      <c r="U23" s="641"/>
+      <c r="V23" s="641"/>
+      <c r="W23" s="641"/>
     </row>
     <row r="24" spans="1:23" ht="14">
       <c r="A24" s="253">
@@ -52388,12 +52388,12 @@
       </c>
       <c r="R24" s="678"/>
       <c r="S24" s="678"/>
-      <c r="T24" s="692" t="s">
+      <c r="T24" s="679" t="s">
         <v>519</v>
       </c>
-      <c r="U24" s="693"/>
-      <c r="V24" s="693"/>
-      <c r="W24" s="693"/>
+      <c r="U24" s="680"/>
+      <c r="V24" s="680"/>
+      <c r="W24" s="680"/>
     </row>
     <row r="25" spans="1:23" ht="15.35">
       <c r="A25" s="288"/>
@@ -52451,7 +52451,7 @@
       <c r="S25" s="258" t="s">
         <v>914</v>
       </c>
-      <c r="T25" s="691" t="s">
+      <c r="T25" s="681" t="s">
         <v>520</v>
       </c>
       <c r="U25" s="171" t="s">
@@ -52496,7 +52496,7 @@
       <c r="Q26" s="184"/>
       <c r="R26" s="188"/>
       <c r="S26" s="188"/>
-      <c r="T26" s="644"/>
+      <c r="T26" s="641"/>
       <c r="U26" s="171" t="s">
         <v>524</v>
       </c>
@@ -52760,32 +52760,32 @@
       <c r="E43" s="307"/>
     </row>
     <row r="44" spans="1:23" ht="14">
-      <c r="B44" s="695" t="s">
+      <c r="B44" s="684" t="s">
         <v>456</v>
       </c>
-      <c r="C44" s="644"/>
-      <c r="D44" s="644"/>
-      <c r="E44" s="644"/>
-      <c r="F44" s="644"/>
-      <c r="G44" s="644"/>
-      <c r="H44" s="644"/>
-      <c r="I44" s="644"/>
-      <c r="J44" s="644"/>
-      <c r="K44" s="695" t="s">
+      <c r="C44" s="641"/>
+      <c r="D44" s="641"/>
+      <c r="E44" s="641"/>
+      <c r="F44" s="641"/>
+      <c r="G44" s="641"/>
+      <c r="H44" s="641"/>
+      <c r="I44" s="641"/>
+      <c r="J44" s="641"/>
+      <c r="K44" s="684" t="s">
         <v>457</v>
       </c>
-      <c r="L44" s="644"/>
-      <c r="M44" s="644"/>
-      <c r="N44" s="644"/>
-      <c r="O44" s="644"/>
-      <c r="P44" s="644"/>
-      <c r="Q44" s="644"/>
-      <c r="R44" s="644"/>
-      <c r="S44" s="644"/>
-      <c r="T44" s="644"/>
-      <c r="U44" s="644"/>
-      <c r="V44" s="644"/>
-      <c r="W44" s="644"/>
+      <c r="L44" s="641"/>
+      <c r="M44" s="641"/>
+      <c r="N44" s="641"/>
+      <c r="O44" s="641"/>
+      <c r="P44" s="641"/>
+      <c r="Q44" s="641"/>
+      <c r="R44" s="641"/>
+      <c r="S44" s="641"/>
+      <c r="T44" s="641"/>
+      <c r="U44" s="641"/>
+      <c r="V44" s="641"/>
+      <c r="W44" s="641"/>
     </row>
     <row r="45" spans="1:23" ht="14">
       <c r="A45" s="253">
@@ -52821,12 +52821,12 @@
       </c>
       <c r="R45" s="678"/>
       <c r="S45" s="678"/>
-      <c r="T45" s="696" t="s">
+      <c r="T45" s="692" t="s">
         <v>519</v>
       </c>
-      <c r="U45" s="686"/>
-      <c r="V45" s="686"/>
-      <c r="W45" s="686"/>
+      <c r="U45" s="693"/>
+      <c r="V45" s="693"/>
+      <c r="W45" s="693"/>
     </row>
     <row r="46" spans="1:23" ht="15.35">
       <c r="A46" s="288"/>
@@ -52884,7 +52884,7 @@
       <c r="S46" s="287" t="s">
         <v>914</v>
       </c>
-      <c r="T46" s="701" t="s">
+      <c r="T46" s="689" t="s">
         <v>520</v>
       </c>
       <c r="U46" s="318" t="s">
@@ -52929,7 +52929,7 @@
       <c r="Q47" s="184"/>
       <c r="R47" s="188"/>
       <c r="S47" s="188"/>
-      <c r="T47" s="644"/>
+      <c r="T47" s="641"/>
       <c r="U47" s="171" t="s">
         <v>524</v>
       </c>
@@ -53161,32 +53161,32 @@
       <c r="C61" s="170"/>
     </row>
     <row r="62" spans="1:23" ht="14">
-      <c r="B62" s="695" t="s">
+      <c r="B62" s="684" t="s">
         <v>456</v>
       </c>
-      <c r="C62" s="644"/>
-      <c r="D62" s="644"/>
-      <c r="E62" s="644"/>
-      <c r="F62" s="644"/>
-      <c r="G62" s="644"/>
-      <c r="H62" s="644"/>
-      <c r="I62" s="644"/>
-      <c r="J62" s="644"/>
-      <c r="K62" s="695" t="s">
+      <c r="C62" s="641"/>
+      <c r="D62" s="641"/>
+      <c r="E62" s="641"/>
+      <c r="F62" s="641"/>
+      <c r="G62" s="641"/>
+      <c r="H62" s="641"/>
+      <c r="I62" s="641"/>
+      <c r="J62" s="641"/>
+      <c r="K62" s="684" t="s">
         <v>457</v>
       </c>
-      <c r="L62" s="644"/>
-      <c r="M62" s="644"/>
-      <c r="N62" s="644"/>
-      <c r="O62" s="644"/>
-      <c r="P62" s="644"/>
-      <c r="Q62" s="644"/>
-      <c r="R62" s="644"/>
-      <c r="S62" s="644"/>
-      <c r="T62" s="644"/>
-      <c r="U62" s="644"/>
-      <c r="V62" s="644"/>
-      <c r="W62" s="644"/>
+      <c r="L62" s="641"/>
+      <c r="M62" s="641"/>
+      <c r="N62" s="641"/>
+      <c r="O62" s="641"/>
+      <c r="P62" s="641"/>
+      <c r="Q62" s="641"/>
+      <c r="R62" s="641"/>
+      <c r="S62" s="641"/>
+      <c r="T62" s="641"/>
+      <c r="U62" s="641"/>
+      <c r="V62" s="641"/>
+      <c r="W62" s="641"/>
     </row>
     <row r="63" spans="1:23" ht="14">
       <c r="A63" s="253">
@@ -53222,12 +53222,12 @@
       </c>
       <c r="R63" s="678"/>
       <c r="S63" s="678"/>
-      <c r="T63" s="692" t="s">
+      <c r="T63" s="679" t="s">
         <v>519</v>
       </c>
-      <c r="U63" s="693"/>
-      <c r="V63" s="693"/>
-      <c r="W63" s="693"/>
+      <c r="U63" s="680"/>
+      <c r="V63" s="680"/>
+      <c r="W63" s="680"/>
     </row>
     <row r="64" spans="1:23" ht="15.35">
       <c r="A64" s="288"/>
@@ -53285,7 +53285,7 @@
       <c r="S64" s="254" t="s">
         <v>463</v>
       </c>
-      <c r="T64" s="691" t="s">
+      <c r="T64" s="681" t="s">
         <v>520</v>
       </c>
       <c r="U64" s="171" t="s">
@@ -53330,7 +53330,7 @@
       <c r="Q65" s="184"/>
       <c r="R65" s="184"/>
       <c r="S65" s="184"/>
-      <c r="T65" s="644"/>
+      <c r="T65" s="641"/>
       <c r="U65" s="171" t="s">
         <v>524</v>
       </c>
@@ -53595,32 +53595,32 @@
       </c>
     </row>
     <row r="85" spans="1:23" ht="14">
-      <c r="B85" s="694" t="s">
+      <c r="B85" s="685" t="s">
         <v>919</v>
       </c>
-      <c r="C85" s="644"/>
-      <c r="D85" s="644"/>
-      <c r="E85" s="644"/>
-      <c r="F85" s="644"/>
-      <c r="G85" s="644"/>
-      <c r="H85" s="644"/>
-      <c r="I85" s="644"/>
-      <c r="J85" s="644"/>
-      <c r="K85" s="694" t="s">
+      <c r="C85" s="641"/>
+      <c r="D85" s="641"/>
+      <c r="E85" s="641"/>
+      <c r="F85" s="641"/>
+      <c r="G85" s="641"/>
+      <c r="H85" s="641"/>
+      <c r="I85" s="641"/>
+      <c r="J85" s="641"/>
+      <c r="K85" s="685" t="s">
         <v>911</v>
       </c>
-      <c r="L85" s="644"/>
-      <c r="M85" s="644"/>
-      <c r="N85" s="644"/>
-      <c r="O85" s="644"/>
-      <c r="P85" s="644"/>
-      <c r="Q85" s="644"/>
-      <c r="R85" s="644"/>
-      <c r="S85" s="644"/>
-      <c r="T85" s="644"/>
-      <c r="U85" s="644"/>
-      <c r="V85" s="644"/>
-      <c r="W85" s="644"/>
+      <c r="L85" s="641"/>
+      <c r="M85" s="641"/>
+      <c r="N85" s="641"/>
+      <c r="O85" s="641"/>
+      <c r="P85" s="641"/>
+      <c r="Q85" s="641"/>
+      <c r="R85" s="641"/>
+      <c r="S85" s="641"/>
+      <c r="T85" s="641"/>
+      <c r="U85" s="641"/>
+      <c r="V85" s="641"/>
+      <c r="W85" s="641"/>
     </row>
     <row r="86" spans="1:23" ht="14">
       <c r="A86" s="253">
@@ -53631,17 +53631,17 @@
       </c>
       <c r="C86" s="673"/>
       <c r="D86" s="673"/>
-      <c r="E86" s="680" t="s">
+      <c r="E86" s="690" t="s">
         <v>920</v>
       </c>
       <c r="F86" s="675"/>
       <c r="G86" s="675"/>
-      <c r="H86" s="697" t="s">
+      <c r="H86" s="691" t="s">
         <v>921</v>
       </c>
       <c r="I86" s="677"/>
       <c r="J86" s="677"/>
-      <c r="K86" s="680" t="s">
+      <c r="K86" s="690" t="s">
         <v>922</v>
       </c>
       <c r="L86" s="678"/>
@@ -53656,12 +53656,12 @@
       </c>
       <c r="R86" s="678"/>
       <c r="S86" s="678"/>
-      <c r="T86" s="692" t="s">
+      <c r="T86" s="679" t="s">
         <v>519</v>
       </c>
-      <c r="U86" s="693"/>
-      <c r="V86" s="693"/>
-      <c r="W86" s="693"/>
+      <c r="U86" s="680"/>
+      <c r="V86" s="680"/>
+      <c r="W86" s="680"/>
     </row>
     <row r="87" spans="1:23" ht="15.35">
       <c r="A87" s="288"/>
@@ -53719,7 +53719,7 @@
       <c r="S87" s="254" t="s">
         <v>463</v>
       </c>
-      <c r="T87" s="691" t="s">
+      <c r="T87" s="681" t="s">
         <v>520</v>
       </c>
       <c r="U87" s="171" t="s">
@@ -53764,7 +53764,7 @@
       <c r="Q88" s="184"/>
       <c r="R88" s="184"/>
       <c r="S88" s="184"/>
-      <c r="T88" s="644"/>
+      <c r="T88" s="641"/>
       <c r="U88" s="171" t="s">
         <v>524</v>
       </c>
@@ -54028,32 +54028,32 @@
       <c r="C106" s="170"/>
     </row>
     <row r="107" spans="1:23" ht="14">
-      <c r="B107" s="694" t="s">
+      <c r="B107" s="685" t="s">
         <v>919</v>
       </c>
-      <c r="C107" s="644"/>
-      <c r="D107" s="644"/>
-      <c r="E107" s="644"/>
-      <c r="F107" s="644"/>
-      <c r="G107" s="644"/>
-      <c r="H107" s="644"/>
-      <c r="I107" s="644"/>
-      <c r="J107" s="644"/>
-      <c r="K107" s="695" t="s">
+      <c r="C107" s="641"/>
+      <c r="D107" s="641"/>
+      <c r="E107" s="641"/>
+      <c r="F107" s="641"/>
+      <c r="G107" s="641"/>
+      <c r="H107" s="641"/>
+      <c r="I107" s="641"/>
+      <c r="J107" s="641"/>
+      <c r="K107" s="684" t="s">
         <v>457</v>
       </c>
-      <c r="L107" s="644"/>
-      <c r="M107" s="644"/>
-      <c r="N107" s="644"/>
-      <c r="O107" s="644"/>
-      <c r="P107" s="644"/>
-      <c r="Q107" s="644"/>
-      <c r="R107" s="644"/>
-      <c r="S107" s="644"/>
-      <c r="T107" s="644"/>
-      <c r="U107" s="644"/>
-      <c r="V107" s="644"/>
-      <c r="W107" s="644"/>
+      <c r="L107" s="641"/>
+      <c r="M107" s="641"/>
+      <c r="N107" s="641"/>
+      <c r="O107" s="641"/>
+      <c r="P107" s="641"/>
+      <c r="Q107" s="641"/>
+      <c r="R107" s="641"/>
+      <c r="S107" s="641"/>
+      <c r="T107" s="641"/>
+      <c r="U107" s="641"/>
+      <c r="V107" s="641"/>
+      <c r="W107" s="641"/>
     </row>
     <row r="108" spans="1:23" ht="14">
       <c r="A108" s="253">
@@ -54064,7 +54064,7 @@
       </c>
       <c r="C108" s="673"/>
       <c r="D108" s="673"/>
-      <c r="E108" s="680" t="s">
+      <c r="E108" s="690" t="s">
         <v>920</v>
       </c>
       <c r="F108" s="675"/>
@@ -54089,12 +54089,12 @@
       </c>
       <c r="R108" s="678"/>
       <c r="S108" s="678"/>
-      <c r="T108" s="692" t="s">
+      <c r="T108" s="679" t="s">
         <v>519</v>
       </c>
-      <c r="U108" s="693"/>
-      <c r="V108" s="693"/>
-      <c r="W108" s="693"/>
+      <c r="U108" s="680"/>
+      <c r="V108" s="680"/>
+      <c r="W108" s="680"/>
     </row>
     <row r="109" spans="1:23" ht="15.35">
       <c r="A109" s="288"/>
@@ -54152,7 +54152,7 @@
       <c r="S109" s="346" t="s">
         <v>463</v>
       </c>
-      <c r="T109" s="691" t="s">
+      <c r="T109" s="681" t="s">
         <v>520</v>
       </c>
       <c r="U109" s="171" t="s">
@@ -54197,7 +54197,7 @@
       <c r="Q110" s="184"/>
       <c r="R110" s="184"/>
       <c r="S110" s="184"/>
-      <c r="T110" s="644"/>
+      <c r="T110" s="641"/>
       <c r="U110" s="171" t="s">
         <v>524</v>
       </c>
@@ -54411,32 +54411,32 @@
       </c>
     </row>
     <row r="128" spans="1:23" ht="14">
-      <c r="B128" s="695" t="s">
+      <c r="B128" s="684" t="s">
         <v>456</v>
       </c>
-      <c r="C128" s="644"/>
-      <c r="D128" s="644"/>
-      <c r="E128" s="644"/>
-      <c r="F128" s="644"/>
-      <c r="G128" s="644"/>
-      <c r="H128" s="644"/>
-      <c r="I128" s="644"/>
-      <c r="J128" s="644"/>
-      <c r="K128" s="695" t="s">
+      <c r="C128" s="641"/>
+      <c r="D128" s="641"/>
+      <c r="E128" s="641"/>
+      <c r="F128" s="641"/>
+      <c r="G128" s="641"/>
+      <c r="H128" s="641"/>
+      <c r="I128" s="641"/>
+      <c r="J128" s="641"/>
+      <c r="K128" s="684" t="s">
         <v>457</v>
       </c>
-      <c r="L128" s="644"/>
-      <c r="M128" s="644"/>
-      <c r="N128" s="644"/>
-      <c r="O128" s="644"/>
-      <c r="P128" s="644"/>
-      <c r="Q128" s="644"/>
-      <c r="R128" s="644"/>
-      <c r="S128" s="644"/>
-      <c r="T128" s="644"/>
-      <c r="U128" s="644"/>
-      <c r="V128" s="644"/>
-      <c r="W128" s="644"/>
+      <c r="L128" s="641"/>
+      <c r="M128" s="641"/>
+      <c r="N128" s="641"/>
+      <c r="O128" s="641"/>
+      <c r="P128" s="641"/>
+      <c r="Q128" s="641"/>
+      <c r="R128" s="641"/>
+      <c r="S128" s="641"/>
+      <c r="T128" s="641"/>
+      <c r="U128" s="641"/>
+      <c r="V128" s="641"/>
+      <c r="W128" s="641"/>
     </row>
     <row r="129" spans="1:23" ht="14">
       <c r="A129" s="253">
@@ -54472,12 +54472,12 @@
       </c>
       <c r="R129" s="678"/>
       <c r="S129" s="678"/>
-      <c r="T129" s="692" t="s">
+      <c r="T129" s="679" t="s">
         <v>519</v>
       </c>
-      <c r="U129" s="693"/>
-      <c r="V129" s="693"/>
-      <c r="W129" s="693"/>
+      <c r="U129" s="680"/>
+      <c r="V129" s="680"/>
+      <c r="W129" s="680"/>
     </row>
     <row r="130" spans="1:23" ht="15.35">
       <c r="A130" s="288"/>
@@ -54535,7 +54535,7 @@
       <c r="S130" s="346" t="s">
         <v>463</v>
       </c>
-      <c r="T130" s="691" t="s">
+      <c r="T130" s="681" t="s">
         <v>520</v>
       </c>
       <c r="U130" s="171" t="s">
@@ -54580,7 +54580,7 @@
       <c r="Q131" s="184"/>
       <c r="R131" s="184"/>
       <c r="S131" s="184"/>
-      <c r="T131" s="644"/>
+      <c r="T131" s="641"/>
       <c r="U131" s="171" t="s">
         <v>524</v>
       </c>
@@ -54780,32 +54780,32 @@
       </c>
     </row>
     <row r="142" spans="1:23" ht="14">
-      <c r="B142" s="695" t="s">
+      <c r="B142" s="684" t="s">
         <v>456</v>
       </c>
-      <c r="C142" s="644"/>
-      <c r="D142" s="644"/>
-      <c r="E142" s="644"/>
-      <c r="F142" s="644"/>
-      <c r="G142" s="644"/>
-      <c r="H142" s="644"/>
-      <c r="I142" s="644"/>
-      <c r="J142" s="644"/>
-      <c r="K142" s="695" t="s">
+      <c r="C142" s="641"/>
+      <c r="D142" s="641"/>
+      <c r="E142" s="641"/>
+      <c r="F142" s="641"/>
+      <c r="G142" s="641"/>
+      <c r="H142" s="641"/>
+      <c r="I142" s="641"/>
+      <c r="J142" s="641"/>
+      <c r="K142" s="684" t="s">
         <v>457</v>
       </c>
-      <c r="L142" s="644"/>
-      <c r="M142" s="644"/>
-      <c r="N142" s="644"/>
-      <c r="O142" s="644"/>
-      <c r="P142" s="644"/>
-      <c r="Q142" s="644"/>
-      <c r="R142" s="644"/>
-      <c r="S142" s="644"/>
-      <c r="T142" s="644"/>
-      <c r="U142" s="644"/>
-      <c r="V142" s="644"/>
-      <c r="W142" s="644"/>
+      <c r="L142" s="641"/>
+      <c r="M142" s="641"/>
+      <c r="N142" s="641"/>
+      <c r="O142" s="641"/>
+      <c r="P142" s="641"/>
+      <c r="Q142" s="641"/>
+      <c r="R142" s="641"/>
+      <c r="S142" s="641"/>
+      <c r="T142" s="641"/>
+      <c r="U142" s="641"/>
+      <c r="V142" s="641"/>
+      <c r="W142" s="641"/>
     </row>
     <row r="143" spans="1:23" ht="14">
       <c r="A143" s="253">
@@ -54839,14 +54839,14 @@
       <c r="Q143" s="674" t="s">
         <v>916</v>
       </c>
-      <c r="R143" s="679"/>
-      <c r="S143" s="679"/>
-      <c r="T143" s="692" t="s">
+      <c r="R143" s="701"/>
+      <c r="S143" s="701"/>
+      <c r="T143" s="679" t="s">
         <v>519</v>
       </c>
-      <c r="U143" s="693"/>
-      <c r="V143" s="693"/>
-      <c r="W143" s="693"/>
+      <c r="U143" s="680"/>
+      <c r="V143" s="680"/>
+      <c r="W143" s="680"/>
     </row>
     <row r="144" spans="1:23" ht="15.35">
       <c r="A144" s="288"/>
@@ -54904,7 +54904,7 @@
       <c r="S144" s="254" t="s">
         <v>463</v>
       </c>
-      <c r="T144" s="691" t="s">
+      <c r="T144" s="681" t="s">
         <v>520</v>
       </c>
       <c r="U144" s="171" t="s">
@@ -54949,7 +54949,7 @@
       <c r="Q145" s="184"/>
       <c r="R145" s="184"/>
       <c r="S145" s="184"/>
-      <c r="T145" s="644"/>
+      <c r="T145" s="641"/>
       <c r="U145" s="171" t="s">
         <v>524</v>
       </c>
@@ -55141,32 +55141,32 @@
       </c>
     </row>
     <row r="157" spans="1:23" ht="14">
-      <c r="B157" s="700" t="s">
+      <c r="B157" s="686" t="s">
         <v>456</v>
       </c>
-      <c r="C157" s="684"/>
-      <c r="D157" s="684"/>
-      <c r="E157" s="684"/>
-      <c r="F157" s="684"/>
-      <c r="G157" s="684"/>
-      <c r="H157" s="684"/>
-      <c r="I157" s="684"/>
-      <c r="J157" s="684"/>
-      <c r="K157" s="683" t="s">
+      <c r="C157" s="687"/>
+      <c r="D157" s="687"/>
+      <c r="E157" s="687"/>
+      <c r="F157" s="687"/>
+      <c r="G157" s="687"/>
+      <c r="H157" s="687"/>
+      <c r="I157" s="687"/>
+      <c r="J157" s="687"/>
+      <c r="K157" s="688" t="s">
         <v>911</v>
       </c>
-      <c r="L157" s="684"/>
-      <c r="M157" s="684"/>
-      <c r="N157" s="684"/>
-      <c r="O157" s="684"/>
-      <c r="P157" s="684"/>
-      <c r="Q157" s="684"/>
-      <c r="R157" s="684"/>
-      <c r="S157" s="684"/>
-      <c r="T157" s="684"/>
-      <c r="U157" s="684"/>
-      <c r="V157" s="684"/>
-      <c r="W157" s="684"/>
+      <c r="L157" s="687"/>
+      <c r="M157" s="687"/>
+      <c r="N157" s="687"/>
+      <c r="O157" s="687"/>
+      <c r="P157" s="687"/>
+      <c r="Q157" s="687"/>
+      <c r="R157" s="687"/>
+      <c r="S157" s="687"/>
+      <c r="T157" s="687"/>
+      <c r="U157" s="687"/>
+      <c r="V157" s="687"/>
+      <c r="W157" s="687"/>
     </row>
     <row r="158" spans="1:23" ht="14">
       <c r="A158" s="253">
@@ -55202,12 +55202,12 @@
       </c>
       <c r="R158" s="678"/>
       <c r="S158" s="678"/>
-      <c r="T158" s="692" t="s">
+      <c r="T158" s="679" t="s">
         <v>519</v>
       </c>
-      <c r="U158" s="693"/>
-      <c r="V158" s="693"/>
-      <c r="W158" s="693"/>
+      <c r="U158" s="680"/>
+      <c r="V158" s="680"/>
+      <c r="W158" s="680"/>
     </row>
     <row r="159" spans="1:23" ht="15.35">
       <c r="A159" s="288"/>
@@ -55265,7 +55265,7 @@
       <c r="S159" s="258" t="s">
         <v>914</v>
       </c>
-      <c r="T159" s="691" t="s">
+      <c r="T159" s="681" t="s">
         <v>520</v>
       </c>
       <c r="U159" s="171" t="s">
@@ -55310,7 +55310,7 @@
       <c r="Q160" s="321"/>
       <c r="R160" s="275"/>
       <c r="S160" s="275"/>
-      <c r="T160" s="644"/>
+      <c r="T160" s="641"/>
       <c r="U160" s="171"/>
       <c r="V160" s="266"/>
       <c r="W160" s="266"/>
@@ -55347,7 +55347,7 @@
       <c r="Q161" s="184"/>
       <c r="R161" s="188"/>
       <c r="S161" s="188"/>
-      <c r="T161" s="644"/>
+      <c r="T161" s="641"/>
       <c r="U161" s="171" t="s">
         <v>524</v>
       </c>
@@ -55548,32 +55548,32 @@
     </row>
     <row r="172" spans="1:23" ht="14">
       <c r="A172" s="293"/>
-      <c r="B172" s="695" t="s">
+      <c r="B172" s="684" t="s">
         <v>456</v>
       </c>
-      <c r="C172" s="644"/>
-      <c r="D172" s="644"/>
-      <c r="E172" s="644"/>
-      <c r="F172" s="644"/>
-      <c r="G172" s="644"/>
-      <c r="H172" s="644"/>
-      <c r="I172" s="644"/>
-      <c r="J172" s="644"/>
-      <c r="K172" s="694" t="s">
+      <c r="C172" s="641"/>
+      <c r="D172" s="641"/>
+      <c r="E172" s="641"/>
+      <c r="F172" s="641"/>
+      <c r="G172" s="641"/>
+      <c r="H172" s="641"/>
+      <c r="I172" s="641"/>
+      <c r="J172" s="641"/>
+      <c r="K172" s="685" t="s">
         <v>911</v>
       </c>
-      <c r="L172" s="644"/>
-      <c r="M172" s="644"/>
-      <c r="N172" s="644"/>
-      <c r="O172" s="644"/>
-      <c r="P172" s="644"/>
-      <c r="Q172" s="644"/>
-      <c r="R172" s="644"/>
-      <c r="S172" s="644"/>
-      <c r="T172" s="644"/>
-      <c r="U172" s="644"/>
-      <c r="V172" s="644"/>
-      <c r="W172" s="644"/>
+      <c r="L172" s="641"/>
+      <c r="M172" s="641"/>
+      <c r="N172" s="641"/>
+      <c r="O172" s="641"/>
+      <c r="P172" s="641"/>
+      <c r="Q172" s="641"/>
+      <c r="R172" s="641"/>
+      <c r="S172" s="641"/>
+      <c r="T172" s="641"/>
+      <c r="U172" s="641"/>
+      <c r="V172" s="641"/>
+      <c r="W172" s="641"/>
     </row>
     <row r="173" spans="1:23" ht="14">
       <c r="A173" s="293"/>
@@ -55607,12 +55607,12 @@
       </c>
       <c r="R173" s="678"/>
       <c r="S173" s="678"/>
-      <c r="T173" s="692" t="s">
+      <c r="T173" s="679" t="s">
         <v>519</v>
       </c>
-      <c r="U173" s="693"/>
-      <c r="V173" s="693"/>
-      <c r="W173" s="693"/>
+      <c r="U173" s="680"/>
+      <c r="V173" s="680"/>
+      <c r="W173" s="680"/>
     </row>
     <row r="174" spans="1:23" ht="15.35">
       <c r="A174" s="293"/>
@@ -55670,7 +55670,7 @@
       <c r="S174" s="258" t="s">
         <v>914</v>
       </c>
-      <c r="T174" s="691" t="s">
+      <c r="T174" s="681" t="s">
         <v>520</v>
       </c>
       <c r="U174" s="171" t="s">
@@ -55715,7 +55715,7 @@
       <c r="Q175" s="184"/>
       <c r="R175" s="188"/>
       <c r="S175" s="188"/>
-      <c r="T175" s="644"/>
+      <c r="T175" s="641"/>
       <c r="U175" s="171" t="s">
         <v>524</v>
       </c>
@@ -57861,15 +57861,74 @@
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="B173:D173"/>
-    <mergeCell ref="E173:G173"/>
-    <mergeCell ref="H173:J173"/>
-    <mergeCell ref="K173:M173"/>
-    <mergeCell ref="N173:P173"/>
-    <mergeCell ref="Q173:S173"/>
-    <mergeCell ref="T173:W173"/>
-    <mergeCell ref="T174:T175"/>
-    <mergeCell ref="T159:T161"/>
+    <mergeCell ref="B143:D143"/>
+    <mergeCell ref="E143:G143"/>
+    <mergeCell ref="H143:J143"/>
+    <mergeCell ref="K143:M143"/>
+    <mergeCell ref="N143:P143"/>
+    <mergeCell ref="Q143:S143"/>
+    <mergeCell ref="K108:M108"/>
+    <mergeCell ref="H108:J108"/>
+    <mergeCell ref="E108:G108"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="Q129:S129"/>
+    <mergeCell ref="B129:D129"/>
+    <mergeCell ref="E129:G129"/>
+    <mergeCell ref="H129:J129"/>
+    <mergeCell ref="K129:M129"/>
+    <mergeCell ref="N129:P129"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="K3:W3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="K23:W23"/>
+    <mergeCell ref="B44:J44"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="T45:W45"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="K62:W62"/>
+    <mergeCell ref="B85:J85"/>
+    <mergeCell ref="B107:J107"/>
+    <mergeCell ref="B128:J128"/>
+    <mergeCell ref="N86:P86"/>
+    <mergeCell ref="Q86:S86"/>
+    <mergeCell ref="T86:W86"/>
+    <mergeCell ref="T87:T88"/>
+    <mergeCell ref="K85:W85"/>
+    <mergeCell ref="N108:P108"/>
+    <mergeCell ref="Q108:S108"/>
+    <mergeCell ref="T108:W108"/>
+    <mergeCell ref="T109:T110"/>
+    <mergeCell ref="K107:W107"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="K63:M63"/>
+    <mergeCell ref="N63:P63"/>
+    <mergeCell ref="Q63:S63"/>
+    <mergeCell ref="K86:M86"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="B86:D86"/>
     <mergeCell ref="B158:D158"/>
     <mergeCell ref="E158:G158"/>
     <mergeCell ref="H158:J158"/>
@@ -57894,74 +57953,15 @@
     <mergeCell ref="B62:J62"/>
     <mergeCell ref="T63:W63"/>
     <mergeCell ref="T64:T65"/>
-    <mergeCell ref="K62:W62"/>
-    <mergeCell ref="B85:J85"/>
-    <mergeCell ref="B107:J107"/>
-    <mergeCell ref="B128:J128"/>
-    <mergeCell ref="N86:P86"/>
-    <mergeCell ref="Q86:S86"/>
-    <mergeCell ref="T86:W86"/>
-    <mergeCell ref="T87:T88"/>
-    <mergeCell ref="K85:W85"/>
-    <mergeCell ref="N108:P108"/>
-    <mergeCell ref="Q108:S108"/>
-    <mergeCell ref="T108:W108"/>
-    <mergeCell ref="T109:T110"/>
-    <mergeCell ref="K107:W107"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="K63:M63"/>
-    <mergeCell ref="N63:P63"/>
-    <mergeCell ref="Q63:S63"/>
-    <mergeCell ref="K86:M86"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="K23:W23"/>
-    <mergeCell ref="B44:J44"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="T45:W45"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="K3:W3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="B143:D143"/>
-    <mergeCell ref="E143:G143"/>
-    <mergeCell ref="H143:J143"/>
-    <mergeCell ref="K143:M143"/>
-    <mergeCell ref="N143:P143"/>
-    <mergeCell ref="Q143:S143"/>
-    <mergeCell ref="K108:M108"/>
-    <mergeCell ref="H108:J108"/>
-    <mergeCell ref="E108:G108"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="Q129:S129"/>
-    <mergeCell ref="B129:D129"/>
-    <mergeCell ref="E129:G129"/>
-    <mergeCell ref="H129:J129"/>
-    <mergeCell ref="K129:M129"/>
-    <mergeCell ref="N129:P129"/>
+    <mergeCell ref="B173:D173"/>
+    <mergeCell ref="E173:G173"/>
+    <mergeCell ref="H173:J173"/>
+    <mergeCell ref="K173:M173"/>
+    <mergeCell ref="N173:P173"/>
+    <mergeCell ref="Q173:S173"/>
+    <mergeCell ref="T173:W173"/>
+    <mergeCell ref="T174:T175"/>
+    <mergeCell ref="T159:T161"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -58002,31 +58002,31 @@
       <c r="A2" s="196" t="s">
         <v>455</v>
       </c>
-      <c r="B2" s="704" t="s">
+      <c r="B2" s="707" t="s">
         <v>456</v>
       </c>
-      <c r="C2" s="705"/>
-      <c r="D2" s="705"/>
-      <c r="E2" s="706" t="s">
+      <c r="C2" s="708"/>
+      <c r="D2" s="708"/>
+      <c r="E2" s="709" t="s">
         <v>457</v>
       </c>
-      <c r="F2" s="688"/>
-      <c r="G2" s="688"/>
+      <c r="F2" s="698"/>
+      <c r="G2" s="698"/>
     </row>
     <row r="3" spans="1:7" ht="14">
       <c r="A3" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B3" s="702" t="s">
+      <c r="B3" s="710" t="s">
         <v>459</v>
       </c>
-      <c r="C3" s="686"/>
-      <c r="D3" s="686"/>
-      <c r="E3" s="703" t="s">
+      <c r="C3" s="693"/>
+      <c r="D3" s="693"/>
+      <c r="E3" s="711" t="s">
         <v>460</v>
       </c>
-      <c r="F3" s="686"/>
-      <c r="G3" s="686"/>
+      <c r="F3" s="693"/>
+      <c r="G3" s="693"/>
     </row>
     <row r="4" spans="1:7" ht="15.35">
       <c r="A4" s="197"/>
@@ -58163,31 +58163,31 @@
       <c r="A13" s="196" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="704" t="s">
+      <c r="B13" s="707" t="s">
         <v>456</v>
       </c>
-      <c r="C13" s="705"/>
-      <c r="D13" s="705"/>
-      <c r="E13" s="706" t="s">
+      <c r="C13" s="708"/>
+      <c r="D13" s="708"/>
+      <c r="E13" s="709" t="s">
         <v>457</v>
       </c>
-      <c r="F13" s="688"/>
-      <c r="G13" s="688"/>
+      <c r="F13" s="698"/>
+      <c r="G13" s="698"/>
     </row>
     <row r="14" spans="1:7" ht="14">
       <c r="A14" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B14" s="702" t="s">
+      <c r="B14" s="710" t="s">
         <v>459</v>
       </c>
-      <c r="C14" s="686"/>
-      <c r="D14" s="686"/>
-      <c r="E14" s="703" t="s">
+      <c r="C14" s="693"/>
+      <c r="D14" s="693"/>
+      <c r="E14" s="711" t="s">
         <v>460</v>
       </c>
-      <c r="F14" s="686"/>
-      <c r="G14" s="686"/>
+      <c r="F14" s="693"/>
+      <c r="G14" s="693"/>
     </row>
     <row r="15" spans="1:7" ht="15.35">
       <c r="A15" s="197"/>
@@ -58342,31 +58342,31 @@
       <c r="A24" s="196" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="704" t="s">
+      <c r="B24" s="707" t="s">
         <v>456</v>
       </c>
-      <c r="C24" s="705"/>
-      <c r="D24" s="705"/>
-      <c r="E24" s="706" t="s">
+      <c r="C24" s="708"/>
+      <c r="D24" s="708"/>
+      <c r="E24" s="709" t="s">
         <v>457</v>
       </c>
-      <c r="F24" s="688"/>
-      <c r="G24" s="688"/>
+      <c r="F24" s="698"/>
+      <c r="G24" s="698"/>
     </row>
     <row r="25" spans="1:7" ht="14">
       <c r="A25" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B25" s="702" t="s">
+      <c r="B25" s="710" t="s">
         <v>459</v>
       </c>
-      <c r="C25" s="686"/>
-      <c r="D25" s="686"/>
-      <c r="E25" s="703" t="s">
+      <c r="C25" s="693"/>
+      <c r="D25" s="693"/>
+      <c r="E25" s="711" t="s">
         <v>460</v>
       </c>
-      <c r="F25" s="686"/>
-      <c r="G25" s="686"/>
+      <c r="F25" s="693"/>
+      <c r="G25" s="693"/>
     </row>
     <row r="26" spans="1:7" ht="15.35">
       <c r="A26" s="197"/>
@@ -58503,31 +58503,31 @@
       <c r="A35" s="196" t="s">
         <v>92</v>
       </c>
-      <c r="B35" s="704" t="s">
+      <c r="B35" s="707" t="s">
         <v>456</v>
       </c>
-      <c r="C35" s="705"/>
-      <c r="D35" s="705"/>
-      <c r="E35" s="706" t="s">
+      <c r="C35" s="708"/>
+      <c r="D35" s="708"/>
+      <c r="E35" s="709" t="s">
         <v>457</v>
       </c>
-      <c r="F35" s="688"/>
-      <c r="G35" s="688"/>
+      <c r="F35" s="698"/>
+      <c r="G35" s="698"/>
     </row>
     <row r="36" spans="1:8" ht="25.35">
       <c r="A36" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B36" s="702" t="s">
+      <c r="B36" s="710" t="s">
         <v>459</v>
       </c>
-      <c r="C36" s="686"/>
-      <c r="D36" s="686"/>
-      <c r="E36" s="703" t="s">
+      <c r="C36" s="693"/>
+      <c r="D36" s="693"/>
+      <c r="E36" s="711" t="s">
         <v>460</v>
       </c>
-      <c r="F36" s="686"/>
-      <c r="G36" s="686"/>
+      <c r="F36" s="693"/>
+      <c r="G36" s="693"/>
     </row>
     <row r="37" spans="1:8" ht="15.35">
       <c r="B37" s="198" t="s">
@@ -58659,31 +58659,31 @@
       <c r="A48" s="196" t="s">
         <v>99</v>
       </c>
-      <c r="B48" s="704" t="s">
+      <c r="B48" s="707" t="s">
         <v>456</v>
       </c>
-      <c r="C48" s="705"/>
-      <c r="D48" s="705"/>
-      <c r="E48" s="706" t="s">
+      <c r="C48" s="708"/>
+      <c r="D48" s="708"/>
+      <c r="E48" s="709" t="s">
         <v>457</v>
       </c>
-      <c r="F48" s="688"/>
-      <c r="G48" s="688"/>
+      <c r="F48" s="698"/>
+      <c r="G48" s="698"/>
     </row>
     <row r="49" spans="1:8" ht="25.35">
       <c r="A49" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B49" s="702" t="s">
+      <c r="B49" s="710" t="s">
         <v>459</v>
       </c>
-      <c r="C49" s="686"/>
-      <c r="D49" s="686"/>
-      <c r="E49" s="703" t="s">
+      <c r="C49" s="693"/>
+      <c r="D49" s="693"/>
+      <c r="E49" s="711" t="s">
         <v>460</v>
       </c>
-      <c r="F49" s="686"/>
-      <c r="G49" s="686"/>
+      <c r="F49" s="693"/>
+      <c r="G49" s="693"/>
     </row>
     <row r="50" spans="1:8" ht="15.35">
       <c r="B50" s="198" t="s">
@@ -58815,31 +58815,31 @@
       <c r="A62" s="196" t="s">
         <v>104</v>
       </c>
-      <c r="B62" s="704" t="s">
+      <c r="B62" s="707" t="s">
         <v>456</v>
       </c>
-      <c r="C62" s="705"/>
-      <c r="D62" s="705"/>
-      <c r="E62" s="706" t="s">
+      <c r="C62" s="708"/>
+      <c r="D62" s="708"/>
+      <c r="E62" s="709" t="s">
         <v>457</v>
       </c>
-      <c r="F62" s="688"/>
-      <c r="G62" s="688"/>
+      <c r="F62" s="698"/>
+      <c r="G62" s="698"/>
     </row>
     <row r="63" spans="1:8" ht="25.35">
       <c r="A63" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B63" s="702" t="s">
+      <c r="B63" s="710" t="s">
         <v>459</v>
       </c>
-      <c r="C63" s="686"/>
-      <c r="D63" s="686"/>
-      <c r="E63" s="703" t="s">
+      <c r="C63" s="693"/>
+      <c r="D63" s="693"/>
+      <c r="E63" s="711" t="s">
         <v>460</v>
       </c>
-      <c r="F63" s="686"/>
-      <c r="G63" s="686"/>
+      <c r="F63" s="693"/>
+      <c r="G63" s="693"/>
     </row>
     <row r="64" spans="1:8" ht="15.35">
       <c r="B64" s="198" t="s">
@@ -58964,31 +58964,31 @@
       <c r="A79" s="191" t="s">
         <v>91</v>
       </c>
-      <c r="B79" s="704" t="s">
+      <c r="B79" s="707" t="s">
         <v>456</v>
       </c>
-      <c r="C79" s="705"/>
-      <c r="D79" s="705"/>
-      <c r="E79" s="706" t="s">
+      <c r="C79" s="708"/>
+      <c r="D79" s="708"/>
+      <c r="E79" s="709" t="s">
         <v>457</v>
       </c>
-      <c r="F79" s="688"/>
-      <c r="G79" s="688"/>
+      <c r="F79" s="698"/>
+      <c r="G79" s="698"/>
     </row>
     <row r="80" spans="1:9" ht="27.35">
       <c r="A80" s="196" t="s">
         <v>114</v>
       </c>
-      <c r="B80" s="702" t="s">
+      <c r="B80" s="710" t="s">
         <v>459</v>
       </c>
-      <c r="C80" s="686"/>
-      <c r="D80" s="686"/>
-      <c r="E80" s="703" t="s">
+      <c r="C80" s="693"/>
+      <c r="D80" s="693"/>
+      <c r="E80" s="711" t="s">
         <v>460</v>
       </c>
-      <c r="F80" s="686"/>
-      <c r="G80" s="686"/>
+      <c r="F80" s="693"/>
+      <c r="G80" s="693"/>
     </row>
     <row r="81" spans="1:7" ht="25.35">
       <c r="A81" s="10" t="s">
@@ -59126,31 +59126,31 @@
       <c r="A99" s="196" t="s">
         <v>119</v>
       </c>
-      <c r="B99" s="704" t="s">
+      <c r="B99" s="707" t="s">
         <v>456</v>
       </c>
-      <c r="C99" s="705"/>
-      <c r="D99" s="705"/>
-      <c r="E99" s="706" t="s">
+      <c r="C99" s="708"/>
+      <c r="D99" s="708"/>
+      <c r="E99" s="709" t="s">
         <v>457</v>
       </c>
-      <c r="F99" s="688"/>
-      <c r="G99" s="688"/>
+      <c r="F99" s="698"/>
+      <c r="G99" s="698"/>
     </row>
     <row r="100" spans="1:7" ht="14">
       <c r="A100" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B100" s="702" t="s">
+      <c r="B100" s="710" t="s">
         <v>459</v>
       </c>
-      <c r="C100" s="686"/>
-      <c r="D100" s="686"/>
-      <c r="E100" s="703" t="s">
+      <c r="C100" s="693"/>
+      <c r="D100" s="693"/>
+      <c r="E100" s="711" t="s">
         <v>460</v>
       </c>
-      <c r="F100" s="686"/>
-      <c r="G100" s="686"/>
+      <c r="F100" s="693"/>
+      <c r="G100" s="693"/>
     </row>
     <row r="101" spans="1:7" ht="15.35">
       <c r="A101" s="197"/>
@@ -59308,31 +59308,31 @@
       <c r="A112" s="196" t="s">
         <v>146</v>
       </c>
-      <c r="B112" s="704" t="s">
+      <c r="B112" s="707" t="s">
         <v>456</v>
       </c>
-      <c r="C112" s="705"/>
-      <c r="D112" s="705"/>
-      <c r="E112" s="706" t="s">
+      <c r="C112" s="708"/>
+      <c r="D112" s="708"/>
+      <c r="E112" s="709" t="s">
         <v>457</v>
       </c>
-      <c r="F112" s="688"/>
-      <c r="G112" s="688"/>
+      <c r="F112" s="698"/>
+      <c r="G112" s="698"/>
     </row>
     <row r="113" spans="1:7" ht="14">
       <c r="A113" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B113" s="702" t="s">
+      <c r="B113" s="710" t="s">
         <v>459</v>
       </c>
-      <c r="C113" s="686"/>
-      <c r="D113" s="686"/>
-      <c r="E113" s="703" t="s">
+      <c r="C113" s="693"/>
+      <c r="D113" s="693"/>
+      <c r="E113" s="711" t="s">
         <v>460</v>
       </c>
-      <c r="F113" s="686"/>
-      <c r="G113" s="686"/>
+      <c r="F113" s="693"/>
+      <c r="G113" s="693"/>
     </row>
     <row r="114" spans="1:7" ht="15.35">
       <c r="A114" s="197"/>
@@ -59461,31 +59461,31 @@
       <c r="A123" s="196" t="s">
         <v>163</v>
       </c>
-      <c r="B123" s="713" t="s">
+      <c r="B123" s="702" t="s">
         <v>456</v>
       </c>
-      <c r="C123" s="714"/>
-      <c r="D123" s="714"/>
-      <c r="E123" s="715" t="s">
+      <c r="C123" s="703"/>
+      <c r="D123" s="703"/>
+      <c r="E123" s="704" t="s">
         <v>457</v>
       </c>
-      <c r="F123" s="716"/>
-      <c r="G123" s="716"/>
+      <c r="F123" s="705"/>
+      <c r="G123" s="705"/>
     </row>
     <row r="124" spans="1:7" ht="14.35">
       <c r="A124" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B124" s="709" t="s">
+      <c r="B124" s="714" t="s">
         <v>459</v>
       </c>
-      <c r="C124" s="710"/>
-      <c r="D124" s="710"/>
-      <c r="E124" s="711" t="s">
+      <c r="C124" s="715"/>
+      <c r="D124" s="715"/>
+      <c r="E124" s="716" t="s">
         <v>460</v>
       </c>
-      <c r="F124" s="712"/>
-      <c r="G124" s="712"/>
+      <c r="F124" s="717"/>
+      <c r="G124" s="717"/>
     </row>
     <row r="125" spans="1:7" ht="14.35">
       <c r="A125" s="197"/>
@@ -59675,31 +59675,31 @@
       <c r="A136" s="196" t="s">
         <v>167</v>
       </c>
-      <c r="B136" s="704" t="s">
+      <c r="B136" s="707" t="s">
         <v>456</v>
       </c>
-      <c r="C136" s="705"/>
-      <c r="D136" s="705"/>
-      <c r="E136" s="706" t="s">
+      <c r="C136" s="708"/>
+      <c r="D136" s="708"/>
+      <c r="E136" s="709" t="s">
         <v>457</v>
       </c>
-      <c r="F136" s="707"/>
-      <c r="G136" s="707"/>
+      <c r="F136" s="712"/>
+      <c r="G136" s="712"/>
     </row>
     <row r="137" spans="1:7" ht="14">
       <c r="A137" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B137" s="704" t="s">
+      <c r="B137" s="707" t="s">
         <v>459</v>
       </c>
-      <c r="C137" s="707"/>
-      <c r="D137" s="708"/>
-      <c r="E137" s="706" t="s">
+      <c r="C137" s="712"/>
+      <c r="D137" s="713"/>
+      <c r="E137" s="709" t="s">
         <v>460</v>
       </c>
-      <c r="F137" s="707"/>
-      <c r="G137" s="707"/>
+      <c r="F137" s="712"/>
+      <c r="G137" s="712"/>
     </row>
     <row r="138" spans="1:7" ht="15.35">
       <c r="A138" s="197"/>
@@ -59843,31 +59843,31 @@
       <c r="A152" s="196" t="s">
         <v>186</v>
       </c>
-      <c r="B152" s="713" t="s">
+      <c r="B152" s="702" t="s">
         <v>456</v>
       </c>
-      <c r="C152" s="714"/>
-      <c r="D152" s="714"/>
-      <c r="E152" s="715" t="s">
+      <c r="C152" s="703"/>
+      <c r="D152" s="703"/>
+      <c r="E152" s="704" t="s">
         <v>457</v>
       </c>
-      <c r="F152" s="716"/>
-      <c r="G152" s="716"/>
+      <c r="F152" s="705"/>
+      <c r="G152" s="705"/>
     </row>
     <row r="153" spans="1:7" ht="21" customHeight="1">
       <c r="A153" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B153" s="713" t="s">
+      <c r="B153" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C153" s="714"/>
-      <c r="D153" s="714"/>
-      <c r="E153" s="715" t="s">
+      <c r="C153" s="703"/>
+      <c r="D153" s="703"/>
+      <c r="E153" s="704" t="s">
         <v>460</v>
       </c>
-      <c r="F153" s="716"/>
-      <c r="G153" s="716"/>
+      <c r="F153" s="705"/>
+      <c r="G153" s="705"/>
     </row>
     <row r="154" spans="1:7" ht="14.35">
       <c r="B154" s="220" t="s">
@@ -60143,31 +60143,31 @@
       <c r="A171" s="196" t="s">
         <v>208</v>
       </c>
-      <c r="B171" s="713" t="s">
+      <c r="B171" s="702" t="s">
         <v>456</v>
       </c>
-      <c r="C171" s="714"/>
-      <c r="D171" s="714"/>
-      <c r="E171" s="715" t="s">
+      <c r="C171" s="703"/>
+      <c r="D171" s="703"/>
+      <c r="E171" s="704" t="s">
         <v>457</v>
       </c>
-      <c r="F171" s="716"/>
-      <c r="G171" s="716"/>
+      <c r="F171" s="705"/>
+      <c r="G171" s="705"/>
     </row>
     <row r="172" spans="1:7" ht="27.35">
       <c r="A172" s="197" t="s">
         <v>476</v>
       </c>
-      <c r="B172" s="713" t="s">
+      <c r="B172" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C172" s="714"/>
-      <c r="D172" s="714"/>
-      <c r="E172" s="715" t="s">
+      <c r="C172" s="703"/>
+      <c r="D172" s="703"/>
+      <c r="E172" s="704" t="s">
         <v>460</v>
       </c>
-      <c r="F172" s="716"/>
-      <c r="G172" s="716"/>
+      <c r="F172" s="705"/>
+      <c r="G172" s="705"/>
     </row>
     <row r="173" spans="1:7" ht="14.35">
       <c r="A173" s="201"/>
@@ -60443,31 +60443,31 @@
       <c r="A190" s="196" t="s">
         <v>210</v>
       </c>
-      <c r="B190" s="713" t="s">
+      <c r="B190" s="702" t="s">
         <v>456</v>
       </c>
-      <c r="C190" s="714"/>
-      <c r="D190" s="714"/>
-      <c r="E190" s="715" t="s">
+      <c r="C190" s="703"/>
+      <c r="D190" s="703"/>
+      <c r="E190" s="704" t="s">
         <v>457</v>
       </c>
-      <c r="F190" s="716"/>
-      <c r="G190" s="716"/>
+      <c r="F190" s="705"/>
+      <c r="G190" s="705"/>
     </row>
     <row r="191" spans="1:7" ht="25.35">
       <c r="A191" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B191" s="713" t="s">
+      <c r="B191" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C191" s="714"/>
-      <c r="D191" s="714"/>
-      <c r="E191" s="715" t="s">
+      <c r="C191" s="703"/>
+      <c r="D191" s="703"/>
+      <c r="E191" s="704" t="s">
         <v>460</v>
       </c>
-      <c r="F191" s="716"/>
-      <c r="G191" s="716"/>
+      <c r="F191" s="705"/>
+      <c r="G191" s="705"/>
     </row>
     <row r="192" spans="1:7" ht="14.35">
       <c r="B192" s="220" t="s">
@@ -60721,31 +60721,31 @@
       <c r="A208" s="196" t="s">
         <v>215</v>
       </c>
-      <c r="B208" s="713" t="s">
+      <c r="B208" s="702" t="s">
         <v>456</v>
       </c>
-      <c r="C208" s="714"/>
-      <c r="D208" s="714"/>
-      <c r="E208" s="715" t="s">
+      <c r="C208" s="703"/>
+      <c r="D208" s="703"/>
+      <c r="E208" s="704" t="s">
         <v>457</v>
       </c>
-      <c r="F208" s="716"/>
-      <c r="G208" s="716"/>
+      <c r="F208" s="705"/>
+      <c r="G208" s="705"/>
     </row>
     <row r="209" spans="1:7" ht="25.35">
       <c r="A209" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B209" s="713" t="s">
+      <c r="B209" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C209" s="714"/>
-      <c r="D209" s="714"/>
-      <c r="E209" s="715" t="s">
+      <c r="C209" s="703"/>
+      <c r="D209" s="703"/>
+      <c r="E209" s="704" t="s">
         <v>460</v>
       </c>
-      <c r="F209" s="716"/>
-      <c r="G209" s="716"/>
+      <c r="F209" s="705"/>
+      <c r="G209" s="705"/>
     </row>
     <row r="210" spans="1:7" ht="14.35">
       <c r="B210" s="220" t="s">
@@ -61009,31 +61009,31 @@
       <c r="A226" s="196" t="s">
         <v>218</v>
       </c>
-      <c r="B226" s="713" t="s">
+      <c r="B226" s="702" t="s">
         <v>456</v>
       </c>
-      <c r="C226" s="714"/>
-      <c r="D226" s="714"/>
-      <c r="E226" s="715" t="s">
+      <c r="C226" s="703"/>
+      <c r="D226" s="703"/>
+      <c r="E226" s="704" t="s">
         <v>457</v>
       </c>
-      <c r="F226" s="717"/>
-      <c r="G226" s="717"/>
+      <c r="F226" s="706"/>
+      <c r="G226" s="706"/>
     </row>
     <row r="227" spans="1:7" ht="27.35">
       <c r="A227" s="197" t="s">
         <v>476</v>
       </c>
-      <c r="B227" s="713" t="s">
+      <c r="B227" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C227" s="644"/>
-      <c r="D227" s="644"/>
-      <c r="E227" s="715" t="s">
+      <c r="C227" s="641"/>
+      <c r="D227" s="641"/>
+      <c r="E227" s="704" t="s">
         <v>460</v>
       </c>
-      <c r="F227" s="717"/>
-      <c r="G227" s="717"/>
+      <c r="F227" s="706"/>
+      <c r="G227" s="706"/>
     </row>
     <row r="228" spans="1:7" ht="14.35">
       <c r="A228" s="197"/>
@@ -61231,31 +61231,31 @@
       <c r="A240" s="196" t="s">
         <v>223</v>
       </c>
-      <c r="B240" s="713" t="s">
+      <c r="B240" s="702" t="s">
         <v>456</v>
       </c>
-      <c r="C240" s="714"/>
-      <c r="D240" s="714"/>
-      <c r="E240" s="715" t="s">
+      <c r="C240" s="703"/>
+      <c r="D240" s="703"/>
+      <c r="E240" s="704" t="s">
         <v>457</v>
       </c>
-      <c r="F240" s="717"/>
-      <c r="G240" s="717"/>
+      <c r="F240" s="706"/>
+      <c r="G240" s="706"/>
     </row>
     <row r="241" spans="1:7" ht="27.35">
       <c r="A241" s="197" t="s">
         <v>476</v>
       </c>
-      <c r="B241" s="713" t="s">
+      <c r="B241" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C241" s="644"/>
-      <c r="D241" s="644"/>
-      <c r="E241" s="715" t="s">
+      <c r="C241" s="641"/>
+      <c r="D241" s="641"/>
+      <c r="E241" s="704" t="s">
         <v>460</v>
       </c>
-      <c r="F241" s="717"/>
-      <c r="G241" s="717"/>
+      <c r="F241" s="706"/>
+      <c r="G241" s="706"/>
     </row>
     <row r="242" spans="1:7" ht="14.35">
       <c r="A242" s="197"/>
@@ -61514,12 +61514,50 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="B152:D152"/>
-    <mergeCell ref="E152:G152"/>
-    <mergeCell ref="B153:D153"/>
-    <mergeCell ref="E153:G153"/>
-    <mergeCell ref="B172:D172"/>
-    <mergeCell ref="E172:G172"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="B137:D137"/>
+    <mergeCell ref="E137:G137"/>
+    <mergeCell ref="B124:D124"/>
+    <mergeCell ref="E124:G124"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="E112:G112"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="E113:G113"/>
+    <mergeCell ref="B136:D136"/>
+    <mergeCell ref="E136:G136"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="B123:D123"/>
+    <mergeCell ref="E123:G123"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="E79:G79"/>
     <mergeCell ref="B190:D190"/>
     <mergeCell ref="E190:G190"/>
     <mergeCell ref="B191:D191"/>
@@ -61536,52 +61574,14 @@
     <mergeCell ref="E227:G227"/>
     <mergeCell ref="B240:D240"/>
     <mergeCell ref="E240:G240"/>
+    <mergeCell ref="B152:D152"/>
+    <mergeCell ref="E152:G152"/>
+    <mergeCell ref="B153:D153"/>
+    <mergeCell ref="E153:G153"/>
+    <mergeCell ref="B172:D172"/>
+    <mergeCell ref="E172:G172"/>
     <mergeCell ref="B171:D171"/>
     <mergeCell ref="E171:G171"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="B123:D123"/>
-    <mergeCell ref="E123:G123"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="E113:G113"/>
-    <mergeCell ref="B136:D136"/>
-    <mergeCell ref="E136:G136"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="B137:D137"/>
-    <mergeCell ref="E137:G137"/>
-    <mergeCell ref="B124:D124"/>
-    <mergeCell ref="E124:G124"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="E112:G112"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -62324,9 +62324,9 @@
       <c r="A1" s="722" t="s">
         <v>448</v>
       </c>
-      <c r="B1" s="688"/>
-      <c r="C1" s="688"/>
-      <c r="D1" s="688"/>
+      <c r="B1" s="698"/>
+      <c r="C1" s="698"/>
+      <c r="D1" s="698"/>
       <c r="E1" s="723" t="s">
         <v>449</v>
       </c>

--- a/microgrid_base/设备信息库各参数.xlsx
+++ b/microgrid_base/设备信息库各参数.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\works\jubilant-adventure2\microgrid_base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BEB01C-BA02-4539-8126-D3A0103A9041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B87B90E-F606-456E-8E34-CEFCE5AE6FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="8180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6555,7 +6555,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6564,29 +6564,54 @@
     <xf numFmtId="0" fontId="65" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6601,47 +6626,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6659,8 +6650,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6679,45 +6679,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6726,8 +6689,17 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6741,16 +6713,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6758,12 +6755,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6780,6 +6771,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -8843,7 +8843,7 @@
       <c r="C15" s="370">
         <v>560</v>
       </c>
-      <c r="D15" s="644"/>
+      <c r="D15" s="635"/>
       <c r="E15" s="365"/>
       <c r="F15" s="363"/>
       <c r="G15" s="363"/>
@@ -8924,7 +8924,7 @@
       <c r="B21" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="639"/>
+      <c r="C21" s="638"/>
       <c r="D21" s="363"/>
       <c r="E21" s="363"/>
       <c r="F21" s="363"/>
@@ -9205,7 +9205,7 @@
       <c r="C41" s="375">
         <v>560</v>
       </c>
-      <c r="D41" s="635"/>
+      <c r="D41" s="639"/>
       <c r="E41" s="366"/>
       <c r="F41" s="363"/>
       <c r="G41" s="363"/>
@@ -9286,7 +9286,7 @@
       <c r="B47" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="639"/>
+      <c r="C47" s="638"/>
       <c r="D47" s="363"/>
       <c r="E47" s="363"/>
       <c r="F47" s="363"/>
@@ -9621,7 +9621,7 @@
       <c r="C71" s="370">
         <v>560</v>
       </c>
-      <c r="D71" s="635"/>
+      <c r="D71" s="639"/>
       <c r="E71" s="363"/>
       <c r="F71" s="363"/>
       <c r="G71" s="363"/>
@@ -9702,7 +9702,7 @@
       <c r="B77" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C77" s="639"/>
+      <c r="C77" s="638"/>
       <c r="D77" s="363"/>
       <c r="E77" s="363"/>
       <c r="F77" s="363"/>
@@ -9876,10 +9876,10 @@
       </c>
       <c r="E91" s="363"/>
       <c r="F91" s="363"/>
-      <c r="G91" s="642" t="s">
+      <c r="G91" s="640" t="s">
         <v>59</v>
       </c>
-      <c r="H91" s="643"/>
+      <c r="H91" s="641"/>
     </row>
     <row r="92" spans="1:8" ht="14.35">
       <c r="A92" s="363"/>
@@ -10007,7 +10007,7 @@
       <c r="C99" s="370">
         <v>560</v>
       </c>
-      <c r="D99" s="635"/>
+      <c r="D99" s="639"/>
       <c r="E99" s="363"/>
       <c r="F99" s="363"/>
       <c r="G99" s="363"/>
@@ -10088,7 +10088,7 @@
       <c r="B105" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C105" s="638"/>
+      <c r="C105" s="642"/>
       <c r="D105" s="363"/>
       <c r="E105" s="363"/>
       <c r="F105" s="363"/>
@@ -10387,7 +10387,7 @@
       <c r="C128" s="370">
         <v>560</v>
       </c>
-      <c r="D128" s="635"/>
+      <c r="D128" s="639"/>
       <c r="E128" s="363"/>
       <c r="F128" s="363"/>
       <c r="G128" s="363"/>
@@ -10468,7 +10468,7 @@
       <c r="B134" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C134" s="638"/>
+      <c r="C134" s="642"/>
       <c r="D134" s="363"/>
       <c r="E134" s="363"/>
       <c r="F134" s="363"/>
@@ -10741,7 +10741,7 @@
       <c r="C158" s="370">
         <v>560</v>
       </c>
-      <c r="D158" s="635"/>
+      <c r="D158" s="639"/>
       <c r="E158" s="363"/>
     </row>
     <row r="159" spans="1:8" ht="14.35">
@@ -10804,7 +10804,7 @@
       <c r="B164" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C164" s="638"/>
+      <c r="C164" s="642"/>
       <c r="D164" s="363"/>
       <c r="E164" s="363"/>
     </row>
@@ -10944,7 +10944,7 @@
       <c r="C179" s="375">
         <v>560</v>
       </c>
-      <c r="D179" s="635"/>
+      <c r="D179" s="639"/>
       <c r="E179" s="363"/>
       <c r="F179" s="363"/>
       <c r="G179" s="363"/>
@@ -11025,7 +11025,7 @@
       <c r="B185" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C185" s="639"/>
+      <c r="C185" s="638"/>
       <c r="D185" s="363"/>
       <c r="E185" s="363"/>
       <c r="F185" s="363"/>
@@ -11222,7 +11222,7 @@
       <c r="C201" s="375">
         <v>560</v>
       </c>
-      <c r="D201" s="635"/>
+      <c r="D201" s="639"/>
       <c r="E201" s="363"/>
       <c r="F201" s="363"/>
       <c r="G201" s="363"/>
@@ -11302,7 +11302,7 @@
       <c r="B207" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C207" s="639"/>
+      <c r="C207" s="638"/>
       <c r="D207" s="363"/>
       <c r="E207" s="363"/>
       <c r="F207" s="363"/>
@@ -11797,7 +11797,7 @@
       <c r="C242" s="370">
         <v>560</v>
       </c>
-      <c r="D242" s="635"/>
+      <c r="D242" s="639"/>
       <c r="E242" s="363"/>
       <c r="F242" s="363"/>
       <c r="G242" s="363"/>
@@ -11878,7 +11878,7 @@
       <c r="B248" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C248" s="638"/>
+      <c r="C248" s="642"/>
       <c r="D248" s="363"/>
       <c r="E248" s="363"/>
       <c r="F248" s="363"/>
@@ -12267,7 +12267,7 @@
       <c r="C278" s="370">
         <v>560</v>
       </c>
-      <c r="D278" s="635"/>
+      <c r="D278" s="639"/>
       <c r="E278" s="363"/>
       <c r="F278" s="363"/>
       <c r="G278" s="363"/>
@@ -12348,7 +12348,7 @@
       <c r="B284" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C284" s="638"/>
+      <c r="C284" s="642"/>
       <c r="D284" s="363"/>
       <c r="E284" s="363"/>
       <c r="F284" s="363"/>
@@ -12578,7 +12578,7 @@
       <c r="C304" s="370">
         <v>560</v>
       </c>
-      <c r="D304" s="635"/>
+      <c r="D304" s="639"/>
       <c r="E304" s="363"/>
       <c r="F304" s="363"/>
       <c r="G304" s="363"/>
@@ -12659,7 +12659,7 @@
       <c r="B310" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C310" s="638"/>
+      <c r="C310" s="642"/>
       <c r="D310" s="363"/>
       <c r="E310" s="363"/>
       <c r="F310" s="363"/>
@@ -12846,7 +12846,7 @@
       <c r="C327" s="370">
         <v>560</v>
       </c>
-      <c r="D327" s="635"/>
+      <c r="D327" s="639"/>
       <c r="E327" s="363"/>
       <c r="F327" s="363"/>
       <c r="G327" s="363"/>
@@ -12927,7 +12927,7 @@
       <c r="B333" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C333" s="638"/>
+      <c r="C333" s="642"/>
       <c r="D333" s="363"/>
       <c r="E333" s="363"/>
       <c r="F333" s="363"/>
@@ -13120,7 +13120,7 @@
       <c r="C349" s="370">
         <v>560</v>
       </c>
-      <c r="D349" s="635"/>
+      <c r="D349" s="639"/>
       <c r="F349" s="363"/>
       <c r="G349" s="363"/>
       <c r="H349" s="363"/>
@@ -13195,7 +13195,7 @@
       <c r="B355" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C355" s="638"/>
+      <c r="C355" s="642"/>
       <c r="D355" s="363"/>
       <c r="F355" s="363"/>
       <c r="G355" s="363"/>
@@ -13540,7 +13540,7 @@
       <c r="C383" s="370">
         <v>560</v>
       </c>
-      <c r="D383" s="635"/>
+      <c r="D383" s="639"/>
       <c r="E383" s="363"/>
       <c r="F383" s="363"/>
       <c r="G383" s="363"/>
@@ -13621,7 +13621,7 @@
       <c r="B389" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C389" s="638"/>
+      <c r="C389" s="642"/>
       <c r="D389" s="363"/>
       <c r="E389" s="363"/>
       <c r="F389" s="363"/>
@@ -13969,7 +13969,7 @@
       <c r="C418" s="370">
         <v>560</v>
       </c>
-      <c r="D418" s="635"/>
+      <c r="D418" s="639"/>
       <c r="E418" s="363"/>
       <c r="F418" s="363"/>
       <c r="G418" s="363"/>
@@ -14050,7 +14050,7 @@
       <c r="B424" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C424" s="638"/>
+      <c r="C424" s="642"/>
       <c r="D424" s="363"/>
       <c r="E424" s="363"/>
       <c r="F424" s="363"/>
@@ -14376,7 +14376,7 @@
       <c r="B451" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C451" s="638"/>
+      <c r="C451" s="642"/>
       <c r="D451" s="363"/>
       <c r="E451" s="363"/>
       <c r="F451" s="363"/>
@@ -14591,7 +14591,7 @@
       <c r="C469" s="370">
         <v>560</v>
       </c>
-      <c r="D469" s="635"/>
+      <c r="D469" s="639"/>
       <c r="E469" s="363"/>
       <c r="F469" s="363"/>
       <c r="G469" s="363"/>
@@ -14672,7 +14672,7 @@
       <c r="B475" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C475" s="638"/>
+      <c r="C475" s="642"/>
       <c r="D475" s="363"/>
       <c r="E475" s="363"/>
       <c r="F475" s="363"/>
@@ -14899,7 +14899,7 @@
       <c r="C494" s="370">
         <v>560</v>
       </c>
-      <c r="D494" s="635"/>
+      <c r="D494" s="639"/>
       <c r="E494" s="365" t="s">
         <v>684</v>
       </c>
@@ -14982,7 +14982,7 @@
       <c r="B500" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C500" s="638"/>
+      <c r="C500" s="642"/>
       <c r="D500" s="363"/>
       <c r="E500" s="363"/>
       <c r="F500" s="363"/>
@@ -15203,7 +15203,7 @@
       <c r="C519" s="370">
         <v>560</v>
       </c>
-      <c r="D519" s="635"/>
+      <c r="D519" s="639"/>
       <c r="E519" s="365" t="s">
         <v>686</v>
       </c>
@@ -15286,7 +15286,7 @@
       <c r="B525" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C525" s="638"/>
+      <c r="C525" s="642"/>
       <c r="D525" s="363"/>
       <c r="E525" s="363"/>
       <c r="F525" s="363"/>
@@ -15553,7 +15553,7 @@
       <c r="C547" s="370">
         <v>560</v>
       </c>
-      <c r="D547" s="635"/>
+      <c r="D547" s="639"/>
       <c r="E547" s="363"/>
       <c r="F547" s="363"/>
       <c r="G547" s="363"/>
@@ -15634,7 +15634,7 @@
       <c r="B553" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C553" s="638"/>
+      <c r="C553" s="642"/>
       <c r="D553" s="363"/>
       <c r="E553" s="363"/>
       <c r="F553" s="363"/>
@@ -15965,7 +15965,7 @@
       <c r="C580" s="370">
         <v>560</v>
       </c>
-      <c r="D580" s="635"/>
+      <c r="D580" s="639"/>
       <c r="E580" s="363"/>
       <c r="F580" s="363"/>
       <c r="G580" s="363"/>
@@ -16046,7 +16046,7 @@
       <c r="B586" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C586" s="638"/>
+      <c r="C586" s="642"/>
       <c r="D586" s="363"/>
       <c r="E586" s="363"/>
       <c r="F586" s="363"/>
@@ -16310,7 +16310,7 @@
       <c r="C608" s="370">
         <v>560</v>
       </c>
-      <c r="D608" s="635"/>
+      <c r="D608" s="639"/>
       <c r="E608" s="363"/>
       <c r="F608" s="363"/>
       <c r="G608" s="363"/>
@@ -16391,7 +16391,7 @@
       <c r="B614" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C614" s="638"/>
+      <c r="C614" s="642"/>
       <c r="D614" s="363"/>
       <c r="E614" s="363"/>
       <c r="F614" s="363"/>
@@ -16675,7 +16675,7 @@
       <c r="B637" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C637" s="638"/>
+      <c r="C637" s="642"/>
       <c r="D637" s="363"/>
       <c r="E637" s="363"/>
       <c r="F637" s="363"/>
@@ -16970,10 +16970,10 @@
     </row>
     <row r="660" spans="1:8" ht="14.35">
       <c r="A660" s="363"/>
-      <c r="B660" s="640" t="s">
+      <c r="B660" s="643" t="s">
         <v>34</v>
       </c>
-      <c r="C660" s="641"/>
+      <c r="C660" s="644"/>
       <c r="D660" s="363"/>
       <c r="E660" s="363"/>
       <c r="F660" s="363"/>
@@ -17272,10 +17272,10 @@
     </row>
     <row r="683" spans="1:8" ht="14.35">
       <c r="A683" s="363"/>
-      <c r="B683" s="640" t="s">
+      <c r="B683" s="643" t="s">
         <v>34</v>
       </c>
-      <c r="C683" s="641"/>
+      <c r="C683" s="644"/>
       <c r="D683" s="363"/>
       <c r="E683" s="363"/>
       <c r="F683" s="363"/>
@@ -17639,7 +17639,7 @@
       <c r="B711" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C711" s="638"/>
+      <c r="C711" s="642"/>
       <c r="D711" s="363"/>
       <c r="E711" s="363"/>
       <c r="F711" s="363"/>
@@ -17884,7 +17884,7 @@
       <c r="C729" s="370">
         <v>560</v>
       </c>
-      <c r="D729" s="635"/>
+      <c r="D729" s="639"/>
       <c r="E729" s="363"/>
       <c r="F729" s="363"/>
       <c r="G729" s="363"/>
@@ -17965,7 +17965,7 @@
       <c r="B735" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C735" s="638"/>
+      <c r="C735" s="642"/>
       <c r="D735" s="363"/>
       <c r="E735" s="363"/>
       <c r="F735" s="363"/>
@@ -18226,7 +18226,7 @@
       <c r="C756" s="370">
         <v>560</v>
       </c>
-      <c r="D756" s="635"/>
+      <c r="D756" s="639"/>
       <c r="E756" s="363"/>
       <c r="F756" s="363"/>
       <c r="G756" s="363"/>
@@ -18307,7 +18307,7 @@
       <c r="B762" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C762" s="638"/>
+      <c r="C762" s="642"/>
       <c r="D762" s="363"/>
       <c r="E762" s="363"/>
       <c r="F762" s="363"/>
@@ -18633,7 +18633,7 @@
       <c r="B789" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C789" s="639"/>
+      <c r="C789" s="638"/>
       <c r="D789" s="363"/>
       <c r="E789" s="363"/>
       <c r="F789" s="363"/>
@@ -18959,7 +18959,7 @@
       <c r="B816" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C816" s="639"/>
+      <c r="C816" s="638"/>
       <c r="D816" s="363"/>
       <c r="E816" s="363"/>
       <c r="F816" s="363"/>
@@ -19250,7 +19250,7 @@
       <c r="C839" s="375">
         <v>560</v>
       </c>
-      <c r="D839" s="635"/>
+      <c r="D839" s="639"/>
       <c r="E839" s="365"/>
       <c r="F839" s="363"/>
       <c r="G839" s="363"/>
@@ -19331,7 +19331,7 @@
       <c r="B845" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C845" s="639"/>
+      <c r="C845" s="638"/>
       <c r="D845" s="363"/>
       <c r="E845" s="363"/>
       <c r="F845" s="363"/>
@@ -19712,7 +19712,7 @@
       <c r="B876" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C876" s="639"/>
+      <c r="C876" s="638"/>
       <c r="D876" s="363"/>
       <c r="E876" s="363"/>
       <c r="F876" s="363"/>
@@ -20068,7 +20068,7 @@
       <c r="B907" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C907" s="639"/>
+      <c r="C907" s="638"/>
       <c r="D907" s="363"/>
       <c r="E907" s="363"/>
       <c r="F907" s="363"/>
@@ -20341,7 +20341,7 @@
       <c r="B931" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C931" s="639"/>
+      <c r="C931" s="638"/>
       <c r="D931" s="363"/>
       <c r="E931" s="363"/>
       <c r="F931" s="363"/>
@@ -20691,7 +20691,7 @@
       <c r="B958" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C958" s="639"/>
+      <c r="C958" s="638"/>
       <c r="D958" s="363"/>
       <c r="E958" s="363"/>
       <c r="F958" s="363"/>
@@ -20987,7 +20987,7 @@
       <c r="B981" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C981" s="639"/>
+      <c r="C981" s="638"/>
       <c r="D981" s="363"/>
       <c r="E981" s="363"/>
       <c r="F981" s="363"/>
@@ -21283,7 +21283,7 @@
       <c r="B1005" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1005" s="639"/>
+      <c r="C1005" s="638"/>
       <c r="D1005" s="363"/>
       <c r="E1005" s="363"/>
       <c r="F1005" s="363"/>
@@ -21479,7 +21479,7 @@
       <c r="B1024" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1024" s="639"/>
+      <c r="C1024" s="638"/>
       <c r="F1024" s="363"/>
       <c r="G1024" s="363"/>
       <c r="H1024" s="363"/>
@@ -21706,7 +21706,7 @@
       <c r="C1042" s="370">
         <v>560</v>
       </c>
-      <c r="D1042" s="635"/>
+      <c r="D1042" s="639"/>
       <c r="E1042" s="363"/>
       <c r="F1042" s="363"/>
       <c r="G1042" s="363"/>
@@ -21787,7 +21787,7 @@
       <c r="B1048" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1048" s="638"/>
+      <c r="C1048" s="642"/>
       <c r="D1048" s="363"/>
       <c r="E1048" s="363"/>
       <c r="F1048" s="363"/>
@@ -22053,7 +22053,7 @@
       <c r="B1070" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1070" s="639"/>
+      <c r="C1070" s="638"/>
       <c r="D1070" s="363"/>
       <c r="E1070" s="363"/>
       <c r="F1070" s="363"/>
@@ -22298,7 +22298,7 @@
       <c r="C1089" s="370">
         <v>560</v>
       </c>
-      <c r="D1089" s="635"/>
+      <c r="D1089" s="639"/>
       <c r="E1089" s="363"/>
       <c r="F1089" s="363"/>
       <c r="G1089" s="363"/>
@@ -22373,7 +22373,7 @@
       <c r="B1095" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1095" s="638"/>
+      <c r="C1095" s="642"/>
       <c r="D1095" s="363"/>
       <c r="E1095" s="363"/>
       <c r="F1095" s="363"/>
@@ -22649,7 +22649,7 @@
       <c r="C1120" s="370">
         <v>560</v>
       </c>
-      <c r="D1120" s="635"/>
+      <c r="D1120" s="639"/>
       <c r="E1120" s="363"/>
       <c r="F1120" s="363"/>
       <c r="G1120" s="363"/>
@@ -22726,7 +22726,7 @@
       <c r="B1126" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1126" s="638"/>
+      <c r="C1126" s="642"/>
       <c r="D1126" s="363"/>
       <c r="E1126" s="363"/>
       <c r="F1126" s="363"/>
@@ -23089,7 +23089,7 @@
       <c r="B1155" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1155" s="638"/>
+      <c r="C1155" s="642"/>
       <c r="D1155" s="363"/>
       <c r="E1155" s="363"/>
       <c r="F1155" s="363"/>
@@ -23198,61 +23198,6 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D41:D46"/>
-    <mergeCell ref="D71:D75"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="D99:D103"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="D128:D132"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="D158:D162"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="D179:D184"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="D201:D206"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="D242:D246"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="D278:D282"/>
-    <mergeCell ref="B284:C284"/>
-    <mergeCell ref="D304:D308"/>
-    <mergeCell ref="B310:C310"/>
-    <mergeCell ref="D327:D331"/>
-    <mergeCell ref="B333:C333"/>
-    <mergeCell ref="D383:D387"/>
-    <mergeCell ref="B389:C389"/>
-    <mergeCell ref="D418:D422"/>
-    <mergeCell ref="B424:C424"/>
-    <mergeCell ref="B451:C451"/>
-    <mergeCell ref="D469:D473"/>
-    <mergeCell ref="B475:C475"/>
-    <mergeCell ref="D494:D498"/>
-    <mergeCell ref="B500:C500"/>
-    <mergeCell ref="D519:D523"/>
-    <mergeCell ref="B525:C525"/>
-    <mergeCell ref="D547:D551"/>
-    <mergeCell ref="B553:C553"/>
-    <mergeCell ref="D580:D584"/>
-    <mergeCell ref="B586:C586"/>
-    <mergeCell ref="D608:D612"/>
-    <mergeCell ref="B614:C614"/>
-    <mergeCell ref="B637:C637"/>
-    <mergeCell ref="B660:C660"/>
-    <mergeCell ref="B683:C683"/>
-    <mergeCell ref="B711:C711"/>
-    <mergeCell ref="D839:D844"/>
-    <mergeCell ref="B845:C845"/>
-    <mergeCell ref="B876:C876"/>
-    <mergeCell ref="B907:C907"/>
-    <mergeCell ref="D729:D733"/>
-    <mergeCell ref="B735:C735"/>
-    <mergeCell ref="D756:D760"/>
-    <mergeCell ref="B762:C762"/>
-    <mergeCell ref="B789:C789"/>
     <mergeCell ref="D1120:D1124"/>
     <mergeCell ref="B1126:C1126"/>
     <mergeCell ref="B1155:C1155"/>
@@ -23269,6 +23214,61 @@
     <mergeCell ref="B1005:C1005"/>
     <mergeCell ref="B1024:C1024"/>
     <mergeCell ref="B816:C816"/>
+    <mergeCell ref="D839:D844"/>
+    <mergeCell ref="B845:C845"/>
+    <mergeCell ref="B876:C876"/>
+    <mergeCell ref="B907:C907"/>
+    <mergeCell ref="D729:D733"/>
+    <mergeCell ref="B735:C735"/>
+    <mergeCell ref="D756:D760"/>
+    <mergeCell ref="B762:C762"/>
+    <mergeCell ref="B789:C789"/>
+    <mergeCell ref="B614:C614"/>
+    <mergeCell ref="B637:C637"/>
+    <mergeCell ref="B660:C660"/>
+    <mergeCell ref="B683:C683"/>
+    <mergeCell ref="B711:C711"/>
+    <mergeCell ref="D547:D551"/>
+    <mergeCell ref="B553:C553"/>
+    <mergeCell ref="D580:D584"/>
+    <mergeCell ref="B586:C586"/>
+    <mergeCell ref="D608:D612"/>
+    <mergeCell ref="B475:C475"/>
+    <mergeCell ref="D494:D498"/>
+    <mergeCell ref="B500:C500"/>
+    <mergeCell ref="D519:D523"/>
+    <mergeCell ref="B525:C525"/>
+    <mergeCell ref="B389:C389"/>
+    <mergeCell ref="D418:D422"/>
+    <mergeCell ref="B424:C424"/>
+    <mergeCell ref="B451:C451"/>
+    <mergeCell ref="D469:D473"/>
+    <mergeCell ref="D304:D308"/>
+    <mergeCell ref="B310:C310"/>
+    <mergeCell ref="D327:D331"/>
+    <mergeCell ref="B333:C333"/>
+    <mergeCell ref="D383:D387"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="D242:D246"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="D278:D282"/>
+    <mergeCell ref="B284:C284"/>
+    <mergeCell ref="D158:D162"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="D179:D184"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="D201:D206"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="D99:D103"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="D128:D132"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D41:D46"/>
+    <mergeCell ref="D71:D75"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23614,7 +23614,7 @@
       <c r="B20" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="639"/>
+      <c r="C20" s="638"/>
       <c r="D20" s="363"/>
       <c r="E20" s="363"/>
       <c r="F20" s="363"/>
@@ -23789,7 +23789,7 @@
         <v>29</v>
       </c>
       <c r="C36" s="375"/>
-      <c r="D36" s="645"/>
+      <c r="D36" s="650"/>
       <c r="E36" s="26"/>
       <c r="K36" s="10"/>
     </row>
@@ -23799,7 +23799,7 @@
         <v>45</v>
       </c>
       <c r="C37" s="370"/>
-      <c r="D37" s="646"/>
+      <c r="D37" s="651"/>
       <c r="E37" s="26"/>
       <c r="K37" s="10"/>
     </row>
@@ -23809,7 +23809,7 @@
         <v>30</v>
       </c>
       <c r="C38" s="370"/>
-      <c r="D38" s="646"/>
+      <c r="D38" s="651"/>
       <c r="E38" s="28"/>
       <c r="K38" s="10"/>
     </row>
@@ -23819,7 +23819,7 @@
         <v>31</v>
       </c>
       <c r="C39" s="370"/>
-      <c r="D39" s="646"/>
+      <c r="D39" s="651"/>
       <c r="E39" s="28"/>
       <c r="K39" s="10"/>
     </row>
@@ -23829,7 +23829,7 @@
         <v>32</v>
       </c>
       <c r="C40" s="370"/>
-      <c r="D40" s="646"/>
+      <c r="D40" s="651"/>
       <c r="E40" s="28"/>
       <c r="K40" s="10"/>
     </row>
@@ -23839,7 +23839,7 @@
         <v>876</v>
       </c>
       <c r="C41" s="370"/>
-      <c r="D41" s="646"/>
+      <c r="D41" s="651"/>
       <c r="E41" s="28"/>
       <c r="K41" s="10"/>
     </row>
@@ -23848,7 +23848,7 @@
       <c r="B42" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="639"/>
+      <c r="C42" s="638"/>
       <c r="D42" s="501"/>
       <c r="E42" s="28"/>
       <c r="K42" s="10"/>
@@ -24087,10 +24087,10 @@
     </row>
     <row r="61" spans="1:11" ht="14.35">
       <c r="A61" s="2"/>
-      <c r="B61" s="649" t="s">
+      <c r="B61" s="658" t="s">
         <v>34</v>
       </c>
-      <c r="C61" s="650"/>
+      <c r="C61" s="659"/>
       <c r="D61" s="8"/>
       <c r="E61" s="393"/>
       <c r="F61" s="2"/>
@@ -24276,10 +24276,10 @@
       <c r="D75" s="518" t="s">
         <v>58</v>
       </c>
-      <c r="E75" s="651" t="s">
+      <c r="E75" s="646" t="s">
         <v>59</v>
       </c>
-      <c r="F75" s="652"/>
+      <c r="F75" s="647"/>
       <c r="G75" s="520"/>
       <c r="H75" s="488"/>
       <c r="K75" s="10"/>
@@ -24376,7 +24376,7 @@
         <v>65</v>
       </c>
       <c r="C81" s="370"/>
-      <c r="D81" s="645"/>
+      <c r="D81" s="650"/>
       <c r="E81" s="525">
         <v>1</v>
       </c>
@@ -24393,7 +24393,7 @@
         <v>30</v>
       </c>
       <c r="C82" s="370"/>
-      <c r="D82" s="646"/>
+      <c r="D82" s="651"/>
       <c r="E82" s="526" t="s">
         <v>66</v>
       </c>
@@ -24408,7 +24408,7 @@
         <v>31</v>
       </c>
       <c r="C83" s="370"/>
-      <c r="D83" s="646"/>
+      <c r="D83" s="651"/>
       <c r="E83" s="527" t="s">
         <v>67</v>
       </c>
@@ -24423,7 +24423,7 @@
         <v>68</v>
       </c>
       <c r="C84" s="499"/>
-      <c r="D84" s="646"/>
+      <c r="D84" s="651"/>
       <c r="E84" s="363"/>
       <c r="F84" s="363"/>
       <c r="G84" s="363"/>
@@ -24435,7 +24435,7 @@
       <c r="B85" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C85" s="639"/>
+      <c r="C85" s="638"/>
       <c r="D85" s="363"/>
       <c r="E85" s="363"/>
       <c r="F85" s="363"/>
@@ -24542,8 +24542,8 @@
       <c r="D94" s="373"/>
       <c r="E94" s="363"/>
       <c r="F94" s="363"/>
-      <c r="G94" s="642"/>
-      <c r="H94" s="643"/>
+      <c r="G94" s="640"/>
+      <c r="H94" s="641"/>
       <c r="K94" s="10"/>
     </row>
     <row r="95" spans="1:11" ht="14.35">
@@ -24567,10 +24567,10 @@
       <c r="C96" s="399" t="s">
         <v>57</v>
       </c>
-      <c r="D96" s="653" t="s">
+      <c r="D96" s="648" t="s">
         <v>59</v>
       </c>
-      <c r="E96" s="652"/>
+      <c r="E96" s="647"/>
       <c r="F96" s="363"/>
       <c r="G96" s="410"/>
       <c r="H96" s="409"/>
@@ -24716,10 +24716,10 @@
     </row>
     <row r="106" spans="1:11" ht="14.35">
       <c r="A106" s="363"/>
-      <c r="B106" s="655" t="s">
+      <c r="B106" s="652" t="s">
         <v>34</v>
       </c>
-      <c r="C106" s="656"/>
+      <c r="C106" s="653"/>
       <c r="E106" s="363"/>
       <c r="F106" s="363"/>
       <c r="G106" s="363"/>
@@ -24838,7 +24838,7 @@
       </c>
       <c r="C116" s="401"/>
       <c r="D116" s="365"/>
-      <c r="E116" s="654" t="s">
+      <c r="E116" s="649" t="s">
         <v>59</v>
       </c>
       <c r="F116" s="633"/>
@@ -25005,7 +25005,7 @@
       <c r="B127" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C127" s="638"/>
+      <c r="C127" s="642"/>
       <c r="D127" s="363"/>
       <c r="E127" s="363"/>
       <c r="F127" s="363"/>
@@ -25283,7 +25283,7 @@
       <c r="B153" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C153" s="638"/>
+      <c r="C153" s="642"/>
       <c r="D153" s="363"/>
       <c r="E153" s="363"/>
       <c r="H153" s="10"/>
@@ -25483,7 +25483,7 @@
       <c r="B171" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C171" s="639"/>
+      <c r="C171" s="638"/>
       <c r="D171" s="363"/>
       <c r="E171" s="363"/>
       <c r="F171" s="363"/>
@@ -25716,7 +25716,7 @@
       <c r="B189" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C189" s="639"/>
+      <c r="C189" s="638"/>
       <c r="D189" s="363"/>
       <c r="E189" s="363"/>
       <c r="F189" s="363"/>
@@ -25942,7 +25942,7 @@
       <c r="B207" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C207" s="638"/>
+      <c r="C207" s="642"/>
       <c r="D207" s="363"/>
       <c r="E207" s="363"/>
       <c r="F207" s="363"/>
@@ -26127,7 +26127,7 @@
       <c r="B223" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C223" s="638"/>
+      <c r="C223" s="642"/>
       <c r="D223" s="363"/>
       <c r="F223" s="2"/>
       <c r="G223" s="2"/>
@@ -26492,7 +26492,7 @@
         <v>143</v>
       </c>
       <c r="C249" s="370"/>
-      <c r="D249" s="657"/>
+      <c r="D249" s="654"/>
       <c r="E249" s="363"/>
       <c r="F249" s="363"/>
       <c r="G249" s="363"/>
@@ -26505,7 +26505,7 @@
         <v>144</v>
       </c>
       <c r="C250" s="370"/>
-      <c r="D250" s="658"/>
+      <c r="D250" s="655"/>
       <c r="E250" s="363"/>
       <c r="F250" s="363"/>
       <c r="G250" s="363"/>
@@ -26518,7 +26518,7 @@
         <v>30</v>
       </c>
       <c r="C251" s="370"/>
-      <c r="D251" s="658"/>
+      <c r="D251" s="655"/>
       <c r="E251" s="363"/>
       <c r="F251" s="363"/>
       <c r="G251" s="363"/>
@@ -26531,7 +26531,7 @@
         <v>31</v>
       </c>
       <c r="C252" s="370"/>
-      <c r="D252" s="658"/>
+      <c r="D252" s="655"/>
       <c r="E252" s="363"/>
       <c r="F252" s="363"/>
       <c r="G252" s="363"/>
@@ -26544,7 +26544,7 @@
         <v>145</v>
       </c>
       <c r="C253" s="370"/>
-      <c r="D253" s="658"/>
+      <c r="D253" s="655"/>
       <c r="E253" s="363"/>
       <c r="F253" s="363"/>
       <c r="G253" s="363"/>
@@ -26569,7 +26569,7 @@
       <c r="B255" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C255" s="639"/>
+      <c r="C255" s="638"/>
       <c r="D255" s="363"/>
       <c r="E255" s="363"/>
       <c r="F255" s="363"/>
@@ -26995,7 +26995,7 @@
         <v>143</v>
       </c>
       <c r="C285" s="370"/>
-      <c r="D285" s="645"/>
+      <c r="D285" s="650"/>
       <c r="E285" s="563"/>
       <c r="F285" s="562"/>
       <c r="G285" s="363"/>
@@ -27008,7 +27008,7 @@
         <v>144</v>
       </c>
       <c r="C286" s="370"/>
-      <c r="D286" s="646"/>
+      <c r="D286" s="651"/>
       <c r="E286" s="563"/>
       <c r="F286" s="562"/>
       <c r="G286" s="363"/>
@@ -27021,7 +27021,7 @@
         <v>30</v>
       </c>
       <c r="C287" s="370"/>
-      <c r="D287" s="646"/>
+      <c r="D287" s="651"/>
       <c r="E287" s="563"/>
       <c r="F287" s="562"/>
       <c r="G287" s="363"/>
@@ -27034,7 +27034,7 @@
         <v>31</v>
       </c>
       <c r="C288" s="370"/>
-      <c r="D288" s="646"/>
+      <c r="D288" s="651"/>
       <c r="E288" s="563"/>
       <c r="F288" s="562"/>
       <c r="G288" s="363"/>
@@ -27047,7 +27047,7 @@
         <v>145</v>
       </c>
       <c r="C289" s="370"/>
-      <c r="D289" s="646"/>
+      <c r="D289" s="651"/>
       <c r="E289" s="563"/>
       <c r="F289" s="562"/>
       <c r="G289" s="363"/>
@@ -27072,7 +27072,7 @@
       <c r="B291" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C291" s="639"/>
+      <c r="C291" s="638"/>
       <c r="D291" s="501"/>
       <c r="E291" s="363"/>
       <c r="F291" s="363"/>
@@ -27253,7 +27253,7 @@
         <v>143</v>
       </c>
       <c r="C305" s="370"/>
-      <c r="D305" s="645"/>
+      <c r="D305" s="650"/>
       <c r="F305" s="363"/>
       <c r="G305" s="363"/>
       <c r="H305" s="488"/>
@@ -27265,7 +27265,7 @@
         <v>144</v>
       </c>
       <c r="C306" s="370"/>
-      <c r="D306" s="646"/>
+      <c r="D306" s="651"/>
       <c r="F306" s="363"/>
       <c r="G306" s="363"/>
       <c r="H306" s="488"/>
@@ -27277,7 +27277,7 @@
         <v>30</v>
       </c>
       <c r="C307" s="370"/>
-      <c r="D307" s="646"/>
+      <c r="D307" s="651"/>
       <c r="F307" s="363"/>
       <c r="G307" s="363"/>
       <c r="H307" s="488"/>
@@ -27289,7 +27289,7 @@
         <v>31</v>
       </c>
       <c r="C308" s="370"/>
-      <c r="D308" s="646"/>
+      <c r="D308" s="651"/>
       <c r="F308" s="363"/>
       <c r="G308" s="363"/>
       <c r="H308" s="488"/>
@@ -27301,7 +27301,7 @@
         <v>145</v>
       </c>
       <c r="C309" s="370"/>
-      <c r="D309" s="646"/>
+      <c r="D309" s="651"/>
       <c r="F309" s="363"/>
       <c r="G309" s="363"/>
       <c r="H309" s="488"/>
@@ -27324,7 +27324,7 @@
       <c r="B311" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C311" s="639"/>
+      <c r="C311" s="638"/>
       <c r="D311" s="501"/>
       <c r="F311" s="363"/>
       <c r="G311" s="363"/>
@@ -27587,10 +27587,10 @@
     </row>
     <row r="333" spans="1:11" ht="14.35">
       <c r="A333" s="2"/>
-      <c r="B333" s="647" t="s">
+      <c r="B333" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C333" s="648"/>
+      <c r="C333" s="657"/>
       <c r="D333" s="2"/>
       <c r="F333" s="363"/>
       <c r="G333" s="2"/>
@@ -27799,7 +27799,7 @@
       <c r="B351" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C351" s="638"/>
+      <c r="C351" s="642"/>
       <c r="F351" s="2"/>
       <c r="G351" s="2"/>
       <c r="H351" s="8"/>
@@ -28339,10 +28339,10 @@
     </row>
     <row r="388" spans="1:11" ht="14.7">
       <c r="A388" s="2"/>
-      <c r="B388" s="659" t="s">
+      <c r="B388" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C388" s="641"/>
+      <c r="C388" s="644"/>
       <c r="D388" s="97"/>
       <c r="F388" s="2"/>
       <c r="G388" s="2"/>
@@ -28914,10 +28914,10 @@
     </row>
     <row r="425" spans="1:11" ht="14.7">
       <c r="A425" s="2"/>
-      <c r="B425" s="659" t="s">
+      <c r="B425" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C425" s="641"/>
+      <c r="C425" s="644"/>
       <c r="D425" s="97"/>
       <c r="E425" s="97"/>
       <c r="F425" s="2"/>
@@ -29469,10 +29469,10 @@
     </row>
     <row r="461" spans="1:11" ht="14.7">
       <c r="A461" s="2"/>
-      <c r="B461" s="659" t="s">
+      <c r="B461" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C461" s="641"/>
+      <c r="C461" s="644"/>
       <c r="D461" s="97"/>
       <c r="E461" s="97"/>
       <c r="F461" s="97"/>
@@ -30020,10 +30020,10 @@
     </row>
     <row r="497" spans="1:11" ht="14.7">
       <c r="A497" s="2"/>
-      <c r="B497" s="659" t="s">
+      <c r="B497" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C497" s="641"/>
+      <c r="C497" s="644"/>
       <c r="D497" s="97"/>
       <c r="E497" s="97"/>
       <c r="F497" s="97"/>
@@ -30915,10 +30915,10 @@
     </row>
     <row r="552" spans="1:11" ht="14.7">
       <c r="A552" s="2"/>
-      <c r="B552" s="659" t="s">
+      <c r="B552" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C552" s="641"/>
+      <c r="C552" s="644"/>
       <c r="D552" s="97"/>
       <c r="E552" s="97"/>
       <c r="F552" s="97"/>
@@ -31345,7 +31345,7 @@
       <c r="B590" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C590" s="638"/>
+      <c r="C590" s="642"/>
       <c r="D590" s="363"/>
       <c r="E590" s="363"/>
       <c r="F590" s="363"/>
@@ -31560,7 +31560,7 @@
       <c r="B607" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C607" s="638"/>
+      <c r="C607" s="642"/>
       <c r="D607" s="363"/>
       <c r="E607" s="363"/>
       <c r="F607" s="363"/>
@@ -31756,7 +31756,7 @@
       <c r="B623" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C623" s="639"/>
+      <c r="C623" s="638"/>
       <c r="D623" s="590"/>
       <c r="E623" s="363"/>
       <c r="F623" s="363"/>
@@ -31971,7 +31971,7 @@
       <c r="B640" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C640" s="638"/>
+      <c r="C640" s="642"/>
       <c r="D640" s="363"/>
       <c r="E640" s="363"/>
       <c r="F640" s="363"/>
@@ -32154,7 +32154,7 @@
       <c r="B655" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C655" s="639"/>
+      <c r="C655" s="638"/>
       <c r="D655" s="363"/>
       <c r="E655" s="363"/>
       <c r="F655" s="363"/>
@@ -32360,10 +32360,10 @@
     </row>
     <row r="672" spans="1:11" ht="14.35">
       <c r="A672" s="363"/>
-      <c r="B672" s="640" t="s">
+      <c r="B672" s="643" t="s">
         <v>34</v>
       </c>
-      <c r="C672" s="641"/>
+      <c r="C672" s="644"/>
       <c r="D672" s="363"/>
       <c r="E672" s="363"/>
       <c r="F672" s="363"/>
@@ -32551,10 +32551,10 @@
     </row>
     <row r="687" spans="1:11" ht="14.35">
       <c r="A687" s="363"/>
-      <c r="B687" s="640" t="s">
+      <c r="B687" s="643" t="s">
         <v>34</v>
       </c>
-      <c r="C687" s="641"/>
+      <c r="C687" s="644"/>
       <c r="D687" s="363"/>
       <c r="E687" s="363"/>
       <c r="F687" s="363"/>
@@ -32831,7 +32831,7 @@
       <c r="B710" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C710" s="638"/>
+      <c r="C710" s="642"/>
       <c r="D710" s="363"/>
       <c r="E710" s="363"/>
       <c r="F710" s="363"/>
@@ -33033,7 +33033,7 @@
       <c r="B726" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C726" s="638"/>
+      <c r="C726" s="642"/>
       <c r="D726" s="363"/>
       <c r="E726" s="363"/>
       <c r="F726" s="363"/>
@@ -33264,7 +33264,7 @@
       <c r="B745" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C745" s="638"/>
+      <c r="C745" s="642"/>
       <c r="D745" s="363"/>
       <c r="E745" s="363"/>
       <c r="F745" s="363"/>
@@ -33553,7 +33553,7 @@
       <c r="B768" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C768" s="639"/>
+      <c r="C768" s="638"/>
       <c r="D768" s="363"/>
       <c r="E768" s="363"/>
       <c r="F768" s="363"/>
@@ -33835,7 +33835,7 @@
       <c r="B790" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C790" s="639"/>
+      <c r="C790" s="638"/>
       <c r="D790" s="363"/>
       <c r="E790" s="363"/>
       <c r="F790" s="363"/>
@@ -34146,7 +34146,7 @@
       <c r="B815" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C815" s="639"/>
+      <c r="C815" s="638"/>
       <c r="D815" s="605"/>
       <c r="E815" s="363"/>
       <c r="F815" s="363"/>
@@ -34454,7 +34454,7 @@
       <c r="B840" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C840" s="639"/>
+      <c r="C840" s="638"/>
       <c r="D840" s="363"/>
       <c r="E840" s="363"/>
       <c r="F840" s="363"/>
@@ -34763,7 +34763,7 @@
       <c r="B866" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C866" s="639"/>
+      <c r="C866" s="638"/>
       <c r="D866" s="363"/>
       <c r="E866" s="363"/>
       <c r="F866" s="363"/>
@@ -34996,7 +34996,7 @@
       <c r="B886" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C886" s="639"/>
+      <c r="C886" s="638"/>
       <c r="D886" s="363"/>
       <c r="E886" s="363"/>
       <c r="F886" s="363"/>
@@ -35276,7 +35276,7 @@
       <c r="B908" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C908" s="639"/>
+      <c r="C908" s="638"/>
       <c r="D908" s="363"/>
       <c r="E908" s="363"/>
       <c r="F908" s="363"/>
@@ -35523,7 +35523,7 @@
       <c r="B927" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C927" s="639"/>
+      <c r="C927" s="638"/>
       <c r="D927" s="363"/>
       <c r="E927" s="363"/>
       <c r="F927" s="363"/>
@@ -35766,7 +35766,7 @@
       <c r="B946" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C946" s="639"/>
+      <c r="C946" s="638"/>
       <c r="D946" s="363"/>
       <c r="E946" s="363"/>
       <c r="F946" s="363"/>
@@ -35910,7 +35910,7 @@
       <c r="B960" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C960" s="639"/>
+      <c r="C960" s="638"/>
       <c r="F960" s="363"/>
       <c r="G960" s="363"/>
       <c r="H960" s="488"/>
@@ -36160,7 +36160,7 @@
       <c r="B980" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C980" s="638"/>
+      <c r="C980" s="642"/>
       <c r="D980" s="363"/>
       <c r="E980" s="363"/>
       <c r="F980" s="363"/>
@@ -36365,7 +36365,7 @@
       <c r="B997" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C997" s="639"/>
+      <c r="C997" s="638"/>
       <c r="D997" s="363"/>
       <c r="E997" s="363"/>
       <c r="F997" s="363"/>
@@ -36611,7 +36611,7 @@
       <c r="B1017" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1017" s="638"/>
+      <c r="C1017" s="642"/>
       <c r="D1017" s="363"/>
       <c r="E1017" s="363"/>
       <c r="F1017" s="363"/>
@@ -36875,7 +36875,7 @@
       <c r="B1039" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1039" s="638"/>
+      <c r="C1039" s="642"/>
       <c r="D1039" s="363"/>
       <c r="E1039" s="363"/>
       <c r="F1039" s="363"/>
@@ -37174,7 +37174,7 @@
       <c r="B1062" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1062" s="638"/>
+      <c r="C1062" s="642"/>
       <c r="D1062" s="363"/>
       <c r="E1062" s="363"/>
       <c r="F1062" s="363"/>
@@ -37198,21 +37198,30 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="B590:C590"/>
-    <mergeCell ref="B710:C710"/>
-    <mergeCell ref="B726:C726"/>
-    <mergeCell ref="B745:C745"/>
-    <mergeCell ref="B768:C768"/>
-    <mergeCell ref="B790:C790"/>
-    <mergeCell ref="B815:C815"/>
-    <mergeCell ref="B840:C840"/>
-    <mergeCell ref="B866:C866"/>
-    <mergeCell ref="B886:C886"/>
-    <mergeCell ref="B908:C908"/>
-    <mergeCell ref="B927:C927"/>
-    <mergeCell ref="B946:C946"/>
-    <mergeCell ref="B960:C960"/>
-    <mergeCell ref="B980:C980"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="B333:C333"/>
+    <mergeCell ref="B351:C351"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B311:C311"/>
+    <mergeCell ref="D36:D41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="D305:D309"/>
+    <mergeCell ref="B223:C223"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="D249:D253"/>
+    <mergeCell ref="B255:C255"/>
+    <mergeCell ref="D285:D289"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="B207:C207"/>
     <mergeCell ref="B997:C997"/>
     <mergeCell ref="B1017:C1017"/>
     <mergeCell ref="B1039:C1039"/>
@@ -37229,30 +37238,21 @@
     <mergeCell ref="B655:C655"/>
     <mergeCell ref="B672:C672"/>
     <mergeCell ref="B687:C687"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="D305:D309"/>
-    <mergeCell ref="B223:C223"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="D249:D253"/>
-    <mergeCell ref="B255:C255"/>
-    <mergeCell ref="D285:D289"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="B189:C189"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="B333:C333"/>
-    <mergeCell ref="B351:C351"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B311:C311"/>
-    <mergeCell ref="D36:D41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B908:C908"/>
+    <mergeCell ref="B927:C927"/>
+    <mergeCell ref="B946:C946"/>
+    <mergeCell ref="B960:C960"/>
+    <mergeCell ref="B980:C980"/>
+    <mergeCell ref="B790:C790"/>
+    <mergeCell ref="B815:C815"/>
+    <mergeCell ref="B840:C840"/>
+    <mergeCell ref="B866:C866"/>
+    <mergeCell ref="B886:C886"/>
+    <mergeCell ref="B590:C590"/>
+    <mergeCell ref="B710:C710"/>
+    <mergeCell ref="B726:C726"/>
+    <mergeCell ref="B745:C745"/>
+    <mergeCell ref="B768:C768"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37594,10 +37594,10 @@
     </row>
     <row r="20" spans="1:11" ht="14.35">
       <c r="A20" s="2"/>
-      <c r="B20" s="647" t="s">
+      <c r="B20" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="650"/>
+      <c r="C20" s="659"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -37770,7 +37770,7 @@
         <v>29</v>
       </c>
       <c r="C36" s="14"/>
-      <c r="D36" s="661"/>
+      <c r="D36" s="660"/>
       <c r="E36" s="26"/>
       <c r="K36" s="10"/>
     </row>
@@ -37780,7 +37780,7 @@
         <v>45</v>
       </c>
       <c r="C37" s="11"/>
-      <c r="D37" s="662"/>
+      <c r="D37" s="661"/>
       <c r="E37" s="26"/>
       <c r="K37" s="10"/>
     </row>
@@ -37790,7 +37790,7 @@
         <v>30</v>
       </c>
       <c r="C38" s="11"/>
-      <c r="D38" s="662"/>
+      <c r="D38" s="661"/>
       <c r="E38" s="28"/>
       <c r="K38" s="10"/>
     </row>
@@ -37800,7 +37800,7 @@
         <v>31</v>
       </c>
       <c r="C39" s="11"/>
-      <c r="D39" s="662"/>
+      <c r="D39" s="661"/>
       <c r="E39" s="28"/>
       <c r="K39" s="10"/>
     </row>
@@ -37810,7 +37810,7 @@
         <v>32</v>
       </c>
       <c r="C40" s="11"/>
-      <c r="D40" s="662"/>
+      <c r="D40" s="661"/>
       <c r="E40" s="28"/>
       <c r="K40" s="10"/>
     </row>
@@ -37820,16 +37820,16 @@
         <v>876</v>
       </c>
       <c r="C41" s="11"/>
-      <c r="D41" s="662"/>
+      <c r="D41" s="661"/>
       <c r="E41" s="28"/>
       <c r="K41" s="10"/>
     </row>
     <row r="42" spans="1:11" ht="14.35">
       <c r="A42" s="2"/>
-      <c r="B42" s="647" t="s">
+      <c r="B42" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="650"/>
+      <c r="C42" s="659"/>
       <c r="D42" s="28"/>
       <c r="E42" s="28"/>
       <c r="K42" s="10"/>
@@ -38068,10 +38068,10 @@
     </row>
     <row r="61" spans="1:11" ht="14.35">
       <c r="A61" s="2"/>
-      <c r="B61" s="647" t="s">
+      <c r="B61" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C61" s="650"/>
+      <c r="C61" s="659"/>
       <c r="D61" s="8"/>
       <c r="E61" s="23"/>
       <c r="F61" s="2"/>
@@ -38255,10 +38255,10 @@
       <c r="D75" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="E75" s="671" t="s">
+      <c r="E75" s="662" t="s">
         <v>59</v>
       </c>
-      <c r="F75" s="652"/>
+      <c r="F75" s="647"/>
       <c r="G75" s="44"/>
       <c r="H75" s="8"/>
       <c r="K75" s="10"/>
@@ -38356,7 +38356,7 @@
         <v>65</v>
       </c>
       <c r="C81" s="11"/>
-      <c r="D81" s="661"/>
+      <c r="D81" s="660"/>
       <c r="E81" s="49">
         <v>1</v>
       </c>
@@ -38373,7 +38373,7 @@
         <v>30</v>
       </c>
       <c r="C82" s="11"/>
-      <c r="D82" s="662"/>
+      <c r="D82" s="661"/>
       <c r="E82" s="29" t="s">
         <v>66</v>
       </c>
@@ -38388,7 +38388,7 @@
         <v>31</v>
       </c>
       <c r="C83" s="11"/>
-      <c r="D83" s="662"/>
+      <c r="D83" s="661"/>
       <c r="E83" s="29" t="s">
         <v>67</v>
       </c>
@@ -38403,7 +38403,7 @@
         <v>68</v>
       </c>
       <c r="C84" s="24"/>
-      <c r="D84" s="662"/>
+      <c r="D84" s="661"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
@@ -38412,10 +38412,10 @@
     </row>
     <row r="85" spans="1:11" ht="14.35">
       <c r="A85" s="2"/>
-      <c r="B85" s="647" t="s">
+      <c r="B85" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C85" s="650"/>
+      <c r="C85" s="659"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
@@ -38520,8 +38520,8 @@
       <c r="D94" s="37"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
-      <c r="G94" s="666"/>
-      <c r="H94" s="667"/>
+      <c r="G94" s="663"/>
+      <c r="H94" s="664"/>
       <c r="K94" s="10"/>
     </row>
     <row r="95" spans="1:11" ht="14.35">
@@ -38545,10 +38545,10 @@
       <c r="C96" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="D96" s="668" t="s">
+      <c r="D96" s="665" t="s">
         <v>59</v>
       </c>
-      <c r="E96" s="652"/>
+      <c r="E96" s="647"/>
       <c r="F96" s="2"/>
       <c r="G96" s="54"/>
       <c r="H96" s="12"/>
@@ -38694,10 +38694,10 @@
     </row>
     <row r="106" spans="1:11" ht="14.35">
       <c r="A106" s="2"/>
-      <c r="B106" s="669" t="s">
+      <c r="B106" s="666" t="s">
         <v>34</v>
       </c>
-      <c r="C106" s="670"/>
+      <c r="C106" s="667"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
@@ -38816,7 +38816,7 @@
         <v>80</v>
       </c>
       <c r="D116" s="23"/>
-      <c r="E116" s="665" t="s">
+      <c r="E116" s="668" t="s">
         <v>59</v>
       </c>
       <c r="F116" s="633"/>
@@ -39023,10 +39023,10 @@
     </row>
     <row r="130" spans="1:11" ht="14.35">
       <c r="A130" s="2"/>
-      <c r="B130" s="647" t="s">
+      <c r="B130" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C130" s="648"/>
+      <c r="C130" s="657"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
@@ -39313,10 +39313,10 @@
     </row>
     <row r="156" spans="1:11" ht="14.35">
       <c r="A156" s="2"/>
-      <c r="B156" s="647" t="s">
+      <c r="B156" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C156" s="648"/>
+      <c r="C156" s="657"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
       <c r="H156" s="10"/>
@@ -39511,10 +39511,10 @@
     </row>
     <row r="174" spans="1:11" ht="14.35">
       <c r="A174" s="2"/>
-      <c r="B174" s="647" t="s">
+      <c r="B174" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C174" s="650"/>
+      <c r="C174" s="659"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
@@ -39742,10 +39742,10 @@
     </row>
     <row r="192" spans="1:11" ht="14.35">
       <c r="A192" s="2"/>
-      <c r="B192" s="647" t="s">
+      <c r="B192" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C192" s="650"/>
+      <c r="C192" s="659"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
@@ -40073,10 +40073,10 @@
     </row>
     <row r="217" spans="1:11" ht="14.35">
       <c r="A217" s="2"/>
-      <c r="B217" s="647" t="s">
+      <c r="B217" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C217" s="648"/>
+      <c r="C217" s="657"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
@@ -40382,10 +40382,10 @@
     </row>
     <row r="242" spans="1:11" ht="14.35">
       <c r="A242" s="2"/>
-      <c r="B242" s="647" t="s">
+      <c r="B242" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C242" s="648"/>
+      <c r="C242" s="657"/>
       <c r="D242" s="2"/>
       <c r="F242" s="2"/>
       <c r="G242" s="2"/>
@@ -40748,7 +40748,7 @@
         <v>143</v>
       </c>
       <c r="C268" s="11"/>
-      <c r="D268" s="663"/>
+      <c r="D268" s="669"/>
       <c r="E268" s="2"/>
       <c r="F268" s="2"/>
       <c r="G268" s="2"/>
@@ -40761,7 +40761,7 @@
         <v>144</v>
       </c>
       <c r="C269" s="11"/>
-      <c r="D269" s="664"/>
+      <c r="D269" s="670"/>
       <c r="E269" s="2"/>
       <c r="F269" s="2"/>
       <c r="G269" s="2"/>
@@ -40774,7 +40774,7 @@
         <v>30</v>
       </c>
       <c r="C270" s="11"/>
-      <c r="D270" s="664"/>
+      <c r="D270" s="670"/>
       <c r="E270" s="2"/>
       <c r="F270" s="2"/>
       <c r="G270" s="2"/>
@@ -40787,7 +40787,7 @@
         <v>31</v>
       </c>
       <c r="C271" s="11"/>
-      <c r="D271" s="664"/>
+      <c r="D271" s="670"/>
       <c r="E271" s="2"/>
       <c r="F271" s="2"/>
       <c r="G271" s="2"/>
@@ -40800,7 +40800,7 @@
         <v>145</v>
       </c>
       <c r="C272" s="11"/>
-      <c r="D272" s="664"/>
+      <c r="D272" s="670"/>
       <c r="E272" s="2"/>
       <c r="F272" s="2"/>
       <c r="G272" s="2"/>
@@ -40822,10 +40822,10 @@
     </row>
     <row r="274" spans="1:11" ht="14.35">
       <c r="A274" s="2"/>
-      <c r="B274" s="647" t="s">
+      <c r="B274" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C274" s="650"/>
+      <c r="C274" s="659"/>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
       <c r="F274" s="2"/>
@@ -41249,7 +41249,7 @@
         <v>143</v>
       </c>
       <c r="C304" s="11"/>
-      <c r="D304" s="661"/>
+      <c r="D304" s="660"/>
       <c r="E304" s="84"/>
       <c r="F304" s="85"/>
       <c r="G304" s="2"/>
@@ -41262,7 +41262,7 @@
         <v>144</v>
       </c>
       <c r="C305" s="11"/>
-      <c r="D305" s="662"/>
+      <c r="D305" s="661"/>
       <c r="E305" s="84"/>
       <c r="F305" s="85"/>
       <c r="G305" s="2"/>
@@ -41275,7 +41275,7 @@
         <v>30</v>
       </c>
       <c r="C306" s="11"/>
-      <c r="D306" s="662"/>
+      <c r="D306" s="661"/>
       <c r="E306" s="84"/>
       <c r="F306" s="85"/>
       <c r="G306" s="2"/>
@@ -41288,7 +41288,7 @@
         <v>31</v>
       </c>
       <c r="C307" s="11"/>
-      <c r="D307" s="662"/>
+      <c r="D307" s="661"/>
       <c r="E307" s="84"/>
       <c r="F307" s="85"/>
       <c r="G307" s="2"/>
@@ -41301,7 +41301,7 @@
         <v>145</v>
       </c>
       <c r="C308" s="11"/>
-      <c r="D308" s="662"/>
+      <c r="D308" s="661"/>
       <c r="E308" s="84"/>
       <c r="F308" s="85"/>
       <c r="G308" s="2"/>
@@ -41323,10 +41323,10 @@
     </row>
     <row r="310" spans="1:11" ht="14.35">
       <c r="A310" s="2"/>
-      <c r="B310" s="647" t="s">
+      <c r="B310" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C310" s="650"/>
+      <c r="C310" s="659"/>
       <c r="D310" s="28"/>
       <c r="E310" s="2"/>
       <c r="F310" s="2"/>
@@ -41497,7 +41497,7 @@
         <v>64</v>
       </c>
       <c r="C324" s="11"/>
-      <c r="D324" s="661"/>
+      <c r="D324" s="660"/>
       <c r="F324" s="2"/>
       <c r="G324" s="2"/>
       <c r="H324" s="8"/>
@@ -41509,7 +41509,7 @@
         <v>65</v>
       </c>
       <c r="C325" s="11"/>
-      <c r="D325" s="662"/>
+      <c r="D325" s="661"/>
       <c r="F325" s="2"/>
       <c r="G325" s="2"/>
       <c r="H325" s="8"/>
@@ -41521,7 +41521,7 @@
         <v>30</v>
       </c>
       <c r="C326" s="11"/>
-      <c r="D326" s="662"/>
+      <c r="D326" s="661"/>
       <c r="F326" s="2"/>
       <c r="G326" s="2"/>
       <c r="H326" s="8"/>
@@ -41533,7 +41533,7 @@
         <v>31</v>
       </c>
       <c r="C327" s="11"/>
-      <c r="D327" s="662"/>
+      <c r="D327" s="661"/>
       <c r="F327" s="2"/>
       <c r="G327" s="2"/>
       <c r="H327" s="8"/>
@@ -41545,7 +41545,7 @@
         <v>68</v>
       </c>
       <c r="C328" s="11"/>
-      <c r="D328" s="662"/>
+      <c r="D328" s="661"/>
       <c r="F328" s="2"/>
       <c r="G328" s="2"/>
       <c r="H328" s="8"/>
@@ -41565,10 +41565,10 @@
     </row>
     <row r="330" spans="1:11" ht="14.35">
       <c r="A330" s="2"/>
-      <c r="B330" s="647" t="s">
+      <c r="B330" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C330" s="650"/>
+      <c r="C330" s="659"/>
       <c r="D330" s="28"/>
       <c r="F330" s="2"/>
       <c r="G330" s="2"/>
@@ -41827,10 +41827,10 @@
     </row>
     <row r="352" spans="1:11" ht="14.35">
       <c r="A352" s="2"/>
-      <c r="B352" s="647" t="s">
+      <c r="B352" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C352" s="648"/>
+      <c r="C352" s="657"/>
       <c r="D352" s="2"/>
       <c r="F352" s="2"/>
       <c r="G352" s="2"/>
@@ -42034,10 +42034,10 @@
     </row>
     <row r="370" spans="1:11" ht="14.35">
       <c r="A370" s="2"/>
-      <c r="B370" s="647" t="s">
+      <c r="B370" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C370" s="648"/>
+      <c r="C370" s="657"/>
       <c r="F370" s="2"/>
       <c r="G370" s="2"/>
       <c r="H370" s="8"/>
@@ -42517,10 +42517,10 @@
     </row>
     <row r="405" spans="1:11" ht="14.7">
       <c r="A405" s="2"/>
-      <c r="B405" s="659" t="s">
+      <c r="B405" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C405" s="641"/>
+      <c r="C405" s="644"/>
       <c r="D405" s="97"/>
       <c r="F405" s="2"/>
       <c r="G405" s="2"/>
@@ -43033,10 +43033,10 @@
     </row>
     <row r="440" spans="1:11" ht="14.7">
       <c r="A440" s="2"/>
-      <c r="B440" s="659" t="s">
+      <c r="B440" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C440" s="641"/>
+      <c r="C440" s="644"/>
       <c r="D440" s="97"/>
       <c r="E440" s="97"/>
       <c r="F440" s="2"/>
@@ -43512,10 +43512,10 @@
     </row>
     <row r="473" spans="1:11" ht="14.7">
       <c r="A473" s="2"/>
-      <c r="B473" s="659" t="s">
+      <c r="B473" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C473" s="641"/>
+      <c r="C473" s="644"/>
       <c r="D473" s="97"/>
       <c r="E473" s="97"/>
       <c r="F473" s="97"/>
@@ -43987,10 +43987,10 @@
     </row>
     <row r="506" spans="1:11" ht="14.7">
       <c r="A506" s="2"/>
-      <c r="B506" s="659" t="s">
+      <c r="B506" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C506" s="641"/>
+      <c r="C506" s="644"/>
       <c r="D506" s="97"/>
       <c r="E506" s="97"/>
       <c r="F506" s="97"/>
@@ -44861,10 +44861,10 @@
     </row>
     <row r="559" spans="1:11" ht="14.7">
       <c r="A559" s="2"/>
-      <c r="B559" s="659" t="s">
+      <c r="B559" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C559" s="641"/>
+      <c r="C559" s="644"/>
       <c r="D559" s="97"/>
       <c r="E559" s="97"/>
       <c r="F559" s="97"/>
@@ -45288,10 +45288,10 @@
     </row>
     <row r="597" spans="1:11" ht="14.35">
       <c r="A597" s="2"/>
-      <c r="B597" s="647" t="s">
+      <c r="B597" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C597" s="648"/>
+      <c r="C597" s="657"/>
       <c r="D597" s="2"/>
       <c r="E597" s="2"/>
       <c r="F597" s="2"/>
@@ -45533,10 +45533,10 @@
     </row>
     <row r="616" spans="1:11" ht="14.35">
       <c r="A616" s="2"/>
-      <c r="B616" s="647" t="s">
+      <c r="B616" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C616" s="648"/>
+      <c r="C616" s="657"/>
       <c r="D616" s="2"/>
       <c r="E616" s="2"/>
       <c r="F616" s="2"/>
@@ -45774,10 +45774,10 @@
     </row>
     <row r="635" spans="1:11" ht="14.35">
       <c r="A635" s="2"/>
-      <c r="B635" s="647" t="s">
+      <c r="B635" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C635" s="650"/>
+      <c r="C635" s="659"/>
       <c r="D635" s="127"/>
       <c r="E635" s="2"/>
       <c r="F635" s="2"/>
@@ -46034,10 +46034,10 @@
     </row>
     <row r="655" spans="1:11" ht="14.35">
       <c r="A655" s="2"/>
-      <c r="B655" s="647" t="s">
+      <c r="B655" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C655" s="648"/>
+      <c r="C655" s="657"/>
       <c r="D655" s="2"/>
       <c r="E655" s="2"/>
       <c r="F655" s="2"/>
@@ -46262,10 +46262,10 @@
     </row>
     <row r="673" spans="1:11" ht="14.35">
       <c r="A673" s="2"/>
-      <c r="B673" s="647" t="s">
+      <c r="B673" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C673" s="650"/>
+      <c r="C673" s="659"/>
       <c r="D673" s="2"/>
       <c r="E673" s="2"/>
       <c r="F673" s="2"/>
@@ -46501,10 +46501,10 @@
     </row>
     <row r="692" spans="1:11" ht="14.35">
       <c r="A692" s="2"/>
-      <c r="B692" s="660" t="s">
+      <c r="B692" s="671" t="s">
         <v>34</v>
       </c>
-      <c r="C692" s="641"/>
+      <c r="C692" s="644"/>
       <c r="D692" s="2"/>
       <c r="E692" s="2"/>
       <c r="F692" s="2"/>
@@ -46737,10 +46737,10 @@
     </row>
     <row r="710" spans="1:11" ht="14.35">
       <c r="A710" s="2"/>
-      <c r="B710" s="660" t="s">
+      <c r="B710" s="671" t="s">
         <v>34</v>
       </c>
-      <c r="C710" s="641"/>
+      <c r="C710" s="644"/>
       <c r="D710" s="2"/>
       <c r="E710" s="2"/>
       <c r="F710" s="2"/>
@@ -47059,10 +47059,10 @@
     </row>
     <row r="736" spans="1:11" ht="14.35">
       <c r="A736" s="2"/>
-      <c r="B736" s="647" t="s">
+      <c r="B736" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C736" s="648"/>
+      <c r="C736" s="657"/>
       <c r="D736" s="2"/>
       <c r="E736" s="2"/>
       <c r="F736" s="2"/>
@@ -47325,10 +47325,10 @@
     </row>
     <row r="756" spans="1:11" ht="14.35">
       <c r="A756" s="2"/>
-      <c r="B756" s="647" t="s">
+      <c r="B756" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C756" s="648"/>
+      <c r="C756" s="657"/>
       <c r="D756" s="2"/>
       <c r="E756" s="2"/>
       <c r="F756" s="2"/>
@@ -47616,10 +47616,10 @@
     </row>
     <row r="779" spans="1:11" ht="14.35">
       <c r="A779" s="2"/>
-      <c r="B779" s="647" t="s">
+      <c r="B779" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C779" s="648"/>
+      <c r="C779" s="657"/>
       <c r="D779" s="2"/>
       <c r="E779" s="2"/>
       <c r="F779" s="2"/>
@@ -47905,10 +47905,10 @@
     </row>
     <row r="802" spans="1:11" ht="14.35">
       <c r="A802" s="2"/>
-      <c r="B802" s="647" t="s">
+      <c r="B802" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C802" s="650"/>
+      <c r="C802" s="659"/>
       <c r="D802" s="2"/>
       <c r="E802" s="2"/>
       <c r="F802" s="2"/>
@@ -48187,10 +48187,10 @@
     </row>
     <row r="824" spans="1:11" ht="14.35">
       <c r="A824" s="2"/>
-      <c r="B824" s="647" t="s">
+      <c r="B824" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C824" s="650"/>
+      <c r="C824" s="659"/>
       <c r="D824" s="2"/>
       <c r="E824" s="2"/>
       <c r="F824" s="2"/>
@@ -48498,10 +48498,10 @@
     </row>
     <row r="849" spans="1:11" ht="14.35">
       <c r="A849" s="2"/>
-      <c r="B849" s="647" t="s">
+      <c r="B849" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C849" s="650"/>
+      <c r="C849" s="659"/>
       <c r="D849" s="149"/>
       <c r="E849" s="2"/>
       <c r="F849" s="2"/>
@@ -48806,10 +48806,10 @@
       <c r="K873" s="10"/>
     </row>
     <row r="874" spans="2:11" ht="14.35">
-      <c r="B874" s="647" t="s">
+      <c r="B874" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C874" s="650"/>
+      <c r="C874" s="659"/>
       <c r="D874" s="2"/>
       <c r="E874" s="2"/>
       <c r="F874" s="2"/>
@@ -49115,10 +49115,10 @@
       <c r="K899" s="10"/>
     </row>
     <row r="900" spans="1:11" ht="14.35">
-      <c r="B900" s="647" t="s">
+      <c r="B900" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C900" s="650"/>
+      <c r="C900" s="659"/>
       <c r="D900" s="2"/>
       <c r="E900" s="2"/>
       <c r="F900" s="2"/>
@@ -49348,10 +49348,10 @@
     </row>
     <row r="920" spans="1:11" ht="14.35">
       <c r="A920" s="2"/>
-      <c r="B920" s="647" t="s">
+      <c r="B920" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C920" s="650"/>
+      <c r="C920" s="659"/>
       <c r="D920" s="2"/>
       <c r="E920" s="2"/>
       <c r="F920" s="2"/>
@@ -49628,10 +49628,10 @@
     </row>
     <row r="942" spans="1:11" ht="14.35">
       <c r="A942" s="2"/>
-      <c r="B942" s="647" t="s">
+      <c r="B942" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C942" s="650"/>
+      <c r="C942" s="659"/>
       <c r="D942" s="2"/>
       <c r="E942" s="2"/>
       <c r="F942" s="2"/>
@@ -49875,10 +49875,10 @@
     </row>
     <row r="961" spans="1:11" ht="14.35">
       <c r="A961" s="2"/>
-      <c r="B961" s="647" t="s">
+      <c r="B961" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C961" s="650"/>
+      <c r="C961" s="659"/>
       <c r="D961" s="2"/>
       <c r="E961" s="2"/>
       <c r="F961" s="2"/>
@@ -50118,10 +50118,10 @@
     </row>
     <row r="980" spans="1:11" ht="14.35">
       <c r="A980" s="2"/>
-      <c r="B980" s="647" t="s">
+      <c r="B980" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C980" s="650"/>
+      <c r="C980" s="659"/>
       <c r="D980" s="2"/>
       <c r="E980" s="2"/>
       <c r="F980" s="2"/>
@@ -50262,10 +50262,10 @@
     </row>
     <row r="994" spans="1:11" ht="14.35">
       <c r="A994" s="2"/>
-      <c r="B994" s="647" t="s">
+      <c r="B994" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C994" s="650"/>
+      <c r="C994" s="659"/>
       <c r="F994" s="2"/>
       <c r="G994" s="2"/>
       <c r="H994" s="8"/>
@@ -50512,10 +50512,10 @@
     </row>
     <row r="1014" spans="1:11" ht="14.35">
       <c r="A1014" s="2"/>
-      <c r="B1014" s="647" t="s">
+      <c r="B1014" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C1014" s="648"/>
+      <c r="C1014" s="657"/>
       <c r="D1014" s="2"/>
       <c r="E1014" s="2"/>
       <c r="F1014" s="2"/>
@@ -50717,10 +50717,10 @@
     </row>
     <row r="1031" spans="1:11" ht="14.35">
       <c r="A1031" s="2"/>
-      <c r="B1031" s="647" t="s">
+      <c r="B1031" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C1031" s="650"/>
+      <c r="C1031" s="659"/>
       <c r="D1031" s="2"/>
       <c r="E1031" s="2"/>
       <c r="F1031" s="2"/>
@@ -50963,10 +50963,10 @@
       <c r="K1050" s="10"/>
     </row>
     <row r="1051" spans="2:11" ht="14.35">
-      <c r="B1051" s="647" t="s">
+      <c r="B1051" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C1051" s="648"/>
+      <c r="C1051" s="657"/>
       <c r="D1051" s="2"/>
       <c r="E1051" s="2"/>
       <c r="F1051" s="2"/>
@@ -51227,10 +51227,10 @@
     </row>
     <row r="1073" spans="1:11" ht="14.35">
       <c r="A1073" s="2"/>
-      <c r="B1073" s="647" t="s">
+      <c r="B1073" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C1073" s="648"/>
+      <c r="C1073" s="657"/>
       <c r="D1073" s="2"/>
       <c r="E1073" s="2"/>
       <c r="F1073" s="2"/>
@@ -51526,10 +51526,10 @@
     </row>
     <row r="1096" spans="1:11" ht="14.35">
       <c r="A1096" s="2"/>
-      <c r="B1096" s="647" t="s">
+      <c r="B1096" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C1096" s="648"/>
+      <c r="C1096" s="657"/>
       <c r="D1096" s="2"/>
       <c r="E1096" s="2"/>
       <c r="F1096" s="2"/>
@@ -51553,61 +51553,61 @@
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="B1014:C1014"/>
+    <mergeCell ref="B1031:C1031"/>
+    <mergeCell ref="B1051:C1051"/>
+    <mergeCell ref="B1073:C1073"/>
+    <mergeCell ref="B1096:C1096"/>
+    <mergeCell ref="B920:C920"/>
+    <mergeCell ref="B942:C942"/>
+    <mergeCell ref="B961:C961"/>
+    <mergeCell ref="B980:C980"/>
+    <mergeCell ref="B994:C994"/>
+    <mergeCell ref="B802:C802"/>
+    <mergeCell ref="B824:C824"/>
+    <mergeCell ref="B849:C849"/>
+    <mergeCell ref="B874:C874"/>
+    <mergeCell ref="B900:C900"/>
+    <mergeCell ref="B692:C692"/>
+    <mergeCell ref="B710:C710"/>
+    <mergeCell ref="B736:C736"/>
+    <mergeCell ref="B756:C756"/>
+    <mergeCell ref="B779:C779"/>
+    <mergeCell ref="B597:C597"/>
+    <mergeCell ref="B616:C616"/>
+    <mergeCell ref="B635:C635"/>
+    <mergeCell ref="B655:C655"/>
+    <mergeCell ref="B673:C673"/>
+    <mergeCell ref="B405:C405"/>
+    <mergeCell ref="B440:C440"/>
+    <mergeCell ref="B473:C473"/>
+    <mergeCell ref="B506:C506"/>
+    <mergeCell ref="B559:C559"/>
+    <mergeCell ref="B310:C310"/>
+    <mergeCell ref="D324:D328"/>
+    <mergeCell ref="B330:C330"/>
+    <mergeCell ref="B352:C352"/>
+    <mergeCell ref="B370:C370"/>
+    <mergeCell ref="B217:C217"/>
+    <mergeCell ref="B242:C242"/>
+    <mergeCell ref="D268:D272"/>
+    <mergeCell ref="B274:C274"/>
+    <mergeCell ref="D304:D308"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="B106:C106"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D36:D41"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B61:C61"/>
     <mergeCell ref="E75:F75"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="B217:C217"/>
-    <mergeCell ref="B242:C242"/>
-    <mergeCell ref="D268:D272"/>
-    <mergeCell ref="B274:C274"/>
-    <mergeCell ref="D304:D308"/>
-    <mergeCell ref="B310:C310"/>
-    <mergeCell ref="D324:D328"/>
-    <mergeCell ref="B330:C330"/>
-    <mergeCell ref="B352:C352"/>
-    <mergeCell ref="B370:C370"/>
-    <mergeCell ref="B405:C405"/>
-    <mergeCell ref="B440:C440"/>
-    <mergeCell ref="B473:C473"/>
-    <mergeCell ref="B506:C506"/>
-    <mergeCell ref="B559:C559"/>
-    <mergeCell ref="B597:C597"/>
-    <mergeCell ref="B616:C616"/>
-    <mergeCell ref="B635:C635"/>
-    <mergeCell ref="B655:C655"/>
-    <mergeCell ref="B673:C673"/>
-    <mergeCell ref="B692:C692"/>
-    <mergeCell ref="B710:C710"/>
-    <mergeCell ref="B736:C736"/>
-    <mergeCell ref="B756:C756"/>
-    <mergeCell ref="B779:C779"/>
-    <mergeCell ref="B802:C802"/>
-    <mergeCell ref="B824:C824"/>
-    <mergeCell ref="B849:C849"/>
-    <mergeCell ref="B874:C874"/>
-    <mergeCell ref="B900:C900"/>
-    <mergeCell ref="B920:C920"/>
-    <mergeCell ref="B942:C942"/>
-    <mergeCell ref="B961:C961"/>
-    <mergeCell ref="B980:C980"/>
-    <mergeCell ref="B994:C994"/>
-    <mergeCell ref="B1014:C1014"/>
-    <mergeCell ref="B1031:C1031"/>
-    <mergeCell ref="B1051:C1051"/>
-    <mergeCell ref="B1073:C1073"/>
-    <mergeCell ref="B1096:C1096"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -51677,10 +51677,10 @@
       <c r="D2" s="246" t="s">
         <v>508</v>
       </c>
-      <c r="E2" s="682" t="s">
+      <c r="E2" s="698" t="s">
         <v>509</v>
       </c>
-      <c r="F2" s="683"/>
+      <c r="F2" s="699"/>
       <c r="G2" s="252" t="s">
         <v>510</v>
       </c>
@@ -51713,71 +51713,71 @@
       <c r="A3" s="253">
         <v>1</v>
       </c>
-      <c r="B3" s="694" t="s">
+      <c r="B3" s="681" t="s">
         <v>456</v>
       </c>
-      <c r="C3" s="695"/>
-      <c r="D3" s="695"/>
-      <c r="E3" s="695"/>
-      <c r="F3" s="695"/>
-      <c r="G3" s="695"/>
-      <c r="H3" s="695"/>
-      <c r="I3" s="695"/>
-      <c r="J3" s="695"/>
-      <c r="K3" s="688" t="s">
+      <c r="C3" s="682"/>
+      <c r="D3" s="682"/>
+      <c r="E3" s="682"/>
+      <c r="F3" s="682"/>
+      <c r="G3" s="682"/>
+      <c r="H3" s="682"/>
+      <c r="I3" s="682"/>
+      <c r="J3" s="682"/>
+      <c r="K3" s="683" t="s">
         <v>457</v>
       </c>
-      <c r="L3" s="687"/>
-      <c r="M3" s="687"/>
-      <c r="N3" s="687"/>
-      <c r="O3" s="687"/>
-      <c r="P3" s="687"/>
-      <c r="Q3" s="687"/>
-      <c r="R3" s="687"/>
-      <c r="S3" s="687"/>
-      <c r="T3" s="687"/>
-      <c r="U3" s="687"/>
-      <c r="V3" s="687"/>
-      <c r="W3" s="687"/>
+      <c r="L3" s="684"/>
+      <c r="M3" s="684"/>
+      <c r="N3" s="684"/>
+      <c r="O3" s="684"/>
+      <c r="P3" s="684"/>
+      <c r="Q3" s="684"/>
+      <c r="R3" s="684"/>
+      <c r="S3" s="684"/>
+      <c r="T3" s="684"/>
+      <c r="U3" s="684"/>
+      <c r="V3" s="684"/>
+      <c r="W3" s="684"/>
     </row>
     <row r="4" spans="1:23" ht="14">
       <c r="A4" s="244"/>
-      <c r="B4" s="696" t="s">
+      <c r="B4" s="685" t="s">
         <v>459</v>
       </c>
-      <c r="C4" s="693"/>
-      <c r="D4" s="693"/>
+      <c r="C4" s="686"/>
+      <c r="D4" s="686"/>
       <c r="E4" s="674" t="s">
         <v>515</v>
       </c>
-      <c r="F4" s="693"/>
-      <c r="G4" s="693"/>
-      <c r="H4" s="697" t="s">
+      <c r="F4" s="686"/>
+      <c r="G4" s="686"/>
+      <c r="H4" s="687" t="s">
         <v>516</v>
       </c>
-      <c r="I4" s="698"/>
-      <c r="J4" s="698"/>
+      <c r="I4" s="688"/>
+      <c r="J4" s="688"/>
       <c r="K4" s="674" t="s">
         <v>460</v>
       </c>
-      <c r="L4" s="693"/>
-      <c r="M4" s="693"/>
+      <c r="L4" s="686"/>
+      <c r="M4" s="686"/>
       <c r="N4" s="674" t="s">
         <v>517</v>
       </c>
-      <c r="O4" s="693"/>
-      <c r="P4" s="693"/>
+      <c r="O4" s="686"/>
+      <c r="P4" s="686"/>
       <c r="Q4" s="674" t="s">
         <v>518</v>
       </c>
-      <c r="R4" s="693"/>
-      <c r="S4" s="693"/>
-      <c r="T4" s="699" t="s">
+      <c r="R4" s="686"/>
+      <c r="S4" s="686"/>
+      <c r="T4" s="689" t="s">
         <v>519</v>
       </c>
-      <c r="U4" s="700"/>
-      <c r="V4" s="700"/>
-      <c r="W4" s="700"/>
+      <c r="U4" s="690"/>
+      <c r="V4" s="690"/>
+      <c r="W4" s="690"/>
     </row>
     <row r="5" spans="1:23" ht="15.35">
       <c r="A5" s="244"/>
@@ -51835,7 +51835,7 @@
       <c r="S5" s="259" t="s">
         <v>463</v>
       </c>
-      <c r="T5" s="681" t="s">
+      <c r="T5" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U5" s="171" t="s">
@@ -51880,7 +51880,7 @@
       <c r="Q6" s="184"/>
       <c r="R6" s="183"/>
       <c r="S6" s="268"/>
-      <c r="T6" s="641"/>
+      <c r="T6" s="644"/>
       <c r="U6" s="171" t="s">
         <v>524</v>
       </c>
@@ -52327,32 +52327,32 @@
       </c>
     </row>
     <row r="23" spans="1:23" ht="14">
-      <c r="B23" s="684" t="s">
+      <c r="B23" s="695" t="s">
         <v>456</v>
       </c>
-      <c r="C23" s="641"/>
-      <c r="D23" s="641"/>
-      <c r="E23" s="641"/>
-      <c r="F23" s="641"/>
-      <c r="G23" s="641"/>
-      <c r="H23" s="641"/>
-      <c r="I23" s="641"/>
-      <c r="J23" s="641"/>
-      <c r="K23" s="685" t="s">
+      <c r="C23" s="644"/>
+      <c r="D23" s="644"/>
+      <c r="E23" s="644"/>
+      <c r="F23" s="644"/>
+      <c r="G23" s="644"/>
+      <c r="H23" s="644"/>
+      <c r="I23" s="644"/>
+      <c r="J23" s="644"/>
+      <c r="K23" s="694" t="s">
         <v>911</v>
       </c>
-      <c r="L23" s="641"/>
-      <c r="M23" s="641"/>
-      <c r="N23" s="641"/>
-      <c r="O23" s="641"/>
-      <c r="P23" s="641"/>
-      <c r="Q23" s="641"/>
-      <c r="R23" s="641"/>
-      <c r="S23" s="641"/>
-      <c r="T23" s="641"/>
-      <c r="U23" s="641"/>
-      <c r="V23" s="641"/>
-      <c r="W23" s="641"/>
+      <c r="L23" s="644"/>
+      <c r="M23" s="644"/>
+      <c r="N23" s="644"/>
+      <c r="O23" s="644"/>
+      <c r="P23" s="644"/>
+      <c r="Q23" s="644"/>
+      <c r="R23" s="644"/>
+      <c r="S23" s="644"/>
+      <c r="T23" s="644"/>
+      <c r="U23" s="644"/>
+      <c r="V23" s="644"/>
+      <c r="W23" s="644"/>
     </row>
     <row r="24" spans="1:23" ht="14">
       <c r="A24" s="253">
@@ -52388,12 +52388,12 @@
       </c>
       <c r="R24" s="678"/>
       <c r="S24" s="678"/>
-      <c r="T24" s="679" t="s">
+      <c r="T24" s="692" t="s">
         <v>519</v>
       </c>
-      <c r="U24" s="680"/>
-      <c r="V24" s="680"/>
-      <c r="W24" s="680"/>
+      <c r="U24" s="693"/>
+      <c r="V24" s="693"/>
+      <c r="W24" s="693"/>
     </row>
     <row r="25" spans="1:23" ht="15.35">
       <c r="A25" s="288"/>
@@ -52451,7 +52451,7 @@
       <c r="S25" s="258" t="s">
         <v>914</v>
       </c>
-      <c r="T25" s="681" t="s">
+      <c r="T25" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U25" s="171" t="s">
@@ -52496,7 +52496,7 @@
       <c r="Q26" s="184"/>
       <c r="R26" s="188"/>
       <c r="S26" s="188"/>
-      <c r="T26" s="641"/>
+      <c r="T26" s="644"/>
       <c r="U26" s="171" t="s">
         <v>524</v>
       </c>
@@ -52760,32 +52760,32 @@
       <c r="E43" s="307"/>
     </row>
     <row r="44" spans="1:23" ht="14">
-      <c r="B44" s="684" t="s">
+      <c r="B44" s="695" t="s">
         <v>456</v>
       </c>
-      <c r="C44" s="641"/>
-      <c r="D44" s="641"/>
-      <c r="E44" s="641"/>
-      <c r="F44" s="641"/>
-      <c r="G44" s="641"/>
-      <c r="H44" s="641"/>
-      <c r="I44" s="641"/>
-      <c r="J44" s="641"/>
-      <c r="K44" s="684" t="s">
+      <c r="C44" s="644"/>
+      <c r="D44" s="644"/>
+      <c r="E44" s="644"/>
+      <c r="F44" s="644"/>
+      <c r="G44" s="644"/>
+      <c r="H44" s="644"/>
+      <c r="I44" s="644"/>
+      <c r="J44" s="644"/>
+      <c r="K44" s="695" t="s">
         <v>457</v>
       </c>
-      <c r="L44" s="641"/>
-      <c r="M44" s="641"/>
-      <c r="N44" s="641"/>
-      <c r="O44" s="641"/>
-      <c r="P44" s="641"/>
-      <c r="Q44" s="641"/>
-      <c r="R44" s="641"/>
-      <c r="S44" s="641"/>
-      <c r="T44" s="641"/>
-      <c r="U44" s="641"/>
-      <c r="V44" s="641"/>
-      <c r="W44" s="641"/>
+      <c r="L44" s="644"/>
+      <c r="M44" s="644"/>
+      <c r="N44" s="644"/>
+      <c r="O44" s="644"/>
+      <c r="P44" s="644"/>
+      <c r="Q44" s="644"/>
+      <c r="R44" s="644"/>
+      <c r="S44" s="644"/>
+      <c r="T44" s="644"/>
+      <c r="U44" s="644"/>
+      <c r="V44" s="644"/>
+      <c r="W44" s="644"/>
     </row>
     <row r="45" spans="1:23" ht="14">
       <c r="A45" s="253">
@@ -52821,12 +52821,12 @@
       </c>
       <c r="R45" s="678"/>
       <c r="S45" s="678"/>
-      <c r="T45" s="692" t="s">
+      <c r="T45" s="696" t="s">
         <v>519</v>
       </c>
-      <c r="U45" s="693"/>
-      <c r="V45" s="693"/>
-      <c r="W45" s="693"/>
+      <c r="U45" s="686"/>
+      <c r="V45" s="686"/>
+      <c r="W45" s="686"/>
     </row>
     <row r="46" spans="1:23" ht="15.35">
       <c r="A46" s="288"/>
@@ -52884,7 +52884,7 @@
       <c r="S46" s="287" t="s">
         <v>914</v>
       </c>
-      <c r="T46" s="689" t="s">
+      <c r="T46" s="701" t="s">
         <v>520</v>
       </c>
       <c r="U46" s="318" t="s">
@@ -52929,7 +52929,7 @@
       <c r="Q47" s="184"/>
       <c r="R47" s="188"/>
       <c r="S47" s="188"/>
-      <c r="T47" s="641"/>
+      <c r="T47" s="644"/>
       <c r="U47" s="171" t="s">
         <v>524</v>
       </c>
@@ -53161,32 +53161,32 @@
       <c r="C61" s="170"/>
     </row>
     <row r="62" spans="1:23" ht="14">
-      <c r="B62" s="684" t="s">
+      <c r="B62" s="695" t="s">
         <v>456</v>
       </c>
-      <c r="C62" s="641"/>
-      <c r="D62" s="641"/>
-      <c r="E62" s="641"/>
-      <c r="F62" s="641"/>
-      <c r="G62" s="641"/>
-      <c r="H62" s="641"/>
-      <c r="I62" s="641"/>
-      <c r="J62" s="641"/>
-      <c r="K62" s="684" t="s">
+      <c r="C62" s="644"/>
+      <c r="D62" s="644"/>
+      <c r="E62" s="644"/>
+      <c r="F62" s="644"/>
+      <c r="G62" s="644"/>
+      <c r="H62" s="644"/>
+      <c r="I62" s="644"/>
+      <c r="J62" s="644"/>
+      <c r="K62" s="695" t="s">
         <v>457</v>
       </c>
-      <c r="L62" s="641"/>
-      <c r="M62" s="641"/>
-      <c r="N62" s="641"/>
-      <c r="O62" s="641"/>
-      <c r="P62" s="641"/>
-      <c r="Q62" s="641"/>
-      <c r="R62" s="641"/>
-      <c r="S62" s="641"/>
-      <c r="T62" s="641"/>
-      <c r="U62" s="641"/>
-      <c r="V62" s="641"/>
-      <c r="W62" s="641"/>
+      <c r="L62" s="644"/>
+      <c r="M62" s="644"/>
+      <c r="N62" s="644"/>
+      <c r="O62" s="644"/>
+      <c r="P62" s="644"/>
+      <c r="Q62" s="644"/>
+      <c r="R62" s="644"/>
+      <c r="S62" s="644"/>
+      <c r="T62" s="644"/>
+      <c r="U62" s="644"/>
+      <c r="V62" s="644"/>
+      <c r="W62" s="644"/>
     </row>
     <row r="63" spans="1:23" ht="14">
       <c r="A63" s="253">
@@ -53222,12 +53222,12 @@
       </c>
       <c r="R63" s="678"/>
       <c r="S63" s="678"/>
-      <c r="T63" s="679" t="s">
+      <c r="T63" s="692" t="s">
         <v>519</v>
       </c>
-      <c r="U63" s="680"/>
-      <c r="V63" s="680"/>
-      <c r="W63" s="680"/>
+      <c r="U63" s="693"/>
+      <c r="V63" s="693"/>
+      <c r="W63" s="693"/>
     </row>
     <row r="64" spans="1:23" ht="15.35">
       <c r="A64" s="288"/>
@@ -53285,7 +53285,7 @@
       <c r="S64" s="254" t="s">
         <v>463</v>
       </c>
-      <c r="T64" s="681" t="s">
+      <c r="T64" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U64" s="171" t="s">
@@ -53330,7 +53330,7 @@
       <c r="Q65" s="184"/>
       <c r="R65" s="184"/>
       <c r="S65" s="184"/>
-      <c r="T65" s="641"/>
+      <c r="T65" s="644"/>
       <c r="U65" s="171" t="s">
         <v>524</v>
       </c>
@@ -53595,32 +53595,32 @@
       </c>
     </row>
     <row r="85" spans="1:23" ht="14">
-      <c r="B85" s="685" t="s">
+      <c r="B85" s="694" t="s">
         <v>919</v>
       </c>
-      <c r="C85" s="641"/>
-      <c r="D85" s="641"/>
-      <c r="E85" s="641"/>
-      <c r="F85" s="641"/>
-      <c r="G85" s="641"/>
-      <c r="H85" s="641"/>
-      <c r="I85" s="641"/>
-      <c r="J85" s="641"/>
-      <c r="K85" s="685" t="s">
+      <c r="C85" s="644"/>
+      <c r="D85" s="644"/>
+      <c r="E85" s="644"/>
+      <c r="F85" s="644"/>
+      <c r="G85" s="644"/>
+      <c r="H85" s="644"/>
+      <c r="I85" s="644"/>
+      <c r="J85" s="644"/>
+      <c r="K85" s="694" t="s">
         <v>911</v>
       </c>
-      <c r="L85" s="641"/>
-      <c r="M85" s="641"/>
-      <c r="N85" s="641"/>
-      <c r="O85" s="641"/>
-      <c r="P85" s="641"/>
-      <c r="Q85" s="641"/>
-      <c r="R85" s="641"/>
-      <c r="S85" s="641"/>
-      <c r="T85" s="641"/>
-      <c r="U85" s="641"/>
-      <c r="V85" s="641"/>
-      <c r="W85" s="641"/>
+      <c r="L85" s="644"/>
+      <c r="M85" s="644"/>
+      <c r="N85" s="644"/>
+      <c r="O85" s="644"/>
+      <c r="P85" s="644"/>
+      <c r="Q85" s="644"/>
+      <c r="R85" s="644"/>
+      <c r="S85" s="644"/>
+      <c r="T85" s="644"/>
+      <c r="U85" s="644"/>
+      <c r="V85" s="644"/>
+      <c r="W85" s="644"/>
     </row>
     <row r="86" spans="1:23" ht="14">
       <c r="A86" s="253">
@@ -53631,17 +53631,17 @@
       </c>
       <c r="C86" s="673"/>
       <c r="D86" s="673"/>
-      <c r="E86" s="690" t="s">
+      <c r="E86" s="680" t="s">
         <v>920</v>
       </c>
       <c r="F86" s="675"/>
       <c r="G86" s="675"/>
-      <c r="H86" s="691" t="s">
+      <c r="H86" s="697" t="s">
         <v>921</v>
       </c>
       <c r="I86" s="677"/>
       <c r="J86" s="677"/>
-      <c r="K86" s="690" t="s">
+      <c r="K86" s="680" t="s">
         <v>922</v>
       </c>
       <c r="L86" s="678"/>
@@ -53656,12 +53656,12 @@
       </c>
       <c r="R86" s="678"/>
       <c r="S86" s="678"/>
-      <c r="T86" s="679" t="s">
+      <c r="T86" s="692" t="s">
         <v>519</v>
       </c>
-      <c r="U86" s="680"/>
-      <c r="V86" s="680"/>
-      <c r="W86" s="680"/>
+      <c r="U86" s="693"/>
+      <c r="V86" s="693"/>
+      <c r="W86" s="693"/>
     </row>
     <row r="87" spans="1:23" ht="15.35">
       <c r="A87" s="288"/>
@@ -53719,7 +53719,7 @@
       <c r="S87" s="254" t="s">
         <v>463</v>
       </c>
-      <c r="T87" s="681" t="s">
+      <c r="T87" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U87" s="171" t="s">
@@ -53764,7 +53764,7 @@
       <c r="Q88" s="184"/>
       <c r="R88" s="184"/>
       <c r="S88" s="184"/>
-      <c r="T88" s="641"/>
+      <c r="T88" s="644"/>
       <c r="U88" s="171" t="s">
         <v>524</v>
       </c>
@@ -54028,32 +54028,32 @@
       <c r="C106" s="170"/>
     </row>
     <row r="107" spans="1:23" ht="14">
-      <c r="B107" s="685" t="s">
+      <c r="B107" s="694" t="s">
         <v>919</v>
       </c>
-      <c r="C107" s="641"/>
-      <c r="D107" s="641"/>
-      <c r="E107" s="641"/>
-      <c r="F107" s="641"/>
-      <c r="G107" s="641"/>
-      <c r="H107" s="641"/>
-      <c r="I107" s="641"/>
-      <c r="J107" s="641"/>
-      <c r="K107" s="684" t="s">
+      <c r="C107" s="644"/>
+      <c r="D107" s="644"/>
+      <c r="E107" s="644"/>
+      <c r="F107" s="644"/>
+      <c r="G107" s="644"/>
+      <c r="H107" s="644"/>
+      <c r="I107" s="644"/>
+      <c r="J107" s="644"/>
+      <c r="K107" s="695" t="s">
         <v>457</v>
       </c>
-      <c r="L107" s="641"/>
-      <c r="M107" s="641"/>
-      <c r="N107" s="641"/>
-      <c r="O107" s="641"/>
-      <c r="P107" s="641"/>
-      <c r="Q107" s="641"/>
-      <c r="R107" s="641"/>
-      <c r="S107" s="641"/>
-      <c r="T107" s="641"/>
-      <c r="U107" s="641"/>
-      <c r="V107" s="641"/>
-      <c r="W107" s="641"/>
+      <c r="L107" s="644"/>
+      <c r="M107" s="644"/>
+      <c r="N107" s="644"/>
+      <c r="O107" s="644"/>
+      <c r="P107" s="644"/>
+      <c r="Q107" s="644"/>
+      <c r="R107" s="644"/>
+      <c r="S107" s="644"/>
+      <c r="T107" s="644"/>
+      <c r="U107" s="644"/>
+      <c r="V107" s="644"/>
+      <c r="W107" s="644"/>
     </row>
     <row r="108" spans="1:23" ht="14">
       <c r="A108" s="253">
@@ -54064,7 +54064,7 @@
       </c>
       <c r="C108" s="673"/>
       <c r="D108" s="673"/>
-      <c r="E108" s="690" t="s">
+      <c r="E108" s="680" t="s">
         <v>920</v>
       </c>
       <c r="F108" s="675"/>
@@ -54089,12 +54089,12 @@
       </c>
       <c r="R108" s="678"/>
       <c r="S108" s="678"/>
-      <c r="T108" s="679" t="s">
+      <c r="T108" s="692" t="s">
         <v>519</v>
       </c>
-      <c r="U108" s="680"/>
-      <c r="V108" s="680"/>
-      <c r="W108" s="680"/>
+      <c r="U108" s="693"/>
+      <c r="V108" s="693"/>
+      <c r="W108" s="693"/>
     </row>
     <row r="109" spans="1:23" ht="15.35">
       <c r="A109" s="288"/>
@@ -54152,7 +54152,7 @@
       <c r="S109" s="346" t="s">
         <v>463</v>
       </c>
-      <c r="T109" s="681" t="s">
+      <c r="T109" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U109" s="171" t="s">
@@ -54197,7 +54197,7 @@
       <c r="Q110" s="184"/>
       <c r="R110" s="184"/>
       <c r="S110" s="184"/>
-      <c r="T110" s="641"/>
+      <c r="T110" s="644"/>
       <c r="U110" s="171" t="s">
         <v>524</v>
       </c>
@@ -54411,32 +54411,32 @@
       </c>
     </row>
     <row r="128" spans="1:23" ht="14">
-      <c r="B128" s="684" t="s">
+      <c r="B128" s="695" t="s">
         <v>456</v>
       </c>
-      <c r="C128" s="641"/>
-      <c r="D128" s="641"/>
-      <c r="E128" s="641"/>
-      <c r="F128" s="641"/>
-      <c r="G128" s="641"/>
-      <c r="H128" s="641"/>
-      <c r="I128" s="641"/>
-      <c r="J128" s="641"/>
-      <c r="K128" s="684" t="s">
+      <c r="C128" s="644"/>
+      <c r="D128" s="644"/>
+      <c r="E128" s="644"/>
+      <c r="F128" s="644"/>
+      <c r="G128" s="644"/>
+      <c r="H128" s="644"/>
+      <c r="I128" s="644"/>
+      <c r="J128" s="644"/>
+      <c r="K128" s="695" t="s">
         <v>457</v>
       </c>
-      <c r="L128" s="641"/>
-      <c r="M128" s="641"/>
-      <c r="N128" s="641"/>
-      <c r="O128" s="641"/>
-      <c r="P128" s="641"/>
-      <c r="Q128" s="641"/>
-      <c r="R128" s="641"/>
-      <c r="S128" s="641"/>
-      <c r="T128" s="641"/>
-      <c r="U128" s="641"/>
-      <c r="V128" s="641"/>
-      <c r="W128" s="641"/>
+      <c r="L128" s="644"/>
+      <c r="M128" s="644"/>
+      <c r="N128" s="644"/>
+      <c r="O128" s="644"/>
+      <c r="P128" s="644"/>
+      <c r="Q128" s="644"/>
+      <c r="R128" s="644"/>
+      <c r="S128" s="644"/>
+      <c r="T128" s="644"/>
+      <c r="U128" s="644"/>
+      <c r="V128" s="644"/>
+      <c r="W128" s="644"/>
     </row>
     <row r="129" spans="1:23" ht="14">
       <c r="A129" s="253">
@@ -54472,12 +54472,12 @@
       </c>
       <c r="R129" s="678"/>
       <c r="S129" s="678"/>
-      <c r="T129" s="679" t="s">
+      <c r="T129" s="692" t="s">
         <v>519</v>
       </c>
-      <c r="U129" s="680"/>
-      <c r="V129" s="680"/>
-      <c r="W129" s="680"/>
+      <c r="U129" s="693"/>
+      <c r="V129" s="693"/>
+      <c r="W129" s="693"/>
     </row>
     <row r="130" spans="1:23" ht="15.35">
       <c r="A130" s="288"/>
@@ -54535,7 +54535,7 @@
       <c r="S130" s="346" t="s">
         <v>463</v>
       </c>
-      <c r="T130" s="681" t="s">
+      <c r="T130" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U130" s="171" t="s">
@@ -54580,7 +54580,7 @@
       <c r="Q131" s="184"/>
       <c r="R131" s="184"/>
       <c r="S131" s="184"/>
-      <c r="T131" s="641"/>
+      <c r="T131" s="644"/>
       <c r="U131" s="171" t="s">
         <v>524</v>
       </c>
@@ -54780,32 +54780,32 @@
       </c>
     </row>
     <row r="142" spans="1:23" ht="14">
-      <c r="B142" s="684" t="s">
+      <c r="B142" s="695" t="s">
         <v>456</v>
       </c>
-      <c r="C142" s="641"/>
-      <c r="D142" s="641"/>
-      <c r="E142" s="641"/>
-      <c r="F142" s="641"/>
-      <c r="G142" s="641"/>
-      <c r="H142" s="641"/>
-      <c r="I142" s="641"/>
-      <c r="J142" s="641"/>
-      <c r="K142" s="684" t="s">
+      <c r="C142" s="644"/>
+      <c r="D142" s="644"/>
+      <c r="E142" s="644"/>
+      <c r="F142" s="644"/>
+      <c r="G142" s="644"/>
+      <c r="H142" s="644"/>
+      <c r="I142" s="644"/>
+      <c r="J142" s="644"/>
+      <c r="K142" s="695" t="s">
         <v>457</v>
       </c>
-      <c r="L142" s="641"/>
-      <c r="M142" s="641"/>
-      <c r="N142" s="641"/>
-      <c r="O142" s="641"/>
-      <c r="P142" s="641"/>
-      <c r="Q142" s="641"/>
-      <c r="R142" s="641"/>
-      <c r="S142" s="641"/>
-      <c r="T142" s="641"/>
-      <c r="U142" s="641"/>
-      <c r="V142" s="641"/>
-      <c r="W142" s="641"/>
+      <c r="L142" s="644"/>
+      <c r="M142" s="644"/>
+      <c r="N142" s="644"/>
+      <c r="O142" s="644"/>
+      <c r="P142" s="644"/>
+      <c r="Q142" s="644"/>
+      <c r="R142" s="644"/>
+      <c r="S142" s="644"/>
+      <c r="T142" s="644"/>
+      <c r="U142" s="644"/>
+      <c r="V142" s="644"/>
+      <c r="W142" s="644"/>
     </row>
     <row r="143" spans="1:23" ht="14">
       <c r="A143" s="253">
@@ -54839,14 +54839,14 @@
       <c r="Q143" s="674" t="s">
         <v>916</v>
       </c>
-      <c r="R143" s="701"/>
-      <c r="S143" s="701"/>
-      <c r="T143" s="679" t="s">
+      <c r="R143" s="679"/>
+      <c r="S143" s="679"/>
+      <c r="T143" s="692" t="s">
         <v>519</v>
       </c>
-      <c r="U143" s="680"/>
-      <c r="V143" s="680"/>
-      <c r="W143" s="680"/>
+      <c r="U143" s="693"/>
+      <c r="V143" s="693"/>
+      <c r="W143" s="693"/>
     </row>
     <row r="144" spans="1:23" ht="15.35">
       <c r="A144" s="288"/>
@@ -54904,7 +54904,7 @@
       <c r="S144" s="254" t="s">
         <v>463</v>
       </c>
-      <c r="T144" s="681" t="s">
+      <c r="T144" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U144" s="171" t="s">
@@ -54949,7 +54949,7 @@
       <c r="Q145" s="184"/>
       <c r="R145" s="184"/>
       <c r="S145" s="184"/>
-      <c r="T145" s="641"/>
+      <c r="T145" s="644"/>
       <c r="U145" s="171" t="s">
         <v>524</v>
       </c>
@@ -55141,32 +55141,32 @@
       </c>
     </row>
     <row r="157" spans="1:23" ht="14">
-      <c r="B157" s="686" t="s">
+      <c r="B157" s="700" t="s">
         <v>456</v>
       </c>
-      <c r="C157" s="687"/>
-      <c r="D157" s="687"/>
-      <c r="E157" s="687"/>
-      <c r="F157" s="687"/>
-      <c r="G157" s="687"/>
-      <c r="H157" s="687"/>
-      <c r="I157" s="687"/>
-      <c r="J157" s="687"/>
-      <c r="K157" s="688" t="s">
+      <c r="C157" s="684"/>
+      <c r="D157" s="684"/>
+      <c r="E157" s="684"/>
+      <c r="F157" s="684"/>
+      <c r="G157" s="684"/>
+      <c r="H157" s="684"/>
+      <c r="I157" s="684"/>
+      <c r="J157" s="684"/>
+      <c r="K157" s="683" t="s">
         <v>911</v>
       </c>
-      <c r="L157" s="687"/>
-      <c r="M157" s="687"/>
-      <c r="N157" s="687"/>
-      <c r="O157" s="687"/>
-      <c r="P157" s="687"/>
-      <c r="Q157" s="687"/>
-      <c r="R157" s="687"/>
-      <c r="S157" s="687"/>
-      <c r="T157" s="687"/>
-      <c r="U157" s="687"/>
-      <c r="V157" s="687"/>
-      <c r="W157" s="687"/>
+      <c r="L157" s="684"/>
+      <c r="M157" s="684"/>
+      <c r="N157" s="684"/>
+      <c r="O157" s="684"/>
+      <c r="P157" s="684"/>
+      <c r="Q157" s="684"/>
+      <c r="R157" s="684"/>
+      <c r="S157" s="684"/>
+      <c r="T157" s="684"/>
+      <c r="U157" s="684"/>
+      <c r="V157" s="684"/>
+      <c r="W157" s="684"/>
     </row>
     <row r="158" spans="1:23" ht="14">
       <c r="A158" s="253">
@@ -55202,12 +55202,12 @@
       </c>
       <c r="R158" s="678"/>
       <c r="S158" s="678"/>
-      <c r="T158" s="679" t="s">
+      <c r="T158" s="692" t="s">
         <v>519</v>
       </c>
-      <c r="U158" s="680"/>
-      <c r="V158" s="680"/>
-      <c r="W158" s="680"/>
+      <c r="U158" s="693"/>
+      <c r="V158" s="693"/>
+      <c r="W158" s="693"/>
     </row>
     <row r="159" spans="1:23" ht="15.35">
       <c r="A159" s="288"/>
@@ -55265,7 +55265,7 @@
       <c r="S159" s="258" t="s">
         <v>914</v>
       </c>
-      <c r="T159" s="681" t="s">
+      <c r="T159" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U159" s="171" t="s">
@@ -55310,7 +55310,7 @@
       <c r="Q160" s="321"/>
       <c r="R160" s="275"/>
       <c r="S160" s="275"/>
-      <c r="T160" s="641"/>
+      <c r="T160" s="644"/>
       <c r="U160" s="171"/>
       <c r="V160" s="266"/>
       <c r="W160" s="266"/>
@@ -55347,7 +55347,7 @@
       <c r="Q161" s="184"/>
       <c r="R161" s="188"/>
       <c r="S161" s="188"/>
-      <c r="T161" s="641"/>
+      <c r="T161" s="644"/>
       <c r="U161" s="171" t="s">
         <v>524</v>
       </c>
@@ -55548,32 +55548,32 @@
     </row>
     <row r="172" spans="1:23" ht="14">
       <c r="A172" s="293"/>
-      <c r="B172" s="684" t="s">
+      <c r="B172" s="695" t="s">
         <v>456</v>
       </c>
-      <c r="C172" s="641"/>
-      <c r="D172" s="641"/>
-      <c r="E172" s="641"/>
-      <c r="F172" s="641"/>
-      <c r="G172" s="641"/>
-      <c r="H172" s="641"/>
-      <c r="I172" s="641"/>
-      <c r="J172" s="641"/>
-      <c r="K172" s="685" t="s">
+      <c r="C172" s="644"/>
+      <c r="D172" s="644"/>
+      <c r="E172" s="644"/>
+      <c r="F172" s="644"/>
+      <c r="G172" s="644"/>
+      <c r="H172" s="644"/>
+      <c r="I172" s="644"/>
+      <c r="J172" s="644"/>
+      <c r="K172" s="694" t="s">
         <v>911</v>
       </c>
-      <c r="L172" s="641"/>
-      <c r="M172" s="641"/>
-      <c r="N172" s="641"/>
-      <c r="O172" s="641"/>
-      <c r="P172" s="641"/>
-      <c r="Q172" s="641"/>
-      <c r="R172" s="641"/>
-      <c r="S172" s="641"/>
-      <c r="T172" s="641"/>
-      <c r="U172" s="641"/>
-      <c r="V172" s="641"/>
-      <c r="W172" s="641"/>
+      <c r="L172" s="644"/>
+      <c r="M172" s="644"/>
+      <c r="N172" s="644"/>
+      <c r="O172" s="644"/>
+      <c r="P172" s="644"/>
+      <c r="Q172" s="644"/>
+      <c r="R172" s="644"/>
+      <c r="S172" s="644"/>
+      <c r="T172" s="644"/>
+      <c r="U172" s="644"/>
+      <c r="V172" s="644"/>
+      <c r="W172" s="644"/>
     </row>
     <row r="173" spans="1:23" ht="14">
       <c r="A173" s="293"/>
@@ -55607,12 +55607,12 @@
       </c>
       <c r="R173" s="678"/>
       <c r="S173" s="678"/>
-      <c r="T173" s="679" t="s">
+      <c r="T173" s="692" t="s">
         <v>519</v>
       </c>
-      <c r="U173" s="680"/>
-      <c r="V173" s="680"/>
-      <c r="W173" s="680"/>
+      <c r="U173" s="693"/>
+      <c r="V173" s="693"/>
+      <c r="W173" s="693"/>
     </row>
     <row r="174" spans="1:23" ht="15.35">
       <c r="A174" s="293"/>
@@ -55670,7 +55670,7 @@
       <c r="S174" s="258" t="s">
         <v>914</v>
       </c>
-      <c r="T174" s="681" t="s">
+      <c r="T174" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U174" s="171" t="s">
@@ -55715,7 +55715,7 @@
       <c r="Q175" s="184"/>
       <c r="R175" s="188"/>
       <c r="S175" s="188"/>
-      <c r="T175" s="641"/>
+      <c r="T175" s="644"/>
       <c r="U175" s="171" t="s">
         <v>524</v>
       </c>
@@ -57861,50 +57861,39 @@
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="B143:D143"/>
-    <mergeCell ref="E143:G143"/>
-    <mergeCell ref="H143:J143"/>
-    <mergeCell ref="K143:M143"/>
-    <mergeCell ref="N143:P143"/>
-    <mergeCell ref="Q143:S143"/>
-    <mergeCell ref="K108:M108"/>
-    <mergeCell ref="H108:J108"/>
-    <mergeCell ref="E108:G108"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="Q129:S129"/>
-    <mergeCell ref="B129:D129"/>
-    <mergeCell ref="E129:G129"/>
-    <mergeCell ref="H129:J129"/>
-    <mergeCell ref="K129:M129"/>
-    <mergeCell ref="N129:P129"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="K3:W3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="K23:W23"/>
-    <mergeCell ref="B44:J44"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="T45:W45"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="B173:D173"/>
+    <mergeCell ref="E173:G173"/>
+    <mergeCell ref="H173:J173"/>
+    <mergeCell ref="K173:M173"/>
+    <mergeCell ref="N173:P173"/>
+    <mergeCell ref="Q173:S173"/>
+    <mergeCell ref="T173:W173"/>
+    <mergeCell ref="T174:T175"/>
+    <mergeCell ref="T159:T161"/>
+    <mergeCell ref="B158:D158"/>
+    <mergeCell ref="E158:G158"/>
+    <mergeCell ref="H158:J158"/>
+    <mergeCell ref="K158:M158"/>
+    <mergeCell ref="N158:P158"/>
+    <mergeCell ref="Q158:S158"/>
+    <mergeCell ref="T158:W158"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B172:J172"/>
+    <mergeCell ref="K172:W172"/>
+    <mergeCell ref="T129:W129"/>
+    <mergeCell ref="T130:T131"/>
+    <mergeCell ref="K128:W128"/>
+    <mergeCell ref="B142:J142"/>
+    <mergeCell ref="T143:W143"/>
+    <mergeCell ref="T144:T145"/>
+    <mergeCell ref="K142:W142"/>
+    <mergeCell ref="B157:J157"/>
+    <mergeCell ref="K157:W157"/>
+    <mergeCell ref="T46:T47"/>
+    <mergeCell ref="K44:W44"/>
+    <mergeCell ref="B62:J62"/>
+    <mergeCell ref="T63:W63"/>
+    <mergeCell ref="T64:T65"/>
     <mergeCell ref="K62:W62"/>
     <mergeCell ref="B85:J85"/>
     <mergeCell ref="B107:J107"/>
@@ -57929,39 +57918,50 @@
     <mergeCell ref="H86:J86"/>
     <mergeCell ref="E86:G86"/>
     <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B158:D158"/>
-    <mergeCell ref="E158:G158"/>
-    <mergeCell ref="H158:J158"/>
-    <mergeCell ref="K158:M158"/>
-    <mergeCell ref="N158:P158"/>
-    <mergeCell ref="Q158:S158"/>
-    <mergeCell ref="T158:W158"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B172:J172"/>
-    <mergeCell ref="K172:W172"/>
-    <mergeCell ref="T129:W129"/>
-    <mergeCell ref="T130:T131"/>
-    <mergeCell ref="K128:W128"/>
-    <mergeCell ref="B142:J142"/>
-    <mergeCell ref="T143:W143"/>
-    <mergeCell ref="T144:T145"/>
-    <mergeCell ref="K142:W142"/>
-    <mergeCell ref="B157:J157"/>
-    <mergeCell ref="K157:W157"/>
-    <mergeCell ref="T46:T47"/>
-    <mergeCell ref="K44:W44"/>
-    <mergeCell ref="B62:J62"/>
-    <mergeCell ref="T63:W63"/>
-    <mergeCell ref="T64:T65"/>
-    <mergeCell ref="B173:D173"/>
-    <mergeCell ref="E173:G173"/>
-    <mergeCell ref="H173:J173"/>
-    <mergeCell ref="K173:M173"/>
-    <mergeCell ref="N173:P173"/>
-    <mergeCell ref="Q173:S173"/>
-    <mergeCell ref="T173:W173"/>
-    <mergeCell ref="T174:T175"/>
-    <mergeCell ref="T159:T161"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="K23:W23"/>
+    <mergeCell ref="B44:J44"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="T45:W45"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="K3:W3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="B143:D143"/>
+    <mergeCell ref="E143:G143"/>
+    <mergeCell ref="H143:J143"/>
+    <mergeCell ref="K143:M143"/>
+    <mergeCell ref="N143:P143"/>
+    <mergeCell ref="Q143:S143"/>
+    <mergeCell ref="K108:M108"/>
+    <mergeCell ref="H108:J108"/>
+    <mergeCell ref="E108:G108"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="Q129:S129"/>
+    <mergeCell ref="B129:D129"/>
+    <mergeCell ref="E129:G129"/>
+    <mergeCell ref="H129:J129"/>
+    <mergeCell ref="K129:M129"/>
+    <mergeCell ref="N129:P129"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -58002,31 +58002,31 @@
       <c r="A2" s="196" t="s">
         <v>455</v>
       </c>
-      <c r="B2" s="707" t="s">
+      <c r="B2" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C2" s="708"/>
-      <c r="D2" s="708"/>
-      <c r="E2" s="709" t="s">
+      <c r="C2" s="705"/>
+      <c r="D2" s="705"/>
+      <c r="E2" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F2" s="698"/>
-      <c r="G2" s="698"/>
+      <c r="F2" s="688"/>
+      <c r="G2" s="688"/>
     </row>
     <row r="3" spans="1:7" ht="14">
       <c r="A3" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B3" s="710" t="s">
+      <c r="B3" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C3" s="693"/>
-      <c r="D3" s="693"/>
-      <c r="E3" s="711" t="s">
+      <c r="C3" s="686"/>
+      <c r="D3" s="686"/>
+      <c r="E3" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F3" s="693"/>
-      <c r="G3" s="693"/>
+      <c r="F3" s="686"/>
+      <c r="G3" s="686"/>
     </row>
     <row r="4" spans="1:7" ht="15.35">
       <c r="A4" s="197"/>
@@ -58163,31 +58163,31 @@
       <c r="A13" s="196" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="707" t="s">
+      <c r="B13" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C13" s="708"/>
-      <c r="D13" s="708"/>
-      <c r="E13" s="709" t="s">
+      <c r="C13" s="705"/>
+      <c r="D13" s="705"/>
+      <c r="E13" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F13" s="698"/>
-      <c r="G13" s="698"/>
+      <c r="F13" s="688"/>
+      <c r="G13" s="688"/>
     </row>
     <row r="14" spans="1:7" ht="14">
       <c r="A14" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B14" s="710" t="s">
+      <c r="B14" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C14" s="693"/>
-      <c r="D14" s="693"/>
-      <c r="E14" s="711" t="s">
+      <c r="C14" s="686"/>
+      <c r="D14" s="686"/>
+      <c r="E14" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F14" s="693"/>
-      <c r="G14" s="693"/>
+      <c r="F14" s="686"/>
+      <c r="G14" s="686"/>
     </row>
     <row r="15" spans="1:7" ht="15.35">
       <c r="A15" s="197"/>
@@ -58342,31 +58342,31 @@
       <c r="A24" s="196" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="707" t="s">
+      <c r="B24" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C24" s="708"/>
-      <c r="D24" s="708"/>
-      <c r="E24" s="709" t="s">
+      <c r="C24" s="705"/>
+      <c r="D24" s="705"/>
+      <c r="E24" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F24" s="698"/>
-      <c r="G24" s="698"/>
+      <c r="F24" s="688"/>
+      <c r="G24" s="688"/>
     </row>
     <row r="25" spans="1:7" ht="14">
       <c r="A25" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B25" s="710" t="s">
+      <c r="B25" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C25" s="693"/>
-      <c r="D25" s="693"/>
-      <c r="E25" s="711" t="s">
+      <c r="C25" s="686"/>
+      <c r="D25" s="686"/>
+      <c r="E25" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F25" s="693"/>
-      <c r="G25" s="693"/>
+      <c r="F25" s="686"/>
+      <c r="G25" s="686"/>
     </row>
     <row r="26" spans="1:7" ht="15.35">
       <c r="A26" s="197"/>
@@ -58503,31 +58503,31 @@
       <c r="A35" s="196" t="s">
         <v>92</v>
       </c>
-      <c r="B35" s="707" t="s">
+      <c r="B35" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C35" s="708"/>
-      <c r="D35" s="708"/>
-      <c r="E35" s="709" t="s">
+      <c r="C35" s="705"/>
+      <c r="D35" s="705"/>
+      <c r="E35" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F35" s="698"/>
-      <c r="G35" s="698"/>
+      <c r="F35" s="688"/>
+      <c r="G35" s="688"/>
     </row>
     <row r="36" spans="1:8" ht="25.35">
       <c r="A36" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B36" s="710" t="s">
+      <c r="B36" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C36" s="693"/>
-      <c r="D36" s="693"/>
-      <c r="E36" s="711" t="s">
+      <c r="C36" s="686"/>
+      <c r="D36" s="686"/>
+      <c r="E36" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F36" s="693"/>
-      <c r="G36" s="693"/>
+      <c r="F36" s="686"/>
+      <c r="G36" s="686"/>
     </row>
     <row r="37" spans="1:8" ht="15.35">
       <c r="B37" s="198" t="s">
@@ -58659,31 +58659,31 @@
       <c r="A48" s="196" t="s">
         <v>99</v>
       </c>
-      <c r="B48" s="707" t="s">
+      <c r="B48" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C48" s="708"/>
-      <c r="D48" s="708"/>
-      <c r="E48" s="709" t="s">
+      <c r="C48" s="705"/>
+      <c r="D48" s="705"/>
+      <c r="E48" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F48" s="698"/>
-      <c r="G48" s="698"/>
+      <c r="F48" s="688"/>
+      <c r="G48" s="688"/>
     </row>
     <row r="49" spans="1:8" ht="25.35">
       <c r="A49" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B49" s="710" t="s">
+      <c r="B49" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C49" s="693"/>
-      <c r="D49" s="693"/>
-      <c r="E49" s="711" t="s">
+      <c r="C49" s="686"/>
+      <c r="D49" s="686"/>
+      <c r="E49" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F49" s="693"/>
-      <c r="G49" s="693"/>
+      <c r="F49" s="686"/>
+      <c r="G49" s="686"/>
     </row>
     <row r="50" spans="1:8" ht="15.35">
       <c r="B50" s="198" t="s">
@@ -58815,31 +58815,31 @@
       <c r="A62" s="196" t="s">
         <v>104</v>
       </c>
-      <c r="B62" s="707" t="s">
+      <c r="B62" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C62" s="708"/>
-      <c r="D62" s="708"/>
-      <c r="E62" s="709" t="s">
+      <c r="C62" s="705"/>
+      <c r="D62" s="705"/>
+      <c r="E62" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F62" s="698"/>
-      <c r="G62" s="698"/>
+      <c r="F62" s="688"/>
+      <c r="G62" s="688"/>
     </row>
     <row r="63" spans="1:8" ht="25.35">
       <c r="A63" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B63" s="710" t="s">
+      <c r="B63" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C63" s="693"/>
-      <c r="D63" s="693"/>
-      <c r="E63" s="711" t="s">
+      <c r="C63" s="686"/>
+      <c r="D63" s="686"/>
+      <c r="E63" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F63" s="693"/>
-      <c r="G63" s="693"/>
+      <c r="F63" s="686"/>
+      <c r="G63" s="686"/>
     </row>
     <row r="64" spans="1:8" ht="15.35">
       <c r="B64" s="198" t="s">
@@ -58964,31 +58964,31 @@
       <c r="A79" s="191" t="s">
         <v>91</v>
       </c>
-      <c r="B79" s="707" t="s">
+      <c r="B79" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C79" s="708"/>
-      <c r="D79" s="708"/>
-      <c r="E79" s="709" t="s">
+      <c r="C79" s="705"/>
+      <c r="D79" s="705"/>
+      <c r="E79" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F79" s="698"/>
-      <c r="G79" s="698"/>
+      <c r="F79" s="688"/>
+      <c r="G79" s="688"/>
     </row>
     <row r="80" spans="1:9" ht="27.35">
       <c r="A80" s="196" t="s">
         <v>114</v>
       </c>
-      <c r="B80" s="710" t="s">
+      <c r="B80" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C80" s="693"/>
-      <c r="D80" s="693"/>
-      <c r="E80" s="711" t="s">
+      <c r="C80" s="686"/>
+      <c r="D80" s="686"/>
+      <c r="E80" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F80" s="693"/>
-      <c r="G80" s="693"/>
+      <c r="F80" s="686"/>
+      <c r="G80" s="686"/>
     </row>
     <row r="81" spans="1:7" ht="25.35">
       <c r="A81" s="10" t="s">
@@ -59126,31 +59126,31 @@
       <c r="A99" s="196" t="s">
         <v>119</v>
       </c>
-      <c r="B99" s="707" t="s">
+      <c r="B99" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C99" s="708"/>
-      <c r="D99" s="708"/>
-      <c r="E99" s="709" t="s">
+      <c r="C99" s="705"/>
+      <c r="D99" s="705"/>
+      <c r="E99" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F99" s="698"/>
-      <c r="G99" s="698"/>
+      <c r="F99" s="688"/>
+      <c r="G99" s="688"/>
     </row>
     <row r="100" spans="1:7" ht="14">
       <c r="A100" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B100" s="710" t="s">
+      <c r="B100" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C100" s="693"/>
-      <c r="D100" s="693"/>
-      <c r="E100" s="711" t="s">
+      <c r="C100" s="686"/>
+      <c r="D100" s="686"/>
+      <c r="E100" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F100" s="693"/>
-      <c r="G100" s="693"/>
+      <c r="F100" s="686"/>
+      <c r="G100" s="686"/>
     </row>
     <row r="101" spans="1:7" ht="15.35">
       <c r="A101" s="197"/>
@@ -59308,31 +59308,31 @@
       <c r="A112" s="196" t="s">
         <v>146</v>
       </c>
-      <c r="B112" s="707" t="s">
+      <c r="B112" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C112" s="708"/>
-      <c r="D112" s="708"/>
-      <c r="E112" s="709" t="s">
+      <c r="C112" s="705"/>
+      <c r="D112" s="705"/>
+      <c r="E112" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F112" s="698"/>
-      <c r="G112" s="698"/>
+      <c r="F112" s="688"/>
+      <c r="G112" s="688"/>
     </row>
     <row r="113" spans="1:7" ht="14">
       <c r="A113" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B113" s="710" t="s">
+      <c r="B113" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C113" s="693"/>
-      <c r="D113" s="693"/>
-      <c r="E113" s="711" t="s">
+      <c r="C113" s="686"/>
+      <c r="D113" s="686"/>
+      <c r="E113" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F113" s="693"/>
-      <c r="G113" s="693"/>
+      <c r="F113" s="686"/>
+      <c r="G113" s="686"/>
     </row>
     <row r="114" spans="1:7" ht="15.35">
       <c r="A114" s="197"/>
@@ -59461,31 +59461,31 @@
       <c r="A123" s="196" t="s">
         <v>163</v>
       </c>
-      <c r="B123" s="702" t="s">
+      <c r="B123" s="713" t="s">
         <v>456</v>
       </c>
-      <c r="C123" s="703"/>
-      <c r="D123" s="703"/>
-      <c r="E123" s="704" t="s">
+      <c r="C123" s="714"/>
+      <c r="D123" s="714"/>
+      <c r="E123" s="715" t="s">
         <v>457</v>
       </c>
-      <c r="F123" s="705"/>
-      <c r="G123" s="705"/>
+      <c r="F123" s="716"/>
+      <c r="G123" s="716"/>
     </row>
     <row r="124" spans="1:7" ht="14.35">
       <c r="A124" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B124" s="714" t="s">
+      <c r="B124" s="709" t="s">
         <v>459</v>
       </c>
-      <c r="C124" s="715"/>
-      <c r="D124" s="715"/>
-      <c r="E124" s="716" t="s">
+      <c r="C124" s="710"/>
+      <c r="D124" s="710"/>
+      <c r="E124" s="711" t="s">
         <v>460</v>
       </c>
-      <c r="F124" s="717"/>
-      <c r="G124" s="717"/>
+      <c r="F124" s="712"/>
+      <c r="G124" s="712"/>
     </row>
     <row r="125" spans="1:7" ht="14.35">
       <c r="A125" s="197"/>
@@ -59675,31 +59675,31 @@
       <c r="A136" s="196" t="s">
         <v>167</v>
       </c>
-      <c r="B136" s="707" t="s">
+      <c r="B136" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C136" s="708"/>
-      <c r="D136" s="708"/>
-      <c r="E136" s="709" t="s">
+      <c r="C136" s="705"/>
+      <c r="D136" s="705"/>
+      <c r="E136" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F136" s="712"/>
-      <c r="G136" s="712"/>
+      <c r="F136" s="707"/>
+      <c r="G136" s="707"/>
     </row>
     <row r="137" spans="1:7" ht="14">
       <c r="A137" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B137" s="707" t="s">
+      <c r="B137" s="704" t="s">
         <v>459</v>
       </c>
-      <c r="C137" s="712"/>
-      <c r="D137" s="713"/>
-      <c r="E137" s="709" t="s">
+      <c r="C137" s="707"/>
+      <c r="D137" s="708"/>
+      <c r="E137" s="706" t="s">
         <v>460</v>
       </c>
-      <c r="F137" s="712"/>
-      <c r="G137" s="712"/>
+      <c r="F137" s="707"/>
+      <c r="G137" s="707"/>
     </row>
     <row r="138" spans="1:7" ht="15.35">
       <c r="A138" s="197"/>
@@ -59843,31 +59843,31 @@
       <c r="A152" s="196" t="s">
         <v>186</v>
       </c>
-      <c r="B152" s="702" t="s">
+      <c r="B152" s="713" t="s">
         <v>456</v>
       </c>
-      <c r="C152" s="703"/>
-      <c r="D152" s="703"/>
-      <c r="E152" s="704" t="s">
+      <c r="C152" s="714"/>
+      <c r="D152" s="714"/>
+      <c r="E152" s="715" t="s">
         <v>457</v>
       </c>
-      <c r="F152" s="705"/>
-      <c r="G152" s="705"/>
+      <c r="F152" s="716"/>
+      <c r="G152" s="716"/>
     </row>
     <row r="153" spans="1:7" ht="21" customHeight="1">
       <c r="A153" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B153" s="702" t="s">
+      <c r="B153" s="713" t="s">
         <v>459</v>
       </c>
-      <c r="C153" s="703"/>
-      <c r="D153" s="703"/>
-      <c r="E153" s="704" t="s">
+      <c r="C153" s="714"/>
+      <c r="D153" s="714"/>
+      <c r="E153" s="715" t="s">
         <v>460</v>
       </c>
-      <c r="F153" s="705"/>
-      <c r="G153" s="705"/>
+      <c r="F153" s="716"/>
+      <c r="G153" s="716"/>
     </row>
     <row r="154" spans="1:7" ht="14.35">
       <c r="B154" s="220" t="s">
@@ -60143,31 +60143,31 @@
       <c r="A171" s="196" t="s">
         <v>208</v>
       </c>
-      <c r="B171" s="702" t="s">
+      <c r="B171" s="713" t="s">
         <v>456</v>
       </c>
-      <c r="C171" s="703"/>
-      <c r="D171" s="703"/>
-      <c r="E171" s="704" t="s">
+      <c r="C171" s="714"/>
+      <c r="D171" s="714"/>
+      <c r="E171" s="715" t="s">
         <v>457</v>
       </c>
-      <c r="F171" s="705"/>
-      <c r="G171" s="705"/>
+      <c r="F171" s="716"/>
+      <c r="G171" s="716"/>
     </row>
     <row r="172" spans="1:7" ht="27.35">
       <c r="A172" s="197" t="s">
         <v>476</v>
       </c>
-      <c r="B172" s="702" t="s">
+      <c r="B172" s="713" t="s">
         <v>459</v>
       </c>
-      <c r="C172" s="703"/>
-      <c r="D172" s="703"/>
-      <c r="E172" s="704" t="s">
+      <c r="C172" s="714"/>
+      <c r="D172" s="714"/>
+      <c r="E172" s="715" t="s">
         <v>460</v>
       </c>
-      <c r="F172" s="705"/>
-      <c r="G172" s="705"/>
+      <c r="F172" s="716"/>
+      <c r="G172" s="716"/>
     </row>
     <row r="173" spans="1:7" ht="14.35">
       <c r="A173" s="201"/>
@@ -60443,31 +60443,31 @@
       <c r="A190" s="196" t="s">
         <v>210</v>
       </c>
-      <c r="B190" s="702" t="s">
+      <c r="B190" s="713" t="s">
         <v>456</v>
       </c>
-      <c r="C190" s="703"/>
-      <c r="D190" s="703"/>
-      <c r="E190" s="704" t="s">
+      <c r="C190" s="714"/>
+      <c r="D190" s="714"/>
+      <c r="E190" s="715" t="s">
         <v>457</v>
       </c>
-      <c r="F190" s="705"/>
-      <c r="G190" s="705"/>
+      <c r="F190" s="716"/>
+      <c r="G190" s="716"/>
     </row>
     <row r="191" spans="1:7" ht="25.35">
       <c r="A191" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B191" s="702" t="s">
+      <c r="B191" s="713" t="s">
         <v>459</v>
       </c>
-      <c r="C191" s="703"/>
-      <c r="D191" s="703"/>
-      <c r="E191" s="704" t="s">
+      <c r="C191" s="714"/>
+      <c r="D191" s="714"/>
+      <c r="E191" s="715" t="s">
         <v>460</v>
       </c>
-      <c r="F191" s="705"/>
-      <c r="G191" s="705"/>
+      <c r="F191" s="716"/>
+      <c r="G191" s="716"/>
     </row>
     <row r="192" spans="1:7" ht="14.35">
       <c r="B192" s="220" t="s">
@@ -60721,31 +60721,31 @@
       <c r="A208" s="196" t="s">
         <v>215</v>
       </c>
-      <c r="B208" s="702" t="s">
+      <c r="B208" s="713" t="s">
         <v>456</v>
       </c>
-      <c r="C208" s="703"/>
-      <c r="D208" s="703"/>
-      <c r="E208" s="704" t="s">
+      <c r="C208" s="714"/>
+      <c r="D208" s="714"/>
+      <c r="E208" s="715" t="s">
         <v>457</v>
       </c>
-      <c r="F208" s="705"/>
-      <c r="G208" s="705"/>
+      <c r="F208" s="716"/>
+      <c r="G208" s="716"/>
     </row>
     <row r="209" spans="1:7" ht="25.35">
       <c r="A209" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B209" s="702" t="s">
+      <c r="B209" s="713" t="s">
         <v>459</v>
       </c>
-      <c r="C209" s="703"/>
-      <c r="D209" s="703"/>
-      <c r="E209" s="704" t="s">
+      <c r="C209" s="714"/>
+      <c r="D209" s="714"/>
+      <c r="E209" s="715" t="s">
         <v>460</v>
       </c>
-      <c r="F209" s="705"/>
-      <c r="G209" s="705"/>
+      <c r="F209" s="716"/>
+      <c r="G209" s="716"/>
     </row>
     <row r="210" spans="1:7" ht="14.35">
       <c r="B210" s="220" t="s">
@@ -61009,31 +61009,31 @@
       <c r="A226" s="196" t="s">
         <v>218</v>
       </c>
-      <c r="B226" s="702" t="s">
+      <c r="B226" s="713" t="s">
         <v>456</v>
       </c>
-      <c r="C226" s="703"/>
-      <c r="D226" s="703"/>
-      <c r="E226" s="704" t="s">
+      <c r="C226" s="714"/>
+      <c r="D226" s="714"/>
+      <c r="E226" s="715" t="s">
         <v>457</v>
       </c>
-      <c r="F226" s="706"/>
-      <c r="G226" s="706"/>
+      <c r="F226" s="717"/>
+      <c r="G226" s="717"/>
     </row>
     <row r="227" spans="1:7" ht="27.35">
       <c r="A227" s="197" t="s">
         <v>476</v>
       </c>
-      <c r="B227" s="702" t="s">
+      <c r="B227" s="713" t="s">
         <v>459</v>
       </c>
-      <c r="C227" s="641"/>
-      <c r="D227" s="641"/>
-      <c r="E227" s="704" t="s">
+      <c r="C227" s="644"/>
+      <c r="D227" s="644"/>
+      <c r="E227" s="715" t="s">
         <v>460</v>
       </c>
-      <c r="F227" s="706"/>
-      <c r="G227" s="706"/>
+      <c r="F227" s="717"/>
+      <c r="G227" s="717"/>
     </row>
     <row r="228" spans="1:7" ht="14.35">
       <c r="A228" s="197"/>
@@ -61231,31 +61231,31 @@
       <c r="A240" s="196" t="s">
         <v>223</v>
       </c>
-      <c r="B240" s="702" t="s">
+      <c r="B240" s="713" t="s">
         <v>456</v>
       </c>
-      <c r="C240" s="703"/>
-      <c r="D240" s="703"/>
-      <c r="E240" s="704" t="s">
+      <c r="C240" s="714"/>
+      <c r="D240" s="714"/>
+      <c r="E240" s="715" t="s">
         <v>457</v>
       </c>
-      <c r="F240" s="706"/>
-      <c r="G240" s="706"/>
+      <c r="F240" s="717"/>
+      <c r="G240" s="717"/>
     </row>
     <row r="241" spans="1:7" ht="27.35">
       <c r="A241" s="197" t="s">
         <v>476</v>
       </c>
-      <c r="B241" s="702" t="s">
+      <c r="B241" s="713" t="s">
         <v>459</v>
       </c>
-      <c r="C241" s="641"/>
-      <c r="D241" s="641"/>
-      <c r="E241" s="704" t="s">
+      <c r="C241" s="644"/>
+      <c r="D241" s="644"/>
+      <c r="E241" s="715" t="s">
         <v>460</v>
       </c>
-      <c r="F241" s="706"/>
-      <c r="G241" s="706"/>
+      <c r="F241" s="717"/>
+      <c r="G241" s="717"/>
     </row>
     <row r="242" spans="1:7" ht="14.35">
       <c r="A242" s="197"/>
@@ -61514,50 +61514,14 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="B137:D137"/>
-    <mergeCell ref="E137:G137"/>
-    <mergeCell ref="B124:D124"/>
-    <mergeCell ref="E124:G124"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="E112:G112"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="E113:G113"/>
-    <mergeCell ref="B136:D136"/>
-    <mergeCell ref="E136:G136"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="B123:D123"/>
-    <mergeCell ref="E123:G123"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="B152:D152"/>
+    <mergeCell ref="E152:G152"/>
+    <mergeCell ref="B153:D153"/>
+    <mergeCell ref="E153:G153"/>
+    <mergeCell ref="B172:D172"/>
+    <mergeCell ref="E172:G172"/>
+    <mergeCell ref="B171:D171"/>
+    <mergeCell ref="E171:G171"/>
     <mergeCell ref="B190:D190"/>
     <mergeCell ref="E190:G190"/>
     <mergeCell ref="B191:D191"/>
@@ -61574,14 +61538,50 @@
     <mergeCell ref="E227:G227"/>
     <mergeCell ref="B240:D240"/>
     <mergeCell ref="E240:G240"/>
-    <mergeCell ref="B152:D152"/>
-    <mergeCell ref="E152:G152"/>
-    <mergeCell ref="B153:D153"/>
-    <mergeCell ref="E153:G153"/>
-    <mergeCell ref="B172:D172"/>
-    <mergeCell ref="E172:G172"/>
-    <mergeCell ref="B171:D171"/>
-    <mergeCell ref="E171:G171"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="B137:D137"/>
+    <mergeCell ref="E137:G137"/>
+    <mergeCell ref="B124:D124"/>
+    <mergeCell ref="E124:G124"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="E112:G112"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="E113:G113"/>
+    <mergeCell ref="B136:D136"/>
+    <mergeCell ref="E136:G136"/>
+    <mergeCell ref="B123:D123"/>
+    <mergeCell ref="E123:G123"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -62324,9 +62324,9 @@
       <c r="A1" s="722" t="s">
         <v>448</v>
       </c>
-      <c r="B1" s="698"/>
-      <c r="C1" s="698"/>
-      <c r="D1" s="698"/>
+      <c r="B1" s="688"/>
+      <c r="C1" s="688"/>
+      <c r="D1" s="688"/>
       <c r="E1" s="723" t="s">
         <v>449</v>
       </c>

--- a/microgrid_base/设备信息库各参数.xlsx
+++ b/microgrid_base/设备信息库各参数.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\works\jubilant-adventure2\microgrid_base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B87B90E-F606-456E-8E34-CEFCE5AE6FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF23D637-00B5-424E-875F-B78AD39A6A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="8180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6555,7 +6555,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6564,54 +6564,29 @@
     <xf numFmtId="0" fontId="65" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="67" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6626,13 +6601,47 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6650,17 +6659,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6679,8 +6679,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6689,17 +6726,8 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6713,35 +6741,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6771,15 +6780,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -8843,7 +8843,7 @@
       <c r="C15" s="370">
         <v>560</v>
       </c>
-      <c r="D15" s="635"/>
+      <c r="D15" s="644"/>
       <c r="E15" s="365"/>
       <c r="F15" s="363"/>
       <c r="G15" s="363"/>
@@ -8924,7 +8924,7 @@
       <c r="B21" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="638"/>
+      <c r="C21" s="639"/>
       <c r="D21" s="363"/>
       <c r="E21" s="363"/>
       <c r="F21" s="363"/>
@@ -9205,7 +9205,7 @@
       <c r="C41" s="375">
         <v>560</v>
       </c>
-      <c r="D41" s="639"/>
+      <c r="D41" s="635"/>
       <c r="E41" s="366"/>
       <c r="F41" s="363"/>
       <c r="G41" s="363"/>
@@ -9286,7 +9286,7 @@
       <c r="B47" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="638"/>
+      <c r="C47" s="639"/>
       <c r="D47" s="363"/>
       <c r="E47" s="363"/>
       <c r="F47" s="363"/>
@@ -9621,7 +9621,7 @@
       <c r="C71" s="370">
         <v>560</v>
       </c>
-      <c r="D71" s="639"/>
+      <c r="D71" s="635"/>
       <c r="E71" s="363"/>
       <c r="F71" s="363"/>
       <c r="G71" s="363"/>
@@ -9702,7 +9702,7 @@
       <c r="B77" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C77" s="638"/>
+      <c r="C77" s="639"/>
       <c r="D77" s="363"/>
       <c r="E77" s="363"/>
       <c r="F77" s="363"/>
@@ -9876,10 +9876,10 @@
       </c>
       <c r="E91" s="363"/>
       <c r="F91" s="363"/>
-      <c r="G91" s="640" t="s">
+      <c r="G91" s="642" t="s">
         <v>59</v>
       </c>
-      <c r="H91" s="641"/>
+      <c r="H91" s="643"/>
     </row>
     <row r="92" spans="1:8" ht="14.35">
       <c r="A92" s="363"/>
@@ -10007,7 +10007,7 @@
       <c r="C99" s="370">
         <v>560</v>
       </c>
-      <c r="D99" s="639"/>
+      <c r="D99" s="635"/>
       <c r="E99" s="363"/>
       <c r="F99" s="363"/>
       <c r="G99" s="363"/>
@@ -10088,7 +10088,7 @@
       <c r="B105" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C105" s="642"/>
+      <c r="C105" s="638"/>
       <c r="D105" s="363"/>
       <c r="E105" s="363"/>
       <c r="F105" s="363"/>
@@ -10387,7 +10387,7 @@
       <c r="C128" s="370">
         <v>560</v>
       </c>
-      <c r="D128" s="639"/>
+      <c r="D128" s="635"/>
       <c r="E128" s="363"/>
       <c r="F128" s="363"/>
       <c r="G128" s="363"/>
@@ -10468,7 +10468,7 @@
       <c r="B134" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C134" s="642"/>
+      <c r="C134" s="638"/>
       <c r="D134" s="363"/>
       <c r="E134" s="363"/>
       <c r="F134" s="363"/>
@@ -10741,7 +10741,7 @@
       <c r="C158" s="370">
         <v>560</v>
       </c>
-      <c r="D158" s="639"/>
+      <c r="D158" s="635"/>
       <c r="E158" s="363"/>
     </row>
     <row r="159" spans="1:8" ht="14.35">
@@ -10804,7 +10804,7 @@
       <c r="B164" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C164" s="642"/>
+      <c r="C164" s="638"/>
       <c r="D164" s="363"/>
       <c r="E164" s="363"/>
     </row>
@@ -10944,7 +10944,7 @@
       <c r="C179" s="375">
         <v>560</v>
       </c>
-      <c r="D179" s="639"/>
+      <c r="D179" s="635"/>
       <c r="E179" s="363"/>
       <c r="F179" s="363"/>
       <c r="G179" s="363"/>
@@ -11025,7 +11025,7 @@
       <c r="B185" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C185" s="638"/>
+      <c r="C185" s="639"/>
       <c r="D185" s="363"/>
       <c r="E185" s="363"/>
       <c r="F185" s="363"/>
@@ -11222,7 +11222,7 @@
       <c r="C201" s="375">
         <v>560</v>
       </c>
-      <c r="D201" s="639"/>
+      <c r="D201" s="635"/>
       <c r="E201" s="363"/>
       <c r="F201" s="363"/>
       <c r="G201" s="363"/>
@@ -11302,7 +11302,7 @@
       <c r="B207" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C207" s="638"/>
+      <c r="C207" s="639"/>
       <c r="D207" s="363"/>
       <c r="E207" s="363"/>
       <c r="F207" s="363"/>
@@ -11797,7 +11797,7 @@
       <c r="C242" s="370">
         <v>560</v>
       </c>
-      <c r="D242" s="639"/>
+      <c r="D242" s="635"/>
       <c r="E242" s="363"/>
       <c r="F242" s="363"/>
       <c r="G242" s="363"/>
@@ -11878,7 +11878,7 @@
       <c r="B248" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C248" s="642"/>
+      <c r="C248" s="638"/>
       <c r="D248" s="363"/>
       <c r="E248" s="363"/>
       <c r="F248" s="363"/>
@@ -12267,7 +12267,7 @@
       <c r="C278" s="370">
         <v>560</v>
       </c>
-      <c r="D278" s="639"/>
+      <c r="D278" s="635"/>
       <c r="E278" s="363"/>
       <c r="F278" s="363"/>
       <c r="G278" s="363"/>
@@ -12348,7 +12348,7 @@
       <c r="B284" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C284" s="642"/>
+      <c r="C284" s="638"/>
       <c r="D284" s="363"/>
       <c r="E284" s="363"/>
       <c r="F284" s="363"/>
@@ -12578,7 +12578,7 @@
       <c r="C304" s="370">
         <v>560</v>
       </c>
-      <c r="D304" s="639"/>
+      <c r="D304" s="635"/>
       <c r="E304" s="363"/>
       <c r="F304" s="363"/>
       <c r="G304" s="363"/>
@@ -12659,7 +12659,7 @@
       <c r="B310" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C310" s="642"/>
+      <c r="C310" s="638"/>
       <c r="D310" s="363"/>
       <c r="E310" s="363"/>
       <c r="F310" s="363"/>
@@ -12846,7 +12846,7 @@
       <c r="C327" s="370">
         <v>560</v>
       </c>
-      <c r="D327" s="639"/>
+      <c r="D327" s="635"/>
       <c r="E327" s="363"/>
       <c r="F327" s="363"/>
       <c r="G327" s="363"/>
@@ -12927,7 +12927,7 @@
       <c r="B333" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C333" s="642"/>
+      <c r="C333" s="638"/>
       <c r="D333" s="363"/>
       <c r="E333" s="363"/>
       <c r="F333" s="363"/>
@@ -13120,7 +13120,7 @@
       <c r="C349" s="370">
         <v>560</v>
       </c>
-      <c r="D349" s="639"/>
+      <c r="D349" s="635"/>
       <c r="F349" s="363"/>
       <c r="G349" s="363"/>
       <c r="H349" s="363"/>
@@ -13195,7 +13195,7 @@
       <c r="B355" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C355" s="642"/>
+      <c r="C355" s="638"/>
       <c r="D355" s="363"/>
       <c r="F355" s="363"/>
       <c r="G355" s="363"/>
@@ -13540,7 +13540,7 @@
       <c r="C383" s="370">
         <v>560</v>
       </c>
-      <c r="D383" s="639"/>
+      <c r="D383" s="635"/>
       <c r="E383" s="363"/>
       <c r="F383" s="363"/>
       <c r="G383" s="363"/>
@@ -13621,7 +13621,7 @@
       <c r="B389" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C389" s="642"/>
+      <c r="C389" s="638"/>
       <c r="D389" s="363"/>
       <c r="E389" s="363"/>
       <c r="F389" s="363"/>
@@ -13969,7 +13969,7 @@
       <c r="C418" s="370">
         <v>560</v>
       </c>
-      <c r="D418" s="639"/>
+      <c r="D418" s="635"/>
       <c r="E418" s="363"/>
       <c r="F418" s="363"/>
       <c r="G418" s="363"/>
@@ -14050,7 +14050,7 @@
       <c r="B424" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C424" s="642"/>
+      <c r="C424" s="638"/>
       <c r="D424" s="363"/>
       <c r="E424" s="363"/>
       <c r="F424" s="363"/>
@@ -14376,7 +14376,7 @@
       <c r="B451" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C451" s="642"/>
+      <c r="C451" s="638"/>
       <c r="D451" s="363"/>
       <c r="E451" s="363"/>
       <c r="F451" s="363"/>
@@ -14591,7 +14591,7 @@
       <c r="C469" s="370">
         <v>560</v>
       </c>
-      <c r="D469" s="639"/>
+      <c r="D469" s="635"/>
       <c r="E469" s="363"/>
       <c r="F469" s="363"/>
       <c r="G469" s="363"/>
@@ -14672,7 +14672,7 @@
       <c r="B475" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C475" s="642"/>
+      <c r="C475" s="638"/>
       <c r="D475" s="363"/>
       <c r="E475" s="363"/>
       <c r="F475" s="363"/>
@@ -14899,7 +14899,7 @@
       <c r="C494" s="370">
         <v>560</v>
       </c>
-      <c r="D494" s="639"/>
+      <c r="D494" s="635"/>
       <c r="E494" s="365" t="s">
         <v>684</v>
       </c>
@@ -14982,7 +14982,7 @@
       <c r="B500" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C500" s="642"/>
+      <c r="C500" s="638"/>
       <c r="D500" s="363"/>
       <c r="E500" s="363"/>
       <c r="F500" s="363"/>
@@ -15203,7 +15203,7 @@
       <c r="C519" s="370">
         <v>560</v>
       </c>
-      <c r="D519" s="639"/>
+      <c r="D519" s="635"/>
       <c r="E519" s="365" t="s">
         <v>686</v>
       </c>
@@ -15286,7 +15286,7 @@
       <c r="B525" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C525" s="642"/>
+      <c r="C525" s="638"/>
       <c r="D525" s="363"/>
       <c r="E525" s="363"/>
       <c r="F525" s="363"/>
@@ -15553,7 +15553,7 @@
       <c r="C547" s="370">
         <v>560</v>
       </c>
-      <c r="D547" s="639"/>
+      <c r="D547" s="635"/>
       <c r="E547" s="363"/>
       <c r="F547" s="363"/>
       <c r="G547" s="363"/>
@@ -15634,7 +15634,7 @@
       <c r="B553" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C553" s="642"/>
+      <c r="C553" s="638"/>
       <c r="D553" s="363"/>
       <c r="E553" s="363"/>
       <c r="F553" s="363"/>
@@ -15965,7 +15965,7 @@
       <c r="C580" s="370">
         <v>560</v>
       </c>
-      <c r="D580" s="639"/>
+      <c r="D580" s="635"/>
       <c r="E580" s="363"/>
       <c r="F580" s="363"/>
       <c r="G580" s="363"/>
@@ -16046,7 +16046,7 @@
       <c r="B586" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C586" s="642"/>
+      <c r="C586" s="638"/>
       <c r="D586" s="363"/>
       <c r="E586" s="363"/>
       <c r="F586" s="363"/>
@@ -16310,7 +16310,7 @@
       <c r="C608" s="370">
         <v>560</v>
       </c>
-      <c r="D608" s="639"/>
+      <c r="D608" s="635"/>
       <c r="E608" s="363"/>
       <c r="F608" s="363"/>
       <c r="G608" s="363"/>
@@ -16391,7 +16391,7 @@
       <c r="B614" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C614" s="642"/>
+      <c r="C614" s="638"/>
       <c r="D614" s="363"/>
       <c r="E614" s="363"/>
       <c r="F614" s="363"/>
@@ -16675,7 +16675,7 @@
       <c r="B637" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C637" s="642"/>
+      <c r="C637" s="638"/>
       <c r="D637" s="363"/>
       <c r="E637" s="363"/>
       <c r="F637" s="363"/>
@@ -16970,10 +16970,10 @@
     </row>
     <row r="660" spans="1:8" ht="14.35">
       <c r="A660" s="363"/>
-      <c r="B660" s="643" t="s">
+      <c r="B660" s="640" t="s">
         <v>34</v>
       </c>
-      <c r="C660" s="644"/>
+      <c r="C660" s="641"/>
       <c r="D660" s="363"/>
       <c r="E660" s="363"/>
       <c r="F660" s="363"/>
@@ -17272,10 +17272,10 @@
     </row>
     <row r="683" spans="1:8" ht="14.35">
       <c r="A683" s="363"/>
-      <c r="B683" s="643" t="s">
+      <c r="B683" s="640" t="s">
         <v>34</v>
       </c>
-      <c r="C683" s="644"/>
+      <c r="C683" s="641"/>
       <c r="D683" s="363"/>
       <c r="E683" s="363"/>
       <c r="F683" s="363"/>
@@ -17639,7 +17639,7 @@
       <c r="B711" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C711" s="642"/>
+      <c r="C711" s="638"/>
       <c r="D711" s="363"/>
       <c r="E711" s="363"/>
       <c r="F711" s="363"/>
@@ -17884,7 +17884,7 @@
       <c r="C729" s="370">
         <v>560</v>
       </c>
-      <c r="D729" s="639"/>
+      <c r="D729" s="635"/>
       <c r="E729" s="363"/>
       <c r="F729" s="363"/>
       <c r="G729" s="363"/>
@@ -17965,7 +17965,7 @@
       <c r="B735" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C735" s="642"/>
+      <c r="C735" s="638"/>
       <c r="D735" s="363"/>
       <c r="E735" s="363"/>
       <c r="F735" s="363"/>
@@ -18226,7 +18226,7 @@
       <c r="C756" s="370">
         <v>560</v>
       </c>
-      <c r="D756" s="639"/>
+      <c r="D756" s="635"/>
       <c r="E756" s="363"/>
       <c r="F756" s="363"/>
       <c r="G756" s="363"/>
@@ -18307,7 +18307,7 @@
       <c r="B762" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C762" s="642"/>
+      <c r="C762" s="638"/>
       <c r="D762" s="363"/>
       <c r="E762" s="363"/>
       <c r="F762" s="363"/>
@@ -18633,7 +18633,7 @@
       <c r="B789" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C789" s="638"/>
+      <c r="C789" s="639"/>
       <c r="D789" s="363"/>
       <c r="E789" s="363"/>
       <c r="F789" s="363"/>
@@ -18959,7 +18959,7 @@
       <c r="B816" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C816" s="638"/>
+      <c r="C816" s="639"/>
       <c r="D816" s="363"/>
       <c r="E816" s="363"/>
       <c r="F816" s="363"/>
@@ -19250,7 +19250,7 @@
       <c r="C839" s="375">
         <v>560</v>
       </c>
-      <c r="D839" s="639"/>
+      <c r="D839" s="635"/>
       <c r="E839" s="365"/>
       <c r="F839" s="363"/>
       <c r="G839" s="363"/>
@@ -19331,7 +19331,7 @@
       <c r="B845" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C845" s="638"/>
+      <c r="C845" s="639"/>
       <c r="D845" s="363"/>
       <c r="E845" s="363"/>
       <c r="F845" s="363"/>
@@ -19712,7 +19712,7 @@
       <c r="B876" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C876" s="638"/>
+      <c r="C876" s="639"/>
       <c r="D876" s="363"/>
       <c r="E876" s="363"/>
       <c r="F876" s="363"/>
@@ -20068,7 +20068,7 @@
       <c r="B907" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C907" s="638"/>
+      <c r="C907" s="639"/>
       <c r="D907" s="363"/>
       <c r="E907" s="363"/>
       <c r="F907" s="363"/>
@@ -20341,7 +20341,7 @@
       <c r="B931" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C931" s="638"/>
+      <c r="C931" s="639"/>
       <c r="D931" s="363"/>
       <c r="E931" s="363"/>
       <c r="F931" s="363"/>
@@ -20691,7 +20691,7 @@
       <c r="B958" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C958" s="638"/>
+      <c r="C958" s="639"/>
       <c r="D958" s="363"/>
       <c r="E958" s="363"/>
       <c r="F958" s="363"/>
@@ -20987,7 +20987,7 @@
       <c r="B981" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C981" s="638"/>
+      <c r="C981" s="639"/>
       <c r="D981" s="363"/>
       <c r="E981" s="363"/>
       <c r="F981" s="363"/>
@@ -21283,7 +21283,7 @@
       <c r="B1005" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1005" s="638"/>
+      <c r="C1005" s="639"/>
       <c r="D1005" s="363"/>
       <c r="E1005" s="363"/>
       <c r="F1005" s="363"/>
@@ -21479,7 +21479,7 @@
       <c r="B1024" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1024" s="638"/>
+      <c r="C1024" s="639"/>
       <c r="F1024" s="363"/>
       <c r="G1024" s="363"/>
       <c r="H1024" s="363"/>
@@ -21706,7 +21706,7 @@
       <c r="C1042" s="370">
         <v>560</v>
       </c>
-      <c r="D1042" s="639"/>
+      <c r="D1042" s="635"/>
       <c r="E1042" s="363"/>
       <c r="F1042" s="363"/>
       <c r="G1042" s="363"/>
@@ -21787,7 +21787,7 @@
       <c r="B1048" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1048" s="642"/>
+      <c r="C1048" s="638"/>
       <c r="D1048" s="363"/>
       <c r="E1048" s="363"/>
       <c r="F1048" s="363"/>
@@ -22053,7 +22053,7 @@
       <c r="B1070" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1070" s="638"/>
+      <c r="C1070" s="639"/>
       <c r="D1070" s="363"/>
       <c r="E1070" s="363"/>
       <c r="F1070" s="363"/>
@@ -22298,7 +22298,7 @@
       <c r="C1089" s="370">
         <v>560</v>
       </c>
-      <c r="D1089" s="639"/>
+      <c r="D1089" s="635"/>
       <c r="E1089" s="363"/>
       <c r="F1089" s="363"/>
       <c r="G1089" s="363"/>
@@ -22373,7 +22373,7 @@
       <c r="B1095" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1095" s="642"/>
+      <c r="C1095" s="638"/>
       <c r="D1095" s="363"/>
       <c r="E1095" s="363"/>
       <c r="F1095" s="363"/>
@@ -22649,7 +22649,7 @@
       <c r="C1120" s="370">
         <v>560</v>
       </c>
-      <c r="D1120" s="639"/>
+      <c r="D1120" s="635"/>
       <c r="E1120" s="363"/>
       <c r="F1120" s="363"/>
       <c r="G1120" s="363"/>
@@ -22726,7 +22726,7 @@
       <c r="B1126" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1126" s="642"/>
+      <c r="C1126" s="638"/>
       <c r="D1126" s="363"/>
       <c r="E1126" s="363"/>
       <c r="F1126" s="363"/>
@@ -23089,7 +23089,7 @@
       <c r="B1155" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1155" s="642"/>
+      <c r="C1155" s="638"/>
       <c r="D1155" s="363"/>
       <c r="E1155" s="363"/>
       <c r="F1155" s="363"/>
@@ -23198,6 +23198,61 @@
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D41:D46"/>
+    <mergeCell ref="D71:D75"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="D99:D103"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="D128:D132"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="D158:D162"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="D179:D184"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="D201:D206"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="D242:D246"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="D278:D282"/>
+    <mergeCell ref="B284:C284"/>
+    <mergeCell ref="D304:D308"/>
+    <mergeCell ref="B310:C310"/>
+    <mergeCell ref="D327:D331"/>
+    <mergeCell ref="B333:C333"/>
+    <mergeCell ref="D383:D387"/>
+    <mergeCell ref="B389:C389"/>
+    <mergeCell ref="D418:D422"/>
+    <mergeCell ref="B424:C424"/>
+    <mergeCell ref="B451:C451"/>
+    <mergeCell ref="D469:D473"/>
+    <mergeCell ref="B475:C475"/>
+    <mergeCell ref="D494:D498"/>
+    <mergeCell ref="B500:C500"/>
+    <mergeCell ref="D519:D523"/>
+    <mergeCell ref="B525:C525"/>
+    <mergeCell ref="D547:D551"/>
+    <mergeCell ref="B553:C553"/>
+    <mergeCell ref="D580:D584"/>
+    <mergeCell ref="B586:C586"/>
+    <mergeCell ref="D608:D612"/>
+    <mergeCell ref="B614:C614"/>
+    <mergeCell ref="B637:C637"/>
+    <mergeCell ref="B660:C660"/>
+    <mergeCell ref="B683:C683"/>
+    <mergeCell ref="B711:C711"/>
+    <mergeCell ref="D839:D844"/>
+    <mergeCell ref="B845:C845"/>
+    <mergeCell ref="B876:C876"/>
+    <mergeCell ref="B907:C907"/>
+    <mergeCell ref="D729:D733"/>
+    <mergeCell ref="B735:C735"/>
+    <mergeCell ref="D756:D760"/>
+    <mergeCell ref="B762:C762"/>
+    <mergeCell ref="B789:C789"/>
     <mergeCell ref="D1120:D1124"/>
     <mergeCell ref="B1126:C1126"/>
     <mergeCell ref="B1155:C1155"/>
@@ -23214,61 +23269,6 @@
     <mergeCell ref="B1005:C1005"/>
     <mergeCell ref="B1024:C1024"/>
     <mergeCell ref="B816:C816"/>
-    <mergeCell ref="D839:D844"/>
-    <mergeCell ref="B845:C845"/>
-    <mergeCell ref="B876:C876"/>
-    <mergeCell ref="B907:C907"/>
-    <mergeCell ref="D729:D733"/>
-    <mergeCell ref="B735:C735"/>
-    <mergeCell ref="D756:D760"/>
-    <mergeCell ref="B762:C762"/>
-    <mergeCell ref="B789:C789"/>
-    <mergeCell ref="B614:C614"/>
-    <mergeCell ref="B637:C637"/>
-    <mergeCell ref="B660:C660"/>
-    <mergeCell ref="B683:C683"/>
-    <mergeCell ref="B711:C711"/>
-    <mergeCell ref="D547:D551"/>
-    <mergeCell ref="B553:C553"/>
-    <mergeCell ref="D580:D584"/>
-    <mergeCell ref="B586:C586"/>
-    <mergeCell ref="D608:D612"/>
-    <mergeCell ref="B475:C475"/>
-    <mergeCell ref="D494:D498"/>
-    <mergeCell ref="B500:C500"/>
-    <mergeCell ref="D519:D523"/>
-    <mergeCell ref="B525:C525"/>
-    <mergeCell ref="B389:C389"/>
-    <mergeCell ref="D418:D422"/>
-    <mergeCell ref="B424:C424"/>
-    <mergeCell ref="B451:C451"/>
-    <mergeCell ref="D469:D473"/>
-    <mergeCell ref="D304:D308"/>
-    <mergeCell ref="B310:C310"/>
-    <mergeCell ref="D327:D331"/>
-    <mergeCell ref="B333:C333"/>
-    <mergeCell ref="D383:D387"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="D242:D246"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="D278:D282"/>
-    <mergeCell ref="B284:C284"/>
-    <mergeCell ref="D158:D162"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="D179:D184"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="D201:D206"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="D99:D103"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="D128:D132"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D41:D46"/>
-    <mergeCell ref="D71:D75"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23614,7 +23614,7 @@
       <c r="B20" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="638"/>
+      <c r="C20" s="639"/>
       <c r="D20" s="363"/>
       <c r="E20" s="363"/>
       <c r="F20" s="363"/>
@@ -23789,7 +23789,7 @@
         <v>29</v>
       </c>
       <c r="C36" s="375"/>
-      <c r="D36" s="650"/>
+      <c r="D36" s="645"/>
       <c r="E36" s="26"/>
       <c r="K36" s="10"/>
     </row>
@@ -23799,7 +23799,7 @@
         <v>45</v>
       </c>
       <c r="C37" s="370"/>
-      <c r="D37" s="651"/>
+      <c r="D37" s="646"/>
       <c r="E37" s="26"/>
       <c r="K37" s="10"/>
     </row>
@@ -23809,7 +23809,7 @@
         <v>30</v>
       </c>
       <c r="C38" s="370"/>
-      <c r="D38" s="651"/>
+      <c r="D38" s="646"/>
       <c r="E38" s="28"/>
       <c r="K38" s="10"/>
     </row>
@@ -23819,7 +23819,7 @@
         <v>31</v>
       </c>
       <c r="C39" s="370"/>
-      <c r="D39" s="651"/>
+      <c r="D39" s="646"/>
       <c r="E39" s="28"/>
       <c r="K39" s="10"/>
     </row>
@@ -23829,7 +23829,7 @@
         <v>32</v>
       </c>
       <c r="C40" s="370"/>
-      <c r="D40" s="651"/>
+      <c r="D40" s="646"/>
       <c r="E40" s="28"/>
       <c r="K40" s="10"/>
     </row>
@@ -23839,7 +23839,7 @@
         <v>876</v>
       </c>
       <c r="C41" s="370"/>
-      <c r="D41" s="651"/>
+      <c r="D41" s="646"/>
       <c r="E41" s="28"/>
       <c r="K41" s="10"/>
     </row>
@@ -23848,7 +23848,7 @@
       <c r="B42" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="638"/>
+      <c r="C42" s="639"/>
       <c r="D42" s="501"/>
       <c r="E42" s="28"/>
       <c r="K42" s="10"/>
@@ -24087,10 +24087,10 @@
     </row>
     <row r="61" spans="1:11" ht="14.35">
       <c r="A61" s="2"/>
-      <c r="B61" s="658" t="s">
+      <c r="B61" s="649" t="s">
         <v>34</v>
       </c>
-      <c r="C61" s="659"/>
+      <c r="C61" s="650"/>
       <c r="D61" s="8"/>
       <c r="E61" s="393"/>
       <c r="F61" s="2"/>
@@ -24276,10 +24276,10 @@
       <c r="D75" s="518" t="s">
         <v>58</v>
       </c>
-      <c r="E75" s="646" t="s">
+      <c r="E75" s="651" t="s">
         <v>59</v>
       </c>
-      <c r="F75" s="647"/>
+      <c r="F75" s="652"/>
       <c r="G75" s="520"/>
       <c r="H75" s="488"/>
       <c r="K75" s="10"/>
@@ -24376,7 +24376,7 @@
         <v>65</v>
       </c>
       <c r="C81" s="370"/>
-      <c r="D81" s="650"/>
+      <c r="D81" s="645"/>
       <c r="E81" s="525">
         <v>1</v>
       </c>
@@ -24393,7 +24393,7 @@
         <v>30</v>
       </c>
       <c r="C82" s="370"/>
-      <c r="D82" s="651"/>
+      <c r="D82" s="646"/>
       <c r="E82" s="526" t="s">
         <v>66</v>
       </c>
@@ -24408,7 +24408,7 @@
         <v>31</v>
       </c>
       <c r="C83" s="370"/>
-      <c r="D83" s="651"/>
+      <c r="D83" s="646"/>
       <c r="E83" s="527" t="s">
         <v>67</v>
       </c>
@@ -24423,7 +24423,7 @@
         <v>68</v>
       </c>
       <c r="C84" s="499"/>
-      <c r="D84" s="651"/>
+      <c r="D84" s="646"/>
       <c r="E84" s="363"/>
       <c r="F84" s="363"/>
       <c r="G84" s="363"/>
@@ -24435,7 +24435,7 @@
       <c r="B85" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C85" s="638"/>
+      <c r="C85" s="639"/>
       <c r="D85" s="363"/>
       <c r="E85" s="363"/>
       <c r="F85" s="363"/>
@@ -24542,8 +24542,8 @@
       <c r="D94" s="373"/>
       <c r="E94" s="363"/>
       <c r="F94" s="363"/>
-      <c r="G94" s="640"/>
-      <c r="H94" s="641"/>
+      <c r="G94" s="642"/>
+      <c r="H94" s="643"/>
       <c r="K94" s="10"/>
     </row>
     <row r="95" spans="1:11" ht="14.35">
@@ -24567,10 +24567,10 @@
       <c r="C96" s="399" t="s">
         <v>57</v>
       </c>
-      <c r="D96" s="648" t="s">
+      <c r="D96" s="653" t="s">
         <v>59</v>
       </c>
-      <c r="E96" s="647"/>
+      <c r="E96" s="652"/>
       <c r="F96" s="363"/>
       <c r="G96" s="410"/>
       <c r="H96" s="409"/>
@@ -24716,10 +24716,10 @@
     </row>
     <row r="106" spans="1:11" ht="14.35">
       <c r="A106" s="363"/>
-      <c r="B106" s="652" t="s">
+      <c r="B106" s="655" t="s">
         <v>34</v>
       </c>
-      <c r="C106" s="653"/>
+      <c r="C106" s="656"/>
       <c r="E106" s="363"/>
       <c r="F106" s="363"/>
       <c r="G106" s="363"/>
@@ -24838,7 +24838,7 @@
       </c>
       <c r="C116" s="401"/>
       <c r="D116" s="365"/>
-      <c r="E116" s="649" t="s">
+      <c r="E116" s="654" t="s">
         <v>59</v>
       </c>
       <c r="F116" s="633"/>
@@ -25005,7 +25005,7 @@
       <c r="B127" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C127" s="642"/>
+      <c r="C127" s="638"/>
       <c r="D127" s="363"/>
       <c r="E127" s="363"/>
       <c r="F127" s="363"/>
@@ -25283,7 +25283,7 @@
       <c r="B153" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C153" s="642"/>
+      <c r="C153" s="638"/>
       <c r="D153" s="363"/>
       <c r="E153" s="363"/>
       <c r="H153" s="10"/>
@@ -25483,7 +25483,7 @@
       <c r="B171" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C171" s="638"/>
+      <c r="C171" s="639"/>
       <c r="D171" s="363"/>
       <c r="E171" s="363"/>
       <c r="F171" s="363"/>
@@ -25716,7 +25716,7 @@
       <c r="B189" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C189" s="638"/>
+      <c r="C189" s="639"/>
       <c r="D189" s="363"/>
       <c r="E189" s="363"/>
       <c r="F189" s="363"/>
@@ -25942,7 +25942,7 @@
       <c r="B207" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C207" s="642"/>
+      <c r="C207" s="638"/>
       <c r="D207" s="363"/>
       <c r="E207" s="363"/>
       <c r="F207" s="363"/>
@@ -26127,7 +26127,7 @@
       <c r="B223" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C223" s="642"/>
+      <c r="C223" s="638"/>
       <c r="D223" s="363"/>
       <c r="F223" s="2"/>
       <c r="G223" s="2"/>
@@ -26492,7 +26492,7 @@
         <v>143</v>
       </c>
       <c r="C249" s="370"/>
-      <c r="D249" s="654"/>
+      <c r="D249" s="657"/>
       <c r="E249" s="363"/>
       <c r="F249" s="363"/>
       <c r="G249" s="363"/>
@@ -26505,7 +26505,7 @@
         <v>144</v>
       </c>
       <c r="C250" s="370"/>
-      <c r="D250" s="655"/>
+      <c r="D250" s="658"/>
       <c r="E250" s="363"/>
       <c r="F250" s="363"/>
       <c r="G250" s="363"/>
@@ -26518,7 +26518,7 @@
         <v>30</v>
       </c>
       <c r="C251" s="370"/>
-      <c r="D251" s="655"/>
+      <c r="D251" s="658"/>
       <c r="E251" s="363"/>
       <c r="F251" s="363"/>
       <c r="G251" s="363"/>
@@ -26531,7 +26531,7 @@
         <v>31</v>
       </c>
       <c r="C252" s="370"/>
-      <c r="D252" s="655"/>
+      <c r="D252" s="658"/>
       <c r="E252" s="363"/>
       <c r="F252" s="363"/>
       <c r="G252" s="363"/>
@@ -26544,7 +26544,7 @@
         <v>145</v>
       </c>
       <c r="C253" s="370"/>
-      <c r="D253" s="655"/>
+      <c r="D253" s="658"/>
       <c r="E253" s="363"/>
       <c r="F253" s="363"/>
       <c r="G253" s="363"/>
@@ -26569,7 +26569,7 @@
       <c r="B255" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C255" s="638"/>
+      <c r="C255" s="639"/>
       <c r="D255" s="363"/>
       <c r="E255" s="363"/>
       <c r="F255" s="363"/>
@@ -26995,7 +26995,7 @@
         <v>143</v>
       </c>
       <c r="C285" s="370"/>
-      <c r="D285" s="650"/>
+      <c r="D285" s="645"/>
       <c r="E285" s="563"/>
       <c r="F285" s="562"/>
       <c r="G285" s="363"/>
@@ -27008,7 +27008,7 @@
         <v>144</v>
       </c>
       <c r="C286" s="370"/>
-      <c r="D286" s="651"/>
+      <c r="D286" s="646"/>
       <c r="E286" s="563"/>
       <c r="F286" s="562"/>
       <c r="G286" s="363"/>
@@ -27021,7 +27021,7 @@
         <v>30</v>
       </c>
       <c r="C287" s="370"/>
-      <c r="D287" s="651"/>
+      <c r="D287" s="646"/>
       <c r="E287" s="563"/>
       <c r="F287" s="562"/>
       <c r="G287" s="363"/>
@@ -27034,7 +27034,7 @@
         <v>31</v>
       </c>
       <c r="C288" s="370"/>
-      <c r="D288" s="651"/>
+      <c r="D288" s="646"/>
       <c r="E288" s="563"/>
       <c r="F288" s="562"/>
       <c r="G288" s="363"/>
@@ -27047,7 +27047,7 @@
         <v>145</v>
       </c>
       <c r="C289" s="370"/>
-      <c r="D289" s="651"/>
+      <c r="D289" s="646"/>
       <c r="E289" s="563"/>
       <c r="F289" s="562"/>
       <c r="G289" s="363"/>
@@ -27072,7 +27072,7 @@
       <c r="B291" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C291" s="638"/>
+      <c r="C291" s="639"/>
       <c r="D291" s="501"/>
       <c r="E291" s="363"/>
       <c r="F291" s="363"/>
@@ -27253,7 +27253,7 @@
         <v>143</v>
       </c>
       <c r="C305" s="370"/>
-      <c r="D305" s="650"/>
+      <c r="D305" s="645"/>
       <c r="F305" s="363"/>
       <c r="G305" s="363"/>
       <c r="H305" s="488"/>
@@ -27265,7 +27265,7 @@
         <v>144</v>
       </c>
       <c r="C306" s="370"/>
-      <c r="D306" s="651"/>
+      <c r="D306" s="646"/>
       <c r="F306" s="363"/>
       <c r="G306" s="363"/>
       <c r="H306" s="488"/>
@@ -27277,7 +27277,7 @@
         <v>30</v>
       </c>
       <c r="C307" s="370"/>
-      <c r="D307" s="651"/>
+      <c r="D307" s="646"/>
       <c r="F307" s="363"/>
       <c r="G307" s="363"/>
       <c r="H307" s="488"/>
@@ -27289,7 +27289,7 @@
         <v>31</v>
       </c>
       <c r="C308" s="370"/>
-      <c r="D308" s="651"/>
+      <c r="D308" s="646"/>
       <c r="F308" s="363"/>
       <c r="G308" s="363"/>
       <c r="H308" s="488"/>
@@ -27301,7 +27301,7 @@
         <v>145</v>
       </c>
       <c r="C309" s="370"/>
-      <c r="D309" s="651"/>
+      <c r="D309" s="646"/>
       <c r="F309" s="363"/>
       <c r="G309" s="363"/>
       <c r="H309" s="488"/>
@@ -27324,7 +27324,7 @@
       <c r="B311" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C311" s="638"/>
+      <c r="C311" s="639"/>
       <c r="D311" s="501"/>
       <c r="F311" s="363"/>
       <c r="G311" s="363"/>
@@ -27587,10 +27587,10 @@
     </row>
     <row r="333" spans="1:11" ht="14.35">
       <c r="A333" s="2"/>
-      <c r="B333" s="656" t="s">
+      <c r="B333" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C333" s="657"/>
+      <c r="C333" s="648"/>
       <c r="D333" s="2"/>
       <c r="F333" s="363"/>
       <c r="G333" s="2"/>
@@ -27799,7 +27799,7 @@
       <c r="B351" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C351" s="642"/>
+      <c r="C351" s="638"/>
       <c r="F351" s="2"/>
       <c r="G351" s="2"/>
       <c r="H351" s="8"/>
@@ -28339,10 +28339,10 @@
     </row>
     <row r="388" spans="1:11" ht="14.7">
       <c r="A388" s="2"/>
-      <c r="B388" s="645" t="s">
+      <c r="B388" s="659" t="s">
         <v>34</v>
       </c>
-      <c r="C388" s="644"/>
+      <c r="C388" s="641"/>
       <c r="D388" s="97"/>
       <c r="F388" s="2"/>
       <c r="G388" s="2"/>
@@ -28914,10 +28914,10 @@
     </row>
     <row r="425" spans="1:11" ht="14.7">
       <c r="A425" s="2"/>
-      <c r="B425" s="645" t="s">
+      <c r="B425" s="659" t="s">
         <v>34</v>
       </c>
-      <c r="C425" s="644"/>
+      <c r="C425" s="641"/>
       <c r="D425" s="97"/>
       <c r="E425" s="97"/>
       <c r="F425" s="2"/>
@@ -29469,10 +29469,10 @@
     </row>
     <row r="461" spans="1:11" ht="14.7">
       <c r="A461" s="2"/>
-      <c r="B461" s="645" t="s">
+      <c r="B461" s="659" t="s">
         <v>34</v>
       </c>
-      <c r="C461" s="644"/>
+      <c r="C461" s="641"/>
       <c r="D461" s="97"/>
       <c r="E461" s="97"/>
       <c r="F461" s="97"/>
@@ -30020,10 +30020,10 @@
     </row>
     <row r="497" spans="1:11" ht="14.7">
       <c r="A497" s="2"/>
-      <c r="B497" s="645" t="s">
+      <c r="B497" s="659" t="s">
         <v>34</v>
       </c>
-      <c r="C497" s="644"/>
+      <c r="C497" s="641"/>
       <c r="D497" s="97"/>
       <c r="E497" s="97"/>
       <c r="F497" s="97"/>
@@ -30915,10 +30915,10 @@
     </row>
     <row r="552" spans="1:11" ht="14.7">
       <c r="A552" s="2"/>
-      <c r="B552" s="645" t="s">
+      <c r="B552" s="659" t="s">
         <v>34</v>
       </c>
-      <c r="C552" s="644"/>
+      <c r="C552" s="641"/>
       <c r="D552" s="97"/>
       <c r="E552" s="97"/>
       <c r="F552" s="97"/>
@@ -31345,7 +31345,7 @@
       <c r="B590" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C590" s="642"/>
+      <c r="C590" s="638"/>
       <c r="D590" s="363"/>
       <c r="E590" s="363"/>
       <c r="F590" s="363"/>
@@ -31560,7 +31560,7 @@
       <c r="B607" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C607" s="642"/>
+      <c r="C607" s="638"/>
       <c r="D607" s="363"/>
       <c r="E607" s="363"/>
       <c r="F607" s="363"/>
@@ -31756,7 +31756,7 @@
       <c r="B623" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C623" s="638"/>
+      <c r="C623" s="639"/>
       <c r="D623" s="590"/>
       <c r="E623" s="363"/>
       <c r="F623" s="363"/>
@@ -31971,7 +31971,7 @@
       <c r="B640" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C640" s="642"/>
+      <c r="C640" s="638"/>
       <c r="D640" s="363"/>
       <c r="E640" s="363"/>
       <c r="F640" s="363"/>
@@ -32154,7 +32154,7 @@
       <c r="B655" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C655" s="638"/>
+      <c r="C655" s="639"/>
       <c r="D655" s="363"/>
       <c r="E655" s="363"/>
       <c r="F655" s="363"/>
@@ -32360,10 +32360,10 @@
     </row>
     <row r="672" spans="1:11" ht="14.35">
       <c r="A672" s="363"/>
-      <c r="B672" s="643" t="s">
+      <c r="B672" s="640" t="s">
         <v>34</v>
       </c>
-      <c r="C672" s="644"/>
+      <c r="C672" s="641"/>
       <c r="D672" s="363"/>
       <c r="E672" s="363"/>
       <c r="F672" s="363"/>
@@ -32551,10 +32551,10 @@
     </row>
     <row r="687" spans="1:11" ht="14.35">
       <c r="A687" s="363"/>
-      <c r="B687" s="643" t="s">
+      <c r="B687" s="640" t="s">
         <v>34</v>
       </c>
-      <c r="C687" s="644"/>
+      <c r="C687" s="641"/>
       <c r="D687" s="363"/>
       <c r="E687" s="363"/>
       <c r="F687" s="363"/>
@@ -32831,7 +32831,7 @@
       <c r="B710" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C710" s="642"/>
+      <c r="C710" s="638"/>
       <c r="D710" s="363"/>
       <c r="E710" s="363"/>
       <c r="F710" s="363"/>
@@ -33033,7 +33033,7 @@
       <c r="B726" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C726" s="642"/>
+      <c r="C726" s="638"/>
       <c r="D726" s="363"/>
       <c r="E726" s="363"/>
       <c r="F726" s="363"/>
@@ -33264,7 +33264,7 @@
       <c r="B745" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C745" s="642"/>
+      <c r="C745" s="638"/>
       <c r="D745" s="363"/>
       <c r="E745" s="363"/>
       <c r="F745" s="363"/>
@@ -33553,7 +33553,7 @@
       <c r="B768" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C768" s="638"/>
+      <c r="C768" s="639"/>
       <c r="D768" s="363"/>
       <c r="E768" s="363"/>
       <c r="F768" s="363"/>
@@ -33835,7 +33835,7 @@
       <c r="B790" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C790" s="638"/>
+      <c r="C790" s="639"/>
       <c r="D790" s="363"/>
       <c r="E790" s="363"/>
       <c r="F790" s="363"/>
@@ -34146,7 +34146,7 @@
       <c r="B815" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C815" s="638"/>
+      <c r="C815" s="639"/>
       <c r="D815" s="605"/>
       <c r="E815" s="363"/>
       <c r="F815" s="363"/>
@@ -34454,7 +34454,7 @@
       <c r="B840" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C840" s="638"/>
+      <c r="C840" s="639"/>
       <c r="D840" s="363"/>
       <c r="E840" s="363"/>
       <c r="F840" s="363"/>
@@ -34763,7 +34763,7 @@
       <c r="B866" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C866" s="638"/>
+      <c r="C866" s="639"/>
       <c r="D866" s="363"/>
       <c r="E866" s="363"/>
       <c r="F866" s="363"/>
@@ -34996,7 +34996,7 @@
       <c r="B886" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C886" s="638"/>
+      <c r="C886" s="639"/>
       <c r="D886" s="363"/>
       <c r="E886" s="363"/>
       <c r="F886" s="363"/>
@@ -35276,7 +35276,7 @@
       <c r="B908" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C908" s="638"/>
+      <c r="C908" s="639"/>
       <c r="D908" s="363"/>
       <c r="E908" s="363"/>
       <c r="F908" s="363"/>
@@ -35523,7 +35523,7 @@
       <c r="B927" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C927" s="638"/>
+      <c r="C927" s="639"/>
       <c r="D927" s="363"/>
       <c r="E927" s="363"/>
       <c r="F927" s="363"/>
@@ -35766,7 +35766,7 @@
       <c r="B946" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C946" s="638"/>
+      <c r="C946" s="639"/>
       <c r="D946" s="363"/>
       <c r="E946" s="363"/>
       <c r="F946" s="363"/>
@@ -35910,7 +35910,7 @@
       <c r="B960" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C960" s="638"/>
+      <c r="C960" s="639"/>
       <c r="F960" s="363"/>
       <c r="G960" s="363"/>
       <c r="H960" s="488"/>
@@ -36160,7 +36160,7 @@
       <c r="B980" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C980" s="642"/>
+      <c r="C980" s="638"/>
       <c r="D980" s="363"/>
       <c r="E980" s="363"/>
       <c r="F980" s="363"/>
@@ -36365,7 +36365,7 @@
       <c r="B997" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C997" s="638"/>
+      <c r="C997" s="639"/>
       <c r="D997" s="363"/>
       <c r="E997" s="363"/>
       <c r="F997" s="363"/>
@@ -36611,7 +36611,7 @@
       <c r="B1017" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1017" s="642"/>
+      <c r="C1017" s="638"/>
       <c r="D1017" s="363"/>
       <c r="E1017" s="363"/>
       <c r="F1017" s="363"/>
@@ -36875,7 +36875,7 @@
       <c r="B1039" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1039" s="642"/>
+      <c r="C1039" s="638"/>
       <c r="D1039" s="363"/>
       <c r="E1039" s="363"/>
       <c r="F1039" s="363"/>
@@ -37174,7 +37174,7 @@
       <c r="B1062" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1062" s="642"/>
+      <c r="C1062" s="638"/>
       <c r="D1062" s="363"/>
       <c r="E1062" s="363"/>
       <c r="F1062" s="363"/>
@@ -37198,30 +37198,21 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="B333:C333"/>
-    <mergeCell ref="B351:C351"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B311:C311"/>
-    <mergeCell ref="D36:D41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="D305:D309"/>
-    <mergeCell ref="B223:C223"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="D249:D253"/>
-    <mergeCell ref="B255:C255"/>
-    <mergeCell ref="D285:D289"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="B189:C189"/>
-    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="B590:C590"/>
+    <mergeCell ref="B710:C710"/>
+    <mergeCell ref="B726:C726"/>
+    <mergeCell ref="B745:C745"/>
+    <mergeCell ref="B768:C768"/>
+    <mergeCell ref="B790:C790"/>
+    <mergeCell ref="B815:C815"/>
+    <mergeCell ref="B840:C840"/>
+    <mergeCell ref="B866:C866"/>
+    <mergeCell ref="B886:C886"/>
+    <mergeCell ref="B908:C908"/>
+    <mergeCell ref="B927:C927"/>
+    <mergeCell ref="B946:C946"/>
+    <mergeCell ref="B960:C960"/>
+    <mergeCell ref="B980:C980"/>
     <mergeCell ref="B997:C997"/>
     <mergeCell ref="B1017:C1017"/>
     <mergeCell ref="B1039:C1039"/>
@@ -37238,21 +37229,30 @@
     <mergeCell ref="B655:C655"/>
     <mergeCell ref="B672:C672"/>
     <mergeCell ref="B687:C687"/>
-    <mergeCell ref="B908:C908"/>
-    <mergeCell ref="B927:C927"/>
-    <mergeCell ref="B946:C946"/>
-    <mergeCell ref="B960:C960"/>
-    <mergeCell ref="B980:C980"/>
-    <mergeCell ref="B790:C790"/>
-    <mergeCell ref="B815:C815"/>
-    <mergeCell ref="B840:C840"/>
-    <mergeCell ref="B866:C866"/>
-    <mergeCell ref="B886:C886"/>
-    <mergeCell ref="B590:C590"/>
-    <mergeCell ref="B710:C710"/>
-    <mergeCell ref="B726:C726"/>
-    <mergeCell ref="B745:C745"/>
-    <mergeCell ref="B768:C768"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="D305:D309"/>
+    <mergeCell ref="B223:C223"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="D249:D253"/>
+    <mergeCell ref="B255:C255"/>
+    <mergeCell ref="D285:D289"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="B333:C333"/>
+    <mergeCell ref="B351:C351"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B311:C311"/>
+    <mergeCell ref="D36:D41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B61:C61"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37594,10 +37594,10 @@
     </row>
     <row r="20" spans="1:11" ht="14.35">
       <c r="A20" s="2"/>
-      <c r="B20" s="656" t="s">
+      <c r="B20" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="659"/>
+      <c r="C20" s="650"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -37770,7 +37770,7 @@
         <v>29</v>
       </c>
       <c r="C36" s="14"/>
-      <c r="D36" s="660"/>
+      <c r="D36" s="661"/>
       <c r="E36" s="26"/>
       <c r="K36" s="10"/>
     </row>
@@ -37780,7 +37780,7 @@
         <v>45</v>
       </c>
       <c r="C37" s="11"/>
-      <c r="D37" s="661"/>
+      <c r="D37" s="662"/>
       <c r="E37" s="26"/>
       <c r="K37" s="10"/>
     </row>
@@ -37790,7 +37790,7 @@
         <v>30</v>
       </c>
       <c r="C38" s="11"/>
-      <c r="D38" s="661"/>
+      <c r="D38" s="662"/>
       <c r="E38" s="28"/>
       <c r="K38" s="10"/>
     </row>
@@ -37800,7 +37800,7 @@
         <v>31</v>
       </c>
       <c r="C39" s="11"/>
-      <c r="D39" s="661"/>
+      <c r="D39" s="662"/>
       <c r="E39" s="28"/>
       <c r="K39" s="10"/>
     </row>
@@ -37810,7 +37810,7 @@
         <v>32</v>
       </c>
       <c r="C40" s="11"/>
-      <c r="D40" s="661"/>
+      <c r="D40" s="662"/>
       <c r="E40" s="28"/>
       <c r="K40" s="10"/>
     </row>
@@ -37820,16 +37820,16 @@
         <v>876</v>
       </c>
       <c r="C41" s="11"/>
-      <c r="D41" s="661"/>
+      <c r="D41" s="662"/>
       <c r="E41" s="28"/>
       <c r="K41" s="10"/>
     </row>
     <row r="42" spans="1:11" ht="14.35">
       <c r="A42" s="2"/>
-      <c r="B42" s="656" t="s">
+      <c r="B42" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="659"/>
+      <c r="C42" s="650"/>
       <c r="D42" s="28"/>
       <c r="E42" s="28"/>
       <c r="K42" s="10"/>
@@ -38068,10 +38068,10 @@
     </row>
     <row r="61" spans="1:11" ht="14.35">
       <c r="A61" s="2"/>
-      <c r="B61" s="656" t="s">
+      <c r="B61" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C61" s="659"/>
+      <c r="C61" s="650"/>
       <c r="D61" s="8"/>
       <c r="E61" s="23"/>
       <c r="F61" s="2"/>
@@ -38255,10 +38255,10 @@
       <c r="D75" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="E75" s="662" t="s">
+      <c r="E75" s="671" t="s">
         <v>59</v>
       </c>
-      <c r="F75" s="647"/>
+      <c r="F75" s="652"/>
       <c r="G75" s="44"/>
       <c r="H75" s="8"/>
       <c r="K75" s="10"/>
@@ -38356,7 +38356,7 @@
         <v>65</v>
       </c>
       <c r="C81" s="11"/>
-      <c r="D81" s="660"/>
+      <c r="D81" s="661"/>
       <c r="E81" s="49">
         <v>1</v>
       </c>
@@ -38373,7 +38373,7 @@
         <v>30</v>
       </c>
       <c r="C82" s="11"/>
-      <c r="D82" s="661"/>
+      <c r="D82" s="662"/>
       <c r="E82" s="29" t="s">
         <v>66</v>
       </c>
@@ -38388,7 +38388,7 @@
         <v>31</v>
       </c>
       <c r="C83" s="11"/>
-      <c r="D83" s="661"/>
+      <c r="D83" s="662"/>
       <c r="E83" s="29" t="s">
         <v>67</v>
       </c>
@@ -38403,7 +38403,7 @@
         <v>68</v>
       </c>
       <c r="C84" s="24"/>
-      <c r="D84" s="661"/>
+      <c r="D84" s="662"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
@@ -38412,10 +38412,10 @@
     </row>
     <row r="85" spans="1:11" ht="14.35">
       <c r="A85" s="2"/>
-      <c r="B85" s="656" t="s">
+      <c r="B85" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C85" s="659"/>
+      <c r="C85" s="650"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
@@ -38520,8 +38520,8 @@
       <c r="D94" s="37"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
-      <c r="G94" s="663"/>
-      <c r="H94" s="664"/>
+      <c r="G94" s="666"/>
+      <c r="H94" s="667"/>
       <c r="K94" s="10"/>
     </row>
     <row r="95" spans="1:11" ht="14.35">
@@ -38545,10 +38545,10 @@
       <c r="C96" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="D96" s="665" t="s">
+      <c r="D96" s="668" t="s">
         <v>59</v>
       </c>
-      <c r="E96" s="647"/>
+      <c r="E96" s="652"/>
       <c r="F96" s="2"/>
       <c r="G96" s="54"/>
       <c r="H96" s="12"/>
@@ -38694,10 +38694,10 @@
     </row>
     <row r="106" spans="1:11" ht="14.35">
       <c r="A106" s="2"/>
-      <c r="B106" s="666" t="s">
+      <c r="B106" s="669" t="s">
         <v>34</v>
       </c>
-      <c r="C106" s="667"/>
+      <c r="C106" s="670"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
@@ -38816,7 +38816,7 @@
         <v>80</v>
       </c>
       <c r="D116" s="23"/>
-      <c r="E116" s="668" t="s">
+      <c r="E116" s="665" t="s">
         <v>59</v>
       </c>
       <c r="F116" s="633"/>
@@ -39023,10 +39023,10 @@
     </row>
     <row r="130" spans="1:11" ht="14.35">
       <c r="A130" s="2"/>
-      <c r="B130" s="656" t="s">
+      <c r="B130" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C130" s="657"/>
+      <c r="C130" s="648"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
@@ -39313,10 +39313,10 @@
     </row>
     <row r="156" spans="1:11" ht="14.35">
       <c r="A156" s="2"/>
-      <c r="B156" s="656" t="s">
+      <c r="B156" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C156" s="657"/>
+      <c r="C156" s="648"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
       <c r="H156" s="10"/>
@@ -39511,10 +39511,10 @@
     </row>
     <row r="174" spans="1:11" ht="14.35">
       <c r="A174" s="2"/>
-      <c r="B174" s="656" t="s">
+      <c r="B174" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C174" s="659"/>
+      <c r="C174" s="650"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
@@ -39742,10 +39742,10 @@
     </row>
     <row r="192" spans="1:11" ht="14.35">
       <c r="A192" s="2"/>
-      <c r="B192" s="656" t="s">
+      <c r="B192" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C192" s="659"/>
+      <c r="C192" s="650"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
@@ -40073,10 +40073,10 @@
     </row>
     <row r="217" spans="1:11" ht="14.35">
       <c r="A217" s="2"/>
-      <c r="B217" s="656" t="s">
+      <c r="B217" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C217" s="657"/>
+      <c r="C217" s="648"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
@@ -40382,10 +40382,10 @@
     </row>
     <row r="242" spans="1:11" ht="14.35">
       <c r="A242" s="2"/>
-      <c r="B242" s="656" t="s">
+      <c r="B242" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C242" s="657"/>
+      <c r="C242" s="648"/>
       <c r="D242" s="2"/>
       <c r="F242" s="2"/>
       <c r="G242" s="2"/>
@@ -40748,7 +40748,7 @@
         <v>143</v>
       </c>
       <c r="C268" s="11"/>
-      <c r="D268" s="669"/>
+      <c r="D268" s="663"/>
       <c r="E268" s="2"/>
       <c r="F268" s="2"/>
       <c r="G268" s="2"/>
@@ -40761,7 +40761,7 @@
         <v>144</v>
       </c>
       <c r="C269" s="11"/>
-      <c r="D269" s="670"/>
+      <c r="D269" s="664"/>
       <c r="E269" s="2"/>
       <c r="F269" s="2"/>
       <c r="G269" s="2"/>
@@ -40774,7 +40774,7 @@
         <v>30</v>
       </c>
       <c r="C270" s="11"/>
-      <c r="D270" s="670"/>
+      <c r="D270" s="664"/>
       <c r="E270" s="2"/>
       <c r="F270" s="2"/>
       <c r="G270" s="2"/>
@@ -40787,7 +40787,7 @@
         <v>31</v>
       </c>
       <c r="C271" s="11"/>
-      <c r="D271" s="670"/>
+      <c r="D271" s="664"/>
       <c r="E271" s="2"/>
       <c r="F271" s="2"/>
       <c r="G271" s="2"/>
@@ -40800,7 +40800,7 @@
         <v>145</v>
       </c>
       <c r="C272" s="11"/>
-      <c r="D272" s="670"/>
+      <c r="D272" s="664"/>
       <c r="E272" s="2"/>
       <c r="F272" s="2"/>
       <c r="G272" s="2"/>
@@ -40822,10 +40822,10 @@
     </row>
     <row r="274" spans="1:11" ht="14.35">
       <c r="A274" s="2"/>
-      <c r="B274" s="656" t="s">
+      <c r="B274" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C274" s="659"/>
+      <c r="C274" s="650"/>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
       <c r="F274" s="2"/>
@@ -41249,7 +41249,7 @@
         <v>143</v>
       </c>
       <c r="C304" s="11"/>
-      <c r="D304" s="660"/>
+      <c r="D304" s="661"/>
       <c r="E304" s="84"/>
       <c r="F304" s="85"/>
       <c r="G304" s="2"/>
@@ -41262,7 +41262,7 @@
         <v>144</v>
       </c>
       <c r="C305" s="11"/>
-      <c r="D305" s="661"/>
+      <c r="D305" s="662"/>
       <c r="E305" s="84"/>
       <c r="F305" s="85"/>
       <c r="G305" s="2"/>
@@ -41275,7 +41275,7 @@
         <v>30</v>
       </c>
       <c r="C306" s="11"/>
-      <c r="D306" s="661"/>
+      <c r="D306" s="662"/>
       <c r="E306" s="84"/>
       <c r="F306" s="85"/>
       <c r="G306" s="2"/>
@@ -41288,7 +41288,7 @@
         <v>31</v>
       </c>
       <c r="C307" s="11"/>
-      <c r="D307" s="661"/>
+      <c r="D307" s="662"/>
       <c r="E307" s="84"/>
       <c r="F307" s="85"/>
       <c r="G307" s="2"/>
@@ -41301,7 +41301,7 @@
         <v>145</v>
       </c>
       <c r="C308" s="11"/>
-      <c r="D308" s="661"/>
+      <c r="D308" s="662"/>
       <c r="E308" s="84"/>
       <c r="F308" s="85"/>
       <c r="G308" s="2"/>
@@ -41323,10 +41323,10 @@
     </row>
     <row r="310" spans="1:11" ht="14.35">
       <c r="A310" s="2"/>
-      <c r="B310" s="656" t="s">
+      <c r="B310" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C310" s="659"/>
+      <c r="C310" s="650"/>
       <c r="D310" s="28"/>
       <c r="E310" s="2"/>
       <c r="F310" s="2"/>
@@ -41497,7 +41497,7 @@
         <v>64</v>
       </c>
       <c r="C324" s="11"/>
-      <c r="D324" s="660"/>
+      <c r="D324" s="661"/>
       <c r="F324" s="2"/>
       <c r="G324" s="2"/>
       <c r="H324" s="8"/>
@@ -41509,7 +41509,7 @@
         <v>65</v>
       </c>
       <c r="C325" s="11"/>
-      <c r="D325" s="661"/>
+      <c r="D325" s="662"/>
       <c r="F325" s="2"/>
       <c r="G325" s="2"/>
       <c r="H325" s="8"/>
@@ -41521,7 +41521,7 @@
         <v>30</v>
       </c>
       <c r="C326" s="11"/>
-      <c r="D326" s="661"/>
+      <c r="D326" s="662"/>
       <c r="F326" s="2"/>
       <c r="G326" s="2"/>
       <c r="H326" s="8"/>
@@ -41533,7 +41533,7 @@
         <v>31</v>
       </c>
       <c r="C327" s="11"/>
-      <c r="D327" s="661"/>
+      <c r="D327" s="662"/>
       <c r="F327" s="2"/>
       <c r="G327" s="2"/>
       <c r="H327" s="8"/>
@@ -41545,7 +41545,7 @@
         <v>68</v>
       </c>
       <c r="C328" s="11"/>
-      <c r="D328" s="661"/>
+      <c r="D328" s="662"/>
       <c r="F328" s="2"/>
       <c r="G328" s="2"/>
       <c r="H328" s="8"/>
@@ -41565,10 +41565,10 @@
     </row>
     <row r="330" spans="1:11" ht="14.35">
       <c r="A330" s="2"/>
-      <c r="B330" s="656" t="s">
+      <c r="B330" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C330" s="659"/>
+      <c r="C330" s="650"/>
       <c r="D330" s="28"/>
       <c r="F330" s="2"/>
       <c r="G330" s="2"/>
@@ -41827,10 +41827,10 @@
     </row>
     <row r="352" spans="1:11" ht="14.35">
       <c r="A352" s="2"/>
-      <c r="B352" s="656" t="s">
+      <c r="B352" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C352" s="657"/>
+      <c r="C352" s="648"/>
       <c r="D352" s="2"/>
       <c r="F352" s="2"/>
       <c r="G352" s="2"/>
@@ -42034,10 +42034,10 @@
     </row>
     <row r="370" spans="1:11" ht="14.35">
       <c r="A370" s="2"/>
-      <c r="B370" s="656" t="s">
+      <c r="B370" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C370" s="657"/>
+      <c r="C370" s="648"/>
       <c r="F370" s="2"/>
       <c r="G370" s="2"/>
       <c r="H370" s="8"/>
@@ -42517,10 +42517,10 @@
     </row>
     <row r="405" spans="1:11" ht="14.7">
       <c r="A405" s="2"/>
-      <c r="B405" s="645" t="s">
+      <c r="B405" s="659" t="s">
         <v>34</v>
       </c>
-      <c r="C405" s="644"/>
+      <c r="C405" s="641"/>
       <c r="D405" s="97"/>
       <c r="F405" s="2"/>
       <c r="G405" s="2"/>
@@ -43033,10 +43033,10 @@
     </row>
     <row r="440" spans="1:11" ht="14.7">
       <c r="A440" s="2"/>
-      <c r="B440" s="645" t="s">
+      <c r="B440" s="659" t="s">
         <v>34</v>
       </c>
-      <c r="C440" s="644"/>
+      <c r="C440" s="641"/>
       <c r="D440" s="97"/>
       <c r="E440" s="97"/>
       <c r="F440" s="2"/>
@@ -43512,10 +43512,10 @@
     </row>
     <row r="473" spans="1:11" ht="14.7">
       <c r="A473" s="2"/>
-      <c r="B473" s="645" t="s">
+      <c r="B473" s="659" t="s">
         <v>34</v>
       </c>
-      <c r="C473" s="644"/>
+      <c r="C473" s="641"/>
       <c r="D473" s="97"/>
       <c r="E473" s="97"/>
       <c r="F473" s="97"/>
@@ -43987,10 +43987,10 @@
     </row>
     <row r="506" spans="1:11" ht="14.7">
       <c r="A506" s="2"/>
-      <c r="B506" s="645" t="s">
+      <c r="B506" s="659" t="s">
         <v>34</v>
       </c>
-      <c r="C506" s="644"/>
+      <c r="C506" s="641"/>
       <c r="D506" s="97"/>
       <c r="E506" s="97"/>
       <c r="F506" s="97"/>
@@ -44861,10 +44861,10 @@
     </row>
     <row r="559" spans="1:11" ht="14.7">
       <c r="A559" s="2"/>
-      <c r="B559" s="645" t="s">
+      <c r="B559" s="659" t="s">
         <v>34</v>
       </c>
-      <c r="C559" s="644"/>
+      <c r="C559" s="641"/>
       <c r="D559" s="97"/>
       <c r="E559" s="97"/>
       <c r="F559" s="97"/>
@@ -45288,10 +45288,10 @@
     </row>
     <row r="597" spans="1:11" ht="14.35">
       <c r="A597" s="2"/>
-      <c r="B597" s="656" t="s">
+      <c r="B597" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C597" s="657"/>
+      <c r="C597" s="648"/>
       <c r="D597" s="2"/>
       <c r="E597" s="2"/>
       <c r="F597" s="2"/>
@@ -45533,10 +45533,10 @@
     </row>
     <row r="616" spans="1:11" ht="14.35">
       <c r="A616" s="2"/>
-      <c r="B616" s="656" t="s">
+      <c r="B616" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C616" s="657"/>
+      <c r="C616" s="648"/>
       <c r="D616" s="2"/>
       <c r="E616" s="2"/>
       <c r="F616" s="2"/>
@@ -45774,10 +45774,10 @@
     </row>
     <row r="635" spans="1:11" ht="14.35">
       <c r="A635" s="2"/>
-      <c r="B635" s="656" t="s">
+      <c r="B635" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C635" s="659"/>
+      <c r="C635" s="650"/>
       <c r="D635" s="127"/>
       <c r="E635" s="2"/>
       <c r="F635" s="2"/>
@@ -46034,10 +46034,10 @@
     </row>
     <row r="655" spans="1:11" ht="14.35">
       <c r="A655" s="2"/>
-      <c r="B655" s="656" t="s">
+      <c r="B655" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C655" s="657"/>
+      <c r="C655" s="648"/>
       <c r="D655" s="2"/>
       <c r="E655" s="2"/>
       <c r="F655" s="2"/>
@@ -46262,10 +46262,10 @@
     </row>
     <row r="673" spans="1:11" ht="14.35">
       <c r="A673" s="2"/>
-      <c r="B673" s="656" t="s">
+      <c r="B673" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C673" s="659"/>
+      <c r="C673" s="650"/>
       <c r="D673" s="2"/>
       <c r="E673" s="2"/>
       <c r="F673" s="2"/>
@@ -46501,10 +46501,10 @@
     </row>
     <row r="692" spans="1:11" ht="14.35">
       <c r="A692" s="2"/>
-      <c r="B692" s="671" t="s">
+      <c r="B692" s="660" t="s">
         <v>34</v>
       </c>
-      <c r="C692" s="644"/>
+      <c r="C692" s="641"/>
       <c r="D692" s="2"/>
       <c r="E692" s="2"/>
       <c r="F692" s="2"/>
@@ -46737,10 +46737,10 @@
     </row>
     <row r="710" spans="1:11" ht="14.35">
       <c r="A710" s="2"/>
-      <c r="B710" s="671" t="s">
+      <c r="B710" s="660" t="s">
         <v>34</v>
       </c>
-      <c r="C710" s="644"/>
+      <c r="C710" s="641"/>
       <c r="D710" s="2"/>
       <c r="E710" s="2"/>
       <c r="F710" s="2"/>
@@ -47059,10 +47059,10 @@
     </row>
     <row r="736" spans="1:11" ht="14.35">
       <c r="A736" s="2"/>
-      <c r="B736" s="656" t="s">
+      <c r="B736" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C736" s="657"/>
+      <c r="C736" s="648"/>
       <c r="D736" s="2"/>
       <c r="E736" s="2"/>
       <c r="F736" s="2"/>
@@ -47325,10 +47325,10 @@
     </row>
     <row r="756" spans="1:11" ht="14.35">
       <c r="A756" s="2"/>
-      <c r="B756" s="656" t="s">
+      <c r="B756" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C756" s="657"/>
+      <c r="C756" s="648"/>
       <c r="D756" s="2"/>
       <c r="E756" s="2"/>
       <c r="F756" s="2"/>
@@ -47616,10 +47616,10 @@
     </row>
     <row r="779" spans="1:11" ht="14.35">
       <c r="A779" s="2"/>
-      <c r="B779" s="656" t="s">
+      <c r="B779" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C779" s="657"/>
+      <c r="C779" s="648"/>
       <c r="D779" s="2"/>
       <c r="E779" s="2"/>
       <c r="F779" s="2"/>
@@ -47905,10 +47905,10 @@
     </row>
     <row r="802" spans="1:11" ht="14.35">
       <c r="A802" s="2"/>
-      <c r="B802" s="656" t="s">
+      <c r="B802" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C802" s="659"/>
+      <c r="C802" s="650"/>
       <c r="D802" s="2"/>
       <c r="E802" s="2"/>
       <c r="F802" s="2"/>
@@ -48187,10 +48187,10 @@
     </row>
     <row r="824" spans="1:11" ht="14.35">
       <c r="A824" s="2"/>
-      <c r="B824" s="656" t="s">
+      <c r="B824" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C824" s="659"/>
+      <c r="C824" s="650"/>
       <c r="D824" s="2"/>
       <c r="E824" s="2"/>
       <c r="F824" s="2"/>
@@ -48498,10 +48498,10 @@
     </row>
     <row r="849" spans="1:11" ht="14.35">
       <c r="A849" s="2"/>
-      <c r="B849" s="656" t="s">
+      <c r="B849" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C849" s="659"/>
+      <c r="C849" s="650"/>
       <c r="D849" s="149"/>
       <c r="E849" s="2"/>
       <c r="F849" s="2"/>
@@ -48806,10 +48806,10 @@
       <c r="K873" s="10"/>
     </row>
     <row r="874" spans="2:11" ht="14.35">
-      <c r="B874" s="656" t="s">
+      <c r="B874" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C874" s="659"/>
+      <c r="C874" s="650"/>
       <c r="D874" s="2"/>
       <c r="E874" s="2"/>
       <c r="F874" s="2"/>
@@ -49115,10 +49115,10 @@
       <c r="K899" s="10"/>
     </row>
     <row r="900" spans="1:11" ht="14.35">
-      <c r="B900" s="656" t="s">
+      <c r="B900" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C900" s="659"/>
+      <c r="C900" s="650"/>
       <c r="D900" s="2"/>
       <c r="E900" s="2"/>
       <c r="F900" s="2"/>
@@ -49348,10 +49348,10 @@
     </row>
     <row r="920" spans="1:11" ht="14.35">
       <c r="A920" s="2"/>
-      <c r="B920" s="656" t="s">
+      <c r="B920" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C920" s="659"/>
+      <c r="C920" s="650"/>
       <c r="D920" s="2"/>
       <c r="E920" s="2"/>
       <c r="F920" s="2"/>
@@ -49628,10 +49628,10 @@
     </row>
     <row r="942" spans="1:11" ht="14.35">
       <c r="A942" s="2"/>
-      <c r="B942" s="656" t="s">
+      <c r="B942" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C942" s="659"/>
+      <c r="C942" s="650"/>
       <c r="D942" s="2"/>
       <c r="E942" s="2"/>
       <c r="F942" s="2"/>
@@ -49875,10 +49875,10 @@
     </row>
     <row r="961" spans="1:11" ht="14.35">
       <c r="A961" s="2"/>
-      <c r="B961" s="656" t="s">
+      <c r="B961" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C961" s="659"/>
+      <c r="C961" s="650"/>
       <c r="D961" s="2"/>
       <c r="E961" s="2"/>
       <c r="F961" s="2"/>
@@ -50118,10 +50118,10 @@
     </row>
     <row r="980" spans="1:11" ht="14.35">
       <c r="A980" s="2"/>
-      <c r="B980" s="656" t="s">
+      <c r="B980" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C980" s="659"/>
+      <c r="C980" s="650"/>
       <c r="D980" s="2"/>
       <c r="E980" s="2"/>
       <c r="F980" s="2"/>
@@ -50262,10 +50262,10 @@
     </row>
     <row r="994" spans="1:11" ht="14.35">
       <c r="A994" s="2"/>
-      <c r="B994" s="656" t="s">
+      <c r="B994" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C994" s="659"/>
+      <c r="C994" s="650"/>
       <c r="F994" s="2"/>
       <c r="G994" s="2"/>
       <c r="H994" s="8"/>
@@ -50512,10 +50512,10 @@
     </row>
     <row r="1014" spans="1:11" ht="14.35">
       <c r="A1014" s="2"/>
-      <c r="B1014" s="656" t="s">
+      <c r="B1014" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C1014" s="657"/>
+      <c r="C1014" s="648"/>
       <c r="D1014" s="2"/>
       <c r="E1014" s="2"/>
       <c r="F1014" s="2"/>
@@ -50717,10 +50717,10 @@
     </row>
     <row r="1031" spans="1:11" ht="14.35">
       <c r="A1031" s="2"/>
-      <c r="B1031" s="656" t="s">
+      <c r="B1031" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C1031" s="659"/>
+      <c r="C1031" s="650"/>
       <c r="D1031" s="2"/>
       <c r="E1031" s="2"/>
       <c r="F1031" s="2"/>
@@ -50963,10 +50963,10 @@
       <c r="K1050" s="10"/>
     </row>
     <row r="1051" spans="2:11" ht="14.35">
-      <c r="B1051" s="656" t="s">
+      <c r="B1051" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C1051" s="657"/>
+      <c r="C1051" s="648"/>
       <c r="D1051" s="2"/>
       <c r="E1051" s="2"/>
       <c r="F1051" s="2"/>
@@ -51227,10 +51227,10 @@
     </row>
     <row r="1073" spans="1:11" ht="14.35">
       <c r="A1073" s="2"/>
-      <c r="B1073" s="656" t="s">
+      <c r="B1073" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C1073" s="657"/>
+      <c r="C1073" s="648"/>
       <c r="D1073" s="2"/>
       <c r="E1073" s="2"/>
       <c r="F1073" s="2"/>
@@ -51526,10 +51526,10 @@
     </row>
     <row r="1096" spans="1:11" ht="14.35">
       <c r="A1096" s="2"/>
-      <c r="B1096" s="656" t="s">
+      <c r="B1096" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C1096" s="657"/>
+      <c r="C1096" s="648"/>
       <c r="D1096" s="2"/>
       <c r="E1096" s="2"/>
       <c r="F1096" s="2"/>
@@ -51553,61 +51553,61 @@
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D36:D41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="B217:C217"/>
+    <mergeCell ref="B242:C242"/>
+    <mergeCell ref="D268:D272"/>
+    <mergeCell ref="B274:C274"/>
+    <mergeCell ref="D304:D308"/>
+    <mergeCell ref="B310:C310"/>
+    <mergeCell ref="D324:D328"/>
+    <mergeCell ref="B330:C330"/>
+    <mergeCell ref="B352:C352"/>
+    <mergeCell ref="B370:C370"/>
+    <mergeCell ref="B405:C405"/>
+    <mergeCell ref="B440:C440"/>
+    <mergeCell ref="B473:C473"/>
+    <mergeCell ref="B506:C506"/>
+    <mergeCell ref="B559:C559"/>
+    <mergeCell ref="B597:C597"/>
+    <mergeCell ref="B616:C616"/>
+    <mergeCell ref="B635:C635"/>
+    <mergeCell ref="B655:C655"/>
+    <mergeCell ref="B673:C673"/>
+    <mergeCell ref="B692:C692"/>
+    <mergeCell ref="B710:C710"/>
+    <mergeCell ref="B736:C736"/>
+    <mergeCell ref="B756:C756"/>
+    <mergeCell ref="B779:C779"/>
+    <mergeCell ref="B802:C802"/>
+    <mergeCell ref="B824:C824"/>
+    <mergeCell ref="B849:C849"/>
+    <mergeCell ref="B874:C874"/>
+    <mergeCell ref="B900:C900"/>
+    <mergeCell ref="B920:C920"/>
+    <mergeCell ref="B942:C942"/>
+    <mergeCell ref="B961:C961"/>
+    <mergeCell ref="B980:C980"/>
+    <mergeCell ref="B994:C994"/>
     <mergeCell ref="B1014:C1014"/>
     <mergeCell ref="B1031:C1031"/>
     <mergeCell ref="B1051:C1051"/>
     <mergeCell ref="B1073:C1073"/>
     <mergeCell ref="B1096:C1096"/>
-    <mergeCell ref="B920:C920"/>
-    <mergeCell ref="B942:C942"/>
-    <mergeCell ref="B961:C961"/>
-    <mergeCell ref="B980:C980"/>
-    <mergeCell ref="B994:C994"/>
-    <mergeCell ref="B802:C802"/>
-    <mergeCell ref="B824:C824"/>
-    <mergeCell ref="B849:C849"/>
-    <mergeCell ref="B874:C874"/>
-    <mergeCell ref="B900:C900"/>
-    <mergeCell ref="B692:C692"/>
-    <mergeCell ref="B710:C710"/>
-    <mergeCell ref="B736:C736"/>
-    <mergeCell ref="B756:C756"/>
-    <mergeCell ref="B779:C779"/>
-    <mergeCell ref="B597:C597"/>
-    <mergeCell ref="B616:C616"/>
-    <mergeCell ref="B635:C635"/>
-    <mergeCell ref="B655:C655"/>
-    <mergeCell ref="B673:C673"/>
-    <mergeCell ref="B405:C405"/>
-    <mergeCell ref="B440:C440"/>
-    <mergeCell ref="B473:C473"/>
-    <mergeCell ref="B506:C506"/>
-    <mergeCell ref="B559:C559"/>
-    <mergeCell ref="B310:C310"/>
-    <mergeCell ref="D324:D328"/>
-    <mergeCell ref="B330:C330"/>
-    <mergeCell ref="B352:C352"/>
-    <mergeCell ref="B370:C370"/>
-    <mergeCell ref="B217:C217"/>
-    <mergeCell ref="B242:C242"/>
-    <mergeCell ref="D268:D272"/>
-    <mergeCell ref="B274:C274"/>
-    <mergeCell ref="D304:D308"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D36:D41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="E75:F75"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -51677,10 +51677,10 @@
       <c r="D2" s="246" t="s">
         <v>508</v>
       </c>
-      <c r="E2" s="698" t="s">
+      <c r="E2" s="682" t="s">
         <v>509</v>
       </c>
-      <c r="F2" s="699"/>
+      <c r="F2" s="683"/>
       <c r="G2" s="252" t="s">
         <v>510</v>
       </c>
@@ -51713,71 +51713,71 @@
       <c r="A3" s="253">
         <v>1</v>
       </c>
-      <c r="B3" s="681" t="s">
+      <c r="B3" s="694" t="s">
         <v>456</v>
       </c>
-      <c r="C3" s="682"/>
-      <c r="D3" s="682"/>
-      <c r="E3" s="682"/>
-      <c r="F3" s="682"/>
-      <c r="G3" s="682"/>
-      <c r="H3" s="682"/>
-      <c r="I3" s="682"/>
-      <c r="J3" s="682"/>
-      <c r="K3" s="683" t="s">
+      <c r="C3" s="695"/>
+      <c r="D3" s="695"/>
+      <c r="E3" s="695"/>
+      <c r="F3" s="695"/>
+      <c r="G3" s="695"/>
+      <c r="H3" s="695"/>
+      <c r="I3" s="695"/>
+      <c r="J3" s="695"/>
+      <c r="K3" s="688" t="s">
         <v>457</v>
       </c>
-      <c r="L3" s="684"/>
-      <c r="M3" s="684"/>
-      <c r="N3" s="684"/>
-      <c r="O3" s="684"/>
-      <c r="P3" s="684"/>
-      <c r="Q3" s="684"/>
-      <c r="R3" s="684"/>
-      <c r="S3" s="684"/>
-      <c r="T3" s="684"/>
-      <c r="U3" s="684"/>
-      <c r="V3" s="684"/>
-      <c r="W3" s="684"/>
+      <c r="L3" s="687"/>
+      <c r="M3" s="687"/>
+      <c r="N3" s="687"/>
+      <c r="O3" s="687"/>
+      <c r="P3" s="687"/>
+      <c r="Q3" s="687"/>
+      <c r="R3" s="687"/>
+      <c r="S3" s="687"/>
+      <c r="T3" s="687"/>
+      <c r="U3" s="687"/>
+      <c r="V3" s="687"/>
+      <c r="W3" s="687"/>
     </row>
     <row r="4" spans="1:23" ht="14">
       <c r="A4" s="244"/>
-      <c r="B4" s="685" t="s">
+      <c r="B4" s="696" t="s">
         <v>459</v>
       </c>
-      <c r="C4" s="686"/>
-      <c r="D4" s="686"/>
+      <c r="C4" s="693"/>
+      <c r="D4" s="693"/>
       <c r="E4" s="674" t="s">
         <v>515</v>
       </c>
-      <c r="F4" s="686"/>
-      <c r="G4" s="686"/>
-      <c r="H4" s="687" t="s">
+      <c r="F4" s="693"/>
+      <c r="G4" s="693"/>
+      <c r="H4" s="697" t="s">
         <v>516</v>
       </c>
-      <c r="I4" s="688"/>
-      <c r="J4" s="688"/>
+      <c r="I4" s="698"/>
+      <c r="J4" s="698"/>
       <c r="K4" s="674" t="s">
         <v>460</v>
       </c>
-      <c r="L4" s="686"/>
-      <c r="M4" s="686"/>
+      <c r="L4" s="693"/>
+      <c r="M4" s="693"/>
       <c r="N4" s="674" t="s">
         <v>517</v>
       </c>
-      <c r="O4" s="686"/>
-      <c r="P4" s="686"/>
+      <c r="O4" s="693"/>
+      <c r="P4" s="693"/>
       <c r="Q4" s="674" t="s">
         <v>518</v>
       </c>
-      <c r="R4" s="686"/>
-      <c r="S4" s="686"/>
-      <c r="T4" s="689" t="s">
+      <c r="R4" s="693"/>
+      <c r="S4" s="693"/>
+      <c r="T4" s="699" t="s">
         <v>519</v>
       </c>
-      <c r="U4" s="690"/>
-      <c r="V4" s="690"/>
-      <c r="W4" s="690"/>
+      <c r="U4" s="700"/>
+      <c r="V4" s="700"/>
+      <c r="W4" s="700"/>
     </row>
     <row r="5" spans="1:23" ht="15.35">
       <c r="A5" s="244"/>
@@ -51835,7 +51835,7 @@
       <c r="S5" s="259" t="s">
         <v>463</v>
       </c>
-      <c r="T5" s="691" t="s">
+      <c r="T5" s="681" t="s">
         <v>520</v>
       </c>
       <c r="U5" s="171" t="s">
@@ -51880,7 +51880,7 @@
       <c r="Q6" s="184"/>
       <c r="R6" s="183"/>
       <c r="S6" s="268"/>
-      <c r="T6" s="644"/>
+      <c r="T6" s="641"/>
       <c r="U6" s="171" t="s">
         <v>524</v>
       </c>
@@ -52327,32 +52327,32 @@
       </c>
     </row>
     <row r="23" spans="1:23" ht="14">
-      <c r="B23" s="695" t="s">
+      <c r="B23" s="684" t="s">
         <v>456</v>
       </c>
-      <c r="C23" s="644"/>
-      <c r="D23" s="644"/>
-      <c r="E23" s="644"/>
-      <c r="F23" s="644"/>
-      <c r="G23" s="644"/>
-      <c r="H23" s="644"/>
-      <c r="I23" s="644"/>
-      <c r="J23" s="644"/>
-      <c r="K23" s="694" t="s">
+      <c r="C23" s="641"/>
+      <c r="D23" s="641"/>
+      <c r="E23" s="641"/>
+      <c r="F23" s="641"/>
+      <c r="G23" s="641"/>
+      <c r="H23" s="641"/>
+      <c r="I23" s="641"/>
+      <c r="J23" s="641"/>
+      <c r="K23" s="685" t="s">
         <v>911</v>
       </c>
-      <c r="L23" s="644"/>
-      <c r="M23" s="644"/>
-      <c r="N23" s="644"/>
-      <c r="O23" s="644"/>
-      <c r="P23" s="644"/>
-      <c r="Q23" s="644"/>
-      <c r="R23" s="644"/>
-      <c r="S23" s="644"/>
-      <c r="T23" s="644"/>
-      <c r="U23" s="644"/>
-      <c r="V23" s="644"/>
-      <c r="W23" s="644"/>
+      <c r="L23" s="641"/>
+      <c r="M23" s="641"/>
+      <c r="N23" s="641"/>
+      <c r="O23" s="641"/>
+      <c r="P23" s="641"/>
+      <c r="Q23" s="641"/>
+      <c r="R23" s="641"/>
+      <c r="S23" s="641"/>
+      <c r="T23" s="641"/>
+      <c r="U23" s="641"/>
+      <c r="V23" s="641"/>
+      <c r="W23" s="641"/>
     </row>
     <row r="24" spans="1:23" ht="14">
       <c r="A24" s="253">
@@ -52388,12 +52388,12 @@
       </c>
       <c r="R24" s="678"/>
       <c r="S24" s="678"/>
-      <c r="T24" s="692" t="s">
+      <c r="T24" s="679" t="s">
         <v>519</v>
       </c>
-      <c r="U24" s="693"/>
-      <c r="V24" s="693"/>
-      <c r="W24" s="693"/>
+      <c r="U24" s="680"/>
+      <c r="V24" s="680"/>
+      <c r="W24" s="680"/>
     </row>
     <row r="25" spans="1:23" ht="15.35">
       <c r="A25" s="288"/>
@@ -52451,7 +52451,7 @@
       <c r="S25" s="258" t="s">
         <v>914</v>
       </c>
-      <c r="T25" s="691" t="s">
+      <c r="T25" s="681" t="s">
         <v>520</v>
       </c>
       <c r="U25" s="171" t="s">
@@ -52496,7 +52496,7 @@
       <c r="Q26" s="184"/>
       <c r="R26" s="188"/>
       <c r="S26" s="188"/>
-      <c r="T26" s="644"/>
+      <c r="T26" s="641"/>
       <c r="U26" s="171" t="s">
         <v>524</v>
       </c>
@@ -52760,32 +52760,32 @@
       <c r="E43" s="307"/>
     </row>
     <row r="44" spans="1:23" ht="14">
-      <c r="B44" s="695" t="s">
+      <c r="B44" s="684" t="s">
         <v>456</v>
       </c>
-      <c r="C44" s="644"/>
-      <c r="D44" s="644"/>
-      <c r="E44" s="644"/>
-      <c r="F44" s="644"/>
-      <c r="G44" s="644"/>
-      <c r="H44" s="644"/>
-      <c r="I44" s="644"/>
-      <c r="J44" s="644"/>
-      <c r="K44" s="695" t="s">
+      <c r="C44" s="641"/>
+      <c r="D44" s="641"/>
+      <c r="E44" s="641"/>
+      <c r="F44" s="641"/>
+      <c r="G44" s="641"/>
+      <c r="H44" s="641"/>
+      <c r="I44" s="641"/>
+      <c r="J44" s="641"/>
+      <c r="K44" s="684" t="s">
         <v>457</v>
       </c>
-      <c r="L44" s="644"/>
-      <c r="M44" s="644"/>
-      <c r="N44" s="644"/>
-      <c r="O44" s="644"/>
-      <c r="P44" s="644"/>
-      <c r="Q44" s="644"/>
-      <c r="R44" s="644"/>
-      <c r="S44" s="644"/>
-      <c r="T44" s="644"/>
-      <c r="U44" s="644"/>
-      <c r="V44" s="644"/>
-      <c r="W44" s="644"/>
+      <c r="L44" s="641"/>
+      <c r="M44" s="641"/>
+      <c r="N44" s="641"/>
+      <c r="O44" s="641"/>
+      <c r="P44" s="641"/>
+      <c r="Q44" s="641"/>
+      <c r="R44" s="641"/>
+      <c r="S44" s="641"/>
+      <c r="T44" s="641"/>
+      <c r="U44" s="641"/>
+      <c r="V44" s="641"/>
+      <c r="W44" s="641"/>
     </row>
     <row r="45" spans="1:23" ht="14">
       <c r="A45" s="253">
@@ -52821,12 +52821,12 @@
       </c>
       <c r="R45" s="678"/>
       <c r="S45" s="678"/>
-      <c r="T45" s="696" t="s">
+      <c r="T45" s="692" t="s">
         <v>519</v>
       </c>
-      <c r="U45" s="686"/>
-      <c r="V45" s="686"/>
-      <c r="W45" s="686"/>
+      <c r="U45" s="693"/>
+      <c r="V45" s="693"/>
+      <c r="W45" s="693"/>
     </row>
     <row r="46" spans="1:23" ht="15.35">
       <c r="A46" s="288"/>
@@ -52884,7 +52884,7 @@
       <c r="S46" s="287" t="s">
         <v>914</v>
       </c>
-      <c r="T46" s="701" t="s">
+      <c r="T46" s="689" t="s">
         <v>520</v>
       </c>
       <c r="U46" s="318" t="s">
@@ -52929,7 +52929,7 @@
       <c r="Q47" s="184"/>
       <c r="R47" s="188"/>
       <c r="S47" s="188"/>
-      <c r="T47" s="644"/>
+      <c r="T47" s="641"/>
       <c r="U47" s="171" t="s">
         <v>524</v>
       </c>
@@ -53161,32 +53161,32 @@
       <c r="C61" s="170"/>
     </row>
     <row r="62" spans="1:23" ht="14">
-      <c r="B62" s="695" t="s">
+      <c r="B62" s="684" t="s">
         <v>456</v>
       </c>
-      <c r="C62" s="644"/>
-      <c r="D62" s="644"/>
-      <c r="E62" s="644"/>
-      <c r="F62" s="644"/>
-      <c r="G62" s="644"/>
-      <c r="H62" s="644"/>
-      <c r="I62" s="644"/>
-      <c r="J62" s="644"/>
-      <c r="K62" s="695" t="s">
+      <c r="C62" s="641"/>
+      <c r="D62" s="641"/>
+      <c r="E62" s="641"/>
+      <c r="F62" s="641"/>
+      <c r="G62" s="641"/>
+      <c r="H62" s="641"/>
+      <c r="I62" s="641"/>
+      <c r="J62" s="641"/>
+      <c r="K62" s="684" t="s">
         <v>457</v>
       </c>
-      <c r="L62" s="644"/>
-      <c r="M62" s="644"/>
-      <c r="N62" s="644"/>
-      <c r="O62" s="644"/>
-      <c r="P62" s="644"/>
-      <c r="Q62" s="644"/>
-      <c r="R62" s="644"/>
-      <c r="S62" s="644"/>
-      <c r="T62" s="644"/>
-      <c r="U62" s="644"/>
-      <c r="V62" s="644"/>
-      <c r="W62" s="644"/>
+      <c r="L62" s="641"/>
+      <c r="M62" s="641"/>
+      <c r="N62" s="641"/>
+      <c r="O62" s="641"/>
+      <c r="P62" s="641"/>
+      <c r="Q62" s="641"/>
+      <c r="R62" s="641"/>
+      <c r="S62" s="641"/>
+      <c r="T62" s="641"/>
+      <c r="U62" s="641"/>
+      <c r="V62" s="641"/>
+      <c r="W62" s="641"/>
     </row>
     <row r="63" spans="1:23" ht="14">
       <c r="A63" s="253">
@@ -53222,12 +53222,12 @@
       </c>
       <c r="R63" s="678"/>
       <c r="S63" s="678"/>
-      <c r="T63" s="692" t="s">
+      <c r="T63" s="679" t="s">
         <v>519</v>
       </c>
-      <c r="U63" s="693"/>
-      <c r="V63" s="693"/>
-      <c r="W63" s="693"/>
+      <c r="U63" s="680"/>
+      <c r="V63" s="680"/>
+      <c r="W63" s="680"/>
     </row>
     <row r="64" spans="1:23" ht="15.35">
       <c r="A64" s="288"/>
@@ -53285,7 +53285,7 @@
       <c r="S64" s="254" t="s">
         <v>463</v>
       </c>
-      <c r="T64" s="691" t="s">
+      <c r="T64" s="681" t="s">
         <v>520</v>
       </c>
       <c r="U64" s="171" t="s">
@@ -53330,7 +53330,7 @@
       <c r="Q65" s="184"/>
       <c r="R65" s="184"/>
       <c r="S65" s="184"/>
-      <c r="T65" s="644"/>
+      <c r="T65" s="641"/>
       <c r="U65" s="171" t="s">
         <v>524</v>
       </c>
@@ -53595,32 +53595,32 @@
       </c>
     </row>
     <row r="85" spans="1:23" ht="14">
-      <c r="B85" s="694" t="s">
+      <c r="B85" s="685" t="s">
         <v>919</v>
       </c>
-      <c r="C85" s="644"/>
-      <c r="D85" s="644"/>
-      <c r="E85" s="644"/>
-      <c r="F85" s="644"/>
-      <c r="G85" s="644"/>
-      <c r="H85" s="644"/>
-      <c r="I85" s="644"/>
-      <c r="J85" s="644"/>
-      <c r="K85" s="694" t="s">
+      <c r="C85" s="641"/>
+      <c r="D85" s="641"/>
+      <c r="E85" s="641"/>
+      <c r="F85" s="641"/>
+      <c r="G85" s="641"/>
+      <c r="H85" s="641"/>
+      <c r="I85" s="641"/>
+      <c r="J85" s="641"/>
+      <c r="K85" s="685" t="s">
         <v>911</v>
       </c>
-      <c r="L85" s="644"/>
-      <c r="M85" s="644"/>
-      <c r="N85" s="644"/>
-      <c r="O85" s="644"/>
-      <c r="P85" s="644"/>
-      <c r="Q85" s="644"/>
-      <c r="R85" s="644"/>
-      <c r="S85" s="644"/>
-      <c r="T85" s="644"/>
-      <c r="U85" s="644"/>
-      <c r="V85" s="644"/>
-      <c r="W85" s="644"/>
+      <c r="L85" s="641"/>
+      <c r="M85" s="641"/>
+      <c r="N85" s="641"/>
+      <c r="O85" s="641"/>
+      <c r="P85" s="641"/>
+      <c r="Q85" s="641"/>
+      <c r="R85" s="641"/>
+      <c r="S85" s="641"/>
+      <c r="T85" s="641"/>
+      <c r="U85" s="641"/>
+      <c r="V85" s="641"/>
+      <c r="W85" s="641"/>
     </row>
     <row r="86" spans="1:23" ht="14">
       <c r="A86" s="253">
@@ -53631,17 +53631,17 @@
       </c>
       <c r="C86" s="673"/>
       <c r="D86" s="673"/>
-      <c r="E86" s="680" t="s">
+      <c r="E86" s="690" t="s">
         <v>920</v>
       </c>
       <c r="F86" s="675"/>
       <c r="G86" s="675"/>
-      <c r="H86" s="697" t="s">
+      <c r="H86" s="691" t="s">
         <v>921</v>
       </c>
       <c r="I86" s="677"/>
       <c r="J86" s="677"/>
-      <c r="K86" s="680" t="s">
+      <c r="K86" s="690" t="s">
         <v>922</v>
       </c>
       <c r="L86" s="678"/>
@@ -53656,12 +53656,12 @@
       </c>
       <c r="R86" s="678"/>
       <c r="S86" s="678"/>
-      <c r="T86" s="692" t="s">
+      <c r="T86" s="679" t="s">
         <v>519</v>
       </c>
-      <c r="U86" s="693"/>
-      <c r="V86" s="693"/>
-      <c r="W86" s="693"/>
+      <c r="U86" s="680"/>
+      <c r="V86" s="680"/>
+      <c r="W86" s="680"/>
     </row>
     <row r="87" spans="1:23" ht="15.35">
       <c r="A87" s="288"/>
@@ -53719,7 +53719,7 @@
       <c r="S87" s="254" t="s">
         <v>463</v>
       </c>
-      <c r="T87" s="691" t="s">
+      <c r="T87" s="681" t="s">
         <v>520</v>
       </c>
       <c r="U87" s="171" t="s">
@@ -53764,7 +53764,7 @@
       <c r="Q88" s="184"/>
       <c r="R88" s="184"/>
       <c r="S88" s="184"/>
-      <c r="T88" s="644"/>
+      <c r="T88" s="641"/>
       <c r="U88" s="171" t="s">
         <v>524</v>
       </c>
@@ -54028,32 +54028,32 @@
       <c r="C106" s="170"/>
     </row>
     <row r="107" spans="1:23" ht="14">
-      <c r="B107" s="694" t="s">
+      <c r="B107" s="685" t="s">
         <v>919</v>
       </c>
-      <c r="C107" s="644"/>
-      <c r="D107" s="644"/>
-      <c r="E107" s="644"/>
-      <c r="F107" s="644"/>
-      <c r="G107" s="644"/>
-      <c r="H107" s="644"/>
-      <c r="I107" s="644"/>
-      <c r="J107" s="644"/>
-      <c r="K107" s="695" t="s">
+      <c r="C107" s="641"/>
+      <c r="D107" s="641"/>
+      <c r="E107" s="641"/>
+      <c r="F107" s="641"/>
+      <c r="G107" s="641"/>
+      <c r="H107" s="641"/>
+      <c r="I107" s="641"/>
+      <c r="J107" s="641"/>
+      <c r="K107" s="684" t="s">
         <v>457</v>
       </c>
-      <c r="L107" s="644"/>
-      <c r="M107" s="644"/>
-      <c r="N107" s="644"/>
-      <c r="O107" s="644"/>
-      <c r="P107" s="644"/>
-      <c r="Q107" s="644"/>
-      <c r="R107" s="644"/>
-      <c r="S107" s="644"/>
-      <c r="T107" s="644"/>
-      <c r="U107" s="644"/>
-      <c r="V107" s="644"/>
-      <c r="W107" s="644"/>
+      <c r="L107" s="641"/>
+      <c r="M107" s="641"/>
+      <c r="N107" s="641"/>
+      <c r="O107" s="641"/>
+      <c r="P107" s="641"/>
+      <c r="Q107" s="641"/>
+      <c r="R107" s="641"/>
+      <c r="S107" s="641"/>
+      <c r="T107" s="641"/>
+      <c r="U107" s="641"/>
+      <c r="V107" s="641"/>
+      <c r="W107" s="641"/>
     </row>
     <row r="108" spans="1:23" ht="14">
       <c r="A108" s="253">
@@ -54064,7 +54064,7 @@
       </c>
       <c r="C108" s="673"/>
       <c r="D108" s="673"/>
-      <c r="E108" s="680" t="s">
+      <c r="E108" s="690" t="s">
         <v>920</v>
       </c>
       <c r="F108" s="675"/>
@@ -54089,12 +54089,12 @@
       </c>
       <c r="R108" s="678"/>
       <c r="S108" s="678"/>
-      <c r="T108" s="692" t="s">
+      <c r="T108" s="679" t="s">
         <v>519</v>
       </c>
-      <c r="U108" s="693"/>
-      <c r="V108" s="693"/>
-      <c r="W108" s="693"/>
+      <c r="U108" s="680"/>
+      <c r="V108" s="680"/>
+      <c r="W108" s="680"/>
     </row>
     <row r="109" spans="1:23" ht="15.35">
       <c r="A109" s="288"/>
@@ -54152,7 +54152,7 @@
       <c r="S109" s="346" t="s">
         <v>463</v>
       </c>
-      <c r="T109" s="691" t="s">
+      <c r="T109" s="681" t="s">
         <v>520</v>
       </c>
       <c r="U109" s="171" t="s">
@@ -54197,7 +54197,7 @@
       <c r="Q110" s="184"/>
       <c r="R110" s="184"/>
       <c r="S110" s="184"/>
-      <c r="T110" s="644"/>
+      <c r="T110" s="641"/>
       <c r="U110" s="171" t="s">
         <v>524</v>
       </c>
@@ -54411,32 +54411,32 @@
       </c>
     </row>
     <row r="128" spans="1:23" ht="14">
-      <c r="B128" s="695" t="s">
+      <c r="B128" s="684" t="s">
         <v>456</v>
       </c>
-      <c r="C128" s="644"/>
-      <c r="D128" s="644"/>
-      <c r="E128" s="644"/>
-      <c r="F128" s="644"/>
-      <c r="G128" s="644"/>
-      <c r="H128" s="644"/>
-      <c r="I128" s="644"/>
-      <c r="J128" s="644"/>
-      <c r="K128" s="695" t="s">
+      <c r="C128" s="641"/>
+      <c r="D128" s="641"/>
+      <c r="E128" s="641"/>
+      <c r="F128" s="641"/>
+      <c r="G128" s="641"/>
+      <c r="H128" s="641"/>
+      <c r="I128" s="641"/>
+      <c r="J128" s="641"/>
+      <c r="K128" s="684" t="s">
         <v>457</v>
       </c>
-      <c r="L128" s="644"/>
-      <c r="M128" s="644"/>
-      <c r="N128" s="644"/>
-      <c r="O128" s="644"/>
-      <c r="P128" s="644"/>
-      <c r="Q128" s="644"/>
-      <c r="R128" s="644"/>
-      <c r="S128" s="644"/>
-      <c r="T128" s="644"/>
-      <c r="U128" s="644"/>
-      <c r="V128" s="644"/>
-      <c r="W128" s="644"/>
+      <c r="L128" s="641"/>
+      <c r="M128" s="641"/>
+      <c r="N128" s="641"/>
+      <c r="O128" s="641"/>
+      <c r="P128" s="641"/>
+      <c r="Q128" s="641"/>
+      <c r="R128" s="641"/>
+      <c r="S128" s="641"/>
+      <c r="T128" s="641"/>
+      <c r="U128" s="641"/>
+      <c r="V128" s="641"/>
+      <c r="W128" s="641"/>
     </row>
     <row r="129" spans="1:23" ht="14">
       <c r="A129" s="253">
@@ -54472,12 +54472,12 @@
       </c>
       <c r="R129" s="678"/>
       <c r="S129" s="678"/>
-      <c r="T129" s="692" t="s">
+      <c r="T129" s="679" t="s">
         <v>519</v>
       </c>
-      <c r="U129" s="693"/>
-      <c r="V129" s="693"/>
-      <c r="W129" s="693"/>
+      <c r="U129" s="680"/>
+      <c r="V129" s="680"/>
+      <c r="W129" s="680"/>
     </row>
     <row r="130" spans="1:23" ht="15.35">
       <c r="A130" s="288"/>
@@ -54535,7 +54535,7 @@
       <c r="S130" s="346" t="s">
         <v>463</v>
       </c>
-      <c r="T130" s="691" t="s">
+      <c r="T130" s="681" t="s">
         <v>520</v>
       </c>
       <c r="U130" s="171" t="s">
@@ -54580,7 +54580,7 @@
       <c r="Q131" s="184"/>
       <c r="R131" s="184"/>
       <c r="S131" s="184"/>
-      <c r="T131" s="644"/>
+      <c r="T131" s="641"/>
       <c r="U131" s="171" t="s">
         <v>524</v>
       </c>
@@ -54780,32 +54780,32 @@
       </c>
     </row>
     <row r="142" spans="1:23" ht="14">
-      <c r="B142" s="695" t="s">
+      <c r="B142" s="684" t="s">
         <v>456</v>
       </c>
-      <c r="C142" s="644"/>
-      <c r="D142" s="644"/>
-      <c r="E142" s="644"/>
-      <c r="F142" s="644"/>
-      <c r="G142" s="644"/>
-      <c r="H142" s="644"/>
-      <c r="I142" s="644"/>
-      <c r="J142" s="644"/>
-      <c r="K142" s="695" t="s">
+      <c r="C142" s="641"/>
+      <c r="D142" s="641"/>
+      <c r="E142" s="641"/>
+      <c r="F142" s="641"/>
+      <c r="G142" s="641"/>
+      <c r="H142" s="641"/>
+      <c r="I142" s="641"/>
+      <c r="J142" s="641"/>
+      <c r="K142" s="684" t="s">
         <v>457</v>
       </c>
-      <c r="L142" s="644"/>
-      <c r="M142" s="644"/>
-      <c r="N142" s="644"/>
-      <c r="O142" s="644"/>
-      <c r="P142" s="644"/>
-      <c r="Q142" s="644"/>
-      <c r="R142" s="644"/>
-      <c r="S142" s="644"/>
-      <c r="T142" s="644"/>
-      <c r="U142" s="644"/>
-      <c r="V142" s="644"/>
-      <c r="W142" s="644"/>
+      <c r="L142" s="641"/>
+      <c r="M142" s="641"/>
+      <c r="N142" s="641"/>
+      <c r="O142" s="641"/>
+      <c r="P142" s="641"/>
+      <c r="Q142" s="641"/>
+      <c r="R142" s="641"/>
+      <c r="S142" s="641"/>
+      <c r="T142" s="641"/>
+      <c r="U142" s="641"/>
+      <c r="V142" s="641"/>
+      <c r="W142" s="641"/>
     </row>
     <row r="143" spans="1:23" ht="14">
       <c r="A143" s="253">
@@ -54839,14 +54839,14 @@
       <c r="Q143" s="674" t="s">
         <v>916</v>
       </c>
-      <c r="R143" s="679"/>
-      <c r="S143" s="679"/>
-      <c r="T143" s="692" t="s">
+      <c r="R143" s="701"/>
+      <c r="S143" s="701"/>
+      <c r="T143" s="679" t="s">
         <v>519</v>
       </c>
-      <c r="U143" s="693"/>
-      <c r="V143" s="693"/>
-      <c r="W143" s="693"/>
+      <c r="U143" s="680"/>
+      <c r="V143" s="680"/>
+      <c r="W143" s="680"/>
     </row>
     <row r="144" spans="1:23" ht="15.35">
       <c r="A144" s="288"/>
@@ -54904,7 +54904,7 @@
       <c r="S144" s="254" t="s">
         <v>463</v>
       </c>
-      <c r="T144" s="691" t="s">
+      <c r="T144" s="681" t="s">
         <v>520</v>
       </c>
       <c r="U144" s="171" t="s">
@@ -54949,7 +54949,7 @@
       <c r="Q145" s="184"/>
       <c r="R145" s="184"/>
       <c r="S145" s="184"/>
-      <c r="T145" s="644"/>
+      <c r="T145" s="641"/>
       <c r="U145" s="171" t="s">
         <v>524</v>
       </c>
@@ -55141,32 +55141,32 @@
       </c>
     </row>
     <row r="157" spans="1:23" ht="14">
-      <c r="B157" s="700" t="s">
+      <c r="B157" s="686" t="s">
         <v>456</v>
       </c>
-      <c r="C157" s="684"/>
-      <c r="D157" s="684"/>
-      <c r="E157" s="684"/>
-      <c r="F157" s="684"/>
-      <c r="G157" s="684"/>
-      <c r="H157" s="684"/>
-      <c r="I157" s="684"/>
-      <c r="J157" s="684"/>
-      <c r="K157" s="683" t="s">
+      <c r="C157" s="687"/>
+      <c r="D157" s="687"/>
+      <c r="E157" s="687"/>
+      <c r="F157" s="687"/>
+      <c r="G157" s="687"/>
+      <c r="H157" s="687"/>
+      <c r="I157" s="687"/>
+      <c r="J157" s="687"/>
+      <c r="K157" s="688" t="s">
         <v>911</v>
       </c>
-      <c r="L157" s="684"/>
-      <c r="M157" s="684"/>
-      <c r="N157" s="684"/>
-      <c r="O157" s="684"/>
-      <c r="P157" s="684"/>
-      <c r="Q157" s="684"/>
-      <c r="R157" s="684"/>
-      <c r="S157" s="684"/>
-      <c r="T157" s="684"/>
-      <c r="U157" s="684"/>
-      <c r="V157" s="684"/>
-      <c r="W157" s="684"/>
+      <c r="L157" s="687"/>
+      <c r="M157" s="687"/>
+      <c r="N157" s="687"/>
+      <c r="O157" s="687"/>
+      <c r="P157" s="687"/>
+      <c r="Q157" s="687"/>
+      <c r="R157" s="687"/>
+      <c r="S157" s="687"/>
+      <c r="T157" s="687"/>
+      <c r="U157" s="687"/>
+      <c r="V157" s="687"/>
+      <c r="W157" s="687"/>
     </row>
     <row r="158" spans="1:23" ht="14">
       <c r="A158" s="253">
@@ -55202,12 +55202,12 @@
       </c>
       <c r="R158" s="678"/>
       <c r="S158" s="678"/>
-      <c r="T158" s="692" t="s">
+      <c r="T158" s="679" t="s">
         <v>519</v>
       </c>
-      <c r="U158" s="693"/>
-      <c r="V158" s="693"/>
-      <c r="W158" s="693"/>
+      <c r="U158" s="680"/>
+      <c r="V158" s="680"/>
+      <c r="W158" s="680"/>
     </row>
     <row r="159" spans="1:23" ht="15.35">
       <c r="A159" s="288"/>
@@ -55265,7 +55265,7 @@
       <c r="S159" s="258" t="s">
         <v>914</v>
       </c>
-      <c r="T159" s="691" t="s">
+      <c r="T159" s="681" t="s">
         <v>520</v>
       </c>
       <c r="U159" s="171" t="s">
@@ -55310,7 +55310,7 @@
       <c r="Q160" s="321"/>
       <c r="R160" s="275"/>
       <c r="S160" s="275"/>
-      <c r="T160" s="644"/>
+      <c r="T160" s="641"/>
       <c r="U160" s="171"/>
       <c r="V160" s="266"/>
       <c r="W160" s="266"/>
@@ -55347,7 +55347,7 @@
       <c r="Q161" s="184"/>
       <c r="R161" s="188"/>
       <c r="S161" s="188"/>
-      <c r="T161" s="644"/>
+      <c r="T161" s="641"/>
       <c r="U161" s="171" t="s">
         <v>524</v>
       </c>
@@ -55548,32 +55548,32 @@
     </row>
     <row r="172" spans="1:23" ht="14">
       <c r="A172" s="293"/>
-      <c r="B172" s="695" t="s">
+      <c r="B172" s="684" t="s">
         <v>456</v>
       </c>
-      <c r="C172" s="644"/>
-      <c r="D172" s="644"/>
-      <c r="E172" s="644"/>
-      <c r="F172" s="644"/>
-      <c r="G172" s="644"/>
-      <c r="H172" s="644"/>
-      <c r="I172" s="644"/>
-      <c r="J172" s="644"/>
-      <c r="K172" s="694" t="s">
+      <c r="C172" s="641"/>
+      <c r="D172" s="641"/>
+      <c r="E172" s="641"/>
+      <c r="F172" s="641"/>
+      <c r="G172" s="641"/>
+      <c r="H172" s="641"/>
+      <c r="I172" s="641"/>
+      <c r="J172" s="641"/>
+      <c r="K172" s="685" t="s">
         <v>911</v>
       </c>
-      <c r="L172" s="644"/>
-      <c r="M172" s="644"/>
-      <c r="N172" s="644"/>
-      <c r="O172" s="644"/>
-      <c r="P172" s="644"/>
-      <c r="Q172" s="644"/>
-      <c r="R172" s="644"/>
-      <c r="S172" s="644"/>
-      <c r="T172" s="644"/>
-      <c r="U172" s="644"/>
-      <c r="V172" s="644"/>
-      <c r="W172" s="644"/>
+      <c r="L172" s="641"/>
+      <c r="M172" s="641"/>
+      <c r="N172" s="641"/>
+      <c r="O172" s="641"/>
+      <c r="P172" s="641"/>
+      <c r="Q172" s="641"/>
+      <c r="R172" s="641"/>
+      <c r="S172" s="641"/>
+      <c r="T172" s="641"/>
+      <c r="U172" s="641"/>
+      <c r="V172" s="641"/>
+      <c r="W172" s="641"/>
     </row>
     <row r="173" spans="1:23" ht="14">
       <c r="A173" s="293"/>
@@ -55607,12 +55607,12 @@
       </c>
       <c r="R173" s="678"/>
       <c r="S173" s="678"/>
-      <c r="T173" s="692" t="s">
+      <c r="T173" s="679" t="s">
         <v>519</v>
       </c>
-      <c r="U173" s="693"/>
-      <c r="V173" s="693"/>
-      <c r="W173" s="693"/>
+      <c r="U173" s="680"/>
+      <c r="V173" s="680"/>
+      <c r="W173" s="680"/>
     </row>
     <row r="174" spans="1:23" ht="15.35">
       <c r="A174" s="293"/>
@@ -55670,7 +55670,7 @@
       <c r="S174" s="258" t="s">
         <v>914</v>
       </c>
-      <c r="T174" s="691" t="s">
+      <c r="T174" s="681" t="s">
         <v>520</v>
       </c>
       <c r="U174" s="171" t="s">
@@ -55715,7 +55715,7 @@
       <c r="Q175" s="184"/>
       <c r="R175" s="188"/>
       <c r="S175" s="188"/>
-      <c r="T175" s="644"/>
+      <c r="T175" s="641"/>
       <c r="U175" s="171" t="s">
         <v>524</v>
       </c>
@@ -57861,15 +57861,74 @@
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="B173:D173"/>
-    <mergeCell ref="E173:G173"/>
-    <mergeCell ref="H173:J173"/>
-    <mergeCell ref="K173:M173"/>
-    <mergeCell ref="N173:P173"/>
-    <mergeCell ref="Q173:S173"/>
-    <mergeCell ref="T173:W173"/>
-    <mergeCell ref="T174:T175"/>
-    <mergeCell ref="T159:T161"/>
+    <mergeCell ref="B143:D143"/>
+    <mergeCell ref="E143:G143"/>
+    <mergeCell ref="H143:J143"/>
+    <mergeCell ref="K143:M143"/>
+    <mergeCell ref="N143:P143"/>
+    <mergeCell ref="Q143:S143"/>
+    <mergeCell ref="K108:M108"/>
+    <mergeCell ref="H108:J108"/>
+    <mergeCell ref="E108:G108"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="Q129:S129"/>
+    <mergeCell ref="B129:D129"/>
+    <mergeCell ref="E129:G129"/>
+    <mergeCell ref="H129:J129"/>
+    <mergeCell ref="K129:M129"/>
+    <mergeCell ref="N129:P129"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="K3:W3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="K23:W23"/>
+    <mergeCell ref="B44:J44"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="T45:W45"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="K62:W62"/>
+    <mergeCell ref="B85:J85"/>
+    <mergeCell ref="B107:J107"/>
+    <mergeCell ref="B128:J128"/>
+    <mergeCell ref="N86:P86"/>
+    <mergeCell ref="Q86:S86"/>
+    <mergeCell ref="T86:W86"/>
+    <mergeCell ref="T87:T88"/>
+    <mergeCell ref="K85:W85"/>
+    <mergeCell ref="N108:P108"/>
+    <mergeCell ref="Q108:S108"/>
+    <mergeCell ref="T108:W108"/>
+    <mergeCell ref="T109:T110"/>
+    <mergeCell ref="K107:W107"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="K63:M63"/>
+    <mergeCell ref="N63:P63"/>
+    <mergeCell ref="Q63:S63"/>
+    <mergeCell ref="K86:M86"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="B86:D86"/>
     <mergeCell ref="B158:D158"/>
     <mergeCell ref="E158:G158"/>
     <mergeCell ref="H158:J158"/>
@@ -57894,74 +57953,15 @@
     <mergeCell ref="B62:J62"/>
     <mergeCell ref="T63:W63"/>
     <mergeCell ref="T64:T65"/>
-    <mergeCell ref="K62:W62"/>
-    <mergeCell ref="B85:J85"/>
-    <mergeCell ref="B107:J107"/>
-    <mergeCell ref="B128:J128"/>
-    <mergeCell ref="N86:P86"/>
-    <mergeCell ref="Q86:S86"/>
-    <mergeCell ref="T86:W86"/>
-    <mergeCell ref="T87:T88"/>
-    <mergeCell ref="K85:W85"/>
-    <mergeCell ref="N108:P108"/>
-    <mergeCell ref="Q108:S108"/>
-    <mergeCell ref="T108:W108"/>
-    <mergeCell ref="T109:T110"/>
-    <mergeCell ref="K107:W107"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="K63:M63"/>
-    <mergeCell ref="N63:P63"/>
-    <mergeCell ref="Q63:S63"/>
-    <mergeCell ref="K86:M86"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="K23:W23"/>
-    <mergeCell ref="B44:J44"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="T45:W45"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="K3:W3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="B143:D143"/>
-    <mergeCell ref="E143:G143"/>
-    <mergeCell ref="H143:J143"/>
-    <mergeCell ref="K143:M143"/>
-    <mergeCell ref="N143:P143"/>
-    <mergeCell ref="Q143:S143"/>
-    <mergeCell ref="K108:M108"/>
-    <mergeCell ref="H108:J108"/>
-    <mergeCell ref="E108:G108"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="Q129:S129"/>
-    <mergeCell ref="B129:D129"/>
-    <mergeCell ref="E129:G129"/>
-    <mergeCell ref="H129:J129"/>
-    <mergeCell ref="K129:M129"/>
-    <mergeCell ref="N129:P129"/>
+    <mergeCell ref="B173:D173"/>
+    <mergeCell ref="E173:G173"/>
+    <mergeCell ref="H173:J173"/>
+    <mergeCell ref="K173:M173"/>
+    <mergeCell ref="N173:P173"/>
+    <mergeCell ref="Q173:S173"/>
+    <mergeCell ref="T173:W173"/>
+    <mergeCell ref="T174:T175"/>
+    <mergeCell ref="T159:T161"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -58002,31 +58002,31 @@
       <c r="A2" s="196" t="s">
         <v>455</v>
       </c>
-      <c r="B2" s="704" t="s">
+      <c r="B2" s="709" t="s">
         <v>456</v>
       </c>
-      <c r="C2" s="705"/>
-      <c r="D2" s="705"/>
-      <c r="E2" s="706" t="s">
+      <c r="C2" s="710"/>
+      <c r="D2" s="710"/>
+      <c r="E2" s="711" t="s">
         <v>457</v>
       </c>
-      <c r="F2" s="688"/>
-      <c r="G2" s="688"/>
+      <c r="F2" s="698"/>
+      <c r="G2" s="698"/>
     </row>
     <row r="3" spans="1:7" ht="14">
       <c r="A3" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B3" s="702" t="s">
+      <c r="B3" s="707" t="s">
         <v>459</v>
       </c>
-      <c r="C3" s="686"/>
-      <c r="D3" s="686"/>
-      <c r="E3" s="703" t="s">
+      <c r="C3" s="693"/>
+      <c r="D3" s="693"/>
+      <c r="E3" s="708" t="s">
         <v>460</v>
       </c>
-      <c r="F3" s="686"/>
-      <c r="G3" s="686"/>
+      <c r="F3" s="693"/>
+      <c r="G3" s="693"/>
     </row>
     <row r="4" spans="1:7" ht="15.35">
       <c r="A4" s="197"/>
@@ -58163,31 +58163,31 @@
       <c r="A13" s="196" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="704" t="s">
+      <c r="B13" s="709" t="s">
         <v>456</v>
       </c>
-      <c r="C13" s="705"/>
-      <c r="D13" s="705"/>
-      <c r="E13" s="706" t="s">
+      <c r="C13" s="710"/>
+      <c r="D13" s="710"/>
+      <c r="E13" s="711" t="s">
         <v>457</v>
       </c>
-      <c r="F13" s="688"/>
-      <c r="G13" s="688"/>
+      <c r="F13" s="698"/>
+      <c r="G13" s="698"/>
     </row>
     <row r="14" spans="1:7" ht="14">
       <c r="A14" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B14" s="702" t="s">
+      <c r="B14" s="707" t="s">
         <v>459</v>
       </c>
-      <c r="C14" s="686"/>
-      <c r="D14" s="686"/>
-      <c r="E14" s="703" t="s">
+      <c r="C14" s="693"/>
+      <c r="D14" s="693"/>
+      <c r="E14" s="708" t="s">
         <v>460</v>
       </c>
-      <c r="F14" s="686"/>
-      <c r="G14" s="686"/>
+      <c r="F14" s="693"/>
+      <c r="G14" s="693"/>
     </row>
     <row r="15" spans="1:7" ht="15.35">
       <c r="A15" s="197"/>
@@ -58342,31 +58342,31 @@
       <c r="A24" s="196" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="704" t="s">
+      <c r="B24" s="709" t="s">
         <v>456</v>
       </c>
-      <c r="C24" s="705"/>
-      <c r="D24" s="705"/>
-      <c r="E24" s="706" t="s">
+      <c r="C24" s="710"/>
+      <c r="D24" s="710"/>
+      <c r="E24" s="711" t="s">
         <v>457</v>
       </c>
-      <c r="F24" s="688"/>
-      <c r="G24" s="688"/>
+      <c r="F24" s="698"/>
+      <c r="G24" s="698"/>
     </row>
     <row r="25" spans="1:7" ht="14">
       <c r="A25" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B25" s="702" t="s">
+      <c r="B25" s="707" t="s">
         <v>459</v>
       </c>
-      <c r="C25" s="686"/>
-      <c r="D25" s="686"/>
-      <c r="E25" s="703" t="s">
+      <c r="C25" s="693"/>
+      <c r="D25" s="693"/>
+      <c r="E25" s="708" t="s">
         <v>460</v>
       </c>
-      <c r="F25" s="686"/>
-      <c r="G25" s="686"/>
+      <c r="F25" s="693"/>
+      <c r="G25" s="693"/>
     </row>
     <row r="26" spans="1:7" ht="15.35">
       <c r="A26" s="197"/>
@@ -58503,31 +58503,31 @@
       <c r="A35" s="196" t="s">
         <v>92</v>
       </c>
-      <c r="B35" s="704" t="s">
+      <c r="B35" s="709" t="s">
         <v>456</v>
       </c>
-      <c r="C35" s="705"/>
-      <c r="D35" s="705"/>
-      <c r="E35" s="706" t="s">
+      <c r="C35" s="710"/>
+      <c r="D35" s="710"/>
+      <c r="E35" s="711" t="s">
         <v>457</v>
       </c>
-      <c r="F35" s="688"/>
-      <c r="G35" s="688"/>
+      <c r="F35" s="698"/>
+      <c r="G35" s="698"/>
     </row>
     <row r="36" spans="1:8" ht="25.35">
       <c r="A36" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B36" s="702" t="s">
+      <c r="B36" s="707" t="s">
         <v>459</v>
       </c>
-      <c r="C36" s="686"/>
-      <c r="D36" s="686"/>
-      <c r="E36" s="703" t="s">
+      <c r="C36" s="693"/>
+      <c r="D36" s="693"/>
+      <c r="E36" s="708" t="s">
         <v>460</v>
       </c>
-      <c r="F36" s="686"/>
-      <c r="G36" s="686"/>
+      <c r="F36" s="693"/>
+      <c r="G36" s="693"/>
     </row>
     <row r="37" spans="1:8" ht="15.35">
       <c r="B37" s="198" t="s">
@@ -58659,31 +58659,31 @@
       <c r="A48" s="196" t="s">
         <v>99</v>
       </c>
-      <c r="B48" s="704" t="s">
+      <c r="B48" s="709" t="s">
         <v>456</v>
       </c>
-      <c r="C48" s="705"/>
-      <c r="D48" s="705"/>
-      <c r="E48" s="706" t="s">
+      <c r="C48" s="710"/>
+      <c r="D48" s="710"/>
+      <c r="E48" s="711" t="s">
         <v>457</v>
       </c>
-      <c r="F48" s="688"/>
-      <c r="G48" s="688"/>
+      <c r="F48" s="698"/>
+      <c r="G48" s="698"/>
     </row>
     <row r="49" spans="1:8" ht="25.35">
       <c r="A49" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B49" s="702" t="s">
+      <c r="B49" s="707" t="s">
         <v>459</v>
       </c>
-      <c r="C49" s="686"/>
-      <c r="D49" s="686"/>
-      <c r="E49" s="703" t="s">
+      <c r="C49" s="693"/>
+      <c r="D49" s="693"/>
+      <c r="E49" s="708" t="s">
         <v>460</v>
       </c>
-      <c r="F49" s="686"/>
-      <c r="G49" s="686"/>
+      <c r="F49" s="693"/>
+      <c r="G49" s="693"/>
     </row>
     <row r="50" spans="1:8" ht="15.35">
       <c r="B50" s="198" t="s">
@@ -58815,31 +58815,31 @@
       <c r="A62" s="196" t="s">
         <v>104</v>
       </c>
-      <c r="B62" s="704" t="s">
+      <c r="B62" s="709" t="s">
         <v>456</v>
       </c>
-      <c r="C62" s="705"/>
-      <c r="D62" s="705"/>
-      <c r="E62" s="706" t="s">
+      <c r="C62" s="710"/>
+      <c r="D62" s="710"/>
+      <c r="E62" s="711" t="s">
         <v>457</v>
       </c>
-      <c r="F62" s="688"/>
-      <c r="G62" s="688"/>
+      <c r="F62" s="698"/>
+      <c r="G62" s="698"/>
     </row>
     <row r="63" spans="1:8" ht="25.35">
       <c r="A63" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B63" s="702" t="s">
+      <c r="B63" s="707" t="s">
         <v>459</v>
       </c>
-      <c r="C63" s="686"/>
-      <c r="D63" s="686"/>
-      <c r="E63" s="703" t="s">
+      <c r="C63" s="693"/>
+      <c r="D63" s="693"/>
+      <c r="E63" s="708" t="s">
         <v>460</v>
       </c>
-      <c r="F63" s="686"/>
-      <c r="G63" s="686"/>
+      <c r="F63" s="693"/>
+      <c r="G63" s="693"/>
     </row>
     <row r="64" spans="1:8" ht="15.35">
       <c r="B64" s="198" t="s">
@@ -58964,31 +58964,31 @@
       <c r="A79" s="191" t="s">
         <v>91</v>
       </c>
-      <c r="B79" s="704" t="s">
+      <c r="B79" s="709" t="s">
         <v>456</v>
       </c>
-      <c r="C79" s="705"/>
-      <c r="D79" s="705"/>
-      <c r="E79" s="706" t="s">
+      <c r="C79" s="710"/>
+      <c r="D79" s="710"/>
+      <c r="E79" s="711" t="s">
         <v>457</v>
       </c>
-      <c r="F79" s="688"/>
-      <c r="G79" s="688"/>
+      <c r="F79" s="698"/>
+      <c r="G79" s="698"/>
     </row>
     <row r="80" spans="1:9" ht="27.35">
       <c r="A80" s="196" t="s">
         <v>114</v>
       </c>
-      <c r="B80" s="702" t="s">
+      <c r="B80" s="707" t="s">
         <v>459</v>
       </c>
-      <c r="C80" s="686"/>
-      <c r="D80" s="686"/>
-      <c r="E80" s="703" t="s">
+      <c r="C80" s="693"/>
+      <c r="D80" s="693"/>
+      <c r="E80" s="708" t="s">
         <v>460</v>
       </c>
-      <c r="F80" s="686"/>
-      <c r="G80" s="686"/>
+      <c r="F80" s="693"/>
+      <c r="G80" s="693"/>
     </row>
     <row r="81" spans="1:7" ht="25.35">
       <c r="A81" s="10" t="s">
@@ -59126,31 +59126,31 @@
       <c r="A99" s="196" t="s">
         <v>119</v>
       </c>
-      <c r="B99" s="704" t="s">
+      <c r="B99" s="709" t="s">
         <v>456</v>
       </c>
-      <c r="C99" s="705"/>
-      <c r="D99" s="705"/>
-      <c r="E99" s="706" t="s">
+      <c r="C99" s="710"/>
+      <c r="D99" s="710"/>
+      <c r="E99" s="711" t="s">
         <v>457</v>
       </c>
-      <c r="F99" s="688"/>
-      <c r="G99" s="688"/>
+      <c r="F99" s="698"/>
+      <c r="G99" s="698"/>
     </row>
     <row r="100" spans="1:7" ht="14">
       <c r="A100" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B100" s="702" t="s">
+      <c r="B100" s="707" t="s">
         <v>459</v>
       </c>
-      <c r="C100" s="686"/>
-      <c r="D100" s="686"/>
-      <c r="E100" s="703" t="s">
+      <c r="C100" s="693"/>
+      <c r="D100" s="693"/>
+      <c r="E100" s="708" t="s">
         <v>460</v>
       </c>
-      <c r="F100" s="686"/>
-      <c r="G100" s="686"/>
+      <c r="F100" s="693"/>
+      <c r="G100" s="693"/>
     </row>
     <row r="101" spans="1:7" ht="15.35">
       <c r="A101" s="197"/>
@@ -59308,31 +59308,31 @@
       <c r="A112" s="196" t="s">
         <v>146</v>
       </c>
-      <c r="B112" s="704" t="s">
+      <c r="B112" s="709" t="s">
         <v>456</v>
       </c>
-      <c r="C112" s="705"/>
-      <c r="D112" s="705"/>
-      <c r="E112" s="706" t="s">
+      <c r="C112" s="710"/>
+      <c r="D112" s="710"/>
+      <c r="E112" s="711" t="s">
         <v>457</v>
       </c>
-      <c r="F112" s="688"/>
-      <c r="G112" s="688"/>
+      <c r="F112" s="698"/>
+      <c r="G112" s="698"/>
     </row>
     <row r="113" spans="1:7" ht="14">
       <c r="A113" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B113" s="702" t="s">
+      <c r="B113" s="707" t="s">
         <v>459</v>
       </c>
-      <c r="C113" s="686"/>
-      <c r="D113" s="686"/>
-      <c r="E113" s="703" t="s">
+      <c r="C113" s="693"/>
+      <c r="D113" s="693"/>
+      <c r="E113" s="708" t="s">
         <v>460</v>
       </c>
-      <c r="F113" s="686"/>
-      <c r="G113" s="686"/>
+      <c r="F113" s="693"/>
+      <c r="G113" s="693"/>
     </row>
     <row r="114" spans="1:7" ht="15.35">
       <c r="A114" s="197"/>
@@ -59461,31 +59461,31 @@
       <c r="A123" s="196" t="s">
         <v>163</v>
       </c>
-      <c r="B123" s="713" t="s">
+      <c r="B123" s="702" t="s">
         <v>456</v>
       </c>
-      <c r="C123" s="714"/>
-      <c r="D123" s="714"/>
-      <c r="E123" s="715" t="s">
+      <c r="C123" s="703"/>
+      <c r="D123" s="703"/>
+      <c r="E123" s="704" t="s">
         <v>457</v>
       </c>
-      <c r="F123" s="716"/>
-      <c r="G123" s="716"/>
+      <c r="F123" s="705"/>
+      <c r="G123" s="705"/>
     </row>
     <row r="124" spans="1:7" ht="14.35">
       <c r="A124" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B124" s="709" t="s">
+      <c r="B124" s="714" t="s">
         <v>459</v>
       </c>
-      <c r="C124" s="710"/>
-      <c r="D124" s="710"/>
-      <c r="E124" s="711" t="s">
+      <c r="C124" s="715"/>
+      <c r="D124" s="715"/>
+      <c r="E124" s="716" t="s">
         <v>460</v>
       </c>
-      <c r="F124" s="712"/>
-      <c r="G124" s="712"/>
+      <c r="F124" s="717"/>
+      <c r="G124" s="717"/>
     </row>
     <row r="125" spans="1:7" ht="14.35">
       <c r="A125" s="197"/>
@@ -59675,31 +59675,31 @@
       <c r="A136" s="196" t="s">
         <v>167</v>
       </c>
-      <c r="B136" s="704" t="s">
+      <c r="B136" s="709" t="s">
         <v>456</v>
       </c>
-      <c r="C136" s="705"/>
-      <c r="D136" s="705"/>
-      <c r="E136" s="706" t="s">
+      <c r="C136" s="710"/>
+      <c r="D136" s="710"/>
+      <c r="E136" s="711" t="s">
         <v>457</v>
       </c>
-      <c r="F136" s="707"/>
-      <c r="G136" s="707"/>
+      <c r="F136" s="712"/>
+      <c r="G136" s="712"/>
     </row>
     <row r="137" spans="1:7" ht="14">
       <c r="A137" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B137" s="704" t="s">
+      <c r="B137" s="709" t="s">
         <v>459</v>
       </c>
-      <c r="C137" s="707"/>
-      <c r="D137" s="708"/>
-      <c r="E137" s="706" t="s">
+      <c r="C137" s="712"/>
+      <c r="D137" s="713"/>
+      <c r="E137" s="711" t="s">
         <v>460</v>
       </c>
-      <c r="F137" s="707"/>
-      <c r="G137" s="707"/>
+      <c r="F137" s="712"/>
+      <c r="G137" s="712"/>
     </row>
     <row r="138" spans="1:7" ht="15.35">
       <c r="A138" s="197"/>
@@ -59843,31 +59843,31 @@
       <c r="A152" s="196" t="s">
         <v>186</v>
       </c>
-      <c r="B152" s="713" t="s">
+      <c r="B152" s="702" t="s">
         <v>456</v>
       </c>
-      <c r="C152" s="714"/>
-      <c r="D152" s="714"/>
-      <c r="E152" s="715" t="s">
+      <c r="C152" s="703"/>
+      <c r="D152" s="703"/>
+      <c r="E152" s="704" t="s">
         <v>457</v>
       </c>
-      <c r="F152" s="716"/>
-      <c r="G152" s="716"/>
+      <c r="F152" s="705"/>
+      <c r="G152" s="705"/>
     </row>
     <row r="153" spans="1:7" ht="21" customHeight="1">
       <c r="A153" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B153" s="713" t="s">
+      <c r="B153" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C153" s="714"/>
-      <c r="D153" s="714"/>
-      <c r="E153" s="715" t="s">
+      <c r="C153" s="703"/>
+      <c r="D153" s="703"/>
+      <c r="E153" s="704" t="s">
         <v>460</v>
       </c>
-      <c r="F153" s="716"/>
-      <c r="G153" s="716"/>
+      <c r="F153" s="705"/>
+      <c r="G153" s="705"/>
     </row>
     <row r="154" spans="1:7" ht="14.35">
       <c r="B154" s="220" t="s">
@@ -60143,31 +60143,31 @@
       <c r="A171" s="196" t="s">
         <v>208</v>
       </c>
-      <c r="B171" s="713" t="s">
+      <c r="B171" s="702" t="s">
         <v>456</v>
       </c>
-      <c r="C171" s="714"/>
-      <c r="D171" s="714"/>
-      <c r="E171" s="715" t="s">
+      <c r="C171" s="703"/>
+      <c r="D171" s="703"/>
+      <c r="E171" s="704" t="s">
         <v>457</v>
       </c>
-      <c r="F171" s="716"/>
-      <c r="G171" s="716"/>
+      <c r="F171" s="705"/>
+      <c r="G171" s="705"/>
     </row>
     <row r="172" spans="1:7" ht="27.35">
       <c r="A172" s="197" t="s">
         <v>476</v>
       </c>
-      <c r="B172" s="713" t="s">
+      <c r="B172" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C172" s="714"/>
-      <c r="D172" s="714"/>
-      <c r="E172" s="715" t="s">
+      <c r="C172" s="703"/>
+      <c r="D172" s="703"/>
+      <c r="E172" s="704" t="s">
         <v>460</v>
       </c>
-      <c r="F172" s="716"/>
-      <c r="G172" s="716"/>
+      <c r="F172" s="705"/>
+      <c r="G172" s="705"/>
     </row>
     <row r="173" spans="1:7" ht="14.35">
       <c r="A173" s="201"/>
@@ -60443,31 +60443,31 @@
       <c r="A190" s="196" t="s">
         <v>210</v>
       </c>
-      <c r="B190" s="713" t="s">
+      <c r="B190" s="702" t="s">
         <v>456</v>
       </c>
-      <c r="C190" s="714"/>
-      <c r="D190" s="714"/>
-      <c r="E190" s="715" t="s">
+      <c r="C190" s="703"/>
+      <c r="D190" s="703"/>
+      <c r="E190" s="704" t="s">
         <v>457</v>
       </c>
-      <c r="F190" s="716"/>
-      <c r="G190" s="716"/>
+      <c r="F190" s="705"/>
+      <c r="G190" s="705"/>
     </row>
     <row r="191" spans="1:7" ht="25.35">
       <c r="A191" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B191" s="713" t="s">
+      <c r="B191" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C191" s="714"/>
-      <c r="D191" s="714"/>
-      <c r="E191" s="715" t="s">
+      <c r="C191" s="703"/>
+      <c r="D191" s="703"/>
+      <c r="E191" s="704" t="s">
         <v>460</v>
       </c>
-      <c r="F191" s="716"/>
-      <c r="G191" s="716"/>
+      <c r="F191" s="705"/>
+      <c r="G191" s="705"/>
     </row>
     <row r="192" spans="1:7" ht="14.35">
       <c r="B192" s="220" t="s">
@@ -60721,31 +60721,31 @@
       <c r="A208" s="196" t="s">
         <v>215</v>
       </c>
-      <c r="B208" s="713" t="s">
+      <c r="B208" s="702" t="s">
         <v>456</v>
       </c>
-      <c r="C208" s="714"/>
-      <c r="D208" s="714"/>
-      <c r="E208" s="715" t="s">
+      <c r="C208" s="703"/>
+      <c r="D208" s="703"/>
+      <c r="E208" s="704" t="s">
         <v>457</v>
       </c>
-      <c r="F208" s="716"/>
-      <c r="G208" s="716"/>
+      <c r="F208" s="705"/>
+      <c r="G208" s="705"/>
     </row>
     <row r="209" spans="1:7" ht="25.35">
       <c r="A209" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B209" s="713" t="s">
+      <c r="B209" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C209" s="714"/>
-      <c r="D209" s="714"/>
-      <c r="E209" s="715" t="s">
+      <c r="C209" s="703"/>
+      <c r="D209" s="703"/>
+      <c r="E209" s="704" t="s">
         <v>460</v>
       </c>
-      <c r="F209" s="716"/>
-      <c r="G209" s="716"/>
+      <c r="F209" s="705"/>
+      <c r="G209" s="705"/>
     </row>
     <row r="210" spans="1:7" ht="14.35">
       <c r="B210" s="220" t="s">
@@ -61009,31 +61009,31 @@
       <c r="A226" s="196" t="s">
         <v>218</v>
       </c>
-      <c r="B226" s="713" t="s">
+      <c r="B226" s="702" t="s">
         <v>456</v>
       </c>
-      <c r="C226" s="714"/>
-      <c r="D226" s="714"/>
-      <c r="E226" s="715" t="s">
+      <c r="C226" s="703"/>
+      <c r="D226" s="703"/>
+      <c r="E226" s="704" t="s">
         <v>457</v>
       </c>
-      <c r="F226" s="717"/>
-      <c r="G226" s="717"/>
+      <c r="F226" s="706"/>
+      <c r="G226" s="706"/>
     </row>
     <row r="227" spans="1:7" ht="27.35">
       <c r="A227" s="197" t="s">
         <v>476</v>
       </c>
-      <c r="B227" s="713" t="s">
+      <c r="B227" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C227" s="644"/>
-      <c r="D227" s="644"/>
-      <c r="E227" s="715" t="s">
+      <c r="C227" s="641"/>
+      <c r="D227" s="641"/>
+      <c r="E227" s="704" t="s">
         <v>460</v>
       </c>
-      <c r="F227" s="717"/>
-      <c r="G227" s="717"/>
+      <c r="F227" s="706"/>
+      <c r="G227" s="706"/>
     </row>
     <row r="228" spans="1:7" ht="14.35">
       <c r="A228" s="197"/>
@@ -61231,31 +61231,31 @@
       <c r="A240" s="196" t="s">
         <v>223</v>
       </c>
-      <c r="B240" s="713" t="s">
+      <c r="B240" s="702" t="s">
         <v>456</v>
       </c>
-      <c r="C240" s="714"/>
-      <c r="D240" s="714"/>
-      <c r="E240" s="715" t="s">
+      <c r="C240" s="703"/>
+      <c r="D240" s="703"/>
+      <c r="E240" s="704" t="s">
         <v>457</v>
       </c>
-      <c r="F240" s="717"/>
-      <c r="G240" s="717"/>
+      <c r="F240" s="706"/>
+      <c r="G240" s="706"/>
     </row>
     <row r="241" spans="1:7" ht="27.35">
       <c r="A241" s="197" t="s">
         <v>476</v>
       </c>
-      <c r="B241" s="713" t="s">
+      <c r="B241" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C241" s="644"/>
-      <c r="D241" s="644"/>
-      <c r="E241" s="715" t="s">
+      <c r="C241" s="641"/>
+      <c r="D241" s="641"/>
+      <c r="E241" s="704" t="s">
         <v>460</v>
       </c>
-      <c r="F241" s="717"/>
-      <c r="G241" s="717"/>
+      <c r="F241" s="706"/>
+      <c r="G241" s="706"/>
     </row>
     <row r="242" spans="1:7" ht="14.35">
       <c r="A242" s="197"/>
@@ -61514,14 +61514,50 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="B152:D152"/>
-    <mergeCell ref="E152:G152"/>
-    <mergeCell ref="B153:D153"/>
-    <mergeCell ref="E153:G153"/>
-    <mergeCell ref="B172:D172"/>
-    <mergeCell ref="E172:G172"/>
-    <mergeCell ref="B171:D171"/>
-    <mergeCell ref="E171:G171"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="B137:D137"/>
+    <mergeCell ref="E137:G137"/>
+    <mergeCell ref="B124:D124"/>
+    <mergeCell ref="E124:G124"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="E112:G112"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="E113:G113"/>
+    <mergeCell ref="B136:D136"/>
+    <mergeCell ref="E136:G136"/>
+    <mergeCell ref="B123:D123"/>
+    <mergeCell ref="E123:G123"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="E79:G79"/>
     <mergeCell ref="B190:D190"/>
     <mergeCell ref="E190:G190"/>
     <mergeCell ref="B191:D191"/>
@@ -61538,50 +61574,14 @@
     <mergeCell ref="E227:G227"/>
     <mergeCell ref="B240:D240"/>
     <mergeCell ref="E240:G240"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="B137:D137"/>
-    <mergeCell ref="E137:G137"/>
-    <mergeCell ref="B124:D124"/>
-    <mergeCell ref="E124:G124"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="E112:G112"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="E113:G113"/>
-    <mergeCell ref="B136:D136"/>
-    <mergeCell ref="E136:G136"/>
-    <mergeCell ref="B123:D123"/>
-    <mergeCell ref="E123:G123"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="B152:D152"/>
+    <mergeCell ref="E152:G152"/>
+    <mergeCell ref="B153:D153"/>
+    <mergeCell ref="E153:G153"/>
+    <mergeCell ref="B172:D172"/>
+    <mergeCell ref="E172:G172"/>
+    <mergeCell ref="B171:D171"/>
+    <mergeCell ref="E171:G171"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -62324,9 +62324,9 @@
       <c r="A1" s="722" t="s">
         <v>448</v>
       </c>
-      <c r="B1" s="688"/>
-      <c r="C1" s="688"/>
-      <c r="D1" s="688"/>
+      <c r="B1" s="698"/>
+      <c r="C1" s="698"/>
+      <c r="D1" s="698"/>
       <c r="E1" s="723" t="s">
         <v>449</v>
       </c>

--- a/microgrid_base/设备信息库各参数.xlsx
+++ b/microgrid_base/设备信息库各参数.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\works\jubilant-adventure2\microgrid_base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF23D637-00B5-424E-875F-B78AD39A6A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259DF696-53C0-41BF-8AFF-39E51A9B36F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="8180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/microgrid_base/设备信息库各参数.xlsx
+++ b/microgrid_base/设备信息库各参数.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\works\jubilant-adventure2\microgrid_base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259DF696-53C0-41BF-8AFF-39E51A9B36F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753B0CA0-4E26-49D2-81DF-6360FE28CCCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="8180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6555,7 +6555,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6564,29 +6564,54 @@
     <xf numFmtId="0" fontId="65" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6601,47 +6626,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6659,8 +6650,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6679,45 +6679,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6726,8 +6689,17 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6741,16 +6713,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6780,6 +6771,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -8843,7 +8843,7 @@
       <c r="C15" s="370">
         <v>560</v>
       </c>
-      <c r="D15" s="644"/>
+      <c r="D15" s="635"/>
       <c r="E15" s="365"/>
       <c r="F15" s="363"/>
       <c r="G15" s="363"/>
@@ -8924,7 +8924,7 @@
       <c r="B21" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="639"/>
+      <c r="C21" s="638"/>
       <c r="D21" s="363"/>
       <c r="E21" s="363"/>
       <c r="F21" s="363"/>
@@ -9205,7 +9205,7 @@
       <c r="C41" s="375">
         <v>560</v>
       </c>
-      <c r="D41" s="635"/>
+      <c r="D41" s="639"/>
       <c r="E41" s="366"/>
       <c r="F41" s="363"/>
       <c r="G41" s="363"/>
@@ -9286,7 +9286,7 @@
       <c r="B47" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="639"/>
+      <c r="C47" s="638"/>
       <c r="D47" s="363"/>
       <c r="E47" s="363"/>
       <c r="F47" s="363"/>
@@ -9621,7 +9621,7 @@
       <c r="C71" s="370">
         <v>560</v>
       </c>
-      <c r="D71" s="635"/>
+      <c r="D71" s="639"/>
       <c r="E71" s="363"/>
       <c r="F71" s="363"/>
       <c r="G71" s="363"/>
@@ -9702,7 +9702,7 @@
       <c r="B77" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C77" s="639"/>
+      <c r="C77" s="638"/>
       <c r="D77" s="363"/>
       <c r="E77" s="363"/>
       <c r="F77" s="363"/>
@@ -9876,10 +9876,10 @@
       </c>
       <c r="E91" s="363"/>
       <c r="F91" s="363"/>
-      <c r="G91" s="642" t="s">
+      <c r="G91" s="640" t="s">
         <v>59</v>
       </c>
-      <c r="H91" s="643"/>
+      <c r="H91" s="641"/>
     </row>
     <row r="92" spans="1:8" ht="14.35">
       <c r="A92" s="363"/>
@@ -10007,7 +10007,7 @@
       <c r="C99" s="370">
         <v>560</v>
       </c>
-      <c r="D99" s="635"/>
+      <c r="D99" s="639"/>
       <c r="E99" s="363"/>
       <c r="F99" s="363"/>
       <c r="G99" s="363"/>
@@ -10088,7 +10088,7 @@
       <c r="B105" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C105" s="638"/>
+      <c r="C105" s="642"/>
       <c r="D105" s="363"/>
       <c r="E105" s="363"/>
       <c r="F105" s="363"/>
@@ -10387,7 +10387,7 @@
       <c r="C128" s="370">
         <v>560</v>
       </c>
-      <c r="D128" s="635"/>
+      <c r="D128" s="639"/>
       <c r="E128" s="363"/>
       <c r="F128" s="363"/>
       <c r="G128" s="363"/>
@@ -10468,7 +10468,7 @@
       <c r="B134" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C134" s="638"/>
+      <c r="C134" s="642"/>
       <c r="D134" s="363"/>
       <c r="E134" s="363"/>
       <c r="F134" s="363"/>
@@ -10741,7 +10741,7 @@
       <c r="C158" s="370">
         <v>560</v>
       </c>
-      <c r="D158" s="635"/>
+      <c r="D158" s="639"/>
       <c r="E158" s="363"/>
     </row>
     <row r="159" spans="1:8" ht="14.35">
@@ -10804,7 +10804,7 @@
       <c r="B164" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C164" s="638"/>
+      <c r="C164" s="642"/>
       <c r="D164" s="363"/>
       <c r="E164" s="363"/>
     </row>
@@ -10944,7 +10944,7 @@
       <c r="C179" s="375">
         <v>560</v>
       </c>
-      <c r="D179" s="635"/>
+      <c r="D179" s="639"/>
       <c r="E179" s="363"/>
       <c r="F179" s="363"/>
       <c r="G179" s="363"/>
@@ -11025,7 +11025,7 @@
       <c r="B185" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C185" s="639"/>
+      <c r="C185" s="638"/>
       <c r="D185" s="363"/>
       <c r="E185" s="363"/>
       <c r="F185" s="363"/>
@@ -11222,7 +11222,7 @@
       <c r="C201" s="375">
         <v>560</v>
       </c>
-      <c r="D201" s="635"/>
+      <c r="D201" s="639"/>
       <c r="E201" s="363"/>
       <c r="F201" s="363"/>
       <c r="G201" s="363"/>
@@ -11302,7 +11302,7 @@
       <c r="B207" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C207" s="639"/>
+      <c r="C207" s="638"/>
       <c r="D207" s="363"/>
       <c r="E207" s="363"/>
       <c r="F207" s="363"/>
@@ -11797,7 +11797,7 @@
       <c r="C242" s="370">
         <v>560</v>
       </c>
-      <c r="D242" s="635"/>
+      <c r="D242" s="639"/>
       <c r="E242" s="363"/>
       <c r="F242" s="363"/>
       <c r="G242" s="363"/>
@@ -11878,7 +11878,7 @@
       <c r="B248" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C248" s="638"/>
+      <c r="C248" s="642"/>
       <c r="D248" s="363"/>
       <c r="E248" s="363"/>
       <c r="F248" s="363"/>
@@ -12267,7 +12267,7 @@
       <c r="C278" s="370">
         <v>560</v>
       </c>
-      <c r="D278" s="635"/>
+      <c r="D278" s="639"/>
       <c r="E278" s="363"/>
       <c r="F278" s="363"/>
       <c r="G278" s="363"/>
@@ -12348,7 +12348,7 @@
       <c r="B284" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C284" s="638"/>
+      <c r="C284" s="642"/>
       <c r="D284" s="363"/>
       <c r="E284" s="363"/>
       <c r="F284" s="363"/>
@@ -12578,7 +12578,7 @@
       <c r="C304" s="370">
         <v>560</v>
       </c>
-      <c r="D304" s="635"/>
+      <c r="D304" s="639"/>
       <c r="E304" s="363"/>
       <c r="F304" s="363"/>
       <c r="G304" s="363"/>
@@ -12659,7 +12659,7 @@
       <c r="B310" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C310" s="638"/>
+      <c r="C310" s="642"/>
       <c r="D310" s="363"/>
       <c r="E310" s="363"/>
       <c r="F310" s="363"/>
@@ -12846,7 +12846,7 @@
       <c r="C327" s="370">
         <v>560</v>
       </c>
-      <c r="D327" s="635"/>
+      <c r="D327" s="639"/>
       <c r="E327" s="363"/>
       <c r="F327" s="363"/>
       <c r="G327" s="363"/>
@@ -12927,7 +12927,7 @@
       <c r="B333" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C333" s="638"/>
+      <c r="C333" s="642"/>
       <c r="D333" s="363"/>
       <c r="E333" s="363"/>
       <c r="F333" s="363"/>
@@ -13120,7 +13120,7 @@
       <c r="C349" s="370">
         <v>560</v>
       </c>
-      <c r="D349" s="635"/>
+      <c r="D349" s="639"/>
       <c r="F349" s="363"/>
       <c r="G349" s="363"/>
       <c r="H349" s="363"/>
@@ -13195,7 +13195,7 @@
       <c r="B355" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C355" s="638"/>
+      <c r="C355" s="642"/>
       <c r="D355" s="363"/>
       <c r="F355" s="363"/>
       <c r="G355" s="363"/>
@@ -13540,7 +13540,7 @@
       <c r="C383" s="370">
         <v>560</v>
       </c>
-      <c r="D383" s="635"/>
+      <c r="D383" s="639"/>
       <c r="E383" s="363"/>
       <c r="F383" s="363"/>
       <c r="G383" s="363"/>
@@ -13621,7 +13621,7 @@
       <c r="B389" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C389" s="638"/>
+      <c r="C389" s="642"/>
       <c r="D389" s="363"/>
       <c r="E389" s="363"/>
       <c r="F389" s="363"/>
@@ -13969,7 +13969,7 @@
       <c r="C418" s="370">
         <v>560</v>
       </c>
-      <c r="D418" s="635"/>
+      <c r="D418" s="639"/>
       <c r="E418" s="363"/>
       <c r="F418" s="363"/>
       <c r="G418" s="363"/>
@@ -14050,7 +14050,7 @@
       <c r="B424" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C424" s="638"/>
+      <c r="C424" s="642"/>
       <c r="D424" s="363"/>
       <c r="E424" s="363"/>
       <c r="F424" s="363"/>
@@ -14376,7 +14376,7 @@
       <c r="B451" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C451" s="638"/>
+      <c r="C451" s="642"/>
       <c r="D451" s="363"/>
       <c r="E451" s="363"/>
       <c r="F451" s="363"/>
@@ -14591,7 +14591,7 @@
       <c r="C469" s="370">
         <v>560</v>
       </c>
-      <c r="D469" s="635"/>
+      <c r="D469" s="639"/>
       <c r="E469" s="363"/>
       <c r="F469" s="363"/>
       <c r="G469" s="363"/>
@@ -14672,7 +14672,7 @@
       <c r="B475" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C475" s="638"/>
+      <c r="C475" s="642"/>
       <c r="D475" s="363"/>
       <c r="E475" s="363"/>
       <c r="F475" s="363"/>
@@ -14899,7 +14899,7 @@
       <c r="C494" s="370">
         <v>560</v>
       </c>
-      <c r="D494" s="635"/>
+      <c r="D494" s="639"/>
       <c r="E494" s="365" t="s">
         <v>684</v>
       </c>
@@ -14982,7 +14982,7 @@
       <c r="B500" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C500" s="638"/>
+      <c r="C500" s="642"/>
       <c r="D500" s="363"/>
       <c r="E500" s="363"/>
       <c r="F500" s="363"/>
@@ -15203,7 +15203,7 @@
       <c r="C519" s="370">
         <v>560</v>
       </c>
-      <c r="D519" s="635"/>
+      <c r="D519" s="639"/>
       <c r="E519" s="365" t="s">
         <v>686</v>
       </c>
@@ -15286,7 +15286,7 @@
       <c r="B525" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C525" s="638"/>
+      <c r="C525" s="642"/>
       <c r="D525" s="363"/>
       <c r="E525" s="363"/>
       <c r="F525" s="363"/>
@@ -15553,7 +15553,7 @@
       <c r="C547" s="370">
         <v>560</v>
       </c>
-      <c r="D547" s="635"/>
+      <c r="D547" s="639"/>
       <c r="E547" s="363"/>
       <c r="F547" s="363"/>
       <c r="G547" s="363"/>
@@ -15634,7 +15634,7 @@
       <c r="B553" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C553" s="638"/>
+      <c r="C553" s="642"/>
       <c r="D553" s="363"/>
       <c r="E553" s="363"/>
       <c r="F553" s="363"/>
@@ -15965,7 +15965,7 @@
       <c r="C580" s="370">
         <v>560</v>
       </c>
-      <c r="D580" s="635"/>
+      <c r="D580" s="639"/>
       <c r="E580" s="363"/>
       <c r="F580" s="363"/>
       <c r="G580" s="363"/>
@@ -16046,7 +16046,7 @@
       <c r="B586" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C586" s="638"/>
+      <c r="C586" s="642"/>
       <c r="D586" s="363"/>
       <c r="E586" s="363"/>
       <c r="F586" s="363"/>
@@ -16310,7 +16310,7 @@
       <c r="C608" s="370">
         <v>560</v>
       </c>
-      <c r="D608" s="635"/>
+      <c r="D608" s="639"/>
       <c r="E608" s="363"/>
       <c r="F608" s="363"/>
       <c r="G608" s="363"/>
@@ -16391,7 +16391,7 @@
       <c r="B614" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C614" s="638"/>
+      <c r="C614" s="642"/>
       <c r="D614" s="363"/>
       <c r="E614" s="363"/>
       <c r="F614" s="363"/>
@@ -16675,7 +16675,7 @@
       <c r="B637" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C637" s="638"/>
+      <c r="C637" s="642"/>
       <c r="D637" s="363"/>
       <c r="E637" s="363"/>
       <c r="F637" s="363"/>
@@ -16970,10 +16970,10 @@
     </row>
     <row r="660" spans="1:8" ht="14.35">
       <c r="A660" s="363"/>
-      <c r="B660" s="640" t="s">
+      <c r="B660" s="643" t="s">
         <v>34</v>
       </c>
-      <c r="C660" s="641"/>
+      <c r="C660" s="644"/>
       <c r="D660" s="363"/>
       <c r="E660" s="363"/>
       <c r="F660" s="363"/>
@@ -17272,10 +17272,10 @@
     </row>
     <row r="683" spans="1:8" ht="14.35">
       <c r="A683" s="363"/>
-      <c r="B683" s="640" t="s">
+      <c r="B683" s="643" t="s">
         <v>34</v>
       </c>
-      <c r="C683" s="641"/>
+      <c r="C683" s="644"/>
       <c r="D683" s="363"/>
       <c r="E683" s="363"/>
       <c r="F683" s="363"/>
@@ -17639,7 +17639,7 @@
       <c r="B711" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C711" s="638"/>
+      <c r="C711" s="642"/>
       <c r="D711" s="363"/>
       <c r="E711" s="363"/>
       <c r="F711" s="363"/>
@@ -17884,7 +17884,7 @@
       <c r="C729" s="370">
         <v>560</v>
       </c>
-      <c r="D729" s="635"/>
+      <c r="D729" s="639"/>
       <c r="E729" s="363"/>
       <c r="F729" s="363"/>
       <c r="G729" s="363"/>
@@ -17965,7 +17965,7 @@
       <c r="B735" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C735" s="638"/>
+      <c r="C735" s="642"/>
       <c r="D735" s="363"/>
       <c r="E735" s="363"/>
       <c r="F735" s="363"/>
@@ -18226,7 +18226,7 @@
       <c r="C756" s="370">
         <v>560</v>
       </c>
-      <c r="D756" s="635"/>
+      <c r="D756" s="639"/>
       <c r="E756" s="363"/>
       <c r="F756" s="363"/>
       <c r="G756" s="363"/>
@@ -18307,7 +18307,7 @@
       <c r="B762" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C762" s="638"/>
+      <c r="C762" s="642"/>
       <c r="D762" s="363"/>
       <c r="E762" s="363"/>
       <c r="F762" s="363"/>
@@ -18633,7 +18633,7 @@
       <c r="B789" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C789" s="639"/>
+      <c r="C789" s="638"/>
       <c r="D789" s="363"/>
       <c r="E789" s="363"/>
       <c r="F789" s="363"/>
@@ -18959,7 +18959,7 @@
       <c r="B816" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C816" s="639"/>
+      <c r="C816" s="638"/>
       <c r="D816" s="363"/>
       <c r="E816" s="363"/>
       <c r="F816" s="363"/>
@@ -19250,7 +19250,7 @@
       <c r="C839" s="375">
         <v>560</v>
       </c>
-      <c r="D839" s="635"/>
+      <c r="D839" s="639"/>
       <c r="E839" s="365"/>
       <c r="F839" s="363"/>
       <c r="G839" s="363"/>
@@ -19331,7 +19331,7 @@
       <c r="B845" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C845" s="639"/>
+      <c r="C845" s="638"/>
       <c r="D845" s="363"/>
       <c r="E845" s="363"/>
       <c r="F845" s="363"/>
@@ -19712,7 +19712,7 @@
       <c r="B876" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C876" s="639"/>
+      <c r="C876" s="638"/>
       <c r="D876" s="363"/>
       <c r="E876" s="363"/>
       <c r="F876" s="363"/>
@@ -20068,7 +20068,7 @@
       <c r="B907" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C907" s="639"/>
+      <c r="C907" s="638"/>
       <c r="D907" s="363"/>
       <c r="E907" s="363"/>
       <c r="F907" s="363"/>
@@ -20341,7 +20341,7 @@
       <c r="B931" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C931" s="639"/>
+      <c r="C931" s="638"/>
       <c r="D931" s="363"/>
       <c r="E931" s="363"/>
       <c r="F931" s="363"/>
@@ -20691,7 +20691,7 @@
       <c r="B958" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C958" s="639"/>
+      <c r="C958" s="638"/>
       <c r="D958" s="363"/>
       <c r="E958" s="363"/>
       <c r="F958" s="363"/>
@@ -20987,7 +20987,7 @@
       <c r="B981" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C981" s="639"/>
+      <c r="C981" s="638"/>
       <c r="D981" s="363"/>
       <c r="E981" s="363"/>
       <c r="F981" s="363"/>
@@ -21283,7 +21283,7 @@
       <c r="B1005" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1005" s="639"/>
+      <c r="C1005" s="638"/>
       <c r="D1005" s="363"/>
       <c r="E1005" s="363"/>
       <c r="F1005" s="363"/>
@@ -21479,7 +21479,7 @@
       <c r="B1024" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1024" s="639"/>
+      <c r="C1024" s="638"/>
       <c r="F1024" s="363"/>
       <c r="G1024" s="363"/>
       <c r="H1024" s="363"/>
@@ -21706,7 +21706,7 @@
       <c r="C1042" s="370">
         <v>560</v>
       </c>
-      <c r="D1042" s="635"/>
+      <c r="D1042" s="639"/>
       <c r="E1042" s="363"/>
       <c r="F1042" s="363"/>
       <c r="G1042" s="363"/>
@@ -21787,7 +21787,7 @@
       <c r="B1048" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1048" s="638"/>
+      <c r="C1048" s="642"/>
       <c r="D1048" s="363"/>
       <c r="E1048" s="363"/>
       <c r="F1048" s="363"/>
@@ -22053,7 +22053,7 @@
       <c r="B1070" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1070" s="639"/>
+      <c r="C1070" s="638"/>
       <c r="D1070" s="363"/>
       <c r="E1070" s="363"/>
       <c r="F1070" s="363"/>
@@ -22298,7 +22298,7 @@
       <c r="C1089" s="370">
         <v>560</v>
       </c>
-      <c r="D1089" s="635"/>
+      <c r="D1089" s="639"/>
       <c r="E1089" s="363"/>
       <c r="F1089" s="363"/>
       <c r="G1089" s="363"/>
@@ -22373,7 +22373,7 @@
       <c r="B1095" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1095" s="638"/>
+      <c r="C1095" s="642"/>
       <c r="D1095" s="363"/>
       <c r="E1095" s="363"/>
       <c r="F1095" s="363"/>
@@ -22649,7 +22649,7 @@
       <c r="C1120" s="370">
         <v>560</v>
       </c>
-      <c r="D1120" s="635"/>
+      <c r="D1120" s="639"/>
       <c r="E1120" s="363"/>
       <c r="F1120" s="363"/>
       <c r="G1120" s="363"/>
@@ -22726,7 +22726,7 @@
       <c r="B1126" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1126" s="638"/>
+      <c r="C1126" s="642"/>
       <c r="D1126" s="363"/>
       <c r="E1126" s="363"/>
       <c r="F1126" s="363"/>
@@ -23089,7 +23089,7 @@
       <c r="B1155" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1155" s="638"/>
+      <c r="C1155" s="642"/>
       <c r="D1155" s="363"/>
       <c r="E1155" s="363"/>
       <c r="F1155" s="363"/>
@@ -23198,61 +23198,6 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D41:D46"/>
-    <mergeCell ref="D71:D75"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="D99:D103"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="D128:D132"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="D158:D162"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="D179:D184"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="D201:D206"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="D242:D246"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="D278:D282"/>
-    <mergeCell ref="B284:C284"/>
-    <mergeCell ref="D304:D308"/>
-    <mergeCell ref="B310:C310"/>
-    <mergeCell ref="D327:D331"/>
-    <mergeCell ref="B333:C333"/>
-    <mergeCell ref="D383:D387"/>
-    <mergeCell ref="B389:C389"/>
-    <mergeCell ref="D418:D422"/>
-    <mergeCell ref="B424:C424"/>
-    <mergeCell ref="B451:C451"/>
-    <mergeCell ref="D469:D473"/>
-    <mergeCell ref="B475:C475"/>
-    <mergeCell ref="D494:D498"/>
-    <mergeCell ref="B500:C500"/>
-    <mergeCell ref="D519:D523"/>
-    <mergeCell ref="B525:C525"/>
-    <mergeCell ref="D547:D551"/>
-    <mergeCell ref="B553:C553"/>
-    <mergeCell ref="D580:D584"/>
-    <mergeCell ref="B586:C586"/>
-    <mergeCell ref="D608:D612"/>
-    <mergeCell ref="B614:C614"/>
-    <mergeCell ref="B637:C637"/>
-    <mergeCell ref="B660:C660"/>
-    <mergeCell ref="B683:C683"/>
-    <mergeCell ref="B711:C711"/>
-    <mergeCell ref="D839:D844"/>
-    <mergeCell ref="B845:C845"/>
-    <mergeCell ref="B876:C876"/>
-    <mergeCell ref="B907:C907"/>
-    <mergeCell ref="D729:D733"/>
-    <mergeCell ref="B735:C735"/>
-    <mergeCell ref="D756:D760"/>
-    <mergeCell ref="B762:C762"/>
-    <mergeCell ref="B789:C789"/>
     <mergeCell ref="D1120:D1124"/>
     <mergeCell ref="B1126:C1126"/>
     <mergeCell ref="B1155:C1155"/>
@@ -23269,6 +23214,61 @@
     <mergeCell ref="B1005:C1005"/>
     <mergeCell ref="B1024:C1024"/>
     <mergeCell ref="B816:C816"/>
+    <mergeCell ref="D839:D844"/>
+    <mergeCell ref="B845:C845"/>
+    <mergeCell ref="B876:C876"/>
+    <mergeCell ref="B907:C907"/>
+    <mergeCell ref="D729:D733"/>
+    <mergeCell ref="B735:C735"/>
+    <mergeCell ref="D756:D760"/>
+    <mergeCell ref="B762:C762"/>
+    <mergeCell ref="B789:C789"/>
+    <mergeCell ref="B614:C614"/>
+    <mergeCell ref="B637:C637"/>
+    <mergeCell ref="B660:C660"/>
+    <mergeCell ref="B683:C683"/>
+    <mergeCell ref="B711:C711"/>
+    <mergeCell ref="D547:D551"/>
+    <mergeCell ref="B553:C553"/>
+    <mergeCell ref="D580:D584"/>
+    <mergeCell ref="B586:C586"/>
+    <mergeCell ref="D608:D612"/>
+    <mergeCell ref="B475:C475"/>
+    <mergeCell ref="D494:D498"/>
+    <mergeCell ref="B500:C500"/>
+    <mergeCell ref="D519:D523"/>
+    <mergeCell ref="B525:C525"/>
+    <mergeCell ref="B389:C389"/>
+    <mergeCell ref="D418:D422"/>
+    <mergeCell ref="B424:C424"/>
+    <mergeCell ref="B451:C451"/>
+    <mergeCell ref="D469:D473"/>
+    <mergeCell ref="D304:D308"/>
+    <mergeCell ref="B310:C310"/>
+    <mergeCell ref="D327:D331"/>
+    <mergeCell ref="B333:C333"/>
+    <mergeCell ref="D383:D387"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="D242:D246"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="D278:D282"/>
+    <mergeCell ref="B284:C284"/>
+    <mergeCell ref="D158:D162"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="D179:D184"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="D201:D206"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="D99:D103"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="D128:D132"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D41:D46"/>
+    <mergeCell ref="D71:D75"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23614,7 +23614,7 @@
       <c r="B20" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="639"/>
+      <c r="C20" s="638"/>
       <c r="D20" s="363"/>
       <c r="E20" s="363"/>
       <c r="F20" s="363"/>
@@ -23789,7 +23789,7 @@
         <v>29</v>
       </c>
       <c r="C36" s="375"/>
-      <c r="D36" s="645"/>
+      <c r="D36" s="650"/>
       <c r="E36" s="26"/>
       <c r="K36" s="10"/>
     </row>
@@ -23799,7 +23799,7 @@
         <v>45</v>
       </c>
       <c r="C37" s="370"/>
-      <c r="D37" s="646"/>
+      <c r="D37" s="651"/>
       <c r="E37" s="26"/>
       <c r="K37" s="10"/>
     </row>
@@ -23809,7 +23809,7 @@
         <v>30</v>
       </c>
       <c r="C38" s="370"/>
-      <c r="D38" s="646"/>
+      <c r="D38" s="651"/>
       <c r="E38" s="28"/>
       <c r="K38" s="10"/>
     </row>
@@ -23819,7 +23819,7 @@
         <v>31</v>
       </c>
       <c r="C39" s="370"/>
-      <c r="D39" s="646"/>
+      <c r="D39" s="651"/>
       <c r="E39" s="28"/>
       <c r="K39" s="10"/>
     </row>
@@ -23829,7 +23829,7 @@
         <v>32</v>
       </c>
       <c r="C40" s="370"/>
-      <c r="D40" s="646"/>
+      <c r="D40" s="651"/>
       <c r="E40" s="28"/>
       <c r="K40" s="10"/>
     </row>
@@ -23839,7 +23839,7 @@
         <v>876</v>
       </c>
       <c r="C41" s="370"/>
-      <c r="D41" s="646"/>
+      <c r="D41" s="651"/>
       <c r="E41" s="28"/>
       <c r="K41" s="10"/>
     </row>
@@ -23848,7 +23848,7 @@
       <c r="B42" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="639"/>
+      <c r="C42" s="638"/>
       <c r="D42" s="501"/>
       <c r="E42" s="28"/>
       <c r="K42" s="10"/>
@@ -24087,10 +24087,10 @@
     </row>
     <row r="61" spans="1:11" ht="14.35">
       <c r="A61" s="2"/>
-      <c r="B61" s="649" t="s">
+      <c r="B61" s="658" t="s">
         <v>34</v>
       </c>
-      <c r="C61" s="650"/>
+      <c r="C61" s="659"/>
       <c r="D61" s="8"/>
       <c r="E61" s="393"/>
       <c r="F61" s="2"/>
@@ -24276,10 +24276,10 @@
       <c r="D75" s="518" t="s">
         <v>58</v>
       </c>
-      <c r="E75" s="651" t="s">
+      <c r="E75" s="646" t="s">
         <v>59</v>
       </c>
-      <c r="F75" s="652"/>
+      <c r="F75" s="647"/>
       <c r="G75" s="520"/>
       <c r="H75" s="488"/>
       <c r="K75" s="10"/>
@@ -24376,7 +24376,7 @@
         <v>65</v>
       </c>
       <c r="C81" s="370"/>
-      <c r="D81" s="645"/>
+      <c r="D81" s="650"/>
       <c r="E81" s="525">
         <v>1</v>
       </c>
@@ -24393,7 +24393,7 @@
         <v>30</v>
       </c>
       <c r="C82" s="370"/>
-      <c r="D82" s="646"/>
+      <c r="D82" s="651"/>
       <c r="E82" s="526" t="s">
         <v>66</v>
       </c>
@@ -24408,7 +24408,7 @@
         <v>31</v>
       </c>
       <c r="C83" s="370"/>
-      <c r="D83" s="646"/>
+      <c r="D83" s="651"/>
       <c r="E83" s="527" t="s">
         <v>67</v>
       </c>
@@ -24423,7 +24423,7 @@
         <v>68</v>
       </c>
       <c r="C84" s="499"/>
-      <c r="D84" s="646"/>
+      <c r="D84" s="651"/>
       <c r="E84" s="363"/>
       <c r="F84" s="363"/>
       <c r="G84" s="363"/>
@@ -24435,7 +24435,7 @@
       <c r="B85" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C85" s="639"/>
+      <c r="C85" s="638"/>
       <c r="D85" s="363"/>
       <c r="E85" s="363"/>
       <c r="F85" s="363"/>
@@ -24542,8 +24542,8 @@
       <c r="D94" s="373"/>
       <c r="E94" s="363"/>
       <c r="F94" s="363"/>
-      <c r="G94" s="642"/>
-      <c r="H94" s="643"/>
+      <c r="G94" s="640"/>
+      <c r="H94" s="641"/>
       <c r="K94" s="10"/>
     </row>
     <row r="95" spans="1:11" ht="14.35">
@@ -24567,10 +24567,10 @@
       <c r="C96" s="399" t="s">
         <v>57</v>
       </c>
-      <c r="D96" s="653" t="s">
+      <c r="D96" s="648" t="s">
         <v>59</v>
       </c>
-      <c r="E96" s="652"/>
+      <c r="E96" s="647"/>
       <c r="F96" s="363"/>
       <c r="G96" s="410"/>
       <c r="H96" s="409"/>
@@ -24716,10 +24716,10 @@
     </row>
     <row r="106" spans="1:11" ht="14.35">
       <c r="A106" s="363"/>
-      <c r="B106" s="655" t="s">
+      <c r="B106" s="652" t="s">
         <v>34</v>
       </c>
-      <c r="C106" s="656"/>
+      <c r="C106" s="653"/>
       <c r="E106" s="363"/>
       <c r="F106" s="363"/>
       <c r="G106" s="363"/>
@@ -24838,7 +24838,7 @@
       </c>
       <c r="C116" s="401"/>
       <c r="D116" s="365"/>
-      <c r="E116" s="654" t="s">
+      <c r="E116" s="649" t="s">
         <v>59</v>
       </c>
       <c r="F116" s="633"/>
@@ -25005,7 +25005,7 @@
       <c r="B127" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C127" s="638"/>
+      <c r="C127" s="642"/>
       <c r="D127" s="363"/>
       <c r="E127" s="363"/>
       <c r="F127" s="363"/>
@@ -25283,7 +25283,7 @@
       <c r="B153" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C153" s="638"/>
+      <c r="C153" s="642"/>
       <c r="D153" s="363"/>
       <c r="E153" s="363"/>
       <c r="H153" s="10"/>
@@ -25483,7 +25483,7 @@
       <c r="B171" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C171" s="639"/>
+      <c r="C171" s="638"/>
       <c r="D171" s="363"/>
       <c r="E171" s="363"/>
       <c r="F171" s="363"/>
@@ -25716,7 +25716,7 @@
       <c r="B189" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C189" s="639"/>
+      <c r="C189" s="638"/>
       <c r="D189" s="363"/>
       <c r="E189" s="363"/>
       <c r="F189" s="363"/>
@@ -25942,7 +25942,7 @@
       <c r="B207" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C207" s="638"/>
+      <c r="C207" s="642"/>
       <c r="D207" s="363"/>
       <c r="E207" s="363"/>
       <c r="F207" s="363"/>
@@ -26127,7 +26127,7 @@
       <c r="B223" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C223" s="638"/>
+      <c r="C223" s="642"/>
       <c r="D223" s="363"/>
       <c r="F223" s="2"/>
       <c r="G223" s="2"/>
@@ -26492,7 +26492,7 @@
         <v>143</v>
       </c>
       <c r="C249" s="370"/>
-      <c r="D249" s="657"/>
+      <c r="D249" s="654"/>
       <c r="E249" s="363"/>
       <c r="F249" s="363"/>
       <c r="G249" s="363"/>
@@ -26505,7 +26505,7 @@
         <v>144</v>
       </c>
       <c r="C250" s="370"/>
-      <c r="D250" s="658"/>
+      <c r="D250" s="655"/>
       <c r="E250" s="363"/>
       <c r="F250" s="363"/>
       <c r="G250" s="363"/>
@@ -26518,7 +26518,7 @@
         <v>30</v>
       </c>
       <c r="C251" s="370"/>
-      <c r="D251" s="658"/>
+      <c r="D251" s="655"/>
       <c r="E251" s="363"/>
       <c r="F251" s="363"/>
       <c r="G251" s="363"/>
@@ -26531,7 +26531,7 @@
         <v>31</v>
       </c>
       <c r="C252" s="370"/>
-      <c r="D252" s="658"/>
+      <c r="D252" s="655"/>
       <c r="E252" s="363"/>
       <c r="F252" s="363"/>
       <c r="G252" s="363"/>
@@ -26544,7 +26544,7 @@
         <v>145</v>
       </c>
       <c r="C253" s="370"/>
-      <c r="D253" s="658"/>
+      <c r="D253" s="655"/>
       <c r="E253" s="363"/>
       <c r="F253" s="363"/>
       <c r="G253" s="363"/>
@@ -26569,7 +26569,7 @@
       <c r="B255" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C255" s="639"/>
+      <c r="C255" s="638"/>
       <c r="D255" s="363"/>
       <c r="E255" s="363"/>
       <c r="F255" s="363"/>
@@ -26995,7 +26995,7 @@
         <v>143</v>
       </c>
       <c r="C285" s="370"/>
-      <c r="D285" s="645"/>
+      <c r="D285" s="650"/>
       <c r="E285" s="563"/>
       <c r="F285" s="562"/>
       <c r="G285" s="363"/>
@@ -27008,7 +27008,7 @@
         <v>144</v>
       </c>
       <c r="C286" s="370"/>
-      <c r="D286" s="646"/>
+      <c r="D286" s="651"/>
       <c r="E286" s="563"/>
       <c r="F286" s="562"/>
       <c r="G286" s="363"/>
@@ -27021,7 +27021,7 @@
         <v>30</v>
       </c>
       <c r="C287" s="370"/>
-      <c r="D287" s="646"/>
+      <c r="D287" s="651"/>
       <c r="E287" s="563"/>
       <c r="F287" s="562"/>
       <c r="G287" s="363"/>
@@ -27034,7 +27034,7 @@
         <v>31</v>
       </c>
       <c r="C288" s="370"/>
-      <c r="D288" s="646"/>
+      <c r="D288" s="651"/>
       <c r="E288" s="563"/>
       <c r="F288" s="562"/>
       <c r="G288" s="363"/>
@@ -27047,7 +27047,7 @@
         <v>145</v>
       </c>
       <c r="C289" s="370"/>
-      <c r="D289" s="646"/>
+      <c r="D289" s="651"/>
       <c r="E289" s="563"/>
       <c r="F289" s="562"/>
       <c r="G289" s="363"/>
@@ -27072,7 +27072,7 @@
       <c r="B291" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C291" s="639"/>
+      <c r="C291" s="638"/>
       <c r="D291" s="501"/>
       <c r="E291" s="363"/>
       <c r="F291" s="363"/>
@@ -27253,7 +27253,7 @@
         <v>143</v>
       </c>
       <c r="C305" s="370"/>
-      <c r="D305" s="645"/>
+      <c r="D305" s="650"/>
       <c r="F305" s="363"/>
       <c r="G305" s="363"/>
       <c r="H305" s="488"/>
@@ -27265,7 +27265,7 @@
         <v>144</v>
       </c>
       <c r="C306" s="370"/>
-      <c r="D306" s="646"/>
+      <c r="D306" s="651"/>
       <c r="F306" s="363"/>
       <c r="G306" s="363"/>
       <c r="H306" s="488"/>
@@ -27277,7 +27277,7 @@
         <v>30</v>
       </c>
       <c r="C307" s="370"/>
-      <c r="D307" s="646"/>
+      <c r="D307" s="651"/>
       <c r="F307" s="363"/>
       <c r="G307" s="363"/>
       <c r="H307" s="488"/>
@@ -27289,7 +27289,7 @@
         <v>31</v>
       </c>
       <c r="C308" s="370"/>
-      <c r="D308" s="646"/>
+      <c r="D308" s="651"/>
       <c r="F308" s="363"/>
       <c r="G308" s="363"/>
       <c r="H308" s="488"/>
@@ -27301,7 +27301,7 @@
         <v>145</v>
       </c>
       <c r="C309" s="370"/>
-      <c r="D309" s="646"/>
+      <c r="D309" s="651"/>
       <c r="F309" s="363"/>
       <c r="G309" s="363"/>
       <c r="H309" s="488"/>
@@ -27324,7 +27324,7 @@
       <c r="B311" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C311" s="639"/>
+      <c r="C311" s="638"/>
       <c r="D311" s="501"/>
       <c r="F311" s="363"/>
       <c r="G311" s="363"/>
@@ -27587,10 +27587,10 @@
     </row>
     <row r="333" spans="1:11" ht="14.35">
       <c r="A333" s="2"/>
-      <c r="B333" s="647" t="s">
+      <c r="B333" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C333" s="648"/>
+      <c r="C333" s="657"/>
       <c r="D333" s="2"/>
       <c r="F333" s="363"/>
       <c r="G333" s="2"/>
@@ -27799,7 +27799,7 @@
       <c r="B351" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C351" s="638"/>
+      <c r="C351" s="642"/>
       <c r="F351" s="2"/>
       <c r="G351" s="2"/>
       <c r="H351" s="8"/>
@@ -28339,10 +28339,10 @@
     </row>
     <row r="388" spans="1:11" ht="14.7">
       <c r="A388" s="2"/>
-      <c r="B388" s="659" t="s">
+      <c r="B388" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C388" s="641"/>
+      <c r="C388" s="644"/>
       <c r="D388" s="97"/>
       <c r="F388" s="2"/>
       <c r="G388" s="2"/>
@@ -28914,10 +28914,10 @@
     </row>
     <row r="425" spans="1:11" ht="14.7">
       <c r="A425" s="2"/>
-      <c r="B425" s="659" t="s">
+      <c r="B425" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C425" s="641"/>
+      <c r="C425" s="644"/>
       <c r="D425" s="97"/>
       <c r="E425" s="97"/>
       <c r="F425" s="2"/>
@@ -29469,10 +29469,10 @@
     </row>
     <row r="461" spans="1:11" ht="14.7">
       <c r="A461" s="2"/>
-      <c r="B461" s="659" t="s">
+      <c r="B461" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C461" s="641"/>
+      <c r="C461" s="644"/>
       <c r="D461" s="97"/>
       <c r="E461" s="97"/>
       <c r="F461" s="97"/>
@@ -30020,10 +30020,10 @@
     </row>
     <row r="497" spans="1:11" ht="14.7">
       <c r="A497" s="2"/>
-      <c r="B497" s="659" t="s">
+      <c r="B497" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C497" s="641"/>
+      <c r="C497" s="644"/>
       <c r="D497" s="97"/>
       <c r="E497" s="97"/>
       <c r="F497" s="97"/>
@@ -30915,10 +30915,10 @@
     </row>
     <row r="552" spans="1:11" ht="14.7">
       <c r="A552" s="2"/>
-      <c r="B552" s="659" t="s">
+      <c r="B552" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C552" s="641"/>
+      <c r="C552" s="644"/>
       <c r="D552" s="97"/>
       <c r="E552" s="97"/>
       <c r="F552" s="97"/>
@@ -31345,7 +31345,7 @@
       <c r="B590" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C590" s="638"/>
+      <c r="C590" s="642"/>
       <c r="D590" s="363"/>
       <c r="E590" s="363"/>
       <c r="F590" s="363"/>
@@ -31560,7 +31560,7 @@
       <c r="B607" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C607" s="638"/>
+      <c r="C607" s="642"/>
       <c r="D607" s="363"/>
       <c r="E607" s="363"/>
       <c r="F607" s="363"/>
@@ -31756,7 +31756,7 @@
       <c r="B623" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C623" s="639"/>
+      <c r="C623" s="638"/>
       <c r="D623" s="590"/>
       <c r="E623" s="363"/>
       <c r="F623" s="363"/>
@@ -31971,7 +31971,7 @@
       <c r="B640" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C640" s="638"/>
+      <c r="C640" s="642"/>
       <c r="D640" s="363"/>
       <c r="E640" s="363"/>
       <c r="F640" s="363"/>
@@ -32154,7 +32154,7 @@
       <c r="B655" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C655" s="639"/>
+      <c r="C655" s="638"/>
       <c r="D655" s="363"/>
       <c r="E655" s="363"/>
       <c r="F655" s="363"/>
@@ -32360,10 +32360,10 @@
     </row>
     <row r="672" spans="1:11" ht="14.35">
       <c r="A672" s="363"/>
-      <c r="B672" s="640" t="s">
+      <c r="B672" s="643" t="s">
         <v>34</v>
       </c>
-      <c r="C672" s="641"/>
+      <c r="C672" s="644"/>
       <c r="D672" s="363"/>
       <c r="E672" s="363"/>
       <c r="F672" s="363"/>
@@ -32551,10 +32551,10 @@
     </row>
     <row r="687" spans="1:11" ht="14.35">
       <c r="A687" s="363"/>
-      <c r="B687" s="640" t="s">
+      <c r="B687" s="643" t="s">
         <v>34</v>
       </c>
-      <c r="C687" s="641"/>
+      <c r="C687" s="644"/>
       <c r="D687" s="363"/>
       <c r="E687" s="363"/>
       <c r="F687" s="363"/>
@@ -32831,7 +32831,7 @@
       <c r="B710" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C710" s="638"/>
+      <c r="C710" s="642"/>
       <c r="D710" s="363"/>
       <c r="E710" s="363"/>
       <c r="F710" s="363"/>
@@ -33033,7 +33033,7 @@
       <c r="B726" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C726" s="638"/>
+      <c r="C726" s="642"/>
       <c r="D726" s="363"/>
       <c r="E726" s="363"/>
       <c r="F726" s="363"/>
@@ -33264,7 +33264,7 @@
       <c r="B745" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C745" s="638"/>
+      <c r="C745" s="642"/>
       <c r="D745" s="363"/>
       <c r="E745" s="363"/>
       <c r="F745" s="363"/>
@@ -33553,7 +33553,7 @@
       <c r="B768" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C768" s="639"/>
+      <c r="C768" s="638"/>
       <c r="D768" s="363"/>
       <c r="E768" s="363"/>
       <c r="F768" s="363"/>
@@ -33835,7 +33835,7 @@
       <c r="B790" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C790" s="639"/>
+      <c r="C790" s="638"/>
       <c r="D790" s="363"/>
       <c r="E790" s="363"/>
       <c r="F790" s="363"/>
@@ -34146,7 +34146,7 @@
       <c r="B815" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C815" s="639"/>
+      <c r="C815" s="638"/>
       <c r="D815" s="605"/>
       <c r="E815" s="363"/>
       <c r="F815" s="363"/>
@@ -34454,7 +34454,7 @@
       <c r="B840" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C840" s="639"/>
+      <c r="C840" s="638"/>
       <c r="D840" s="363"/>
       <c r="E840" s="363"/>
       <c r="F840" s="363"/>
@@ -34763,7 +34763,7 @@
       <c r="B866" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C866" s="639"/>
+      <c r="C866" s="638"/>
       <c r="D866" s="363"/>
       <c r="E866" s="363"/>
       <c r="F866" s="363"/>
@@ -34996,7 +34996,7 @@
       <c r="B886" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C886" s="639"/>
+      <c r="C886" s="638"/>
       <c r="D886" s="363"/>
       <c r="E886" s="363"/>
       <c r="F886" s="363"/>
@@ -35276,7 +35276,7 @@
       <c r="B908" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C908" s="639"/>
+      <c r="C908" s="638"/>
       <c r="D908" s="363"/>
       <c r="E908" s="363"/>
       <c r="F908" s="363"/>
@@ -35523,7 +35523,7 @@
       <c r="B927" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C927" s="639"/>
+      <c r="C927" s="638"/>
       <c r="D927" s="363"/>
       <c r="E927" s="363"/>
       <c r="F927" s="363"/>
@@ -35766,7 +35766,7 @@
       <c r="B946" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C946" s="639"/>
+      <c r="C946" s="638"/>
       <c r="D946" s="363"/>
       <c r="E946" s="363"/>
       <c r="F946" s="363"/>
@@ -35910,7 +35910,7 @@
       <c r="B960" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C960" s="639"/>
+      <c r="C960" s="638"/>
       <c r="F960" s="363"/>
       <c r="G960" s="363"/>
       <c r="H960" s="488"/>
@@ -36160,7 +36160,7 @@
       <c r="B980" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C980" s="638"/>
+      <c r="C980" s="642"/>
       <c r="D980" s="363"/>
       <c r="E980" s="363"/>
       <c r="F980" s="363"/>
@@ -36365,7 +36365,7 @@
       <c r="B997" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C997" s="639"/>
+      <c r="C997" s="638"/>
       <c r="D997" s="363"/>
       <c r="E997" s="363"/>
       <c r="F997" s="363"/>
@@ -36611,7 +36611,7 @@
       <c r="B1017" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1017" s="638"/>
+      <c r="C1017" s="642"/>
       <c r="D1017" s="363"/>
       <c r="E1017" s="363"/>
       <c r="F1017" s="363"/>
@@ -36875,7 +36875,7 @@
       <c r="B1039" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1039" s="638"/>
+      <c r="C1039" s="642"/>
       <c r="D1039" s="363"/>
       <c r="E1039" s="363"/>
       <c r="F1039" s="363"/>
@@ -37174,7 +37174,7 @@
       <c r="B1062" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1062" s="638"/>
+      <c r="C1062" s="642"/>
       <c r="D1062" s="363"/>
       <c r="E1062" s="363"/>
       <c r="F1062" s="363"/>
@@ -37198,21 +37198,30 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="B590:C590"/>
-    <mergeCell ref="B710:C710"/>
-    <mergeCell ref="B726:C726"/>
-    <mergeCell ref="B745:C745"/>
-    <mergeCell ref="B768:C768"/>
-    <mergeCell ref="B790:C790"/>
-    <mergeCell ref="B815:C815"/>
-    <mergeCell ref="B840:C840"/>
-    <mergeCell ref="B866:C866"/>
-    <mergeCell ref="B886:C886"/>
-    <mergeCell ref="B908:C908"/>
-    <mergeCell ref="B927:C927"/>
-    <mergeCell ref="B946:C946"/>
-    <mergeCell ref="B960:C960"/>
-    <mergeCell ref="B980:C980"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="B333:C333"/>
+    <mergeCell ref="B351:C351"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B311:C311"/>
+    <mergeCell ref="D36:D41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="D305:D309"/>
+    <mergeCell ref="B223:C223"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="D249:D253"/>
+    <mergeCell ref="B255:C255"/>
+    <mergeCell ref="D285:D289"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="B207:C207"/>
     <mergeCell ref="B997:C997"/>
     <mergeCell ref="B1017:C1017"/>
     <mergeCell ref="B1039:C1039"/>
@@ -37229,30 +37238,21 @@
     <mergeCell ref="B655:C655"/>
     <mergeCell ref="B672:C672"/>
     <mergeCell ref="B687:C687"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="D305:D309"/>
-    <mergeCell ref="B223:C223"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="D249:D253"/>
-    <mergeCell ref="B255:C255"/>
-    <mergeCell ref="D285:D289"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="B189:C189"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="B333:C333"/>
-    <mergeCell ref="B351:C351"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B311:C311"/>
-    <mergeCell ref="D36:D41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B908:C908"/>
+    <mergeCell ref="B927:C927"/>
+    <mergeCell ref="B946:C946"/>
+    <mergeCell ref="B960:C960"/>
+    <mergeCell ref="B980:C980"/>
+    <mergeCell ref="B790:C790"/>
+    <mergeCell ref="B815:C815"/>
+    <mergeCell ref="B840:C840"/>
+    <mergeCell ref="B866:C866"/>
+    <mergeCell ref="B886:C886"/>
+    <mergeCell ref="B590:C590"/>
+    <mergeCell ref="B710:C710"/>
+    <mergeCell ref="B726:C726"/>
+    <mergeCell ref="B745:C745"/>
+    <mergeCell ref="B768:C768"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37594,10 +37594,10 @@
     </row>
     <row r="20" spans="1:11" ht="14.35">
       <c r="A20" s="2"/>
-      <c r="B20" s="647" t="s">
+      <c r="B20" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="650"/>
+      <c r="C20" s="659"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -37770,7 +37770,7 @@
         <v>29</v>
       </c>
       <c r="C36" s="14"/>
-      <c r="D36" s="661"/>
+      <c r="D36" s="660"/>
       <c r="E36" s="26"/>
       <c r="K36" s="10"/>
     </row>
@@ -37780,7 +37780,7 @@
         <v>45</v>
       </c>
       <c r="C37" s="11"/>
-      <c r="D37" s="662"/>
+      <c r="D37" s="661"/>
       <c r="E37" s="26"/>
       <c r="K37" s="10"/>
     </row>
@@ -37790,7 +37790,7 @@
         <v>30</v>
       </c>
       <c r="C38" s="11"/>
-      <c r="D38" s="662"/>
+      <c r="D38" s="661"/>
       <c r="E38" s="28"/>
       <c r="K38" s="10"/>
     </row>
@@ -37800,7 +37800,7 @@
         <v>31</v>
       </c>
       <c r="C39" s="11"/>
-      <c r="D39" s="662"/>
+      <c r="D39" s="661"/>
       <c r="E39" s="28"/>
       <c r="K39" s="10"/>
     </row>
@@ -37810,7 +37810,7 @@
         <v>32</v>
       </c>
       <c r="C40" s="11"/>
-      <c r="D40" s="662"/>
+      <c r="D40" s="661"/>
       <c r="E40" s="28"/>
       <c r="K40" s="10"/>
     </row>
@@ -37820,16 +37820,16 @@
         <v>876</v>
       </c>
       <c r="C41" s="11"/>
-      <c r="D41" s="662"/>
+      <c r="D41" s="661"/>
       <c r="E41" s="28"/>
       <c r="K41" s="10"/>
     </row>
     <row r="42" spans="1:11" ht="14.35">
       <c r="A42" s="2"/>
-      <c r="B42" s="647" t="s">
+      <c r="B42" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="650"/>
+      <c r="C42" s="659"/>
       <c r="D42" s="28"/>
       <c r="E42" s="28"/>
       <c r="K42" s="10"/>
@@ -38068,10 +38068,10 @@
     </row>
     <row r="61" spans="1:11" ht="14.35">
       <c r="A61" s="2"/>
-      <c r="B61" s="647" t="s">
+      <c r="B61" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C61" s="650"/>
+      <c r="C61" s="659"/>
       <c r="D61" s="8"/>
       <c r="E61" s="23"/>
       <c r="F61" s="2"/>
@@ -38255,10 +38255,10 @@
       <c r="D75" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="E75" s="671" t="s">
+      <c r="E75" s="662" t="s">
         <v>59</v>
       </c>
-      <c r="F75" s="652"/>
+      <c r="F75" s="647"/>
       <c r="G75" s="44"/>
       <c r="H75" s="8"/>
       <c r="K75" s="10"/>
@@ -38356,7 +38356,7 @@
         <v>65</v>
       </c>
       <c r="C81" s="11"/>
-      <c r="D81" s="661"/>
+      <c r="D81" s="660"/>
       <c r="E81" s="49">
         <v>1</v>
       </c>
@@ -38373,7 +38373,7 @@
         <v>30</v>
       </c>
       <c r="C82" s="11"/>
-      <c r="D82" s="662"/>
+      <c r="D82" s="661"/>
       <c r="E82" s="29" t="s">
         <v>66</v>
       </c>
@@ -38388,7 +38388,7 @@
         <v>31</v>
       </c>
       <c r="C83" s="11"/>
-      <c r="D83" s="662"/>
+      <c r="D83" s="661"/>
       <c r="E83" s="29" t="s">
         <v>67</v>
       </c>
@@ -38403,7 +38403,7 @@
         <v>68</v>
       </c>
       <c r="C84" s="24"/>
-      <c r="D84" s="662"/>
+      <c r="D84" s="661"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
@@ -38412,10 +38412,10 @@
     </row>
     <row r="85" spans="1:11" ht="14.35">
       <c r="A85" s="2"/>
-      <c r="B85" s="647" t="s">
+      <c r="B85" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C85" s="650"/>
+      <c r="C85" s="659"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
@@ -38520,8 +38520,8 @@
       <c r="D94" s="37"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
-      <c r="G94" s="666"/>
-      <c r="H94" s="667"/>
+      <c r="G94" s="663"/>
+      <c r="H94" s="664"/>
       <c r="K94" s="10"/>
     </row>
     <row r="95" spans="1:11" ht="14.35">
@@ -38545,10 +38545,10 @@
       <c r="C96" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="D96" s="668" t="s">
+      <c r="D96" s="665" t="s">
         <v>59</v>
       </c>
-      <c r="E96" s="652"/>
+      <c r="E96" s="647"/>
       <c r="F96" s="2"/>
       <c r="G96" s="54"/>
       <c r="H96" s="12"/>
@@ -38694,10 +38694,10 @@
     </row>
     <row r="106" spans="1:11" ht="14.35">
       <c r="A106" s="2"/>
-      <c r="B106" s="669" t="s">
+      <c r="B106" s="666" t="s">
         <v>34</v>
       </c>
-      <c r="C106" s="670"/>
+      <c r="C106" s="667"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
@@ -38816,7 +38816,7 @@
         <v>80</v>
       </c>
       <c r="D116" s="23"/>
-      <c r="E116" s="665" t="s">
+      <c r="E116" s="668" t="s">
         <v>59</v>
       </c>
       <c r="F116" s="633"/>
@@ -39023,10 +39023,10 @@
     </row>
     <row r="130" spans="1:11" ht="14.35">
       <c r="A130" s="2"/>
-      <c r="B130" s="647" t="s">
+      <c r="B130" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C130" s="648"/>
+      <c r="C130" s="657"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
@@ -39313,10 +39313,10 @@
     </row>
     <row r="156" spans="1:11" ht="14.35">
       <c r="A156" s="2"/>
-      <c r="B156" s="647" t="s">
+      <c r="B156" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C156" s="648"/>
+      <c r="C156" s="657"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
       <c r="H156" s="10"/>
@@ -39511,10 +39511,10 @@
     </row>
     <row r="174" spans="1:11" ht="14.35">
       <c r="A174" s="2"/>
-      <c r="B174" s="647" t="s">
+      <c r="B174" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C174" s="650"/>
+      <c r="C174" s="659"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
@@ -39742,10 +39742,10 @@
     </row>
     <row r="192" spans="1:11" ht="14.35">
       <c r="A192" s="2"/>
-      <c r="B192" s="647" t="s">
+      <c r="B192" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C192" s="650"/>
+      <c r="C192" s="659"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
@@ -40073,10 +40073,10 @@
     </row>
     <row r="217" spans="1:11" ht="14.35">
       <c r="A217" s="2"/>
-      <c r="B217" s="647" t="s">
+      <c r="B217" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C217" s="648"/>
+      <c r="C217" s="657"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
@@ -40382,10 +40382,10 @@
     </row>
     <row r="242" spans="1:11" ht="14.35">
       <c r="A242" s="2"/>
-      <c r="B242" s="647" t="s">
+      <c r="B242" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C242" s="648"/>
+      <c r="C242" s="657"/>
       <c r="D242" s="2"/>
       <c r="F242" s="2"/>
       <c r="G242" s="2"/>
@@ -40748,7 +40748,7 @@
         <v>143</v>
       </c>
       <c r="C268" s="11"/>
-      <c r="D268" s="663"/>
+      <c r="D268" s="669"/>
       <c r="E268" s="2"/>
       <c r="F268" s="2"/>
       <c r="G268" s="2"/>
@@ -40761,7 +40761,7 @@
         <v>144</v>
       </c>
       <c r="C269" s="11"/>
-      <c r="D269" s="664"/>
+      <c r="D269" s="670"/>
       <c r="E269" s="2"/>
       <c r="F269" s="2"/>
       <c r="G269" s="2"/>
@@ -40774,7 +40774,7 @@
         <v>30</v>
       </c>
       <c r="C270" s="11"/>
-      <c r="D270" s="664"/>
+      <c r="D270" s="670"/>
       <c r="E270" s="2"/>
       <c r="F270" s="2"/>
       <c r="G270" s="2"/>
@@ -40787,7 +40787,7 @@
         <v>31</v>
       </c>
       <c r="C271" s="11"/>
-      <c r="D271" s="664"/>
+      <c r="D271" s="670"/>
       <c r="E271" s="2"/>
       <c r="F271" s="2"/>
       <c r="G271" s="2"/>
@@ -40800,7 +40800,7 @@
         <v>145</v>
       </c>
       <c r="C272" s="11"/>
-      <c r="D272" s="664"/>
+      <c r="D272" s="670"/>
       <c r="E272" s="2"/>
       <c r="F272" s="2"/>
       <c r="G272" s="2"/>
@@ -40822,10 +40822,10 @@
     </row>
     <row r="274" spans="1:11" ht="14.35">
       <c r="A274" s="2"/>
-      <c r="B274" s="647" t="s">
+      <c r="B274" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C274" s="650"/>
+      <c r="C274" s="659"/>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
       <c r="F274" s="2"/>
@@ -41249,7 +41249,7 @@
         <v>143</v>
       </c>
       <c r="C304" s="11"/>
-      <c r="D304" s="661"/>
+      <c r="D304" s="660"/>
       <c r="E304" s="84"/>
       <c r="F304" s="85"/>
       <c r="G304" s="2"/>
@@ -41262,7 +41262,7 @@
         <v>144</v>
       </c>
       <c r="C305" s="11"/>
-      <c r="D305" s="662"/>
+      <c r="D305" s="661"/>
       <c r="E305" s="84"/>
       <c r="F305" s="85"/>
       <c r="G305" s="2"/>
@@ -41275,7 +41275,7 @@
         <v>30</v>
       </c>
       <c r="C306" s="11"/>
-      <c r="D306" s="662"/>
+      <c r="D306" s="661"/>
       <c r="E306" s="84"/>
       <c r="F306" s="85"/>
       <c r="G306" s="2"/>
@@ -41288,7 +41288,7 @@
         <v>31</v>
       </c>
       <c r="C307" s="11"/>
-      <c r="D307" s="662"/>
+      <c r="D307" s="661"/>
       <c r="E307" s="84"/>
       <c r="F307" s="85"/>
       <c r="G307" s="2"/>
@@ -41301,7 +41301,7 @@
         <v>145</v>
       </c>
       <c r="C308" s="11"/>
-      <c r="D308" s="662"/>
+      <c r="D308" s="661"/>
       <c r="E308" s="84"/>
       <c r="F308" s="85"/>
       <c r="G308" s="2"/>
@@ -41323,10 +41323,10 @@
     </row>
     <row r="310" spans="1:11" ht="14.35">
       <c r="A310" s="2"/>
-      <c r="B310" s="647" t="s">
+      <c r="B310" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C310" s="650"/>
+      <c r="C310" s="659"/>
       <c r="D310" s="28"/>
       <c r="E310" s="2"/>
       <c r="F310" s="2"/>
@@ -41497,7 +41497,7 @@
         <v>64</v>
       </c>
       <c r="C324" s="11"/>
-      <c r="D324" s="661"/>
+      <c r="D324" s="660"/>
       <c r="F324" s="2"/>
       <c r="G324" s="2"/>
       <c r="H324" s="8"/>
@@ -41509,7 +41509,7 @@
         <v>65</v>
       </c>
       <c r="C325" s="11"/>
-      <c r="D325" s="662"/>
+      <c r="D325" s="661"/>
       <c r="F325" s="2"/>
       <c r="G325" s="2"/>
       <c r="H325" s="8"/>
@@ -41521,7 +41521,7 @@
         <v>30</v>
       </c>
       <c r="C326" s="11"/>
-      <c r="D326" s="662"/>
+      <c r="D326" s="661"/>
       <c r="F326" s="2"/>
       <c r="G326" s="2"/>
       <c r="H326" s="8"/>
@@ -41533,7 +41533,7 @@
         <v>31</v>
       </c>
       <c r="C327" s="11"/>
-      <c r="D327" s="662"/>
+      <c r="D327" s="661"/>
       <c r="F327" s="2"/>
       <c r="G327" s="2"/>
       <c r="H327" s="8"/>
@@ -41545,7 +41545,7 @@
         <v>68</v>
       </c>
       <c r="C328" s="11"/>
-      <c r="D328" s="662"/>
+      <c r="D328" s="661"/>
       <c r="F328" s="2"/>
       <c r="G328" s="2"/>
       <c r="H328" s="8"/>
@@ -41565,10 +41565,10 @@
     </row>
     <row r="330" spans="1:11" ht="14.35">
       <c r="A330" s="2"/>
-      <c r="B330" s="647" t="s">
+      <c r="B330" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C330" s="650"/>
+      <c r="C330" s="659"/>
       <c r="D330" s="28"/>
       <c r="F330" s="2"/>
       <c r="G330" s="2"/>
@@ -41827,10 +41827,10 @@
     </row>
     <row r="352" spans="1:11" ht="14.35">
       <c r="A352" s="2"/>
-      <c r="B352" s="647" t="s">
+      <c r="B352" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C352" s="648"/>
+      <c r="C352" s="657"/>
       <c r="D352" s="2"/>
       <c r="F352" s="2"/>
       <c r="G352" s="2"/>
@@ -42034,10 +42034,10 @@
     </row>
     <row r="370" spans="1:11" ht="14.35">
       <c r="A370" s="2"/>
-      <c r="B370" s="647" t="s">
+      <c r="B370" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C370" s="648"/>
+      <c r="C370" s="657"/>
       <c r="F370" s="2"/>
       <c r="G370" s="2"/>
       <c r="H370" s="8"/>
@@ -42517,10 +42517,10 @@
     </row>
     <row r="405" spans="1:11" ht="14.7">
       <c r="A405" s="2"/>
-      <c r="B405" s="659" t="s">
+      <c r="B405" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C405" s="641"/>
+      <c r="C405" s="644"/>
       <c r="D405" s="97"/>
       <c r="F405" s="2"/>
       <c r="G405" s="2"/>
@@ -43033,10 +43033,10 @@
     </row>
     <row r="440" spans="1:11" ht="14.7">
       <c r="A440" s="2"/>
-      <c r="B440" s="659" t="s">
+      <c r="B440" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C440" s="641"/>
+      <c r="C440" s="644"/>
       <c r="D440" s="97"/>
       <c r="E440" s="97"/>
       <c r="F440" s="2"/>
@@ -43512,10 +43512,10 @@
     </row>
     <row r="473" spans="1:11" ht="14.7">
       <c r="A473" s="2"/>
-      <c r="B473" s="659" t="s">
+      <c r="B473" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C473" s="641"/>
+      <c r="C473" s="644"/>
       <c r="D473" s="97"/>
       <c r="E473" s="97"/>
       <c r="F473" s="97"/>
@@ -43987,10 +43987,10 @@
     </row>
     <row r="506" spans="1:11" ht="14.7">
       <c r="A506" s="2"/>
-      <c r="B506" s="659" t="s">
+      <c r="B506" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C506" s="641"/>
+      <c r="C506" s="644"/>
       <c r="D506" s="97"/>
       <c r="E506" s="97"/>
       <c r="F506" s="97"/>
@@ -44861,10 +44861,10 @@
     </row>
     <row r="559" spans="1:11" ht="14.7">
       <c r="A559" s="2"/>
-      <c r="B559" s="659" t="s">
+      <c r="B559" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C559" s="641"/>
+      <c r="C559" s="644"/>
       <c r="D559" s="97"/>
       <c r="E559" s="97"/>
       <c r="F559" s="97"/>
@@ -45288,10 +45288,10 @@
     </row>
     <row r="597" spans="1:11" ht="14.35">
       <c r="A597" s="2"/>
-      <c r="B597" s="647" t="s">
+      <c r="B597" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C597" s="648"/>
+      <c r="C597" s="657"/>
       <c r="D597" s="2"/>
       <c r="E597" s="2"/>
       <c r="F597" s="2"/>
@@ -45533,10 +45533,10 @@
     </row>
     <row r="616" spans="1:11" ht="14.35">
       <c r="A616" s="2"/>
-      <c r="B616" s="647" t="s">
+      <c r="B616" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C616" s="648"/>
+      <c r="C616" s="657"/>
       <c r="D616" s="2"/>
       <c r="E616" s="2"/>
       <c r="F616" s="2"/>
@@ -45774,10 +45774,10 @@
     </row>
     <row r="635" spans="1:11" ht="14.35">
       <c r="A635" s="2"/>
-      <c r="B635" s="647" t="s">
+      <c r="B635" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C635" s="650"/>
+      <c r="C635" s="659"/>
       <c r="D635" s="127"/>
       <c r="E635" s="2"/>
       <c r="F635" s="2"/>
@@ -46034,10 +46034,10 @@
     </row>
     <row r="655" spans="1:11" ht="14.35">
       <c r="A655" s="2"/>
-      <c r="B655" s="647" t="s">
+      <c r="B655" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C655" s="648"/>
+      <c r="C655" s="657"/>
       <c r="D655" s="2"/>
       <c r="E655" s="2"/>
       <c r="F655" s="2"/>
@@ -46262,10 +46262,10 @@
     </row>
     <row r="673" spans="1:11" ht="14.35">
       <c r="A673" s="2"/>
-      <c r="B673" s="647" t="s">
+      <c r="B673" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C673" s="650"/>
+      <c r="C673" s="659"/>
       <c r="D673" s="2"/>
       <c r="E673" s="2"/>
       <c r="F673" s="2"/>
@@ -46501,10 +46501,10 @@
     </row>
     <row r="692" spans="1:11" ht="14.35">
       <c r="A692" s="2"/>
-      <c r="B692" s="660" t="s">
+      <c r="B692" s="671" t="s">
         <v>34</v>
       </c>
-      <c r="C692" s="641"/>
+      <c r="C692" s="644"/>
       <c r="D692" s="2"/>
       <c r="E692" s="2"/>
       <c r="F692" s="2"/>
@@ -46737,10 +46737,10 @@
     </row>
     <row r="710" spans="1:11" ht="14.35">
       <c r="A710" s="2"/>
-      <c r="B710" s="660" t="s">
+      <c r="B710" s="671" t="s">
         <v>34</v>
       </c>
-      <c r="C710" s="641"/>
+      <c r="C710" s="644"/>
       <c r="D710" s="2"/>
       <c r="E710" s="2"/>
       <c r="F710" s="2"/>
@@ -47059,10 +47059,10 @@
     </row>
     <row r="736" spans="1:11" ht="14.35">
       <c r="A736" s="2"/>
-      <c r="B736" s="647" t="s">
+      <c r="B736" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C736" s="648"/>
+      <c r="C736" s="657"/>
       <c r="D736" s="2"/>
       <c r="E736" s="2"/>
       <c r="F736" s="2"/>
@@ -47325,10 +47325,10 @@
     </row>
     <row r="756" spans="1:11" ht="14.35">
       <c r="A756" s="2"/>
-      <c r="B756" s="647" t="s">
+      <c r="B756" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C756" s="648"/>
+      <c r="C756" s="657"/>
       <c r="D756" s="2"/>
       <c r="E756" s="2"/>
       <c r="F756" s="2"/>
@@ -47616,10 +47616,10 @@
     </row>
     <row r="779" spans="1:11" ht="14.35">
       <c r="A779" s="2"/>
-      <c r="B779" s="647" t="s">
+      <c r="B779" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C779" s="648"/>
+      <c r="C779" s="657"/>
       <c r="D779" s="2"/>
       <c r="E779" s="2"/>
       <c r="F779" s="2"/>
@@ -47905,10 +47905,10 @@
     </row>
     <row r="802" spans="1:11" ht="14.35">
       <c r="A802" s="2"/>
-      <c r="B802" s="647" t="s">
+      <c r="B802" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C802" s="650"/>
+      <c r="C802" s="659"/>
       <c r="D802" s="2"/>
       <c r="E802" s="2"/>
       <c r="F802" s="2"/>
@@ -48187,10 +48187,10 @@
     </row>
     <row r="824" spans="1:11" ht="14.35">
       <c r="A824" s="2"/>
-      <c r="B824" s="647" t="s">
+      <c r="B824" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C824" s="650"/>
+      <c r="C824" s="659"/>
       <c r="D824" s="2"/>
       <c r="E824" s="2"/>
       <c r="F824" s="2"/>
@@ -48498,10 +48498,10 @@
     </row>
     <row r="849" spans="1:11" ht="14.35">
       <c r="A849" s="2"/>
-      <c r="B849" s="647" t="s">
+      <c r="B849" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C849" s="650"/>
+      <c r="C849" s="659"/>
       <c r="D849" s="149"/>
       <c r="E849" s="2"/>
       <c r="F849" s="2"/>
@@ -48806,10 +48806,10 @@
       <c r="K873" s="10"/>
     </row>
     <row r="874" spans="2:11" ht="14.35">
-      <c r="B874" s="647" t="s">
+      <c r="B874" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C874" s="650"/>
+      <c r="C874" s="659"/>
       <c r="D874" s="2"/>
       <c r="E874" s="2"/>
       <c r="F874" s="2"/>
@@ -49115,10 +49115,10 @@
       <c r="K899" s="10"/>
     </row>
     <row r="900" spans="1:11" ht="14.35">
-      <c r="B900" s="647" t="s">
+      <c r="B900" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C900" s="650"/>
+      <c r="C900" s="659"/>
       <c r="D900" s="2"/>
       <c r="E900" s="2"/>
       <c r="F900" s="2"/>
@@ -49348,10 +49348,10 @@
     </row>
     <row r="920" spans="1:11" ht="14.35">
       <c r="A920" s="2"/>
-      <c r="B920" s="647" t="s">
+      <c r="B920" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C920" s="650"/>
+      <c r="C920" s="659"/>
       <c r="D920" s="2"/>
       <c r="E920" s="2"/>
       <c r="F920" s="2"/>
@@ -49628,10 +49628,10 @@
     </row>
     <row r="942" spans="1:11" ht="14.35">
       <c r="A942" s="2"/>
-      <c r="B942" s="647" t="s">
+      <c r="B942" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C942" s="650"/>
+      <c r="C942" s="659"/>
       <c r="D942" s="2"/>
       <c r="E942" s="2"/>
       <c r="F942" s="2"/>
@@ -49875,10 +49875,10 @@
     </row>
     <row r="961" spans="1:11" ht="14.35">
       <c r="A961" s="2"/>
-      <c r="B961" s="647" t="s">
+      <c r="B961" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C961" s="650"/>
+      <c r="C961" s="659"/>
       <c r="D961" s="2"/>
       <c r="E961" s="2"/>
       <c r="F961" s="2"/>
@@ -50118,10 +50118,10 @@
     </row>
     <row r="980" spans="1:11" ht="14.35">
       <c r="A980" s="2"/>
-      <c r="B980" s="647" t="s">
+      <c r="B980" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C980" s="650"/>
+      <c r="C980" s="659"/>
       <c r="D980" s="2"/>
       <c r="E980" s="2"/>
       <c r="F980" s="2"/>
@@ -50262,10 +50262,10 @@
     </row>
     <row r="994" spans="1:11" ht="14.35">
       <c r="A994" s="2"/>
-      <c r="B994" s="647" t="s">
+      <c r="B994" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C994" s="650"/>
+      <c r="C994" s="659"/>
       <c r="F994" s="2"/>
       <c r="G994" s="2"/>
       <c r="H994" s="8"/>
@@ -50512,10 +50512,10 @@
     </row>
     <row r="1014" spans="1:11" ht="14.35">
       <c r="A1014" s="2"/>
-      <c r="B1014" s="647" t="s">
+      <c r="B1014" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C1014" s="648"/>
+      <c r="C1014" s="657"/>
       <c r="D1014" s="2"/>
       <c r="E1014" s="2"/>
       <c r="F1014" s="2"/>
@@ -50717,10 +50717,10 @@
     </row>
     <row r="1031" spans="1:11" ht="14.35">
       <c r="A1031" s="2"/>
-      <c r="B1031" s="647" t="s">
+      <c r="B1031" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C1031" s="650"/>
+      <c r="C1031" s="659"/>
       <c r="D1031" s="2"/>
       <c r="E1031" s="2"/>
       <c r="F1031" s="2"/>
@@ -50963,10 +50963,10 @@
       <c r="K1050" s="10"/>
     </row>
     <row r="1051" spans="2:11" ht="14.35">
-      <c r="B1051" s="647" t="s">
+      <c r="B1051" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C1051" s="648"/>
+      <c r="C1051" s="657"/>
       <c r="D1051" s="2"/>
       <c r="E1051" s="2"/>
       <c r="F1051" s="2"/>
@@ -51227,10 +51227,10 @@
     </row>
     <row r="1073" spans="1:11" ht="14.35">
       <c r="A1073" s="2"/>
-      <c r="B1073" s="647" t="s">
+      <c r="B1073" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C1073" s="648"/>
+      <c r="C1073" s="657"/>
       <c r="D1073" s="2"/>
       <c r="E1073" s="2"/>
       <c r="F1073" s="2"/>
@@ -51526,10 +51526,10 @@
     </row>
     <row r="1096" spans="1:11" ht="14.35">
       <c r="A1096" s="2"/>
-      <c r="B1096" s="647" t="s">
+      <c r="B1096" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C1096" s="648"/>
+      <c r="C1096" s="657"/>
       <c r="D1096" s="2"/>
       <c r="E1096" s="2"/>
       <c r="F1096" s="2"/>
@@ -51553,61 +51553,61 @@
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="B1014:C1014"/>
+    <mergeCell ref="B1031:C1031"/>
+    <mergeCell ref="B1051:C1051"/>
+    <mergeCell ref="B1073:C1073"/>
+    <mergeCell ref="B1096:C1096"/>
+    <mergeCell ref="B920:C920"/>
+    <mergeCell ref="B942:C942"/>
+    <mergeCell ref="B961:C961"/>
+    <mergeCell ref="B980:C980"/>
+    <mergeCell ref="B994:C994"/>
+    <mergeCell ref="B802:C802"/>
+    <mergeCell ref="B824:C824"/>
+    <mergeCell ref="B849:C849"/>
+    <mergeCell ref="B874:C874"/>
+    <mergeCell ref="B900:C900"/>
+    <mergeCell ref="B692:C692"/>
+    <mergeCell ref="B710:C710"/>
+    <mergeCell ref="B736:C736"/>
+    <mergeCell ref="B756:C756"/>
+    <mergeCell ref="B779:C779"/>
+    <mergeCell ref="B597:C597"/>
+    <mergeCell ref="B616:C616"/>
+    <mergeCell ref="B635:C635"/>
+    <mergeCell ref="B655:C655"/>
+    <mergeCell ref="B673:C673"/>
+    <mergeCell ref="B405:C405"/>
+    <mergeCell ref="B440:C440"/>
+    <mergeCell ref="B473:C473"/>
+    <mergeCell ref="B506:C506"/>
+    <mergeCell ref="B559:C559"/>
+    <mergeCell ref="B310:C310"/>
+    <mergeCell ref="D324:D328"/>
+    <mergeCell ref="B330:C330"/>
+    <mergeCell ref="B352:C352"/>
+    <mergeCell ref="B370:C370"/>
+    <mergeCell ref="B217:C217"/>
+    <mergeCell ref="B242:C242"/>
+    <mergeCell ref="D268:D272"/>
+    <mergeCell ref="B274:C274"/>
+    <mergeCell ref="D304:D308"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="B106:C106"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D36:D41"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B61:C61"/>
     <mergeCell ref="E75:F75"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="B217:C217"/>
-    <mergeCell ref="B242:C242"/>
-    <mergeCell ref="D268:D272"/>
-    <mergeCell ref="B274:C274"/>
-    <mergeCell ref="D304:D308"/>
-    <mergeCell ref="B310:C310"/>
-    <mergeCell ref="D324:D328"/>
-    <mergeCell ref="B330:C330"/>
-    <mergeCell ref="B352:C352"/>
-    <mergeCell ref="B370:C370"/>
-    <mergeCell ref="B405:C405"/>
-    <mergeCell ref="B440:C440"/>
-    <mergeCell ref="B473:C473"/>
-    <mergeCell ref="B506:C506"/>
-    <mergeCell ref="B559:C559"/>
-    <mergeCell ref="B597:C597"/>
-    <mergeCell ref="B616:C616"/>
-    <mergeCell ref="B635:C635"/>
-    <mergeCell ref="B655:C655"/>
-    <mergeCell ref="B673:C673"/>
-    <mergeCell ref="B692:C692"/>
-    <mergeCell ref="B710:C710"/>
-    <mergeCell ref="B736:C736"/>
-    <mergeCell ref="B756:C756"/>
-    <mergeCell ref="B779:C779"/>
-    <mergeCell ref="B802:C802"/>
-    <mergeCell ref="B824:C824"/>
-    <mergeCell ref="B849:C849"/>
-    <mergeCell ref="B874:C874"/>
-    <mergeCell ref="B900:C900"/>
-    <mergeCell ref="B920:C920"/>
-    <mergeCell ref="B942:C942"/>
-    <mergeCell ref="B961:C961"/>
-    <mergeCell ref="B980:C980"/>
-    <mergeCell ref="B994:C994"/>
-    <mergeCell ref="B1014:C1014"/>
-    <mergeCell ref="B1031:C1031"/>
-    <mergeCell ref="B1051:C1051"/>
-    <mergeCell ref="B1073:C1073"/>
-    <mergeCell ref="B1096:C1096"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -51677,10 +51677,10 @@
       <c r="D2" s="246" t="s">
         <v>508</v>
       </c>
-      <c r="E2" s="682" t="s">
+      <c r="E2" s="698" t="s">
         <v>509</v>
       </c>
-      <c r="F2" s="683"/>
+      <c r="F2" s="699"/>
       <c r="G2" s="252" t="s">
         <v>510</v>
       </c>
@@ -51713,71 +51713,71 @@
       <c r="A3" s="253">
         <v>1</v>
       </c>
-      <c r="B3" s="694" t="s">
+      <c r="B3" s="681" t="s">
         <v>456</v>
       </c>
-      <c r="C3" s="695"/>
-      <c r="D3" s="695"/>
-      <c r="E3" s="695"/>
-      <c r="F3" s="695"/>
-      <c r="G3" s="695"/>
-      <c r="H3" s="695"/>
-      <c r="I3" s="695"/>
-      <c r="J3" s="695"/>
-      <c r="K3" s="688" t="s">
+      <c r="C3" s="682"/>
+      <c r="D3" s="682"/>
+      <c r="E3" s="682"/>
+      <c r="F3" s="682"/>
+      <c r="G3" s="682"/>
+      <c r="H3" s="682"/>
+      <c r="I3" s="682"/>
+      <c r="J3" s="682"/>
+      <c r="K3" s="683" t="s">
         <v>457</v>
       </c>
-      <c r="L3" s="687"/>
-      <c r="M3" s="687"/>
-      <c r="N3" s="687"/>
-      <c r="O3" s="687"/>
-      <c r="P3" s="687"/>
-      <c r="Q3" s="687"/>
-      <c r="R3" s="687"/>
-      <c r="S3" s="687"/>
-      <c r="T3" s="687"/>
-      <c r="U3" s="687"/>
-      <c r="V3" s="687"/>
-      <c r="W3" s="687"/>
+      <c r="L3" s="684"/>
+      <c r="M3" s="684"/>
+      <c r="N3" s="684"/>
+      <c r="O3" s="684"/>
+      <c r="P3" s="684"/>
+      <c r="Q3" s="684"/>
+      <c r="R3" s="684"/>
+      <c r="S3" s="684"/>
+      <c r="T3" s="684"/>
+      <c r="U3" s="684"/>
+      <c r="V3" s="684"/>
+      <c r="W3" s="684"/>
     </row>
     <row r="4" spans="1:23" ht="14">
       <c r="A4" s="244"/>
-      <c r="B4" s="696" t="s">
+      <c r="B4" s="685" t="s">
         <v>459</v>
       </c>
-      <c r="C4" s="693"/>
-      <c r="D4" s="693"/>
+      <c r="C4" s="686"/>
+      <c r="D4" s="686"/>
       <c r="E4" s="674" t="s">
         <v>515</v>
       </c>
-      <c r="F4" s="693"/>
-      <c r="G4" s="693"/>
-      <c r="H4" s="697" t="s">
+      <c r="F4" s="686"/>
+      <c r="G4" s="686"/>
+      <c r="H4" s="687" t="s">
         <v>516</v>
       </c>
-      <c r="I4" s="698"/>
-      <c r="J4" s="698"/>
+      <c r="I4" s="688"/>
+      <c r="J4" s="688"/>
       <c r="K4" s="674" t="s">
         <v>460</v>
       </c>
-      <c r="L4" s="693"/>
-      <c r="M4" s="693"/>
+      <c r="L4" s="686"/>
+      <c r="M4" s="686"/>
       <c r="N4" s="674" t="s">
         <v>517</v>
       </c>
-      <c r="O4" s="693"/>
-      <c r="P4" s="693"/>
+      <c r="O4" s="686"/>
+      <c r="P4" s="686"/>
       <c r="Q4" s="674" t="s">
         <v>518</v>
       </c>
-      <c r="R4" s="693"/>
-      <c r="S4" s="693"/>
-      <c r="T4" s="699" t="s">
+      <c r="R4" s="686"/>
+      <c r="S4" s="686"/>
+      <c r="T4" s="689" t="s">
         <v>519</v>
       </c>
-      <c r="U4" s="700"/>
-      <c r="V4" s="700"/>
-      <c r="W4" s="700"/>
+      <c r="U4" s="690"/>
+      <c r="V4" s="690"/>
+      <c r="W4" s="690"/>
     </row>
     <row r="5" spans="1:23" ht="15.35">
       <c r="A5" s="244"/>
@@ -51835,7 +51835,7 @@
       <c r="S5" s="259" t="s">
         <v>463</v>
       </c>
-      <c r="T5" s="681" t="s">
+      <c r="T5" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U5" s="171" t="s">
@@ -51880,7 +51880,7 @@
       <c r="Q6" s="184"/>
       <c r="R6" s="183"/>
       <c r="S6" s="268"/>
-      <c r="T6" s="641"/>
+      <c r="T6" s="644"/>
       <c r="U6" s="171" t="s">
         <v>524</v>
       </c>
@@ -52327,32 +52327,32 @@
       </c>
     </row>
     <row r="23" spans="1:23" ht="14">
-      <c r="B23" s="684" t="s">
+      <c r="B23" s="695" t="s">
         <v>456</v>
       </c>
-      <c r="C23" s="641"/>
-      <c r="D23" s="641"/>
-      <c r="E23" s="641"/>
-      <c r="F23" s="641"/>
-      <c r="G23" s="641"/>
-      <c r="H23" s="641"/>
-      <c r="I23" s="641"/>
-      <c r="J23" s="641"/>
-      <c r="K23" s="685" t="s">
+      <c r="C23" s="644"/>
+      <c r="D23" s="644"/>
+      <c r="E23" s="644"/>
+      <c r="F23" s="644"/>
+      <c r="G23" s="644"/>
+      <c r="H23" s="644"/>
+      <c r="I23" s="644"/>
+      <c r="J23" s="644"/>
+      <c r="K23" s="694" t="s">
         <v>911</v>
       </c>
-      <c r="L23" s="641"/>
-      <c r="M23" s="641"/>
-      <c r="N23" s="641"/>
-      <c r="O23" s="641"/>
-      <c r="P23" s="641"/>
-      <c r="Q23" s="641"/>
-      <c r="R23" s="641"/>
-      <c r="S23" s="641"/>
-      <c r="T23" s="641"/>
-      <c r="U23" s="641"/>
-      <c r="V23" s="641"/>
-      <c r="W23" s="641"/>
+      <c r="L23" s="644"/>
+      <c r="M23" s="644"/>
+      <c r="N23" s="644"/>
+      <c r="O23" s="644"/>
+      <c r="P23" s="644"/>
+      <c r="Q23" s="644"/>
+      <c r="R23" s="644"/>
+      <c r="S23" s="644"/>
+      <c r="T23" s="644"/>
+      <c r="U23" s="644"/>
+      <c r="V23" s="644"/>
+      <c r="W23" s="644"/>
     </row>
     <row r="24" spans="1:23" ht="14">
       <c r="A24" s="253">
@@ -52388,12 +52388,12 @@
       </c>
       <c r="R24" s="678"/>
       <c r="S24" s="678"/>
-      <c r="T24" s="679" t="s">
+      <c r="T24" s="692" t="s">
         <v>519</v>
       </c>
-      <c r="U24" s="680"/>
-      <c r="V24" s="680"/>
-      <c r="W24" s="680"/>
+      <c r="U24" s="693"/>
+      <c r="V24" s="693"/>
+      <c r="W24" s="693"/>
     </row>
     <row r="25" spans="1:23" ht="15.35">
       <c r="A25" s="288"/>
@@ -52451,7 +52451,7 @@
       <c r="S25" s="258" t="s">
         <v>914</v>
       </c>
-      <c r="T25" s="681" t="s">
+      <c r="T25" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U25" s="171" t="s">
@@ -52496,7 +52496,7 @@
       <c r="Q26" s="184"/>
       <c r="R26" s="188"/>
       <c r="S26" s="188"/>
-      <c r="T26" s="641"/>
+      <c r="T26" s="644"/>
       <c r="U26" s="171" t="s">
         <v>524</v>
       </c>
@@ -52760,32 +52760,32 @@
       <c r="E43" s="307"/>
     </row>
     <row r="44" spans="1:23" ht="14">
-      <c r="B44" s="684" t="s">
+      <c r="B44" s="695" t="s">
         <v>456</v>
       </c>
-      <c r="C44" s="641"/>
-      <c r="D44" s="641"/>
-      <c r="E44" s="641"/>
-      <c r="F44" s="641"/>
-      <c r="G44" s="641"/>
-      <c r="H44" s="641"/>
-      <c r="I44" s="641"/>
-      <c r="J44" s="641"/>
-      <c r="K44" s="684" t="s">
+      <c r="C44" s="644"/>
+      <c r="D44" s="644"/>
+      <c r="E44" s="644"/>
+      <c r="F44" s="644"/>
+      <c r="G44" s="644"/>
+      <c r="H44" s="644"/>
+      <c r="I44" s="644"/>
+      <c r="J44" s="644"/>
+      <c r="K44" s="695" t="s">
         <v>457</v>
       </c>
-      <c r="L44" s="641"/>
-      <c r="M44" s="641"/>
-      <c r="N44" s="641"/>
-      <c r="O44" s="641"/>
-      <c r="P44" s="641"/>
-      <c r="Q44" s="641"/>
-      <c r="R44" s="641"/>
-      <c r="S44" s="641"/>
-      <c r="T44" s="641"/>
-      <c r="U44" s="641"/>
-      <c r="V44" s="641"/>
-      <c r="W44" s="641"/>
+      <c r="L44" s="644"/>
+      <c r="M44" s="644"/>
+      <c r="N44" s="644"/>
+      <c r="O44" s="644"/>
+      <c r="P44" s="644"/>
+      <c r="Q44" s="644"/>
+      <c r="R44" s="644"/>
+      <c r="S44" s="644"/>
+      <c r="T44" s="644"/>
+      <c r="U44" s="644"/>
+      <c r="V44" s="644"/>
+      <c r="W44" s="644"/>
     </row>
     <row r="45" spans="1:23" ht="14">
       <c r="A45" s="253">
@@ -52821,12 +52821,12 @@
       </c>
       <c r="R45" s="678"/>
       <c r="S45" s="678"/>
-      <c r="T45" s="692" t="s">
+      <c r="T45" s="696" t="s">
         <v>519</v>
       </c>
-      <c r="U45" s="693"/>
-      <c r="V45" s="693"/>
-      <c r="W45" s="693"/>
+      <c r="U45" s="686"/>
+      <c r="V45" s="686"/>
+      <c r="W45" s="686"/>
     </row>
     <row r="46" spans="1:23" ht="15.35">
       <c r="A46" s="288"/>
@@ -52884,7 +52884,7 @@
       <c r="S46" s="287" t="s">
         <v>914</v>
       </c>
-      <c r="T46" s="689" t="s">
+      <c r="T46" s="701" t="s">
         <v>520</v>
       </c>
       <c r="U46" s="318" t="s">
@@ -52929,7 +52929,7 @@
       <c r="Q47" s="184"/>
       <c r="R47" s="188"/>
       <c r="S47" s="188"/>
-      <c r="T47" s="641"/>
+      <c r="T47" s="644"/>
       <c r="U47" s="171" t="s">
         <v>524</v>
       </c>
@@ -53161,32 +53161,32 @@
       <c r="C61" s="170"/>
     </row>
     <row r="62" spans="1:23" ht="14">
-      <c r="B62" s="684" t="s">
+      <c r="B62" s="695" t="s">
         <v>456</v>
       </c>
-      <c r="C62" s="641"/>
-      <c r="D62" s="641"/>
-      <c r="E62" s="641"/>
-      <c r="F62" s="641"/>
-      <c r="G62" s="641"/>
-      <c r="H62" s="641"/>
-      <c r="I62" s="641"/>
-      <c r="J62" s="641"/>
-      <c r="K62" s="684" t="s">
+      <c r="C62" s="644"/>
+      <c r="D62" s="644"/>
+      <c r="E62" s="644"/>
+      <c r="F62" s="644"/>
+      <c r="G62" s="644"/>
+      <c r="H62" s="644"/>
+      <c r="I62" s="644"/>
+      <c r="J62" s="644"/>
+      <c r="K62" s="695" t="s">
         <v>457</v>
       </c>
-      <c r="L62" s="641"/>
-      <c r="M62" s="641"/>
-      <c r="N62" s="641"/>
-      <c r="O62" s="641"/>
-      <c r="P62" s="641"/>
-      <c r="Q62" s="641"/>
-      <c r="R62" s="641"/>
-      <c r="S62" s="641"/>
-      <c r="T62" s="641"/>
-      <c r="U62" s="641"/>
-      <c r="V62" s="641"/>
-      <c r="W62" s="641"/>
+      <c r="L62" s="644"/>
+      <c r="M62" s="644"/>
+      <c r="N62" s="644"/>
+      <c r="O62" s="644"/>
+      <c r="P62" s="644"/>
+      <c r="Q62" s="644"/>
+      <c r="R62" s="644"/>
+      <c r="S62" s="644"/>
+      <c r="T62" s="644"/>
+      <c r="U62" s="644"/>
+      <c r="V62" s="644"/>
+      <c r="W62" s="644"/>
     </row>
     <row r="63" spans="1:23" ht="14">
       <c r="A63" s="253">
@@ -53222,12 +53222,12 @@
       </c>
       <c r="R63" s="678"/>
       <c r="S63" s="678"/>
-      <c r="T63" s="679" t="s">
+      <c r="T63" s="692" t="s">
         <v>519</v>
       </c>
-      <c r="U63" s="680"/>
-      <c r="V63" s="680"/>
-      <c r="W63" s="680"/>
+      <c r="U63" s="693"/>
+      <c r="V63" s="693"/>
+      <c r="W63" s="693"/>
     </row>
     <row r="64" spans="1:23" ht="15.35">
       <c r="A64" s="288"/>
@@ -53285,7 +53285,7 @@
       <c r="S64" s="254" t="s">
         <v>463</v>
       </c>
-      <c r="T64" s="681" t="s">
+      <c r="T64" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U64" s="171" t="s">
@@ -53330,7 +53330,7 @@
       <c r="Q65" s="184"/>
       <c r="R65" s="184"/>
       <c r="S65" s="184"/>
-      <c r="T65" s="641"/>
+      <c r="T65" s="644"/>
       <c r="U65" s="171" t="s">
         <v>524</v>
       </c>
@@ -53595,32 +53595,32 @@
       </c>
     </row>
     <row r="85" spans="1:23" ht="14">
-      <c r="B85" s="685" t="s">
+      <c r="B85" s="694" t="s">
         <v>919</v>
       </c>
-      <c r="C85" s="641"/>
-      <c r="D85" s="641"/>
-      <c r="E85" s="641"/>
-      <c r="F85" s="641"/>
-      <c r="G85" s="641"/>
-      <c r="H85" s="641"/>
-      <c r="I85" s="641"/>
-      <c r="J85" s="641"/>
-      <c r="K85" s="685" t="s">
+      <c r="C85" s="644"/>
+      <c r="D85" s="644"/>
+      <c r="E85" s="644"/>
+      <c r="F85" s="644"/>
+      <c r="G85" s="644"/>
+      <c r="H85" s="644"/>
+      <c r="I85" s="644"/>
+      <c r="J85" s="644"/>
+      <c r="K85" s="694" t="s">
         <v>911</v>
       </c>
-      <c r="L85" s="641"/>
-      <c r="M85" s="641"/>
-      <c r="N85" s="641"/>
-      <c r="O85" s="641"/>
-      <c r="P85" s="641"/>
-      <c r="Q85" s="641"/>
-      <c r="R85" s="641"/>
-      <c r="S85" s="641"/>
-      <c r="T85" s="641"/>
-      <c r="U85" s="641"/>
-      <c r="V85" s="641"/>
-      <c r="W85" s="641"/>
+      <c r="L85" s="644"/>
+      <c r="M85" s="644"/>
+      <c r="N85" s="644"/>
+      <c r="O85" s="644"/>
+      <c r="P85" s="644"/>
+      <c r="Q85" s="644"/>
+      <c r="R85" s="644"/>
+      <c r="S85" s="644"/>
+      <c r="T85" s="644"/>
+      <c r="U85" s="644"/>
+      <c r="V85" s="644"/>
+      <c r="W85" s="644"/>
     </row>
     <row r="86" spans="1:23" ht="14">
       <c r="A86" s="253">
@@ -53631,17 +53631,17 @@
       </c>
       <c r="C86" s="673"/>
       <c r="D86" s="673"/>
-      <c r="E86" s="690" t="s">
+      <c r="E86" s="680" t="s">
         <v>920</v>
       </c>
       <c r="F86" s="675"/>
       <c r="G86" s="675"/>
-      <c r="H86" s="691" t="s">
+      <c r="H86" s="697" t="s">
         <v>921</v>
       </c>
       <c r="I86" s="677"/>
       <c r="J86" s="677"/>
-      <c r="K86" s="690" t="s">
+      <c r="K86" s="680" t="s">
         <v>922</v>
       </c>
       <c r="L86" s="678"/>
@@ -53656,12 +53656,12 @@
       </c>
       <c r="R86" s="678"/>
       <c r="S86" s="678"/>
-      <c r="T86" s="679" t="s">
+      <c r="T86" s="692" t="s">
         <v>519</v>
       </c>
-      <c r="U86" s="680"/>
-      <c r="V86" s="680"/>
-      <c r="W86" s="680"/>
+      <c r="U86" s="693"/>
+      <c r="V86" s="693"/>
+      <c r="W86" s="693"/>
     </row>
     <row r="87" spans="1:23" ht="15.35">
       <c r="A87" s="288"/>
@@ -53719,7 +53719,7 @@
       <c r="S87" s="254" t="s">
         <v>463</v>
       </c>
-      <c r="T87" s="681" t="s">
+      <c r="T87" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U87" s="171" t="s">
@@ -53764,7 +53764,7 @@
       <c r="Q88" s="184"/>
       <c r="R88" s="184"/>
       <c r="S88" s="184"/>
-      <c r="T88" s="641"/>
+      <c r="T88" s="644"/>
       <c r="U88" s="171" t="s">
         <v>524</v>
       </c>
@@ -54028,32 +54028,32 @@
       <c r="C106" s="170"/>
     </row>
     <row r="107" spans="1:23" ht="14">
-      <c r="B107" s="685" t="s">
+      <c r="B107" s="694" t="s">
         <v>919</v>
       </c>
-      <c r="C107" s="641"/>
-      <c r="D107" s="641"/>
-      <c r="E107" s="641"/>
-      <c r="F107" s="641"/>
-      <c r="G107" s="641"/>
-      <c r="H107" s="641"/>
-      <c r="I107" s="641"/>
-      <c r="J107" s="641"/>
-      <c r="K107" s="684" t="s">
+      <c r="C107" s="644"/>
+      <c r="D107" s="644"/>
+      <c r="E107" s="644"/>
+      <c r="F107" s="644"/>
+      <c r="G107" s="644"/>
+      <c r="H107" s="644"/>
+      <c r="I107" s="644"/>
+      <c r="J107" s="644"/>
+      <c r="K107" s="695" t="s">
         <v>457</v>
       </c>
-      <c r="L107" s="641"/>
-      <c r="M107" s="641"/>
-      <c r="N107" s="641"/>
-      <c r="O107" s="641"/>
-      <c r="P107" s="641"/>
-      <c r="Q107" s="641"/>
-      <c r="R107" s="641"/>
-      <c r="S107" s="641"/>
-      <c r="T107" s="641"/>
-      <c r="U107" s="641"/>
-      <c r="V107" s="641"/>
-      <c r="W107" s="641"/>
+      <c r="L107" s="644"/>
+      <c r="M107" s="644"/>
+      <c r="N107" s="644"/>
+      <c r="O107" s="644"/>
+      <c r="P107" s="644"/>
+      <c r="Q107" s="644"/>
+      <c r="R107" s="644"/>
+      <c r="S107" s="644"/>
+      <c r="T107" s="644"/>
+      <c r="U107" s="644"/>
+      <c r="V107" s="644"/>
+      <c r="W107" s="644"/>
     </row>
     <row r="108" spans="1:23" ht="14">
       <c r="A108" s="253">
@@ -54064,7 +54064,7 @@
       </c>
       <c r="C108" s="673"/>
       <c r="D108" s="673"/>
-      <c r="E108" s="690" t="s">
+      <c r="E108" s="680" t="s">
         <v>920</v>
       </c>
       <c r="F108" s="675"/>
@@ -54089,12 +54089,12 @@
       </c>
       <c r="R108" s="678"/>
       <c r="S108" s="678"/>
-      <c r="T108" s="679" t="s">
+      <c r="T108" s="692" t="s">
         <v>519</v>
       </c>
-      <c r="U108" s="680"/>
-      <c r="V108" s="680"/>
-      <c r="W108" s="680"/>
+      <c r="U108" s="693"/>
+      <c r="V108" s="693"/>
+      <c r="W108" s="693"/>
     </row>
     <row r="109" spans="1:23" ht="15.35">
       <c r="A109" s="288"/>
@@ -54152,7 +54152,7 @@
       <c r="S109" s="346" t="s">
         <v>463</v>
       </c>
-      <c r="T109" s="681" t="s">
+      <c r="T109" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U109" s="171" t="s">
@@ -54197,7 +54197,7 @@
       <c r="Q110" s="184"/>
       <c r="R110" s="184"/>
       <c r="S110" s="184"/>
-      <c r="T110" s="641"/>
+      <c r="T110" s="644"/>
       <c r="U110" s="171" t="s">
         <v>524</v>
       </c>
@@ -54411,32 +54411,32 @@
       </c>
     </row>
     <row r="128" spans="1:23" ht="14">
-      <c r="B128" s="684" t="s">
+      <c r="B128" s="695" t="s">
         <v>456</v>
       </c>
-      <c r="C128" s="641"/>
-      <c r="D128" s="641"/>
-      <c r="E128" s="641"/>
-      <c r="F128" s="641"/>
-      <c r="G128" s="641"/>
-      <c r="H128" s="641"/>
-      <c r="I128" s="641"/>
-      <c r="J128" s="641"/>
-      <c r="K128" s="684" t="s">
+      <c r="C128" s="644"/>
+      <c r="D128" s="644"/>
+      <c r="E128" s="644"/>
+      <c r="F128" s="644"/>
+      <c r="G128" s="644"/>
+      <c r="H128" s="644"/>
+      <c r="I128" s="644"/>
+      <c r="J128" s="644"/>
+      <c r="K128" s="695" t="s">
         <v>457</v>
       </c>
-      <c r="L128" s="641"/>
-      <c r="M128" s="641"/>
-      <c r="N128" s="641"/>
-      <c r="O128" s="641"/>
-      <c r="P128" s="641"/>
-      <c r="Q128" s="641"/>
-      <c r="R128" s="641"/>
-      <c r="S128" s="641"/>
-      <c r="T128" s="641"/>
-      <c r="U128" s="641"/>
-      <c r="V128" s="641"/>
-      <c r="W128" s="641"/>
+      <c r="L128" s="644"/>
+      <c r="M128" s="644"/>
+      <c r="N128" s="644"/>
+      <c r="O128" s="644"/>
+      <c r="P128" s="644"/>
+      <c r="Q128" s="644"/>
+      <c r="R128" s="644"/>
+      <c r="S128" s="644"/>
+      <c r="T128" s="644"/>
+      <c r="U128" s="644"/>
+      <c r="V128" s="644"/>
+      <c r="W128" s="644"/>
     </row>
     <row r="129" spans="1:23" ht="14">
       <c r="A129" s="253">
@@ -54472,12 +54472,12 @@
       </c>
       <c r="R129" s="678"/>
       <c r="S129" s="678"/>
-      <c r="T129" s="679" t="s">
+      <c r="T129" s="692" t="s">
         <v>519</v>
       </c>
-      <c r="U129" s="680"/>
-      <c r="V129" s="680"/>
-      <c r="W129" s="680"/>
+      <c r="U129" s="693"/>
+      <c r="V129" s="693"/>
+      <c r="W129" s="693"/>
     </row>
     <row r="130" spans="1:23" ht="15.35">
       <c r="A130" s="288"/>
@@ -54535,7 +54535,7 @@
       <c r="S130" s="346" t="s">
         <v>463</v>
       </c>
-      <c r="T130" s="681" t="s">
+      <c r="T130" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U130" s="171" t="s">
@@ -54580,7 +54580,7 @@
       <c r="Q131" s="184"/>
       <c r="R131" s="184"/>
       <c r="S131" s="184"/>
-      <c r="T131" s="641"/>
+      <c r="T131" s="644"/>
       <c r="U131" s="171" t="s">
         <v>524</v>
       </c>
@@ -54780,32 +54780,32 @@
       </c>
     </row>
     <row r="142" spans="1:23" ht="14">
-      <c r="B142" s="684" t="s">
+      <c r="B142" s="695" t="s">
         <v>456</v>
       </c>
-      <c r="C142" s="641"/>
-      <c r="D142" s="641"/>
-      <c r="E142" s="641"/>
-      <c r="F142" s="641"/>
-      <c r="G142" s="641"/>
-      <c r="H142" s="641"/>
-      <c r="I142" s="641"/>
-      <c r="J142" s="641"/>
-      <c r="K142" s="684" t="s">
+      <c r="C142" s="644"/>
+      <c r="D142" s="644"/>
+      <c r="E142" s="644"/>
+      <c r="F142" s="644"/>
+      <c r="G142" s="644"/>
+      <c r="H142" s="644"/>
+      <c r="I142" s="644"/>
+      <c r="J142" s="644"/>
+      <c r="K142" s="695" t="s">
         <v>457</v>
       </c>
-      <c r="L142" s="641"/>
-      <c r="M142" s="641"/>
-      <c r="N142" s="641"/>
-      <c r="O142" s="641"/>
-      <c r="P142" s="641"/>
-      <c r="Q142" s="641"/>
-      <c r="R142" s="641"/>
-      <c r="S142" s="641"/>
-      <c r="T142" s="641"/>
-      <c r="U142" s="641"/>
-      <c r="V142" s="641"/>
-      <c r="W142" s="641"/>
+      <c r="L142" s="644"/>
+      <c r="M142" s="644"/>
+      <c r="N142" s="644"/>
+      <c r="O142" s="644"/>
+      <c r="P142" s="644"/>
+      <c r="Q142" s="644"/>
+      <c r="R142" s="644"/>
+      <c r="S142" s="644"/>
+      <c r="T142" s="644"/>
+      <c r="U142" s="644"/>
+      <c r="V142" s="644"/>
+      <c r="W142" s="644"/>
     </row>
     <row r="143" spans="1:23" ht="14">
       <c r="A143" s="253">
@@ -54839,14 +54839,14 @@
       <c r="Q143" s="674" t="s">
         <v>916</v>
       </c>
-      <c r="R143" s="701"/>
-      <c r="S143" s="701"/>
-      <c r="T143" s="679" t="s">
+      <c r="R143" s="679"/>
+      <c r="S143" s="679"/>
+      <c r="T143" s="692" t="s">
         <v>519</v>
       </c>
-      <c r="U143" s="680"/>
-      <c r="V143" s="680"/>
-      <c r="W143" s="680"/>
+      <c r="U143" s="693"/>
+      <c r="V143" s="693"/>
+      <c r="W143" s="693"/>
     </row>
     <row r="144" spans="1:23" ht="15.35">
       <c r="A144" s="288"/>
@@ -54904,7 +54904,7 @@
       <c r="S144" s="254" t="s">
         <v>463</v>
       </c>
-      <c r="T144" s="681" t="s">
+      <c r="T144" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U144" s="171" t="s">
@@ -54949,7 +54949,7 @@
       <c r="Q145" s="184"/>
       <c r="R145" s="184"/>
       <c r="S145" s="184"/>
-      <c r="T145" s="641"/>
+      <c r="T145" s="644"/>
       <c r="U145" s="171" t="s">
         <v>524</v>
       </c>
@@ -55141,32 +55141,32 @@
       </c>
     </row>
     <row r="157" spans="1:23" ht="14">
-      <c r="B157" s="686" t="s">
+      <c r="B157" s="700" t="s">
         <v>456</v>
       </c>
-      <c r="C157" s="687"/>
-      <c r="D157" s="687"/>
-      <c r="E157" s="687"/>
-      <c r="F157" s="687"/>
-      <c r="G157" s="687"/>
-      <c r="H157" s="687"/>
-      <c r="I157" s="687"/>
-      <c r="J157" s="687"/>
-      <c r="K157" s="688" t="s">
+      <c r="C157" s="684"/>
+      <c r="D157" s="684"/>
+      <c r="E157" s="684"/>
+      <c r="F157" s="684"/>
+      <c r="G157" s="684"/>
+      <c r="H157" s="684"/>
+      <c r="I157" s="684"/>
+      <c r="J157" s="684"/>
+      <c r="K157" s="683" t="s">
         <v>911</v>
       </c>
-      <c r="L157" s="687"/>
-      <c r="M157" s="687"/>
-      <c r="N157" s="687"/>
-      <c r="O157" s="687"/>
-      <c r="P157" s="687"/>
-      <c r="Q157" s="687"/>
-      <c r="R157" s="687"/>
-      <c r="S157" s="687"/>
-      <c r="T157" s="687"/>
-      <c r="U157" s="687"/>
-      <c r="V157" s="687"/>
-      <c r="W157" s="687"/>
+      <c r="L157" s="684"/>
+      <c r="M157" s="684"/>
+      <c r="N157" s="684"/>
+      <c r="O157" s="684"/>
+      <c r="P157" s="684"/>
+      <c r="Q157" s="684"/>
+      <c r="R157" s="684"/>
+      <c r="S157" s="684"/>
+      <c r="T157" s="684"/>
+      <c r="U157" s="684"/>
+      <c r="V157" s="684"/>
+      <c r="W157" s="684"/>
     </row>
     <row r="158" spans="1:23" ht="14">
       <c r="A158" s="253">
@@ -55202,12 +55202,12 @@
       </c>
       <c r="R158" s="678"/>
       <c r="S158" s="678"/>
-      <c r="T158" s="679" t="s">
+      <c r="T158" s="692" t="s">
         <v>519</v>
       </c>
-      <c r="U158" s="680"/>
-      <c r="V158" s="680"/>
-      <c r="W158" s="680"/>
+      <c r="U158" s="693"/>
+      <c r="V158" s="693"/>
+      <c r="W158" s="693"/>
     </row>
     <row r="159" spans="1:23" ht="15.35">
       <c r="A159" s="288"/>
@@ -55265,7 +55265,7 @@
       <c r="S159" s="258" t="s">
         <v>914</v>
       </c>
-      <c r="T159" s="681" t="s">
+      <c r="T159" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U159" s="171" t="s">
@@ -55310,7 +55310,7 @@
       <c r="Q160" s="321"/>
       <c r="R160" s="275"/>
       <c r="S160" s="275"/>
-      <c r="T160" s="641"/>
+      <c r="T160" s="644"/>
       <c r="U160" s="171"/>
       <c r="V160" s="266"/>
       <c r="W160" s="266"/>
@@ -55347,7 +55347,7 @@
       <c r="Q161" s="184"/>
       <c r="R161" s="188"/>
       <c r="S161" s="188"/>
-      <c r="T161" s="641"/>
+      <c r="T161" s="644"/>
       <c r="U161" s="171" t="s">
         <v>524</v>
       </c>
@@ -55548,32 +55548,32 @@
     </row>
     <row r="172" spans="1:23" ht="14">
       <c r="A172" s="293"/>
-      <c r="B172" s="684" t="s">
+      <c r="B172" s="695" t="s">
         <v>456</v>
       </c>
-      <c r="C172" s="641"/>
-      <c r="D172" s="641"/>
-      <c r="E172" s="641"/>
-      <c r="F172" s="641"/>
-      <c r="G172" s="641"/>
-      <c r="H172" s="641"/>
-      <c r="I172" s="641"/>
-      <c r="J172" s="641"/>
-      <c r="K172" s="685" t="s">
+      <c r="C172" s="644"/>
+      <c r="D172" s="644"/>
+      <c r="E172" s="644"/>
+      <c r="F172" s="644"/>
+      <c r="G172" s="644"/>
+      <c r="H172" s="644"/>
+      <c r="I172" s="644"/>
+      <c r="J172" s="644"/>
+      <c r="K172" s="694" t="s">
         <v>911</v>
       </c>
-      <c r="L172" s="641"/>
-      <c r="M172" s="641"/>
-      <c r="N172" s="641"/>
-      <c r="O172" s="641"/>
-      <c r="P172" s="641"/>
-      <c r="Q172" s="641"/>
-      <c r="R172" s="641"/>
-      <c r="S172" s="641"/>
-      <c r="T172" s="641"/>
-      <c r="U172" s="641"/>
-      <c r="V172" s="641"/>
-      <c r="W172" s="641"/>
+      <c r="L172" s="644"/>
+      <c r="M172" s="644"/>
+      <c r="N172" s="644"/>
+      <c r="O172" s="644"/>
+      <c r="P172" s="644"/>
+      <c r="Q172" s="644"/>
+      <c r="R172" s="644"/>
+      <c r="S172" s="644"/>
+      <c r="T172" s="644"/>
+      <c r="U172" s="644"/>
+      <c r="V172" s="644"/>
+      <c r="W172" s="644"/>
     </row>
     <row r="173" spans="1:23" ht="14">
       <c r="A173" s="293"/>
@@ -55607,12 +55607,12 @@
       </c>
       <c r="R173" s="678"/>
       <c r="S173" s="678"/>
-      <c r="T173" s="679" t="s">
+      <c r="T173" s="692" t="s">
         <v>519</v>
       </c>
-      <c r="U173" s="680"/>
-      <c r="V173" s="680"/>
-      <c r="W173" s="680"/>
+      <c r="U173" s="693"/>
+      <c r="V173" s="693"/>
+      <c r="W173" s="693"/>
     </row>
     <row r="174" spans="1:23" ht="15.35">
       <c r="A174" s="293"/>
@@ -55670,7 +55670,7 @@
       <c r="S174" s="258" t="s">
         <v>914</v>
       </c>
-      <c r="T174" s="681" t="s">
+      <c r="T174" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U174" s="171" t="s">
@@ -55715,7 +55715,7 @@
       <c r="Q175" s="184"/>
       <c r="R175" s="188"/>
       <c r="S175" s="188"/>
-      <c r="T175" s="641"/>
+      <c r="T175" s="644"/>
       <c r="U175" s="171" t="s">
         <v>524</v>
       </c>
@@ -57861,50 +57861,39 @@
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="B143:D143"/>
-    <mergeCell ref="E143:G143"/>
-    <mergeCell ref="H143:J143"/>
-    <mergeCell ref="K143:M143"/>
-    <mergeCell ref="N143:P143"/>
-    <mergeCell ref="Q143:S143"/>
-    <mergeCell ref="K108:M108"/>
-    <mergeCell ref="H108:J108"/>
-    <mergeCell ref="E108:G108"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="Q129:S129"/>
-    <mergeCell ref="B129:D129"/>
-    <mergeCell ref="E129:G129"/>
-    <mergeCell ref="H129:J129"/>
-    <mergeCell ref="K129:M129"/>
-    <mergeCell ref="N129:P129"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="K3:W3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="K23:W23"/>
-    <mergeCell ref="B44:J44"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="T45:W45"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="B173:D173"/>
+    <mergeCell ref="E173:G173"/>
+    <mergeCell ref="H173:J173"/>
+    <mergeCell ref="K173:M173"/>
+    <mergeCell ref="N173:P173"/>
+    <mergeCell ref="Q173:S173"/>
+    <mergeCell ref="T173:W173"/>
+    <mergeCell ref="T174:T175"/>
+    <mergeCell ref="T159:T161"/>
+    <mergeCell ref="B158:D158"/>
+    <mergeCell ref="E158:G158"/>
+    <mergeCell ref="H158:J158"/>
+    <mergeCell ref="K158:M158"/>
+    <mergeCell ref="N158:P158"/>
+    <mergeCell ref="Q158:S158"/>
+    <mergeCell ref="T158:W158"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B172:J172"/>
+    <mergeCell ref="K172:W172"/>
+    <mergeCell ref="T129:W129"/>
+    <mergeCell ref="T130:T131"/>
+    <mergeCell ref="K128:W128"/>
+    <mergeCell ref="B142:J142"/>
+    <mergeCell ref="T143:W143"/>
+    <mergeCell ref="T144:T145"/>
+    <mergeCell ref="K142:W142"/>
+    <mergeCell ref="B157:J157"/>
+    <mergeCell ref="K157:W157"/>
+    <mergeCell ref="T46:T47"/>
+    <mergeCell ref="K44:W44"/>
+    <mergeCell ref="B62:J62"/>
+    <mergeCell ref="T63:W63"/>
+    <mergeCell ref="T64:T65"/>
     <mergeCell ref="K62:W62"/>
     <mergeCell ref="B85:J85"/>
     <mergeCell ref="B107:J107"/>
@@ -57929,39 +57918,50 @@
     <mergeCell ref="H86:J86"/>
     <mergeCell ref="E86:G86"/>
     <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B158:D158"/>
-    <mergeCell ref="E158:G158"/>
-    <mergeCell ref="H158:J158"/>
-    <mergeCell ref="K158:M158"/>
-    <mergeCell ref="N158:P158"/>
-    <mergeCell ref="Q158:S158"/>
-    <mergeCell ref="T158:W158"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B172:J172"/>
-    <mergeCell ref="K172:W172"/>
-    <mergeCell ref="T129:W129"/>
-    <mergeCell ref="T130:T131"/>
-    <mergeCell ref="K128:W128"/>
-    <mergeCell ref="B142:J142"/>
-    <mergeCell ref="T143:W143"/>
-    <mergeCell ref="T144:T145"/>
-    <mergeCell ref="K142:W142"/>
-    <mergeCell ref="B157:J157"/>
-    <mergeCell ref="K157:W157"/>
-    <mergeCell ref="T46:T47"/>
-    <mergeCell ref="K44:W44"/>
-    <mergeCell ref="B62:J62"/>
-    <mergeCell ref="T63:W63"/>
-    <mergeCell ref="T64:T65"/>
-    <mergeCell ref="B173:D173"/>
-    <mergeCell ref="E173:G173"/>
-    <mergeCell ref="H173:J173"/>
-    <mergeCell ref="K173:M173"/>
-    <mergeCell ref="N173:P173"/>
-    <mergeCell ref="Q173:S173"/>
-    <mergeCell ref="T173:W173"/>
-    <mergeCell ref="T174:T175"/>
-    <mergeCell ref="T159:T161"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="K23:W23"/>
+    <mergeCell ref="B44:J44"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="T45:W45"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="K3:W3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="B143:D143"/>
+    <mergeCell ref="E143:G143"/>
+    <mergeCell ref="H143:J143"/>
+    <mergeCell ref="K143:M143"/>
+    <mergeCell ref="N143:P143"/>
+    <mergeCell ref="Q143:S143"/>
+    <mergeCell ref="K108:M108"/>
+    <mergeCell ref="H108:J108"/>
+    <mergeCell ref="E108:G108"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="Q129:S129"/>
+    <mergeCell ref="B129:D129"/>
+    <mergeCell ref="E129:G129"/>
+    <mergeCell ref="H129:J129"/>
+    <mergeCell ref="K129:M129"/>
+    <mergeCell ref="N129:P129"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -58002,31 +58002,31 @@
       <c r="A2" s="196" t="s">
         <v>455</v>
       </c>
-      <c r="B2" s="709" t="s">
+      <c r="B2" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C2" s="710"/>
-      <c r="D2" s="710"/>
-      <c r="E2" s="711" t="s">
+      <c r="C2" s="705"/>
+      <c r="D2" s="705"/>
+      <c r="E2" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F2" s="698"/>
-      <c r="G2" s="698"/>
+      <c r="F2" s="688"/>
+      <c r="G2" s="688"/>
     </row>
     <row r="3" spans="1:7" ht="14">
       <c r="A3" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B3" s="707" t="s">
+      <c r="B3" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C3" s="693"/>
-      <c r="D3" s="693"/>
-      <c r="E3" s="708" t="s">
+      <c r="C3" s="686"/>
+      <c r="D3" s="686"/>
+      <c r="E3" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F3" s="693"/>
-      <c r="G3" s="693"/>
+      <c r="F3" s="686"/>
+      <c r="G3" s="686"/>
     </row>
     <row r="4" spans="1:7" ht="15.35">
       <c r="A4" s="197"/>
@@ -58163,31 +58163,31 @@
       <c r="A13" s="196" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="709" t="s">
+      <c r="B13" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C13" s="710"/>
-      <c r="D13" s="710"/>
-      <c r="E13" s="711" t="s">
+      <c r="C13" s="705"/>
+      <c r="D13" s="705"/>
+      <c r="E13" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F13" s="698"/>
-      <c r="G13" s="698"/>
+      <c r="F13" s="688"/>
+      <c r="G13" s="688"/>
     </row>
     <row r="14" spans="1:7" ht="14">
       <c r="A14" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B14" s="707" t="s">
+      <c r="B14" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C14" s="693"/>
-      <c r="D14" s="693"/>
-      <c r="E14" s="708" t="s">
+      <c r="C14" s="686"/>
+      <c r="D14" s="686"/>
+      <c r="E14" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F14" s="693"/>
-      <c r="G14" s="693"/>
+      <c r="F14" s="686"/>
+      <c r="G14" s="686"/>
     </row>
     <row r="15" spans="1:7" ht="15.35">
       <c r="A15" s="197"/>
@@ -58342,31 +58342,31 @@
       <c r="A24" s="196" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="709" t="s">
+      <c r="B24" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C24" s="710"/>
-      <c r="D24" s="710"/>
-      <c r="E24" s="711" t="s">
+      <c r="C24" s="705"/>
+      <c r="D24" s="705"/>
+      <c r="E24" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F24" s="698"/>
-      <c r="G24" s="698"/>
+      <c r="F24" s="688"/>
+      <c r="G24" s="688"/>
     </row>
     <row r="25" spans="1:7" ht="14">
       <c r="A25" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B25" s="707" t="s">
+      <c r="B25" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C25" s="693"/>
-      <c r="D25" s="693"/>
-      <c r="E25" s="708" t="s">
+      <c r="C25" s="686"/>
+      <c r="D25" s="686"/>
+      <c r="E25" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F25" s="693"/>
-      <c r="G25" s="693"/>
+      <c r="F25" s="686"/>
+      <c r="G25" s="686"/>
     </row>
     <row r="26" spans="1:7" ht="15.35">
       <c r="A26" s="197"/>
@@ -58503,31 +58503,31 @@
       <c r="A35" s="196" t="s">
         <v>92</v>
       </c>
-      <c r="B35" s="709" t="s">
+      <c r="B35" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C35" s="710"/>
-      <c r="D35" s="710"/>
-      <c r="E35" s="711" t="s">
+      <c r="C35" s="705"/>
+      <c r="D35" s="705"/>
+      <c r="E35" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F35" s="698"/>
-      <c r="G35" s="698"/>
+      <c r="F35" s="688"/>
+      <c r="G35" s="688"/>
     </row>
     <row r="36" spans="1:8" ht="25.35">
       <c r="A36" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B36" s="707" t="s">
+      <c r="B36" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C36" s="693"/>
-      <c r="D36" s="693"/>
-      <c r="E36" s="708" t="s">
+      <c r="C36" s="686"/>
+      <c r="D36" s="686"/>
+      <c r="E36" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F36" s="693"/>
-      <c r="G36" s="693"/>
+      <c r="F36" s="686"/>
+      <c r="G36" s="686"/>
     </row>
     <row r="37" spans="1:8" ht="15.35">
       <c r="B37" s="198" t="s">
@@ -58659,31 +58659,31 @@
       <c r="A48" s="196" t="s">
         <v>99</v>
       </c>
-      <c r="B48" s="709" t="s">
+      <c r="B48" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C48" s="710"/>
-      <c r="D48" s="710"/>
-      <c r="E48" s="711" t="s">
+      <c r="C48" s="705"/>
+      <c r="D48" s="705"/>
+      <c r="E48" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F48" s="698"/>
-      <c r="G48" s="698"/>
+      <c r="F48" s="688"/>
+      <c r="G48" s="688"/>
     </row>
     <row r="49" spans="1:8" ht="25.35">
       <c r="A49" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B49" s="707" t="s">
+      <c r="B49" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C49" s="693"/>
-      <c r="D49" s="693"/>
-      <c r="E49" s="708" t="s">
+      <c r="C49" s="686"/>
+      <c r="D49" s="686"/>
+      <c r="E49" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F49" s="693"/>
-      <c r="G49" s="693"/>
+      <c r="F49" s="686"/>
+      <c r="G49" s="686"/>
     </row>
     <row r="50" spans="1:8" ht="15.35">
       <c r="B50" s="198" t="s">
@@ -58815,31 +58815,31 @@
       <c r="A62" s="196" t="s">
         <v>104</v>
       </c>
-      <c r="B62" s="709" t="s">
+      <c r="B62" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C62" s="710"/>
-      <c r="D62" s="710"/>
-      <c r="E62" s="711" t="s">
+      <c r="C62" s="705"/>
+      <c r="D62" s="705"/>
+      <c r="E62" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F62" s="698"/>
-      <c r="G62" s="698"/>
+      <c r="F62" s="688"/>
+      <c r="G62" s="688"/>
     </row>
     <row r="63" spans="1:8" ht="25.35">
       <c r="A63" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B63" s="707" t="s">
+      <c r="B63" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C63" s="693"/>
-      <c r="D63" s="693"/>
-      <c r="E63" s="708" t="s">
+      <c r="C63" s="686"/>
+      <c r="D63" s="686"/>
+      <c r="E63" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F63" s="693"/>
-      <c r="G63" s="693"/>
+      <c r="F63" s="686"/>
+      <c r="G63" s="686"/>
     </row>
     <row r="64" spans="1:8" ht="15.35">
       <c r="B64" s="198" t="s">
@@ -58964,31 +58964,31 @@
       <c r="A79" s="191" t="s">
         <v>91</v>
       </c>
-      <c r="B79" s="709" t="s">
+      <c r="B79" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C79" s="710"/>
-      <c r="D79" s="710"/>
-      <c r="E79" s="711" t="s">
+      <c r="C79" s="705"/>
+      <c r="D79" s="705"/>
+      <c r="E79" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F79" s="698"/>
-      <c r="G79" s="698"/>
+      <c r="F79" s="688"/>
+      <c r="G79" s="688"/>
     </row>
     <row r="80" spans="1:9" ht="27.35">
       <c r="A80" s="196" t="s">
         <v>114</v>
       </c>
-      <c r="B80" s="707" t="s">
+      <c r="B80" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C80" s="693"/>
-      <c r="D80" s="693"/>
-      <c r="E80" s="708" t="s">
+      <c r="C80" s="686"/>
+      <c r="D80" s="686"/>
+      <c r="E80" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F80" s="693"/>
-      <c r="G80" s="693"/>
+      <c r="F80" s="686"/>
+      <c r="G80" s="686"/>
     </row>
     <row r="81" spans="1:7" ht="25.35">
       <c r="A81" s="10" t="s">
@@ -59126,31 +59126,31 @@
       <c r="A99" s="196" t="s">
         <v>119</v>
       </c>
-      <c r="B99" s="709" t="s">
+      <c r="B99" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C99" s="710"/>
-      <c r="D99" s="710"/>
-      <c r="E99" s="711" t="s">
+      <c r="C99" s="705"/>
+      <c r="D99" s="705"/>
+      <c r="E99" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F99" s="698"/>
-      <c r="G99" s="698"/>
+      <c r="F99" s="688"/>
+      <c r="G99" s="688"/>
     </row>
     <row r="100" spans="1:7" ht="14">
       <c r="A100" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B100" s="707" t="s">
+      <c r="B100" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C100" s="693"/>
-      <c r="D100" s="693"/>
-      <c r="E100" s="708" t="s">
+      <c r="C100" s="686"/>
+      <c r="D100" s="686"/>
+      <c r="E100" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F100" s="693"/>
-      <c r="G100" s="693"/>
+      <c r="F100" s="686"/>
+      <c r="G100" s="686"/>
     </row>
     <row r="101" spans="1:7" ht="15.35">
       <c r="A101" s="197"/>
@@ -59308,31 +59308,31 @@
       <c r="A112" s="196" t="s">
         <v>146</v>
       </c>
-      <c r="B112" s="709" t="s">
+      <c r="B112" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C112" s="710"/>
-      <c r="D112" s="710"/>
-      <c r="E112" s="711" t="s">
+      <c r="C112" s="705"/>
+      <c r="D112" s="705"/>
+      <c r="E112" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F112" s="698"/>
-      <c r="G112" s="698"/>
+      <c r="F112" s="688"/>
+      <c r="G112" s="688"/>
     </row>
     <row r="113" spans="1:7" ht="14">
       <c r="A113" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B113" s="707" t="s">
+      <c r="B113" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C113" s="693"/>
-      <c r="D113" s="693"/>
-      <c r="E113" s="708" t="s">
+      <c r="C113" s="686"/>
+      <c r="D113" s="686"/>
+      <c r="E113" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F113" s="693"/>
-      <c r="G113" s="693"/>
+      <c r="F113" s="686"/>
+      <c r="G113" s="686"/>
     </row>
     <row r="114" spans="1:7" ht="15.35">
       <c r="A114" s="197"/>
@@ -59461,31 +59461,31 @@
       <c r="A123" s="196" t="s">
         <v>163</v>
       </c>
-      <c r="B123" s="702" t="s">
+      <c r="B123" s="713" t="s">
         <v>456</v>
       </c>
-      <c r="C123" s="703"/>
-      <c r="D123" s="703"/>
-      <c r="E123" s="704" t="s">
+      <c r="C123" s="714"/>
+      <c r="D123" s="714"/>
+      <c r="E123" s="715" t="s">
         <v>457</v>
       </c>
-      <c r="F123" s="705"/>
-      <c r="G123" s="705"/>
+      <c r="F123" s="716"/>
+      <c r="G123" s="716"/>
     </row>
     <row r="124" spans="1:7" ht="14.35">
       <c r="A124" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B124" s="714" t="s">
+      <c r="B124" s="709" t="s">
         <v>459</v>
       </c>
-      <c r="C124" s="715"/>
-      <c r="D124" s="715"/>
-      <c r="E124" s="716" t="s">
+      <c r="C124" s="710"/>
+      <c r="D124" s="710"/>
+      <c r="E124" s="711" t="s">
         <v>460</v>
       </c>
-      <c r="F124" s="717"/>
-      <c r="G124" s="717"/>
+      <c r="F124" s="712"/>
+      <c r="G124" s="712"/>
     </row>
     <row r="125" spans="1:7" ht="14.35">
       <c r="A125" s="197"/>
@@ -59675,31 +59675,31 @@
       <c r="A136" s="196" t="s">
         <v>167</v>
       </c>
-      <c r="B136" s="709" t="s">
+      <c r="B136" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C136" s="710"/>
-      <c r="D136" s="710"/>
-      <c r="E136" s="711" t="s">
+      <c r="C136" s="705"/>
+      <c r="D136" s="705"/>
+      <c r="E136" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F136" s="712"/>
-      <c r="G136" s="712"/>
+      <c r="F136" s="707"/>
+      <c r="G136" s="707"/>
     </row>
     <row r="137" spans="1:7" ht="14">
       <c r="A137" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B137" s="709" t="s">
+      <c r="B137" s="704" t="s">
         <v>459</v>
       </c>
-      <c r="C137" s="712"/>
-      <c r="D137" s="713"/>
-      <c r="E137" s="711" t="s">
+      <c r="C137" s="707"/>
+      <c r="D137" s="708"/>
+      <c r="E137" s="706" t="s">
         <v>460</v>
       </c>
-      <c r="F137" s="712"/>
-      <c r="G137" s="712"/>
+      <c r="F137" s="707"/>
+      <c r="G137" s="707"/>
     </row>
     <row r="138" spans="1:7" ht="15.35">
       <c r="A138" s="197"/>
@@ -59843,31 +59843,31 @@
       <c r="A152" s="196" t="s">
         <v>186</v>
       </c>
-      <c r="B152" s="702" t="s">
+      <c r="B152" s="713" t="s">
         <v>456</v>
       </c>
-      <c r="C152" s="703"/>
-      <c r="D152" s="703"/>
-      <c r="E152" s="704" t="s">
+      <c r="C152" s="714"/>
+      <c r="D152" s="714"/>
+      <c r="E152" s="715" t="s">
         <v>457</v>
       </c>
-      <c r="F152" s="705"/>
-      <c r="G152" s="705"/>
+      <c r="F152" s="716"/>
+      <c r="G152" s="716"/>
     </row>
     <row r="153" spans="1:7" ht="21" customHeight="1">
       <c r="A153" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B153" s="702" t="s">
+      <c r="B153" s="713" t="s">
         <v>459</v>
       </c>
-      <c r="C153" s="703"/>
-      <c r="D153" s="703"/>
-      <c r="E153" s="704" t="s">
+      <c r="C153" s="714"/>
+      <c r="D153" s="714"/>
+      <c r="E153" s="715" t="s">
         <v>460</v>
       </c>
-      <c r="F153" s="705"/>
-      <c r="G153" s="705"/>
+      <c r="F153" s="716"/>
+      <c r="G153" s="716"/>
     </row>
     <row r="154" spans="1:7" ht="14.35">
       <c r="B154" s="220" t="s">
@@ -60143,31 +60143,31 @@
       <c r="A171" s="196" t="s">
         <v>208</v>
       </c>
-      <c r="B171" s="702" t="s">
+      <c r="B171" s="713" t="s">
         <v>456</v>
       </c>
-      <c r="C171" s="703"/>
-      <c r="D171" s="703"/>
-      <c r="E171" s="704" t="s">
+      <c r="C171" s="714"/>
+      <c r="D171" s="714"/>
+      <c r="E171" s="715" t="s">
         <v>457</v>
       </c>
-      <c r="F171" s="705"/>
-      <c r="G171" s="705"/>
+      <c r="F171" s="716"/>
+      <c r="G171" s="716"/>
     </row>
     <row r="172" spans="1:7" ht="27.35">
       <c r="A172" s="197" t="s">
         <v>476</v>
       </c>
-      <c r="B172" s="702" t="s">
+      <c r="B172" s="713" t="s">
         <v>459</v>
       </c>
-      <c r="C172" s="703"/>
-      <c r="D172" s="703"/>
-      <c r="E172" s="704" t="s">
+      <c r="C172" s="714"/>
+      <c r="D172" s="714"/>
+      <c r="E172" s="715" t="s">
         <v>460</v>
       </c>
-      <c r="F172" s="705"/>
-      <c r="G172" s="705"/>
+      <c r="F172" s="716"/>
+      <c r="G172" s="716"/>
     </row>
     <row r="173" spans="1:7" ht="14.35">
       <c r="A173" s="201"/>
@@ -60443,31 +60443,31 @@
       <c r="A190" s="196" t="s">
         <v>210</v>
       </c>
-      <c r="B190" s="702" t="s">
+      <c r="B190" s="713" t="s">
         <v>456</v>
       </c>
-      <c r="C190" s="703"/>
-      <c r="D190" s="703"/>
-      <c r="E190" s="704" t="s">
+      <c r="C190" s="714"/>
+      <c r="D190" s="714"/>
+      <c r="E190" s="715" t="s">
         <v>457</v>
       </c>
-      <c r="F190" s="705"/>
-      <c r="G190" s="705"/>
+      <c r="F190" s="716"/>
+      <c r="G190" s="716"/>
     </row>
     <row r="191" spans="1:7" ht="25.35">
       <c r="A191" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B191" s="702" t="s">
+      <c r="B191" s="713" t="s">
         <v>459</v>
       </c>
-      <c r="C191" s="703"/>
-      <c r="D191" s="703"/>
-      <c r="E191" s="704" t="s">
+      <c r="C191" s="714"/>
+      <c r="D191" s="714"/>
+      <c r="E191" s="715" t="s">
         <v>460</v>
       </c>
-      <c r="F191" s="705"/>
-      <c r="G191" s="705"/>
+      <c r="F191" s="716"/>
+      <c r="G191" s="716"/>
     </row>
     <row r="192" spans="1:7" ht="14.35">
       <c r="B192" s="220" t="s">
@@ -60721,31 +60721,31 @@
       <c r="A208" s="196" t="s">
         <v>215</v>
       </c>
-      <c r="B208" s="702" t="s">
+      <c r="B208" s="713" t="s">
         <v>456</v>
       </c>
-      <c r="C208" s="703"/>
-      <c r="D208" s="703"/>
-      <c r="E208" s="704" t="s">
+      <c r="C208" s="714"/>
+      <c r="D208" s="714"/>
+      <c r="E208" s="715" t="s">
         <v>457</v>
       </c>
-      <c r="F208" s="705"/>
-      <c r="G208" s="705"/>
+      <c r="F208" s="716"/>
+      <c r="G208" s="716"/>
     </row>
     <row r="209" spans="1:7" ht="25.35">
       <c r="A209" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B209" s="702" t="s">
+      <c r="B209" s="713" t="s">
         <v>459</v>
       </c>
-      <c r="C209" s="703"/>
-      <c r="D209" s="703"/>
-      <c r="E209" s="704" t="s">
+      <c r="C209" s="714"/>
+      <c r="D209" s="714"/>
+      <c r="E209" s="715" t="s">
         <v>460</v>
       </c>
-      <c r="F209" s="705"/>
-      <c r="G209" s="705"/>
+      <c r="F209" s="716"/>
+      <c r="G209" s="716"/>
     </row>
     <row r="210" spans="1:7" ht="14.35">
       <c r="B210" s="220" t="s">
@@ -61009,31 +61009,31 @@
       <c r="A226" s="196" t="s">
         <v>218</v>
       </c>
-      <c r="B226" s="702" t="s">
+      <c r="B226" s="713" t="s">
         <v>456</v>
       </c>
-      <c r="C226" s="703"/>
-      <c r="D226" s="703"/>
-      <c r="E226" s="704" t="s">
+      <c r="C226" s="714"/>
+      <c r="D226" s="714"/>
+      <c r="E226" s="715" t="s">
         <v>457</v>
       </c>
-      <c r="F226" s="706"/>
-      <c r="G226" s="706"/>
+      <c r="F226" s="717"/>
+      <c r="G226" s="717"/>
     </row>
     <row r="227" spans="1:7" ht="27.35">
       <c r="A227" s="197" t="s">
         <v>476</v>
       </c>
-      <c r="B227" s="702" t="s">
+      <c r="B227" s="713" t="s">
         <v>459</v>
       </c>
-      <c r="C227" s="641"/>
-      <c r="D227" s="641"/>
-      <c r="E227" s="704" t="s">
+      <c r="C227" s="644"/>
+      <c r="D227" s="644"/>
+      <c r="E227" s="715" t="s">
         <v>460</v>
       </c>
-      <c r="F227" s="706"/>
-      <c r="G227" s="706"/>
+      <c r="F227" s="717"/>
+      <c r="G227" s="717"/>
     </row>
     <row r="228" spans="1:7" ht="14.35">
       <c r="A228" s="197"/>
@@ -61231,31 +61231,31 @@
       <c r="A240" s="196" t="s">
         <v>223</v>
       </c>
-      <c r="B240" s="702" t="s">
+      <c r="B240" s="713" t="s">
         <v>456</v>
       </c>
-      <c r="C240" s="703"/>
-      <c r="D240" s="703"/>
-      <c r="E240" s="704" t="s">
+      <c r="C240" s="714"/>
+      <c r="D240" s="714"/>
+      <c r="E240" s="715" t="s">
         <v>457</v>
       </c>
-      <c r="F240" s="706"/>
-      <c r="G240" s="706"/>
+      <c r="F240" s="717"/>
+      <c r="G240" s="717"/>
     </row>
     <row r="241" spans="1:7" ht="27.35">
       <c r="A241" s="197" t="s">
         <v>476</v>
       </c>
-      <c r="B241" s="702" t="s">
+      <c r="B241" s="713" t="s">
         <v>459</v>
       </c>
-      <c r="C241" s="641"/>
-      <c r="D241" s="641"/>
-      <c r="E241" s="704" t="s">
+      <c r="C241" s="644"/>
+      <c r="D241" s="644"/>
+      <c r="E241" s="715" t="s">
         <v>460</v>
       </c>
-      <c r="F241" s="706"/>
-      <c r="G241" s="706"/>
+      <c r="F241" s="717"/>
+      <c r="G241" s="717"/>
     </row>
     <row r="242" spans="1:7" ht="14.35">
       <c r="A242" s="197"/>
@@ -61514,18 +61514,46 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="B152:D152"/>
+    <mergeCell ref="E152:G152"/>
+    <mergeCell ref="B153:D153"/>
+    <mergeCell ref="E153:G153"/>
+    <mergeCell ref="B172:D172"/>
+    <mergeCell ref="E172:G172"/>
+    <mergeCell ref="B171:D171"/>
+    <mergeCell ref="E171:G171"/>
+    <mergeCell ref="B190:D190"/>
+    <mergeCell ref="E190:G190"/>
+    <mergeCell ref="B191:D191"/>
+    <mergeCell ref="E191:G191"/>
+    <mergeCell ref="B241:D241"/>
+    <mergeCell ref="E241:G241"/>
+    <mergeCell ref="B208:D208"/>
+    <mergeCell ref="E208:G208"/>
+    <mergeCell ref="B209:D209"/>
+    <mergeCell ref="E209:G209"/>
+    <mergeCell ref="B226:D226"/>
+    <mergeCell ref="E226:G226"/>
+    <mergeCell ref="B227:D227"/>
+    <mergeCell ref="E227:G227"/>
+    <mergeCell ref="B240:D240"/>
+    <mergeCell ref="E240:G240"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="E79:G79"/>
     <mergeCell ref="B137:D137"/>
     <mergeCell ref="E137:G137"/>
     <mergeCell ref="B124:D124"/>
@@ -61542,46 +61570,18 @@
     <mergeCell ref="E136:G136"/>
     <mergeCell ref="B123:D123"/>
     <mergeCell ref="E123:G123"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="B190:D190"/>
-    <mergeCell ref="E190:G190"/>
-    <mergeCell ref="B191:D191"/>
-    <mergeCell ref="E191:G191"/>
-    <mergeCell ref="B241:D241"/>
-    <mergeCell ref="E241:G241"/>
-    <mergeCell ref="B208:D208"/>
-    <mergeCell ref="E208:G208"/>
-    <mergeCell ref="B209:D209"/>
-    <mergeCell ref="E209:G209"/>
-    <mergeCell ref="B226:D226"/>
-    <mergeCell ref="E226:G226"/>
-    <mergeCell ref="B227:D227"/>
-    <mergeCell ref="E227:G227"/>
-    <mergeCell ref="B240:D240"/>
-    <mergeCell ref="E240:G240"/>
-    <mergeCell ref="B152:D152"/>
-    <mergeCell ref="E152:G152"/>
-    <mergeCell ref="B153:D153"/>
-    <mergeCell ref="E153:G153"/>
-    <mergeCell ref="B172:D172"/>
-    <mergeCell ref="E172:G172"/>
-    <mergeCell ref="B171:D171"/>
-    <mergeCell ref="E171:G171"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -62324,9 +62324,9 @@
       <c r="A1" s="722" t="s">
         <v>448</v>
       </c>
-      <c r="B1" s="698"/>
-      <c r="C1" s="698"/>
-      <c r="D1" s="698"/>
+      <c r="B1" s="688"/>
+      <c r="C1" s="688"/>
+      <c r="D1" s="688"/>
       <c r="E1" s="723" t="s">
         <v>449</v>
       </c>

--- a/microgrid_base/设备信息库各参数.xlsx
+++ b/microgrid_base/设备信息库各参数.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\works\jubilant-adventure2\microgrid_base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753B0CA0-4E26-49D2-81DF-6360FE28CCCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA4BC7A-9B31-47A1-B18B-2C52C898DC51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="8180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6555,7 +6555,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6564,54 +6564,29 @@
     <xf numFmtId="0" fontId="65" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="67" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6626,13 +6601,47 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6650,17 +6659,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6679,8 +6679,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6689,17 +6726,8 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6713,35 +6741,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6771,15 +6780,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -8843,7 +8843,7 @@
       <c r="C15" s="370">
         <v>560</v>
       </c>
-      <c r="D15" s="635"/>
+      <c r="D15" s="644"/>
       <c r="E15" s="365"/>
       <c r="F15" s="363"/>
       <c r="G15" s="363"/>
@@ -8924,7 +8924,7 @@
       <c r="B21" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="638"/>
+      <c r="C21" s="639"/>
       <c r="D21" s="363"/>
       <c r="E21" s="363"/>
       <c r="F21" s="363"/>
@@ -9205,7 +9205,7 @@
       <c r="C41" s="375">
         <v>560</v>
       </c>
-      <c r="D41" s="639"/>
+      <c r="D41" s="635"/>
       <c r="E41" s="366"/>
       <c r="F41" s="363"/>
       <c r="G41" s="363"/>
@@ -9286,7 +9286,7 @@
       <c r="B47" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="638"/>
+      <c r="C47" s="639"/>
       <c r="D47" s="363"/>
       <c r="E47" s="363"/>
       <c r="F47" s="363"/>
@@ -9621,7 +9621,7 @@
       <c r="C71" s="370">
         <v>560</v>
       </c>
-      <c r="D71" s="639"/>
+      <c r="D71" s="635"/>
       <c r="E71" s="363"/>
       <c r="F71" s="363"/>
       <c r="G71" s="363"/>
@@ -9702,7 +9702,7 @@
       <c r="B77" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C77" s="638"/>
+      <c r="C77" s="639"/>
       <c r="D77" s="363"/>
       <c r="E77" s="363"/>
       <c r="F77" s="363"/>
@@ -9876,10 +9876,10 @@
       </c>
       <c r="E91" s="363"/>
       <c r="F91" s="363"/>
-      <c r="G91" s="640" t="s">
+      <c r="G91" s="642" t="s">
         <v>59</v>
       </c>
-      <c r="H91" s="641"/>
+      <c r="H91" s="643"/>
     </row>
     <row r="92" spans="1:8" ht="14.35">
       <c r="A92" s="363"/>
@@ -10007,7 +10007,7 @@
       <c r="C99" s="370">
         <v>560</v>
       </c>
-      <c r="D99" s="639"/>
+      <c r="D99" s="635"/>
       <c r="E99" s="363"/>
       <c r="F99" s="363"/>
       <c r="G99" s="363"/>
@@ -10088,7 +10088,7 @@
       <c r="B105" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C105" s="642"/>
+      <c r="C105" s="638"/>
       <c r="D105" s="363"/>
       <c r="E105" s="363"/>
       <c r="F105" s="363"/>
@@ -10387,7 +10387,7 @@
       <c r="C128" s="370">
         <v>560</v>
       </c>
-      <c r="D128" s="639"/>
+      <c r="D128" s="635"/>
       <c r="E128" s="363"/>
       <c r="F128" s="363"/>
       <c r="G128" s="363"/>
@@ -10468,7 +10468,7 @@
       <c r="B134" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C134" s="642"/>
+      <c r="C134" s="638"/>
       <c r="D134" s="363"/>
       <c r="E134" s="363"/>
       <c r="F134" s="363"/>
@@ -10741,7 +10741,7 @@
       <c r="C158" s="370">
         <v>560</v>
       </c>
-      <c r="D158" s="639"/>
+      <c r="D158" s="635"/>
       <c r="E158" s="363"/>
     </row>
     <row r="159" spans="1:8" ht="14.35">
@@ -10804,7 +10804,7 @@
       <c r="B164" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C164" s="642"/>
+      <c r="C164" s="638"/>
       <c r="D164" s="363"/>
       <c r="E164" s="363"/>
     </row>
@@ -10944,7 +10944,7 @@
       <c r="C179" s="375">
         <v>560</v>
       </c>
-      <c r="D179" s="639"/>
+      <c r="D179" s="635"/>
       <c r="E179" s="363"/>
       <c r="F179" s="363"/>
       <c r="G179" s="363"/>
@@ -11025,7 +11025,7 @@
       <c r="B185" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C185" s="638"/>
+      <c r="C185" s="639"/>
       <c r="D185" s="363"/>
       <c r="E185" s="363"/>
       <c r="F185" s="363"/>
@@ -11222,7 +11222,7 @@
       <c r="C201" s="375">
         <v>560</v>
       </c>
-      <c r="D201" s="639"/>
+      <c r="D201" s="635"/>
       <c r="E201" s="363"/>
       <c r="F201" s="363"/>
       <c r="G201" s="363"/>
@@ -11302,7 +11302,7 @@
       <c r="B207" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C207" s="638"/>
+      <c r="C207" s="639"/>
       <c r="D207" s="363"/>
       <c r="E207" s="363"/>
       <c r="F207" s="363"/>
@@ -11797,7 +11797,7 @@
       <c r="C242" s="370">
         <v>560</v>
       </c>
-      <c r="D242" s="639"/>
+      <c r="D242" s="635"/>
       <c r="E242" s="363"/>
       <c r="F242" s="363"/>
       <c r="G242" s="363"/>
@@ -11878,7 +11878,7 @@
       <c r="B248" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C248" s="642"/>
+      <c r="C248" s="638"/>
       <c r="D248" s="363"/>
       <c r="E248" s="363"/>
       <c r="F248" s="363"/>
@@ -12267,7 +12267,7 @@
       <c r="C278" s="370">
         <v>560</v>
       </c>
-      <c r="D278" s="639"/>
+      <c r="D278" s="635"/>
       <c r="E278" s="363"/>
       <c r="F278" s="363"/>
       <c r="G278" s="363"/>
@@ -12348,7 +12348,7 @@
       <c r="B284" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C284" s="642"/>
+      <c r="C284" s="638"/>
       <c r="D284" s="363"/>
       <c r="E284" s="363"/>
       <c r="F284" s="363"/>
@@ -12578,7 +12578,7 @@
       <c r="C304" s="370">
         <v>560</v>
       </c>
-      <c r="D304" s="639"/>
+      <c r="D304" s="635"/>
       <c r="E304" s="363"/>
       <c r="F304" s="363"/>
       <c r="G304" s="363"/>
@@ -12659,7 +12659,7 @@
       <c r="B310" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C310" s="642"/>
+      <c r="C310" s="638"/>
       <c r="D310" s="363"/>
       <c r="E310" s="363"/>
       <c r="F310" s="363"/>
@@ -12846,7 +12846,7 @@
       <c r="C327" s="370">
         <v>560</v>
       </c>
-      <c r="D327" s="639"/>
+      <c r="D327" s="635"/>
       <c r="E327" s="363"/>
       <c r="F327" s="363"/>
       <c r="G327" s="363"/>
@@ -12927,7 +12927,7 @@
       <c r="B333" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C333" s="642"/>
+      <c r="C333" s="638"/>
       <c r="D333" s="363"/>
       <c r="E333" s="363"/>
       <c r="F333" s="363"/>
@@ -13120,7 +13120,7 @@
       <c r="C349" s="370">
         <v>560</v>
       </c>
-      <c r="D349" s="639"/>
+      <c r="D349" s="635"/>
       <c r="F349" s="363"/>
       <c r="G349" s="363"/>
       <c r="H349" s="363"/>
@@ -13195,7 +13195,7 @@
       <c r="B355" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C355" s="642"/>
+      <c r="C355" s="638"/>
       <c r="D355" s="363"/>
       <c r="F355" s="363"/>
       <c r="G355" s="363"/>
@@ -13540,7 +13540,7 @@
       <c r="C383" s="370">
         <v>560</v>
       </c>
-      <c r="D383" s="639"/>
+      <c r="D383" s="635"/>
       <c r="E383" s="363"/>
       <c r="F383" s="363"/>
       <c r="G383" s="363"/>
@@ -13621,7 +13621,7 @@
       <c r="B389" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C389" s="642"/>
+      <c r="C389" s="638"/>
       <c r="D389" s="363"/>
       <c r="E389" s="363"/>
       <c r="F389" s="363"/>
@@ -13969,7 +13969,7 @@
       <c r="C418" s="370">
         <v>560</v>
       </c>
-      <c r="D418" s="639"/>
+      <c r="D418" s="635"/>
       <c r="E418" s="363"/>
       <c r="F418" s="363"/>
       <c r="G418" s="363"/>
@@ -14050,7 +14050,7 @@
       <c r="B424" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C424" s="642"/>
+      <c r="C424" s="638"/>
       <c r="D424" s="363"/>
       <c r="E424" s="363"/>
       <c r="F424" s="363"/>
@@ -14376,7 +14376,7 @@
       <c r="B451" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C451" s="642"/>
+      <c r="C451" s="638"/>
       <c r="D451" s="363"/>
       <c r="E451" s="363"/>
       <c r="F451" s="363"/>
@@ -14591,7 +14591,7 @@
       <c r="C469" s="370">
         <v>560</v>
       </c>
-      <c r="D469" s="639"/>
+      <c r="D469" s="635"/>
       <c r="E469" s="363"/>
       <c r="F469" s="363"/>
       <c r="G469" s="363"/>
@@ -14672,7 +14672,7 @@
       <c r="B475" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C475" s="642"/>
+      <c r="C475" s="638"/>
       <c r="D475" s="363"/>
       <c r="E475" s="363"/>
       <c r="F475" s="363"/>
@@ -14899,7 +14899,7 @@
       <c r="C494" s="370">
         <v>560</v>
       </c>
-      <c r="D494" s="639"/>
+      <c r="D494" s="635"/>
       <c r="E494" s="365" t="s">
         <v>684</v>
       </c>
@@ -14982,7 +14982,7 @@
       <c r="B500" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C500" s="642"/>
+      <c r="C500" s="638"/>
       <c r="D500" s="363"/>
       <c r="E500" s="363"/>
       <c r="F500" s="363"/>
@@ -15203,7 +15203,7 @@
       <c r="C519" s="370">
         <v>560</v>
       </c>
-      <c r="D519" s="639"/>
+      <c r="D519" s="635"/>
       <c r="E519" s="365" t="s">
         <v>686</v>
       </c>
@@ -15286,7 +15286,7 @@
       <c r="B525" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C525" s="642"/>
+      <c r="C525" s="638"/>
       <c r="D525" s="363"/>
       <c r="E525" s="363"/>
       <c r="F525" s="363"/>
@@ -15553,7 +15553,7 @@
       <c r="C547" s="370">
         <v>560</v>
       </c>
-      <c r="D547" s="639"/>
+      <c r="D547" s="635"/>
       <c r="E547" s="363"/>
       <c r="F547" s="363"/>
       <c r="G547" s="363"/>
@@ -15634,7 +15634,7 @@
       <c r="B553" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C553" s="642"/>
+      <c r="C553" s="638"/>
       <c r="D553" s="363"/>
       <c r="E553" s="363"/>
       <c r="F553" s="363"/>
@@ -15965,7 +15965,7 @@
       <c r="C580" s="370">
         <v>560</v>
       </c>
-      <c r="D580" s="639"/>
+      <c r="D580" s="635"/>
       <c r="E580" s="363"/>
       <c r="F580" s="363"/>
       <c r="G580" s="363"/>
@@ -16046,7 +16046,7 @@
       <c r="B586" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C586" s="642"/>
+      <c r="C586" s="638"/>
       <c r="D586" s="363"/>
       <c r="E586" s="363"/>
       <c r="F586" s="363"/>
@@ -16310,7 +16310,7 @@
       <c r="C608" s="370">
         <v>560</v>
       </c>
-      <c r="D608" s="639"/>
+      <c r="D608" s="635"/>
       <c r="E608" s="363"/>
       <c r="F608" s="363"/>
       <c r="G608" s="363"/>
@@ -16391,7 +16391,7 @@
       <c r="B614" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C614" s="642"/>
+      <c r="C614" s="638"/>
       <c r="D614" s="363"/>
       <c r="E614" s="363"/>
       <c r="F614" s="363"/>
@@ -16675,7 +16675,7 @@
       <c r="B637" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C637" s="642"/>
+      <c r="C637" s="638"/>
       <c r="D637" s="363"/>
       <c r="E637" s="363"/>
       <c r="F637" s="363"/>
@@ -16970,10 +16970,10 @@
     </row>
     <row r="660" spans="1:8" ht="14.35">
       <c r="A660" s="363"/>
-      <c r="B660" s="643" t="s">
+      <c r="B660" s="640" t="s">
         <v>34</v>
       </c>
-      <c r="C660" s="644"/>
+      <c r="C660" s="641"/>
       <c r="D660" s="363"/>
       <c r="E660" s="363"/>
       <c r="F660" s="363"/>
@@ -17272,10 +17272,10 @@
     </row>
     <row r="683" spans="1:8" ht="14.35">
       <c r="A683" s="363"/>
-      <c r="B683" s="643" t="s">
+      <c r="B683" s="640" t="s">
         <v>34</v>
       </c>
-      <c r="C683" s="644"/>
+      <c r="C683" s="641"/>
       <c r="D683" s="363"/>
       <c r="E683" s="363"/>
       <c r="F683" s="363"/>
@@ -17639,7 +17639,7 @@
       <c r="B711" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C711" s="642"/>
+      <c r="C711" s="638"/>
       <c r="D711" s="363"/>
       <c r="E711" s="363"/>
       <c r="F711" s="363"/>
@@ -17884,7 +17884,7 @@
       <c r="C729" s="370">
         <v>560</v>
       </c>
-      <c r="D729" s="639"/>
+      <c r="D729" s="635"/>
       <c r="E729" s="363"/>
       <c r="F729" s="363"/>
       <c r="G729" s="363"/>
@@ -17965,7 +17965,7 @@
       <c r="B735" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C735" s="642"/>
+      <c r="C735" s="638"/>
       <c r="D735" s="363"/>
       <c r="E735" s="363"/>
       <c r="F735" s="363"/>
@@ -18226,7 +18226,7 @@
       <c r="C756" s="370">
         <v>560</v>
       </c>
-      <c r="D756" s="639"/>
+      <c r="D756" s="635"/>
       <c r="E756" s="363"/>
       <c r="F756" s="363"/>
       <c r="G756" s="363"/>
@@ -18307,7 +18307,7 @@
       <c r="B762" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C762" s="642"/>
+      <c r="C762" s="638"/>
       <c r="D762" s="363"/>
       <c r="E762" s="363"/>
       <c r="F762" s="363"/>
@@ -18633,7 +18633,7 @@
       <c r="B789" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C789" s="638"/>
+      <c r="C789" s="639"/>
       <c r="D789" s="363"/>
       <c r="E789" s="363"/>
       <c r="F789" s="363"/>
@@ -18959,7 +18959,7 @@
       <c r="B816" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C816" s="638"/>
+      <c r="C816" s="639"/>
       <c r="D816" s="363"/>
       <c r="E816" s="363"/>
       <c r="F816" s="363"/>
@@ -19250,7 +19250,7 @@
       <c r="C839" s="375">
         <v>560</v>
       </c>
-      <c r="D839" s="639"/>
+      <c r="D839" s="635"/>
       <c r="E839" s="365"/>
       <c r="F839" s="363"/>
       <c r="G839" s="363"/>
@@ -19331,7 +19331,7 @@
       <c r="B845" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C845" s="638"/>
+      <c r="C845" s="639"/>
       <c r="D845" s="363"/>
       <c r="E845" s="363"/>
       <c r="F845" s="363"/>
@@ -19712,7 +19712,7 @@
       <c r="B876" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C876" s="638"/>
+      <c r="C876" s="639"/>
       <c r="D876" s="363"/>
       <c r="E876" s="363"/>
       <c r="F876" s="363"/>
@@ -20068,7 +20068,7 @@
       <c r="B907" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C907" s="638"/>
+      <c r="C907" s="639"/>
       <c r="D907" s="363"/>
       <c r="E907" s="363"/>
       <c r="F907" s="363"/>
@@ -20341,7 +20341,7 @@
       <c r="B931" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C931" s="638"/>
+      <c r="C931" s="639"/>
       <c r="D931" s="363"/>
       <c r="E931" s="363"/>
       <c r="F931" s="363"/>
@@ -20691,7 +20691,7 @@
       <c r="B958" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C958" s="638"/>
+      <c r="C958" s="639"/>
       <c r="D958" s="363"/>
       <c r="E958" s="363"/>
       <c r="F958" s="363"/>
@@ -20987,7 +20987,7 @@
       <c r="B981" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C981" s="638"/>
+      <c r="C981" s="639"/>
       <c r="D981" s="363"/>
       <c r="E981" s="363"/>
       <c r="F981" s="363"/>
@@ -21283,7 +21283,7 @@
       <c r="B1005" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1005" s="638"/>
+      <c r="C1005" s="639"/>
       <c r="D1005" s="363"/>
       <c r="E1005" s="363"/>
       <c r="F1005" s="363"/>
@@ -21479,7 +21479,7 @@
       <c r="B1024" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1024" s="638"/>
+      <c r="C1024" s="639"/>
       <c r="F1024" s="363"/>
       <c r="G1024" s="363"/>
       <c r="H1024" s="363"/>
@@ -21706,7 +21706,7 @@
       <c r="C1042" s="370">
         <v>560</v>
       </c>
-      <c r="D1042" s="639"/>
+      <c r="D1042" s="635"/>
       <c r="E1042" s="363"/>
       <c r="F1042" s="363"/>
       <c r="G1042" s="363"/>
@@ -21787,7 +21787,7 @@
       <c r="B1048" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1048" s="642"/>
+      <c r="C1048" s="638"/>
       <c r="D1048" s="363"/>
       <c r="E1048" s="363"/>
       <c r="F1048" s="363"/>
@@ -22053,7 +22053,7 @@
       <c r="B1070" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1070" s="638"/>
+      <c r="C1070" s="639"/>
       <c r="D1070" s="363"/>
       <c r="E1070" s="363"/>
       <c r="F1070" s="363"/>
@@ -22298,7 +22298,7 @@
       <c r="C1089" s="370">
         <v>560</v>
       </c>
-      <c r="D1089" s="639"/>
+      <c r="D1089" s="635"/>
       <c r="E1089" s="363"/>
       <c r="F1089" s="363"/>
       <c r="G1089" s="363"/>
@@ -22373,7 +22373,7 @@
       <c r="B1095" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1095" s="642"/>
+      <c r="C1095" s="638"/>
       <c r="D1095" s="363"/>
       <c r="E1095" s="363"/>
       <c r="F1095" s="363"/>
@@ -22649,7 +22649,7 @@
       <c r="C1120" s="370">
         <v>560</v>
       </c>
-      <c r="D1120" s="639"/>
+      <c r="D1120" s="635"/>
       <c r="E1120" s="363"/>
       <c r="F1120" s="363"/>
       <c r="G1120" s="363"/>
@@ -22726,7 +22726,7 @@
       <c r="B1126" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1126" s="642"/>
+      <c r="C1126" s="638"/>
       <c r="D1126" s="363"/>
       <c r="E1126" s="363"/>
       <c r="F1126" s="363"/>
@@ -23089,7 +23089,7 @@
       <c r="B1155" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1155" s="642"/>
+      <c r="C1155" s="638"/>
       <c r="D1155" s="363"/>
       <c r="E1155" s="363"/>
       <c r="F1155" s="363"/>
@@ -23198,6 +23198,61 @@
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D41:D46"/>
+    <mergeCell ref="D71:D75"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="D99:D103"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="D128:D132"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="D158:D162"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="D179:D184"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="D201:D206"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="D242:D246"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="D278:D282"/>
+    <mergeCell ref="B284:C284"/>
+    <mergeCell ref="D304:D308"/>
+    <mergeCell ref="B310:C310"/>
+    <mergeCell ref="D327:D331"/>
+    <mergeCell ref="B333:C333"/>
+    <mergeCell ref="D383:D387"/>
+    <mergeCell ref="B389:C389"/>
+    <mergeCell ref="D418:D422"/>
+    <mergeCell ref="B424:C424"/>
+    <mergeCell ref="B451:C451"/>
+    <mergeCell ref="D469:D473"/>
+    <mergeCell ref="B475:C475"/>
+    <mergeCell ref="D494:D498"/>
+    <mergeCell ref="B500:C500"/>
+    <mergeCell ref="D519:D523"/>
+    <mergeCell ref="B525:C525"/>
+    <mergeCell ref="D547:D551"/>
+    <mergeCell ref="B553:C553"/>
+    <mergeCell ref="D580:D584"/>
+    <mergeCell ref="B586:C586"/>
+    <mergeCell ref="D608:D612"/>
+    <mergeCell ref="B614:C614"/>
+    <mergeCell ref="B637:C637"/>
+    <mergeCell ref="B660:C660"/>
+    <mergeCell ref="B683:C683"/>
+    <mergeCell ref="B711:C711"/>
+    <mergeCell ref="D839:D844"/>
+    <mergeCell ref="B845:C845"/>
+    <mergeCell ref="B876:C876"/>
+    <mergeCell ref="B907:C907"/>
+    <mergeCell ref="D729:D733"/>
+    <mergeCell ref="B735:C735"/>
+    <mergeCell ref="D756:D760"/>
+    <mergeCell ref="B762:C762"/>
+    <mergeCell ref="B789:C789"/>
     <mergeCell ref="D1120:D1124"/>
     <mergeCell ref="B1126:C1126"/>
     <mergeCell ref="B1155:C1155"/>
@@ -23214,61 +23269,6 @@
     <mergeCell ref="B1005:C1005"/>
     <mergeCell ref="B1024:C1024"/>
     <mergeCell ref="B816:C816"/>
-    <mergeCell ref="D839:D844"/>
-    <mergeCell ref="B845:C845"/>
-    <mergeCell ref="B876:C876"/>
-    <mergeCell ref="B907:C907"/>
-    <mergeCell ref="D729:D733"/>
-    <mergeCell ref="B735:C735"/>
-    <mergeCell ref="D756:D760"/>
-    <mergeCell ref="B762:C762"/>
-    <mergeCell ref="B789:C789"/>
-    <mergeCell ref="B614:C614"/>
-    <mergeCell ref="B637:C637"/>
-    <mergeCell ref="B660:C660"/>
-    <mergeCell ref="B683:C683"/>
-    <mergeCell ref="B711:C711"/>
-    <mergeCell ref="D547:D551"/>
-    <mergeCell ref="B553:C553"/>
-    <mergeCell ref="D580:D584"/>
-    <mergeCell ref="B586:C586"/>
-    <mergeCell ref="D608:D612"/>
-    <mergeCell ref="B475:C475"/>
-    <mergeCell ref="D494:D498"/>
-    <mergeCell ref="B500:C500"/>
-    <mergeCell ref="D519:D523"/>
-    <mergeCell ref="B525:C525"/>
-    <mergeCell ref="B389:C389"/>
-    <mergeCell ref="D418:D422"/>
-    <mergeCell ref="B424:C424"/>
-    <mergeCell ref="B451:C451"/>
-    <mergeCell ref="D469:D473"/>
-    <mergeCell ref="D304:D308"/>
-    <mergeCell ref="B310:C310"/>
-    <mergeCell ref="D327:D331"/>
-    <mergeCell ref="B333:C333"/>
-    <mergeCell ref="D383:D387"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="D242:D246"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="D278:D282"/>
-    <mergeCell ref="B284:C284"/>
-    <mergeCell ref="D158:D162"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="D179:D184"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="D201:D206"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="D99:D103"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="D128:D132"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D41:D46"/>
-    <mergeCell ref="D71:D75"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23614,7 +23614,7 @@
       <c r="B20" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="638"/>
+      <c r="C20" s="639"/>
       <c r="D20" s="363"/>
       <c r="E20" s="363"/>
       <c r="F20" s="363"/>
@@ -23789,7 +23789,7 @@
         <v>29</v>
       </c>
       <c r="C36" s="375"/>
-      <c r="D36" s="650"/>
+      <c r="D36" s="645"/>
       <c r="E36" s="26"/>
       <c r="K36" s="10"/>
     </row>
@@ -23799,7 +23799,7 @@
         <v>45</v>
       </c>
       <c r="C37" s="370"/>
-      <c r="D37" s="651"/>
+      <c r="D37" s="646"/>
       <c r="E37" s="26"/>
       <c r="K37" s="10"/>
     </row>
@@ -23809,7 +23809,7 @@
         <v>30</v>
       </c>
       <c r="C38" s="370"/>
-      <c r="D38" s="651"/>
+      <c r="D38" s="646"/>
       <c r="E38" s="28"/>
       <c r="K38" s="10"/>
     </row>
@@ -23819,7 +23819,7 @@
         <v>31</v>
       </c>
       <c r="C39" s="370"/>
-      <c r="D39" s="651"/>
+      <c r="D39" s="646"/>
       <c r="E39" s="28"/>
       <c r="K39" s="10"/>
     </row>
@@ -23829,7 +23829,7 @@
         <v>32</v>
       </c>
       <c r="C40" s="370"/>
-      <c r="D40" s="651"/>
+      <c r="D40" s="646"/>
       <c r="E40" s="28"/>
       <c r="K40" s="10"/>
     </row>
@@ -23839,7 +23839,7 @@
         <v>876</v>
       </c>
       <c r="C41" s="370"/>
-      <c r="D41" s="651"/>
+      <c r="D41" s="646"/>
       <c r="E41" s="28"/>
       <c r="K41" s="10"/>
     </row>
@@ -23848,7 +23848,7 @@
       <c r="B42" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="638"/>
+      <c r="C42" s="639"/>
       <c r="D42" s="501"/>
       <c r="E42" s="28"/>
       <c r="K42" s="10"/>
@@ -24087,10 +24087,10 @@
     </row>
     <row r="61" spans="1:11" ht="14.35">
       <c r="A61" s="2"/>
-      <c r="B61" s="658" t="s">
+      <c r="B61" s="649" t="s">
         <v>34</v>
       </c>
-      <c r="C61" s="659"/>
+      <c r="C61" s="650"/>
       <c r="D61" s="8"/>
       <c r="E61" s="393"/>
       <c r="F61" s="2"/>
@@ -24276,10 +24276,10 @@
       <c r="D75" s="518" t="s">
         <v>58</v>
       </c>
-      <c r="E75" s="646" t="s">
+      <c r="E75" s="651" t="s">
         <v>59</v>
       </c>
-      <c r="F75" s="647"/>
+      <c r="F75" s="652"/>
       <c r="G75" s="520"/>
       <c r="H75" s="488"/>
       <c r="K75" s="10"/>
@@ -24376,7 +24376,7 @@
         <v>65</v>
       </c>
       <c r="C81" s="370"/>
-      <c r="D81" s="650"/>
+      <c r="D81" s="645"/>
       <c r="E81" s="525">
         <v>1</v>
       </c>
@@ -24393,7 +24393,7 @@
         <v>30</v>
       </c>
       <c r="C82" s="370"/>
-      <c r="D82" s="651"/>
+      <c r="D82" s="646"/>
       <c r="E82" s="526" t="s">
         <v>66</v>
       </c>
@@ -24408,7 +24408,7 @@
         <v>31</v>
       </c>
       <c r="C83" s="370"/>
-      <c r="D83" s="651"/>
+      <c r="D83" s="646"/>
       <c r="E83" s="527" t="s">
         <v>67</v>
       </c>
@@ -24423,7 +24423,7 @@
         <v>68</v>
       </c>
       <c r="C84" s="499"/>
-      <c r="D84" s="651"/>
+      <c r="D84" s="646"/>
       <c r="E84" s="363"/>
       <c r="F84" s="363"/>
       <c r="G84" s="363"/>
@@ -24435,7 +24435,7 @@
       <c r="B85" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C85" s="638"/>
+      <c r="C85" s="639"/>
       <c r="D85" s="363"/>
       <c r="E85" s="363"/>
       <c r="F85" s="363"/>
@@ -24542,8 +24542,8 @@
       <c r="D94" s="373"/>
       <c r="E94" s="363"/>
       <c r="F94" s="363"/>
-      <c r="G94" s="640"/>
-      <c r="H94" s="641"/>
+      <c r="G94" s="642"/>
+      <c r="H94" s="643"/>
       <c r="K94" s="10"/>
     </row>
     <row r="95" spans="1:11" ht="14.35">
@@ -24567,10 +24567,10 @@
       <c r="C96" s="399" t="s">
         <v>57</v>
       </c>
-      <c r="D96" s="648" t="s">
+      <c r="D96" s="653" t="s">
         <v>59</v>
       </c>
-      <c r="E96" s="647"/>
+      <c r="E96" s="652"/>
       <c r="F96" s="363"/>
       <c r="G96" s="410"/>
       <c r="H96" s="409"/>
@@ -24716,10 +24716,10 @@
     </row>
     <row r="106" spans="1:11" ht="14.35">
       <c r="A106" s="363"/>
-      <c r="B106" s="652" t="s">
+      <c r="B106" s="655" t="s">
         <v>34</v>
       </c>
-      <c r="C106" s="653"/>
+      <c r="C106" s="656"/>
       <c r="E106" s="363"/>
       <c r="F106" s="363"/>
       <c r="G106" s="363"/>
@@ -24838,7 +24838,7 @@
       </c>
       <c r="C116" s="401"/>
       <c r="D116" s="365"/>
-      <c r="E116" s="649" t="s">
+      <c r="E116" s="654" t="s">
         <v>59</v>
       </c>
       <c r="F116" s="633"/>
@@ -25005,7 +25005,7 @@
       <c r="B127" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C127" s="642"/>
+      <c r="C127" s="638"/>
       <c r="D127" s="363"/>
       <c r="E127" s="363"/>
       <c r="F127" s="363"/>
@@ -25283,7 +25283,7 @@
       <c r="B153" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C153" s="642"/>
+      <c r="C153" s="638"/>
       <c r="D153" s="363"/>
       <c r="E153" s="363"/>
       <c r="H153" s="10"/>
@@ -25483,7 +25483,7 @@
       <c r="B171" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C171" s="638"/>
+      <c r="C171" s="639"/>
       <c r="D171" s="363"/>
       <c r="E171" s="363"/>
       <c r="F171" s="363"/>
@@ -25716,7 +25716,7 @@
       <c r="B189" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C189" s="638"/>
+      <c r="C189" s="639"/>
       <c r="D189" s="363"/>
       <c r="E189" s="363"/>
       <c r="F189" s="363"/>
@@ -25942,7 +25942,7 @@
       <c r="B207" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C207" s="642"/>
+      <c r="C207" s="638"/>
       <c r="D207" s="363"/>
       <c r="E207" s="363"/>
       <c r="F207" s="363"/>
@@ -26127,7 +26127,7 @@
       <c r="B223" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C223" s="642"/>
+      <c r="C223" s="638"/>
       <c r="D223" s="363"/>
       <c r="F223" s="2"/>
       <c r="G223" s="2"/>
@@ -26492,7 +26492,7 @@
         <v>143</v>
       </c>
       <c r="C249" s="370"/>
-      <c r="D249" s="654"/>
+      <c r="D249" s="657"/>
       <c r="E249" s="363"/>
       <c r="F249" s="363"/>
       <c r="G249" s="363"/>
@@ -26505,7 +26505,7 @@
         <v>144</v>
       </c>
       <c r="C250" s="370"/>
-      <c r="D250" s="655"/>
+      <c r="D250" s="658"/>
       <c r="E250" s="363"/>
       <c r="F250" s="363"/>
       <c r="G250" s="363"/>
@@ -26518,7 +26518,7 @@
         <v>30</v>
       </c>
       <c r="C251" s="370"/>
-      <c r="D251" s="655"/>
+      <c r="D251" s="658"/>
       <c r="E251" s="363"/>
       <c r="F251" s="363"/>
       <c r="G251" s="363"/>
@@ -26531,7 +26531,7 @@
         <v>31</v>
       </c>
       <c r="C252" s="370"/>
-      <c r="D252" s="655"/>
+      <c r="D252" s="658"/>
       <c r="E252" s="363"/>
       <c r="F252" s="363"/>
       <c r="G252" s="363"/>
@@ -26544,7 +26544,7 @@
         <v>145</v>
       </c>
       <c r="C253" s="370"/>
-      <c r="D253" s="655"/>
+      <c r="D253" s="658"/>
       <c r="E253" s="363"/>
       <c r="F253" s="363"/>
       <c r="G253" s="363"/>
@@ -26569,7 +26569,7 @@
       <c r="B255" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C255" s="638"/>
+      <c r="C255" s="639"/>
       <c r="D255" s="363"/>
       <c r="E255" s="363"/>
       <c r="F255" s="363"/>
@@ -26995,7 +26995,7 @@
         <v>143</v>
       </c>
       <c r="C285" s="370"/>
-      <c r="D285" s="650"/>
+      <c r="D285" s="645"/>
       <c r="E285" s="563"/>
       <c r="F285" s="562"/>
       <c r="G285" s="363"/>
@@ -27008,7 +27008,7 @@
         <v>144</v>
       </c>
       <c r="C286" s="370"/>
-      <c r="D286" s="651"/>
+      <c r="D286" s="646"/>
       <c r="E286" s="563"/>
       <c r="F286" s="562"/>
       <c r="G286" s="363"/>
@@ -27021,7 +27021,7 @@
         <v>30</v>
       </c>
       <c r="C287" s="370"/>
-      <c r="D287" s="651"/>
+      <c r="D287" s="646"/>
       <c r="E287" s="563"/>
       <c r="F287" s="562"/>
       <c r="G287" s="363"/>
@@ -27034,7 +27034,7 @@
         <v>31</v>
       </c>
       <c r="C288" s="370"/>
-      <c r="D288" s="651"/>
+      <c r="D288" s="646"/>
       <c r="E288" s="563"/>
       <c r="F288" s="562"/>
       <c r="G288" s="363"/>
@@ -27047,7 +27047,7 @@
         <v>145</v>
       </c>
       <c r="C289" s="370"/>
-      <c r="D289" s="651"/>
+      <c r="D289" s="646"/>
       <c r="E289" s="563"/>
       <c r="F289" s="562"/>
       <c r="G289" s="363"/>
@@ -27072,7 +27072,7 @@
       <c r="B291" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C291" s="638"/>
+      <c r="C291" s="639"/>
       <c r="D291" s="501"/>
       <c r="E291" s="363"/>
       <c r="F291" s="363"/>
@@ -27253,7 +27253,7 @@
         <v>143</v>
       </c>
       <c r="C305" s="370"/>
-      <c r="D305" s="650"/>
+      <c r="D305" s="645"/>
       <c r="F305" s="363"/>
       <c r="G305" s="363"/>
       <c r="H305" s="488"/>
@@ -27265,7 +27265,7 @@
         <v>144</v>
       </c>
       <c r="C306" s="370"/>
-      <c r="D306" s="651"/>
+      <c r="D306" s="646"/>
       <c r="F306" s="363"/>
       <c r="G306" s="363"/>
       <c r="H306" s="488"/>
@@ -27277,7 +27277,7 @@
         <v>30</v>
       </c>
       <c r="C307" s="370"/>
-      <c r="D307" s="651"/>
+      <c r="D307" s="646"/>
       <c r="F307" s="363"/>
       <c r="G307" s="363"/>
       <c r="H307" s="488"/>
@@ -27289,7 +27289,7 @@
         <v>31</v>
       </c>
       <c r="C308" s="370"/>
-      <c r="D308" s="651"/>
+      <c r="D308" s="646"/>
       <c r="F308" s="363"/>
       <c r="G308" s="363"/>
       <c r="H308" s="488"/>
@@ -27301,7 +27301,7 @@
         <v>145</v>
       </c>
       <c r="C309" s="370"/>
-      <c r="D309" s="651"/>
+      <c r="D309" s="646"/>
       <c r="F309" s="363"/>
       <c r="G309" s="363"/>
       <c r="H309" s="488"/>
@@ -27324,7 +27324,7 @@
       <c r="B311" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C311" s="638"/>
+      <c r="C311" s="639"/>
       <c r="D311" s="501"/>
       <c r="F311" s="363"/>
       <c r="G311" s="363"/>
@@ -27587,10 +27587,10 @@
     </row>
     <row r="333" spans="1:11" ht="14.35">
       <c r="A333" s="2"/>
-      <c r="B333" s="656" t="s">
+      <c r="B333" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C333" s="657"/>
+      <c r="C333" s="648"/>
       <c r="D333" s="2"/>
       <c r="F333" s="363"/>
       <c r="G333" s="2"/>
@@ -27799,7 +27799,7 @@
       <c r="B351" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C351" s="642"/>
+      <c r="C351" s="638"/>
       <c r="F351" s="2"/>
       <c r="G351" s="2"/>
       <c r="H351" s="8"/>
@@ -28339,10 +28339,10 @@
     </row>
     <row r="388" spans="1:11" ht="14.7">
       <c r="A388" s="2"/>
-      <c r="B388" s="645" t="s">
+      <c r="B388" s="659" t="s">
         <v>34</v>
       </c>
-      <c r="C388" s="644"/>
+      <c r="C388" s="641"/>
       <c r="D388" s="97"/>
       <c r="F388" s="2"/>
       <c r="G388" s="2"/>
@@ -28914,10 +28914,10 @@
     </row>
     <row r="425" spans="1:11" ht="14.7">
       <c r="A425" s="2"/>
-      <c r="B425" s="645" t="s">
+      <c r="B425" s="659" t="s">
         <v>34</v>
       </c>
-      <c r="C425" s="644"/>
+      <c r="C425" s="641"/>
       <c r="D425" s="97"/>
       <c r="E425" s="97"/>
       <c r="F425" s="2"/>
@@ -29469,10 +29469,10 @@
     </row>
     <row r="461" spans="1:11" ht="14.7">
       <c r="A461" s="2"/>
-      <c r="B461" s="645" t="s">
+      <c r="B461" s="659" t="s">
         <v>34</v>
       </c>
-      <c r="C461" s="644"/>
+      <c r="C461" s="641"/>
       <c r="D461" s="97"/>
       <c r="E461" s="97"/>
       <c r="F461" s="97"/>
@@ -30020,10 +30020,10 @@
     </row>
     <row r="497" spans="1:11" ht="14.7">
       <c r="A497" s="2"/>
-      <c r="B497" s="645" t="s">
+      <c r="B497" s="659" t="s">
         <v>34</v>
       </c>
-      <c r="C497" s="644"/>
+      <c r="C497" s="641"/>
       <c r="D497" s="97"/>
       <c r="E497" s="97"/>
       <c r="F497" s="97"/>
@@ -30915,10 +30915,10 @@
     </row>
     <row r="552" spans="1:11" ht="14.7">
       <c r="A552" s="2"/>
-      <c r="B552" s="645" t="s">
+      <c r="B552" s="659" t="s">
         <v>34</v>
       </c>
-      <c r="C552" s="644"/>
+      <c r="C552" s="641"/>
       <c r="D552" s="97"/>
       <c r="E552" s="97"/>
       <c r="F552" s="97"/>
@@ -31345,7 +31345,7 @@
       <c r="B590" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C590" s="642"/>
+      <c r="C590" s="638"/>
       <c r="D590" s="363"/>
       <c r="E590" s="363"/>
       <c r="F590" s="363"/>
@@ -31560,7 +31560,7 @@
       <c r="B607" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C607" s="642"/>
+      <c r="C607" s="638"/>
       <c r="D607" s="363"/>
       <c r="E607" s="363"/>
       <c r="F607" s="363"/>
@@ -31756,7 +31756,7 @@
       <c r="B623" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C623" s="638"/>
+      <c r="C623" s="639"/>
       <c r="D623" s="590"/>
       <c r="E623" s="363"/>
       <c r="F623" s="363"/>
@@ -31971,7 +31971,7 @@
       <c r="B640" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C640" s="642"/>
+      <c r="C640" s="638"/>
       <c r="D640" s="363"/>
       <c r="E640" s="363"/>
       <c r="F640" s="363"/>
@@ -32154,7 +32154,7 @@
       <c r="B655" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C655" s="638"/>
+      <c r="C655" s="639"/>
       <c r="D655" s="363"/>
       <c r="E655" s="363"/>
       <c r="F655" s="363"/>
@@ -32360,10 +32360,10 @@
     </row>
     <row r="672" spans="1:11" ht="14.35">
       <c r="A672" s="363"/>
-      <c r="B672" s="643" t="s">
+      <c r="B672" s="640" t="s">
         <v>34</v>
       </c>
-      <c r="C672" s="644"/>
+      <c r="C672" s="641"/>
       <c r="D672" s="363"/>
       <c r="E672" s="363"/>
       <c r="F672" s="363"/>
@@ -32551,10 +32551,10 @@
     </row>
     <row r="687" spans="1:11" ht="14.35">
       <c r="A687" s="363"/>
-      <c r="B687" s="643" t="s">
+      <c r="B687" s="640" t="s">
         <v>34</v>
       </c>
-      <c r="C687" s="644"/>
+      <c r="C687" s="641"/>
       <c r="D687" s="363"/>
       <c r="E687" s="363"/>
       <c r="F687" s="363"/>
@@ -32831,7 +32831,7 @@
       <c r="B710" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C710" s="642"/>
+      <c r="C710" s="638"/>
       <c r="D710" s="363"/>
       <c r="E710" s="363"/>
       <c r="F710" s="363"/>
@@ -33033,7 +33033,7 @@
       <c r="B726" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C726" s="642"/>
+      <c r="C726" s="638"/>
       <c r="D726" s="363"/>
       <c r="E726" s="363"/>
       <c r="F726" s="363"/>
@@ -33264,7 +33264,7 @@
       <c r="B745" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C745" s="642"/>
+      <c r="C745" s="638"/>
       <c r="D745" s="363"/>
       <c r="E745" s="363"/>
       <c r="F745" s="363"/>
@@ -33553,7 +33553,7 @@
       <c r="B768" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C768" s="638"/>
+      <c r="C768" s="639"/>
       <c r="D768" s="363"/>
       <c r="E768" s="363"/>
       <c r="F768" s="363"/>
@@ -33835,7 +33835,7 @@
       <c r="B790" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C790" s="638"/>
+      <c r="C790" s="639"/>
       <c r="D790" s="363"/>
       <c r="E790" s="363"/>
       <c r="F790" s="363"/>
@@ -34146,7 +34146,7 @@
       <c r="B815" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C815" s="638"/>
+      <c r="C815" s="639"/>
       <c r="D815" s="605"/>
       <c r="E815" s="363"/>
       <c r="F815" s="363"/>
@@ -34454,7 +34454,7 @@
       <c r="B840" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C840" s="638"/>
+      <c r="C840" s="639"/>
       <c r="D840" s="363"/>
       <c r="E840" s="363"/>
       <c r="F840" s="363"/>
@@ -34763,7 +34763,7 @@
       <c r="B866" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C866" s="638"/>
+      <c r="C866" s="639"/>
       <c r="D866" s="363"/>
       <c r="E866" s="363"/>
       <c r="F866" s="363"/>
@@ -34996,7 +34996,7 @@
       <c r="B886" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C886" s="638"/>
+      <c r="C886" s="639"/>
       <c r="D886" s="363"/>
       <c r="E886" s="363"/>
       <c r="F886" s="363"/>
@@ -35276,7 +35276,7 @@
       <c r="B908" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C908" s="638"/>
+      <c r="C908" s="639"/>
       <c r="D908" s="363"/>
       <c r="E908" s="363"/>
       <c r="F908" s="363"/>
@@ -35523,7 +35523,7 @@
       <c r="B927" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C927" s="638"/>
+      <c r="C927" s="639"/>
       <c r="D927" s="363"/>
       <c r="E927" s="363"/>
       <c r="F927" s="363"/>
@@ -35766,7 +35766,7 @@
       <c r="B946" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C946" s="638"/>
+      <c r="C946" s="639"/>
       <c r="D946" s="363"/>
       <c r="E946" s="363"/>
       <c r="F946" s="363"/>
@@ -35910,7 +35910,7 @@
       <c r="B960" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C960" s="638"/>
+      <c r="C960" s="639"/>
       <c r="F960" s="363"/>
       <c r="G960" s="363"/>
       <c r="H960" s="488"/>
@@ -36160,7 +36160,7 @@
       <c r="B980" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C980" s="642"/>
+      <c r="C980" s="638"/>
       <c r="D980" s="363"/>
       <c r="E980" s="363"/>
       <c r="F980" s="363"/>
@@ -36365,7 +36365,7 @@
       <c r="B997" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C997" s="638"/>
+      <c r="C997" s="639"/>
       <c r="D997" s="363"/>
       <c r="E997" s="363"/>
       <c r="F997" s="363"/>
@@ -36611,7 +36611,7 @@
       <c r="B1017" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1017" s="642"/>
+      <c r="C1017" s="638"/>
       <c r="D1017" s="363"/>
       <c r="E1017" s="363"/>
       <c r="F1017" s="363"/>
@@ -36875,7 +36875,7 @@
       <c r="B1039" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1039" s="642"/>
+      <c r="C1039" s="638"/>
       <c r="D1039" s="363"/>
       <c r="E1039" s="363"/>
       <c r="F1039" s="363"/>
@@ -37174,7 +37174,7 @@
       <c r="B1062" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1062" s="642"/>
+      <c r="C1062" s="638"/>
       <c r="D1062" s="363"/>
       <c r="E1062" s="363"/>
       <c r="F1062" s="363"/>
@@ -37198,30 +37198,21 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="B333:C333"/>
-    <mergeCell ref="B351:C351"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B311:C311"/>
-    <mergeCell ref="D36:D41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="D305:D309"/>
-    <mergeCell ref="B223:C223"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="D249:D253"/>
-    <mergeCell ref="B255:C255"/>
-    <mergeCell ref="D285:D289"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="B189:C189"/>
-    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="B590:C590"/>
+    <mergeCell ref="B710:C710"/>
+    <mergeCell ref="B726:C726"/>
+    <mergeCell ref="B745:C745"/>
+    <mergeCell ref="B768:C768"/>
+    <mergeCell ref="B790:C790"/>
+    <mergeCell ref="B815:C815"/>
+    <mergeCell ref="B840:C840"/>
+    <mergeCell ref="B866:C866"/>
+    <mergeCell ref="B886:C886"/>
+    <mergeCell ref="B908:C908"/>
+    <mergeCell ref="B927:C927"/>
+    <mergeCell ref="B946:C946"/>
+    <mergeCell ref="B960:C960"/>
+    <mergeCell ref="B980:C980"/>
     <mergeCell ref="B997:C997"/>
     <mergeCell ref="B1017:C1017"/>
     <mergeCell ref="B1039:C1039"/>
@@ -37238,21 +37229,30 @@
     <mergeCell ref="B655:C655"/>
     <mergeCell ref="B672:C672"/>
     <mergeCell ref="B687:C687"/>
-    <mergeCell ref="B908:C908"/>
-    <mergeCell ref="B927:C927"/>
-    <mergeCell ref="B946:C946"/>
-    <mergeCell ref="B960:C960"/>
-    <mergeCell ref="B980:C980"/>
-    <mergeCell ref="B790:C790"/>
-    <mergeCell ref="B815:C815"/>
-    <mergeCell ref="B840:C840"/>
-    <mergeCell ref="B866:C866"/>
-    <mergeCell ref="B886:C886"/>
-    <mergeCell ref="B590:C590"/>
-    <mergeCell ref="B710:C710"/>
-    <mergeCell ref="B726:C726"/>
-    <mergeCell ref="B745:C745"/>
-    <mergeCell ref="B768:C768"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="D305:D309"/>
+    <mergeCell ref="B223:C223"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="D249:D253"/>
+    <mergeCell ref="B255:C255"/>
+    <mergeCell ref="D285:D289"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="B333:C333"/>
+    <mergeCell ref="B351:C351"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B311:C311"/>
+    <mergeCell ref="D36:D41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B61:C61"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37594,10 +37594,10 @@
     </row>
     <row r="20" spans="1:11" ht="14.35">
       <c r="A20" s="2"/>
-      <c r="B20" s="656" t="s">
+      <c r="B20" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="659"/>
+      <c r="C20" s="650"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -37770,7 +37770,7 @@
         <v>29</v>
       </c>
       <c r="C36" s="14"/>
-      <c r="D36" s="660"/>
+      <c r="D36" s="661"/>
       <c r="E36" s="26"/>
       <c r="K36" s="10"/>
     </row>
@@ -37780,7 +37780,7 @@
         <v>45</v>
       </c>
       <c r="C37" s="11"/>
-      <c r="D37" s="661"/>
+      <c r="D37" s="662"/>
       <c r="E37" s="26"/>
       <c r="K37" s="10"/>
     </row>
@@ -37790,7 +37790,7 @@
         <v>30</v>
       </c>
       <c r="C38" s="11"/>
-      <c r="D38" s="661"/>
+      <c r="D38" s="662"/>
       <c r="E38" s="28"/>
       <c r="K38" s="10"/>
     </row>
@@ -37800,7 +37800,7 @@
         <v>31</v>
       </c>
       <c r="C39" s="11"/>
-      <c r="D39" s="661"/>
+      <c r="D39" s="662"/>
       <c r="E39" s="28"/>
       <c r="K39" s="10"/>
     </row>
@@ -37810,7 +37810,7 @@
         <v>32</v>
       </c>
       <c r="C40" s="11"/>
-      <c r="D40" s="661"/>
+      <c r="D40" s="662"/>
       <c r="E40" s="28"/>
       <c r="K40" s="10"/>
     </row>
@@ -37820,16 +37820,16 @@
         <v>876</v>
       </c>
       <c r="C41" s="11"/>
-      <c r="D41" s="661"/>
+      <c r="D41" s="662"/>
       <c r="E41" s="28"/>
       <c r="K41" s="10"/>
     </row>
     <row r="42" spans="1:11" ht="14.35">
       <c r="A42" s="2"/>
-      <c r="B42" s="656" t="s">
+      <c r="B42" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="659"/>
+      <c r="C42" s="650"/>
       <c r="D42" s="28"/>
       <c r="E42" s="28"/>
       <c r="K42" s="10"/>
@@ -38068,10 +38068,10 @@
     </row>
     <row r="61" spans="1:11" ht="14.35">
       <c r="A61" s="2"/>
-      <c r="B61" s="656" t="s">
+      <c r="B61" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C61" s="659"/>
+      <c r="C61" s="650"/>
       <c r="D61" s="8"/>
       <c r="E61" s="23"/>
       <c r="F61" s="2"/>
@@ -38255,10 +38255,10 @@
       <c r="D75" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="E75" s="662" t="s">
+      <c r="E75" s="671" t="s">
         <v>59</v>
       </c>
-      <c r="F75" s="647"/>
+      <c r="F75" s="652"/>
       <c r="G75" s="44"/>
       <c r="H75" s="8"/>
       <c r="K75" s="10"/>
@@ -38356,7 +38356,7 @@
         <v>65</v>
       </c>
       <c r="C81" s="11"/>
-      <c r="D81" s="660"/>
+      <c r="D81" s="661"/>
       <c r="E81" s="49">
         <v>1</v>
       </c>
@@ -38373,7 +38373,7 @@
         <v>30</v>
       </c>
       <c r="C82" s="11"/>
-      <c r="D82" s="661"/>
+      <c r="D82" s="662"/>
       <c r="E82" s="29" t="s">
         <v>66</v>
       </c>
@@ -38388,7 +38388,7 @@
         <v>31</v>
       </c>
       <c r="C83" s="11"/>
-      <c r="D83" s="661"/>
+      <c r="D83" s="662"/>
       <c r="E83" s="29" t="s">
         <v>67</v>
       </c>
@@ -38403,7 +38403,7 @@
         <v>68</v>
       </c>
       <c r="C84" s="24"/>
-      <c r="D84" s="661"/>
+      <c r="D84" s="662"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
@@ -38412,10 +38412,10 @@
     </row>
     <row r="85" spans="1:11" ht="14.35">
       <c r="A85" s="2"/>
-      <c r="B85" s="656" t="s">
+      <c r="B85" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C85" s="659"/>
+      <c r="C85" s="650"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
@@ -38520,8 +38520,8 @@
       <c r="D94" s="37"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
-      <c r="G94" s="663"/>
-      <c r="H94" s="664"/>
+      <c r="G94" s="666"/>
+      <c r="H94" s="667"/>
       <c r="K94" s="10"/>
     </row>
     <row r="95" spans="1:11" ht="14.35">
@@ -38545,10 +38545,10 @@
       <c r="C96" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="D96" s="665" t="s">
+      <c r="D96" s="668" t="s">
         <v>59</v>
       </c>
-      <c r="E96" s="647"/>
+      <c r="E96" s="652"/>
       <c r="F96" s="2"/>
       <c r="G96" s="54"/>
       <c r="H96" s="12"/>
@@ -38694,10 +38694,10 @@
     </row>
     <row r="106" spans="1:11" ht="14.35">
       <c r="A106" s="2"/>
-      <c r="B106" s="666" t="s">
+      <c r="B106" s="669" t="s">
         <v>34</v>
       </c>
-      <c r="C106" s="667"/>
+      <c r="C106" s="670"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
@@ -38816,7 +38816,7 @@
         <v>80</v>
       </c>
       <c r="D116" s="23"/>
-      <c r="E116" s="668" t="s">
+      <c r="E116" s="665" t="s">
         <v>59</v>
       </c>
       <c r="F116" s="633"/>
@@ -39023,10 +39023,10 @@
     </row>
     <row r="130" spans="1:11" ht="14.35">
       <c r="A130" s="2"/>
-      <c r="B130" s="656" t="s">
+      <c r="B130" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C130" s="657"/>
+      <c r="C130" s="648"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
@@ -39313,10 +39313,10 @@
     </row>
     <row r="156" spans="1:11" ht="14.35">
       <c r="A156" s="2"/>
-      <c r="B156" s="656" t="s">
+      <c r="B156" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C156" s="657"/>
+      <c r="C156" s="648"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
       <c r="H156" s="10"/>
@@ -39511,10 +39511,10 @@
     </row>
     <row r="174" spans="1:11" ht="14.35">
       <c r="A174" s="2"/>
-      <c r="B174" s="656" t="s">
+      <c r="B174" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C174" s="659"/>
+      <c r="C174" s="650"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
@@ -39742,10 +39742,10 @@
     </row>
     <row r="192" spans="1:11" ht="14.35">
       <c r="A192" s="2"/>
-      <c r="B192" s="656" t="s">
+      <c r="B192" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C192" s="659"/>
+      <c r="C192" s="650"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
@@ -40073,10 +40073,10 @@
     </row>
     <row r="217" spans="1:11" ht="14.35">
       <c r="A217" s="2"/>
-      <c r="B217" s="656" t="s">
+      <c r="B217" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C217" s="657"/>
+      <c r="C217" s="648"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
@@ -40382,10 +40382,10 @@
     </row>
     <row r="242" spans="1:11" ht="14.35">
       <c r="A242" s="2"/>
-      <c r="B242" s="656" t="s">
+      <c r="B242" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C242" s="657"/>
+      <c r="C242" s="648"/>
       <c r="D242" s="2"/>
       <c r="F242" s="2"/>
       <c r="G242" s="2"/>
@@ -40748,7 +40748,7 @@
         <v>143</v>
       </c>
       <c r="C268" s="11"/>
-      <c r="D268" s="669"/>
+      <c r="D268" s="663"/>
       <c r="E268" s="2"/>
       <c r="F268" s="2"/>
       <c r="G268" s="2"/>
@@ -40761,7 +40761,7 @@
         <v>144</v>
       </c>
       <c r="C269" s="11"/>
-      <c r="D269" s="670"/>
+      <c r="D269" s="664"/>
       <c r="E269" s="2"/>
       <c r="F269" s="2"/>
       <c r="G269" s="2"/>
@@ -40774,7 +40774,7 @@
         <v>30</v>
       </c>
       <c r="C270" s="11"/>
-      <c r="D270" s="670"/>
+      <c r="D270" s="664"/>
       <c r="E270" s="2"/>
       <c r="F270" s="2"/>
       <c r="G270" s="2"/>
@@ -40787,7 +40787,7 @@
         <v>31</v>
       </c>
       <c r="C271" s="11"/>
-      <c r="D271" s="670"/>
+      <c r="D271" s="664"/>
       <c r="E271" s="2"/>
       <c r="F271" s="2"/>
       <c r="G271" s="2"/>
@@ -40800,7 +40800,7 @@
         <v>145</v>
       </c>
       <c r="C272" s="11"/>
-      <c r="D272" s="670"/>
+      <c r="D272" s="664"/>
       <c r="E272" s="2"/>
       <c r="F272" s="2"/>
       <c r="G272" s="2"/>
@@ -40822,10 +40822,10 @@
     </row>
     <row r="274" spans="1:11" ht="14.35">
       <c r="A274" s="2"/>
-      <c r="B274" s="656" t="s">
+      <c r="B274" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C274" s="659"/>
+      <c r="C274" s="650"/>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
       <c r="F274" s="2"/>
@@ -41249,7 +41249,7 @@
         <v>143</v>
       </c>
       <c r="C304" s="11"/>
-      <c r="D304" s="660"/>
+      <c r="D304" s="661"/>
       <c r="E304" s="84"/>
       <c r="F304" s="85"/>
       <c r="G304" s="2"/>
@@ -41262,7 +41262,7 @@
         <v>144</v>
       </c>
       <c r="C305" s="11"/>
-      <c r="D305" s="661"/>
+      <c r="D305" s="662"/>
       <c r="E305" s="84"/>
       <c r="F305" s="85"/>
       <c r="G305" s="2"/>
@@ -41275,7 +41275,7 @@
         <v>30</v>
       </c>
       <c r="C306" s="11"/>
-      <c r="D306" s="661"/>
+      <c r="D306" s="662"/>
       <c r="E306" s="84"/>
       <c r="F306" s="85"/>
       <c r="G306" s="2"/>
@@ -41288,7 +41288,7 @@
         <v>31</v>
       </c>
       <c r="C307" s="11"/>
-      <c r="D307" s="661"/>
+      <c r="D307" s="662"/>
       <c r="E307" s="84"/>
       <c r="F307" s="85"/>
       <c r="G307" s="2"/>
@@ -41301,7 +41301,7 @@
         <v>145</v>
       </c>
       <c r="C308" s="11"/>
-      <c r="D308" s="661"/>
+      <c r="D308" s="662"/>
       <c r="E308" s="84"/>
       <c r="F308" s="85"/>
       <c r="G308" s="2"/>
@@ -41323,10 +41323,10 @@
     </row>
     <row r="310" spans="1:11" ht="14.35">
       <c r="A310" s="2"/>
-      <c r="B310" s="656" t="s">
+      <c r="B310" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C310" s="659"/>
+      <c r="C310" s="650"/>
       <c r="D310" s="28"/>
       <c r="E310" s="2"/>
       <c r="F310" s="2"/>
@@ -41497,7 +41497,7 @@
         <v>64</v>
       </c>
       <c r="C324" s="11"/>
-      <c r="D324" s="660"/>
+      <c r="D324" s="661"/>
       <c r="F324" s="2"/>
       <c r="G324" s="2"/>
       <c r="H324" s="8"/>
@@ -41509,7 +41509,7 @@
         <v>65</v>
       </c>
       <c r="C325" s="11"/>
-      <c r="D325" s="661"/>
+      <c r="D325" s="662"/>
       <c r="F325" s="2"/>
       <c r="G325" s="2"/>
       <c r="H325" s="8"/>
@@ -41521,7 +41521,7 @@
         <v>30</v>
       </c>
       <c r="C326" s="11"/>
-      <c r="D326" s="661"/>
+      <c r="D326" s="662"/>
       <c r="F326" s="2"/>
       <c r="G326" s="2"/>
       <c r="H326" s="8"/>
@@ -41533,7 +41533,7 @@
         <v>31</v>
       </c>
       <c r="C327" s="11"/>
-      <c r="D327" s="661"/>
+      <c r="D327" s="662"/>
       <c r="F327" s="2"/>
       <c r="G327" s="2"/>
       <c r="H327" s="8"/>
@@ -41545,7 +41545,7 @@
         <v>68</v>
       </c>
       <c r="C328" s="11"/>
-      <c r="D328" s="661"/>
+      <c r="D328" s="662"/>
       <c r="F328" s="2"/>
       <c r="G328" s="2"/>
       <c r="H328" s="8"/>
@@ -41565,10 +41565,10 @@
     </row>
     <row r="330" spans="1:11" ht="14.35">
       <c r="A330" s="2"/>
-      <c r="B330" s="656" t="s">
+      <c r="B330" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C330" s="659"/>
+      <c r="C330" s="650"/>
       <c r="D330" s="28"/>
       <c r="F330" s="2"/>
       <c r="G330" s="2"/>
@@ -41827,10 +41827,10 @@
     </row>
     <row r="352" spans="1:11" ht="14.35">
       <c r="A352" s="2"/>
-      <c r="B352" s="656" t="s">
+      <c r="B352" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C352" s="657"/>
+      <c r="C352" s="648"/>
       <c r="D352" s="2"/>
       <c r="F352" s="2"/>
       <c r="G352" s="2"/>
@@ -42034,10 +42034,10 @@
     </row>
     <row r="370" spans="1:11" ht="14.35">
       <c r="A370" s="2"/>
-      <c r="B370" s="656" t="s">
+      <c r="B370" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C370" s="657"/>
+      <c r="C370" s="648"/>
       <c r="F370" s="2"/>
       <c r="G370" s="2"/>
       <c r="H370" s="8"/>
@@ -42517,10 +42517,10 @@
     </row>
     <row r="405" spans="1:11" ht="14.7">
       <c r="A405" s="2"/>
-      <c r="B405" s="645" t="s">
+      <c r="B405" s="659" t="s">
         <v>34</v>
       </c>
-      <c r="C405" s="644"/>
+      <c r="C405" s="641"/>
       <c r="D405" s="97"/>
       <c r="F405" s="2"/>
       <c r="G405" s="2"/>
@@ -43033,10 +43033,10 @@
     </row>
     <row r="440" spans="1:11" ht="14.7">
       <c r="A440" s="2"/>
-      <c r="B440" s="645" t="s">
+      <c r="B440" s="659" t="s">
         <v>34</v>
       </c>
-      <c r="C440" s="644"/>
+      <c r="C440" s="641"/>
       <c r="D440" s="97"/>
       <c r="E440" s="97"/>
       <c r="F440" s="2"/>
@@ -43512,10 +43512,10 @@
     </row>
     <row r="473" spans="1:11" ht="14.7">
       <c r="A473" s="2"/>
-      <c r="B473" s="645" t="s">
+      <c r="B473" s="659" t="s">
         <v>34</v>
       </c>
-      <c r="C473" s="644"/>
+      <c r="C473" s="641"/>
       <c r="D473" s="97"/>
       <c r="E473" s="97"/>
       <c r="F473" s="97"/>
@@ -43987,10 +43987,10 @@
     </row>
     <row r="506" spans="1:11" ht="14.7">
       <c r="A506" s="2"/>
-      <c r="B506" s="645" t="s">
+      <c r="B506" s="659" t="s">
         <v>34</v>
       </c>
-      <c r="C506" s="644"/>
+      <c r="C506" s="641"/>
       <c r="D506" s="97"/>
       <c r="E506" s="97"/>
       <c r="F506" s="97"/>
@@ -44861,10 +44861,10 @@
     </row>
     <row r="559" spans="1:11" ht="14.7">
       <c r="A559" s="2"/>
-      <c r="B559" s="645" t="s">
+      <c r="B559" s="659" t="s">
         <v>34</v>
       </c>
-      <c r="C559" s="644"/>
+      <c r="C559" s="641"/>
       <c r="D559" s="97"/>
       <c r="E559" s="97"/>
       <c r="F559" s="97"/>
@@ -45288,10 +45288,10 @@
     </row>
     <row r="597" spans="1:11" ht="14.35">
       <c r="A597" s="2"/>
-      <c r="B597" s="656" t="s">
+      <c r="B597" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C597" s="657"/>
+      <c r="C597" s="648"/>
       <c r="D597" s="2"/>
       <c r="E597" s="2"/>
       <c r="F597" s="2"/>
@@ -45533,10 +45533,10 @@
     </row>
     <row r="616" spans="1:11" ht="14.35">
       <c r="A616" s="2"/>
-      <c r="B616" s="656" t="s">
+      <c r="B616" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C616" s="657"/>
+      <c r="C616" s="648"/>
       <c r="D616" s="2"/>
       <c r="E616" s="2"/>
       <c r="F616" s="2"/>
@@ -45774,10 +45774,10 @@
     </row>
     <row r="635" spans="1:11" ht="14.35">
       <c r="A635" s="2"/>
-      <c r="B635" s="656" t="s">
+      <c r="B635" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C635" s="659"/>
+      <c r="C635" s="650"/>
       <c r="D635" s="127"/>
       <c r="E635" s="2"/>
       <c r="F635" s="2"/>
@@ -46034,10 +46034,10 @@
     </row>
     <row r="655" spans="1:11" ht="14.35">
       <c r="A655" s="2"/>
-      <c r="B655" s="656" t="s">
+      <c r="B655" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C655" s="657"/>
+      <c r="C655" s="648"/>
       <c r="D655" s="2"/>
       <c r="E655" s="2"/>
       <c r="F655" s="2"/>
@@ -46262,10 +46262,10 @@
     </row>
     <row r="673" spans="1:11" ht="14.35">
       <c r="A673" s="2"/>
-      <c r="B673" s="656" t="s">
+      <c r="B673" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C673" s="659"/>
+      <c r="C673" s="650"/>
       <c r="D673" s="2"/>
       <c r="E673" s="2"/>
       <c r="F673" s="2"/>
@@ -46501,10 +46501,10 @@
     </row>
     <row r="692" spans="1:11" ht="14.35">
       <c r="A692" s="2"/>
-      <c r="B692" s="671" t="s">
+      <c r="B692" s="660" t="s">
         <v>34</v>
       </c>
-      <c r="C692" s="644"/>
+      <c r="C692" s="641"/>
       <c r="D692" s="2"/>
       <c r="E692" s="2"/>
       <c r="F692" s="2"/>
@@ -46737,10 +46737,10 @@
     </row>
     <row r="710" spans="1:11" ht="14.35">
       <c r="A710" s="2"/>
-      <c r="B710" s="671" t="s">
+      <c r="B710" s="660" t="s">
         <v>34</v>
       </c>
-      <c r="C710" s="644"/>
+      <c r="C710" s="641"/>
       <c r="D710" s="2"/>
       <c r="E710" s="2"/>
       <c r="F710" s="2"/>
@@ -47059,10 +47059,10 @@
     </row>
     <row r="736" spans="1:11" ht="14.35">
       <c r="A736" s="2"/>
-      <c r="B736" s="656" t="s">
+      <c r="B736" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C736" s="657"/>
+      <c r="C736" s="648"/>
       <c r="D736" s="2"/>
       <c r="E736" s="2"/>
       <c r="F736" s="2"/>
@@ -47325,10 +47325,10 @@
     </row>
     <row r="756" spans="1:11" ht="14.35">
       <c r="A756" s="2"/>
-      <c r="B756" s="656" t="s">
+      <c r="B756" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C756" s="657"/>
+      <c r="C756" s="648"/>
       <c r="D756" s="2"/>
       <c r="E756" s="2"/>
       <c r="F756" s="2"/>
@@ -47616,10 +47616,10 @@
     </row>
     <row r="779" spans="1:11" ht="14.35">
       <c r="A779" s="2"/>
-      <c r="B779" s="656" t="s">
+      <c r="B779" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C779" s="657"/>
+      <c r="C779" s="648"/>
       <c r="D779" s="2"/>
       <c r="E779" s="2"/>
       <c r="F779" s="2"/>
@@ -47905,10 +47905,10 @@
     </row>
     <row r="802" spans="1:11" ht="14.35">
       <c r="A802" s="2"/>
-      <c r="B802" s="656" t="s">
+      <c r="B802" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C802" s="659"/>
+      <c r="C802" s="650"/>
       <c r="D802" s="2"/>
       <c r="E802" s="2"/>
       <c r="F802" s="2"/>
@@ -48187,10 +48187,10 @@
     </row>
     <row r="824" spans="1:11" ht="14.35">
       <c r="A824" s="2"/>
-      <c r="B824" s="656" t="s">
+      <c r="B824" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C824" s="659"/>
+      <c r="C824" s="650"/>
       <c r="D824" s="2"/>
       <c r="E824" s="2"/>
       <c r="F824" s="2"/>
@@ -48498,10 +48498,10 @@
     </row>
     <row r="849" spans="1:11" ht="14.35">
       <c r="A849" s="2"/>
-      <c r="B849" s="656" t="s">
+      <c r="B849" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C849" s="659"/>
+      <c r="C849" s="650"/>
       <c r="D849" s="149"/>
       <c r="E849" s="2"/>
       <c r="F849" s="2"/>
@@ -48806,10 +48806,10 @@
       <c r="K873" s="10"/>
     </row>
     <row r="874" spans="2:11" ht="14.35">
-      <c r="B874" s="656" t="s">
+      <c r="B874" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C874" s="659"/>
+      <c r="C874" s="650"/>
       <c r="D874" s="2"/>
       <c r="E874" s="2"/>
       <c r="F874" s="2"/>
@@ -49115,10 +49115,10 @@
       <c r="K899" s="10"/>
     </row>
     <row r="900" spans="1:11" ht="14.35">
-      <c r="B900" s="656" t="s">
+      <c r="B900" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C900" s="659"/>
+      <c r="C900" s="650"/>
       <c r="D900" s="2"/>
       <c r="E900" s="2"/>
       <c r="F900" s="2"/>
@@ -49348,10 +49348,10 @@
     </row>
     <row r="920" spans="1:11" ht="14.35">
       <c r="A920" s="2"/>
-      <c r="B920" s="656" t="s">
+      <c r="B920" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C920" s="659"/>
+      <c r="C920" s="650"/>
       <c r="D920" s="2"/>
       <c r="E920" s="2"/>
       <c r="F920" s="2"/>
@@ -49628,10 +49628,10 @@
     </row>
     <row r="942" spans="1:11" ht="14.35">
       <c r="A942" s="2"/>
-      <c r="B942" s="656" t="s">
+      <c r="B942" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C942" s="659"/>
+      <c r="C942" s="650"/>
       <c r="D942" s="2"/>
       <c r="E942" s="2"/>
       <c r="F942" s="2"/>
@@ -49875,10 +49875,10 @@
     </row>
     <row r="961" spans="1:11" ht="14.35">
       <c r="A961" s="2"/>
-      <c r="B961" s="656" t="s">
+      <c r="B961" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C961" s="659"/>
+      <c r="C961" s="650"/>
       <c r="D961" s="2"/>
       <c r="E961" s="2"/>
       <c r="F961" s="2"/>
@@ -50118,10 +50118,10 @@
     </row>
     <row r="980" spans="1:11" ht="14.35">
       <c r="A980" s="2"/>
-      <c r="B980" s="656" t="s">
+      <c r="B980" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C980" s="659"/>
+      <c r="C980" s="650"/>
       <c r="D980" s="2"/>
       <c r="E980" s="2"/>
       <c r="F980" s="2"/>
@@ -50262,10 +50262,10 @@
     </row>
     <row r="994" spans="1:11" ht="14.35">
       <c r="A994" s="2"/>
-      <c r="B994" s="656" t="s">
+      <c r="B994" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C994" s="659"/>
+      <c r="C994" s="650"/>
       <c r="F994" s="2"/>
       <c r="G994" s="2"/>
       <c r="H994" s="8"/>
@@ -50512,10 +50512,10 @@
     </row>
     <row r="1014" spans="1:11" ht="14.35">
       <c r="A1014" s="2"/>
-      <c r="B1014" s="656" t="s">
+      <c r="B1014" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C1014" s="657"/>
+      <c r="C1014" s="648"/>
       <c r="D1014" s="2"/>
       <c r="E1014" s="2"/>
       <c r="F1014" s="2"/>
@@ -50717,10 +50717,10 @@
     </row>
     <row r="1031" spans="1:11" ht="14.35">
       <c r="A1031" s="2"/>
-      <c r="B1031" s="656" t="s">
+      <c r="B1031" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C1031" s="659"/>
+      <c r="C1031" s="650"/>
       <c r="D1031" s="2"/>
       <c r="E1031" s="2"/>
       <c r="F1031" s="2"/>
@@ -50963,10 +50963,10 @@
       <c r="K1050" s="10"/>
     </row>
     <row r="1051" spans="2:11" ht="14.35">
-      <c r="B1051" s="656" t="s">
+      <c r="B1051" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C1051" s="657"/>
+      <c r="C1051" s="648"/>
       <c r="D1051" s="2"/>
       <c r="E1051" s="2"/>
       <c r="F1051" s="2"/>
@@ -51227,10 +51227,10 @@
     </row>
     <row r="1073" spans="1:11" ht="14.35">
       <c r="A1073" s="2"/>
-      <c r="B1073" s="656" t="s">
+      <c r="B1073" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C1073" s="657"/>
+      <c r="C1073" s="648"/>
       <c r="D1073" s="2"/>
       <c r="E1073" s="2"/>
       <c r="F1073" s="2"/>
@@ -51526,10 +51526,10 @@
     </row>
     <row r="1096" spans="1:11" ht="14.35">
       <c r="A1096" s="2"/>
-      <c r="B1096" s="656" t="s">
+      <c r="B1096" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C1096" s="657"/>
+      <c r="C1096" s="648"/>
       <c r="D1096" s="2"/>
       <c r="E1096" s="2"/>
       <c r="F1096" s="2"/>
@@ -51553,61 +51553,61 @@
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D36:D41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="B217:C217"/>
+    <mergeCell ref="B242:C242"/>
+    <mergeCell ref="D268:D272"/>
+    <mergeCell ref="B274:C274"/>
+    <mergeCell ref="D304:D308"/>
+    <mergeCell ref="B310:C310"/>
+    <mergeCell ref="D324:D328"/>
+    <mergeCell ref="B330:C330"/>
+    <mergeCell ref="B352:C352"/>
+    <mergeCell ref="B370:C370"/>
+    <mergeCell ref="B405:C405"/>
+    <mergeCell ref="B440:C440"/>
+    <mergeCell ref="B473:C473"/>
+    <mergeCell ref="B506:C506"/>
+    <mergeCell ref="B559:C559"/>
+    <mergeCell ref="B597:C597"/>
+    <mergeCell ref="B616:C616"/>
+    <mergeCell ref="B635:C635"/>
+    <mergeCell ref="B655:C655"/>
+    <mergeCell ref="B673:C673"/>
+    <mergeCell ref="B692:C692"/>
+    <mergeCell ref="B710:C710"/>
+    <mergeCell ref="B736:C736"/>
+    <mergeCell ref="B756:C756"/>
+    <mergeCell ref="B779:C779"/>
+    <mergeCell ref="B802:C802"/>
+    <mergeCell ref="B824:C824"/>
+    <mergeCell ref="B849:C849"/>
+    <mergeCell ref="B874:C874"/>
+    <mergeCell ref="B900:C900"/>
+    <mergeCell ref="B920:C920"/>
+    <mergeCell ref="B942:C942"/>
+    <mergeCell ref="B961:C961"/>
+    <mergeCell ref="B980:C980"/>
+    <mergeCell ref="B994:C994"/>
     <mergeCell ref="B1014:C1014"/>
     <mergeCell ref="B1031:C1031"/>
     <mergeCell ref="B1051:C1051"/>
     <mergeCell ref="B1073:C1073"/>
     <mergeCell ref="B1096:C1096"/>
-    <mergeCell ref="B920:C920"/>
-    <mergeCell ref="B942:C942"/>
-    <mergeCell ref="B961:C961"/>
-    <mergeCell ref="B980:C980"/>
-    <mergeCell ref="B994:C994"/>
-    <mergeCell ref="B802:C802"/>
-    <mergeCell ref="B824:C824"/>
-    <mergeCell ref="B849:C849"/>
-    <mergeCell ref="B874:C874"/>
-    <mergeCell ref="B900:C900"/>
-    <mergeCell ref="B692:C692"/>
-    <mergeCell ref="B710:C710"/>
-    <mergeCell ref="B736:C736"/>
-    <mergeCell ref="B756:C756"/>
-    <mergeCell ref="B779:C779"/>
-    <mergeCell ref="B597:C597"/>
-    <mergeCell ref="B616:C616"/>
-    <mergeCell ref="B635:C635"/>
-    <mergeCell ref="B655:C655"/>
-    <mergeCell ref="B673:C673"/>
-    <mergeCell ref="B405:C405"/>
-    <mergeCell ref="B440:C440"/>
-    <mergeCell ref="B473:C473"/>
-    <mergeCell ref="B506:C506"/>
-    <mergeCell ref="B559:C559"/>
-    <mergeCell ref="B310:C310"/>
-    <mergeCell ref="D324:D328"/>
-    <mergeCell ref="B330:C330"/>
-    <mergeCell ref="B352:C352"/>
-    <mergeCell ref="B370:C370"/>
-    <mergeCell ref="B217:C217"/>
-    <mergeCell ref="B242:C242"/>
-    <mergeCell ref="D268:D272"/>
-    <mergeCell ref="B274:C274"/>
-    <mergeCell ref="D304:D308"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D36:D41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="E75:F75"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -51677,10 +51677,10 @@
       <c r="D2" s="246" t="s">
         <v>508</v>
       </c>
-      <c r="E2" s="698" t="s">
+      <c r="E2" s="682" t="s">
         <v>509</v>
       </c>
-      <c r="F2" s="699"/>
+      <c r="F2" s="683"/>
       <c r="G2" s="252" t="s">
         <v>510</v>
       </c>
@@ -51713,71 +51713,71 @@
       <c r="A3" s="253">
         <v>1</v>
       </c>
-      <c r="B3" s="681" t="s">
+      <c r="B3" s="694" t="s">
         <v>456</v>
       </c>
-      <c r="C3" s="682"/>
-      <c r="D3" s="682"/>
-      <c r="E3" s="682"/>
-      <c r="F3" s="682"/>
-      <c r="G3" s="682"/>
-      <c r="H3" s="682"/>
-      <c r="I3" s="682"/>
-      <c r="J3" s="682"/>
-      <c r="K3" s="683" t="s">
+      <c r="C3" s="695"/>
+      <c r="D3" s="695"/>
+      <c r="E3" s="695"/>
+      <c r="F3" s="695"/>
+      <c r="G3" s="695"/>
+      <c r="H3" s="695"/>
+      <c r="I3" s="695"/>
+      <c r="J3" s="695"/>
+      <c r="K3" s="688" t="s">
         <v>457</v>
       </c>
-      <c r="L3" s="684"/>
-      <c r="M3" s="684"/>
-      <c r="N3" s="684"/>
-      <c r="O3" s="684"/>
-      <c r="P3" s="684"/>
-      <c r="Q3" s="684"/>
-      <c r="R3" s="684"/>
-      <c r="S3" s="684"/>
-      <c r="T3" s="684"/>
-      <c r="U3" s="684"/>
-      <c r="V3" s="684"/>
-      <c r="W3" s="684"/>
+      <c r="L3" s="687"/>
+      <c r="M3" s="687"/>
+      <c r="N3" s="687"/>
+      <c r="O3" s="687"/>
+      <c r="P3" s="687"/>
+      <c r="Q3" s="687"/>
+      <c r="R3" s="687"/>
+      <c r="S3" s="687"/>
+      <c r="T3" s="687"/>
+      <c r="U3" s="687"/>
+      <c r="V3" s="687"/>
+      <c r="W3" s="687"/>
     </row>
     <row r="4" spans="1:23" ht="14">
       <c r="A4" s="244"/>
-      <c r="B4" s="685" t="s">
+      <c r="B4" s="696" t="s">
         <v>459</v>
       </c>
-      <c r="C4" s="686"/>
-      <c r="D4" s="686"/>
+      <c r="C4" s="693"/>
+      <c r="D4" s="693"/>
       <c r="E4" s="674" t="s">
         <v>515</v>
       </c>
-      <c r="F4" s="686"/>
-      <c r="G4" s="686"/>
-      <c r="H4" s="687" t="s">
+      <c r="F4" s="693"/>
+      <c r="G4" s="693"/>
+      <c r="H4" s="697" t="s">
         <v>516</v>
       </c>
-      <c r="I4" s="688"/>
-      <c r="J4" s="688"/>
+      <c r="I4" s="698"/>
+      <c r="J4" s="698"/>
       <c r="K4" s="674" t="s">
         <v>460</v>
       </c>
-      <c r="L4" s="686"/>
-      <c r="M4" s="686"/>
+      <c r="L4" s="693"/>
+      <c r="M4" s="693"/>
       <c r="N4" s="674" t="s">
         <v>517</v>
       </c>
-      <c r="O4" s="686"/>
-      <c r="P4" s="686"/>
+      <c r="O4" s="693"/>
+      <c r="P4" s="693"/>
       <c r="Q4" s="674" t="s">
         <v>518</v>
       </c>
-      <c r="R4" s="686"/>
-      <c r="S4" s="686"/>
-      <c r="T4" s="689" t="s">
+      <c r="R4" s="693"/>
+      <c r="S4" s="693"/>
+      <c r="T4" s="699" t="s">
         <v>519</v>
       </c>
-      <c r="U4" s="690"/>
-      <c r="V4" s="690"/>
-      <c r="W4" s="690"/>
+      <c r="U4" s="700"/>
+      <c r="V4" s="700"/>
+      <c r="W4" s="700"/>
     </row>
     <row r="5" spans="1:23" ht="15.35">
       <c r="A5" s="244"/>
@@ -51835,7 +51835,7 @@
       <c r="S5" s="259" t="s">
         <v>463</v>
       </c>
-      <c r="T5" s="691" t="s">
+      <c r="T5" s="681" t="s">
         <v>520</v>
       </c>
       <c r="U5" s="171" t="s">
@@ -51880,7 +51880,7 @@
       <c r="Q6" s="184"/>
       <c r="R6" s="183"/>
       <c r="S6" s="268"/>
-      <c r="T6" s="644"/>
+      <c r="T6" s="641"/>
       <c r="U6" s="171" t="s">
         <v>524</v>
       </c>
@@ -52327,32 +52327,32 @@
       </c>
     </row>
     <row r="23" spans="1:23" ht="14">
-      <c r="B23" s="695" t="s">
+      <c r="B23" s="684" t="s">
         <v>456</v>
       </c>
-      <c r="C23" s="644"/>
-      <c r="D23" s="644"/>
-      <c r="E23" s="644"/>
-      <c r="F23" s="644"/>
-      <c r="G23" s="644"/>
-      <c r="H23" s="644"/>
-      <c r="I23" s="644"/>
-      <c r="J23" s="644"/>
-      <c r="K23" s="694" t="s">
+      <c r="C23" s="641"/>
+      <c r="D23" s="641"/>
+      <c r="E23" s="641"/>
+      <c r="F23" s="641"/>
+      <c r="G23" s="641"/>
+      <c r="H23" s="641"/>
+      <c r="I23" s="641"/>
+      <c r="J23" s="641"/>
+      <c r="K23" s="685" t="s">
         <v>911</v>
       </c>
-      <c r="L23" s="644"/>
-      <c r="M23" s="644"/>
-      <c r="N23" s="644"/>
-      <c r="O23" s="644"/>
-      <c r="P23" s="644"/>
-      <c r="Q23" s="644"/>
-      <c r="R23" s="644"/>
-      <c r="S23" s="644"/>
-      <c r="T23" s="644"/>
-      <c r="U23" s="644"/>
-      <c r="V23" s="644"/>
-      <c r="W23" s="644"/>
+      <c r="L23" s="641"/>
+      <c r="M23" s="641"/>
+      <c r="N23" s="641"/>
+      <c r="O23" s="641"/>
+      <c r="P23" s="641"/>
+      <c r="Q23" s="641"/>
+      <c r="R23" s="641"/>
+      <c r="S23" s="641"/>
+      <c r="T23" s="641"/>
+      <c r="U23" s="641"/>
+      <c r="V23" s="641"/>
+      <c r="W23" s="641"/>
     </row>
     <row r="24" spans="1:23" ht="14">
       <c r="A24" s="253">
@@ -52388,12 +52388,12 @@
       </c>
       <c r="R24" s="678"/>
       <c r="S24" s="678"/>
-      <c r="T24" s="692" t="s">
+      <c r="T24" s="679" t="s">
         <v>519</v>
       </c>
-      <c r="U24" s="693"/>
-      <c r="V24" s="693"/>
-      <c r="W24" s="693"/>
+      <c r="U24" s="680"/>
+      <c r="V24" s="680"/>
+      <c r="W24" s="680"/>
     </row>
     <row r="25" spans="1:23" ht="15.35">
       <c r="A25" s="288"/>
@@ -52451,7 +52451,7 @@
       <c r="S25" s="258" t="s">
         <v>914</v>
       </c>
-      <c r="T25" s="691" t="s">
+      <c r="T25" s="681" t="s">
         <v>520</v>
       </c>
       <c r="U25" s="171" t="s">
@@ -52496,7 +52496,7 @@
       <c r="Q26" s="184"/>
       <c r="R26" s="188"/>
       <c r="S26" s="188"/>
-      <c r="T26" s="644"/>
+      <c r="T26" s="641"/>
       <c r="U26" s="171" t="s">
         <v>524</v>
       </c>
@@ -52760,32 +52760,32 @@
       <c r="E43" s="307"/>
     </row>
     <row r="44" spans="1:23" ht="14">
-      <c r="B44" s="695" t="s">
+      <c r="B44" s="684" t="s">
         <v>456</v>
       </c>
-      <c r="C44" s="644"/>
-      <c r="D44" s="644"/>
-      <c r="E44" s="644"/>
-      <c r="F44" s="644"/>
-      <c r="G44" s="644"/>
-      <c r="H44" s="644"/>
-      <c r="I44" s="644"/>
-      <c r="J44" s="644"/>
-      <c r="K44" s="695" t="s">
+      <c r="C44" s="641"/>
+      <c r="D44" s="641"/>
+      <c r="E44" s="641"/>
+      <c r="F44" s="641"/>
+      <c r="G44" s="641"/>
+      <c r="H44" s="641"/>
+      <c r="I44" s="641"/>
+      <c r="J44" s="641"/>
+      <c r="K44" s="684" t="s">
         <v>457</v>
       </c>
-      <c r="L44" s="644"/>
-      <c r="M44" s="644"/>
-      <c r="N44" s="644"/>
-      <c r="O44" s="644"/>
-      <c r="P44" s="644"/>
-      <c r="Q44" s="644"/>
-      <c r="R44" s="644"/>
-      <c r="S44" s="644"/>
-      <c r="T44" s="644"/>
-      <c r="U44" s="644"/>
-      <c r="V44" s="644"/>
-      <c r="W44" s="644"/>
+      <c r="L44" s="641"/>
+      <c r="M44" s="641"/>
+      <c r="N44" s="641"/>
+      <c r="O44" s="641"/>
+      <c r="P44" s="641"/>
+      <c r="Q44" s="641"/>
+      <c r="R44" s="641"/>
+      <c r="S44" s="641"/>
+      <c r="T44" s="641"/>
+      <c r="U44" s="641"/>
+      <c r="V44" s="641"/>
+      <c r="W44" s="641"/>
     </row>
     <row r="45" spans="1:23" ht="14">
       <c r="A45" s="253">
@@ -52821,12 +52821,12 @@
       </c>
       <c r="R45" s="678"/>
       <c r="S45" s="678"/>
-      <c r="T45" s="696" t="s">
+      <c r="T45" s="692" t="s">
         <v>519</v>
       </c>
-      <c r="U45" s="686"/>
-      <c r="V45" s="686"/>
-      <c r="W45" s="686"/>
+      <c r="U45" s="693"/>
+      <c r="V45" s="693"/>
+      <c r="W45" s="693"/>
     </row>
     <row r="46" spans="1:23" ht="15.35">
       <c r="A46" s="288"/>
@@ -52884,7 +52884,7 @@
       <c r="S46" s="287" t="s">
         <v>914</v>
       </c>
-      <c r="T46" s="701" t="s">
+      <c r="T46" s="689" t="s">
         <v>520</v>
       </c>
       <c r="U46" s="318" t="s">
@@ -52929,7 +52929,7 @@
       <c r="Q47" s="184"/>
       <c r="R47" s="188"/>
       <c r="S47" s="188"/>
-      <c r="T47" s="644"/>
+      <c r="T47" s="641"/>
       <c r="U47" s="171" t="s">
         <v>524</v>
       </c>
@@ -53161,32 +53161,32 @@
       <c r="C61" s="170"/>
     </row>
     <row r="62" spans="1:23" ht="14">
-      <c r="B62" s="695" t="s">
+      <c r="B62" s="684" t="s">
         <v>456</v>
       </c>
-      <c r="C62" s="644"/>
-      <c r="D62" s="644"/>
-      <c r="E62" s="644"/>
-      <c r="F62" s="644"/>
-      <c r="G62" s="644"/>
-      <c r="H62" s="644"/>
-      <c r="I62" s="644"/>
-      <c r="J62" s="644"/>
-      <c r="K62" s="695" t="s">
+      <c r="C62" s="641"/>
+      <c r="D62" s="641"/>
+      <c r="E62" s="641"/>
+      <c r="F62" s="641"/>
+      <c r="G62" s="641"/>
+      <c r="H62" s="641"/>
+      <c r="I62" s="641"/>
+      <c r="J62" s="641"/>
+      <c r="K62" s="684" t="s">
         <v>457</v>
       </c>
-      <c r="L62" s="644"/>
-      <c r="M62" s="644"/>
-      <c r="N62" s="644"/>
-      <c r="O62" s="644"/>
-      <c r="P62" s="644"/>
-      <c r="Q62" s="644"/>
-      <c r="R62" s="644"/>
-      <c r="S62" s="644"/>
-      <c r="T62" s="644"/>
-      <c r="U62" s="644"/>
-      <c r="V62" s="644"/>
-      <c r="W62" s="644"/>
+      <c r="L62" s="641"/>
+      <c r="M62" s="641"/>
+      <c r="N62" s="641"/>
+      <c r="O62" s="641"/>
+      <c r="P62" s="641"/>
+      <c r="Q62" s="641"/>
+      <c r="R62" s="641"/>
+      <c r="S62" s="641"/>
+      <c r="T62" s="641"/>
+      <c r="U62" s="641"/>
+      <c r="V62" s="641"/>
+      <c r="W62" s="641"/>
     </row>
     <row r="63" spans="1:23" ht="14">
       <c r="A63" s="253">
@@ -53222,12 +53222,12 @@
       </c>
       <c r="R63" s="678"/>
       <c r="S63" s="678"/>
-      <c r="T63" s="692" t="s">
+      <c r="T63" s="679" t="s">
         <v>519</v>
       </c>
-      <c r="U63" s="693"/>
-      <c r="V63" s="693"/>
-      <c r="W63" s="693"/>
+      <c r="U63" s="680"/>
+      <c r="V63" s="680"/>
+      <c r="W63" s="680"/>
     </row>
     <row r="64" spans="1:23" ht="15.35">
       <c r="A64" s="288"/>
@@ -53285,7 +53285,7 @@
       <c r="S64" s="254" t="s">
         <v>463</v>
       </c>
-      <c r="T64" s="691" t="s">
+      <c r="T64" s="681" t="s">
         <v>520</v>
       </c>
       <c r="U64" s="171" t="s">
@@ -53330,7 +53330,7 @@
       <c r="Q65" s="184"/>
       <c r="R65" s="184"/>
       <c r="S65" s="184"/>
-      <c r="T65" s="644"/>
+      <c r="T65" s="641"/>
       <c r="U65" s="171" t="s">
         <v>524</v>
       </c>
@@ -53595,32 +53595,32 @@
       </c>
     </row>
     <row r="85" spans="1:23" ht="14">
-      <c r="B85" s="694" t="s">
+      <c r="B85" s="685" t="s">
         <v>919</v>
       </c>
-      <c r="C85" s="644"/>
-      <c r="D85" s="644"/>
-      <c r="E85" s="644"/>
-      <c r="F85" s="644"/>
-      <c r="G85" s="644"/>
-      <c r="H85" s="644"/>
-      <c r="I85" s="644"/>
-      <c r="J85" s="644"/>
-      <c r="K85" s="694" t="s">
+      <c r="C85" s="641"/>
+      <c r="D85" s="641"/>
+      <c r="E85" s="641"/>
+      <c r="F85" s="641"/>
+      <c r="G85" s="641"/>
+      <c r="H85" s="641"/>
+      <c r="I85" s="641"/>
+      <c r="J85" s="641"/>
+      <c r="K85" s="685" t="s">
         <v>911</v>
       </c>
-      <c r="L85" s="644"/>
-      <c r="M85" s="644"/>
-      <c r="N85" s="644"/>
-      <c r="O85" s="644"/>
-      <c r="P85" s="644"/>
-      <c r="Q85" s="644"/>
-      <c r="R85" s="644"/>
-      <c r="S85" s="644"/>
-      <c r="T85" s="644"/>
-      <c r="U85" s="644"/>
-      <c r="V85" s="644"/>
-      <c r="W85" s="644"/>
+      <c r="L85" s="641"/>
+      <c r="M85" s="641"/>
+      <c r="N85" s="641"/>
+      <c r="O85" s="641"/>
+      <c r="P85" s="641"/>
+      <c r="Q85" s="641"/>
+      <c r="R85" s="641"/>
+      <c r="S85" s="641"/>
+      <c r="T85" s="641"/>
+      <c r="U85" s="641"/>
+      <c r="V85" s="641"/>
+      <c r="W85" s="641"/>
     </row>
     <row r="86" spans="1:23" ht="14">
       <c r="A86" s="253">
@@ -53631,17 +53631,17 @@
       </c>
       <c r="C86" s="673"/>
       <c r="D86" s="673"/>
-      <c r="E86" s="680" t="s">
+      <c r="E86" s="690" t="s">
         <v>920</v>
       </c>
       <c r="F86" s="675"/>
       <c r="G86" s="675"/>
-      <c r="H86" s="697" t="s">
+      <c r="H86" s="691" t="s">
         <v>921</v>
       </c>
       <c r="I86" s="677"/>
       <c r="J86" s="677"/>
-      <c r="K86" s="680" t="s">
+      <c r="K86" s="690" t="s">
         <v>922</v>
       </c>
       <c r="L86" s="678"/>
@@ -53656,12 +53656,12 @@
       </c>
       <c r="R86" s="678"/>
       <c r="S86" s="678"/>
-      <c r="T86" s="692" t="s">
+      <c r="T86" s="679" t="s">
         <v>519</v>
       </c>
-      <c r="U86" s="693"/>
-      <c r="V86" s="693"/>
-      <c r="W86" s="693"/>
+      <c r="U86" s="680"/>
+      <c r="V86" s="680"/>
+      <c r="W86" s="680"/>
     </row>
     <row r="87" spans="1:23" ht="15.35">
       <c r="A87" s="288"/>
@@ -53719,7 +53719,7 @@
       <c r="S87" s="254" t="s">
         <v>463</v>
       </c>
-      <c r="T87" s="691" t="s">
+      <c r="T87" s="681" t="s">
         <v>520</v>
       </c>
       <c r="U87" s="171" t="s">
@@ -53764,7 +53764,7 @@
       <c r="Q88" s="184"/>
       <c r="R88" s="184"/>
       <c r="S88" s="184"/>
-      <c r="T88" s="644"/>
+      <c r="T88" s="641"/>
       <c r="U88" s="171" t="s">
         <v>524</v>
       </c>
@@ -54028,32 +54028,32 @@
       <c r="C106" s="170"/>
     </row>
     <row r="107" spans="1:23" ht="14">
-      <c r="B107" s="694" t="s">
+      <c r="B107" s="685" t="s">
         <v>919</v>
       </c>
-      <c r="C107" s="644"/>
-      <c r="D107" s="644"/>
-      <c r="E107" s="644"/>
-      <c r="F107" s="644"/>
-      <c r="G107" s="644"/>
-      <c r="H107" s="644"/>
-      <c r="I107" s="644"/>
-      <c r="J107" s="644"/>
-      <c r="K107" s="695" t="s">
+      <c r="C107" s="641"/>
+      <c r="D107" s="641"/>
+      <c r="E107" s="641"/>
+      <c r="F107" s="641"/>
+      <c r="G107" s="641"/>
+      <c r="H107" s="641"/>
+      <c r="I107" s="641"/>
+      <c r="J107" s="641"/>
+      <c r="K107" s="684" t="s">
         <v>457</v>
       </c>
-      <c r="L107" s="644"/>
-      <c r="M107" s="644"/>
-      <c r="N107" s="644"/>
-      <c r="O107" s="644"/>
-      <c r="P107" s="644"/>
-      <c r="Q107" s="644"/>
-      <c r="R107" s="644"/>
-      <c r="S107" s="644"/>
-      <c r="T107" s="644"/>
-      <c r="U107" s="644"/>
-      <c r="V107" s="644"/>
-      <c r="W107" s="644"/>
+      <c r="L107" s="641"/>
+      <c r="M107" s="641"/>
+      <c r="N107" s="641"/>
+      <c r="O107" s="641"/>
+      <c r="P107" s="641"/>
+      <c r="Q107" s="641"/>
+      <c r="R107" s="641"/>
+      <c r="S107" s="641"/>
+      <c r="T107" s="641"/>
+      <c r="U107" s="641"/>
+      <c r="V107" s="641"/>
+      <c r="W107" s="641"/>
     </row>
     <row r="108" spans="1:23" ht="14">
       <c r="A108" s="253">
@@ -54064,7 +54064,7 @@
       </c>
       <c r="C108" s="673"/>
       <c r="D108" s="673"/>
-      <c r="E108" s="680" t="s">
+      <c r="E108" s="690" t="s">
         <v>920</v>
       </c>
       <c r="F108" s="675"/>
@@ -54089,12 +54089,12 @@
       </c>
       <c r="R108" s="678"/>
       <c r="S108" s="678"/>
-      <c r="T108" s="692" t="s">
+      <c r="T108" s="679" t="s">
         <v>519</v>
       </c>
-      <c r="U108" s="693"/>
-      <c r="V108" s="693"/>
-      <c r="W108" s="693"/>
+      <c r="U108" s="680"/>
+      <c r="V108" s="680"/>
+      <c r="W108" s="680"/>
     </row>
     <row r="109" spans="1:23" ht="15.35">
       <c r="A109" s="288"/>
@@ -54152,7 +54152,7 @@
       <c r="S109" s="346" t="s">
         <v>463</v>
       </c>
-      <c r="T109" s="691" t="s">
+      <c r="T109" s="681" t="s">
         <v>520</v>
       </c>
       <c r="U109" s="171" t="s">
@@ -54197,7 +54197,7 @@
       <c r="Q110" s="184"/>
       <c r="R110" s="184"/>
       <c r="S110" s="184"/>
-      <c r="T110" s="644"/>
+      <c r="T110" s="641"/>
       <c r="U110" s="171" t="s">
         <v>524</v>
       </c>
@@ -54411,32 +54411,32 @@
       </c>
     </row>
     <row r="128" spans="1:23" ht="14">
-      <c r="B128" s="695" t="s">
+      <c r="B128" s="684" t="s">
         <v>456</v>
       </c>
-      <c r="C128" s="644"/>
-      <c r="D128" s="644"/>
-      <c r="E128" s="644"/>
-      <c r="F128" s="644"/>
-      <c r="G128" s="644"/>
-      <c r="H128" s="644"/>
-      <c r="I128" s="644"/>
-      <c r="J128" s="644"/>
-      <c r="K128" s="695" t="s">
+      <c r="C128" s="641"/>
+      <c r="D128" s="641"/>
+      <c r="E128" s="641"/>
+      <c r="F128" s="641"/>
+      <c r="G128" s="641"/>
+      <c r="H128" s="641"/>
+      <c r="I128" s="641"/>
+      <c r="J128" s="641"/>
+      <c r="K128" s="684" t="s">
         <v>457</v>
       </c>
-      <c r="L128" s="644"/>
-      <c r="M128" s="644"/>
-      <c r="N128" s="644"/>
-      <c r="O128" s="644"/>
-      <c r="P128" s="644"/>
-      <c r="Q128" s="644"/>
-      <c r="R128" s="644"/>
-      <c r="S128" s="644"/>
-      <c r="T128" s="644"/>
-      <c r="U128" s="644"/>
-      <c r="V128" s="644"/>
-      <c r="W128" s="644"/>
+      <c r="L128" s="641"/>
+      <c r="M128" s="641"/>
+      <c r="N128" s="641"/>
+      <c r="O128" s="641"/>
+      <c r="P128" s="641"/>
+      <c r="Q128" s="641"/>
+      <c r="R128" s="641"/>
+      <c r="S128" s="641"/>
+      <c r="T128" s="641"/>
+      <c r="U128" s="641"/>
+      <c r="V128" s="641"/>
+      <c r="W128" s="641"/>
     </row>
     <row r="129" spans="1:23" ht="14">
       <c r="A129" s="253">
@@ -54472,12 +54472,12 @@
       </c>
       <c r="R129" s="678"/>
       <c r="S129" s="678"/>
-      <c r="T129" s="692" t="s">
+      <c r="T129" s="679" t="s">
         <v>519</v>
       </c>
-      <c r="U129" s="693"/>
-      <c r="V129" s="693"/>
-      <c r="W129" s="693"/>
+      <c r="U129" s="680"/>
+      <c r="V129" s="680"/>
+      <c r="W129" s="680"/>
     </row>
     <row r="130" spans="1:23" ht="15.35">
       <c r="A130" s="288"/>
@@ -54535,7 +54535,7 @@
       <c r="S130" s="346" t="s">
         <v>463</v>
       </c>
-      <c r="T130" s="691" t="s">
+      <c r="T130" s="681" t="s">
         <v>520</v>
       </c>
       <c r="U130" s="171" t="s">
@@ -54580,7 +54580,7 @@
       <c r="Q131" s="184"/>
       <c r="R131" s="184"/>
       <c r="S131" s="184"/>
-      <c r="T131" s="644"/>
+      <c r="T131" s="641"/>
       <c r="U131" s="171" t="s">
         <v>524</v>
       </c>
@@ -54780,32 +54780,32 @@
       </c>
     </row>
     <row r="142" spans="1:23" ht="14">
-      <c r="B142" s="695" t="s">
+      <c r="B142" s="684" t="s">
         <v>456</v>
       </c>
-      <c r="C142" s="644"/>
-      <c r="D142" s="644"/>
-      <c r="E142" s="644"/>
-      <c r="F142" s="644"/>
-      <c r="G142" s="644"/>
-      <c r="H142" s="644"/>
-      <c r="I142" s="644"/>
-      <c r="J142" s="644"/>
-      <c r="K142" s="695" t="s">
+      <c r="C142" s="641"/>
+      <c r="D142" s="641"/>
+      <c r="E142" s="641"/>
+      <c r="F142" s="641"/>
+      <c r="G142" s="641"/>
+      <c r="H142" s="641"/>
+      <c r="I142" s="641"/>
+      <c r="J142" s="641"/>
+      <c r="K142" s="684" t="s">
         <v>457</v>
       </c>
-      <c r="L142" s="644"/>
-      <c r="M142" s="644"/>
-      <c r="N142" s="644"/>
-      <c r="O142" s="644"/>
-      <c r="P142" s="644"/>
-      <c r="Q142" s="644"/>
-      <c r="R142" s="644"/>
-      <c r="S142" s="644"/>
-      <c r="T142" s="644"/>
-      <c r="U142" s="644"/>
-      <c r="V142" s="644"/>
-      <c r="W142" s="644"/>
+      <c r="L142" s="641"/>
+      <c r="M142" s="641"/>
+      <c r="N142" s="641"/>
+      <c r="O142" s="641"/>
+      <c r="P142" s="641"/>
+      <c r="Q142" s="641"/>
+      <c r="R142" s="641"/>
+      <c r="S142" s="641"/>
+      <c r="T142" s="641"/>
+      <c r="U142" s="641"/>
+      <c r="V142" s="641"/>
+      <c r="W142" s="641"/>
     </row>
     <row r="143" spans="1:23" ht="14">
       <c r="A143" s="253">
@@ -54839,14 +54839,14 @@
       <c r="Q143" s="674" t="s">
         <v>916</v>
       </c>
-      <c r="R143" s="679"/>
-      <c r="S143" s="679"/>
-      <c r="T143" s="692" t="s">
+      <c r="R143" s="701"/>
+      <c r="S143" s="701"/>
+      <c r="T143" s="679" t="s">
         <v>519</v>
       </c>
-      <c r="U143" s="693"/>
-      <c r="V143" s="693"/>
-      <c r="W143" s="693"/>
+      <c r="U143" s="680"/>
+      <c r="V143" s="680"/>
+      <c r="W143" s="680"/>
     </row>
     <row r="144" spans="1:23" ht="15.35">
       <c r="A144" s="288"/>
@@ -54904,7 +54904,7 @@
       <c r="S144" s="254" t="s">
         <v>463</v>
       </c>
-      <c r="T144" s="691" t="s">
+      <c r="T144" s="681" t="s">
         <v>520</v>
       </c>
       <c r="U144" s="171" t="s">
@@ -54949,7 +54949,7 @@
       <c r="Q145" s="184"/>
       <c r="R145" s="184"/>
       <c r="S145" s="184"/>
-      <c r="T145" s="644"/>
+      <c r="T145" s="641"/>
       <c r="U145" s="171" t="s">
         <v>524</v>
       </c>
@@ -55141,32 +55141,32 @@
       </c>
     </row>
     <row r="157" spans="1:23" ht="14">
-      <c r="B157" s="700" t="s">
+      <c r="B157" s="686" t="s">
         <v>456</v>
       </c>
-      <c r="C157" s="684"/>
-      <c r="D157" s="684"/>
-      <c r="E157" s="684"/>
-      <c r="F157" s="684"/>
-      <c r="G157" s="684"/>
-      <c r="H157" s="684"/>
-      <c r="I157" s="684"/>
-      <c r="J157" s="684"/>
-      <c r="K157" s="683" t="s">
+      <c r="C157" s="687"/>
+      <c r="D157" s="687"/>
+      <c r="E157" s="687"/>
+      <c r="F157" s="687"/>
+      <c r="G157" s="687"/>
+      <c r="H157" s="687"/>
+      <c r="I157" s="687"/>
+      <c r="J157" s="687"/>
+      <c r="K157" s="688" t="s">
         <v>911</v>
       </c>
-      <c r="L157" s="684"/>
-      <c r="M157" s="684"/>
-      <c r="N157" s="684"/>
-      <c r="O157" s="684"/>
-      <c r="P157" s="684"/>
-      <c r="Q157" s="684"/>
-      <c r="R157" s="684"/>
-      <c r="S157" s="684"/>
-      <c r="T157" s="684"/>
-      <c r="U157" s="684"/>
-      <c r="V157" s="684"/>
-      <c r="W157" s="684"/>
+      <c r="L157" s="687"/>
+      <c r="M157" s="687"/>
+      <c r="N157" s="687"/>
+      <c r="O157" s="687"/>
+      <c r="P157" s="687"/>
+      <c r="Q157" s="687"/>
+      <c r="R157" s="687"/>
+      <c r="S157" s="687"/>
+      <c r="T157" s="687"/>
+      <c r="U157" s="687"/>
+      <c r="V157" s="687"/>
+      <c r="W157" s="687"/>
     </row>
     <row r="158" spans="1:23" ht="14">
       <c r="A158" s="253">
@@ -55202,12 +55202,12 @@
       </c>
       <c r="R158" s="678"/>
       <c r="S158" s="678"/>
-      <c r="T158" s="692" t="s">
+      <c r="T158" s="679" t="s">
         <v>519</v>
       </c>
-      <c r="U158" s="693"/>
-      <c r="V158" s="693"/>
-      <c r="W158" s="693"/>
+      <c r="U158" s="680"/>
+      <c r="V158" s="680"/>
+      <c r="W158" s="680"/>
     </row>
     <row r="159" spans="1:23" ht="15.35">
       <c r="A159" s="288"/>
@@ -55265,7 +55265,7 @@
       <c r="S159" s="258" t="s">
         <v>914</v>
       </c>
-      <c r="T159" s="691" t="s">
+      <c r="T159" s="681" t="s">
         <v>520</v>
       </c>
       <c r="U159" s="171" t="s">
@@ -55310,7 +55310,7 @@
       <c r="Q160" s="321"/>
       <c r="R160" s="275"/>
       <c r="S160" s="275"/>
-      <c r="T160" s="644"/>
+      <c r="T160" s="641"/>
       <c r="U160" s="171"/>
       <c r="V160" s="266"/>
       <c r="W160" s="266"/>
@@ -55347,7 +55347,7 @@
       <c r="Q161" s="184"/>
       <c r="R161" s="188"/>
       <c r="S161" s="188"/>
-      <c r="T161" s="644"/>
+      <c r="T161" s="641"/>
       <c r="U161" s="171" t="s">
         <v>524</v>
       </c>
@@ -55548,32 +55548,32 @@
     </row>
     <row r="172" spans="1:23" ht="14">
       <c r="A172" s="293"/>
-      <c r="B172" s="695" t="s">
+      <c r="B172" s="684" t="s">
         <v>456</v>
       </c>
-      <c r="C172" s="644"/>
-      <c r="D172" s="644"/>
-      <c r="E172" s="644"/>
-      <c r="F172" s="644"/>
-      <c r="G172" s="644"/>
-      <c r="H172" s="644"/>
-      <c r="I172" s="644"/>
-      <c r="J172" s="644"/>
-      <c r="K172" s="694" t="s">
+      <c r="C172" s="641"/>
+      <c r="D172" s="641"/>
+      <c r="E172" s="641"/>
+      <c r="F172" s="641"/>
+      <c r="G172" s="641"/>
+      <c r="H172" s="641"/>
+      <c r="I172" s="641"/>
+      <c r="J172" s="641"/>
+      <c r="K172" s="685" t="s">
         <v>911</v>
       </c>
-      <c r="L172" s="644"/>
-      <c r="M172" s="644"/>
-      <c r="N172" s="644"/>
-      <c r="O172" s="644"/>
-      <c r="P172" s="644"/>
-      <c r="Q172" s="644"/>
-      <c r="R172" s="644"/>
-      <c r="S172" s="644"/>
-      <c r="T172" s="644"/>
-      <c r="U172" s="644"/>
-      <c r="V172" s="644"/>
-      <c r="W172" s="644"/>
+      <c r="L172" s="641"/>
+      <c r="M172" s="641"/>
+      <c r="N172" s="641"/>
+      <c r="O172" s="641"/>
+      <c r="P172" s="641"/>
+      <c r="Q172" s="641"/>
+      <c r="R172" s="641"/>
+      <c r="S172" s="641"/>
+      <c r="T172" s="641"/>
+      <c r="U172" s="641"/>
+      <c r="V172" s="641"/>
+      <c r="W172" s="641"/>
     </row>
     <row r="173" spans="1:23" ht="14">
       <c r="A173" s="293"/>
@@ -55607,12 +55607,12 @@
       </c>
       <c r="R173" s="678"/>
       <c r="S173" s="678"/>
-      <c r="T173" s="692" t="s">
+      <c r="T173" s="679" t="s">
         <v>519</v>
       </c>
-      <c r="U173" s="693"/>
-      <c r="V173" s="693"/>
-      <c r="W173" s="693"/>
+      <c r="U173" s="680"/>
+      <c r="V173" s="680"/>
+      <c r="W173" s="680"/>
     </row>
     <row r="174" spans="1:23" ht="15.35">
       <c r="A174" s="293"/>
@@ -55670,7 +55670,7 @@
       <c r="S174" s="258" t="s">
         <v>914</v>
       </c>
-      <c r="T174" s="691" t="s">
+      <c r="T174" s="681" t="s">
         <v>520</v>
       </c>
       <c r="U174" s="171" t="s">
@@ -55715,7 +55715,7 @@
       <c r="Q175" s="184"/>
       <c r="R175" s="188"/>
       <c r="S175" s="188"/>
-      <c r="T175" s="644"/>
+      <c r="T175" s="641"/>
       <c r="U175" s="171" t="s">
         <v>524</v>
       </c>
@@ -57861,15 +57861,74 @@
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="B173:D173"/>
-    <mergeCell ref="E173:G173"/>
-    <mergeCell ref="H173:J173"/>
-    <mergeCell ref="K173:M173"/>
-    <mergeCell ref="N173:P173"/>
-    <mergeCell ref="Q173:S173"/>
-    <mergeCell ref="T173:W173"/>
-    <mergeCell ref="T174:T175"/>
-    <mergeCell ref="T159:T161"/>
+    <mergeCell ref="B143:D143"/>
+    <mergeCell ref="E143:G143"/>
+    <mergeCell ref="H143:J143"/>
+    <mergeCell ref="K143:M143"/>
+    <mergeCell ref="N143:P143"/>
+    <mergeCell ref="Q143:S143"/>
+    <mergeCell ref="K108:M108"/>
+    <mergeCell ref="H108:J108"/>
+    <mergeCell ref="E108:G108"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="Q129:S129"/>
+    <mergeCell ref="B129:D129"/>
+    <mergeCell ref="E129:G129"/>
+    <mergeCell ref="H129:J129"/>
+    <mergeCell ref="K129:M129"/>
+    <mergeCell ref="N129:P129"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="K3:W3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="K23:W23"/>
+    <mergeCell ref="B44:J44"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="T45:W45"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="K62:W62"/>
+    <mergeCell ref="B85:J85"/>
+    <mergeCell ref="B107:J107"/>
+    <mergeCell ref="B128:J128"/>
+    <mergeCell ref="N86:P86"/>
+    <mergeCell ref="Q86:S86"/>
+    <mergeCell ref="T86:W86"/>
+    <mergeCell ref="T87:T88"/>
+    <mergeCell ref="K85:W85"/>
+    <mergeCell ref="N108:P108"/>
+    <mergeCell ref="Q108:S108"/>
+    <mergeCell ref="T108:W108"/>
+    <mergeCell ref="T109:T110"/>
+    <mergeCell ref="K107:W107"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="K63:M63"/>
+    <mergeCell ref="N63:P63"/>
+    <mergeCell ref="Q63:S63"/>
+    <mergeCell ref="K86:M86"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="B86:D86"/>
     <mergeCell ref="B158:D158"/>
     <mergeCell ref="E158:G158"/>
     <mergeCell ref="H158:J158"/>
@@ -57894,74 +57953,15 @@
     <mergeCell ref="B62:J62"/>
     <mergeCell ref="T63:W63"/>
     <mergeCell ref="T64:T65"/>
-    <mergeCell ref="K62:W62"/>
-    <mergeCell ref="B85:J85"/>
-    <mergeCell ref="B107:J107"/>
-    <mergeCell ref="B128:J128"/>
-    <mergeCell ref="N86:P86"/>
-    <mergeCell ref="Q86:S86"/>
-    <mergeCell ref="T86:W86"/>
-    <mergeCell ref="T87:T88"/>
-    <mergeCell ref="K85:W85"/>
-    <mergeCell ref="N108:P108"/>
-    <mergeCell ref="Q108:S108"/>
-    <mergeCell ref="T108:W108"/>
-    <mergeCell ref="T109:T110"/>
-    <mergeCell ref="K107:W107"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="K63:M63"/>
-    <mergeCell ref="N63:P63"/>
-    <mergeCell ref="Q63:S63"/>
-    <mergeCell ref="K86:M86"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="K23:W23"/>
-    <mergeCell ref="B44:J44"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="T45:W45"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="K3:W3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="B143:D143"/>
-    <mergeCell ref="E143:G143"/>
-    <mergeCell ref="H143:J143"/>
-    <mergeCell ref="K143:M143"/>
-    <mergeCell ref="N143:P143"/>
-    <mergeCell ref="Q143:S143"/>
-    <mergeCell ref="K108:M108"/>
-    <mergeCell ref="H108:J108"/>
-    <mergeCell ref="E108:G108"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="Q129:S129"/>
-    <mergeCell ref="B129:D129"/>
-    <mergeCell ref="E129:G129"/>
-    <mergeCell ref="H129:J129"/>
-    <mergeCell ref="K129:M129"/>
-    <mergeCell ref="N129:P129"/>
+    <mergeCell ref="B173:D173"/>
+    <mergeCell ref="E173:G173"/>
+    <mergeCell ref="H173:J173"/>
+    <mergeCell ref="K173:M173"/>
+    <mergeCell ref="N173:P173"/>
+    <mergeCell ref="Q173:S173"/>
+    <mergeCell ref="T173:W173"/>
+    <mergeCell ref="T174:T175"/>
+    <mergeCell ref="T159:T161"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -58002,31 +58002,31 @@
       <c r="A2" s="196" t="s">
         <v>455</v>
       </c>
-      <c r="B2" s="704" t="s">
+      <c r="B2" s="709" t="s">
         <v>456</v>
       </c>
-      <c r="C2" s="705"/>
-      <c r="D2" s="705"/>
-      <c r="E2" s="706" t="s">
+      <c r="C2" s="710"/>
+      <c r="D2" s="710"/>
+      <c r="E2" s="711" t="s">
         <v>457</v>
       </c>
-      <c r="F2" s="688"/>
-      <c r="G2" s="688"/>
+      <c r="F2" s="698"/>
+      <c r="G2" s="698"/>
     </row>
     <row r="3" spans="1:7" ht="14">
       <c r="A3" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B3" s="702" t="s">
+      <c r="B3" s="707" t="s">
         <v>459</v>
       </c>
-      <c r="C3" s="686"/>
-      <c r="D3" s="686"/>
-      <c r="E3" s="703" t="s">
+      <c r="C3" s="693"/>
+      <c r="D3" s="693"/>
+      <c r="E3" s="708" t="s">
         <v>460</v>
       </c>
-      <c r="F3" s="686"/>
-      <c r="G3" s="686"/>
+      <c r="F3" s="693"/>
+      <c r="G3" s="693"/>
     </row>
     <row r="4" spans="1:7" ht="15.35">
       <c r="A4" s="197"/>
@@ -58163,31 +58163,31 @@
       <c r="A13" s="196" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="704" t="s">
+      <c r="B13" s="709" t="s">
         <v>456</v>
       </c>
-      <c r="C13" s="705"/>
-      <c r="D13" s="705"/>
-      <c r="E13" s="706" t="s">
+      <c r="C13" s="710"/>
+      <c r="D13" s="710"/>
+      <c r="E13" s="711" t="s">
         <v>457</v>
       </c>
-      <c r="F13" s="688"/>
-      <c r="G13" s="688"/>
+      <c r="F13" s="698"/>
+      <c r="G13" s="698"/>
     </row>
     <row r="14" spans="1:7" ht="14">
       <c r="A14" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B14" s="702" t="s">
+      <c r="B14" s="707" t="s">
         <v>459</v>
       </c>
-      <c r="C14" s="686"/>
-      <c r="D14" s="686"/>
-      <c r="E14" s="703" t="s">
+      <c r="C14" s="693"/>
+      <c r="D14" s="693"/>
+      <c r="E14" s="708" t="s">
         <v>460</v>
       </c>
-      <c r="F14" s="686"/>
-      <c r="G14" s="686"/>
+      <c r="F14" s="693"/>
+      <c r="G14" s="693"/>
     </row>
     <row r="15" spans="1:7" ht="15.35">
       <c r="A15" s="197"/>
@@ -58342,31 +58342,31 @@
       <c r="A24" s="196" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="704" t="s">
+      <c r="B24" s="709" t="s">
         <v>456</v>
       </c>
-      <c r="C24" s="705"/>
-      <c r="D24" s="705"/>
-      <c r="E24" s="706" t="s">
+      <c r="C24" s="710"/>
+      <c r="D24" s="710"/>
+      <c r="E24" s="711" t="s">
         <v>457</v>
       </c>
-      <c r="F24" s="688"/>
-      <c r="G24" s="688"/>
+      <c r="F24" s="698"/>
+      <c r="G24" s="698"/>
     </row>
     <row r="25" spans="1:7" ht="14">
       <c r="A25" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B25" s="702" t="s">
+      <c r="B25" s="707" t="s">
         <v>459</v>
       </c>
-      <c r="C25" s="686"/>
-      <c r="D25" s="686"/>
-      <c r="E25" s="703" t="s">
+      <c r="C25" s="693"/>
+      <c r="D25" s="693"/>
+      <c r="E25" s="708" t="s">
         <v>460</v>
       </c>
-      <c r="F25" s="686"/>
-      <c r="G25" s="686"/>
+      <c r="F25" s="693"/>
+      <c r="G25" s="693"/>
     </row>
     <row r="26" spans="1:7" ht="15.35">
       <c r="A26" s="197"/>
@@ -58503,31 +58503,31 @@
       <c r="A35" s="196" t="s">
         <v>92</v>
       </c>
-      <c r="B35" s="704" t="s">
+      <c r="B35" s="709" t="s">
         <v>456</v>
       </c>
-      <c r="C35" s="705"/>
-      <c r="D35" s="705"/>
-      <c r="E35" s="706" t="s">
+      <c r="C35" s="710"/>
+      <c r="D35" s="710"/>
+      <c r="E35" s="711" t="s">
         <v>457</v>
       </c>
-      <c r="F35" s="688"/>
-      <c r="G35" s="688"/>
+      <c r="F35" s="698"/>
+      <c r="G35" s="698"/>
     </row>
     <row r="36" spans="1:8" ht="25.35">
       <c r="A36" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B36" s="702" t="s">
+      <c r="B36" s="707" t="s">
         <v>459</v>
       </c>
-      <c r="C36" s="686"/>
-      <c r="D36" s="686"/>
-      <c r="E36" s="703" t="s">
+      <c r="C36" s="693"/>
+      <c r="D36" s="693"/>
+      <c r="E36" s="708" t="s">
         <v>460</v>
       </c>
-      <c r="F36" s="686"/>
-      <c r="G36" s="686"/>
+      <c r="F36" s="693"/>
+      <c r="G36" s="693"/>
     </row>
     <row r="37" spans="1:8" ht="15.35">
       <c r="B37" s="198" t="s">
@@ -58659,31 +58659,31 @@
       <c r="A48" s="196" t="s">
         <v>99</v>
       </c>
-      <c r="B48" s="704" t="s">
+      <c r="B48" s="709" t="s">
         <v>456</v>
       </c>
-      <c r="C48" s="705"/>
-      <c r="D48" s="705"/>
-      <c r="E48" s="706" t="s">
+      <c r="C48" s="710"/>
+      <c r="D48" s="710"/>
+      <c r="E48" s="711" t="s">
         <v>457</v>
       </c>
-      <c r="F48" s="688"/>
-      <c r="G48" s="688"/>
+      <c r="F48" s="698"/>
+      <c r="G48" s="698"/>
     </row>
     <row r="49" spans="1:8" ht="25.35">
       <c r="A49" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B49" s="702" t="s">
+      <c r="B49" s="707" t="s">
         <v>459</v>
       </c>
-      <c r="C49" s="686"/>
-      <c r="D49" s="686"/>
-      <c r="E49" s="703" t="s">
+      <c r="C49" s="693"/>
+      <c r="D49" s="693"/>
+      <c r="E49" s="708" t="s">
         <v>460</v>
       </c>
-      <c r="F49" s="686"/>
-      <c r="G49" s="686"/>
+      <c r="F49" s="693"/>
+      <c r="G49" s="693"/>
     </row>
     <row r="50" spans="1:8" ht="15.35">
       <c r="B50" s="198" t="s">
@@ -58815,31 +58815,31 @@
       <c r="A62" s="196" t="s">
         <v>104</v>
       </c>
-      <c r="B62" s="704" t="s">
+      <c r="B62" s="709" t="s">
         <v>456</v>
       </c>
-      <c r="C62" s="705"/>
-      <c r="D62" s="705"/>
-      <c r="E62" s="706" t="s">
+      <c r="C62" s="710"/>
+      <c r="D62" s="710"/>
+      <c r="E62" s="711" t="s">
         <v>457</v>
       </c>
-      <c r="F62" s="688"/>
-      <c r="G62" s="688"/>
+      <c r="F62" s="698"/>
+      <c r="G62" s="698"/>
     </row>
     <row r="63" spans="1:8" ht="25.35">
       <c r="A63" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B63" s="702" t="s">
+      <c r="B63" s="707" t="s">
         <v>459</v>
       </c>
-      <c r="C63" s="686"/>
-      <c r="D63" s="686"/>
-      <c r="E63" s="703" t="s">
+      <c r="C63" s="693"/>
+      <c r="D63" s="693"/>
+      <c r="E63" s="708" t="s">
         <v>460</v>
       </c>
-      <c r="F63" s="686"/>
-      <c r="G63" s="686"/>
+      <c r="F63" s="693"/>
+      <c r="G63" s="693"/>
     </row>
     <row r="64" spans="1:8" ht="15.35">
       <c r="B64" s="198" t="s">
@@ -58964,31 +58964,31 @@
       <c r="A79" s="191" t="s">
         <v>91</v>
       </c>
-      <c r="B79" s="704" t="s">
+      <c r="B79" s="709" t="s">
         <v>456</v>
       </c>
-      <c r="C79" s="705"/>
-      <c r="D79" s="705"/>
-      <c r="E79" s="706" t="s">
+      <c r="C79" s="710"/>
+      <c r="D79" s="710"/>
+      <c r="E79" s="711" t="s">
         <v>457</v>
       </c>
-      <c r="F79" s="688"/>
-      <c r="G79" s="688"/>
+      <c r="F79" s="698"/>
+      <c r="G79" s="698"/>
     </row>
     <row r="80" spans="1:9" ht="27.35">
       <c r="A80" s="196" t="s">
         <v>114</v>
       </c>
-      <c r="B80" s="702" t="s">
+      <c r="B80" s="707" t="s">
         <v>459</v>
       </c>
-      <c r="C80" s="686"/>
-      <c r="D80" s="686"/>
-      <c r="E80" s="703" t="s">
+      <c r="C80" s="693"/>
+      <c r="D80" s="693"/>
+      <c r="E80" s="708" t="s">
         <v>460</v>
       </c>
-      <c r="F80" s="686"/>
-      <c r="G80" s="686"/>
+      <c r="F80" s="693"/>
+      <c r="G80" s="693"/>
     </row>
     <row r="81" spans="1:7" ht="25.35">
       <c r="A81" s="10" t="s">
@@ -59126,31 +59126,31 @@
       <c r="A99" s="196" t="s">
         <v>119</v>
       </c>
-      <c r="B99" s="704" t="s">
+      <c r="B99" s="709" t="s">
         <v>456</v>
       </c>
-      <c r="C99" s="705"/>
-      <c r="D99" s="705"/>
-      <c r="E99" s="706" t="s">
+      <c r="C99" s="710"/>
+      <c r="D99" s="710"/>
+      <c r="E99" s="711" t="s">
         <v>457</v>
       </c>
-      <c r="F99" s="688"/>
-      <c r="G99" s="688"/>
+      <c r="F99" s="698"/>
+      <c r="G99" s="698"/>
     </row>
     <row r="100" spans="1:7" ht="14">
       <c r="A100" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B100" s="702" t="s">
+      <c r="B100" s="707" t="s">
         <v>459</v>
       </c>
-      <c r="C100" s="686"/>
-      <c r="D100" s="686"/>
-      <c r="E100" s="703" t="s">
+      <c r="C100" s="693"/>
+      <c r="D100" s="693"/>
+      <c r="E100" s="708" t="s">
         <v>460</v>
       </c>
-      <c r="F100" s="686"/>
-      <c r="G100" s="686"/>
+      <c r="F100" s="693"/>
+      <c r="G100" s="693"/>
     </row>
     <row r="101" spans="1:7" ht="15.35">
       <c r="A101" s="197"/>
@@ -59308,31 +59308,31 @@
       <c r="A112" s="196" t="s">
         <v>146</v>
       </c>
-      <c r="B112" s="704" t="s">
+      <c r="B112" s="709" t="s">
         <v>456</v>
       </c>
-      <c r="C112" s="705"/>
-      <c r="D112" s="705"/>
-      <c r="E112" s="706" t="s">
+      <c r="C112" s="710"/>
+      <c r="D112" s="710"/>
+      <c r="E112" s="711" t="s">
         <v>457</v>
       </c>
-      <c r="F112" s="688"/>
-      <c r="G112" s="688"/>
+      <c r="F112" s="698"/>
+      <c r="G112" s="698"/>
     </row>
     <row r="113" spans="1:7" ht="14">
       <c r="A113" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B113" s="702" t="s">
+      <c r="B113" s="707" t="s">
         <v>459</v>
       </c>
-      <c r="C113" s="686"/>
-      <c r="D113" s="686"/>
-      <c r="E113" s="703" t="s">
+      <c r="C113" s="693"/>
+      <c r="D113" s="693"/>
+      <c r="E113" s="708" t="s">
         <v>460</v>
       </c>
-      <c r="F113" s="686"/>
-      <c r="G113" s="686"/>
+      <c r="F113" s="693"/>
+      <c r="G113" s="693"/>
     </row>
     <row r="114" spans="1:7" ht="15.35">
       <c r="A114" s="197"/>
@@ -59461,31 +59461,31 @@
       <c r="A123" s="196" t="s">
         <v>163</v>
       </c>
-      <c r="B123" s="713" t="s">
+      <c r="B123" s="702" t="s">
         <v>456</v>
       </c>
-      <c r="C123" s="714"/>
-      <c r="D123" s="714"/>
-      <c r="E123" s="715" t="s">
+      <c r="C123" s="703"/>
+      <c r="D123" s="703"/>
+      <c r="E123" s="704" t="s">
         <v>457</v>
       </c>
-      <c r="F123" s="716"/>
-      <c r="G123" s="716"/>
+      <c r="F123" s="705"/>
+      <c r="G123" s="705"/>
     </row>
     <row r="124" spans="1:7" ht="14.35">
       <c r="A124" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B124" s="709" t="s">
+      <c r="B124" s="714" t="s">
         <v>459</v>
       </c>
-      <c r="C124" s="710"/>
-      <c r="D124" s="710"/>
-      <c r="E124" s="711" t="s">
+      <c r="C124" s="715"/>
+      <c r="D124" s="715"/>
+      <c r="E124" s="716" t="s">
         <v>460</v>
       </c>
-      <c r="F124" s="712"/>
-      <c r="G124" s="712"/>
+      <c r="F124" s="717"/>
+      <c r="G124" s="717"/>
     </row>
     <row r="125" spans="1:7" ht="14.35">
       <c r="A125" s="197"/>
@@ -59675,31 +59675,31 @@
       <c r="A136" s="196" t="s">
         <v>167</v>
       </c>
-      <c r="B136" s="704" t="s">
+      <c r="B136" s="709" t="s">
         <v>456</v>
       </c>
-      <c r="C136" s="705"/>
-      <c r="D136" s="705"/>
-      <c r="E136" s="706" t="s">
+      <c r="C136" s="710"/>
+      <c r="D136" s="710"/>
+      <c r="E136" s="711" t="s">
         <v>457</v>
       </c>
-      <c r="F136" s="707"/>
-      <c r="G136" s="707"/>
+      <c r="F136" s="712"/>
+      <c r="G136" s="712"/>
     </row>
     <row r="137" spans="1:7" ht="14">
       <c r="A137" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B137" s="704" t="s">
+      <c r="B137" s="709" t="s">
         <v>459</v>
       </c>
-      <c r="C137" s="707"/>
-      <c r="D137" s="708"/>
-      <c r="E137" s="706" t="s">
+      <c r="C137" s="712"/>
+      <c r="D137" s="713"/>
+      <c r="E137" s="711" t="s">
         <v>460</v>
       </c>
-      <c r="F137" s="707"/>
-      <c r="G137" s="707"/>
+      <c r="F137" s="712"/>
+      <c r="G137" s="712"/>
     </row>
     <row r="138" spans="1:7" ht="15.35">
       <c r="A138" s="197"/>
@@ -59843,31 +59843,31 @@
       <c r="A152" s="196" t="s">
         <v>186</v>
       </c>
-      <c r="B152" s="713" t="s">
+      <c r="B152" s="702" t="s">
         <v>456</v>
       </c>
-      <c r="C152" s="714"/>
-      <c r="D152" s="714"/>
-      <c r="E152" s="715" t="s">
+      <c r="C152" s="703"/>
+      <c r="D152" s="703"/>
+      <c r="E152" s="704" t="s">
         <v>457</v>
       </c>
-      <c r="F152" s="716"/>
-      <c r="G152" s="716"/>
+      <c r="F152" s="705"/>
+      <c r="G152" s="705"/>
     </row>
     <row r="153" spans="1:7" ht="21" customHeight="1">
       <c r="A153" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B153" s="713" t="s">
+      <c r="B153" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C153" s="714"/>
-      <c r="D153" s="714"/>
-      <c r="E153" s="715" t="s">
+      <c r="C153" s="703"/>
+      <c r="D153" s="703"/>
+      <c r="E153" s="704" t="s">
         <v>460</v>
       </c>
-      <c r="F153" s="716"/>
-      <c r="G153" s="716"/>
+      <c r="F153" s="705"/>
+      <c r="G153" s="705"/>
     </row>
     <row r="154" spans="1:7" ht="14.35">
       <c r="B154" s="220" t="s">
@@ -60143,31 +60143,31 @@
       <c r="A171" s="196" t="s">
         <v>208</v>
       </c>
-      <c r="B171" s="713" t="s">
+      <c r="B171" s="702" t="s">
         <v>456</v>
       </c>
-      <c r="C171" s="714"/>
-      <c r="D171" s="714"/>
-      <c r="E171" s="715" t="s">
+      <c r="C171" s="703"/>
+      <c r="D171" s="703"/>
+      <c r="E171" s="704" t="s">
         <v>457</v>
       </c>
-      <c r="F171" s="716"/>
-      <c r="G171" s="716"/>
+      <c r="F171" s="705"/>
+      <c r="G171" s="705"/>
     </row>
     <row r="172" spans="1:7" ht="27.35">
       <c r="A172" s="197" t="s">
         <v>476</v>
       </c>
-      <c r="B172" s="713" t="s">
+      <c r="B172" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C172" s="714"/>
-      <c r="D172" s="714"/>
-      <c r="E172" s="715" t="s">
+      <c r="C172" s="703"/>
+      <c r="D172" s="703"/>
+      <c r="E172" s="704" t="s">
         <v>460</v>
       </c>
-      <c r="F172" s="716"/>
-      <c r="G172" s="716"/>
+      <c r="F172" s="705"/>
+      <c r="G172" s="705"/>
     </row>
     <row r="173" spans="1:7" ht="14.35">
       <c r="A173" s="201"/>
@@ -60443,31 +60443,31 @@
       <c r="A190" s="196" t="s">
         <v>210</v>
       </c>
-      <c r="B190" s="713" t="s">
+      <c r="B190" s="702" t="s">
         <v>456</v>
       </c>
-      <c r="C190" s="714"/>
-      <c r="D190" s="714"/>
-      <c r="E190" s="715" t="s">
+      <c r="C190" s="703"/>
+      <c r="D190" s="703"/>
+      <c r="E190" s="704" t="s">
         <v>457</v>
       </c>
-      <c r="F190" s="716"/>
-      <c r="G190" s="716"/>
+      <c r="F190" s="705"/>
+      <c r="G190" s="705"/>
     </row>
     <row r="191" spans="1:7" ht="25.35">
       <c r="A191" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B191" s="713" t="s">
+      <c r="B191" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C191" s="714"/>
-      <c r="D191" s="714"/>
-      <c r="E191" s="715" t="s">
+      <c r="C191" s="703"/>
+      <c r="D191" s="703"/>
+      <c r="E191" s="704" t="s">
         <v>460</v>
       </c>
-      <c r="F191" s="716"/>
-      <c r="G191" s="716"/>
+      <c r="F191" s="705"/>
+      <c r="G191" s="705"/>
     </row>
     <row r="192" spans="1:7" ht="14.35">
       <c r="B192" s="220" t="s">
@@ -60721,31 +60721,31 @@
       <c r="A208" s="196" t="s">
         <v>215</v>
       </c>
-      <c r="B208" s="713" t="s">
+      <c r="B208" s="702" t="s">
         <v>456</v>
       </c>
-      <c r="C208" s="714"/>
-      <c r="D208" s="714"/>
-      <c r="E208" s="715" t="s">
+      <c r="C208" s="703"/>
+      <c r="D208" s="703"/>
+      <c r="E208" s="704" t="s">
         <v>457</v>
       </c>
-      <c r="F208" s="716"/>
-      <c r="G208" s="716"/>
+      <c r="F208" s="705"/>
+      <c r="G208" s="705"/>
     </row>
     <row r="209" spans="1:7" ht="25.35">
       <c r="A209" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B209" s="713" t="s">
+      <c r="B209" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C209" s="714"/>
-      <c r="D209" s="714"/>
-      <c r="E209" s="715" t="s">
+      <c r="C209" s="703"/>
+      <c r="D209" s="703"/>
+      <c r="E209" s="704" t="s">
         <v>460</v>
       </c>
-      <c r="F209" s="716"/>
-      <c r="G209" s="716"/>
+      <c r="F209" s="705"/>
+      <c r="G209" s="705"/>
     </row>
     <row r="210" spans="1:7" ht="14.35">
       <c r="B210" s="220" t="s">
@@ -61009,31 +61009,31 @@
       <c r="A226" s="196" t="s">
         <v>218</v>
       </c>
-      <c r="B226" s="713" t="s">
+      <c r="B226" s="702" t="s">
         <v>456</v>
       </c>
-      <c r="C226" s="714"/>
-      <c r="D226" s="714"/>
-      <c r="E226" s="715" t="s">
+      <c r="C226" s="703"/>
+      <c r="D226" s="703"/>
+      <c r="E226" s="704" t="s">
         <v>457</v>
       </c>
-      <c r="F226" s="717"/>
-      <c r="G226" s="717"/>
+      <c r="F226" s="706"/>
+      <c r="G226" s="706"/>
     </row>
     <row r="227" spans="1:7" ht="27.35">
       <c r="A227" s="197" t="s">
         <v>476</v>
       </c>
-      <c r="B227" s="713" t="s">
+      <c r="B227" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C227" s="644"/>
-      <c r="D227" s="644"/>
-      <c r="E227" s="715" t="s">
+      <c r="C227" s="641"/>
+      <c r="D227" s="641"/>
+      <c r="E227" s="704" t="s">
         <v>460</v>
       </c>
-      <c r="F227" s="717"/>
-      <c r="G227" s="717"/>
+      <c r="F227" s="706"/>
+      <c r="G227" s="706"/>
     </row>
     <row r="228" spans="1:7" ht="14.35">
       <c r="A228" s="197"/>
@@ -61231,31 +61231,31 @@
       <c r="A240" s="196" t="s">
         <v>223</v>
       </c>
-      <c r="B240" s="713" t="s">
+      <c r="B240" s="702" t="s">
         <v>456</v>
       </c>
-      <c r="C240" s="714"/>
-      <c r="D240" s="714"/>
-      <c r="E240" s="715" t="s">
+      <c r="C240" s="703"/>
+      <c r="D240" s="703"/>
+      <c r="E240" s="704" t="s">
         <v>457</v>
       </c>
-      <c r="F240" s="717"/>
-      <c r="G240" s="717"/>
+      <c r="F240" s="706"/>
+      <c r="G240" s="706"/>
     </row>
     <row r="241" spans="1:7" ht="27.35">
       <c r="A241" s="197" t="s">
         <v>476</v>
       </c>
-      <c r="B241" s="713" t="s">
+      <c r="B241" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C241" s="644"/>
-      <c r="D241" s="644"/>
-      <c r="E241" s="715" t="s">
+      <c r="C241" s="641"/>
+      <c r="D241" s="641"/>
+      <c r="E241" s="704" t="s">
         <v>460</v>
       </c>
-      <c r="F241" s="717"/>
-      <c r="G241" s="717"/>
+      <c r="F241" s="706"/>
+      <c r="G241" s="706"/>
     </row>
     <row r="242" spans="1:7" ht="14.35">
       <c r="A242" s="197"/>
@@ -61514,14 +61514,50 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="B152:D152"/>
-    <mergeCell ref="E152:G152"/>
-    <mergeCell ref="B153:D153"/>
-    <mergeCell ref="E153:G153"/>
-    <mergeCell ref="B172:D172"/>
-    <mergeCell ref="E172:G172"/>
-    <mergeCell ref="B171:D171"/>
-    <mergeCell ref="E171:G171"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="B137:D137"/>
+    <mergeCell ref="E137:G137"/>
+    <mergeCell ref="B124:D124"/>
+    <mergeCell ref="E124:G124"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="E112:G112"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="E113:G113"/>
+    <mergeCell ref="B136:D136"/>
+    <mergeCell ref="E136:G136"/>
+    <mergeCell ref="B123:D123"/>
+    <mergeCell ref="E123:G123"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="E79:G79"/>
     <mergeCell ref="B190:D190"/>
     <mergeCell ref="E190:G190"/>
     <mergeCell ref="B191:D191"/>
@@ -61538,50 +61574,14 @@
     <mergeCell ref="E227:G227"/>
     <mergeCell ref="B240:D240"/>
     <mergeCell ref="E240:G240"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="B137:D137"/>
-    <mergeCell ref="E137:G137"/>
-    <mergeCell ref="B124:D124"/>
-    <mergeCell ref="E124:G124"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="E112:G112"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="E113:G113"/>
-    <mergeCell ref="B136:D136"/>
-    <mergeCell ref="E136:G136"/>
-    <mergeCell ref="B123:D123"/>
-    <mergeCell ref="E123:G123"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="B152:D152"/>
+    <mergeCell ref="E152:G152"/>
+    <mergeCell ref="B153:D153"/>
+    <mergeCell ref="E153:G153"/>
+    <mergeCell ref="B172:D172"/>
+    <mergeCell ref="E172:G172"/>
+    <mergeCell ref="B171:D171"/>
+    <mergeCell ref="E171:G171"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -62324,9 +62324,9 @@
       <c r="A1" s="722" t="s">
         <v>448</v>
       </c>
-      <c r="B1" s="688"/>
-      <c r="C1" s="688"/>
-      <c r="D1" s="688"/>
+      <c r="B1" s="698"/>
+      <c r="C1" s="698"/>
+      <c r="D1" s="698"/>
       <c r="E1" s="723" t="s">
         <v>449</v>
       </c>

--- a/microgrid_base/设备信息库各参数.xlsx
+++ b/microgrid_base/设备信息库各参数.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\works\jubilant-adventure2\microgrid_base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA4BC7A-9B31-47A1-B18B-2C52C898DC51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C10C031-06D2-4DCC-9287-3F35E1F5B721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="8180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6555,7 +6555,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6564,29 +6564,54 @@
     <xf numFmtId="0" fontId="65" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6601,47 +6626,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6659,8 +6650,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6679,45 +6679,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6726,8 +6689,17 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6741,16 +6713,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6780,6 +6771,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -8843,7 +8843,7 @@
       <c r="C15" s="370">
         <v>560</v>
       </c>
-      <c r="D15" s="644"/>
+      <c r="D15" s="635"/>
       <c r="E15" s="365"/>
       <c r="F15" s="363"/>
       <c r="G15" s="363"/>
@@ -8924,7 +8924,7 @@
       <c r="B21" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="639"/>
+      <c r="C21" s="638"/>
       <c r="D21" s="363"/>
       <c r="E21" s="363"/>
       <c r="F21" s="363"/>
@@ -9205,7 +9205,7 @@
       <c r="C41" s="375">
         <v>560</v>
       </c>
-      <c r="D41" s="635"/>
+      <c r="D41" s="639"/>
       <c r="E41" s="366"/>
       <c r="F41" s="363"/>
       <c r="G41" s="363"/>
@@ -9286,7 +9286,7 @@
       <c r="B47" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="639"/>
+      <c r="C47" s="638"/>
       <c r="D47" s="363"/>
       <c r="E47" s="363"/>
       <c r="F47" s="363"/>
@@ -9621,7 +9621,7 @@
       <c r="C71" s="370">
         <v>560</v>
       </c>
-      <c r="D71" s="635"/>
+      <c r="D71" s="639"/>
       <c r="E71" s="363"/>
       <c r="F71" s="363"/>
       <c r="G71" s="363"/>
@@ -9702,7 +9702,7 @@
       <c r="B77" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C77" s="639"/>
+      <c r="C77" s="638"/>
       <c r="D77" s="363"/>
       <c r="E77" s="363"/>
       <c r="F77" s="363"/>
@@ -9876,10 +9876,10 @@
       </c>
       <c r="E91" s="363"/>
       <c r="F91" s="363"/>
-      <c r="G91" s="642" t="s">
+      <c r="G91" s="640" t="s">
         <v>59</v>
       </c>
-      <c r="H91" s="643"/>
+      <c r="H91" s="641"/>
     </row>
     <row r="92" spans="1:8" ht="14.35">
       <c r="A92" s="363"/>
@@ -10007,7 +10007,7 @@
       <c r="C99" s="370">
         <v>560</v>
       </c>
-      <c r="D99" s="635"/>
+      <c r="D99" s="639"/>
       <c r="E99" s="363"/>
       <c r="F99" s="363"/>
       <c r="G99" s="363"/>
@@ -10088,7 +10088,7 @@
       <c r="B105" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C105" s="638"/>
+      <c r="C105" s="642"/>
       <c r="D105" s="363"/>
       <c r="E105" s="363"/>
       <c r="F105" s="363"/>
@@ -10387,7 +10387,7 @@
       <c r="C128" s="370">
         <v>560</v>
       </c>
-      <c r="D128" s="635"/>
+      <c r="D128" s="639"/>
       <c r="E128" s="363"/>
       <c r="F128" s="363"/>
       <c r="G128" s="363"/>
@@ -10468,7 +10468,7 @@
       <c r="B134" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C134" s="638"/>
+      <c r="C134" s="642"/>
       <c r="D134" s="363"/>
       <c r="E134" s="363"/>
       <c r="F134" s="363"/>
@@ -10741,7 +10741,7 @@
       <c r="C158" s="370">
         <v>560</v>
       </c>
-      <c r="D158" s="635"/>
+      <c r="D158" s="639"/>
       <c r="E158" s="363"/>
     </row>
     <row r="159" spans="1:8" ht="14.35">
@@ -10804,7 +10804,7 @@
       <c r="B164" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C164" s="638"/>
+      <c r="C164" s="642"/>
       <c r="D164" s="363"/>
       <c r="E164" s="363"/>
     </row>
@@ -10944,7 +10944,7 @@
       <c r="C179" s="375">
         <v>560</v>
       </c>
-      <c r="D179" s="635"/>
+      <c r="D179" s="639"/>
       <c r="E179" s="363"/>
       <c r="F179" s="363"/>
       <c r="G179" s="363"/>
@@ -11025,7 +11025,7 @@
       <c r="B185" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C185" s="639"/>
+      <c r="C185" s="638"/>
       <c r="D185" s="363"/>
       <c r="E185" s="363"/>
       <c r="F185" s="363"/>
@@ -11222,7 +11222,7 @@
       <c r="C201" s="375">
         <v>560</v>
       </c>
-      <c r="D201" s="635"/>
+      <c r="D201" s="639"/>
       <c r="E201" s="363"/>
       <c r="F201" s="363"/>
       <c r="G201" s="363"/>
@@ -11302,7 +11302,7 @@
       <c r="B207" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C207" s="639"/>
+      <c r="C207" s="638"/>
       <c r="D207" s="363"/>
       <c r="E207" s="363"/>
       <c r="F207" s="363"/>
@@ -11797,7 +11797,7 @@
       <c r="C242" s="370">
         <v>560</v>
       </c>
-      <c r="D242" s="635"/>
+      <c r="D242" s="639"/>
       <c r="E242" s="363"/>
       <c r="F242" s="363"/>
       <c r="G242" s="363"/>
@@ -11878,7 +11878,7 @@
       <c r="B248" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C248" s="638"/>
+      <c r="C248" s="642"/>
       <c r="D248" s="363"/>
       <c r="E248" s="363"/>
       <c r="F248" s="363"/>
@@ -12267,7 +12267,7 @@
       <c r="C278" s="370">
         <v>560</v>
       </c>
-      <c r="D278" s="635"/>
+      <c r="D278" s="639"/>
       <c r="E278" s="363"/>
       <c r="F278" s="363"/>
       <c r="G278" s="363"/>
@@ -12348,7 +12348,7 @@
       <c r="B284" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C284" s="638"/>
+      <c r="C284" s="642"/>
       <c r="D284" s="363"/>
       <c r="E284" s="363"/>
       <c r="F284" s="363"/>
@@ -12578,7 +12578,7 @@
       <c r="C304" s="370">
         <v>560</v>
       </c>
-      <c r="D304" s="635"/>
+      <c r="D304" s="639"/>
       <c r="E304" s="363"/>
       <c r="F304" s="363"/>
       <c r="G304" s="363"/>
@@ -12659,7 +12659,7 @@
       <c r="B310" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C310" s="638"/>
+      <c r="C310" s="642"/>
       <c r="D310" s="363"/>
       <c r="E310" s="363"/>
       <c r="F310" s="363"/>
@@ -12846,7 +12846,7 @@
       <c r="C327" s="370">
         <v>560</v>
       </c>
-      <c r="D327" s="635"/>
+      <c r="D327" s="639"/>
       <c r="E327" s="363"/>
       <c r="F327" s="363"/>
       <c r="G327" s="363"/>
@@ -12927,7 +12927,7 @@
       <c r="B333" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C333" s="638"/>
+      <c r="C333" s="642"/>
       <c r="D333" s="363"/>
       <c r="E333" s="363"/>
       <c r="F333" s="363"/>
@@ -13120,7 +13120,7 @@
       <c r="C349" s="370">
         <v>560</v>
       </c>
-      <c r="D349" s="635"/>
+      <c r="D349" s="639"/>
       <c r="F349" s="363"/>
       <c r="G349" s="363"/>
       <c r="H349" s="363"/>
@@ -13195,7 +13195,7 @@
       <c r="B355" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C355" s="638"/>
+      <c r="C355" s="642"/>
       <c r="D355" s="363"/>
       <c r="F355" s="363"/>
       <c r="G355" s="363"/>
@@ -13540,7 +13540,7 @@
       <c r="C383" s="370">
         <v>560</v>
       </c>
-      <c r="D383" s="635"/>
+      <c r="D383" s="639"/>
       <c r="E383" s="363"/>
       <c r="F383" s="363"/>
       <c r="G383" s="363"/>
@@ -13621,7 +13621,7 @@
       <c r="B389" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C389" s="638"/>
+      <c r="C389" s="642"/>
       <c r="D389" s="363"/>
       <c r="E389" s="363"/>
       <c r="F389" s="363"/>
@@ -13969,7 +13969,7 @@
       <c r="C418" s="370">
         <v>560</v>
       </c>
-      <c r="D418" s="635"/>
+      <c r="D418" s="639"/>
       <c r="E418" s="363"/>
       <c r="F418" s="363"/>
       <c r="G418" s="363"/>
@@ -14050,7 +14050,7 @@
       <c r="B424" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C424" s="638"/>
+      <c r="C424" s="642"/>
       <c r="D424" s="363"/>
       <c r="E424" s="363"/>
       <c r="F424" s="363"/>
@@ -14376,7 +14376,7 @@
       <c r="B451" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C451" s="638"/>
+      <c r="C451" s="642"/>
       <c r="D451" s="363"/>
       <c r="E451" s="363"/>
       <c r="F451" s="363"/>
@@ -14591,7 +14591,7 @@
       <c r="C469" s="370">
         <v>560</v>
       </c>
-      <c r="D469" s="635"/>
+      <c r="D469" s="639"/>
       <c r="E469" s="363"/>
       <c r="F469" s="363"/>
       <c r="G469" s="363"/>
@@ -14672,7 +14672,7 @@
       <c r="B475" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C475" s="638"/>
+      <c r="C475" s="642"/>
       <c r="D475" s="363"/>
       <c r="E475" s="363"/>
       <c r="F475" s="363"/>
@@ -14899,7 +14899,7 @@
       <c r="C494" s="370">
         <v>560</v>
       </c>
-      <c r="D494" s="635"/>
+      <c r="D494" s="639"/>
       <c r="E494" s="365" t="s">
         <v>684</v>
       </c>
@@ -14982,7 +14982,7 @@
       <c r="B500" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C500" s="638"/>
+      <c r="C500" s="642"/>
       <c r="D500" s="363"/>
       <c r="E500" s="363"/>
       <c r="F500" s="363"/>
@@ -15203,7 +15203,7 @@
       <c r="C519" s="370">
         <v>560</v>
       </c>
-      <c r="D519" s="635"/>
+      <c r="D519" s="639"/>
       <c r="E519" s="365" t="s">
         <v>686</v>
       </c>
@@ -15286,7 +15286,7 @@
       <c r="B525" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C525" s="638"/>
+      <c r="C525" s="642"/>
       <c r="D525" s="363"/>
       <c r="E525" s="363"/>
       <c r="F525" s="363"/>
@@ -15553,7 +15553,7 @@
       <c r="C547" s="370">
         <v>560</v>
       </c>
-      <c r="D547" s="635"/>
+      <c r="D547" s="639"/>
       <c r="E547" s="363"/>
       <c r="F547" s="363"/>
       <c r="G547" s="363"/>
@@ -15634,7 +15634,7 @@
       <c r="B553" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C553" s="638"/>
+      <c r="C553" s="642"/>
       <c r="D553" s="363"/>
       <c r="E553" s="363"/>
       <c r="F553" s="363"/>
@@ -15965,7 +15965,7 @@
       <c r="C580" s="370">
         <v>560</v>
       </c>
-      <c r="D580" s="635"/>
+      <c r="D580" s="639"/>
       <c r="E580" s="363"/>
       <c r="F580" s="363"/>
       <c r="G580" s="363"/>
@@ -16046,7 +16046,7 @@
       <c r="B586" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C586" s="638"/>
+      <c r="C586" s="642"/>
       <c r="D586" s="363"/>
       <c r="E586" s="363"/>
       <c r="F586" s="363"/>
@@ -16310,7 +16310,7 @@
       <c r="C608" s="370">
         <v>560</v>
       </c>
-      <c r="D608" s="635"/>
+      <c r="D608" s="639"/>
       <c r="E608" s="363"/>
       <c r="F608" s="363"/>
       <c r="G608" s="363"/>
@@ -16391,7 +16391,7 @@
       <c r="B614" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C614" s="638"/>
+      <c r="C614" s="642"/>
       <c r="D614" s="363"/>
       <c r="E614" s="363"/>
       <c r="F614" s="363"/>
@@ -16675,7 +16675,7 @@
       <c r="B637" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C637" s="638"/>
+      <c r="C637" s="642"/>
       <c r="D637" s="363"/>
       <c r="E637" s="363"/>
       <c r="F637" s="363"/>
@@ -16970,10 +16970,10 @@
     </row>
     <row r="660" spans="1:8" ht="14.35">
       <c r="A660" s="363"/>
-      <c r="B660" s="640" t="s">
+      <c r="B660" s="643" t="s">
         <v>34</v>
       </c>
-      <c r="C660" s="641"/>
+      <c r="C660" s="644"/>
       <c r="D660" s="363"/>
       <c r="E660" s="363"/>
       <c r="F660" s="363"/>
@@ -17272,10 +17272,10 @@
     </row>
     <row r="683" spans="1:8" ht="14.35">
       <c r="A683" s="363"/>
-      <c r="B683" s="640" t="s">
+      <c r="B683" s="643" t="s">
         <v>34</v>
       </c>
-      <c r="C683" s="641"/>
+      <c r="C683" s="644"/>
       <c r="D683" s="363"/>
       <c r="E683" s="363"/>
       <c r="F683" s="363"/>
@@ -17639,7 +17639,7 @@
       <c r="B711" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C711" s="638"/>
+      <c r="C711" s="642"/>
       <c r="D711" s="363"/>
       <c r="E711" s="363"/>
       <c r="F711" s="363"/>
@@ -17884,7 +17884,7 @@
       <c r="C729" s="370">
         <v>560</v>
       </c>
-      <c r="D729" s="635"/>
+      <c r="D729" s="639"/>
       <c r="E729" s="363"/>
       <c r="F729" s="363"/>
       <c r="G729" s="363"/>
@@ -17965,7 +17965,7 @@
       <c r="B735" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C735" s="638"/>
+      <c r="C735" s="642"/>
       <c r="D735" s="363"/>
       <c r="E735" s="363"/>
       <c r="F735" s="363"/>
@@ -18226,7 +18226,7 @@
       <c r="C756" s="370">
         <v>560</v>
       </c>
-      <c r="D756" s="635"/>
+      <c r="D756" s="639"/>
       <c r="E756" s="363"/>
       <c r="F756" s="363"/>
       <c r="G756" s="363"/>
@@ -18307,7 +18307,7 @@
       <c r="B762" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C762" s="638"/>
+      <c r="C762" s="642"/>
       <c r="D762" s="363"/>
       <c r="E762" s="363"/>
       <c r="F762" s="363"/>
@@ -18633,7 +18633,7 @@
       <c r="B789" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C789" s="639"/>
+      <c r="C789" s="638"/>
       <c r="D789" s="363"/>
       <c r="E789" s="363"/>
       <c r="F789" s="363"/>
@@ -18959,7 +18959,7 @@
       <c r="B816" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C816" s="639"/>
+      <c r="C816" s="638"/>
       <c r="D816" s="363"/>
       <c r="E816" s="363"/>
       <c r="F816" s="363"/>
@@ -19250,7 +19250,7 @@
       <c r="C839" s="375">
         <v>560</v>
       </c>
-      <c r="D839" s="635"/>
+      <c r="D839" s="639"/>
       <c r="E839" s="365"/>
       <c r="F839" s="363"/>
       <c r="G839" s="363"/>
@@ -19331,7 +19331,7 @@
       <c r="B845" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C845" s="639"/>
+      <c r="C845" s="638"/>
       <c r="D845" s="363"/>
       <c r="E845" s="363"/>
       <c r="F845" s="363"/>
@@ -19712,7 +19712,7 @@
       <c r="B876" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C876" s="639"/>
+      <c r="C876" s="638"/>
       <c r="D876" s="363"/>
       <c r="E876" s="363"/>
       <c r="F876" s="363"/>
@@ -20068,7 +20068,7 @@
       <c r="B907" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C907" s="639"/>
+      <c r="C907" s="638"/>
       <c r="D907" s="363"/>
       <c r="E907" s="363"/>
       <c r="F907" s="363"/>
@@ -20341,7 +20341,7 @@
       <c r="B931" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C931" s="639"/>
+      <c r="C931" s="638"/>
       <c r="D931" s="363"/>
       <c r="E931" s="363"/>
       <c r="F931" s="363"/>
@@ -20691,7 +20691,7 @@
       <c r="B958" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C958" s="639"/>
+      <c r="C958" s="638"/>
       <c r="D958" s="363"/>
       <c r="E958" s="363"/>
       <c r="F958" s="363"/>
@@ -20987,7 +20987,7 @@
       <c r="B981" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C981" s="639"/>
+      <c r="C981" s="638"/>
       <c r="D981" s="363"/>
       <c r="E981" s="363"/>
       <c r="F981" s="363"/>
@@ -21283,7 +21283,7 @@
       <c r="B1005" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1005" s="639"/>
+      <c r="C1005" s="638"/>
       <c r="D1005" s="363"/>
       <c r="E1005" s="363"/>
       <c r="F1005" s="363"/>
@@ -21479,7 +21479,7 @@
       <c r="B1024" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1024" s="639"/>
+      <c r="C1024" s="638"/>
       <c r="F1024" s="363"/>
       <c r="G1024" s="363"/>
       <c r="H1024" s="363"/>
@@ -21706,7 +21706,7 @@
       <c r="C1042" s="370">
         <v>560</v>
       </c>
-      <c r="D1042" s="635"/>
+      <c r="D1042" s="639"/>
       <c r="E1042" s="363"/>
       <c r="F1042" s="363"/>
       <c r="G1042" s="363"/>
@@ -21787,7 +21787,7 @@
       <c r="B1048" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1048" s="638"/>
+      <c r="C1048" s="642"/>
       <c r="D1048" s="363"/>
       <c r="E1048" s="363"/>
       <c r="F1048" s="363"/>
@@ -22053,7 +22053,7 @@
       <c r="B1070" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1070" s="639"/>
+      <c r="C1070" s="638"/>
       <c r="D1070" s="363"/>
       <c r="E1070" s="363"/>
       <c r="F1070" s="363"/>
@@ -22298,7 +22298,7 @@
       <c r="C1089" s="370">
         <v>560</v>
       </c>
-      <c r="D1089" s="635"/>
+      <c r="D1089" s="639"/>
       <c r="E1089" s="363"/>
       <c r="F1089" s="363"/>
       <c r="G1089" s="363"/>
@@ -22373,7 +22373,7 @@
       <c r="B1095" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1095" s="638"/>
+      <c r="C1095" s="642"/>
       <c r="D1095" s="363"/>
       <c r="E1095" s="363"/>
       <c r="F1095" s="363"/>
@@ -22649,7 +22649,7 @@
       <c r="C1120" s="370">
         <v>560</v>
       </c>
-      <c r="D1120" s="635"/>
+      <c r="D1120" s="639"/>
       <c r="E1120" s="363"/>
       <c r="F1120" s="363"/>
       <c r="G1120" s="363"/>
@@ -22726,7 +22726,7 @@
       <c r="B1126" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1126" s="638"/>
+      <c r="C1126" s="642"/>
       <c r="D1126" s="363"/>
       <c r="E1126" s="363"/>
       <c r="F1126" s="363"/>
@@ -23089,7 +23089,7 @@
       <c r="B1155" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1155" s="638"/>
+      <c r="C1155" s="642"/>
       <c r="D1155" s="363"/>
       <c r="E1155" s="363"/>
       <c r="F1155" s="363"/>
@@ -23198,61 +23198,6 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D41:D46"/>
-    <mergeCell ref="D71:D75"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="D99:D103"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="D128:D132"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="D158:D162"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="D179:D184"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="D201:D206"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="D242:D246"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="D278:D282"/>
-    <mergeCell ref="B284:C284"/>
-    <mergeCell ref="D304:D308"/>
-    <mergeCell ref="B310:C310"/>
-    <mergeCell ref="D327:D331"/>
-    <mergeCell ref="B333:C333"/>
-    <mergeCell ref="D383:D387"/>
-    <mergeCell ref="B389:C389"/>
-    <mergeCell ref="D418:D422"/>
-    <mergeCell ref="B424:C424"/>
-    <mergeCell ref="B451:C451"/>
-    <mergeCell ref="D469:D473"/>
-    <mergeCell ref="B475:C475"/>
-    <mergeCell ref="D494:D498"/>
-    <mergeCell ref="B500:C500"/>
-    <mergeCell ref="D519:D523"/>
-    <mergeCell ref="B525:C525"/>
-    <mergeCell ref="D547:D551"/>
-    <mergeCell ref="B553:C553"/>
-    <mergeCell ref="D580:D584"/>
-    <mergeCell ref="B586:C586"/>
-    <mergeCell ref="D608:D612"/>
-    <mergeCell ref="B614:C614"/>
-    <mergeCell ref="B637:C637"/>
-    <mergeCell ref="B660:C660"/>
-    <mergeCell ref="B683:C683"/>
-    <mergeCell ref="B711:C711"/>
-    <mergeCell ref="D839:D844"/>
-    <mergeCell ref="B845:C845"/>
-    <mergeCell ref="B876:C876"/>
-    <mergeCell ref="B907:C907"/>
-    <mergeCell ref="D729:D733"/>
-    <mergeCell ref="B735:C735"/>
-    <mergeCell ref="D756:D760"/>
-    <mergeCell ref="B762:C762"/>
-    <mergeCell ref="B789:C789"/>
     <mergeCell ref="D1120:D1124"/>
     <mergeCell ref="B1126:C1126"/>
     <mergeCell ref="B1155:C1155"/>
@@ -23269,6 +23214,61 @@
     <mergeCell ref="B1005:C1005"/>
     <mergeCell ref="B1024:C1024"/>
     <mergeCell ref="B816:C816"/>
+    <mergeCell ref="D839:D844"/>
+    <mergeCell ref="B845:C845"/>
+    <mergeCell ref="B876:C876"/>
+    <mergeCell ref="B907:C907"/>
+    <mergeCell ref="D729:D733"/>
+    <mergeCell ref="B735:C735"/>
+    <mergeCell ref="D756:D760"/>
+    <mergeCell ref="B762:C762"/>
+    <mergeCell ref="B789:C789"/>
+    <mergeCell ref="B614:C614"/>
+    <mergeCell ref="B637:C637"/>
+    <mergeCell ref="B660:C660"/>
+    <mergeCell ref="B683:C683"/>
+    <mergeCell ref="B711:C711"/>
+    <mergeCell ref="D547:D551"/>
+    <mergeCell ref="B553:C553"/>
+    <mergeCell ref="D580:D584"/>
+    <mergeCell ref="B586:C586"/>
+    <mergeCell ref="D608:D612"/>
+    <mergeCell ref="B475:C475"/>
+    <mergeCell ref="D494:D498"/>
+    <mergeCell ref="B500:C500"/>
+    <mergeCell ref="D519:D523"/>
+    <mergeCell ref="B525:C525"/>
+    <mergeCell ref="B389:C389"/>
+    <mergeCell ref="D418:D422"/>
+    <mergeCell ref="B424:C424"/>
+    <mergeCell ref="B451:C451"/>
+    <mergeCell ref="D469:D473"/>
+    <mergeCell ref="D304:D308"/>
+    <mergeCell ref="B310:C310"/>
+    <mergeCell ref="D327:D331"/>
+    <mergeCell ref="B333:C333"/>
+    <mergeCell ref="D383:D387"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="D242:D246"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="D278:D282"/>
+    <mergeCell ref="B284:C284"/>
+    <mergeCell ref="D158:D162"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="D179:D184"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="D201:D206"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="D99:D103"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="D128:D132"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D41:D46"/>
+    <mergeCell ref="D71:D75"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23614,7 +23614,7 @@
       <c r="B20" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="639"/>
+      <c r="C20" s="638"/>
       <c r="D20" s="363"/>
       <c r="E20" s="363"/>
       <c r="F20" s="363"/>
@@ -23789,7 +23789,7 @@
         <v>29</v>
       </c>
       <c r="C36" s="375"/>
-      <c r="D36" s="645"/>
+      <c r="D36" s="650"/>
       <c r="E36" s="26"/>
       <c r="K36" s="10"/>
     </row>
@@ -23799,7 +23799,7 @@
         <v>45</v>
       </c>
       <c r="C37" s="370"/>
-      <c r="D37" s="646"/>
+      <c r="D37" s="651"/>
       <c r="E37" s="26"/>
       <c r="K37" s="10"/>
     </row>
@@ -23809,7 +23809,7 @@
         <v>30</v>
       </c>
       <c r="C38" s="370"/>
-      <c r="D38" s="646"/>
+      <c r="D38" s="651"/>
       <c r="E38" s="28"/>
       <c r="K38" s="10"/>
     </row>
@@ -23819,7 +23819,7 @@
         <v>31</v>
       </c>
       <c r="C39" s="370"/>
-      <c r="D39" s="646"/>
+      <c r="D39" s="651"/>
       <c r="E39" s="28"/>
       <c r="K39" s="10"/>
     </row>
@@ -23829,7 +23829,7 @@
         <v>32</v>
       </c>
       <c r="C40" s="370"/>
-      <c r="D40" s="646"/>
+      <c r="D40" s="651"/>
       <c r="E40" s="28"/>
       <c r="K40" s="10"/>
     </row>
@@ -23839,7 +23839,7 @@
         <v>876</v>
       </c>
       <c r="C41" s="370"/>
-      <c r="D41" s="646"/>
+      <c r="D41" s="651"/>
       <c r="E41" s="28"/>
       <c r="K41" s="10"/>
     </row>
@@ -23848,7 +23848,7 @@
       <c r="B42" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="639"/>
+      <c r="C42" s="638"/>
       <c r="D42" s="501"/>
       <c r="E42" s="28"/>
       <c r="K42" s="10"/>
@@ -24087,10 +24087,10 @@
     </row>
     <row r="61" spans="1:11" ht="14.35">
       <c r="A61" s="2"/>
-      <c r="B61" s="649" t="s">
+      <c r="B61" s="658" t="s">
         <v>34</v>
       </c>
-      <c r="C61" s="650"/>
+      <c r="C61" s="659"/>
       <c r="D61" s="8"/>
       <c r="E61" s="393"/>
       <c r="F61" s="2"/>
@@ -24276,10 +24276,10 @@
       <c r="D75" s="518" t="s">
         <v>58</v>
       </c>
-      <c r="E75" s="651" t="s">
+      <c r="E75" s="646" t="s">
         <v>59</v>
       </c>
-      <c r="F75" s="652"/>
+      <c r="F75" s="647"/>
       <c r="G75" s="520"/>
       <c r="H75" s="488"/>
       <c r="K75" s="10"/>
@@ -24376,7 +24376,7 @@
         <v>65</v>
       </c>
       <c r="C81" s="370"/>
-      <c r="D81" s="645"/>
+      <c r="D81" s="650"/>
       <c r="E81" s="525">
         <v>1</v>
       </c>
@@ -24393,7 +24393,7 @@
         <v>30</v>
       </c>
       <c r="C82" s="370"/>
-      <c r="D82" s="646"/>
+      <c r="D82" s="651"/>
       <c r="E82" s="526" t="s">
         <v>66</v>
       </c>
@@ -24408,7 +24408,7 @@
         <v>31</v>
       </c>
       <c r="C83" s="370"/>
-      <c r="D83" s="646"/>
+      <c r="D83" s="651"/>
       <c r="E83" s="527" t="s">
         <v>67</v>
       </c>
@@ -24423,7 +24423,7 @@
         <v>68</v>
       </c>
       <c r="C84" s="499"/>
-      <c r="D84" s="646"/>
+      <c r="D84" s="651"/>
       <c r="E84" s="363"/>
       <c r="F84" s="363"/>
       <c r="G84" s="363"/>
@@ -24435,7 +24435,7 @@
       <c r="B85" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C85" s="639"/>
+      <c r="C85" s="638"/>
       <c r="D85" s="363"/>
       <c r="E85" s="363"/>
       <c r="F85" s="363"/>
@@ -24542,8 +24542,8 @@
       <c r="D94" s="373"/>
       <c r="E94" s="363"/>
       <c r="F94" s="363"/>
-      <c r="G94" s="642"/>
-      <c r="H94" s="643"/>
+      <c r="G94" s="640"/>
+      <c r="H94" s="641"/>
       <c r="K94" s="10"/>
     </row>
     <row r="95" spans="1:11" ht="14.35">
@@ -24567,10 +24567,10 @@
       <c r="C96" s="399" t="s">
         <v>57</v>
       </c>
-      <c r="D96" s="653" t="s">
+      <c r="D96" s="648" t="s">
         <v>59</v>
       </c>
-      <c r="E96" s="652"/>
+      <c r="E96" s="647"/>
       <c r="F96" s="363"/>
       <c r="G96" s="410"/>
       <c r="H96" s="409"/>
@@ -24716,10 +24716,10 @@
     </row>
     <row r="106" spans="1:11" ht="14.35">
       <c r="A106" s="363"/>
-      <c r="B106" s="655" t="s">
+      <c r="B106" s="652" t="s">
         <v>34</v>
       </c>
-      <c r="C106" s="656"/>
+      <c r="C106" s="653"/>
       <c r="E106" s="363"/>
       <c r="F106" s="363"/>
       <c r="G106" s="363"/>
@@ -24838,7 +24838,7 @@
       </c>
       <c r="C116" s="401"/>
       <c r="D116" s="365"/>
-      <c r="E116" s="654" t="s">
+      <c r="E116" s="649" t="s">
         <v>59</v>
       </c>
       <c r="F116" s="633"/>
@@ -25005,7 +25005,7 @@
       <c r="B127" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C127" s="638"/>
+      <c r="C127" s="642"/>
       <c r="D127" s="363"/>
       <c r="E127" s="363"/>
       <c r="F127" s="363"/>
@@ -25283,7 +25283,7 @@
       <c r="B153" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C153" s="638"/>
+      <c r="C153" s="642"/>
       <c r="D153" s="363"/>
       <c r="E153" s="363"/>
       <c r="H153" s="10"/>
@@ -25483,7 +25483,7 @@
       <c r="B171" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C171" s="639"/>
+      <c r="C171" s="638"/>
       <c r="D171" s="363"/>
       <c r="E171" s="363"/>
       <c r="F171" s="363"/>
@@ -25716,7 +25716,7 @@
       <c r="B189" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C189" s="639"/>
+      <c r="C189" s="638"/>
       <c r="D189" s="363"/>
       <c r="E189" s="363"/>
       <c r="F189" s="363"/>
@@ -25942,7 +25942,7 @@
       <c r="B207" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C207" s="638"/>
+      <c r="C207" s="642"/>
       <c r="D207" s="363"/>
       <c r="E207" s="363"/>
       <c r="F207" s="363"/>
@@ -26127,7 +26127,7 @@
       <c r="B223" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C223" s="638"/>
+      <c r="C223" s="642"/>
       <c r="D223" s="363"/>
       <c r="F223" s="2"/>
       <c r="G223" s="2"/>
@@ -26492,7 +26492,7 @@
         <v>143</v>
       </c>
       <c r="C249" s="370"/>
-      <c r="D249" s="657"/>
+      <c r="D249" s="654"/>
       <c r="E249" s="363"/>
       <c r="F249" s="363"/>
       <c r="G249" s="363"/>
@@ -26505,7 +26505,7 @@
         <v>144</v>
       </c>
       <c r="C250" s="370"/>
-      <c r="D250" s="658"/>
+      <c r="D250" s="655"/>
       <c r="E250" s="363"/>
       <c r="F250" s="363"/>
       <c r="G250" s="363"/>
@@ -26518,7 +26518,7 @@
         <v>30</v>
       </c>
       <c r="C251" s="370"/>
-      <c r="D251" s="658"/>
+      <c r="D251" s="655"/>
       <c r="E251" s="363"/>
       <c r="F251" s="363"/>
       <c r="G251" s="363"/>
@@ -26531,7 +26531,7 @@
         <v>31</v>
       </c>
       <c r="C252" s="370"/>
-      <c r="D252" s="658"/>
+      <c r="D252" s="655"/>
       <c r="E252" s="363"/>
       <c r="F252" s="363"/>
       <c r="G252" s="363"/>
@@ -26544,7 +26544,7 @@
         <v>145</v>
       </c>
       <c r="C253" s="370"/>
-      <c r="D253" s="658"/>
+      <c r="D253" s="655"/>
       <c r="E253" s="363"/>
       <c r="F253" s="363"/>
       <c r="G253" s="363"/>
@@ -26569,7 +26569,7 @@
       <c r="B255" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C255" s="639"/>
+      <c r="C255" s="638"/>
       <c r="D255" s="363"/>
       <c r="E255" s="363"/>
       <c r="F255" s="363"/>
@@ -26995,7 +26995,7 @@
         <v>143</v>
       </c>
       <c r="C285" s="370"/>
-      <c r="D285" s="645"/>
+      <c r="D285" s="650"/>
       <c r="E285" s="563"/>
       <c r="F285" s="562"/>
       <c r="G285" s="363"/>
@@ -27008,7 +27008,7 @@
         <v>144</v>
       </c>
       <c r="C286" s="370"/>
-      <c r="D286" s="646"/>
+      <c r="D286" s="651"/>
       <c r="E286" s="563"/>
       <c r="F286" s="562"/>
       <c r="G286" s="363"/>
@@ -27021,7 +27021,7 @@
         <v>30</v>
       </c>
       <c r="C287" s="370"/>
-      <c r="D287" s="646"/>
+      <c r="D287" s="651"/>
       <c r="E287" s="563"/>
       <c r="F287" s="562"/>
       <c r="G287" s="363"/>
@@ -27034,7 +27034,7 @@
         <v>31</v>
       </c>
       <c r="C288" s="370"/>
-      <c r="D288" s="646"/>
+      <c r="D288" s="651"/>
       <c r="E288" s="563"/>
       <c r="F288" s="562"/>
       <c r="G288" s="363"/>
@@ -27047,7 +27047,7 @@
         <v>145</v>
       </c>
       <c r="C289" s="370"/>
-      <c r="D289" s="646"/>
+      <c r="D289" s="651"/>
       <c r="E289" s="563"/>
       <c r="F289" s="562"/>
       <c r="G289" s="363"/>
@@ -27072,7 +27072,7 @@
       <c r="B291" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C291" s="639"/>
+      <c r="C291" s="638"/>
       <c r="D291" s="501"/>
       <c r="E291" s="363"/>
       <c r="F291" s="363"/>
@@ -27253,7 +27253,7 @@
         <v>143</v>
       </c>
       <c r="C305" s="370"/>
-      <c r="D305" s="645"/>
+      <c r="D305" s="650"/>
       <c r="F305" s="363"/>
       <c r="G305" s="363"/>
       <c r="H305" s="488"/>
@@ -27265,7 +27265,7 @@
         <v>144</v>
       </c>
       <c r="C306" s="370"/>
-      <c r="D306" s="646"/>
+      <c r="D306" s="651"/>
       <c r="F306" s="363"/>
       <c r="G306" s="363"/>
       <c r="H306" s="488"/>
@@ -27277,7 +27277,7 @@
         <v>30</v>
       </c>
       <c r="C307" s="370"/>
-      <c r="D307" s="646"/>
+      <c r="D307" s="651"/>
       <c r="F307" s="363"/>
       <c r="G307" s="363"/>
       <c r="H307" s="488"/>
@@ -27289,7 +27289,7 @@
         <v>31</v>
       </c>
       <c r="C308" s="370"/>
-      <c r="D308" s="646"/>
+      <c r="D308" s="651"/>
       <c r="F308" s="363"/>
       <c r="G308" s="363"/>
       <c r="H308" s="488"/>
@@ -27301,7 +27301,7 @@
         <v>145</v>
       </c>
       <c r="C309" s="370"/>
-      <c r="D309" s="646"/>
+      <c r="D309" s="651"/>
       <c r="F309" s="363"/>
       <c r="G309" s="363"/>
       <c r="H309" s="488"/>
@@ -27324,7 +27324,7 @@
       <c r="B311" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C311" s="639"/>
+      <c r="C311" s="638"/>
       <c r="D311" s="501"/>
       <c r="F311" s="363"/>
       <c r="G311" s="363"/>
@@ -27587,10 +27587,10 @@
     </row>
     <row r="333" spans="1:11" ht="14.35">
       <c r="A333" s="2"/>
-      <c r="B333" s="647" t="s">
+      <c r="B333" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C333" s="648"/>
+      <c r="C333" s="657"/>
       <c r="D333" s="2"/>
       <c r="F333" s="363"/>
       <c r="G333" s="2"/>
@@ -27799,7 +27799,7 @@
       <c r="B351" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C351" s="638"/>
+      <c r="C351" s="642"/>
       <c r="F351" s="2"/>
       <c r="G351" s="2"/>
       <c r="H351" s="8"/>
@@ -28339,10 +28339,10 @@
     </row>
     <row r="388" spans="1:11" ht="14.7">
       <c r="A388" s="2"/>
-      <c r="B388" s="659" t="s">
+      <c r="B388" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C388" s="641"/>
+      <c r="C388" s="644"/>
       <c r="D388" s="97"/>
       <c r="F388" s="2"/>
       <c r="G388" s="2"/>
@@ -28914,10 +28914,10 @@
     </row>
     <row r="425" spans="1:11" ht="14.7">
       <c r="A425" s="2"/>
-      <c r="B425" s="659" t="s">
+      <c r="B425" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C425" s="641"/>
+      <c r="C425" s="644"/>
       <c r="D425" s="97"/>
       <c r="E425" s="97"/>
       <c r="F425" s="2"/>
@@ -29469,10 +29469,10 @@
     </row>
     <row r="461" spans="1:11" ht="14.7">
       <c r="A461" s="2"/>
-      <c r="B461" s="659" t="s">
+      <c r="B461" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C461" s="641"/>
+      <c r="C461" s="644"/>
       <c r="D461" s="97"/>
       <c r="E461" s="97"/>
       <c r="F461" s="97"/>
@@ -30020,10 +30020,10 @@
     </row>
     <row r="497" spans="1:11" ht="14.7">
       <c r="A497" s="2"/>
-      <c r="B497" s="659" t="s">
+      <c r="B497" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C497" s="641"/>
+      <c r="C497" s="644"/>
       <c r="D497" s="97"/>
       <c r="E497" s="97"/>
       <c r="F497" s="97"/>
@@ -30915,10 +30915,10 @@
     </row>
     <row r="552" spans="1:11" ht="14.7">
       <c r="A552" s="2"/>
-      <c r="B552" s="659" t="s">
+      <c r="B552" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C552" s="641"/>
+      <c r="C552" s="644"/>
       <c r="D552" s="97"/>
       <c r="E552" s="97"/>
       <c r="F552" s="97"/>
@@ -31345,7 +31345,7 @@
       <c r="B590" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C590" s="638"/>
+      <c r="C590" s="642"/>
       <c r="D590" s="363"/>
       <c r="E590" s="363"/>
       <c r="F590" s="363"/>
@@ -31560,7 +31560,7 @@
       <c r="B607" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C607" s="638"/>
+      <c r="C607" s="642"/>
       <c r="D607" s="363"/>
       <c r="E607" s="363"/>
       <c r="F607" s="363"/>
@@ -31756,7 +31756,7 @@
       <c r="B623" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C623" s="639"/>
+      <c r="C623" s="638"/>
       <c r="D623" s="590"/>
       <c r="E623" s="363"/>
       <c r="F623" s="363"/>
@@ -31971,7 +31971,7 @@
       <c r="B640" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C640" s="638"/>
+      <c r="C640" s="642"/>
       <c r="D640" s="363"/>
       <c r="E640" s="363"/>
       <c r="F640" s="363"/>
@@ -32154,7 +32154,7 @@
       <c r="B655" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C655" s="639"/>
+      <c r="C655" s="638"/>
       <c r="D655" s="363"/>
       <c r="E655" s="363"/>
       <c r="F655" s="363"/>
@@ -32360,10 +32360,10 @@
     </row>
     <row r="672" spans="1:11" ht="14.35">
       <c r="A672" s="363"/>
-      <c r="B672" s="640" t="s">
+      <c r="B672" s="643" t="s">
         <v>34</v>
       </c>
-      <c r="C672" s="641"/>
+      <c r="C672" s="644"/>
       <c r="D672" s="363"/>
       <c r="E672" s="363"/>
       <c r="F672" s="363"/>
@@ -32551,10 +32551,10 @@
     </row>
     <row r="687" spans="1:11" ht="14.35">
       <c r="A687" s="363"/>
-      <c r="B687" s="640" t="s">
+      <c r="B687" s="643" t="s">
         <v>34</v>
       </c>
-      <c r="C687" s="641"/>
+      <c r="C687" s="644"/>
       <c r="D687" s="363"/>
       <c r="E687" s="363"/>
       <c r="F687" s="363"/>
@@ -32831,7 +32831,7 @@
       <c r="B710" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C710" s="638"/>
+      <c r="C710" s="642"/>
       <c r="D710" s="363"/>
       <c r="E710" s="363"/>
       <c r="F710" s="363"/>
@@ -33033,7 +33033,7 @@
       <c r="B726" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C726" s="638"/>
+      <c r="C726" s="642"/>
       <c r="D726" s="363"/>
       <c r="E726" s="363"/>
       <c r="F726" s="363"/>
@@ -33264,7 +33264,7 @@
       <c r="B745" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C745" s="638"/>
+      <c r="C745" s="642"/>
       <c r="D745" s="363"/>
       <c r="E745" s="363"/>
       <c r="F745" s="363"/>
@@ -33553,7 +33553,7 @@
       <c r="B768" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C768" s="639"/>
+      <c r="C768" s="638"/>
       <c r="D768" s="363"/>
       <c r="E768" s="363"/>
       <c r="F768" s="363"/>
@@ -33835,7 +33835,7 @@
       <c r="B790" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C790" s="639"/>
+      <c r="C790" s="638"/>
       <c r="D790" s="363"/>
       <c r="E790" s="363"/>
       <c r="F790" s="363"/>
@@ -34146,7 +34146,7 @@
       <c r="B815" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C815" s="639"/>
+      <c r="C815" s="638"/>
       <c r="D815" s="605"/>
       <c r="E815" s="363"/>
       <c r="F815" s="363"/>
@@ -34454,7 +34454,7 @@
       <c r="B840" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C840" s="639"/>
+      <c r="C840" s="638"/>
       <c r="D840" s="363"/>
       <c r="E840" s="363"/>
       <c r="F840" s="363"/>
@@ -34763,7 +34763,7 @@
       <c r="B866" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C866" s="639"/>
+      <c r="C866" s="638"/>
       <c r="D866" s="363"/>
       <c r="E866" s="363"/>
       <c r="F866" s="363"/>
@@ -34996,7 +34996,7 @@
       <c r="B886" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C886" s="639"/>
+      <c r="C886" s="638"/>
       <c r="D886" s="363"/>
       <c r="E886" s="363"/>
       <c r="F886" s="363"/>
@@ -35276,7 +35276,7 @@
       <c r="B908" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C908" s="639"/>
+      <c r="C908" s="638"/>
       <c r="D908" s="363"/>
       <c r="E908" s="363"/>
       <c r="F908" s="363"/>
@@ -35523,7 +35523,7 @@
       <c r="B927" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C927" s="639"/>
+      <c r="C927" s="638"/>
       <c r="D927" s="363"/>
       <c r="E927" s="363"/>
       <c r="F927" s="363"/>
@@ -35766,7 +35766,7 @@
       <c r="B946" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C946" s="639"/>
+      <c r="C946" s="638"/>
       <c r="D946" s="363"/>
       <c r="E946" s="363"/>
       <c r="F946" s="363"/>
@@ -35910,7 +35910,7 @@
       <c r="B960" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C960" s="639"/>
+      <c r="C960" s="638"/>
       <c r="F960" s="363"/>
       <c r="G960" s="363"/>
       <c r="H960" s="488"/>
@@ -36160,7 +36160,7 @@
       <c r="B980" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C980" s="638"/>
+      <c r="C980" s="642"/>
       <c r="D980" s="363"/>
       <c r="E980" s="363"/>
       <c r="F980" s="363"/>
@@ -36365,7 +36365,7 @@
       <c r="B997" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C997" s="639"/>
+      <c r="C997" s="638"/>
       <c r="D997" s="363"/>
       <c r="E997" s="363"/>
       <c r="F997" s="363"/>
@@ -36611,7 +36611,7 @@
       <c r="B1017" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1017" s="638"/>
+      <c r="C1017" s="642"/>
       <c r="D1017" s="363"/>
       <c r="E1017" s="363"/>
       <c r="F1017" s="363"/>
@@ -36875,7 +36875,7 @@
       <c r="B1039" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1039" s="638"/>
+      <c r="C1039" s="642"/>
       <c r="D1039" s="363"/>
       <c r="E1039" s="363"/>
       <c r="F1039" s="363"/>
@@ -37174,7 +37174,7 @@
       <c r="B1062" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1062" s="638"/>
+      <c r="C1062" s="642"/>
       <c r="D1062" s="363"/>
       <c r="E1062" s="363"/>
       <c r="F1062" s="363"/>
@@ -37198,21 +37198,30 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="B590:C590"/>
-    <mergeCell ref="B710:C710"/>
-    <mergeCell ref="B726:C726"/>
-    <mergeCell ref="B745:C745"/>
-    <mergeCell ref="B768:C768"/>
-    <mergeCell ref="B790:C790"/>
-    <mergeCell ref="B815:C815"/>
-    <mergeCell ref="B840:C840"/>
-    <mergeCell ref="B866:C866"/>
-    <mergeCell ref="B886:C886"/>
-    <mergeCell ref="B908:C908"/>
-    <mergeCell ref="B927:C927"/>
-    <mergeCell ref="B946:C946"/>
-    <mergeCell ref="B960:C960"/>
-    <mergeCell ref="B980:C980"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="B333:C333"/>
+    <mergeCell ref="B351:C351"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B311:C311"/>
+    <mergeCell ref="D36:D41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="D305:D309"/>
+    <mergeCell ref="B223:C223"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="D249:D253"/>
+    <mergeCell ref="B255:C255"/>
+    <mergeCell ref="D285:D289"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="B207:C207"/>
     <mergeCell ref="B997:C997"/>
     <mergeCell ref="B1017:C1017"/>
     <mergeCell ref="B1039:C1039"/>
@@ -37229,30 +37238,21 @@
     <mergeCell ref="B655:C655"/>
     <mergeCell ref="B672:C672"/>
     <mergeCell ref="B687:C687"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="D305:D309"/>
-    <mergeCell ref="B223:C223"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="D249:D253"/>
-    <mergeCell ref="B255:C255"/>
-    <mergeCell ref="D285:D289"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="B189:C189"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="B333:C333"/>
-    <mergeCell ref="B351:C351"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B311:C311"/>
-    <mergeCell ref="D36:D41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B908:C908"/>
+    <mergeCell ref="B927:C927"/>
+    <mergeCell ref="B946:C946"/>
+    <mergeCell ref="B960:C960"/>
+    <mergeCell ref="B980:C980"/>
+    <mergeCell ref="B790:C790"/>
+    <mergeCell ref="B815:C815"/>
+    <mergeCell ref="B840:C840"/>
+    <mergeCell ref="B866:C866"/>
+    <mergeCell ref="B886:C886"/>
+    <mergeCell ref="B590:C590"/>
+    <mergeCell ref="B710:C710"/>
+    <mergeCell ref="B726:C726"/>
+    <mergeCell ref="B745:C745"/>
+    <mergeCell ref="B768:C768"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37594,10 +37594,10 @@
     </row>
     <row r="20" spans="1:11" ht="14.35">
       <c r="A20" s="2"/>
-      <c r="B20" s="647" t="s">
+      <c r="B20" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="650"/>
+      <c r="C20" s="659"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -37770,7 +37770,7 @@
         <v>29</v>
       </c>
       <c r="C36" s="14"/>
-      <c r="D36" s="661"/>
+      <c r="D36" s="660"/>
       <c r="E36" s="26"/>
       <c r="K36" s="10"/>
     </row>
@@ -37780,7 +37780,7 @@
         <v>45</v>
       </c>
       <c r="C37" s="11"/>
-      <c r="D37" s="662"/>
+      <c r="D37" s="661"/>
       <c r="E37" s="26"/>
       <c r="K37" s="10"/>
     </row>
@@ -37790,7 +37790,7 @@
         <v>30</v>
       </c>
       <c r="C38" s="11"/>
-      <c r="D38" s="662"/>
+      <c r="D38" s="661"/>
       <c r="E38" s="28"/>
       <c r="K38" s="10"/>
     </row>
@@ -37800,7 +37800,7 @@
         <v>31</v>
       </c>
       <c r="C39" s="11"/>
-      <c r="D39" s="662"/>
+      <c r="D39" s="661"/>
       <c r="E39" s="28"/>
       <c r="K39" s="10"/>
     </row>
@@ -37810,7 +37810,7 @@
         <v>32</v>
       </c>
       <c r="C40" s="11"/>
-      <c r="D40" s="662"/>
+      <c r="D40" s="661"/>
       <c r="E40" s="28"/>
       <c r="K40" s="10"/>
     </row>
@@ -37820,16 +37820,16 @@
         <v>876</v>
       </c>
       <c r="C41" s="11"/>
-      <c r="D41" s="662"/>
+      <c r="D41" s="661"/>
       <c r="E41" s="28"/>
       <c r="K41" s="10"/>
     </row>
     <row r="42" spans="1:11" ht="14.35">
       <c r="A42" s="2"/>
-      <c r="B42" s="647" t="s">
+      <c r="B42" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="650"/>
+      <c r="C42" s="659"/>
       <c r="D42" s="28"/>
       <c r="E42" s="28"/>
       <c r="K42" s="10"/>
@@ -38068,10 +38068,10 @@
     </row>
     <row r="61" spans="1:11" ht="14.35">
       <c r="A61" s="2"/>
-      <c r="B61" s="647" t="s">
+      <c r="B61" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C61" s="650"/>
+      <c r="C61" s="659"/>
       <c r="D61" s="8"/>
       <c r="E61" s="23"/>
       <c r="F61" s="2"/>
@@ -38255,10 +38255,10 @@
       <c r="D75" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="E75" s="671" t="s">
+      <c r="E75" s="662" t="s">
         <v>59</v>
       </c>
-      <c r="F75" s="652"/>
+      <c r="F75" s="647"/>
       <c r="G75" s="44"/>
       <c r="H75" s="8"/>
       <c r="K75" s="10"/>
@@ -38356,7 +38356,7 @@
         <v>65</v>
       </c>
       <c r="C81" s="11"/>
-      <c r="D81" s="661"/>
+      <c r="D81" s="660"/>
       <c r="E81" s="49">
         <v>1</v>
       </c>
@@ -38373,7 +38373,7 @@
         <v>30</v>
       </c>
       <c r="C82" s="11"/>
-      <c r="D82" s="662"/>
+      <c r="D82" s="661"/>
       <c r="E82" s="29" t="s">
         <v>66</v>
       </c>
@@ -38388,7 +38388,7 @@
         <v>31</v>
       </c>
       <c r="C83" s="11"/>
-      <c r="D83" s="662"/>
+      <c r="D83" s="661"/>
       <c r="E83" s="29" t="s">
         <v>67</v>
       </c>
@@ -38403,7 +38403,7 @@
         <v>68</v>
       </c>
       <c r="C84" s="24"/>
-      <c r="D84" s="662"/>
+      <c r="D84" s="661"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
@@ -38412,10 +38412,10 @@
     </row>
     <row r="85" spans="1:11" ht="14.35">
       <c r="A85" s="2"/>
-      <c r="B85" s="647" t="s">
+      <c r="B85" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C85" s="650"/>
+      <c r="C85" s="659"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
@@ -38520,8 +38520,8 @@
       <c r="D94" s="37"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
-      <c r="G94" s="666"/>
-      <c r="H94" s="667"/>
+      <c r="G94" s="663"/>
+      <c r="H94" s="664"/>
       <c r="K94" s="10"/>
     </row>
     <row r="95" spans="1:11" ht="14.35">
@@ -38545,10 +38545,10 @@
       <c r="C96" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="D96" s="668" t="s">
+      <c r="D96" s="665" t="s">
         <v>59</v>
       </c>
-      <c r="E96" s="652"/>
+      <c r="E96" s="647"/>
       <c r="F96" s="2"/>
       <c r="G96" s="54"/>
       <c r="H96" s="12"/>
@@ -38694,10 +38694,10 @@
     </row>
     <row r="106" spans="1:11" ht="14.35">
       <c r="A106" s="2"/>
-      <c r="B106" s="669" t="s">
+      <c r="B106" s="666" t="s">
         <v>34</v>
       </c>
-      <c r="C106" s="670"/>
+      <c r="C106" s="667"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
@@ -38816,7 +38816,7 @@
         <v>80</v>
       </c>
       <c r="D116" s="23"/>
-      <c r="E116" s="665" t="s">
+      <c r="E116" s="668" t="s">
         <v>59</v>
       </c>
       <c r="F116" s="633"/>
@@ -39023,10 +39023,10 @@
     </row>
     <row r="130" spans="1:11" ht="14.35">
       <c r="A130" s="2"/>
-      <c r="B130" s="647" t="s">
+      <c r="B130" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C130" s="648"/>
+      <c r="C130" s="657"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
@@ -39313,10 +39313,10 @@
     </row>
     <row r="156" spans="1:11" ht="14.35">
       <c r="A156" s="2"/>
-      <c r="B156" s="647" t="s">
+      <c r="B156" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C156" s="648"/>
+      <c r="C156" s="657"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
       <c r="H156" s="10"/>
@@ -39511,10 +39511,10 @@
     </row>
     <row r="174" spans="1:11" ht="14.35">
       <c r="A174" s="2"/>
-      <c r="B174" s="647" t="s">
+      <c r="B174" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C174" s="650"/>
+      <c r="C174" s="659"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
@@ -39742,10 +39742,10 @@
     </row>
     <row r="192" spans="1:11" ht="14.35">
       <c r="A192" s="2"/>
-      <c r="B192" s="647" t="s">
+      <c r="B192" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C192" s="650"/>
+      <c r="C192" s="659"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
@@ -40073,10 +40073,10 @@
     </row>
     <row r="217" spans="1:11" ht="14.35">
       <c r="A217" s="2"/>
-      <c r="B217" s="647" t="s">
+      <c r="B217" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C217" s="648"/>
+      <c r="C217" s="657"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
@@ -40382,10 +40382,10 @@
     </row>
     <row r="242" spans="1:11" ht="14.35">
       <c r="A242" s="2"/>
-      <c r="B242" s="647" t="s">
+      <c r="B242" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C242" s="648"/>
+      <c r="C242" s="657"/>
       <c r="D242" s="2"/>
       <c r="F242" s="2"/>
       <c r="G242" s="2"/>
@@ -40748,7 +40748,7 @@
         <v>143</v>
       </c>
       <c r="C268" s="11"/>
-      <c r="D268" s="663"/>
+      <c r="D268" s="669"/>
       <c r="E268" s="2"/>
       <c r="F268" s="2"/>
       <c r="G268" s="2"/>
@@ -40761,7 +40761,7 @@
         <v>144</v>
       </c>
       <c r="C269" s="11"/>
-      <c r="D269" s="664"/>
+      <c r="D269" s="670"/>
       <c r="E269" s="2"/>
       <c r="F269" s="2"/>
       <c r="G269" s="2"/>
@@ -40774,7 +40774,7 @@
         <v>30</v>
       </c>
       <c r="C270" s="11"/>
-      <c r="D270" s="664"/>
+      <c r="D270" s="670"/>
       <c r="E270" s="2"/>
       <c r="F270" s="2"/>
       <c r="G270" s="2"/>
@@ -40787,7 +40787,7 @@
         <v>31</v>
       </c>
       <c r="C271" s="11"/>
-      <c r="D271" s="664"/>
+      <c r="D271" s="670"/>
       <c r="E271" s="2"/>
       <c r="F271" s="2"/>
       <c r="G271" s="2"/>
@@ -40800,7 +40800,7 @@
         <v>145</v>
       </c>
       <c r="C272" s="11"/>
-      <c r="D272" s="664"/>
+      <c r="D272" s="670"/>
       <c r="E272" s="2"/>
       <c r="F272" s="2"/>
       <c r="G272" s="2"/>
@@ -40822,10 +40822,10 @@
     </row>
     <row r="274" spans="1:11" ht="14.35">
       <c r="A274" s="2"/>
-      <c r="B274" s="647" t="s">
+      <c r="B274" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C274" s="650"/>
+      <c r="C274" s="659"/>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
       <c r="F274" s="2"/>
@@ -41249,7 +41249,7 @@
         <v>143</v>
       </c>
       <c r="C304" s="11"/>
-      <c r="D304" s="661"/>
+      <c r="D304" s="660"/>
       <c r="E304" s="84"/>
       <c r="F304" s="85"/>
       <c r="G304" s="2"/>
@@ -41262,7 +41262,7 @@
         <v>144</v>
       </c>
       <c r="C305" s="11"/>
-      <c r="D305" s="662"/>
+      <c r="D305" s="661"/>
       <c r="E305" s="84"/>
       <c r="F305" s="85"/>
       <c r="G305" s="2"/>
@@ -41275,7 +41275,7 @@
         <v>30</v>
       </c>
       <c r="C306" s="11"/>
-      <c r="D306" s="662"/>
+      <c r="D306" s="661"/>
       <c r="E306" s="84"/>
       <c r="F306" s="85"/>
       <c r="G306" s="2"/>
@@ -41288,7 +41288,7 @@
         <v>31</v>
       </c>
       <c r="C307" s="11"/>
-      <c r="D307" s="662"/>
+      <c r="D307" s="661"/>
       <c r="E307" s="84"/>
       <c r="F307" s="85"/>
       <c r="G307" s="2"/>
@@ -41301,7 +41301,7 @@
         <v>145</v>
       </c>
       <c r="C308" s="11"/>
-      <c r="D308" s="662"/>
+      <c r="D308" s="661"/>
       <c r="E308" s="84"/>
       <c r="F308" s="85"/>
       <c r="G308" s="2"/>
@@ -41323,10 +41323,10 @@
     </row>
     <row r="310" spans="1:11" ht="14.35">
       <c r="A310" s="2"/>
-      <c r="B310" s="647" t="s">
+      <c r="B310" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C310" s="650"/>
+      <c r="C310" s="659"/>
       <c r="D310" s="28"/>
       <c r="E310" s="2"/>
       <c r="F310" s="2"/>
@@ -41497,7 +41497,7 @@
         <v>64</v>
       </c>
       <c r="C324" s="11"/>
-      <c r="D324" s="661"/>
+      <c r="D324" s="660"/>
       <c r="F324" s="2"/>
       <c r="G324" s="2"/>
       <c r="H324" s="8"/>
@@ -41509,7 +41509,7 @@
         <v>65</v>
       </c>
       <c r="C325" s="11"/>
-      <c r="D325" s="662"/>
+      <c r="D325" s="661"/>
       <c r="F325" s="2"/>
       <c r="G325" s="2"/>
       <c r="H325" s="8"/>
@@ -41521,7 +41521,7 @@
         <v>30</v>
       </c>
       <c r="C326" s="11"/>
-      <c r="D326" s="662"/>
+      <c r="D326" s="661"/>
       <c r="F326" s="2"/>
       <c r="G326" s="2"/>
       <c r="H326" s="8"/>
@@ -41533,7 +41533,7 @@
         <v>31</v>
       </c>
       <c r="C327" s="11"/>
-      <c r="D327" s="662"/>
+      <c r="D327" s="661"/>
       <c r="F327" s="2"/>
       <c r="G327" s="2"/>
       <c r="H327" s="8"/>
@@ -41545,7 +41545,7 @@
         <v>68</v>
       </c>
       <c r="C328" s="11"/>
-      <c r="D328" s="662"/>
+      <c r="D328" s="661"/>
       <c r="F328" s="2"/>
       <c r="G328" s="2"/>
       <c r="H328" s="8"/>
@@ -41565,10 +41565,10 @@
     </row>
     <row r="330" spans="1:11" ht="14.35">
       <c r="A330" s="2"/>
-      <c r="B330" s="647" t="s">
+      <c r="B330" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C330" s="650"/>
+      <c r="C330" s="659"/>
       <c r="D330" s="28"/>
       <c r="F330" s="2"/>
       <c r="G330" s="2"/>
@@ -41827,10 +41827,10 @@
     </row>
     <row r="352" spans="1:11" ht="14.35">
       <c r="A352" s="2"/>
-      <c r="B352" s="647" t="s">
+      <c r="B352" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C352" s="648"/>
+      <c r="C352" s="657"/>
       <c r="D352" s="2"/>
       <c r="F352" s="2"/>
       <c r="G352" s="2"/>
@@ -42034,10 +42034,10 @@
     </row>
     <row r="370" spans="1:11" ht="14.35">
       <c r="A370" s="2"/>
-      <c r="B370" s="647" t="s">
+      <c r="B370" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C370" s="648"/>
+      <c r="C370" s="657"/>
       <c r="F370" s="2"/>
       <c r="G370" s="2"/>
       <c r="H370" s="8"/>
@@ -42517,10 +42517,10 @@
     </row>
     <row r="405" spans="1:11" ht="14.7">
       <c r="A405" s="2"/>
-      <c r="B405" s="659" t="s">
+      <c r="B405" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C405" s="641"/>
+      <c r="C405" s="644"/>
       <c r="D405" s="97"/>
       <c r="F405" s="2"/>
       <c r="G405" s="2"/>
@@ -43033,10 +43033,10 @@
     </row>
     <row r="440" spans="1:11" ht="14.7">
       <c r="A440" s="2"/>
-      <c r="B440" s="659" t="s">
+      <c r="B440" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C440" s="641"/>
+      <c r="C440" s="644"/>
       <c r="D440" s="97"/>
       <c r="E440" s="97"/>
       <c r="F440" s="2"/>
@@ -43512,10 +43512,10 @@
     </row>
     <row r="473" spans="1:11" ht="14.7">
       <c r="A473" s="2"/>
-      <c r="B473" s="659" t="s">
+      <c r="B473" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C473" s="641"/>
+      <c r="C473" s="644"/>
       <c r="D473" s="97"/>
       <c r="E473" s="97"/>
       <c r="F473" s="97"/>
@@ -43987,10 +43987,10 @@
     </row>
     <row r="506" spans="1:11" ht="14.7">
       <c r="A506" s="2"/>
-      <c r="B506" s="659" t="s">
+      <c r="B506" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C506" s="641"/>
+      <c r="C506" s="644"/>
       <c r="D506" s="97"/>
       <c r="E506" s="97"/>
       <c r="F506" s="97"/>
@@ -44861,10 +44861,10 @@
     </row>
     <row r="559" spans="1:11" ht="14.7">
       <c r="A559" s="2"/>
-      <c r="B559" s="659" t="s">
+      <c r="B559" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C559" s="641"/>
+      <c r="C559" s="644"/>
       <c r="D559" s="97"/>
       <c r="E559" s="97"/>
       <c r="F559" s="97"/>
@@ -45288,10 +45288,10 @@
     </row>
     <row r="597" spans="1:11" ht="14.35">
       <c r="A597" s="2"/>
-      <c r="B597" s="647" t="s">
+      <c r="B597" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C597" s="648"/>
+      <c r="C597" s="657"/>
       <c r="D597" s="2"/>
       <c r="E597" s="2"/>
       <c r="F597" s="2"/>
@@ -45533,10 +45533,10 @@
     </row>
     <row r="616" spans="1:11" ht="14.35">
       <c r="A616" s="2"/>
-      <c r="B616" s="647" t="s">
+      <c r="B616" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C616" s="648"/>
+      <c r="C616" s="657"/>
       <c r="D616" s="2"/>
       <c r="E616" s="2"/>
       <c r="F616" s="2"/>
@@ -45774,10 +45774,10 @@
     </row>
     <row r="635" spans="1:11" ht="14.35">
       <c r="A635" s="2"/>
-      <c r="B635" s="647" t="s">
+      <c r="B635" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C635" s="650"/>
+      <c r="C635" s="659"/>
       <c r="D635" s="127"/>
       <c r="E635" s="2"/>
       <c r="F635" s="2"/>
@@ -46034,10 +46034,10 @@
     </row>
     <row r="655" spans="1:11" ht="14.35">
       <c r="A655" s="2"/>
-      <c r="B655" s="647" t="s">
+      <c r="B655" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C655" s="648"/>
+      <c r="C655" s="657"/>
       <c r="D655" s="2"/>
       <c r="E655" s="2"/>
       <c r="F655" s="2"/>
@@ -46262,10 +46262,10 @@
     </row>
     <row r="673" spans="1:11" ht="14.35">
       <c r="A673" s="2"/>
-      <c r="B673" s="647" t="s">
+      <c r="B673" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C673" s="650"/>
+      <c r="C673" s="659"/>
       <c r="D673" s="2"/>
       <c r="E673" s="2"/>
       <c r="F673" s="2"/>
@@ -46501,10 +46501,10 @@
     </row>
     <row r="692" spans="1:11" ht="14.35">
       <c r="A692" s="2"/>
-      <c r="B692" s="660" t="s">
+      <c r="B692" s="671" t="s">
         <v>34</v>
       </c>
-      <c r="C692" s="641"/>
+      <c r="C692" s="644"/>
       <c r="D692" s="2"/>
       <c r="E692" s="2"/>
       <c r="F692" s="2"/>
@@ -46737,10 +46737,10 @@
     </row>
     <row r="710" spans="1:11" ht="14.35">
       <c r="A710" s="2"/>
-      <c r="B710" s="660" t="s">
+      <c r="B710" s="671" t="s">
         <v>34</v>
       </c>
-      <c r="C710" s="641"/>
+      <c r="C710" s="644"/>
       <c r="D710" s="2"/>
       <c r="E710" s="2"/>
       <c r="F710" s="2"/>
@@ -47059,10 +47059,10 @@
     </row>
     <row r="736" spans="1:11" ht="14.35">
       <c r="A736" s="2"/>
-      <c r="B736" s="647" t="s">
+      <c r="B736" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C736" s="648"/>
+      <c r="C736" s="657"/>
       <c r="D736" s="2"/>
       <c r="E736" s="2"/>
       <c r="F736" s="2"/>
@@ -47325,10 +47325,10 @@
     </row>
     <row r="756" spans="1:11" ht="14.35">
       <c r="A756" s="2"/>
-      <c r="B756" s="647" t="s">
+      <c r="B756" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C756" s="648"/>
+      <c r="C756" s="657"/>
       <c r="D756" s="2"/>
       <c r="E756" s="2"/>
       <c r="F756" s="2"/>
@@ -47616,10 +47616,10 @@
     </row>
     <row r="779" spans="1:11" ht="14.35">
       <c r="A779" s="2"/>
-      <c r="B779" s="647" t="s">
+      <c r="B779" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C779" s="648"/>
+      <c r="C779" s="657"/>
       <c r="D779" s="2"/>
       <c r="E779" s="2"/>
       <c r="F779" s="2"/>
@@ -47905,10 +47905,10 @@
     </row>
     <row r="802" spans="1:11" ht="14.35">
       <c r="A802" s="2"/>
-      <c r="B802" s="647" t="s">
+      <c r="B802" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C802" s="650"/>
+      <c r="C802" s="659"/>
       <c r="D802" s="2"/>
       <c r="E802" s="2"/>
       <c r="F802" s="2"/>
@@ -48187,10 +48187,10 @@
     </row>
     <row r="824" spans="1:11" ht="14.35">
       <c r="A824" s="2"/>
-      <c r="B824" s="647" t="s">
+      <c r="B824" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C824" s="650"/>
+      <c r="C824" s="659"/>
       <c r="D824" s="2"/>
       <c r="E824" s="2"/>
       <c r="F824" s="2"/>
@@ -48498,10 +48498,10 @@
     </row>
     <row r="849" spans="1:11" ht="14.35">
       <c r="A849" s="2"/>
-      <c r="B849" s="647" t="s">
+      <c r="B849" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C849" s="650"/>
+      <c r="C849" s="659"/>
       <c r="D849" s="149"/>
       <c r="E849" s="2"/>
       <c r="F849" s="2"/>
@@ -48806,10 +48806,10 @@
       <c r="K873" s="10"/>
     </row>
     <row r="874" spans="2:11" ht="14.35">
-      <c r="B874" s="647" t="s">
+      <c r="B874" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C874" s="650"/>
+      <c r="C874" s="659"/>
       <c r="D874" s="2"/>
       <c r="E874" s="2"/>
       <c r="F874" s="2"/>
@@ -49115,10 +49115,10 @@
       <c r="K899" s="10"/>
     </row>
     <row r="900" spans="1:11" ht="14.35">
-      <c r="B900" s="647" t="s">
+      <c r="B900" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C900" s="650"/>
+      <c r="C900" s="659"/>
       <c r="D900" s="2"/>
       <c r="E900" s="2"/>
       <c r="F900" s="2"/>
@@ -49348,10 +49348,10 @@
     </row>
     <row r="920" spans="1:11" ht="14.35">
       <c r="A920" s="2"/>
-      <c r="B920" s="647" t="s">
+      <c r="B920" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C920" s="650"/>
+      <c r="C920" s="659"/>
       <c r="D920" s="2"/>
       <c r="E920" s="2"/>
       <c r="F920" s="2"/>
@@ -49628,10 +49628,10 @@
     </row>
     <row r="942" spans="1:11" ht="14.35">
       <c r="A942" s="2"/>
-      <c r="B942" s="647" t="s">
+      <c r="B942" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C942" s="650"/>
+      <c r="C942" s="659"/>
       <c r="D942" s="2"/>
       <c r="E942" s="2"/>
       <c r="F942" s="2"/>
@@ -49875,10 +49875,10 @@
     </row>
     <row r="961" spans="1:11" ht="14.35">
       <c r="A961" s="2"/>
-      <c r="B961" s="647" t="s">
+      <c r="B961" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C961" s="650"/>
+      <c r="C961" s="659"/>
       <c r="D961" s="2"/>
       <c r="E961" s="2"/>
       <c r="F961" s="2"/>
@@ -50118,10 +50118,10 @@
     </row>
     <row r="980" spans="1:11" ht="14.35">
       <c r="A980" s="2"/>
-      <c r="B980" s="647" t="s">
+      <c r="B980" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C980" s="650"/>
+      <c r="C980" s="659"/>
       <c r="D980" s="2"/>
       <c r="E980" s="2"/>
       <c r="F980" s="2"/>
@@ -50262,10 +50262,10 @@
     </row>
     <row r="994" spans="1:11" ht="14.35">
       <c r="A994" s="2"/>
-      <c r="B994" s="647" t="s">
+      <c r="B994" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C994" s="650"/>
+      <c r="C994" s="659"/>
       <c r="F994" s="2"/>
       <c r="G994" s="2"/>
       <c r="H994" s="8"/>
@@ -50512,10 +50512,10 @@
     </row>
     <row r="1014" spans="1:11" ht="14.35">
       <c r="A1014" s="2"/>
-      <c r="B1014" s="647" t="s">
+      <c r="B1014" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C1014" s="648"/>
+      <c r="C1014" s="657"/>
       <c r="D1014" s="2"/>
       <c r="E1014" s="2"/>
       <c r="F1014" s="2"/>
@@ -50717,10 +50717,10 @@
     </row>
     <row r="1031" spans="1:11" ht="14.35">
       <c r="A1031" s="2"/>
-      <c r="B1031" s="647" t="s">
+      <c r="B1031" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C1031" s="650"/>
+      <c r="C1031" s="659"/>
       <c r="D1031" s="2"/>
       <c r="E1031" s="2"/>
       <c r="F1031" s="2"/>
@@ -50963,10 +50963,10 @@
       <c r="K1050" s="10"/>
     </row>
     <row r="1051" spans="2:11" ht="14.35">
-      <c r="B1051" s="647" t="s">
+      <c r="B1051" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C1051" s="648"/>
+      <c r="C1051" s="657"/>
       <c r="D1051" s="2"/>
       <c r="E1051" s="2"/>
       <c r="F1051" s="2"/>
@@ -51227,10 +51227,10 @@
     </row>
     <row r="1073" spans="1:11" ht="14.35">
       <c r="A1073" s="2"/>
-      <c r="B1073" s="647" t="s">
+      <c r="B1073" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C1073" s="648"/>
+      <c r="C1073" s="657"/>
       <c r="D1073" s="2"/>
       <c r="E1073" s="2"/>
       <c r="F1073" s="2"/>
@@ -51526,10 +51526,10 @@
     </row>
     <row r="1096" spans="1:11" ht="14.35">
       <c r="A1096" s="2"/>
-      <c r="B1096" s="647" t="s">
+      <c r="B1096" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C1096" s="648"/>
+      <c r="C1096" s="657"/>
       <c r="D1096" s="2"/>
       <c r="E1096" s="2"/>
       <c r="F1096" s="2"/>
@@ -51553,61 +51553,61 @@
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="B1014:C1014"/>
+    <mergeCell ref="B1031:C1031"/>
+    <mergeCell ref="B1051:C1051"/>
+    <mergeCell ref="B1073:C1073"/>
+    <mergeCell ref="B1096:C1096"/>
+    <mergeCell ref="B920:C920"/>
+    <mergeCell ref="B942:C942"/>
+    <mergeCell ref="B961:C961"/>
+    <mergeCell ref="B980:C980"/>
+    <mergeCell ref="B994:C994"/>
+    <mergeCell ref="B802:C802"/>
+    <mergeCell ref="B824:C824"/>
+    <mergeCell ref="B849:C849"/>
+    <mergeCell ref="B874:C874"/>
+    <mergeCell ref="B900:C900"/>
+    <mergeCell ref="B692:C692"/>
+    <mergeCell ref="B710:C710"/>
+    <mergeCell ref="B736:C736"/>
+    <mergeCell ref="B756:C756"/>
+    <mergeCell ref="B779:C779"/>
+    <mergeCell ref="B597:C597"/>
+    <mergeCell ref="B616:C616"/>
+    <mergeCell ref="B635:C635"/>
+    <mergeCell ref="B655:C655"/>
+    <mergeCell ref="B673:C673"/>
+    <mergeCell ref="B405:C405"/>
+    <mergeCell ref="B440:C440"/>
+    <mergeCell ref="B473:C473"/>
+    <mergeCell ref="B506:C506"/>
+    <mergeCell ref="B559:C559"/>
+    <mergeCell ref="B310:C310"/>
+    <mergeCell ref="D324:D328"/>
+    <mergeCell ref="B330:C330"/>
+    <mergeCell ref="B352:C352"/>
+    <mergeCell ref="B370:C370"/>
+    <mergeCell ref="B217:C217"/>
+    <mergeCell ref="B242:C242"/>
+    <mergeCell ref="D268:D272"/>
+    <mergeCell ref="B274:C274"/>
+    <mergeCell ref="D304:D308"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="B106:C106"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D36:D41"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B61:C61"/>
     <mergeCell ref="E75:F75"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="B217:C217"/>
-    <mergeCell ref="B242:C242"/>
-    <mergeCell ref="D268:D272"/>
-    <mergeCell ref="B274:C274"/>
-    <mergeCell ref="D304:D308"/>
-    <mergeCell ref="B310:C310"/>
-    <mergeCell ref="D324:D328"/>
-    <mergeCell ref="B330:C330"/>
-    <mergeCell ref="B352:C352"/>
-    <mergeCell ref="B370:C370"/>
-    <mergeCell ref="B405:C405"/>
-    <mergeCell ref="B440:C440"/>
-    <mergeCell ref="B473:C473"/>
-    <mergeCell ref="B506:C506"/>
-    <mergeCell ref="B559:C559"/>
-    <mergeCell ref="B597:C597"/>
-    <mergeCell ref="B616:C616"/>
-    <mergeCell ref="B635:C635"/>
-    <mergeCell ref="B655:C655"/>
-    <mergeCell ref="B673:C673"/>
-    <mergeCell ref="B692:C692"/>
-    <mergeCell ref="B710:C710"/>
-    <mergeCell ref="B736:C736"/>
-    <mergeCell ref="B756:C756"/>
-    <mergeCell ref="B779:C779"/>
-    <mergeCell ref="B802:C802"/>
-    <mergeCell ref="B824:C824"/>
-    <mergeCell ref="B849:C849"/>
-    <mergeCell ref="B874:C874"/>
-    <mergeCell ref="B900:C900"/>
-    <mergeCell ref="B920:C920"/>
-    <mergeCell ref="B942:C942"/>
-    <mergeCell ref="B961:C961"/>
-    <mergeCell ref="B980:C980"/>
-    <mergeCell ref="B994:C994"/>
-    <mergeCell ref="B1014:C1014"/>
-    <mergeCell ref="B1031:C1031"/>
-    <mergeCell ref="B1051:C1051"/>
-    <mergeCell ref="B1073:C1073"/>
-    <mergeCell ref="B1096:C1096"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -51677,10 +51677,10 @@
       <c r="D2" s="246" t="s">
         <v>508</v>
       </c>
-      <c r="E2" s="682" t="s">
+      <c r="E2" s="698" t="s">
         <v>509</v>
       </c>
-      <c r="F2" s="683"/>
+      <c r="F2" s="699"/>
       <c r="G2" s="252" t="s">
         <v>510</v>
       </c>
@@ -51713,71 +51713,71 @@
       <c r="A3" s="253">
         <v>1</v>
       </c>
-      <c r="B3" s="694" t="s">
+      <c r="B3" s="681" t="s">
         <v>456</v>
       </c>
-      <c r="C3" s="695"/>
-      <c r="D3" s="695"/>
-      <c r="E3" s="695"/>
-      <c r="F3" s="695"/>
-      <c r="G3" s="695"/>
-      <c r="H3" s="695"/>
-      <c r="I3" s="695"/>
-      <c r="J3" s="695"/>
-      <c r="K3" s="688" t="s">
+      <c r="C3" s="682"/>
+      <c r="D3" s="682"/>
+      <c r="E3" s="682"/>
+      <c r="F3" s="682"/>
+      <c r="G3" s="682"/>
+      <c r="H3" s="682"/>
+      <c r="I3" s="682"/>
+      <c r="J3" s="682"/>
+      <c r="K3" s="683" t="s">
         <v>457</v>
       </c>
-      <c r="L3" s="687"/>
-      <c r="M3" s="687"/>
-      <c r="N3" s="687"/>
-      <c r="O3" s="687"/>
-      <c r="P3" s="687"/>
-      <c r="Q3" s="687"/>
-      <c r="R3" s="687"/>
-      <c r="S3" s="687"/>
-      <c r="T3" s="687"/>
-      <c r="U3" s="687"/>
-      <c r="V3" s="687"/>
-      <c r="W3" s="687"/>
+      <c r="L3" s="684"/>
+      <c r="M3" s="684"/>
+      <c r="N3" s="684"/>
+      <c r="O3" s="684"/>
+      <c r="P3" s="684"/>
+      <c r="Q3" s="684"/>
+      <c r="R3" s="684"/>
+      <c r="S3" s="684"/>
+      <c r="T3" s="684"/>
+      <c r="U3" s="684"/>
+      <c r="V3" s="684"/>
+      <c r="W3" s="684"/>
     </row>
     <row r="4" spans="1:23" ht="14">
       <c r="A4" s="244"/>
-      <c r="B4" s="696" t="s">
+      <c r="B4" s="685" t="s">
         <v>459</v>
       </c>
-      <c r="C4" s="693"/>
-      <c r="D4" s="693"/>
+      <c r="C4" s="686"/>
+      <c r="D4" s="686"/>
       <c r="E4" s="674" t="s">
         <v>515</v>
       </c>
-      <c r="F4" s="693"/>
-      <c r="G4" s="693"/>
-      <c r="H4" s="697" t="s">
+      <c r="F4" s="686"/>
+      <c r="G4" s="686"/>
+      <c r="H4" s="687" t="s">
         <v>516</v>
       </c>
-      <c r="I4" s="698"/>
-      <c r="J4" s="698"/>
+      <c r="I4" s="688"/>
+      <c r="J4" s="688"/>
       <c r="K4" s="674" t="s">
         <v>460</v>
       </c>
-      <c r="L4" s="693"/>
-      <c r="M4" s="693"/>
+      <c r="L4" s="686"/>
+      <c r="M4" s="686"/>
       <c r="N4" s="674" t="s">
         <v>517</v>
       </c>
-      <c r="O4" s="693"/>
-      <c r="P4" s="693"/>
+      <c r="O4" s="686"/>
+      <c r="P4" s="686"/>
       <c r="Q4" s="674" t="s">
         <v>518</v>
       </c>
-      <c r="R4" s="693"/>
-      <c r="S4" s="693"/>
-      <c r="T4" s="699" t="s">
+      <c r="R4" s="686"/>
+      <c r="S4" s="686"/>
+      <c r="T4" s="689" t="s">
         <v>519</v>
       </c>
-      <c r="U4" s="700"/>
-      <c r="V4" s="700"/>
-      <c r="W4" s="700"/>
+      <c r="U4" s="690"/>
+      <c r="V4" s="690"/>
+      <c r="W4" s="690"/>
     </row>
     <row r="5" spans="1:23" ht="15.35">
       <c r="A5" s="244"/>
@@ -51835,7 +51835,7 @@
       <c r="S5" s="259" t="s">
         <v>463</v>
       </c>
-      <c r="T5" s="681" t="s">
+      <c r="T5" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U5" s="171" t="s">
@@ -51880,7 +51880,7 @@
       <c r="Q6" s="184"/>
       <c r="R6" s="183"/>
       <c r="S6" s="268"/>
-      <c r="T6" s="641"/>
+      <c r="T6" s="644"/>
       <c r="U6" s="171" t="s">
         <v>524</v>
       </c>
@@ -52327,32 +52327,32 @@
       </c>
     </row>
     <row r="23" spans="1:23" ht="14">
-      <c r="B23" s="684" t="s">
+      <c r="B23" s="695" t="s">
         <v>456</v>
       </c>
-      <c r="C23" s="641"/>
-      <c r="D23" s="641"/>
-      <c r="E23" s="641"/>
-      <c r="F23" s="641"/>
-      <c r="G23" s="641"/>
-      <c r="H23" s="641"/>
-      <c r="I23" s="641"/>
-      <c r="J23" s="641"/>
-      <c r="K23" s="685" t="s">
+      <c r="C23" s="644"/>
+      <c r="D23" s="644"/>
+      <c r="E23" s="644"/>
+      <c r="F23" s="644"/>
+      <c r="G23" s="644"/>
+      <c r="H23" s="644"/>
+      <c r="I23" s="644"/>
+      <c r="J23" s="644"/>
+      <c r="K23" s="694" t="s">
         <v>911</v>
       </c>
-      <c r="L23" s="641"/>
-      <c r="M23" s="641"/>
-      <c r="N23" s="641"/>
-      <c r="O23" s="641"/>
-      <c r="P23" s="641"/>
-      <c r="Q23" s="641"/>
-      <c r="R23" s="641"/>
-      <c r="S23" s="641"/>
-      <c r="T23" s="641"/>
-      <c r="U23" s="641"/>
-      <c r="V23" s="641"/>
-      <c r="W23" s="641"/>
+      <c r="L23" s="644"/>
+      <c r="M23" s="644"/>
+      <c r="N23" s="644"/>
+      <c r="O23" s="644"/>
+      <c r="P23" s="644"/>
+      <c r="Q23" s="644"/>
+      <c r="R23" s="644"/>
+      <c r="S23" s="644"/>
+      <c r="T23" s="644"/>
+      <c r="U23" s="644"/>
+      <c r="V23" s="644"/>
+      <c r="W23" s="644"/>
     </row>
     <row r="24" spans="1:23" ht="14">
       <c r="A24" s="253">
@@ -52388,12 +52388,12 @@
       </c>
       <c r="R24" s="678"/>
       <c r="S24" s="678"/>
-      <c r="T24" s="679" t="s">
+      <c r="T24" s="692" t="s">
         <v>519</v>
       </c>
-      <c r="U24" s="680"/>
-      <c r="V24" s="680"/>
-      <c r="W24" s="680"/>
+      <c r="U24" s="693"/>
+      <c r="V24" s="693"/>
+      <c r="W24" s="693"/>
     </row>
     <row r="25" spans="1:23" ht="15.35">
       <c r="A25" s="288"/>
@@ -52451,7 +52451,7 @@
       <c r="S25" s="258" t="s">
         <v>914</v>
       </c>
-      <c r="T25" s="681" t="s">
+      <c r="T25" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U25" s="171" t="s">
@@ -52496,7 +52496,7 @@
       <c r="Q26" s="184"/>
       <c r="R26" s="188"/>
       <c r="S26" s="188"/>
-      <c r="T26" s="641"/>
+      <c r="T26" s="644"/>
       <c r="U26" s="171" t="s">
         <v>524</v>
       </c>
@@ -52760,32 +52760,32 @@
       <c r="E43" s="307"/>
     </row>
     <row r="44" spans="1:23" ht="14">
-      <c r="B44" s="684" t="s">
+      <c r="B44" s="695" t="s">
         <v>456</v>
       </c>
-      <c r="C44" s="641"/>
-      <c r="D44" s="641"/>
-      <c r="E44" s="641"/>
-      <c r="F44" s="641"/>
-      <c r="G44" s="641"/>
-      <c r="H44" s="641"/>
-      <c r="I44" s="641"/>
-      <c r="J44" s="641"/>
-      <c r="K44" s="684" t="s">
+      <c r="C44" s="644"/>
+      <c r="D44" s="644"/>
+      <c r="E44" s="644"/>
+      <c r="F44" s="644"/>
+      <c r="G44" s="644"/>
+      <c r="H44" s="644"/>
+      <c r="I44" s="644"/>
+      <c r="J44" s="644"/>
+      <c r="K44" s="695" t="s">
         <v>457</v>
       </c>
-      <c r="L44" s="641"/>
-      <c r="M44" s="641"/>
-      <c r="N44" s="641"/>
-      <c r="O44" s="641"/>
-      <c r="P44" s="641"/>
-      <c r="Q44" s="641"/>
-      <c r="R44" s="641"/>
-      <c r="S44" s="641"/>
-      <c r="T44" s="641"/>
-      <c r="U44" s="641"/>
-      <c r="V44" s="641"/>
-      <c r="W44" s="641"/>
+      <c r="L44" s="644"/>
+      <c r="M44" s="644"/>
+      <c r="N44" s="644"/>
+      <c r="O44" s="644"/>
+      <c r="P44" s="644"/>
+      <c r="Q44" s="644"/>
+      <c r="R44" s="644"/>
+      <c r="S44" s="644"/>
+      <c r="T44" s="644"/>
+      <c r="U44" s="644"/>
+      <c r="V44" s="644"/>
+      <c r="W44" s="644"/>
     </row>
     <row r="45" spans="1:23" ht="14">
       <c r="A45" s="253">
@@ -52821,12 +52821,12 @@
       </c>
       <c r="R45" s="678"/>
       <c r="S45" s="678"/>
-      <c r="T45" s="692" t="s">
+      <c r="T45" s="696" t="s">
         <v>519</v>
       </c>
-      <c r="U45" s="693"/>
-      <c r="V45" s="693"/>
-      <c r="W45" s="693"/>
+      <c r="U45" s="686"/>
+      <c r="V45" s="686"/>
+      <c r="W45" s="686"/>
     </row>
     <row r="46" spans="1:23" ht="15.35">
       <c r="A46" s="288"/>
@@ -52884,7 +52884,7 @@
       <c r="S46" s="287" t="s">
         <v>914</v>
       </c>
-      <c r="T46" s="689" t="s">
+      <c r="T46" s="701" t="s">
         <v>520</v>
       </c>
       <c r="U46" s="318" t="s">
@@ -52929,7 +52929,7 @@
       <c r="Q47" s="184"/>
       <c r="R47" s="188"/>
       <c r="S47" s="188"/>
-      <c r="T47" s="641"/>
+      <c r="T47" s="644"/>
       <c r="U47" s="171" t="s">
         <v>524</v>
       </c>
@@ -53161,32 +53161,32 @@
       <c r="C61" s="170"/>
     </row>
     <row r="62" spans="1:23" ht="14">
-      <c r="B62" s="684" t="s">
+      <c r="B62" s="695" t="s">
         <v>456</v>
       </c>
-      <c r="C62" s="641"/>
-      <c r="D62" s="641"/>
-      <c r="E62" s="641"/>
-      <c r="F62" s="641"/>
-      <c r="G62" s="641"/>
-      <c r="H62" s="641"/>
-      <c r="I62" s="641"/>
-      <c r="J62" s="641"/>
-      <c r="K62" s="684" t="s">
+      <c r="C62" s="644"/>
+      <c r="D62" s="644"/>
+      <c r="E62" s="644"/>
+      <c r="F62" s="644"/>
+      <c r="G62" s="644"/>
+      <c r="H62" s="644"/>
+      <c r="I62" s="644"/>
+      <c r="J62" s="644"/>
+      <c r="K62" s="695" t="s">
         <v>457</v>
       </c>
-      <c r="L62" s="641"/>
-      <c r="M62" s="641"/>
-      <c r="N62" s="641"/>
-      <c r="O62" s="641"/>
-      <c r="P62" s="641"/>
-      <c r="Q62" s="641"/>
-      <c r="R62" s="641"/>
-      <c r="S62" s="641"/>
-      <c r="T62" s="641"/>
-      <c r="U62" s="641"/>
-      <c r="V62" s="641"/>
-      <c r="W62" s="641"/>
+      <c r="L62" s="644"/>
+      <c r="M62" s="644"/>
+      <c r="N62" s="644"/>
+      <c r="O62" s="644"/>
+      <c r="P62" s="644"/>
+      <c r="Q62" s="644"/>
+      <c r="R62" s="644"/>
+      <c r="S62" s="644"/>
+      <c r="T62" s="644"/>
+      <c r="U62" s="644"/>
+      <c r="V62" s="644"/>
+      <c r="W62" s="644"/>
     </row>
     <row r="63" spans="1:23" ht="14">
       <c r="A63" s="253">
@@ -53222,12 +53222,12 @@
       </c>
       <c r="R63" s="678"/>
       <c r="S63" s="678"/>
-      <c r="T63" s="679" t="s">
+      <c r="T63" s="692" t="s">
         <v>519</v>
       </c>
-      <c r="U63" s="680"/>
-      <c r="V63" s="680"/>
-      <c r="W63" s="680"/>
+      <c r="U63" s="693"/>
+      <c r="V63" s="693"/>
+      <c r="W63" s="693"/>
     </row>
     <row r="64" spans="1:23" ht="15.35">
       <c r="A64" s="288"/>
@@ -53285,7 +53285,7 @@
       <c r="S64" s="254" t="s">
         <v>463</v>
       </c>
-      <c r="T64" s="681" t="s">
+      <c r="T64" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U64" s="171" t="s">
@@ -53330,7 +53330,7 @@
       <c r="Q65" s="184"/>
       <c r="R65" s="184"/>
       <c r="S65" s="184"/>
-      <c r="T65" s="641"/>
+      <c r="T65" s="644"/>
       <c r="U65" s="171" t="s">
         <v>524</v>
       </c>
@@ -53595,32 +53595,32 @@
       </c>
     </row>
     <row r="85" spans="1:23" ht="14">
-      <c r="B85" s="685" t="s">
+      <c r="B85" s="694" t="s">
         <v>919</v>
       </c>
-      <c r="C85" s="641"/>
-      <c r="D85" s="641"/>
-      <c r="E85" s="641"/>
-      <c r="F85" s="641"/>
-      <c r="G85" s="641"/>
-      <c r="H85" s="641"/>
-      <c r="I85" s="641"/>
-      <c r="J85" s="641"/>
-      <c r="K85" s="685" t="s">
+      <c r="C85" s="644"/>
+      <c r="D85" s="644"/>
+      <c r="E85" s="644"/>
+      <c r="F85" s="644"/>
+      <c r="G85" s="644"/>
+      <c r="H85" s="644"/>
+      <c r="I85" s="644"/>
+      <c r="J85" s="644"/>
+      <c r="K85" s="694" t="s">
         <v>911</v>
       </c>
-      <c r="L85" s="641"/>
-      <c r="M85" s="641"/>
-      <c r="N85" s="641"/>
-      <c r="O85" s="641"/>
-      <c r="P85" s="641"/>
-      <c r="Q85" s="641"/>
-      <c r="R85" s="641"/>
-      <c r="S85" s="641"/>
-      <c r="T85" s="641"/>
-      <c r="U85" s="641"/>
-      <c r="V85" s="641"/>
-      <c r="W85" s="641"/>
+      <c r="L85" s="644"/>
+      <c r="M85" s="644"/>
+      <c r="N85" s="644"/>
+      <c r="O85" s="644"/>
+      <c r="P85" s="644"/>
+      <c r="Q85" s="644"/>
+      <c r="R85" s="644"/>
+      <c r="S85" s="644"/>
+      <c r="T85" s="644"/>
+      <c r="U85" s="644"/>
+      <c r="V85" s="644"/>
+      <c r="W85" s="644"/>
     </row>
     <row r="86" spans="1:23" ht="14">
       <c r="A86" s="253">
@@ -53631,17 +53631,17 @@
       </c>
       <c r="C86" s="673"/>
       <c r="D86" s="673"/>
-      <c r="E86" s="690" t="s">
+      <c r="E86" s="680" t="s">
         <v>920</v>
       </c>
       <c r="F86" s="675"/>
       <c r="G86" s="675"/>
-      <c r="H86" s="691" t="s">
+      <c r="H86" s="697" t="s">
         <v>921</v>
       </c>
       <c r="I86" s="677"/>
       <c r="J86" s="677"/>
-      <c r="K86" s="690" t="s">
+      <c r="K86" s="680" t="s">
         <v>922</v>
       </c>
       <c r="L86" s="678"/>
@@ -53656,12 +53656,12 @@
       </c>
       <c r="R86" s="678"/>
       <c r="S86" s="678"/>
-      <c r="T86" s="679" t="s">
+      <c r="T86" s="692" t="s">
         <v>519</v>
       </c>
-      <c r="U86" s="680"/>
-      <c r="V86" s="680"/>
-      <c r="W86" s="680"/>
+      <c r="U86" s="693"/>
+      <c r="V86" s="693"/>
+      <c r="W86" s="693"/>
     </row>
     <row r="87" spans="1:23" ht="15.35">
       <c r="A87" s="288"/>
@@ -53719,7 +53719,7 @@
       <c r="S87" s="254" t="s">
         <v>463</v>
       </c>
-      <c r="T87" s="681" t="s">
+      <c r="T87" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U87" s="171" t="s">
@@ -53764,7 +53764,7 @@
       <c r="Q88" s="184"/>
       <c r="R88" s="184"/>
       <c r="S88" s="184"/>
-      <c r="T88" s="641"/>
+      <c r="T88" s="644"/>
       <c r="U88" s="171" t="s">
         <v>524</v>
       </c>
@@ -54028,32 +54028,32 @@
       <c r="C106" s="170"/>
     </row>
     <row r="107" spans="1:23" ht="14">
-      <c r="B107" s="685" t="s">
+      <c r="B107" s="694" t="s">
         <v>919</v>
       </c>
-      <c r="C107" s="641"/>
-      <c r="D107" s="641"/>
-      <c r="E107" s="641"/>
-      <c r="F107" s="641"/>
-      <c r="G107" s="641"/>
-      <c r="H107" s="641"/>
-      <c r="I107" s="641"/>
-      <c r="J107" s="641"/>
-      <c r="K107" s="684" t="s">
+      <c r="C107" s="644"/>
+      <c r="D107" s="644"/>
+      <c r="E107" s="644"/>
+      <c r="F107" s="644"/>
+      <c r="G107" s="644"/>
+      <c r="H107" s="644"/>
+      <c r="I107" s="644"/>
+      <c r="J107" s="644"/>
+      <c r="K107" s="695" t="s">
         <v>457</v>
       </c>
-      <c r="L107" s="641"/>
-      <c r="M107" s="641"/>
-      <c r="N107" s="641"/>
-      <c r="O107" s="641"/>
-      <c r="P107" s="641"/>
-      <c r="Q107" s="641"/>
-      <c r="R107" s="641"/>
-      <c r="S107" s="641"/>
-      <c r="T107" s="641"/>
-      <c r="U107" s="641"/>
-      <c r="V107" s="641"/>
-      <c r="W107" s="641"/>
+      <c r="L107" s="644"/>
+      <c r="M107" s="644"/>
+      <c r="N107" s="644"/>
+      <c r="O107" s="644"/>
+      <c r="P107" s="644"/>
+      <c r="Q107" s="644"/>
+      <c r="R107" s="644"/>
+      <c r="S107" s="644"/>
+      <c r="T107" s="644"/>
+      <c r="U107" s="644"/>
+      <c r="V107" s="644"/>
+      <c r="W107" s="644"/>
     </row>
     <row r="108" spans="1:23" ht="14">
       <c r="A108" s="253">
@@ -54064,7 +54064,7 @@
       </c>
       <c r="C108" s="673"/>
       <c r="D108" s="673"/>
-      <c r="E108" s="690" t="s">
+      <c r="E108" s="680" t="s">
         <v>920</v>
       </c>
       <c r="F108" s="675"/>
@@ -54089,12 +54089,12 @@
       </c>
       <c r="R108" s="678"/>
       <c r="S108" s="678"/>
-      <c r="T108" s="679" t="s">
+      <c r="T108" s="692" t="s">
         <v>519</v>
       </c>
-      <c r="U108" s="680"/>
-      <c r="V108" s="680"/>
-      <c r="W108" s="680"/>
+      <c r="U108" s="693"/>
+      <c r="V108" s="693"/>
+      <c r="W108" s="693"/>
     </row>
     <row r="109" spans="1:23" ht="15.35">
       <c r="A109" s="288"/>
@@ -54152,7 +54152,7 @@
       <c r="S109" s="346" t="s">
         <v>463</v>
       </c>
-      <c r="T109" s="681" t="s">
+      <c r="T109" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U109" s="171" t="s">
@@ -54197,7 +54197,7 @@
       <c r="Q110" s="184"/>
       <c r="R110" s="184"/>
       <c r="S110" s="184"/>
-      <c r="T110" s="641"/>
+      <c r="T110" s="644"/>
       <c r="U110" s="171" t="s">
         <v>524</v>
       </c>
@@ -54411,32 +54411,32 @@
       </c>
     </row>
     <row r="128" spans="1:23" ht="14">
-      <c r="B128" s="684" t="s">
+      <c r="B128" s="695" t="s">
         <v>456</v>
       </c>
-      <c r="C128" s="641"/>
-      <c r="D128" s="641"/>
-      <c r="E128" s="641"/>
-      <c r="F128" s="641"/>
-      <c r="G128" s="641"/>
-      <c r="H128" s="641"/>
-      <c r="I128" s="641"/>
-      <c r="J128" s="641"/>
-      <c r="K128" s="684" t="s">
+      <c r="C128" s="644"/>
+      <c r="D128" s="644"/>
+      <c r="E128" s="644"/>
+      <c r="F128" s="644"/>
+      <c r="G128" s="644"/>
+      <c r="H128" s="644"/>
+      <c r="I128" s="644"/>
+      <c r="J128" s="644"/>
+      <c r="K128" s="695" t="s">
         <v>457</v>
       </c>
-      <c r="L128" s="641"/>
-      <c r="M128" s="641"/>
-      <c r="N128" s="641"/>
-      <c r="O128" s="641"/>
-      <c r="P128" s="641"/>
-      <c r="Q128" s="641"/>
-      <c r="R128" s="641"/>
-      <c r="S128" s="641"/>
-      <c r="T128" s="641"/>
-      <c r="U128" s="641"/>
-      <c r="V128" s="641"/>
-      <c r="W128" s="641"/>
+      <c r="L128" s="644"/>
+      <c r="M128" s="644"/>
+      <c r="N128" s="644"/>
+      <c r="O128" s="644"/>
+      <c r="P128" s="644"/>
+      <c r="Q128" s="644"/>
+      <c r="R128" s="644"/>
+      <c r="S128" s="644"/>
+      <c r="T128" s="644"/>
+      <c r="U128" s="644"/>
+      <c r="V128" s="644"/>
+      <c r="W128" s="644"/>
     </row>
     <row r="129" spans="1:23" ht="14">
       <c r="A129" s="253">
@@ -54472,12 +54472,12 @@
       </c>
       <c r="R129" s="678"/>
       <c r="S129" s="678"/>
-      <c r="T129" s="679" t="s">
+      <c r="T129" s="692" t="s">
         <v>519</v>
       </c>
-      <c r="U129" s="680"/>
-      <c r="V129" s="680"/>
-      <c r="W129" s="680"/>
+      <c r="U129" s="693"/>
+      <c r="V129" s="693"/>
+      <c r="W129" s="693"/>
     </row>
     <row r="130" spans="1:23" ht="15.35">
       <c r="A130" s="288"/>
@@ -54535,7 +54535,7 @@
       <c r="S130" s="346" t="s">
         <v>463</v>
       </c>
-      <c r="T130" s="681" t="s">
+      <c r="T130" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U130" s="171" t="s">
@@ -54580,7 +54580,7 @@
       <c r="Q131" s="184"/>
       <c r="R131" s="184"/>
       <c r="S131" s="184"/>
-      <c r="T131" s="641"/>
+      <c r="T131" s="644"/>
       <c r="U131" s="171" t="s">
         <v>524</v>
       </c>
@@ -54780,32 +54780,32 @@
       </c>
     </row>
     <row r="142" spans="1:23" ht="14">
-      <c r="B142" s="684" t="s">
+      <c r="B142" s="695" t="s">
         <v>456</v>
       </c>
-      <c r="C142" s="641"/>
-      <c r="D142" s="641"/>
-      <c r="E142" s="641"/>
-      <c r="F142" s="641"/>
-      <c r="G142" s="641"/>
-      <c r="H142" s="641"/>
-      <c r="I142" s="641"/>
-      <c r="J142" s="641"/>
-      <c r="K142" s="684" t="s">
+      <c r="C142" s="644"/>
+      <c r="D142" s="644"/>
+      <c r="E142" s="644"/>
+      <c r="F142" s="644"/>
+      <c r="G142" s="644"/>
+      <c r="H142" s="644"/>
+      <c r="I142" s="644"/>
+      <c r="J142" s="644"/>
+      <c r="K142" s="695" t="s">
         <v>457</v>
       </c>
-      <c r="L142" s="641"/>
-      <c r="M142" s="641"/>
-      <c r="N142" s="641"/>
-      <c r="O142" s="641"/>
-      <c r="P142" s="641"/>
-      <c r="Q142" s="641"/>
-      <c r="R142" s="641"/>
-      <c r="S142" s="641"/>
-      <c r="T142" s="641"/>
-      <c r="U142" s="641"/>
-      <c r="V142" s="641"/>
-      <c r="W142" s="641"/>
+      <c r="L142" s="644"/>
+      <c r="M142" s="644"/>
+      <c r="N142" s="644"/>
+      <c r="O142" s="644"/>
+      <c r="P142" s="644"/>
+      <c r="Q142" s="644"/>
+      <c r="R142" s="644"/>
+      <c r="S142" s="644"/>
+      <c r="T142" s="644"/>
+      <c r="U142" s="644"/>
+      <c r="V142" s="644"/>
+      <c r="W142" s="644"/>
     </row>
     <row r="143" spans="1:23" ht="14">
       <c r="A143" s="253">
@@ -54839,14 +54839,14 @@
       <c r="Q143" s="674" t="s">
         <v>916</v>
       </c>
-      <c r="R143" s="701"/>
-      <c r="S143" s="701"/>
-      <c r="T143" s="679" t="s">
+      <c r="R143" s="679"/>
+      <c r="S143" s="679"/>
+      <c r="T143" s="692" t="s">
         <v>519</v>
       </c>
-      <c r="U143" s="680"/>
-      <c r="V143" s="680"/>
-      <c r="W143" s="680"/>
+      <c r="U143" s="693"/>
+      <c r="V143" s="693"/>
+      <c r="W143" s="693"/>
     </row>
     <row r="144" spans="1:23" ht="15.35">
       <c r="A144" s="288"/>
@@ -54904,7 +54904,7 @@
       <c r="S144" s="254" t="s">
         <v>463</v>
       </c>
-      <c r="T144" s="681" t="s">
+      <c r="T144" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U144" s="171" t="s">
@@ -54949,7 +54949,7 @@
       <c r="Q145" s="184"/>
       <c r="R145" s="184"/>
       <c r="S145" s="184"/>
-      <c r="T145" s="641"/>
+      <c r="T145" s="644"/>
       <c r="U145" s="171" t="s">
         <v>524</v>
       </c>
@@ -55141,32 +55141,32 @@
       </c>
     </row>
     <row r="157" spans="1:23" ht="14">
-      <c r="B157" s="686" t="s">
+      <c r="B157" s="700" t="s">
         <v>456</v>
       </c>
-      <c r="C157" s="687"/>
-      <c r="D157" s="687"/>
-      <c r="E157" s="687"/>
-      <c r="F157" s="687"/>
-      <c r="G157" s="687"/>
-      <c r="H157" s="687"/>
-      <c r="I157" s="687"/>
-      <c r="J157" s="687"/>
-      <c r="K157" s="688" t="s">
+      <c r="C157" s="684"/>
+      <c r="D157" s="684"/>
+      <c r="E157" s="684"/>
+      <c r="F157" s="684"/>
+      <c r="G157" s="684"/>
+      <c r="H157" s="684"/>
+      <c r="I157" s="684"/>
+      <c r="J157" s="684"/>
+      <c r="K157" s="683" t="s">
         <v>911</v>
       </c>
-      <c r="L157" s="687"/>
-      <c r="M157" s="687"/>
-      <c r="N157" s="687"/>
-      <c r="O157" s="687"/>
-      <c r="P157" s="687"/>
-      <c r="Q157" s="687"/>
-      <c r="R157" s="687"/>
-      <c r="S157" s="687"/>
-      <c r="T157" s="687"/>
-      <c r="U157" s="687"/>
-      <c r="V157" s="687"/>
-      <c r="W157" s="687"/>
+      <c r="L157" s="684"/>
+      <c r="M157" s="684"/>
+      <c r="N157" s="684"/>
+      <c r="O157" s="684"/>
+      <c r="P157" s="684"/>
+      <c r="Q157" s="684"/>
+      <c r="R157" s="684"/>
+      <c r="S157" s="684"/>
+      <c r="T157" s="684"/>
+      <c r="U157" s="684"/>
+      <c r="V157" s="684"/>
+      <c r="W157" s="684"/>
     </row>
     <row r="158" spans="1:23" ht="14">
       <c r="A158" s="253">
@@ -55202,12 +55202,12 @@
       </c>
       <c r="R158" s="678"/>
       <c r="S158" s="678"/>
-      <c r="T158" s="679" t="s">
+      <c r="T158" s="692" t="s">
         <v>519</v>
       </c>
-      <c r="U158" s="680"/>
-      <c r="V158" s="680"/>
-      <c r="W158" s="680"/>
+      <c r="U158" s="693"/>
+      <c r="V158" s="693"/>
+      <c r="W158" s="693"/>
     </row>
     <row r="159" spans="1:23" ht="15.35">
       <c r="A159" s="288"/>
@@ -55265,7 +55265,7 @@
       <c r="S159" s="258" t="s">
         <v>914</v>
       </c>
-      <c r="T159" s="681" t="s">
+      <c r="T159" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U159" s="171" t="s">
@@ -55310,7 +55310,7 @@
       <c r="Q160" s="321"/>
       <c r="R160" s="275"/>
       <c r="S160" s="275"/>
-      <c r="T160" s="641"/>
+      <c r="T160" s="644"/>
       <c r="U160" s="171"/>
       <c r="V160" s="266"/>
       <c r="W160" s="266"/>
@@ -55347,7 +55347,7 @@
       <c r="Q161" s="184"/>
       <c r="R161" s="188"/>
       <c r="S161" s="188"/>
-      <c r="T161" s="641"/>
+      <c r="T161" s="644"/>
       <c r="U161" s="171" t="s">
         <v>524</v>
       </c>
@@ -55548,32 +55548,32 @@
     </row>
     <row r="172" spans="1:23" ht="14">
       <c r="A172" s="293"/>
-      <c r="B172" s="684" t="s">
+      <c r="B172" s="695" t="s">
         <v>456</v>
       </c>
-      <c r="C172" s="641"/>
-      <c r="D172" s="641"/>
-      <c r="E172" s="641"/>
-      <c r="F172" s="641"/>
-      <c r="G172" s="641"/>
-      <c r="H172" s="641"/>
-      <c r="I172" s="641"/>
-      <c r="J172" s="641"/>
-      <c r="K172" s="685" t="s">
+      <c r="C172" s="644"/>
+      <c r="D172" s="644"/>
+      <c r="E172" s="644"/>
+      <c r="F172" s="644"/>
+      <c r="G172" s="644"/>
+      <c r="H172" s="644"/>
+      <c r="I172" s="644"/>
+      <c r="J172" s="644"/>
+      <c r="K172" s="694" t="s">
         <v>911</v>
       </c>
-      <c r="L172" s="641"/>
-      <c r="M172" s="641"/>
-      <c r="N172" s="641"/>
-      <c r="O172" s="641"/>
-      <c r="P172" s="641"/>
-      <c r="Q172" s="641"/>
-      <c r="R172" s="641"/>
-      <c r="S172" s="641"/>
-      <c r="T172" s="641"/>
-      <c r="U172" s="641"/>
-      <c r="V172" s="641"/>
-      <c r="W172" s="641"/>
+      <c r="L172" s="644"/>
+      <c r="M172" s="644"/>
+      <c r="N172" s="644"/>
+      <c r="O172" s="644"/>
+      <c r="P172" s="644"/>
+      <c r="Q172" s="644"/>
+      <c r="R172" s="644"/>
+      <c r="S172" s="644"/>
+      <c r="T172" s="644"/>
+      <c r="U172" s="644"/>
+      <c r="V172" s="644"/>
+      <c r="W172" s="644"/>
     </row>
     <row r="173" spans="1:23" ht="14">
       <c r="A173" s="293"/>
@@ -55607,12 +55607,12 @@
       </c>
       <c r="R173" s="678"/>
       <c r="S173" s="678"/>
-      <c r="T173" s="679" t="s">
+      <c r="T173" s="692" t="s">
         <v>519</v>
       </c>
-      <c r="U173" s="680"/>
-      <c r="V173" s="680"/>
-      <c r="W173" s="680"/>
+      <c r="U173" s="693"/>
+      <c r="V173" s="693"/>
+      <c r="W173" s="693"/>
     </row>
     <row r="174" spans="1:23" ht="15.35">
       <c r="A174" s="293"/>
@@ -55670,7 +55670,7 @@
       <c r="S174" s="258" t="s">
         <v>914</v>
       </c>
-      <c r="T174" s="681" t="s">
+      <c r="T174" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U174" s="171" t="s">
@@ -55715,7 +55715,7 @@
       <c r="Q175" s="184"/>
       <c r="R175" s="188"/>
       <c r="S175" s="188"/>
-      <c r="T175" s="641"/>
+      <c r="T175" s="644"/>
       <c r="U175" s="171" t="s">
         <v>524</v>
       </c>
@@ -57861,50 +57861,39 @@
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="B143:D143"/>
-    <mergeCell ref="E143:G143"/>
-    <mergeCell ref="H143:J143"/>
-    <mergeCell ref="K143:M143"/>
-    <mergeCell ref="N143:P143"/>
-    <mergeCell ref="Q143:S143"/>
-    <mergeCell ref="K108:M108"/>
-    <mergeCell ref="H108:J108"/>
-    <mergeCell ref="E108:G108"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="Q129:S129"/>
-    <mergeCell ref="B129:D129"/>
-    <mergeCell ref="E129:G129"/>
-    <mergeCell ref="H129:J129"/>
-    <mergeCell ref="K129:M129"/>
-    <mergeCell ref="N129:P129"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="K3:W3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="K23:W23"/>
-    <mergeCell ref="B44:J44"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="T45:W45"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="B173:D173"/>
+    <mergeCell ref="E173:G173"/>
+    <mergeCell ref="H173:J173"/>
+    <mergeCell ref="K173:M173"/>
+    <mergeCell ref="N173:P173"/>
+    <mergeCell ref="Q173:S173"/>
+    <mergeCell ref="T173:W173"/>
+    <mergeCell ref="T174:T175"/>
+    <mergeCell ref="T159:T161"/>
+    <mergeCell ref="B158:D158"/>
+    <mergeCell ref="E158:G158"/>
+    <mergeCell ref="H158:J158"/>
+    <mergeCell ref="K158:M158"/>
+    <mergeCell ref="N158:P158"/>
+    <mergeCell ref="Q158:S158"/>
+    <mergeCell ref="T158:W158"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B172:J172"/>
+    <mergeCell ref="K172:W172"/>
+    <mergeCell ref="T129:W129"/>
+    <mergeCell ref="T130:T131"/>
+    <mergeCell ref="K128:W128"/>
+    <mergeCell ref="B142:J142"/>
+    <mergeCell ref="T143:W143"/>
+    <mergeCell ref="T144:T145"/>
+    <mergeCell ref="K142:W142"/>
+    <mergeCell ref="B157:J157"/>
+    <mergeCell ref="K157:W157"/>
+    <mergeCell ref="T46:T47"/>
+    <mergeCell ref="K44:W44"/>
+    <mergeCell ref="B62:J62"/>
+    <mergeCell ref="T63:W63"/>
+    <mergeCell ref="T64:T65"/>
     <mergeCell ref="K62:W62"/>
     <mergeCell ref="B85:J85"/>
     <mergeCell ref="B107:J107"/>
@@ -57929,39 +57918,50 @@
     <mergeCell ref="H86:J86"/>
     <mergeCell ref="E86:G86"/>
     <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B158:D158"/>
-    <mergeCell ref="E158:G158"/>
-    <mergeCell ref="H158:J158"/>
-    <mergeCell ref="K158:M158"/>
-    <mergeCell ref="N158:P158"/>
-    <mergeCell ref="Q158:S158"/>
-    <mergeCell ref="T158:W158"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B172:J172"/>
-    <mergeCell ref="K172:W172"/>
-    <mergeCell ref="T129:W129"/>
-    <mergeCell ref="T130:T131"/>
-    <mergeCell ref="K128:W128"/>
-    <mergeCell ref="B142:J142"/>
-    <mergeCell ref="T143:W143"/>
-    <mergeCell ref="T144:T145"/>
-    <mergeCell ref="K142:W142"/>
-    <mergeCell ref="B157:J157"/>
-    <mergeCell ref="K157:W157"/>
-    <mergeCell ref="T46:T47"/>
-    <mergeCell ref="K44:W44"/>
-    <mergeCell ref="B62:J62"/>
-    <mergeCell ref="T63:W63"/>
-    <mergeCell ref="T64:T65"/>
-    <mergeCell ref="B173:D173"/>
-    <mergeCell ref="E173:G173"/>
-    <mergeCell ref="H173:J173"/>
-    <mergeCell ref="K173:M173"/>
-    <mergeCell ref="N173:P173"/>
-    <mergeCell ref="Q173:S173"/>
-    <mergeCell ref="T173:W173"/>
-    <mergeCell ref="T174:T175"/>
-    <mergeCell ref="T159:T161"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="K23:W23"/>
+    <mergeCell ref="B44:J44"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="T45:W45"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="K3:W3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="B143:D143"/>
+    <mergeCell ref="E143:G143"/>
+    <mergeCell ref="H143:J143"/>
+    <mergeCell ref="K143:M143"/>
+    <mergeCell ref="N143:P143"/>
+    <mergeCell ref="Q143:S143"/>
+    <mergeCell ref="K108:M108"/>
+    <mergeCell ref="H108:J108"/>
+    <mergeCell ref="E108:G108"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="Q129:S129"/>
+    <mergeCell ref="B129:D129"/>
+    <mergeCell ref="E129:G129"/>
+    <mergeCell ref="H129:J129"/>
+    <mergeCell ref="K129:M129"/>
+    <mergeCell ref="N129:P129"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -58002,31 +58002,31 @@
       <c r="A2" s="196" t="s">
         <v>455</v>
       </c>
-      <c r="B2" s="709" t="s">
+      <c r="B2" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C2" s="710"/>
-      <c r="D2" s="710"/>
-      <c r="E2" s="711" t="s">
+      <c r="C2" s="705"/>
+      <c r="D2" s="705"/>
+      <c r="E2" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F2" s="698"/>
-      <c r="G2" s="698"/>
+      <c r="F2" s="688"/>
+      <c r="G2" s="688"/>
     </row>
     <row r="3" spans="1:7" ht="14">
       <c r="A3" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B3" s="707" t="s">
+      <c r="B3" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C3" s="693"/>
-      <c r="D3" s="693"/>
-      <c r="E3" s="708" t="s">
+      <c r="C3" s="686"/>
+      <c r="D3" s="686"/>
+      <c r="E3" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F3" s="693"/>
-      <c r="G3" s="693"/>
+      <c r="F3" s="686"/>
+      <c r="G3" s="686"/>
     </row>
     <row r="4" spans="1:7" ht="15.35">
       <c r="A4" s="197"/>
@@ -58163,31 +58163,31 @@
       <c r="A13" s="196" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="709" t="s">
+      <c r="B13" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C13" s="710"/>
-      <c r="D13" s="710"/>
-      <c r="E13" s="711" t="s">
+      <c r="C13" s="705"/>
+      <c r="D13" s="705"/>
+      <c r="E13" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F13" s="698"/>
-      <c r="G13" s="698"/>
+      <c r="F13" s="688"/>
+      <c r="G13" s="688"/>
     </row>
     <row r="14" spans="1:7" ht="14">
       <c r="A14" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B14" s="707" t="s">
+      <c r="B14" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C14" s="693"/>
-      <c r="D14" s="693"/>
-      <c r="E14" s="708" t="s">
+      <c r="C14" s="686"/>
+      <c r="D14" s="686"/>
+      <c r="E14" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F14" s="693"/>
-      <c r="G14" s="693"/>
+      <c r="F14" s="686"/>
+      <c r="G14" s="686"/>
     </row>
     <row r="15" spans="1:7" ht="15.35">
       <c r="A15" s="197"/>
@@ -58342,31 +58342,31 @@
       <c r="A24" s="196" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="709" t="s">
+      <c r="B24" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C24" s="710"/>
-      <c r="D24" s="710"/>
-      <c r="E24" s="711" t="s">
+      <c r="C24" s="705"/>
+      <c r="D24" s="705"/>
+      <c r="E24" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F24" s="698"/>
-      <c r="G24" s="698"/>
+      <c r="F24" s="688"/>
+      <c r="G24" s="688"/>
     </row>
     <row r="25" spans="1:7" ht="14">
       <c r="A25" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B25" s="707" t="s">
+      <c r="B25" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C25" s="693"/>
-      <c r="D25" s="693"/>
-      <c r="E25" s="708" t="s">
+      <c r="C25" s="686"/>
+      <c r="D25" s="686"/>
+      <c r="E25" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F25" s="693"/>
-      <c r="G25" s="693"/>
+      <c r="F25" s="686"/>
+      <c r="G25" s="686"/>
     </row>
     <row r="26" spans="1:7" ht="15.35">
       <c r="A26" s="197"/>
@@ -58503,31 +58503,31 @@
       <c r="A35" s="196" t="s">
         <v>92</v>
       </c>
-      <c r="B35" s="709" t="s">
+      <c r="B35" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C35" s="710"/>
-      <c r="D35" s="710"/>
-      <c r="E35" s="711" t="s">
+      <c r="C35" s="705"/>
+      <c r="D35" s="705"/>
+      <c r="E35" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F35" s="698"/>
-      <c r="G35" s="698"/>
+      <c r="F35" s="688"/>
+      <c r="G35" s="688"/>
     </row>
     <row r="36" spans="1:8" ht="25.35">
       <c r="A36" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B36" s="707" t="s">
+      <c r="B36" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C36" s="693"/>
-      <c r="D36" s="693"/>
-      <c r="E36" s="708" t="s">
+      <c r="C36" s="686"/>
+      <c r="D36" s="686"/>
+      <c r="E36" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F36" s="693"/>
-      <c r="G36" s="693"/>
+      <c r="F36" s="686"/>
+      <c r="G36" s="686"/>
     </row>
     <row r="37" spans="1:8" ht="15.35">
       <c r="B37" s="198" t="s">
@@ -58659,31 +58659,31 @@
       <c r="A48" s="196" t="s">
         <v>99</v>
       </c>
-      <c r="B48" s="709" t="s">
+      <c r="B48" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C48" s="710"/>
-      <c r="D48" s="710"/>
-      <c r="E48" s="711" t="s">
+      <c r="C48" s="705"/>
+      <c r="D48" s="705"/>
+      <c r="E48" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F48" s="698"/>
-      <c r="G48" s="698"/>
+      <c r="F48" s="688"/>
+      <c r="G48" s="688"/>
     </row>
     <row r="49" spans="1:8" ht="25.35">
       <c r="A49" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B49" s="707" t="s">
+      <c r="B49" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C49" s="693"/>
-      <c r="D49" s="693"/>
-      <c r="E49" s="708" t="s">
+      <c r="C49" s="686"/>
+      <c r="D49" s="686"/>
+      <c r="E49" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F49" s="693"/>
-      <c r="G49" s="693"/>
+      <c r="F49" s="686"/>
+      <c r="G49" s="686"/>
     </row>
     <row r="50" spans="1:8" ht="15.35">
       <c r="B50" s="198" t="s">
@@ -58815,31 +58815,31 @@
       <c r="A62" s="196" t="s">
         <v>104</v>
       </c>
-      <c r="B62" s="709" t="s">
+      <c r="B62" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C62" s="710"/>
-      <c r="D62" s="710"/>
-      <c r="E62" s="711" t="s">
+      <c r="C62" s="705"/>
+      <c r="D62" s="705"/>
+      <c r="E62" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F62" s="698"/>
-      <c r="G62" s="698"/>
+      <c r="F62" s="688"/>
+      <c r="G62" s="688"/>
     </row>
     <row r="63" spans="1:8" ht="25.35">
       <c r="A63" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B63" s="707" t="s">
+      <c r="B63" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C63" s="693"/>
-      <c r="D63" s="693"/>
-      <c r="E63" s="708" t="s">
+      <c r="C63" s="686"/>
+      <c r="D63" s="686"/>
+      <c r="E63" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F63" s="693"/>
-      <c r="G63" s="693"/>
+      <c r="F63" s="686"/>
+      <c r="G63" s="686"/>
     </row>
     <row r="64" spans="1:8" ht="15.35">
       <c r="B64" s="198" t="s">
@@ -58964,31 +58964,31 @@
       <c r="A79" s="191" t="s">
         <v>91</v>
       </c>
-      <c r="B79" s="709" t="s">
+      <c r="B79" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C79" s="710"/>
-      <c r="D79" s="710"/>
-      <c r="E79" s="711" t="s">
+      <c r="C79" s="705"/>
+      <c r="D79" s="705"/>
+      <c r="E79" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F79" s="698"/>
-      <c r="G79" s="698"/>
+      <c r="F79" s="688"/>
+      <c r="G79" s="688"/>
     </row>
     <row r="80" spans="1:9" ht="27.35">
       <c r="A80" s="196" t="s">
         <v>114</v>
       </c>
-      <c r="B80" s="707" t="s">
+      <c r="B80" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C80" s="693"/>
-      <c r="D80" s="693"/>
-      <c r="E80" s="708" t="s">
+      <c r="C80" s="686"/>
+      <c r="D80" s="686"/>
+      <c r="E80" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F80" s="693"/>
-      <c r="G80" s="693"/>
+      <c r="F80" s="686"/>
+      <c r="G80" s="686"/>
     </row>
     <row r="81" spans="1:7" ht="25.35">
       <c r="A81" s="10" t="s">
@@ -59126,31 +59126,31 @@
       <c r="A99" s="196" t="s">
         <v>119</v>
       </c>
-      <c r="B99" s="709" t="s">
+      <c r="B99" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C99" s="710"/>
-      <c r="D99" s="710"/>
-      <c r="E99" s="711" t="s">
+      <c r="C99" s="705"/>
+      <c r="D99" s="705"/>
+      <c r="E99" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F99" s="698"/>
-      <c r="G99" s="698"/>
+      <c r="F99" s="688"/>
+      <c r="G99" s="688"/>
     </row>
     <row r="100" spans="1:7" ht="14">
       <c r="A100" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B100" s="707" t="s">
+      <c r="B100" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C100" s="693"/>
-      <c r="D100" s="693"/>
-      <c r="E100" s="708" t="s">
+      <c r="C100" s="686"/>
+      <c r="D100" s="686"/>
+      <c r="E100" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F100" s="693"/>
-      <c r="G100" s="693"/>
+      <c r="F100" s="686"/>
+      <c r="G100" s="686"/>
     </row>
     <row r="101" spans="1:7" ht="15.35">
       <c r="A101" s="197"/>
@@ -59308,31 +59308,31 @@
       <c r="A112" s="196" t="s">
         <v>146</v>
       </c>
-      <c r="B112" s="709" t="s">
+      <c r="B112" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C112" s="710"/>
-      <c r="D112" s="710"/>
-      <c r="E112" s="711" t="s">
+      <c r="C112" s="705"/>
+      <c r="D112" s="705"/>
+      <c r="E112" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F112" s="698"/>
-      <c r="G112" s="698"/>
+      <c r="F112" s="688"/>
+      <c r="G112" s="688"/>
     </row>
     <row r="113" spans="1:7" ht="14">
       <c r="A113" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B113" s="707" t="s">
+      <c r="B113" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C113" s="693"/>
-      <c r="D113" s="693"/>
-      <c r="E113" s="708" t="s">
+      <c r="C113" s="686"/>
+      <c r="D113" s="686"/>
+      <c r="E113" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F113" s="693"/>
-      <c r="G113" s="693"/>
+      <c r="F113" s="686"/>
+      <c r="G113" s="686"/>
     </row>
     <row r="114" spans="1:7" ht="15.35">
       <c r="A114" s="197"/>
@@ -59461,31 +59461,31 @@
       <c r="A123" s="196" t="s">
         <v>163</v>
       </c>
-      <c r="B123" s="702" t="s">
+      <c r="B123" s="713" t="s">
         <v>456</v>
       </c>
-      <c r="C123" s="703"/>
-      <c r="D123" s="703"/>
-      <c r="E123" s="704" t="s">
+      <c r="C123" s="714"/>
+      <c r="D123" s="714"/>
+      <c r="E123" s="715" t="s">
         <v>457</v>
       </c>
-      <c r="F123" s="705"/>
-      <c r="G123" s="705"/>
+      <c r="F123" s="716"/>
+      <c r="G123" s="716"/>
     </row>
     <row r="124" spans="1:7" ht="14.35">
       <c r="A124" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B124" s="714" t="s">
+      <c r="B124" s="709" t="s">
         <v>459</v>
       </c>
-      <c r="C124" s="715"/>
-      <c r="D124" s="715"/>
-      <c r="E124" s="716" t="s">
+      <c r="C124" s="710"/>
+      <c r="D124" s="710"/>
+      <c r="E124" s="711" t="s">
         <v>460</v>
       </c>
-      <c r="F124" s="717"/>
-      <c r="G124" s="717"/>
+      <c r="F124" s="712"/>
+      <c r="G124" s="712"/>
     </row>
     <row r="125" spans="1:7" ht="14.35">
       <c r="A125" s="197"/>
@@ -59675,31 +59675,31 @@
       <c r="A136" s="196" t="s">
         <v>167</v>
       </c>
-      <c r="B136" s="709" t="s">
+      <c r="B136" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C136" s="710"/>
-      <c r="D136" s="710"/>
-      <c r="E136" s="711" t="s">
+      <c r="C136" s="705"/>
+      <c r="D136" s="705"/>
+      <c r="E136" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F136" s="712"/>
-      <c r="G136" s="712"/>
+      <c r="F136" s="707"/>
+      <c r="G136" s="707"/>
     </row>
     <row r="137" spans="1:7" ht="14">
       <c r="A137" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B137" s="709" t="s">
+      <c r="B137" s="704" t="s">
         <v>459</v>
       </c>
-      <c r="C137" s="712"/>
-      <c r="D137" s="713"/>
-      <c r="E137" s="711" t="s">
+      <c r="C137" s="707"/>
+      <c r="D137" s="708"/>
+      <c r="E137" s="706" t="s">
         <v>460</v>
       </c>
-      <c r="F137" s="712"/>
-      <c r="G137" s="712"/>
+      <c r="F137" s="707"/>
+      <c r="G137" s="707"/>
     </row>
     <row r="138" spans="1:7" ht="15.35">
       <c r="A138" s="197"/>
@@ -59843,31 +59843,31 @@
       <c r="A152" s="196" t="s">
         <v>186</v>
       </c>
-      <c r="B152" s="702" t="s">
+      <c r="B152" s="713" t="s">
         <v>456</v>
       </c>
-      <c r="C152" s="703"/>
-      <c r="D152" s="703"/>
-      <c r="E152" s="704" t="s">
+      <c r="C152" s="714"/>
+      <c r="D152" s="714"/>
+      <c r="E152" s="715" t="s">
         <v>457</v>
       </c>
-      <c r="F152" s="705"/>
-      <c r="G152" s="705"/>
+      <c r="F152" s="716"/>
+      <c r="G152" s="716"/>
     </row>
     <row r="153" spans="1:7" ht="21" customHeight="1">
       <c r="A153" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B153" s="702" t="s">
+      <c r="B153" s="713" t="s">
         <v>459</v>
       </c>
-      <c r="C153" s="703"/>
-      <c r="D153" s="703"/>
-      <c r="E153" s="704" t="s">
+      <c r="C153" s="714"/>
+      <c r="D153" s="714"/>
+      <c r="E153" s="715" t="s">
         <v>460</v>
       </c>
-      <c r="F153" s="705"/>
-      <c r="G153" s="705"/>
+      <c r="F153" s="716"/>
+      <c r="G153" s="716"/>
     </row>
     <row r="154" spans="1:7" ht="14.35">
       <c r="B154" s="220" t="s">
@@ -60143,31 +60143,31 @@
       <c r="A171" s="196" t="s">
         <v>208</v>
       </c>
-      <c r="B171" s="702" t="s">
+      <c r="B171" s="713" t="s">
         <v>456</v>
       </c>
-      <c r="C171" s="703"/>
-      <c r="D171" s="703"/>
-      <c r="E171" s="704" t="s">
+      <c r="C171" s="714"/>
+      <c r="D171" s="714"/>
+      <c r="E171" s="715" t="s">
         <v>457</v>
       </c>
-      <c r="F171" s="705"/>
-      <c r="G171" s="705"/>
+      <c r="F171" s="716"/>
+      <c r="G171" s="716"/>
     </row>
     <row r="172" spans="1:7" ht="27.35">
       <c r="A172" s="197" t="s">
         <v>476</v>
       </c>
-      <c r="B172" s="702" t="s">
+      <c r="B172" s="713" t="s">
         <v>459</v>
       </c>
-      <c r="C172" s="703"/>
-      <c r="D172" s="703"/>
-      <c r="E172" s="704" t="s">
+      <c r="C172" s="714"/>
+      <c r="D172" s="714"/>
+      <c r="E172" s="715" t="s">
         <v>460</v>
       </c>
-      <c r="F172" s="705"/>
-      <c r="G172" s="705"/>
+      <c r="F172" s="716"/>
+      <c r="G172" s="716"/>
     </row>
     <row r="173" spans="1:7" ht="14.35">
       <c r="A173" s="201"/>
@@ -60443,31 +60443,31 @@
       <c r="A190" s="196" t="s">
         <v>210</v>
       </c>
-      <c r="B190" s="702" t="s">
+      <c r="B190" s="713" t="s">
         <v>456</v>
       </c>
-      <c r="C190" s="703"/>
-      <c r="D190" s="703"/>
-      <c r="E190" s="704" t="s">
+      <c r="C190" s="714"/>
+      <c r="D190" s="714"/>
+      <c r="E190" s="715" t="s">
         <v>457</v>
       </c>
-      <c r="F190" s="705"/>
-      <c r="G190" s="705"/>
+      <c r="F190" s="716"/>
+      <c r="G190" s="716"/>
     </row>
     <row r="191" spans="1:7" ht="25.35">
       <c r="A191" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B191" s="702" t="s">
+      <c r="B191" s="713" t="s">
         <v>459</v>
       </c>
-      <c r="C191" s="703"/>
-      <c r="D191" s="703"/>
-      <c r="E191" s="704" t="s">
+      <c r="C191" s="714"/>
+      <c r="D191" s="714"/>
+      <c r="E191" s="715" t="s">
         <v>460</v>
       </c>
-      <c r="F191" s="705"/>
-      <c r="G191" s="705"/>
+      <c r="F191" s="716"/>
+      <c r="G191" s="716"/>
     </row>
     <row r="192" spans="1:7" ht="14.35">
       <c r="B192" s="220" t="s">
@@ -60721,31 +60721,31 @@
       <c r="A208" s="196" t="s">
         <v>215</v>
       </c>
-      <c r="B208" s="702" t="s">
+      <c r="B208" s="713" t="s">
         <v>456</v>
       </c>
-      <c r="C208" s="703"/>
-      <c r="D208" s="703"/>
-      <c r="E208" s="704" t="s">
+      <c r="C208" s="714"/>
+      <c r="D208" s="714"/>
+      <c r="E208" s="715" t="s">
         <v>457</v>
       </c>
-      <c r="F208" s="705"/>
-      <c r="G208" s="705"/>
+      <c r="F208" s="716"/>
+      <c r="G208" s="716"/>
     </row>
     <row r="209" spans="1:7" ht="25.35">
       <c r="A209" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B209" s="702" t="s">
+      <c r="B209" s="713" t="s">
         <v>459</v>
       </c>
-      <c r="C209" s="703"/>
-      <c r="D209" s="703"/>
-      <c r="E209" s="704" t="s">
+      <c r="C209" s="714"/>
+      <c r="D209" s="714"/>
+      <c r="E209" s="715" t="s">
         <v>460</v>
       </c>
-      <c r="F209" s="705"/>
-      <c r="G209" s="705"/>
+      <c r="F209" s="716"/>
+      <c r="G209" s="716"/>
     </row>
     <row r="210" spans="1:7" ht="14.35">
       <c r="B210" s="220" t="s">
@@ -61009,31 +61009,31 @@
       <c r="A226" s="196" t="s">
         <v>218</v>
       </c>
-      <c r="B226" s="702" t="s">
+      <c r="B226" s="713" t="s">
         <v>456</v>
       </c>
-      <c r="C226" s="703"/>
-      <c r="D226" s="703"/>
-      <c r="E226" s="704" t="s">
+      <c r="C226" s="714"/>
+      <c r="D226" s="714"/>
+      <c r="E226" s="715" t="s">
         <v>457</v>
       </c>
-      <c r="F226" s="706"/>
-      <c r="G226" s="706"/>
+      <c r="F226" s="717"/>
+      <c r="G226" s="717"/>
     </row>
     <row r="227" spans="1:7" ht="27.35">
       <c r="A227" s="197" t="s">
         <v>476</v>
       </c>
-      <c r="B227" s="702" t="s">
+      <c r="B227" s="713" t="s">
         <v>459</v>
       </c>
-      <c r="C227" s="641"/>
-      <c r="D227" s="641"/>
-      <c r="E227" s="704" t="s">
+      <c r="C227" s="644"/>
+      <c r="D227" s="644"/>
+      <c r="E227" s="715" t="s">
         <v>460</v>
       </c>
-      <c r="F227" s="706"/>
-      <c r="G227" s="706"/>
+      <c r="F227" s="717"/>
+      <c r="G227" s="717"/>
     </row>
     <row r="228" spans="1:7" ht="14.35">
       <c r="A228" s="197"/>
@@ -61231,31 +61231,31 @@
       <c r="A240" s="196" t="s">
         <v>223</v>
       </c>
-      <c r="B240" s="702" t="s">
+      <c r="B240" s="713" t="s">
         <v>456</v>
       </c>
-      <c r="C240" s="703"/>
-      <c r="D240" s="703"/>
-      <c r="E240" s="704" t="s">
+      <c r="C240" s="714"/>
+      <c r="D240" s="714"/>
+      <c r="E240" s="715" t="s">
         <v>457</v>
       </c>
-      <c r="F240" s="706"/>
-      <c r="G240" s="706"/>
+      <c r="F240" s="717"/>
+      <c r="G240" s="717"/>
     </row>
     <row r="241" spans="1:7" ht="27.35">
       <c r="A241" s="197" t="s">
         <v>476</v>
       </c>
-      <c r="B241" s="702" t="s">
+      <c r="B241" s="713" t="s">
         <v>459</v>
       </c>
-      <c r="C241" s="641"/>
-      <c r="D241" s="641"/>
-      <c r="E241" s="704" t="s">
+      <c r="C241" s="644"/>
+      <c r="D241" s="644"/>
+      <c r="E241" s="715" t="s">
         <v>460</v>
       </c>
-      <c r="F241" s="706"/>
-      <c r="G241" s="706"/>
+      <c r="F241" s="717"/>
+      <c r="G241" s="717"/>
     </row>
     <row r="242" spans="1:7" ht="14.35">
       <c r="A242" s="197"/>
@@ -61514,18 +61514,46 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="B152:D152"/>
+    <mergeCell ref="E152:G152"/>
+    <mergeCell ref="B153:D153"/>
+    <mergeCell ref="E153:G153"/>
+    <mergeCell ref="B172:D172"/>
+    <mergeCell ref="E172:G172"/>
+    <mergeCell ref="B171:D171"/>
+    <mergeCell ref="E171:G171"/>
+    <mergeCell ref="B190:D190"/>
+    <mergeCell ref="E190:G190"/>
+    <mergeCell ref="B191:D191"/>
+    <mergeCell ref="E191:G191"/>
+    <mergeCell ref="B241:D241"/>
+    <mergeCell ref="E241:G241"/>
+    <mergeCell ref="B208:D208"/>
+    <mergeCell ref="E208:G208"/>
+    <mergeCell ref="B209:D209"/>
+    <mergeCell ref="E209:G209"/>
+    <mergeCell ref="B226:D226"/>
+    <mergeCell ref="E226:G226"/>
+    <mergeCell ref="B227:D227"/>
+    <mergeCell ref="E227:G227"/>
+    <mergeCell ref="B240:D240"/>
+    <mergeCell ref="E240:G240"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="E79:G79"/>
     <mergeCell ref="B137:D137"/>
     <mergeCell ref="E137:G137"/>
     <mergeCell ref="B124:D124"/>
@@ -61542,46 +61570,18 @@
     <mergeCell ref="E136:G136"/>
     <mergeCell ref="B123:D123"/>
     <mergeCell ref="E123:G123"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="B190:D190"/>
-    <mergeCell ref="E190:G190"/>
-    <mergeCell ref="B191:D191"/>
-    <mergeCell ref="E191:G191"/>
-    <mergeCell ref="B241:D241"/>
-    <mergeCell ref="E241:G241"/>
-    <mergeCell ref="B208:D208"/>
-    <mergeCell ref="E208:G208"/>
-    <mergeCell ref="B209:D209"/>
-    <mergeCell ref="E209:G209"/>
-    <mergeCell ref="B226:D226"/>
-    <mergeCell ref="E226:G226"/>
-    <mergeCell ref="B227:D227"/>
-    <mergeCell ref="E227:G227"/>
-    <mergeCell ref="B240:D240"/>
-    <mergeCell ref="E240:G240"/>
-    <mergeCell ref="B152:D152"/>
-    <mergeCell ref="E152:G152"/>
-    <mergeCell ref="B153:D153"/>
-    <mergeCell ref="E153:G153"/>
-    <mergeCell ref="B172:D172"/>
-    <mergeCell ref="E172:G172"/>
-    <mergeCell ref="B171:D171"/>
-    <mergeCell ref="E171:G171"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -62324,9 +62324,9 @@
       <c r="A1" s="722" t="s">
         <v>448</v>
       </c>
-      <c r="B1" s="698"/>
-      <c r="C1" s="698"/>
-      <c r="D1" s="698"/>
+      <c r="B1" s="688"/>
+      <c r="C1" s="688"/>
+      <c r="D1" s="688"/>
       <c r="E1" s="723" t="s">
         <v>449</v>
       </c>

--- a/microgrid_base/设备信息库各参数.xlsx
+++ b/microgrid_base/设备信息库各参数.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\works\jubilant-adventure2\microgrid_base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C10C031-06D2-4DCC-9287-3F35E1F5B721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C634EC3F-8B77-4679-8B8D-916B8A99B129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="8180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6555,7 +6555,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6564,54 +6564,29 @@
     <xf numFmtId="0" fontId="65" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="67" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6626,13 +6601,47 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6650,17 +6659,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6679,8 +6679,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6689,17 +6726,8 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6713,35 +6741,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6771,15 +6780,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -8843,7 +8843,7 @@
       <c r="C15" s="370">
         <v>560</v>
       </c>
-      <c r="D15" s="635"/>
+      <c r="D15" s="644"/>
       <c r="E15" s="365"/>
       <c r="F15" s="363"/>
       <c r="G15" s="363"/>
@@ -8924,7 +8924,7 @@
       <c r="B21" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="638"/>
+      <c r="C21" s="639"/>
       <c r="D21" s="363"/>
       <c r="E21" s="363"/>
       <c r="F21" s="363"/>
@@ -9205,7 +9205,7 @@
       <c r="C41" s="375">
         <v>560</v>
       </c>
-      <c r="D41" s="639"/>
+      <c r="D41" s="635"/>
       <c r="E41" s="366"/>
       <c r="F41" s="363"/>
       <c r="G41" s="363"/>
@@ -9286,7 +9286,7 @@
       <c r="B47" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="638"/>
+      <c r="C47" s="639"/>
       <c r="D47" s="363"/>
       <c r="E47" s="363"/>
       <c r="F47" s="363"/>
@@ -9621,7 +9621,7 @@
       <c r="C71" s="370">
         <v>560</v>
       </c>
-      <c r="D71" s="639"/>
+      <c r="D71" s="635"/>
       <c r="E71" s="363"/>
       <c r="F71" s="363"/>
       <c r="G71" s="363"/>
@@ -9702,7 +9702,7 @@
       <c r="B77" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C77" s="638"/>
+      <c r="C77" s="639"/>
       <c r="D77" s="363"/>
       <c r="E77" s="363"/>
       <c r="F77" s="363"/>
@@ -9876,10 +9876,10 @@
       </c>
       <c r="E91" s="363"/>
       <c r="F91" s="363"/>
-      <c r="G91" s="640" t="s">
+      <c r="G91" s="642" t="s">
         <v>59</v>
       </c>
-      <c r="H91" s="641"/>
+      <c r="H91" s="643"/>
     </row>
     <row r="92" spans="1:8" ht="14.35">
       <c r="A92" s="363"/>
@@ -10007,7 +10007,7 @@
       <c r="C99" s="370">
         <v>560</v>
       </c>
-      <c r="D99" s="639"/>
+      <c r="D99" s="635"/>
       <c r="E99" s="363"/>
       <c r="F99" s="363"/>
       <c r="G99" s="363"/>
@@ -10088,7 +10088,7 @@
       <c r="B105" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C105" s="642"/>
+      <c r="C105" s="638"/>
       <c r="D105" s="363"/>
       <c r="E105" s="363"/>
       <c r="F105" s="363"/>
@@ -10387,7 +10387,7 @@
       <c r="C128" s="370">
         <v>560</v>
       </c>
-      <c r="D128" s="639"/>
+      <c r="D128" s="635"/>
       <c r="E128" s="363"/>
       <c r="F128" s="363"/>
       <c r="G128" s="363"/>
@@ -10468,7 +10468,7 @@
       <c r="B134" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C134" s="642"/>
+      <c r="C134" s="638"/>
       <c r="D134" s="363"/>
       <c r="E134" s="363"/>
       <c r="F134" s="363"/>
@@ -10741,7 +10741,7 @@
       <c r="C158" s="370">
         <v>560</v>
       </c>
-      <c r="D158" s="639"/>
+      <c r="D158" s="635"/>
       <c r="E158" s="363"/>
     </row>
     <row r="159" spans="1:8" ht="14.35">
@@ -10804,7 +10804,7 @@
       <c r="B164" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C164" s="642"/>
+      <c r="C164" s="638"/>
       <c r="D164" s="363"/>
       <c r="E164" s="363"/>
     </row>
@@ -10944,7 +10944,7 @@
       <c r="C179" s="375">
         <v>560</v>
       </c>
-      <c r="D179" s="639"/>
+      <c r="D179" s="635"/>
       <c r="E179" s="363"/>
       <c r="F179" s="363"/>
       <c r="G179" s="363"/>
@@ -11025,7 +11025,7 @@
       <c r="B185" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C185" s="638"/>
+      <c r="C185" s="639"/>
       <c r="D185" s="363"/>
       <c r="E185" s="363"/>
       <c r="F185" s="363"/>
@@ -11222,7 +11222,7 @@
       <c r="C201" s="375">
         <v>560</v>
       </c>
-      <c r="D201" s="639"/>
+      <c r="D201" s="635"/>
       <c r="E201" s="363"/>
       <c r="F201" s="363"/>
       <c r="G201" s="363"/>
@@ -11302,7 +11302,7 @@
       <c r="B207" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C207" s="638"/>
+      <c r="C207" s="639"/>
       <c r="D207" s="363"/>
       <c r="E207" s="363"/>
       <c r="F207" s="363"/>
@@ -11797,7 +11797,7 @@
       <c r="C242" s="370">
         <v>560</v>
       </c>
-      <c r="D242" s="639"/>
+      <c r="D242" s="635"/>
       <c r="E242" s="363"/>
       <c r="F242" s="363"/>
       <c r="G242" s="363"/>
@@ -11878,7 +11878,7 @@
       <c r="B248" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C248" s="642"/>
+      <c r="C248" s="638"/>
       <c r="D248" s="363"/>
       <c r="E248" s="363"/>
       <c r="F248" s="363"/>
@@ -12267,7 +12267,7 @@
       <c r="C278" s="370">
         <v>560</v>
       </c>
-      <c r="D278" s="639"/>
+      <c r="D278" s="635"/>
       <c r="E278" s="363"/>
       <c r="F278" s="363"/>
       <c r="G278" s="363"/>
@@ -12348,7 +12348,7 @@
       <c r="B284" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C284" s="642"/>
+      <c r="C284" s="638"/>
       <c r="D284" s="363"/>
       <c r="E284" s="363"/>
       <c r="F284" s="363"/>
@@ -12578,7 +12578,7 @@
       <c r="C304" s="370">
         <v>560</v>
       </c>
-      <c r="D304" s="639"/>
+      <c r="D304" s="635"/>
       <c r="E304" s="363"/>
       <c r="F304" s="363"/>
       <c r="G304" s="363"/>
@@ -12659,7 +12659,7 @@
       <c r="B310" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C310" s="642"/>
+      <c r="C310" s="638"/>
       <c r="D310" s="363"/>
       <c r="E310" s="363"/>
       <c r="F310" s="363"/>
@@ -12846,7 +12846,7 @@
       <c r="C327" s="370">
         <v>560</v>
       </c>
-      <c r="D327" s="639"/>
+      <c r="D327" s="635"/>
       <c r="E327" s="363"/>
       <c r="F327" s="363"/>
       <c r="G327" s="363"/>
@@ -12927,7 +12927,7 @@
       <c r="B333" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C333" s="642"/>
+      <c r="C333" s="638"/>
       <c r="D333" s="363"/>
       <c r="E333" s="363"/>
       <c r="F333" s="363"/>
@@ -13120,7 +13120,7 @@
       <c r="C349" s="370">
         <v>560</v>
       </c>
-      <c r="D349" s="639"/>
+      <c r="D349" s="635"/>
       <c r="F349" s="363"/>
       <c r="G349" s="363"/>
       <c r="H349" s="363"/>
@@ -13195,7 +13195,7 @@
       <c r="B355" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C355" s="642"/>
+      <c r="C355" s="638"/>
       <c r="D355" s="363"/>
       <c r="F355" s="363"/>
       <c r="G355" s="363"/>
@@ -13540,7 +13540,7 @@
       <c r="C383" s="370">
         <v>560</v>
       </c>
-      <c r="D383" s="639"/>
+      <c r="D383" s="635"/>
       <c r="E383" s="363"/>
       <c r="F383" s="363"/>
       <c r="G383" s="363"/>
@@ -13621,7 +13621,7 @@
       <c r="B389" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C389" s="642"/>
+      <c r="C389" s="638"/>
       <c r="D389" s="363"/>
       <c r="E389" s="363"/>
       <c r="F389" s="363"/>
@@ -13969,7 +13969,7 @@
       <c r="C418" s="370">
         <v>560</v>
       </c>
-      <c r="D418" s="639"/>
+      <c r="D418" s="635"/>
       <c r="E418" s="363"/>
       <c r="F418" s="363"/>
       <c r="G418" s="363"/>
@@ -14050,7 +14050,7 @@
       <c r="B424" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C424" s="642"/>
+      <c r="C424" s="638"/>
       <c r="D424" s="363"/>
       <c r="E424" s="363"/>
       <c r="F424" s="363"/>
@@ -14376,7 +14376,7 @@
       <c r="B451" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C451" s="642"/>
+      <c r="C451" s="638"/>
       <c r="D451" s="363"/>
       <c r="E451" s="363"/>
       <c r="F451" s="363"/>
@@ -14591,7 +14591,7 @@
       <c r="C469" s="370">
         <v>560</v>
       </c>
-      <c r="D469" s="639"/>
+      <c r="D469" s="635"/>
       <c r="E469" s="363"/>
       <c r="F469" s="363"/>
       <c r="G469" s="363"/>
@@ -14672,7 +14672,7 @@
       <c r="B475" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C475" s="642"/>
+      <c r="C475" s="638"/>
       <c r="D475" s="363"/>
       <c r="E475" s="363"/>
       <c r="F475" s="363"/>
@@ -14899,7 +14899,7 @@
       <c r="C494" s="370">
         <v>560</v>
       </c>
-      <c r="D494" s="639"/>
+      <c r="D494" s="635"/>
       <c r="E494" s="365" t="s">
         <v>684</v>
       </c>
@@ -14982,7 +14982,7 @@
       <c r="B500" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C500" s="642"/>
+      <c r="C500" s="638"/>
       <c r="D500" s="363"/>
       <c r="E500" s="363"/>
       <c r="F500" s="363"/>
@@ -15203,7 +15203,7 @@
       <c r="C519" s="370">
         <v>560</v>
       </c>
-      <c r="D519" s="639"/>
+      <c r="D519" s="635"/>
       <c r="E519" s="365" t="s">
         <v>686</v>
       </c>
@@ -15286,7 +15286,7 @@
       <c r="B525" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C525" s="642"/>
+      <c r="C525" s="638"/>
       <c r="D525" s="363"/>
       <c r="E525" s="363"/>
       <c r="F525" s="363"/>
@@ -15553,7 +15553,7 @@
       <c r="C547" s="370">
         <v>560</v>
       </c>
-      <c r="D547" s="639"/>
+      <c r="D547" s="635"/>
       <c r="E547" s="363"/>
       <c r="F547" s="363"/>
       <c r="G547" s="363"/>
@@ -15634,7 +15634,7 @@
       <c r="B553" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C553" s="642"/>
+      <c r="C553" s="638"/>
       <c r="D553" s="363"/>
       <c r="E553" s="363"/>
       <c r="F553" s="363"/>
@@ -15965,7 +15965,7 @@
       <c r="C580" s="370">
         <v>560</v>
       </c>
-      <c r="D580" s="639"/>
+      <c r="D580" s="635"/>
       <c r="E580" s="363"/>
       <c r="F580" s="363"/>
       <c r="G580" s="363"/>
@@ -16046,7 +16046,7 @@
       <c r="B586" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C586" s="642"/>
+      <c r="C586" s="638"/>
       <c r="D586" s="363"/>
       <c r="E586" s="363"/>
       <c r="F586" s="363"/>
@@ -16310,7 +16310,7 @@
       <c r="C608" s="370">
         <v>560</v>
       </c>
-      <c r="D608" s="639"/>
+      <c r="D608" s="635"/>
       <c r="E608" s="363"/>
       <c r="F608" s="363"/>
       <c r="G608" s="363"/>
@@ -16391,7 +16391,7 @@
       <c r="B614" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C614" s="642"/>
+      <c r="C614" s="638"/>
       <c r="D614" s="363"/>
       <c r="E614" s="363"/>
       <c r="F614" s="363"/>
@@ -16675,7 +16675,7 @@
       <c r="B637" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C637" s="642"/>
+      <c r="C637" s="638"/>
       <c r="D637" s="363"/>
       <c r="E637" s="363"/>
       <c r="F637" s="363"/>
@@ -16970,10 +16970,10 @@
     </row>
     <row r="660" spans="1:8" ht="14.35">
       <c r="A660" s="363"/>
-      <c r="B660" s="643" t="s">
+      <c r="B660" s="640" t="s">
         <v>34</v>
       </c>
-      <c r="C660" s="644"/>
+      <c r="C660" s="641"/>
       <c r="D660" s="363"/>
       <c r="E660" s="363"/>
       <c r="F660" s="363"/>
@@ -17272,10 +17272,10 @@
     </row>
     <row r="683" spans="1:8" ht="14.35">
       <c r="A683" s="363"/>
-      <c r="B683" s="643" t="s">
+      <c r="B683" s="640" t="s">
         <v>34</v>
       </c>
-      <c r="C683" s="644"/>
+      <c r="C683" s="641"/>
       <c r="D683" s="363"/>
       <c r="E683" s="363"/>
       <c r="F683" s="363"/>
@@ -17639,7 +17639,7 @@
       <c r="B711" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C711" s="642"/>
+      <c r="C711" s="638"/>
       <c r="D711" s="363"/>
       <c r="E711" s="363"/>
       <c r="F711" s="363"/>
@@ -17884,7 +17884,7 @@
       <c r="C729" s="370">
         <v>560</v>
       </c>
-      <c r="D729" s="639"/>
+      <c r="D729" s="635"/>
       <c r="E729" s="363"/>
       <c r="F729" s="363"/>
       <c r="G729" s="363"/>
@@ -17965,7 +17965,7 @@
       <c r="B735" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C735" s="642"/>
+      <c r="C735" s="638"/>
       <c r="D735" s="363"/>
       <c r="E735" s="363"/>
       <c r="F735" s="363"/>
@@ -18226,7 +18226,7 @@
       <c r="C756" s="370">
         <v>560</v>
       </c>
-      <c r="D756" s="639"/>
+      <c r="D756" s="635"/>
       <c r="E756" s="363"/>
       <c r="F756" s="363"/>
       <c r="G756" s="363"/>
@@ -18307,7 +18307,7 @@
       <c r="B762" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C762" s="642"/>
+      <c r="C762" s="638"/>
       <c r="D762" s="363"/>
       <c r="E762" s="363"/>
       <c r="F762" s="363"/>
@@ -18633,7 +18633,7 @@
       <c r="B789" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C789" s="638"/>
+      <c r="C789" s="639"/>
       <c r="D789" s="363"/>
       <c r="E789" s="363"/>
       <c r="F789" s="363"/>
@@ -18959,7 +18959,7 @@
       <c r="B816" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C816" s="638"/>
+      <c r="C816" s="639"/>
       <c r="D816" s="363"/>
       <c r="E816" s="363"/>
       <c r="F816" s="363"/>
@@ -19250,7 +19250,7 @@
       <c r="C839" s="375">
         <v>560</v>
       </c>
-      <c r="D839" s="639"/>
+      <c r="D839" s="635"/>
       <c r="E839" s="365"/>
       <c r="F839" s="363"/>
       <c r="G839" s="363"/>
@@ -19331,7 +19331,7 @@
       <c r="B845" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C845" s="638"/>
+      <c r="C845" s="639"/>
       <c r="D845" s="363"/>
       <c r="E845" s="363"/>
       <c r="F845" s="363"/>
@@ -19712,7 +19712,7 @@
       <c r="B876" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C876" s="638"/>
+      <c r="C876" s="639"/>
       <c r="D876" s="363"/>
       <c r="E876" s="363"/>
       <c r="F876" s="363"/>
@@ -20068,7 +20068,7 @@
       <c r="B907" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C907" s="638"/>
+      <c r="C907" s="639"/>
       <c r="D907" s="363"/>
       <c r="E907" s="363"/>
       <c r="F907" s="363"/>
@@ -20341,7 +20341,7 @@
       <c r="B931" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C931" s="638"/>
+      <c r="C931" s="639"/>
       <c r="D931" s="363"/>
       <c r="E931" s="363"/>
       <c r="F931" s="363"/>
@@ -20691,7 +20691,7 @@
       <c r="B958" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C958" s="638"/>
+      <c r="C958" s="639"/>
       <c r="D958" s="363"/>
       <c r="E958" s="363"/>
       <c r="F958" s="363"/>
@@ -20987,7 +20987,7 @@
       <c r="B981" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C981" s="638"/>
+      <c r="C981" s="639"/>
       <c r="D981" s="363"/>
       <c r="E981" s="363"/>
       <c r="F981" s="363"/>
@@ -21283,7 +21283,7 @@
       <c r="B1005" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1005" s="638"/>
+      <c r="C1005" s="639"/>
       <c r="D1005" s="363"/>
       <c r="E1005" s="363"/>
       <c r="F1005" s="363"/>
@@ -21479,7 +21479,7 @@
       <c r="B1024" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1024" s="638"/>
+      <c r="C1024" s="639"/>
       <c r="F1024" s="363"/>
       <c r="G1024" s="363"/>
       <c r="H1024" s="363"/>
@@ -21706,7 +21706,7 @@
       <c r="C1042" s="370">
         <v>560</v>
       </c>
-      <c r="D1042" s="639"/>
+      <c r="D1042" s="635"/>
       <c r="E1042" s="363"/>
       <c r="F1042" s="363"/>
       <c r="G1042" s="363"/>
@@ -21787,7 +21787,7 @@
       <c r="B1048" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1048" s="642"/>
+      <c r="C1048" s="638"/>
       <c r="D1048" s="363"/>
       <c r="E1048" s="363"/>
       <c r="F1048" s="363"/>
@@ -22053,7 +22053,7 @@
       <c r="B1070" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1070" s="638"/>
+      <c r="C1070" s="639"/>
       <c r="D1070" s="363"/>
       <c r="E1070" s="363"/>
       <c r="F1070" s="363"/>
@@ -22298,7 +22298,7 @@
       <c r="C1089" s="370">
         <v>560</v>
       </c>
-      <c r="D1089" s="639"/>
+      <c r="D1089" s="635"/>
       <c r="E1089" s="363"/>
       <c r="F1089" s="363"/>
       <c r="G1089" s="363"/>
@@ -22373,7 +22373,7 @@
       <c r="B1095" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1095" s="642"/>
+      <c r="C1095" s="638"/>
       <c r="D1095" s="363"/>
       <c r="E1095" s="363"/>
       <c r="F1095" s="363"/>
@@ -22649,7 +22649,7 @@
       <c r="C1120" s="370">
         <v>560</v>
       </c>
-      <c r="D1120" s="639"/>
+      <c r="D1120" s="635"/>
       <c r="E1120" s="363"/>
       <c r="F1120" s="363"/>
       <c r="G1120" s="363"/>
@@ -22726,7 +22726,7 @@
       <c r="B1126" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1126" s="642"/>
+      <c r="C1126" s="638"/>
       <c r="D1126" s="363"/>
       <c r="E1126" s="363"/>
       <c r="F1126" s="363"/>
@@ -23089,7 +23089,7 @@
       <c r="B1155" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1155" s="642"/>
+      <c r="C1155" s="638"/>
       <c r="D1155" s="363"/>
       <c r="E1155" s="363"/>
       <c r="F1155" s="363"/>
@@ -23198,6 +23198,61 @@
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D41:D46"/>
+    <mergeCell ref="D71:D75"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="D99:D103"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="D128:D132"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="D158:D162"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="D179:D184"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="D201:D206"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="D242:D246"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="D278:D282"/>
+    <mergeCell ref="B284:C284"/>
+    <mergeCell ref="D304:D308"/>
+    <mergeCell ref="B310:C310"/>
+    <mergeCell ref="D327:D331"/>
+    <mergeCell ref="B333:C333"/>
+    <mergeCell ref="D383:D387"/>
+    <mergeCell ref="B389:C389"/>
+    <mergeCell ref="D418:D422"/>
+    <mergeCell ref="B424:C424"/>
+    <mergeCell ref="B451:C451"/>
+    <mergeCell ref="D469:D473"/>
+    <mergeCell ref="B475:C475"/>
+    <mergeCell ref="D494:D498"/>
+    <mergeCell ref="B500:C500"/>
+    <mergeCell ref="D519:D523"/>
+    <mergeCell ref="B525:C525"/>
+    <mergeCell ref="D547:D551"/>
+    <mergeCell ref="B553:C553"/>
+    <mergeCell ref="D580:D584"/>
+    <mergeCell ref="B586:C586"/>
+    <mergeCell ref="D608:D612"/>
+    <mergeCell ref="B614:C614"/>
+    <mergeCell ref="B637:C637"/>
+    <mergeCell ref="B660:C660"/>
+    <mergeCell ref="B683:C683"/>
+    <mergeCell ref="B711:C711"/>
+    <mergeCell ref="D839:D844"/>
+    <mergeCell ref="B845:C845"/>
+    <mergeCell ref="B876:C876"/>
+    <mergeCell ref="B907:C907"/>
+    <mergeCell ref="D729:D733"/>
+    <mergeCell ref="B735:C735"/>
+    <mergeCell ref="D756:D760"/>
+    <mergeCell ref="B762:C762"/>
+    <mergeCell ref="B789:C789"/>
     <mergeCell ref="D1120:D1124"/>
     <mergeCell ref="B1126:C1126"/>
     <mergeCell ref="B1155:C1155"/>
@@ -23214,61 +23269,6 @@
     <mergeCell ref="B1005:C1005"/>
     <mergeCell ref="B1024:C1024"/>
     <mergeCell ref="B816:C816"/>
-    <mergeCell ref="D839:D844"/>
-    <mergeCell ref="B845:C845"/>
-    <mergeCell ref="B876:C876"/>
-    <mergeCell ref="B907:C907"/>
-    <mergeCell ref="D729:D733"/>
-    <mergeCell ref="B735:C735"/>
-    <mergeCell ref="D756:D760"/>
-    <mergeCell ref="B762:C762"/>
-    <mergeCell ref="B789:C789"/>
-    <mergeCell ref="B614:C614"/>
-    <mergeCell ref="B637:C637"/>
-    <mergeCell ref="B660:C660"/>
-    <mergeCell ref="B683:C683"/>
-    <mergeCell ref="B711:C711"/>
-    <mergeCell ref="D547:D551"/>
-    <mergeCell ref="B553:C553"/>
-    <mergeCell ref="D580:D584"/>
-    <mergeCell ref="B586:C586"/>
-    <mergeCell ref="D608:D612"/>
-    <mergeCell ref="B475:C475"/>
-    <mergeCell ref="D494:D498"/>
-    <mergeCell ref="B500:C500"/>
-    <mergeCell ref="D519:D523"/>
-    <mergeCell ref="B525:C525"/>
-    <mergeCell ref="B389:C389"/>
-    <mergeCell ref="D418:D422"/>
-    <mergeCell ref="B424:C424"/>
-    <mergeCell ref="B451:C451"/>
-    <mergeCell ref="D469:D473"/>
-    <mergeCell ref="D304:D308"/>
-    <mergeCell ref="B310:C310"/>
-    <mergeCell ref="D327:D331"/>
-    <mergeCell ref="B333:C333"/>
-    <mergeCell ref="D383:D387"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="D242:D246"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="D278:D282"/>
-    <mergeCell ref="B284:C284"/>
-    <mergeCell ref="D158:D162"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="D179:D184"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="D201:D206"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="D99:D103"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="D128:D132"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D41:D46"/>
-    <mergeCell ref="D71:D75"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23614,7 +23614,7 @@
       <c r="B20" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="638"/>
+      <c r="C20" s="639"/>
       <c r="D20" s="363"/>
       <c r="E20" s="363"/>
       <c r="F20" s="363"/>
@@ -23789,7 +23789,7 @@
         <v>29</v>
       </c>
       <c r="C36" s="375"/>
-      <c r="D36" s="650"/>
+      <c r="D36" s="645"/>
       <c r="E36" s="26"/>
       <c r="K36" s="10"/>
     </row>
@@ -23799,7 +23799,7 @@
         <v>45</v>
       </c>
       <c r="C37" s="370"/>
-      <c r="D37" s="651"/>
+      <c r="D37" s="646"/>
       <c r="E37" s="26"/>
       <c r="K37" s="10"/>
     </row>
@@ -23809,7 +23809,7 @@
         <v>30</v>
       </c>
       <c r="C38" s="370"/>
-      <c r="D38" s="651"/>
+      <c r="D38" s="646"/>
       <c r="E38" s="28"/>
       <c r="K38" s="10"/>
     </row>
@@ -23819,7 +23819,7 @@
         <v>31</v>
       </c>
       <c r="C39" s="370"/>
-      <c r="D39" s="651"/>
+      <c r="D39" s="646"/>
       <c r="E39" s="28"/>
       <c r="K39" s="10"/>
     </row>
@@ -23829,7 +23829,7 @@
         <v>32</v>
       </c>
       <c r="C40" s="370"/>
-      <c r="D40" s="651"/>
+      <c r="D40" s="646"/>
       <c r="E40" s="28"/>
       <c r="K40" s="10"/>
     </row>
@@ -23839,7 +23839,7 @@
         <v>876</v>
       </c>
       <c r="C41" s="370"/>
-      <c r="D41" s="651"/>
+      <c r="D41" s="646"/>
       <c r="E41" s="28"/>
       <c r="K41" s="10"/>
     </row>
@@ -23848,7 +23848,7 @@
       <c r="B42" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="638"/>
+      <c r="C42" s="639"/>
       <c r="D42" s="501"/>
       <c r="E42" s="28"/>
       <c r="K42" s="10"/>
@@ -24087,10 +24087,10 @@
     </row>
     <row r="61" spans="1:11" ht="14.35">
       <c r="A61" s="2"/>
-      <c r="B61" s="658" t="s">
+      <c r="B61" s="649" t="s">
         <v>34</v>
       </c>
-      <c r="C61" s="659"/>
+      <c r="C61" s="650"/>
       <c r="D61" s="8"/>
       <c r="E61" s="393"/>
       <c r="F61" s="2"/>
@@ -24276,10 +24276,10 @@
       <c r="D75" s="518" t="s">
         <v>58</v>
       </c>
-      <c r="E75" s="646" t="s">
+      <c r="E75" s="651" t="s">
         <v>59</v>
       </c>
-      <c r="F75" s="647"/>
+      <c r="F75" s="652"/>
       <c r="G75" s="520"/>
       <c r="H75" s="488"/>
       <c r="K75" s="10"/>
@@ -24376,7 +24376,7 @@
         <v>65</v>
       </c>
       <c r="C81" s="370"/>
-      <c r="D81" s="650"/>
+      <c r="D81" s="645"/>
       <c r="E81" s="525">
         <v>1</v>
       </c>
@@ -24393,7 +24393,7 @@
         <v>30</v>
       </c>
       <c r="C82" s="370"/>
-      <c r="D82" s="651"/>
+      <c r="D82" s="646"/>
       <c r="E82" s="526" t="s">
         <v>66</v>
       </c>
@@ -24408,7 +24408,7 @@
         <v>31</v>
       </c>
       <c r="C83" s="370"/>
-      <c r="D83" s="651"/>
+      <c r="D83" s="646"/>
       <c r="E83" s="527" t="s">
         <v>67</v>
       </c>
@@ -24423,7 +24423,7 @@
         <v>68</v>
       </c>
       <c r="C84" s="499"/>
-      <c r="D84" s="651"/>
+      <c r="D84" s="646"/>
       <c r="E84" s="363"/>
       <c r="F84" s="363"/>
       <c r="G84" s="363"/>
@@ -24435,7 +24435,7 @@
       <c r="B85" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C85" s="638"/>
+      <c r="C85" s="639"/>
       <c r="D85" s="363"/>
       <c r="E85" s="363"/>
       <c r="F85" s="363"/>
@@ -24542,8 +24542,8 @@
       <c r="D94" s="373"/>
       <c r="E94" s="363"/>
       <c r="F94" s="363"/>
-      <c r="G94" s="640"/>
-      <c r="H94" s="641"/>
+      <c r="G94" s="642"/>
+      <c r="H94" s="643"/>
       <c r="K94" s="10"/>
     </row>
     <row r="95" spans="1:11" ht="14.35">
@@ -24567,10 +24567,10 @@
       <c r="C96" s="399" t="s">
         <v>57</v>
       </c>
-      <c r="D96" s="648" t="s">
+      <c r="D96" s="653" t="s">
         <v>59</v>
       </c>
-      <c r="E96" s="647"/>
+      <c r="E96" s="652"/>
       <c r="F96" s="363"/>
       <c r="G96" s="410"/>
       <c r="H96" s="409"/>
@@ -24716,10 +24716,10 @@
     </row>
     <row r="106" spans="1:11" ht="14.35">
       <c r="A106" s="363"/>
-      <c r="B106" s="652" t="s">
+      <c r="B106" s="655" t="s">
         <v>34</v>
       </c>
-      <c r="C106" s="653"/>
+      <c r="C106" s="656"/>
       <c r="E106" s="363"/>
       <c r="F106" s="363"/>
       <c r="G106" s="363"/>
@@ -24838,7 +24838,7 @@
       </c>
       <c r="C116" s="401"/>
       <c r="D116" s="365"/>
-      <c r="E116" s="649" t="s">
+      <c r="E116" s="654" t="s">
         <v>59</v>
       </c>
       <c r="F116" s="633"/>
@@ -25005,7 +25005,7 @@
       <c r="B127" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C127" s="642"/>
+      <c r="C127" s="638"/>
       <c r="D127" s="363"/>
       <c r="E127" s="363"/>
       <c r="F127" s="363"/>
@@ -25283,7 +25283,7 @@
       <c r="B153" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C153" s="642"/>
+      <c r="C153" s="638"/>
       <c r="D153" s="363"/>
       <c r="E153" s="363"/>
       <c r="H153" s="10"/>
@@ -25483,7 +25483,7 @@
       <c r="B171" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C171" s="638"/>
+      <c r="C171" s="639"/>
       <c r="D171" s="363"/>
       <c r="E171" s="363"/>
       <c r="F171" s="363"/>
@@ -25716,7 +25716,7 @@
       <c r="B189" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C189" s="638"/>
+      <c r="C189" s="639"/>
       <c r="D189" s="363"/>
       <c r="E189" s="363"/>
       <c r="F189" s="363"/>
@@ -25942,7 +25942,7 @@
       <c r="B207" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C207" s="642"/>
+      <c r="C207" s="638"/>
       <c r="D207" s="363"/>
       <c r="E207" s="363"/>
       <c r="F207" s="363"/>
@@ -26127,7 +26127,7 @@
       <c r="B223" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C223" s="642"/>
+      <c r="C223" s="638"/>
       <c r="D223" s="363"/>
       <c r="F223" s="2"/>
       <c r="G223" s="2"/>
@@ -26492,7 +26492,7 @@
         <v>143</v>
       </c>
       <c r="C249" s="370"/>
-      <c r="D249" s="654"/>
+      <c r="D249" s="657"/>
       <c r="E249" s="363"/>
       <c r="F249" s="363"/>
       <c r="G249" s="363"/>
@@ -26505,7 +26505,7 @@
         <v>144</v>
       </c>
       <c r="C250" s="370"/>
-      <c r="D250" s="655"/>
+      <c r="D250" s="658"/>
       <c r="E250" s="363"/>
       <c r="F250" s="363"/>
       <c r="G250" s="363"/>
@@ -26518,7 +26518,7 @@
         <v>30</v>
       </c>
       <c r="C251" s="370"/>
-      <c r="D251" s="655"/>
+      <c r="D251" s="658"/>
       <c r="E251" s="363"/>
       <c r="F251" s="363"/>
       <c r="G251" s="363"/>
@@ -26531,7 +26531,7 @@
         <v>31</v>
       </c>
       <c r="C252" s="370"/>
-      <c r="D252" s="655"/>
+      <c r="D252" s="658"/>
       <c r="E252" s="363"/>
       <c r="F252" s="363"/>
       <c r="G252" s="363"/>
@@ -26544,7 +26544,7 @@
         <v>145</v>
       </c>
       <c r="C253" s="370"/>
-      <c r="D253" s="655"/>
+      <c r="D253" s="658"/>
       <c r="E253" s="363"/>
       <c r="F253" s="363"/>
       <c r="G253" s="363"/>
@@ -26569,7 +26569,7 @@
       <c r="B255" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C255" s="638"/>
+      <c r="C255" s="639"/>
       <c r="D255" s="363"/>
       <c r="E255" s="363"/>
       <c r="F255" s="363"/>
@@ -26995,7 +26995,7 @@
         <v>143</v>
       </c>
       <c r="C285" s="370"/>
-      <c r="D285" s="650"/>
+      <c r="D285" s="645"/>
       <c r="E285" s="563"/>
       <c r="F285" s="562"/>
       <c r="G285" s="363"/>
@@ -27008,7 +27008,7 @@
         <v>144</v>
       </c>
       <c r="C286" s="370"/>
-      <c r="D286" s="651"/>
+      <c r="D286" s="646"/>
       <c r="E286" s="563"/>
       <c r="F286" s="562"/>
       <c r="G286" s="363"/>
@@ -27021,7 +27021,7 @@
         <v>30</v>
       </c>
       <c r="C287" s="370"/>
-      <c r="D287" s="651"/>
+      <c r="D287" s="646"/>
       <c r="E287" s="563"/>
       <c r="F287" s="562"/>
       <c r="G287" s="363"/>
@@ -27034,7 +27034,7 @@
         <v>31</v>
       </c>
       <c r="C288" s="370"/>
-      <c r="D288" s="651"/>
+      <c r="D288" s="646"/>
       <c r="E288" s="563"/>
       <c r="F288" s="562"/>
       <c r="G288" s="363"/>
@@ -27047,7 +27047,7 @@
         <v>145</v>
       </c>
       <c r="C289" s="370"/>
-      <c r="D289" s="651"/>
+      <c r="D289" s="646"/>
       <c r="E289" s="563"/>
       <c r="F289" s="562"/>
       <c r="G289" s="363"/>
@@ -27072,7 +27072,7 @@
       <c r="B291" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C291" s="638"/>
+      <c r="C291" s="639"/>
       <c r="D291" s="501"/>
       <c r="E291" s="363"/>
       <c r="F291" s="363"/>
@@ -27253,7 +27253,7 @@
         <v>143</v>
       </c>
       <c r="C305" s="370"/>
-      <c r="D305" s="650"/>
+      <c r="D305" s="645"/>
       <c r="F305" s="363"/>
       <c r="G305" s="363"/>
       <c r="H305" s="488"/>
@@ -27265,7 +27265,7 @@
         <v>144</v>
       </c>
       <c r="C306" s="370"/>
-      <c r="D306" s="651"/>
+      <c r="D306" s="646"/>
       <c r="F306" s="363"/>
       <c r="G306" s="363"/>
       <c r="H306" s="488"/>
@@ -27277,7 +27277,7 @@
         <v>30</v>
       </c>
       <c r="C307" s="370"/>
-      <c r="D307" s="651"/>
+      <c r="D307" s="646"/>
       <c r="F307" s="363"/>
       <c r="G307" s="363"/>
       <c r="H307" s="488"/>
@@ -27289,7 +27289,7 @@
         <v>31</v>
       </c>
       <c r="C308" s="370"/>
-      <c r="D308" s="651"/>
+      <c r="D308" s="646"/>
       <c r="F308" s="363"/>
       <c r="G308" s="363"/>
       <c r="H308" s="488"/>
@@ -27301,7 +27301,7 @@
         <v>145</v>
       </c>
       <c r="C309" s="370"/>
-      <c r="D309" s="651"/>
+      <c r="D309" s="646"/>
       <c r="F309" s="363"/>
       <c r="G309" s="363"/>
       <c r="H309" s="488"/>
@@ -27324,7 +27324,7 @@
       <c r="B311" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C311" s="638"/>
+      <c r="C311" s="639"/>
       <c r="D311" s="501"/>
       <c r="F311" s="363"/>
       <c r="G311" s="363"/>
@@ -27587,10 +27587,10 @@
     </row>
     <row r="333" spans="1:11" ht="14.35">
       <c r="A333" s="2"/>
-      <c r="B333" s="656" t="s">
+      <c r="B333" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C333" s="657"/>
+      <c r="C333" s="648"/>
       <c r="D333" s="2"/>
       <c r="F333" s="363"/>
       <c r="G333" s="2"/>
@@ -27799,7 +27799,7 @@
       <c r="B351" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C351" s="642"/>
+      <c r="C351" s="638"/>
       <c r="F351" s="2"/>
       <c r="G351" s="2"/>
       <c r="H351" s="8"/>
@@ -28339,10 +28339,10 @@
     </row>
     <row r="388" spans="1:11" ht="14.7">
       <c r="A388" s="2"/>
-      <c r="B388" s="645" t="s">
+      <c r="B388" s="659" t="s">
         <v>34</v>
       </c>
-      <c r="C388" s="644"/>
+      <c r="C388" s="641"/>
       <c r="D388" s="97"/>
       <c r="F388" s="2"/>
       <c r="G388" s="2"/>
@@ -28914,10 +28914,10 @@
     </row>
     <row r="425" spans="1:11" ht="14.7">
       <c r="A425" s="2"/>
-      <c r="B425" s="645" t="s">
+      <c r="B425" s="659" t="s">
         <v>34</v>
       </c>
-      <c r="C425" s="644"/>
+      <c r="C425" s="641"/>
       <c r="D425" s="97"/>
       <c r="E425" s="97"/>
       <c r="F425" s="2"/>
@@ -29469,10 +29469,10 @@
     </row>
     <row r="461" spans="1:11" ht="14.7">
       <c r="A461" s="2"/>
-      <c r="B461" s="645" t="s">
+      <c r="B461" s="659" t="s">
         <v>34</v>
       </c>
-      <c r="C461" s="644"/>
+      <c r="C461" s="641"/>
       <c r="D461" s="97"/>
       <c r="E461" s="97"/>
       <c r="F461" s="97"/>
@@ -30020,10 +30020,10 @@
     </row>
     <row r="497" spans="1:11" ht="14.7">
       <c r="A497" s="2"/>
-      <c r="B497" s="645" t="s">
+      <c r="B497" s="659" t="s">
         <v>34</v>
       </c>
-      <c r="C497" s="644"/>
+      <c r="C497" s="641"/>
       <c r="D497" s="97"/>
       <c r="E497" s="97"/>
       <c r="F497" s="97"/>
@@ -30915,10 +30915,10 @@
     </row>
     <row r="552" spans="1:11" ht="14.7">
       <c r="A552" s="2"/>
-      <c r="B552" s="645" t="s">
+      <c r="B552" s="659" t="s">
         <v>34</v>
       </c>
-      <c r="C552" s="644"/>
+      <c r="C552" s="641"/>
       <c r="D552" s="97"/>
       <c r="E552" s="97"/>
       <c r="F552" s="97"/>
@@ -31345,7 +31345,7 @@
       <c r="B590" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C590" s="642"/>
+      <c r="C590" s="638"/>
       <c r="D590" s="363"/>
       <c r="E590" s="363"/>
       <c r="F590" s="363"/>
@@ -31560,7 +31560,7 @@
       <c r="B607" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C607" s="642"/>
+      <c r="C607" s="638"/>
       <c r="D607" s="363"/>
       <c r="E607" s="363"/>
       <c r="F607" s="363"/>
@@ -31756,7 +31756,7 @@
       <c r="B623" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C623" s="638"/>
+      <c r="C623" s="639"/>
       <c r="D623" s="590"/>
       <c r="E623" s="363"/>
       <c r="F623" s="363"/>
@@ -31971,7 +31971,7 @@
       <c r="B640" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C640" s="642"/>
+      <c r="C640" s="638"/>
       <c r="D640" s="363"/>
       <c r="E640" s="363"/>
       <c r="F640" s="363"/>
@@ -32154,7 +32154,7 @@
       <c r="B655" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C655" s="638"/>
+      <c r="C655" s="639"/>
       <c r="D655" s="363"/>
       <c r="E655" s="363"/>
       <c r="F655" s="363"/>
@@ -32360,10 +32360,10 @@
     </row>
     <row r="672" spans="1:11" ht="14.35">
       <c r="A672" s="363"/>
-      <c r="B672" s="643" t="s">
+      <c r="B672" s="640" t="s">
         <v>34</v>
       </c>
-      <c r="C672" s="644"/>
+      <c r="C672" s="641"/>
       <c r="D672" s="363"/>
       <c r="E672" s="363"/>
       <c r="F672" s="363"/>
@@ -32551,10 +32551,10 @@
     </row>
     <row r="687" spans="1:11" ht="14.35">
       <c r="A687" s="363"/>
-      <c r="B687" s="643" t="s">
+      <c r="B687" s="640" t="s">
         <v>34</v>
       </c>
-      <c r="C687" s="644"/>
+      <c r="C687" s="641"/>
       <c r="D687" s="363"/>
       <c r="E687" s="363"/>
       <c r="F687" s="363"/>
@@ -32831,7 +32831,7 @@
       <c r="B710" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C710" s="642"/>
+      <c r="C710" s="638"/>
       <c r="D710" s="363"/>
       <c r="E710" s="363"/>
       <c r="F710" s="363"/>
@@ -33033,7 +33033,7 @@
       <c r="B726" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C726" s="642"/>
+      <c r="C726" s="638"/>
       <c r="D726" s="363"/>
       <c r="E726" s="363"/>
       <c r="F726" s="363"/>
@@ -33264,7 +33264,7 @@
       <c r="B745" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C745" s="642"/>
+      <c r="C745" s="638"/>
       <c r="D745" s="363"/>
       <c r="E745" s="363"/>
       <c r="F745" s="363"/>
@@ -33553,7 +33553,7 @@
       <c r="B768" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C768" s="638"/>
+      <c r="C768" s="639"/>
       <c r="D768" s="363"/>
       <c r="E768" s="363"/>
       <c r="F768" s="363"/>
@@ -33835,7 +33835,7 @@
       <c r="B790" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C790" s="638"/>
+      <c r="C790" s="639"/>
       <c r="D790" s="363"/>
       <c r="E790" s="363"/>
       <c r="F790" s="363"/>
@@ -34146,7 +34146,7 @@
       <c r="B815" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C815" s="638"/>
+      <c r="C815" s="639"/>
       <c r="D815" s="605"/>
       <c r="E815" s="363"/>
       <c r="F815" s="363"/>
@@ -34454,7 +34454,7 @@
       <c r="B840" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C840" s="638"/>
+      <c r="C840" s="639"/>
       <c r="D840" s="363"/>
       <c r="E840" s="363"/>
       <c r="F840" s="363"/>
@@ -34763,7 +34763,7 @@
       <c r="B866" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C866" s="638"/>
+      <c r="C866" s="639"/>
       <c r="D866" s="363"/>
       <c r="E866" s="363"/>
       <c r="F866" s="363"/>
@@ -34996,7 +34996,7 @@
       <c r="B886" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C886" s="638"/>
+      <c r="C886" s="639"/>
       <c r="D886" s="363"/>
       <c r="E886" s="363"/>
       <c r="F886" s="363"/>
@@ -35276,7 +35276,7 @@
       <c r="B908" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C908" s="638"/>
+      <c r="C908" s="639"/>
       <c r="D908" s="363"/>
       <c r="E908" s="363"/>
       <c r="F908" s="363"/>
@@ -35523,7 +35523,7 @@
       <c r="B927" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C927" s="638"/>
+      <c r="C927" s="639"/>
       <c r="D927" s="363"/>
       <c r="E927" s="363"/>
       <c r="F927" s="363"/>
@@ -35766,7 +35766,7 @@
       <c r="B946" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C946" s="638"/>
+      <c r="C946" s="639"/>
       <c r="D946" s="363"/>
       <c r="E946" s="363"/>
       <c r="F946" s="363"/>
@@ -35910,7 +35910,7 @@
       <c r="B960" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C960" s="638"/>
+      <c r="C960" s="639"/>
       <c r="F960" s="363"/>
       <c r="G960" s="363"/>
       <c r="H960" s="488"/>
@@ -36160,7 +36160,7 @@
       <c r="B980" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C980" s="642"/>
+      <c r="C980" s="638"/>
       <c r="D980" s="363"/>
       <c r="E980" s="363"/>
       <c r="F980" s="363"/>
@@ -36365,7 +36365,7 @@
       <c r="B997" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C997" s="638"/>
+      <c r="C997" s="639"/>
       <c r="D997" s="363"/>
       <c r="E997" s="363"/>
       <c r="F997" s="363"/>
@@ -36611,7 +36611,7 @@
       <c r="B1017" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1017" s="642"/>
+      <c r="C1017" s="638"/>
       <c r="D1017" s="363"/>
       <c r="E1017" s="363"/>
       <c r="F1017" s="363"/>
@@ -36875,7 +36875,7 @@
       <c r="B1039" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1039" s="642"/>
+      <c r="C1039" s="638"/>
       <c r="D1039" s="363"/>
       <c r="E1039" s="363"/>
       <c r="F1039" s="363"/>
@@ -37174,7 +37174,7 @@
       <c r="B1062" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1062" s="642"/>
+      <c r="C1062" s="638"/>
       <c r="D1062" s="363"/>
       <c r="E1062" s="363"/>
       <c r="F1062" s="363"/>
@@ -37198,30 +37198,21 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="B333:C333"/>
-    <mergeCell ref="B351:C351"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B311:C311"/>
-    <mergeCell ref="D36:D41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="D305:D309"/>
-    <mergeCell ref="B223:C223"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="D249:D253"/>
-    <mergeCell ref="B255:C255"/>
-    <mergeCell ref="D285:D289"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="B189:C189"/>
-    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="B590:C590"/>
+    <mergeCell ref="B710:C710"/>
+    <mergeCell ref="B726:C726"/>
+    <mergeCell ref="B745:C745"/>
+    <mergeCell ref="B768:C768"/>
+    <mergeCell ref="B790:C790"/>
+    <mergeCell ref="B815:C815"/>
+    <mergeCell ref="B840:C840"/>
+    <mergeCell ref="B866:C866"/>
+    <mergeCell ref="B886:C886"/>
+    <mergeCell ref="B908:C908"/>
+    <mergeCell ref="B927:C927"/>
+    <mergeCell ref="B946:C946"/>
+    <mergeCell ref="B960:C960"/>
+    <mergeCell ref="B980:C980"/>
     <mergeCell ref="B997:C997"/>
     <mergeCell ref="B1017:C1017"/>
     <mergeCell ref="B1039:C1039"/>
@@ -37238,21 +37229,30 @@
     <mergeCell ref="B655:C655"/>
     <mergeCell ref="B672:C672"/>
     <mergeCell ref="B687:C687"/>
-    <mergeCell ref="B908:C908"/>
-    <mergeCell ref="B927:C927"/>
-    <mergeCell ref="B946:C946"/>
-    <mergeCell ref="B960:C960"/>
-    <mergeCell ref="B980:C980"/>
-    <mergeCell ref="B790:C790"/>
-    <mergeCell ref="B815:C815"/>
-    <mergeCell ref="B840:C840"/>
-    <mergeCell ref="B866:C866"/>
-    <mergeCell ref="B886:C886"/>
-    <mergeCell ref="B590:C590"/>
-    <mergeCell ref="B710:C710"/>
-    <mergeCell ref="B726:C726"/>
-    <mergeCell ref="B745:C745"/>
-    <mergeCell ref="B768:C768"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="D305:D309"/>
+    <mergeCell ref="B223:C223"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="D249:D253"/>
+    <mergeCell ref="B255:C255"/>
+    <mergeCell ref="D285:D289"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="B333:C333"/>
+    <mergeCell ref="B351:C351"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B311:C311"/>
+    <mergeCell ref="D36:D41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B61:C61"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37594,10 +37594,10 @@
     </row>
     <row r="20" spans="1:11" ht="14.35">
       <c r="A20" s="2"/>
-      <c r="B20" s="656" t="s">
+      <c r="B20" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="659"/>
+      <c r="C20" s="650"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -37770,7 +37770,7 @@
         <v>29</v>
       </c>
       <c r="C36" s="14"/>
-      <c r="D36" s="660"/>
+      <c r="D36" s="661"/>
       <c r="E36" s="26"/>
       <c r="K36" s="10"/>
     </row>
@@ -37780,7 +37780,7 @@
         <v>45</v>
       </c>
       <c r="C37" s="11"/>
-      <c r="D37" s="661"/>
+      <c r="D37" s="662"/>
       <c r="E37" s="26"/>
       <c r="K37" s="10"/>
     </row>
@@ -37790,7 +37790,7 @@
         <v>30</v>
       </c>
       <c r="C38" s="11"/>
-      <c r="D38" s="661"/>
+      <c r="D38" s="662"/>
       <c r="E38" s="28"/>
       <c r="K38" s="10"/>
     </row>
@@ -37800,7 +37800,7 @@
         <v>31</v>
       </c>
       <c r="C39" s="11"/>
-      <c r="D39" s="661"/>
+      <c r="D39" s="662"/>
       <c r="E39" s="28"/>
       <c r="K39" s="10"/>
     </row>
@@ -37810,7 +37810,7 @@
         <v>32</v>
       </c>
       <c r="C40" s="11"/>
-      <c r="D40" s="661"/>
+      <c r="D40" s="662"/>
       <c r="E40" s="28"/>
       <c r="K40" s="10"/>
     </row>
@@ -37820,16 +37820,16 @@
         <v>876</v>
       </c>
       <c r="C41" s="11"/>
-      <c r="D41" s="661"/>
+      <c r="D41" s="662"/>
       <c r="E41" s="28"/>
       <c r="K41" s="10"/>
     </row>
     <row r="42" spans="1:11" ht="14.35">
       <c r="A42" s="2"/>
-      <c r="B42" s="656" t="s">
+      <c r="B42" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="659"/>
+      <c r="C42" s="650"/>
       <c r="D42" s="28"/>
       <c r="E42" s="28"/>
       <c r="K42" s="10"/>
@@ -38068,10 +38068,10 @@
     </row>
     <row r="61" spans="1:11" ht="14.35">
       <c r="A61" s="2"/>
-      <c r="B61" s="656" t="s">
+      <c r="B61" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C61" s="659"/>
+      <c r="C61" s="650"/>
       <c r="D61" s="8"/>
       <c r="E61" s="23"/>
       <c r="F61" s="2"/>
@@ -38255,10 +38255,10 @@
       <c r="D75" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="E75" s="662" t="s">
+      <c r="E75" s="671" t="s">
         <v>59</v>
       </c>
-      <c r="F75" s="647"/>
+      <c r="F75" s="652"/>
       <c r="G75" s="44"/>
       <c r="H75" s="8"/>
       <c r="K75" s="10"/>
@@ -38356,7 +38356,7 @@
         <v>65</v>
       </c>
       <c r="C81" s="11"/>
-      <c r="D81" s="660"/>
+      <c r="D81" s="661"/>
       <c r="E81" s="49">
         <v>1</v>
       </c>
@@ -38373,7 +38373,7 @@
         <v>30</v>
       </c>
       <c r="C82" s="11"/>
-      <c r="D82" s="661"/>
+      <c r="D82" s="662"/>
       <c r="E82" s="29" t="s">
         <v>66</v>
       </c>
@@ -38388,7 +38388,7 @@
         <v>31</v>
       </c>
       <c r="C83" s="11"/>
-      <c r="D83" s="661"/>
+      <c r="D83" s="662"/>
       <c r="E83" s="29" t="s">
         <v>67</v>
       </c>
@@ -38403,7 +38403,7 @@
         <v>68</v>
       </c>
       <c r="C84" s="24"/>
-      <c r="D84" s="661"/>
+      <c r="D84" s="662"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
@@ -38412,10 +38412,10 @@
     </row>
     <row r="85" spans="1:11" ht="14.35">
       <c r="A85" s="2"/>
-      <c r="B85" s="656" t="s">
+      <c r="B85" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C85" s="659"/>
+      <c r="C85" s="650"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
@@ -38520,8 +38520,8 @@
       <c r="D94" s="37"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
-      <c r="G94" s="663"/>
-      <c r="H94" s="664"/>
+      <c r="G94" s="666"/>
+      <c r="H94" s="667"/>
       <c r="K94" s="10"/>
     </row>
     <row r="95" spans="1:11" ht="14.35">
@@ -38545,10 +38545,10 @@
       <c r="C96" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="D96" s="665" t="s">
+      <c r="D96" s="668" t="s">
         <v>59</v>
       </c>
-      <c r="E96" s="647"/>
+      <c r="E96" s="652"/>
       <c r="F96" s="2"/>
       <c r="G96" s="54"/>
       <c r="H96" s="12"/>
@@ -38694,10 +38694,10 @@
     </row>
     <row r="106" spans="1:11" ht="14.35">
       <c r="A106" s="2"/>
-      <c r="B106" s="666" t="s">
+      <c r="B106" s="669" t="s">
         <v>34</v>
       </c>
-      <c r="C106" s="667"/>
+      <c r="C106" s="670"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
@@ -38816,7 +38816,7 @@
         <v>80</v>
       </c>
       <c r="D116" s="23"/>
-      <c r="E116" s="668" t="s">
+      <c r="E116" s="665" t="s">
         <v>59</v>
       </c>
       <c r="F116" s="633"/>
@@ -39023,10 +39023,10 @@
     </row>
     <row r="130" spans="1:11" ht="14.35">
       <c r="A130" s="2"/>
-      <c r="B130" s="656" t="s">
+      <c r="B130" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C130" s="657"/>
+      <c r="C130" s="648"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
@@ -39313,10 +39313,10 @@
     </row>
     <row r="156" spans="1:11" ht="14.35">
       <c r="A156" s="2"/>
-      <c r="B156" s="656" t="s">
+      <c r="B156" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C156" s="657"/>
+      <c r="C156" s="648"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
       <c r="H156" s="10"/>
@@ -39511,10 +39511,10 @@
     </row>
     <row r="174" spans="1:11" ht="14.35">
       <c r="A174" s="2"/>
-      <c r="B174" s="656" t="s">
+      <c r="B174" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C174" s="659"/>
+      <c r="C174" s="650"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
@@ -39742,10 +39742,10 @@
     </row>
     <row r="192" spans="1:11" ht="14.35">
       <c r="A192" s="2"/>
-      <c r="B192" s="656" t="s">
+      <c r="B192" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C192" s="659"/>
+      <c r="C192" s="650"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
@@ -40073,10 +40073,10 @@
     </row>
     <row r="217" spans="1:11" ht="14.35">
       <c r="A217" s="2"/>
-      <c r="B217" s="656" t="s">
+      <c r="B217" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C217" s="657"/>
+      <c r="C217" s="648"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
@@ -40382,10 +40382,10 @@
     </row>
     <row r="242" spans="1:11" ht="14.35">
       <c r="A242" s="2"/>
-      <c r="B242" s="656" t="s">
+      <c r="B242" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C242" s="657"/>
+      <c r="C242" s="648"/>
       <c r="D242" s="2"/>
       <c r="F242" s="2"/>
       <c r="G242" s="2"/>
@@ -40748,7 +40748,7 @@
         <v>143</v>
       </c>
       <c r="C268" s="11"/>
-      <c r="D268" s="669"/>
+      <c r="D268" s="663"/>
       <c r="E268" s="2"/>
       <c r="F268" s="2"/>
       <c r="G268" s="2"/>
@@ -40761,7 +40761,7 @@
         <v>144</v>
       </c>
       <c r="C269" s="11"/>
-      <c r="D269" s="670"/>
+      <c r="D269" s="664"/>
       <c r="E269" s="2"/>
       <c r="F269" s="2"/>
       <c r="G269" s="2"/>
@@ -40774,7 +40774,7 @@
         <v>30</v>
       </c>
       <c r="C270" s="11"/>
-      <c r="D270" s="670"/>
+      <c r="D270" s="664"/>
       <c r="E270" s="2"/>
       <c r="F270" s="2"/>
       <c r="G270" s="2"/>
@@ -40787,7 +40787,7 @@
         <v>31</v>
       </c>
       <c r="C271" s="11"/>
-      <c r="D271" s="670"/>
+      <c r="D271" s="664"/>
       <c r="E271" s="2"/>
       <c r="F271" s="2"/>
       <c r="G271" s="2"/>
@@ -40800,7 +40800,7 @@
         <v>145</v>
       </c>
       <c r="C272" s="11"/>
-      <c r="D272" s="670"/>
+      <c r="D272" s="664"/>
       <c r="E272" s="2"/>
       <c r="F272" s="2"/>
       <c r="G272" s="2"/>
@@ -40822,10 +40822,10 @@
     </row>
     <row r="274" spans="1:11" ht="14.35">
       <c r="A274" s="2"/>
-      <c r="B274" s="656" t="s">
+      <c r="B274" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C274" s="659"/>
+      <c r="C274" s="650"/>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
       <c r="F274" s="2"/>
@@ -41249,7 +41249,7 @@
         <v>143</v>
       </c>
       <c r="C304" s="11"/>
-      <c r="D304" s="660"/>
+      <c r="D304" s="661"/>
       <c r="E304" s="84"/>
       <c r="F304" s="85"/>
       <c r="G304" s="2"/>
@@ -41262,7 +41262,7 @@
         <v>144</v>
       </c>
       <c r="C305" s="11"/>
-      <c r="D305" s="661"/>
+      <c r="D305" s="662"/>
       <c r="E305" s="84"/>
       <c r="F305" s="85"/>
       <c r="G305" s="2"/>
@@ -41275,7 +41275,7 @@
         <v>30</v>
       </c>
       <c r="C306" s="11"/>
-      <c r="D306" s="661"/>
+      <c r="D306" s="662"/>
       <c r="E306" s="84"/>
       <c r="F306" s="85"/>
       <c r="G306" s="2"/>
@@ -41288,7 +41288,7 @@
         <v>31</v>
       </c>
       <c r="C307" s="11"/>
-      <c r="D307" s="661"/>
+      <c r="D307" s="662"/>
       <c r="E307" s="84"/>
       <c r="F307" s="85"/>
       <c r="G307" s="2"/>
@@ -41301,7 +41301,7 @@
         <v>145</v>
       </c>
       <c r="C308" s="11"/>
-      <c r="D308" s="661"/>
+      <c r="D308" s="662"/>
       <c r="E308" s="84"/>
       <c r="F308" s="85"/>
       <c r="G308" s="2"/>
@@ -41323,10 +41323,10 @@
     </row>
     <row r="310" spans="1:11" ht="14.35">
       <c r="A310" s="2"/>
-      <c r="B310" s="656" t="s">
+      <c r="B310" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C310" s="659"/>
+      <c r="C310" s="650"/>
       <c r="D310" s="28"/>
       <c r="E310" s="2"/>
       <c r="F310" s="2"/>
@@ -41497,7 +41497,7 @@
         <v>64</v>
       </c>
       <c r="C324" s="11"/>
-      <c r="D324" s="660"/>
+      <c r="D324" s="661"/>
       <c r="F324" s="2"/>
       <c r="G324" s="2"/>
       <c r="H324" s="8"/>
@@ -41509,7 +41509,7 @@
         <v>65</v>
       </c>
       <c r="C325" s="11"/>
-      <c r="D325" s="661"/>
+      <c r="D325" s="662"/>
       <c r="F325" s="2"/>
       <c r="G325" s="2"/>
       <c r="H325" s="8"/>
@@ -41521,7 +41521,7 @@
         <v>30</v>
       </c>
       <c r="C326" s="11"/>
-      <c r="D326" s="661"/>
+      <c r="D326" s="662"/>
       <c r="F326" s="2"/>
       <c r="G326" s="2"/>
       <c r="H326" s="8"/>
@@ -41533,7 +41533,7 @@
         <v>31</v>
       </c>
       <c r="C327" s="11"/>
-      <c r="D327" s="661"/>
+      <c r="D327" s="662"/>
       <c r="F327" s="2"/>
       <c r="G327" s="2"/>
       <c r="H327" s="8"/>
@@ -41545,7 +41545,7 @@
         <v>68</v>
       </c>
       <c r="C328" s="11"/>
-      <c r="D328" s="661"/>
+      <c r="D328" s="662"/>
       <c r="F328" s="2"/>
       <c r="G328" s="2"/>
       <c r="H328" s="8"/>
@@ -41565,10 +41565,10 @@
     </row>
     <row r="330" spans="1:11" ht="14.35">
       <c r="A330" s="2"/>
-      <c r="B330" s="656" t="s">
+      <c r="B330" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C330" s="659"/>
+      <c r="C330" s="650"/>
       <c r="D330" s="28"/>
       <c r="F330" s="2"/>
       <c r="G330" s="2"/>
@@ -41827,10 +41827,10 @@
     </row>
     <row r="352" spans="1:11" ht="14.35">
       <c r="A352" s="2"/>
-      <c r="B352" s="656" t="s">
+      <c r="B352" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C352" s="657"/>
+      <c r="C352" s="648"/>
       <c r="D352" s="2"/>
       <c r="F352" s="2"/>
       <c r="G352" s="2"/>
@@ -42034,10 +42034,10 @@
     </row>
     <row r="370" spans="1:11" ht="14.35">
       <c r="A370" s="2"/>
-      <c r="B370" s="656" t="s">
+      <c r="B370" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C370" s="657"/>
+      <c r="C370" s="648"/>
       <c r="F370" s="2"/>
       <c r="G370" s="2"/>
       <c r="H370" s="8"/>
@@ -42517,10 +42517,10 @@
     </row>
     <row r="405" spans="1:11" ht="14.7">
       <c r="A405" s="2"/>
-      <c r="B405" s="645" t="s">
+      <c r="B405" s="659" t="s">
         <v>34</v>
       </c>
-      <c r="C405" s="644"/>
+      <c r="C405" s="641"/>
       <c r="D405" s="97"/>
       <c r="F405" s="2"/>
       <c r="G405" s="2"/>
@@ -43033,10 +43033,10 @@
     </row>
     <row r="440" spans="1:11" ht="14.7">
       <c r="A440" s="2"/>
-      <c r="B440" s="645" t="s">
+      <c r="B440" s="659" t="s">
         <v>34</v>
       </c>
-      <c r="C440" s="644"/>
+      <c r="C440" s="641"/>
       <c r="D440" s="97"/>
       <c r="E440" s="97"/>
       <c r="F440" s="2"/>
@@ -43512,10 +43512,10 @@
     </row>
     <row r="473" spans="1:11" ht="14.7">
       <c r="A473" s="2"/>
-      <c r="B473" s="645" t="s">
+      <c r="B473" s="659" t="s">
         <v>34</v>
       </c>
-      <c r="C473" s="644"/>
+      <c r="C473" s="641"/>
       <c r="D473" s="97"/>
       <c r="E473" s="97"/>
       <c r="F473" s="97"/>
@@ -43987,10 +43987,10 @@
     </row>
     <row r="506" spans="1:11" ht="14.7">
       <c r="A506" s="2"/>
-      <c r="B506" s="645" t="s">
+      <c r="B506" s="659" t="s">
         <v>34</v>
       </c>
-      <c r="C506" s="644"/>
+      <c r="C506" s="641"/>
       <c r="D506" s="97"/>
       <c r="E506" s="97"/>
       <c r="F506" s="97"/>
@@ -44861,10 +44861,10 @@
     </row>
     <row r="559" spans="1:11" ht="14.7">
       <c r="A559" s="2"/>
-      <c r="B559" s="645" t="s">
+      <c r="B559" s="659" t="s">
         <v>34</v>
       </c>
-      <c r="C559" s="644"/>
+      <c r="C559" s="641"/>
       <c r="D559" s="97"/>
       <c r="E559" s="97"/>
       <c r="F559" s="97"/>
@@ -45288,10 +45288,10 @@
     </row>
     <row r="597" spans="1:11" ht="14.35">
       <c r="A597" s="2"/>
-      <c r="B597" s="656" t="s">
+      <c r="B597" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C597" s="657"/>
+      <c r="C597" s="648"/>
       <c r="D597" s="2"/>
       <c r="E597" s="2"/>
       <c r="F597" s="2"/>
@@ -45533,10 +45533,10 @@
     </row>
     <row r="616" spans="1:11" ht="14.35">
       <c r="A616" s="2"/>
-      <c r="B616" s="656" t="s">
+      <c r="B616" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C616" s="657"/>
+      <c r="C616" s="648"/>
       <c r="D616" s="2"/>
       <c r="E616" s="2"/>
       <c r="F616" s="2"/>
@@ -45774,10 +45774,10 @@
     </row>
     <row r="635" spans="1:11" ht="14.35">
       <c r="A635" s="2"/>
-      <c r="B635" s="656" t="s">
+      <c r="B635" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C635" s="659"/>
+      <c r="C635" s="650"/>
       <c r="D635" s="127"/>
       <c r="E635" s="2"/>
       <c r="F635" s="2"/>
@@ -46034,10 +46034,10 @@
     </row>
     <row r="655" spans="1:11" ht="14.35">
       <c r="A655" s="2"/>
-      <c r="B655" s="656" t="s">
+      <c r="B655" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C655" s="657"/>
+      <c r="C655" s="648"/>
       <c r="D655" s="2"/>
       <c r="E655" s="2"/>
       <c r="F655" s="2"/>
@@ -46262,10 +46262,10 @@
     </row>
     <row r="673" spans="1:11" ht="14.35">
       <c r="A673" s="2"/>
-      <c r="B673" s="656" t="s">
+      <c r="B673" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C673" s="659"/>
+      <c r="C673" s="650"/>
       <c r="D673" s="2"/>
       <c r="E673" s="2"/>
       <c r="F673" s="2"/>
@@ -46501,10 +46501,10 @@
     </row>
     <row r="692" spans="1:11" ht="14.35">
       <c r="A692" s="2"/>
-      <c r="B692" s="671" t="s">
+      <c r="B692" s="660" t="s">
         <v>34</v>
       </c>
-      <c r="C692" s="644"/>
+      <c r="C692" s="641"/>
       <c r="D692" s="2"/>
       <c r="E692" s="2"/>
       <c r="F692" s="2"/>
@@ -46737,10 +46737,10 @@
     </row>
     <row r="710" spans="1:11" ht="14.35">
       <c r="A710" s="2"/>
-      <c r="B710" s="671" t="s">
+      <c r="B710" s="660" t="s">
         <v>34</v>
       </c>
-      <c r="C710" s="644"/>
+      <c r="C710" s="641"/>
       <c r="D710" s="2"/>
       <c r="E710" s="2"/>
       <c r="F710" s="2"/>
@@ -47059,10 +47059,10 @@
     </row>
     <row r="736" spans="1:11" ht="14.35">
       <c r="A736" s="2"/>
-      <c r="B736" s="656" t="s">
+      <c r="B736" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C736" s="657"/>
+      <c r="C736" s="648"/>
       <c r="D736" s="2"/>
       <c r="E736" s="2"/>
       <c r="F736" s="2"/>
@@ -47325,10 +47325,10 @@
     </row>
     <row r="756" spans="1:11" ht="14.35">
       <c r="A756" s="2"/>
-      <c r="B756" s="656" t="s">
+      <c r="B756" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C756" s="657"/>
+      <c r="C756" s="648"/>
       <c r="D756" s="2"/>
       <c r="E756" s="2"/>
       <c r="F756" s="2"/>
@@ -47616,10 +47616,10 @@
     </row>
     <row r="779" spans="1:11" ht="14.35">
       <c r="A779" s="2"/>
-      <c r="B779" s="656" t="s">
+      <c r="B779" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C779" s="657"/>
+      <c r="C779" s="648"/>
       <c r="D779" s="2"/>
       <c r="E779" s="2"/>
       <c r="F779" s="2"/>
@@ -47905,10 +47905,10 @@
     </row>
     <row r="802" spans="1:11" ht="14.35">
       <c r="A802" s="2"/>
-      <c r="B802" s="656" t="s">
+      <c r="B802" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C802" s="659"/>
+      <c r="C802" s="650"/>
       <c r="D802" s="2"/>
       <c r="E802" s="2"/>
       <c r="F802" s="2"/>
@@ -48187,10 +48187,10 @@
     </row>
     <row r="824" spans="1:11" ht="14.35">
       <c r="A824" s="2"/>
-      <c r="B824" s="656" t="s">
+      <c r="B824" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C824" s="659"/>
+      <c r="C824" s="650"/>
       <c r="D824" s="2"/>
       <c r="E824" s="2"/>
       <c r="F824" s="2"/>
@@ -48498,10 +48498,10 @@
     </row>
     <row r="849" spans="1:11" ht="14.35">
       <c r="A849" s="2"/>
-      <c r="B849" s="656" t="s">
+      <c r="B849" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C849" s="659"/>
+      <c r="C849" s="650"/>
       <c r="D849" s="149"/>
       <c r="E849" s="2"/>
       <c r="F849" s="2"/>
@@ -48806,10 +48806,10 @@
       <c r="K873" s="10"/>
     </row>
     <row r="874" spans="2:11" ht="14.35">
-      <c r="B874" s="656" t="s">
+      <c r="B874" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C874" s="659"/>
+      <c r="C874" s="650"/>
       <c r="D874" s="2"/>
       <c r="E874" s="2"/>
       <c r="F874" s="2"/>
@@ -49115,10 +49115,10 @@
       <c r="K899" s="10"/>
     </row>
     <row r="900" spans="1:11" ht="14.35">
-      <c r="B900" s="656" t="s">
+      <c r="B900" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C900" s="659"/>
+      <c r="C900" s="650"/>
       <c r="D900" s="2"/>
       <c r="E900" s="2"/>
       <c r="F900" s="2"/>
@@ -49348,10 +49348,10 @@
     </row>
     <row r="920" spans="1:11" ht="14.35">
       <c r="A920" s="2"/>
-      <c r="B920" s="656" t="s">
+      <c r="B920" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C920" s="659"/>
+      <c r="C920" s="650"/>
       <c r="D920" s="2"/>
       <c r="E920" s="2"/>
       <c r="F920" s="2"/>
@@ -49628,10 +49628,10 @@
     </row>
     <row r="942" spans="1:11" ht="14.35">
       <c r="A942" s="2"/>
-      <c r="B942" s="656" t="s">
+      <c r="B942" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C942" s="659"/>
+      <c r="C942" s="650"/>
       <c r="D942" s="2"/>
       <c r="E942" s="2"/>
       <c r="F942" s="2"/>
@@ -49875,10 +49875,10 @@
     </row>
     <row r="961" spans="1:11" ht="14.35">
       <c r="A961" s="2"/>
-      <c r="B961" s="656" t="s">
+      <c r="B961" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C961" s="659"/>
+      <c r="C961" s="650"/>
       <c r="D961" s="2"/>
       <c r="E961" s="2"/>
       <c r="F961" s="2"/>
@@ -50118,10 +50118,10 @@
     </row>
     <row r="980" spans="1:11" ht="14.35">
       <c r="A980" s="2"/>
-      <c r="B980" s="656" t="s">
+      <c r="B980" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C980" s="659"/>
+      <c r="C980" s="650"/>
       <c r="D980" s="2"/>
       <c r="E980" s="2"/>
       <c r="F980" s="2"/>
@@ -50262,10 +50262,10 @@
     </row>
     <row r="994" spans="1:11" ht="14.35">
       <c r="A994" s="2"/>
-      <c r="B994" s="656" t="s">
+      <c r="B994" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C994" s="659"/>
+      <c r="C994" s="650"/>
       <c r="F994" s="2"/>
       <c r="G994" s="2"/>
       <c r="H994" s="8"/>
@@ -50512,10 +50512,10 @@
     </row>
     <row r="1014" spans="1:11" ht="14.35">
       <c r="A1014" s="2"/>
-      <c r="B1014" s="656" t="s">
+      <c r="B1014" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C1014" s="657"/>
+      <c r="C1014" s="648"/>
       <c r="D1014" s="2"/>
       <c r="E1014" s="2"/>
       <c r="F1014" s="2"/>
@@ -50717,10 +50717,10 @@
     </row>
     <row r="1031" spans="1:11" ht="14.35">
       <c r="A1031" s="2"/>
-      <c r="B1031" s="656" t="s">
+      <c r="B1031" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C1031" s="659"/>
+      <c r="C1031" s="650"/>
       <c r="D1031" s="2"/>
       <c r="E1031" s="2"/>
       <c r="F1031" s="2"/>
@@ -50963,10 +50963,10 @@
       <c r="K1050" s="10"/>
     </row>
     <row r="1051" spans="2:11" ht="14.35">
-      <c r="B1051" s="656" t="s">
+      <c r="B1051" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C1051" s="657"/>
+      <c r="C1051" s="648"/>
       <c r="D1051" s="2"/>
       <c r="E1051" s="2"/>
       <c r="F1051" s="2"/>
@@ -51227,10 +51227,10 @@
     </row>
     <row r="1073" spans="1:11" ht="14.35">
       <c r="A1073" s="2"/>
-      <c r="B1073" s="656" t="s">
+      <c r="B1073" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C1073" s="657"/>
+      <c r="C1073" s="648"/>
       <c r="D1073" s="2"/>
       <c r="E1073" s="2"/>
       <c r="F1073" s="2"/>
@@ -51526,10 +51526,10 @@
     </row>
     <row r="1096" spans="1:11" ht="14.35">
       <c r="A1096" s="2"/>
-      <c r="B1096" s="656" t="s">
+      <c r="B1096" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C1096" s="657"/>
+      <c r="C1096" s="648"/>
       <c r="D1096" s="2"/>
       <c r="E1096" s="2"/>
       <c r="F1096" s="2"/>
@@ -51553,61 +51553,61 @@
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D36:D41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="B217:C217"/>
+    <mergeCell ref="B242:C242"/>
+    <mergeCell ref="D268:D272"/>
+    <mergeCell ref="B274:C274"/>
+    <mergeCell ref="D304:D308"/>
+    <mergeCell ref="B310:C310"/>
+    <mergeCell ref="D324:D328"/>
+    <mergeCell ref="B330:C330"/>
+    <mergeCell ref="B352:C352"/>
+    <mergeCell ref="B370:C370"/>
+    <mergeCell ref="B405:C405"/>
+    <mergeCell ref="B440:C440"/>
+    <mergeCell ref="B473:C473"/>
+    <mergeCell ref="B506:C506"/>
+    <mergeCell ref="B559:C559"/>
+    <mergeCell ref="B597:C597"/>
+    <mergeCell ref="B616:C616"/>
+    <mergeCell ref="B635:C635"/>
+    <mergeCell ref="B655:C655"/>
+    <mergeCell ref="B673:C673"/>
+    <mergeCell ref="B692:C692"/>
+    <mergeCell ref="B710:C710"/>
+    <mergeCell ref="B736:C736"/>
+    <mergeCell ref="B756:C756"/>
+    <mergeCell ref="B779:C779"/>
+    <mergeCell ref="B802:C802"/>
+    <mergeCell ref="B824:C824"/>
+    <mergeCell ref="B849:C849"/>
+    <mergeCell ref="B874:C874"/>
+    <mergeCell ref="B900:C900"/>
+    <mergeCell ref="B920:C920"/>
+    <mergeCell ref="B942:C942"/>
+    <mergeCell ref="B961:C961"/>
+    <mergeCell ref="B980:C980"/>
+    <mergeCell ref="B994:C994"/>
     <mergeCell ref="B1014:C1014"/>
     <mergeCell ref="B1031:C1031"/>
     <mergeCell ref="B1051:C1051"/>
     <mergeCell ref="B1073:C1073"/>
     <mergeCell ref="B1096:C1096"/>
-    <mergeCell ref="B920:C920"/>
-    <mergeCell ref="B942:C942"/>
-    <mergeCell ref="B961:C961"/>
-    <mergeCell ref="B980:C980"/>
-    <mergeCell ref="B994:C994"/>
-    <mergeCell ref="B802:C802"/>
-    <mergeCell ref="B824:C824"/>
-    <mergeCell ref="B849:C849"/>
-    <mergeCell ref="B874:C874"/>
-    <mergeCell ref="B900:C900"/>
-    <mergeCell ref="B692:C692"/>
-    <mergeCell ref="B710:C710"/>
-    <mergeCell ref="B736:C736"/>
-    <mergeCell ref="B756:C756"/>
-    <mergeCell ref="B779:C779"/>
-    <mergeCell ref="B597:C597"/>
-    <mergeCell ref="B616:C616"/>
-    <mergeCell ref="B635:C635"/>
-    <mergeCell ref="B655:C655"/>
-    <mergeCell ref="B673:C673"/>
-    <mergeCell ref="B405:C405"/>
-    <mergeCell ref="B440:C440"/>
-    <mergeCell ref="B473:C473"/>
-    <mergeCell ref="B506:C506"/>
-    <mergeCell ref="B559:C559"/>
-    <mergeCell ref="B310:C310"/>
-    <mergeCell ref="D324:D328"/>
-    <mergeCell ref="B330:C330"/>
-    <mergeCell ref="B352:C352"/>
-    <mergeCell ref="B370:C370"/>
-    <mergeCell ref="B217:C217"/>
-    <mergeCell ref="B242:C242"/>
-    <mergeCell ref="D268:D272"/>
-    <mergeCell ref="B274:C274"/>
-    <mergeCell ref="D304:D308"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D36:D41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="E75:F75"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -51677,10 +51677,10 @@
       <c r="D2" s="246" t="s">
         <v>508</v>
       </c>
-      <c r="E2" s="698" t="s">
+      <c r="E2" s="682" t="s">
         <v>509</v>
       </c>
-      <c r="F2" s="699"/>
+      <c r="F2" s="683"/>
       <c r="G2" s="252" t="s">
         <v>510</v>
       </c>
@@ -51713,71 +51713,71 @@
       <c r="A3" s="253">
         <v>1</v>
       </c>
-      <c r="B3" s="681" t="s">
+      <c r="B3" s="694" t="s">
         <v>456</v>
       </c>
-      <c r="C3" s="682"/>
-      <c r="D3" s="682"/>
-      <c r="E3" s="682"/>
-      <c r="F3" s="682"/>
-      <c r="G3" s="682"/>
-      <c r="H3" s="682"/>
-      <c r="I3" s="682"/>
-      <c r="J3" s="682"/>
-      <c r="K3" s="683" t="s">
+      <c r="C3" s="695"/>
+      <c r="D3" s="695"/>
+      <c r="E3" s="695"/>
+      <c r="F3" s="695"/>
+      <c r="G3" s="695"/>
+      <c r="H3" s="695"/>
+      <c r="I3" s="695"/>
+      <c r="J3" s="695"/>
+      <c r="K3" s="688" t="s">
         <v>457</v>
       </c>
-      <c r="L3" s="684"/>
-      <c r="M3" s="684"/>
-      <c r="N3" s="684"/>
-      <c r="O3" s="684"/>
-      <c r="P3" s="684"/>
-      <c r="Q3" s="684"/>
-      <c r="R3" s="684"/>
-      <c r="S3" s="684"/>
-      <c r="T3" s="684"/>
-      <c r="U3" s="684"/>
-      <c r="V3" s="684"/>
-      <c r="W3" s="684"/>
+      <c r="L3" s="687"/>
+      <c r="M3" s="687"/>
+      <c r="N3" s="687"/>
+      <c r="O3" s="687"/>
+      <c r="P3" s="687"/>
+      <c r="Q3" s="687"/>
+      <c r="R3" s="687"/>
+      <c r="S3" s="687"/>
+      <c r="T3" s="687"/>
+      <c r="U3" s="687"/>
+      <c r="V3" s="687"/>
+      <c r="W3" s="687"/>
     </row>
     <row r="4" spans="1:23" ht="14">
       <c r="A4" s="244"/>
-      <c r="B4" s="685" t="s">
+      <c r="B4" s="696" t="s">
         <v>459</v>
       </c>
-      <c r="C4" s="686"/>
-      <c r="D4" s="686"/>
+      <c r="C4" s="693"/>
+      <c r="D4" s="693"/>
       <c r="E4" s="674" t="s">
         <v>515</v>
       </c>
-      <c r="F4" s="686"/>
-      <c r="G4" s="686"/>
-      <c r="H4" s="687" t="s">
+      <c r="F4" s="693"/>
+      <c r="G4" s="693"/>
+      <c r="H4" s="697" t="s">
         <v>516</v>
       </c>
-      <c r="I4" s="688"/>
-      <c r="J4" s="688"/>
+      <c r="I4" s="698"/>
+      <c r="J4" s="698"/>
       <c r="K4" s="674" t="s">
         <v>460</v>
       </c>
-      <c r="L4" s="686"/>
-      <c r="M4" s="686"/>
+      <c r="L4" s="693"/>
+      <c r="M4" s="693"/>
       <c r="N4" s="674" t="s">
         <v>517</v>
       </c>
-      <c r="O4" s="686"/>
-      <c r="P4" s="686"/>
+      <c r="O4" s="693"/>
+      <c r="P4" s="693"/>
       <c r="Q4" s="674" t="s">
         <v>518</v>
       </c>
-      <c r="R4" s="686"/>
-      <c r="S4" s="686"/>
-      <c r="T4" s="689" t="s">
+      <c r="R4" s="693"/>
+      <c r="S4" s="693"/>
+      <c r="T4" s="699" t="s">
         <v>519</v>
       </c>
-      <c r="U4" s="690"/>
-      <c r="V4" s="690"/>
-      <c r="W4" s="690"/>
+      <c r="U4" s="700"/>
+      <c r="V4" s="700"/>
+      <c r="W4" s="700"/>
     </row>
     <row r="5" spans="1:23" ht="15.35">
       <c r="A5" s="244"/>
@@ -51835,7 +51835,7 @@
       <c r="S5" s="259" t="s">
         <v>463</v>
       </c>
-      <c r="T5" s="691" t="s">
+      <c r="T5" s="681" t="s">
         <v>520</v>
       </c>
       <c r="U5" s="171" t="s">
@@ -51880,7 +51880,7 @@
       <c r="Q6" s="184"/>
       <c r="R6" s="183"/>
       <c r="S6" s="268"/>
-      <c r="T6" s="644"/>
+      <c r="T6" s="641"/>
       <c r="U6" s="171" t="s">
         <v>524</v>
       </c>
@@ -52327,32 +52327,32 @@
       </c>
     </row>
     <row r="23" spans="1:23" ht="14">
-      <c r="B23" s="695" t="s">
+      <c r="B23" s="684" t="s">
         <v>456</v>
       </c>
-      <c r="C23" s="644"/>
-      <c r="D23" s="644"/>
-      <c r="E23" s="644"/>
-      <c r="F23" s="644"/>
-      <c r="G23" s="644"/>
-      <c r="H23" s="644"/>
-      <c r="I23" s="644"/>
-      <c r="J23" s="644"/>
-      <c r="K23" s="694" t="s">
+      <c r="C23" s="641"/>
+      <c r="D23" s="641"/>
+      <c r="E23" s="641"/>
+      <c r="F23" s="641"/>
+      <c r="G23" s="641"/>
+      <c r="H23" s="641"/>
+      <c r="I23" s="641"/>
+      <c r="J23" s="641"/>
+      <c r="K23" s="685" t="s">
         <v>911</v>
       </c>
-      <c r="L23" s="644"/>
-      <c r="M23" s="644"/>
-      <c r="N23" s="644"/>
-      <c r="O23" s="644"/>
-      <c r="P23" s="644"/>
-      <c r="Q23" s="644"/>
-      <c r="R23" s="644"/>
-      <c r="S23" s="644"/>
-      <c r="T23" s="644"/>
-      <c r="U23" s="644"/>
-      <c r="V23" s="644"/>
-      <c r="W23" s="644"/>
+      <c r="L23" s="641"/>
+      <c r="M23" s="641"/>
+      <c r="N23" s="641"/>
+      <c r="O23" s="641"/>
+      <c r="P23" s="641"/>
+      <c r="Q23" s="641"/>
+      <c r="R23" s="641"/>
+      <c r="S23" s="641"/>
+      <c r="T23" s="641"/>
+      <c r="U23" s="641"/>
+      <c r="V23" s="641"/>
+      <c r="W23" s="641"/>
     </row>
     <row r="24" spans="1:23" ht="14">
       <c r="A24" s="253">
@@ -52388,12 +52388,12 @@
       </c>
       <c r="R24" s="678"/>
       <c r="S24" s="678"/>
-      <c r="T24" s="692" t="s">
+      <c r="T24" s="679" t="s">
         <v>519</v>
       </c>
-      <c r="U24" s="693"/>
-      <c r="V24" s="693"/>
-      <c r="W24" s="693"/>
+      <c r="U24" s="680"/>
+      <c r="V24" s="680"/>
+      <c r="W24" s="680"/>
     </row>
     <row r="25" spans="1:23" ht="15.35">
       <c r="A25" s="288"/>
@@ -52451,7 +52451,7 @@
       <c r="S25" s="258" t="s">
         <v>914</v>
       </c>
-      <c r="T25" s="691" t="s">
+      <c r="T25" s="681" t="s">
         <v>520</v>
       </c>
       <c r="U25" s="171" t="s">
@@ -52496,7 +52496,7 @@
       <c r="Q26" s="184"/>
       <c r="R26" s="188"/>
       <c r="S26" s="188"/>
-      <c r="T26" s="644"/>
+      <c r="T26" s="641"/>
       <c r="U26" s="171" t="s">
         <v>524</v>
       </c>
@@ -52760,32 +52760,32 @@
       <c r="E43" s="307"/>
     </row>
     <row r="44" spans="1:23" ht="14">
-      <c r="B44" s="695" t="s">
+      <c r="B44" s="684" t="s">
         <v>456</v>
       </c>
-      <c r="C44" s="644"/>
-      <c r="D44" s="644"/>
-      <c r="E44" s="644"/>
-      <c r="F44" s="644"/>
-      <c r="G44" s="644"/>
-      <c r="H44" s="644"/>
-      <c r="I44" s="644"/>
-      <c r="J44" s="644"/>
-      <c r="K44" s="695" t="s">
+      <c r="C44" s="641"/>
+      <c r="D44" s="641"/>
+      <c r="E44" s="641"/>
+      <c r="F44" s="641"/>
+      <c r="G44" s="641"/>
+      <c r="H44" s="641"/>
+      <c r="I44" s="641"/>
+      <c r="J44" s="641"/>
+      <c r="K44" s="684" t="s">
         <v>457</v>
       </c>
-      <c r="L44" s="644"/>
-      <c r="M44" s="644"/>
-      <c r="N44" s="644"/>
-      <c r="O44" s="644"/>
-      <c r="P44" s="644"/>
-      <c r="Q44" s="644"/>
-      <c r="R44" s="644"/>
-      <c r="S44" s="644"/>
-      <c r="T44" s="644"/>
-      <c r="U44" s="644"/>
-      <c r="V44" s="644"/>
-      <c r="W44" s="644"/>
+      <c r="L44" s="641"/>
+      <c r="M44" s="641"/>
+      <c r="N44" s="641"/>
+      <c r="O44" s="641"/>
+      <c r="P44" s="641"/>
+      <c r="Q44" s="641"/>
+      <c r="R44" s="641"/>
+      <c r="S44" s="641"/>
+      <c r="T44" s="641"/>
+      <c r="U44" s="641"/>
+      <c r="V44" s="641"/>
+      <c r="W44" s="641"/>
     </row>
     <row r="45" spans="1:23" ht="14">
       <c r="A45" s="253">
@@ -52821,12 +52821,12 @@
       </c>
       <c r="R45" s="678"/>
       <c r="S45" s="678"/>
-      <c r="T45" s="696" t="s">
+      <c r="T45" s="692" t="s">
         <v>519</v>
       </c>
-      <c r="U45" s="686"/>
-      <c r="V45" s="686"/>
-      <c r="W45" s="686"/>
+      <c r="U45" s="693"/>
+      <c r="V45" s="693"/>
+      <c r="W45" s="693"/>
     </row>
     <row r="46" spans="1:23" ht="15.35">
       <c r="A46" s="288"/>
@@ -52884,7 +52884,7 @@
       <c r="S46" s="287" t="s">
         <v>914</v>
       </c>
-      <c r="T46" s="701" t="s">
+      <c r="T46" s="689" t="s">
         <v>520</v>
       </c>
       <c r="U46" s="318" t="s">
@@ -52929,7 +52929,7 @@
       <c r="Q47" s="184"/>
       <c r="R47" s="188"/>
       <c r="S47" s="188"/>
-      <c r="T47" s="644"/>
+      <c r="T47" s="641"/>
       <c r="U47" s="171" t="s">
         <v>524</v>
       </c>
@@ -53161,32 +53161,32 @@
       <c r="C61" s="170"/>
     </row>
     <row r="62" spans="1:23" ht="14">
-      <c r="B62" s="695" t="s">
+      <c r="B62" s="684" t="s">
         <v>456</v>
       </c>
-      <c r="C62" s="644"/>
-      <c r="D62" s="644"/>
-      <c r="E62" s="644"/>
-      <c r="F62" s="644"/>
-      <c r="G62" s="644"/>
-      <c r="H62" s="644"/>
-      <c r="I62" s="644"/>
-      <c r="J62" s="644"/>
-      <c r="K62" s="695" t="s">
+      <c r="C62" s="641"/>
+      <c r="D62" s="641"/>
+      <c r="E62" s="641"/>
+      <c r="F62" s="641"/>
+      <c r="G62" s="641"/>
+      <c r="H62" s="641"/>
+      <c r="I62" s="641"/>
+      <c r="J62" s="641"/>
+      <c r="K62" s="684" t="s">
         <v>457</v>
       </c>
-      <c r="L62" s="644"/>
-      <c r="M62" s="644"/>
-      <c r="N62" s="644"/>
-      <c r="O62" s="644"/>
-      <c r="P62" s="644"/>
-      <c r="Q62" s="644"/>
-      <c r="R62" s="644"/>
-      <c r="S62" s="644"/>
-      <c r="T62" s="644"/>
-      <c r="U62" s="644"/>
-      <c r="V62" s="644"/>
-      <c r="W62" s="644"/>
+      <c r="L62" s="641"/>
+      <c r="M62" s="641"/>
+      <c r="N62" s="641"/>
+      <c r="O62" s="641"/>
+      <c r="P62" s="641"/>
+      <c r="Q62" s="641"/>
+      <c r="R62" s="641"/>
+      <c r="S62" s="641"/>
+      <c r="T62" s="641"/>
+      <c r="U62" s="641"/>
+      <c r="V62" s="641"/>
+      <c r="W62" s="641"/>
     </row>
     <row r="63" spans="1:23" ht="14">
       <c r="A63" s="253">
@@ -53222,12 +53222,12 @@
       </c>
       <c r="R63" s="678"/>
       <c r="S63" s="678"/>
-      <c r="T63" s="692" t="s">
+      <c r="T63" s="679" t="s">
         <v>519</v>
       </c>
-      <c r="U63" s="693"/>
-      <c r="V63" s="693"/>
-      <c r="W63" s="693"/>
+      <c r="U63" s="680"/>
+      <c r="V63" s="680"/>
+      <c r="W63" s="680"/>
     </row>
     <row r="64" spans="1:23" ht="15.35">
       <c r="A64" s="288"/>
@@ -53285,7 +53285,7 @@
       <c r="S64" s="254" t="s">
         <v>463</v>
       </c>
-      <c r="T64" s="691" t="s">
+      <c r="T64" s="681" t="s">
         <v>520</v>
       </c>
       <c r="U64" s="171" t="s">
@@ -53330,7 +53330,7 @@
       <c r="Q65" s="184"/>
       <c r="R65" s="184"/>
       <c r="S65" s="184"/>
-      <c r="T65" s="644"/>
+      <c r="T65" s="641"/>
       <c r="U65" s="171" t="s">
         <v>524</v>
       </c>
@@ -53595,32 +53595,32 @@
       </c>
     </row>
     <row r="85" spans="1:23" ht="14">
-      <c r="B85" s="694" t="s">
+      <c r="B85" s="685" t="s">
         <v>919</v>
       </c>
-      <c r="C85" s="644"/>
-      <c r="D85" s="644"/>
-      <c r="E85" s="644"/>
-      <c r="F85" s="644"/>
-      <c r="G85" s="644"/>
-      <c r="H85" s="644"/>
-      <c r="I85" s="644"/>
-      <c r="J85" s="644"/>
-      <c r="K85" s="694" t="s">
+      <c r="C85" s="641"/>
+      <c r="D85" s="641"/>
+      <c r="E85" s="641"/>
+      <c r="F85" s="641"/>
+      <c r="G85" s="641"/>
+      <c r="H85" s="641"/>
+      <c r="I85" s="641"/>
+      <c r="J85" s="641"/>
+      <c r="K85" s="685" t="s">
         <v>911</v>
       </c>
-      <c r="L85" s="644"/>
-      <c r="M85" s="644"/>
-      <c r="N85" s="644"/>
-      <c r="O85" s="644"/>
-      <c r="P85" s="644"/>
-      <c r="Q85" s="644"/>
-      <c r="R85" s="644"/>
-      <c r="S85" s="644"/>
-      <c r="T85" s="644"/>
-      <c r="U85" s="644"/>
-      <c r="V85" s="644"/>
-      <c r="W85" s="644"/>
+      <c r="L85" s="641"/>
+      <c r="M85" s="641"/>
+      <c r="N85" s="641"/>
+      <c r="O85" s="641"/>
+      <c r="P85" s="641"/>
+      <c r="Q85" s="641"/>
+      <c r="R85" s="641"/>
+      <c r="S85" s="641"/>
+      <c r="T85" s="641"/>
+      <c r="U85" s="641"/>
+      <c r="V85" s="641"/>
+      <c r="W85" s="641"/>
     </row>
     <row r="86" spans="1:23" ht="14">
       <c r="A86" s="253">
@@ -53631,17 +53631,17 @@
       </c>
       <c r="C86" s="673"/>
       <c r="D86" s="673"/>
-      <c r="E86" s="680" t="s">
+      <c r="E86" s="690" t="s">
         <v>920</v>
       </c>
       <c r="F86" s="675"/>
       <c r="G86" s="675"/>
-      <c r="H86" s="697" t="s">
+      <c r="H86" s="691" t="s">
         <v>921</v>
       </c>
       <c r="I86" s="677"/>
       <c r="J86" s="677"/>
-      <c r="K86" s="680" t="s">
+      <c r="K86" s="690" t="s">
         <v>922</v>
       </c>
       <c r="L86" s="678"/>
@@ -53656,12 +53656,12 @@
       </c>
       <c r="R86" s="678"/>
       <c r="S86" s="678"/>
-      <c r="T86" s="692" t="s">
+      <c r="T86" s="679" t="s">
         <v>519</v>
       </c>
-      <c r="U86" s="693"/>
-      <c r="V86" s="693"/>
-      <c r="W86" s="693"/>
+      <c r="U86" s="680"/>
+      <c r="V86" s="680"/>
+      <c r="W86" s="680"/>
     </row>
     <row r="87" spans="1:23" ht="15.35">
       <c r="A87" s="288"/>
@@ -53719,7 +53719,7 @@
       <c r="S87" s="254" t="s">
         <v>463</v>
       </c>
-      <c r="T87" s="691" t="s">
+      <c r="T87" s="681" t="s">
         <v>520</v>
       </c>
       <c r="U87" s="171" t="s">
@@ -53764,7 +53764,7 @@
       <c r="Q88" s="184"/>
       <c r="R88" s="184"/>
       <c r="S88" s="184"/>
-      <c r="T88" s="644"/>
+      <c r="T88" s="641"/>
       <c r="U88" s="171" t="s">
         <v>524</v>
       </c>
@@ -54028,32 +54028,32 @@
       <c r="C106" s="170"/>
     </row>
     <row r="107" spans="1:23" ht="14">
-      <c r="B107" s="694" t="s">
+      <c r="B107" s="685" t="s">
         <v>919</v>
       </c>
-      <c r="C107" s="644"/>
-      <c r="D107" s="644"/>
-      <c r="E107" s="644"/>
-      <c r="F107" s="644"/>
-      <c r="G107" s="644"/>
-      <c r="H107" s="644"/>
-      <c r="I107" s="644"/>
-      <c r="J107" s="644"/>
-      <c r="K107" s="695" t="s">
+      <c r="C107" s="641"/>
+      <c r="D107" s="641"/>
+      <c r="E107" s="641"/>
+      <c r="F107" s="641"/>
+      <c r="G107" s="641"/>
+      <c r="H107" s="641"/>
+      <c r="I107" s="641"/>
+      <c r="J107" s="641"/>
+      <c r="K107" s="684" t="s">
         <v>457</v>
       </c>
-      <c r="L107" s="644"/>
-      <c r="M107" s="644"/>
-      <c r="N107" s="644"/>
-      <c r="O107" s="644"/>
-      <c r="P107" s="644"/>
-      <c r="Q107" s="644"/>
-      <c r="R107" s="644"/>
-      <c r="S107" s="644"/>
-      <c r="T107" s="644"/>
-      <c r="U107" s="644"/>
-      <c r="V107" s="644"/>
-      <c r="W107" s="644"/>
+      <c r="L107" s="641"/>
+      <c r="M107" s="641"/>
+      <c r="N107" s="641"/>
+      <c r="O107" s="641"/>
+      <c r="P107" s="641"/>
+      <c r="Q107" s="641"/>
+      <c r="R107" s="641"/>
+      <c r="S107" s="641"/>
+      <c r="T107" s="641"/>
+      <c r="U107" s="641"/>
+      <c r="V107" s="641"/>
+      <c r="W107" s="641"/>
     </row>
     <row r="108" spans="1:23" ht="14">
       <c r="A108" s="253">
@@ -54064,7 +54064,7 @@
       </c>
       <c r="C108" s="673"/>
       <c r="D108" s="673"/>
-      <c r="E108" s="680" t="s">
+      <c r="E108" s="690" t="s">
         <v>920</v>
       </c>
       <c r="F108" s="675"/>
@@ -54089,12 +54089,12 @@
       </c>
       <c r="R108" s="678"/>
       <c r="S108" s="678"/>
-      <c r="T108" s="692" t="s">
+      <c r="T108" s="679" t="s">
         <v>519</v>
       </c>
-      <c r="U108" s="693"/>
-      <c r="V108" s="693"/>
-      <c r="W108" s="693"/>
+      <c r="U108" s="680"/>
+      <c r="V108" s="680"/>
+      <c r="W108" s="680"/>
     </row>
     <row r="109" spans="1:23" ht="15.35">
       <c r="A109" s="288"/>
@@ -54152,7 +54152,7 @@
       <c r="S109" s="346" t="s">
         <v>463</v>
       </c>
-      <c r="T109" s="691" t="s">
+      <c r="T109" s="681" t="s">
         <v>520</v>
       </c>
       <c r="U109" s="171" t="s">
@@ -54197,7 +54197,7 @@
       <c r="Q110" s="184"/>
       <c r="R110" s="184"/>
       <c r="S110" s="184"/>
-      <c r="T110" s="644"/>
+      <c r="T110" s="641"/>
       <c r="U110" s="171" t="s">
         <v>524</v>
       </c>
@@ -54411,32 +54411,32 @@
       </c>
     </row>
     <row r="128" spans="1:23" ht="14">
-      <c r="B128" s="695" t="s">
+      <c r="B128" s="684" t="s">
         <v>456</v>
       </c>
-      <c r="C128" s="644"/>
-      <c r="D128" s="644"/>
-      <c r="E128" s="644"/>
-      <c r="F128" s="644"/>
-      <c r="G128" s="644"/>
-      <c r="H128" s="644"/>
-      <c r="I128" s="644"/>
-      <c r="J128" s="644"/>
-      <c r="K128" s="695" t="s">
+      <c r="C128" s="641"/>
+      <c r="D128" s="641"/>
+      <c r="E128" s="641"/>
+      <c r="F128" s="641"/>
+      <c r="G128" s="641"/>
+      <c r="H128" s="641"/>
+      <c r="I128" s="641"/>
+      <c r="J128" s="641"/>
+      <c r="K128" s="684" t="s">
         <v>457</v>
       </c>
-      <c r="L128" s="644"/>
-      <c r="M128" s="644"/>
-      <c r="N128" s="644"/>
-      <c r="O128" s="644"/>
-      <c r="P128" s="644"/>
-      <c r="Q128" s="644"/>
-      <c r="R128" s="644"/>
-      <c r="S128" s="644"/>
-      <c r="T128" s="644"/>
-      <c r="U128" s="644"/>
-      <c r="V128" s="644"/>
-      <c r="W128" s="644"/>
+      <c r="L128" s="641"/>
+      <c r="M128" s="641"/>
+      <c r="N128" s="641"/>
+      <c r="O128" s="641"/>
+      <c r="P128" s="641"/>
+      <c r="Q128" s="641"/>
+      <c r="R128" s="641"/>
+      <c r="S128" s="641"/>
+      <c r="T128" s="641"/>
+      <c r="U128" s="641"/>
+      <c r="V128" s="641"/>
+      <c r="W128" s="641"/>
     </row>
     <row r="129" spans="1:23" ht="14">
       <c r="A129" s="253">
@@ -54472,12 +54472,12 @@
       </c>
       <c r="R129" s="678"/>
       <c r="S129" s="678"/>
-      <c r="T129" s="692" t="s">
+      <c r="T129" s="679" t="s">
         <v>519</v>
       </c>
-      <c r="U129" s="693"/>
-      <c r="V129" s="693"/>
-      <c r="W129" s="693"/>
+      <c r="U129" s="680"/>
+      <c r="V129" s="680"/>
+      <c r="W129" s="680"/>
     </row>
     <row r="130" spans="1:23" ht="15.35">
       <c r="A130" s="288"/>
@@ -54535,7 +54535,7 @@
       <c r="S130" s="346" t="s">
         <v>463</v>
       </c>
-      <c r="T130" s="691" t="s">
+      <c r="T130" s="681" t="s">
         <v>520</v>
       </c>
       <c r="U130" s="171" t="s">
@@ -54580,7 +54580,7 @@
       <c r="Q131" s="184"/>
       <c r="R131" s="184"/>
       <c r="S131" s="184"/>
-      <c r="T131" s="644"/>
+      <c r="T131" s="641"/>
       <c r="U131" s="171" t="s">
         <v>524</v>
       </c>
@@ -54780,32 +54780,32 @@
       </c>
     </row>
     <row r="142" spans="1:23" ht="14">
-      <c r="B142" s="695" t="s">
+      <c r="B142" s="684" t="s">
         <v>456</v>
       </c>
-      <c r="C142" s="644"/>
-      <c r="D142" s="644"/>
-      <c r="E142" s="644"/>
-      <c r="F142" s="644"/>
-      <c r="G142" s="644"/>
-      <c r="H142" s="644"/>
-      <c r="I142" s="644"/>
-      <c r="J142" s="644"/>
-      <c r="K142" s="695" t="s">
+      <c r="C142" s="641"/>
+      <c r="D142" s="641"/>
+      <c r="E142" s="641"/>
+      <c r="F142" s="641"/>
+      <c r="G142" s="641"/>
+      <c r="H142" s="641"/>
+      <c r="I142" s="641"/>
+      <c r="J142" s="641"/>
+      <c r="K142" s="684" t="s">
         <v>457</v>
       </c>
-      <c r="L142" s="644"/>
-      <c r="M142" s="644"/>
-      <c r="N142" s="644"/>
-      <c r="O142" s="644"/>
-      <c r="P142" s="644"/>
-      <c r="Q142" s="644"/>
-      <c r="R142" s="644"/>
-      <c r="S142" s="644"/>
-      <c r="T142" s="644"/>
-      <c r="U142" s="644"/>
-      <c r="V142" s="644"/>
-      <c r="W142" s="644"/>
+      <c r="L142" s="641"/>
+      <c r="M142" s="641"/>
+      <c r="N142" s="641"/>
+      <c r="O142" s="641"/>
+      <c r="P142" s="641"/>
+      <c r="Q142" s="641"/>
+      <c r="R142" s="641"/>
+      <c r="S142" s="641"/>
+      <c r="T142" s="641"/>
+      <c r="U142" s="641"/>
+      <c r="V142" s="641"/>
+      <c r="W142" s="641"/>
     </row>
     <row r="143" spans="1:23" ht="14">
       <c r="A143" s="253">
@@ -54839,14 +54839,14 @@
       <c r="Q143" s="674" t="s">
         <v>916</v>
       </c>
-      <c r="R143" s="679"/>
-      <c r="S143" s="679"/>
-      <c r="T143" s="692" t="s">
+      <c r="R143" s="701"/>
+      <c r="S143" s="701"/>
+      <c r="T143" s="679" t="s">
         <v>519</v>
       </c>
-      <c r="U143" s="693"/>
-      <c r="V143" s="693"/>
-      <c r="W143" s="693"/>
+      <c r="U143" s="680"/>
+      <c r="V143" s="680"/>
+      <c r="W143" s="680"/>
     </row>
     <row r="144" spans="1:23" ht="15.35">
       <c r="A144" s="288"/>
@@ -54904,7 +54904,7 @@
       <c r="S144" s="254" t="s">
         <v>463</v>
       </c>
-      <c r="T144" s="691" t="s">
+      <c r="T144" s="681" t="s">
         <v>520</v>
       </c>
       <c r="U144" s="171" t="s">
@@ -54949,7 +54949,7 @@
       <c r="Q145" s="184"/>
       <c r="R145" s="184"/>
       <c r="S145" s="184"/>
-      <c r="T145" s="644"/>
+      <c r="T145" s="641"/>
       <c r="U145" s="171" t="s">
         <v>524</v>
       </c>
@@ -55141,32 +55141,32 @@
       </c>
     </row>
     <row r="157" spans="1:23" ht="14">
-      <c r="B157" s="700" t="s">
+      <c r="B157" s="686" t="s">
         <v>456</v>
       </c>
-      <c r="C157" s="684"/>
-      <c r="D157" s="684"/>
-      <c r="E157" s="684"/>
-      <c r="F157" s="684"/>
-      <c r="G157" s="684"/>
-      <c r="H157" s="684"/>
-      <c r="I157" s="684"/>
-      <c r="J157" s="684"/>
-      <c r="K157" s="683" t="s">
+      <c r="C157" s="687"/>
+      <c r="D157" s="687"/>
+      <c r="E157" s="687"/>
+      <c r="F157" s="687"/>
+      <c r="G157" s="687"/>
+      <c r="H157" s="687"/>
+      <c r="I157" s="687"/>
+      <c r="J157" s="687"/>
+      <c r="K157" s="688" t="s">
         <v>911</v>
       </c>
-      <c r="L157" s="684"/>
-      <c r="M157" s="684"/>
-      <c r="N157" s="684"/>
-      <c r="O157" s="684"/>
-      <c r="P157" s="684"/>
-      <c r="Q157" s="684"/>
-      <c r="R157" s="684"/>
-      <c r="S157" s="684"/>
-      <c r="T157" s="684"/>
-      <c r="U157" s="684"/>
-      <c r="V157" s="684"/>
-      <c r="W157" s="684"/>
+      <c r="L157" s="687"/>
+      <c r="M157" s="687"/>
+      <c r="N157" s="687"/>
+      <c r="O157" s="687"/>
+      <c r="P157" s="687"/>
+      <c r="Q157" s="687"/>
+      <c r="R157" s="687"/>
+      <c r="S157" s="687"/>
+      <c r="T157" s="687"/>
+      <c r="U157" s="687"/>
+      <c r="V157" s="687"/>
+      <c r="W157" s="687"/>
     </row>
     <row r="158" spans="1:23" ht="14">
       <c r="A158" s="253">
@@ -55202,12 +55202,12 @@
       </c>
       <c r="R158" s="678"/>
       <c r="S158" s="678"/>
-      <c r="T158" s="692" t="s">
+      <c r="T158" s="679" t="s">
         <v>519</v>
       </c>
-      <c r="U158" s="693"/>
-      <c r="V158" s="693"/>
-      <c r="W158" s="693"/>
+      <c r="U158" s="680"/>
+      <c r="V158" s="680"/>
+      <c r="W158" s="680"/>
     </row>
     <row r="159" spans="1:23" ht="15.35">
       <c r="A159" s="288"/>
@@ -55265,7 +55265,7 @@
       <c r="S159" s="258" t="s">
         <v>914</v>
       </c>
-      <c r="T159" s="691" t="s">
+      <c r="T159" s="681" t="s">
         <v>520</v>
       </c>
       <c r="U159" s="171" t="s">
@@ -55310,7 +55310,7 @@
       <c r="Q160" s="321"/>
       <c r="R160" s="275"/>
       <c r="S160" s="275"/>
-      <c r="T160" s="644"/>
+      <c r="T160" s="641"/>
       <c r="U160" s="171"/>
       <c r="V160" s="266"/>
       <c r="W160" s="266"/>
@@ -55347,7 +55347,7 @@
       <c r="Q161" s="184"/>
       <c r="R161" s="188"/>
       <c r="S161" s="188"/>
-      <c r="T161" s="644"/>
+      <c r="T161" s="641"/>
       <c r="U161" s="171" t="s">
         <v>524</v>
       </c>
@@ -55548,32 +55548,32 @@
     </row>
     <row r="172" spans="1:23" ht="14">
       <c r="A172" s="293"/>
-      <c r="B172" s="695" t="s">
+      <c r="B172" s="684" t="s">
         <v>456</v>
       </c>
-      <c r="C172" s="644"/>
-      <c r="D172" s="644"/>
-      <c r="E172" s="644"/>
-      <c r="F172" s="644"/>
-      <c r="G172" s="644"/>
-      <c r="H172" s="644"/>
-      <c r="I172" s="644"/>
-      <c r="J172" s="644"/>
-      <c r="K172" s="694" t="s">
+      <c r="C172" s="641"/>
+      <c r="D172" s="641"/>
+      <c r="E172" s="641"/>
+      <c r="F172" s="641"/>
+      <c r="G172" s="641"/>
+      <c r="H172" s="641"/>
+      <c r="I172" s="641"/>
+      <c r="J172" s="641"/>
+      <c r="K172" s="685" t="s">
         <v>911</v>
       </c>
-      <c r="L172" s="644"/>
-      <c r="M172" s="644"/>
-      <c r="N172" s="644"/>
-      <c r="O172" s="644"/>
-      <c r="P172" s="644"/>
-      <c r="Q172" s="644"/>
-      <c r="R172" s="644"/>
-      <c r="S172" s="644"/>
-      <c r="T172" s="644"/>
-      <c r="U172" s="644"/>
-      <c r="V172" s="644"/>
-      <c r="W172" s="644"/>
+      <c r="L172" s="641"/>
+      <c r="M172" s="641"/>
+      <c r="N172" s="641"/>
+      <c r="O172" s="641"/>
+      <c r="P172" s="641"/>
+      <c r="Q172" s="641"/>
+      <c r="R172" s="641"/>
+      <c r="S172" s="641"/>
+      <c r="T172" s="641"/>
+      <c r="U172" s="641"/>
+      <c r="V172" s="641"/>
+      <c r="W172" s="641"/>
     </row>
     <row r="173" spans="1:23" ht="14">
       <c r="A173" s="293"/>
@@ -55607,12 +55607,12 @@
       </c>
       <c r="R173" s="678"/>
       <c r="S173" s="678"/>
-      <c r="T173" s="692" t="s">
+      <c r="T173" s="679" t="s">
         <v>519</v>
       </c>
-      <c r="U173" s="693"/>
-      <c r="V173" s="693"/>
-      <c r="W173" s="693"/>
+      <c r="U173" s="680"/>
+      <c r="V173" s="680"/>
+      <c r="W173" s="680"/>
     </row>
     <row r="174" spans="1:23" ht="15.35">
       <c r="A174" s="293"/>
@@ -55670,7 +55670,7 @@
       <c r="S174" s="258" t="s">
         <v>914</v>
       </c>
-      <c r="T174" s="691" t="s">
+      <c r="T174" s="681" t="s">
         <v>520</v>
       </c>
       <c r="U174" s="171" t="s">
@@ -55715,7 +55715,7 @@
       <c r="Q175" s="184"/>
       <c r="R175" s="188"/>
       <c r="S175" s="188"/>
-      <c r="T175" s="644"/>
+      <c r="T175" s="641"/>
       <c r="U175" s="171" t="s">
         <v>524</v>
       </c>
@@ -57861,15 +57861,74 @@
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="B173:D173"/>
-    <mergeCell ref="E173:G173"/>
-    <mergeCell ref="H173:J173"/>
-    <mergeCell ref="K173:M173"/>
-    <mergeCell ref="N173:P173"/>
-    <mergeCell ref="Q173:S173"/>
-    <mergeCell ref="T173:W173"/>
-    <mergeCell ref="T174:T175"/>
-    <mergeCell ref="T159:T161"/>
+    <mergeCell ref="B143:D143"/>
+    <mergeCell ref="E143:G143"/>
+    <mergeCell ref="H143:J143"/>
+    <mergeCell ref="K143:M143"/>
+    <mergeCell ref="N143:P143"/>
+    <mergeCell ref="Q143:S143"/>
+    <mergeCell ref="K108:M108"/>
+    <mergeCell ref="H108:J108"/>
+    <mergeCell ref="E108:G108"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="Q129:S129"/>
+    <mergeCell ref="B129:D129"/>
+    <mergeCell ref="E129:G129"/>
+    <mergeCell ref="H129:J129"/>
+    <mergeCell ref="K129:M129"/>
+    <mergeCell ref="N129:P129"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="K3:W3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="K23:W23"/>
+    <mergeCell ref="B44:J44"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="T45:W45"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="K62:W62"/>
+    <mergeCell ref="B85:J85"/>
+    <mergeCell ref="B107:J107"/>
+    <mergeCell ref="B128:J128"/>
+    <mergeCell ref="N86:P86"/>
+    <mergeCell ref="Q86:S86"/>
+    <mergeCell ref="T86:W86"/>
+    <mergeCell ref="T87:T88"/>
+    <mergeCell ref="K85:W85"/>
+    <mergeCell ref="N108:P108"/>
+    <mergeCell ref="Q108:S108"/>
+    <mergeCell ref="T108:W108"/>
+    <mergeCell ref="T109:T110"/>
+    <mergeCell ref="K107:W107"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="K63:M63"/>
+    <mergeCell ref="N63:P63"/>
+    <mergeCell ref="Q63:S63"/>
+    <mergeCell ref="K86:M86"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="B86:D86"/>
     <mergeCell ref="B158:D158"/>
     <mergeCell ref="E158:G158"/>
     <mergeCell ref="H158:J158"/>
@@ -57894,74 +57953,15 @@
     <mergeCell ref="B62:J62"/>
     <mergeCell ref="T63:W63"/>
     <mergeCell ref="T64:T65"/>
-    <mergeCell ref="K62:W62"/>
-    <mergeCell ref="B85:J85"/>
-    <mergeCell ref="B107:J107"/>
-    <mergeCell ref="B128:J128"/>
-    <mergeCell ref="N86:P86"/>
-    <mergeCell ref="Q86:S86"/>
-    <mergeCell ref="T86:W86"/>
-    <mergeCell ref="T87:T88"/>
-    <mergeCell ref="K85:W85"/>
-    <mergeCell ref="N108:P108"/>
-    <mergeCell ref="Q108:S108"/>
-    <mergeCell ref="T108:W108"/>
-    <mergeCell ref="T109:T110"/>
-    <mergeCell ref="K107:W107"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="K63:M63"/>
-    <mergeCell ref="N63:P63"/>
-    <mergeCell ref="Q63:S63"/>
-    <mergeCell ref="K86:M86"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="K23:W23"/>
-    <mergeCell ref="B44:J44"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="T45:W45"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="K3:W3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="B143:D143"/>
-    <mergeCell ref="E143:G143"/>
-    <mergeCell ref="H143:J143"/>
-    <mergeCell ref="K143:M143"/>
-    <mergeCell ref="N143:P143"/>
-    <mergeCell ref="Q143:S143"/>
-    <mergeCell ref="K108:M108"/>
-    <mergeCell ref="H108:J108"/>
-    <mergeCell ref="E108:G108"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="Q129:S129"/>
-    <mergeCell ref="B129:D129"/>
-    <mergeCell ref="E129:G129"/>
-    <mergeCell ref="H129:J129"/>
-    <mergeCell ref="K129:M129"/>
-    <mergeCell ref="N129:P129"/>
+    <mergeCell ref="B173:D173"/>
+    <mergeCell ref="E173:G173"/>
+    <mergeCell ref="H173:J173"/>
+    <mergeCell ref="K173:M173"/>
+    <mergeCell ref="N173:P173"/>
+    <mergeCell ref="Q173:S173"/>
+    <mergeCell ref="T173:W173"/>
+    <mergeCell ref="T174:T175"/>
+    <mergeCell ref="T159:T161"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -58002,31 +58002,31 @@
       <c r="A2" s="196" t="s">
         <v>455</v>
       </c>
-      <c r="B2" s="704" t="s">
+      <c r="B2" s="709" t="s">
         <v>456</v>
       </c>
-      <c r="C2" s="705"/>
-      <c r="D2" s="705"/>
-      <c r="E2" s="706" t="s">
+      <c r="C2" s="710"/>
+      <c r="D2" s="710"/>
+      <c r="E2" s="711" t="s">
         <v>457</v>
       </c>
-      <c r="F2" s="688"/>
-      <c r="G2" s="688"/>
+      <c r="F2" s="698"/>
+      <c r="G2" s="698"/>
     </row>
     <row r="3" spans="1:7" ht="14">
       <c r="A3" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B3" s="702" t="s">
+      <c r="B3" s="707" t="s">
         <v>459</v>
       </c>
-      <c r="C3" s="686"/>
-      <c r="D3" s="686"/>
-      <c r="E3" s="703" t="s">
+      <c r="C3" s="693"/>
+      <c r="D3" s="693"/>
+      <c r="E3" s="708" t="s">
         <v>460</v>
       </c>
-      <c r="F3" s="686"/>
-      <c r="G3" s="686"/>
+      <c r="F3" s="693"/>
+      <c r="G3" s="693"/>
     </row>
     <row r="4" spans="1:7" ht="15.35">
       <c r="A4" s="197"/>
@@ -58163,31 +58163,31 @@
       <c r="A13" s="196" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="704" t="s">
+      <c r="B13" s="709" t="s">
         <v>456</v>
       </c>
-      <c r="C13" s="705"/>
-      <c r="D13" s="705"/>
-      <c r="E13" s="706" t="s">
+      <c r="C13" s="710"/>
+      <c r="D13" s="710"/>
+      <c r="E13" s="711" t="s">
         <v>457</v>
       </c>
-      <c r="F13" s="688"/>
-      <c r="G13" s="688"/>
+      <c r="F13" s="698"/>
+      <c r="G13" s="698"/>
     </row>
     <row r="14" spans="1:7" ht="14">
       <c r="A14" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B14" s="702" t="s">
+      <c r="B14" s="707" t="s">
         <v>459</v>
       </c>
-      <c r="C14" s="686"/>
-      <c r="D14" s="686"/>
-      <c r="E14" s="703" t="s">
+      <c r="C14" s="693"/>
+      <c r="D14" s="693"/>
+      <c r="E14" s="708" t="s">
         <v>460</v>
       </c>
-      <c r="F14" s="686"/>
-      <c r="G14" s="686"/>
+      <c r="F14" s="693"/>
+      <c r="G14" s="693"/>
     </row>
     <row r="15" spans="1:7" ht="15.35">
       <c r="A15" s="197"/>
@@ -58342,31 +58342,31 @@
       <c r="A24" s="196" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="704" t="s">
+      <c r="B24" s="709" t="s">
         <v>456</v>
       </c>
-      <c r="C24" s="705"/>
-      <c r="D24" s="705"/>
-      <c r="E24" s="706" t="s">
+      <c r="C24" s="710"/>
+      <c r="D24" s="710"/>
+      <c r="E24" s="711" t="s">
         <v>457</v>
       </c>
-      <c r="F24" s="688"/>
-      <c r="G24" s="688"/>
+      <c r="F24" s="698"/>
+      <c r="G24" s="698"/>
     </row>
     <row r="25" spans="1:7" ht="14">
       <c r="A25" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B25" s="702" t="s">
+      <c r="B25" s="707" t="s">
         <v>459</v>
       </c>
-      <c r="C25" s="686"/>
-      <c r="D25" s="686"/>
-      <c r="E25" s="703" t="s">
+      <c r="C25" s="693"/>
+      <c r="D25" s="693"/>
+      <c r="E25" s="708" t="s">
         <v>460</v>
       </c>
-      <c r="F25" s="686"/>
-      <c r="G25" s="686"/>
+      <c r="F25" s="693"/>
+      <c r="G25" s="693"/>
     </row>
     <row r="26" spans="1:7" ht="15.35">
       <c r="A26" s="197"/>
@@ -58503,31 +58503,31 @@
       <c r="A35" s="196" t="s">
         <v>92</v>
       </c>
-      <c r="B35" s="704" t="s">
+      <c r="B35" s="709" t="s">
         <v>456</v>
       </c>
-      <c r="C35" s="705"/>
-      <c r="D35" s="705"/>
-      <c r="E35" s="706" t="s">
+      <c r="C35" s="710"/>
+      <c r="D35" s="710"/>
+      <c r="E35" s="711" t="s">
         <v>457</v>
       </c>
-      <c r="F35" s="688"/>
-      <c r="G35" s="688"/>
+      <c r="F35" s="698"/>
+      <c r="G35" s="698"/>
     </row>
     <row r="36" spans="1:8" ht="25.35">
       <c r="A36" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B36" s="702" t="s">
+      <c r="B36" s="707" t="s">
         <v>459</v>
       </c>
-      <c r="C36" s="686"/>
-      <c r="D36" s="686"/>
-      <c r="E36" s="703" t="s">
+      <c r="C36" s="693"/>
+      <c r="D36" s="693"/>
+      <c r="E36" s="708" t="s">
         <v>460</v>
       </c>
-      <c r="F36" s="686"/>
-      <c r="G36" s="686"/>
+      <c r="F36" s="693"/>
+      <c r="G36" s="693"/>
     </row>
     <row r="37" spans="1:8" ht="15.35">
       <c r="B37" s="198" t="s">
@@ -58659,31 +58659,31 @@
       <c r="A48" s="196" t="s">
         <v>99</v>
       </c>
-      <c r="B48" s="704" t="s">
+      <c r="B48" s="709" t="s">
         <v>456</v>
       </c>
-      <c r="C48" s="705"/>
-      <c r="D48" s="705"/>
-      <c r="E48" s="706" t="s">
+      <c r="C48" s="710"/>
+      <c r="D48" s="710"/>
+      <c r="E48" s="711" t="s">
         <v>457</v>
       </c>
-      <c r="F48" s="688"/>
-      <c r="G48" s="688"/>
+      <c r="F48" s="698"/>
+      <c r="G48" s="698"/>
     </row>
     <row r="49" spans="1:8" ht="25.35">
       <c r="A49" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B49" s="702" t="s">
+      <c r="B49" s="707" t="s">
         <v>459</v>
       </c>
-      <c r="C49" s="686"/>
-      <c r="D49" s="686"/>
-      <c r="E49" s="703" t="s">
+      <c r="C49" s="693"/>
+      <c r="D49" s="693"/>
+      <c r="E49" s="708" t="s">
         <v>460</v>
       </c>
-      <c r="F49" s="686"/>
-      <c r="G49" s="686"/>
+      <c r="F49" s="693"/>
+      <c r="G49" s="693"/>
     </row>
     <row r="50" spans="1:8" ht="15.35">
       <c r="B50" s="198" t="s">
@@ -58815,31 +58815,31 @@
       <c r="A62" s="196" t="s">
         <v>104</v>
       </c>
-      <c r="B62" s="704" t="s">
+      <c r="B62" s="709" t="s">
         <v>456</v>
       </c>
-      <c r="C62" s="705"/>
-      <c r="D62" s="705"/>
-      <c r="E62" s="706" t="s">
+      <c r="C62" s="710"/>
+      <c r="D62" s="710"/>
+      <c r="E62" s="711" t="s">
         <v>457</v>
       </c>
-      <c r="F62" s="688"/>
-      <c r="G62" s="688"/>
+      <c r="F62" s="698"/>
+      <c r="G62" s="698"/>
     </row>
     <row r="63" spans="1:8" ht="25.35">
       <c r="A63" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B63" s="702" t="s">
+      <c r="B63" s="707" t="s">
         <v>459</v>
       </c>
-      <c r="C63" s="686"/>
-      <c r="D63" s="686"/>
-      <c r="E63" s="703" t="s">
+      <c r="C63" s="693"/>
+      <c r="D63" s="693"/>
+      <c r="E63" s="708" t="s">
         <v>460</v>
       </c>
-      <c r="F63" s="686"/>
-      <c r="G63" s="686"/>
+      <c r="F63" s="693"/>
+      <c r="G63" s="693"/>
     </row>
     <row r="64" spans="1:8" ht="15.35">
       <c r="B64" s="198" t="s">
@@ -58964,31 +58964,31 @@
       <c r="A79" s="191" t="s">
         <v>91</v>
       </c>
-      <c r="B79" s="704" t="s">
+      <c r="B79" s="709" t="s">
         <v>456</v>
       </c>
-      <c r="C79" s="705"/>
-      <c r="D79" s="705"/>
-      <c r="E79" s="706" t="s">
+      <c r="C79" s="710"/>
+      <c r="D79" s="710"/>
+      <c r="E79" s="711" t="s">
         <v>457</v>
       </c>
-      <c r="F79" s="688"/>
-      <c r="G79" s="688"/>
+      <c r="F79" s="698"/>
+      <c r="G79" s="698"/>
     </row>
     <row r="80" spans="1:9" ht="27.35">
       <c r="A80" s="196" t="s">
         <v>114</v>
       </c>
-      <c r="B80" s="702" t="s">
+      <c r="B80" s="707" t="s">
         <v>459</v>
       </c>
-      <c r="C80" s="686"/>
-      <c r="D80" s="686"/>
-      <c r="E80" s="703" t="s">
+      <c r="C80" s="693"/>
+      <c r="D80" s="693"/>
+      <c r="E80" s="708" t="s">
         <v>460</v>
       </c>
-      <c r="F80" s="686"/>
-      <c r="G80" s="686"/>
+      <c r="F80" s="693"/>
+      <c r="G80" s="693"/>
     </row>
     <row r="81" spans="1:7" ht="25.35">
       <c r="A81" s="10" t="s">
@@ -59126,31 +59126,31 @@
       <c r="A99" s="196" t="s">
         <v>119</v>
       </c>
-      <c r="B99" s="704" t="s">
+      <c r="B99" s="709" t="s">
         <v>456</v>
       </c>
-      <c r="C99" s="705"/>
-      <c r="D99" s="705"/>
-      <c r="E99" s="706" t="s">
+      <c r="C99" s="710"/>
+      <c r="D99" s="710"/>
+      <c r="E99" s="711" t="s">
         <v>457</v>
       </c>
-      <c r="F99" s="688"/>
-      <c r="G99" s="688"/>
+      <c r="F99" s="698"/>
+      <c r="G99" s="698"/>
     </row>
     <row r="100" spans="1:7" ht="14">
       <c r="A100" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B100" s="702" t="s">
+      <c r="B100" s="707" t="s">
         <v>459</v>
       </c>
-      <c r="C100" s="686"/>
-      <c r="D100" s="686"/>
-      <c r="E100" s="703" t="s">
+      <c r="C100" s="693"/>
+      <c r="D100" s="693"/>
+      <c r="E100" s="708" t="s">
         <v>460</v>
       </c>
-      <c r="F100" s="686"/>
-      <c r="G100" s="686"/>
+      <c r="F100" s="693"/>
+      <c r="G100" s="693"/>
     </row>
     <row r="101" spans="1:7" ht="15.35">
       <c r="A101" s="197"/>
@@ -59308,31 +59308,31 @@
       <c r="A112" s="196" t="s">
         <v>146</v>
       </c>
-      <c r="B112" s="704" t="s">
+      <c r="B112" s="709" t="s">
         <v>456</v>
       </c>
-      <c r="C112" s="705"/>
-      <c r="D112" s="705"/>
-      <c r="E112" s="706" t="s">
+      <c r="C112" s="710"/>
+      <c r="D112" s="710"/>
+      <c r="E112" s="711" t="s">
         <v>457</v>
       </c>
-      <c r="F112" s="688"/>
-      <c r="G112" s="688"/>
+      <c r="F112" s="698"/>
+      <c r="G112" s="698"/>
     </row>
     <row r="113" spans="1:7" ht="14">
       <c r="A113" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B113" s="702" t="s">
+      <c r="B113" s="707" t="s">
         <v>459</v>
       </c>
-      <c r="C113" s="686"/>
-      <c r="D113" s="686"/>
-      <c r="E113" s="703" t="s">
+      <c r="C113" s="693"/>
+      <c r="D113" s="693"/>
+      <c r="E113" s="708" t="s">
         <v>460</v>
       </c>
-      <c r="F113" s="686"/>
-      <c r="G113" s="686"/>
+      <c r="F113" s="693"/>
+      <c r="G113" s="693"/>
     </row>
     <row r="114" spans="1:7" ht="15.35">
       <c r="A114" s="197"/>
@@ -59461,31 +59461,31 @@
       <c r="A123" s="196" t="s">
         <v>163</v>
       </c>
-      <c r="B123" s="713" t="s">
+      <c r="B123" s="702" t="s">
         <v>456</v>
       </c>
-      <c r="C123" s="714"/>
-      <c r="D123" s="714"/>
-      <c r="E123" s="715" t="s">
+      <c r="C123" s="703"/>
+      <c r="D123" s="703"/>
+      <c r="E123" s="704" t="s">
         <v>457</v>
       </c>
-      <c r="F123" s="716"/>
-      <c r="G123" s="716"/>
+      <c r="F123" s="705"/>
+      <c r="G123" s="705"/>
     </row>
     <row r="124" spans="1:7" ht="14.35">
       <c r="A124" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B124" s="709" t="s">
+      <c r="B124" s="714" t="s">
         <v>459</v>
       </c>
-      <c r="C124" s="710"/>
-      <c r="D124" s="710"/>
-      <c r="E124" s="711" t="s">
+      <c r="C124" s="715"/>
+      <c r="D124" s="715"/>
+      <c r="E124" s="716" t="s">
         <v>460</v>
       </c>
-      <c r="F124" s="712"/>
-      <c r="G124" s="712"/>
+      <c r="F124" s="717"/>
+      <c r="G124" s="717"/>
     </row>
     <row r="125" spans="1:7" ht="14.35">
       <c r="A125" s="197"/>
@@ -59675,31 +59675,31 @@
       <c r="A136" s="196" t="s">
         <v>167</v>
       </c>
-      <c r="B136" s="704" t="s">
+      <c r="B136" s="709" t="s">
         <v>456</v>
       </c>
-      <c r="C136" s="705"/>
-      <c r="D136" s="705"/>
-      <c r="E136" s="706" t="s">
+      <c r="C136" s="710"/>
+      <c r="D136" s="710"/>
+      <c r="E136" s="711" t="s">
         <v>457</v>
       </c>
-      <c r="F136" s="707"/>
-      <c r="G136" s="707"/>
+      <c r="F136" s="712"/>
+      <c r="G136" s="712"/>
     </row>
     <row r="137" spans="1:7" ht="14">
       <c r="A137" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B137" s="704" t="s">
+      <c r="B137" s="709" t="s">
         <v>459</v>
       </c>
-      <c r="C137" s="707"/>
-      <c r="D137" s="708"/>
-      <c r="E137" s="706" t="s">
+      <c r="C137" s="712"/>
+      <c r="D137" s="713"/>
+      <c r="E137" s="711" t="s">
         <v>460</v>
       </c>
-      <c r="F137" s="707"/>
-      <c r="G137" s="707"/>
+      <c r="F137" s="712"/>
+      <c r="G137" s="712"/>
     </row>
     <row r="138" spans="1:7" ht="15.35">
       <c r="A138" s="197"/>
@@ -59843,31 +59843,31 @@
       <c r="A152" s="196" t="s">
         <v>186</v>
       </c>
-      <c r="B152" s="713" t="s">
+      <c r="B152" s="702" t="s">
         <v>456</v>
       </c>
-      <c r="C152" s="714"/>
-      <c r="D152" s="714"/>
-      <c r="E152" s="715" t="s">
+      <c r="C152" s="703"/>
+      <c r="D152" s="703"/>
+      <c r="E152" s="704" t="s">
         <v>457</v>
       </c>
-      <c r="F152" s="716"/>
-      <c r="G152" s="716"/>
+      <c r="F152" s="705"/>
+      <c r="G152" s="705"/>
     </row>
     <row r="153" spans="1:7" ht="21" customHeight="1">
       <c r="A153" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B153" s="713" t="s">
+      <c r="B153" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C153" s="714"/>
-      <c r="D153" s="714"/>
-      <c r="E153" s="715" t="s">
+      <c r="C153" s="703"/>
+      <c r="D153" s="703"/>
+      <c r="E153" s="704" t="s">
         <v>460</v>
       </c>
-      <c r="F153" s="716"/>
-      <c r="G153" s="716"/>
+      <c r="F153" s="705"/>
+      <c r="G153" s="705"/>
     </row>
     <row r="154" spans="1:7" ht="14.35">
       <c r="B154" s="220" t="s">
@@ -60143,31 +60143,31 @@
       <c r="A171" s="196" t="s">
         <v>208</v>
       </c>
-      <c r="B171" s="713" t="s">
+      <c r="B171" s="702" t="s">
         <v>456</v>
       </c>
-      <c r="C171" s="714"/>
-      <c r="D171" s="714"/>
-      <c r="E171" s="715" t="s">
+      <c r="C171" s="703"/>
+      <c r="D171" s="703"/>
+      <c r="E171" s="704" t="s">
         <v>457</v>
       </c>
-      <c r="F171" s="716"/>
-      <c r="G171" s="716"/>
+      <c r="F171" s="705"/>
+      <c r="G171" s="705"/>
     </row>
     <row r="172" spans="1:7" ht="27.35">
       <c r="A172" s="197" t="s">
         <v>476</v>
       </c>
-      <c r="B172" s="713" t="s">
+      <c r="B172" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C172" s="714"/>
-      <c r="D172" s="714"/>
-      <c r="E172" s="715" t="s">
+      <c r="C172" s="703"/>
+      <c r="D172" s="703"/>
+      <c r="E172" s="704" t="s">
         <v>460</v>
       </c>
-      <c r="F172" s="716"/>
-      <c r="G172" s="716"/>
+      <c r="F172" s="705"/>
+      <c r="G172" s="705"/>
     </row>
     <row r="173" spans="1:7" ht="14.35">
       <c r="A173" s="201"/>
@@ -60443,31 +60443,31 @@
       <c r="A190" s="196" t="s">
         <v>210</v>
       </c>
-      <c r="B190" s="713" t="s">
+      <c r="B190" s="702" t="s">
         <v>456</v>
       </c>
-      <c r="C190" s="714"/>
-      <c r="D190" s="714"/>
-      <c r="E190" s="715" t="s">
+      <c r="C190" s="703"/>
+      <c r="D190" s="703"/>
+      <c r="E190" s="704" t="s">
         <v>457</v>
       </c>
-      <c r="F190" s="716"/>
-      <c r="G190" s="716"/>
+      <c r="F190" s="705"/>
+      <c r="G190" s="705"/>
     </row>
     <row r="191" spans="1:7" ht="25.35">
       <c r="A191" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B191" s="713" t="s">
+      <c r="B191" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C191" s="714"/>
-      <c r="D191" s="714"/>
-      <c r="E191" s="715" t="s">
+      <c r="C191" s="703"/>
+      <c r="D191" s="703"/>
+      <c r="E191" s="704" t="s">
         <v>460</v>
       </c>
-      <c r="F191" s="716"/>
-      <c r="G191" s="716"/>
+      <c r="F191" s="705"/>
+      <c r="G191" s="705"/>
     </row>
     <row r="192" spans="1:7" ht="14.35">
       <c r="B192" s="220" t="s">
@@ -60721,31 +60721,31 @@
       <c r="A208" s="196" t="s">
         <v>215</v>
       </c>
-      <c r="B208" s="713" t="s">
+      <c r="B208" s="702" t="s">
         <v>456</v>
       </c>
-      <c r="C208" s="714"/>
-      <c r="D208" s="714"/>
-      <c r="E208" s="715" t="s">
+      <c r="C208" s="703"/>
+      <c r="D208" s="703"/>
+      <c r="E208" s="704" t="s">
         <v>457</v>
       </c>
-      <c r="F208" s="716"/>
-      <c r="G208" s="716"/>
+      <c r="F208" s="705"/>
+      <c r="G208" s="705"/>
     </row>
     <row r="209" spans="1:7" ht="25.35">
       <c r="A209" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B209" s="713" t="s">
+      <c r="B209" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C209" s="714"/>
-      <c r="D209" s="714"/>
-      <c r="E209" s="715" t="s">
+      <c r="C209" s="703"/>
+      <c r="D209" s="703"/>
+      <c r="E209" s="704" t="s">
         <v>460</v>
       </c>
-      <c r="F209" s="716"/>
-      <c r="G209" s="716"/>
+      <c r="F209" s="705"/>
+      <c r="G209" s="705"/>
     </row>
     <row r="210" spans="1:7" ht="14.35">
       <c r="B210" s="220" t="s">
@@ -61009,31 +61009,31 @@
       <c r="A226" s="196" t="s">
         <v>218</v>
       </c>
-      <c r="B226" s="713" t="s">
+      <c r="B226" s="702" t="s">
         <v>456</v>
       </c>
-      <c r="C226" s="714"/>
-      <c r="D226" s="714"/>
-      <c r="E226" s="715" t="s">
+      <c r="C226" s="703"/>
+      <c r="D226" s="703"/>
+      <c r="E226" s="704" t="s">
         <v>457</v>
       </c>
-      <c r="F226" s="717"/>
-      <c r="G226" s="717"/>
+      <c r="F226" s="706"/>
+      <c r="G226" s="706"/>
     </row>
     <row r="227" spans="1:7" ht="27.35">
       <c r="A227" s="197" t="s">
         <v>476</v>
       </c>
-      <c r="B227" s="713" t="s">
+      <c r="B227" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C227" s="644"/>
-      <c r="D227" s="644"/>
-      <c r="E227" s="715" t="s">
+      <c r="C227" s="641"/>
+      <c r="D227" s="641"/>
+      <c r="E227" s="704" t="s">
         <v>460</v>
       </c>
-      <c r="F227" s="717"/>
-      <c r="G227" s="717"/>
+      <c r="F227" s="706"/>
+      <c r="G227" s="706"/>
     </row>
     <row r="228" spans="1:7" ht="14.35">
       <c r="A228" s="197"/>
@@ -61231,31 +61231,31 @@
       <c r="A240" s="196" t="s">
         <v>223</v>
       </c>
-      <c r="B240" s="713" t="s">
+      <c r="B240" s="702" t="s">
         <v>456</v>
       </c>
-      <c r="C240" s="714"/>
-      <c r="D240" s="714"/>
-      <c r="E240" s="715" t="s">
+      <c r="C240" s="703"/>
+      <c r="D240" s="703"/>
+      <c r="E240" s="704" t="s">
         <v>457</v>
       </c>
-      <c r="F240" s="717"/>
-      <c r="G240" s="717"/>
+      <c r="F240" s="706"/>
+      <c r="G240" s="706"/>
     </row>
     <row r="241" spans="1:7" ht="27.35">
       <c r="A241" s="197" t="s">
         <v>476</v>
       </c>
-      <c r="B241" s="713" t="s">
+      <c r="B241" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C241" s="644"/>
-      <c r="D241" s="644"/>
-      <c r="E241" s="715" t="s">
+      <c r="C241" s="641"/>
+      <c r="D241" s="641"/>
+      <c r="E241" s="704" t="s">
         <v>460</v>
       </c>
-      <c r="F241" s="717"/>
-      <c r="G241" s="717"/>
+      <c r="F241" s="706"/>
+      <c r="G241" s="706"/>
     </row>
     <row r="242" spans="1:7" ht="14.35">
       <c r="A242" s="197"/>
@@ -61514,14 +61514,50 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="B152:D152"/>
-    <mergeCell ref="E152:G152"/>
-    <mergeCell ref="B153:D153"/>
-    <mergeCell ref="E153:G153"/>
-    <mergeCell ref="B172:D172"/>
-    <mergeCell ref="E172:G172"/>
-    <mergeCell ref="B171:D171"/>
-    <mergeCell ref="E171:G171"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="B137:D137"/>
+    <mergeCell ref="E137:G137"/>
+    <mergeCell ref="B124:D124"/>
+    <mergeCell ref="E124:G124"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="E112:G112"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="E113:G113"/>
+    <mergeCell ref="B136:D136"/>
+    <mergeCell ref="E136:G136"/>
+    <mergeCell ref="B123:D123"/>
+    <mergeCell ref="E123:G123"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="E79:G79"/>
     <mergeCell ref="B190:D190"/>
     <mergeCell ref="E190:G190"/>
     <mergeCell ref="B191:D191"/>
@@ -61538,50 +61574,14 @@
     <mergeCell ref="E227:G227"/>
     <mergeCell ref="B240:D240"/>
     <mergeCell ref="E240:G240"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="B137:D137"/>
-    <mergeCell ref="E137:G137"/>
-    <mergeCell ref="B124:D124"/>
-    <mergeCell ref="E124:G124"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="E112:G112"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="E113:G113"/>
-    <mergeCell ref="B136:D136"/>
-    <mergeCell ref="E136:G136"/>
-    <mergeCell ref="B123:D123"/>
-    <mergeCell ref="E123:G123"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="B152:D152"/>
+    <mergeCell ref="E152:G152"/>
+    <mergeCell ref="B153:D153"/>
+    <mergeCell ref="E153:G153"/>
+    <mergeCell ref="B172:D172"/>
+    <mergeCell ref="E172:G172"/>
+    <mergeCell ref="B171:D171"/>
+    <mergeCell ref="E171:G171"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -62324,9 +62324,9 @@
       <c r="A1" s="722" t="s">
         <v>448</v>
       </c>
-      <c r="B1" s="688"/>
-      <c r="C1" s="688"/>
-      <c r="D1" s="688"/>
+      <c r="B1" s="698"/>
+      <c r="C1" s="698"/>
+      <c r="D1" s="698"/>
       <c r="E1" s="723" t="s">
         <v>449</v>
       </c>

--- a/microgrid_base/设备信息库各参数.xlsx
+++ b/microgrid_base/设备信息库各参数.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\works\jubilant-adventure2\microgrid_base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C634EC3F-8B77-4679-8B8D-916B8A99B129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C71D85A-E26B-417B-9484-4500A75735D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="8180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6555,7 +6555,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6564,29 +6564,54 @@
     <xf numFmtId="0" fontId="65" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6601,47 +6626,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6659,8 +6650,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6679,45 +6679,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6726,8 +6689,17 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6741,16 +6713,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6780,6 +6771,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -8843,7 +8843,7 @@
       <c r="C15" s="370">
         <v>560</v>
       </c>
-      <c r="D15" s="644"/>
+      <c r="D15" s="635"/>
       <c r="E15" s="365"/>
       <c r="F15" s="363"/>
       <c r="G15" s="363"/>
@@ -8924,7 +8924,7 @@
       <c r="B21" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="639"/>
+      <c r="C21" s="638"/>
       <c r="D21" s="363"/>
       <c r="E21" s="363"/>
       <c r="F21" s="363"/>
@@ -9205,7 +9205,7 @@
       <c r="C41" s="375">
         <v>560</v>
       </c>
-      <c r="D41" s="635"/>
+      <c r="D41" s="639"/>
       <c r="E41" s="366"/>
       <c r="F41" s="363"/>
       <c r="G41" s="363"/>
@@ -9286,7 +9286,7 @@
       <c r="B47" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="639"/>
+      <c r="C47" s="638"/>
       <c r="D47" s="363"/>
       <c r="E47" s="363"/>
       <c r="F47" s="363"/>
@@ -9621,7 +9621,7 @@
       <c r="C71" s="370">
         <v>560</v>
       </c>
-      <c r="D71" s="635"/>
+      <c r="D71" s="639"/>
       <c r="E71" s="363"/>
       <c r="F71" s="363"/>
       <c r="G71" s="363"/>
@@ -9702,7 +9702,7 @@
       <c r="B77" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C77" s="639"/>
+      <c r="C77" s="638"/>
       <c r="D77" s="363"/>
       <c r="E77" s="363"/>
       <c r="F77" s="363"/>
@@ -9876,10 +9876,10 @@
       </c>
       <c r="E91" s="363"/>
       <c r="F91" s="363"/>
-      <c r="G91" s="642" t="s">
+      <c r="G91" s="640" t="s">
         <v>59</v>
       </c>
-      <c r="H91" s="643"/>
+      <c r="H91" s="641"/>
     </row>
     <row r="92" spans="1:8" ht="14.35">
       <c r="A92" s="363"/>
@@ -10007,7 +10007,7 @@
       <c r="C99" s="370">
         <v>560</v>
       </c>
-      <c r="D99" s="635"/>
+      <c r="D99" s="639"/>
       <c r="E99" s="363"/>
       <c r="F99" s="363"/>
       <c r="G99" s="363"/>
@@ -10088,7 +10088,7 @@
       <c r="B105" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C105" s="638"/>
+      <c r="C105" s="642"/>
       <c r="D105" s="363"/>
       <c r="E105" s="363"/>
       <c r="F105" s="363"/>
@@ -10387,7 +10387,7 @@
       <c r="C128" s="370">
         <v>560</v>
       </c>
-      <c r="D128" s="635"/>
+      <c r="D128" s="639"/>
       <c r="E128" s="363"/>
       <c r="F128" s="363"/>
       <c r="G128" s="363"/>
@@ -10468,7 +10468,7 @@
       <c r="B134" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C134" s="638"/>
+      <c r="C134" s="642"/>
       <c r="D134" s="363"/>
       <c r="E134" s="363"/>
       <c r="F134" s="363"/>
@@ -10741,7 +10741,7 @@
       <c r="C158" s="370">
         <v>560</v>
       </c>
-      <c r="D158" s="635"/>
+      <c r="D158" s="639"/>
       <c r="E158" s="363"/>
     </row>
     <row r="159" spans="1:8" ht="14.35">
@@ -10804,7 +10804,7 @@
       <c r="B164" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C164" s="638"/>
+      <c r="C164" s="642"/>
       <c r="D164" s="363"/>
       <c r="E164" s="363"/>
     </row>
@@ -10944,7 +10944,7 @@
       <c r="C179" s="375">
         <v>560</v>
       </c>
-      <c r="D179" s="635"/>
+      <c r="D179" s="639"/>
       <c r="E179" s="363"/>
       <c r="F179" s="363"/>
       <c r="G179" s="363"/>
@@ -11025,7 +11025,7 @@
       <c r="B185" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C185" s="639"/>
+      <c r="C185" s="638"/>
       <c r="D185" s="363"/>
       <c r="E185" s="363"/>
       <c r="F185" s="363"/>
@@ -11222,7 +11222,7 @@
       <c r="C201" s="375">
         <v>560</v>
       </c>
-      <c r="D201" s="635"/>
+      <c r="D201" s="639"/>
       <c r="E201" s="363"/>
       <c r="F201" s="363"/>
       <c r="G201" s="363"/>
@@ -11302,7 +11302,7 @@
       <c r="B207" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C207" s="639"/>
+      <c r="C207" s="638"/>
       <c r="D207" s="363"/>
       <c r="E207" s="363"/>
       <c r="F207" s="363"/>
@@ -11797,7 +11797,7 @@
       <c r="C242" s="370">
         <v>560</v>
       </c>
-      <c r="D242" s="635"/>
+      <c r="D242" s="639"/>
       <c r="E242" s="363"/>
       <c r="F242" s="363"/>
       <c r="G242" s="363"/>
@@ -11878,7 +11878,7 @@
       <c r="B248" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C248" s="638"/>
+      <c r="C248" s="642"/>
       <c r="D248" s="363"/>
       <c r="E248" s="363"/>
       <c r="F248" s="363"/>
@@ -12267,7 +12267,7 @@
       <c r="C278" s="370">
         <v>560</v>
       </c>
-      <c r="D278" s="635"/>
+      <c r="D278" s="639"/>
       <c r="E278" s="363"/>
       <c r="F278" s="363"/>
       <c r="G278" s="363"/>
@@ -12348,7 +12348,7 @@
       <c r="B284" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C284" s="638"/>
+      <c r="C284" s="642"/>
       <c r="D284" s="363"/>
       <c r="E284" s="363"/>
       <c r="F284" s="363"/>
@@ -12578,7 +12578,7 @@
       <c r="C304" s="370">
         <v>560</v>
       </c>
-      <c r="D304" s="635"/>
+      <c r="D304" s="639"/>
       <c r="E304" s="363"/>
       <c r="F304" s="363"/>
       <c r="G304" s="363"/>
@@ -12659,7 +12659,7 @@
       <c r="B310" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C310" s="638"/>
+      <c r="C310" s="642"/>
       <c r="D310" s="363"/>
       <c r="E310" s="363"/>
       <c r="F310" s="363"/>
@@ -12846,7 +12846,7 @@
       <c r="C327" s="370">
         <v>560</v>
       </c>
-      <c r="D327" s="635"/>
+      <c r="D327" s="639"/>
       <c r="E327" s="363"/>
       <c r="F327" s="363"/>
       <c r="G327" s="363"/>
@@ -12927,7 +12927,7 @@
       <c r="B333" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C333" s="638"/>
+      <c r="C333" s="642"/>
       <c r="D333" s="363"/>
       <c r="E333" s="363"/>
       <c r="F333" s="363"/>
@@ -13120,7 +13120,7 @@
       <c r="C349" s="370">
         <v>560</v>
       </c>
-      <c r="D349" s="635"/>
+      <c r="D349" s="639"/>
       <c r="F349" s="363"/>
       <c r="G349" s="363"/>
       <c r="H349" s="363"/>
@@ -13195,7 +13195,7 @@
       <c r="B355" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C355" s="638"/>
+      <c r="C355" s="642"/>
       <c r="D355" s="363"/>
       <c r="F355" s="363"/>
       <c r="G355" s="363"/>
@@ -13540,7 +13540,7 @@
       <c r="C383" s="370">
         <v>560</v>
       </c>
-      <c r="D383" s="635"/>
+      <c r="D383" s="639"/>
       <c r="E383" s="363"/>
       <c r="F383" s="363"/>
       <c r="G383" s="363"/>
@@ -13621,7 +13621,7 @@
       <c r="B389" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C389" s="638"/>
+      <c r="C389" s="642"/>
       <c r="D389" s="363"/>
       <c r="E389" s="363"/>
       <c r="F389" s="363"/>
@@ -13969,7 +13969,7 @@
       <c r="C418" s="370">
         <v>560</v>
       </c>
-      <c r="D418" s="635"/>
+      <c r="D418" s="639"/>
       <c r="E418" s="363"/>
       <c r="F418" s="363"/>
       <c r="G418" s="363"/>
@@ -14050,7 +14050,7 @@
       <c r="B424" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C424" s="638"/>
+      <c r="C424" s="642"/>
       <c r="D424" s="363"/>
       <c r="E424" s="363"/>
       <c r="F424" s="363"/>
@@ -14376,7 +14376,7 @@
       <c r="B451" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C451" s="638"/>
+      <c r="C451" s="642"/>
       <c r="D451" s="363"/>
       <c r="E451" s="363"/>
       <c r="F451" s="363"/>
@@ -14591,7 +14591,7 @@
       <c r="C469" s="370">
         <v>560</v>
       </c>
-      <c r="D469" s="635"/>
+      <c r="D469" s="639"/>
       <c r="E469" s="363"/>
       <c r="F469" s="363"/>
       <c r="G469" s="363"/>
@@ -14672,7 +14672,7 @@
       <c r="B475" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C475" s="638"/>
+      <c r="C475" s="642"/>
       <c r="D475" s="363"/>
       <c r="E475" s="363"/>
       <c r="F475" s="363"/>
@@ -14899,7 +14899,7 @@
       <c r="C494" s="370">
         <v>560</v>
       </c>
-      <c r="D494" s="635"/>
+      <c r="D494" s="639"/>
       <c r="E494" s="365" t="s">
         <v>684</v>
       </c>
@@ -14982,7 +14982,7 @@
       <c r="B500" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C500" s="638"/>
+      <c r="C500" s="642"/>
       <c r="D500" s="363"/>
       <c r="E500" s="363"/>
       <c r="F500" s="363"/>
@@ -15203,7 +15203,7 @@
       <c r="C519" s="370">
         <v>560</v>
       </c>
-      <c r="D519" s="635"/>
+      <c r="D519" s="639"/>
       <c r="E519" s="365" t="s">
         <v>686</v>
       </c>
@@ -15286,7 +15286,7 @@
       <c r="B525" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C525" s="638"/>
+      <c r="C525" s="642"/>
       <c r="D525" s="363"/>
       <c r="E525" s="363"/>
       <c r="F525" s="363"/>
@@ -15553,7 +15553,7 @@
       <c r="C547" s="370">
         <v>560</v>
       </c>
-      <c r="D547" s="635"/>
+      <c r="D547" s="639"/>
       <c r="E547" s="363"/>
       <c r="F547" s="363"/>
       <c r="G547" s="363"/>
@@ -15634,7 +15634,7 @@
       <c r="B553" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C553" s="638"/>
+      <c r="C553" s="642"/>
       <c r="D553" s="363"/>
       <c r="E553" s="363"/>
       <c r="F553" s="363"/>
@@ -15965,7 +15965,7 @@
       <c r="C580" s="370">
         <v>560</v>
       </c>
-      <c r="D580" s="635"/>
+      <c r="D580" s="639"/>
       <c r="E580" s="363"/>
       <c r="F580" s="363"/>
       <c r="G580" s="363"/>
@@ -16046,7 +16046,7 @@
       <c r="B586" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C586" s="638"/>
+      <c r="C586" s="642"/>
       <c r="D586" s="363"/>
       <c r="E586" s="363"/>
       <c r="F586" s="363"/>
@@ -16310,7 +16310,7 @@
       <c r="C608" s="370">
         <v>560</v>
       </c>
-      <c r="D608" s="635"/>
+      <c r="D608" s="639"/>
       <c r="E608" s="363"/>
       <c r="F608" s="363"/>
       <c r="G608" s="363"/>
@@ -16391,7 +16391,7 @@
       <c r="B614" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C614" s="638"/>
+      <c r="C614" s="642"/>
       <c r="D614" s="363"/>
       <c r="E614" s="363"/>
       <c r="F614" s="363"/>
@@ -16675,7 +16675,7 @@
       <c r="B637" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C637" s="638"/>
+      <c r="C637" s="642"/>
       <c r="D637" s="363"/>
       <c r="E637" s="363"/>
       <c r="F637" s="363"/>
@@ -16970,10 +16970,10 @@
     </row>
     <row r="660" spans="1:8" ht="14.35">
       <c r="A660" s="363"/>
-      <c r="B660" s="640" t="s">
+      <c r="B660" s="643" t="s">
         <v>34</v>
       </c>
-      <c r="C660" s="641"/>
+      <c r="C660" s="644"/>
       <c r="D660" s="363"/>
       <c r="E660" s="363"/>
       <c r="F660" s="363"/>
@@ -17272,10 +17272,10 @@
     </row>
     <row r="683" spans="1:8" ht="14.35">
       <c r="A683" s="363"/>
-      <c r="B683" s="640" t="s">
+      <c r="B683" s="643" t="s">
         <v>34</v>
       </c>
-      <c r="C683" s="641"/>
+      <c r="C683" s="644"/>
       <c r="D683" s="363"/>
       <c r="E683" s="363"/>
       <c r="F683" s="363"/>
@@ -17639,7 +17639,7 @@
       <c r="B711" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C711" s="638"/>
+      <c r="C711" s="642"/>
       <c r="D711" s="363"/>
       <c r="E711" s="363"/>
       <c r="F711" s="363"/>
@@ -17884,7 +17884,7 @@
       <c r="C729" s="370">
         <v>560</v>
       </c>
-      <c r="D729" s="635"/>
+      <c r="D729" s="639"/>
       <c r="E729" s="363"/>
       <c r="F729" s="363"/>
       <c r="G729" s="363"/>
@@ -17965,7 +17965,7 @@
       <c r="B735" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C735" s="638"/>
+      <c r="C735" s="642"/>
       <c r="D735" s="363"/>
       <c r="E735" s="363"/>
       <c r="F735" s="363"/>
@@ -18226,7 +18226,7 @@
       <c r="C756" s="370">
         <v>560</v>
       </c>
-      <c r="D756" s="635"/>
+      <c r="D756" s="639"/>
       <c r="E756" s="363"/>
       <c r="F756" s="363"/>
       <c r="G756" s="363"/>
@@ -18307,7 +18307,7 @@
       <c r="B762" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C762" s="638"/>
+      <c r="C762" s="642"/>
       <c r="D762" s="363"/>
       <c r="E762" s="363"/>
       <c r="F762" s="363"/>
@@ -18633,7 +18633,7 @@
       <c r="B789" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C789" s="639"/>
+      <c r="C789" s="638"/>
       <c r="D789" s="363"/>
       <c r="E789" s="363"/>
       <c r="F789" s="363"/>
@@ -18959,7 +18959,7 @@
       <c r="B816" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C816" s="639"/>
+      <c r="C816" s="638"/>
       <c r="D816" s="363"/>
       <c r="E816" s="363"/>
       <c r="F816" s="363"/>
@@ -19250,7 +19250,7 @@
       <c r="C839" s="375">
         <v>560</v>
       </c>
-      <c r="D839" s="635"/>
+      <c r="D839" s="639"/>
       <c r="E839" s="365"/>
       <c r="F839" s="363"/>
       <c r="G839" s="363"/>
@@ -19331,7 +19331,7 @@
       <c r="B845" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C845" s="639"/>
+      <c r="C845" s="638"/>
       <c r="D845" s="363"/>
       <c r="E845" s="363"/>
       <c r="F845" s="363"/>
@@ -19712,7 +19712,7 @@
       <c r="B876" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C876" s="639"/>
+      <c r="C876" s="638"/>
       <c r="D876" s="363"/>
       <c r="E876" s="363"/>
       <c r="F876" s="363"/>
@@ -20068,7 +20068,7 @@
       <c r="B907" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C907" s="639"/>
+      <c r="C907" s="638"/>
       <c r="D907" s="363"/>
       <c r="E907" s="363"/>
       <c r="F907" s="363"/>
@@ -20341,7 +20341,7 @@
       <c r="B931" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C931" s="639"/>
+      <c r="C931" s="638"/>
       <c r="D931" s="363"/>
       <c r="E931" s="363"/>
       <c r="F931" s="363"/>
@@ -20691,7 +20691,7 @@
       <c r="B958" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C958" s="639"/>
+      <c r="C958" s="638"/>
       <c r="D958" s="363"/>
       <c r="E958" s="363"/>
       <c r="F958" s="363"/>
@@ -20987,7 +20987,7 @@
       <c r="B981" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C981" s="639"/>
+      <c r="C981" s="638"/>
       <c r="D981" s="363"/>
       <c r="E981" s="363"/>
       <c r="F981" s="363"/>
@@ -21283,7 +21283,7 @@
       <c r="B1005" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1005" s="639"/>
+      <c r="C1005" s="638"/>
       <c r="D1005" s="363"/>
       <c r="E1005" s="363"/>
       <c r="F1005" s="363"/>
@@ -21479,7 +21479,7 @@
       <c r="B1024" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1024" s="639"/>
+      <c r="C1024" s="638"/>
       <c r="F1024" s="363"/>
       <c r="G1024" s="363"/>
       <c r="H1024" s="363"/>
@@ -21706,7 +21706,7 @@
       <c r="C1042" s="370">
         <v>560</v>
       </c>
-      <c r="D1042" s="635"/>
+      <c r="D1042" s="639"/>
       <c r="E1042" s="363"/>
       <c r="F1042" s="363"/>
       <c r="G1042" s="363"/>
@@ -21787,7 +21787,7 @@
       <c r="B1048" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1048" s="638"/>
+      <c r="C1048" s="642"/>
       <c r="D1048" s="363"/>
       <c r="E1048" s="363"/>
       <c r="F1048" s="363"/>
@@ -22053,7 +22053,7 @@
       <c r="B1070" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1070" s="639"/>
+      <c r="C1070" s="638"/>
       <c r="D1070" s="363"/>
       <c r="E1070" s="363"/>
       <c r="F1070" s="363"/>
@@ -22298,7 +22298,7 @@
       <c r="C1089" s="370">
         <v>560</v>
       </c>
-      <c r="D1089" s="635"/>
+      <c r="D1089" s="639"/>
       <c r="E1089" s="363"/>
       <c r="F1089" s="363"/>
       <c r="G1089" s="363"/>
@@ -22373,7 +22373,7 @@
       <c r="B1095" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1095" s="638"/>
+      <c r="C1095" s="642"/>
       <c r="D1095" s="363"/>
       <c r="E1095" s="363"/>
       <c r="F1095" s="363"/>
@@ -22649,7 +22649,7 @@
       <c r="C1120" s="370">
         <v>560</v>
       </c>
-      <c r="D1120" s="635"/>
+      <c r="D1120" s="639"/>
       <c r="E1120" s="363"/>
       <c r="F1120" s="363"/>
       <c r="G1120" s="363"/>
@@ -22726,7 +22726,7 @@
       <c r="B1126" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1126" s="638"/>
+      <c r="C1126" s="642"/>
       <c r="D1126" s="363"/>
       <c r="E1126" s="363"/>
       <c r="F1126" s="363"/>
@@ -23089,7 +23089,7 @@
       <c r="B1155" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1155" s="638"/>
+      <c r="C1155" s="642"/>
       <c r="D1155" s="363"/>
       <c r="E1155" s="363"/>
       <c r="F1155" s="363"/>
@@ -23198,61 +23198,6 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D41:D46"/>
-    <mergeCell ref="D71:D75"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="D99:D103"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="D128:D132"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="D158:D162"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="D179:D184"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="D201:D206"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="D242:D246"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="D278:D282"/>
-    <mergeCell ref="B284:C284"/>
-    <mergeCell ref="D304:D308"/>
-    <mergeCell ref="B310:C310"/>
-    <mergeCell ref="D327:D331"/>
-    <mergeCell ref="B333:C333"/>
-    <mergeCell ref="D383:D387"/>
-    <mergeCell ref="B389:C389"/>
-    <mergeCell ref="D418:D422"/>
-    <mergeCell ref="B424:C424"/>
-    <mergeCell ref="B451:C451"/>
-    <mergeCell ref="D469:D473"/>
-    <mergeCell ref="B475:C475"/>
-    <mergeCell ref="D494:D498"/>
-    <mergeCell ref="B500:C500"/>
-    <mergeCell ref="D519:D523"/>
-    <mergeCell ref="B525:C525"/>
-    <mergeCell ref="D547:D551"/>
-    <mergeCell ref="B553:C553"/>
-    <mergeCell ref="D580:D584"/>
-    <mergeCell ref="B586:C586"/>
-    <mergeCell ref="D608:D612"/>
-    <mergeCell ref="B614:C614"/>
-    <mergeCell ref="B637:C637"/>
-    <mergeCell ref="B660:C660"/>
-    <mergeCell ref="B683:C683"/>
-    <mergeCell ref="B711:C711"/>
-    <mergeCell ref="D839:D844"/>
-    <mergeCell ref="B845:C845"/>
-    <mergeCell ref="B876:C876"/>
-    <mergeCell ref="B907:C907"/>
-    <mergeCell ref="D729:D733"/>
-    <mergeCell ref="B735:C735"/>
-    <mergeCell ref="D756:D760"/>
-    <mergeCell ref="B762:C762"/>
-    <mergeCell ref="B789:C789"/>
     <mergeCell ref="D1120:D1124"/>
     <mergeCell ref="B1126:C1126"/>
     <mergeCell ref="B1155:C1155"/>
@@ -23269,6 +23214,61 @@
     <mergeCell ref="B1005:C1005"/>
     <mergeCell ref="B1024:C1024"/>
     <mergeCell ref="B816:C816"/>
+    <mergeCell ref="D839:D844"/>
+    <mergeCell ref="B845:C845"/>
+    <mergeCell ref="B876:C876"/>
+    <mergeCell ref="B907:C907"/>
+    <mergeCell ref="D729:D733"/>
+    <mergeCell ref="B735:C735"/>
+    <mergeCell ref="D756:D760"/>
+    <mergeCell ref="B762:C762"/>
+    <mergeCell ref="B789:C789"/>
+    <mergeCell ref="B614:C614"/>
+    <mergeCell ref="B637:C637"/>
+    <mergeCell ref="B660:C660"/>
+    <mergeCell ref="B683:C683"/>
+    <mergeCell ref="B711:C711"/>
+    <mergeCell ref="D547:D551"/>
+    <mergeCell ref="B553:C553"/>
+    <mergeCell ref="D580:D584"/>
+    <mergeCell ref="B586:C586"/>
+    <mergeCell ref="D608:D612"/>
+    <mergeCell ref="B475:C475"/>
+    <mergeCell ref="D494:D498"/>
+    <mergeCell ref="B500:C500"/>
+    <mergeCell ref="D519:D523"/>
+    <mergeCell ref="B525:C525"/>
+    <mergeCell ref="B389:C389"/>
+    <mergeCell ref="D418:D422"/>
+    <mergeCell ref="B424:C424"/>
+    <mergeCell ref="B451:C451"/>
+    <mergeCell ref="D469:D473"/>
+    <mergeCell ref="D304:D308"/>
+    <mergeCell ref="B310:C310"/>
+    <mergeCell ref="D327:D331"/>
+    <mergeCell ref="B333:C333"/>
+    <mergeCell ref="D383:D387"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="D242:D246"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="D278:D282"/>
+    <mergeCell ref="B284:C284"/>
+    <mergeCell ref="D158:D162"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="D179:D184"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="D201:D206"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="D99:D103"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="D128:D132"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D41:D46"/>
+    <mergeCell ref="D71:D75"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23614,7 +23614,7 @@
       <c r="B20" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="639"/>
+      <c r="C20" s="638"/>
       <c r="D20" s="363"/>
       <c r="E20" s="363"/>
       <c r="F20" s="363"/>
@@ -23789,7 +23789,7 @@
         <v>29</v>
       </c>
       <c r="C36" s="375"/>
-      <c r="D36" s="645"/>
+      <c r="D36" s="650"/>
       <c r="E36" s="26"/>
       <c r="K36" s="10"/>
     </row>
@@ -23799,7 +23799,7 @@
         <v>45</v>
       </c>
       <c r="C37" s="370"/>
-      <c r="D37" s="646"/>
+      <c r="D37" s="651"/>
       <c r="E37" s="26"/>
       <c r="K37" s="10"/>
     </row>
@@ -23809,7 +23809,7 @@
         <v>30</v>
       </c>
       <c r="C38" s="370"/>
-      <c r="D38" s="646"/>
+      <c r="D38" s="651"/>
       <c r="E38" s="28"/>
       <c r="K38" s="10"/>
     </row>
@@ -23819,7 +23819,7 @@
         <v>31</v>
       </c>
       <c r="C39" s="370"/>
-      <c r="D39" s="646"/>
+      <c r="D39" s="651"/>
       <c r="E39" s="28"/>
       <c r="K39" s="10"/>
     </row>
@@ -23829,7 +23829,7 @@
         <v>32</v>
       </c>
       <c r="C40" s="370"/>
-      <c r="D40" s="646"/>
+      <c r="D40" s="651"/>
       <c r="E40" s="28"/>
       <c r="K40" s="10"/>
     </row>
@@ -23839,7 +23839,7 @@
         <v>876</v>
       </c>
       <c r="C41" s="370"/>
-      <c r="D41" s="646"/>
+      <c r="D41" s="651"/>
       <c r="E41" s="28"/>
       <c r="K41" s="10"/>
     </row>
@@ -23848,7 +23848,7 @@
       <c r="B42" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="639"/>
+      <c r="C42" s="638"/>
       <c r="D42" s="501"/>
       <c r="E42" s="28"/>
       <c r="K42" s="10"/>
@@ -24087,10 +24087,10 @@
     </row>
     <row r="61" spans="1:11" ht="14.35">
       <c r="A61" s="2"/>
-      <c r="B61" s="649" t="s">
+      <c r="B61" s="658" t="s">
         <v>34</v>
       </c>
-      <c r="C61" s="650"/>
+      <c r="C61" s="659"/>
       <c r="D61" s="8"/>
       <c r="E61" s="393"/>
       <c r="F61" s="2"/>
@@ -24276,10 +24276,10 @@
       <c r="D75" s="518" t="s">
         <v>58</v>
       </c>
-      <c r="E75" s="651" t="s">
+      <c r="E75" s="646" t="s">
         <v>59</v>
       </c>
-      <c r="F75" s="652"/>
+      <c r="F75" s="647"/>
       <c r="G75" s="520"/>
       <c r="H75" s="488"/>
       <c r="K75" s="10"/>
@@ -24376,7 +24376,7 @@
         <v>65</v>
       </c>
       <c r="C81" s="370"/>
-      <c r="D81" s="645"/>
+      <c r="D81" s="650"/>
       <c r="E81" s="525">
         <v>1</v>
       </c>
@@ -24393,7 +24393,7 @@
         <v>30</v>
       </c>
       <c r="C82" s="370"/>
-      <c r="D82" s="646"/>
+      <c r="D82" s="651"/>
       <c r="E82" s="526" t="s">
         <v>66</v>
       </c>
@@ -24408,7 +24408,7 @@
         <v>31</v>
       </c>
       <c r="C83" s="370"/>
-      <c r="D83" s="646"/>
+      <c r="D83" s="651"/>
       <c r="E83" s="527" t="s">
         <v>67</v>
       </c>
@@ -24423,7 +24423,7 @@
         <v>68</v>
       </c>
       <c r="C84" s="499"/>
-      <c r="D84" s="646"/>
+      <c r="D84" s="651"/>
       <c r="E84" s="363"/>
       <c r="F84" s="363"/>
       <c r="G84" s="363"/>
@@ -24435,7 +24435,7 @@
       <c r="B85" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C85" s="639"/>
+      <c r="C85" s="638"/>
       <c r="D85" s="363"/>
       <c r="E85" s="363"/>
       <c r="F85" s="363"/>
@@ -24542,8 +24542,8 @@
       <c r="D94" s="373"/>
       <c r="E94" s="363"/>
       <c r="F94" s="363"/>
-      <c r="G94" s="642"/>
-      <c r="H94" s="643"/>
+      <c r="G94" s="640"/>
+      <c r="H94" s="641"/>
       <c r="K94" s="10"/>
     </row>
     <row r="95" spans="1:11" ht="14.35">
@@ -24567,10 +24567,10 @@
       <c r="C96" s="399" t="s">
         <v>57</v>
       </c>
-      <c r="D96" s="653" t="s">
+      <c r="D96" s="648" t="s">
         <v>59</v>
       </c>
-      <c r="E96" s="652"/>
+      <c r="E96" s="647"/>
       <c r="F96" s="363"/>
       <c r="G96" s="410"/>
       <c r="H96" s="409"/>
@@ -24716,10 +24716,10 @@
     </row>
     <row r="106" spans="1:11" ht="14.35">
       <c r="A106" s="363"/>
-      <c r="B106" s="655" t="s">
+      <c r="B106" s="652" t="s">
         <v>34</v>
       </c>
-      <c r="C106" s="656"/>
+      <c r="C106" s="653"/>
       <c r="E106" s="363"/>
       <c r="F106" s="363"/>
       <c r="G106" s="363"/>
@@ -24838,7 +24838,7 @@
       </c>
       <c r="C116" s="401"/>
       <c r="D116" s="365"/>
-      <c r="E116" s="654" t="s">
+      <c r="E116" s="649" t="s">
         <v>59</v>
       </c>
       <c r="F116" s="633"/>
@@ -25005,7 +25005,7 @@
       <c r="B127" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C127" s="638"/>
+      <c r="C127" s="642"/>
       <c r="D127" s="363"/>
       <c r="E127" s="363"/>
       <c r="F127" s="363"/>
@@ -25283,7 +25283,7 @@
       <c r="B153" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C153" s="638"/>
+      <c r="C153" s="642"/>
       <c r="D153" s="363"/>
       <c r="E153" s="363"/>
       <c r="H153" s="10"/>
@@ -25483,7 +25483,7 @@
       <c r="B171" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C171" s="639"/>
+      <c r="C171" s="638"/>
       <c r="D171" s="363"/>
       <c r="E171" s="363"/>
       <c r="F171" s="363"/>
@@ -25716,7 +25716,7 @@
       <c r="B189" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C189" s="639"/>
+      <c r="C189" s="638"/>
       <c r="D189" s="363"/>
       <c r="E189" s="363"/>
       <c r="F189" s="363"/>
@@ -25942,7 +25942,7 @@
       <c r="B207" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C207" s="638"/>
+      <c r="C207" s="642"/>
       <c r="D207" s="363"/>
       <c r="E207" s="363"/>
       <c r="F207" s="363"/>
@@ -26127,7 +26127,7 @@
       <c r="B223" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C223" s="638"/>
+      <c r="C223" s="642"/>
       <c r="D223" s="363"/>
       <c r="F223" s="2"/>
       <c r="G223" s="2"/>
@@ -26492,7 +26492,7 @@
         <v>143</v>
       </c>
       <c r="C249" s="370"/>
-      <c r="D249" s="657"/>
+      <c r="D249" s="654"/>
       <c r="E249" s="363"/>
       <c r="F249" s="363"/>
       <c r="G249" s="363"/>
@@ -26505,7 +26505,7 @@
         <v>144</v>
       </c>
       <c r="C250" s="370"/>
-      <c r="D250" s="658"/>
+      <c r="D250" s="655"/>
       <c r="E250" s="363"/>
       <c r="F250" s="363"/>
       <c r="G250" s="363"/>
@@ -26518,7 +26518,7 @@
         <v>30</v>
       </c>
       <c r="C251" s="370"/>
-      <c r="D251" s="658"/>
+      <c r="D251" s="655"/>
       <c r="E251" s="363"/>
       <c r="F251" s="363"/>
       <c r="G251" s="363"/>
@@ -26531,7 +26531,7 @@
         <v>31</v>
       </c>
       <c r="C252" s="370"/>
-      <c r="D252" s="658"/>
+      <c r="D252" s="655"/>
       <c r="E252" s="363"/>
       <c r="F252" s="363"/>
       <c r="G252" s="363"/>
@@ -26544,7 +26544,7 @@
         <v>145</v>
       </c>
       <c r="C253" s="370"/>
-      <c r="D253" s="658"/>
+      <c r="D253" s="655"/>
       <c r="E253" s="363"/>
       <c r="F253" s="363"/>
       <c r="G253" s="363"/>
@@ -26569,7 +26569,7 @@
       <c r="B255" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C255" s="639"/>
+      <c r="C255" s="638"/>
       <c r="D255" s="363"/>
       <c r="E255" s="363"/>
       <c r="F255" s="363"/>
@@ -26995,7 +26995,7 @@
         <v>143</v>
       </c>
       <c r="C285" s="370"/>
-      <c r="D285" s="645"/>
+      <c r="D285" s="650"/>
       <c r="E285" s="563"/>
       <c r="F285" s="562"/>
       <c r="G285" s="363"/>
@@ -27008,7 +27008,7 @@
         <v>144</v>
       </c>
       <c r="C286" s="370"/>
-      <c r="D286" s="646"/>
+      <c r="D286" s="651"/>
       <c r="E286" s="563"/>
       <c r="F286" s="562"/>
       <c r="G286" s="363"/>
@@ -27021,7 +27021,7 @@
         <v>30</v>
       </c>
       <c r="C287" s="370"/>
-      <c r="D287" s="646"/>
+      <c r="D287" s="651"/>
       <c r="E287" s="563"/>
       <c r="F287" s="562"/>
       <c r="G287" s="363"/>
@@ -27034,7 +27034,7 @@
         <v>31</v>
       </c>
       <c r="C288" s="370"/>
-      <c r="D288" s="646"/>
+      <c r="D288" s="651"/>
       <c r="E288" s="563"/>
       <c r="F288" s="562"/>
       <c r="G288" s="363"/>
@@ -27047,7 +27047,7 @@
         <v>145</v>
       </c>
       <c r="C289" s="370"/>
-      <c r="D289" s="646"/>
+      <c r="D289" s="651"/>
       <c r="E289" s="563"/>
       <c r="F289" s="562"/>
       <c r="G289" s="363"/>
@@ -27072,7 +27072,7 @@
       <c r="B291" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C291" s="639"/>
+      <c r="C291" s="638"/>
       <c r="D291" s="501"/>
       <c r="E291" s="363"/>
       <c r="F291" s="363"/>
@@ -27253,7 +27253,7 @@
         <v>143</v>
       </c>
       <c r="C305" s="370"/>
-      <c r="D305" s="645"/>
+      <c r="D305" s="650"/>
       <c r="F305" s="363"/>
       <c r="G305" s="363"/>
       <c r="H305" s="488"/>
@@ -27265,7 +27265,7 @@
         <v>144</v>
       </c>
       <c r="C306" s="370"/>
-      <c r="D306" s="646"/>
+      <c r="D306" s="651"/>
       <c r="F306" s="363"/>
       <c r="G306" s="363"/>
       <c r="H306" s="488"/>
@@ -27277,7 +27277,7 @@
         <v>30</v>
       </c>
       <c r="C307" s="370"/>
-      <c r="D307" s="646"/>
+      <c r="D307" s="651"/>
       <c r="F307" s="363"/>
       <c r="G307" s="363"/>
       <c r="H307" s="488"/>
@@ -27289,7 +27289,7 @@
         <v>31</v>
       </c>
       <c r="C308" s="370"/>
-      <c r="D308" s="646"/>
+      <c r="D308" s="651"/>
       <c r="F308" s="363"/>
       <c r="G308" s="363"/>
       <c r="H308" s="488"/>
@@ -27301,7 +27301,7 @@
         <v>145</v>
       </c>
       <c r="C309" s="370"/>
-      <c r="D309" s="646"/>
+      <c r="D309" s="651"/>
       <c r="F309" s="363"/>
       <c r="G309" s="363"/>
       <c r="H309" s="488"/>
@@ -27324,7 +27324,7 @@
       <c r="B311" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C311" s="639"/>
+      <c r="C311" s="638"/>
       <c r="D311" s="501"/>
       <c r="F311" s="363"/>
       <c r="G311" s="363"/>
@@ -27587,10 +27587,10 @@
     </row>
     <row r="333" spans="1:11" ht="14.35">
       <c r="A333" s="2"/>
-      <c r="B333" s="647" t="s">
+      <c r="B333" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C333" s="648"/>
+      <c r="C333" s="657"/>
       <c r="D333" s="2"/>
       <c r="F333" s="363"/>
       <c r="G333" s="2"/>
@@ -27799,7 +27799,7 @@
       <c r="B351" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C351" s="638"/>
+      <c r="C351" s="642"/>
       <c r="F351" s="2"/>
       <c r="G351" s="2"/>
       <c r="H351" s="8"/>
@@ -28339,10 +28339,10 @@
     </row>
     <row r="388" spans="1:11" ht="14.7">
       <c r="A388" s="2"/>
-      <c r="B388" s="659" t="s">
+      <c r="B388" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C388" s="641"/>
+      <c r="C388" s="644"/>
       <c r="D388" s="97"/>
       <c r="F388" s="2"/>
       <c r="G388" s="2"/>
@@ -28914,10 +28914,10 @@
     </row>
     <row r="425" spans="1:11" ht="14.7">
       <c r="A425" s="2"/>
-      <c r="B425" s="659" t="s">
+      <c r="B425" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C425" s="641"/>
+      <c r="C425" s="644"/>
       <c r="D425" s="97"/>
       <c r="E425" s="97"/>
       <c r="F425" s="2"/>
@@ -29469,10 +29469,10 @@
     </row>
     <row r="461" spans="1:11" ht="14.7">
       <c r="A461" s="2"/>
-      <c r="B461" s="659" t="s">
+      <c r="B461" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C461" s="641"/>
+      <c r="C461" s="644"/>
       <c r="D461" s="97"/>
       <c r="E461" s="97"/>
       <c r="F461" s="97"/>
@@ -30020,10 +30020,10 @@
     </row>
     <row r="497" spans="1:11" ht="14.7">
       <c r="A497" s="2"/>
-      <c r="B497" s="659" t="s">
+      <c r="B497" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C497" s="641"/>
+      <c r="C497" s="644"/>
       <c r="D497" s="97"/>
       <c r="E497" s="97"/>
       <c r="F497" s="97"/>
@@ -30915,10 +30915,10 @@
     </row>
     <row r="552" spans="1:11" ht="14.7">
       <c r="A552" s="2"/>
-      <c r="B552" s="659" t="s">
+      <c r="B552" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C552" s="641"/>
+      <c r="C552" s="644"/>
       <c r="D552" s="97"/>
       <c r="E552" s="97"/>
       <c r="F552" s="97"/>
@@ -31345,7 +31345,7 @@
       <c r="B590" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C590" s="638"/>
+      <c r="C590" s="642"/>
       <c r="D590" s="363"/>
       <c r="E590" s="363"/>
       <c r="F590" s="363"/>
@@ -31560,7 +31560,7 @@
       <c r="B607" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C607" s="638"/>
+      <c r="C607" s="642"/>
       <c r="D607" s="363"/>
       <c r="E607" s="363"/>
       <c r="F607" s="363"/>
@@ -31756,7 +31756,7 @@
       <c r="B623" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C623" s="639"/>
+      <c r="C623" s="638"/>
       <c r="D623" s="590"/>
       <c r="E623" s="363"/>
       <c r="F623" s="363"/>
@@ -31971,7 +31971,7 @@
       <c r="B640" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C640" s="638"/>
+      <c r="C640" s="642"/>
       <c r="D640" s="363"/>
       <c r="E640" s="363"/>
       <c r="F640" s="363"/>
@@ -32154,7 +32154,7 @@
       <c r="B655" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C655" s="639"/>
+      <c r="C655" s="638"/>
       <c r="D655" s="363"/>
       <c r="E655" s="363"/>
       <c r="F655" s="363"/>
@@ -32360,10 +32360,10 @@
     </row>
     <row r="672" spans="1:11" ht="14.35">
       <c r="A672" s="363"/>
-      <c r="B672" s="640" t="s">
+      <c r="B672" s="643" t="s">
         <v>34</v>
       </c>
-      <c r="C672" s="641"/>
+      <c r="C672" s="644"/>
       <c r="D672" s="363"/>
       <c r="E672" s="363"/>
       <c r="F672" s="363"/>
@@ -32551,10 +32551,10 @@
     </row>
     <row r="687" spans="1:11" ht="14.35">
       <c r="A687" s="363"/>
-      <c r="B687" s="640" t="s">
+      <c r="B687" s="643" t="s">
         <v>34</v>
       </c>
-      <c r="C687" s="641"/>
+      <c r="C687" s="644"/>
       <c r="D687" s="363"/>
       <c r="E687" s="363"/>
       <c r="F687" s="363"/>
@@ -32831,7 +32831,7 @@
       <c r="B710" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C710" s="638"/>
+      <c r="C710" s="642"/>
       <c r="D710" s="363"/>
       <c r="E710" s="363"/>
       <c r="F710" s="363"/>
@@ -33033,7 +33033,7 @@
       <c r="B726" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C726" s="638"/>
+      <c r="C726" s="642"/>
       <c r="D726" s="363"/>
       <c r="E726" s="363"/>
       <c r="F726" s="363"/>
@@ -33264,7 +33264,7 @@
       <c r="B745" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C745" s="638"/>
+      <c r="C745" s="642"/>
       <c r="D745" s="363"/>
       <c r="E745" s="363"/>
       <c r="F745" s="363"/>
@@ -33553,7 +33553,7 @@
       <c r="B768" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C768" s="639"/>
+      <c r="C768" s="638"/>
       <c r="D768" s="363"/>
       <c r="E768" s="363"/>
       <c r="F768" s="363"/>
@@ -33835,7 +33835,7 @@
       <c r="B790" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C790" s="639"/>
+      <c r="C790" s="638"/>
       <c r="D790" s="363"/>
       <c r="E790" s="363"/>
       <c r="F790" s="363"/>
@@ -34146,7 +34146,7 @@
       <c r="B815" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C815" s="639"/>
+      <c r="C815" s="638"/>
       <c r="D815" s="605"/>
       <c r="E815" s="363"/>
       <c r="F815" s="363"/>
@@ -34454,7 +34454,7 @@
       <c r="B840" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C840" s="639"/>
+      <c r="C840" s="638"/>
       <c r="D840" s="363"/>
       <c r="E840" s="363"/>
       <c r="F840" s="363"/>
@@ -34763,7 +34763,7 @@
       <c r="B866" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C866" s="639"/>
+      <c r="C866" s="638"/>
       <c r="D866" s="363"/>
       <c r="E866" s="363"/>
       <c r="F866" s="363"/>
@@ -34996,7 +34996,7 @@
       <c r="B886" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C886" s="639"/>
+      <c r="C886" s="638"/>
       <c r="D886" s="363"/>
       <c r="E886" s="363"/>
       <c r="F886" s="363"/>
@@ -35276,7 +35276,7 @@
       <c r="B908" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C908" s="639"/>
+      <c r="C908" s="638"/>
       <c r="D908" s="363"/>
       <c r="E908" s="363"/>
       <c r="F908" s="363"/>
@@ -35523,7 +35523,7 @@
       <c r="B927" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C927" s="639"/>
+      <c r="C927" s="638"/>
       <c r="D927" s="363"/>
       <c r="E927" s="363"/>
       <c r="F927" s="363"/>
@@ -35766,7 +35766,7 @@
       <c r="B946" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C946" s="639"/>
+      <c r="C946" s="638"/>
       <c r="D946" s="363"/>
       <c r="E946" s="363"/>
       <c r="F946" s="363"/>
@@ -35910,7 +35910,7 @@
       <c r="B960" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C960" s="639"/>
+      <c r="C960" s="638"/>
       <c r="F960" s="363"/>
       <c r="G960" s="363"/>
       <c r="H960" s="488"/>
@@ -36160,7 +36160,7 @@
       <c r="B980" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C980" s="638"/>
+      <c r="C980" s="642"/>
       <c r="D980" s="363"/>
       <c r="E980" s="363"/>
       <c r="F980" s="363"/>
@@ -36365,7 +36365,7 @@
       <c r="B997" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C997" s="639"/>
+      <c r="C997" s="638"/>
       <c r="D997" s="363"/>
       <c r="E997" s="363"/>
       <c r="F997" s="363"/>
@@ -36611,7 +36611,7 @@
       <c r="B1017" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1017" s="638"/>
+      <c r="C1017" s="642"/>
       <c r="D1017" s="363"/>
       <c r="E1017" s="363"/>
       <c r="F1017" s="363"/>
@@ -36875,7 +36875,7 @@
       <c r="B1039" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1039" s="638"/>
+      <c r="C1039" s="642"/>
       <c r="D1039" s="363"/>
       <c r="E1039" s="363"/>
       <c r="F1039" s="363"/>
@@ -37174,7 +37174,7 @@
       <c r="B1062" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1062" s="638"/>
+      <c r="C1062" s="642"/>
       <c r="D1062" s="363"/>
       <c r="E1062" s="363"/>
       <c r="F1062" s="363"/>
@@ -37198,21 +37198,30 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="B590:C590"/>
-    <mergeCell ref="B710:C710"/>
-    <mergeCell ref="B726:C726"/>
-    <mergeCell ref="B745:C745"/>
-    <mergeCell ref="B768:C768"/>
-    <mergeCell ref="B790:C790"/>
-    <mergeCell ref="B815:C815"/>
-    <mergeCell ref="B840:C840"/>
-    <mergeCell ref="B866:C866"/>
-    <mergeCell ref="B886:C886"/>
-    <mergeCell ref="B908:C908"/>
-    <mergeCell ref="B927:C927"/>
-    <mergeCell ref="B946:C946"/>
-    <mergeCell ref="B960:C960"/>
-    <mergeCell ref="B980:C980"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="B333:C333"/>
+    <mergeCell ref="B351:C351"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B311:C311"/>
+    <mergeCell ref="D36:D41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="D305:D309"/>
+    <mergeCell ref="B223:C223"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="D249:D253"/>
+    <mergeCell ref="B255:C255"/>
+    <mergeCell ref="D285:D289"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="B207:C207"/>
     <mergeCell ref="B997:C997"/>
     <mergeCell ref="B1017:C1017"/>
     <mergeCell ref="B1039:C1039"/>
@@ -37229,30 +37238,21 @@
     <mergeCell ref="B655:C655"/>
     <mergeCell ref="B672:C672"/>
     <mergeCell ref="B687:C687"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="D305:D309"/>
-    <mergeCell ref="B223:C223"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="D249:D253"/>
-    <mergeCell ref="B255:C255"/>
-    <mergeCell ref="D285:D289"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="B189:C189"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="B333:C333"/>
-    <mergeCell ref="B351:C351"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B311:C311"/>
-    <mergeCell ref="D36:D41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B908:C908"/>
+    <mergeCell ref="B927:C927"/>
+    <mergeCell ref="B946:C946"/>
+    <mergeCell ref="B960:C960"/>
+    <mergeCell ref="B980:C980"/>
+    <mergeCell ref="B790:C790"/>
+    <mergeCell ref="B815:C815"/>
+    <mergeCell ref="B840:C840"/>
+    <mergeCell ref="B866:C866"/>
+    <mergeCell ref="B886:C886"/>
+    <mergeCell ref="B590:C590"/>
+    <mergeCell ref="B710:C710"/>
+    <mergeCell ref="B726:C726"/>
+    <mergeCell ref="B745:C745"/>
+    <mergeCell ref="B768:C768"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37594,10 +37594,10 @@
     </row>
     <row r="20" spans="1:11" ht="14.35">
       <c r="A20" s="2"/>
-      <c r="B20" s="647" t="s">
+      <c r="B20" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="650"/>
+      <c r="C20" s="659"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -37770,7 +37770,7 @@
         <v>29</v>
       </c>
       <c r="C36" s="14"/>
-      <c r="D36" s="661"/>
+      <c r="D36" s="660"/>
       <c r="E36" s="26"/>
       <c r="K36" s="10"/>
     </row>
@@ -37780,7 +37780,7 @@
         <v>45</v>
       </c>
       <c r="C37" s="11"/>
-      <c r="D37" s="662"/>
+      <c r="D37" s="661"/>
       <c r="E37" s="26"/>
       <c r="K37" s="10"/>
     </row>
@@ -37790,7 +37790,7 @@
         <v>30</v>
       </c>
       <c r="C38" s="11"/>
-      <c r="D38" s="662"/>
+      <c r="D38" s="661"/>
       <c r="E38" s="28"/>
       <c r="K38" s="10"/>
     </row>
@@ -37800,7 +37800,7 @@
         <v>31</v>
       </c>
       <c r="C39" s="11"/>
-      <c r="D39" s="662"/>
+      <c r="D39" s="661"/>
       <c r="E39" s="28"/>
       <c r="K39" s="10"/>
     </row>
@@ -37810,7 +37810,7 @@
         <v>32</v>
       </c>
       <c r="C40" s="11"/>
-      <c r="D40" s="662"/>
+      <c r="D40" s="661"/>
       <c r="E40" s="28"/>
       <c r="K40" s="10"/>
     </row>
@@ -37820,16 +37820,16 @@
         <v>876</v>
       </c>
       <c r="C41" s="11"/>
-      <c r="D41" s="662"/>
+      <c r="D41" s="661"/>
       <c r="E41" s="28"/>
       <c r="K41" s="10"/>
     </row>
     <row r="42" spans="1:11" ht="14.35">
       <c r="A42" s="2"/>
-      <c r="B42" s="647" t="s">
+      <c r="B42" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="650"/>
+      <c r="C42" s="659"/>
       <c r="D42" s="28"/>
       <c r="E42" s="28"/>
       <c r="K42" s="10"/>
@@ -38068,10 +38068,10 @@
     </row>
     <row r="61" spans="1:11" ht="14.35">
       <c r="A61" s="2"/>
-      <c r="B61" s="647" t="s">
+      <c r="B61" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C61" s="650"/>
+      <c r="C61" s="659"/>
       <c r="D61" s="8"/>
       <c r="E61" s="23"/>
       <c r="F61" s="2"/>
@@ -38255,10 +38255,10 @@
       <c r="D75" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="E75" s="671" t="s">
+      <c r="E75" s="662" t="s">
         <v>59</v>
       </c>
-      <c r="F75" s="652"/>
+      <c r="F75" s="647"/>
       <c r="G75" s="44"/>
       <c r="H75" s="8"/>
       <c r="K75" s="10"/>
@@ -38356,7 +38356,7 @@
         <v>65</v>
       </c>
       <c r="C81" s="11"/>
-      <c r="D81" s="661"/>
+      <c r="D81" s="660"/>
       <c r="E81" s="49">
         <v>1</v>
       </c>
@@ -38373,7 +38373,7 @@
         <v>30</v>
       </c>
       <c r="C82" s="11"/>
-      <c r="D82" s="662"/>
+      <c r="D82" s="661"/>
       <c r="E82" s="29" t="s">
         <v>66</v>
       </c>
@@ -38388,7 +38388,7 @@
         <v>31</v>
       </c>
       <c r="C83" s="11"/>
-      <c r="D83" s="662"/>
+      <c r="D83" s="661"/>
       <c r="E83" s="29" t="s">
         <v>67</v>
       </c>
@@ -38403,7 +38403,7 @@
         <v>68</v>
       </c>
       <c r="C84" s="24"/>
-      <c r="D84" s="662"/>
+      <c r="D84" s="661"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
@@ -38412,10 +38412,10 @@
     </row>
     <row r="85" spans="1:11" ht="14.35">
       <c r="A85" s="2"/>
-      <c r="B85" s="647" t="s">
+      <c r="B85" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C85" s="650"/>
+      <c r="C85" s="659"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
@@ -38520,8 +38520,8 @@
       <c r="D94" s="37"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
-      <c r="G94" s="666"/>
-      <c r="H94" s="667"/>
+      <c r="G94" s="663"/>
+      <c r="H94" s="664"/>
       <c r="K94" s="10"/>
     </row>
     <row r="95" spans="1:11" ht="14.35">
@@ -38545,10 +38545,10 @@
       <c r="C96" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="D96" s="668" t="s">
+      <c r="D96" s="665" t="s">
         <v>59</v>
       </c>
-      <c r="E96" s="652"/>
+      <c r="E96" s="647"/>
       <c r="F96" s="2"/>
       <c r="G96" s="54"/>
       <c r="H96" s="12"/>
@@ -38694,10 +38694,10 @@
     </row>
     <row r="106" spans="1:11" ht="14.35">
       <c r="A106" s="2"/>
-      <c r="B106" s="669" t="s">
+      <c r="B106" s="666" t="s">
         <v>34</v>
       </c>
-      <c r="C106" s="670"/>
+      <c r="C106" s="667"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
@@ -38816,7 +38816,7 @@
         <v>80</v>
       </c>
       <c r="D116" s="23"/>
-      <c r="E116" s="665" t="s">
+      <c r="E116" s="668" t="s">
         <v>59</v>
       </c>
       <c r="F116" s="633"/>
@@ -39023,10 +39023,10 @@
     </row>
     <row r="130" spans="1:11" ht="14.35">
       <c r="A130" s="2"/>
-      <c r="B130" s="647" t="s">
+      <c r="B130" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C130" s="648"/>
+      <c r="C130" s="657"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
@@ -39313,10 +39313,10 @@
     </row>
     <row r="156" spans="1:11" ht="14.35">
       <c r="A156" s="2"/>
-      <c r="B156" s="647" t="s">
+      <c r="B156" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C156" s="648"/>
+      <c r="C156" s="657"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
       <c r="H156" s="10"/>
@@ -39511,10 +39511,10 @@
     </row>
     <row r="174" spans="1:11" ht="14.35">
       <c r="A174" s="2"/>
-      <c r="B174" s="647" t="s">
+      <c r="B174" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C174" s="650"/>
+      <c r="C174" s="659"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
@@ -39742,10 +39742,10 @@
     </row>
     <row r="192" spans="1:11" ht="14.35">
       <c r="A192" s="2"/>
-      <c r="B192" s="647" t="s">
+      <c r="B192" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C192" s="650"/>
+      <c r="C192" s="659"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
@@ -40073,10 +40073,10 @@
     </row>
     <row r="217" spans="1:11" ht="14.35">
       <c r="A217" s="2"/>
-      <c r="B217" s="647" t="s">
+      <c r="B217" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C217" s="648"/>
+      <c r="C217" s="657"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
@@ -40382,10 +40382,10 @@
     </row>
     <row r="242" spans="1:11" ht="14.35">
       <c r="A242" s="2"/>
-      <c r="B242" s="647" t="s">
+      <c r="B242" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C242" s="648"/>
+      <c r="C242" s="657"/>
       <c r="D242" s="2"/>
       <c r="F242" s="2"/>
       <c r="G242" s="2"/>
@@ -40748,7 +40748,7 @@
         <v>143</v>
       </c>
       <c r="C268" s="11"/>
-      <c r="D268" s="663"/>
+      <c r="D268" s="669"/>
       <c r="E268" s="2"/>
       <c r="F268" s="2"/>
       <c r="G268" s="2"/>
@@ -40761,7 +40761,7 @@
         <v>144</v>
       </c>
       <c r="C269" s="11"/>
-      <c r="D269" s="664"/>
+      <c r="D269" s="670"/>
       <c r="E269" s="2"/>
       <c r="F269" s="2"/>
       <c r="G269" s="2"/>
@@ -40774,7 +40774,7 @@
         <v>30</v>
       </c>
       <c r="C270" s="11"/>
-      <c r="D270" s="664"/>
+      <c r="D270" s="670"/>
       <c r="E270" s="2"/>
       <c r="F270" s="2"/>
       <c r="G270" s="2"/>
@@ -40787,7 +40787,7 @@
         <v>31</v>
       </c>
       <c r="C271" s="11"/>
-      <c r="D271" s="664"/>
+      <c r="D271" s="670"/>
       <c r="E271" s="2"/>
       <c r="F271" s="2"/>
       <c r="G271" s="2"/>
@@ -40800,7 +40800,7 @@
         <v>145</v>
       </c>
       <c r="C272" s="11"/>
-      <c r="D272" s="664"/>
+      <c r="D272" s="670"/>
       <c r="E272" s="2"/>
       <c r="F272" s="2"/>
       <c r="G272" s="2"/>
@@ -40822,10 +40822,10 @@
     </row>
     <row r="274" spans="1:11" ht="14.35">
       <c r="A274" s="2"/>
-      <c r="B274" s="647" t="s">
+      <c r="B274" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C274" s="650"/>
+      <c r="C274" s="659"/>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
       <c r="F274" s="2"/>
@@ -41249,7 +41249,7 @@
         <v>143</v>
       </c>
       <c r="C304" s="11"/>
-      <c r="D304" s="661"/>
+      <c r="D304" s="660"/>
       <c r="E304" s="84"/>
       <c r="F304" s="85"/>
       <c r="G304" s="2"/>
@@ -41262,7 +41262,7 @@
         <v>144</v>
       </c>
       <c r="C305" s="11"/>
-      <c r="D305" s="662"/>
+      <c r="D305" s="661"/>
       <c r="E305" s="84"/>
       <c r="F305" s="85"/>
       <c r="G305" s="2"/>
@@ -41275,7 +41275,7 @@
         <v>30</v>
       </c>
       <c r="C306" s="11"/>
-      <c r="D306" s="662"/>
+      <c r="D306" s="661"/>
       <c r="E306" s="84"/>
       <c r="F306" s="85"/>
       <c r="G306" s="2"/>
@@ -41288,7 +41288,7 @@
         <v>31</v>
       </c>
       <c r="C307" s="11"/>
-      <c r="D307" s="662"/>
+      <c r="D307" s="661"/>
       <c r="E307" s="84"/>
       <c r="F307" s="85"/>
       <c r="G307" s="2"/>
@@ -41301,7 +41301,7 @@
         <v>145</v>
       </c>
       <c r="C308" s="11"/>
-      <c r="D308" s="662"/>
+      <c r="D308" s="661"/>
       <c r="E308" s="84"/>
       <c r="F308" s="85"/>
       <c r="G308" s="2"/>
@@ -41323,10 +41323,10 @@
     </row>
     <row r="310" spans="1:11" ht="14.35">
       <c r="A310" s="2"/>
-      <c r="B310" s="647" t="s">
+      <c r="B310" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C310" s="650"/>
+      <c r="C310" s="659"/>
       <c r="D310" s="28"/>
       <c r="E310" s="2"/>
       <c r="F310" s="2"/>
@@ -41497,7 +41497,7 @@
         <v>64</v>
       </c>
       <c r="C324" s="11"/>
-      <c r="D324" s="661"/>
+      <c r="D324" s="660"/>
       <c r="F324" s="2"/>
       <c r="G324" s="2"/>
       <c r="H324" s="8"/>
@@ -41509,7 +41509,7 @@
         <v>65</v>
       </c>
       <c r="C325" s="11"/>
-      <c r="D325" s="662"/>
+      <c r="D325" s="661"/>
       <c r="F325" s="2"/>
       <c r="G325" s="2"/>
       <c r="H325" s="8"/>
@@ -41521,7 +41521,7 @@
         <v>30</v>
       </c>
       <c r="C326" s="11"/>
-      <c r="D326" s="662"/>
+      <c r="D326" s="661"/>
       <c r="F326" s="2"/>
       <c r="G326" s="2"/>
       <c r="H326" s="8"/>
@@ -41533,7 +41533,7 @@
         <v>31</v>
       </c>
       <c r="C327" s="11"/>
-      <c r="D327" s="662"/>
+      <c r="D327" s="661"/>
       <c r="F327" s="2"/>
       <c r="G327" s="2"/>
       <c r="H327" s="8"/>
@@ -41545,7 +41545,7 @@
         <v>68</v>
       </c>
       <c r="C328" s="11"/>
-      <c r="D328" s="662"/>
+      <c r="D328" s="661"/>
       <c r="F328" s="2"/>
       <c r="G328" s="2"/>
       <c r="H328" s="8"/>
@@ -41565,10 +41565,10 @@
     </row>
     <row r="330" spans="1:11" ht="14.35">
       <c r="A330" s="2"/>
-      <c r="B330" s="647" t="s">
+      <c r="B330" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C330" s="650"/>
+      <c r="C330" s="659"/>
       <c r="D330" s="28"/>
       <c r="F330" s="2"/>
       <c r="G330" s="2"/>
@@ -41827,10 +41827,10 @@
     </row>
     <row r="352" spans="1:11" ht="14.35">
       <c r="A352" s="2"/>
-      <c r="B352" s="647" t="s">
+      <c r="B352" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C352" s="648"/>
+      <c r="C352" s="657"/>
       <c r="D352" s="2"/>
       <c r="F352" s="2"/>
       <c r="G352" s="2"/>
@@ -42034,10 +42034,10 @@
     </row>
     <row r="370" spans="1:11" ht="14.35">
       <c r="A370" s="2"/>
-      <c r="B370" s="647" t="s">
+      <c r="B370" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C370" s="648"/>
+      <c r="C370" s="657"/>
       <c r="F370" s="2"/>
       <c r="G370" s="2"/>
       <c r="H370" s="8"/>
@@ -42517,10 +42517,10 @@
     </row>
     <row r="405" spans="1:11" ht="14.7">
       <c r="A405" s="2"/>
-      <c r="B405" s="659" t="s">
+      <c r="B405" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C405" s="641"/>
+      <c r="C405" s="644"/>
       <c r="D405" s="97"/>
       <c r="F405" s="2"/>
       <c r="G405" s="2"/>
@@ -43033,10 +43033,10 @@
     </row>
     <row r="440" spans="1:11" ht="14.7">
       <c r="A440" s="2"/>
-      <c r="B440" s="659" t="s">
+      <c r="B440" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C440" s="641"/>
+      <c r="C440" s="644"/>
       <c r="D440" s="97"/>
       <c r="E440" s="97"/>
       <c r="F440" s="2"/>
@@ -43512,10 +43512,10 @@
     </row>
     <row r="473" spans="1:11" ht="14.7">
       <c r="A473" s="2"/>
-      <c r="B473" s="659" t="s">
+      <c r="B473" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C473" s="641"/>
+      <c r="C473" s="644"/>
       <c r="D473" s="97"/>
       <c r="E473" s="97"/>
       <c r="F473" s="97"/>
@@ -43987,10 +43987,10 @@
     </row>
     <row r="506" spans="1:11" ht="14.7">
       <c r="A506" s="2"/>
-      <c r="B506" s="659" t="s">
+      <c r="B506" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C506" s="641"/>
+      <c r="C506" s="644"/>
       <c r="D506" s="97"/>
       <c r="E506" s="97"/>
       <c r="F506" s="97"/>
@@ -44861,10 +44861,10 @@
     </row>
     <row r="559" spans="1:11" ht="14.7">
       <c r="A559" s="2"/>
-      <c r="B559" s="659" t="s">
+      <c r="B559" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C559" s="641"/>
+      <c r="C559" s="644"/>
       <c r="D559" s="97"/>
       <c r="E559" s="97"/>
       <c r="F559" s="97"/>
@@ -45288,10 +45288,10 @@
     </row>
     <row r="597" spans="1:11" ht="14.35">
       <c r="A597" s="2"/>
-      <c r="B597" s="647" t="s">
+      <c r="B597" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C597" s="648"/>
+      <c r="C597" s="657"/>
       <c r="D597" s="2"/>
       <c r="E597" s="2"/>
       <c r="F597" s="2"/>
@@ -45533,10 +45533,10 @@
     </row>
     <row r="616" spans="1:11" ht="14.35">
       <c r="A616" s="2"/>
-      <c r="B616" s="647" t="s">
+      <c r="B616" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C616" s="648"/>
+      <c r="C616" s="657"/>
       <c r="D616" s="2"/>
       <c r="E616" s="2"/>
       <c r="F616" s="2"/>
@@ -45774,10 +45774,10 @@
     </row>
     <row r="635" spans="1:11" ht="14.35">
       <c r="A635" s="2"/>
-      <c r="B635" s="647" t="s">
+      <c r="B635" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C635" s="650"/>
+      <c r="C635" s="659"/>
       <c r="D635" s="127"/>
       <c r="E635" s="2"/>
       <c r="F635" s="2"/>
@@ -46034,10 +46034,10 @@
     </row>
     <row r="655" spans="1:11" ht="14.35">
       <c r="A655" s="2"/>
-      <c r="B655" s="647" t="s">
+      <c r="B655" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C655" s="648"/>
+      <c r="C655" s="657"/>
       <c r="D655" s="2"/>
       <c r="E655" s="2"/>
       <c r="F655" s="2"/>
@@ -46262,10 +46262,10 @@
     </row>
     <row r="673" spans="1:11" ht="14.35">
       <c r="A673" s="2"/>
-      <c r="B673" s="647" t="s">
+      <c r="B673" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C673" s="650"/>
+      <c r="C673" s="659"/>
       <c r="D673" s="2"/>
       <c r="E673" s="2"/>
       <c r="F673" s="2"/>
@@ -46501,10 +46501,10 @@
     </row>
     <row r="692" spans="1:11" ht="14.35">
       <c r="A692" s="2"/>
-      <c r="B692" s="660" t="s">
+      <c r="B692" s="671" t="s">
         <v>34</v>
       </c>
-      <c r="C692" s="641"/>
+      <c r="C692" s="644"/>
       <c r="D692" s="2"/>
       <c r="E692" s="2"/>
       <c r="F692" s="2"/>
@@ -46737,10 +46737,10 @@
     </row>
     <row r="710" spans="1:11" ht="14.35">
       <c r="A710" s="2"/>
-      <c r="B710" s="660" t="s">
+      <c r="B710" s="671" t="s">
         <v>34</v>
       </c>
-      <c r="C710" s="641"/>
+      <c r="C710" s="644"/>
       <c r="D710" s="2"/>
       <c r="E710" s="2"/>
       <c r="F710" s="2"/>
@@ -47059,10 +47059,10 @@
     </row>
     <row r="736" spans="1:11" ht="14.35">
       <c r="A736" s="2"/>
-      <c r="B736" s="647" t="s">
+      <c r="B736" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C736" s="648"/>
+      <c r="C736" s="657"/>
       <c r="D736" s="2"/>
       <c r="E736" s="2"/>
       <c r="F736" s="2"/>
@@ -47325,10 +47325,10 @@
     </row>
     <row r="756" spans="1:11" ht="14.35">
       <c r="A756" s="2"/>
-      <c r="B756" s="647" t="s">
+      <c r="B756" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C756" s="648"/>
+      <c r="C756" s="657"/>
       <c r="D756" s="2"/>
       <c r="E756" s="2"/>
       <c r="F756" s="2"/>
@@ -47616,10 +47616,10 @@
     </row>
     <row r="779" spans="1:11" ht="14.35">
       <c r="A779" s="2"/>
-      <c r="B779" s="647" t="s">
+      <c r="B779" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C779" s="648"/>
+      <c r="C779" s="657"/>
       <c r="D779" s="2"/>
       <c r="E779" s="2"/>
       <c r="F779" s="2"/>
@@ -47905,10 +47905,10 @@
     </row>
     <row r="802" spans="1:11" ht="14.35">
       <c r="A802" s="2"/>
-      <c r="B802" s="647" t="s">
+      <c r="B802" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C802" s="650"/>
+      <c r="C802" s="659"/>
       <c r="D802" s="2"/>
       <c r="E802" s="2"/>
       <c r="F802" s="2"/>
@@ -48187,10 +48187,10 @@
     </row>
     <row r="824" spans="1:11" ht="14.35">
       <c r="A824" s="2"/>
-      <c r="B824" s="647" t="s">
+      <c r="B824" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C824" s="650"/>
+      <c r="C824" s="659"/>
       <c r="D824" s="2"/>
       <c r="E824" s="2"/>
       <c r="F824" s="2"/>
@@ -48498,10 +48498,10 @@
     </row>
     <row r="849" spans="1:11" ht="14.35">
       <c r="A849" s="2"/>
-      <c r="B849" s="647" t="s">
+      <c r="B849" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C849" s="650"/>
+      <c r="C849" s="659"/>
       <c r="D849" s="149"/>
       <c r="E849" s="2"/>
       <c r="F849" s="2"/>
@@ -48806,10 +48806,10 @@
       <c r="K873" s="10"/>
     </row>
     <row r="874" spans="2:11" ht="14.35">
-      <c r="B874" s="647" t="s">
+      <c r="B874" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C874" s="650"/>
+      <c r="C874" s="659"/>
       <c r="D874" s="2"/>
       <c r="E874" s="2"/>
       <c r="F874" s="2"/>
@@ -49115,10 +49115,10 @@
       <c r="K899" s="10"/>
     </row>
     <row r="900" spans="1:11" ht="14.35">
-      <c r="B900" s="647" t="s">
+      <c r="B900" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C900" s="650"/>
+      <c r="C900" s="659"/>
       <c r="D900" s="2"/>
       <c r="E900" s="2"/>
       <c r="F900" s="2"/>
@@ -49348,10 +49348,10 @@
     </row>
     <row r="920" spans="1:11" ht="14.35">
       <c r="A920" s="2"/>
-      <c r="B920" s="647" t="s">
+      <c r="B920" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C920" s="650"/>
+      <c r="C920" s="659"/>
       <c r="D920" s="2"/>
       <c r="E920" s="2"/>
       <c r="F920" s="2"/>
@@ -49628,10 +49628,10 @@
     </row>
     <row r="942" spans="1:11" ht="14.35">
       <c r="A942" s="2"/>
-      <c r="B942" s="647" t="s">
+      <c r="B942" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C942" s="650"/>
+      <c r="C942" s="659"/>
       <c r="D942" s="2"/>
       <c r="E942" s="2"/>
       <c r="F942" s="2"/>
@@ -49875,10 +49875,10 @@
     </row>
     <row r="961" spans="1:11" ht="14.35">
       <c r="A961" s="2"/>
-      <c r="B961" s="647" t="s">
+      <c r="B961" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C961" s="650"/>
+      <c r="C961" s="659"/>
       <c r="D961" s="2"/>
       <c r="E961" s="2"/>
       <c r="F961" s="2"/>
@@ -50118,10 +50118,10 @@
     </row>
     <row r="980" spans="1:11" ht="14.35">
       <c r="A980" s="2"/>
-      <c r="B980" s="647" t="s">
+      <c r="B980" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C980" s="650"/>
+      <c r="C980" s="659"/>
       <c r="D980" s="2"/>
       <c r="E980" s="2"/>
       <c r="F980" s="2"/>
@@ -50262,10 +50262,10 @@
     </row>
     <row r="994" spans="1:11" ht="14.35">
       <c r="A994" s="2"/>
-      <c r="B994" s="647" t="s">
+      <c r="B994" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C994" s="650"/>
+      <c r="C994" s="659"/>
       <c r="F994" s="2"/>
       <c r="G994" s="2"/>
       <c r="H994" s="8"/>
@@ -50512,10 +50512,10 @@
     </row>
     <row r="1014" spans="1:11" ht="14.35">
       <c r="A1014" s="2"/>
-      <c r="B1014" s="647" t="s">
+      <c r="B1014" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C1014" s="648"/>
+      <c r="C1014" s="657"/>
       <c r="D1014" s="2"/>
       <c r="E1014" s="2"/>
       <c r="F1014" s="2"/>
@@ -50717,10 +50717,10 @@
     </row>
     <row r="1031" spans="1:11" ht="14.35">
       <c r="A1031" s="2"/>
-      <c r="B1031" s="647" t="s">
+      <c r="B1031" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C1031" s="650"/>
+      <c r="C1031" s="659"/>
       <c r="D1031" s="2"/>
       <c r="E1031" s="2"/>
       <c r="F1031" s="2"/>
@@ -50963,10 +50963,10 @@
       <c r="K1050" s="10"/>
     </row>
     <row r="1051" spans="2:11" ht="14.35">
-      <c r="B1051" s="647" t="s">
+      <c r="B1051" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C1051" s="648"/>
+      <c r="C1051" s="657"/>
       <c r="D1051" s="2"/>
       <c r="E1051" s="2"/>
       <c r="F1051" s="2"/>
@@ -51227,10 +51227,10 @@
     </row>
     <row r="1073" spans="1:11" ht="14.35">
       <c r="A1073" s="2"/>
-      <c r="B1073" s="647" t="s">
+      <c r="B1073" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C1073" s="648"/>
+      <c r="C1073" s="657"/>
       <c r="D1073" s="2"/>
       <c r="E1073" s="2"/>
       <c r="F1073" s="2"/>
@@ -51526,10 +51526,10 @@
     </row>
     <row r="1096" spans="1:11" ht="14.35">
       <c r="A1096" s="2"/>
-      <c r="B1096" s="647" t="s">
+      <c r="B1096" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C1096" s="648"/>
+      <c r="C1096" s="657"/>
       <c r="D1096" s="2"/>
       <c r="E1096" s="2"/>
       <c r="F1096" s="2"/>
@@ -51553,61 +51553,61 @@
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="B1014:C1014"/>
+    <mergeCell ref="B1031:C1031"/>
+    <mergeCell ref="B1051:C1051"/>
+    <mergeCell ref="B1073:C1073"/>
+    <mergeCell ref="B1096:C1096"/>
+    <mergeCell ref="B920:C920"/>
+    <mergeCell ref="B942:C942"/>
+    <mergeCell ref="B961:C961"/>
+    <mergeCell ref="B980:C980"/>
+    <mergeCell ref="B994:C994"/>
+    <mergeCell ref="B802:C802"/>
+    <mergeCell ref="B824:C824"/>
+    <mergeCell ref="B849:C849"/>
+    <mergeCell ref="B874:C874"/>
+    <mergeCell ref="B900:C900"/>
+    <mergeCell ref="B692:C692"/>
+    <mergeCell ref="B710:C710"/>
+    <mergeCell ref="B736:C736"/>
+    <mergeCell ref="B756:C756"/>
+    <mergeCell ref="B779:C779"/>
+    <mergeCell ref="B597:C597"/>
+    <mergeCell ref="B616:C616"/>
+    <mergeCell ref="B635:C635"/>
+    <mergeCell ref="B655:C655"/>
+    <mergeCell ref="B673:C673"/>
+    <mergeCell ref="B405:C405"/>
+    <mergeCell ref="B440:C440"/>
+    <mergeCell ref="B473:C473"/>
+    <mergeCell ref="B506:C506"/>
+    <mergeCell ref="B559:C559"/>
+    <mergeCell ref="B310:C310"/>
+    <mergeCell ref="D324:D328"/>
+    <mergeCell ref="B330:C330"/>
+    <mergeCell ref="B352:C352"/>
+    <mergeCell ref="B370:C370"/>
+    <mergeCell ref="B217:C217"/>
+    <mergeCell ref="B242:C242"/>
+    <mergeCell ref="D268:D272"/>
+    <mergeCell ref="B274:C274"/>
+    <mergeCell ref="D304:D308"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="B106:C106"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D36:D41"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B61:C61"/>
     <mergeCell ref="E75:F75"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="B217:C217"/>
-    <mergeCell ref="B242:C242"/>
-    <mergeCell ref="D268:D272"/>
-    <mergeCell ref="B274:C274"/>
-    <mergeCell ref="D304:D308"/>
-    <mergeCell ref="B310:C310"/>
-    <mergeCell ref="D324:D328"/>
-    <mergeCell ref="B330:C330"/>
-    <mergeCell ref="B352:C352"/>
-    <mergeCell ref="B370:C370"/>
-    <mergeCell ref="B405:C405"/>
-    <mergeCell ref="B440:C440"/>
-    <mergeCell ref="B473:C473"/>
-    <mergeCell ref="B506:C506"/>
-    <mergeCell ref="B559:C559"/>
-    <mergeCell ref="B597:C597"/>
-    <mergeCell ref="B616:C616"/>
-    <mergeCell ref="B635:C635"/>
-    <mergeCell ref="B655:C655"/>
-    <mergeCell ref="B673:C673"/>
-    <mergeCell ref="B692:C692"/>
-    <mergeCell ref="B710:C710"/>
-    <mergeCell ref="B736:C736"/>
-    <mergeCell ref="B756:C756"/>
-    <mergeCell ref="B779:C779"/>
-    <mergeCell ref="B802:C802"/>
-    <mergeCell ref="B824:C824"/>
-    <mergeCell ref="B849:C849"/>
-    <mergeCell ref="B874:C874"/>
-    <mergeCell ref="B900:C900"/>
-    <mergeCell ref="B920:C920"/>
-    <mergeCell ref="B942:C942"/>
-    <mergeCell ref="B961:C961"/>
-    <mergeCell ref="B980:C980"/>
-    <mergeCell ref="B994:C994"/>
-    <mergeCell ref="B1014:C1014"/>
-    <mergeCell ref="B1031:C1031"/>
-    <mergeCell ref="B1051:C1051"/>
-    <mergeCell ref="B1073:C1073"/>
-    <mergeCell ref="B1096:C1096"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -51677,10 +51677,10 @@
       <c r="D2" s="246" t="s">
         <v>508</v>
       </c>
-      <c r="E2" s="682" t="s">
+      <c r="E2" s="698" t="s">
         <v>509</v>
       </c>
-      <c r="F2" s="683"/>
+      <c r="F2" s="699"/>
       <c r="G2" s="252" t="s">
         <v>510</v>
       </c>
@@ -51713,71 +51713,71 @@
       <c r="A3" s="253">
         <v>1</v>
       </c>
-      <c r="B3" s="694" t="s">
+      <c r="B3" s="681" t="s">
         <v>456</v>
       </c>
-      <c r="C3" s="695"/>
-      <c r="D3" s="695"/>
-      <c r="E3" s="695"/>
-      <c r="F3" s="695"/>
-      <c r="G3" s="695"/>
-      <c r="H3" s="695"/>
-      <c r="I3" s="695"/>
-      <c r="J3" s="695"/>
-      <c r="K3" s="688" t="s">
+      <c r="C3" s="682"/>
+      <c r="D3" s="682"/>
+      <c r="E3" s="682"/>
+      <c r="F3" s="682"/>
+      <c r="G3" s="682"/>
+      <c r="H3" s="682"/>
+      <c r="I3" s="682"/>
+      <c r="J3" s="682"/>
+      <c r="K3" s="683" t="s">
         <v>457</v>
       </c>
-      <c r="L3" s="687"/>
-      <c r="M3" s="687"/>
-      <c r="N3" s="687"/>
-      <c r="O3" s="687"/>
-      <c r="P3" s="687"/>
-      <c r="Q3" s="687"/>
-      <c r="R3" s="687"/>
-      <c r="S3" s="687"/>
-      <c r="T3" s="687"/>
-      <c r="U3" s="687"/>
-      <c r="V3" s="687"/>
-      <c r="W3" s="687"/>
+      <c r="L3" s="684"/>
+      <c r="M3" s="684"/>
+      <c r="N3" s="684"/>
+      <c r="O3" s="684"/>
+      <c r="P3" s="684"/>
+      <c r="Q3" s="684"/>
+      <c r="R3" s="684"/>
+      <c r="S3" s="684"/>
+      <c r="T3" s="684"/>
+      <c r="U3" s="684"/>
+      <c r="V3" s="684"/>
+      <c r="W3" s="684"/>
     </row>
     <row r="4" spans="1:23" ht="14">
       <c r="A4" s="244"/>
-      <c r="B4" s="696" t="s">
+      <c r="B4" s="685" t="s">
         <v>459</v>
       </c>
-      <c r="C4" s="693"/>
-      <c r="D4" s="693"/>
+      <c r="C4" s="686"/>
+      <c r="D4" s="686"/>
       <c r="E4" s="674" t="s">
         <v>515</v>
       </c>
-      <c r="F4" s="693"/>
-      <c r="G4" s="693"/>
-      <c r="H4" s="697" t="s">
+      <c r="F4" s="686"/>
+      <c r="G4" s="686"/>
+      <c r="H4" s="687" t="s">
         <v>516</v>
       </c>
-      <c r="I4" s="698"/>
-      <c r="J4" s="698"/>
+      <c r="I4" s="688"/>
+      <c r="J4" s="688"/>
       <c r="K4" s="674" t="s">
         <v>460</v>
       </c>
-      <c r="L4" s="693"/>
-      <c r="M4" s="693"/>
+      <c r="L4" s="686"/>
+      <c r="M4" s="686"/>
       <c r="N4" s="674" t="s">
         <v>517</v>
       </c>
-      <c r="O4" s="693"/>
-      <c r="P4" s="693"/>
+      <c r="O4" s="686"/>
+      <c r="P4" s="686"/>
       <c r="Q4" s="674" t="s">
         <v>518</v>
       </c>
-      <c r="R4" s="693"/>
-      <c r="S4" s="693"/>
-      <c r="T4" s="699" t="s">
+      <c r="R4" s="686"/>
+      <c r="S4" s="686"/>
+      <c r="T4" s="689" t="s">
         <v>519</v>
       </c>
-      <c r="U4" s="700"/>
-      <c r="V4" s="700"/>
-      <c r="W4" s="700"/>
+      <c r="U4" s="690"/>
+      <c r="V4" s="690"/>
+      <c r="W4" s="690"/>
     </row>
     <row r="5" spans="1:23" ht="15.35">
       <c r="A5" s="244"/>
@@ -51835,7 +51835,7 @@
       <c r="S5" s="259" t="s">
         <v>463</v>
       </c>
-      <c r="T5" s="681" t="s">
+      <c r="T5" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U5" s="171" t="s">
@@ -51880,7 +51880,7 @@
       <c r="Q6" s="184"/>
       <c r="R6" s="183"/>
       <c r="S6" s="268"/>
-      <c r="T6" s="641"/>
+      <c r="T6" s="644"/>
       <c r="U6" s="171" t="s">
         <v>524</v>
       </c>
@@ -52327,32 +52327,32 @@
       </c>
     </row>
     <row r="23" spans="1:23" ht="14">
-      <c r="B23" s="684" t="s">
+      <c r="B23" s="695" t="s">
         <v>456</v>
       </c>
-      <c r="C23" s="641"/>
-      <c r="D23" s="641"/>
-      <c r="E23" s="641"/>
-      <c r="F23" s="641"/>
-      <c r="G23" s="641"/>
-      <c r="H23" s="641"/>
-      <c r="I23" s="641"/>
-      <c r="J23" s="641"/>
-      <c r="K23" s="685" t="s">
+      <c r="C23" s="644"/>
+      <c r="D23" s="644"/>
+      <c r="E23" s="644"/>
+      <c r="F23" s="644"/>
+      <c r="G23" s="644"/>
+      <c r="H23" s="644"/>
+      <c r="I23" s="644"/>
+      <c r="J23" s="644"/>
+      <c r="K23" s="694" t="s">
         <v>911</v>
       </c>
-      <c r="L23" s="641"/>
-      <c r="M23" s="641"/>
-      <c r="N23" s="641"/>
-      <c r="O23" s="641"/>
-      <c r="P23" s="641"/>
-      <c r="Q23" s="641"/>
-      <c r="R23" s="641"/>
-      <c r="S23" s="641"/>
-      <c r="T23" s="641"/>
-      <c r="U23" s="641"/>
-      <c r="V23" s="641"/>
-      <c r="W23" s="641"/>
+      <c r="L23" s="644"/>
+      <c r="M23" s="644"/>
+      <c r="N23" s="644"/>
+      <c r="O23" s="644"/>
+      <c r="P23" s="644"/>
+      <c r="Q23" s="644"/>
+      <c r="R23" s="644"/>
+      <c r="S23" s="644"/>
+      <c r="T23" s="644"/>
+      <c r="U23" s="644"/>
+      <c r="V23" s="644"/>
+      <c r="W23" s="644"/>
     </row>
     <row r="24" spans="1:23" ht="14">
       <c r="A24" s="253">
@@ -52388,12 +52388,12 @@
       </c>
       <c r="R24" s="678"/>
       <c r="S24" s="678"/>
-      <c r="T24" s="679" t="s">
+      <c r="T24" s="692" t="s">
         <v>519</v>
       </c>
-      <c r="U24" s="680"/>
-      <c r="V24" s="680"/>
-      <c r="W24" s="680"/>
+      <c r="U24" s="693"/>
+      <c r="V24" s="693"/>
+      <c r="W24" s="693"/>
     </row>
     <row r="25" spans="1:23" ht="15.35">
       <c r="A25" s="288"/>
@@ -52451,7 +52451,7 @@
       <c r="S25" s="258" t="s">
         <v>914</v>
       </c>
-      <c r="T25" s="681" t="s">
+      <c r="T25" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U25" s="171" t="s">
@@ -52496,7 +52496,7 @@
       <c r="Q26" s="184"/>
       <c r="R26" s="188"/>
       <c r="S26" s="188"/>
-      <c r="T26" s="641"/>
+      <c r="T26" s="644"/>
       <c r="U26" s="171" t="s">
         <v>524</v>
       </c>
@@ -52760,32 +52760,32 @@
       <c r="E43" s="307"/>
     </row>
     <row r="44" spans="1:23" ht="14">
-      <c r="B44" s="684" t="s">
+      <c r="B44" s="695" t="s">
         <v>456</v>
       </c>
-      <c r="C44" s="641"/>
-      <c r="D44" s="641"/>
-      <c r="E44" s="641"/>
-      <c r="F44" s="641"/>
-      <c r="G44" s="641"/>
-      <c r="H44" s="641"/>
-      <c r="I44" s="641"/>
-      <c r="J44" s="641"/>
-      <c r="K44" s="684" t="s">
+      <c r="C44" s="644"/>
+      <c r="D44" s="644"/>
+      <c r="E44" s="644"/>
+      <c r="F44" s="644"/>
+      <c r="G44" s="644"/>
+      <c r="H44" s="644"/>
+      <c r="I44" s="644"/>
+      <c r="J44" s="644"/>
+      <c r="K44" s="695" t="s">
         <v>457</v>
       </c>
-      <c r="L44" s="641"/>
-      <c r="M44" s="641"/>
-      <c r="N44" s="641"/>
-      <c r="O44" s="641"/>
-      <c r="P44" s="641"/>
-      <c r="Q44" s="641"/>
-      <c r="R44" s="641"/>
-      <c r="S44" s="641"/>
-      <c r="T44" s="641"/>
-      <c r="U44" s="641"/>
-      <c r="V44" s="641"/>
-      <c r="W44" s="641"/>
+      <c r="L44" s="644"/>
+      <c r="M44" s="644"/>
+      <c r="N44" s="644"/>
+      <c r="O44" s="644"/>
+      <c r="P44" s="644"/>
+      <c r="Q44" s="644"/>
+      <c r="R44" s="644"/>
+      <c r="S44" s="644"/>
+      <c r="T44" s="644"/>
+      <c r="U44" s="644"/>
+      <c r="V44" s="644"/>
+      <c r="W44" s="644"/>
     </row>
     <row r="45" spans="1:23" ht="14">
       <c r="A45" s="253">
@@ -52821,12 +52821,12 @@
       </c>
       <c r="R45" s="678"/>
       <c r="S45" s="678"/>
-      <c r="T45" s="692" t="s">
+      <c r="T45" s="696" t="s">
         <v>519</v>
       </c>
-      <c r="U45" s="693"/>
-      <c r="V45" s="693"/>
-      <c r="W45" s="693"/>
+      <c r="U45" s="686"/>
+      <c r="V45" s="686"/>
+      <c r="W45" s="686"/>
     </row>
     <row r="46" spans="1:23" ht="15.35">
       <c r="A46" s="288"/>
@@ -52884,7 +52884,7 @@
       <c r="S46" s="287" t="s">
         <v>914</v>
       </c>
-      <c r="T46" s="689" t="s">
+      <c r="T46" s="701" t="s">
         <v>520</v>
       </c>
       <c r="U46" s="318" t="s">
@@ -52929,7 +52929,7 @@
       <c r="Q47" s="184"/>
       <c r="R47" s="188"/>
       <c r="S47" s="188"/>
-      <c r="T47" s="641"/>
+      <c r="T47" s="644"/>
       <c r="U47" s="171" t="s">
         <v>524</v>
       </c>
@@ -53161,32 +53161,32 @@
       <c r="C61" s="170"/>
     </row>
     <row r="62" spans="1:23" ht="14">
-      <c r="B62" s="684" t="s">
+      <c r="B62" s="695" t="s">
         <v>456</v>
       </c>
-      <c r="C62" s="641"/>
-      <c r="D62" s="641"/>
-      <c r="E62" s="641"/>
-      <c r="F62" s="641"/>
-      <c r="G62" s="641"/>
-      <c r="H62" s="641"/>
-      <c r="I62" s="641"/>
-      <c r="J62" s="641"/>
-      <c r="K62" s="684" t="s">
+      <c r="C62" s="644"/>
+      <c r="D62" s="644"/>
+      <c r="E62" s="644"/>
+      <c r="F62" s="644"/>
+      <c r="G62" s="644"/>
+      <c r="H62" s="644"/>
+      <c r="I62" s="644"/>
+      <c r="J62" s="644"/>
+      <c r="K62" s="695" t="s">
         <v>457</v>
       </c>
-      <c r="L62" s="641"/>
-      <c r="M62" s="641"/>
-      <c r="N62" s="641"/>
-      <c r="O62" s="641"/>
-      <c r="P62" s="641"/>
-      <c r="Q62" s="641"/>
-      <c r="R62" s="641"/>
-      <c r="S62" s="641"/>
-      <c r="T62" s="641"/>
-      <c r="U62" s="641"/>
-      <c r="V62" s="641"/>
-      <c r="W62" s="641"/>
+      <c r="L62" s="644"/>
+      <c r="M62" s="644"/>
+      <c r="N62" s="644"/>
+      <c r="O62" s="644"/>
+      <c r="P62" s="644"/>
+      <c r="Q62" s="644"/>
+      <c r="R62" s="644"/>
+      <c r="S62" s="644"/>
+      <c r="T62" s="644"/>
+      <c r="U62" s="644"/>
+      <c r="V62" s="644"/>
+      <c r="W62" s="644"/>
     </row>
     <row r="63" spans="1:23" ht="14">
       <c r="A63" s="253">
@@ -53222,12 +53222,12 @@
       </c>
       <c r="R63" s="678"/>
       <c r="S63" s="678"/>
-      <c r="T63" s="679" t="s">
+      <c r="T63" s="692" t="s">
         <v>519</v>
       </c>
-      <c r="U63" s="680"/>
-      <c r="V63" s="680"/>
-      <c r="W63" s="680"/>
+      <c r="U63" s="693"/>
+      <c r="V63" s="693"/>
+      <c r="W63" s="693"/>
     </row>
     <row r="64" spans="1:23" ht="15.35">
       <c r="A64" s="288"/>
@@ -53285,7 +53285,7 @@
       <c r="S64" s="254" t="s">
         <v>463</v>
       </c>
-      <c r="T64" s="681" t="s">
+      <c r="T64" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U64" s="171" t="s">
@@ -53330,7 +53330,7 @@
       <c r="Q65" s="184"/>
       <c r="R65" s="184"/>
       <c r="S65" s="184"/>
-      <c r="T65" s="641"/>
+      <c r="T65" s="644"/>
       <c r="U65" s="171" t="s">
         <v>524</v>
       </c>
@@ -53595,32 +53595,32 @@
       </c>
     </row>
     <row r="85" spans="1:23" ht="14">
-      <c r="B85" s="685" t="s">
+      <c r="B85" s="694" t="s">
         <v>919</v>
       </c>
-      <c r="C85" s="641"/>
-      <c r="D85" s="641"/>
-      <c r="E85" s="641"/>
-      <c r="F85" s="641"/>
-      <c r="G85" s="641"/>
-      <c r="H85" s="641"/>
-      <c r="I85" s="641"/>
-      <c r="J85" s="641"/>
-      <c r="K85" s="685" t="s">
+      <c r="C85" s="644"/>
+      <c r="D85" s="644"/>
+      <c r="E85" s="644"/>
+      <c r="F85" s="644"/>
+      <c r="G85" s="644"/>
+      <c r="H85" s="644"/>
+      <c r="I85" s="644"/>
+      <c r="J85" s="644"/>
+      <c r="K85" s="694" t="s">
         <v>911</v>
       </c>
-      <c r="L85" s="641"/>
-      <c r="M85" s="641"/>
-      <c r="N85" s="641"/>
-      <c r="O85" s="641"/>
-      <c r="P85" s="641"/>
-      <c r="Q85" s="641"/>
-      <c r="R85" s="641"/>
-      <c r="S85" s="641"/>
-      <c r="T85" s="641"/>
-      <c r="U85" s="641"/>
-      <c r="V85" s="641"/>
-      <c r="W85" s="641"/>
+      <c r="L85" s="644"/>
+      <c r="M85" s="644"/>
+      <c r="N85" s="644"/>
+      <c r="O85" s="644"/>
+      <c r="P85" s="644"/>
+      <c r="Q85" s="644"/>
+      <c r="R85" s="644"/>
+      <c r="S85" s="644"/>
+      <c r="T85" s="644"/>
+      <c r="U85" s="644"/>
+      <c r="V85" s="644"/>
+      <c r="W85" s="644"/>
     </row>
     <row r="86" spans="1:23" ht="14">
       <c r="A86" s="253">
@@ -53631,17 +53631,17 @@
       </c>
       <c r="C86" s="673"/>
       <c r="D86" s="673"/>
-      <c r="E86" s="690" t="s">
+      <c r="E86" s="680" t="s">
         <v>920</v>
       </c>
       <c r="F86" s="675"/>
       <c r="G86" s="675"/>
-      <c r="H86" s="691" t="s">
+      <c r="H86" s="697" t="s">
         <v>921</v>
       </c>
       <c r="I86" s="677"/>
       <c r="J86" s="677"/>
-      <c r="K86" s="690" t="s">
+      <c r="K86" s="680" t="s">
         <v>922</v>
       </c>
       <c r="L86" s="678"/>
@@ -53656,12 +53656,12 @@
       </c>
       <c r="R86" s="678"/>
       <c r="S86" s="678"/>
-      <c r="T86" s="679" t="s">
+      <c r="T86" s="692" t="s">
         <v>519</v>
       </c>
-      <c r="U86" s="680"/>
-      <c r="V86" s="680"/>
-      <c r="W86" s="680"/>
+      <c r="U86" s="693"/>
+      <c r="V86" s="693"/>
+      <c r="W86" s="693"/>
     </row>
     <row r="87" spans="1:23" ht="15.35">
       <c r="A87" s="288"/>
@@ -53719,7 +53719,7 @@
       <c r="S87" s="254" t="s">
         <v>463</v>
       </c>
-      <c r="T87" s="681" t="s">
+      <c r="T87" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U87" s="171" t="s">
@@ -53764,7 +53764,7 @@
       <c r="Q88" s="184"/>
       <c r="R88" s="184"/>
       <c r="S88" s="184"/>
-      <c r="T88" s="641"/>
+      <c r="T88" s="644"/>
       <c r="U88" s="171" t="s">
         <v>524</v>
       </c>
@@ -54028,32 +54028,32 @@
       <c r="C106" s="170"/>
     </row>
     <row r="107" spans="1:23" ht="14">
-      <c r="B107" s="685" t="s">
+      <c r="B107" s="694" t="s">
         <v>919</v>
       </c>
-      <c r="C107" s="641"/>
-      <c r="D107" s="641"/>
-      <c r="E107" s="641"/>
-      <c r="F107" s="641"/>
-      <c r="G107" s="641"/>
-      <c r="H107" s="641"/>
-      <c r="I107" s="641"/>
-      <c r="J107" s="641"/>
-      <c r="K107" s="684" t="s">
+      <c r="C107" s="644"/>
+      <c r="D107" s="644"/>
+      <c r="E107" s="644"/>
+      <c r="F107" s="644"/>
+      <c r="G107" s="644"/>
+      <c r="H107" s="644"/>
+      <c r="I107" s="644"/>
+      <c r="J107" s="644"/>
+      <c r="K107" s="695" t="s">
         <v>457</v>
       </c>
-      <c r="L107" s="641"/>
-      <c r="M107" s="641"/>
-      <c r="N107" s="641"/>
-      <c r="O107" s="641"/>
-      <c r="P107" s="641"/>
-      <c r="Q107" s="641"/>
-      <c r="R107" s="641"/>
-      <c r="S107" s="641"/>
-      <c r="T107" s="641"/>
-      <c r="U107" s="641"/>
-      <c r="V107" s="641"/>
-      <c r="W107" s="641"/>
+      <c r="L107" s="644"/>
+      <c r="M107" s="644"/>
+      <c r="N107" s="644"/>
+      <c r="O107" s="644"/>
+      <c r="P107" s="644"/>
+      <c r="Q107" s="644"/>
+      <c r="R107" s="644"/>
+      <c r="S107" s="644"/>
+      <c r="T107" s="644"/>
+      <c r="U107" s="644"/>
+      <c r="V107" s="644"/>
+      <c r="W107" s="644"/>
     </row>
     <row r="108" spans="1:23" ht="14">
       <c r="A108" s="253">
@@ -54064,7 +54064,7 @@
       </c>
       <c r="C108" s="673"/>
       <c r="D108" s="673"/>
-      <c r="E108" s="690" t="s">
+      <c r="E108" s="680" t="s">
         <v>920</v>
       </c>
       <c r="F108" s="675"/>
@@ -54089,12 +54089,12 @@
       </c>
       <c r="R108" s="678"/>
       <c r="S108" s="678"/>
-      <c r="T108" s="679" t="s">
+      <c r="T108" s="692" t="s">
         <v>519</v>
       </c>
-      <c r="U108" s="680"/>
-      <c r="V108" s="680"/>
-      <c r="W108" s="680"/>
+      <c r="U108" s="693"/>
+      <c r="V108" s="693"/>
+      <c r="W108" s="693"/>
     </row>
     <row r="109" spans="1:23" ht="15.35">
       <c r="A109" s="288"/>
@@ -54152,7 +54152,7 @@
       <c r="S109" s="346" t="s">
         <v>463</v>
       </c>
-      <c r="T109" s="681" t="s">
+      <c r="T109" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U109" s="171" t="s">
@@ -54197,7 +54197,7 @@
       <c r="Q110" s="184"/>
       <c r="R110" s="184"/>
       <c r="S110" s="184"/>
-      <c r="T110" s="641"/>
+      <c r="T110" s="644"/>
       <c r="U110" s="171" t="s">
         <v>524</v>
       </c>
@@ -54411,32 +54411,32 @@
       </c>
     </row>
     <row r="128" spans="1:23" ht="14">
-      <c r="B128" s="684" t="s">
+      <c r="B128" s="695" t="s">
         <v>456</v>
       </c>
-      <c r="C128" s="641"/>
-      <c r="D128" s="641"/>
-      <c r="E128" s="641"/>
-      <c r="F128" s="641"/>
-      <c r="G128" s="641"/>
-      <c r="H128" s="641"/>
-      <c r="I128" s="641"/>
-      <c r="J128" s="641"/>
-      <c r="K128" s="684" t="s">
+      <c r="C128" s="644"/>
+      <c r="D128" s="644"/>
+      <c r="E128" s="644"/>
+      <c r="F128" s="644"/>
+      <c r="G128" s="644"/>
+      <c r="H128" s="644"/>
+      <c r="I128" s="644"/>
+      <c r="J128" s="644"/>
+      <c r="K128" s="695" t="s">
         <v>457</v>
       </c>
-      <c r="L128" s="641"/>
-      <c r="M128" s="641"/>
-      <c r="N128" s="641"/>
-      <c r="O128" s="641"/>
-      <c r="P128" s="641"/>
-      <c r="Q128" s="641"/>
-      <c r="R128" s="641"/>
-      <c r="S128" s="641"/>
-      <c r="T128" s="641"/>
-      <c r="U128" s="641"/>
-      <c r="V128" s="641"/>
-      <c r="W128" s="641"/>
+      <c r="L128" s="644"/>
+      <c r="M128" s="644"/>
+      <c r="N128" s="644"/>
+      <c r="O128" s="644"/>
+      <c r="P128" s="644"/>
+      <c r="Q128" s="644"/>
+      <c r="R128" s="644"/>
+      <c r="S128" s="644"/>
+      <c r="T128" s="644"/>
+      <c r="U128" s="644"/>
+      <c r="V128" s="644"/>
+      <c r="W128" s="644"/>
     </row>
     <row r="129" spans="1:23" ht="14">
       <c r="A129" s="253">
@@ -54472,12 +54472,12 @@
       </c>
       <c r="R129" s="678"/>
       <c r="S129" s="678"/>
-      <c r="T129" s="679" t="s">
+      <c r="T129" s="692" t="s">
         <v>519</v>
       </c>
-      <c r="U129" s="680"/>
-      <c r="V129" s="680"/>
-      <c r="W129" s="680"/>
+      <c r="U129" s="693"/>
+      <c r="V129" s="693"/>
+      <c r="W129" s="693"/>
     </row>
     <row r="130" spans="1:23" ht="15.35">
       <c r="A130" s="288"/>
@@ -54535,7 +54535,7 @@
       <c r="S130" s="346" t="s">
         <v>463</v>
       </c>
-      <c r="T130" s="681" t="s">
+      <c r="T130" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U130" s="171" t="s">
@@ -54580,7 +54580,7 @@
       <c r="Q131" s="184"/>
       <c r="R131" s="184"/>
       <c r="S131" s="184"/>
-      <c r="T131" s="641"/>
+      <c r="T131" s="644"/>
       <c r="U131" s="171" t="s">
         <v>524</v>
       </c>
@@ -54780,32 +54780,32 @@
       </c>
     </row>
     <row r="142" spans="1:23" ht="14">
-      <c r="B142" s="684" t="s">
+      <c r="B142" s="695" t="s">
         <v>456</v>
       </c>
-      <c r="C142" s="641"/>
-      <c r="D142" s="641"/>
-      <c r="E142" s="641"/>
-      <c r="F142" s="641"/>
-      <c r="G142" s="641"/>
-      <c r="H142" s="641"/>
-      <c r="I142" s="641"/>
-      <c r="J142" s="641"/>
-      <c r="K142" s="684" t="s">
+      <c r="C142" s="644"/>
+      <c r="D142" s="644"/>
+      <c r="E142" s="644"/>
+      <c r="F142" s="644"/>
+      <c r="G142" s="644"/>
+      <c r="H142" s="644"/>
+      <c r="I142" s="644"/>
+      <c r="J142" s="644"/>
+      <c r="K142" s="695" t="s">
         <v>457</v>
       </c>
-      <c r="L142" s="641"/>
-      <c r="M142" s="641"/>
-      <c r="N142" s="641"/>
-      <c r="O142" s="641"/>
-      <c r="P142" s="641"/>
-      <c r="Q142" s="641"/>
-      <c r="R142" s="641"/>
-      <c r="S142" s="641"/>
-      <c r="T142" s="641"/>
-      <c r="U142" s="641"/>
-      <c r="V142" s="641"/>
-      <c r="W142" s="641"/>
+      <c r="L142" s="644"/>
+      <c r="M142" s="644"/>
+      <c r="N142" s="644"/>
+      <c r="O142" s="644"/>
+      <c r="P142" s="644"/>
+      <c r="Q142" s="644"/>
+      <c r="R142" s="644"/>
+      <c r="S142" s="644"/>
+      <c r="T142" s="644"/>
+      <c r="U142" s="644"/>
+      <c r="V142" s="644"/>
+      <c r="W142" s="644"/>
     </row>
     <row r="143" spans="1:23" ht="14">
       <c r="A143" s="253">
@@ -54839,14 +54839,14 @@
       <c r="Q143" s="674" t="s">
         <v>916</v>
       </c>
-      <c r="R143" s="701"/>
-      <c r="S143" s="701"/>
-      <c r="T143" s="679" t="s">
+      <c r="R143" s="679"/>
+      <c r="S143" s="679"/>
+      <c r="T143" s="692" t="s">
         <v>519</v>
       </c>
-      <c r="U143" s="680"/>
-      <c r="V143" s="680"/>
-      <c r="W143" s="680"/>
+      <c r="U143" s="693"/>
+      <c r="V143" s="693"/>
+      <c r="W143" s="693"/>
     </row>
     <row r="144" spans="1:23" ht="15.35">
       <c r="A144" s="288"/>
@@ -54904,7 +54904,7 @@
       <c r="S144" s="254" t="s">
         <v>463</v>
       </c>
-      <c r="T144" s="681" t="s">
+      <c r="T144" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U144" s="171" t="s">
@@ -54949,7 +54949,7 @@
       <c r="Q145" s="184"/>
       <c r="R145" s="184"/>
       <c r="S145" s="184"/>
-      <c r="T145" s="641"/>
+      <c r="T145" s="644"/>
       <c r="U145" s="171" t="s">
         <v>524</v>
       </c>
@@ -55141,32 +55141,32 @@
       </c>
     </row>
     <row r="157" spans="1:23" ht="14">
-      <c r="B157" s="686" t="s">
+      <c r="B157" s="700" t="s">
         <v>456</v>
       </c>
-      <c r="C157" s="687"/>
-      <c r="D157" s="687"/>
-      <c r="E157" s="687"/>
-      <c r="F157" s="687"/>
-      <c r="G157" s="687"/>
-      <c r="H157" s="687"/>
-      <c r="I157" s="687"/>
-      <c r="J157" s="687"/>
-      <c r="K157" s="688" t="s">
+      <c r="C157" s="684"/>
+      <c r="D157" s="684"/>
+      <c r="E157" s="684"/>
+      <c r="F157" s="684"/>
+      <c r="G157" s="684"/>
+      <c r="H157" s="684"/>
+      <c r="I157" s="684"/>
+      <c r="J157" s="684"/>
+      <c r="K157" s="683" t="s">
         <v>911</v>
       </c>
-      <c r="L157" s="687"/>
-      <c r="M157" s="687"/>
-      <c r="N157" s="687"/>
-      <c r="O157" s="687"/>
-      <c r="P157" s="687"/>
-      <c r="Q157" s="687"/>
-      <c r="R157" s="687"/>
-      <c r="S157" s="687"/>
-      <c r="T157" s="687"/>
-      <c r="U157" s="687"/>
-      <c r="V157" s="687"/>
-      <c r="W157" s="687"/>
+      <c r="L157" s="684"/>
+      <c r="M157" s="684"/>
+      <c r="N157" s="684"/>
+      <c r="O157" s="684"/>
+      <c r="P157" s="684"/>
+      <c r="Q157" s="684"/>
+      <c r="R157" s="684"/>
+      <c r="S157" s="684"/>
+      <c r="T157" s="684"/>
+      <c r="U157" s="684"/>
+      <c r="V157" s="684"/>
+      <c r="W157" s="684"/>
     </row>
     <row r="158" spans="1:23" ht="14">
       <c r="A158" s="253">
@@ -55202,12 +55202,12 @@
       </c>
       <c r="R158" s="678"/>
       <c r="S158" s="678"/>
-      <c r="T158" s="679" t="s">
+      <c r="T158" s="692" t="s">
         <v>519</v>
       </c>
-      <c r="U158" s="680"/>
-      <c r="V158" s="680"/>
-      <c r="W158" s="680"/>
+      <c r="U158" s="693"/>
+      <c r="V158" s="693"/>
+      <c r="W158" s="693"/>
     </row>
     <row r="159" spans="1:23" ht="15.35">
       <c r="A159" s="288"/>
@@ -55265,7 +55265,7 @@
       <c r="S159" s="258" t="s">
         <v>914</v>
       </c>
-      <c r="T159" s="681" t="s">
+      <c r="T159" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U159" s="171" t="s">
@@ -55310,7 +55310,7 @@
       <c r="Q160" s="321"/>
       <c r="R160" s="275"/>
       <c r="S160" s="275"/>
-      <c r="T160" s="641"/>
+      <c r="T160" s="644"/>
       <c r="U160" s="171"/>
       <c r="V160" s="266"/>
       <c r="W160" s="266"/>
@@ -55347,7 +55347,7 @@
       <c r="Q161" s="184"/>
       <c r="R161" s="188"/>
       <c r="S161" s="188"/>
-      <c r="T161" s="641"/>
+      <c r="T161" s="644"/>
       <c r="U161" s="171" t="s">
         <v>524</v>
       </c>
@@ -55548,32 +55548,32 @@
     </row>
     <row r="172" spans="1:23" ht="14">
       <c r="A172" s="293"/>
-      <c r="B172" s="684" t="s">
+      <c r="B172" s="695" t="s">
         <v>456</v>
       </c>
-      <c r="C172" s="641"/>
-      <c r="D172" s="641"/>
-      <c r="E172" s="641"/>
-      <c r="F172" s="641"/>
-      <c r="G172" s="641"/>
-      <c r="H172" s="641"/>
-      <c r="I172" s="641"/>
-      <c r="J172" s="641"/>
-      <c r="K172" s="685" t="s">
+      <c r="C172" s="644"/>
+      <c r="D172" s="644"/>
+      <c r="E172" s="644"/>
+      <c r="F172" s="644"/>
+      <c r="G172" s="644"/>
+      <c r="H172" s="644"/>
+      <c r="I172" s="644"/>
+      <c r="J172" s="644"/>
+      <c r="K172" s="694" t="s">
         <v>911</v>
       </c>
-      <c r="L172" s="641"/>
-      <c r="M172" s="641"/>
-      <c r="N172" s="641"/>
-      <c r="O172" s="641"/>
-      <c r="P172" s="641"/>
-      <c r="Q172" s="641"/>
-      <c r="R172" s="641"/>
-      <c r="S172" s="641"/>
-      <c r="T172" s="641"/>
-      <c r="U172" s="641"/>
-      <c r="V172" s="641"/>
-      <c r="W172" s="641"/>
+      <c r="L172" s="644"/>
+      <c r="M172" s="644"/>
+      <c r="N172" s="644"/>
+      <c r="O172" s="644"/>
+      <c r="P172" s="644"/>
+      <c r="Q172" s="644"/>
+      <c r="R172" s="644"/>
+      <c r="S172" s="644"/>
+      <c r="T172" s="644"/>
+      <c r="U172" s="644"/>
+      <c r="V172" s="644"/>
+      <c r="W172" s="644"/>
     </row>
     <row r="173" spans="1:23" ht="14">
       <c r="A173" s="293"/>
@@ -55607,12 +55607,12 @@
       </c>
       <c r="R173" s="678"/>
       <c r="S173" s="678"/>
-      <c r="T173" s="679" t="s">
+      <c r="T173" s="692" t="s">
         <v>519</v>
       </c>
-      <c r="U173" s="680"/>
-      <c r="V173" s="680"/>
-      <c r="W173" s="680"/>
+      <c r="U173" s="693"/>
+      <c r="V173" s="693"/>
+      <c r="W173" s="693"/>
     </row>
     <row r="174" spans="1:23" ht="15.35">
       <c r="A174" s="293"/>
@@ -55670,7 +55670,7 @@
       <c r="S174" s="258" t="s">
         <v>914</v>
       </c>
-      <c r="T174" s="681" t="s">
+      <c r="T174" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U174" s="171" t="s">
@@ -55715,7 +55715,7 @@
       <c r="Q175" s="184"/>
       <c r="R175" s="188"/>
       <c r="S175" s="188"/>
-      <c r="T175" s="641"/>
+      <c r="T175" s="644"/>
       <c r="U175" s="171" t="s">
         <v>524</v>
       </c>
@@ -57861,50 +57861,39 @@
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="B143:D143"/>
-    <mergeCell ref="E143:G143"/>
-    <mergeCell ref="H143:J143"/>
-    <mergeCell ref="K143:M143"/>
-    <mergeCell ref="N143:P143"/>
-    <mergeCell ref="Q143:S143"/>
-    <mergeCell ref="K108:M108"/>
-    <mergeCell ref="H108:J108"/>
-    <mergeCell ref="E108:G108"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="Q129:S129"/>
-    <mergeCell ref="B129:D129"/>
-    <mergeCell ref="E129:G129"/>
-    <mergeCell ref="H129:J129"/>
-    <mergeCell ref="K129:M129"/>
-    <mergeCell ref="N129:P129"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="K3:W3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="K23:W23"/>
-    <mergeCell ref="B44:J44"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="T45:W45"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="B173:D173"/>
+    <mergeCell ref="E173:G173"/>
+    <mergeCell ref="H173:J173"/>
+    <mergeCell ref="K173:M173"/>
+    <mergeCell ref="N173:P173"/>
+    <mergeCell ref="Q173:S173"/>
+    <mergeCell ref="T173:W173"/>
+    <mergeCell ref="T174:T175"/>
+    <mergeCell ref="T159:T161"/>
+    <mergeCell ref="B158:D158"/>
+    <mergeCell ref="E158:G158"/>
+    <mergeCell ref="H158:J158"/>
+    <mergeCell ref="K158:M158"/>
+    <mergeCell ref="N158:P158"/>
+    <mergeCell ref="Q158:S158"/>
+    <mergeCell ref="T158:W158"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B172:J172"/>
+    <mergeCell ref="K172:W172"/>
+    <mergeCell ref="T129:W129"/>
+    <mergeCell ref="T130:T131"/>
+    <mergeCell ref="K128:W128"/>
+    <mergeCell ref="B142:J142"/>
+    <mergeCell ref="T143:W143"/>
+    <mergeCell ref="T144:T145"/>
+    <mergeCell ref="K142:W142"/>
+    <mergeCell ref="B157:J157"/>
+    <mergeCell ref="K157:W157"/>
+    <mergeCell ref="T46:T47"/>
+    <mergeCell ref="K44:W44"/>
+    <mergeCell ref="B62:J62"/>
+    <mergeCell ref="T63:W63"/>
+    <mergeCell ref="T64:T65"/>
     <mergeCell ref="K62:W62"/>
     <mergeCell ref="B85:J85"/>
     <mergeCell ref="B107:J107"/>
@@ -57929,39 +57918,50 @@
     <mergeCell ref="H86:J86"/>
     <mergeCell ref="E86:G86"/>
     <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B158:D158"/>
-    <mergeCell ref="E158:G158"/>
-    <mergeCell ref="H158:J158"/>
-    <mergeCell ref="K158:M158"/>
-    <mergeCell ref="N158:P158"/>
-    <mergeCell ref="Q158:S158"/>
-    <mergeCell ref="T158:W158"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B172:J172"/>
-    <mergeCell ref="K172:W172"/>
-    <mergeCell ref="T129:W129"/>
-    <mergeCell ref="T130:T131"/>
-    <mergeCell ref="K128:W128"/>
-    <mergeCell ref="B142:J142"/>
-    <mergeCell ref="T143:W143"/>
-    <mergeCell ref="T144:T145"/>
-    <mergeCell ref="K142:W142"/>
-    <mergeCell ref="B157:J157"/>
-    <mergeCell ref="K157:W157"/>
-    <mergeCell ref="T46:T47"/>
-    <mergeCell ref="K44:W44"/>
-    <mergeCell ref="B62:J62"/>
-    <mergeCell ref="T63:W63"/>
-    <mergeCell ref="T64:T65"/>
-    <mergeCell ref="B173:D173"/>
-    <mergeCell ref="E173:G173"/>
-    <mergeCell ref="H173:J173"/>
-    <mergeCell ref="K173:M173"/>
-    <mergeCell ref="N173:P173"/>
-    <mergeCell ref="Q173:S173"/>
-    <mergeCell ref="T173:W173"/>
-    <mergeCell ref="T174:T175"/>
-    <mergeCell ref="T159:T161"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="K23:W23"/>
+    <mergeCell ref="B44:J44"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="T45:W45"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="K3:W3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="B143:D143"/>
+    <mergeCell ref="E143:G143"/>
+    <mergeCell ref="H143:J143"/>
+    <mergeCell ref="K143:M143"/>
+    <mergeCell ref="N143:P143"/>
+    <mergeCell ref="Q143:S143"/>
+    <mergeCell ref="K108:M108"/>
+    <mergeCell ref="H108:J108"/>
+    <mergeCell ref="E108:G108"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="Q129:S129"/>
+    <mergeCell ref="B129:D129"/>
+    <mergeCell ref="E129:G129"/>
+    <mergeCell ref="H129:J129"/>
+    <mergeCell ref="K129:M129"/>
+    <mergeCell ref="N129:P129"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -58002,31 +58002,31 @@
       <c r="A2" s="196" t="s">
         <v>455</v>
       </c>
-      <c r="B2" s="709" t="s">
+      <c r="B2" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C2" s="710"/>
-      <c r="D2" s="710"/>
-      <c r="E2" s="711" t="s">
+      <c r="C2" s="705"/>
+      <c r="D2" s="705"/>
+      <c r="E2" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F2" s="698"/>
-      <c r="G2" s="698"/>
+      <c r="F2" s="688"/>
+      <c r="G2" s="688"/>
     </row>
     <row r="3" spans="1:7" ht="14">
       <c r="A3" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B3" s="707" t="s">
+      <c r="B3" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C3" s="693"/>
-      <c r="D3" s="693"/>
-      <c r="E3" s="708" t="s">
+      <c r="C3" s="686"/>
+      <c r="D3" s="686"/>
+      <c r="E3" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F3" s="693"/>
-      <c r="G3" s="693"/>
+      <c r="F3" s="686"/>
+      <c r="G3" s="686"/>
     </row>
     <row r="4" spans="1:7" ht="15.35">
       <c r="A4" s="197"/>
@@ -58163,31 +58163,31 @@
       <c r="A13" s="196" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="709" t="s">
+      <c r="B13" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C13" s="710"/>
-      <c r="D13" s="710"/>
-      <c r="E13" s="711" t="s">
+      <c r="C13" s="705"/>
+      <c r="D13" s="705"/>
+      <c r="E13" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F13" s="698"/>
-      <c r="G13" s="698"/>
+      <c r="F13" s="688"/>
+      <c r="G13" s="688"/>
     </row>
     <row r="14" spans="1:7" ht="14">
       <c r="A14" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B14" s="707" t="s">
+      <c r="B14" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C14" s="693"/>
-      <c r="D14" s="693"/>
-      <c r="E14" s="708" t="s">
+      <c r="C14" s="686"/>
+      <c r="D14" s="686"/>
+      <c r="E14" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F14" s="693"/>
-      <c r="G14" s="693"/>
+      <c r="F14" s="686"/>
+      <c r="G14" s="686"/>
     </row>
     <row r="15" spans="1:7" ht="15.35">
       <c r="A15" s="197"/>
@@ -58342,31 +58342,31 @@
       <c r="A24" s="196" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="709" t="s">
+      <c r="B24" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C24" s="710"/>
-      <c r="D24" s="710"/>
-      <c r="E24" s="711" t="s">
+      <c r="C24" s="705"/>
+      <c r="D24" s="705"/>
+      <c r="E24" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F24" s="698"/>
-      <c r="G24" s="698"/>
+      <c r="F24" s="688"/>
+      <c r="G24" s="688"/>
     </row>
     <row r="25" spans="1:7" ht="14">
       <c r="A25" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B25" s="707" t="s">
+      <c r="B25" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C25" s="693"/>
-      <c r="D25" s="693"/>
-      <c r="E25" s="708" t="s">
+      <c r="C25" s="686"/>
+      <c r="D25" s="686"/>
+      <c r="E25" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F25" s="693"/>
-      <c r="G25" s="693"/>
+      <c r="F25" s="686"/>
+      <c r="G25" s="686"/>
     </row>
     <row r="26" spans="1:7" ht="15.35">
       <c r="A26" s="197"/>
@@ -58503,31 +58503,31 @@
       <c r="A35" s="196" t="s">
         <v>92</v>
       </c>
-      <c r="B35" s="709" t="s">
+      <c r="B35" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C35" s="710"/>
-      <c r="D35" s="710"/>
-      <c r="E35" s="711" t="s">
+      <c r="C35" s="705"/>
+      <c r="D35" s="705"/>
+      <c r="E35" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F35" s="698"/>
-      <c r="G35" s="698"/>
+      <c r="F35" s="688"/>
+      <c r="G35" s="688"/>
     </row>
     <row r="36" spans="1:8" ht="25.35">
       <c r="A36" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B36" s="707" t="s">
+      <c r="B36" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C36" s="693"/>
-      <c r="D36" s="693"/>
-      <c r="E36" s="708" t="s">
+      <c r="C36" s="686"/>
+      <c r="D36" s="686"/>
+      <c r="E36" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F36" s="693"/>
-      <c r="G36" s="693"/>
+      <c r="F36" s="686"/>
+      <c r="G36" s="686"/>
     </row>
     <row r="37" spans="1:8" ht="15.35">
       <c r="B37" s="198" t="s">
@@ -58659,31 +58659,31 @@
       <c r="A48" s="196" t="s">
         <v>99</v>
       </c>
-      <c r="B48" s="709" t="s">
+      <c r="B48" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C48" s="710"/>
-      <c r="D48" s="710"/>
-      <c r="E48" s="711" t="s">
+      <c r="C48" s="705"/>
+      <c r="D48" s="705"/>
+      <c r="E48" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F48" s="698"/>
-      <c r="G48" s="698"/>
+      <c r="F48" s="688"/>
+      <c r="G48" s="688"/>
     </row>
     <row r="49" spans="1:8" ht="25.35">
       <c r="A49" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B49" s="707" t="s">
+      <c r="B49" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C49" s="693"/>
-      <c r="D49" s="693"/>
-      <c r="E49" s="708" t="s">
+      <c r="C49" s="686"/>
+      <c r="D49" s="686"/>
+      <c r="E49" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F49" s="693"/>
-      <c r="G49" s="693"/>
+      <c r="F49" s="686"/>
+      <c r="G49" s="686"/>
     </row>
     <row r="50" spans="1:8" ht="15.35">
       <c r="B50" s="198" t="s">
@@ -58815,31 +58815,31 @@
       <c r="A62" s="196" t="s">
         <v>104</v>
       </c>
-      <c r="B62" s="709" t="s">
+      <c r="B62" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C62" s="710"/>
-      <c r="D62" s="710"/>
-      <c r="E62" s="711" t="s">
+      <c r="C62" s="705"/>
+      <c r="D62" s="705"/>
+      <c r="E62" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F62" s="698"/>
-      <c r="G62" s="698"/>
+      <c r="F62" s="688"/>
+      <c r="G62" s="688"/>
     </row>
     <row r="63" spans="1:8" ht="25.35">
       <c r="A63" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B63" s="707" t="s">
+      <c r="B63" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C63" s="693"/>
-      <c r="D63" s="693"/>
-      <c r="E63" s="708" t="s">
+      <c r="C63" s="686"/>
+      <c r="D63" s="686"/>
+      <c r="E63" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F63" s="693"/>
-      <c r="G63" s="693"/>
+      <c r="F63" s="686"/>
+      <c r="G63" s="686"/>
     </row>
     <row r="64" spans="1:8" ht="15.35">
       <c r="B64" s="198" t="s">
@@ -58964,31 +58964,31 @@
       <c r="A79" s="191" t="s">
         <v>91</v>
       </c>
-      <c r="B79" s="709" t="s">
+      <c r="B79" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C79" s="710"/>
-      <c r="D79" s="710"/>
-      <c r="E79" s="711" t="s">
+      <c r="C79" s="705"/>
+      <c r="D79" s="705"/>
+      <c r="E79" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F79" s="698"/>
-      <c r="G79" s="698"/>
+      <c r="F79" s="688"/>
+      <c r="G79" s="688"/>
     </row>
     <row r="80" spans="1:9" ht="27.35">
       <c r="A80" s="196" t="s">
         <v>114</v>
       </c>
-      <c r="B80" s="707" t="s">
+      <c r="B80" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C80" s="693"/>
-      <c r="D80" s="693"/>
-      <c r="E80" s="708" t="s">
+      <c r="C80" s="686"/>
+      <c r="D80" s="686"/>
+      <c r="E80" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F80" s="693"/>
-      <c r="G80" s="693"/>
+      <c r="F80" s="686"/>
+      <c r="G80" s="686"/>
     </row>
     <row r="81" spans="1:7" ht="25.35">
       <c r="A81" s="10" t="s">
@@ -59126,31 +59126,31 @@
       <c r="A99" s="196" t="s">
         <v>119</v>
       </c>
-      <c r="B99" s="709" t="s">
+      <c r="B99" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C99" s="710"/>
-      <c r="D99" s="710"/>
-      <c r="E99" s="711" t="s">
+      <c r="C99" s="705"/>
+      <c r="D99" s="705"/>
+      <c r="E99" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F99" s="698"/>
-      <c r="G99" s="698"/>
+      <c r="F99" s="688"/>
+      <c r="G99" s="688"/>
     </row>
     <row r="100" spans="1:7" ht="14">
       <c r="A100" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B100" s="707" t="s">
+      <c r="B100" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C100" s="693"/>
-      <c r="D100" s="693"/>
-      <c r="E100" s="708" t="s">
+      <c r="C100" s="686"/>
+      <c r="D100" s="686"/>
+      <c r="E100" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F100" s="693"/>
-      <c r="G100" s="693"/>
+      <c r="F100" s="686"/>
+      <c r="G100" s="686"/>
     </row>
     <row r="101" spans="1:7" ht="15.35">
       <c r="A101" s="197"/>
@@ -59308,31 +59308,31 @@
       <c r="A112" s="196" t="s">
         <v>146</v>
       </c>
-      <c r="B112" s="709" t="s">
+      <c r="B112" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C112" s="710"/>
-      <c r="D112" s="710"/>
-      <c r="E112" s="711" t="s">
+      <c r="C112" s="705"/>
+      <c r="D112" s="705"/>
+      <c r="E112" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F112" s="698"/>
-      <c r="G112" s="698"/>
+      <c r="F112" s="688"/>
+      <c r="G112" s="688"/>
     </row>
     <row r="113" spans="1:7" ht="14">
       <c r="A113" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B113" s="707" t="s">
+      <c r="B113" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C113" s="693"/>
-      <c r="D113" s="693"/>
-      <c r="E113" s="708" t="s">
+      <c r="C113" s="686"/>
+      <c r="D113" s="686"/>
+      <c r="E113" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F113" s="693"/>
-      <c r="G113" s="693"/>
+      <c r="F113" s="686"/>
+      <c r="G113" s="686"/>
     </row>
     <row r="114" spans="1:7" ht="15.35">
       <c r="A114" s="197"/>
@@ -59461,31 +59461,31 @@
       <c r="A123" s="196" t="s">
         <v>163</v>
       </c>
-      <c r="B123" s="702" t="s">
+      <c r="B123" s="713" t="s">
         <v>456</v>
       </c>
-      <c r="C123" s="703"/>
-      <c r="D123" s="703"/>
-      <c r="E123" s="704" t="s">
+      <c r="C123" s="714"/>
+      <c r="D123" s="714"/>
+      <c r="E123" s="715" t="s">
         <v>457</v>
       </c>
-      <c r="F123" s="705"/>
-      <c r="G123" s="705"/>
+      <c r="F123" s="716"/>
+      <c r="G123" s="716"/>
     </row>
     <row r="124" spans="1:7" ht="14.35">
       <c r="A124" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B124" s="714" t="s">
+      <c r="B124" s="709" t="s">
         <v>459</v>
       </c>
-      <c r="C124" s="715"/>
-      <c r="D124" s="715"/>
-      <c r="E124" s="716" t="s">
+      <c r="C124" s="710"/>
+      <c r="D124" s="710"/>
+      <c r="E124" s="711" t="s">
         <v>460</v>
       </c>
-      <c r="F124" s="717"/>
-      <c r="G124" s="717"/>
+      <c r="F124" s="712"/>
+      <c r="G124" s="712"/>
     </row>
     <row r="125" spans="1:7" ht="14.35">
       <c r="A125" s="197"/>
@@ -59675,31 +59675,31 @@
       <c r="A136" s="196" t="s">
         <v>167</v>
       </c>
-      <c r="B136" s="709" t="s">
+      <c r="B136" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C136" s="710"/>
-      <c r="D136" s="710"/>
-      <c r="E136" s="711" t="s">
+      <c r="C136" s="705"/>
+      <c r="D136" s="705"/>
+      <c r="E136" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F136" s="712"/>
-      <c r="G136" s="712"/>
+      <c r="F136" s="707"/>
+      <c r="G136" s="707"/>
     </row>
     <row r="137" spans="1:7" ht="14">
       <c r="A137" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B137" s="709" t="s">
+      <c r="B137" s="704" t="s">
         <v>459</v>
       </c>
-      <c r="C137" s="712"/>
-      <c r="D137" s="713"/>
-      <c r="E137" s="711" t="s">
+      <c r="C137" s="707"/>
+      <c r="D137" s="708"/>
+      <c r="E137" s="706" t="s">
         <v>460</v>
       </c>
-      <c r="F137" s="712"/>
-      <c r="G137" s="712"/>
+      <c r="F137" s="707"/>
+      <c r="G137" s="707"/>
     </row>
     <row r="138" spans="1:7" ht="15.35">
       <c r="A138" s="197"/>
@@ -59843,31 +59843,31 @@
       <c r="A152" s="196" t="s">
         <v>186</v>
       </c>
-      <c r="B152" s="702" t="s">
+      <c r="B152" s="713" t="s">
         <v>456</v>
       </c>
-      <c r="C152" s="703"/>
-      <c r="D152" s="703"/>
-      <c r="E152" s="704" t="s">
+      <c r="C152" s="714"/>
+      <c r="D152" s="714"/>
+      <c r="E152" s="715" t="s">
         <v>457</v>
       </c>
-      <c r="F152" s="705"/>
-      <c r="G152" s="705"/>
+      <c r="F152" s="716"/>
+      <c r="G152" s="716"/>
     </row>
     <row r="153" spans="1:7" ht="21" customHeight="1">
       <c r="A153" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B153" s="702" t="s">
+      <c r="B153" s="713" t="s">
         <v>459</v>
       </c>
-      <c r="C153" s="703"/>
-      <c r="D153" s="703"/>
-      <c r="E153" s="704" t="s">
+      <c r="C153" s="714"/>
+      <c r="D153" s="714"/>
+      <c r="E153" s="715" t="s">
         <v>460</v>
       </c>
-      <c r="F153" s="705"/>
-      <c r="G153" s="705"/>
+      <c r="F153" s="716"/>
+      <c r="G153" s="716"/>
     </row>
     <row r="154" spans="1:7" ht="14.35">
       <c r="B154" s="220" t="s">
@@ -60143,31 +60143,31 @@
       <c r="A171" s="196" t="s">
         <v>208</v>
       </c>
-      <c r="B171" s="702" t="s">
+      <c r="B171" s="713" t="s">
         <v>456</v>
       </c>
-      <c r="C171" s="703"/>
-      <c r="D171" s="703"/>
-      <c r="E171" s="704" t="s">
+      <c r="C171" s="714"/>
+      <c r="D171" s="714"/>
+      <c r="E171" s="715" t="s">
         <v>457</v>
       </c>
-      <c r="F171" s="705"/>
-      <c r="G171" s="705"/>
+      <c r="F171" s="716"/>
+      <c r="G171" s="716"/>
     </row>
     <row r="172" spans="1:7" ht="27.35">
       <c r="A172" s="197" t="s">
         <v>476</v>
       </c>
-      <c r="B172" s="702" t="s">
+      <c r="B172" s="713" t="s">
         <v>459</v>
       </c>
-      <c r="C172" s="703"/>
-      <c r="D172" s="703"/>
-      <c r="E172" s="704" t="s">
+      <c r="C172" s="714"/>
+      <c r="D172" s="714"/>
+      <c r="E172" s="715" t="s">
         <v>460</v>
       </c>
-      <c r="F172" s="705"/>
-      <c r="G172" s="705"/>
+      <c r="F172" s="716"/>
+      <c r="G172" s="716"/>
     </row>
     <row r="173" spans="1:7" ht="14.35">
       <c r="A173" s="201"/>
@@ -60443,31 +60443,31 @@
       <c r="A190" s="196" t="s">
         <v>210</v>
       </c>
-      <c r="B190" s="702" t="s">
+      <c r="B190" s="713" t="s">
         <v>456</v>
       </c>
-      <c r="C190" s="703"/>
-      <c r="D190" s="703"/>
-      <c r="E190" s="704" t="s">
+      <c r="C190" s="714"/>
+      <c r="D190" s="714"/>
+      <c r="E190" s="715" t="s">
         <v>457</v>
       </c>
-      <c r="F190" s="705"/>
-      <c r="G190" s="705"/>
+      <c r="F190" s="716"/>
+      <c r="G190" s="716"/>
     </row>
     <row r="191" spans="1:7" ht="25.35">
       <c r="A191" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B191" s="702" t="s">
+      <c r="B191" s="713" t="s">
         <v>459</v>
       </c>
-      <c r="C191" s="703"/>
-      <c r="D191" s="703"/>
-      <c r="E191" s="704" t="s">
+      <c r="C191" s="714"/>
+      <c r="D191" s="714"/>
+      <c r="E191" s="715" t="s">
         <v>460</v>
       </c>
-      <c r="F191" s="705"/>
-      <c r="G191" s="705"/>
+      <c r="F191" s="716"/>
+      <c r="G191" s="716"/>
     </row>
     <row r="192" spans="1:7" ht="14.35">
       <c r="B192" s="220" t="s">
@@ -60721,31 +60721,31 @@
       <c r="A208" s="196" t="s">
         <v>215</v>
       </c>
-      <c r="B208" s="702" t="s">
+      <c r="B208" s="713" t="s">
         <v>456</v>
       </c>
-      <c r="C208" s="703"/>
-      <c r="D208" s="703"/>
-      <c r="E208" s="704" t="s">
+      <c r="C208" s="714"/>
+      <c r="D208" s="714"/>
+      <c r="E208" s="715" t="s">
         <v>457</v>
       </c>
-      <c r="F208" s="705"/>
-      <c r="G208" s="705"/>
+      <c r="F208" s="716"/>
+      <c r="G208" s="716"/>
     </row>
     <row r="209" spans="1:7" ht="25.35">
       <c r="A209" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B209" s="702" t="s">
+      <c r="B209" s="713" t="s">
         <v>459</v>
       </c>
-      <c r="C209" s="703"/>
-      <c r="D209" s="703"/>
-      <c r="E209" s="704" t="s">
+      <c r="C209" s="714"/>
+      <c r="D209" s="714"/>
+      <c r="E209" s="715" t="s">
         <v>460</v>
       </c>
-      <c r="F209" s="705"/>
-      <c r="G209" s="705"/>
+      <c r="F209" s="716"/>
+      <c r="G209" s="716"/>
     </row>
     <row r="210" spans="1:7" ht="14.35">
       <c r="B210" s="220" t="s">
@@ -61009,31 +61009,31 @@
       <c r="A226" s="196" t="s">
         <v>218</v>
       </c>
-      <c r="B226" s="702" t="s">
+      <c r="B226" s="713" t="s">
         <v>456</v>
       </c>
-      <c r="C226" s="703"/>
-      <c r="D226" s="703"/>
-      <c r="E226" s="704" t="s">
+      <c r="C226" s="714"/>
+      <c r="D226" s="714"/>
+      <c r="E226" s="715" t="s">
         <v>457</v>
       </c>
-      <c r="F226" s="706"/>
-      <c r="G226" s="706"/>
+      <c r="F226" s="717"/>
+      <c r="G226" s="717"/>
     </row>
     <row r="227" spans="1:7" ht="27.35">
       <c r="A227" s="197" t="s">
         <v>476</v>
       </c>
-      <c r="B227" s="702" t="s">
+      <c r="B227" s="713" t="s">
         <v>459</v>
       </c>
-      <c r="C227" s="641"/>
-      <c r="D227" s="641"/>
-      <c r="E227" s="704" t="s">
+      <c r="C227" s="644"/>
+      <c r="D227" s="644"/>
+      <c r="E227" s="715" t="s">
         <v>460</v>
       </c>
-      <c r="F227" s="706"/>
-      <c r="G227" s="706"/>
+      <c r="F227" s="717"/>
+      <c r="G227" s="717"/>
     </row>
     <row r="228" spans="1:7" ht="14.35">
       <c r="A228" s="197"/>
@@ -61231,31 +61231,31 @@
       <c r="A240" s="196" t="s">
         <v>223</v>
       </c>
-      <c r="B240" s="702" t="s">
+      <c r="B240" s="713" t="s">
         <v>456</v>
       </c>
-      <c r="C240" s="703"/>
-      <c r="D240" s="703"/>
-      <c r="E240" s="704" t="s">
+      <c r="C240" s="714"/>
+      <c r="D240" s="714"/>
+      <c r="E240" s="715" t="s">
         <v>457</v>
       </c>
-      <c r="F240" s="706"/>
-      <c r="G240" s="706"/>
+      <c r="F240" s="717"/>
+      <c r="G240" s="717"/>
     </row>
     <row r="241" spans="1:7" ht="27.35">
       <c r="A241" s="197" t="s">
         <v>476</v>
       </c>
-      <c r="B241" s="702" t="s">
+      <c r="B241" s="713" t="s">
         <v>459</v>
       </c>
-      <c r="C241" s="641"/>
-      <c r="D241" s="641"/>
-      <c r="E241" s="704" t="s">
+      <c r="C241" s="644"/>
+      <c r="D241" s="644"/>
+      <c r="E241" s="715" t="s">
         <v>460</v>
       </c>
-      <c r="F241" s="706"/>
-      <c r="G241" s="706"/>
+      <c r="F241" s="717"/>
+      <c r="G241" s="717"/>
     </row>
     <row r="242" spans="1:7" ht="14.35">
       <c r="A242" s="197"/>
@@ -61514,18 +61514,46 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="B152:D152"/>
+    <mergeCell ref="E152:G152"/>
+    <mergeCell ref="B153:D153"/>
+    <mergeCell ref="E153:G153"/>
+    <mergeCell ref="B172:D172"/>
+    <mergeCell ref="E172:G172"/>
+    <mergeCell ref="B171:D171"/>
+    <mergeCell ref="E171:G171"/>
+    <mergeCell ref="B190:D190"/>
+    <mergeCell ref="E190:G190"/>
+    <mergeCell ref="B191:D191"/>
+    <mergeCell ref="E191:G191"/>
+    <mergeCell ref="B241:D241"/>
+    <mergeCell ref="E241:G241"/>
+    <mergeCell ref="B208:D208"/>
+    <mergeCell ref="E208:G208"/>
+    <mergeCell ref="B209:D209"/>
+    <mergeCell ref="E209:G209"/>
+    <mergeCell ref="B226:D226"/>
+    <mergeCell ref="E226:G226"/>
+    <mergeCell ref="B227:D227"/>
+    <mergeCell ref="E227:G227"/>
+    <mergeCell ref="B240:D240"/>
+    <mergeCell ref="E240:G240"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="E79:G79"/>
     <mergeCell ref="B137:D137"/>
     <mergeCell ref="E137:G137"/>
     <mergeCell ref="B124:D124"/>
@@ -61542,46 +61570,18 @@
     <mergeCell ref="E136:G136"/>
     <mergeCell ref="B123:D123"/>
     <mergeCell ref="E123:G123"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="B190:D190"/>
-    <mergeCell ref="E190:G190"/>
-    <mergeCell ref="B191:D191"/>
-    <mergeCell ref="E191:G191"/>
-    <mergeCell ref="B241:D241"/>
-    <mergeCell ref="E241:G241"/>
-    <mergeCell ref="B208:D208"/>
-    <mergeCell ref="E208:G208"/>
-    <mergeCell ref="B209:D209"/>
-    <mergeCell ref="E209:G209"/>
-    <mergeCell ref="B226:D226"/>
-    <mergeCell ref="E226:G226"/>
-    <mergeCell ref="B227:D227"/>
-    <mergeCell ref="E227:G227"/>
-    <mergeCell ref="B240:D240"/>
-    <mergeCell ref="E240:G240"/>
-    <mergeCell ref="B152:D152"/>
-    <mergeCell ref="E152:G152"/>
-    <mergeCell ref="B153:D153"/>
-    <mergeCell ref="E153:G153"/>
-    <mergeCell ref="B172:D172"/>
-    <mergeCell ref="E172:G172"/>
-    <mergeCell ref="B171:D171"/>
-    <mergeCell ref="E171:G171"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -62324,9 +62324,9 @@
       <c r="A1" s="722" t="s">
         <v>448</v>
       </c>
-      <c r="B1" s="698"/>
-      <c r="C1" s="698"/>
-      <c r="D1" s="698"/>
+      <c r="B1" s="688"/>
+      <c r="C1" s="688"/>
+      <c r="D1" s="688"/>
       <c r="E1" s="723" t="s">
         <v>449</v>
       </c>

--- a/microgrid_base/设备信息库各参数.xlsx
+++ b/microgrid_base/设备信息库各参数.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\works\jubilant-adventure2\microgrid_base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C71D85A-E26B-417B-9484-4500A75735D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AC4294-1432-4CF9-BF54-AAFBBF209995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="8180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6555,7 +6555,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6564,54 +6564,29 @@
     <xf numFmtId="0" fontId="65" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="67" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6626,13 +6601,47 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6650,17 +6659,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6679,8 +6679,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6689,17 +6726,8 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6713,35 +6741,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6771,15 +6780,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -8843,7 +8843,7 @@
       <c r="C15" s="370">
         <v>560</v>
       </c>
-      <c r="D15" s="635"/>
+      <c r="D15" s="644"/>
       <c r="E15" s="365"/>
       <c r="F15" s="363"/>
       <c r="G15" s="363"/>
@@ -8924,7 +8924,7 @@
       <c r="B21" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="638"/>
+      <c r="C21" s="639"/>
       <c r="D21" s="363"/>
       <c r="E21" s="363"/>
       <c r="F21" s="363"/>
@@ -9205,7 +9205,7 @@
       <c r="C41" s="375">
         <v>560</v>
       </c>
-      <c r="D41" s="639"/>
+      <c r="D41" s="635"/>
       <c r="E41" s="366"/>
       <c r="F41" s="363"/>
       <c r="G41" s="363"/>
@@ -9286,7 +9286,7 @@
       <c r="B47" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="638"/>
+      <c r="C47" s="639"/>
       <c r="D47" s="363"/>
       <c r="E47" s="363"/>
       <c r="F47" s="363"/>
@@ -9621,7 +9621,7 @@
       <c r="C71" s="370">
         <v>560</v>
       </c>
-      <c r="D71" s="639"/>
+      <c r="D71" s="635"/>
       <c r="E71" s="363"/>
       <c r="F71" s="363"/>
       <c r="G71" s="363"/>
@@ -9702,7 +9702,7 @@
       <c r="B77" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C77" s="638"/>
+      <c r="C77" s="639"/>
       <c r="D77" s="363"/>
       <c r="E77" s="363"/>
       <c r="F77" s="363"/>
@@ -9876,10 +9876,10 @@
       </c>
       <c r="E91" s="363"/>
       <c r="F91" s="363"/>
-      <c r="G91" s="640" t="s">
+      <c r="G91" s="642" t="s">
         <v>59</v>
       </c>
-      <c r="H91" s="641"/>
+      <c r="H91" s="643"/>
     </row>
     <row r="92" spans="1:8" ht="14.35">
       <c r="A92" s="363"/>
@@ -10007,7 +10007,7 @@
       <c r="C99" s="370">
         <v>560</v>
       </c>
-      <c r="D99" s="639"/>
+      <c r="D99" s="635"/>
       <c r="E99" s="363"/>
       <c r="F99" s="363"/>
       <c r="G99" s="363"/>
@@ -10088,7 +10088,7 @@
       <c r="B105" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C105" s="642"/>
+      <c r="C105" s="638"/>
       <c r="D105" s="363"/>
       <c r="E105" s="363"/>
       <c r="F105" s="363"/>
@@ -10387,7 +10387,7 @@
       <c r="C128" s="370">
         <v>560</v>
       </c>
-      <c r="D128" s="639"/>
+      <c r="D128" s="635"/>
       <c r="E128" s="363"/>
       <c r="F128" s="363"/>
       <c r="G128" s="363"/>
@@ -10468,7 +10468,7 @@
       <c r="B134" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C134" s="642"/>
+      <c r="C134" s="638"/>
       <c r="D134" s="363"/>
       <c r="E134" s="363"/>
       <c r="F134" s="363"/>
@@ -10741,7 +10741,7 @@
       <c r="C158" s="370">
         <v>560</v>
       </c>
-      <c r="D158" s="639"/>
+      <c r="D158" s="635"/>
       <c r="E158" s="363"/>
     </row>
     <row r="159" spans="1:8" ht="14.35">
@@ -10804,7 +10804,7 @@
       <c r="B164" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C164" s="642"/>
+      <c r="C164" s="638"/>
       <c r="D164" s="363"/>
       <c r="E164" s="363"/>
     </row>
@@ -10944,7 +10944,7 @@
       <c r="C179" s="375">
         <v>560</v>
       </c>
-      <c r="D179" s="639"/>
+      <c r="D179" s="635"/>
       <c r="E179" s="363"/>
       <c r="F179" s="363"/>
       <c r="G179" s="363"/>
@@ -11025,7 +11025,7 @@
       <c r="B185" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C185" s="638"/>
+      <c r="C185" s="639"/>
       <c r="D185" s="363"/>
       <c r="E185" s="363"/>
       <c r="F185" s="363"/>
@@ -11222,7 +11222,7 @@
       <c r="C201" s="375">
         <v>560</v>
       </c>
-      <c r="D201" s="639"/>
+      <c r="D201" s="635"/>
       <c r="E201" s="363"/>
       <c r="F201" s="363"/>
       <c r="G201" s="363"/>
@@ -11302,7 +11302,7 @@
       <c r="B207" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C207" s="638"/>
+      <c r="C207" s="639"/>
       <c r="D207" s="363"/>
       <c r="E207" s="363"/>
       <c r="F207" s="363"/>
@@ -11797,7 +11797,7 @@
       <c r="C242" s="370">
         <v>560</v>
       </c>
-      <c r="D242" s="639"/>
+      <c r="D242" s="635"/>
       <c r="E242" s="363"/>
       <c r="F242" s="363"/>
       <c r="G242" s="363"/>
@@ -11878,7 +11878,7 @@
       <c r="B248" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C248" s="642"/>
+      <c r="C248" s="638"/>
       <c r="D248" s="363"/>
       <c r="E248" s="363"/>
       <c r="F248" s="363"/>
@@ -12267,7 +12267,7 @@
       <c r="C278" s="370">
         <v>560</v>
       </c>
-      <c r="D278" s="639"/>
+      <c r="D278" s="635"/>
       <c r="E278" s="363"/>
       <c r="F278" s="363"/>
       <c r="G278" s="363"/>
@@ -12348,7 +12348,7 @@
       <c r="B284" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C284" s="642"/>
+      <c r="C284" s="638"/>
       <c r="D284" s="363"/>
       <c r="E284" s="363"/>
       <c r="F284" s="363"/>
@@ -12578,7 +12578,7 @@
       <c r="C304" s="370">
         <v>560</v>
       </c>
-      <c r="D304" s="639"/>
+      <c r="D304" s="635"/>
       <c r="E304" s="363"/>
       <c r="F304" s="363"/>
       <c r="G304" s="363"/>
@@ -12659,7 +12659,7 @@
       <c r="B310" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C310" s="642"/>
+      <c r="C310" s="638"/>
       <c r="D310" s="363"/>
       <c r="E310" s="363"/>
       <c r="F310" s="363"/>
@@ -12846,7 +12846,7 @@
       <c r="C327" s="370">
         <v>560</v>
       </c>
-      <c r="D327" s="639"/>
+      <c r="D327" s="635"/>
       <c r="E327" s="363"/>
       <c r="F327" s="363"/>
       <c r="G327" s="363"/>
@@ -12927,7 +12927,7 @@
       <c r="B333" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C333" s="642"/>
+      <c r="C333" s="638"/>
       <c r="D333" s="363"/>
       <c r="E333" s="363"/>
       <c r="F333" s="363"/>
@@ -13120,7 +13120,7 @@
       <c r="C349" s="370">
         <v>560</v>
       </c>
-      <c r="D349" s="639"/>
+      <c r="D349" s="635"/>
       <c r="F349" s="363"/>
       <c r="G349" s="363"/>
       <c r="H349" s="363"/>
@@ -13195,7 +13195,7 @@
       <c r="B355" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C355" s="642"/>
+      <c r="C355" s="638"/>
       <c r="D355" s="363"/>
       <c r="F355" s="363"/>
       <c r="G355" s="363"/>
@@ -13540,7 +13540,7 @@
       <c r="C383" s="370">
         <v>560</v>
       </c>
-      <c r="D383" s="639"/>
+      <c r="D383" s="635"/>
       <c r="E383" s="363"/>
       <c r="F383" s="363"/>
       <c r="G383" s="363"/>
@@ -13621,7 +13621,7 @@
       <c r="B389" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C389" s="642"/>
+      <c r="C389" s="638"/>
       <c r="D389" s="363"/>
       <c r="E389" s="363"/>
       <c r="F389" s="363"/>
@@ -13969,7 +13969,7 @@
       <c r="C418" s="370">
         <v>560</v>
       </c>
-      <c r="D418" s="639"/>
+      <c r="D418" s="635"/>
       <c r="E418" s="363"/>
       <c r="F418" s="363"/>
       <c r="G418" s="363"/>
@@ -14050,7 +14050,7 @@
       <c r="B424" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C424" s="642"/>
+      <c r="C424" s="638"/>
       <c r="D424" s="363"/>
       <c r="E424" s="363"/>
       <c r="F424" s="363"/>
@@ -14376,7 +14376,7 @@
       <c r="B451" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C451" s="642"/>
+      <c r="C451" s="638"/>
       <c r="D451" s="363"/>
       <c r="E451" s="363"/>
       <c r="F451" s="363"/>
@@ -14591,7 +14591,7 @@
       <c r="C469" s="370">
         <v>560</v>
       </c>
-      <c r="D469" s="639"/>
+      <c r="D469" s="635"/>
       <c r="E469" s="363"/>
       <c r="F469" s="363"/>
       <c r="G469" s="363"/>
@@ -14672,7 +14672,7 @@
       <c r="B475" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C475" s="642"/>
+      <c r="C475" s="638"/>
       <c r="D475" s="363"/>
       <c r="E475" s="363"/>
       <c r="F475" s="363"/>
@@ -14899,7 +14899,7 @@
       <c r="C494" s="370">
         <v>560</v>
       </c>
-      <c r="D494" s="639"/>
+      <c r="D494" s="635"/>
       <c r="E494" s="365" t="s">
         <v>684</v>
       </c>
@@ -14982,7 +14982,7 @@
       <c r="B500" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C500" s="642"/>
+      <c r="C500" s="638"/>
       <c r="D500" s="363"/>
       <c r="E500" s="363"/>
       <c r="F500" s="363"/>
@@ -15203,7 +15203,7 @@
       <c r="C519" s="370">
         <v>560</v>
       </c>
-      <c r="D519" s="639"/>
+      <c r="D519" s="635"/>
       <c r="E519" s="365" t="s">
         <v>686</v>
       </c>
@@ -15286,7 +15286,7 @@
       <c r="B525" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C525" s="642"/>
+      <c r="C525" s="638"/>
       <c r="D525" s="363"/>
       <c r="E525" s="363"/>
       <c r="F525" s="363"/>
@@ -15553,7 +15553,7 @@
       <c r="C547" s="370">
         <v>560</v>
       </c>
-      <c r="D547" s="639"/>
+      <c r="D547" s="635"/>
       <c r="E547" s="363"/>
       <c r="F547" s="363"/>
       <c r="G547" s="363"/>
@@ -15634,7 +15634,7 @@
       <c r="B553" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C553" s="642"/>
+      <c r="C553" s="638"/>
       <c r="D553" s="363"/>
       <c r="E553" s="363"/>
       <c r="F553" s="363"/>
@@ -15965,7 +15965,7 @@
       <c r="C580" s="370">
         <v>560</v>
       </c>
-      <c r="D580" s="639"/>
+      <c r="D580" s="635"/>
       <c r="E580" s="363"/>
       <c r="F580" s="363"/>
       <c r="G580" s="363"/>
@@ -16046,7 +16046,7 @@
       <c r="B586" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C586" s="642"/>
+      <c r="C586" s="638"/>
       <c r="D586" s="363"/>
       <c r="E586" s="363"/>
       <c r="F586" s="363"/>
@@ -16310,7 +16310,7 @@
       <c r="C608" s="370">
         <v>560</v>
       </c>
-      <c r="D608" s="639"/>
+      <c r="D608" s="635"/>
       <c r="E608" s="363"/>
       <c r="F608" s="363"/>
       <c r="G608" s="363"/>
@@ -16391,7 +16391,7 @@
       <c r="B614" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C614" s="642"/>
+      <c r="C614" s="638"/>
       <c r="D614" s="363"/>
       <c r="E614" s="363"/>
       <c r="F614" s="363"/>
@@ -16675,7 +16675,7 @@
       <c r="B637" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C637" s="642"/>
+      <c r="C637" s="638"/>
       <c r="D637" s="363"/>
       <c r="E637" s="363"/>
       <c r="F637" s="363"/>
@@ -16970,10 +16970,10 @@
     </row>
     <row r="660" spans="1:8" ht="14.35">
       <c r="A660" s="363"/>
-      <c r="B660" s="643" t="s">
+      <c r="B660" s="640" t="s">
         <v>34</v>
       </c>
-      <c r="C660" s="644"/>
+      <c r="C660" s="641"/>
       <c r="D660" s="363"/>
       <c r="E660" s="363"/>
       <c r="F660" s="363"/>
@@ -17272,10 +17272,10 @@
     </row>
     <row r="683" spans="1:8" ht="14.35">
       <c r="A683" s="363"/>
-      <c r="B683" s="643" t="s">
+      <c r="B683" s="640" t="s">
         <v>34</v>
       </c>
-      <c r="C683" s="644"/>
+      <c r="C683" s="641"/>
       <c r="D683" s="363"/>
       <c r="E683" s="363"/>
       <c r="F683" s="363"/>
@@ -17639,7 +17639,7 @@
       <c r="B711" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C711" s="642"/>
+      <c r="C711" s="638"/>
       <c r="D711" s="363"/>
       <c r="E711" s="363"/>
       <c r="F711" s="363"/>
@@ -17884,7 +17884,7 @@
       <c r="C729" s="370">
         <v>560</v>
       </c>
-      <c r="D729" s="639"/>
+      <c r="D729" s="635"/>
       <c r="E729" s="363"/>
       <c r="F729" s="363"/>
       <c r="G729" s="363"/>
@@ -17965,7 +17965,7 @@
       <c r="B735" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C735" s="642"/>
+      <c r="C735" s="638"/>
       <c r="D735" s="363"/>
       <c r="E735" s="363"/>
       <c r="F735" s="363"/>
@@ -18226,7 +18226,7 @@
       <c r="C756" s="370">
         <v>560</v>
       </c>
-      <c r="D756" s="639"/>
+      <c r="D756" s="635"/>
       <c r="E756" s="363"/>
       <c r="F756" s="363"/>
       <c r="G756" s="363"/>
@@ -18307,7 +18307,7 @@
       <c r="B762" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C762" s="642"/>
+      <c r="C762" s="638"/>
       <c r="D762" s="363"/>
       <c r="E762" s="363"/>
       <c r="F762" s="363"/>
@@ -18633,7 +18633,7 @@
       <c r="B789" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C789" s="638"/>
+      <c r="C789" s="639"/>
       <c r="D789" s="363"/>
       <c r="E789" s="363"/>
       <c r="F789" s="363"/>
@@ -18959,7 +18959,7 @@
       <c r="B816" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C816" s="638"/>
+      <c r="C816" s="639"/>
       <c r="D816" s="363"/>
       <c r="E816" s="363"/>
       <c r="F816" s="363"/>
@@ -19250,7 +19250,7 @@
       <c r="C839" s="375">
         <v>560</v>
       </c>
-      <c r="D839" s="639"/>
+      <c r="D839" s="635"/>
       <c r="E839" s="365"/>
       <c r="F839" s="363"/>
       <c r="G839" s="363"/>
@@ -19331,7 +19331,7 @@
       <c r="B845" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C845" s="638"/>
+      <c r="C845" s="639"/>
       <c r="D845" s="363"/>
       <c r="E845" s="363"/>
       <c r="F845" s="363"/>
@@ -19712,7 +19712,7 @@
       <c r="B876" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C876" s="638"/>
+      <c r="C876" s="639"/>
       <c r="D876" s="363"/>
       <c r="E876" s="363"/>
       <c r="F876" s="363"/>
@@ -20068,7 +20068,7 @@
       <c r="B907" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C907" s="638"/>
+      <c r="C907" s="639"/>
       <c r="D907" s="363"/>
       <c r="E907" s="363"/>
       <c r="F907" s="363"/>
@@ -20341,7 +20341,7 @@
       <c r="B931" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C931" s="638"/>
+      <c r="C931" s="639"/>
       <c r="D931" s="363"/>
       <c r="E931" s="363"/>
       <c r="F931" s="363"/>
@@ -20691,7 +20691,7 @@
       <c r="B958" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C958" s="638"/>
+      <c r="C958" s="639"/>
       <c r="D958" s="363"/>
       <c r="E958" s="363"/>
       <c r="F958" s="363"/>
@@ -20987,7 +20987,7 @@
       <c r="B981" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C981" s="638"/>
+      <c r="C981" s="639"/>
       <c r="D981" s="363"/>
       <c r="E981" s="363"/>
       <c r="F981" s="363"/>
@@ -21283,7 +21283,7 @@
       <c r="B1005" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1005" s="638"/>
+      <c r="C1005" s="639"/>
       <c r="D1005" s="363"/>
       <c r="E1005" s="363"/>
       <c r="F1005" s="363"/>
@@ -21479,7 +21479,7 @@
       <c r="B1024" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1024" s="638"/>
+      <c r="C1024" s="639"/>
       <c r="F1024" s="363"/>
       <c r="G1024" s="363"/>
       <c r="H1024" s="363"/>
@@ -21706,7 +21706,7 @@
       <c r="C1042" s="370">
         <v>560</v>
       </c>
-      <c r="D1042" s="639"/>
+      <c r="D1042" s="635"/>
       <c r="E1042" s="363"/>
       <c r="F1042" s="363"/>
       <c r="G1042" s="363"/>
@@ -21787,7 +21787,7 @@
       <c r="B1048" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1048" s="642"/>
+      <c r="C1048" s="638"/>
       <c r="D1048" s="363"/>
       <c r="E1048" s="363"/>
       <c r="F1048" s="363"/>
@@ -22053,7 +22053,7 @@
       <c r="B1070" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1070" s="638"/>
+      <c r="C1070" s="639"/>
       <c r="D1070" s="363"/>
       <c r="E1070" s="363"/>
       <c r="F1070" s="363"/>
@@ -22298,7 +22298,7 @@
       <c r="C1089" s="370">
         <v>560</v>
       </c>
-      <c r="D1089" s="639"/>
+      <c r="D1089" s="635"/>
       <c r="E1089" s="363"/>
       <c r="F1089" s="363"/>
       <c r="G1089" s="363"/>
@@ -22373,7 +22373,7 @@
       <c r="B1095" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1095" s="642"/>
+      <c r="C1095" s="638"/>
       <c r="D1095" s="363"/>
       <c r="E1095" s="363"/>
       <c r="F1095" s="363"/>
@@ -22649,7 +22649,7 @@
       <c r="C1120" s="370">
         <v>560</v>
       </c>
-      <c r="D1120" s="639"/>
+      <c r="D1120" s="635"/>
       <c r="E1120" s="363"/>
       <c r="F1120" s="363"/>
       <c r="G1120" s="363"/>
@@ -22726,7 +22726,7 @@
       <c r="B1126" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1126" s="642"/>
+      <c r="C1126" s="638"/>
       <c r="D1126" s="363"/>
       <c r="E1126" s="363"/>
       <c r="F1126" s="363"/>
@@ -23089,7 +23089,7 @@
       <c r="B1155" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1155" s="642"/>
+      <c r="C1155" s="638"/>
       <c r="D1155" s="363"/>
       <c r="E1155" s="363"/>
       <c r="F1155" s="363"/>
@@ -23198,6 +23198,61 @@
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D41:D46"/>
+    <mergeCell ref="D71:D75"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="D99:D103"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="D128:D132"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="D158:D162"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="D179:D184"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="D201:D206"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="D242:D246"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="D278:D282"/>
+    <mergeCell ref="B284:C284"/>
+    <mergeCell ref="D304:D308"/>
+    <mergeCell ref="B310:C310"/>
+    <mergeCell ref="D327:D331"/>
+    <mergeCell ref="B333:C333"/>
+    <mergeCell ref="D383:D387"/>
+    <mergeCell ref="B389:C389"/>
+    <mergeCell ref="D418:D422"/>
+    <mergeCell ref="B424:C424"/>
+    <mergeCell ref="B451:C451"/>
+    <mergeCell ref="D469:D473"/>
+    <mergeCell ref="B475:C475"/>
+    <mergeCell ref="D494:D498"/>
+    <mergeCell ref="B500:C500"/>
+    <mergeCell ref="D519:D523"/>
+    <mergeCell ref="B525:C525"/>
+    <mergeCell ref="D547:D551"/>
+    <mergeCell ref="B553:C553"/>
+    <mergeCell ref="D580:D584"/>
+    <mergeCell ref="B586:C586"/>
+    <mergeCell ref="D608:D612"/>
+    <mergeCell ref="B614:C614"/>
+    <mergeCell ref="B637:C637"/>
+    <mergeCell ref="B660:C660"/>
+    <mergeCell ref="B683:C683"/>
+    <mergeCell ref="B711:C711"/>
+    <mergeCell ref="D839:D844"/>
+    <mergeCell ref="B845:C845"/>
+    <mergeCell ref="B876:C876"/>
+    <mergeCell ref="B907:C907"/>
+    <mergeCell ref="D729:D733"/>
+    <mergeCell ref="B735:C735"/>
+    <mergeCell ref="D756:D760"/>
+    <mergeCell ref="B762:C762"/>
+    <mergeCell ref="B789:C789"/>
     <mergeCell ref="D1120:D1124"/>
     <mergeCell ref="B1126:C1126"/>
     <mergeCell ref="B1155:C1155"/>
@@ -23214,61 +23269,6 @@
     <mergeCell ref="B1005:C1005"/>
     <mergeCell ref="B1024:C1024"/>
     <mergeCell ref="B816:C816"/>
-    <mergeCell ref="D839:D844"/>
-    <mergeCell ref="B845:C845"/>
-    <mergeCell ref="B876:C876"/>
-    <mergeCell ref="B907:C907"/>
-    <mergeCell ref="D729:D733"/>
-    <mergeCell ref="B735:C735"/>
-    <mergeCell ref="D756:D760"/>
-    <mergeCell ref="B762:C762"/>
-    <mergeCell ref="B789:C789"/>
-    <mergeCell ref="B614:C614"/>
-    <mergeCell ref="B637:C637"/>
-    <mergeCell ref="B660:C660"/>
-    <mergeCell ref="B683:C683"/>
-    <mergeCell ref="B711:C711"/>
-    <mergeCell ref="D547:D551"/>
-    <mergeCell ref="B553:C553"/>
-    <mergeCell ref="D580:D584"/>
-    <mergeCell ref="B586:C586"/>
-    <mergeCell ref="D608:D612"/>
-    <mergeCell ref="B475:C475"/>
-    <mergeCell ref="D494:D498"/>
-    <mergeCell ref="B500:C500"/>
-    <mergeCell ref="D519:D523"/>
-    <mergeCell ref="B525:C525"/>
-    <mergeCell ref="B389:C389"/>
-    <mergeCell ref="D418:D422"/>
-    <mergeCell ref="B424:C424"/>
-    <mergeCell ref="B451:C451"/>
-    <mergeCell ref="D469:D473"/>
-    <mergeCell ref="D304:D308"/>
-    <mergeCell ref="B310:C310"/>
-    <mergeCell ref="D327:D331"/>
-    <mergeCell ref="B333:C333"/>
-    <mergeCell ref="D383:D387"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="D242:D246"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="D278:D282"/>
-    <mergeCell ref="B284:C284"/>
-    <mergeCell ref="D158:D162"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="D179:D184"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="D201:D206"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="D99:D103"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="D128:D132"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D41:D46"/>
-    <mergeCell ref="D71:D75"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23614,7 +23614,7 @@
       <c r="B20" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="638"/>
+      <c r="C20" s="639"/>
       <c r="D20" s="363"/>
       <c r="E20" s="363"/>
       <c r="F20" s="363"/>
@@ -23789,7 +23789,7 @@
         <v>29</v>
       </c>
       <c r="C36" s="375"/>
-      <c r="D36" s="650"/>
+      <c r="D36" s="645"/>
       <c r="E36" s="26"/>
       <c r="K36" s="10"/>
     </row>
@@ -23799,7 +23799,7 @@
         <v>45</v>
       </c>
       <c r="C37" s="370"/>
-      <c r="D37" s="651"/>
+      <c r="D37" s="646"/>
       <c r="E37" s="26"/>
       <c r="K37" s="10"/>
     </row>
@@ -23809,7 +23809,7 @@
         <v>30</v>
       </c>
       <c r="C38" s="370"/>
-      <c r="D38" s="651"/>
+      <c r="D38" s="646"/>
       <c r="E38" s="28"/>
       <c r="K38" s="10"/>
     </row>
@@ -23819,7 +23819,7 @@
         <v>31</v>
       </c>
       <c r="C39" s="370"/>
-      <c r="D39" s="651"/>
+      <c r="D39" s="646"/>
       <c r="E39" s="28"/>
       <c r="K39" s="10"/>
     </row>
@@ -23829,7 +23829,7 @@
         <v>32</v>
       </c>
       <c r="C40" s="370"/>
-      <c r="D40" s="651"/>
+      <c r="D40" s="646"/>
       <c r="E40" s="28"/>
       <c r="K40" s="10"/>
     </row>
@@ -23839,7 +23839,7 @@
         <v>876</v>
       </c>
       <c r="C41" s="370"/>
-      <c r="D41" s="651"/>
+      <c r="D41" s="646"/>
       <c r="E41" s="28"/>
       <c r="K41" s="10"/>
     </row>
@@ -23848,7 +23848,7 @@
       <c r="B42" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="638"/>
+      <c r="C42" s="639"/>
       <c r="D42" s="501"/>
       <c r="E42" s="28"/>
       <c r="K42" s="10"/>
@@ -24087,10 +24087,10 @@
     </row>
     <row r="61" spans="1:11" ht="14.35">
       <c r="A61" s="2"/>
-      <c r="B61" s="658" t="s">
+      <c r="B61" s="649" t="s">
         <v>34</v>
       </c>
-      <c r="C61" s="659"/>
+      <c r="C61" s="650"/>
       <c r="D61" s="8"/>
       <c r="E61" s="393"/>
       <c r="F61" s="2"/>
@@ -24276,10 +24276,10 @@
       <c r="D75" s="518" t="s">
         <v>58</v>
       </c>
-      <c r="E75" s="646" t="s">
+      <c r="E75" s="651" t="s">
         <v>59</v>
       </c>
-      <c r="F75" s="647"/>
+      <c r="F75" s="652"/>
       <c r="G75" s="520"/>
       <c r="H75" s="488"/>
       <c r="K75" s="10"/>
@@ -24376,7 +24376,7 @@
         <v>65</v>
       </c>
       <c r="C81" s="370"/>
-      <c r="D81" s="650"/>
+      <c r="D81" s="645"/>
       <c r="E81" s="525">
         <v>1</v>
       </c>
@@ -24393,7 +24393,7 @@
         <v>30</v>
       </c>
       <c r="C82" s="370"/>
-      <c r="D82" s="651"/>
+      <c r="D82" s="646"/>
       <c r="E82" s="526" t="s">
         <v>66</v>
       </c>
@@ -24408,7 +24408,7 @@
         <v>31</v>
       </c>
       <c r="C83" s="370"/>
-      <c r="D83" s="651"/>
+      <c r="D83" s="646"/>
       <c r="E83" s="527" t="s">
         <v>67</v>
       </c>
@@ -24423,7 +24423,7 @@
         <v>68</v>
       </c>
       <c r="C84" s="499"/>
-      <c r="D84" s="651"/>
+      <c r="D84" s="646"/>
       <c r="E84" s="363"/>
       <c r="F84" s="363"/>
       <c r="G84" s="363"/>
@@ -24435,7 +24435,7 @@
       <c r="B85" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C85" s="638"/>
+      <c r="C85" s="639"/>
       <c r="D85" s="363"/>
       <c r="E85" s="363"/>
       <c r="F85" s="363"/>
@@ -24542,8 +24542,8 @@
       <c r="D94" s="373"/>
       <c r="E94" s="363"/>
       <c r="F94" s="363"/>
-      <c r="G94" s="640"/>
-      <c r="H94" s="641"/>
+      <c r="G94" s="642"/>
+      <c r="H94" s="643"/>
       <c r="K94" s="10"/>
     </row>
     <row r="95" spans="1:11" ht="14.35">
@@ -24567,10 +24567,10 @@
       <c r="C96" s="399" t="s">
         <v>57</v>
       </c>
-      <c r="D96" s="648" t="s">
+      <c r="D96" s="653" t="s">
         <v>59</v>
       </c>
-      <c r="E96" s="647"/>
+      <c r="E96" s="652"/>
       <c r="F96" s="363"/>
       <c r="G96" s="410"/>
       <c r="H96" s="409"/>
@@ -24716,10 +24716,10 @@
     </row>
     <row r="106" spans="1:11" ht="14.35">
       <c r="A106" s="363"/>
-      <c r="B106" s="652" t="s">
+      <c r="B106" s="655" t="s">
         <v>34</v>
       </c>
-      <c r="C106" s="653"/>
+      <c r="C106" s="656"/>
       <c r="E106" s="363"/>
       <c r="F106" s="363"/>
       <c r="G106" s="363"/>
@@ -24838,7 +24838,7 @@
       </c>
       <c r="C116" s="401"/>
       <c r="D116" s="365"/>
-      <c r="E116" s="649" t="s">
+      <c r="E116" s="654" t="s">
         <v>59</v>
       </c>
       <c r="F116" s="633"/>
@@ -25005,7 +25005,7 @@
       <c r="B127" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C127" s="642"/>
+      <c r="C127" s="638"/>
       <c r="D127" s="363"/>
       <c r="E127" s="363"/>
       <c r="F127" s="363"/>
@@ -25283,7 +25283,7 @@
       <c r="B153" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C153" s="642"/>
+      <c r="C153" s="638"/>
       <c r="D153" s="363"/>
       <c r="E153" s="363"/>
       <c r="H153" s="10"/>
@@ -25483,7 +25483,7 @@
       <c r="B171" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C171" s="638"/>
+      <c r="C171" s="639"/>
       <c r="D171" s="363"/>
       <c r="E171" s="363"/>
       <c r="F171" s="363"/>
@@ -25716,7 +25716,7 @@
       <c r="B189" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C189" s="638"/>
+      <c r="C189" s="639"/>
       <c r="D189" s="363"/>
       <c r="E189" s="363"/>
       <c r="F189" s="363"/>
@@ -25942,7 +25942,7 @@
       <c r="B207" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C207" s="642"/>
+      <c r="C207" s="638"/>
       <c r="D207" s="363"/>
       <c r="E207" s="363"/>
       <c r="F207" s="363"/>
@@ -26127,7 +26127,7 @@
       <c r="B223" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C223" s="642"/>
+      <c r="C223" s="638"/>
       <c r="D223" s="363"/>
       <c r="F223" s="2"/>
       <c r="G223" s="2"/>
@@ -26492,7 +26492,7 @@
         <v>143</v>
       </c>
       <c r="C249" s="370"/>
-      <c r="D249" s="654"/>
+      <c r="D249" s="657"/>
       <c r="E249" s="363"/>
       <c r="F249" s="363"/>
       <c r="G249" s="363"/>
@@ -26505,7 +26505,7 @@
         <v>144</v>
       </c>
       <c r="C250" s="370"/>
-      <c r="D250" s="655"/>
+      <c r="D250" s="658"/>
       <c r="E250" s="363"/>
       <c r="F250" s="363"/>
       <c r="G250" s="363"/>
@@ -26518,7 +26518,7 @@
         <v>30</v>
       </c>
       <c r="C251" s="370"/>
-      <c r="D251" s="655"/>
+      <c r="D251" s="658"/>
       <c r="E251" s="363"/>
       <c r="F251" s="363"/>
       <c r="G251" s="363"/>
@@ -26531,7 +26531,7 @@
         <v>31</v>
       </c>
       <c r="C252" s="370"/>
-      <c r="D252" s="655"/>
+      <c r="D252" s="658"/>
       <c r="E252" s="363"/>
       <c r="F252" s="363"/>
       <c r="G252" s="363"/>
@@ -26544,7 +26544,7 @@
         <v>145</v>
       </c>
       <c r="C253" s="370"/>
-      <c r="D253" s="655"/>
+      <c r="D253" s="658"/>
       <c r="E253" s="363"/>
       <c r="F253" s="363"/>
       <c r="G253" s="363"/>
@@ -26569,7 +26569,7 @@
       <c r="B255" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C255" s="638"/>
+      <c r="C255" s="639"/>
       <c r="D255" s="363"/>
       <c r="E255" s="363"/>
       <c r="F255" s="363"/>
@@ -26995,7 +26995,7 @@
         <v>143</v>
       </c>
       <c r="C285" s="370"/>
-      <c r="D285" s="650"/>
+      <c r="D285" s="645"/>
       <c r="E285" s="563"/>
       <c r="F285" s="562"/>
       <c r="G285" s="363"/>
@@ -27008,7 +27008,7 @@
         <v>144</v>
       </c>
       <c r="C286" s="370"/>
-      <c r="D286" s="651"/>
+      <c r="D286" s="646"/>
       <c r="E286" s="563"/>
       <c r="F286" s="562"/>
       <c r="G286" s="363"/>
@@ -27021,7 +27021,7 @@
         <v>30</v>
       </c>
       <c r="C287" s="370"/>
-      <c r="D287" s="651"/>
+      <c r="D287" s="646"/>
       <c r="E287" s="563"/>
       <c r="F287" s="562"/>
       <c r="G287" s="363"/>
@@ -27034,7 +27034,7 @@
         <v>31</v>
       </c>
       <c r="C288" s="370"/>
-      <c r="D288" s="651"/>
+      <c r="D288" s="646"/>
       <c r="E288" s="563"/>
       <c r="F288" s="562"/>
       <c r="G288" s="363"/>
@@ -27047,7 +27047,7 @@
         <v>145</v>
       </c>
       <c r="C289" s="370"/>
-      <c r="D289" s="651"/>
+      <c r="D289" s="646"/>
       <c r="E289" s="563"/>
       <c r="F289" s="562"/>
       <c r="G289" s="363"/>
@@ -27072,7 +27072,7 @@
       <c r="B291" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C291" s="638"/>
+      <c r="C291" s="639"/>
       <c r="D291" s="501"/>
       <c r="E291" s="363"/>
       <c r="F291" s="363"/>
@@ -27253,7 +27253,7 @@
         <v>143</v>
       </c>
       <c r="C305" s="370"/>
-      <c r="D305" s="650"/>
+      <c r="D305" s="645"/>
       <c r="F305" s="363"/>
       <c r="G305" s="363"/>
       <c r="H305" s="488"/>
@@ -27265,7 +27265,7 @@
         <v>144</v>
       </c>
       <c r="C306" s="370"/>
-      <c r="D306" s="651"/>
+      <c r="D306" s="646"/>
       <c r="F306" s="363"/>
       <c r="G306" s="363"/>
       <c r="H306" s="488"/>
@@ -27277,7 +27277,7 @@
         <v>30</v>
       </c>
       <c r="C307" s="370"/>
-      <c r="D307" s="651"/>
+      <c r="D307" s="646"/>
       <c r="F307" s="363"/>
       <c r="G307" s="363"/>
       <c r="H307" s="488"/>
@@ -27289,7 +27289,7 @@
         <v>31</v>
       </c>
       <c r="C308" s="370"/>
-      <c r="D308" s="651"/>
+      <c r="D308" s="646"/>
       <c r="F308" s="363"/>
       <c r="G308" s="363"/>
       <c r="H308" s="488"/>
@@ -27301,7 +27301,7 @@
         <v>145</v>
       </c>
       <c r="C309" s="370"/>
-      <c r="D309" s="651"/>
+      <c r="D309" s="646"/>
       <c r="F309" s="363"/>
       <c r="G309" s="363"/>
       <c r="H309" s="488"/>
@@ -27324,7 +27324,7 @@
       <c r="B311" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C311" s="638"/>
+      <c r="C311" s="639"/>
       <c r="D311" s="501"/>
       <c r="F311" s="363"/>
       <c r="G311" s="363"/>
@@ -27587,10 +27587,10 @@
     </row>
     <row r="333" spans="1:11" ht="14.35">
       <c r="A333" s="2"/>
-      <c r="B333" s="656" t="s">
+      <c r="B333" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C333" s="657"/>
+      <c r="C333" s="648"/>
       <c r="D333" s="2"/>
       <c r="F333" s="363"/>
       <c r="G333" s="2"/>
@@ -27799,7 +27799,7 @@
       <c r="B351" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C351" s="642"/>
+      <c r="C351" s="638"/>
       <c r="F351" s="2"/>
       <c r="G351" s="2"/>
       <c r="H351" s="8"/>
@@ -28339,10 +28339,10 @@
     </row>
     <row r="388" spans="1:11" ht="14.7">
       <c r="A388" s="2"/>
-      <c r="B388" s="645" t="s">
+      <c r="B388" s="659" t="s">
         <v>34</v>
       </c>
-      <c r="C388" s="644"/>
+      <c r="C388" s="641"/>
       <c r="D388" s="97"/>
       <c r="F388" s="2"/>
       <c r="G388" s="2"/>
@@ -28914,10 +28914,10 @@
     </row>
     <row r="425" spans="1:11" ht="14.7">
       <c r="A425" s="2"/>
-      <c r="B425" s="645" t="s">
+      <c r="B425" s="659" t="s">
         <v>34</v>
       </c>
-      <c r="C425" s="644"/>
+      <c r="C425" s="641"/>
       <c r="D425" s="97"/>
       <c r="E425" s="97"/>
       <c r="F425" s="2"/>
@@ -29469,10 +29469,10 @@
     </row>
     <row r="461" spans="1:11" ht="14.7">
       <c r="A461" s="2"/>
-      <c r="B461" s="645" t="s">
+      <c r="B461" s="659" t="s">
         <v>34</v>
       </c>
-      <c r="C461" s="644"/>
+      <c r="C461" s="641"/>
       <c r="D461" s="97"/>
       <c r="E461" s="97"/>
       <c r="F461" s="97"/>
@@ -30020,10 +30020,10 @@
     </row>
     <row r="497" spans="1:11" ht="14.7">
       <c r="A497" s="2"/>
-      <c r="B497" s="645" t="s">
+      <c r="B497" s="659" t="s">
         <v>34</v>
       </c>
-      <c r="C497" s="644"/>
+      <c r="C497" s="641"/>
       <c r="D497" s="97"/>
       <c r="E497" s="97"/>
       <c r="F497" s="97"/>
@@ -30915,10 +30915,10 @@
     </row>
     <row r="552" spans="1:11" ht="14.7">
       <c r="A552" s="2"/>
-      <c r="B552" s="645" t="s">
+      <c r="B552" s="659" t="s">
         <v>34</v>
       </c>
-      <c r="C552" s="644"/>
+      <c r="C552" s="641"/>
       <c r="D552" s="97"/>
       <c r="E552" s="97"/>
       <c r="F552" s="97"/>
@@ -31345,7 +31345,7 @@
       <c r="B590" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C590" s="642"/>
+      <c r="C590" s="638"/>
       <c r="D590" s="363"/>
       <c r="E590" s="363"/>
       <c r="F590" s="363"/>
@@ -31560,7 +31560,7 @@
       <c r="B607" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C607" s="642"/>
+      <c r="C607" s="638"/>
       <c r="D607" s="363"/>
       <c r="E607" s="363"/>
       <c r="F607" s="363"/>
@@ -31756,7 +31756,7 @@
       <c r="B623" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C623" s="638"/>
+      <c r="C623" s="639"/>
       <c r="D623" s="590"/>
       <c r="E623" s="363"/>
       <c r="F623" s="363"/>
@@ -31971,7 +31971,7 @@
       <c r="B640" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C640" s="642"/>
+      <c r="C640" s="638"/>
       <c r="D640" s="363"/>
       <c r="E640" s="363"/>
       <c r="F640" s="363"/>
@@ -32154,7 +32154,7 @@
       <c r="B655" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C655" s="638"/>
+      <c r="C655" s="639"/>
       <c r="D655" s="363"/>
       <c r="E655" s="363"/>
       <c r="F655" s="363"/>
@@ -32360,10 +32360,10 @@
     </row>
     <row r="672" spans="1:11" ht="14.35">
       <c r="A672" s="363"/>
-      <c r="B672" s="643" t="s">
+      <c r="B672" s="640" t="s">
         <v>34</v>
       </c>
-      <c r="C672" s="644"/>
+      <c r="C672" s="641"/>
       <c r="D672" s="363"/>
       <c r="E672" s="363"/>
       <c r="F672" s="363"/>
@@ -32551,10 +32551,10 @@
     </row>
     <row r="687" spans="1:11" ht="14.35">
       <c r="A687" s="363"/>
-      <c r="B687" s="643" t="s">
+      <c r="B687" s="640" t="s">
         <v>34</v>
       </c>
-      <c r="C687" s="644"/>
+      <c r="C687" s="641"/>
       <c r="D687" s="363"/>
       <c r="E687" s="363"/>
       <c r="F687" s="363"/>
@@ -32831,7 +32831,7 @@
       <c r="B710" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C710" s="642"/>
+      <c r="C710" s="638"/>
       <c r="D710" s="363"/>
       <c r="E710" s="363"/>
       <c r="F710" s="363"/>
@@ -33033,7 +33033,7 @@
       <c r="B726" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C726" s="642"/>
+      <c r="C726" s="638"/>
       <c r="D726" s="363"/>
       <c r="E726" s="363"/>
       <c r="F726" s="363"/>
@@ -33264,7 +33264,7 @@
       <c r="B745" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C745" s="642"/>
+      <c r="C745" s="638"/>
       <c r="D745" s="363"/>
       <c r="E745" s="363"/>
       <c r="F745" s="363"/>
@@ -33553,7 +33553,7 @@
       <c r="B768" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C768" s="638"/>
+      <c r="C768" s="639"/>
       <c r="D768" s="363"/>
       <c r="E768" s="363"/>
       <c r="F768" s="363"/>
@@ -33835,7 +33835,7 @@
       <c r="B790" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C790" s="638"/>
+      <c r="C790" s="639"/>
       <c r="D790" s="363"/>
       <c r="E790" s="363"/>
       <c r="F790" s="363"/>
@@ -34146,7 +34146,7 @@
       <c r="B815" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C815" s="638"/>
+      <c r="C815" s="639"/>
       <c r="D815" s="605"/>
       <c r="E815" s="363"/>
       <c r="F815" s="363"/>
@@ -34454,7 +34454,7 @@
       <c r="B840" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C840" s="638"/>
+      <c r="C840" s="639"/>
       <c r="D840" s="363"/>
       <c r="E840" s="363"/>
       <c r="F840" s="363"/>
@@ -34763,7 +34763,7 @@
       <c r="B866" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C866" s="638"/>
+      <c r="C866" s="639"/>
       <c r="D866" s="363"/>
       <c r="E866" s="363"/>
       <c r="F866" s="363"/>
@@ -34996,7 +34996,7 @@
       <c r="B886" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C886" s="638"/>
+      <c r="C886" s="639"/>
       <c r="D886" s="363"/>
       <c r="E886" s="363"/>
       <c r="F886" s="363"/>
@@ -35276,7 +35276,7 @@
       <c r="B908" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C908" s="638"/>
+      <c r="C908" s="639"/>
       <c r="D908" s="363"/>
       <c r="E908" s="363"/>
       <c r="F908" s="363"/>
@@ -35523,7 +35523,7 @@
       <c r="B927" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C927" s="638"/>
+      <c r="C927" s="639"/>
       <c r="D927" s="363"/>
       <c r="E927" s="363"/>
       <c r="F927" s="363"/>
@@ -35766,7 +35766,7 @@
       <c r="B946" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C946" s="638"/>
+      <c r="C946" s="639"/>
       <c r="D946" s="363"/>
       <c r="E946" s="363"/>
       <c r="F946" s="363"/>
@@ -35910,7 +35910,7 @@
       <c r="B960" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C960" s="638"/>
+      <c r="C960" s="639"/>
       <c r="F960" s="363"/>
       <c r="G960" s="363"/>
       <c r="H960" s="488"/>
@@ -36160,7 +36160,7 @@
       <c r="B980" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C980" s="642"/>
+      <c r="C980" s="638"/>
       <c r="D980" s="363"/>
       <c r="E980" s="363"/>
       <c r="F980" s="363"/>
@@ -36365,7 +36365,7 @@
       <c r="B997" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C997" s="638"/>
+      <c r="C997" s="639"/>
       <c r="D997" s="363"/>
       <c r="E997" s="363"/>
       <c r="F997" s="363"/>
@@ -36611,7 +36611,7 @@
       <c r="B1017" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1017" s="642"/>
+      <c r="C1017" s="638"/>
       <c r="D1017" s="363"/>
       <c r="E1017" s="363"/>
       <c r="F1017" s="363"/>
@@ -36875,7 +36875,7 @@
       <c r="B1039" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1039" s="642"/>
+      <c r="C1039" s="638"/>
       <c r="D1039" s="363"/>
       <c r="E1039" s="363"/>
       <c r="F1039" s="363"/>
@@ -37174,7 +37174,7 @@
       <c r="B1062" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1062" s="642"/>
+      <c r="C1062" s="638"/>
       <c r="D1062" s="363"/>
       <c r="E1062" s="363"/>
       <c r="F1062" s="363"/>
@@ -37198,30 +37198,21 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="B333:C333"/>
-    <mergeCell ref="B351:C351"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B311:C311"/>
-    <mergeCell ref="D36:D41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="D305:D309"/>
-    <mergeCell ref="B223:C223"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="D249:D253"/>
-    <mergeCell ref="B255:C255"/>
-    <mergeCell ref="D285:D289"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="B189:C189"/>
-    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="B590:C590"/>
+    <mergeCell ref="B710:C710"/>
+    <mergeCell ref="B726:C726"/>
+    <mergeCell ref="B745:C745"/>
+    <mergeCell ref="B768:C768"/>
+    <mergeCell ref="B790:C790"/>
+    <mergeCell ref="B815:C815"/>
+    <mergeCell ref="B840:C840"/>
+    <mergeCell ref="B866:C866"/>
+    <mergeCell ref="B886:C886"/>
+    <mergeCell ref="B908:C908"/>
+    <mergeCell ref="B927:C927"/>
+    <mergeCell ref="B946:C946"/>
+    <mergeCell ref="B960:C960"/>
+    <mergeCell ref="B980:C980"/>
     <mergeCell ref="B997:C997"/>
     <mergeCell ref="B1017:C1017"/>
     <mergeCell ref="B1039:C1039"/>
@@ -37238,21 +37229,30 @@
     <mergeCell ref="B655:C655"/>
     <mergeCell ref="B672:C672"/>
     <mergeCell ref="B687:C687"/>
-    <mergeCell ref="B908:C908"/>
-    <mergeCell ref="B927:C927"/>
-    <mergeCell ref="B946:C946"/>
-    <mergeCell ref="B960:C960"/>
-    <mergeCell ref="B980:C980"/>
-    <mergeCell ref="B790:C790"/>
-    <mergeCell ref="B815:C815"/>
-    <mergeCell ref="B840:C840"/>
-    <mergeCell ref="B866:C866"/>
-    <mergeCell ref="B886:C886"/>
-    <mergeCell ref="B590:C590"/>
-    <mergeCell ref="B710:C710"/>
-    <mergeCell ref="B726:C726"/>
-    <mergeCell ref="B745:C745"/>
-    <mergeCell ref="B768:C768"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="D305:D309"/>
+    <mergeCell ref="B223:C223"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="D249:D253"/>
+    <mergeCell ref="B255:C255"/>
+    <mergeCell ref="D285:D289"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="B333:C333"/>
+    <mergeCell ref="B351:C351"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B311:C311"/>
+    <mergeCell ref="D36:D41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B61:C61"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37594,10 +37594,10 @@
     </row>
     <row r="20" spans="1:11" ht="14.35">
       <c r="A20" s="2"/>
-      <c r="B20" s="656" t="s">
+      <c r="B20" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="659"/>
+      <c r="C20" s="650"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -37770,7 +37770,7 @@
         <v>29</v>
       </c>
       <c r="C36" s="14"/>
-      <c r="D36" s="660"/>
+      <c r="D36" s="661"/>
       <c r="E36" s="26"/>
       <c r="K36" s="10"/>
     </row>
@@ -37780,7 +37780,7 @@
         <v>45</v>
       </c>
       <c r="C37" s="11"/>
-      <c r="D37" s="661"/>
+      <c r="D37" s="662"/>
       <c r="E37" s="26"/>
       <c r="K37" s="10"/>
     </row>
@@ -37790,7 +37790,7 @@
         <v>30</v>
       </c>
       <c r="C38" s="11"/>
-      <c r="D38" s="661"/>
+      <c r="D38" s="662"/>
       <c r="E38" s="28"/>
       <c r="K38" s="10"/>
     </row>
@@ -37800,7 +37800,7 @@
         <v>31</v>
       </c>
       <c r="C39" s="11"/>
-      <c r="D39" s="661"/>
+      <c r="D39" s="662"/>
       <c r="E39" s="28"/>
       <c r="K39" s="10"/>
     </row>
@@ -37810,7 +37810,7 @@
         <v>32</v>
       </c>
       <c r="C40" s="11"/>
-      <c r="D40" s="661"/>
+      <c r="D40" s="662"/>
       <c r="E40" s="28"/>
       <c r="K40" s="10"/>
     </row>
@@ -37820,16 +37820,16 @@
         <v>876</v>
       </c>
       <c r="C41" s="11"/>
-      <c r="D41" s="661"/>
+      <c r="D41" s="662"/>
       <c r="E41" s="28"/>
       <c r="K41" s="10"/>
     </row>
     <row r="42" spans="1:11" ht="14.35">
       <c r="A42" s="2"/>
-      <c r="B42" s="656" t="s">
+      <c r="B42" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="659"/>
+      <c r="C42" s="650"/>
       <c r="D42" s="28"/>
       <c r="E42" s="28"/>
       <c r="K42" s="10"/>
@@ -38068,10 +38068,10 @@
     </row>
     <row r="61" spans="1:11" ht="14.35">
       <c r="A61" s="2"/>
-      <c r="B61" s="656" t="s">
+      <c r="B61" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C61" s="659"/>
+      <c r="C61" s="650"/>
       <c r="D61" s="8"/>
       <c r="E61" s="23"/>
       <c r="F61" s="2"/>
@@ -38255,10 +38255,10 @@
       <c r="D75" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="E75" s="662" t="s">
+      <c r="E75" s="671" t="s">
         <v>59</v>
       </c>
-      <c r="F75" s="647"/>
+      <c r="F75" s="652"/>
       <c r="G75" s="44"/>
       <c r="H75" s="8"/>
       <c r="K75" s="10"/>
@@ -38356,7 +38356,7 @@
         <v>65</v>
       </c>
       <c r="C81" s="11"/>
-      <c r="D81" s="660"/>
+      <c r="D81" s="661"/>
       <c r="E81" s="49">
         <v>1</v>
       </c>
@@ -38373,7 +38373,7 @@
         <v>30</v>
       </c>
       <c r="C82" s="11"/>
-      <c r="D82" s="661"/>
+      <c r="D82" s="662"/>
       <c r="E82" s="29" t="s">
         <v>66</v>
       </c>
@@ -38388,7 +38388,7 @@
         <v>31</v>
       </c>
       <c r="C83" s="11"/>
-      <c r="D83" s="661"/>
+      <c r="D83" s="662"/>
       <c r="E83" s="29" t="s">
         <v>67</v>
       </c>
@@ -38403,7 +38403,7 @@
         <v>68</v>
       </c>
       <c r="C84" s="24"/>
-      <c r="D84" s="661"/>
+      <c r="D84" s="662"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
@@ -38412,10 +38412,10 @@
     </row>
     <row r="85" spans="1:11" ht="14.35">
       <c r="A85" s="2"/>
-      <c r="B85" s="656" t="s">
+      <c r="B85" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C85" s="659"/>
+      <c r="C85" s="650"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
@@ -38520,8 +38520,8 @@
       <c r="D94" s="37"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
-      <c r="G94" s="663"/>
-      <c r="H94" s="664"/>
+      <c r="G94" s="666"/>
+      <c r="H94" s="667"/>
       <c r="K94" s="10"/>
     </row>
     <row r="95" spans="1:11" ht="14.35">
@@ -38545,10 +38545,10 @@
       <c r="C96" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="D96" s="665" t="s">
+      <c r="D96" s="668" t="s">
         <v>59</v>
       </c>
-      <c r="E96" s="647"/>
+      <c r="E96" s="652"/>
       <c r="F96" s="2"/>
       <c r="G96" s="54"/>
       <c r="H96" s="12"/>
@@ -38694,10 +38694,10 @@
     </row>
     <row r="106" spans="1:11" ht="14.35">
       <c r="A106" s="2"/>
-      <c r="B106" s="666" t="s">
+      <c r="B106" s="669" t="s">
         <v>34</v>
       </c>
-      <c r="C106" s="667"/>
+      <c r="C106" s="670"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
@@ -38816,7 +38816,7 @@
         <v>80</v>
       </c>
       <c r="D116" s="23"/>
-      <c r="E116" s="668" t="s">
+      <c r="E116" s="665" t="s">
         <v>59</v>
       </c>
       <c r="F116" s="633"/>
@@ -39023,10 +39023,10 @@
     </row>
     <row r="130" spans="1:11" ht="14.35">
       <c r="A130" s="2"/>
-      <c r="B130" s="656" t="s">
+      <c r="B130" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C130" s="657"/>
+      <c r="C130" s="648"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
@@ -39313,10 +39313,10 @@
     </row>
     <row r="156" spans="1:11" ht="14.35">
       <c r="A156" s="2"/>
-      <c r="B156" s="656" t="s">
+      <c r="B156" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C156" s="657"/>
+      <c r="C156" s="648"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
       <c r="H156" s="10"/>
@@ -39511,10 +39511,10 @@
     </row>
     <row r="174" spans="1:11" ht="14.35">
       <c r="A174" s="2"/>
-      <c r="B174" s="656" t="s">
+      <c r="B174" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C174" s="659"/>
+      <c r="C174" s="650"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
@@ -39742,10 +39742,10 @@
     </row>
     <row r="192" spans="1:11" ht="14.35">
       <c r="A192" s="2"/>
-      <c r="B192" s="656" t="s">
+      <c r="B192" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C192" s="659"/>
+      <c r="C192" s="650"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
@@ -40073,10 +40073,10 @@
     </row>
     <row r="217" spans="1:11" ht="14.35">
       <c r="A217" s="2"/>
-      <c r="B217" s="656" t="s">
+      <c r="B217" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C217" s="657"/>
+      <c r="C217" s="648"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
@@ -40382,10 +40382,10 @@
     </row>
     <row r="242" spans="1:11" ht="14.35">
       <c r="A242" s="2"/>
-      <c r="B242" s="656" t="s">
+      <c r="B242" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C242" s="657"/>
+      <c r="C242" s="648"/>
       <c r="D242" s="2"/>
       <c r="F242" s="2"/>
       <c r="G242" s="2"/>
@@ -40748,7 +40748,7 @@
         <v>143</v>
       </c>
       <c r="C268" s="11"/>
-      <c r="D268" s="669"/>
+      <c r="D268" s="663"/>
       <c r="E268" s="2"/>
       <c r="F268" s="2"/>
       <c r="G268" s="2"/>
@@ -40761,7 +40761,7 @@
         <v>144</v>
       </c>
       <c r="C269" s="11"/>
-      <c r="D269" s="670"/>
+      <c r="D269" s="664"/>
       <c r="E269" s="2"/>
       <c r="F269" s="2"/>
       <c r="G269" s="2"/>
@@ -40774,7 +40774,7 @@
         <v>30</v>
       </c>
       <c r="C270" s="11"/>
-      <c r="D270" s="670"/>
+      <c r="D270" s="664"/>
       <c r="E270" s="2"/>
       <c r="F270" s="2"/>
       <c r="G270" s="2"/>
@@ -40787,7 +40787,7 @@
         <v>31</v>
       </c>
       <c r="C271" s="11"/>
-      <c r="D271" s="670"/>
+      <c r="D271" s="664"/>
       <c r="E271" s="2"/>
       <c r="F271" s="2"/>
       <c r="G271" s="2"/>
@@ -40800,7 +40800,7 @@
         <v>145</v>
       </c>
       <c r="C272" s="11"/>
-      <c r="D272" s="670"/>
+      <c r="D272" s="664"/>
       <c r="E272" s="2"/>
       <c r="F272" s="2"/>
       <c r="G272" s="2"/>
@@ -40822,10 +40822,10 @@
     </row>
     <row r="274" spans="1:11" ht="14.35">
       <c r="A274" s="2"/>
-      <c r="B274" s="656" t="s">
+      <c r="B274" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C274" s="659"/>
+      <c r="C274" s="650"/>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
       <c r="F274" s="2"/>
@@ -41249,7 +41249,7 @@
         <v>143</v>
       </c>
       <c r="C304" s="11"/>
-      <c r="D304" s="660"/>
+      <c r="D304" s="661"/>
       <c r="E304" s="84"/>
       <c r="F304" s="85"/>
       <c r="G304" s="2"/>
@@ -41262,7 +41262,7 @@
         <v>144</v>
       </c>
       <c r="C305" s="11"/>
-      <c r="D305" s="661"/>
+      <c r="D305" s="662"/>
       <c r="E305" s="84"/>
       <c r="F305" s="85"/>
       <c r="G305" s="2"/>
@@ -41275,7 +41275,7 @@
         <v>30</v>
       </c>
       <c r="C306" s="11"/>
-      <c r="D306" s="661"/>
+      <c r="D306" s="662"/>
       <c r="E306" s="84"/>
       <c r="F306" s="85"/>
       <c r="G306" s="2"/>
@@ -41288,7 +41288,7 @@
         <v>31</v>
       </c>
       <c r="C307" s="11"/>
-      <c r="D307" s="661"/>
+      <c r="D307" s="662"/>
       <c r="E307" s="84"/>
       <c r="F307" s="85"/>
       <c r="G307" s="2"/>
@@ -41301,7 +41301,7 @@
         <v>145</v>
       </c>
       <c r="C308" s="11"/>
-      <c r="D308" s="661"/>
+      <c r="D308" s="662"/>
       <c r="E308" s="84"/>
       <c r="F308" s="85"/>
       <c r="G308" s="2"/>
@@ -41323,10 +41323,10 @@
     </row>
     <row r="310" spans="1:11" ht="14.35">
       <c r="A310" s="2"/>
-      <c r="B310" s="656" t="s">
+      <c r="B310" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C310" s="659"/>
+      <c r="C310" s="650"/>
       <c r="D310" s="28"/>
       <c r="E310" s="2"/>
       <c r="F310" s="2"/>
@@ -41497,7 +41497,7 @@
         <v>64</v>
       </c>
       <c r="C324" s="11"/>
-      <c r="D324" s="660"/>
+      <c r="D324" s="661"/>
       <c r="F324" s="2"/>
       <c r="G324" s="2"/>
       <c r="H324" s="8"/>
@@ -41509,7 +41509,7 @@
         <v>65</v>
       </c>
       <c r="C325" s="11"/>
-      <c r="D325" s="661"/>
+      <c r="D325" s="662"/>
       <c r="F325" s="2"/>
       <c r="G325" s="2"/>
       <c r="H325" s="8"/>
@@ -41521,7 +41521,7 @@
         <v>30</v>
       </c>
       <c r="C326" s="11"/>
-      <c r="D326" s="661"/>
+      <c r="D326" s="662"/>
       <c r="F326" s="2"/>
       <c r="G326" s="2"/>
       <c r="H326" s="8"/>
@@ -41533,7 +41533,7 @@
         <v>31</v>
       </c>
       <c r="C327" s="11"/>
-      <c r="D327" s="661"/>
+      <c r="D327" s="662"/>
       <c r="F327" s="2"/>
       <c r="G327" s="2"/>
       <c r="H327" s="8"/>
@@ -41545,7 +41545,7 @@
         <v>68</v>
       </c>
       <c r="C328" s="11"/>
-      <c r="D328" s="661"/>
+      <c r="D328" s="662"/>
       <c r="F328" s="2"/>
       <c r="G328" s="2"/>
       <c r="H328" s="8"/>
@@ -41565,10 +41565,10 @@
     </row>
     <row r="330" spans="1:11" ht="14.35">
       <c r="A330" s="2"/>
-      <c r="B330" s="656" t="s">
+      <c r="B330" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C330" s="659"/>
+      <c r="C330" s="650"/>
       <c r="D330" s="28"/>
       <c r="F330" s="2"/>
       <c r="G330" s="2"/>
@@ -41827,10 +41827,10 @@
     </row>
     <row r="352" spans="1:11" ht="14.35">
       <c r="A352" s="2"/>
-      <c r="B352" s="656" t="s">
+      <c r="B352" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C352" s="657"/>
+      <c r="C352" s="648"/>
       <c r="D352" s="2"/>
       <c r="F352" s="2"/>
       <c r="G352" s="2"/>
@@ -42034,10 +42034,10 @@
     </row>
     <row r="370" spans="1:11" ht="14.35">
       <c r="A370" s="2"/>
-      <c r="B370" s="656" t="s">
+      <c r="B370" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C370" s="657"/>
+      <c r="C370" s="648"/>
       <c r="F370" s="2"/>
       <c r="G370" s="2"/>
       <c r="H370" s="8"/>
@@ -42517,10 +42517,10 @@
     </row>
     <row r="405" spans="1:11" ht="14.7">
       <c r="A405" s="2"/>
-      <c r="B405" s="645" t="s">
+      <c r="B405" s="659" t="s">
         <v>34</v>
       </c>
-      <c r="C405" s="644"/>
+      <c r="C405" s="641"/>
       <c r="D405" s="97"/>
       <c r="F405" s="2"/>
       <c r="G405" s="2"/>
@@ -43033,10 +43033,10 @@
     </row>
     <row r="440" spans="1:11" ht="14.7">
       <c r="A440" s="2"/>
-      <c r="B440" s="645" t="s">
+      <c r="B440" s="659" t="s">
         <v>34</v>
       </c>
-      <c r="C440" s="644"/>
+      <c r="C440" s="641"/>
       <c r="D440" s="97"/>
       <c r="E440" s="97"/>
       <c r="F440" s="2"/>
@@ -43512,10 +43512,10 @@
     </row>
     <row r="473" spans="1:11" ht="14.7">
       <c r="A473" s="2"/>
-      <c r="B473" s="645" t="s">
+      <c r="B473" s="659" t="s">
         <v>34</v>
       </c>
-      <c r="C473" s="644"/>
+      <c r="C473" s="641"/>
       <c r="D473" s="97"/>
       <c r="E473" s="97"/>
       <c r="F473" s="97"/>
@@ -43987,10 +43987,10 @@
     </row>
     <row r="506" spans="1:11" ht="14.7">
       <c r="A506" s="2"/>
-      <c r="B506" s="645" t="s">
+      <c r="B506" s="659" t="s">
         <v>34</v>
       </c>
-      <c r="C506" s="644"/>
+      <c r="C506" s="641"/>
       <c r="D506" s="97"/>
       <c r="E506" s="97"/>
       <c r="F506" s="97"/>
@@ -44861,10 +44861,10 @@
     </row>
     <row r="559" spans="1:11" ht="14.7">
       <c r="A559" s="2"/>
-      <c r="B559" s="645" t="s">
+      <c r="B559" s="659" t="s">
         <v>34</v>
       </c>
-      <c r="C559" s="644"/>
+      <c r="C559" s="641"/>
       <c r="D559" s="97"/>
       <c r="E559" s="97"/>
       <c r="F559" s="97"/>
@@ -45288,10 +45288,10 @@
     </row>
     <row r="597" spans="1:11" ht="14.35">
       <c r="A597" s="2"/>
-      <c r="B597" s="656" t="s">
+      <c r="B597" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C597" s="657"/>
+      <c r="C597" s="648"/>
       <c r="D597" s="2"/>
       <c r="E597" s="2"/>
       <c r="F597" s="2"/>
@@ -45533,10 +45533,10 @@
     </row>
     <row r="616" spans="1:11" ht="14.35">
       <c r="A616" s="2"/>
-      <c r="B616" s="656" t="s">
+      <c r="B616" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C616" s="657"/>
+      <c r="C616" s="648"/>
       <c r="D616" s="2"/>
       <c r="E616" s="2"/>
       <c r="F616" s="2"/>
@@ -45774,10 +45774,10 @@
     </row>
     <row r="635" spans="1:11" ht="14.35">
       <c r="A635" s="2"/>
-      <c r="B635" s="656" t="s">
+      <c r="B635" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C635" s="659"/>
+      <c r="C635" s="650"/>
       <c r="D635" s="127"/>
       <c r="E635" s="2"/>
       <c r="F635" s="2"/>
@@ -46034,10 +46034,10 @@
     </row>
     <row r="655" spans="1:11" ht="14.35">
       <c r="A655" s="2"/>
-      <c r="B655" s="656" t="s">
+      <c r="B655" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C655" s="657"/>
+      <c r="C655" s="648"/>
       <c r="D655" s="2"/>
       <c r="E655" s="2"/>
       <c r="F655" s="2"/>
@@ -46262,10 +46262,10 @@
     </row>
     <row r="673" spans="1:11" ht="14.35">
       <c r="A673" s="2"/>
-      <c r="B673" s="656" t="s">
+      <c r="B673" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C673" s="659"/>
+      <c r="C673" s="650"/>
       <c r="D673" s="2"/>
       <c r="E673" s="2"/>
       <c r="F673" s="2"/>
@@ -46501,10 +46501,10 @@
     </row>
     <row r="692" spans="1:11" ht="14.35">
       <c r="A692" s="2"/>
-      <c r="B692" s="671" t="s">
+      <c r="B692" s="660" t="s">
         <v>34</v>
       </c>
-      <c r="C692" s="644"/>
+      <c r="C692" s="641"/>
       <c r="D692" s="2"/>
       <c r="E692" s="2"/>
       <c r="F692" s="2"/>
@@ -46737,10 +46737,10 @@
     </row>
     <row r="710" spans="1:11" ht="14.35">
       <c r="A710" s="2"/>
-      <c r="B710" s="671" t="s">
+      <c r="B710" s="660" t="s">
         <v>34</v>
       </c>
-      <c r="C710" s="644"/>
+      <c r="C710" s="641"/>
       <c r="D710" s="2"/>
       <c r="E710" s="2"/>
       <c r="F710" s="2"/>
@@ -47059,10 +47059,10 @@
     </row>
     <row r="736" spans="1:11" ht="14.35">
       <c r="A736" s="2"/>
-      <c r="B736" s="656" t="s">
+      <c r="B736" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C736" s="657"/>
+      <c r="C736" s="648"/>
       <c r="D736" s="2"/>
       <c r="E736" s="2"/>
       <c r="F736" s="2"/>
@@ -47325,10 +47325,10 @@
     </row>
     <row r="756" spans="1:11" ht="14.35">
       <c r="A756" s="2"/>
-      <c r="B756" s="656" t="s">
+      <c r="B756" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C756" s="657"/>
+      <c r="C756" s="648"/>
       <c r="D756" s="2"/>
       <c r="E756" s="2"/>
       <c r="F756" s="2"/>
@@ -47616,10 +47616,10 @@
     </row>
     <row r="779" spans="1:11" ht="14.35">
       <c r="A779" s="2"/>
-      <c r="B779" s="656" t="s">
+      <c r="B779" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C779" s="657"/>
+      <c r="C779" s="648"/>
       <c r="D779" s="2"/>
       <c r="E779" s="2"/>
       <c r="F779" s="2"/>
@@ -47905,10 +47905,10 @@
     </row>
     <row r="802" spans="1:11" ht="14.35">
       <c r="A802" s="2"/>
-      <c r="B802" s="656" t="s">
+      <c r="B802" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C802" s="659"/>
+      <c r="C802" s="650"/>
       <c r="D802" s="2"/>
       <c r="E802" s="2"/>
       <c r="F802" s="2"/>
@@ -48187,10 +48187,10 @@
     </row>
     <row r="824" spans="1:11" ht="14.35">
       <c r="A824" s="2"/>
-      <c r="B824" s="656" t="s">
+      <c r="B824" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C824" s="659"/>
+      <c r="C824" s="650"/>
       <c r="D824" s="2"/>
       <c r="E824" s="2"/>
       <c r="F824" s="2"/>
@@ -48498,10 +48498,10 @@
     </row>
     <row r="849" spans="1:11" ht="14.35">
       <c r="A849" s="2"/>
-      <c r="B849" s="656" t="s">
+      <c r="B849" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C849" s="659"/>
+      <c r="C849" s="650"/>
       <c r="D849" s="149"/>
       <c r="E849" s="2"/>
       <c r="F849" s="2"/>
@@ -48806,10 +48806,10 @@
       <c r="K873" s="10"/>
     </row>
     <row r="874" spans="2:11" ht="14.35">
-      <c r="B874" s="656" t="s">
+      <c r="B874" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C874" s="659"/>
+      <c r="C874" s="650"/>
       <c r="D874" s="2"/>
       <c r="E874" s="2"/>
       <c r="F874" s="2"/>
@@ -49115,10 +49115,10 @@
       <c r="K899" s="10"/>
     </row>
     <row r="900" spans="1:11" ht="14.35">
-      <c r="B900" s="656" t="s">
+      <c r="B900" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C900" s="659"/>
+      <c r="C900" s="650"/>
       <c r="D900" s="2"/>
       <c r="E900" s="2"/>
       <c r="F900" s="2"/>
@@ -49348,10 +49348,10 @@
     </row>
     <row r="920" spans="1:11" ht="14.35">
       <c r="A920" s="2"/>
-      <c r="B920" s="656" t="s">
+      <c r="B920" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C920" s="659"/>
+      <c r="C920" s="650"/>
       <c r="D920" s="2"/>
       <c r="E920" s="2"/>
       <c r="F920" s="2"/>
@@ -49628,10 +49628,10 @@
     </row>
     <row r="942" spans="1:11" ht="14.35">
       <c r="A942" s="2"/>
-      <c r="B942" s="656" t="s">
+      <c r="B942" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C942" s="659"/>
+      <c r="C942" s="650"/>
       <c r="D942" s="2"/>
       <c r="E942" s="2"/>
       <c r="F942" s="2"/>
@@ -49875,10 +49875,10 @@
     </row>
     <row r="961" spans="1:11" ht="14.35">
       <c r="A961" s="2"/>
-      <c r="B961" s="656" t="s">
+      <c r="B961" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C961" s="659"/>
+      <c r="C961" s="650"/>
       <c r="D961" s="2"/>
       <c r="E961" s="2"/>
       <c r="F961" s="2"/>
@@ -50118,10 +50118,10 @@
     </row>
     <row r="980" spans="1:11" ht="14.35">
       <c r="A980" s="2"/>
-      <c r="B980" s="656" t="s">
+      <c r="B980" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C980" s="659"/>
+      <c r="C980" s="650"/>
       <c r="D980" s="2"/>
       <c r="E980" s="2"/>
       <c r="F980" s="2"/>
@@ -50262,10 +50262,10 @@
     </row>
     <row r="994" spans="1:11" ht="14.35">
       <c r="A994" s="2"/>
-      <c r="B994" s="656" t="s">
+      <c r="B994" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C994" s="659"/>
+      <c r="C994" s="650"/>
       <c r="F994" s="2"/>
       <c r="G994" s="2"/>
       <c r="H994" s="8"/>
@@ -50512,10 +50512,10 @@
     </row>
     <row r="1014" spans="1:11" ht="14.35">
       <c r="A1014" s="2"/>
-      <c r="B1014" s="656" t="s">
+      <c r="B1014" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C1014" s="657"/>
+      <c r="C1014" s="648"/>
       <c r="D1014" s="2"/>
       <c r="E1014" s="2"/>
       <c r="F1014" s="2"/>
@@ -50717,10 +50717,10 @@
     </row>
     <row r="1031" spans="1:11" ht="14.35">
       <c r="A1031" s="2"/>
-      <c r="B1031" s="656" t="s">
+      <c r="B1031" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C1031" s="659"/>
+      <c r="C1031" s="650"/>
       <c r="D1031" s="2"/>
       <c r="E1031" s="2"/>
       <c r="F1031" s="2"/>
@@ -50963,10 +50963,10 @@
       <c r="K1050" s="10"/>
     </row>
     <row r="1051" spans="2:11" ht="14.35">
-      <c r="B1051" s="656" t="s">
+      <c r="B1051" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C1051" s="657"/>
+      <c r="C1051" s="648"/>
       <c r="D1051" s="2"/>
       <c r="E1051" s="2"/>
       <c r="F1051" s="2"/>
@@ -51227,10 +51227,10 @@
     </row>
     <row r="1073" spans="1:11" ht="14.35">
       <c r="A1073" s="2"/>
-      <c r="B1073" s="656" t="s">
+      <c r="B1073" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C1073" s="657"/>
+      <c r="C1073" s="648"/>
       <c r="D1073" s="2"/>
       <c r="E1073" s="2"/>
       <c r="F1073" s="2"/>
@@ -51526,10 +51526,10 @@
     </row>
     <row r="1096" spans="1:11" ht="14.35">
       <c r="A1096" s="2"/>
-      <c r="B1096" s="656" t="s">
+      <c r="B1096" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C1096" s="657"/>
+      <c r="C1096" s="648"/>
       <c r="D1096" s="2"/>
       <c r="E1096" s="2"/>
       <c r="F1096" s="2"/>
@@ -51553,61 +51553,61 @@
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D36:D41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="B217:C217"/>
+    <mergeCell ref="B242:C242"/>
+    <mergeCell ref="D268:D272"/>
+    <mergeCell ref="B274:C274"/>
+    <mergeCell ref="D304:D308"/>
+    <mergeCell ref="B310:C310"/>
+    <mergeCell ref="D324:D328"/>
+    <mergeCell ref="B330:C330"/>
+    <mergeCell ref="B352:C352"/>
+    <mergeCell ref="B370:C370"/>
+    <mergeCell ref="B405:C405"/>
+    <mergeCell ref="B440:C440"/>
+    <mergeCell ref="B473:C473"/>
+    <mergeCell ref="B506:C506"/>
+    <mergeCell ref="B559:C559"/>
+    <mergeCell ref="B597:C597"/>
+    <mergeCell ref="B616:C616"/>
+    <mergeCell ref="B635:C635"/>
+    <mergeCell ref="B655:C655"/>
+    <mergeCell ref="B673:C673"/>
+    <mergeCell ref="B692:C692"/>
+    <mergeCell ref="B710:C710"/>
+    <mergeCell ref="B736:C736"/>
+    <mergeCell ref="B756:C756"/>
+    <mergeCell ref="B779:C779"/>
+    <mergeCell ref="B802:C802"/>
+    <mergeCell ref="B824:C824"/>
+    <mergeCell ref="B849:C849"/>
+    <mergeCell ref="B874:C874"/>
+    <mergeCell ref="B900:C900"/>
+    <mergeCell ref="B920:C920"/>
+    <mergeCell ref="B942:C942"/>
+    <mergeCell ref="B961:C961"/>
+    <mergeCell ref="B980:C980"/>
+    <mergeCell ref="B994:C994"/>
     <mergeCell ref="B1014:C1014"/>
     <mergeCell ref="B1031:C1031"/>
     <mergeCell ref="B1051:C1051"/>
     <mergeCell ref="B1073:C1073"/>
     <mergeCell ref="B1096:C1096"/>
-    <mergeCell ref="B920:C920"/>
-    <mergeCell ref="B942:C942"/>
-    <mergeCell ref="B961:C961"/>
-    <mergeCell ref="B980:C980"/>
-    <mergeCell ref="B994:C994"/>
-    <mergeCell ref="B802:C802"/>
-    <mergeCell ref="B824:C824"/>
-    <mergeCell ref="B849:C849"/>
-    <mergeCell ref="B874:C874"/>
-    <mergeCell ref="B900:C900"/>
-    <mergeCell ref="B692:C692"/>
-    <mergeCell ref="B710:C710"/>
-    <mergeCell ref="B736:C736"/>
-    <mergeCell ref="B756:C756"/>
-    <mergeCell ref="B779:C779"/>
-    <mergeCell ref="B597:C597"/>
-    <mergeCell ref="B616:C616"/>
-    <mergeCell ref="B635:C635"/>
-    <mergeCell ref="B655:C655"/>
-    <mergeCell ref="B673:C673"/>
-    <mergeCell ref="B405:C405"/>
-    <mergeCell ref="B440:C440"/>
-    <mergeCell ref="B473:C473"/>
-    <mergeCell ref="B506:C506"/>
-    <mergeCell ref="B559:C559"/>
-    <mergeCell ref="B310:C310"/>
-    <mergeCell ref="D324:D328"/>
-    <mergeCell ref="B330:C330"/>
-    <mergeCell ref="B352:C352"/>
-    <mergeCell ref="B370:C370"/>
-    <mergeCell ref="B217:C217"/>
-    <mergeCell ref="B242:C242"/>
-    <mergeCell ref="D268:D272"/>
-    <mergeCell ref="B274:C274"/>
-    <mergeCell ref="D304:D308"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D36:D41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="E75:F75"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -51677,10 +51677,10 @@
       <c r="D2" s="246" t="s">
         <v>508</v>
       </c>
-      <c r="E2" s="698" t="s">
+      <c r="E2" s="682" t="s">
         <v>509</v>
       </c>
-      <c r="F2" s="699"/>
+      <c r="F2" s="683"/>
       <c r="G2" s="252" t="s">
         <v>510</v>
       </c>
@@ -51713,71 +51713,71 @@
       <c r="A3" s="253">
         <v>1</v>
       </c>
-      <c r="B3" s="681" t="s">
+      <c r="B3" s="694" t="s">
         <v>456</v>
       </c>
-      <c r="C3" s="682"/>
-      <c r="D3" s="682"/>
-      <c r="E3" s="682"/>
-      <c r="F3" s="682"/>
-      <c r="G3" s="682"/>
-      <c r="H3" s="682"/>
-      <c r="I3" s="682"/>
-      <c r="J3" s="682"/>
-      <c r="K3" s="683" t="s">
+      <c r="C3" s="695"/>
+      <c r="D3" s="695"/>
+      <c r="E3" s="695"/>
+      <c r="F3" s="695"/>
+      <c r="G3" s="695"/>
+      <c r="H3" s="695"/>
+      <c r="I3" s="695"/>
+      <c r="J3" s="695"/>
+      <c r="K3" s="688" t="s">
         <v>457</v>
       </c>
-      <c r="L3" s="684"/>
-      <c r="M3" s="684"/>
-      <c r="N3" s="684"/>
-      <c r="O3" s="684"/>
-      <c r="P3" s="684"/>
-      <c r="Q3" s="684"/>
-      <c r="R3" s="684"/>
-      <c r="S3" s="684"/>
-      <c r="T3" s="684"/>
-      <c r="U3" s="684"/>
-      <c r="V3" s="684"/>
-      <c r="W3" s="684"/>
+      <c r="L3" s="687"/>
+      <c r="M3" s="687"/>
+      <c r="N3" s="687"/>
+      <c r="O3" s="687"/>
+      <c r="P3" s="687"/>
+      <c r="Q3" s="687"/>
+      <c r="R3" s="687"/>
+      <c r="S3" s="687"/>
+      <c r="T3" s="687"/>
+      <c r="U3" s="687"/>
+      <c r="V3" s="687"/>
+      <c r="W3" s="687"/>
     </row>
     <row r="4" spans="1:23" ht="14">
       <c r="A4" s="244"/>
-      <c r="B4" s="685" t="s">
+      <c r="B4" s="696" t="s">
         <v>459</v>
       </c>
-      <c r="C4" s="686"/>
-      <c r="D4" s="686"/>
+      <c r="C4" s="693"/>
+      <c r="D4" s="693"/>
       <c r="E4" s="674" t="s">
         <v>515</v>
       </c>
-      <c r="F4" s="686"/>
-      <c r="G4" s="686"/>
-      <c r="H4" s="687" t="s">
+      <c r="F4" s="693"/>
+      <c r="G4" s="693"/>
+      <c r="H4" s="697" t="s">
         <v>516</v>
       </c>
-      <c r="I4" s="688"/>
-      <c r="J4" s="688"/>
+      <c r="I4" s="698"/>
+      <c r="J4" s="698"/>
       <c r="K4" s="674" t="s">
         <v>460</v>
       </c>
-      <c r="L4" s="686"/>
-      <c r="M4" s="686"/>
+      <c r="L4" s="693"/>
+      <c r="M4" s="693"/>
       <c r="N4" s="674" t="s">
         <v>517</v>
       </c>
-      <c r="O4" s="686"/>
-      <c r="P4" s="686"/>
+      <c r="O4" s="693"/>
+      <c r="P4" s="693"/>
       <c r="Q4" s="674" t="s">
         <v>518</v>
       </c>
-      <c r="R4" s="686"/>
-      <c r="S4" s="686"/>
-      <c r="T4" s="689" t="s">
+      <c r="R4" s="693"/>
+      <c r="S4" s="693"/>
+      <c r="T4" s="699" t="s">
         <v>519</v>
       </c>
-      <c r="U4" s="690"/>
-      <c r="V4" s="690"/>
-      <c r="W4" s="690"/>
+      <c r="U4" s="700"/>
+      <c r="V4" s="700"/>
+      <c r="W4" s="700"/>
     </row>
     <row r="5" spans="1:23" ht="15.35">
       <c r="A5" s="244"/>
@@ -51835,7 +51835,7 @@
       <c r="S5" s="259" t="s">
         <v>463</v>
       </c>
-      <c r="T5" s="691" t="s">
+      <c r="T5" s="681" t="s">
         <v>520</v>
       </c>
       <c r="U5" s="171" t="s">
@@ -51880,7 +51880,7 @@
       <c r="Q6" s="184"/>
       <c r="R6" s="183"/>
       <c r="S6" s="268"/>
-      <c r="T6" s="644"/>
+      <c r="T6" s="641"/>
       <c r="U6" s="171" t="s">
         <v>524</v>
       </c>
@@ -52327,32 +52327,32 @@
       </c>
     </row>
     <row r="23" spans="1:23" ht="14">
-      <c r="B23" s="695" t="s">
+      <c r="B23" s="684" t="s">
         <v>456</v>
       </c>
-      <c r="C23" s="644"/>
-      <c r="D23" s="644"/>
-      <c r="E23" s="644"/>
-      <c r="F23" s="644"/>
-      <c r="G23" s="644"/>
-      <c r="H23" s="644"/>
-      <c r="I23" s="644"/>
-      <c r="J23" s="644"/>
-      <c r="K23" s="694" t="s">
+      <c r="C23" s="641"/>
+      <c r="D23" s="641"/>
+      <c r="E23" s="641"/>
+      <c r="F23" s="641"/>
+      <c r="G23" s="641"/>
+      <c r="H23" s="641"/>
+      <c r="I23" s="641"/>
+      <c r="J23" s="641"/>
+      <c r="K23" s="685" t="s">
         <v>911</v>
       </c>
-      <c r="L23" s="644"/>
-      <c r="M23" s="644"/>
-      <c r="N23" s="644"/>
-      <c r="O23" s="644"/>
-      <c r="P23" s="644"/>
-      <c r="Q23" s="644"/>
-      <c r="R23" s="644"/>
-      <c r="S23" s="644"/>
-      <c r="T23" s="644"/>
-      <c r="U23" s="644"/>
-      <c r="V23" s="644"/>
-      <c r="W23" s="644"/>
+      <c r="L23" s="641"/>
+      <c r="M23" s="641"/>
+      <c r="N23" s="641"/>
+      <c r="O23" s="641"/>
+      <c r="P23" s="641"/>
+      <c r="Q23" s="641"/>
+      <c r="R23" s="641"/>
+      <c r="S23" s="641"/>
+      <c r="T23" s="641"/>
+      <c r="U23" s="641"/>
+      <c r="V23" s="641"/>
+      <c r="W23" s="641"/>
     </row>
     <row r="24" spans="1:23" ht="14">
       <c r="A24" s="253">
@@ -52388,12 +52388,12 @@
       </c>
       <c r="R24" s="678"/>
       <c r="S24" s="678"/>
-      <c r="T24" s="692" t="s">
+      <c r="T24" s="679" t="s">
         <v>519</v>
       </c>
-      <c r="U24" s="693"/>
-      <c r="V24" s="693"/>
-      <c r="W24" s="693"/>
+      <c r="U24" s="680"/>
+      <c r="V24" s="680"/>
+      <c r="W24" s="680"/>
     </row>
     <row r="25" spans="1:23" ht="15.35">
       <c r="A25" s="288"/>
@@ -52451,7 +52451,7 @@
       <c r="S25" s="258" t="s">
         <v>914</v>
       </c>
-      <c r="T25" s="691" t="s">
+      <c r="T25" s="681" t="s">
         <v>520</v>
       </c>
       <c r="U25" s="171" t="s">
@@ -52496,7 +52496,7 @@
       <c r="Q26" s="184"/>
       <c r="R26" s="188"/>
       <c r="S26" s="188"/>
-      <c r="T26" s="644"/>
+      <c r="T26" s="641"/>
       <c r="U26" s="171" t="s">
         <v>524</v>
       </c>
@@ -52760,32 +52760,32 @@
       <c r="E43" s="307"/>
     </row>
     <row r="44" spans="1:23" ht="14">
-      <c r="B44" s="695" t="s">
+      <c r="B44" s="684" t="s">
         <v>456</v>
       </c>
-      <c r="C44" s="644"/>
-      <c r="D44" s="644"/>
-      <c r="E44" s="644"/>
-      <c r="F44" s="644"/>
-      <c r="G44" s="644"/>
-      <c r="H44" s="644"/>
-      <c r="I44" s="644"/>
-      <c r="J44" s="644"/>
-      <c r="K44" s="695" t="s">
+      <c r="C44" s="641"/>
+      <c r="D44" s="641"/>
+      <c r="E44" s="641"/>
+      <c r="F44" s="641"/>
+      <c r="G44" s="641"/>
+      <c r="H44" s="641"/>
+      <c r="I44" s="641"/>
+      <c r="J44" s="641"/>
+      <c r="K44" s="684" t="s">
         <v>457</v>
       </c>
-      <c r="L44" s="644"/>
-      <c r="M44" s="644"/>
-      <c r="N44" s="644"/>
-      <c r="O44" s="644"/>
-      <c r="P44" s="644"/>
-      <c r="Q44" s="644"/>
-      <c r="R44" s="644"/>
-      <c r="S44" s="644"/>
-      <c r="T44" s="644"/>
-      <c r="U44" s="644"/>
-      <c r="V44" s="644"/>
-      <c r="W44" s="644"/>
+      <c r="L44" s="641"/>
+      <c r="M44" s="641"/>
+      <c r="N44" s="641"/>
+      <c r="O44" s="641"/>
+      <c r="P44" s="641"/>
+      <c r="Q44" s="641"/>
+      <c r="R44" s="641"/>
+      <c r="S44" s="641"/>
+      <c r="T44" s="641"/>
+      <c r="U44" s="641"/>
+      <c r="V44" s="641"/>
+      <c r="W44" s="641"/>
     </row>
     <row r="45" spans="1:23" ht="14">
       <c r="A45" s="253">
@@ -52821,12 +52821,12 @@
       </c>
       <c r="R45" s="678"/>
       <c r="S45" s="678"/>
-      <c r="T45" s="696" t="s">
+      <c r="T45" s="692" t="s">
         <v>519</v>
       </c>
-      <c r="U45" s="686"/>
-      <c r="V45" s="686"/>
-      <c r="W45" s="686"/>
+      <c r="U45" s="693"/>
+      <c r="V45" s="693"/>
+      <c r="W45" s="693"/>
     </row>
     <row r="46" spans="1:23" ht="15.35">
       <c r="A46" s="288"/>
@@ -52884,7 +52884,7 @@
       <c r="S46" s="287" t="s">
         <v>914</v>
       </c>
-      <c r="T46" s="701" t="s">
+      <c r="T46" s="689" t="s">
         <v>520</v>
       </c>
       <c r="U46" s="318" t="s">
@@ -52929,7 +52929,7 @@
       <c r="Q47" s="184"/>
       <c r="R47" s="188"/>
       <c r="S47" s="188"/>
-      <c r="T47" s="644"/>
+      <c r="T47" s="641"/>
       <c r="U47" s="171" t="s">
         <v>524</v>
       </c>
@@ -53161,32 +53161,32 @@
       <c r="C61" s="170"/>
     </row>
     <row r="62" spans="1:23" ht="14">
-      <c r="B62" s="695" t="s">
+      <c r="B62" s="684" t="s">
         <v>456</v>
       </c>
-      <c r="C62" s="644"/>
-      <c r="D62" s="644"/>
-      <c r="E62" s="644"/>
-      <c r="F62" s="644"/>
-      <c r="G62" s="644"/>
-      <c r="H62" s="644"/>
-      <c r="I62" s="644"/>
-      <c r="J62" s="644"/>
-      <c r="K62" s="695" t="s">
+      <c r="C62" s="641"/>
+      <c r="D62" s="641"/>
+      <c r="E62" s="641"/>
+      <c r="F62" s="641"/>
+      <c r="G62" s="641"/>
+      <c r="H62" s="641"/>
+      <c r="I62" s="641"/>
+      <c r="J62" s="641"/>
+      <c r="K62" s="684" t="s">
         <v>457</v>
       </c>
-      <c r="L62" s="644"/>
-      <c r="M62" s="644"/>
-      <c r="N62" s="644"/>
-      <c r="O62" s="644"/>
-      <c r="P62" s="644"/>
-      <c r="Q62" s="644"/>
-      <c r="R62" s="644"/>
-      <c r="S62" s="644"/>
-      <c r="T62" s="644"/>
-      <c r="U62" s="644"/>
-      <c r="V62" s="644"/>
-      <c r="W62" s="644"/>
+      <c r="L62" s="641"/>
+      <c r="M62" s="641"/>
+      <c r="N62" s="641"/>
+      <c r="O62" s="641"/>
+      <c r="P62" s="641"/>
+      <c r="Q62" s="641"/>
+      <c r="R62" s="641"/>
+      <c r="S62" s="641"/>
+      <c r="T62" s="641"/>
+      <c r="U62" s="641"/>
+      <c r="V62" s="641"/>
+      <c r="W62" s="641"/>
     </row>
     <row r="63" spans="1:23" ht="14">
       <c r="A63" s="253">
@@ -53222,12 +53222,12 @@
       </c>
       <c r="R63" s="678"/>
       <c r="S63" s="678"/>
-      <c r="T63" s="692" t="s">
+      <c r="T63" s="679" t="s">
         <v>519</v>
       </c>
-      <c r="U63" s="693"/>
-      <c r="V63" s="693"/>
-      <c r="W63" s="693"/>
+      <c r="U63" s="680"/>
+      <c r="V63" s="680"/>
+      <c r="W63" s="680"/>
     </row>
     <row r="64" spans="1:23" ht="15.35">
       <c r="A64" s="288"/>
@@ -53285,7 +53285,7 @@
       <c r="S64" s="254" t="s">
         <v>463</v>
       </c>
-      <c r="T64" s="691" t="s">
+      <c r="T64" s="681" t="s">
         <v>520</v>
       </c>
       <c r="U64" s="171" t="s">
@@ -53330,7 +53330,7 @@
       <c r="Q65" s="184"/>
       <c r="R65" s="184"/>
       <c r="S65" s="184"/>
-      <c r="T65" s="644"/>
+      <c r="T65" s="641"/>
       <c r="U65" s="171" t="s">
         <v>524</v>
       </c>
@@ -53595,32 +53595,32 @@
       </c>
     </row>
     <row r="85" spans="1:23" ht="14">
-      <c r="B85" s="694" t="s">
+      <c r="B85" s="685" t="s">
         <v>919</v>
       </c>
-      <c r="C85" s="644"/>
-      <c r="D85" s="644"/>
-      <c r="E85" s="644"/>
-      <c r="F85" s="644"/>
-      <c r="G85" s="644"/>
-      <c r="H85" s="644"/>
-      <c r="I85" s="644"/>
-      <c r="J85" s="644"/>
-      <c r="K85" s="694" t="s">
+      <c r="C85" s="641"/>
+      <c r="D85" s="641"/>
+      <c r="E85" s="641"/>
+      <c r="F85" s="641"/>
+      <c r="G85" s="641"/>
+      <c r="H85" s="641"/>
+      <c r="I85" s="641"/>
+      <c r="J85" s="641"/>
+      <c r="K85" s="685" t="s">
         <v>911</v>
       </c>
-      <c r="L85" s="644"/>
-      <c r="M85" s="644"/>
-      <c r="N85" s="644"/>
-      <c r="O85" s="644"/>
-      <c r="P85" s="644"/>
-      <c r="Q85" s="644"/>
-      <c r="R85" s="644"/>
-      <c r="S85" s="644"/>
-      <c r="T85" s="644"/>
-      <c r="U85" s="644"/>
-      <c r="V85" s="644"/>
-      <c r="W85" s="644"/>
+      <c r="L85" s="641"/>
+      <c r="M85" s="641"/>
+      <c r="N85" s="641"/>
+      <c r="O85" s="641"/>
+      <c r="P85" s="641"/>
+      <c r="Q85" s="641"/>
+      <c r="R85" s="641"/>
+      <c r="S85" s="641"/>
+      <c r="T85" s="641"/>
+      <c r="U85" s="641"/>
+      <c r="V85" s="641"/>
+      <c r="W85" s="641"/>
     </row>
     <row r="86" spans="1:23" ht="14">
       <c r="A86" s="253">
@@ -53631,17 +53631,17 @@
       </c>
       <c r="C86" s="673"/>
       <c r="D86" s="673"/>
-      <c r="E86" s="680" t="s">
+      <c r="E86" s="690" t="s">
         <v>920</v>
       </c>
       <c r="F86" s="675"/>
       <c r="G86" s="675"/>
-      <c r="H86" s="697" t="s">
+      <c r="H86" s="691" t="s">
         <v>921</v>
       </c>
       <c r="I86" s="677"/>
       <c r="J86" s="677"/>
-      <c r="K86" s="680" t="s">
+      <c r="K86" s="690" t="s">
         <v>922</v>
       </c>
       <c r="L86" s="678"/>
@@ -53656,12 +53656,12 @@
       </c>
       <c r="R86" s="678"/>
       <c r="S86" s="678"/>
-      <c r="T86" s="692" t="s">
+      <c r="T86" s="679" t="s">
         <v>519</v>
       </c>
-      <c r="U86" s="693"/>
-      <c r="V86" s="693"/>
-      <c r="W86" s="693"/>
+      <c r="U86" s="680"/>
+      <c r="V86" s="680"/>
+      <c r="W86" s="680"/>
     </row>
     <row r="87" spans="1:23" ht="15.35">
       <c r="A87" s="288"/>
@@ -53719,7 +53719,7 @@
       <c r="S87" s="254" t="s">
         <v>463</v>
       </c>
-      <c r="T87" s="691" t="s">
+      <c r="T87" s="681" t="s">
         <v>520</v>
       </c>
       <c r="U87" s="171" t="s">
@@ -53764,7 +53764,7 @@
       <c r="Q88" s="184"/>
       <c r="R88" s="184"/>
       <c r="S88" s="184"/>
-      <c r="T88" s="644"/>
+      <c r="T88" s="641"/>
       <c r="U88" s="171" t="s">
         <v>524</v>
       </c>
@@ -54028,32 +54028,32 @@
       <c r="C106" s="170"/>
     </row>
     <row r="107" spans="1:23" ht="14">
-      <c r="B107" s="694" t="s">
+      <c r="B107" s="685" t="s">
         <v>919</v>
       </c>
-      <c r="C107" s="644"/>
-      <c r="D107" s="644"/>
-      <c r="E107" s="644"/>
-      <c r="F107" s="644"/>
-      <c r="G107" s="644"/>
-      <c r="H107" s="644"/>
-      <c r="I107" s="644"/>
-      <c r="J107" s="644"/>
-      <c r="K107" s="695" t="s">
+      <c r="C107" s="641"/>
+      <c r="D107" s="641"/>
+      <c r="E107" s="641"/>
+      <c r="F107" s="641"/>
+      <c r="G107" s="641"/>
+      <c r="H107" s="641"/>
+      <c r="I107" s="641"/>
+      <c r="J107" s="641"/>
+      <c r="K107" s="684" t="s">
         <v>457</v>
       </c>
-      <c r="L107" s="644"/>
-      <c r="M107" s="644"/>
-      <c r="N107" s="644"/>
-      <c r="O107" s="644"/>
-      <c r="P107" s="644"/>
-      <c r="Q107" s="644"/>
-      <c r="R107" s="644"/>
-      <c r="S107" s="644"/>
-      <c r="T107" s="644"/>
-      <c r="U107" s="644"/>
-      <c r="V107" s="644"/>
-      <c r="W107" s="644"/>
+      <c r="L107" s="641"/>
+      <c r="M107" s="641"/>
+      <c r="N107" s="641"/>
+      <c r="O107" s="641"/>
+      <c r="P107" s="641"/>
+      <c r="Q107" s="641"/>
+      <c r="R107" s="641"/>
+      <c r="S107" s="641"/>
+      <c r="T107" s="641"/>
+      <c r="U107" s="641"/>
+      <c r="V107" s="641"/>
+      <c r="W107" s="641"/>
     </row>
     <row r="108" spans="1:23" ht="14">
       <c r="A108" s="253">
@@ -54064,7 +54064,7 @@
       </c>
       <c r="C108" s="673"/>
       <c r="D108" s="673"/>
-      <c r="E108" s="680" t="s">
+      <c r="E108" s="690" t="s">
         <v>920</v>
       </c>
       <c r="F108" s="675"/>
@@ -54089,12 +54089,12 @@
       </c>
       <c r="R108" s="678"/>
       <c r="S108" s="678"/>
-      <c r="T108" s="692" t="s">
+      <c r="T108" s="679" t="s">
         <v>519</v>
       </c>
-      <c r="U108" s="693"/>
-      <c r="V108" s="693"/>
-      <c r="W108" s="693"/>
+      <c r="U108" s="680"/>
+      <c r="V108" s="680"/>
+      <c r="W108" s="680"/>
     </row>
     <row r="109" spans="1:23" ht="15.35">
       <c r="A109" s="288"/>
@@ -54152,7 +54152,7 @@
       <c r="S109" s="346" t="s">
         <v>463</v>
       </c>
-      <c r="T109" s="691" t="s">
+      <c r="T109" s="681" t="s">
         <v>520</v>
       </c>
       <c r="U109" s="171" t="s">
@@ -54197,7 +54197,7 @@
       <c r="Q110" s="184"/>
       <c r="R110" s="184"/>
       <c r="S110" s="184"/>
-      <c r="T110" s="644"/>
+      <c r="T110" s="641"/>
       <c r="U110" s="171" t="s">
         <v>524</v>
       </c>
@@ -54411,32 +54411,32 @@
       </c>
     </row>
     <row r="128" spans="1:23" ht="14">
-      <c r="B128" s="695" t="s">
+      <c r="B128" s="684" t="s">
         <v>456</v>
       </c>
-      <c r="C128" s="644"/>
-      <c r="D128" s="644"/>
-      <c r="E128" s="644"/>
-      <c r="F128" s="644"/>
-      <c r="G128" s="644"/>
-      <c r="H128" s="644"/>
-      <c r="I128" s="644"/>
-      <c r="J128" s="644"/>
-      <c r="K128" s="695" t="s">
+      <c r="C128" s="641"/>
+      <c r="D128" s="641"/>
+      <c r="E128" s="641"/>
+      <c r="F128" s="641"/>
+      <c r="G128" s="641"/>
+      <c r="H128" s="641"/>
+      <c r="I128" s="641"/>
+      <c r="J128" s="641"/>
+      <c r="K128" s="684" t="s">
         <v>457</v>
       </c>
-      <c r="L128" s="644"/>
-      <c r="M128" s="644"/>
-      <c r="N128" s="644"/>
-      <c r="O128" s="644"/>
-      <c r="P128" s="644"/>
-      <c r="Q128" s="644"/>
-      <c r="R128" s="644"/>
-      <c r="S128" s="644"/>
-      <c r="T128" s="644"/>
-      <c r="U128" s="644"/>
-      <c r="V128" s="644"/>
-      <c r="W128" s="644"/>
+      <c r="L128" s="641"/>
+      <c r="M128" s="641"/>
+      <c r="N128" s="641"/>
+      <c r="O128" s="641"/>
+      <c r="P128" s="641"/>
+      <c r="Q128" s="641"/>
+      <c r="R128" s="641"/>
+      <c r="S128" s="641"/>
+      <c r="T128" s="641"/>
+      <c r="U128" s="641"/>
+      <c r="V128" s="641"/>
+      <c r="W128" s="641"/>
     </row>
     <row r="129" spans="1:23" ht="14">
       <c r="A129" s="253">
@@ -54472,12 +54472,12 @@
       </c>
       <c r="R129" s="678"/>
       <c r="S129" s="678"/>
-      <c r="T129" s="692" t="s">
+      <c r="T129" s="679" t="s">
         <v>519</v>
       </c>
-      <c r="U129" s="693"/>
-      <c r="V129" s="693"/>
-      <c r="W129" s="693"/>
+      <c r="U129" s="680"/>
+      <c r="V129" s="680"/>
+      <c r="W129" s="680"/>
     </row>
     <row r="130" spans="1:23" ht="15.35">
       <c r="A130" s="288"/>
@@ -54535,7 +54535,7 @@
       <c r="S130" s="346" t="s">
         <v>463</v>
       </c>
-      <c r="T130" s="691" t="s">
+      <c r="T130" s="681" t="s">
         <v>520</v>
       </c>
       <c r="U130" s="171" t="s">
@@ -54580,7 +54580,7 @@
       <c r="Q131" s="184"/>
       <c r="R131" s="184"/>
       <c r="S131" s="184"/>
-      <c r="T131" s="644"/>
+      <c r="T131" s="641"/>
       <c r="U131" s="171" t="s">
         <v>524</v>
       </c>
@@ -54780,32 +54780,32 @@
       </c>
     </row>
     <row r="142" spans="1:23" ht="14">
-      <c r="B142" s="695" t="s">
+      <c r="B142" s="684" t="s">
         <v>456</v>
       </c>
-      <c r="C142" s="644"/>
-      <c r="D142" s="644"/>
-      <c r="E142" s="644"/>
-      <c r="F142" s="644"/>
-      <c r="G142" s="644"/>
-      <c r="H142" s="644"/>
-      <c r="I142" s="644"/>
-      <c r="J142" s="644"/>
-      <c r="K142" s="695" t="s">
+      <c r="C142" s="641"/>
+      <c r="D142" s="641"/>
+      <c r="E142" s="641"/>
+      <c r="F142" s="641"/>
+      <c r="G142" s="641"/>
+      <c r="H142" s="641"/>
+      <c r="I142" s="641"/>
+      <c r="J142" s="641"/>
+      <c r="K142" s="684" t="s">
         <v>457</v>
       </c>
-      <c r="L142" s="644"/>
-      <c r="M142" s="644"/>
-      <c r="N142" s="644"/>
-      <c r="O142" s="644"/>
-      <c r="P142" s="644"/>
-      <c r="Q142" s="644"/>
-      <c r="R142" s="644"/>
-      <c r="S142" s="644"/>
-      <c r="T142" s="644"/>
-      <c r="U142" s="644"/>
-      <c r="V142" s="644"/>
-      <c r="W142" s="644"/>
+      <c r="L142" s="641"/>
+      <c r="M142" s="641"/>
+      <c r="N142" s="641"/>
+      <c r="O142" s="641"/>
+      <c r="P142" s="641"/>
+      <c r="Q142" s="641"/>
+      <c r="R142" s="641"/>
+      <c r="S142" s="641"/>
+      <c r="T142" s="641"/>
+      <c r="U142" s="641"/>
+      <c r="V142" s="641"/>
+      <c r="W142" s="641"/>
     </row>
     <row r="143" spans="1:23" ht="14">
       <c r="A143" s="253">
@@ -54839,14 +54839,14 @@
       <c r="Q143" s="674" t="s">
         <v>916</v>
       </c>
-      <c r="R143" s="679"/>
-      <c r="S143" s="679"/>
-      <c r="T143" s="692" t="s">
+      <c r="R143" s="701"/>
+      <c r="S143" s="701"/>
+      <c r="T143" s="679" t="s">
         <v>519</v>
       </c>
-      <c r="U143" s="693"/>
-      <c r="V143" s="693"/>
-      <c r="W143" s="693"/>
+      <c r="U143" s="680"/>
+      <c r="V143" s="680"/>
+      <c r="W143" s="680"/>
     </row>
     <row r="144" spans="1:23" ht="15.35">
       <c r="A144" s="288"/>
@@ -54904,7 +54904,7 @@
       <c r="S144" s="254" t="s">
         <v>463</v>
       </c>
-      <c r="T144" s="691" t="s">
+      <c r="T144" s="681" t="s">
         <v>520</v>
       </c>
       <c r="U144" s="171" t="s">
@@ -54949,7 +54949,7 @@
       <c r="Q145" s="184"/>
       <c r="R145" s="184"/>
       <c r="S145" s="184"/>
-      <c r="T145" s="644"/>
+      <c r="T145" s="641"/>
       <c r="U145" s="171" t="s">
         <v>524</v>
       </c>
@@ -55141,32 +55141,32 @@
       </c>
     </row>
     <row r="157" spans="1:23" ht="14">
-      <c r="B157" s="700" t="s">
+      <c r="B157" s="686" t="s">
         <v>456</v>
       </c>
-      <c r="C157" s="684"/>
-      <c r="D157" s="684"/>
-      <c r="E157" s="684"/>
-      <c r="F157" s="684"/>
-      <c r="G157" s="684"/>
-      <c r="H157" s="684"/>
-      <c r="I157" s="684"/>
-      <c r="J157" s="684"/>
-      <c r="K157" s="683" t="s">
+      <c r="C157" s="687"/>
+      <c r="D157" s="687"/>
+      <c r="E157" s="687"/>
+      <c r="F157" s="687"/>
+      <c r="G157" s="687"/>
+      <c r="H157" s="687"/>
+      <c r="I157" s="687"/>
+      <c r="J157" s="687"/>
+      <c r="K157" s="688" t="s">
         <v>911</v>
       </c>
-      <c r="L157" s="684"/>
-      <c r="M157" s="684"/>
-      <c r="N157" s="684"/>
-      <c r="O157" s="684"/>
-      <c r="P157" s="684"/>
-      <c r="Q157" s="684"/>
-      <c r="R157" s="684"/>
-      <c r="S157" s="684"/>
-      <c r="T157" s="684"/>
-      <c r="U157" s="684"/>
-      <c r="V157" s="684"/>
-      <c r="W157" s="684"/>
+      <c r="L157" s="687"/>
+      <c r="M157" s="687"/>
+      <c r="N157" s="687"/>
+      <c r="O157" s="687"/>
+      <c r="P157" s="687"/>
+      <c r="Q157" s="687"/>
+      <c r="R157" s="687"/>
+      <c r="S157" s="687"/>
+      <c r="T157" s="687"/>
+      <c r="U157" s="687"/>
+      <c r="V157" s="687"/>
+      <c r="W157" s="687"/>
     </row>
     <row r="158" spans="1:23" ht="14">
       <c r="A158" s="253">
@@ -55202,12 +55202,12 @@
       </c>
       <c r="R158" s="678"/>
       <c r="S158" s="678"/>
-      <c r="T158" s="692" t="s">
+      <c r="T158" s="679" t="s">
         <v>519</v>
       </c>
-      <c r="U158" s="693"/>
-      <c r="V158" s="693"/>
-      <c r="W158" s="693"/>
+      <c r="U158" s="680"/>
+      <c r="V158" s="680"/>
+      <c r="W158" s="680"/>
     </row>
     <row r="159" spans="1:23" ht="15.35">
       <c r="A159" s="288"/>
@@ -55265,7 +55265,7 @@
       <c r="S159" s="258" t="s">
         <v>914</v>
       </c>
-      <c r="T159" s="691" t="s">
+      <c r="T159" s="681" t="s">
         <v>520</v>
       </c>
       <c r="U159" s="171" t="s">
@@ -55310,7 +55310,7 @@
       <c r="Q160" s="321"/>
       <c r="R160" s="275"/>
       <c r="S160" s="275"/>
-      <c r="T160" s="644"/>
+      <c r="T160" s="641"/>
       <c r="U160" s="171"/>
       <c r="V160" s="266"/>
       <c r="W160" s="266"/>
@@ -55347,7 +55347,7 @@
       <c r="Q161" s="184"/>
       <c r="R161" s="188"/>
       <c r="S161" s="188"/>
-      <c r="T161" s="644"/>
+      <c r="T161" s="641"/>
       <c r="U161" s="171" t="s">
         <v>524</v>
       </c>
@@ -55548,32 +55548,32 @@
     </row>
     <row r="172" spans="1:23" ht="14">
       <c r="A172" s="293"/>
-      <c r="B172" s="695" t="s">
+      <c r="B172" s="684" t="s">
         <v>456</v>
       </c>
-      <c r="C172" s="644"/>
-      <c r="D172" s="644"/>
-      <c r="E172" s="644"/>
-      <c r="F172" s="644"/>
-      <c r="G172" s="644"/>
-      <c r="H172" s="644"/>
-      <c r="I172" s="644"/>
-      <c r="J172" s="644"/>
-      <c r="K172" s="694" t="s">
+      <c r="C172" s="641"/>
+      <c r="D172" s="641"/>
+      <c r="E172" s="641"/>
+      <c r="F172" s="641"/>
+      <c r="G172" s="641"/>
+      <c r="H172" s="641"/>
+      <c r="I172" s="641"/>
+      <c r="J172" s="641"/>
+      <c r="K172" s="685" t="s">
         <v>911</v>
       </c>
-      <c r="L172" s="644"/>
-      <c r="M172" s="644"/>
-      <c r="N172" s="644"/>
-      <c r="O172" s="644"/>
-      <c r="P172" s="644"/>
-      <c r="Q172" s="644"/>
-      <c r="R172" s="644"/>
-      <c r="S172" s="644"/>
-      <c r="T172" s="644"/>
-      <c r="U172" s="644"/>
-      <c r="V172" s="644"/>
-      <c r="W172" s="644"/>
+      <c r="L172" s="641"/>
+      <c r="M172" s="641"/>
+      <c r="N172" s="641"/>
+      <c r="O172" s="641"/>
+      <c r="P172" s="641"/>
+      <c r="Q172" s="641"/>
+      <c r="R172" s="641"/>
+      <c r="S172" s="641"/>
+      <c r="T172" s="641"/>
+      <c r="U172" s="641"/>
+      <c r="V172" s="641"/>
+      <c r="W172" s="641"/>
     </row>
     <row r="173" spans="1:23" ht="14">
       <c r="A173" s="293"/>
@@ -55607,12 +55607,12 @@
       </c>
       <c r="R173" s="678"/>
       <c r="S173" s="678"/>
-      <c r="T173" s="692" t="s">
+      <c r="T173" s="679" t="s">
         <v>519</v>
       </c>
-      <c r="U173" s="693"/>
-      <c r="V173" s="693"/>
-      <c r="W173" s="693"/>
+      <c r="U173" s="680"/>
+      <c r="V173" s="680"/>
+      <c r="W173" s="680"/>
     </row>
     <row r="174" spans="1:23" ht="15.35">
       <c r="A174" s="293"/>
@@ -55670,7 +55670,7 @@
       <c r="S174" s="258" t="s">
         <v>914</v>
       </c>
-      <c r="T174" s="691" t="s">
+      <c r="T174" s="681" t="s">
         <v>520</v>
       </c>
       <c r="U174" s="171" t="s">
@@ -55715,7 +55715,7 @@
       <c r="Q175" s="184"/>
       <c r="R175" s="188"/>
       <c r="S175" s="188"/>
-      <c r="T175" s="644"/>
+      <c r="T175" s="641"/>
       <c r="U175" s="171" t="s">
         <v>524</v>
       </c>
@@ -57861,15 +57861,74 @@
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="B173:D173"/>
-    <mergeCell ref="E173:G173"/>
-    <mergeCell ref="H173:J173"/>
-    <mergeCell ref="K173:M173"/>
-    <mergeCell ref="N173:P173"/>
-    <mergeCell ref="Q173:S173"/>
-    <mergeCell ref="T173:W173"/>
-    <mergeCell ref="T174:T175"/>
-    <mergeCell ref="T159:T161"/>
+    <mergeCell ref="B143:D143"/>
+    <mergeCell ref="E143:G143"/>
+    <mergeCell ref="H143:J143"/>
+    <mergeCell ref="K143:M143"/>
+    <mergeCell ref="N143:P143"/>
+    <mergeCell ref="Q143:S143"/>
+    <mergeCell ref="K108:M108"/>
+    <mergeCell ref="H108:J108"/>
+    <mergeCell ref="E108:G108"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="Q129:S129"/>
+    <mergeCell ref="B129:D129"/>
+    <mergeCell ref="E129:G129"/>
+    <mergeCell ref="H129:J129"/>
+    <mergeCell ref="K129:M129"/>
+    <mergeCell ref="N129:P129"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="K3:W3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="K23:W23"/>
+    <mergeCell ref="B44:J44"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="T45:W45"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="K62:W62"/>
+    <mergeCell ref="B85:J85"/>
+    <mergeCell ref="B107:J107"/>
+    <mergeCell ref="B128:J128"/>
+    <mergeCell ref="N86:P86"/>
+    <mergeCell ref="Q86:S86"/>
+    <mergeCell ref="T86:W86"/>
+    <mergeCell ref="T87:T88"/>
+    <mergeCell ref="K85:W85"/>
+    <mergeCell ref="N108:P108"/>
+    <mergeCell ref="Q108:S108"/>
+    <mergeCell ref="T108:W108"/>
+    <mergeCell ref="T109:T110"/>
+    <mergeCell ref="K107:W107"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="K63:M63"/>
+    <mergeCell ref="N63:P63"/>
+    <mergeCell ref="Q63:S63"/>
+    <mergeCell ref="K86:M86"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="B86:D86"/>
     <mergeCell ref="B158:D158"/>
     <mergeCell ref="E158:G158"/>
     <mergeCell ref="H158:J158"/>
@@ -57894,74 +57953,15 @@
     <mergeCell ref="B62:J62"/>
     <mergeCell ref="T63:W63"/>
     <mergeCell ref="T64:T65"/>
-    <mergeCell ref="K62:W62"/>
-    <mergeCell ref="B85:J85"/>
-    <mergeCell ref="B107:J107"/>
-    <mergeCell ref="B128:J128"/>
-    <mergeCell ref="N86:P86"/>
-    <mergeCell ref="Q86:S86"/>
-    <mergeCell ref="T86:W86"/>
-    <mergeCell ref="T87:T88"/>
-    <mergeCell ref="K85:W85"/>
-    <mergeCell ref="N108:P108"/>
-    <mergeCell ref="Q108:S108"/>
-    <mergeCell ref="T108:W108"/>
-    <mergeCell ref="T109:T110"/>
-    <mergeCell ref="K107:W107"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="K63:M63"/>
-    <mergeCell ref="N63:P63"/>
-    <mergeCell ref="Q63:S63"/>
-    <mergeCell ref="K86:M86"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="K23:W23"/>
-    <mergeCell ref="B44:J44"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="T45:W45"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="K3:W3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="B143:D143"/>
-    <mergeCell ref="E143:G143"/>
-    <mergeCell ref="H143:J143"/>
-    <mergeCell ref="K143:M143"/>
-    <mergeCell ref="N143:P143"/>
-    <mergeCell ref="Q143:S143"/>
-    <mergeCell ref="K108:M108"/>
-    <mergeCell ref="H108:J108"/>
-    <mergeCell ref="E108:G108"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="Q129:S129"/>
-    <mergeCell ref="B129:D129"/>
-    <mergeCell ref="E129:G129"/>
-    <mergeCell ref="H129:J129"/>
-    <mergeCell ref="K129:M129"/>
-    <mergeCell ref="N129:P129"/>
+    <mergeCell ref="B173:D173"/>
+    <mergeCell ref="E173:G173"/>
+    <mergeCell ref="H173:J173"/>
+    <mergeCell ref="K173:M173"/>
+    <mergeCell ref="N173:P173"/>
+    <mergeCell ref="Q173:S173"/>
+    <mergeCell ref="T173:W173"/>
+    <mergeCell ref="T174:T175"/>
+    <mergeCell ref="T159:T161"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -58002,31 +58002,31 @@
       <c r="A2" s="196" t="s">
         <v>455</v>
       </c>
-      <c r="B2" s="704" t="s">
+      <c r="B2" s="709" t="s">
         <v>456</v>
       </c>
-      <c r="C2" s="705"/>
-      <c r="D2" s="705"/>
-      <c r="E2" s="706" t="s">
+      <c r="C2" s="710"/>
+      <c r="D2" s="710"/>
+      <c r="E2" s="711" t="s">
         <v>457</v>
       </c>
-      <c r="F2" s="688"/>
-      <c r="G2" s="688"/>
+      <c r="F2" s="698"/>
+      <c r="G2" s="698"/>
     </row>
     <row r="3" spans="1:7" ht="14">
       <c r="A3" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B3" s="702" t="s">
+      <c r="B3" s="707" t="s">
         <v>459</v>
       </c>
-      <c r="C3" s="686"/>
-      <c r="D3" s="686"/>
-      <c r="E3" s="703" t="s">
+      <c r="C3" s="693"/>
+      <c r="D3" s="693"/>
+      <c r="E3" s="708" t="s">
         <v>460</v>
       </c>
-      <c r="F3" s="686"/>
-      <c r="G3" s="686"/>
+      <c r="F3" s="693"/>
+      <c r="G3" s="693"/>
     </row>
     <row r="4" spans="1:7" ht="15.35">
       <c r="A4" s="197"/>
@@ -58163,31 +58163,31 @@
       <c r="A13" s="196" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="704" t="s">
+      <c r="B13" s="709" t="s">
         <v>456</v>
       </c>
-      <c r="C13" s="705"/>
-      <c r="D13" s="705"/>
-      <c r="E13" s="706" t="s">
+      <c r="C13" s="710"/>
+      <c r="D13" s="710"/>
+      <c r="E13" s="711" t="s">
         <v>457</v>
       </c>
-      <c r="F13" s="688"/>
-      <c r="G13" s="688"/>
+      <c r="F13" s="698"/>
+      <c r="G13" s="698"/>
     </row>
     <row r="14" spans="1:7" ht="14">
       <c r="A14" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B14" s="702" t="s">
+      <c r="B14" s="707" t="s">
         <v>459</v>
       </c>
-      <c r="C14" s="686"/>
-      <c r="D14" s="686"/>
-      <c r="E14" s="703" t="s">
+      <c r="C14" s="693"/>
+      <c r="D14" s="693"/>
+      <c r="E14" s="708" t="s">
         <v>460</v>
       </c>
-      <c r="F14" s="686"/>
-      <c r="G14" s="686"/>
+      <c r="F14" s="693"/>
+      <c r="G14" s="693"/>
     </row>
     <row r="15" spans="1:7" ht="15.35">
       <c r="A15" s="197"/>
@@ -58342,31 +58342,31 @@
       <c r="A24" s="196" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="704" t="s">
+      <c r="B24" s="709" t="s">
         <v>456</v>
       </c>
-      <c r="C24" s="705"/>
-      <c r="D24" s="705"/>
-      <c r="E24" s="706" t="s">
+      <c r="C24" s="710"/>
+      <c r="D24" s="710"/>
+      <c r="E24" s="711" t="s">
         <v>457</v>
       </c>
-      <c r="F24" s="688"/>
-      <c r="G24" s="688"/>
+      <c r="F24" s="698"/>
+      <c r="G24" s="698"/>
     </row>
     <row r="25" spans="1:7" ht="14">
       <c r="A25" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B25" s="702" t="s">
+      <c r="B25" s="707" t="s">
         <v>459</v>
       </c>
-      <c r="C25" s="686"/>
-      <c r="D25" s="686"/>
-      <c r="E25" s="703" t="s">
+      <c r="C25" s="693"/>
+      <c r="D25" s="693"/>
+      <c r="E25" s="708" t="s">
         <v>460</v>
       </c>
-      <c r="F25" s="686"/>
-      <c r="G25" s="686"/>
+      <c r="F25" s="693"/>
+      <c r="G25" s="693"/>
     </row>
     <row r="26" spans="1:7" ht="15.35">
       <c r="A26" s="197"/>
@@ -58503,31 +58503,31 @@
       <c r="A35" s="196" t="s">
         <v>92</v>
       </c>
-      <c r="B35" s="704" t="s">
+      <c r="B35" s="709" t="s">
         <v>456</v>
       </c>
-      <c r="C35" s="705"/>
-      <c r="D35" s="705"/>
-      <c r="E35" s="706" t="s">
+      <c r="C35" s="710"/>
+      <c r="D35" s="710"/>
+      <c r="E35" s="711" t="s">
         <v>457</v>
       </c>
-      <c r="F35" s="688"/>
-      <c r="G35" s="688"/>
+      <c r="F35" s="698"/>
+      <c r="G35" s="698"/>
     </row>
     <row r="36" spans="1:8" ht="25.35">
       <c r="A36" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B36" s="702" t="s">
+      <c r="B36" s="707" t="s">
         <v>459</v>
       </c>
-      <c r="C36" s="686"/>
-      <c r="D36" s="686"/>
-      <c r="E36" s="703" t="s">
+      <c r="C36" s="693"/>
+      <c r="D36" s="693"/>
+      <c r="E36" s="708" t="s">
         <v>460</v>
       </c>
-      <c r="F36" s="686"/>
-      <c r="G36" s="686"/>
+      <c r="F36" s="693"/>
+      <c r="G36" s="693"/>
     </row>
     <row r="37" spans="1:8" ht="15.35">
       <c r="B37" s="198" t="s">
@@ -58659,31 +58659,31 @@
       <c r="A48" s="196" t="s">
         <v>99</v>
       </c>
-      <c r="B48" s="704" t="s">
+      <c r="B48" s="709" t="s">
         <v>456</v>
       </c>
-      <c r="C48" s="705"/>
-      <c r="D48" s="705"/>
-      <c r="E48" s="706" t="s">
+      <c r="C48" s="710"/>
+      <c r="D48" s="710"/>
+      <c r="E48" s="711" t="s">
         <v>457</v>
       </c>
-      <c r="F48" s="688"/>
-      <c r="G48" s="688"/>
+      <c r="F48" s="698"/>
+      <c r="G48" s="698"/>
     </row>
     <row r="49" spans="1:8" ht="25.35">
       <c r="A49" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B49" s="702" t="s">
+      <c r="B49" s="707" t="s">
         <v>459</v>
       </c>
-      <c r="C49" s="686"/>
-      <c r="D49" s="686"/>
-      <c r="E49" s="703" t="s">
+      <c r="C49" s="693"/>
+      <c r="D49" s="693"/>
+      <c r="E49" s="708" t="s">
         <v>460</v>
       </c>
-      <c r="F49" s="686"/>
-      <c r="G49" s="686"/>
+      <c r="F49" s="693"/>
+      <c r="G49" s="693"/>
     </row>
     <row r="50" spans="1:8" ht="15.35">
       <c r="B50" s="198" t="s">
@@ -58815,31 +58815,31 @@
       <c r="A62" s="196" t="s">
         <v>104</v>
       </c>
-      <c r="B62" s="704" t="s">
+      <c r="B62" s="709" t="s">
         <v>456</v>
       </c>
-      <c r="C62" s="705"/>
-      <c r="D62" s="705"/>
-      <c r="E62" s="706" t="s">
+      <c r="C62" s="710"/>
+      <c r="D62" s="710"/>
+      <c r="E62" s="711" t="s">
         <v>457</v>
       </c>
-      <c r="F62" s="688"/>
-      <c r="G62" s="688"/>
+      <c r="F62" s="698"/>
+      <c r="G62" s="698"/>
     </row>
     <row r="63" spans="1:8" ht="25.35">
       <c r="A63" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B63" s="702" t="s">
+      <c r="B63" s="707" t="s">
         <v>459</v>
       </c>
-      <c r="C63" s="686"/>
-      <c r="D63" s="686"/>
-      <c r="E63" s="703" t="s">
+      <c r="C63" s="693"/>
+      <c r="D63" s="693"/>
+      <c r="E63" s="708" t="s">
         <v>460</v>
       </c>
-      <c r="F63" s="686"/>
-      <c r="G63" s="686"/>
+      <c r="F63" s="693"/>
+      <c r="G63" s="693"/>
     </row>
     <row r="64" spans="1:8" ht="15.35">
       <c r="B64" s="198" t="s">
@@ -58964,31 +58964,31 @@
       <c r="A79" s="191" t="s">
         <v>91</v>
       </c>
-      <c r="B79" s="704" t="s">
+      <c r="B79" s="709" t="s">
         <v>456</v>
       </c>
-      <c r="C79" s="705"/>
-      <c r="D79" s="705"/>
-      <c r="E79" s="706" t="s">
+      <c r="C79" s="710"/>
+      <c r="D79" s="710"/>
+      <c r="E79" s="711" t="s">
         <v>457</v>
       </c>
-      <c r="F79" s="688"/>
-      <c r="G79" s="688"/>
+      <c r="F79" s="698"/>
+      <c r="G79" s="698"/>
     </row>
     <row r="80" spans="1:9" ht="27.35">
       <c r="A80" s="196" t="s">
         <v>114</v>
       </c>
-      <c r="B80" s="702" t="s">
+      <c r="B80" s="707" t="s">
         <v>459</v>
       </c>
-      <c r="C80" s="686"/>
-      <c r="D80" s="686"/>
-      <c r="E80" s="703" t="s">
+      <c r="C80" s="693"/>
+      <c r="D80" s="693"/>
+      <c r="E80" s="708" t="s">
         <v>460</v>
       </c>
-      <c r="F80" s="686"/>
-      <c r="G80" s="686"/>
+      <c r="F80" s="693"/>
+      <c r="G80" s="693"/>
     </row>
     <row r="81" spans="1:7" ht="25.35">
       <c r="A81" s="10" t="s">
@@ -59126,31 +59126,31 @@
       <c r="A99" s="196" t="s">
         <v>119</v>
       </c>
-      <c r="B99" s="704" t="s">
+      <c r="B99" s="709" t="s">
         <v>456</v>
       </c>
-      <c r="C99" s="705"/>
-      <c r="D99" s="705"/>
-      <c r="E99" s="706" t="s">
+      <c r="C99" s="710"/>
+      <c r="D99" s="710"/>
+      <c r="E99" s="711" t="s">
         <v>457</v>
       </c>
-      <c r="F99" s="688"/>
-      <c r="G99" s="688"/>
+      <c r="F99" s="698"/>
+      <c r="G99" s="698"/>
     </row>
     <row r="100" spans="1:7" ht="14">
       <c r="A100" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B100" s="702" t="s">
+      <c r="B100" s="707" t="s">
         <v>459</v>
       </c>
-      <c r="C100" s="686"/>
-      <c r="D100" s="686"/>
-      <c r="E100" s="703" t="s">
+      <c r="C100" s="693"/>
+      <c r="D100" s="693"/>
+      <c r="E100" s="708" t="s">
         <v>460</v>
       </c>
-      <c r="F100" s="686"/>
-      <c r="G100" s="686"/>
+      <c r="F100" s="693"/>
+      <c r="G100" s="693"/>
     </row>
     <row r="101" spans="1:7" ht="15.35">
       <c r="A101" s="197"/>
@@ -59308,31 +59308,31 @@
       <c r="A112" s="196" t="s">
         <v>146</v>
       </c>
-      <c r="B112" s="704" t="s">
+      <c r="B112" s="709" t="s">
         <v>456</v>
       </c>
-      <c r="C112" s="705"/>
-      <c r="D112" s="705"/>
-      <c r="E112" s="706" t="s">
+      <c r="C112" s="710"/>
+      <c r="D112" s="710"/>
+      <c r="E112" s="711" t="s">
         <v>457</v>
       </c>
-      <c r="F112" s="688"/>
-      <c r="G112" s="688"/>
+      <c r="F112" s="698"/>
+      <c r="G112" s="698"/>
     </row>
     <row r="113" spans="1:7" ht="14">
       <c r="A113" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B113" s="702" t="s">
+      <c r="B113" s="707" t="s">
         <v>459</v>
       </c>
-      <c r="C113" s="686"/>
-      <c r="D113" s="686"/>
-      <c r="E113" s="703" t="s">
+      <c r="C113" s="693"/>
+      <c r="D113" s="693"/>
+      <c r="E113" s="708" t="s">
         <v>460</v>
       </c>
-      <c r="F113" s="686"/>
-      <c r="G113" s="686"/>
+      <c r="F113" s="693"/>
+      <c r="G113" s="693"/>
     </row>
     <row r="114" spans="1:7" ht="15.35">
       <c r="A114" s="197"/>
@@ -59461,31 +59461,31 @@
       <c r="A123" s="196" t="s">
         <v>163</v>
       </c>
-      <c r="B123" s="713" t="s">
+      <c r="B123" s="702" t="s">
         <v>456</v>
       </c>
-      <c r="C123" s="714"/>
-      <c r="D123" s="714"/>
-      <c r="E123" s="715" t="s">
+      <c r="C123" s="703"/>
+      <c r="D123" s="703"/>
+      <c r="E123" s="704" t="s">
         <v>457</v>
       </c>
-      <c r="F123" s="716"/>
-      <c r="G123" s="716"/>
+      <c r="F123" s="705"/>
+      <c r="G123" s="705"/>
     </row>
     <row r="124" spans="1:7" ht="14.35">
       <c r="A124" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B124" s="709" t="s">
+      <c r="B124" s="714" t="s">
         <v>459</v>
       </c>
-      <c r="C124" s="710"/>
-      <c r="D124" s="710"/>
-      <c r="E124" s="711" t="s">
+      <c r="C124" s="715"/>
+      <c r="D124" s="715"/>
+      <c r="E124" s="716" t="s">
         <v>460</v>
       </c>
-      <c r="F124" s="712"/>
-      <c r="G124" s="712"/>
+      <c r="F124" s="717"/>
+      <c r="G124" s="717"/>
     </row>
     <row r="125" spans="1:7" ht="14.35">
       <c r="A125" s="197"/>
@@ -59675,31 +59675,31 @@
       <c r="A136" s="196" t="s">
         <v>167</v>
       </c>
-      <c r="B136" s="704" t="s">
+      <c r="B136" s="709" t="s">
         <v>456</v>
       </c>
-      <c r="C136" s="705"/>
-      <c r="D136" s="705"/>
-      <c r="E136" s="706" t="s">
+      <c r="C136" s="710"/>
+      <c r="D136" s="710"/>
+      <c r="E136" s="711" t="s">
         <v>457</v>
       </c>
-      <c r="F136" s="707"/>
-      <c r="G136" s="707"/>
+      <c r="F136" s="712"/>
+      <c r="G136" s="712"/>
     </row>
     <row r="137" spans="1:7" ht="14">
       <c r="A137" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B137" s="704" t="s">
+      <c r="B137" s="709" t="s">
         <v>459</v>
       </c>
-      <c r="C137" s="707"/>
-      <c r="D137" s="708"/>
-      <c r="E137" s="706" t="s">
+      <c r="C137" s="712"/>
+      <c r="D137" s="713"/>
+      <c r="E137" s="711" t="s">
         <v>460</v>
       </c>
-      <c r="F137" s="707"/>
-      <c r="G137" s="707"/>
+      <c r="F137" s="712"/>
+      <c r="G137" s="712"/>
     </row>
     <row r="138" spans="1:7" ht="15.35">
       <c r="A138" s="197"/>
@@ -59843,31 +59843,31 @@
       <c r="A152" s="196" t="s">
         <v>186</v>
       </c>
-      <c r="B152" s="713" t="s">
+      <c r="B152" s="702" t="s">
         <v>456</v>
       </c>
-      <c r="C152" s="714"/>
-      <c r="D152" s="714"/>
-      <c r="E152" s="715" t="s">
+      <c r="C152" s="703"/>
+      <c r="D152" s="703"/>
+      <c r="E152" s="704" t="s">
         <v>457</v>
       </c>
-      <c r="F152" s="716"/>
-      <c r="G152" s="716"/>
+      <c r="F152" s="705"/>
+      <c r="G152" s="705"/>
     </row>
     <row r="153" spans="1:7" ht="21" customHeight="1">
       <c r="A153" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B153" s="713" t="s">
+      <c r="B153" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C153" s="714"/>
-      <c r="D153" s="714"/>
-      <c r="E153" s="715" t="s">
+      <c r="C153" s="703"/>
+      <c r="D153" s="703"/>
+      <c r="E153" s="704" t="s">
         <v>460</v>
       </c>
-      <c r="F153" s="716"/>
-      <c r="G153" s="716"/>
+      <c r="F153" s="705"/>
+      <c r="G153" s="705"/>
     </row>
     <row r="154" spans="1:7" ht="14.35">
       <c r="B154" s="220" t="s">
@@ -60143,31 +60143,31 @@
       <c r="A171" s="196" t="s">
         <v>208</v>
       </c>
-      <c r="B171" s="713" t="s">
+      <c r="B171" s="702" t="s">
         <v>456</v>
       </c>
-      <c r="C171" s="714"/>
-      <c r="D171" s="714"/>
-      <c r="E171" s="715" t="s">
+      <c r="C171" s="703"/>
+      <c r="D171" s="703"/>
+      <c r="E171" s="704" t="s">
         <v>457</v>
       </c>
-      <c r="F171" s="716"/>
-      <c r="G171" s="716"/>
+      <c r="F171" s="705"/>
+      <c r="G171" s="705"/>
     </row>
     <row r="172" spans="1:7" ht="27.35">
       <c r="A172" s="197" t="s">
         <v>476</v>
       </c>
-      <c r="B172" s="713" t="s">
+      <c r="B172" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C172" s="714"/>
-      <c r="D172" s="714"/>
-      <c r="E172" s="715" t="s">
+      <c r="C172" s="703"/>
+      <c r="D172" s="703"/>
+      <c r="E172" s="704" t="s">
         <v>460</v>
       </c>
-      <c r="F172" s="716"/>
-      <c r="G172" s="716"/>
+      <c r="F172" s="705"/>
+      <c r="G172" s="705"/>
     </row>
     <row r="173" spans="1:7" ht="14.35">
       <c r="A173" s="201"/>
@@ -60443,31 +60443,31 @@
       <c r="A190" s="196" t="s">
         <v>210</v>
       </c>
-      <c r="B190" s="713" t="s">
+      <c r="B190" s="702" t="s">
         <v>456</v>
       </c>
-      <c r="C190" s="714"/>
-      <c r="D190" s="714"/>
-      <c r="E190" s="715" t="s">
+      <c r="C190" s="703"/>
+      <c r="D190" s="703"/>
+      <c r="E190" s="704" t="s">
         <v>457</v>
       </c>
-      <c r="F190" s="716"/>
-      <c r="G190" s="716"/>
+      <c r="F190" s="705"/>
+      <c r="G190" s="705"/>
     </row>
     <row r="191" spans="1:7" ht="25.35">
       <c r="A191" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B191" s="713" t="s">
+      <c r="B191" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C191" s="714"/>
-      <c r="D191" s="714"/>
-      <c r="E191" s="715" t="s">
+      <c r="C191" s="703"/>
+      <c r="D191" s="703"/>
+      <c r="E191" s="704" t="s">
         <v>460</v>
       </c>
-      <c r="F191" s="716"/>
-      <c r="G191" s="716"/>
+      <c r="F191" s="705"/>
+      <c r="G191" s="705"/>
     </row>
     <row r="192" spans="1:7" ht="14.35">
       <c r="B192" s="220" t="s">
@@ -60721,31 +60721,31 @@
       <c r="A208" s="196" t="s">
         <v>215</v>
       </c>
-      <c r="B208" s="713" t="s">
+      <c r="B208" s="702" t="s">
         <v>456</v>
       </c>
-      <c r="C208" s="714"/>
-      <c r="D208" s="714"/>
-      <c r="E208" s="715" t="s">
+      <c r="C208" s="703"/>
+      <c r="D208" s="703"/>
+      <c r="E208" s="704" t="s">
         <v>457</v>
       </c>
-      <c r="F208" s="716"/>
-      <c r="G208" s="716"/>
+      <c r="F208" s="705"/>
+      <c r="G208" s="705"/>
     </row>
     <row r="209" spans="1:7" ht="25.35">
       <c r="A209" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B209" s="713" t="s">
+      <c r="B209" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C209" s="714"/>
-      <c r="D209" s="714"/>
-      <c r="E209" s="715" t="s">
+      <c r="C209" s="703"/>
+      <c r="D209" s="703"/>
+      <c r="E209" s="704" t="s">
         <v>460</v>
       </c>
-      <c r="F209" s="716"/>
-      <c r="G209" s="716"/>
+      <c r="F209" s="705"/>
+      <c r="G209" s="705"/>
     </row>
     <row r="210" spans="1:7" ht="14.35">
       <c r="B210" s="220" t="s">
@@ -61009,31 +61009,31 @@
       <c r="A226" s="196" t="s">
         <v>218</v>
       </c>
-      <c r="B226" s="713" t="s">
+      <c r="B226" s="702" t="s">
         <v>456</v>
       </c>
-      <c r="C226" s="714"/>
-      <c r="D226" s="714"/>
-      <c r="E226" s="715" t="s">
+      <c r="C226" s="703"/>
+      <c r="D226" s="703"/>
+      <c r="E226" s="704" t="s">
         <v>457</v>
       </c>
-      <c r="F226" s="717"/>
-      <c r="G226" s="717"/>
+      <c r="F226" s="706"/>
+      <c r="G226" s="706"/>
     </row>
     <row r="227" spans="1:7" ht="27.35">
       <c r="A227" s="197" t="s">
         <v>476</v>
       </c>
-      <c r="B227" s="713" t="s">
+      <c r="B227" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C227" s="644"/>
-      <c r="D227" s="644"/>
-      <c r="E227" s="715" t="s">
+      <c r="C227" s="641"/>
+      <c r="D227" s="641"/>
+      <c r="E227" s="704" t="s">
         <v>460</v>
       </c>
-      <c r="F227" s="717"/>
-      <c r="G227" s="717"/>
+      <c r="F227" s="706"/>
+      <c r="G227" s="706"/>
     </row>
     <row r="228" spans="1:7" ht="14.35">
       <c r="A228" s="197"/>
@@ -61231,31 +61231,31 @@
       <c r="A240" s="196" t="s">
         <v>223</v>
       </c>
-      <c r="B240" s="713" t="s">
+      <c r="B240" s="702" t="s">
         <v>456</v>
       </c>
-      <c r="C240" s="714"/>
-      <c r="D240" s="714"/>
-      <c r="E240" s="715" t="s">
+      <c r="C240" s="703"/>
+      <c r="D240" s="703"/>
+      <c r="E240" s="704" t="s">
         <v>457</v>
       </c>
-      <c r="F240" s="717"/>
-      <c r="G240" s="717"/>
+      <c r="F240" s="706"/>
+      <c r="G240" s="706"/>
     </row>
     <row r="241" spans="1:7" ht="27.35">
       <c r="A241" s="197" t="s">
         <v>476</v>
       </c>
-      <c r="B241" s="713" t="s">
+      <c r="B241" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C241" s="644"/>
-      <c r="D241" s="644"/>
-      <c r="E241" s="715" t="s">
+      <c r="C241" s="641"/>
+      <c r="D241" s="641"/>
+      <c r="E241" s="704" t="s">
         <v>460</v>
       </c>
-      <c r="F241" s="717"/>
-      <c r="G241" s="717"/>
+      <c r="F241" s="706"/>
+      <c r="G241" s="706"/>
     </row>
     <row r="242" spans="1:7" ht="14.35">
       <c r="A242" s="197"/>
@@ -61514,14 +61514,50 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="B152:D152"/>
-    <mergeCell ref="E152:G152"/>
-    <mergeCell ref="B153:D153"/>
-    <mergeCell ref="E153:G153"/>
-    <mergeCell ref="B172:D172"/>
-    <mergeCell ref="E172:G172"/>
-    <mergeCell ref="B171:D171"/>
-    <mergeCell ref="E171:G171"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="B137:D137"/>
+    <mergeCell ref="E137:G137"/>
+    <mergeCell ref="B124:D124"/>
+    <mergeCell ref="E124:G124"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="E112:G112"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="E113:G113"/>
+    <mergeCell ref="B136:D136"/>
+    <mergeCell ref="E136:G136"/>
+    <mergeCell ref="B123:D123"/>
+    <mergeCell ref="E123:G123"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="E79:G79"/>
     <mergeCell ref="B190:D190"/>
     <mergeCell ref="E190:G190"/>
     <mergeCell ref="B191:D191"/>
@@ -61538,50 +61574,14 @@
     <mergeCell ref="E227:G227"/>
     <mergeCell ref="B240:D240"/>
     <mergeCell ref="E240:G240"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="B137:D137"/>
-    <mergeCell ref="E137:G137"/>
-    <mergeCell ref="B124:D124"/>
-    <mergeCell ref="E124:G124"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="E112:G112"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="E113:G113"/>
-    <mergeCell ref="B136:D136"/>
-    <mergeCell ref="E136:G136"/>
-    <mergeCell ref="B123:D123"/>
-    <mergeCell ref="E123:G123"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="B152:D152"/>
+    <mergeCell ref="E152:G152"/>
+    <mergeCell ref="B153:D153"/>
+    <mergeCell ref="E153:G153"/>
+    <mergeCell ref="B172:D172"/>
+    <mergeCell ref="E172:G172"/>
+    <mergeCell ref="B171:D171"/>
+    <mergeCell ref="E171:G171"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -62324,9 +62324,9 @@
       <c r="A1" s="722" t="s">
         <v>448</v>
       </c>
-      <c r="B1" s="688"/>
-      <c r="C1" s="688"/>
-      <c r="D1" s="688"/>
+      <c r="B1" s="698"/>
+      <c r="C1" s="698"/>
+      <c r="D1" s="698"/>
       <c r="E1" s="723" t="s">
         <v>449</v>
       </c>

--- a/microgrid_base/设备信息库各参数.xlsx
+++ b/microgrid_base/设备信息库各参数.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\works\jubilant-adventure2\microgrid_base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AC4294-1432-4CF9-BF54-AAFBBF209995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DFEC48-FDFC-4AF4-84D4-8DDDF7ED228E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="8180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6555,7 +6555,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6564,29 +6564,54 @@
     <xf numFmtId="0" fontId="65" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6601,47 +6626,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6659,8 +6650,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6679,45 +6679,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6726,8 +6689,17 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6741,16 +6713,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6780,6 +6771,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -8843,7 +8843,7 @@
       <c r="C15" s="370">
         <v>560</v>
       </c>
-      <c r="D15" s="644"/>
+      <c r="D15" s="635"/>
       <c r="E15" s="365"/>
       <c r="F15" s="363"/>
       <c r="G15" s="363"/>
@@ -8924,7 +8924,7 @@
       <c r="B21" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="639"/>
+      <c r="C21" s="638"/>
       <c r="D21" s="363"/>
       <c r="E21" s="363"/>
       <c r="F21" s="363"/>
@@ -9205,7 +9205,7 @@
       <c r="C41" s="375">
         <v>560</v>
       </c>
-      <c r="D41" s="635"/>
+      <c r="D41" s="639"/>
       <c r="E41" s="366"/>
       <c r="F41" s="363"/>
       <c r="G41" s="363"/>
@@ -9286,7 +9286,7 @@
       <c r="B47" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="639"/>
+      <c r="C47" s="638"/>
       <c r="D47" s="363"/>
       <c r="E47" s="363"/>
       <c r="F47" s="363"/>
@@ -9621,7 +9621,7 @@
       <c r="C71" s="370">
         <v>560</v>
       </c>
-      <c r="D71" s="635"/>
+      <c r="D71" s="639"/>
       <c r="E71" s="363"/>
       <c r="F71" s="363"/>
       <c r="G71" s="363"/>
@@ -9702,7 +9702,7 @@
       <c r="B77" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C77" s="639"/>
+      <c r="C77" s="638"/>
       <c r="D77" s="363"/>
       <c r="E77" s="363"/>
       <c r="F77" s="363"/>
@@ -9876,10 +9876,10 @@
       </c>
       <c r="E91" s="363"/>
       <c r="F91" s="363"/>
-      <c r="G91" s="642" t="s">
+      <c r="G91" s="640" t="s">
         <v>59</v>
       </c>
-      <c r="H91" s="643"/>
+      <c r="H91" s="641"/>
     </row>
     <row r="92" spans="1:8" ht="14.35">
       <c r="A92" s="363"/>
@@ -10007,7 +10007,7 @@
       <c r="C99" s="370">
         <v>560</v>
       </c>
-      <c r="D99" s="635"/>
+      <c r="D99" s="639"/>
       <c r="E99" s="363"/>
       <c r="F99" s="363"/>
       <c r="G99" s="363"/>
@@ -10088,7 +10088,7 @@
       <c r="B105" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C105" s="638"/>
+      <c r="C105" s="642"/>
       <c r="D105" s="363"/>
       <c r="E105" s="363"/>
       <c r="F105" s="363"/>
@@ -10387,7 +10387,7 @@
       <c r="C128" s="370">
         <v>560</v>
       </c>
-      <c r="D128" s="635"/>
+      <c r="D128" s="639"/>
       <c r="E128" s="363"/>
       <c r="F128" s="363"/>
       <c r="G128" s="363"/>
@@ -10468,7 +10468,7 @@
       <c r="B134" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C134" s="638"/>
+      <c r="C134" s="642"/>
       <c r="D134" s="363"/>
       <c r="E134" s="363"/>
       <c r="F134" s="363"/>
@@ -10741,7 +10741,7 @@
       <c r="C158" s="370">
         <v>560</v>
       </c>
-      <c r="D158" s="635"/>
+      <c r="D158" s="639"/>
       <c r="E158" s="363"/>
     </row>
     <row r="159" spans="1:8" ht="14.35">
@@ -10804,7 +10804,7 @@
       <c r="B164" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C164" s="638"/>
+      <c r="C164" s="642"/>
       <c r="D164" s="363"/>
       <c r="E164" s="363"/>
     </row>
@@ -10944,7 +10944,7 @@
       <c r="C179" s="375">
         <v>560</v>
       </c>
-      <c r="D179" s="635"/>
+      <c r="D179" s="639"/>
       <c r="E179" s="363"/>
       <c r="F179" s="363"/>
       <c r="G179" s="363"/>
@@ -11025,7 +11025,7 @@
       <c r="B185" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C185" s="639"/>
+      <c r="C185" s="638"/>
       <c r="D185" s="363"/>
       <c r="E185" s="363"/>
       <c r="F185" s="363"/>
@@ -11222,7 +11222,7 @@
       <c r="C201" s="375">
         <v>560</v>
       </c>
-      <c r="D201" s="635"/>
+      <c r="D201" s="639"/>
       <c r="E201" s="363"/>
       <c r="F201" s="363"/>
       <c r="G201" s="363"/>
@@ -11302,7 +11302,7 @@
       <c r="B207" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C207" s="639"/>
+      <c r="C207" s="638"/>
       <c r="D207" s="363"/>
       <c r="E207" s="363"/>
       <c r="F207" s="363"/>
@@ -11797,7 +11797,7 @@
       <c r="C242" s="370">
         <v>560</v>
       </c>
-      <c r="D242" s="635"/>
+      <c r="D242" s="639"/>
       <c r="E242" s="363"/>
       <c r="F242" s="363"/>
       <c r="G242" s="363"/>
@@ -11878,7 +11878,7 @@
       <c r="B248" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C248" s="638"/>
+      <c r="C248" s="642"/>
       <c r="D248" s="363"/>
       <c r="E248" s="363"/>
       <c r="F248" s="363"/>
@@ -12267,7 +12267,7 @@
       <c r="C278" s="370">
         <v>560</v>
       </c>
-      <c r="D278" s="635"/>
+      <c r="D278" s="639"/>
       <c r="E278" s="363"/>
       <c r="F278" s="363"/>
       <c r="G278" s="363"/>
@@ -12348,7 +12348,7 @@
       <c r="B284" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C284" s="638"/>
+      <c r="C284" s="642"/>
       <c r="D284" s="363"/>
       <c r="E284" s="363"/>
       <c r="F284" s="363"/>
@@ -12578,7 +12578,7 @@
       <c r="C304" s="370">
         <v>560</v>
       </c>
-      <c r="D304" s="635"/>
+      <c r="D304" s="639"/>
       <c r="E304" s="363"/>
       <c r="F304" s="363"/>
       <c r="G304" s="363"/>
@@ -12659,7 +12659,7 @@
       <c r="B310" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C310" s="638"/>
+      <c r="C310" s="642"/>
       <c r="D310" s="363"/>
       <c r="E310" s="363"/>
       <c r="F310" s="363"/>
@@ -12846,7 +12846,7 @@
       <c r="C327" s="370">
         <v>560</v>
       </c>
-      <c r="D327" s="635"/>
+      <c r="D327" s="639"/>
       <c r="E327" s="363"/>
       <c r="F327" s="363"/>
       <c r="G327" s="363"/>
@@ -12927,7 +12927,7 @@
       <c r="B333" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C333" s="638"/>
+      <c r="C333" s="642"/>
       <c r="D333" s="363"/>
       <c r="E333" s="363"/>
       <c r="F333" s="363"/>
@@ -13120,7 +13120,7 @@
       <c r="C349" s="370">
         <v>560</v>
       </c>
-      <c r="D349" s="635"/>
+      <c r="D349" s="639"/>
       <c r="F349" s="363"/>
       <c r="G349" s="363"/>
       <c r="H349" s="363"/>
@@ -13195,7 +13195,7 @@
       <c r="B355" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C355" s="638"/>
+      <c r="C355" s="642"/>
       <c r="D355" s="363"/>
       <c r="F355" s="363"/>
       <c r="G355" s="363"/>
@@ -13540,7 +13540,7 @@
       <c r="C383" s="370">
         <v>560</v>
       </c>
-      <c r="D383" s="635"/>
+      <c r="D383" s="639"/>
       <c r="E383" s="363"/>
       <c r="F383" s="363"/>
       <c r="G383" s="363"/>
@@ -13621,7 +13621,7 @@
       <c r="B389" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C389" s="638"/>
+      <c r="C389" s="642"/>
       <c r="D389" s="363"/>
       <c r="E389" s="363"/>
       <c r="F389" s="363"/>
@@ -13969,7 +13969,7 @@
       <c r="C418" s="370">
         <v>560</v>
       </c>
-      <c r="D418" s="635"/>
+      <c r="D418" s="639"/>
       <c r="E418" s="363"/>
       <c r="F418" s="363"/>
       <c r="G418" s="363"/>
@@ -14050,7 +14050,7 @@
       <c r="B424" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C424" s="638"/>
+      <c r="C424" s="642"/>
       <c r="D424" s="363"/>
       <c r="E424" s="363"/>
       <c r="F424" s="363"/>
@@ -14376,7 +14376,7 @@
       <c r="B451" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C451" s="638"/>
+      <c r="C451" s="642"/>
       <c r="D451" s="363"/>
       <c r="E451" s="363"/>
       <c r="F451" s="363"/>
@@ -14591,7 +14591,7 @@
       <c r="C469" s="370">
         <v>560</v>
       </c>
-      <c r="D469" s="635"/>
+      <c r="D469" s="639"/>
       <c r="E469" s="363"/>
       <c r="F469" s="363"/>
       <c r="G469" s="363"/>
@@ -14672,7 +14672,7 @@
       <c r="B475" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C475" s="638"/>
+      <c r="C475" s="642"/>
       <c r="D475" s="363"/>
       <c r="E475" s="363"/>
       <c r="F475" s="363"/>
@@ -14899,7 +14899,7 @@
       <c r="C494" s="370">
         <v>560</v>
       </c>
-      <c r="D494" s="635"/>
+      <c r="D494" s="639"/>
       <c r="E494" s="365" t="s">
         <v>684</v>
       </c>
@@ -14982,7 +14982,7 @@
       <c r="B500" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C500" s="638"/>
+      <c r="C500" s="642"/>
       <c r="D500" s="363"/>
       <c r="E500" s="363"/>
       <c r="F500" s="363"/>
@@ -15203,7 +15203,7 @@
       <c r="C519" s="370">
         <v>560</v>
       </c>
-      <c r="D519" s="635"/>
+      <c r="D519" s="639"/>
       <c r="E519" s="365" t="s">
         <v>686</v>
       </c>
@@ -15286,7 +15286,7 @@
       <c r="B525" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C525" s="638"/>
+      <c r="C525" s="642"/>
       <c r="D525" s="363"/>
       <c r="E525" s="363"/>
       <c r="F525" s="363"/>
@@ -15553,7 +15553,7 @@
       <c r="C547" s="370">
         <v>560</v>
       </c>
-      <c r="D547" s="635"/>
+      <c r="D547" s="639"/>
       <c r="E547" s="363"/>
       <c r="F547" s="363"/>
       <c r="G547" s="363"/>
@@ -15634,7 +15634,7 @@
       <c r="B553" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C553" s="638"/>
+      <c r="C553" s="642"/>
       <c r="D553" s="363"/>
       <c r="E553" s="363"/>
       <c r="F553" s="363"/>
@@ -15965,7 +15965,7 @@
       <c r="C580" s="370">
         <v>560</v>
       </c>
-      <c r="D580" s="635"/>
+      <c r="D580" s="639"/>
       <c r="E580" s="363"/>
       <c r="F580" s="363"/>
       <c r="G580" s="363"/>
@@ -16046,7 +16046,7 @@
       <c r="B586" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C586" s="638"/>
+      <c r="C586" s="642"/>
       <c r="D586" s="363"/>
       <c r="E586" s="363"/>
       <c r="F586" s="363"/>
@@ -16310,7 +16310,7 @@
       <c r="C608" s="370">
         <v>560</v>
       </c>
-      <c r="D608" s="635"/>
+      <c r="D608" s="639"/>
       <c r="E608" s="363"/>
       <c r="F608" s="363"/>
       <c r="G608" s="363"/>
@@ -16391,7 +16391,7 @@
       <c r="B614" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C614" s="638"/>
+      <c r="C614" s="642"/>
       <c r="D614" s="363"/>
       <c r="E614" s="363"/>
       <c r="F614" s="363"/>
@@ -16675,7 +16675,7 @@
       <c r="B637" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C637" s="638"/>
+      <c r="C637" s="642"/>
       <c r="D637" s="363"/>
       <c r="E637" s="363"/>
       <c r="F637" s="363"/>
@@ -16970,10 +16970,10 @@
     </row>
     <row r="660" spans="1:8" ht="14.35">
       <c r="A660" s="363"/>
-      <c r="B660" s="640" t="s">
+      <c r="B660" s="643" t="s">
         <v>34</v>
       </c>
-      <c r="C660" s="641"/>
+      <c r="C660" s="644"/>
       <c r="D660" s="363"/>
       <c r="E660" s="363"/>
       <c r="F660" s="363"/>
@@ -17272,10 +17272,10 @@
     </row>
     <row r="683" spans="1:8" ht="14.35">
       <c r="A683" s="363"/>
-      <c r="B683" s="640" t="s">
+      <c r="B683" s="643" t="s">
         <v>34</v>
       </c>
-      <c r="C683" s="641"/>
+      <c r="C683" s="644"/>
       <c r="D683" s="363"/>
       <c r="E683" s="363"/>
       <c r="F683" s="363"/>
@@ -17639,7 +17639,7 @@
       <c r="B711" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C711" s="638"/>
+      <c r="C711" s="642"/>
       <c r="D711" s="363"/>
       <c r="E711" s="363"/>
       <c r="F711" s="363"/>
@@ -17884,7 +17884,7 @@
       <c r="C729" s="370">
         <v>560</v>
       </c>
-      <c r="D729" s="635"/>
+      <c r="D729" s="639"/>
       <c r="E729" s="363"/>
       <c r="F729" s="363"/>
       <c r="G729" s="363"/>
@@ -17965,7 +17965,7 @@
       <c r="B735" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C735" s="638"/>
+      <c r="C735" s="642"/>
       <c r="D735" s="363"/>
       <c r="E735" s="363"/>
       <c r="F735" s="363"/>
@@ -18226,7 +18226,7 @@
       <c r="C756" s="370">
         <v>560</v>
       </c>
-      <c r="D756" s="635"/>
+      <c r="D756" s="639"/>
       <c r="E756" s="363"/>
       <c r="F756" s="363"/>
       <c r="G756" s="363"/>
@@ -18307,7 +18307,7 @@
       <c r="B762" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C762" s="638"/>
+      <c r="C762" s="642"/>
       <c r="D762" s="363"/>
       <c r="E762" s="363"/>
       <c r="F762" s="363"/>
@@ -18633,7 +18633,7 @@
       <c r="B789" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C789" s="639"/>
+      <c r="C789" s="638"/>
       <c r="D789" s="363"/>
       <c r="E789" s="363"/>
       <c r="F789" s="363"/>
@@ -18959,7 +18959,7 @@
       <c r="B816" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C816" s="639"/>
+      <c r="C816" s="638"/>
       <c r="D816" s="363"/>
       <c r="E816" s="363"/>
       <c r="F816" s="363"/>
@@ -19250,7 +19250,7 @@
       <c r="C839" s="375">
         <v>560</v>
       </c>
-      <c r="D839" s="635"/>
+      <c r="D839" s="639"/>
       <c r="E839" s="365"/>
       <c r="F839" s="363"/>
       <c r="G839" s="363"/>
@@ -19331,7 +19331,7 @@
       <c r="B845" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C845" s="639"/>
+      <c r="C845" s="638"/>
       <c r="D845" s="363"/>
       <c r="E845" s="363"/>
       <c r="F845" s="363"/>
@@ -19712,7 +19712,7 @@
       <c r="B876" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C876" s="639"/>
+      <c r="C876" s="638"/>
       <c r="D876" s="363"/>
       <c r="E876" s="363"/>
       <c r="F876" s="363"/>
@@ -20068,7 +20068,7 @@
       <c r="B907" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C907" s="639"/>
+      <c r="C907" s="638"/>
       <c r="D907" s="363"/>
       <c r="E907" s="363"/>
       <c r="F907" s="363"/>
@@ -20341,7 +20341,7 @@
       <c r="B931" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C931" s="639"/>
+      <c r="C931" s="638"/>
       <c r="D931" s="363"/>
       <c r="E931" s="363"/>
       <c r="F931" s="363"/>
@@ -20691,7 +20691,7 @@
       <c r="B958" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C958" s="639"/>
+      <c r="C958" s="638"/>
       <c r="D958" s="363"/>
       <c r="E958" s="363"/>
       <c r="F958" s="363"/>
@@ -20987,7 +20987,7 @@
       <c r="B981" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C981" s="639"/>
+      <c r="C981" s="638"/>
       <c r="D981" s="363"/>
       <c r="E981" s="363"/>
       <c r="F981" s="363"/>
@@ -21283,7 +21283,7 @@
       <c r="B1005" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1005" s="639"/>
+      <c r="C1005" s="638"/>
       <c r="D1005" s="363"/>
       <c r="E1005" s="363"/>
       <c r="F1005" s="363"/>
@@ -21479,7 +21479,7 @@
       <c r="B1024" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1024" s="639"/>
+      <c r="C1024" s="638"/>
       <c r="F1024" s="363"/>
       <c r="G1024" s="363"/>
       <c r="H1024" s="363"/>
@@ -21706,7 +21706,7 @@
       <c r="C1042" s="370">
         <v>560</v>
       </c>
-      <c r="D1042" s="635"/>
+      <c r="D1042" s="639"/>
       <c r="E1042" s="363"/>
       <c r="F1042" s="363"/>
       <c r="G1042" s="363"/>
@@ -21787,7 +21787,7 @@
       <c r="B1048" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1048" s="638"/>
+      <c r="C1048" s="642"/>
       <c r="D1048" s="363"/>
       <c r="E1048" s="363"/>
       <c r="F1048" s="363"/>
@@ -22053,7 +22053,7 @@
       <c r="B1070" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1070" s="639"/>
+      <c r="C1070" s="638"/>
       <c r="D1070" s="363"/>
       <c r="E1070" s="363"/>
       <c r="F1070" s="363"/>
@@ -22298,7 +22298,7 @@
       <c r="C1089" s="370">
         <v>560</v>
       </c>
-      <c r="D1089" s="635"/>
+      <c r="D1089" s="639"/>
       <c r="E1089" s="363"/>
       <c r="F1089" s="363"/>
       <c r="G1089" s="363"/>
@@ -22373,7 +22373,7 @@
       <c r="B1095" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1095" s="638"/>
+      <c r="C1095" s="642"/>
       <c r="D1095" s="363"/>
       <c r="E1095" s="363"/>
       <c r="F1095" s="363"/>
@@ -22649,7 +22649,7 @@
       <c r="C1120" s="370">
         <v>560</v>
       </c>
-      <c r="D1120" s="635"/>
+      <c r="D1120" s="639"/>
       <c r="E1120" s="363"/>
       <c r="F1120" s="363"/>
       <c r="G1120" s="363"/>
@@ -22726,7 +22726,7 @@
       <c r="B1126" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1126" s="638"/>
+      <c r="C1126" s="642"/>
       <c r="D1126" s="363"/>
       <c r="E1126" s="363"/>
       <c r="F1126" s="363"/>
@@ -23089,7 +23089,7 @@
       <c r="B1155" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1155" s="638"/>
+      <c r="C1155" s="642"/>
       <c r="D1155" s="363"/>
       <c r="E1155" s="363"/>
       <c r="F1155" s="363"/>
@@ -23198,61 +23198,6 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D41:D46"/>
-    <mergeCell ref="D71:D75"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="D99:D103"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="D128:D132"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="D158:D162"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="D179:D184"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="D201:D206"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="D242:D246"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="D278:D282"/>
-    <mergeCell ref="B284:C284"/>
-    <mergeCell ref="D304:D308"/>
-    <mergeCell ref="B310:C310"/>
-    <mergeCell ref="D327:D331"/>
-    <mergeCell ref="B333:C333"/>
-    <mergeCell ref="D383:D387"/>
-    <mergeCell ref="B389:C389"/>
-    <mergeCell ref="D418:D422"/>
-    <mergeCell ref="B424:C424"/>
-    <mergeCell ref="B451:C451"/>
-    <mergeCell ref="D469:D473"/>
-    <mergeCell ref="B475:C475"/>
-    <mergeCell ref="D494:D498"/>
-    <mergeCell ref="B500:C500"/>
-    <mergeCell ref="D519:D523"/>
-    <mergeCell ref="B525:C525"/>
-    <mergeCell ref="D547:D551"/>
-    <mergeCell ref="B553:C553"/>
-    <mergeCell ref="D580:D584"/>
-    <mergeCell ref="B586:C586"/>
-    <mergeCell ref="D608:D612"/>
-    <mergeCell ref="B614:C614"/>
-    <mergeCell ref="B637:C637"/>
-    <mergeCell ref="B660:C660"/>
-    <mergeCell ref="B683:C683"/>
-    <mergeCell ref="B711:C711"/>
-    <mergeCell ref="D839:D844"/>
-    <mergeCell ref="B845:C845"/>
-    <mergeCell ref="B876:C876"/>
-    <mergeCell ref="B907:C907"/>
-    <mergeCell ref="D729:D733"/>
-    <mergeCell ref="B735:C735"/>
-    <mergeCell ref="D756:D760"/>
-    <mergeCell ref="B762:C762"/>
-    <mergeCell ref="B789:C789"/>
     <mergeCell ref="D1120:D1124"/>
     <mergeCell ref="B1126:C1126"/>
     <mergeCell ref="B1155:C1155"/>
@@ -23269,6 +23214,61 @@
     <mergeCell ref="B1005:C1005"/>
     <mergeCell ref="B1024:C1024"/>
     <mergeCell ref="B816:C816"/>
+    <mergeCell ref="D839:D844"/>
+    <mergeCell ref="B845:C845"/>
+    <mergeCell ref="B876:C876"/>
+    <mergeCell ref="B907:C907"/>
+    <mergeCell ref="D729:D733"/>
+    <mergeCell ref="B735:C735"/>
+    <mergeCell ref="D756:D760"/>
+    <mergeCell ref="B762:C762"/>
+    <mergeCell ref="B789:C789"/>
+    <mergeCell ref="B614:C614"/>
+    <mergeCell ref="B637:C637"/>
+    <mergeCell ref="B660:C660"/>
+    <mergeCell ref="B683:C683"/>
+    <mergeCell ref="B711:C711"/>
+    <mergeCell ref="D547:D551"/>
+    <mergeCell ref="B553:C553"/>
+    <mergeCell ref="D580:D584"/>
+    <mergeCell ref="B586:C586"/>
+    <mergeCell ref="D608:D612"/>
+    <mergeCell ref="B475:C475"/>
+    <mergeCell ref="D494:D498"/>
+    <mergeCell ref="B500:C500"/>
+    <mergeCell ref="D519:D523"/>
+    <mergeCell ref="B525:C525"/>
+    <mergeCell ref="B389:C389"/>
+    <mergeCell ref="D418:D422"/>
+    <mergeCell ref="B424:C424"/>
+    <mergeCell ref="B451:C451"/>
+    <mergeCell ref="D469:D473"/>
+    <mergeCell ref="D304:D308"/>
+    <mergeCell ref="B310:C310"/>
+    <mergeCell ref="D327:D331"/>
+    <mergeCell ref="B333:C333"/>
+    <mergeCell ref="D383:D387"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="D242:D246"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="D278:D282"/>
+    <mergeCell ref="B284:C284"/>
+    <mergeCell ref="D158:D162"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="D179:D184"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="D201:D206"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="D99:D103"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="D128:D132"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D41:D46"/>
+    <mergeCell ref="D71:D75"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23614,7 +23614,7 @@
       <c r="B20" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="639"/>
+      <c r="C20" s="638"/>
       <c r="D20" s="363"/>
       <c r="E20" s="363"/>
       <c r="F20" s="363"/>
@@ -23789,7 +23789,7 @@
         <v>29</v>
       </c>
       <c r="C36" s="375"/>
-      <c r="D36" s="645"/>
+      <c r="D36" s="650"/>
       <c r="E36" s="26"/>
       <c r="K36" s="10"/>
     </row>
@@ -23799,7 +23799,7 @@
         <v>45</v>
       </c>
       <c r="C37" s="370"/>
-      <c r="D37" s="646"/>
+      <c r="D37" s="651"/>
       <c r="E37" s="26"/>
       <c r="K37" s="10"/>
     </row>
@@ -23809,7 +23809,7 @@
         <v>30</v>
       </c>
       <c r="C38" s="370"/>
-      <c r="D38" s="646"/>
+      <c r="D38" s="651"/>
       <c r="E38" s="28"/>
       <c r="K38" s="10"/>
     </row>
@@ -23819,7 +23819,7 @@
         <v>31</v>
       </c>
       <c r="C39" s="370"/>
-      <c r="D39" s="646"/>
+      <c r="D39" s="651"/>
       <c r="E39" s="28"/>
       <c r="K39" s="10"/>
     </row>
@@ -23829,7 +23829,7 @@
         <v>32</v>
       </c>
       <c r="C40" s="370"/>
-      <c r="D40" s="646"/>
+      <c r="D40" s="651"/>
       <c r="E40" s="28"/>
       <c r="K40" s="10"/>
     </row>
@@ -23839,7 +23839,7 @@
         <v>876</v>
       </c>
       <c r="C41" s="370"/>
-      <c r="D41" s="646"/>
+      <c r="D41" s="651"/>
       <c r="E41" s="28"/>
       <c r="K41" s="10"/>
     </row>
@@ -23848,7 +23848,7 @@
       <c r="B42" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="639"/>
+      <c r="C42" s="638"/>
       <c r="D42" s="501"/>
       <c r="E42" s="28"/>
       <c r="K42" s="10"/>
@@ -24087,10 +24087,10 @@
     </row>
     <row r="61" spans="1:11" ht="14.35">
       <c r="A61" s="2"/>
-      <c r="B61" s="649" t="s">
+      <c r="B61" s="658" t="s">
         <v>34</v>
       </c>
-      <c r="C61" s="650"/>
+      <c r="C61" s="659"/>
       <c r="D61" s="8"/>
       <c r="E61" s="393"/>
       <c r="F61" s="2"/>
@@ -24276,10 +24276,10 @@
       <c r="D75" s="518" t="s">
         <v>58</v>
       </c>
-      <c r="E75" s="651" t="s">
+      <c r="E75" s="646" t="s">
         <v>59</v>
       </c>
-      <c r="F75" s="652"/>
+      <c r="F75" s="647"/>
       <c r="G75" s="520"/>
       <c r="H75" s="488"/>
       <c r="K75" s="10"/>
@@ -24376,7 +24376,7 @@
         <v>65</v>
       </c>
       <c r="C81" s="370"/>
-      <c r="D81" s="645"/>
+      <c r="D81" s="650"/>
       <c r="E81" s="525">
         <v>1</v>
       </c>
@@ -24393,7 +24393,7 @@
         <v>30</v>
       </c>
       <c r="C82" s="370"/>
-      <c r="D82" s="646"/>
+      <c r="D82" s="651"/>
       <c r="E82" s="526" t="s">
         <v>66</v>
       </c>
@@ -24408,7 +24408,7 @@
         <v>31</v>
       </c>
       <c r="C83" s="370"/>
-      <c r="D83" s="646"/>
+      <c r="D83" s="651"/>
       <c r="E83" s="527" t="s">
         <v>67</v>
       </c>
@@ -24423,7 +24423,7 @@
         <v>68</v>
       </c>
       <c r="C84" s="499"/>
-      <c r="D84" s="646"/>
+      <c r="D84" s="651"/>
       <c r="E84" s="363"/>
       <c r="F84" s="363"/>
       <c r="G84" s="363"/>
@@ -24435,7 +24435,7 @@
       <c r="B85" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C85" s="639"/>
+      <c r="C85" s="638"/>
       <c r="D85" s="363"/>
       <c r="E85" s="363"/>
       <c r="F85" s="363"/>
@@ -24542,8 +24542,8 @@
       <c r="D94" s="373"/>
       <c r="E94" s="363"/>
       <c r="F94" s="363"/>
-      <c r="G94" s="642"/>
-      <c r="H94" s="643"/>
+      <c r="G94" s="640"/>
+      <c r="H94" s="641"/>
       <c r="K94" s="10"/>
     </row>
     <row r="95" spans="1:11" ht="14.35">
@@ -24567,10 +24567,10 @@
       <c r="C96" s="399" t="s">
         <v>57</v>
       </c>
-      <c r="D96" s="653" t="s">
+      <c r="D96" s="648" t="s">
         <v>59</v>
       </c>
-      <c r="E96" s="652"/>
+      <c r="E96" s="647"/>
       <c r="F96" s="363"/>
       <c r="G96" s="410"/>
       <c r="H96" s="409"/>
@@ -24716,10 +24716,10 @@
     </row>
     <row r="106" spans="1:11" ht="14.35">
       <c r="A106" s="363"/>
-      <c r="B106" s="655" t="s">
+      <c r="B106" s="652" t="s">
         <v>34</v>
       </c>
-      <c r="C106" s="656"/>
+      <c r="C106" s="653"/>
       <c r="E106" s="363"/>
       <c r="F106" s="363"/>
       <c r="G106" s="363"/>
@@ -24838,7 +24838,7 @@
       </c>
       <c r="C116" s="401"/>
       <c r="D116" s="365"/>
-      <c r="E116" s="654" t="s">
+      <c r="E116" s="649" t="s">
         <v>59</v>
       </c>
       <c r="F116" s="633"/>
@@ -25005,7 +25005,7 @@
       <c r="B127" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C127" s="638"/>
+      <c r="C127" s="642"/>
       <c r="D127" s="363"/>
       <c r="E127" s="363"/>
       <c r="F127" s="363"/>
@@ -25283,7 +25283,7 @@
       <c r="B153" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C153" s="638"/>
+      <c r="C153" s="642"/>
       <c r="D153" s="363"/>
       <c r="E153" s="363"/>
       <c r="H153" s="10"/>
@@ -25483,7 +25483,7 @@
       <c r="B171" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C171" s="639"/>
+      <c r="C171" s="638"/>
       <c r="D171" s="363"/>
       <c r="E171" s="363"/>
       <c r="F171" s="363"/>
@@ -25716,7 +25716,7 @@
       <c r="B189" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C189" s="639"/>
+      <c r="C189" s="638"/>
       <c r="D189" s="363"/>
       <c r="E189" s="363"/>
       <c r="F189" s="363"/>
@@ -25942,7 +25942,7 @@
       <c r="B207" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C207" s="638"/>
+      <c r="C207" s="642"/>
       <c r="D207" s="363"/>
       <c r="E207" s="363"/>
       <c r="F207" s="363"/>
@@ -26127,7 +26127,7 @@
       <c r="B223" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C223" s="638"/>
+      <c r="C223" s="642"/>
       <c r="D223" s="363"/>
       <c r="F223" s="2"/>
       <c r="G223" s="2"/>
@@ -26492,7 +26492,7 @@
         <v>143</v>
       </c>
       <c r="C249" s="370"/>
-      <c r="D249" s="657"/>
+      <c r="D249" s="654"/>
       <c r="E249" s="363"/>
       <c r="F249" s="363"/>
       <c r="G249" s="363"/>
@@ -26505,7 +26505,7 @@
         <v>144</v>
       </c>
       <c r="C250" s="370"/>
-      <c r="D250" s="658"/>
+      <c r="D250" s="655"/>
       <c r="E250" s="363"/>
       <c r="F250" s="363"/>
       <c r="G250" s="363"/>
@@ -26518,7 +26518,7 @@
         <v>30</v>
       </c>
       <c r="C251" s="370"/>
-      <c r="D251" s="658"/>
+      <c r="D251" s="655"/>
       <c r="E251" s="363"/>
       <c r="F251" s="363"/>
       <c r="G251" s="363"/>
@@ -26531,7 +26531,7 @@
         <v>31</v>
       </c>
       <c r="C252" s="370"/>
-      <c r="D252" s="658"/>
+      <c r="D252" s="655"/>
       <c r="E252" s="363"/>
       <c r="F252" s="363"/>
       <c r="G252" s="363"/>
@@ -26544,7 +26544,7 @@
         <v>145</v>
       </c>
       <c r="C253" s="370"/>
-      <c r="D253" s="658"/>
+      <c r="D253" s="655"/>
       <c r="E253" s="363"/>
       <c r="F253" s="363"/>
       <c r="G253" s="363"/>
@@ -26569,7 +26569,7 @@
       <c r="B255" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C255" s="639"/>
+      <c r="C255" s="638"/>
       <c r="D255" s="363"/>
       <c r="E255" s="363"/>
       <c r="F255" s="363"/>
@@ -26995,7 +26995,7 @@
         <v>143</v>
       </c>
       <c r="C285" s="370"/>
-      <c r="D285" s="645"/>
+      <c r="D285" s="650"/>
       <c r="E285" s="563"/>
       <c r="F285" s="562"/>
       <c r="G285" s="363"/>
@@ -27008,7 +27008,7 @@
         <v>144</v>
       </c>
       <c r="C286" s="370"/>
-      <c r="D286" s="646"/>
+      <c r="D286" s="651"/>
       <c r="E286" s="563"/>
       <c r="F286" s="562"/>
       <c r="G286" s="363"/>
@@ -27021,7 +27021,7 @@
         <v>30</v>
       </c>
       <c r="C287" s="370"/>
-      <c r="D287" s="646"/>
+      <c r="D287" s="651"/>
       <c r="E287" s="563"/>
       <c r="F287" s="562"/>
       <c r="G287" s="363"/>
@@ -27034,7 +27034,7 @@
         <v>31</v>
       </c>
       <c r="C288" s="370"/>
-      <c r="D288" s="646"/>
+      <c r="D288" s="651"/>
       <c r="E288" s="563"/>
       <c r="F288" s="562"/>
       <c r="G288" s="363"/>
@@ -27047,7 +27047,7 @@
         <v>145</v>
       </c>
       <c r="C289" s="370"/>
-      <c r="D289" s="646"/>
+      <c r="D289" s="651"/>
       <c r="E289" s="563"/>
       <c r="F289" s="562"/>
       <c r="G289" s="363"/>
@@ -27072,7 +27072,7 @@
       <c r="B291" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C291" s="639"/>
+      <c r="C291" s="638"/>
       <c r="D291" s="501"/>
       <c r="E291" s="363"/>
       <c r="F291" s="363"/>
@@ -27253,7 +27253,7 @@
         <v>143</v>
       </c>
       <c r="C305" s="370"/>
-      <c r="D305" s="645"/>
+      <c r="D305" s="650"/>
       <c r="F305" s="363"/>
       <c r="G305" s="363"/>
       <c r="H305" s="488"/>
@@ -27265,7 +27265,7 @@
         <v>144</v>
       </c>
       <c r="C306" s="370"/>
-      <c r="D306" s="646"/>
+      <c r="D306" s="651"/>
       <c r="F306" s="363"/>
       <c r="G306" s="363"/>
       <c r="H306" s="488"/>
@@ -27277,7 +27277,7 @@
         <v>30</v>
       </c>
       <c r="C307" s="370"/>
-      <c r="D307" s="646"/>
+      <c r="D307" s="651"/>
       <c r="F307" s="363"/>
       <c r="G307" s="363"/>
       <c r="H307" s="488"/>
@@ -27289,7 +27289,7 @@
         <v>31</v>
       </c>
       <c r="C308" s="370"/>
-      <c r="D308" s="646"/>
+      <c r="D308" s="651"/>
       <c r="F308" s="363"/>
       <c r="G308" s="363"/>
       <c r="H308" s="488"/>
@@ -27301,7 +27301,7 @@
         <v>145</v>
       </c>
       <c r="C309" s="370"/>
-      <c r="D309" s="646"/>
+      <c r="D309" s="651"/>
       <c r="F309" s="363"/>
       <c r="G309" s="363"/>
       <c r="H309" s="488"/>
@@ -27324,7 +27324,7 @@
       <c r="B311" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C311" s="639"/>
+      <c r="C311" s="638"/>
       <c r="D311" s="501"/>
       <c r="F311" s="363"/>
       <c r="G311" s="363"/>
@@ -27587,10 +27587,10 @@
     </row>
     <row r="333" spans="1:11" ht="14.35">
       <c r="A333" s="2"/>
-      <c r="B333" s="647" t="s">
+      <c r="B333" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C333" s="648"/>
+      <c r="C333" s="657"/>
       <c r="D333" s="2"/>
       <c r="F333" s="363"/>
       <c r="G333" s="2"/>
@@ -27799,7 +27799,7 @@
       <c r="B351" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C351" s="638"/>
+      <c r="C351" s="642"/>
       <c r="F351" s="2"/>
       <c r="G351" s="2"/>
       <c r="H351" s="8"/>
@@ -28339,10 +28339,10 @@
     </row>
     <row r="388" spans="1:11" ht="14.7">
       <c r="A388" s="2"/>
-      <c r="B388" s="659" t="s">
+      <c r="B388" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C388" s="641"/>
+      <c r="C388" s="644"/>
       <c r="D388" s="97"/>
       <c r="F388" s="2"/>
       <c r="G388" s="2"/>
@@ -28914,10 +28914,10 @@
     </row>
     <row r="425" spans="1:11" ht="14.7">
       <c r="A425" s="2"/>
-      <c r="B425" s="659" t="s">
+      <c r="B425" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C425" s="641"/>
+      <c r="C425" s="644"/>
       <c r="D425" s="97"/>
       <c r="E425" s="97"/>
       <c r="F425" s="2"/>
@@ -29469,10 +29469,10 @@
     </row>
     <row r="461" spans="1:11" ht="14.7">
       <c r="A461" s="2"/>
-      <c r="B461" s="659" t="s">
+      <c r="B461" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C461" s="641"/>
+      <c r="C461" s="644"/>
       <c r="D461" s="97"/>
       <c r="E461" s="97"/>
       <c r="F461" s="97"/>
@@ -30020,10 +30020,10 @@
     </row>
     <row r="497" spans="1:11" ht="14.7">
       <c r="A497" s="2"/>
-      <c r="B497" s="659" t="s">
+      <c r="B497" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C497" s="641"/>
+      <c r="C497" s="644"/>
       <c r="D497" s="97"/>
       <c r="E497" s="97"/>
       <c r="F497" s="97"/>
@@ -30915,10 +30915,10 @@
     </row>
     <row r="552" spans="1:11" ht="14.7">
       <c r="A552" s="2"/>
-      <c r="B552" s="659" t="s">
+      <c r="B552" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C552" s="641"/>
+      <c r="C552" s="644"/>
       <c r="D552" s="97"/>
       <c r="E552" s="97"/>
       <c r="F552" s="97"/>
@@ -31345,7 +31345,7 @@
       <c r="B590" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C590" s="638"/>
+      <c r="C590" s="642"/>
       <c r="D590" s="363"/>
       <c r="E590" s="363"/>
       <c r="F590" s="363"/>
@@ -31560,7 +31560,7 @@
       <c r="B607" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C607" s="638"/>
+      <c r="C607" s="642"/>
       <c r="D607" s="363"/>
       <c r="E607" s="363"/>
       <c r="F607" s="363"/>
@@ -31756,7 +31756,7 @@
       <c r="B623" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C623" s="639"/>
+      <c r="C623" s="638"/>
       <c r="D623" s="590"/>
       <c r="E623" s="363"/>
       <c r="F623" s="363"/>
@@ -31971,7 +31971,7 @@
       <c r="B640" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C640" s="638"/>
+      <c r="C640" s="642"/>
       <c r="D640" s="363"/>
       <c r="E640" s="363"/>
       <c r="F640" s="363"/>
@@ -32154,7 +32154,7 @@
       <c r="B655" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C655" s="639"/>
+      <c r="C655" s="638"/>
       <c r="D655" s="363"/>
       <c r="E655" s="363"/>
       <c r="F655" s="363"/>
@@ -32360,10 +32360,10 @@
     </row>
     <row r="672" spans="1:11" ht="14.35">
       <c r="A672" s="363"/>
-      <c r="B672" s="640" t="s">
+      <c r="B672" s="643" t="s">
         <v>34</v>
       </c>
-      <c r="C672" s="641"/>
+      <c r="C672" s="644"/>
       <c r="D672" s="363"/>
       <c r="E672" s="363"/>
       <c r="F672" s="363"/>
@@ -32551,10 +32551,10 @@
     </row>
     <row r="687" spans="1:11" ht="14.35">
       <c r="A687" s="363"/>
-      <c r="B687" s="640" t="s">
+      <c r="B687" s="643" t="s">
         <v>34</v>
       </c>
-      <c r="C687" s="641"/>
+      <c r="C687" s="644"/>
       <c r="D687" s="363"/>
       <c r="E687" s="363"/>
       <c r="F687" s="363"/>
@@ -32831,7 +32831,7 @@
       <c r="B710" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C710" s="638"/>
+      <c r="C710" s="642"/>
       <c r="D710" s="363"/>
       <c r="E710" s="363"/>
       <c r="F710" s="363"/>
@@ -33033,7 +33033,7 @@
       <c r="B726" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C726" s="638"/>
+      <c r="C726" s="642"/>
       <c r="D726" s="363"/>
       <c r="E726" s="363"/>
       <c r="F726" s="363"/>
@@ -33264,7 +33264,7 @@
       <c r="B745" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C745" s="638"/>
+      <c r="C745" s="642"/>
       <c r="D745" s="363"/>
       <c r="E745" s="363"/>
       <c r="F745" s="363"/>
@@ -33553,7 +33553,7 @@
       <c r="B768" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C768" s="639"/>
+      <c r="C768" s="638"/>
       <c r="D768" s="363"/>
       <c r="E768" s="363"/>
       <c r="F768" s="363"/>
@@ -33835,7 +33835,7 @@
       <c r="B790" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C790" s="639"/>
+      <c r="C790" s="638"/>
       <c r="D790" s="363"/>
       <c r="E790" s="363"/>
       <c r="F790" s="363"/>
@@ -34146,7 +34146,7 @@
       <c r="B815" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C815" s="639"/>
+      <c r="C815" s="638"/>
       <c r="D815" s="605"/>
       <c r="E815" s="363"/>
       <c r="F815" s="363"/>
@@ -34454,7 +34454,7 @@
       <c r="B840" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C840" s="639"/>
+      <c r="C840" s="638"/>
       <c r="D840" s="363"/>
       <c r="E840" s="363"/>
       <c r="F840" s="363"/>
@@ -34763,7 +34763,7 @@
       <c r="B866" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C866" s="639"/>
+      <c r="C866" s="638"/>
       <c r="D866" s="363"/>
       <c r="E866" s="363"/>
       <c r="F866" s="363"/>
@@ -34996,7 +34996,7 @@
       <c r="B886" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C886" s="639"/>
+      <c r="C886" s="638"/>
       <c r="D886" s="363"/>
       <c r="E886" s="363"/>
       <c r="F886" s="363"/>
@@ -35276,7 +35276,7 @@
       <c r="B908" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C908" s="639"/>
+      <c r="C908" s="638"/>
       <c r="D908" s="363"/>
       <c r="E908" s="363"/>
       <c r="F908" s="363"/>
@@ -35523,7 +35523,7 @@
       <c r="B927" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C927" s="639"/>
+      <c r="C927" s="638"/>
       <c r="D927" s="363"/>
       <c r="E927" s="363"/>
       <c r="F927" s="363"/>
@@ -35766,7 +35766,7 @@
       <c r="B946" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C946" s="639"/>
+      <c r="C946" s="638"/>
       <c r="D946" s="363"/>
       <c r="E946" s="363"/>
       <c r="F946" s="363"/>
@@ -35910,7 +35910,7 @@
       <c r="B960" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C960" s="639"/>
+      <c r="C960" s="638"/>
       <c r="F960" s="363"/>
       <c r="G960" s="363"/>
       <c r="H960" s="488"/>
@@ -36160,7 +36160,7 @@
       <c r="B980" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C980" s="638"/>
+      <c r="C980" s="642"/>
       <c r="D980" s="363"/>
       <c r="E980" s="363"/>
       <c r="F980" s="363"/>
@@ -36365,7 +36365,7 @@
       <c r="B997" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C997" s="639"/>
+      <c r="C997" s="638"/>
       <c r="D997" s="363"/>
       <c r="E997" s="363"/>
       <c r="F997" s="363"/>
@@ -36611,7 +36611,7 @@
       <c r="B1017" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1017" s="638"/>
+      <c r="C1017" s="642"/>
       <c r="D1017" s="363"/>
       <c r="E1017" s="363"/>
       <c r="F1017" s="363"/>
@@ -36875,7 +36875,7 @@
       <c r="B1039" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1039" s="638"/>
+      <c r="C1039" s="642"/>
       <c r="D1039" s="363"/>
       <c r="E1039" s="363"/>
       <c r="F1039" s="363"/>
@@ -37174,7 +37174,7 @@
       <c r="B1062" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1062" s="638"/>
+      <c r="C1062" s="642"/>
       <c r="D1062" s="363"/>
       <c r="E1062" s="363"/>
       <c r="F1062" s="363"/>
@@ -37198,21 +37198,30 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="B590:C590"/>
-    <mergeCell ref="B710:C710"/>
-    <mergeCell ref="B726:C726"/>
-    <mergeCell ref="B745:C745"/>
-    <mergeCell ref="B768:C768"/>
-    <mergeCell ref="B790:C790"/>
-    <mergeCell ref="B815:C815"/>
-    <mergeCell ref="B840:C840"/>
-    <mergeCell ref="B866:C866"/>
-    <mergeCell ref="B886:C886"/>
-    <mergeCell ref="B908:C908"/>
-    <mergeCell ref="B927:C927"/>
-    <mergeCell ref="B946:C946"/>
-    <mergeCell ref="B960:C960"/>
-    <mergeCell ref="B980:C980"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="B333:C333"/>
+    <mergeCell ref="B351:C351"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B311:C311"/>
+    <mergeCell ref="D36:D41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="D305:D309"/>
+    <mergeCell ref="B223:C223"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="D249:D253"/>
+    <mergeCell ref="B255:C255"/>
+    <mergeCell ref="D285:D289"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="B207:C207"/>
     <mergeCell ref="B997:C997"/>
     <mergeCell ref="B1017:C1017"/>
     <mergeCell ref="B1039:C1039"/>
@@ -37229,30 +37238,21 @@
     <mergeCell ref="B655:C655"/>
     <mergeCell ref="B672:C672"/>
     <mergeCell ref="B687:C687"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="D305:D309"/>
-    <mergeCell ref="B223:C223"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="D249:D253"/>
-    <mergeCell ref="B255:C255"/>
-    <mergeCell ref="D285:D289"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="B189:C189"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="B333:C333"/>
-    <mergeCell ref="B351:C351"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B311:C311"/>
-    <mergeCell ref="D36:D41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B908:C908"/>
+    <mergeCell ref="B927:C927"/>
+    <mergeCell ref="B946:C946"/>
+    <mergeCell ref="B960:C960"/>
+    <mergeCell ref="B980:C980"/>
+    <mergeCell ref="B790:C790"/>
+    <mergeCell ref="B815:C815"/>
+    <mergeCell ref="B840:C840"/>
+    <mergeCell ref="B866:C866"/>
+    <mergeCell ref="B886:C886"/>
+    <mergeCell ref="B590:C590"/>
+    <mergeCell ref="B710:C710"/>
+    <mergeCell ref="B726:C726"/>
+    <mergeCell ref="B745:C745"/>
+    <mergeCell ref="B768:C768"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37594,10 +37594,10 @@
     </row>
     <row r="20" spans="1:11" ht="14.35">
       <c r="A20" s="2"/>
-      <c r="B20" s="647" t="s">
+      <c r="B20" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="650"/>
+      <c r="C20" s="659"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -37770,7 +37770,7 @@
         <v>29</v>
       </c>
       <c r="C36" s="14"/>
-      <c r="D36" s="661"/>
+      <c r="D36" s="660"/>
       <c r="E36" s="26"/>
       <c r="K36" s="10"/>
     </row>
@@ -37780,7 +37780,7 @@
         <v>45</v>
       </c>
       <c r="C37" s="11"/>
-      <c r="D37" s="662"/>
+      <c r="D37" s="661"/>
       <c r="E37" s="26"/>
       <c r="K37" s="10"/>
     </row>
@@ -37790,7 +37790,7 @@
         <v>30</v>
       </c>
       <c r="C38" s="11"/>
-      <c r="D38" s="662"/>
+      <c r="D38" s="661"/>
       <c r="E38" s="28"/>
       <c r="K38" s="10"/>
     </row>
@@ -37800,7 +37800,7 @@
         <v>31</v>
       </c>
       <c r="C39" s="11"/>
-      <c r="D39" s="662"/>
+      <c r="D39" s="661"/>
       <c r="E39" s="28"/>
       <c r="K39" s="10"/>
     </row>
@@ -37810,7 +37810,7 @@
         <v>32</v>
       </c>
       <c r="C40" s="11"/>
-      <c r="D40" s="662"/>
+      <c r="D40" s="661"/>
       <c r="E40" s="28"/>
       <c r="K40" s="10"/>
     </row>
@@ -37820,16 +37820,16 @@
         <v>876</v>
       </c>
       <c r="C41" s="11"/>
-      <c r="D41" s="662"/>
+      <c r="D41" s="661"/>
       <c r="E41" s="28"/>
       <c r="K41" s="10"/>
     </row>
     <row r="42" spans="1:11" ht="14.35">
       <c r="A42" s="2"/>
-      <c r="B42" s="647" t="s">
+      <c r="B42" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="650"/>
+      <c r="C42" s="659"/>
       <c r="D42" s="28"/>
       <c r="E42" s="28"/>
       <c r="K42" s="10"/>
@@ -38068,10 +38068,10 @@
     </row>
     <row r="61" spans="1:11" ht="14.35">
       <c r="A61" s="2"/>
-      <c r="B61" s="647" t="s">
+      <c r="B61" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C61" s="650"/>
+      <c r="C61" s="659"/>
       <c r="D61" s="8"/>
       <c r="E61" s="23"/>
       <c r="F61" s="2"/>
@@ -38255,10 +38255,10 @@
       <c r="D75" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="E75" s="671" t="s">
+      <c r="E75" s="662" t="s">
         <v>59</v>
       </c>
-      <c r="F75" s="652"/>
+      <c r="F75" s="647"/>
       <c r="G75" s="44"/>
       <c r="H75" s="8"/>
       <c r="K75" s="10"/>
@@ -38356,7 +38356,7 @@
         <v>65</v>
       </c>
       <c r="C81" s="11"/>
-      <c r="D81" s="661"/>
+      <c r="D81" s="660"/>
       <c r="E81" s="49">
         <v>1</v>
       </c>
@@ -38373,7 +38373,7 @@
         <v>30</v>
       </c>
       <c r="C82" s="11"/>
-      <c r="D82" s="662"/>
+      <c r="D82" s="661"/>
       <c r="E82" s="29" t="s">
         <v>66</v>
       </c>
@@ -38388,7 +38388,7 @@
         <v>31</v>
       </c>
       <c r="C83" s="11"/>
-      <c r="D83" s="662"/>
+      <c r="D83" s="661"/>
       <c r="E83" s="29" t="s">
         <v>67</v>
       </c>
@@ -38403,7 +38403,7 @@
         <v>68</v>
       </c>
       <c r="C84" s="24"/>
-      <c r="D84" s="662"/>
+      <c r="D84" s="661"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
@@ -38412,10 +38412,10 @@
     </row>
     <row r="85" spans="1:11" ht="14.35">
       <c r="A85" s="2"/>
-      <c r="B85" s="647" t="s">
+      <c r="B85" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C85" s="650"/>
+      <c r="C85" s="659"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
@@ -38520,8 +38520,8 @@
       <c r="D94" s="37"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
-      <c r="G94" s="666"/>
-      <c r="H94" s="667"/>
+      <c r="G94" s="663"/>
+      <c r="H94" s="664"/>
       <c r="K94" s="10"/>
     </row>
     <row r="95" spans="1:11" ht="14.35">
@@ -38545,10 +38545,10 @@
       <c r="C96" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="D96" s="668" t="s">
+      <c r="D96" s="665" t="s">
         <v>59</v>
       </c>
-      <c r="E96" s="652"/>
+      <c r="E96" s="647"/>
       <c r="F96" s="2"/>
       <c r="G96" s="54"/>
       <c r="H96" s="12"/>
@@ -38694,10 +38694,10 @@
     </row>
     <row r="106" spans="1:11" ht="14.35">
       <c r="A106" s="2"/>
-      <c r="B106" s="669" t="s">
+      <c r="B106" s="666" t="s">
         <v>34</v>
       </c>
-      <c r="C106" s="670"/>
+      <c r="C106" s="667"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
@@ -38816,7 +38816,7 @@
         <v>80</v>
       </c>
       <c r="D116" s="23"/>
-      <c r="E116" s="665" t="s">
+      <c r="E116" s="668" t="s">
         <v>59</v>
       </c>
       <c r="F116" s="633"/>
@@ -39023,10 +39023,10 @@
     </row>
     <row r="130" spans="1:11" ht="14.35">
       <c r="A130" s="2"/>
-      <c r="B130" s="647" t="s">
+      <c r="B130" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C130" s="648"/>
+      <c r="C130" s="657"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
@@ -39313,10 +39313,10 @@
     </row>
     <row r="156" spans="1:11" ht="14.35">
       <c r="A156" s="2"/>
-      <c r="B156" s="647" t="s">
+      <c r="B156" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C156" s="648"/>
+      <c r="C156" s="657"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
       <c r="H156" s="10"/>
@@ -39511,10 +39511,10 @@
     </row>
     <row r="174" spans="1:11" ht="14.35">
       <c r="A174" s="2"/>
-      <c r="B174" s="647" t="s">
+      <c r="B174" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C174" s="650"/>
+      <c r="C174" s="659"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
@@ -39742,10 +39742,10 @@
     </row>
     <row r="192" spans="1:11" ht="14.35">
       <c r="A192" s="2"/>
-      <c r="B192" s="647" t="s">
+      <c r="B192" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C192" s="650"/>
+      <c r="C192" s="659"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
@@ -40073,10 +40073,10 @@
     </row>
     <row r="217" spans="1:11" ht="14.35">
       <c r="A217" s="2"/>
-      <c r="B217" s="647" t="s">
+      <c r="B217" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C217" s="648"/>
+      <c r="C217" s="657"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
@@ -40382,10 +40382,10 @@
     </row>
     <row r="242" spans="1:11" ht="14.35">
       <c r="A242" s="2"/>
-      <c r="B242" s="647" t="s">
+      <c r="B242" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C242" s="648"/>
+      <c r="C242" s="657"/>
       <c r="D242" s="2"/>
       <c r="F242" s="2"/>
       <c r="G242" s="2"/>
@@ -40748,7 +40748,7 @@
         <v>143</v>
       </c>
       <c r="C268" s="11"/>
-      <c r="D268" s="663"/>
+      <c r="D268" s="669"/>
       <c r="E268" s="2"/>
       <c r="F268" s="2"/>
       <c r="G268" s="2"/>
@@ -40761,7 +40761,7 @@
         <v>144</v>
       </c>
       <c r="C269" s="11"/>
-      <c r="D269" s="664"/>
+      <c r="D269" s="670"/>
       <c r="E269" s="2"/>
       <c r="F269" s="2"/>
       <c r="G269" s="2"/>
@@ -40774,7 +40774,7 @@
         <v>30</v>
       </c>
       <c r="C270" s="11"/>
-      <c r="D270" s="664"/>
+      <c r="D270" s="670"/>
       <c r="E270" s="2"/>
       <c r="F270" s="2"/>
       <c r="G270" s="2"/>
@@ -40787,7 +40787,7 @@
         <v>31</v>
       </c>
       <c r="C271" s="11"/>
-      <c r="D271" s="664"/>
+      <c r="D271" s="670"/>
       <c r="E271" s="2"/>
       <c r="F271" s="2"/>
       <c r="G271" s="2"/>
@@ -40800,7 +40800,7 @@
         <v>145</v>
       </c>
       <c r="C272" s="11"/>
-      <c r="D272" s="664"/>
+      <c r="D272" s="670"/>
       <c r="E272" s="2"/>
       <c r="F272" s="2"/>
       <c r="G272" s="2"/>
@@ -40822,10 +40822,10 @@
     </row>
     <row r="274" spans="1:11" ht="14.35">
       <c r="A274" s="2"/>
-      <c r="B274" s="647" t="s">
+      <c r="B274" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C274" s="650"/>
+      <c r="C274" s="659"/>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
       <c r="F274" s="2"/>
@@ -41249,7 +41249,7 @@
         <v>143</v>
       </c>
       <c r="C304" s="11"/>
-      <c r="D304" s="661"/>
+      <c r="D304" s="660"/>
       <c r="E304" s="84"/>
       <c r="F304" s="85"/>
       <c r="G304" s="2"/>
@@ -41262,7 +41262,7 @@
         <v>144</v>
       </c>
       <c r="C305" s="11"/>
-      <c r="D305" s="662"/>
+      <c r="D305" s="661"/>
       <c r="E305" s="84"/>
       <c r="F305" s="85"/>
       <c r="G305" s="2"/>
@@ -41275,7 +41275,7 @@
         <v>30</v>
       </c>
       <c r="C306" s="11"/>
-      <c r="D306" s="662"/>
+      <c r="D306" s="661"/>
       <c r="E306" s="84"/>
       <c r="F306" s="85"/>
       <c r="G306" s="2"/>
@@ -41288,7 +41288,7 @@
         <v>31</v>
       </c>
       <c r="C307" s="11"/>
-      <c r="D307" s="662"/>
+      <c r="D307" s="661"/>
       <c r="E307" s="84"/>
       <c r="F307" s="85"/>
       <c r="G307" s="2"/>
@@ -41301,7 +41301,7 @@
         <v>145</v>
       </c>
       <c r="C308" s="11"/>
-      <c r="D308" s="662"/>
+      <c r="D308" s="661"/>
       <c r="E308" s="84"/>
       <c r="F308" s="85"/>
       <c r="G308" s="2"/>
@@ -41323,10 +41323,10 @@
     </row>
     <row r="310" spans="1:11" ht="14.35">
       <c r="A310" s="2"/>
-      <c r="B310" s="647" t="s">
+      <c r="B310" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C310" s="650"/>
+      <c r="C310" s="659"/>
       <c r="D310" s="28"/>
       <c r="E310" s="2"/>
       <c r="F310" s="2"/>
@@ -41497,7 +41497,7 @@
         <v>64</v>
       </c>
       <c r="C324" s="11"/>
-      <c r="D324" s="661"/>
+      <c r="D324" s="660"/>
       <c r="F324" s="2"/>
       <c r="G324" s="2"/>
       <c r="H324" s="8"/>
@@ -41509,7 +41509,7 @@
         <v>65</v>
       </c>
       <c r="C325" s="11"/>
-      <c r="D325" s="662"/>
+      <c r="D325" s="661"/>
       <c r="F325" s="2"/>
       <c r="G325" s="2"/>
       <c r="H325" s="8"/>
@@ -41521,7 +41521,7 @@
         <v>30</v>
       </c>
       <c r="C326" s="11"/>
-      <c r="D326" s="662"/>
+      <c r="D326" s="661"/>
       <c r="F326" s="2"/>
       <c r="G326" s="2"/>
       <c r="H326" s="8"/>
@@ -41533,7 +41533,7 @@
         <v>31</v>
       </c>
       <c r="C327" s="11"/>
-      <c r="D327" s="662"/>
+      <c r="D327" s="661"/>
       <c r="F327" s="2"/>
       <c r="G327" s="2"/>
       <c r="H327" s="8"/>
@@ -41545,7 +41545,7 @@
         <v>68</v>
       </c>
       <c r="C328" s="11"/>
-      <c r="D328" s="662"/>
+      <c r="D328" s="661"/>
       <c r="F328" s="2"/>
       <c r="G328" s="2"/>
       <c r="H328" s="8"/>
@@ -41565,10 +41565,10 @@
     </row>
     <row r="330" spans="1:11" ht="14.35">
       <c r="A330" s="2"/>
-      <c r="B330" s="647" t="s">
+      <c r="B330" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C330" s="650"/>
+      <c r="C330" s="659"/>
       <c r="D330" s="28"/>
       <c r="F330" s="2"/>
       <c r="G330" s="2"/>
@@ -41827,10 +41827,10 @@
     </row>
     <row r="352" spans="1:11" ht="14.35">
       <c r="A352" s="2"/>
-      <c r="B352" s="647" t="s">
+      <c r="B352" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C352" s="648"/>
+      <c r="C352" s="657"/>
       <c r="D352" s="2"/>
       <c r="F352" s="2"/>
       <c r="G352" s="2"/>
@@ -42034,10 +42034,10 @@
     </row>
     <row r="370" spans="1:11" ht="14.35">
       <c r="A370" s="2"/>
-      <c r="B370" s="647" t="s">
+      <c r="B370" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C370" s="648"/>
+      <c r="C370" s="657"/>
       <c r="F370" s="2"/>
       <c r="G370" s="2"/>
       <c r="H370" s="8"/>
@@ -42517,10 +42517,10 @@
     </row>
     <row r="405" spans="1:11" ht="14.7">
       <c r="A405" s="2"/>
-      <c r="B405" s="659" t="s">
+      <c r="B405" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C405" s="641"/>
+      <c r="C405" s="644"/>
       <c r="D405" s="97"/>
       <c r="F405" s="2"/>
       <c r="G405" s="2"/>
@@ -43033,10 +43033,10 @@
     </row>
     <row r="440" spans="1:11" ht="14.7">
       <c r="A440" s="2"/>
-      <c r="B440" s="659" t="s">
+      <c r="B440" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C440" s="641"/>
+      <c r="C440" s="644"/>
       <c r="D440" s="97"/>
       <c r="E440" s="97"/>
       <c r="F440" s="2"/>
@@ -43512,10 +43512,10 @@
     </row>
     <row r="473" spans="1:11" ht="14.7">
       <c r="A473" s="2"/>
-      <c r="B473" s="659" t="s">
+      <c r="B473" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C473" s="641"/>
+      <c r="C473" s="644"/>
       <c r="D473" s="97"/>
       <c r="E473" s="97"/>
       <c r="F473" s="97"/>
@@ -43987,10 +43987,10 @@
     </row>
     <row r="506" spans="1:11" ht="14.7">
       <c r="A506" s="2"/>
-      <c r="B506" s="659" t="s">
+      <c r="B506" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C506" s="641"/>
+      <c r="C506" s="644"/>
       <c r="D506" s="97"/>
       <c r="E506" s="97"/>
       <c r="F506" s="97"/>
@@ -44861,10 +44861,10 @@
     </row>
     <row r="559" spans="1:11" ht="14.7">
       <c r="A559" s="2"/>
-      <c r="B559" s="659" t="s">
+      <c r="B559" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C559" s="641"/>
+      <c r="C559" s="644"/>
       <c r="D559" s="97"/>
       <c r="E559" s="97"/>
       <c r="F559" s="97"/>
@@ -45288,10 +45288,10 @@
     </row>
     <row r="597" spans="1:11" ht="14.35">
       <c r="A597" s="2"/>
-      <c r="B597" s="647" t="s">
+      <c r="B597" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C597" s="648"/>
+      <c r="C597" s="657"/>
       <c r="D597" s="2"/>
       <c r="E597" s="2"/>
       <c r="F597" s="2"/>
@@ -45533,10 +45533,10 @@
     </row>
     <row r="616" spans="1:11" ht="14.35">
       <c r="A616" s="2"/>
-      <c r="B616" s="647" t="s">
+      <c r="B616" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C616" s="648"/>
+      <c r="C616" s="657"/>
       <c r="D616" s="2"/>
       <c r="E616" s="2"/>
       <c r="F616" s="2"/>
@@ -45774,10 +45774,10 @@
     </row>
     <row r="635" spans="1:11" ht="14.35">
       <c r="A635" s="2"/>
-      <c r="B635" s="647" t="s">
+      <c r="B635" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C635" s="650"/>
+      <c r="C635" s="659"/>
       <c r="D635" s="127"/>
       <c r="E635" s="2"/>
       <c r="F635" s="2"/>
@@ -46034,10 +46034,10 @@
     </row>
     <row r="655" spans="1:11" ht="14.35">
       <c r="A655" s="2"/>
-      <c r="B655" s="647" t="s">
+      <c r="B655" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C655" s="648"/>
+      <c r="C655" s="657"/>
       <c r="D655" s="2"/>
       <c r="E655" s="2"/>
       <c r="F655" s="2"/>
@@ -46262,10 +46262,10 @@
     </row>
     <row r="673" spans="1:11" ht="14.35">
       <c r="A673" s="2"/>
-      <c r="B673" s="647" t="s">
+      <c r="B673" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C673" s="650"/>
+      <c r="C673" s="659"/>
       <c r="D673" s="2"/>
       <c r="E673" s="2"/>
       <c r="F673" s="2"/>
@@ -46501,10 +46501,10 @@
     </row>
     <row r="692" spans="1:11" ht="14.35">
       <c r="A692" s="2"/>
-      <c r="B692" s="660" t="s">
+      <c r="B692" s="671" t="s">
         <v>34</v>
       </c>
-      <c r="C692" s="641"/>
+      <c r="C692" s="644"/>
       <c r="D692" s="2"/>
       <c r="E692" s="2"/>
       <c r="F692" s="2"/>
@@ -46737,10 +46737,10 @@
     </row>
     <row r="710" spans="1:11" ht="14.35">
       <c r="A710" s="2"/>
-      <c r="B710" s="660" t="s">
+      <c r="B710" s="671" t="s">
         <v>34</v>
       </c>
-      <c r="C710" s="641"/>
+      <c r="C710" s="644"/>
       <c r="D710" s="2"/>
       <c r="E710" s="2"/>
       <c r="F710" s="2"/>
@@ -47059,10 +47059,10 @@
     </row>
     <row r="736" spans="1:11" ht="14.35">
       <c r="A736" s="2"/>
-      <c r="B736" s="647" t="s">
+      <c r="B736" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C736" s="648"/>
+      <c r="C736" s="657"/>
       <c r="D736" s="2"/>
       <c r="E736" s="2"/>
       <c r="F736" s="2"/>
@@ -47325,10 +47325,10 @@
     </row>
     <row r="756" spans="1:11" ht="14.35">
       <c r="A756" s="2"/>
-      <c r="B756" s="647" t="s">
+      <c r="B756" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C756" s="648"/>
+      <c r="C756" s="657"/>
       <c r="D756" s="2"/>
       <c r="E756" s="2"/>
       <c r="F756" s="2"/>
@@ -47616,10 +47616,10 @@
     </row>
     <row r="779" spans="1:11" ht="14.35">
       <c r="A779" s="2"/>
-      <c r="B779" s="647" t="s">
+      <c r="B779" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C779" s="648"/>
+      <c r="C779" s="657"/>
       <c r="D779" s="2"/>
       <c r="E779" s="2"/>
       <c r="F779" s="2"/>
@@ -47905,10 +47905,10 @@
     </row>
     <row r="802" spans="1:11" ht="14.35">
       <c r="A802" s="2"/>
-      <c r="B802" s="647" t="s">
+      <c r="B802" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C802" s="650"/>
+      <c r="C802" s="659"/>
       <c r="D802" s="2"/>
       <c r="E802" s="2"/>
       <c r="F802" s="2"/>
@@ -48187,10 +48187,10 @@
     </row>
     <row r="824" spans="1:11" ht="14.35">
       <c r="A824" s="2"/>
-      <c r="B824" s="647" t="s">
+      <c r="B824" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C824" s="650"/>
+      <c r="C824" s="659"/>
       <c r="D824" s="2"/>
       <c r="E824" s="2"/>
       <c r="F824" s="2"/>
@@ -48498,10 +48498,10 @@
     </row>
     <row r="849" spans="1:11" ht="14.35">
       <c r="A849" s="2"/>
-      <c r="B849" s="647" t="s">
+      <c r="B849" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C849" s="650"/>
+      <c r="C849" s="659"/>
       <c r="D849" s="149"/>
       <c r="E849" s="2"/>
       <c r="F849" s="2"/>
@@ -48806,10 +48806,10 @@
       <c r="K873" s="10"/>
     </row>
     <row r="874" spans="2:11" ht="14.35">
-      <c r="B874" s="647" t="s">
+      <c r="B874" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C874" s="650"/>
+      <c r="C874" s="659"/>
       <c r="D874" s="2"/>
       <c r="E874" s="2"/>
       <c r="F874" s="2"/>
@@ -49115,10 +49115,10 @@
       <c r="K899" s="10"/>
     </row>
     <row r="900" spans="1:11" ht="14.35">
-      <c r="B900" s="647" t="s">
+      <c r="B900" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C900" s="650"/>
+      <c r="C900" s="659"/>
       <c r="D900" s="2"/>
       <c r="E900" s="2"/>
       <c r="F900" s="2"/>
@@ -49348,10 +49348,10 @@
     </row>
     <row r="920" spans="1:11" ht="14.35">
       <c r="A920" s="2"/>
-      <c r="B920" s="647" t="s">
+      <c r="B920" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C920" s="650"/>
+      <c r="C920" s="659"/>
       <c r="D920" s="2"/>
       <c r="E920" s="2"/>
       <c r="F920" s="2"/>
@@ -49628,10 +49628,10 @@
     </row>
     <row r="942" spans="1:11" ht="14.35">
       <c r="A942" s="2"/>
-      <c r="B942" s="647" t="s">
+      <c r="B942" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C942" s="650"/>
+      <c r="C942" s="659"/>
       <c r="D942" s="2"/>
       <c r="E942" s="2"/>
       <c r="F942" s="2"/>
@@ -49875,10 +49875,10 @@
     </row>
     <row r="961" spans="1:11" ht="14.35">
       <c r="A961" s="2"/>
-      <c r="B961" s="647" t="s">
+      <c r="B961" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C961" s="650"/>
+      <c r="C961" s="659"/>
       <c r="D961" s="2"/>
       <c r="E961" s="2"/>
       <c r="F961" s="2"/>
@@ -50118,10 +50118,10 @@
     </row>
     <row r="980" spans="1:11" ht="14.35">
       <c r="A980" s="2"/>
-      <c r="B980" s="647" t="s">
+      <c r="B980" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C980" s="650"/>
+      <c r="C980" s="659"/>
       <c r="D980" s="2"/>
       <c r="E980" s="2"/>
       <c r="F980" s="2"/>
@@ -50262,10 +50262,10 @@
     </row>
     <row r="994" spans="1:11" ht="14.35">
       <c r="A994" s="2"/>
-      <c r="B994" s="647" t="s">
+      <c r="B994" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C994" s="650"/>
+      <c r="C994" s="659"/>
       <c r="F994" s="2"/>
       <c r="G994" s="2"/>
       <c r="H994" s="8"/>
@@ -50512,10 +50512,10 @@
     </row>
     <row r="1014" spans="1:11" ht="14.35">
       <c r="A1014" s="2"/>
-      <c r="B1014" s="647" t="s">
+      <c r="B1014" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C1014" s="648"/>
+      <c r="C1014" s="657"/>
       <c r="D1014" s="2"/>
       <c r="E1014" s="2"/>
       <c r="F1014" s="2"/>
@@ -50717,10 +50717,10 @@
     </row>
     <row r="1031" spans="1:11" ht="14.35">
       <c r="A1031" s="2"/>
-      <c r="B1031" s="647" t="s">
+      <c r="B1031" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C1031" s="650"/>
+      <c r="C1031" s="659"/>
       <c r="D1031" s="2"/>
       <c r="E1031" s="2"/>
       <c r="F1031" s="2"/>
@@ -50963,10 +50963,10 @@
       <c r="K1050" s="10"/>
     </row>
     <row r="1051" spans="2:11" ht="14.35">
-      <c r="B1051" s="647" t="s">
+      <c r="B1051" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C1051" s="648"/>
+      <c r="C1051" s="657"/>
       <c r="D1051" s="2"/>
       <c r="E1051" s="2"/>
       <c r="F1051" s="2"/>
@@ -51227,10 +51227,10 @@
     </row>
     <row r="1073" spans="1:11" ht="14.35">
       <c r="A1073" s="2"/>
-      <c r="B1073" s="647" t="s">
+      <c r="B1073" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C1073" s="648"/>
+      <c r="C1073" s="657"/>
       <c r="D1073" s="2"/>
       <c r="E1073" s="2"/>
       <c r="F1073" s="2"/>
@@ -51526,10 +51526,10 @@
     </row>
     <row r="1096" spans="1:11" ht="14.35">
       <c r="A1096" s="2"/>
-      <c r="B1096" s="647" t="s">
+      <c r="B1096" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C1096" s="648"/>
+      <c r="C1096" s="657"/>
       <c r="D1096" s="2"/>
       <c r="E1096" s="2"/>
       <c r="F1096" s="2"/>
@@ -51553,61 +51553,61 @@
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="B1014:C1014"/>
+    <mergeCell ref="B1031:C1031"/>
+    <mergeCell ref="B1051:C1051"/>
+    <mergeCell ref="B1073:C1073"/>
+    <mergeCell ref="B1096:C1096"/>
+    <mergeCell ref="B920:C920"/>
+    <mergeCell ref="B942:C942"/>
+    <mergeCell ref="B961:C961"/>
+    <mergeCell ref="B980:C980"/>
+    <mergeCell ref="B994:C994"/>
+    <mergeCell ref="B802:C802"/>
+    <mergeCell ref="B824:C824"/>
+    <mergeCell ref="B849:C849"/>
+    <mergeCell ref="B874:C874"/>
+    <mergeCell ref="B900:C900"/>
+    <mergeCell ref="B692:C692"/>
+    <mergeCell ref="B710:C710"/>
+    <mergeCell ref="B736:C736"/>
+    <mergeCell ref="B756:C756"/>
+    <mergeCell ref="B779:C779"/>
+    <mergeCell ref="B597:C597"/>
+    <mergeCell ref="B616:C616"/>
+    <mergeCell ref="B635:C635"/>
+    <mergeCell ref="B655:C655"/>
+    <mergeCell ref="B673:C673"/>
+    <mergeCell ref="B405:C405"/>
+    <mergeCell ref="B440:C440"/>
+    <mergeCell ref="B473:C473"/>
+    <mergeCell ref="B506:C506"/>
+    <mergeCell ref="B559:C559"/>
+    <mergeCell ref="B310:C310"/>
+    <mergeCell ref="D324:D328"/>
+    <mergeCell ref="B330:C330"/>
+    <mergeCell ref="B352:C352"/>
+    <mergeCell ref="B370:C370"/>
+    <mergeCell ref="B217:C217"/>
+    <mergeCell ref="B242:C242"/>
+    <mergeCell ref="D268:D272"/>
+    <mergeCell ref="B274:C274"/>
+    <mergeCell ref="D304:D308"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="B106:C106"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D36:D41"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B61:C61"/>
     <mergeCell ref="E75:F75"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="B217:C217"/>
-    <mergeCell ref="B242:C242"/>
-    <mergeCell ref="D268:D272"/>
-    <mergeCell ref="B274:C274"/>
-    <mergeCell ref="D304:D308"/>
-    <mergeCell ref="B310:C310"/>
-    <mergeCell ref="D324:D328"/>
-    <mergeCell ref="B330:C330"/>
-    <mergeCell ref="B352:C352"/>
-    <mergeCell ref="B370:C370"/>
-    <mergeCell ref="B405:C405"/>
-    <mergeCell ref="B440:C440"/>
-    <mergeCell ref="B473:C473"/>
-    <mergeCell ref="B506:C506"/>
-    <mergeCell ref="B559:C559"/>
-    <mergeCell ref="B597:C597"/>
-    <mergeCell ref="B616:C616"/>
-    <mergeCell ref="B635:C635"/>
-    <mergeCell ref="B655:C655"/>
-    <mergeCell ref="B673:C673"/>
-    <mergeCell ref="B692:C692"/>
-    <mergeCell ref="B710:C710"/>
-    <mergeCell ref="B736:C736"/>
-    <mergeCell ref="B756:C756"/>
-    <mergeCell ref="B779:C779"/>
-    <mergeCell ref="B802:C802"/>
-    <mergeCell ref="B824:C824"/>
-    <mergeCell ref="B849:C849"/>
-    <mergeCell ref="B874:C874"/>
-    <mergeCell ref="B900:C900"/>
-    <mergeCell ref="B920:C920"/>
-    <mergeCell ref="B942:C942"/>
-    <mergeCell ref="B961:C961"/>
-    <mergeCell ref="B980:C980"/>
-    <mergeCell ref="B994:C994"/>
-    <mergeCell ref="B1014:C1014"/>
-    <mergeCell ref="B1031:C1031"/>
-    <mergeCell ref="B1051:C1051"/>
-    <mergeCell ref="B1073:C1073"/>
-    <mergeCell ref="B1096:C1096"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -51677,10 +51677,10 @@
       <c r="D2" s="246" t="s">
         <v>508</v>
       </c>
-      <c r="E2" s="682" t="s">
+      <c r="E2" s="698" t="s">
         <v>509</v>
       </c>
-      <c r="F2" s="683"/>
+      <c r="F2" s="699"/>
       <c r="G2" s="252" t="s">
         <v>510</v>
       </c>
@@ -51713,71 +51713,71 @@
       <c r="A3" s="253">
         <v>1</v>
       </c>
-      <c r="B3" s="694" t="s">
+      <c r="B3" s="681" t="s">
         <v>456</v>
       </c>
-      <c r="C3" s="695"/>
-      <c r="D3" s="695"/>
-      <c r="E3" s="695"/>
-      <c r="F3" s="695"/>
-      <c r="G3" s="695"/>
-      <c r="H3" s="695"/>
-      <c r="I3" s="695"/>
-      <c r="J3" s="695"/>
-      <c r="K3" s="688" t="s">
+      <c r="C3" s="682"/>
+      <c r="D3" s="682"/>
+      <c r="E3" s="682"/>
+      <c r="F3" s="682"/>
+      <c r="G3" s="682"/>
+      <c r="H3" s="682"/>
+      <c r="I3" s="682"/>
+      <c r="J3" s="682"/>
+      <c r="K3" s="683" t="s">
         <v>457</v>
       </c>
-      <c r="L3" s="687"/>
-      <c r="M3" s="687"/>
-      <c r="N3" s="687"/>
-      <c r="O3" s="687"/>
-      <c r="P3" s="687"/>
-      <c r="Q3" s="687"/>
-      <c r="R3" s="687"/>
-      <c r="S3" s="687"/>
-      <c r="T3" s="687"/>
-      <c r="U3" s="687"/>
-      <c r="V3" s="687"/>
-      <c r="W3" s="687"/>
+      <c r="L3" s="684"/>
+      <c r="M3" s="684"/>
+      <c r="N3" s="684"/>
+      <c r="O3" s="684"/>
+      <c r="P3" s="684"/>
+      <c r="Q3" s="684"/>
+      <c r="R3" s="684"/>
+      <c r="S3" s="684"/>
+      <c r="T3" s="684"/>
+      <c r="U3" s="684"/>
+      <c r="V3" s="684"/>
+      <c r="W3" s="684"/>
     </row>
     <row r="4" spans="1:23" ht="14">
       <c r="A4" s="244"/>
-      <c r="B4" s="696" t="s">
+      <c r="B4" s="685" t="s">
         <v>459</v>
       </c>
-      <c r="C4" s="693"/>
-      <c r="D4" s="693"/>
+      <c r="C4" s="686"/>
+      <c r="D4" s="686"/>
       <c r="E4" s="674" t="s">
         <v>515</v>
       </c>
-      <c r="F4" s="693"/>
-      <c r="G4" s="693"/>
-      <c r="H4" s="697" t="s">
+      <c r="F4" s="686"/>
+      <c r="G4" s="686"/>
+      <c r="H4" s="687" t="s">
         <v>516</v>
       </c>
-      <c r="I4" s="698"/>
-      <c r="J4" s="698"/>
+      <c r="I4" s="688"/>
+      <c r="J4" s="688"/>
       <c r="K4" s="674" t="s">
         <v>460</v>
       </c>
-      <c r="L4" s="693"/>
-      <c r="M4" s="693"/>
+      <c r="L4" s="686"/>
+      <c r="M4" s="686"/>
       <c r="N4" s="674" t="s">
         <v>517</v>
       </c>
-      <c r="O4" s="693"/>
-      <c r="P4" s="693"/>
+      <c r="O4" s="686"/>
+      <c r="P4" s="686"/>
       <c r="Q4" s="674" t="s">
         <v>518</v>
       </c>
-      <c r="R4" s="693"/>
-      <c r="S4" s="693"/>
-      <c r="T4" s="699" t="s">
+      <c r="R4" s="686"/>
+      <c r="S4" s="686"/>
+      <c r="T4" s="689" t="s">
         <v>519</v>
       </c>
-      <c r="U4" s="700"/>
-      <c r="V4" s="700"/>
-      <c r="W4" s="700"/>
+      <c r="U4" s="690"/>
+      <c r="V4" s="690"/>
+      <c r="W4" s="690"/>
     </row>
     <row r="5" spans="1:23" ht="15.35">
       <c r="A5" s="244"/>
@@ -51835,7 +51835,7 @@
       <c r="S5" s="259" t="s">
         <v>463</v>
       </c>
-      <c r="T5" s="681" t="s">
+      <c r="T5" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U5" s="171" t="s">
@@ -51880,7 +51880,7 @@
       <c r="Q6" s="184"/>
       <c r="R6" s="183"/>
       <c r="S6" s="268"/>
-      <c r="T6" s="641"/>
+      <c r="T6" s="644"/>
       <c r="U6" s="171" t="s">
         <v>524</v>
       </c>
@@ -52327,32 +52327,32 @@
       </c>
     </row>
     <row r="23" spans="1:23" ht="14">
-      <c r="B23" s="684" t="s">
+      <c r="B23" s="695" t="s">
         <v>456</v>
       </c>
-      <c r="C23" s="641"/>
-      <c r="D23" s="641"/>
-      <c r="E23" s="641"/>
-      <c r="F23" s="641"/>
-      <c r="G23" s="641"/>
-      <c r="H23" s="641"/>
-      <c r="I23" s="641"/>
-      <c r="J23" s="641"/>
-      <c r="K23" s="685" t="s">
+      <c r="C23" s="644"/>
+      <c r="D23" s="644"/>
+      <c r="E23" s="644"/>
+      <c r="F23" s="644"/>
+      <c r="G23" s="644"/>
+      <c r="H23" s="644"/>
+      <c r="I23" s="644"/>
+      <c r="J23" s="644"/>
+      <c r="K23" s="694" t="s">
         <v>911</v>
       </c>
-      <c r="L23" s="641"/>
-      <c r="M23" s="641"/>
-      <c r="N23" s="641"/>
-      <c r="O23" s="641"/>
-      <c r="P23" s="641"/>
-      <c r="Q23" s="641"/>
-      <c r="R23" s="641"/>
-      <c r="S23" s="641"/>
-      <c r="T23" s="641"/>
-      <c r="U23" s="641"/>
-      <c r="V23" s="641"/>
-      <c r="W23" s="641"/>
+      <c r="L23" s="644"/>
+      <c r="M23" s="644"/>
+      <c r="N23" s="644"/>
+      <c r="O23" s="644"/>
+      <c r="P23" s="644"/>
+      <c r="Q23" s="644"/>
+      <c r="R23" s="644"/>
+      <c r="S23" s="644"/>
+      <c r="T23" s="644"/>
+      <c r="U23" s="644"/>
+      <c r="V23" s="644"/>
+      <c r="W23" s="644"/>
     </row>
     <row r="24" spans="1:23" ht="14">
       <c r="A24" s="253">
@@ -52388,12 +52388,12 @@
       </c>
       <c r="R24" s="678"/>
       <c r="S24" s="678"/>
-      <c r="T24" s="679" t="s">
+      <c r="T24" s="692" t="s">
         <v>519</v>
       </c>
-      <c r="U24" s="680"/>
-      <c r="V24" s="680"/>
-      <c r="W24" s="680"/>
+      <c r="U24" s="693"/>
+      <c r="V24" s="693"/>
+      <c r="W24" s="693"/>
     </row>
     <row r="25" spans="1:23" ht="15.35">
       <c r="A25" s="288"/>
@@ -52451,7 +52451,7 @@
       <c r="S25" s="258" t="s">
         <v>914</v>
       </c>
-      <c r="T25" s="681" t="s">
+      <c r="T25" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U25" s="171" t="s">
@@ -52496,7 +52496,7 @@
       <c r="Q26" s="184"/>
       <c r="R26" s="188"/>
       <c r="S26" s="188"/>
-      <c r="T26" s="641"/>
+      <c r="T26" s="644"/>
       <c r="U26" s="171" t="s">
         <v>524</v>
       </c>
@@ -52760,32 +52760,32 @@
       <c r="E43" s="307"/>
     </row>
     <row r="44" spans="1:23" ht="14">
-      <c r="B44" s="684" t="s">
+      <c r="B44" s="695" t="s">
         <v>456</v>
       </c>
-      <c r="C44" s="641"/>
-      <c r="D44" s="641"/>
-      <c r="E44" s="641"/>
-      <c r="F44" s="641"/>
-      <c r="G44" s="641"/>
-      <c r="H44" s="641"/>
-      <c r="I44" s="641"/>
-      <c r="J44" s="641"/>
-      <c r="K44" s="684" t="s">
+      <c r="C44" s="644"/>
+      <c r="D44" s="644"/>
+      <c r="E44" s="644"/>
+      <c r="F44" s="644"/>
+      <c r="G44" s="644"/>
+      <c r="H44" s="644"/>
+      <c r="I44" s="644"/>
+      <c r="J44" s="644"/>
+      <c r="K44" s="695" t="s">
         <v>457</v>
       </c>
-      <c r="L44" s="641"/>
-      <c r="M44" s="641"/>
-      <c r="N44" s="641"/>
-      <c r="O44" s="641"/>
-      <c r="P44" s="641"/>
-      <c r="Q44" s="641"/>
-      <c r="R44" s="641"/>
-      <c r="S44" s="641"/>
-      <c r="T44" s="641"/>
-      <c r="U44" s="641"/>
-      <c r="V44" s="641"/>
-      <c r="W44" s="641"/>
+      <c r="L44" s="644"/>
+      <c r="M44" s="644"/>
+      <c r="N44" s="644"/>
+      <c r="O44" s="644"/>
+      <c r="P44" s="644"/>
+      <c r="Q44" s="644"/>
+      <c r="R44" s="644"/>
+      <c r="S44" s="644"/>
+      <c r="T44" s="644"/>
+      <c r="U44" s="644"/>
+      <c r="V44" s="644"/>
+      <c r="W44" s="644"/>
     </row>
     <row r="45" spans="1:23" ht="14">
       <c r="A45" s="253">
@@ -52821,12 +52821,12 @@
       </c>
       <c r="R45" s="678"/>
       <c r="S45" s="678"/>
-      <c r="T45" s="692" t="s">
+      <c r="T45" s="696" t="s">
         <v>519</v>
       </c>
-      <c r="U45" s="693"/>
-      <c r="V45" s="693"/>
-      <c r="W45" s="693"/>
+      <c r="U45" s="686"/>
+      <c r="V45" s="686"/>
+      <c r="W45" s="686"/>
     </row>
     <row r="46" spans="1:23" ht="15.35">
       <c r="A46" s="288"/>
@@ -52884,7 +52884,7 @@
       <c r="S46" s="287" t="s">
         <v>914</v>
       </c>
-      <c r="T46" s="689" t="s">
+      <c r="T46" s="701" t="s">
         <v>520</v>
       </c>
       <c r="U46" s="318" t="s">
@@ -52929,7 +52929,7 @@
       <c r="Q47" s="184"/>
       <c r="R47" s="188"/>
       <c r="S47" s="188"/>
-      <c r="T47" s="641"/>
+      <c r="T47" s="644"/>
       <c r="U47" s="171" t="s">
         <v>524</v>
       </c>
@@ -53161,32 +53161,32 @@
       <c r="C61" s="170"/>
     </row>
     <row r="62" spans="1:23" ht="14">
-      <c r="B62" s="684" t="s">
+      <c r="B62" s="695" t="s">
         <v>456</v>
       </c>
-      <c r="C62" s="641"/>
-      <c r="D62" s="641"/>
-      <c r="E62" s="641"/>
-      <c r="F62" s="641"/>
-      <c r="G62" s="641"/>
-      <c r="H62" s="641"/>
-      <c r="I62" s="641"/>
-      <c r="J62" s="641"/>
-      <c r="K62" s="684" t="s">
+      <c r="C62" s="644"/>
+      <c r="D62" s="644"/>
+      <c r="E62" s="644"/>
+      <c r="F62" s="644"/>
+      <c r="G62" s="644"/>
+      <c r="H62" s="644"/>
+      <c r="I62" s="644"/>
+      <c r="J62" s="644"/>
+      <c r="K62" s="695" t="s">
         <v>457</v>
       </c>
-      <c r="L62" s="641"/>
-      <c r="M62" s="641"/>
-      <c r="N62" s="641"/>
-      <c r="O62" s="641"/>
-      <c r="P62" s="641"/>
-      <c r="Q62" s="641"/>
-      <c r="R62" s="641"/>
-      <c r="S62" s="641"/>
-      <c r="T62" s="641"/>
-      <c r="U62" s="641"/>
-      <c r="V62" s="641"/>
-      <c r="W62" s="641"/>
+      <c r="L62" s="644"/>
+      <c r="M62" s="644"/>
+      <c r="N62" s="644"/>
+      <c r="O62" s="644"/>
+      <c r="P62" s="644"/>
+      <c r="Q62" s="644"/>
+      <c r="R62" s="644"/>
+      <c r="S62" s="644"/>
+      <c r="T62" s="644"/>
+      <c r="U62" s="644"/>
+      <c r="V62" s="644"/>
+      <c r="W62" s="644"/>
     </row>
     <row r="63" spans="1:23" ht="14">
       <c r="A63" s="253">
@@ -53222,12 +53222,12 @@
       </c>
       <c r="R63" s="678"/>
       <c r="S63" s="678"/>
-      <c r="T63" s="679" t="s">
+      <c r="T63" s="692" t="s">
         <v>519</v>
       </c>
-      <c r="U63" s="680"/>
-      <c r="V63" s="680"/>
-      <c r="W63" s="680"/>
+      <c r="U63" s="693"/>
+      <c r="V63" s="693"/>
+      <c r="W63" s="693"/>
     </row>
     <row r="64" spans="1:23" ht="15.35">
       <c r="A64" s="288"/>
@@ -53285,7 +53285,7 @@
       <c r="S64" s="254" t="s">
         <v>463</v>
       </c>
-      <c r="T64" s="681" t="s">
+      <c r="T64" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U64" s="171" t="s">
@@ -53330,7 +53330,7 @@
       <c r="Q65" s="184"/>
       <c r="R65" s="184"/>
       <c r="S65" s="184"/>
-      <c r="T65" s="641"/>
+      <c r="T65" s="644"/>
       <c r="U65" s="171" t="s">
         <v>524</v>
       </c>
@@ -53595,32 +53595,32 @@
       </c>
     </row>
     <row r="85" spans="1:23" ht="14">
-      <c r="B85" s="685" t="s">
+      <c r="B85" s="694" t="s">
         <v>919</v>
       </c>
-      <c r="C85" s="641"/>
-      <c r="D85" s="641"/>
-      <c r="E85" s="641"/>
-      <c r="F85" s="641"/>
-      <c r="G85" s="641"/>
-      <c r="H85" s="641"/>
-      <c r="I85" s="641"/>
-      <c r="J85" s="641"/>
-      <c r="K85" s="685" t="s">
+      <c r="C85" s="644"/>
+      <c r="D85" s="644"/>
+      <c r="E85" s="644"/>
+      <c r="F85" s="644"/>
+      <c r="G85" s="644"/>
+      <c r="H85" s="644"/>
+      <c r="I85" s="644"/>
+      <c r="J85" s="644"/>
+      <c r="K85" s="694" t="s">
         <v>911</v>
       </c>
-      <c r="L85" s="641"/>
-      <c r="M85" s="641"/>
-      <c r="N85" s="641"/>
-      <c r="O85" s="641"/>
-      <c r="P85" s="641"/>
-      <c r="Q85" s="641"/>
-      <c r="R85" s="641"/>
-      <c r="S85" s="641"/>
-      <c r="T85" s="641"/>
-      <c r="U85" s="641"/>
-      <c r="V85" s="641"/>
-      <c r="W85" s="641"/>
+      <c r="L85" s="644"/>
+      <c r="M85" s="644"/>
+      <c r="N85" s="644"/>
+      <c r="O85" s="644"/>
+      <c r="P85" s="644"/>
+      <c r="Q85" s="644"/>
+      <c r="R85" s="644"/>
+      <c r="S85" s="644"/>
+      <c r="T85" s="644"/>
+      <c r="U85" s="644"/>
+      <c r="V85" s="644"/>
+      <c r="W85" s="644"/>
     </row>
     <row r="86" spans="1:23" ht="14">
       <c r="A86" s="253">
@@ -53631,17 +53631,17 @@
       </c>
       <c r="C86" s="673"/>
       <c r="D86" s="673"/>
-      <c r="E86" s="690" t="s">
+      <c r="E86" s="680" t="s">
         <v>920</v>
       </c>
       <c r="F86" s="675"/>
       <c r="G86" s="675"/>
-      <c r="H86" s="691" t="s">
+      <c r="H86" s="697" t="s">
         <v>921</v>
       </c>
       <c r="I86" s="677"/>
       <c r="J86" s="677"/>
-      <c r="K86" s="690" t="s">
+      <c r="K86" s="680" t="s">
         <v>922</v>
       </c>
       <c r="L86" s="678"/>
@@ -53656,12 +53656,12 @@
       </c>
       <c r="R86" s="678"/>
       <c r="S86" s="678"/>
-      <c r="T86" s="679" t="s">
+      <c r="T86" s="692" t="s">
         <v>519</v>
       </c>
-      <c r="U86" s="680"/>
-      <c r="V86" s="680"/>
-      <c r="W86" s="680"/>
+      <c r="U86" s="693"/>
+      <c r="V86" s="693"/>
+      <c r="W86" s="693"/>
     </row>
     <row r="87" spans="1:23" ht="15.35">
       <c r="A87" s="288"/>
@@ -53719,7 +53719,7 @@
       <c r="S87" s="254" t="s">
         <v>463</v>
       </c>
-      <c r="T87" s="681" t="s">
+      <c r="T87" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U87" s="171" t="s">
@@ -53764,7 +53764,7 @@
       <c r="Q88" s="184"/>
       <c r="R88" s="184"/>
       <c r="S88" s="184"/>
-      <c r="T88" s="641"/>
+      <c r="T88" s="644"/>
       <c r="U88" s="171" t="s">
         <v>524</v>
       </c>
@@ -54028,32 +54028,32 @@
       <c r="C106" s="170"/>
     </row>
     <row r="107" spans="1:23" ht="14">
-      <c r="B107" s="685" t="s">
+      <c r="B107" s="694" t="s">
         <v>919</v>
       </c>
-      <c r="C107" s="641"/>
-      <c r="D107" s="641"/>
-      <c r="E107" s="641"/>
-      <c r="F107" s="641"/>
-      <c r="G107" s="641"/>
-      <c r="H107" s="641"/>
-      <c r="I107" s="641"/>
-      <c r="J107" s="641"/>
-      <c r="K107" s="684" t="s">
+      <c r="C107" s="644"/>
+      <c r="D107" s="644"/>
+      <c r="E107" s="644"/>
+      <c r="F107" s="644"/>
+      <c r="G107" s="644"/>
+      <c r="H107" s="644"/>
+      <c r="I107" s="644"/>
+      <c r="J107" s="644"/>
+      <c r="K107" s="695" t="s">
         <v>457</v>
       </c>
-      <c r="L107" s="641"/>
-      <c r="M107" s="641"/>
-      <c r="N107" s="641"/>
-      <c r="O107" s="641"/>
-      <c r="P107" s="641"/>
-      <c r="Q107" s="641"/>
-      <c r="R107" s="641"/>
-      <c r="S107" s="641"/>
-      <c r="T107" s="641"/>
-      <c r="U107" s="641"/>
-      <c r="V107" s="641"/>
-      <c r="W107" s="641"/>
+      <c r="L107" s="644"/>
+      <c r="M107" s="644"/>
+      <c r="N107" s="644"/>
+      <c r="O107" s="644"/>
+      <c r="P107" s="644"/>
+      <c r="Q107" s="644"/>
+      <c r="R107" s="644"/>
+      <c r="S107" s="644"/>
+      <c r="T107" s="644"/>
+      <c r="U107" s="644"/>
+      <c r="V107" s="644"/>
+      <c r="W107" s="644"/>
     </row>
     <row r="108" spans="1:23" ht="14">
       <c r="A108" s="253">
@@ -54064,7 +54064,7 @@
       </c>
       <c r="C108" s="673"/>
       <c r="D108" s="673"/>
-      <c r="E108" s="690" t="s">
+      <c r="E108" s="680" t="s">
         <v>920</v>
       </c>
       <c r="F108" s="675"/>
@@ -54089,12 +54089,12 @@
       </c>
       <c r="R108" s="678"/>
       <c r="S108" s="678"/>
-      <c r="T108" s="679" t="s">
+      <c r="T108" s="692" t="s">
         <v>519</v>
       </c>
-      <c r="U108" s="680"/>
-      <c r="V108" s="680"/>
-      <c r="W108" s="680"/>
+      <c r="U108" s="693"/>
+      <c r="V108" s="693"/>
+      <c r="W108" s="693"/>
     </row>
     <row r="109" spans="1:23" ht="15.35">
       <c r="A109" s="288"/>
@@ -54152,7 +54152,7 @@
       <c r="S109" s="346" t="s">
         <v>463</v>
       </c>
-      <c r="T109" s="681" t="s">
+      <c r="T109" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U109" s="171" t="s">
@@ -54197,7 +54197,7 @@
       <c r="Q110" s="184"/>
       <c r="R110" s="184"/>
       <c r="S110" s="184"/>
-      <c r="T110" s="641"/>
+      <c r="T110" s="644"/>
       <c r="U110" s="171" t="s">
         <v>524</v>
       </c>
@@ -54411,32 +54411,32 @@
       </c>
     </row>
     <row r="128" spans="1:23" ht="14">
-      <c r="B128" s="684" t="s">
+      <c r="B128" s="695" t="s">
         <v>456</v>
       </c>
-      <c r="C128" s="641"/>
-      <c r="D128" s="641"/>
-      <c r="E128" s="641"/>
-      <c r="F128" s="641"/>
-      <c r="G128" s="641"/>
-      <c r="H128" s="641"/>
-      <c r="I128" s="641"/>
-      <c r="J128" s="641"/>
-      <c r="K128" s="684" t="s">
+      <c r="C128" s="644"/>
+      <c r="D128" s="644"/>
+      <c r="E128" s="644"/>
+      <c r="F128" s="644"/>
+      <c r="G128" s="644"/>
+      <c r="H128" s="644"/>
+      <c r="I128" s="644"/>
+      <c r="J128" s="644"/>
+      <c r="K128" s="695" t="s">
         <v>457</v>
       </c>
-      <c r="L128" s="641"/>
-      <c r="M128" s="641"/>
-      <c r="N128" s="641"/>
-      <c r="O128" s="641"/>
-      <c r="P128" s="641"/>
-      <c r="Q128" s="641"/>
-      <c r="R128" s="641"/>
-      <c r="S128" s="641"/>
-      <c r="T128" s="641"/>
-      <c r="U128" s="641"/>
-      <c r="V128" s="641"/>
-      <c r="W128" s="641"/>
+      <c r="L128" s="644"/>
+      <c r="M128" s="644"/>
+      <c r="N128" s="644"/>
+      <c r="O128" s="644"/>
+      <c r="P128" s="644"/>
+      <c r="Q128" s="644"/>
+      <c r="R128" s="644"/>
+      <c r="S128" s="644"/>
+      <c r="T128" s="644"/>
+      <c r="U128" s="644"/>
+      <c r="V128" s="644"/>
+      <c r="W128" s="644"/>
     </row>
     <row r="129" spans="1:23" ht="14">
       <c r="A129" s="253">
@@ -54472,12 +54472,12 @@
       </c>
       <c r="R129" s="678"/>
       <c r="S129" s="678"/>
-      <c r="T129" s="679" t="s">
+      <c r="T129" s="692" t="s">
         <v>519</v>
       </c>
-      <c r="U129" s="680"/>
-      <c r="V129" s="680"/>
-      <c r="W129" s="680"/>
+      <c r="U129" s="693"/>
+      <c r="V129" s="693"/>
+      <c r="W129" s="693"/>
     </row>
     <row r="130" spans="1:23" ht="15.35">
       <c r="A130" s="288"/>
@@ -54535,7 +54535,7 @@
       <c r="S130" s="346" t="s">
         <v>463</v>
       </c>
-      <c r="T130" s="681" t="s">
+      <c r="T130" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U130" s="171" t="s">
@@ -54580,7 +54580,7 @@
       <c r="Q131" s="184"/>
       <c r="R131" s="184"/>
       <c r="S131" s="184"/>
-      <c r="T131" s="641"/>
+      <c r="T131" s="644"/>
       <c r="U131" s="171" t="s">
         <v>524</v>
       </c>
@@ -54780,32 +54780,32 @@
       </c>
     </row>
     <row r="142" spans="1:23" ht="14">
-      <c r="B142" s="684" t="s">
+      <c r="B142" s="695" t="s">
         <v>456</v>
       </c>
-      <c r="C142" s="641"/>
-      <c r="D142" s="641"/>
-      <c r="E142" s="641"/>
-      <c r="F142" s="641"/>
-      <c r="G142" s="641"/>
-      <c r="H142" s="641"/>
-      <c r="I142" s="641"/>
-      <c r="J142" s="641"/>
-      <c r="K142" s="684" t="s">
+      <c r="C142" s="644"/>
+      <c r="D142" s="644"/>
+      <c r="E142" s="644"/>
+      <c r="F142" s="644"/>
+      <c r="G142" s="644"/>
+      <c r="H142" s="644"/>
+      <c r="I142" s="644"/>
+      <c r="J142" s="644"/>
+      <c r="K142" s="695" t="s">
         <v>457</v>
       </c>
-      <c r="L142" s="641"/>
-      <c r="M142" s="641"/>
-      <c r="N142" s="641"/>
-      <c r="O142" s="641"/>
-      <c r="P142" s="641"/>
-      <c r="Q142" s="641"/>
-      <c r="R142" s="641"/>
-      <c r="S142" s="641"/>
-      <c r="T142" s="641"/>
-      <c r="U142" s="641"/>
-      <c r="V142" s="641"/>
-      <c r="W142" s="641"/>
+      <c r="L142" s="644"/>
+      <c r="M142" s="644"/>
+      <c r="N142" s="644"/>
+      <c r="O142" s="644"/>
+      <c r="P142" s="644"/>
+      <c r="Q142" s="644"/>
+      <c r="R142" s="644"/>
+      <c r="S142" s="644"/>
+      <c r="T142" s="644"/>
+      <c r="U142" s="644"/>
+      <c r="V142" s="644"/>
+      <c r="W142" s="644"/>
     </row>
     <row r="143" spans="1:23" ht="14">
       <c r="A143" s="253">
@@ -54839,14 +54839,14 @@
       <c r="Q143" s="674" t="s">
         <v>916</v>
       </c>
-      <c r="R143" s="701"/>
-      <c r="S143" s="701"/>
-      <c r="T143" s="679" t="s">
+      <c r="R143" s="679"/>
+      <c r="S143" s="679"/>
+      <c r="T143" s="692" t="s">
         <v>519</v>
       </c>
-      <c r="U143" s="680"/>
-      <c r="V143" s="680"/>
-      <c r="W143" s="680"/>
+      <c r="U143" s="693"/>
+      <c r="V143" s="693"/>
+      <c r="W143" s="693"/>
     </row>
     <row r="144" spans="1:23" ht="15.35">
       <c r="A144" s="288"/>
@@ -54904,7 +54904,7 @@
       <c r="S144" s="254" t="s">
         <v>463</v>
       </c>
-      <c r="T144" s="681" t="s">
+      <c r="T144" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U144" s="171" t="s">
@@ -54949,7 +54949,7 @@
       <c r="Q145" s="184"/>
       <c r="R145" s="184"/>
       <c r="S145" s="184"/>
-      <c r="T145" s="641"/>
+      <c r="T145" s="644"/>
       <c r="U145" s="171" t="s">
         <v>524</v>
       </c>
@@ -55141,32 +55141,32 @@
       </c>
     </row>
     <row r="157" spans="1:23" ht="14">
-      <c r="B157" s="686" t="s">
+      <c r="B157" s="700" t="s">
         <v>456</v>
       </c>
-      <c r="C157" s="687"/>
-      <c r="D157" s="687"/>
-      <c r="E157" s="687"/>
-      <c r="F157" s="687"/>
-      <c r="G157" s="687"/>
-      <c r="H157" s="687"/>
-      <c r="I157" s="687"/>
-      <c r="J157" s="687"/>
-      <c r="K157" s="688" t="s">
+      <c r="C157" s="684"/>
+      <c r="D157" s="684"/>
+      <c r="E157" s="684"/>
+      <c r="F157" s="684"/>
+      <c r="G157" s="684"/>
+      <c r="H157" s="684"/>
+      <c r="I157" s="684"/>
+      <c r="J157" s="684"/>
+      <c r="K157" s="683" t="s">
         <v>911</v>
       </c>
-      <c r="L157" s="687"/>
-      <c r="M157" s="687"/>
-      <c r="N157" s="687"/>
-      <c r="O157" s="687"/>
-      <c r="P157" s="687"/>
-      <c r="Q157" s="687"/>
-      <c r="R157" s="687"/>
-      <c r="S157" s="687"/>
-      <c r="T157" s="687"/>
-      <c r="U157" s="687"/>
-      <c r="V157" s="687"/>
-      <c r="W157" s="687"/>
+      <c r="L157" s="684"/>
+      <c r="M157" s="684"/>
+      <c r="N157" s="684"/>
+      <c r="O157" s="684"/>
+      <c r="P157" s="684"/>
+      <c r="Q157" s="684"/>
+      <c r="R157" s="684"/>
+      <c r="S157" s="684"/>
+      <c r="T157" s="684"/>
+      <c r="U157" s="684"/>
+      <c r="V157" s="684"/>
+      <c r="W157" s="684"/>
     </row>
     <row r="158" spans="1:23" ht="14">
       <c r="A158" s="253">
@@ -55202,12 +55202,12 @@
       </c>
       <c r="R158" s="678"/>
       <c r="S158" s="678"/>
-      <c r="T158" s="679" t="s">
+      <c r="T158" s="692" t="s">
         <v>519</v>
       </c>
-      <c r="U158" s="680"/>
-      <c r="V158" s="680"/>
-      <c r="W158" s="680"/>
+      <c r="U158" s="693"/>
+      <c r="V158" s="693"/>
+      <c r="W158" s="693"/>
     </row>
     <row r="159" spans="1:23" ht="15.35">
       <c r="A159" s="288"/>
@@ -55265,7 +55265,7 @@
       <c r="S159" s="258" t="s">
         <v>914</v>
       </c>
-      <c r="T159" s="681" t="s">
+      <c r="T159" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U159" s="171" t="s">
@@ -55310,7 +55310,7 @@
       <c r="Q160" s="321"/>
       <c r="R160" s="275"/>
       <c r="S160" s="275"/>
-      <c r="T160" s="641"/>
+      <c r="T160" s="644"/>
       <c r="U160" s="171"/>
       <c r="V160" s="266"/>
       <c r="W160" s="266"/>
@@ -55347,7 +55347,7 @@
       <c r="Q161" s="184"/>
       <c r="R161" s="188"/>
       <c r="S161" s="188"/>
-      <c r="T161" s="641"/>
+      <c r="T161" s="644"/>
       <c r="U161" s="171" t="s">
         <v>524</v>
       </c>
@@ -55548,32 +55548,32 @@
     </row>
     <row r="172" spans="1:23" ht="14">
       <c r="A172" s="293"/>
-      <c r="B172" s="684" t="s">
+      <c r="B172" s="695" t="s">
         <v>456</v>
       </c>
-      <c r="C172" s="641"/>
-      <c r="D172" s="641"/>
-      <c r="E172" s="641"/>
-      <c r="F172" s="641"/>
-      <c r="G172" s="641"/>
-      <c r="H172" s="641"/>
-      <c r="I172" s="641"/>
-      <c r="J172" s="641"/>
-      <c r="K172" s="685" t="s">
+      <c r="C172" s="644"/>
+      <c r="D172" s="644"/>
+      <c r="E172" s="644"/>
+      <c r="F172" s="644"/>
+      <c r="G172" s="644"/>
+      <c r="H172" s="644"/>
+      <c r="I172" s="644"/>
+      <c r="J172" s="644"/>
+      <c r="K172" s="694" t="s">
         <v>911</v>
       </c>
-      <c r="L172" s="641"/>
-      <c r="M172" s="641"/>
-      <c r="N172" s="641"/>
-      <c r="O172" s="641"/>
-      <c r="P172" s="641"/>
-      <c r="Q172" s="641"/>
-      <c r="R172" s="641"/>
-      <c r="S172" s="641"/>
-      <c r="T172" s="641"/>
-      <c r="U172" s="641"/>
-      <c r="V172" s="641"/>
-      <c r="W172" s="641"/>
+      <c r="L172" s="644"/>
+      <c r="M172" s="644"/>
+      <c r="N172" s="644"/>
+      <c r="O172" s="644"/>
+      <c r="P172" s="644"/>
+      <c r="Q172" s="644"/>
+      <c r="R172" s="644"/>
+      <c r="S172" s="644"/>
+      <c r="T172" s="644"/>
+      <c r="U172" s="644"/>
+      <c r="V172" s="644"/>
+      <c r="W172" s="644"/>
     </row>
     <row r="173" spans="1:23" ht="14">
       <c r="A173" s="293"/>
@@ -55607,12 +55607,12 @@
       </c>
       <c r="R173" s="678"/>
       <c r="S173" s="678"/>
-      <c r="T173" s="679" t="s">
+      <c r="T173" s="692" t="s">
         <v>519</v>
       </c>
-      <c r="U173" s="680"/>
-      <c r="V173" s="680"/>
-      <c r="W173" s="680"/>
+      <c r="U173" s="693"/>
+      <c r="V173" s="693"/>
+      <c r="W173" s="693"/>
     </row>
     <row r="174" spans="1:23" ht="15.35">
       <c r="A174" s="293"/>
@@ -55670,7 +55670,7 @@
       <c r="S174" s="258" t="s">
         <v>914</v>
       </c>
-      <c r="T174" s="681" t="s">
+      <c r="T174" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U174" s="171" t="s">
@@ -55715,7 +55715,7 @@
       <c r="Q175" s="184"/>
       <c r="R175" s="188"/>
       <c r="S175" s="188"/>
-      <c r="T175" s="641"/>
+      <c r="T175" s="644"/>
       <c r="U175" s="171" t="s">
         <v>524</v>
       </c>
@@ -57861,50 +57861,39 @@
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="B143:D143"/>
-    <mergeCell ref="E143:G143"/>
-    <mergeCell ref="H143:J143"/>
-    <mergeCell ref="K143:M143"/>
-    <mergeCell ref="N143:P143"/>
-    <mergeCell ref="Q143:S143"/>
-    <mergeCell ref="K108:M108"/>
-    <mergeCell ref="H108:J108"/>
-    <mergeCell ref="E108:G108"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="Q129:S129"/>
-    <mergeCell ref="B129:D129"/>
-    <mergeCell ref="E129:G129"/>
-    <mergeCell ref="H129:J129"/>
-    <mergeCell ref="K129:M129"/>
-    <mergeCell ref="N129:P129"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="K3:W3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="K23:W23"/>
-    <mergeCell ref="B44:J44"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="T45:W45"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="B173:D173"/>
+    <mergeCell ref="E173:G173"/>
+    <mergeCell ref="H173:J173"/>
+    <mergeCell ref="K173:M173"/>
+    <mergeCell ref="N173:P173"/>
+    <mergeCell ref="Q173:S173"/>
+    <mergeCell ref="T173:W173"/>
+    <mergeCell ref="T174:T175"/>
+    <mergeCell ref="T159:T161"/>
+    <mergeCell ref="B158:D158"/>
+    <mergeCell ref="E158:G158"/>
+    <mergeCell ref="H158:J158"/>
+    <mergeCell ref="K158:M158"/>
+    <mergeCell ref="N158:P158"/>
+    <mergeCell ref="Q158:S158"/>
+    <mergeCell ref="T158:W158"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B172:J172"/>
+    <mergeCell ref="K172:W172"/>
+    <mergeCell ref="T129:W129"/>
+    <mergeCell ref="T130:T131"/>
+    <mergeCell ref="K128:W128"/>
+    <mergeCell ref="B142:J142"/>
+    <mergeCell ref="T143:W143"/>
+    <mergeCell ref="T144:T145"/>
+    <mergeCell ref="K142:W142"/>
+    <mergeCell ref="B157:J157"/>
+    <mergeCell ref="K157:W157"/>
+    <mergeCell ref="T46:T47"/>
+    <mergeCell ref="K44:W44"/>
+    <mergeCell ref="B62:J62"/>
+    <mergeCell ref="T63:W63"/>
+    <mergeCell ref="T64:T65"/>
     <mergeCell ref="K62:W62"/>
     <mergeCell ref="B85:J85"/>
     <mergeCell ref="B107:J107"/>
@@ -57929,39 +57918,50 @@
     <mergeCell ref="H86:J86"/>
     <mergeCell ref="E86:G86"/>
     <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B158:D158"/>
-    <mergeCell ref="E158:G158"/>
-    <mergeCell ref="H158:J158"/>
-    <mergeCell ref="K158:M158"/>
-    <mergeCell ref="N158:P158"/>
-    <mergeCell ref="Q158:S158"/>
-    <mergeCell ref="T158:W158"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B172:J172"/>
-    <mergeCell ref="K172:W172"/>
-    <mergeCell ref="T129:W129"/>
-    <mergeCell ref="T130:T131"/>
-    <mergeCell ref="K128:W128"/>
-    <mergeCell ref="B142:J142"/>
-    <mergeCell ref="T143:W143"/>
-    <mergeCell ref="T144:T145"/>
-    <mergeCell ref="K142:W142"/>
-    <mergeCell ref="B157:J157"/>
-    <mergeCell ref="K157:W157"/>
-    <mergeCell ref="T46:T47"/>
-    <mergeCell ref="K44:W44"/>
-    <mergeCell ref="B62:J62"/>
-    <mergeCell ref="T63:W63"/>
-    <mergeCell ref="T64:T65"/>
-    <mergeCell ref="B173:D173"/>
-    <mergeCell ref="E173:G173"/>
-    <mergeCell ref="H173:J173"/>
-    <mergeCell ref="K173:M173"/>
-    <mergeCell ref="N173:P173"/>
-    <mergeCell ref="Q173:S173"/>
-    <mergeCell ref="T173:W173"/>
-    <mergeCell ref="T174:T175"/>
-    <mergeCell ref="T159:T161"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="K23:W23"/>
+    <mergeCell ref="B44:J44"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="T45:W45"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="K3:W3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="B143:D143"/>
+    <mergeCell ref="E143:G143"/>
+    <mergeCell ref="H143:J143"/>
+    <mergeCell ref="K143:M143"/>
+    <mergeCell ref="N143:P143"/>
+    <mergeCell ref="Q143:S143"/>
+    <mergeCell ref="K108:M108"/>
+    <mergeCell ref="H108:J108"/>
+    <mergeCell ref="E108:G108"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="Q129:S129"/>
+    <mergeCell ref="B129:D129"/>
+    <mergeCell ref="E129:G129"/>
+    <mergeCell ref="H129:J129"/>
+    <mergeCell ref="K129:M129"/>
+    <mergeCell ref="N129:P129"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -58002,31 +58002,31 @@
       <c r="A2" s="196" t="s">
         <v>455</v>
       </c>
-      <c r="B2" s="709" t="s">
+      <c r="B2" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C2" s="710"/>
-      <c r="D2" s="710"/>
-      <c r="E2" s="711" t="s">
+      <c r="C2" s="705"/>
+      <c r="D2" s="705"/>
+      <c r="E2" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F2" s="698"/>
-      <c r="G2" s="698"/>
+      <c r="F2" s="688"/>
+      <c r="G2" s="688"/>
     </row>
     <row r="3" spans="1:7" ht="14">
       <c r="A3" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B3" s="707" t="s">
+      <c r="B3" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C3" s="693"/>
-      <c r="D3" s="693"/>
-      <c r="E3" s="708" t="s">
+      <c r="C3" s="686"/>
+      <c r="D3" s="686"/>
+      <c r="E3" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F3" s="693"/>
-      <c r="G3" s="693"/>
+      <c r="F3" s="686"/>
+      <c r="G3" s="686"/>
     </row>
     <row r="4" spans="1:7" ht="15.35">
       <c r="A4" s="197"/>
@@ -58163,31 +58163,31 @@
       <c r="A13" s="196" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="709" t="s">
+      <c r="B13" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C13" s="710"/>
-      <c r="D13" s="710"/>
-      <c r="E13" s="711" t="s">
+      <c r="C13" s="705"/>
+      <c r="D13" s="705"/>
+      <c r="E13" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F13" s="698"/>
-      <c r="G13" s="698"/>
+      <c r="F13" s="688"/>
+      <c r="G13" s="688"/>
     </row>
     <row r="14" spans="1:7" ht="14">
       <c r="A14" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B14" s="707" t="s">
+      <c r="B14" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C14" s="693"/>
-      <c r="D14" s="693"/>
-      <c r="E14" s="708" t="s">
+      <c r="C14" s="686"/>
+      <c r="D14" s="686"/>
+      <c r="E14" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F14" s="693"/>
-      <c r="G14" s="693"/>
+      <c r="F14" s="686"/>
+      <c r="G14" s="686"/>
     </row>
     <row r="15" spans="1:7" ht="15.35">
       <c r="A15" s="197"/>
@@ -58342,31 +58342,31 @@
       <c r="A24" s="196" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="709" t="s">
+      <c r="B24" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C24" s="710"/>
-      <c r="D24" s="710"/>
-      <c r="E24" s="711" t="s">
+      <c r="C24" s="705"/>
+      <c r="D24" s="705"/>
+      <c r="E24" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F24" s="698"/>
-      <c r="G24" s="698"/>
+      <c r="F24" s="688"/>
+      <c r="G24" s="688"/>
     </row>
     <row r="25" spans="1:7" ht="14">
       <c r="A25" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B25" s="707" t="s">
+      <c r="B25" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C25" s="693"/>
-      <c r="D25" s="693"/>
-      <c r="E25" s="708" t="s">
+      <c r="C25" s="686"/>
+      <c r="D25" s="686"/>
+      <c r="E25" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F25" s="693"/>
-      <c r="G25" s="693"/>
+      <c r="F25" s="686"/>
+      <c r="G25" s="686"/>
     </row>
     <row r="26" spans="1:7" ht="15.35">
       <c r="A26" s="197"/>
@@ -58503,31 +58503,31 @@
       <c r="A35" s="196" t="s">
         <v>92</v>
       </c>
-      <c r="B35" s="709" t="s">
+      <c r="B35" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C35" s="710"/>
-      <c r="D35" s="710"/>
-      <c r="E35" s="711" t="s">
+      <c r="C35" s="705"/>
+      <c r="D35" s="705"/>
+      <c r="E35" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F35" s="698"/>
-      <c r="G35" s="698"/>
+      <c r="F35" s="688"/>
+      <c r="G35" s="688"/>
     </row>
     <row r="36" spans="1:8" ht="25.35">
       <c r="A36" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B36" s="707" t="s">
+      <c r="B36" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C36" s="693"/>
-      <c r="D36" s="693"/>
-      <c r="E36" s="708" t="s">
+      <c r="C36" s="686"/>
+      <c r="D36" s="686"/>
+      <c r="E36" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F36" s="693"/>
-      <c r="G36" s="693"/>
+      <c r="F36" s="686"/>
+      <c r="G36" s="686"/>
     </row>
     <row r="37" spans="1:8" ht="15.35">
       <c r="B37" s="198" t="s">
@@ -58659,31 +58659,31 @@
       <c r="A48" s="196" t="s">
         <v>99</v>
       </c>
-      <c r="B48" s="709" t="s">
+      <c r="B48" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C48" s="710"/>
-      <c r="D48" s="710"/>
-      <c r="E48" s="711" t="s">
+      <c r="C48" s="705"/>
+      <c r="D48" s="705"/>
+      <c r="E48" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F48" s="698"/>
-      <c r="G48" s="698"/>
+      <c r="F48" s="688"/>
+      <c r="G48" s="688"/>
     </row>
     <row r="49" spans="1:8" ht="25.35">
       <c r="A49" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B49" s="707" t="s">
+      <c r="B49" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C49" s="693"/>
-      <c r="D49" s="693"/>
-      <c r="E49" s="708" t="s">
+      <c r="C49" s="686"/>
+      <c r="D49" s="686"/>
+      <c r="E49" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F49" s="693"/>
-      <c r="G49" s="693"/>
+      <c r="F49" s="686"/>
+      <c r="G49" s="686"/>
     </row>
     <row r="50" spans="1:8" ht="15.35">
       <c r="B50" s="198" t="s">
@@ -58815,31 +58815,31 @@
       <c r="A62" s="196" t="s">
         <v>104</v>
       </c>
-      <c r="B62" s="709" t="s">
+      <c r="B62" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C62" s="710"/>
-      <c r="D62" s="710"/>
-      <c r="E62" s="711" t="s">
+      <c r="C62" s="705"/>
+      <c r="D62" s="705"/>
+      <c r="E62" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F62" s="698"/>
-      <c r="G62" s="698"/>
+      <c r="F62" s="688"/>
+      <c r="G62" s="688"/>
     </row>
     <row r="63" spans="1:8" ht="25.35">
       <c r="A63" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B63" s="707" t="s">
+      <c r="B63" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C63" s="693"/>
-      <c r="D63" s="693"/>
-      <c r="E63" s="708" t="s">
+      <c r="C63" s="686"/>
+      <c r="D63" s="686"/>
+      <c r="E63" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F63" s="693"/>
-      <c r="G63" s="693"/>
+      <c r="F63" s="686"/>
+      <c r="G63" s="686"/>
     </row>
     <row r="64" spans="1:8" ht="15.35">
       <c r="B64" s="198" t="s">
@@ -58964,31 +58964,31 @@
       <c r="A79" s="191" t="s">
         <v>91</v>
       </c>
-      <c r="B79" s="709" t="s">
+      <c r="B79" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C79" s="710"/>
-      <c r="D79" s="710"/>
-      <c r="E79" s="711" t="s">
+      <c r="C79" s="705"/>
+      <c r="D79" s="705"/>
+      <c r="E79" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F79" s="698"/>
-      <c r="G79" s="698"/>
+      <c r="F79" s="688"/>
+      <c r="G79" s="688"/>
     </row>
     <row r="80" spans="1:9" ht="27.35">
       <c r="A80" s="196" t="s">
         <v>114</v>
       </c>
-      <c r="B80" s="707" t="s">
+      <c r="B80" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C80" s="693"/>
-      <c r="D80" s="693"/>
-      <c r="E80" s="708" t="s">
+      <c r="C80" s="686"/>
+      <c r="D80" s="686"/>
+      <c r="E80" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F80" s="693"/>
-      <c r="G80" s="693"/>
+      <c r="F80" s="686"/>
+      <c r="G80" s="686"/>
     </row>
     <row r="81" spans="1:7" ht="25.35">
       <c r="A81" s="10" t="s">
@@ -59126,31 +59126,31 @@
       <c r="A99" s="196" t="s">
         <v>119</v>
       </c>
-      <c r="B99" s="709" t="s">
+      <c r="B99" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C99" s="710"/>
-      <c r="D99" s="710"/>
-      <c r="E99" s="711" t="s">
+      <c r="C99" s="705"/>
+      <c r="D99" s="705"/>
+      <c r="E99" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F99" s="698"/>
-      <c r="G99" s="698"/>
+      <c r="F99" s="688"/>
+      <c r="G99" s="688"/>
     </row>
     <row r="100" spans="1:7" ht="14">
       <c r="A100" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B100" s="707" t="s">
+      <c r="B100" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C100" s="693"/>
-      <c r="D100" s="693"/>
-      <c r="E100" s="708" t="s">
+      <c r="C100" s="686"/>
+      <c r="D100" s="686"/>
+      <c r="E100" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F100" s="693"/>
-      <c r="G100" s="693"/>
+      <c r="F100" s="686"/>
+      <c r="G100" s="686"/>
     </row>
     <row r="101" spans="1:7" ht="15.35">
       <c r="A101" s="197"/>
@@ -59308,31 +59308,31 @@
       <c r="A112" s="196" t="s">
         <v>146</v>
       </c>
-      <c r="B112" s="709" t="s">
+      <c r="B112" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C112" s="710"/>
-      <c r="D112" s="710"/>
-      <c r="E112" s="711" t="s">
+      <c r="C112" s="705"/>
+      <c r="D112" s="705"/>
+      <c r="E112" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F112" s="698"/>
-      <c r="G112" s="698"/>
+      <c r="F112" s="688"/>
+      <c r="G112" s="688"/>
     </row>
     <row r="113" spans="1:7" ht="14">
       <c r="A113" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B113" s="707" t="s">
+      <c r="B113" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C113" s="693"/>
-      <c r="D113" s="693"/>
-      <c r="E113" s="708" t="s">
+      <c r="C113" s="686"/>
+      <c r="D113" s="686"/>
+      <c r="E113" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F113" s="693"/>
-      <c r="G113" s="693"/>
+      <c r="F113" s="686"/>
+      <c r="G113" s="686"/>
     </row>
     <row r="114" spans="1:7" ht="15.35">
       <c r="A114" s="197"/>
@@ -59461,31 +59461,31 @@
       <c r="A123" s="196" t="s">
         <v>163</v>
       </c>
-      <c r="B123" s="702" t="s">
+      <c r="B123" s="713" t="s">
         <v>456</v>
       </c>
-      <c r="C123" s="703"/>
-      <c r="D123" s="703"/>
-      <c r="E123" s="704" t="s">
+      <c r="C123" s="714"/>
+      <c r="D123" s="714"/>
+      <c r="E123" s="715" t="s">
         <v>457</v>
       </c>
-      <c r="F123" s="705"/>
-      <c r="G123" s="705"/>
+      <c r="F123" s="716"/>
+      <c r="G123" s="716"/>
     </row>
     <row r="124" spans="1:7" ht="14.35">
       <c r="A124" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B124" s="714" t="s">
+      <c r="B124" s="709" t="s">
         <v>459</v>
       </c>
-      <c r="C124" s="715"/>
-      <c r="D124" s="715"/>
-      <c r="E124" s="716" t="s">
+      <c r="C124" s="710"/>
+      <c r="D124" s="710"/>
+      <c r="E124" s="711" t="s">
         <v>460</v>
       </c>
-      <c r="F124" s="717"/>
-      <c r="G124" s="717"/>
+      <c r="F124" s="712"/>
+      <c r="G124" s="712"/>
     </row>
     <row r="125" spans="1:7" ht="14.35">
       <c r="A125" s="197"/>
@@ -59675,31 +59675,31 @@
       <c r="A136" s="196" t="s">
         <v>167</v>
       </c>
-      <c r="B136" s="709" t="s">
+      <c r="B136" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C136" s="710"/>
-      <c r="D136" s="710"/>
-      <c r="E136" s="711" t="s">
+      <c r="C136" s="705"/>
+      <c r="D136" s="705"/>
+      <c r="E136" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F136" s="712"/>
-      <c r="G136" s="712"/>
+      <c r="F136" s="707"/>
+      <c r="G136" s="707"/>
     </row>
     <row r="137" spans="1:7" ht="14">
       <c r="A137" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B137" s="709" t="s">
+      <c r="B137" s="704" t="s">
         <v>459</v>
       </c>
-      <c r="C137" s="712"/>
-      <c r="D137" s="713"/>
-      <c r="E137" s="711" t="s">
+      <c r="C137" s="707"/>
+      <c r="D137" s="708"/>
+      <c r="E137" s="706" t="s">
         <v>460</v>
       </c>
-      <c r="F137" s="712"/>
-      <c r="G137" s="712"/>
+      <c r="F137" s="707"/>
+      <c r="G137" s="707"/>
     </row>
     <row r="138" spans="1:7" ht="15.35">
       <c r="A138" s="197"/>
@@ -59843,31 +59843,31 @@
       <c r="A152" s="196" t="s">
         <v>186</v>
       </c>
-      <c r="B152" s="702" t="s">
+      <c r="B152" s="713" t="s">
         <v>456</v>
       </c>
-      <c r="C152" s="703"/>
-      <c r="D152" s="703"/>
-      <c r="E152" s="704" t="s">
+      <c r="C152" s="714"/>
+      <c r="D152" s="714"/>
+      <c r="E152" s="715" t="s">
         <v>457</v>
       </c>
-      <c r="F152" s="705"/>
-      <c r="G152" s="705"/>
+      <c r="F152" s="716"/>
+      <c r="G152" s="716"/>
     </row>
     <row r="153" spans="1:7" ht="21" customHeight="1">
       <c r="A153" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B153" s="702" t="s">
+      <c r="B153" s="713" t="s">
         <v>459</v>
       </c>
-      <c r="C153" s="703"/>
-      <c r="D153" s="703"/>
-      <c r="E153" s="704" t="s">
+      <c r="C153" s="714"/>
+      <c r="D153" s="714"/>
+      <c r="E153" s="715" t="s">
         <v>460</v>
       </c>
-      <c r="F153" s="705"/>
-      <c r="G153" s="705"/>
+      <c r="F153" s="716"/>
+      <c r="G153" s="716"/>
     </row>
     <row r="154" spans="1:7" ht="14.35">
       <c r="B154" s="220" t="s">
@@ -60143,31 +60143,31 @@
       <c r="A171" s="196" t="s">
         <v>208</v>
       </c>
-      <c r="B171" s="702" t="s">
+      <c r="B171" s="713" t="s">
         <v>456</v>
       </c>
-      <c r="C171" s="703"/>
-      <c r="D171" s="703"/>
-      <c r="E171" s="704" t="s">
+      <c r="C171" s="714"/>
+      <c r="D171" s="714"/>
+      <c r="E171" s="715" t="s">
         <v>457</v>
       </c>
-      <c r="F171" s="705"/>
-      <c r="G171" s="705"/>
+      <c r="F171" s="716"/>
+      <c r="G171" s="716"/>
     </row>
     <row r="172" spans="1:7" ht="27.35">
       <c r="A172" s="197" t="s">
         <v>476</v>
       </c>
-      <c r="B172" s="702" t="s">
+      <c r="B172" s="713" t="s">
         <v>459</v>
       </c>
-      <c r="C172" s="703"/>
-      <c r="D172" s="703"/>
-      <c r="E172" s="704" t="s">
+      <c r="C172" s="714"/>
+      <c r="D172" s="714"/>
+      <c r="E172" s="715" t="s">
         <v>460</v>
       </c>
-      <c r="F172" s="705"/>
-      <c r="G172" s="705"/>
+      <c r="F172" s="716"/>
+      <c r="G172" s="716"/>
     </row>
     <row r="173" spans="1:7" ht="14.35">
       <c r="A173" s="201"/>
@@ -60443,31 +60443,31 @@
       <c r="A190" s="196" t="s">
         <v>210</v>
       </c>
-      <c r="B190" s="702" t="s">
+      <c r="B190" s="713" t="s">
         <v>456</v>
       </c>
-      <c r="C190" s="703"/>
-      <c r="D190" s="703"/>
-      <c r="E190" s="704" t="s">
+      <c r="C190" s="714"/>
+      <c r="D190" s="714"/>
+      <c r="E190" s="715" t="s">
         <v>457</v>
       </c>
-      <c r="F190" s="705"/>
-      <c r="G190" s="705"/>
+      <c r="F190" s="716"/>
+      <c r="G190" s="716"/>
     </row>
     <row r="191" spans="1:7" ht="25.35">
       <c r="A191" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B191" s="702" t="s">
+      <c r="B191" s="713" t="s">
         <v>459</v>
       </c>
-      <c r="C191" s="703"/>
-      <c r="D191" s="703"/>
-      <c r="E191" s="704" t="s">
+      <c r="C191" s="714"/>
+      <c r="D191" s="714"/>
+      <c r="E191" s="715" t="s">
         <v>460</v>
       </c>
-      <c r="F191" s="705"/>
-      <c r="G191" s="705"/>
+      <c r="F191" s="716"/>
+      <c r="G191" s="716"/>
     </row>
     <row r="192" spans="1:7" ht="14.35">
       <c r="B192" s="220" t="s">
@@ -60721,31 +60721,31 @@
       <c r="A208" s="196" t="s">
         <v>215</v>
       </c>
-      <c r="B208" s="702" t="s">
+      <c r="B208" s="713" t="s">
         <v>456</v>
       </c>
-      <c r="C208" s="703"/>
-      <c r="D208" s="703"/>
-      <c r="E208" s="704" t="s">
+      <c r="C208" s="714"/>
+      <c r="D208" s="714"/>
+      <c r="E208" s="715" t="s">
         <v>457</v>
       </c>
-      <c r="F208" s="705"/>
-      <c r="G208" s="705"/>
+      <c r="F208" s="716"/>
+      <c r="G208" s="716"/>
     </row>
     <row r="209" spans="1:7" ht="25.35">
       <c r="A209" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B209" s="702" t="s">
+      <c r="B209" s="713" t="s">
         <v>459</v>
       </c>
-      <c r="C209" s="703"/>
-      <c r="D209" s="703"/>
-      <c r="E209" s="704" t="s">
+      <c r="C209" s="714"/>
+      <c r="D209" s="714"/>
+      <c r="E209" s="715" t="s">
         <v>460</v>
       </c>
-      <c r="F209" s="705"/>
-      <c r="G209" s="705"/>
+      <c r="F209" s="716"/>
+      <c r="G209" s="716"/>
     </row>
     <row r="210" spans="1:7" ht="14.35">
       <c r="B210" s="220" t="s">
@@ -61009,31 +61009,31 @@
       <c r="A226" s="196" t="s">
         <v>218</v>
       </c>
-      <c r="B226" s="702" t="s">
+      <c r="B226" s="713" t="s">
         <v>456</v>
       </c>
-      <c r="C226" s="703"/>
-      <c r="D226" s="703"/>
-      <c r="E226" s="704" t="s">
+      <c r="C226" s="714"/>
+      <c r="D226" s="714"/>
+      <c r="E226" s="715" t="s">
         <v>457</v>
       </c>
-      <c r="F226" s="706"/>
-      <c r="G226" s="706"/>
+      <c r="F226" s="717"/>
+      <c r="G226" s="717"/>
     </row>
     <row r="227" spans="1:7" ht="27.35">
       <c r="A227" s="197" t="s">
         <v>476</v>
       </c>
-      <c r="B227" s="702" t="s">
+      <c r="B227" s="713" t="s">
         <v>459</v>
       </c>
-      <c r="C227" s="641"/>
-      <c r="D227" s="641"/>
-      <c r="E227" s="704" t="s">
+      <c r="C227" s="644"/>
+      <c r="D227" s="644"/>
+      <c r="E227" s="715" t="s">
         <v>460</v>
       </c>
-      <c r="F227" s="706"/>
-      <c r="G227" s="706"/>
+      <c r="F227" s="717"/>
+      <c r="G227" s="717"/>
     </row>
     <row r="228" spans="1:7" ht="14.35">
       <c r="A228" s="197"/>
@@ -61231,31 +61231,31 @@
       <c r="A240" s="196" t="s">
         <v>223</v>
       </c>
-      <c r="B240" s="702" t="s">
+      <c r="B240" s="713" t="s">
         <v>456</v>
       </c>
-      <c r="C240" s="703"/>
-      <c r="D240" s="703"/>
-      <c r="E240" s="704" t="s">
+      <c r="C240" s="714"/>
+      <c r="D240" s="714"/>
+      <c r="E240" s="715" t="s">
         <v>457</v>
       </c>
-      <c r="F240" s="706"/>
-      <c r="G240" s="706"/>
+      <c r="F240" s="717"/>
+      <c r="G240" s="717"/>
     </row>
     <row r="241" spans="1:7" ht="27.35">
       <c r="A241" s="197" t="s">
         <v>476</v>
       </c>
-      <c r="B241" s="702" t="s">
+      <c r="B241" s="713" t="s">
         <v>459</v>
       </c>
-      <c r="C241" s="641"/>
-      <c r="D241" s="641"/>
-      <c r="E241" s="704" t="s">
+      <c r="C241" s="644"/>
+      <c r="D241" s="644"/>
+      <c r="E241" s="715" t="s">
         <v>460</v>
       </c>
-      <c r="F241" s="706"/>
-      <c r="G241" s="706"/>
+      <c r="F241" s="717"/>
+      <c r="G241" s="717"/>
     </row>
     <row r="242" spans="1:7" ht="14.35">
       <c r="A242" s="197"/>
@@ -61514,18 +61514,46 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="B152:D152"/>
+    <mergeCell ref="E152:G152"/>
+    <mergeCell ref="B153:D153"/>
+    <mergeCell ref="E153:G153"/>
+    <mergeCell ref="B172:D172"/>
+    <mergeCell ref="E172:G172"/>
+    <mergeCell ref="B171:D171"/>
+    <mergeCell ref="E171:G171"/>
+    <mergeCell ref="B190:D190"/>
+    <mergeCell ref="E190:G190"/>
+    <mergeCell ref="B191:D191"/>
+    <mergeCell ref="E191:G191"/>
+    <mergeCell ref="B241:D241"/>
+    <mergeCell ref="E241:G241"/>
+    <mergeCell ref="B208:D208"/>
+    <mergeCell ref="E208:G208"/>
+    <mergeCell ref="B209:D209"/>
+    <mergeCell ref="E209:G209"/>
+    <mergeCell ref="B226:D226"/>
+    <mergeCell ref="E226:G226"/>
+    <mergeCell ref="B227:D227"/>
+    <mergeCell ref="E227:G227"/>
+    <mergeCell ref="B240:D240"/>
+    <mergeCell ref="E240:G240"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="E79:G79"/>
     <mergeCell ref="B137:D137"/>
     <mergeCell ref="E137:G137"/>
     <mergeCell ref="B124:D124"/>
@@ -61542,46 +61570,18 @@
     <mergeCell ref="E136:G136"/>
     <mergeCell ref="B123:D123"/>
     <mergeCell ref="E123:G123"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="B190:D190"/>
-    <mergeCell ref="E190:G190"/>
-    <mergeCell ref="B191:D191"/>
-    <mergeCell ref="E191:G191"/>
-    <mergeCell ref="B241:D241"/>
-    <mergeCell ref="E241:G241"/>
-    <mergeCell ref="B208:D208"/>
-    <mergeCell ref="E208:G208"/>
-    <mergeCell ref="B209:D209"/>
-    <mergeCell ref="E209:G209"/>
-    <mergeCell ref="B226:D226"/>
-    <mergeCell ref="E226:G226"/>
-    <mergeCell ref="B227:D227"/>
-    <mergeCell ref="E227:G227"/>
-    <mergeCell ref="B240:D240"/>
-    <mergeCell ref="E240:G240"/>
-    <mergeCell ref="B152:D152"/>
-    <mergeCell ref="E152:G152"/>
-    <mergeCell ref="B153:D153"/>
-    <mergeCell ref="E153:G153"/>
-    <mergeCell ref="B172:D172"/>
-    <mergeCell ref="E172:G172"/>
-    <mergeCell ref="B171:D171"/>
-    <mergeCell ref="E171:G171"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -62324,9 +62324,9 @@
       <c r="A1" s="722" t="s">
         <v>448</v>
       </c>
-      <c r="B1" s="698"/>
-      <c r="C1" s="698"/>
-      <c r="D1" s="698"/>
+      <c r="B1" s="688"/>
+      <c r="C1" s="688"/>
+      <c r="D1" s="688"/>
       <c r="E1" s="723" t="s">
         <v>449</v>
       </c>

--- a/microgrid_base/设备信息库各参数.xlsx
+++ b/microgrid_base/设备信息库各参数.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\works\jubilant-adventure2\microgrid_base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DFEC48-FDFC-4AF4-84D4-8DDDF7ED228E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E518D8-E22E-4DA2-808C-B70C94F5D32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="8180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6555,7 +6555,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6564,54 +6564,29 @@
     <xf numFmtId="0" fontId="65" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="67" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6626,13 +6601,47 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6650,17 +6659,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6679,8 +6679,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6689,17 +6726,8 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6713,35 +6741,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6771,15 +6780,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -8843,7 +8843,7 @@
       <c r="C15" s="370">
         <v>560</v>
       </c>
-      <c r="D15" s="635"/>
+      <c r="D15" s="644"/>
       <c r="E15" s="365"/>
       <c r="F15" s="363"/>
       <c r="G15" s="363"/>
@@ -8924,7 +8924,7 @@
       <c r="B21" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="638"/>
+      <c r="C21" s="639"/>
       <c r="D21" s="363"/>
       <c r="E21" s="363"/>
       <c r="F21" s="363"/>
@@ -9205,7 +9205,7 @@
       <c r="C41" s="375">
         <v>560</v>
       </c>
-      <c r="D41" s="639"/>
+      <c r="D41" s="635"/>
       <c r="E41" s="366"/>
       <c r="F41" s="363"/>
       <c r="G41" s="363"/>
@@ -9286,7 +9286,7 @@
       <c r="B47" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="638"/>
+      <c r="C47" s="639"/>
       <c r="D47" s="363"/>
       <c r="E47" s="363"/>
       <c r="F47" s="363"/>
@@ -9621,7 +9621,7 @@
       <c r="C71" s="370">
         <v>560</v>
       </c>
-      <c r="D71" s="639"/>
+      <c r="D71" s="635"/>
       <c r="E71" s="363"/>
       <c r="F71" s="363"/>
       <c r="G71" s="363"/>
@@ -9702,7 +9702,7 @@
       <c r="B77" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C77" s="638"/>
+      <c r="C77" s="639"/>
       <c r="D77" s="363"/>
       <c r="E77" s="363"/>
       <c r="F77" s="363"/>
@@ -9876,10 +9876,10 @@
       </c>
       <c r="E91" s="363"/>
       <c r="F91" s="363"/>
-      <c r="G91" s="640" t="s">
+      <c r="G91" s="642" t="s">
         <v>59</v>
       </c>
-      <c r="H91" s="641"/>
+      <c r="H91" s="643"/>
     </row>
     <row r="92" spans="1:8" ht="14.35">
       <c r="A92" s="363"/>
@@ -10007,7 +10007,7 @@
       <c r="C99" s="370">
         <v>560</v>
       </c>
-      <c r="D99" s="639"/>
+      <c r="D99" s="635"/>
       <c r="E99" s="363"/>
       <c r="F99" s="363"/>
       <c r="G99" s="363"/>
@@ -10088,7 +10088,7 @@
       <c r="B105" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C105" s="642"/>
+      <c r="C105" s="638"/>
       <c r="D105" s="363"/>
       <c r="E105" s="363"/>
       <c r="F105" s="363"/>
@@ -10387,7 +10387,7 @@
       <c r="C128" s="370">
         <v>560</v>
       </c>
-      <c r="D128" s="639"/>
+      <c r="D128" s="635"/>
       <c r="E128" s="363"/>
       <c r="F128" s="363"/>
       <c r="G128" s="363"/>
@@ -10468,7 +10468,7 @@
       <c r="B134" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C134" s="642"/>
+      <c r="C134" s="638"/>
       <c r="D134" s="363"/>
       <c r="E134" s="363"/>
       <c r="F134" s="363"/>
@@ -10741,7 +10741,7 @@
       <c r="C158" s="370">
         <v>560</v>
       </c>
-      <c r="D158" s="639"/>
+      <c r="D158" s="635"/>
       <c r="E158" s="363"/>
     </row>
     <row r="159" spans="1:8" ht="14.35">
@@ -10804,7 +10804,7 @@
       <c r="B164" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C164" s="642"/>
+      <c r="C164" s="638"/>
       <c r="D164" s="363"/>
       <c r="E164" s="363"/>
     </row>
@@ -10944,7 +10944,7 @@
       <c r="C179" s="375">
         <v>560</v>
       </c>
-      <c r="D179" s="639"/>
+      <c r="D179" s="635"/>
       <c r="E179" s="363"/>
       <c r="F179" s="363"/>
       <c r="G179" s="363"/>
@@ -11025,7 +11025,7 @@
       <c r="B185" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C185" s="638"/>
+      <c r="C185" s="639"/>
       <c r="D185" s="363"/>
       <c r="E185" s="363"/>
       <c r="F185" s="363"/>
@@ -11222,7 +11222,7 @@
       <c r="C201" s="375">
         <v>560</v>
       </c>
-      <c r="D201" s="639"/>
+      <c r="D201" s="635"/>
       <c r="E201" s="363"/>
       <c r="F201" s="363"/>
       <c r="G201" s="363"/>
@@ -11302,7 +11302,7 @@
       <c r="B207" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C207" s="638"/>
+      <c r="C207" s="639"/>
       <c r="D207" s="363"/>
       <c r="E207" s="363"/>
       <c r="F207" s="363"/>
@@ -11797,7 +11797,7 @@
       <c r="C242" s="370">
         <v>560</v>
       </c>
-      <c r="D242" s="639"/>
+      <c r="D242" s="635"/>
       <c r="E242" s="363"/>
       <c r="F242" s="363"/>
       <c r="G242" s="363"/>
@@ -11878,7 +11878,7 @@
       <c r="B248" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C248" s="642"/>
+      <c r="C248" s="638"/>
       <c r="D248" s="363"/>
       <c r="E248" s="363"/>
       <c r="F248" s="363"/>
@@ -12267,7 +12267,7 @@
       <c r="C278" s="370">
         <v>560</v>
       </c>
-      <c r="D278" s="639"/>
+      <c r="D278" s="635"/>
       <c r="E278" s="363"/>
       <c r="F278" s="363"/>
       <c r="G278" s="363"/>
@@ -12348,7 +12348,7 @@
       <c r="B284" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C284" s="642"/>
+      <c r="C284" s="638"/>
       <c r="D284" s="363"/>
       <c r="E284" s="363"/>
       <c r="F284" s="363"/>
@@ -12578,7 +12578,7 @@
       <c r="C304" s="370">
         <v>560</v>
       </c>
-      <c r="D304" s="639"/>
+      <c r="D304" s="635"/>
       <c r="E304" s="363"/>
       <c r="F304" s="363"/>
       <c r="G304" s="363"/>
@@ -12659,7 +12659,7 @@
       <c r="B310" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C310" s="642"/>
+      <c r="C310" s="638"/>
       <c r="D310" s="363"/>
       <c r="E310" s="363"/>
       <c r="F310" s="363"/>
@@ -12846,7 +12846,7 @@
       <c r="C327" s="370">
         <v>560</v>
       </c>
-      <c r="D327" s="639"/>
+      <c r="D327" s="635"/>
       <c r="E327" s="363"/>
       <c r="F327" s="363"/>
       <c r="G327" s="363"/>
@@ -12927,7 +12927,7 @@
       <c r="B333" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C333" s="642"/>
+      <c r="C333" s="638"/>
       <c r="D333" s="363"/>
       <c r="E333" s="363"/>
       <c r="F333" s="363"/>
@@ -13120,7 +13120,7 @@
       <c r="C349" s="370">
         <v>560</v>
       </c>
-      <c r="D349" s="639"/>
+      <c r="D349" s="635"/>
       <c r="F349" s="363"/>
       <c r="G349" s="363"/>
       <c r="H349" s="363"/>
@@ -13195,7 +13195,7 @@
       <c r="B355" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C355" s="642"/>
+      <c r="C355" s="638"/>
       <c r="D355" s="363"/>
       <c r="F355" s="363"/>
       <c r="G355" s="363"/>
@@ -13540,7 +13540,7 @@
       <c r="C383" s="370">
         <v>560</v>
       </c>
-      <c r="D383" s="639"/>
+      <c r="D383" s="635"/>
       <c r="E383" s="363"/>
       <c r="F383" s="363"/>
       <c r="G383" s="363"/>
@@ -13621,7 +13621,7 @@
       <c r="B389" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C389" s="642"/>
+      <c r="C389" s="638"/>
       <c r="D389" s="363"/>
       <c r="E389" s="363"/>
       <c r="F389" s="363"/>
@@ -13969,7 +13969,7 @@
       <c r="C418" s="370">
         <v>560</v>
       </c>
-      <c r="D418" s="639"/>
+      <c r="D418" s="635"/>
       <c r="E418" s="363"/>
       <c r="F418" s="363"/>
       <c r="G418" s="363"/>
@@ -14050,7 +14050,7 @@
       <c r="B424" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C424" s="642"/>
+      <c r="C424" s="638"/>
       <c r="D424" s="363"/>
       <c r="E424" s="363"/>
       <c r="F424" s="363"/>
@@ -14376,7 +14376,7 @@
       <c r="B451" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C451" s="642"/>
+      <c r="C451" s="638"/>
       <c r="D451" s="363"/>
       <c r="E451" s="363"/>
       <c r="F451" s="363"/>
@@ -14591,7 +14591,7 @@
       <c r="C469" s="370">
         <v>560</v>
       </c>
-      <c r="D469" s="639"/>
+      <c r="D469" s="635"/>
       <c r="E469" s="363"/>
       <c r="F469" s="363"/>
       <c r="G469" s="363"/>
@@ -14672,7 +14672,7 @@
       <c r="B475" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C475" s="642"/>
+      <c r="C475" s="638"/>
       <c r="D475" s="363"/>
       <c r="E475" s="363"/>
       <c r="F475" s="363"/>
@@ -14899,7 +14899,7 @@
       <c r="C494" s="370">
         <v>560</v>
       </c>
-      <c r="D494" s="639"/>
+      <c r="D494" s="635"/>
       <c r="E494" s="365" t="s">
         <v>684</v>
       </c>
@@ -14982,7 +14982,7 @@
       <c r="B500" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C500" s="642"/>
+      <c r="C500" s="638"/>
       <c r="D500" s="363"/>
       <c r="E500" s="363"/>
       <c r="F500" s="363"/>
@@ -15203,7 +15203,7 @@
       <c r="C519" s="370">
         <v>560</v>
       </c>
-      <c r="D519" s="639"/>
+      <c r="D519" s="635"/>
       <c r="E519" s="365" t="s">
         <v>686</v>
       </c>
@@ -15286,7 +15286,7 @@
       <c r="B525" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C525" s="642"/>
+      <c r="C525" s="638"/>
       <c r="D525" s="363"/>
       <c r="E525" s="363"/>
       <c r="F525" s="363"/>
@@ -15553,7 +15553,7 @@
       <c r="C547" s="370">
         <v>560</v>
       </c>
-      <c r="D547" s="639"/>
+      <c r="D547" s="635"/>
       <c r="E547" s="363"/>
       <c r="F547" s="363"/>
       <c r="G547" s="363"/>
@@ -15634,7 +15634,7 @@
       <c r="B553" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C553" s="642"/>
+      <c r="C553" s="638"/>
       <c r="D553" s="363"/>
       <c r="E553" s="363"/>
       <c r="F553" s="363"/>
@@ -15965,7 +15965,7 @@
       <c r="C580" s="370">
         <v>560</v>
       </c>
-      <c r="D580" s="639"/>
+      <c r="D580" s="635"/>
       <c r="E580" s="363"/>
       <c r="F580" s="363"/>
       <c r="G580" s="363"/>
@@ -16046,7 +16046,7 @@
       <c r="B586" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C586" s="642"/>
+      <c r="C586" s="638"/>
       <c r="D586" s="363"/>
       <c r="E586" s="363"/>
       <c r="F586" s="363"/>
@@ -16310,7 +16310,7 @@
       <c r="C608" s="370">
         <v>560</v>
       </c>
-      <c r="D608" s="639"/>
+      <c r="D608" s="635"/>
       <c r="E608" s="363"/>
       <c r="F608" s="363"/>
       <c r="G608" s="363"/>
@@ -16391,7 +16391,7 @@
       <c r="B614" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C614" s="642"/>
+      <c r="C614" s="638"/>
       <c r="D614" s="363"/>
       <c r="E614" s="363"/>
       <c r="F614" s="363"/>
@@ -16675,7 +16675,7 @@
       <c r="B637" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C637" s="642"/>
+      <c r="C637" s="638"/>
       <c r="D637" s="363"/>
       <c r="E637" s="363"/>
       <c r="F637" s="363"/>
@@ -16970,10 +16970,10 @@
     </row>
     <row r="660" spans="1:8" ht="14.35">
       <c r="A660" s="363"/>
-      <c r="B660" s="643" t="s">
+      <c r="B660" s="640" t="s">
         <v>34</v>
       </c>
-      <c r="C660" s="644"/>
+      <c r="C660" s="641"/>
       <c r="D660" s="363"/>
       <c r="E660" s="363"/>
       <c r="F660" s="363"/>
@@ -17272,10 +17272,10 @@
     </row>
     <row r="683" spans="1:8" ht="14.35">
       <c r="A683" s="363"/>
-      <c r="B683" s="643" t="s">
+      <c r="B683" s="640" t="s">
         <v>34</v>
       </c>
-      <c r="C683" s="644"/>
+      <c r="C683" s="641"/>
       <c r="D683" s="363"/>
       <c r="E683" s="363"/>
       <c r="F683" s="363"/>
@@ -17639,7 +17639,7 @@
       <c r="B711" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C711" s="642"/>
+      <c r="C711" s="638"/>
       <c r="D711" s="363"/>
       <c r="E711" s="363"/>
       <c r="F711" s="363"/>
@@ -17884,7 +17884,7 @@
       <c r="C729" s="370">
         <v>560</v>
       </c>
-      <c r="D729" s="639"/>
+      <c r="D729" s="635"/>
       <c r="E729" s="363"/>
       <c r="F729" s="363"/>
       <c r="G729" s="363"/>
@@ -17965,7 +17965,7 @@
       <c r="B735" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C735" s="642"/>
+      <c r="C735" s="638"/>
       <c r="D735" s="363"/>
       <c r="E735" s="363"/>
       <c r="F735" s="363"/>
@@ -18226,7 +18226,7 @@
       <c r="C756" s="370">
         <v>560</v>
       </c>
-      <c r="D756" s="639"/>
+      <c r="D756" s="635"/>
       <c r="E756" s="363"/>
       <c r="F756" s="363"/>
       <c r="G756" s="363"/>
@@ -18307,7 +18307,7 @@
       <c r="B762" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C762" s="642"/>
+      <c r="C762" s="638"/>
       <c r="D762" s="363"/>
       <c r="E762" s="363"/>
       <c r="F762" s="363"/>
@@ -18633,7 +18633,7 @@
       <c r="B789" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C789" s="638"/>
+      <c r="C789" s="639"/>
       <c r="D789" s="363"/>
       <c r="E789" s="363"/>
       <c r="F789" s="363"/>
@@ -18959,7 +18959,7 @@
       <c r="B816" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C816" s="638"/>
+      <c r="C816" s="639"/>
       <c r="D816" s="363"/>
       <c r="E816" s="363"/>
       <c r="F816" s="363"/>
@@ -19250,7 +19250,7 @@
       <c r="C839" s="375">
         <v>560</v>
       </c>
-      <c r="D839" s="639"/>
+      <c r="D839" s="635"/>
       <c r="E839" s="365"/>
       <c r="F839" s="363"/>
       <c r="G839" s="363"/>
@@ -19331,7 +19331,7 @@
       <c r="B845" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C845" s="638"/>
+      <c r="C845" s="639"/>
       <c r="D845" s="363"/>
       <c r="E845" s="363"/>
       <c r="F845" s="363"/>
@@ -19712,7 +19712,7 @@
       <c r="B876" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C876" s="638"/>
+      <c r="C876" s="639"/>
       <c r="D876" s="363"/>
       <c r="E876" s="363"/>
       <c r="F876" s="363"/>
@@ -20068,7 +20068,7 @@
       <c r="B907" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C907" s="638"/>
+      <c r="C907" s="639"/>
       <c r="D907" s="363"/>
       <c r="E907" s="363"/>
       <c r="F907" s="363"/>
@@ -20341,7 +20341,7 @@
       <c r="B931" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C931" s="638"/>
+      <c r="C931" s="639"/>
       <c r="D931" s="363"/>
       <c r="E931" s="363"/>
       <c r="F931" s="363"/>
@@ -20691,7 +20691,7 @@
       <c r="B958" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C958" s="638"/>
+      <c r="C958" s="639"/>
       <c r="D958" s="363"/>
       <c r="E958" s="363"/>
       <c r="F958" s="363"/>
@@ -20987,7 +20987,7 @@
       <c r="B981" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C981" s="638"/>
+      <c r="C981" s="639"/>
       <c r="D981" s="363"/>
       <c r="E981" s="363"/>
       <c r="F981" s="363"/>
@@ -21283,7 +21283,7 @@
       <c r="B1005" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1005" s="638"/>
+      <c r="C1005" s="639"/>
       <c r="D1005" s="363"/>
       <c r="E1005" s="363"/>
       <c r="F1005" s="363"/>
@@ -21479,7 +21479,7 @@
       <c r="B1024" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1024" s="638"/>
+      <c r="C1024" s="639"/>
       <c r="F1024" s="363"/>
       <c r="G1024" s="363"/>
       <c r="H1024" s="363"/>
@@ -21706,7 +21706,7 @@
       <c r="C1042" s="370">
         <v>560</v>
       </c>
-      <c r="D1042" s="639"/>
+      <c r="D1042" s="635"/>
       <c r="E1042" s="363"/>
       <c r="F1042" s="363"/>
       <c r="G1042" s="363"/>
@@ -21787,7 +21787,7 @@
       <c r="B1048" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1048" s="642"/>
+      <c r="C1048" s="638"/>
       <c r="D1048" s="363"/>
       <c r="E1048" s="363"/>
       <c r="F1048" s="363"/>
@@ -22053,7 +22053,7 @@
       <c r="B1070" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1070" s="638"/>
+      <c r="C1070" s="639"/>
       <c r="D1070" s="363"/>
       <c r="E1070" s="363"/>
       <c r="F1070" s="363"/>
@@ -22298,7 +22298,7 @@
       <c r="C1089" s="370">
         <v>560</v>
       </c>
-      <c r="D1089" s="639"/>
+      <c r="D1089" s="635"/>
       <c r="E1089" s="363"/>
       <c r="F1089" s="363"/>
       <c r="G1089" s="363"/>
@@ -22373,7 +22373,7 @@
       <c r="B1095" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1095" s="642"/>
+      <c r="C1095" s="638"/>
       <c r="D1095" s="363"/>
       <c r="E1095" s="363"/>
       <c r="F1095" s="363"/>
@@ -22649,7 +22649,7 @@
       <c r="C1120" s="370">
         <v>560</v>
       </c>
-      <c r="D1120" s="639"/>
+      <c r="D1120" s="635"/>
       <c r="E1120" s="363"/>
       <c r="F1120" s="363"/>
       <c r="G1120" s="363"/>
@@ -22726,7 +22726,7 @@
       <c r="B1126" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1126" s="642"/>
+      <c r="C1126" s="638"/>
       <c r="D1126" s="363"/>
       <c r="E1126" s="363"/>
       <c r="F1126" s="363"/>
@@ -23089,7 +23089,7 @@
       <c r="B1155" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1155" s="642"/>
+      <c r="C1155" s="638"/>
       <c r="D1155" s="363"/>
       <c r="E1155" s="363"/>
       <c r="F1155" s="363"/>
@@ -23198,6 +23198,61 @@
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D41:D46"/>
+    <mergeCell ref="D71:D75"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="D99:D103"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="D128:D132"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="D158:D162"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="D179:D184"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="D201:D206"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="D242:D246"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="D278:D282"/>
+    <mergeCell ref="B284:C284"/>
+    <mergeCell ref="D304:D308"/>
+    <mergeCell ref="B310:C310"/>
+    <mergeCell ref="D327:D331"/>
+    <mergeCell ref="B333:C333"/>
+    <mergeCell ref="D383:D387"/>
+    <mergeCell ref="B389:C389"/>
+    <mergeCell ref="D418:D422"/>
+    <mergeCell ref="B424:C424"/>
+    <mergeCell ref="B451:C451"/>
+    <mergeCell ref="D469:D473"/>
+    <mergeCell ref="B475:C475"/>
+    <mergeCell ref="D494:D498"/>
+    <mergeCell ref="B500:C500"/>
+    <mergeCell ref="D519:D523"/>
+    <mergeCell ref="B525:C525"/>
+    <mergeCell ref="D547:D551"/>
+    <mergeCell ref="B553:C553"/>
+    <mergeCell ref="D580:D584"/>
+    <mergeCell ref="B586:C586"/>
+    <mergeCell ref="D608:D612"/>
+    <mergeCell ref="B614:C614"/>
+    <mergeCell ref="B637:C637"/>
+    <mergeCell ref="B660:C660"/>
+    <mergeCell ref="B683:C683"/>
+    <mergeCell ref="B711:C711"/>
+    <mergeCell ref="D839:D844"/>
+    <mergeCell ref="B845:C845"/>
+    <mergeCell ref="B876:C876"/>
+    <mergeCell ref="B907:C907"/>
+    <mergeCell ref="D729:D733"/>
+    <mergeCell ref="B735:C735"/>
+    <mergeCell ref="D756:D760"/>
+    <mergeCell ref="B762:C762"/>
+    <mergeCell ref="B789:C789"/>
     <mergeCell ref="D1120:D1124"/>
     <mergeCell ref="B1126:C1126"/>
     <mergeCell ref="B1155:C1155"/>
@@ -23214,61 +23269,6 @@
     <mergeCell ref="B1005:C1005"/>
     <mergeCell ref="B1024:C1024"/>
     <mergeCell ref="B816:C816"/>
-    <mergeCell ref="D839:D844"/>
-    <mergeCell ref="B845:C845"/>
-    <mergeCell ref="B876:C876"/>
-    <mergeCell ref="B907:C907"/>
-    <mergeCell ref="D729:D733"/>
-    <mergeCell ref="B735:C735"/>
-    <mergeCell ref="D756:D760"/>
-    <mergeCell ref="B762:C762"/>
-    <mergeCell ref="B789:C789"/>
-    <mergeCell ref="B614:C614"/>
-    <mergeCell ref="B637:C637"/>
-    <mergeCell ref="B660:C660"/>
-    <mergeCell ref="B683:C683"/>
-    <mergeCell ref="B711:C711"/>
-    <mergeCell ref="D547:D551"/>
-    <mergeCell ref="B553:C553"/>
-    <mergeCell ref="D580:D584"/>
-    <mergeCell ref="B586:C586"/>
-    <mergeCell ref="D608:D612"/>
-    <mergeCell ref="B475:C475"/>
-    <mergeCell ref="D494:D498"/>
-    <mergeCell ref="B500:C500"/>
-    <mergeCell ref="D519:D523"/>
-    <mergeCell ref="B525:C525"/>
-    <mergeCell ref="B389:C389"/>
-    <mergeCell ref="D418:D422"/>
-    <mergeCell ref="B424:C424"/>
-    <mergeCell ref="B451:C451"/>
-    <mergeCell ref="D469:D473"/>
-    <mergeCell ref="D304:D308"/>
-    <mergeCell ref="B310:C310"/>
-    <mergeCell ref="D327:D331"/>
-    <mergeCell ref="B333:C333"/>
-    <mergeCell ref="D383:D387"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="D242:D246"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="D278:D282"/>
-    <mergeCell ref="B284:C284"/>
-    <mergeCell ref="D158:D162"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="D179:D184"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="D201:D206"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="D99:D103"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="D128:D132"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D41:D46"/>
-    <mergeCell ref="D71:D75"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23614,7 +23614,7 @@
       <c r="B20" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="638"/>
+      <c r="C20" s="639"/>
       <c r="D20" s="363"/>
       <c r="E20" s="363"/>
       <c r="F20" s="363"/>
@@ -23789,7 +23789,7 @@
         <v>29</v>
       </c>
       <c r="C36" s="375"/>
-      <c r="D36" s="650"/>
+      <c r="D36" s="645"/>
       <c r="E36" s="26"/>
       <c r="K36" s="10"/>
     </row>
@@ -23799,7 +23799,7 @@
         <v>45</v>
       </c>
       <c r="C37" s="370"/>
-      <c r="D37" s="651"/>
+      <c r="D37" s="646"/>
       <c r="E37" s="26"/>
       <c r="K37" s="10"/>
     </row>
@@ -23809,7 +23809,7 @@
         <v>30</v>
       </c>
       <c r="C38" s="370"/>
-      <c r="D38" s="651"/>
+      <c r="D38" s="646"/>
       <c r="E38" s="28"/>
       <c r="K38" s="10"/>
     </row>
@@ -23819,7 +23819,7 @@
         <v>31</v>
       </c>
       <c r="C39" s="370"/>
-      <c r="D39" s="651"/>
+      <c r="D39" s="646"/>
       <c r="E39" s="28"/>
       <c r="K39" s="10"/>
     </row>
@@ -23829,7 +23829,7 @@
         <v>32</v>
       </c>
       <c r="C40" s="370"/>
-      <c r="D40" s="651"/>
+      <c r="D40" s="646"/>
       <c r="E40" s="28"/>
       <c r="K40" s="10"/>
     </row>
@@ -23839,7 +23839,7 @@
         <v>876</v>
       </c>
       <c r="C41" s="370"/>
-      <c r="D41" s="651"/>
+      <c r="D41" s="646"/>
       <c r="E41" s="28"/>
       <c r="K41" s="10"/>
     </row>
@@ -23848,7 +23848,7 @@
       <c r="B42" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="638"/>
+      <c r="C42" s="639"/>
       <c r="D42" s="501"/>
       <c r="E42" s="28"/>
       <c r="K42" s="10"/>
@@ -24087,10 +24087,10 @@
     </row>
     <row r="61" spans="1:11" ht="14.35">
       <c r="A61" s="2"/>
-      <c r="B61" s="658" t="s">
+      <c r="B61" s="649" t="s">
         <v>34</v>
       </c>
-      <c r="C61" s="659"/>
+      <c r="C61" s="650"/>
       <c r="D61" s="8"/>
       <c r="E61" s="393"/>
       <c r="F61" s="2"/>
@@ -24276,10 +24276,10 @@
       <c r="D75" s="518" t="s">
         <v>58</v>
       </c>
-      <c r="E75" s="646" t="s">
+      <c r="E75" s="651" t="s">
         <v>59</v>
       </c>
-      <c r="F75" s="647"/>
+      <c r="F75" s="652"/>
       <c r="G75" s="520"/>
       <c r="H75" s="488"/>
       <c r="K75" s="10"/>
@@ -24376,7 +24376,7 @@
         <v>65</v>
       </c>
       <c r="C81" s="370"/>
-      <c r="D81" s="650"/>
+      <c r="D81" s="645"/>
       <c r="E81" s="525">
         <v>1</v>
       </c>
@@ -24393,7 +24393,7 @@
         <v>30</v>
       </c>
       <c r="C82" s="370"/>
-      <c r="D82" s="651"/>
+      <c r="D82" s="646"/>
       <c r="E82" s="526" t="s">
         <v>66</v>
       </c>
@@ -24408,7 +24408,7 @@
         <v>31</v>
       </c>
       <c r="C83" s="370"/>
-      <c r="D83" s="651"/>
+      <c r="D83" s="646"/>
       <c r="E83" s="527" t="s">
         <v>67</v>
       </c>
@@ -24423,7 +24423,7 @@
         <v>68</v>
       </c>
       <c r="C84" s="499"/>
-      <c r="D84" s="651"/>
+      <c r="D84" s="646"/>
       <c r="E84" s="363"/>
       <c r="F84" s="363"/>
       <c r="G84" s="363"/>
@@ -24435,7 +24435,7 @@
       <c r="B85" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C85" s="638"/>
+      <c r="C85" s="639"/>
       <c r="D85" s="363"/>
       <c r="E85" s="363"/>
       <c r="F85" s="363"/>
@@ -24542,8 +24542,8 @@
       <c r="D94" s="373"/>
       <c r="E94" s="363"/>
       <c r="F94" s="363"/>
-      <c r="G94" s="640"/>
-      <c r="H94" s="641"/>
+      <c r="G94" s="642"/>
+      <c r="H94" s="643"/>
       <c r="K94" s="10"/>
     </row>
     <row r="95" spans="1:11" ht="14.35">
@@ -24567,10 +24567,10 @@
       <c r="C96" s="399" t="s">
         <v>57</v>
       </c>
-      <c r="D96" s="648" t="s">
+      <c r="D96" s="653" t="s">
         <v>59</v>
       </c>
-      <c r="E96" s="647"/>
+      <c r="E96" s="652"/>
       <c r="F96" s="363"/>
       <c r="G96" s="410"/>
       <c r="H96" s="409"/>
@@ -24716,10 +24716,10 @@
     </row>
     <row r="106" spans="1:11" ht="14.35">
       <c r="A106" s="363"/>
-      <c r="B106" s="652" t="s">
+      <c r="B106" s="655" t="s">
         <v>34</v>
       </c>
-      <c r="C106" s="653"/>
+      <c r="C106" s="656"/>
       <c r="E106" s="363"/>
       <c r="F106" s="363"/>
       <c r="G106" s="363"/>
@@ -24838,7 +24838,7 @@
       </c>
       <c r="C116" s="401"/>
       <c r="D116" s="365"/>
-      <c r="E116" s="649" t="s">
+      <c r="E116" s="654" t="s">
         <v>59</v>
       </c>
       <c r="F116" s="633"/>
@@ -25005,7 +25005,7 @@
       <c r="B127" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C127" s="642"/>
+      <c r="C127" s="638"/>
       <c r="D127" s="363"/>
       <c r="E127" s="363"/>
       <c r="F127" s="363"/>
@@ -25283,7 +25283,7 @@
       <c r="B153" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C153" s="642"/>
+      <c r="C153" s="638"/>
       <c r="D153" s="363"/>
       <c r="E153" s="363"/>
       <c r="H153" s="10"/>
@@ -25483,7 +25483,7 @@
       <c r="B171" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C171" s="638"/>
+      <c r="C171" s="639"/>
       <c r="D171" s="363"/>
       <c r="E171" s="363"/>
       <c r="F171" s="363"/>
@@ -25716,7 +25716,7 @@
       <c r="B189" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C189" s="638"/>
+      <c r="C189" s="639"/>
       <c r="D189" s="363"/>
       <c r="E189" s="363"/>
       <c r="F189" s="363"/>
@@ -25942,7 +25942,7 @@
       <c r="B207" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C207" s="642"/>
+      <c r="C207" s="638"/>
       <c r="D207" s="363"/>
       <c r="E207" s="363"/>
       <c r="F207" s="363"/>
@@ -26127,7 +26127,7 @@
       <c r="B223" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C223" s="642"/>
+      <c r="C223" s="638"/>
       <c r="D223" s="363"/>
       <c r="F223" s="2"/>
       <c r="G223" s="2"/>
@@ -26492,7 +26492,7 @@
         <v>143</v>
       </c>
       <c r="C249" s="370"/>
-      <c r="D249" s="654"/>
+      <c r="D249" s="657"/>
       <c r="E249" s="363"/>
       <c r="F249" s="363"/>
       <c r="G249" s="363"/>
@@ -26505,7 +26505,7 @@
         <v>144</v>
       </c>
       <c r="C250" s="370"/>
-      <c r="D250" s="655"/>
+      <c r="D250" s="658"/>
       <c r="E250" s="363"/>
       <c r="F250" s="363"/>
       <c r="G250" s="363"/>
@@ -26518,7 +26518,7 @@
         <v>30</v>
       </c>
       <c r="C251" s="370"/>
-      <c r="D251" s="655"/>
+      <c r="D251" s="658"/>
       <c r="E251" s="363"/>
       <c r="F251" s="363"/>
       <c r="G251" s="363"/>
@@ -26531,7 +26531,7 @@
         <v>31</v>
       </c>
       <c r="C252" s="370"/>
-      <c r="D252" s="655"/>
+      <c r="D252" s="658"/>
       <c r="E252" s="363"/>
       <c r="F252" s="363"/>
       <c r="G252" s="363"/>
@@ -26544,7 +26544,7 @@
         <v>145</v>
       </c>
       <c r="C253" s="370"/>
-      <c r="D253" s="655"/>
+      <c r="D253" s="658"/>
       <c r="E253" s="363"/>
       <c r="F253" s="363"/>
       <c r="G253" s="363"/>
@@ -26569,7 +26569,7 @@
       <c r="B255" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C255" s="638"/>
+      <c r="C255" s="639"/>
       <c r="D255" s="363"/>
       <c r="E255" s="363"/>
       <c r="F255" s="363"/>
@@ -26995,7 +26995,7 @@
         <v>143</v>
       </c>
       <c r="C285" s="370"/>
-      <c r="D285" s="650"/>
+      <c r="D285" s="645"/>
       <c r="E285" s="563"/>
       <c r="F285" s="562"/>
       <c r="G285" s="363"/>
@@ -27008,7 +27008,7 @@
         <v>144</v>
       </c>
       <c r="C286" s="370"/>
-      <c r="D286" s="651"/>
+      <c r="D286" s="646"/>
       <c r="E286" s="563"/>
       <c r="F286" s="562"/>
       <c r="G286" s="363"/>
@@ -27021,7 +27021,7 @@
         <v>30</v>
       </c>
       <c r="C287" s="370"/>
-      <c r="D287" s="651"/>
+      <c r="D287" s="646"/>
       <c r="E287" s="563"/>
       <c r="F287" s="562"/>
       <c r="G287" s="363"/>
@@ -27034,7 +27034,7 @@
         <v>31</v>
       </c>
       <c r="C288" s="370"/>
-      <c r="D288" s="651"/>
+      <c r="D288" s="646"/>
       <c r="E288" s="563"/>
       <c r="F288" s="562"/>
       <c r="G288" s="363"/>
@@ -27047,7 +27047,7 @@
         <v>145</v>
       </c>
       <c r="C289" s="370"/>
-      <c r="D289" s="651"/>
+      <c r="D289" s="646"/>
       <c r="E289" s="563"/>
       <c r="F289" s="562"/>
       <c r="G289" s="363"/>
@@ -27072,7 +27072,7 @@
       <c r="B291" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C291" s="638"/>
+      <c r="C291" s="639"/>
       <c r="D291" s="501"/>
       <c r="E291" s="363"/>
       <c r="F291" s="363"/>
@@ -27253,7 +27253,7 @@
         <v>143</v>
       </c>
       <c r="C305" s="370"/>
-      <c r="D305" s="650"/>
+      <c r="D305" s="645"/>
       <c r="F305" s="363"/>
       <c r="G305" s="363"/>
       <c r="H305" s="488"/>
@@ -27265,7 +27265,7 @@
         <v>144</v>
       </c>
       <c r="C306" s="370"/>
-      <c r="D306" s="651"/>
+      <c r="D306" s="646"/>
       <c r="F306" s="363"/>
       <c r="G306" s="363"/>
       <c r="H306" s="488"/>
@@ -27277,7 +27277,7 @@
         <v>30</v>
       </c>
       <c r="C307" s="370"/>
-      <c r="D307" s="651"/>
+      <c r="D307" s="646"/>
       <c r="F307" s="363"/>
       <c r="G307" s="363"/>
       <c r="H307" s="488"/>
@@ -27289,7 +27289,7 @@
         <v>31</v>
       </c>
       <c r="C308" s="370"/>
-      <c r="D308" s="651"/>
+      <c r="D308" s="646"/>
       <c r="F308" s="363"/>
       <c r="G308" s="363"/>
       <c r="H308" s="488"/>
@@ -27301,7 +27301,7 @@
         <v>145</v>
       </c>
       <c r="C309" s="370"/>
-      <c r="D309" s="651"/>
+      <c r="D309" s="646"/>
       <c r="F309" s="363"/>
       <c r="G309" s="363"/>
       <c r="H309" s="488"/>
@@ -27324,7 +27324,7 @@
       <c r="B311" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C311" s="638"/>
+      <c r="C311" s="639"/>
       <c r="D311" s="501"/>
       <c r="F311" s="363"/>
       <c r="G311" s="363"/>
@@ -27587,10 +27587,10 @@
     </row>
     <row r="333" spans="1:11" ht="14.35">
       <c r="A333" s="2"/>
-      <c r="B333" s="656" t="s">
+      <c r="B333" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C333" s="657"/>
+      <c r="C333" s="648"/>
       <c r="D333" s="2"/>
       <c r="F333" s="363"/>
       <c r="G333" s="2"/>
@@ -27799,7 +27799,7 @@
       <c r="B351" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C351" s="642"/>
+      <c r="C351" s="638"/>
       <c r="F351" s="2"/>
       <c r="G351" s="2"/>
       <c r="H351" s="8"/>
@@ -28339,10 +28339,10 @@
     </row>
     <row r="388" spans="1:11" ht="14.7">
       <c r="A388" s="2"/>
-      <c r="B388" s="645" t="s">
+      <c r="B388" s="659" t="s">
         <v>34</v>
       </c>
-      <c r="C388" s="644"/>
+      <c r="C388" s="641"/>
       <c r="D388" s="97"/>
       <c r="F388" s="2"/>
       <c r="G388" s="2"/>
@@ -28914,10 +28914,10 @@
     </row>
     <row r="425" spans="1:11" ht="14.7">
       <c r="A425" s="2"/>
-      <c r="B425" s="645" t="s">
+      <c r="B425" s="659" t="s">
         <v>34</v>
       </c>
-      <c r="C425" s="644"/>
+      <c r="C425" s="641"/>
       <c r="D425" s="97"/>
       <c r="E425" s="97"/>
       <c r="F425" s="2"/>
@@ -29469,10 +29469,10 @@
     </row>
     <row r="461" spans="1:11" ht="14.7">
       <c r="A461" s="2"/>
-      <c r="B461" s="645" t="s">
+      <c r="B461" s="659" t="s">
         <v>34</v>
       </c>
-      <c r="C461" s="644"/>
+      <c r="C461" s="641"/>
       <c r="D461" s="97"/>
       <c r="E461" s="97"/>
       <c r="F461" s="97"/>
@@ -30020,10 +30020,10 @@
     </row>
     <row r="497" spans="1:11" ht="14.7">
       <c r="A497" s="2"/>
-      <c r="B497" s="645" t="s">
+      <c r="B497" s="659" t="s">
         <v>34</v>
       </c>
-      <c r="C497" s="644"/>
+      <c r="C497" s="641"/>
       <c r="D497" s="97"/>
       <c r="E497" s="97"/>
       <c r="F497" s="97"/>
@@ -30915,10 +30915,10 @@
     </row>
     <row r="552" spans="1:11" ht="14.7">
       <c r="A552" s="2"/>
-      <c r="B552" s="645" t="s">
+      <c r="B552" s="659" t="s">
         <v>34</v>
       </c>
-      <c r="C552" s="644"/>
+      <c r="C552" s="641"/>
       <c r="D552" s="97"/>
       <c r="E552" s="97"/>
       <c r="F552" s="97"/>
@@ -31345,7 +31345,7 @@
       <c r="B590" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C590" s="642"/>
+      <c r="C590" s="638"/>
       <c r="D590" s="363"/>
       <c r="E590" s="363"/>
       <c r="F590" s="363"/>
@@ -31560,7 +31560,7 @@
       <c r="B607" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C607" s="642"/>
+      <c r="C607" s="638"/>
       <c r="D607" s="363"/>
       <c r="E607" s="363"/>
       <c r="F607" s="363"/>
@@ -31756,7 +31756,7 @@
       <c r="B623" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C623" s="638"/>
+      <c r="C623" s="639"/>
       <c r="D623" s="590"/>
       <c r="E623" s="363"/>
       <c r="F623" s="363"/>
@@ -31971,7 +31971,7 @@
       <c r="B640" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C640" s="642"/>
+      <c r="C640" s="638"/>
       <c r="D640" s="363"/>
       <c r="E640" s="363"/>
       <c r="F640" s="363"/>
@@ -32154,7 +32154,7 @@
       <c r="B655" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C655" s="638"/>
+      <c r="C655" s="639"/>
       <c r="D655" s="363"/>
       <c r="E655" s="363"/>
       <c r="F655" s="363"/>
@@ -32360,10 +32360,10 @@
     </row>
     <row r="672" spans="1:11" ht="14.35">
       <c r="A672" s="363"/>
-      <c r="B672" s="643" t="s">
+      <c r="B672" s="640" t="s">
         <v>34</v>
       </c>
-      <c r="C672" s="644"/>
+      <c r="C672" s="641"/>
       <c r="D672" s="363"/>
       <c r="E672" s="363"/>
       <c r="F672" s="363"/>
@@ -32551,10 +32551,10 @@
     </row>
     <row r="687" spans="1:11" ht="14.35">
       <c r="A687" s="363"/>
-      <c r="B687" s="643" t="s">
+      <c r="B687" s="640" t="s">
         <v>34</v>
       </c>
-      <c r="C687" s="644"/>
+      <c r="C687" s="641"/>
       <c r="D687" s="363"/>
       <c r="E687" s="363"/>
       <c r="F687" s="363"/>
@@ -32831,7 +32831,7 @@
       <c r="B710" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C710" s="642"/>
+      <c r="C710" s="638"/>
       <c r="D710" s="363"/>
       <c r="E710" s="363"/>
       <c r="F710" s="363"/>
@@ -33033,7 +33033,7 @@
       <c r="B726" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C726" s="642"/>
+      <c r="C726" s="638"/>
       <c r="D726" s="363"/>
       <c r="E726" s="363"/>
       <c r="F726" s="363"/>
@@ -33264,7 +33264,7 @@
       <c r="B745" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C745" s="642"/>
+      <c r="C745" s="638"/>
       <c r="D745" s="363"/>
       <c r="E745" s="363"/>
       <c r="F745" s="363"/>
@@ -33553,7 +33553,7 @@
       <c r="B768" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C768" s="638"/>
+      <c r="C768" s="639"/>
       <c r="D768" s="363"/>
       <c r="E768" s="363"/>
       <c r="F768" s="363"/>
@@ -33835,7 +33835,7 @@
       <c r="B790" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C790" s="638"/>
+      <c r="C790" s="639"/>
       <c r="D790" s="363"/>
       <c r="E790" s="363"/>
       <c r="F790" s="363"/>
@@ -34146,7 +34146,7 @@
       <c r="B815" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C815" s="638"/>
+      <c r="C815" s="639"/>
       <c r="D815" s="605"/>
       <c r="E815" s="363"/>
       <c r="F815" s="363"/>
@@ -34454,7 +34454,7 @@
       <c r="B840" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C840" s="638"/>
+      <c r="C840" s="639"/>
       <c r="D840" s="363"/>
       <c r="E840" s="363"/>
       <c r="F840" s="363"/>
@@ -34763,7 +34763,7 @@
       <c r="B866" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C866" s="638"/>
+      <c r="C866" s="639"/>
       <c r="D866" s="363"/>
       <c r="E866" s="363"/>
       <c r="F866" s="363"/>
@@ -34996,7 +34996,7 @@
       <c r="B886" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C886" s="638"/>
+      <c r="C886" s="639"/>
       <c r="D886" s="363"/>
       <c r="E886" s="363"/>
       <c r="F886" s="363"/>
@@ -35276,7 +35276,7 @@
       <c r="B908" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C908" s="638"/>
+      <c r="C908" s="639"/>
       <c r="D908" s="363"/>
       <c r="E908" s="363"/>
       <c r="F908" s="363"/>
@@ -35523,7 +35523,7 @@
       <c r="B927" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C927" s="638"/>
+      <c r="C927" s="639"/>
       <c r="D927" s="363"/>
       <c r="E927" s="363"/>
       <c r="F927" s="363"/>
@@ -35766,7 +35766,7 @@
       <c r="B946" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C946" s="638"/>
+      <c r="C946" s="639"/>
       <c r="D946" s="363"/>
       <c r="E946" s="363"/>
       <c r="F946" s="363"/>
@@ -35910,7 +35910,7 @@
       <c r="B960" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C960" s="638"/>
+      <c r="C960" s="639"/>
       <c r="F960" s="363"/>
       <c r="G960" s="363"/>
       <c r="H960" s="488"/>
@@ -36160,7 +36160,7 @@
       <c r="B980" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C980" s="642"/>
+      <c r="C980" s="638"/>
       <c r="D980" s="363"/>
       <c r="E980" s="363"/>
       <c r="F980" s="363"/>
@@ -36365,7 +36365,7 @@
       <c r="B997" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C997" s="638"/>
+      <c r="C997" s="639"/>
       <c r="D997" s="363"/>
       <c r="E997" s="363"/>
       <c r="F997" s="363"/>
@@ -36611,7 +36611,7 @@
       <c r="B1017" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1017" s="642"/>
+      <c r="C1017" s="638"/>
       <c r="D1017" s="363"/>
       <c r="E1017" s="363"/>
       <c r="F1017" s="363"/>
@@ -36875,7 +36875,7 @@
       <c r="B1039" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1039" s="642"/>
+      <c r="C1039" s="638"/>
       <c r="D1039" s="363"/>
       <c r="E1039" s="363"/>
       <c r="F1039" s="363"/>
@@ -37174,7 +37174,7 @@
       <c r="B1062" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1062" s="642"/>
+      <c r="C1062" s="638"/>
       <c r="D1062" s="363"/>
       <c r="E1062" s="363"/>
       <c r="F1062" s="363"/>
@@ -37198,30 +37198,21 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="B333:C333"/>
-    <mergeCell ref="B351:C351"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B311:C311"/>
-    <mergeCell ref="D36:D41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="D305:D309"/>
-    <mergeCell ref="B223:C223"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="D249:D253"/>
-    <mergeCell ref="B255:C255"/>
-    <mergeCell ref="D285:D289"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="B189:C189"/>
-    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="B590:C590"/>
+    <mergeCell ref="B710:C710"/>
+    <mergeCell ref="B726:C726"/>
+    <mergeCell ref="B745:C745"/>
+    <mergeCell ref="B768:C768"/>
+    <mergeCell ref="B790:C790"/>
+    <mergeCell ref="B815:C815"/>
+    <mergeCell ref="B840:C840"/>
+    <mergeCell ref="B866:C866"/>
+    <mergeCell ref="B886:C886"/>
+    <mergeCell ref="B908:C908"/>
+    <mergeCell ref="B927:C927"/>
+    <mergeCell ref="B946:C946"/>
+    <mergeCell ref="B960:C960"/>
+    <mergeCell ref="B980:C980"/>
     <mergeCell ref="B997:C997"/>
     <mergeCell ref="B1017:C1017"/>
     <mergeCell ref="B1039:C1039"/>
@@ -37238,21 +37229,30 @@
     <mergeCell ref="B655:C655"/>
     <mergeCell ref="B672:C672"/>
     <mergeCell ref="B687:C687"/>
-    <mergeCell ref="B908:C908"/>
-    <mergeCell ref="B927:C927"/>
-    <mergeCell ref="B946:C946"/>
-    <mergeCell ref="B960:C960"/>
-    <mergeCell ref="B980:C980"/>
-    <mergeCell ref="B790:C790"/>
-    <mergeCell ref="B815:C815"/>
-    <mergeCell ref="B840:C840"/>
-    <mergeCell ref="B866:C866"/>
-    <mergeCell ref="B886:C886"/>
-    <mergeCell ref="B590:C590"/>
-    <mergeCell ref="B710:C710"/>
-    <mergeCell ref="B726:C726"/>
-    <mergeCell ref="B745:C745"/>
-    <mergeCell ref="B768:C768"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="D305:D309"/>
+    <mergeCell ref="B223:C223"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="D249:D253"/>
+    <mergeCell ref="B255:C255"/>
+    <mergeCell ref="D285:D289"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="B333:C333"/>
+    <mergeCell ref="B351:C351"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B311:C311"/>
+    <mergeCell ref="D36:D41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B61:C61"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37594,10 +37594,10 @@
     </row>
     <row r="20" spans="1:11" ht="14.35">
       <c r="A20" s="2"/>
-      <c r="B20" s="656" t="s">
+      <c r="B20" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="659"/>
+      <c r="C20" s="650"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -37770,7 +37770,7 @@
         <v>29</v>
       </c>
       <c r="C36" s="14"/>
-      <c r="D36" s="660"/>
+      <c r="D36" s="661"/>
       <c r="E36" s="26"/>
       <c r="K36" s="10"/>
     </row>
@@ -37780,7 +37780,7 @@
         <v>45</v>
       </c>
       <c r="C37" s="11"/>
-      <c r="D37" s="661"/>
+      <c r="D37" s="662"/>
       <c r="E37" s="26"/>
       <c r="K37" s="10"/>
     </row>
@@ -37790,7 +37790,7 @@
         <v>30</v>
       </c>
       <c r="C38" s="11"/>
-      <c r="D38" s="661"/>
+      <c r="D38" s="662"/>
       <c r="E38" s="28"/>
       <c r="K38" s="10"/>
     </row>
@@ -37800,7 +37800,7 @@
         <v>31</v>
       </c>
       <c r="C39" s="11"/>
-      <c r="D39" s="661"/>
+      <c r="D39" s="662"/>
       <c r="E39" s="28"/>
       <c r="K39" s="10"/>
     </row>
@@ -37810,7 +37810,7 @@
         <v>32</v>
       </c>
       <c r="C40" s="11"/>
-      <c r="D40" s="661"/>
+      <c r="D40" s="662"/>
       <c r="E40" s="28"/>
       <c r="K40" s="10"/>
     </row>
@@ -37820,16 +37820,16 @@
         <v>876</v>
       </c>
       <c r="C41" s="11"/>
-      <c r="D41" s="661"/>
+      <c r="D41" s="662"/>
       <c r="E41" s="28"/>
       <c r="K41" s="10"/>
     </row>
     <row r="42" spans="1:11" ht="14.35">
       <c r="A42" s="2"/>
-      <c r="B42" s="656" t="s">
+      <c r="B42" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="659"/>
+      <c r="C42" s="650"/>
       <c r="D42" s="28"/>
       <c r="E42" s="28"/>
       <c r="K42" s="10"/>
@@ -38068,10 +38068,10 @@
     </row>
     <row r="61" spans="1:11" ht="14.35">
       <c r="A61" s="2"/>
-      <c r="B61" s="656" t="s">
+      <c r="B61" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C61" s="659"/>
+      <c r="C61" s="650"/>
       <c r="D61" s="8"/>
       <c r="E61" s="23"/>
       <c r="F61" s="2"/>
@@ -38255,10 +38255,10 @@
       <c r="D75" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="E75" s="662" t="s">
+      <c r="E75" s="671" t="s">
         <v>59</v>
       </c>
-      <c r="F75" s="647"/>
+      <c r="F75" s="652"/>
       <c r="G75" s="44"/>
       <c r="H75" s="8"/>
       <c r="K75" s="10"/>
@@ -38356,7 +38356,7 @@
         <v>65</v>
       </c>
       <c r="C81" s="11"/>
-      <c r="D81" s="660"/>
+      <c r="D81" s="661"/>
       <c r="E81" s="49">
         <v>1</v>
       </c>
@@ -38373,7 +38373,7 @@
         <v>30</v>
       </c>
       <c r="C82" s="11"/>
-      <c r="D82" s="661"/>
+      <c r="D82" s="662"/>
       <c r="E82" s="29" t="s">
         <v>66</v>
       </c>
@@ -38388,7 +38388,7 @@
         <v>31</v>
       </c>
       <c r="C83" s="11"/>
-      <c r="D83" s="661"/>
+      <c r="D83" s="662"/>
       <c r="E83" s="29" t="s">
         <v>67</v>
       </c>
@@ -38403,7 +38403,7 @@
         <v>68</v>
       </c>
       <c r="C84" s="24"/>
-      <c r="D84" s="661"/>
+      <c r="D84" s="662"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
@@ -38412,10 +38412,10 @@
     </row>
     <row r="85" spans="1:11" ht="14.35">
       <c r="A85" s="2"/>
-      <c r="B85" s="656" t="s">
+      <c r="B85" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C85" s="659"/>
+      <c r="C85" s="650"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
@@ -38520,8 +38520,8 @@
       <c r="D94" s="37"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
-      <c r="G94" s="663"/>
-      <c r="H94" s="664"/>
+      <c r="G94" s="666"/>
+      <c r="H94" s="667"/>
       <c r="K94" s="10"/>
     </row>
     <row r="95" spans="1:11" ht="14.35">
@@ -38545,10 +38545,10 @@
       <c r="C96" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="D96" s="665" t="s">
+      <c r="D96" s="668" t="s">
         <v>59</v>
       </c>
-      <c r="E96" s="647"/>
+      <c r="E96" s="652"/>
       <c r="F96" s="2"/>
       <c r="G96" s="54"/>
       <c r="H96" s="12"/>
@@ -38694,10 +38694,10 @@
     </row>
     <row r="106" spans="1:11" ht="14.35">
       <c r="A106" s="2"/>
-      <c r="B106" s="666" t="s">
+      <c r="B106" s="669" t="s">
         <v>34</v>
       </c>
-      <c r="C106" s="667"/>
+      <c r="C106" s="670"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
@@ -38816,7 +38816,7 @@
         <v>80</v>
       </c>
       <c r="D116" s="23"/>
-      <c r="E116" s="668" t="s">
+      <c r="E116" s="665" t="s">
         <v>59</v>
       </c>
       <c r="F116" s="633"/>
@@ -39023,10 +39023,10 @@
     </row>
     <row r="130" spans="1:11" ht="14.35">
       <c r="A130" s="2"/>
-      <c r="B130" s="656" t="s">
+      <c r="B130" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C130" s="657"/>
+      <c r="C130" s="648"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
@@ -39313,10 +39313,10 @@
     </row>
     <row r="156" spans="1:11" ht="14.35">
       <c r="A156" s="2"/>
-      <c r="B156" s="656" t="s">
+      <c r="B156" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C156" s="657"/>
+      <c r="C156" s="648"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
       <c r="H156" s="10"/>
@@ -39511,10 +39511,10 @@
     </row>
     <row r="174" spans="1:11" ht="14.35">
       <c r="A174" s="2"/>
-      <c r="B174" s="656" t="s">
+      <c r="B174" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C174" s="659"/>
+      <c r="C174" s="650"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
@@ -39742,10 +39742,10 @@
     </row>
     <row r="192" spans="1:11" ht="14.35">
       <c r="A192" s="2"/>
-      <c r="B192" s="656" t="s">
+      <c r="B192" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C192" s="659"/>
+      <c r="C192" s="650"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
@@ -40073,10 +40073,10 @@
     </row>
     <row r="217" spans="1:11" ht="14.35">
       <c r="A217" s="2"/>
-      <c r="B217" s="656" t="s">
+      <c r="B217" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C217" s="657"/>
+      <c r="C217" s="648"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
@@ -40382,10 +40382,10 @@
     </row>
     <row r="242" spans="1:11" ht="14.35">
       <c r="A242" s="2"/>
-      <c r="B242" s="656" t="s">
+      <c r="B242" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C242" s="657"/>
+      <c r="C242" s="648"/>
       <c r="D242" s="2"/>
       <c r="F242" s="2"/>
       <c r="G242" s="2"/>
@@ -40748,7 +40748,7 @@
         <v>143</v>
       </c>
       <c r="C268" s="11"/>
-      <c r="D268" s="669"/>
+      <c r="D268" s="663"/>
       <c r="E268" s="2"/>
       <c r="F268" s="2"/>
       <c r="G268" s="2"/>
@@ -40761,7 +40761,7 @@
         <v>144</v>
       </c>
       <c r="C269" s="11"/>
-      <c r="D269" s="670"/>
+      <c r="D269" s="664"/>
       <c r="E269" s="2"/>
       <c r="F269" s="2"/>
       <c r="G269" s="2"/>
@@ -40774,7 +40774,7 @@
         <v>30</v>
       </c>
       <c r="C270" s="11"/>
-      <c r="D270" s="670"/>
+      <c r="D270" s="664"/>
       <c r="E270" s="2"/>
       <c r="F270" s="2"/>
       <c r="G270" s="2"/>
@@ -40787,7 +40787,7 @@
         <v>31</v>
       </c>
       <c r="C271" s="11"/>
-      <c r="D271" s="670"/>
+      <c r="D271" s="664"/>
       <c r="E271" s="2"/>
       <c r="F271" s="2"/>
       <c r="G271" s="2"/>
@@ -40800,7 +40800,7 @@
         <v>145</v>
       </c>
       <c r="C272" s="11"/>
-      <c r="D272" s="670"/>
+      <c r="D272" s="664"/>
       <c r="E272" s="2"/>
       <c r="F272" s="2"/>
       <c r="G272" s="2"/>
@@ -40822,10 +40822,10 @@
     </row>
     <row r="274" spans="1:11" ht="14.35">
       <c r="A274" s="2"/>
-      <c r="B274" s="656" t="s">
+      <c r="B274" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C274" s="659"/>
+      <c r="C274" s="650"/>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
       <c r="F274" s="2"/>
@@ -41249,7 +41249,7 @@
         <v>143</v>
       </c>
       <c r="C304" s="11"/>
-      <c r="D304" s="660"/>
+      <c r="D304" s="661"/>
       <c r="E304" s="84"/>
       <c r="F304" s="85"/>
       <c r="G304" s="2"/>
@@ -41262,7 +41262,7 @@
         <v>144</v>
       </c>
       <c r="C305" s="11"/>
-      <c r="D305" s="661"/>
+      <c r="D305" s="662"/>
       <c r="E305" s="84"/>
       <c r="F305" s="85"/>
       <c r="G305" s="2"/>
@@ -41275,7 +41275,7 @@
         <v>30</v>
       </c>
       <c r="C306" s="11"/>
-      <c r="D306" s="661"/>
+      <c r="D306" s="662"/>
       <c r="E306" s="84"/>
       <c r="F306" s="85"/>
       <c r="G306" s="2"/>
@@ -41288,7 +41288,7 @@
         <v>31</v>
       </c>
       <c r="C307" s="11"/>
-      <c r="D307" s="661"/>
+      <c r="D307" s="662"/>
       <c r="E307" s="84"/>
       <c r="F307" s="85"/>
       <c r="G307" s="2"/>
@@ -41301,7 +41301,7 @@
         <v>145</v>
       </c>
       <c r="C308" s="11"/>
-      <c r="D308" s="661"/>
+      <c r="D308" s="662"/>
       <c r="E308" s="84"/>
       <c r="F308" s="85"/>
       <c r="G308" s="2"/>
@@ -41323,10 +41323,10 @@
     </row>
     <row r="310" spans="1:11" ht="14.35">
       <c r="A310" s="2"/>
-      <c r="B310" s="656" t="s">
+      <c r="B310" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C310" s="659"/>
+      <c r="C310" s="650"/>
       <c r="D310" s="28"/>
       <c r="E310" s="2"/>
       <c r="F310" s="2"/>
@@ -41497,7 +41497,7 @@
         <v>64</v>
       </c>
       <c r="C324" s="11"/>
-      <c r="D324" s="660"/>
+      <c r="D324" s="661"/>
       <c r="F324" s="2"/>
       <c r="G324" s="2"/>
       <c r="H324" s="8"/>
@@ -41509,7 +41509,7 @@
         <v>65</v>
       </c>
       <c r="C325" s="11"/>
-      <c r="D325" s="661"/>
+      <c r="D325" s="662"/>
       <c r="F325" s="2"/>
       <c r="G325" s="2"/>
       <c r="H325" s="8"/>
@@ -41521,7 +41521,7 @@
         <v>30</v>
       </c>
       <c r="C326" s="11"/>
-      <c r="D326" s="661"/>
+      <c r="D326" s="662"/>
       <c r="F326" s="2"/>
       <c r="G326" s="2"/>
       <c r="H326" s="8"/>
@@ -41533,7 +41533,7 @@
         <v>31</v>
       </c>
       <c r="C327" s="11"/>
-      <c r="D327" s="661"/>
+      <c r="D327" s="662"/>
       <c r="F327" s="2"/>
       <c r="G327" s="2"/>
       <c r="H327" s="8"/>
@@ -41545,7 +41545,7 @@
         <v>68</v>
       </c>
       <c r="C328" s="11"/>
-      <c r="D328" s="661"/>
+      <c r="D328" s="662"/>
       <c r="F328" s="2"/>
       <c r="G328" s="2"/>
       <c r="H328" s="8"/>
@@ -41565,10 +41565,10 @@
     </row>
     <row r="330" spans="1:11" ht="14.35">
       <c r="A330" s="2"/>
-      <c r="B330" s="656" t="s">
+      <c r="B330" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C330" s="659"/>
+      <c r="C330" s="650"/>
       <c r="D330" s="28"/>
       <c r="F330" s="2"/>
       <c r="G330" s="2"/>
@@ -41827,10 +41827,10 @@
     </row>
     <row r="352" spans="1:11" ht="14.35">
       <c r="A352" s="2"/>
-      <c r="B352" s="656" t="s">
+      <c r="B352" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C352" s="657"/>
+      <c r="C352" s="648"/>
       <c r="D352" s="2"/>
       <c r="F352" s="2"/>
       <c r="G352" s="2"/>
@@ -42034,10 +42034,10 @@
     </row>
     <row r="370" spans="1:11" ht="14.35">
       <c r="A370" s="2"/>
-      <c r="B370" s="656" t="s">
+      <c r="B370" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C370" s="657"/>
+      <c r="C370" s="648"/>
       <c r="F370" s="2"/>
       <c r="G370" s="2"/>
       <c r="H370" s="8"/>
@@ -42517,10 +42517,10 @@
     </row>
     <row r="405" spans="1:11" ht="14.7">
       <c r="A405" s="2"/>
-      <c r="B405" s="645" t="s">
+      <c r="B405" s="659" t="s">
         <v>34</v>
       </c>
-      <c r="C405" s="644"/>
+      <c r="C405" s="641"/>
       <c r="D405" s="97"/>
       <c r="F405" s="2"/>
       <c r="G405" s="2"/>
@@ -43033,10 +43033,10 @@
     </row>
     <row r="440" spans="1:11" ht="14.7">
       <c r="A440" s="2"/>
-      <c r="B440" s="645" t="s">
+      <c r="B440" s="659" t="s">
         <v>34</v>
       </c>
-      <c r="C440" s="644"/>
+      <c r="C440" s="641"/>
       <c r="D440" s="97"/>
       <c r="E440" s="97"/>
       <c r="F440" s="2"/>
@@ -43512,10 +43512,10 @@
     </row>
     <row r="473" spans="1:11" ht="14.7">
       <c r="A473" s="2"/>
-      <c r="B473" s="645" t="s">
+      <c r="B473" s="659" t="s">
         <v>34</v>
       </c>
-      <c r="C473" s="644"/>
+      <c r="C473" s="641"/>
       <c r="D473" s="97"/>
       <c r="E473" s="97"/>
       <c r="F473" s="97"/>
@@ -43987,10 +43987,10 @@
     </row>
     <row r="506" spans="1:11" ht="14.7">
       <c r="A506" s="2"/>
-      <c r="B506" s="645" t="s">
+      <c r="B506" s="659" t="s">
         <v>34</v>
       </c>
-      <c r="C506" s="644"/>
+      <c r="C506" s="641"/>
       <c r="D506" s="97"/>
       <c r="E506" s="97"/>
       <c r="F506" s="97"/>
@@ -44861,10 +44861,10 @@
     </row>
     <row r="559" spans="1:11" ht="14.7">
       <c r="A559" s="2"/>
-      <c r="B559" s="645" t="s">
+      <c r="B559" s="659" t="s">
         <v>34</v>
       </c>
-      <c r="C559" s="644"/>
+      <c r="C559" s="641"/>
       <c r="D559" s="97"/>
       <c r="E559" s="97"/>
       <c r="F559" s="97"/>
@@ -45288,10 +45288,10 @@
     </row>
     <row r="597" spans="1:11" ht="14.35">
       <c r="A597" s="2"/>
-      <c r="B597" s="656" t="s">
+      <c r="B597" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C597" s="657"/>
+      <c r="C597" s="648"/>
       <c r="D597" s="2"/>
       <c r="E597" s="2"/>
       <c r="F597" s="2"/>
@@ -45533,10 +45533,10 @@
     </row>
     <row r="616" spans="1:11" ht="14.35">
       <c r="A616" s="2"/>
-      <c r="B616" s="656" t="s">
+      <c r="B616" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C616" s="657"/>
+      <c r="C616" s="648"/>
       <c r="D616" s="2"/>
       <c r="E616" s="2"/>
       <c r="F616" s="2"/>
@@ -45774,10 +45774,10 @@
     </row>
     <row r="635" spans="1:11" ht="14.35">
       <c r="A635" s="2"/>
-      <c r="B635" s="656" t="s">
+      <c r="B635" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C635" s="659"/>
+      <c r="C635" s="650"/>
       <c r="D635" s="127"/>
       <c r="E635" s="2"/>
       <c r="F635" s="2"/>
@@ -46034,10 +46034,10 @@
     </row>
     <row r="655" spans="1:11" ht="14.35">
       <c r="A655" s="2"/>
-      <c r="B655" s="656" t="s">
+      <c r="B655" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C655" s="657"/>
+      <c r="C655" s="648"/>
       <c r="D655" s="2"/>
       <c r="E655" s="2"/>
       <c r="F655" s="2"/>
@@ -46262,10 +46262,10 @@
     </row>
     <row r="673" spans="1:11" ht="14.35">
       <c r="A673" s="2"/>
-      <c r="B673" s="656" t="s">
+      <c r="B673" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C673" s="659"/>
+      <c r="C673" s="650"/>
       <c r="D673" s="2"/>
       <c r="E673" s="2"/>
       <c r="F673" s="2"/>
@@ -46501,10 +46501,10 @@
     </row>
     <row r="692" spans="1:11" ht="14.35">
       <c r="A692" s="2"/>
-      <c r="B692" s="671" t="s">
+      <c r="B692" s="660" t="s">
         <v>34</v>
       </c>
-      <c r="C692" s="644"/>
+      <c r="C692" s="641"/>
       <c r="D692" s="2"/>
       <c r="E692" s="2"/>
       <c r="F692" s="2"/>
@@ -46737,10 +46737,10 @@
     </row>
     <row r="710" spans="1:11" ht="14.35">
       <c r="A710" s="2"/>
-      <c r="B710" s="671" t="s">
+      <c r="B710" s="660" t="s">
         <v>34</v>
       </c>
-      <c r="C710" s="644"/>
+      <c r="C710" s="641"/>
       <c r="D710" s="2"/>
       <c r="E710" s="2"/>
       <c r="F710" s="2"/>
@@ -47059,10 +47059,10 @@
     </row>
     <row r="736" spans="1:11" ht="14.35">
       <c r="A736" s="2"/>
-      <c r="B736" s="656" t="s">
+      <c r="B736" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C736" s="657"/>
+      <c r="C736" s="648"/>
       <c r="D736" s="2"/>
       <c r="E736" s="2"/>
       <c r="F736" s="2"/>
@@ -47325,10 +47325,10 @@
     </row>
     <row r="756" spans="1:11" ht="14.35">
       <c r="A756" s="2"/>
-      <c r="B756" s="656" t="s">
+      <c r="B756" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C756" s="657"/>
+      <c r="C756" s="648"/>
       <c r="D756" s="2"/>
       <c r="E756" s="2"/>
       <c r="F756" s="2"/>
@@ -47616,10 +47616,10 @@
     </row>
     <row r="779" spans="1:11" ht="14.35">
       <c r="A779" s="2"/>
-      <c r="B779" s="656" t="s">
+      <c r="B779" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C779" s="657"/>
+      <c r="C779" s="648"/>
       <c r="D779" s="2"/>
       <c r="E779" s="2"/>
       <c r="F779" s="2"/>
@@ -47905,10 +47905,10 @@
     </row>
     <row r="802" spans="1:11" ht="14.35">
       <c r="A802" s="2"/>
-      <c r="B802" s="656" t="s">
+      <c r="B802" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C802" s="659"/>
+      <c r="C802" s="650"/>
       <c r="D802" s="2"/>
       <c r="E802" s="2"/>
       <c r="F802" s="2"/>
@@ -48187,10 +48187,10 @@
     </row>
     <row r="824" spans="1:11" ht="14.35">
       <c r="A824" s="2"/>
-      <c r="B824" s="656" t="s">
+      <c r="B824" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C824" s="659"/>
+      <c r="C824" s="650"/>
       <c r="D824" s="2"/>
       <c r="E824" s="2"/>
       <c r="F824" s="2"/>
@@ -48498,10 +48498,10 @@
     </row>
     <row r="849" spans="1:11" ht="14.35">
       <c r="A849" s="2"/>
-      <c r="B849" s="656" t="s">
+      <c r="B849" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C849" s="659"/>
+      <c r="C849" s="650"/>
       <c r="D849" s="149"/>
       <c r="E849" s="2"/>
       <c r="F849" s="2"/>
@@ -48806,10 +48806,10 @@
       <c r="K873" s="10"/>
     </row>
     <row r="874" spans="2:11" ht="14.35">
-      <c r="B874" s="656" t="s">
+      <c r="B874" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C874" s="659"/>
+      <c r="C874" s="650"/>
       <c r="D874" s="2"/>
       <c r="E874" s="2"/>
       <c r="F874" s="2"/>
@@ -49115,10 +49115,10 @@
       <c r="K899" s="10"/>
     </row>
     <row r="900" spans="1:11" ht="14.35">
-      <c r="B900" s="656" t="s">
+      <c r="B900" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C900" s="659"/>
+      <c r="C900" s="650"/>
       <c r="D900" s="2"/>
       <c r="E900" s="2"/>
       <c r="F900" s="2"/>
@@ -49348,10 +49348,10 @@
     </row>
     <row r="920" spans="1:11" ht="14.35">
       <c r="A920" s="2"/>
-      <c r="B920" s="656" t="s">
+      <c r="B920" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C920" s="659"/>
+      <c r="C920" s="650"/>
       <c r="D920" s="2"/>
       <c r="E920" s="2"/>
       <c r="F920" s="2"/>
@@ -49628,10 +49628,10 @@
     </row>
     <row r="942" spans="1:11" ht="14.35">
       <c r="A942" s="2"/>
-      <c r="B942" s="656" t="s">
+      <c r="B942" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C942" s="659"/>
+      <c r="C942" s="650"/>
       <c r="D942" s="2"/>
       <c r="E942" s="2"/>
       <c r="F942" s="2"/>
@@ -49875,10 +49875,10 @@
     </row>
     <row r="961" spans="1:11" ht="14.35">
       <c r="A961" s="2"/>
-      <c r="B961" s="656" t="s">
+      <c r="B961" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C961" s="659"/>
+      <c r="C961" s="650"/>
       <c r="D961" s="2"/>
       <c r="E961" s="2"/>
       <c r="F961" s="2"/>
@@ -50118,10 +50118,10 @@
     </row>
     <row r="980" spans="1:11" ht="14.35">
       <c r="A980" s="2"/>
-      <c r="B980" s="656" t="s">
+      <c r="B980" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C980" s="659"/>
+      <c r="C980" s="650"/>
       <c r="D980" s="2"/>
       <c r="E980" s="2"/>
       <c r="F980" s="2"/>
@@ -50262,10 +50262,10 @@
     </row>
     <row r="994" spans="1:11" ht="14.35">
       <c r="A994" s="2"/>
-      <c r="B994" s="656" t="s">
+      <c r="B994" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C994" s="659"/>
+      <c r="C994" s="650"/>
       <c r="F994" s="2"/>
       <c r="G994" s="2"/>
       <c r="H994" s="8"/>
@@ -50512,10 +50512,10 @@
     </row>
     <row r="1014" spans="1:11" ht="14.35">
       <c r="A1014" s="2"/>
-      <c r="B1014" s="656" t="s">
+      <c r="B1014" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C1014" s="657"/>
+      <c r="C1014" s="648"/>
       <c r="D1014" s="2"/>
       <c r="E1014" s="2"/>
       <c r="F1014" s="2"/>
@@ -50717,10 +50717,10 @@
     </row>
     <row r="1031" spans="1:11" ht="14.35">
       <c r="A1031" s="2"/>
-      <c r="B1031" s="656" t="s">
+      <c r="B1031" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C1031" s="659"/>
+      <c r="C1031" s="650"/>
       <c r="D1031" s="2"/>
       <c r="E1031" s="2"/>
       <c r="F1031" s="2"/>
@@ -50963,10 +50963,10 @@
       <c r="K1050" s="10"/>
     </row>
     <row r="1051" spans="2:11" ht="14.35">
-      <c r="B1051" s="656" t="s">
+      <c r="B1051" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C1051" s="657"/>
+      <c r="C1051" s="648"/>
       <c r="D1051" s="2"/>
       <c r="E1051" s="2"/>
       <c r="F1051" s="2"/>
@@ -51227,10 +51227,10 @@
     </row>
     <row r="1073" spans="1:11" ht="14.35">
       <c r="A1073" s="2"/>
-      <c r="B1073" s="656" t="s">
+      <c r="B1073" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C1073" s="657"/>
+      <c r="C1073" s="648"/>
       <c r="D1073" s="2"/>
       <c r="E1073" s="2"/>
       <c r="F1073" s="2"/>
@@ -51526,10 +51526,10 @@
     </row>
     <row r="1096" spans="1:11" ht="14.35">
       <c r="A1096" s="2"/>
-      <c r="B1096" s="656" t="s">
+      <c r="B1096" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C1096" s="657"/>
+      <c r="C1096" s="648"/>
       <c r="D1096" s="2"/>
       <c r="E1096" s="2"/>
       <c r="F1096" s="2"/>
@@ -51553,61 +51553,61 @@
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D36:D41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="B217:C217"/>
+    <mergeCell ref="B242:C242"/>
+    <mergeCell ref="D268:D272"/>
+    <mergeCell ref="B274:C274"/>
+    <mergeCell ref="D304:D308"/>
+    <mergeCell ref="B310:C310"/>
+    <mergeCell ref="D324:D328"/>
+    <mergeCell ref="B330:C330"/>
+    <mergeCell ref="B352:C352"/>
+    <mergeCell ref="B370:C370"/>
+    <mergeCell ref="B405:C405"/>
+    <mergeCell ref="B440:C440"/>
+    <mergeCell ref="B473:C473"/>
+    <mergeCell ref="B506:C506"/>
+    <mergeCell ref="B559:C559"/>
+    <mergeCell ref="B597:C597"/>
+    <mergeCell ref="B616:C616"/>
+    <mergeCell ref="B635:C635"/>
+    <mergeCell ref="B655:C655"/>
+    <mergeCell ref="B673:C673"/>
+    <mergeCell ref="B692:C692"/>
+    <mergeCell ref="B710:C710"/>
+    <mergeCell ref="B736:C736"/>
+    <mergeCell ref="B756:C756"/>
+    <mergeCell ref="B779:C779"/>
+    <mergeCell ref="B802:C802"/>
+    <mergeCell ref="B824:C824"/>
+    <mergeCell ref="B849:C849"/>
+    <mergeCell ref="B874:C874"/>
+    <mergeCell ref="B900:C900"/>
+    <mergeCell ref="B920:C920"/>
+    <mergeCell ref="B942:C942"/>
+    <mergeCell ref="B961:C961"/>
+    <mergeCell ref="B980:C980"/>
+    <mergeCell ref="B994:C994"/>
     <mergeCell ref="B1014:C1014"/>
     <mergeCell ref="B1031:C1031"/>
     <mergeCell ref="B1051:C1051"/>
     <mergeCell ref="B1073:C1073"/>
     <mergeCell ref="B1096:C1096"/>
-    <mergeCell ref="B920:C920"/>
-    <mergeCell ref="B942:C942"/>
-    <mergeCell ref="B961:C961"/>
-    <mergeCell ref="B980:C980"/>
-    <mergeCell ref="B994:C994"/>
-    <mergeCell ref="B802:C802"/>
-    <mergeCell ref="B824:C824"/>
-    <mergeCell ref="B849:C849"/>
-    <mergeCell ref="B874:C874"/>
-    <mergeCell ref="B900:C900"/>
-    <mergeCell ref="B692:C692"/>
-    <mergeCell ref="B710:C710"/>
-    <mergeCell ref="B736:C736"/>
-    <mergeCell ref="B756:C756"/>
-    <mergeCell ref="B779:C779"/>
-    <mergeCell ref="B597:C597"/>
-    <mergeCell ref="B616:C616"/>
-    <mergeCell ref="B635:C635"/>
-    <mergeCell ref="B655:C655"/>
-    <mergeCell ref="B673:C673"/>
-    <mergeCell ref="B405:C405"/>
-    <mergeCell ref="B440:C440"/>
-    <mergeCell ref="B473:C473"/>
-    <mergeCell ref="B506:C506"/>
-    <mergeCell ref="B559:C559"/>
-    <mergeCell ref="B310:C310"/>
-    <mergeCell ref="D324:D328"/>
-    <mergeCell ref="B330:C330"/>
-    <mergeCell ref="B352:C352"/>
-    <mergeCell ref="B370:C370"/>
-    <mergeCell ref="B217:C217"/>
-    <mergeCell ref="B242:C242"/>
-    <mergeCell ref="D268:D272"/>
-    <mergeCell ref="B274:C274"/>
-    <mergeCell ref="D304:D308"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D36:D41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="E75:F75"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -51677,10 +51677,10 @@
       <c r="D2" s="246" t="s">
         <v>508</v>
       </c>
-      <c r="E2" s="698" t="s">
+      <c r="E2" s="682" t="s">
         <v>509</v>
       </c>
-      <c r="F2" s="699"/>
+      <c r="F2" s="683"/>
       <c r="G2" s="252" t="s">
         <v>510</v>
       </c>
@@ -51713,71 +51713,71 @@
       <c r="A3" s="253">
         <v>1</v>
       </c>
-      <c r="B3" s="681" t="s">
+      <c r="B3" s="694" t="s">
         <v>456</v>
       </c>
-      <c r="C3" s="682"/>
-      <c r="D3" s="682"/>
-      <c r="E3" s="682"/>
-      <c r="F3" s="682"/>
-      <c r="G3" s="682"/>
-      <c r="H3" s="682"/>
-      <c r="I3" s="682"/>
-      <c r="J3" s="682"/>
-      <c r="K3" s="683" t="s">
+      <c r="C3" s="695"/>
+      <c r="D3" s="695"/>
+      <c r="E3" s="695"/>
+      <c r="F3" s="695"/>
+      <c r="G3" s="695"/>
+      <c r="H3" s="695"/>
+      <c r="I3" s="695"/>
+      <c r="J3" s="695"/>
+      <c r="K3" s="688" t="s">
         <v>457</v>
       </c>
-      <c r="L3" s="684"/>
-      <c r="M3" s="684"/>
-      <c r="N3" s="684"/>
-      <c r="O3" s="684"/>
-      <c r="P3" s="684"/>
-      <c r="Q3" s="684"/>
-      <c r="R3" s="684"/>
-      <c r="S3" s="684"/>
-      <c r="T3" s="684"/>
-      <c r="U3" s="684"/>
-      <c r="V3" s="684"/>
-      <c r="W3" s="684"/>
+      <c r="L3" s="687"/>
+      <c r="M3" s="687"/>
+      <c r="N3" s="687"/>
+      <c r="O3" s="687"/>
+      <c r="P3" s="687"/>
+      <c r="Q3" s="687"/>
+      <c r="R3" s="687"/>
+      <c r="S3" s="687"/>
+      <c r="T3" s="687"/>
+      <c r="U3" s="687"/>
+      <c r="V3" s="687"/>
+      <c r="W3" s="687"/>
     </row>
     <row r="4" spans="1:23" ht="14">
       <c r="A4" s="244"/>
-      <c r="B4" s="685" t="s">
+      <c r="B4" s="696" t="s">
         <v>459</v>
       </c>
-      <c r="C4" s="686"/>
-      <c r="D4" s="686"/>
+      <c r="C4" s="693"/>
+      <c r="D4" s="693"/>
       <c r="E4" s="674" t="s">
         <v>515</v>
       </c>
-      <c r="F4" s="686"/>
-      <c r="G4" s="686"/>
-      <c r="H4" s="687" t="s">
+      <c r="F4" s="693"/>
+      <c r="G4" s="693"/>
+      <c r="H4" s="697" t="s">
         <v>516</v>
       </c>
-      <c r="I4" s="688"/>
-      <c r="J4" s="688"/>
+      <c r="I4" s="698"/>
+      <c r="J4" s="698"/>
       <c r="K4" s="674" t="s">
         <v>460</v>
       </c>
-      <c r="L4" s="686"/>
-      <c r="M4" s="686"/>
+      <c r="L4" s="693"/>
+      <c r="M4" s="693"/>
       <c r="N4" s="674" t="s">
         <v>517</v>
       </c>
-      <c r="O4" s="686"/>
-      <c r="P4" s="686"/>
+      <c r="O4" s="693"/>
+      <c r="P4" s="693"/>
       <c r="Q4" s="674" t="s">
         <v>518</v>
       </c>
-      <c r="R4" s="686"/>
-      <c r="S4" s="686"/>
-      <c r="T4" s="689" t="s">
+      <c r="R4" s="693"/>
+      <c r="S4" s="693"/>
+      <c r="T4" s="699" t="s">
         <v>519</v>
       </c>
-      <c r="U4" s="690"/>
-      <c r="V4" s="690"/>
-      <c r="W4" s="690"/>
+      <c r="U4" s="700"/>
+      <c r="V4" s="700"/>
+      <c r="W4" s="700"/>
     </row>
     <row r="5" spans="1:23" ht="15.35">
       <c r="A5" s="244"/>
@@ -51835,7 +51835,7 @@
       <c r="S5" s="259" t="s">
         <v>463</v>
       </c>
-      <c r="T5" s="691" t="s">
+      <c r="T5" s="681" t="s">
         <v>520</v>
       </c>
       <c r="U5" s="171" t="s">
@@ -51880,7 +51880,7 @@
       <c r="Q6" s="184"/>
       <c r="R6" s="183"/>
       <c r="S6" s="268"/>
-      <c r="T6" s="644"/>
+      <c r="T6" s="641"/>
       <c r="U6" s="171" t="s">
         <v>524</v>
       </c>
@@ -52327,32 +52327,32 @@
       </c>
     </row>
     <row r="23" spans="1:23" ht="14">
-      <c r="B23" s="695" t="s">
+      <c r="B23" s="684" t="s">
         <v>456</v>
       </c>
-      <c r="C23" s="644"/>
-      <c r="D23" s="644"/>
-      <c r="E23" s="644"/>
-      <c r="F23" s="644"/>
-      <c r="G23" s="644"/>
-      <c r="H23" s="644"/>
-      <c r="I23" s="644"/>
-      <c r="J23" s="644"/>
-      <c r="K23" s="694" t="s">
+      <c r="C23" s="641"/>
+      <c r="D23" s="641"/>
+      <c r="E23" s="641"/>
+      <c r="F23" s="641"/>
+      <c r="G23" s="641"/>
+      <c r="H23" s="641"/>
+      <c r="I23" s="641"/>
+      <c r="J23" s="641"/>
+      <c r="K23" s="685" t="s">
         <v>911</v>
       </c>
-      <c r="L23" s="644"/>
-      <c r="M23" s="644"/>
-      <c r="N23" s="644"/>
-      <c r="O23" s="644"/>
-      <c r="P23" s="644"/>
-      <c r="Q23" s="644"/>
-      <c r="R23" s="644"/>
-      <c r="S23" s="644"/>
-      <c r="T23" s="644"/>
-      <c r="U23" s="644"/>
-      <c r="V23" s="644"/>
-      <c r="W23" s="644"/>
+      <c r="L23" s="641"/>
+      <c r="M23" s="641"/>
+      <c r="N23" s="641"/>
+      <c r="O23" s="641"/>
+      <c r="P23" s="641"/>
+      <c r="Q23" s="641"/>
+      <c r="R23" s="641"/>
+      <c r="S23" s="641"/>
+      <c r="T23" s="641"/>
+      <c r="U23" s="641"/>
+      <c r="V23" s="641"/>
+      <c r="W23" s="641"/>
     </row>
     <row r="24" spans="1:23" ht="14">
       <c r="A24" s="253">
@@ -52388,12 +52388,12 @@
       </c>
       <c r="R24" s="678"/>
       <c r="S24" s="678"/>
-      <c r="T24" s="692" t="s">
+      <c r="T24" s="679" t="s">
         <v>519</v>
       </c>
-      <c r="U24" s="693"/>
-      <c r="V24" s="693"/>
-      <c r="W24" s="693"/>
+      <c r="U24" s="680"/>
+      <c r="V24" s="680"/>
+      <c r="W24" s="680"/>
     </row>
     <row r="25" spans="1:23" ht="15.35">
       <c r="A25" s="288"/>
@@ -52451,7 +52451,7 @@
       <c r="S25" s="258" t="s">
         <v>914</v>
       </c>
-      <c r="T25" s="691" t="s">
+      <c r="T25" s="681" t="s">
         <v>520</v>
       </c>
       <c r="U25" s="171" t="s">
@@ -52496,7 +52496,7 @@
       <c r="Q26" s="184"/>
       <c r="R26" s="188"/>
       <c r="S26" s="188"/>
-      <c r="T26" s="644"/>
+      <c r="T26" s="641"/>
       <c r="U26" s="171" t="s">
         <v>524</v>
       </c>
@@ -52760,32 +52760,32 @@
       <c r="E43" s="307"/>
     </row>
     <row r="44" spans="1:23" ht="14">
-      <c r="B44" s="695" t="s">
+      <c r="B44" s="684" t="s">
         <v>456</v>
       </c>
-      <c r="C44" s="644"/>
-      <c r="D44" s="644"/>
-      <c r="E44" s="644"/>
-      <c r="F44" s="644"/>
-      <c r="G44" s="644"/>
-      <c r="H44" s="644"/>
-      <c r="I44" s="644"/>
-      <c r="J44" s="644"/>
-      <c r="K44" s="695" t="s">
+      <c r="C44" s="641"/>
+      <c r="D44" s="641"/>
+      <c r="E44" s="641"/>
+      <c r="F44" s="641"/>
+      <c r="G44" s="641"/>
+      <c r="H44" s="641"/>
+      <c r="I44" s="641"/>
+      <c r="J44" s="641"/>
+      <c r="K44" s="684" t="s">
         <v>457</v>
       </c>
-      <c r="L44" s="644"/>
-      <c r="M44" s="644"/>
-      <c r="N44" s="644"/>
-      <c r="O44" s="644"/>
-      <c r="P44" s="644"/>
-      <c r="Q44" s="644"/>
-      <c r="R44" s="644"/>
-      <c r="S44" s="644"/>
-      <c r="T44" s="644"/>
-      <c r="U44" s="644"/>
-      <c r="V44" s="644"/>
-      <c r="W44" s="644"/>
+      <c r="L44" s="641"/>
+      <c r="M44" s="641"/>
+      <c r="N44" s="641"/>
+      <c r="O44" s="641"/>
+      <c r="P44" s="641"/>
+      <c r="Q44" s="641"/>
+      <c r="R44" s="641"/>
+      <c r="S44" s="641"/>
+      <c r="T44" s="641"/>
+      <c r="U44" s="641"/>
+      <c r="V44" s="641"/>
+      <c r="W44" s="641"/>
     </row>
     <row r="45" spans="1:23" ht="14">
       <c r="A45" s="253">
@@ -52821,12 +52821,12 @@
       </c>
       <c r="R45" s="678"/>
       <c r="S45" s="678"/>
-      <c r="T45" s="696" t="s">
+      <c r="T45" s="692" t="s">
         <v>519</v>
       </c>
-      <c r="U45" s="686"/>
-      <c r="V45" s="686"/>
-      <c r="W45" s="686"/>
+      <c r="U45" s="693"/>
+      <c r="V45" s="693"/>
+      <c r="W45" s="693"/>
     </row>
     <row r="46" spans="1:23" ht="15.35">
       <c r="A46" s="288"/>
@@ -52884,7 +52884,7 @@
       <c r="S46" s="287" t="s">
         <v>914</v>
       </c>
-      <c r="T46" s="701" t="s">
+      <c r="T46" s="689" t="s">
         <v>520</v>
       </c>
       <c r="U46" s="318" t="s">
@@ -52929,7 +52929,7 @@
       <c r="Q47" s="184"/>
       <c r="R47" s="188"/>
       <c r="S47" s="188"/>
-      <c r="T47" s="644"/>
+      <c r="T47" s="641"/>
       <c r="U47" s="171" t="s">
         <v>524</v>
       </c>
@@ -53161,32 +53161,32 @@
       <c r="C61" s="170"/>
     </row>
     <row r="62" spans="1:23" ht="14">
-      <c r="B62" s="695" t="s">
+      <c r="B62" s="684" t="s">
         <v>456</v>
       </c>
-      <c r="C62" s="644"/>
-      <c r="D62" s="644"/>
-      <c r="E62" s="644"/>
-      <c r="F62" s="644"/>
-      <c r="G62" s="644"/>
-      <c r="H62" s="644"/>
-      <c r="I62" s="644"/>
-      <c r="J62" s="644"/>
-      <c r="K62" s="695" t="s">
+      <c r="C62" s="641"/>
+      <c r="D62" s="641"/>
+      <c r="E62" s="641"/>
+      <c r="F62" s="641"/>
+      <c r="G62" s="641"/>
+      <c r="H62" s="641"/>
+      <c r="I62" s="641"/>
+      <c r="J62" s="641"/>
+      <c r="K62" s="684" t="s">
         <v>457</v>
       </c>
-      <c r="L62" s="644"/>
-      <c r="M62" s="644"/>
-      <c r="N62" s="644"/>
-      <c r="O62" s="644"/>
-      <c r="P62" s="644"/>
-      <c r="Q62" s="644"/>
-      <c r="R62" s="644"/>
-      <c r="S62" s="644"/>
-      <c r="T62" s="644"/>
-      <c r="U62" s="644"/>
-      <c r="V62" s="644"/>
-      <c r="W62" s="644"/>
+      <c r="L62" s="641"/>
+      <c r="M62" s="641"/>
+      <c r="N62" s="641"/>
+      <c r="O62" s="641"/>
+      <c r="P62" s="641"/>
+      <c r="Q62" s="641"/>
+      <c r="R62" s="641"/>
+      <c r="S62" s="641"/>
+      <c r="T62" s="641"/>
+      <c r="U62" s="641"/>
+      <c r="V62" s="641"/>
+      <c r="W62" s="641"/>
     </row>
     <row r="63" spans="1:23" ht="14">
       <c r="A63" s="253">
@@ -53222,12 +53222,12 @@
       </c>
       <c r="R63" s="678"/>
       <c r="S63" s="678"/>
-      <c r="T63" s="692" t="s">
+      <c r="T63" s="679" t="s">
         <v>519</v>
       </c>
-      <c r="U63" s="693"/>
-      <c r="V63" s="693"/>
-      <c r="W63" s="693"/>
+      <c r="U63" s="680"/>
+      <c r="V63" s="680"/>
+      <c r="W63" s="680"/>
     </row>
     <row r="64" spans="1:23" ht="15.35">
       <c r="A64" s="288"/>
@@ -53285,7 +53285,7 @@
       <c r="S64" s="254" t="s">
         <v>463</v>
       </c>
-      <c r="T64" s="691" t="s">
+      <c r="T64" s="681" t="s">
         <v>520</v>
       </c>
       <c r="U64" s="171" t="s">
@@ -53330,7 +53330,7 @@
       <c r="Q65" s="184"/>
       <c r="R65" s="184"/>
       <c r="S65" s="184"/>
-      <c r="T65" s="644"/>
+      <c r="T65" s="641"/>
       <c r="U65" s="171" t="s">
         <v>524</v>
       </c>
@@ -53595,32 +53595,32 @@
       </c>
     </row>
     <row r="85" spans="1:23" ht="14">
-      <c r="B85" s="694" t="s">
+      <c r="B85" s="685" t="s">
         <v>919</v>
       </c>
-      <c r="C85" s="644"/>
-      <c r="D85" s="644"/>
-      <c r="E85" s="644"/>
-      <c r="F85" s="644"/>
-      <c r="G85" s="644"/>
-      <c r="H85" s="644"/>
-      <c r="I85" s="644"/>
-      <c r="J85" s="644"/>
-      <c r="K85" s="694" t="s">
+      <c r="C85" s="641"/>
+      <c r="D85" s="641"/>
+      <c r="E85" s="641"/>
+      <c r="F85" s="641"/>
+      <c r="G85" s="641"/>
+      <c r="H85" s="641"/>
+      <c r="I85" s="641"/>
+      <c r="J85" s="641"/>
+      <c r="K85" s="685" t="s">
         <v>911</v>
       </c>
-      <c r="L85" s="644"/>
-      <c r="M85" s="644"/>
-      <c r="N85" s="644"/>
-      <c r="O85" s="644"/>
-      <c r="P85" s="644"/>
-      <c r="Q85" s="644"/>
-      <c r="R85" s="644"/>
-      <c r="S85" s="644"/>
-      <c r="T85" s="644"/>
-      <c r="U85" s="644"/>
-      <c r="V85" s="644"/>
-      <c r="W85" s="644"/>
+      <c r="L85" s="641"/>
+      <c r="M85" s="641"/>
+      <c r="N85" s="641"/>
+      <c r="O85" s="641"/>
+      <c r="P85" s="641"/>
+      <c r="Q85" s="641"/>
+      <c r="R85" s="641"/>
+      <c r="S85" s="641"/>
+      <c r="T85" s="641"/>
+      <c r="U85" s="641"/>
+      <c r="V85" s="641"/>
+      <c r="W85" s="641"/>
     </row>
     <row r="86" spans="1:23" ht="14">
       <c r="A86" s="253">
@@ -53631,17 +53631,17 @@
       </c>
       <c r="C86" s="673"/>
       <c r="D86" s="673"/>
-      <c r="E86" s="680" t="s">
+      <c r="E86" s="690" t="s">
         <v>920</v>
       </c>
       <c r="F86" s="675"/>
       <c r="G86" s="675"/>
-      <c r="H86" s="697" t="s">
+      <c r="H86" s="691" t="s">
         <v>921</v>
       </c>
       <c r="I86" s="677"/>
       <c r="J86" s="677"/>
-      <c r="K86" s="680" t="s">
+      <c r="K86" s="690" t="s">
         <v>922</v>
       </c>
       <c r="L86" s="678"/>
@@ -53656,12 +53656,12 @@
       </c>
       <c r="R86" s="678"/>
       <c r="S86" s="678"/>
-      <c r="T86" s="692" t="s">
+      <c r="T86" s="679" t="s">
         <v>519</v>
       </c>
-      <c r="U86" s="693"/>
-      <c r="V86" s="693"/>
-      <c r="W86" s="693"/>
+      <c r="U86" s="680"/>
+      <c r="V86" s="680"/>
+      <c r="W86" s="680"/>
     </row>
     <row r="87" spans="1:23" ht="15.35">
       <c r="A87" s="288"/>
@@ -53719,7 +53719,7 @@
       <c r="S87" s="254" t="s">
         <v>463</v>
       </c>
-      <c r="T87" s="691" t="s">
+      <c r="T87" s="681" t="s">
         <v>520</v>
       </c>
       <c r="U87" s="171" t="s">
@@ -53764,7 +53764,7 @@
       <c r="Q88" s="184"/>
       <c r="R88" s="184"/>
       <c r="S88" s="184"/>
-      <c r="T88" s="644"/>
+      <c r="T88" s="641"/>
       <c r="U88" s="171" t="s">
         <v>524</v>
       </c>
@@ -54028,32 +54028,32 @@
       <c r="C106" s="170"/>
     </row>
     <row r="107" spans="1:23" ht="14">
-      <c r="B107" s="694" t="s">
+      <c r="B107" s="685" t="s">
         <v>919</v>
       </c>
-      <c r="C107" s="644"/>
-      <c r="D107" s="644"/>
-      <c r="E107" s="644"/>
-      <c r="F107" s="644"/>
-      <c r="G107" s="644"/>
-      <c r="H107" s="644"/>
-      <c r="I107" s="644"/>
-      <c r="J107" s="644"/>
-      <c r="K107" s="695" t="s">
+      <c r="C107" s="641"/>
+      <c r="D107" s="641"/>
+      <c r="E107" s="641"/>
+      <c r="F107" s="641"/>
+      <c r="G107" s="641"/>
+      <c r="H107" s="641"/>
+      <c r="I107" s="641"/>
+      <c r="J107" s="641"/>
+      <c r="K107" s="684" t="s">
         <v>457</v>
       </c>
-      <c r="L107" s="644"/>
-      <c r="M107" s="644"/>
-      <c r="N107" s="644"/>
-      <c r="O107" s="644"/>
-      <c r="P107" s="644"/>
-      <c r="Q107" s="644"/>
-      <c r="R107" s="644"/>
-      <c r="S107" s="644"/>
-      <c r="T107" s="644"/>
-      <c r="U107" s="644"/>
-      <c r="V107" s="644"/>
-      <c r="W107" s="644"/>
+      <c r="L107" s="641"/>
+      <c r="M107" s="641"/>
+      <c r="N107" s="641"/>
+      <c r="O107" s="641"/>
+      <c r="P107" s="641"/>
+      <c r="Q107" s="641"/>
+      <c r="R107" s="641"/>
+      <c r="S107" s="641"/>
+      <c r="T107" s="641"/>
+      <c r="U107" s="641"/>
+      <c r="V107" s="641"/>
+      <c r="W107" s="641"/>
     </row>
     <row r="108" spans="1:23" ht="14">
       <c r="A108" s="253">
@@ -54064,7 +54064,7 @@
       </c>
       <c r="C108" s="673"/>
       <c r="D108" s="673"/>
-      <c r="E108" s="680" t="s">
+      <c r="E108" s="690" t="s">
         <v>920</v>
       </c>
       <c r="F108" s="675"/>
@@ -54089,12 +54089,12 @@
       </c>
       <c r="R108" s="678"/>
       <c r="S108" s="678"/>
-      <c r="T108" s="692" t="s">
+      <c r="T108" s="679" t="s">
         <v>519</v>
       </c>
-      <c r="U108" s="693"/>
-      <c r="V108" s="693"/>
-      <c r="W108" s="693"/>
+      <c r="U108" s="680"/>
+      <c r="V108" s="680"/>
+      <c r="W108" s="680"/>
     </row>
     <row r="109" spans="1:23" ht="15.35">
       <c r="A109" s="288"/>
@@ -54152,7 +54152,7 @@
       <c r="S109" s="346" t="s">
         <v>463</v>
       </c>
-      <c r="T109" s="691" t="s">
+      <c r="T109" s="681" t="s">
         <v>520</v>
       </c>
       <c r="U109" s="171" t="s">
@@ -54197,7 +54197,7 @@
       <c r="Q110" s="184"/>
       <c r="R110" s="184"/>
       <c r="S110" s="184"/>
-      <c r="T110" s="644"/>
+      <c r="T110" s="641"/>
       <c r="U110" s="171" t="s">
         <v>524</v>
       </c>
@@ -54411,32 +54411,32 @@
       </c>
     </row>
     <row r="128" spans="1:23" ht="14">
-      <c r="B128" s="695" t="s">
+      <c r="B128" s="684" t="s">
         <v>456</v>
       </c>
-      <c r="C128" s="644"/>
-      <c r="D128" s="644"/>
-      <c r="E128" s="644"/>
-      <c r="F128" s="644"/>
-      <c r="G128" s="644"/>
-      <c r="H128" s="644"/>
-      <c r="I128" s="644"/>
-      <c r="J128" s="644"/>
-      <c r="K128" s="695" t="s">
+      <c r="C128" s="641"/>
+      <c r="D128" s="641"/>
+      <c r="E128" s="641"/>
+      <c r="F128" s="641"/>
+      <c r="G128" s="641"/>
+      <c r="H128" s="641"/>
+      <c r="I128" s="641"/>
+      <c r="J128" s="641"/>
+      <c r="K128" s="684" t="s">
         <v>457</v>
       </c>
-      <c r="L128" s="644"/>
-      <c r="M128" s="644"/>
-      <c r="N128" s="644"/>
-      <c r="O128" s="644"/>
-      <c r="P128" s="644"/>
-      <c r="Q128" s="644"/>
-      <c r="R128" s="644"/>
-      <c r="S128" s="644"/>
-      <c r="T128" s="644"/>
-      <c r="U128" s="644"/>
-      <c r="V128" s="644"/>
-      <c r="W128" s="644"/>
+      <c r="L128" s="641"/>
+      <c r="M128" s="641"/>
+      <c r="N128" s="641"/>
+      <c r="O128" s="641"/>
+      <c r="P128" s="641"/>
+      <c r="Q128" s="641"/>
+      <c r="R128" s="641"/>
+      <c r="S128" s="641"/>
+      <c r="T128" s="641"/>
+      <c r="U128" s="641"/>
+      <c r="V128" s="641"/>
+      <c r="W128" s="641"/>
     </row>
     <row r="129" spans="1:23" ht="14">
       <c r="A129" s="253">
@@ -54472,12 +54472,12 @@
       </c>
       <c r="R129" s="678"/>
       <c r="S129" s="678"/>
-      <c r="T129" s="692" t="s">
+      <c r="T129" s="679" t="s">
         <v>519</v>
       </c>
-      <c r="U129" s="693"/>
-      <c r="V129" s="693"/>
-      <c r="W129" s="693"/>
+      <c r="U129" s="680"/>
+      <c r="V129" s="680"/>
+      <c r="W129" s="680"/>
     </row>
     <row r="130" spans="1:23" ht="15.35">
       <c r="A130" s="288"/>
@@ -54535,7 +54535,7 @@
       <c r="S130" s="346" t="s">
         <v>463</v>
       </c>
-      <c r="T130" s="691" t="s">
+      <c r="T130" s="681" t="s">
         <v>520</v>
       </c>
       <c r="U130" s="171" t="s">
@@ -54580,7 +54580,7 @@
       <c r="Q131" s="184"/>
       <c r="R131" s="184"/>
       <c r="S131" s="184"/>
-      <c r="T131" s="644"/>
+      <c r="T131" s="641"/>
       <c r="U131" s="171" t="s">
         <v>524</v>
       </c>
@@ -54780,32 +54780,32 @@
       </c>
     </row>
     <row r="142" spans="1:23" ht="14">
-      <c r="B142" s="695" t="s">
+      <c r="B142" s="684" t="s">
         <v>456</v>
       </c>
-      <c r="C142" s="644"/>
-      <c r="D142" s="644"/>
-      <c r="E142" s="644"/>
-      <c r="F142" s="644"/>
-      <c r="G142" s="644"/>
-      <c r="H142" s="644"/>
-      <c r="I142" s="644"/>
-      <c r="J142" s="644"/>
-      <c r="K142" s="695" t="s">
+      <c r="C142" s="641"/>
+      <c r="D142" s="641"/>
+      <c r="E142" s="641"/>
+      <c r="F142" s="641"/>
+      <c r="G142" s="641"/>
+      <c r="H142" s="641"/>
+      <c r="I142" s="641"/>
+      <c r="J142" s="641"/>
+      <c r="K142" s="684" t="s">
         <v>457</v>
       </c>
-      <c r="L142" s="644"/>
-      <c r="M142" s="644"/>
-      <c r="N142" s="644"/>
-      <c r="O142" s="644"/>
-      <c r="P142" s="644"/>
-      <c r="Q142" s="644"/>
-      <c r="R142" s="644"/>
-      <c r="S142" s="644"/>
-      <c r="T142" s="644"/>
-      <c r="U142" s="644"/>
-      <c r="V142" s="644"/>
-      <c r="W142" s="644"/>
+      <c r="L142" s="641"/>
+      <c r="M142" s="641"/>
+      <c r="N142" s="641"/>
+      <c r="O142" s="641"/>
+      <c r="P142" s="641"/>
+      <c r="Q142" s="641"/>
+      <c r="R142" s="641"/>
+      <c r="S142" s="641"/>
+      <c r="T142" s="641"/>
+      <c r="U142" s="641"/>
+      <c r="V142" s="641"/>
+      <c r="W142" s="641"/>
     </row>
     <row r="143" spans="1:23" ht="14">
       <c r="A143" s="253">
@@ -54839,14 +54839,14 @@
       <c r="Q143" s="674" t="s">
         <v>916</v>
       </c>
-      <c r="R143" s="679"/>
-      <c r="S143" s="679"/>
-      <c r="T143" s="692" t="s">
+      <c r="R143" s="701"/>
+      <c r="S143" s="701"/>
+      <c r="T143" s="679" t="s">
         <v>519</v>
       </c>
-      <c r="U143" s="693"/>
-      <c r="V143" s="693"/>
-      <c r="W143" s="693"/>
+      <c r="U143" s="680"/>
+      <c r="V143" s="680"/>
+      <c r="W143" s="680"/>
     </row>
     <row r="144" spans="1:23" ht="15.35">
       <c r="A144" s="288"/>
@@ -54904,7 +54904,7 @@
       <c r="S144" s="254" t="s">
         <v>463</v>
       </c>
-      <c r="T144" s="691" t="s">
+      <c r="T144" s="681" t="s">
         <v>520</v>
       </c>
       <c r="U144" s="171" t="s">
@@ -54949,7 +54949,7 @@
       <c r="Q145" s="184"/>
       <c r="R145" s="184"/>
       <c r="S145" s="184"/>
-      <c r="T145" s="644"/>
+      <c r="T145" s="641"/>
       <c r="U145" s="171" t="s">
         <v>524</v>
       </c>
@@ -55141,32 +55141,32 @@
       </c>
     </row>
     <row r="157" spans="1:23" ht="14">
-      <c r="B157" s="700" t="s">
+      <c r="B157" s="686" t="s">
         <v>456</v>
       </c>
-      <c r="C157" s="684"/>
-      <c r="D157" s="684"/>
-      <c r="E157" s="684"/>
-      <c r="F157" s="684"/>
-      <c r="G157" s="684"/>
-      <c r="H157" s="684"/>
-      <c r="I157" s="684"/>
-      <c r="J157" s="684"/>
-      <c r="K157" s="683" t="s">
+      <c r="C157" s="687"/>
+      <c r="D157" s="687"/>
+      <c r="E157" s="687"/>
+      <c r="F157" s="687"/>
+      <c r="G157" s="687"/>
+      <c r="H157" s="687"/>
+      <c r="I157" s="687"/>
+      <c r="J157" s="687"/>
+      <c r="K157" s="688" t="s">
         <v>911</v>
       </c>
-      <c r="L157" s="684"/>
-      <c r="M157" s="684"/>
-      <c r="N157" s="684"/>
-      <c r="O157" s="684"/>
-      <c r="P157" s="684"/>
-      <c r="Q157" s="684"/>
-      <c r="R157" s="684"/>
-      <c r="S157" s="684"/>
-      <c r="T157" s="684"/>
-      <c r="U157" s="684"/>
-      <c r="V157" s="684"/>
-      <c r="W157" s="684"/>
+      <c r="L157" s="687"/>
+      <c r="M157" s="687"/>
+      <c r="N157" s="687"/>
+      <c r="O157" s="687"/>
+      <c r="P157" s="687"/>
+      <c r="Q157" s="687"/>
+      <c r="R157" s="687"/>
+      <c r="S157" s="687"/>
+      <c r="T157" s="687"/>
+      <c r="U157" s="687"/>
+      <c r="V157" s="687"/>
+      <c r="W157" s="687"/>
     </row>
     <row r="158" spans="1:23" ht="14">
       <c r="A158" s="253">
@@ -55202,12 +55202,12 @@
       </c>
       <c r="R158" s="678"/>
       <c r="S158" s="678"/>
-      <c r="T158" s="692" t="s">
+      <c r="T158" s="679" t="s">
         <v>519</v>
       </c>
-      <c r="U158" s="693"/>
-      <c r="V158" s="693"/>
-      <c r="W158" s="693"/>
+      <c r="U158" s="680"/>
+      <c r="V158" s="680"/>
+      <c r="W158" s="680"/>
     </row>
     <row r="159" spans="1:23" ht="15.35">
       <c r="A159" s="288"/>
@@ -55265,7 +55265,7 @@
       <c r="S159" s="258" t="s">
         <v>914</v>
       </c>
-      <c r="T159" s="691" t="s">
+      <c r="T159" s="681" t="s">
         <v>520</v>
       </c>
       <c r="U159" s="171" t="s">
@@ -55310,7 +55310,7 @@
       <c r="Q160" s="321"/>
       <c r="R160" s="275"/>
       <c r="S160" s="275"/>
-      <c r="T160" s="644"/>
+      <c r="T160" s="641"/>
       <c r="U160" s="171"/>
       <c r="V160" s="266"/>
       <c r="W160" s="266"/>
@@ -55347,7 +55347,7 @@
       <c r="Q161" s="184"/>
       <c r="R161" s="188"/>
       <c r="S161" s="188"/>
-      <c r="T161" s="644"/>
+      <c r="T161" s="641"/>
       <c r="U161" s="171" t="s">
         <v>524</v>
       </c>
@@ -55548,32 +55548,32 @@
     </row>
     <row r="172" spans="1:23" ht="14">
       <c r="A172" s="293"/>
-      <c r="B172" s="695" t="s">
+      <c r="B172" s="684" t="s">
         <v>456</v>
       </c>
-      <c r="C172" s="644"/>
-      <c r="D172" s="644"/>
-      <c r="E172" s="644"/>
-      <c r="F172" s="644"/>
-      <c r="G172" s="644"/>
-      <c r="H172" s="644"/>
-      <c r="I172" s="644"/>
-      <c r="J172" s="644"/>
-      <c r="K172" s="694" t="s">
+      <c r="C172" s="641"/>
+      <c r="D172" s="641"/>
+      <c r="E172" s="641"/>
+      <c r="F172" s="641"/>
+      <c r="G172" s="641"/>
+      <c r="H172" s="641"/>
+      <c r="I172" s="641"/>
+      <c r="J172" s="641"/>
+      <c r="K172" s="685" t="s">
         <v>911</v>
       </c>
-      <c r="L172" s="644"/>
-      <c r="M172" s="644"/>
-      <c r="N172" s="644"/>
-      <c r="O172" s="644"/>
-      <c r="P172" s="644"/>
-      <c r="Q172" s="644"/>
-      <c r="R172" s="644"/>
-      <c r="S172" s="644"/>
-      <c r="T172" s="644"/>
-      <c r="U172" s="644"/>
-      <c r="V172" s="644"/>
-      <c r="W172" s="644"/>
+      <c r="L172" s="641"/>
+      <c r="M172" s="641"/>
+      <c r="N172" s="641"/>
+      <c r="O172" s="641"/>
+      <c r="P172" s="641"/>
+      <c r="Q172" s="641"/>
+      <c r="R172" s="641"/>
+      <c r="S172" s="641"/>
+      <c r="T172" s="641"/>
+      <c r="U172" s="641"/>
+      <c r="V172" s="641"/>
+      <c r="W172" s="641"/>
     </row>
     <row r="173" spans="1:23" ht="14">
       <c r="A173" s="293"/>
@@ -55607,12 +55607,12 @@
       </c>
       <c r="R173" s="678"/>
       <c r="S173" s="678"/>
-      <c r="T173" s="692" t="s">
+      <c r="T173" s="679" t="s">
         <v>519</v>
       </c>
-      <c r="U173" s="693"/>
-      <c r="V173" s="693"/>
-      <c r="W173" s="693"/>
+      <c r="U173" s="680"/>
+      <c r="V173" s="680"/>
+      <c r="W173" s="680"/>
     </row>
     <row r="174" spans="1:23" ht="15.35">
       <c r="A174" s="293"/>
@@ -55670,7 +55670,7 @@
       <c r="S174" s="258" t="s">
         <v>914</v>
       </c>
-      <c r="T174" s="691" t="s">
+      <c r="T174" s="681" t="s">
         <v>520</v>
       </c>
       <c r="U174" s="171" t="s">
@@ -55715,7 +55715,7 @@
       <c r="Q175" s="184"/>
       <c r="R175" s="188"/>
       <c r="S175" s="188"/>
-      <c r="T175" s="644"/>
+      <c r="T175" s="641"/>
       <c r="U175" s="171" t="s">
         <v>524</v>
       </c>
@@ -57861,15 +57861,74 @@
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="B173:D173"/>
-    <mergeCell ref="E173:G173"/>
-    <mergeCell ref="H173:J173"/>
-    <mergeCell ref="K173:M173"/>
-    <mergeCell ref="N173:P173"/>
-    <mergeCell ref="Q173:S173"/>
-    <mergeCell ref="T173:W173"/>
-    <mergeCell ref="T174:T175"/>
-    <mergeCell ref="T159:T161"/>
+    <mergeCell ref="B143:D143"/>
+    <mergeCell ref="E143:G143"/>
+    <mergeCell ref="H143:J143"/>
+    <mergeCell ref="K143:M143"/>
+    <mergeCell ref="N143:P143"/>
+    <mergeCell ref="Q143:S143"/>
+    <mergeCell ref="K108:M108"/>
+    <mergeCell ref="H108:J108"/>
+    <mergeCell ref="E108:G108"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="Q129:S129"/>
+    <mergeCell ref="B129:D129"/>
+    <mergeCell ref="E129:G129"/>
+    <mergeCell ref="H129:J129"/>
+    <mergeCell ref="K129:M129"/>
+    <mergeCell ref="N129:P129"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="K3:W3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="K23:W23"/>
+    <mergeCell ref="B44:J44"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="T45:W45"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="K62:W62"/>
+    <mergeCell ref="B85:J85"/>
+    <mergeCell ref="B107:J107"/>
+    <mergeCell ref="B128:J128"/>
+    <mergeCell ref="N86:P86"/>
+    <mergeCell ref="Q86:S86"/>
+    <mergeCell ref="T86:W86"/>
+    <mergeCell ref="T87:T88"/>
+    <mergeCell ref="K85:W85"/>
+    <mergeCell ref="N108:P108"/>
+    <mergeCell ref="Q108:S108"/>
+    <mergeCell ref="T108:W108"/>
+    <mergeCell ref="T109:T110"/>
+    <mergeCell ref="K107:W107"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="K63:M63"/>
+    <mergeCell ref="N63:P63"/>
+    <mergeCell ref="Q63:S63"/>
+    <mergeCell ref="K86:M86"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="B86:D86"/>
     <mergeCell ref="B158:D158"/>
     <mergeCell ref="E158:G158"/>
     <mergeCell ref="H158:J158"/>
@@ -57894,74 +57953,15 @@
     <mergeCell ref="B62:J62"/>
     <mergeCell ref="T63:W63"/>
     <mergeCell ref="T64:T65"/>
-    <mergeCell ref="K62:W62"/>
-    <mergeCell ref="B85:J85"/>
-    <mergeCell ref="B107:J107"/>
-    <mergeCell ref="B128:J128"/>
-    <mergeCell ref="N86:P86"/>
-    <mergeCell ref="Q86:S86"/>
-    <mergeCell ref="T86:W86"/>
-    <mergeCell ref="T87:T88"/>
-    <mergeCell ref="K85:W85"/>
-    <mergeCell ref="N108:P108"/>
-    <mergeCell ref="Q108:S108"/>
-    <mergeCell ref="T108:W108"/>
-    <mergeCell ref="T109:T110"/>
-    <mergeCell ref="K107:W107"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="K63:M63"/>
-    <mergeCell ref="N63:P63"/>
-    <mergeCell ref="Q63:S63"/>
-    <mergeCell ref="K86:M86"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="K23:W23"/>
-    <mergeCell ref="B44:J44"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="T45:W45"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="K3:W3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="B143:D143"/>
-    <mergeCell ref="E143:G143"/>
-    <mergeCell ref="H143:J143"/>
-    <mergeCell ref="K143:M143"/>
-    <mergeCell ref="N143:P143"/>
-    <mergeCell ref="Q143:S143"/>
-    <mergeCell ref="K108:M108"/>
-    <mergeCell ref="H108:J108"/>
-    <mergeCell ref="E108:G108"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="Q129:S129"/>
-    <mergeCell ref="B129:D129"/>
-    <mergeCell ref="E129:G129"/>
-    <mergeCell ref="H129:J129"/>
-    <mergeCell ref="K129:M129"/>
-    <mergeCell ref="N129:P129"/>
+    <mergeCell ref="B173:D173"/>
+    <mergeCell ref="E173:G173"/>
+    <mergeCell ref="H173:J173"/>
+    <mergeCell ref="K173:M173"/>
+    <mergeCell ref="N173:P173"/>
+    <mergeCell ref="Q173:S173"/>
+    <mergeCell ref="T173:W173"/>
+    <mergeCell ref="T174:T175"/>
+    <mergeCell ref="T159:T161"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -58002,31 +58002,31 @@
       <c r="A2" s="196" t="s">
         <v>455</v>
       </c>
-      <c r="B2" s="704" t="s">
+      <c r="B2" s="709" t="s">
         <v>456</v>
       </c>
-      <c r="C2" s="705"/>
-      <c r="D2" s="705"/>
-      <c r="E2" s="706" t="s">
+      <c r="C2" s="710"/>
+      <c r="D2" s="710"/>
+      <c r="E2" s="711" t="s">
         <v>457</v>
       </c>
-      <c r="F2" s="688"/>
-      <c r="G2" s="688"/>
+      <c r="F2" s="698"/>
+      <c r="G2" s="698"/>
     </row>
     <row r="3" spans="1:7" ht="14">
       <c r="A3" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B3" s="702" t="s">
+      <c r="B3" s="707" t="s">
         <v>459</v>
       </c>
-      <c r="C3" s="686"/>
-      <c r="D3" s="686"/>
-      <c r="E3" s="703" t="s">
+      <c r="C3" s="693"/>
+      <c r="D3" s="693"/>
+      <c r="E3" s="708" t="s">
         <v>460</v>
       </c>
-      <c r="F3" s="686"/>
-      <c r="G3" s="686"/>
+      <c r="F3" s="693"/>
+      <c r="G3" s="693"/>
     </row>
     <row r="4" spans="1:7" ht="15.35">
       <c r="A4" s="197"/>
@@ -58163,31 +58163,31 @@
       <c r="A13" s="196" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="704" t="s">
+      <c r="B13" s="709" t="s">
         <v>456</v>
       </c>
-      <c r="C13" s="705"/>
-      <c r="D13" s="705"/>
-      <c r="E13" s="706" t="s">
+      <c r="C13" s="710"/>
+      <c r="D13" s="710"/>
+      <c r="E13" s="711" t="s">
         <v>457</v>
       </c>
-      <c r="F13" s="688"/>
-      <c r="G13" s="688"/>
+      <c r="F13" s="698"/>
+      <c r="G13" s="698"/>
     </row>
     <row r="14" spans="1:7" ht="14">
       <c r="A14" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B14" s="702" t="s">
+      <c r="B14" s="707" t="s">
         <v>459</v>
       </c>
-      <c r="C14" s="686"/>
-      <c r="D14" s="686"/>
-      <c r="E14" s="703" t="s">
+      <c r="C14" s="693"/>
+      <c r="D14" s="693"/>
+      <c r="E14" s="708" t="s">
         <v>460</v>
       </c>
-      <c r="F14" s="686"/>
-      <c r="G14" s="686"/>
+      <c r="F14" s="693"/>
+      <c r="G14" s="693"/>
     </row>
     <row r="15" spans="1:7" ht="15.35">
       <c r="A15" s="197"/>
@@ -58342,31 +58342,31 @@
       <c r="A24" s="196" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="704" t="s">
+      <c r="B24" s="709" t="s">
         <v>456</v>
       </c>
-      <c r="C24" s="705"/>
-      <c r="D24" s="705"/>
-      <c r="E24" s="706" t="s">
+      <c r="C24" s="710"/>
+      <c r="D24" s="710"/>
+      <c r="E24" s="711" t="s">
         <v>457</v>
       </c>
-      <c r="F24" s="688"/>
-      <c r="G24" s="688"/>
+      <c r="F24" s="698"/>
+      <c r="G24" s="698"/>
     </row>
     <row r="25" spans="1:7" ht="14">
       <c r="A25" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B25" s="702" t="s">
+      <c r="B25" s="707" t="s">
         <v>459</v>
       </c>
-      <c r="C25" s="686"/>
-      <c r="D25" s="686"/>
-      <c r="E25" s="703" t="s">
+      <c r="C25" s="693"/>
+      <c r="D25" s="693"/>
+      <c r="E25" s="708" t="s">
         <v>460</v>
       </c>
-      <c r="F25" s="686"/>
-      <c r="G25" s="686"/>
+      <c r="F25" s="693"/>
+      <c r="G25" s="693"/>
     </row>
     <row r="26" spans="1:7" ht="15.35">
       <c r="A26" s="197"/>
@@ -58503,31 +58503,31 @@
       <c r="A35" s="196" t="s">
         <v>92</v>
       </c>
-      <c r="B35" s="704" t="s">
+      <c r="B35" s="709" t="s">
         <v>456</v>
       </c>
-      <c r="C35" s="705"/>
-      <c r="D35" s="705"/>
-      <c r="E35" s="706" t="s">
+      <c r="C35" s="710"/>
+      <c r="D35" s="710"/>
+      <c r="E35" s="711" t="s">
         <v>457</v>
       </c>
-      <c r="F35" s="688"/>
-      <c r="G35" s="688"/>
+      <c r="F35" s="698"/>
+      <c r="G35" s="698"/>
     </row>
     <row r="36" spans="1:8" ht="25.35">
       <c r="A36" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B36" s="702" t="s">
+      <c r="B36" s="707" t="s">
         <v>459</v>
       </c>
-      <c r="C36" s="686"/>
-      <c r="D36" s="686"/>
-      <c r="E36" s="703" t="s">
+      <c r="C36" s="693"/>
+      <c r="D36" s="693"/>
+      <c r="E36" s="708" t="s">
         <v>460</v>
       </c>
-      <c r="F36" s="686"/>
-      <c r="G36" s="686"/>
+      <c r="F36" s="693"/>
+      <c r="G36" s="693"/>
     </row>
     <row r="37" spans="1:8" ht="15.35">
       <c r="B37" s="198" t="s">
@@ -58659,31 +58659,31 @@
       <c r="A48" s="196" t="s">
         <v>99</v>
       </c>
-      <c r="B48" s="704" t="s">
+      <c r="B48" s="709" t="s">
         <v>456</v>
       </c>
-      <c r="C48" s="705"/>
-      <c r="D48" s="705"/>
-      <c r="E48" s="706" t="s">
+      <c r="C48" s="710"/>
+      <c r="D48" s="710"/>
+      <c r="E48" s="711" t="s">
         <v>457</v>
       </c>
-      <c r="F48" s="688"/>
-      <c r="G48" s="688"/>
+      <c r="F48" s="698"/>
+      <c r="G48" s="698"/>
     </row>
     <row r="49" spans="1:8" ht="25.35">
       <c r="A49" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B49" s="702" t="s">
+      <c r="B49" s="707" t="s">
         <v>459</v>
       </c>
-      <c r="C49" s="686"/>
-      <c r="D49" s="686"/>
-      <c r="E49" s="703" t="s">
+      <c r="C49" s="693"/>
+      <c r="D49" s="693"/>
+      <c r="E49" s="708" t="s">
         <v>460</v>
       </c>
-      <c r="F49" s="686"/>
-      <c r="G49" s="686"/>
+      <c r="F49" s="693"/>
+      <c r="G49" s="693"/>
     </row>
     <row r="50" spans="1:8" ht="15.35">
       <c r="B50" s="198" t="s">
@@ -58815,31 +58815,31 @@
       <c r="A62" s="196" t="s">
         <v>104</v>
       </c>
-      <c r="B62" s="704" t="s">
+      <c r="B62" s="709" t="s">
         <v>456</v>
       </c>
-      <c r="C62" s="705"/>
-      <c r="D62" s="705"/>
-      <c r="E62" s="706" t="s">
+      <c r="C62" s="710"/>
+      <c r="D62" s="710"/>
+      <c r="E62" s="711" t="s">
         <v>457</v>
       </c>
-      <c r="F62" s="688"/>
-      <c r="G62" s="688"/>
+      <c r="F62" s="698"/>
+      <c r="G62" s="698"/>
     </row>
     <row r="63" spans="1:8" ht="25.35">
       <c r="A63" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B63" s="702" t="s">
+      <c r="B63" s="707" t="s">
         <v>459</v>
       </c>
-      <c r="C63" s="686"/>
-      <c r="D63" s="686"/>
-      <c r="E63" s="703" t="s">
+      <c r="C63" s="693"/>
+      <c r="D63" s="693"/>
+      <c r="E63" s="708" t="s">
         <v>460</v>
       </c>
-      <c r="F63" s="686"/>
-      <c r="G63" s="686"/>
+      <c r="F63" s="693"/>
+      <c r="G63" s="693"/>
     </row>
     <row r="64" spans="1:8" ht="15.35">
       <c r="B64" s="198" t="s">
@@ -58964,31 +58964,31 @@
       <c r="A79" s="191" t="s">
         <v>91</v>
       </c>
-      <c r="B79" s="704" t="s">
+      <c r="B79" s="709" t="s">
         <v>456</v>
       </c>
-      <c r="C79" s="705"/>
-      <c r="D79" s="705"/>
-      <c r="E79" s="706" t="s">
+      <c r="C79" s="710"/>
+      <c r="D79" s="710"/>
+      <c r="E79" s="711" t="s">
         <v>457</v>
       </c>
-      <c r="F79" s="688"/>
-      <c r="G79" s="688"/>
+      <c r="F79" s="698"/>
+      <c r="G79" s="698"/>
     </row>
     <row r="80" spans="1:9" ht="27.35">
       <c r="A80" s="196" t="s">
         <v>114</v>
       </c>
-      <c r="B80" s="702" t="s">
+      <c r="B80" s="707" t="s">
         <v>459</v>
       </c>
-      <c r="C80" s="686"/>
-      <c r="D80" s="686"/>
-      <c r="E80" s="703" t="s">
+      <c r="C80" s="693"/>
+      <c r="D80" s="693"/>
+      <c r="E80" s="708" t="s">
         <v>460</v>
       </c>
-      <c r="F80" s="686"/>
-      <c r="G80" s="686"/>
+      <c r="F80" s="693"/>
+      <c r="G80" s="693"/>
     </row>
     <row r="81" spans="1:7" ht="25.35">
       <c r="A81" s="10" t="s">
@@ -59126,31 +59126,31 @@
       <c r="A99" s="196" t="s">
         <v>119</v>
       </c>
-      <c r="B99" s="704" t="s">
+      <c r="B99" s="709" t="s">
         <v>456</v>
       </c>
-      <c r="C99" s="705"/>
-      <c r="D99" s="705"/>
-      <c r="E99" s="706" t="s">
+      <c r="C99" s="710"/>
+      <c r="D99" s="710"/>
+      <c r="E99" s="711" t="s">
         <v>457</v>
       </c>
-      <c r="F99" s="688"/>
-      <c r="G99" s="688"/>
+      <c r="F99" s="698"/>
+      <c r="G99" s="698"/>
     </row>
     <row r="100" spans="1:7" ht="14">
       <c r="A100" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B100" s="702" t="s">
+      <c r="B100" s="707" t="s">
         <v>459</v>
       </c>
-      <c r="C100" s="686"/>
-      <c r="D100" s="686"/>
-      <c r="E100" s="703" t="s">
+      <c r="C100" s="693"/>
+      <c r="D100" s="693"/>
+      <c r="E100" s="708" t="s">
         <v>460</v>
       </c>
-      <c r="F100" s="686"/>
-      <c r="G100" s="686"/>
+      <c r="F100" s="693"/>
+      <c r="G100" s="693"/>
     </row>
     <row r="101" spans="1:7" ht="15.35">
       <c r="A101" s="197"/>
@@ -59308,31 +59308,31 @@
       <c r="A112" s="196" t="s">
         <v>146</v>
       </c>
-      <c r="B112" s="704" t="s">
+      <c r="B112" s="709" t="s">
         <v>456</v>
       </c>
-      <c r="C112" s="705"/>
-      <c r="D112" s="705"/>
-      <c r="E112" s="706" t="s">
+      <c r="C112" s="710"/>
+      <c r="D112" s="710"/>
+      <c r="E112" s="711" t="s">
         <v>457</v>
       </c>
-      <c r="F112" s="688"/>
-      <c r="G112" s="688"/>
+      <c r="F112" s="698"/>
+      <c r="G112" s="698"/>
     </row>
     <row r="113" spans="1:7" ht="14">
       <c r="A113" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B113" s="702" t="s">
+      <c r="B113" s="707" t="s">
         <v>459</v>
       </c>
-      <c r="C113" s="686"/>
-      <c r="D113" s="686"/>
-      <c r="E113" s="703" t="s">
+      <c r="C113" s="693"/>
+      <c r="D113" s="693"/>
+      <c r="E113" s="708" t="s">
         <v>460</v>
       </c>
-      <c r="F113" s="686"/>
-      <c r="G113" s="686"/>
+      <c r="F113" s="693"/>
+      <c r="G113" s="693"/>
     </row>
     <row r="114" spans="1:7" ht="15.35">
       <c r="A114" s="197"/>
@@ -59461,31 +59461,31 @@
       <c r="A123" s="196" t="s">
         <v>163</v>
       </c>
-      <c r="B123" s="713" t="s">
+      <c r="B123" s="702" t="s">
         <v>456</v>
       </c>
-      <c r="C123" s="714"/>
-      <c r="D123" s="714"/>
-      <c r="E123" s="715" t="s">
+      <c r="C123" s="703"/>
+      <c r="D123" s="703"/>
+      <c r="E123" s="704" t="s">
         <v>457</v>
       </c>
-      <c r="F123" s="716"/>
-      <c r="G123" s="716"/>
+      <c r="F123" s="705"/>
+      <c r="G123" s="705"/>
     </row>
     <row r="124" spans="1:7" ht="14.35">
       <c r="A124" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B124" s="709" t="s">
+      <c r="B124" s="714" t="s">
         <v>459</v>
       </c>
-      <c r="C124" s="710"/>
-      <c r="D124" s="710"/>
-      <c r="E124" s="711" t="s">
+      <c r="C124" s="715"/>
+      <c r="D124" s="715"/>
+      <c r="E124" s="716" t="s">
         <v>460</v>
       </c>
-      <c r="F124" s="712"/>
-      <c r="G124" s="712"/>
+      <c r="F124" s="717"/>
+      <c r="G124" s="717"/>
     </row>
     <row r="125" spans="1:7" ht="14.35">
       <c r="A125" s="197"/>
@@ -59675,31 +59675,31 @@
       <c r="A136" s="196" t="s">
         <v>167</v>
       </c>
-      <c r="B136" s="704" t="s">
+      <c r="B136" s="709" t="s">
         <v>456</v>
       </c>
-      <c r="C136" s="705"/>
-      <c r="D136" s="705"/>
-      <c r="E136" s="706" t="s">
+      <c r="C136" s="710"/>
+      <c r="D136" s="710"/>
+      <c r="E136" s="711" t="s">
         <v>457</v>
       </c>
-      <c r="F136" s="707"/>
-      <c r="G136" s="707"/>
+      <c r="F136" s="712"/>
+      <c r="G136" s="712"/>
     </row>
     <row r="137" spans="1:7" ht="14">
       <c r="A137" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B137" s="704" t="s">
+      <c r="B137" s="709" t="s">
         <v>459</v>
       </c>
-      <c r="C137" s="707"/>
-      <c r="D137" s="708"/>
-      <c r="E137" s="706" t="s">
+      <c r="C137" s="712"/>
+      <c r="D137" s="713"/>
+      <c r="E137" s="711" t="s">
         <v>460</v>
       </c>
-      <c r="F137" s="707"/>
-      <c r="G137" s="707"/>
+      <c r="F137" s="712"/>
+      <c r="G137" s="712"/>
     </row>
     <row r="138" spans="1:7" ht="15.35">
       <c r="A138" s="197"/>
@@ -59843,31 +59843,31 @@
       <c r="A152" s="196" t="s">
         <v>186</v>
       </c>
-      <c r="B152" s="713" t="s">
+      <c r="B152" s="702" t="s">
         <v>456</v>
       </c>
-      <c r="C152" s="714"/>
-      <c r="D152" s="714"/>
-      <c r="E152" s="715" t="s">
+      <c r="C152" s="703"/>
+      <c r="D152" s="703"/>
+      <c r="E152" s="704" t="s">
         <v>457</v>
       </c>
-      <c r="F152" s="716"/>
-      <c r="G152" s="716"/>
+      <c r="F152" s="705"/>
+      <c r="G152" s="705"/>
     </row>
     <row r="153" spans="1:7" ht="21" customHeight="1">
       <c r="A153" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B153" s="713" t="s">
+      <c r="B153" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C153" s="714"/>
-      <c r="D153" s="714"/>
-      <c r="E153" s="715" t="s">
+      <c r="C153" s="703"/>
+      <c r="D153" s="703"/>
+      <c r="E153" s="704" t="s">
         <v>460</v>
       </c>
-      <c r="F153" s="716"/>
-      <c r="G153" s="716"/>
+      <c r="F153" s="705"/>
+      <c r="G153" s="705"/>
     </row>
     <row r="154" spans="1:7" ht="14.35">
       <c r="B154" s="220" t="s">
@@ -60143,31 +60143,31 @@
       <c r="A171" s="196" t="s">
         <v>208</v>
       </c>
-      <c r="B171" s="713" t="s">
+      <c r="B171" s="702" t="s">
         <v>456</v>
       </c>
-      <c r="C171" s="714"/>
-      <c r="D171" s="714"/>
-      <c r="E171" s="715" t="s">
+      <c r="C171" s="703"/>
+      <c r="D171" s="703"/>
+      <c r="E171" s="704" t="s">
         <v>457</v>
       </c>
-      <c r="F171" s="716"/>
-      <c r="G171" s="716"/>
+      <c r="F171" s="705"/>
+      <c r="G171" s="705"/>
     </row>
     <row r="172" spans="1:7" ht="27.35">
       <c r="A172" s="197" t="s">
         <v>476</v>
       </c>
-      <c r="B172" s="713" t="s">
+      <c r="B172" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C172" s="714"/>
-      <c r="D172" s="714"/>
-      <c r="E172" s="715" t="s">
+      <c r="C172" s="703"/>
+      <c r="D172" s="703"/>
+      <c r="E172" s="704" t="s">
         <v>460</v>
       </c>
-      <c r="F172" s="716"/>
-      <c r="G172" s="716"/>
+      <c r="F172" s="705"/>
+      <c r="G172" s="705"/>
     </row>
     <row r="173" spans="1:7" ht="14.35">
       <c r="A173" s="201"/>
@@ -60443,31 +60443,31 @@
       <c r="A190" s="196" t="s">
         <v>210</v>
       </c>
-      <c r="B190" s="713" t="s">
+      <c r="B190" s="702" t="s">
         <v>456</v>
       </c>
-      <c r="C190" s="714"/>
-      <c r="D190" s="714"/>
-      <c r="E190" s="715" t="s">
+      <c r="C190" s="703"/>
+      <c r="D190" s="703"/>
+      <c r="E190" s="704" t="s">
         <v>457</v>
       </c>
-      <c r="F190" s="716"/>
-      <c r="G190" s="716"/>
+      <c r="F190" s="705"/>
+      <c r="G190" s="705"/>
     </row>
     <row r="191" spans="1:7" ht="25.35">
       <c r="A191" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B191" s="713" t="s">
+      <c r="B191" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C191" s="714"/>
-      <c r="D191" s="714"/>
-      <c r="E191" s="715" t="s">
+      <c r="C191" s="703"/>
+      <c r="D191" s="703"/>
+      <c r="E191" s="704" t="s">
         <v>460</v>
       </c>
-      <c r="F191" s="716"/>
-      <c r="G191" s="716"/>
+      <c r="F191" s="705"/>
+      <c r="G191" s="705"/>
     </row>
     <row r="192" spans="1:7" ht="14.35">
       <c r="B192" s="220" t="s">
@@ -60721,31 +60721,31 @@
       <c r="A208" s="196" t="s">
         <v>215</v>
       </c>
-      <c r="B208" s="713" t="s">
+      <c r="B208" s="702" t="s">
         <v>456</v>
       </c>
-      <c r="C208" s="714"/>
-      <c r="D208" s="714"/>
-      <c r="E208" s="715" t="s">
+      <c r="C208" s="703"/>
+      <c r="D208" s="703"/>
+      <c r="E208" s="704" t="s">
         <v>457</v>
       </c>
-      <c r="F208" s="716"/>
-      <c r="G208" s="716"/>
+      <c r="F208" s="705"/>
+      <c r="G208" s="705"/>
     </row>
     <row r="209" spans="1:7" ht="25.35">
       <c r="A209" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B209" s="713" t="s">
+      <c r="B209" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C209" s="714"/>
-      <c r="D209" s="714"/>
-      <c r="E209" s="715" t="s">
+      <c r="C209" s="703"/>
+      <c r="D209" s="703"/>
+      <c r="E209" s="704" t="s">
         <v>460</v>
       </c>
-      <c r="F209" s="716"/>
-      <c r="G209" s="716"/>
+      <c r="F209" s="705"/>
+      <c r="G209" s="705"/>
     </row>
     <row r="210" spans="1:7" ht="14.35">
       <c r="B210" s="220" t="s">
@@ -61009,31 +61009,31 @@
       <c r="A226" s="196" t="s">
         <v>218</v>
       </c>
-      <c r="B226" s="713" t="s">
+      <c r="B226" s="702" t="s">
         <v>456</v>
       </c>
-      <c r="C226" s="714"/>
-      <c r="D226" s="714"/>
-      <c r="E226" s="715" t="s">
+      <c r="C226" s="703"/>
+      <c r="D226" s="703"/>
+      <c r="E226" s="704" t="s">
         <v>457</v>
       </c>
-      <c r="F226" s="717"/>
-      <c r="G226" s="717"/>
+      <c r="F226" s="706"/>
+      <c r="G226" s="706"/>
     </row>
     <row r="227" spans="1:7" ht="27.35">
       <c r="A227" s="197" t="s">
         <v>476</v>
       </c>
-      <c r="B227" s="713" t="s">
+      <c r="B227" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C227" s="644"/>
-      <c r="D227" s="644"/>
-      <c r="E227" s="715" t="s">
+      <c r="C227" s="641"/>
+      <c r="D227" s="641"/>
+      <c r="E227" s="704" t="s">
         <v>460</v>
       </c>
-      <c r="F227" s="717"/>
-      <c r="G227" s="717"/>
+      <c r="F227" s="706"/>
+      <c r="G227" s="706"/>
     </row>
     <row r="228" spans="1:7" ht="14.35">
       <c r="A228" s="197"/>
@@ -61231,31 +61231,31 @@
       <c r="A240" s="196" t="s">
         <v>223</v>
       </c>
-      <c r="B240" s="713" t="s">
+      <c r="B240" s="702" t="s">
         <v>456</v>
       </c>
-      <c r="C240" s="714"/>
-      <c r="D240" s="714"/>
-      <c r="E240" s="715" t="s">
+      <c r="C240" s="703"/>
+      <c r="D240" s="703"/>
+      <c r="E240" s="704" t="s">
         <v>457</v>
       </c>
-      <c r="F240" s="717"/>
-      <c r="G240" s="717"/>
+      <c r="F240" s="706"/>
+      <c r="G240" s="706"/>
     </row>
     <row r="241" spans="1:7" ht="27.35">
       <c r="A241" s="197" t="s">
         <v>476</v>
       </c>
-      <c r="B241" s="713" t="s">
+      <c r="B241" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C241" s="644"/>
-      <c r="D241" s="644"/>
-      <c r="E241" s="715" t="s">
+      <c r="C241" s="641"/>
+      <c r="D241" s="641"/>
+      <c r="E241" s="704" t="s">
         <v>460</v>
       </c>
-      <c r="F241" s="717"/>
-      <c r="G241" s="717"/>
+      <c r="F241" s="706"/>
+      <c r="G241" s="706"/>
     </row>
     <row r="242" spans="1:7" ht="14.35">
       <c r="A242" s="197"/>
@@ -61514,14 +61514,50 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="B152:D152"/>
-    <mergeCell ref="E152:G152"/>
-    <mergeCell ref="B153:D153"/>
-    <mergeCell ref="E153:G153"/>
-    <mergeCell ref="B172:D172"/>
-    <mergeCell ref="E172:G172"/>
-    <mergeCell ref="B171:D171"/>
-    <mergeCell ref="E171:G171"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="B137:D137"/>
+    <mergeCell ref="E137:G137"/>
+    <mergeCell ref="B124:D124"/>
+    <mergeCell ref="E124:G124"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="E112:G112"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="E113:G113"/>
+    <mergeCell ref="B136:D136"/>
+    <mergeCell ref="E136:G136"/>
+    <mergeCell ref="B123:D123"/>
+    <mergeCell ref="E123:G123"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="E79:G79"/>
     <mergeCell ref="B190:D190"/>
     <mergeCell ref="E190:G190"/>
     <mergeCell ref="B191:D191"/>
@@ -61538,50 +61574,14 @@
     <mergeCell ref="E227:G227"/>
     <mergeCell ref="B240:D240"/>
     <mergeCell ref="E240:G240"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="B137:D137"/>
-    <mergeCell ref="E137:G137"/>
-    <mergeCell ref="B124:D124"/>
-    <mergeCell ref="E124:G124"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="E112:G112"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="E113:G113"/>
-    <mergeCell ref="B136:D136"/>
-    <mergeCell ref="E136:G136"/>
-    <mergeCell ref="B123:D123"/>
-    <mergeCell ref="E123:G123"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="B152:D152"/>
+    <mergeCell ref="E152:G152"/>
+    <mergeCell ref="B153:D153"/>
+    <mergeCell ref="E153:G153"/>
+    <mergeCell ref="B172:D172"/>
+    <mergeCell ref="E172:G172"/>
+    <mergeCell ref="B171:D171"/>
+    <mergeCell ref="E171:G171"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -62324,9 +62324,9 @@
       <c r="A1" s="722" t="s">
         <v>448</v>
       </c>
-      <c r="B1" s="688"/>
-      <c r="C1" s="688"/>
-      <c r="D1" s="688"/>
+      <c r="B1" s="698"/>
+      <c r="C1" s="698"/>
+      <c r="D1" s="698"/>
       <c r="E1" s="723" t="s">
         <v>449</v>
       </c>

--- a/microgrid_base/设备信息库各参数.xlsx
+++ b/microgrid_base/设备信息库各参数.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\works\jubilant-adventure2\microgrid_base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E518D8-E22E-4DA2-808C-B70C94F5D32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA412CD-B77E-43CF-8D55-32FB3AE61E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="8180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6555,7 +6555,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6564,29 +6564,54 @@
     <xf numFmtId="0" fontId="65" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6601,47 +6626,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6659,8 +6650,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6679,45 +6679,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6726,8 +6689,17 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6741,16 +6713,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6780,6 +6771,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -8843,7 +8843,7 @@
       <c r="C15" s="370">
         <v>560</v>
       </c>
-      <c r="D15" s="644"/>
+      <c r="D15" s="635"/>
       <c r="E15" s="365"/>
       <c r="F15" s="363"/>
       <c r="G15" s="363"/>
@@ -8924,7 +8924,7 @@
       <c r="B21" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="639"/>
+      <c r="C21" s="638"/>
       <c r="D21" s="363"/>
       <c r="E21" s="363"/>
       <c r="F21" s="363"/>
@@ -9205,7 +9205,7 @@
       <c r="C41" s="375">
         <v>560</v>
       </c>
-      <c r="D41" s="635"/>
+      <c r="D41" s="639"/>
       <c r="E41" s="366"/>
       <c r="F41" s="363"/>
       <c r="G41" s="363"/>
@@ -9286,7 +9286,7 @@
       <c r="B47" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="639"/>
+      <c r="C47" s="638"/>
       <c r="D47" s="363"/>
       <c r="E47" s="363"/>
       <c r="F47" s="363"/>
@@ -9621,7 +9621,7 @@
       <c r="C71" s="370">
         <v>560</v>
       </c>
-      <c r="D71" s="635"/>
+      <c r="D71" s="639"/>
       <c r="E71" s="363"/>
       <c r="F71" s="363"/>
       <c r="G71" s="363"/>
@@ -9702,7 +9702,7 @@
       <c r="B77" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C77" s="639"/>
+      <c r="C77" s="638"/>
       <c r="D77" s="363"/>
       <c r="E77" s="363"/>
       <c r="F77" s="363"/>
@@ -9876,10 +9876,10 @@
       </c>
       <c r="E91" s="363"/>
       <c r="F91" s="363"/>
-      <c r="G91" s="642" t="s">
+      <c r="G91" s="640" t="s">
         <v>59</v>
       </c>
-      <c r="H91" s="643"/>
+      <c r="H91" s="641"/>
     </row>
     <row r="92" spans="1:8" ht="14.35">
       <c r="A92" s="363"/>
@@ -10007,7 +10007,7 @@
       <c r="C99" s="370">
         <v>560</v>
       </c>
-      <c r="D99" s="635"/>
+      <c r="D99" s="639"/>
       <c r="E99" s="363"/>
       <c r="F99" s="363"/>
       <c r="G99" s="363"/>
@@ -10088,7 +10088,7 @@
       <c r="B105" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C105" s="638"/>
+      <c r="C105" s="642"/>
       <c r="D105" s="363"/>
       <c r="E105" s="363"/>
       <c r="F105" s="363"/>
@@ -10387,7 +10387,7 @@
       <c r="C128" s="370">
         <v>560</v>
       </c>
-      <c r="D128" s="635"/>
+      <c r="D128" s="639"/>
       <c r="E128" s="363"/>
       <c r="F128" s="363"/>
       <c r="G128" s="363"/>
@@ -10468,7 +10468,7 @@
       <c r="B134" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C134" s="638"/>
+      <c r="C134" s="642"/>
       <c r="D134" s="363"/>
       <c r="E134" s="363"/>
       <c r="F134" s="363"/>
@@ -10741,7 +10741,7 @@
       <c r="C158" s="370">
         <v>560</v>
       </c>
-      <c r="D158" s="635"/>
+      <c r="D158" s="639"/>
       <c r="E158" s="363"/>
     </row>
     <row r="159" spans="1:8" ht="14.35">
@@ -10804,7 +10804,7 @@
       <c r="B164" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C164" s="638"/>
+      <c r="C164" s="642"/>
       <c r="D164" s="363"/>
       <c r="E164" s="363"/>
     </row>
@@ -10944,7 +10944,7 @@
       <c r="C179" s="375">
         <v>560</v>
       </c>
-      <c r="D179" s="635"/>
+      <c r="D179" s="639"/>
       <c r="E179" s="363"/>
       <c r="F179" s="363"/>
       <c r="G179" s="363"/>
@@ -11025,7 +11025,7 @@
       <c r="B185" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C185" s="639"/>
+      <c r="C185" s="638"/>
       <c r="D185" s="363"/>
       <c r="E185" s="363"/>
       <c r="F185" s="363"/>
@@ -11222,7 +11222,7 @@
       <c r="C201" s="375">
         <v>560</v>
       </c>
-      <c r="D201" s="635"/>
+      <c r="D201" s="639"/>
       <c r="E201" s="363"/>
       <c r="F201" s="363"/>
       <c r="G201" s="363"/>
@@ -11302,7 +11302,7 @@
       <c r="B207" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C207" s="639"/>
+      <c r="C207" s="638"/>
       <c r="D207" s="363"/>
       <c r="E207" s="363"/>
       <c r="F207" s="363"/>
@@ -11797,7 +11797,7 @@
       <c r="C242" s="370">
         <v>560</v>
       </c>
-      <c r="D242" s="635"/>
+      <c r="D242" s="639"/>
       <c r="E242" s="363"/>
       <c r="F242" s="363"/>
       <c r="G242" s="363"/>
@@ -11878,7 +11878,7 @@
       <c r="B248" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C248" s="638"/>
+      <c r="C248" s="642"/>
       <c r="D248" s="363"/>
       <c r="E248" s="363"/>
       <c r="F248" s="363"/>
@@ -12267,7 +12267,7 @@
       <c r="C278" s="370">
         <v>560</v>
       </c>
-      <c r="D278" s="635"/>
+      <c r="D278" s="639"/>
       <c r="E278" s="363"/>
       <c r="F278" s="363"/>
       <c r="G278" s="363"/>
@@ -12348,7 +12348,7 @@
       <c r="B284" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C284" s="638"/>
+      <c r="C284" s="642"/>
       <c r="D284" s="363"/>
       <c r="E284" s="363"/>
       <c r="F284" s="363"/>
@@ -12578,7 +12578,7 @@
       <c r="C304" s="370">
         <v>560</v>
       </c>
-      <c r="D304" s="635"/>
+      <c r="D304" s="639"/>
       <c r="E304" s="363"/>
       <c r="F304" s="363"/>
       <c r="G304" s="363"/>
@@ -12659,7 +12659,7 @@
       <c r="B310" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C310" s="638"/>
+      <c r="C310" s="642"/>
       <c r="D310" s="363"/>
       <c r="E310" s="363"/>
       <c r="F310" s="363"/>
@@ -12846,7 +12846,7 @@
       <c r="C327" s="370">
         <v>560</v>
       </c>
-      <c r="D327" s="635"/>
+      <c r="D327" s="639"/>
       <c r="E327" s="363"/>
       <c r="F327" s="363"/>
       <c r="G327" s="363"/>
@@ -12927,7 +12927,7 @@
       <c r="B333" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C333" s="638"/>
+      <c r="C333" s="642"/>
       <c r="D333" s="363"/>
       <c r="E333" s="363"/>
       <c r="F333" s="363"/>
@@ -13120,7 +13120,7 @@
       <c r="C349" s="370">
         <v>560</v>
       </c>
-      <c r="D349" s="635"/>
+      <c r="D349" s="639"/>
       <c r="F349" s="363"/>
       <c r="G349" s="363"/>
       <c r="H349" s="363"/>
@@ -13195,7 +13195,7 @@
       <c r="B355" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C355" s="638"/>
+      <c r="C355" s="642"/>
       <c r="D355" s="363"/>
       <c r="F355" s="363"/>
       <c r="G355" s="363"/>
@@ -13540,7 +13540,7 @@
       <c r="C383" s="370">
         <v>560</v>
       </c>
-      <c r="D383" s="635"/>
+      <c r="D383" s="639"/>
       <c r="E383" s="363"/>
       <c r="F383" s="363"/>
       <c r="G383" s="363"/>
@@ -13621,7 +13621,7 @@
       <c r="B389" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C389" s="638"/>
+      <c r="C389" s="642"/>
       <c r="D389" s="363"/>
       <c r="E389" s="363"/>
       <c r="F389" s="363"/>
@@ -13969,7 +13969,7 @@
       <c r="C418" s="370">
         <v>560</v>
       </c>
-      <c r="D418" s="635"/>
+      <c r="D418" s="639"/>
       <c r="E418" s="363"/>
       <c r="F418" s="363"/>
       <c r="G418" s="363"/>
@@ -14050,7 +14050,7 @@
       <c r="B424" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C424" s="638"/>
+      <c r="C424" s="642"/>
       <c r="D424" s="363"/>
       <c r="E424" s="363"/>
       <c r="F424" s="363"/>
@@ -14376,7 +14376,7 @@
       <c r="B451" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C451" s="638"/>
+      <c r="C451" s="642"/>
       <c r="D451" s="363"/>
       <c r="E451" s="363"/>
       <c r="F451" s="363"/>
@@ -14591,7 +14591,7 @@
       <c r="C469" s="370">
         <v>560</v>
       </c>
-      <c r="D469" s="635"/>
+      <c r="D469" s="639"/>
       <c r="E469" s="363"/>
       <c r="F469" s="363"/>
       <c r="G469" s="363"/>
@@ -14672,7 +14672,7 @@
       <c r="B475" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C475" s="638"/>
+      <c r="C475" s="642"/>
       <c r="D475" s="363"/>
       <c r="E475" s="363"/>
       <c r="F475" s="363"/>
@@ -14899,7 +14899,7 @@
       <c r="C494" s="370">
         <v>560</v>
       </c>
-      <c r="D494" s="635"/>
+      <c r="D494" s="639"/>
       <c r="E494" s="365" t="s">
         <v>684</v>
       </c>
@@ -14982,7 +14982,7 @@
       <c r="B500" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C500" s="638"/>
+      <c r="C500" s="642"/>
       <c r="D500" s="363"/>
       <c r="E500" s="363"/>
       <c r="F500" s="363"/>
@@ -15203,7 +15203,7 @@
       <c r="C519" s="370">
         <v>560</v>
       </c>
-      <c r="D519" s="635"/>
+      <c r="D519" s="639"/>
       <c r="E519" s="365" t="s">
         <v>686</v>
       </c>
@@ -15286,7 +15286,7 @@
       <c r="B525" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C525" s="638"/>
+      <c r="C525" s="642"/>
       <c r="D525" s="363"/>
       <c r="E525" s="363"/>
       <c r="F525" s="363"/>
@@ -15553,7 +15553,7 @@
       <c r="C547" s="370">
         <v>560</v>
       </c>
-      <c r="D547" s="635"/>
+      <c r="D547" s="639"/>
       <c r="E547" s="363"/>
       <c r="F547" s="363"/>
       <c r="G547" s="363"/>
@@ -15634,7 +15634,7 @@
       <c r="B553" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C553" s="638"/>
+      <c r="C553" s="642"/>
       <c r="D553" s="363"/>
       <c r="E553" s="363"/>
       <c r="F553" s="363"/>
@@ -15965,7 +15965,7 @@
       <c r="C580" s="370">
         <v>560</v>
       </c>
-      <c r="D580" s="635"/>
+      <c r="D580" s="639"/>
       <c r="E580" s="363"/>
       <c r="F580" s="363"/>
       <c r="G580" s="363"/>
@@ -16046,7 +16046,7 @@
       <c r="B586" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C586" s="638"/>
+      <c r="C586" s="642"/>
       <c r="D586" s="363"/>
       <c r="E586" s="363"/>
       <c r="F586" s="363"/>
@@ -16310,7 +16310,7 @@
       <c r="C608" s="370">
         <v>560</v>
       </c>
-      <c r="D608" s="635"/>
+      <c r="D608" s="639"/>
       <c r="E608" s="363"/>
       <c r="F608" s="363"/>
       <c r="G608" s="363"/>
@@ -16391,7 +16391,7 @@
       <c r="B614" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C614" s="638"/>
+      <c r="C614" s="642"/>
       <c r="D614" s="363"/>
       <c r="E614" s="363"/>
       <c r="F614" s="363"/>
@@ -16675,7 +16675,7 @@
       <c r="B637" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C637" s="638"/>
+      <c r="C637" s="642"/>
       <c r="D637" s="363"/>
       <c r="E637" s="363"/>
       <c r="F637" s="363"/>
@@ -16970,10 +16970,10 @@
     </row>
     <row r="660" spans="1:8" ht="14.35">
       <c r="A660" s="363"/>
-      <c r="B660" s="640" t="s">
+      <c r="B660" s="643" t="s">
         <v>34</v>
       </c>
-      <c r="C660" s="641"/>
+      <c r="C660" s="644"/>
       <c r="D660" s="363"/>
       <c r="E660" s="363"/>
       <c r="F660" s="363"/>
@@ -17272,10 +17272,10 @@
     </row>
     <row r="683" spans="1:8" ht="14.35">
       <c r="A683" s="363"/>
-      <c r="B683" s="640" t="s">
+      <c r="B683" s="643" t="s">
         <v>34</v>
       </c>
-      <c r="C683" s="641"/>
+      <c r="C683" s="644"/>
       <c r="D683" s="363"/>
       <c r="E683" s="363"/>
       <c r="F683" s="363"/>
@@ -17639,7 +17639,7 @@
       <c r="B711" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C711" s="638"/>
+      <c r="C711" s="642"/>
       <c r="D711" s="363"/>
       <c r="E711" s="363"/>
       <c r="F711" s="363"/>
@@ -17884,7 +17884,7 @@
       <c r="C729" s="370">
         <v>560</v>
       </c>
-      <c r="D729" s="635"/>
+      <c r="D729" s="639"/>
       <c r="E729" s="363"/>
       <c r="F729" s="363"/>
       <c r="G729" s="363"/>
@@ -17965,7 +17965,7 @@
       <c r="B735" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C735" s="638"/>
+      <c r="C735" s="642"/>
       <c r="D735" s="363"/>
       <c r="E735" s="363"/>
       <c r="F735" s="363"/>
@@ -18226,7 +18226,7 @@
       <c r="C756" s="370">
         <v>560</v>
       </c>
-      <c r="D756" s="635"/>
+      <c r="D756" s="639"/>
       <c r="E756" s="363"/>
       <c r="F756" s="363"/>
       <c r="G756" s="363"/>
@@ -18307,7 +18307,7 @@
       <c r="B762" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C762" s="638"/>
+      <c r="C762" s="642"/>
       <c r="D762" s="363"/>
       <c r="E762" s="363"/>
       <c r="F762" s="363"/>
@@ -18633,7 +18633,7 @@
       <c r="B789" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C789" s="639"/>
+      <c r="C789" s="638"/>
       <c r="D789" s="363"/>
       <c r="E789" s="363"/>
       <c r="F789" s="363"/>
@@ -18959,7 +18959,7 @@
       <c r="B816" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C816" s="639"/>
+      <c r="C816" s="638"/>
       <c r="D816" s="363"/>
       <c r="E816" s="363"/>
       <c r="F816" s="363"/>
@@ -19250,7 +19250,7 @@
       <c r="C839" s="375">
         <v>560</v>
       </c>
-      <c r="D839" s="635"/>
+      <c r="D839" s="639"/>
       <c r="E839" s="365"/>
       <c r="F839" s="363"/>
       <c r="G839" s="363"/>
@@ -19331,7 +19331,7 @@
       <c r="B845" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C845" s="639"/>
+      <c r="C845" s="638"/>
       <c r="D845" s="363"/>
       <c r="E845" s="363"/>
       <c r="F845" s="363"/>
@@ -19712,7 +19712,7 @@
       <c r="B876" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C876" s="639"/>
+      <c r="C876" s="638"/>
       <c r="D876" s="363"/>
       <c r="E876" s="363"/>
       <c r="F876" s="363"/>
@@ -20068,7 +20068,7 @@
       <c r="B907" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C907" s="639"/>
+      <c r="C907" s="638"/>
       <c r="D907" s="363"/>
       <c r="E907" s="363"/>
       <c r="F907" s="363"/>
@@ -20341,7 +20341,7 @@
       <c r="B931" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C931" s="639"/>
+      <c r="C931" s="638"/>
       <c r="D931" s="363"/>
       <c r="E931" s="363"/>
       <c r="F931" s="363"/>
@@ -20691,7 +20691,7 @@
       <c r="B958" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C958" s="639"/>
+      <c r="C958" s="638"/>
       <c r="D958" s="363"/>
       <c r="E958" s="363"/>
       <c r="F958" s="363"/>
@@ -20987,7 +20987,7 @@
       <c r="B981" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C981" s="639"/>
+      <c r="C981" s="638"/>
       <c r="D981" s="363"/>
       <c r="E981" s="363"/>
       <c r="F981" s="363"/>
@@ -21283,7 +21283,7 @@
       <c r="B1005" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1005" s="639"/>
+      <c r="C1005" s="638"/>
       <c r="D1005" s="363"/>
       <c r="E1005" s="363"/>
       <c r="F1005" s="363"/>
@@ -21479,7 +21479,7 @@
       <c r="B1024" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1024" s="639"/>
+      <c r="C1024" s="638"/>
       <c r="F1024" s="363"/>
       <c r="G1024" s="363"/>
       <c r="H1024" s="363"/>
@@ -21706,7 +21706,7 @@
       <c r="C1042" s="370">
         <v>560</v>
       </c>
-      <c r="D1042" s="635"/>
+      <c r="D1042" s="639"/>
       <c r="E1042" s="363"/>
       <c r="F1042" s="363"/>
       <c r="G1042" s="363"/>
@@ -21787,7 +21787,7 @@
       <c r="B1048" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1048" s="638"/>
+      <c r="C1048" s="642"/>
       <c r="D1048" s="363"/>
       <c r="E1048" s="363"/>
       <c r="F1048" s="363"/>
@@ -22053,7 +22053,7 @@
       <c r="B1070" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1070" s="639"/>
+      <c r="C1070" s="638"/>
       <c r="D1070" s="363"/>
       <c r="E1070" s="363"/>
       <c r="F1070" s="363"/>
@@ -22298,7 +22298,7 @@
       <c r="C1089" s="370">
         <v>560</v>
       </c>
-      <c r="D1089" s="635"/>
+      <c r="D1089" s="639"/>
       <c r="E1089" s="363"/>
       <c r="F1089" s="363"/>
       <c r="G1089" s="363"/>
@@ -22373,7 +22373,7 @@
       <c r="B1095" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1095" s="638"/>
+      <c r="C1095" s="642"/>
       <c r="D1095" s="363"/>
       <c r="E1095" s="363"/>
       <c r="F1095" s="363"/>
@@ -22649,7 +22649,7 @@
       <c r="C1120" s="370">
         <v>560</v>
       </c>
-      <c r="D1120" s="635"/>
+      <c r="D1120" s="639"/>
       <c r="E1120" s="363"/>
       <c r="F1120" s="363"/>
       <c r="G1120" s="363"/>
@@ -22726,7 +22726,7 @@
       <c r="B1126" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1126" s="638"/>
+      <c r="C1126" s="642"/>
       <c r="D1126" s="363"/>
       <c r="E1126" s="363"/>
       <c r="F1126" s="363"/>
@@ -23089,7 +23089,7 @@
       <c r="B1155" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1155" s="638"/>
+      <c r="C1155" s="642"/>
       <c r="D1155" s="363"/>
       <c r="E1155" s="363"/>
       <c r="F1155" s="363"/>
@@ -23198,61 +23198,6 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D41:D46"/>
-    <mergeCell ref="D71:D75"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="D99:D103"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="D128:D132"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="D158:D162"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="D179:D184"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="D201:D206"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="D242:D246"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="D278:D282"/>
-    <mergeCell ref="B284:C284"/>
-    <mergeCell ref="D304:D308"/>
-    <mergeCell ref="B310:C310"/>
-    <mergeCell ref="D327:D331"/>
-    <mergeCell ref="B333:C333"/>
-    <mergeCell ref="D383:D387"/>
-    <mergeCell ref="B389:C389"/>
-    <mergeCell ref="D418:D422"/>
-    <mergeCell ref="B424:C424"/>
-    <mergeCell ref="B451:C451"/>
-    <mergeCell ref="D469:D473"/>
-    <mergeCell ref="B475:C475"/>
-    <mergeCell ref="D494:D498"/>
-    <mergeCell ref="B500:C500"/>
-    <mergeCell ref="D519:D523"/>
-    <mergeCell ref="B525:C525"/>
-    <mergeCell ref="D547:D551"/>
-    <mergeCell ref="B553:C553"/>
-    <mergeCell ref="D580:D584"/>
-    <mergeCell ref="B586:C586"/>
-    <mergeCell ref="D608:D612"/>
-    <mergeCell ref="B614:C614"/>
-    <mergeCell ref="B637:C637"/>
-    <mergeCell ref="B660:C660"/>
-    <mergeCell ref="B683:C683"/>
-    <mergeCell ref="B711:C711"/>
-    <mergeCell ref="D839:D844"/>
-    <mergeCell ref="B845:C845"/>
-    <mergeCell ref="B876:C876"/>
-    <mergeCell ref="B907:C907"/>
-    <mergeCell ref="D729:D733"/>
-    <mergeCell ref="B735:C735"/>
-    <mergeCell ref="D756:D760"/>
-    <mergeCell ref="B762:C762"/>
-    <mergeCell ref="B789:C789"/>
     <mergeCell ref="D1120:D1124"/>
     <mergeCell ref="B1126:C1126"/>
     <mergeCell ref="B1155:C1155"/>
@@ -23269,6 +23214,61 @@
     <mergeCell ref="B1005:C1005"/>
     <mergeCell ref="B1024:C1024"/>
     <mergeCell ref="B816:C816"/>
+    <mergeCell ref="D839:D844"/>
+    <mergeCell ref="B845:C845"/>
+    <mergeCell ref="B876:C876"/>
+    <mergeCell ref="B907:C907"/>
+    <mergeCell ref="D729:D733"/>
+    <mergeCell ref="B735:C735"/>
+    <mergeCell ref="D756:D760"/>
+    <mergeCell ref="B762:C762"/>
+    <mergeCell ref="B789:C789"/>
+    <mergeCell ref="B614:C614"/>
+    <mergeCell ref="B637:C637"/>
+    <mergeCell ref="B660:C660"/>
+    <mergeCell ref="B683:C683"/>
+    <mergeCell ref="B711:C711"/>
+    <mergeCell ref="D547:D551"/>
+    <mergeCell ref="B553:C553"/>
+    <mergeCell ref="D580:D584"/>
+    <mergeCell ref="B586:C586"/>
+    <mergeCell ref="D608:D612"/>
+    <mergeCell ref="B475:C475"/>
+    <mergeCell ref="D494:D498"/>
+    <mergeCell ref="B500:C500"/>
+    <mergeCell ref="D519:D523"/>
+    <mergeCell ref="B525:C525"/>
+    <mergeCell ref="B389:C389"/>
+    <mergeCell ref="D418:D422"/>
+    <mergeCell ref="B424:C424"/>
+    <mergeCell ref="B451:C451"/>
+    <mergeCell ref="D469:D473"/>
+    <mergeCell ref="D304:D308"/>
+    <mergeCell ref="B310:C310"/>
+    <mergeCell ref="D327:D331"/>
+    <mergeCell ref="B333:C333"/>
+    <mergeCell ref="D383:D387"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="D242:D246"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="D278:D282"/>
+    <mergeCell ref="B284:C284"/>
+    <mergeCell ref="D158:D162"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="D179:D184"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="D201:D206"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="D99:D103"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="D128:D132"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D41:D46"/>
+    <mergeCell ref="D71:D75"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23614,7 +23614,7 @@
       <c r="B20" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="639"/>
+      <c r="C20" s="638"/>
       <c r="D20" s="363"/>
       <c r="E20" s="363"/>
       <c r="F20" s="363"/>
@@ -23789,7 +23789,7 @@
         <v>29</v>
       </c>
       <c r="C36" s="375"/>
-      <c r="D36" s="645"/>
+      <c r="D36" s="650"/>
       <c r="E36" s="26"/>
       <c r="K36" s="10"/>
     </row>
@@ -23799,7 +23799,7 @@
         <v>45</v>
       </c>
       <c r="C37" s="370"/>
-      <c r="D37" s="646"/>
+      <c r="D37" s="651"/>
       <c r="E37" s="26"/>
       <c r="K37" s="10"/>
     </row>
@@ -23809,7 +23809,7 @@
         <v>30</v>
       </c>
       <c r="C38" s="370"/>
-      <c r="D38" s="646"/>
+      <c r="D38" s="651"/>
       <c r="E38" s="28"/>
       <c r="K38" s="10"/>
     </row>
@@ -23819,7 +23819,7 @@
         <v>31</v>
       </c>
       <c r="C39" s="370"/>
-      <c r="D39" s="646"/>
+      <c r="D39" s="651"/>
       <c r="E39" s="28"/>
       <c r="K39" s="10"/>
     </row>
@@ -23829,7 +23829,7 @@
         <v>32</v>
       </c>
       <c r="C40" s="370"/>
-      <c r="D40" s="646"/>
+      <c r="D40" s="651"/>
       <c r="E40" s="28"/>
       <c r="K40" s="10"/>
     </row>
@@ -23839,7 +23839,7 @@
         <v>876</v>
       </c>
       <c r="C41" s="370"/>
-      <c r="D41" s="646"/>
+      <c r="D41" s="651"/>
       <c r="E41" s="28"/>
       <c r="K41" s="10"/>
     </row>
@@ -23848,7 +23848,7 @@
       <c r="B42" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="639"/>
+      <c r="C42" s="638"/>
       <c r="D42" s="501"/>
       <c r="E42" s="28"/>
       <c r="K42" s="10"/>
@@ -24087,10 +24087,10 @@
     </row>
     <row r="61" spans="1:11" ht="14.35">
       <c r="A61" s="2"/>
-      <c r="B61" s="649" t="s">
+      <c r="B61" s="658" t="s">
         <v>34</v>
       </c>
-      <c r="C61" s="650"/>
+      <c r="C61" s="659"/>
       <c r="D61" s="8"/>
       <c r="E61" s="393"/>
       <c r="F61" s="2"/>
@@ -24276,10 +24276,10 @@
       <c r="D75" s="518" t="s">
         <v>58</v>
       </c>
-      <c r="E75" s="651" t="s">
+      <c r="E75" s="646" t="s">
         <v>59</v>
       </c>
-      <c r="F75" s="652"/>
+      <c r="F75" s="647"/>
       <c r="G75" s="520"/>
       <c r="H75" s="488"/>
       <c r="K75" s="10"/>
@@ -24376,7 +24376,7 @@
         <v>65</v>
       </c>
       <c r="C81" s="370"/>
-      <c r="D81" s="645"/>
+      <c r="D81" s="650"/>
       <c r="E81" s="525">
         <v>1</v>
       </c>
@@ -24393,7 +24393,7 @@
         <v>30</v>
       </c>
       <c r="C82" s="370"/>
-      <c r="D82" s="646"/>
+      <c r="D82" s="651"/>
       <c r="E82" s="526" t="s">
         <v>66</v>
       </c>
@@ -24408,7 +24408,7 @@
         <v>31</v>
       </c>
       <c r="C83" s="370"/>
-      <c r="D83" s="646"/>
+      <c r="D83" s="651"/>
       <c r="E83" s="527" t="s">
         <v>67</v>
       </c>
@@ -24423,7 +24423,7 @@
         <v>68</v>
       </c>
       <c r="C84" s="499"/>
-      <c r="D84" s="646"/>
+      <c r="D84" s="651"/>
       <c r="E84" s="363"/>
       <c r="F84" s="363"/>
       <c r="G84" s="363"/>
@@ -24435,7 +24435,7 @@
       <c r="B85" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C85" s="639"/>
+      <c r="C85" s="638"/>
       <c r="D85" s="363"/>
       <c r="E85" s="363"/>
       <c r="F85" s="363"/>
@@ -24542,8 +24542,8 @@
       <c r="D94" s="373"/>
       <c r="E94" s="363"/>
       <c r="F94" s="363"/>
-      <c r="G94" s="642"/>
-      <c r="H94" s="643"/>
+      <c r="G94" s="640"/>
+      <c r="H94" s="641"/>
       <c r="K94" s="10"/>
     </row>
     <row r="95" spans="1:11" ht="14.35">
@@ -24567,10 +24567,10 @@
       <c r="C96" s="399" t="s">
         <v>57</v>
       </c>
-      <c r="D96" s="653" t="s">
+      <c r="D96" s="648" t="s">
         <v>59</v>
       </c>
-      <c r="E96" s="652"/>
+      <c r="E96" s="647"/>
       <c r="F96" s="363"/>
       <c r="G96" s="410"/>
       <c r="H96" s="409"/>
@@ -24716,10 +24716,10 @@
     </row>
     <row r="106" spans="1:11" ht="14.35">
       <c r="A106" s="363"/>
-      <c r="B106" s="655" t="s">
+      <c r="B106" s="652" t="s">
         <v>34</v>
       </c>
-      <c r="C106" s="656"/>
+      <c r="C106" s="653"/>
       <c r="E106" s="363"/>
       <c r="F106" s="363"/>
       <c r="G106" s="363"/>
@@ -24838,7 +24838,7 @@
       </c>
       <c r="C116" s="401"/>
       <c r="D116" s="365"/>
-      <c r="E116" s="654" t="s">
+      <c r="E116" s="649" t="s">
         <v>59</v>
       </c>
       <c r="F116" s="633"/>
@@ -25005,7 +25005,7 @@
       <c r="B127" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C127" s="638"/>
+      <c r="C127" s="642"/>
       <c r="D127" s="363"/>
       <c r="E127" s="363"/>
       <c r="F127" s="363"/>
@@ -25283,7 +25283,7 @@
       <c r="B153" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C153" s="638"/>
+      <c r="C153" s="642"/>
       <c r="D153" s="363"/>
       <c r="E153" s="363"/>
       <c r="H153" s="10"/>
@@ -25483,7 +25483,7 @@
       <c r="B171" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C171" s="639"/>
+      <c r="C171" s="638"/>
       <c r="D171" s="363"/>
       <c r="E171" s="363"/>
       <c r="F171" s="363"/>
@@ -25716,7 +25716,7 @@
       <c r="B189" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C189" s="639"/>
+      <c r="C189" s="638"/>
       <c r="D189" s="363"/>
       <c r="E189" s="363"/>
       <c r="F189" s="363"/>
@@ -25942,7 +25942,7 @@
       <c r="B207" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C207" s="638"/>
+      <c r="C207" s="642"/>
       <c r="D207" s="363"/>
       <c r="E207" s="363"/>
       <c r="F207" s="363"/>
@@ -26127,7 +26127,7 @@
       <c r="B223" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C223" s="638"/>
+      <c r="C223" s="642"/>
       <c r="D223" s="363"/>
       <c r="F223" s="2"/>
       <c r="G223" s="2"/>
@@ -26492,7 +26492,7 @@
         <v>143</v>
       </c>
       <c r="C249" s="370"/>
-      <c r="D249" s="657"/>
+      <c r="D249" s="654"/>
       <c r="E249" s="363"/>
       <c r="F249" s="363"/>
       <c r="G249" s="363"/>
@@ -26505,7 +26505,7 @@
         <v>144</v>
       </c>
       <c r="C250" s="370"/>
-      <c r="D250" s="658"/>
+      <c r="D250" s="655"/>
       <c r="E250" s="363"/>
       <c r="F250" s="363"/>
       <c r="G250" s="363"/>
@@ -26518,7 +26518,7 @@
         <v>30</v>
       </c>
       <c r="C251" s="370"/>
-      <c r="D251" s="658"/>
+      <c r="D251" s="655"/>
       <c r="E251" s="363"/>
       <c r="F251" s="363"/>
       <c r="G251" s="363"/>
@@ -26531,7 +26531,7 @@
         <v>31</v>
       </c>
       <c r="C252" s="370"/>
-      <c r="D252" s="658"/>
+      <c r="D252" s="655"/>
       <c r="E252" s="363"/>
       <c r="F252" s="363"/>
       <c r="G252" s="363"/>
@@ -26544,7 +26544,7 @@
         <v>145</v>
       </c>
       <c r="C253" s="370"/>
-      <c r="D253" s="658"/>
+      <c r="D253" s="655"/>
       <c r="E253" s="363"/>
       <c r="F253" s="363"/>
       <c r="G253" s="363"/>
@@ -26569,7 +26569,7 @@
       <c r="B255" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C255" s="639"/>
+      <c r="C255" s="638"/>
       <c r="D255" s="363"/>
       <c r="E255" s="363"/>
       <c r="F255" s="363"/>
@@ -26995,7 +26995,7 @@
         <v>143</v>
       </c>
       <c r="C285" s="370"/>
-      <c r="D285" s="645"/>
+      <c r="D285" s="650"/>
       <c r="E285" s="563"/>
       <c r="F285" s="562"/>
       <c r="G285" s="363"/>
@@ -27008,7 +27008,7 @@
         <v>144</v>
       </c>
       <c r="C286" s="370"/>
-      <c r="D286" s="646"/>
+      <c r="D286" s="651"/>
       <c r="E286" s="563"/>
       <c r="F286" s="562"/>
       <c r="G286" s="363"/>
@@ -27021,7 +27021,7 @@
         <v>30</v>
       </c>
       <c r="C287" s="370"/>
-      <c r="D287" s="646"/>
+      <c r="D287" s="651"/>
       <c r="E287" s="563"/>
       <c r="F287" s="562"/>
       <c r="G287" s="363"/>
@@ -27034,7 +27034,7 @@
         <v>31</v>
       </c>
       <c r="C288" s="370"/>
-      <c r="D288" s="646"/>
+      <c r="D288" s="651"/>
       <c r="E288" s="563"/>
       <c r="F288" s="562"/>
       <c r="G288" s="363"/>
@@ -27047,7 +27047,7 @@
         <v>145</v>
       </c>
       <c r="C289" s="370"/>
-      <c r="D289" s="646"/>
+      <c r="D289" s="651"/>
       <c r="E289" s="563"/>
       <c r="F289" s="562"/>
       <c r="G289" s="363"/>
@@ -27072,7 +27072,7 @@
       <c r="B291" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C291" s="639"/>
+      <c r="C291" s="638"/>
       <c r="D291" s="501"/>
       <c r="E291" s="363"/>
       <c r="F291" s="363"/>
@@ -27253,7 +27253,7 @@
         <v>143</v>
       </c>
       <c r="C305" s="370"/>
-      <c r="D305" s="645"/>
+      <c r="D305" s="650"/>
       <c r="F305" s="363"/>
       <c r="G305" s="363"/>
       <c r="H305" s="488"/>
@@ -27265,7 +27265,7 @@
         <v>144</v>
       </c>
       <c r="C306" s="370"/>
-      <c r="D306" s="646"/>
+      <c r="D306" s="651"/>
       <c r="F306" s="363"/>
       <c r="G306" s="363"/>
       <c r="H306" s="488"/>
@@ -27277,7 +27277,7 @@
         <v>30</v>
       </c>
       <c r="C307" s="370"/>
-      <c r="D307" s="646"/>
+      <c r="D307" s="651"/>
       <c r="F307" s="363"/>
       <c r="G307" s="363"/>
       <c r="H307" s="488"/>
@@ -27289,7 +27289,7 @@
         <v>31</v>
       </c>
       <c r="C308" s="370"/>
-      <c r="D308" s="646"/>
+      <c r="D308" s="651"/>
       <c r="F308" s="363"/>
       <c r="G308" s="363"/>
       <c r="H308" s="488"/>
@@ -27301,7 +27301,7 @@
         <v>145</v>
       </c>
       <c r="C309" s="370"/>
-      <c r="D309" s="646"/>
+      <c r="D309" s="651"/>
       <c r="F309" s="363"/>
       <c r="G309" s="363"/>
       <c r="H309" s="488"/>
@@ -27324,7 +27324,7 @@
       <c r="B311" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C311" s="639"/>
+      <c r="C311" s="638"/>
       <c r="D311" s="501"/>
       <c r="F311" s="363"/>
       <c r="G311" s="363"/>
@@ -27587,10 +27587,10 @@
     </row>
     <row r="333" spans="1:11" ht="14.35">
       <c r="A333" s="2"/>
-      <c r="B333" s="647" t="s">
+      <c r="B333" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C333" s="648"/>
+      <c r="C333" s="657"/>
       <c r="D333" s="2"/>
       <c r="F333" s="363"/>
       <c r="G333" s="2"/>
@@ -27799,7 +27799,7 @@
       <c r="B351" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C351" s="638"/>
+      <c r="C351" s="642"/>
       <c r="F351" s="2"/>
       <c r="G351" s="2"/>
       <c r="H351" s="8"/>
@@ -28339,10 +28339,10 @@
     </row>
     <row r="388" spans="1:11" ht="14.7">
       <c r="A388" s="2"/>
-      <c r="B388" s="659" t="s">
+      <c r="B388" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C388" s="641"/>
+      <c r="C388" s="644"/>
       <c r="D388" s="97"/>
       <c r="F388" s="2"/>
       <c r="G388" s="2"/>
@@ -28914,10 +28914,10 @@
     </row>
     <row r="425" spans="1:11" ht="14.7">
       <c r="A425" s="2"/>
-      <c r="B425" s="659" t="s">
+      <c r="B425" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C425" s="641"/>
+      <c r="C425" s="644"/>
       <c r="D425" s="97"/>
       <c r="E425" s="97"/>
       <c r="F425" s="2"/>
@@ -29469,10 +29469,10 @@
     </row>
     <row r="461" spans="1:11" ht="14.7">
       <c r="A461" s="2"/>
-      <c r="B461" s="659" t="s">
+      <c r="B461" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C461" s="641"/>
+      <c r="C461" s="644"/>
       <c r="D461" s="97"/>
       <c r="E461" s="97"/>
       <c r="F461" s="97"/>
@@ -30020,10 +30020,10 @@
     </row>
     <row r="497" spans="1:11" ht="14.7">
       <c r="A497" s="2"/>
-      <c r="B497" s="659" t="s">
+      <c r="B497" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C497" s="641"/>
+      <c r="C497" s="644"/>
       <c r="D497" s="97"/>
       <c r="E497" s="97"/>
       <c r="F497" s="97"/>
@@ -30915,10 +30915,10 @@
     </row>
     <row r="552" spans="1:11" ht="14.7">
       <c r="A552" s="2"/>
-      <c r="B552" s="659" t="s">
+      <c r="B552" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C552" s="641"/>
+      <c r="C552" s="644"/>
       <c r="D552" s="97"/>
       <c r="E552" s="97"/>
       <c r="F552" s="97"/>
@@ -31345,7 +31345,7 @@
       <c r="B590" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C590" s="638"/>
+      <c r="C590" s="642"/>
       <c r="D590" s="363"/>
       <c r="E590" s="363"/>
       <c r="F590" s="363"/>
@@ -31560,7 +31560,7 @@
       <c r="B607" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C607" s="638"/>
+      <c r="C607" s="642"/>
       <c r="D607" s="363"/>
       <c r="E607" s="363"/>
       <c r="F607" s="363"/>
@@ -31756,7 +31756,7 @@
       <c r="B623" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C623" s="639"/>
+      <c r="C623" s="638"/>
       <c r="D623" s="590"/>
       <c r="E623" s="363"/>
       <c r="F623" s="363"/>
@@ -31971,7 +31971,7 @@
       <c r="B640" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C640" s="638"/>
+      <c r="C640" s="642"/>
       <c r="D640" s="363"/>
       <c r="E640" s="363"/>
       <c r="F640" s="363"/>
@@ -32154,7 +32154,7 @@
       <c r="B655" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C655" s="639"/>
+      <c r="C655" s="638"/>
       <c r="D655" s="363"/>
       <c r="E655" s="363"/>
       <c r="F655" s="363"/>
@@ -32360,10 +32360,10 @@
     </row>
     <row r="672" spans="1:11" ht="14.35">
       <c r="A672" s="363"/>
-      <c r="B672" s="640" t="s">
+      <c r="B672" s="643" t="s">
         <v>34</v>
       </c>
-      <c r="C672" s="641"/>
+      <c r="C672" s="644"/>
       <c r="D672" s="363"/>
       <c r="E672" s="363"/>
       <c r="F672" s="363"/>
@@ -32551,10 +32551,10 @@
     </row>
     <row r="687" spans="1:11" ht="14.35">
       <c r="A687" s="363"/>
-      <c r="B687" s="640" t="s">
+      <c r="B687" s="643" t="s">
         <v>34</v>
       </c>
-      <c r="C687" s="641"/>
+      <c r="C687" s="644"/>
       <c r="D687" s="363"/>
       <c r="E687" s="363"/>
       <c r="F687" s="363"/>
@@ -32831,7 +32831,7 @@
       <c r="B710" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C710" s="638"/>
+      <c r="C710" s="642"/>
       <c r="D710" s="363"/>
       <c r="E710" s="363"/>
       <c r="F710" s="363"/>
@@ -33033,7 +33033,7 @@
       <c r="B726" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C726" s="638"/>
+      <c r="C726" s="642"/>
       <c r="D726" s="363"/>
       <c r="E726" s="363"/>
       <c r="F726" s="363"/>
@@ -33264,7 +33264,7 @@
       <c r="B745" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C745" s="638"/>
+      <c r="C745" s="642"/>
       <c r="D745" s="363"/>
       <c r="E745" s="363"/>
       <c r="F745" s="363"/>
@@ -33553,7 +33553,7 @@
       <c r="B768" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C768" s="639"/>
+      <c r="C768" s="638"/>
       <c r="D768" s="363"/>
       <c r="E768" s="363"/>
       <c r="F768" s="363"/>
@@ -33835,7 +33835,7 @@
       <c r="B790" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C790" s="639"/>
+      <c r="C790" s="638"/>
       <c r="D790" s="363"/>
       <c r="E790" s="363"/>
       <c r="F790" s="363"/>
@@ -34146,7 +34146,7 @@
       <c r="B815" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C815" s="639"/>
+      <c r="C815" s="638"/>
       <c r="D815" s="605"/>
       <c r="E815" s="363"/>
       <c r="F815" s="363"/>
@@ -34454,7 +34454,7 @@
       <c r="B840" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C840" s="639"/>
+      <c r="C840" s="638"/>
       <c r="D840" s="363"/>
       <c r="E840" s="363"/>
       <c r="F840" s="363"/>
@@ -34763,7 +34763,7 @@
       <c r="B866" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C866" s="639"/>
+      <c r="C866" s="638"/>
       <c r="D866" s="363"/>
       <c r="E866" s="363"/>
       <c r="F866" s="363"/>
@@ -34996,7 +34996,7 @@
       <c r="B886" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C886" s="639"/>
+      <c r="C886" s="638"/>
       <c r="D886" s="363"/>
       <c r="E886" s="363"/>
       <c r="F886" s="363"/>
@@ -35276,7 +35276,7 @@
       <c r="B908" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C908" s="639"/>
+      <c r="C908" s="638"/>
       <c r="D908" s="363"/>
       <c r="E908" s="363"/>
       <c r="F908" s="363"/>
@@ -35523,7 +35523,7 @@
       <c r="B927" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C927" s="639"/>
+      <c r="C927" s="638"/>
       <c r="D927" s="363"/>
       <c r="E927" s="363"/>
       <c r="F927" s="363"/>
@@ -35766,7 +35766,7 @@
       <c r="B946" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C946" s="639"/>
+      <c r="C946" s="638"/>
       <c r="D946" s="363"/>
       <c r="E946" s="363"/>
       <c r="F946" s="363"/>
@@ -35910,7 +35910,7 @@
       <c r="B960" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C960" s="639"/>
+      <c r="C960" s="638"/>
       <c r="F960" s="363"/>
       <c r="G960" s="363"/>
       <c r="H960" s="488"/>
@@ -36160,7 +36160,7 @@
       <c r="B980" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C980" s="638"/>
+      <c r="C980" s="642"/>
       <c r="D980" s="363"/>
       <c r="E980" s="363"/>
       <c r="F980" s="363"/>
@@ -36365,7 +36365,7 @@
       <c r="B997" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C997" s="639"/>
+      <c r="C997" s="638"/>
       <c r="D997" s="363"/>
       <c r="E997" s="363"/>
       <c r="F997" s="363"/>
@@ -36611,7 +36611,7 @@
       <c r="B1017" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1017" s="638"/>
+      <c r="C1017" s="642"/>
       <c r="D1017" s="363"/>
       <c r="E1017" s="363"/>
       <c r="F1017" s="363"/>
@@ -36875,7 +36875,7 @@
       <c r="B1039" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1039" s="638"/>
+      <c r="C1039" s="642"/>
       <c r="D1039" s="363"/>
       <c r="E1039" s="363"/>
       <c r="F1039" s="363"/>
@@ -37174,7 +37174,7 @@
       <c r="B1062" s="637" t="s">
         <v>34</v>
       </c>
-      <c r="C1062" s="638"/>
+      <c r="C1062" s="642"/>
       <c r="D1062" s="363"/>
       <c r="E1062" s="363"/>
       <c r="F1062" s="363"/>
@@ -37198,21 +37198,30 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="B590:C590"/>
-    <mergeCell ref="B710:C710"/>
-    <mergeCell ref="B726:C726"/>
-    <mergeCell ref="B745:C745"/>
-    <mergeCell ref="B768:C768"/>
-    <mergeCell ref="B790:C790"/>
-    <mergeCell ref="B815:C815"/>
-    <mergeCell ref="B840:C840"/>
-    <mergeCell ref="B866:C866"/>
-    <mergeCell ref="B886:C886"/>
-    <mergeCell ref="B908:C908"/>
-    <mergeCell ref="B927:C927"/>
-    <mergeCell ref="B946:C946"/>
-    <mergeCell ref="B960:C960"/>
-    <mergeCell ref="B980:C980"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="B333:C333"/>
+    <mergeCell ref="B351:C351"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B311:C311"/>
+    <mergeCell ref="D36:D41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="D305:D309"/>
+    <mergeCell ref="B223:C223"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="D249:D253"/>
+    <mergeCell ref="B255:C255"/>
+    <mergeCell ref="D285:D289"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="B207:C207"/>
     <mergeCell ref="B997:C997"/>
     <mergeCell ref="B1017:C1017"/>
     <mergeCell ref="B1039:C1039"/>
@@ -37229,30 +37238,21 @@
     <mergeCell ref="B655:C655"/>
     <mergeCell ref="B672:C672"/>
     <mergeCell ref="B687:C687"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="D305:D309"/>
-    <mergeCell ref="B223:C223"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="D249:D253"/>
-    <mergeCell ref="B255:C255"/>
-    <mergeCell ref="D285:D289"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="B189:C189"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="B333:C333"/>
-    <mergeCell ref="B351:C351"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B311:C311"/>
-    <mergeCell ref="D36:D41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B908:C908"/>
+    <mergeCell ref="B927:C927"/>
+    <mergeCell ref="B946:C946"/>
+    <mergeCell ref="B960:C960"/>
+    <mergeCell ref="B980:C980"/>
+    <mergeCell ref="B790:C790"/>
+    <mergeCell ref="B815:C815"/>
+    <mergeCell ref="B840:C840"/>
+    <mergeCell ref="B866:C866"/>
+    <mergeCell ref="B886:C886"/>
+    <mergeCell ref="B590:C590"/>
+    <mergeCell ref="B710:C710"/>
+    <mergeCell ref="B726:C726"/>
+    <mergeCell ref="B745:C745"/>
+    <mergeCell ref="B768:C768"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37594,10 +37594,10 @@
     </row>
     <row r="20" spans="1:11" ht="14.35">
       <c r="A20" s="2"/>
-      <c r="B20" s="647" t="s">
+      <c r="B20" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="650"/>
+      <c r="C20" s="659"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -37770,7 +37770,7 @@
         <v>29</v>
       </c>
       <c r="C36" s="14"/>
-      <c r="D36" s="661"/>
+      <c r="D36" s="660"/>
       <c r="E36" s="26"/>
       <c r="K36" s="10"/>
     </row>
@@ -37780,7 +37780,7 @@
         <v>45</v>
       </c>
       <c r="C37" s="11"/>
-      <c r="D37" s="662"/>
+      <c r="D37" s="661"/>
       <c r="E37" s="26"/>
       <c r="K37" s="10"/>
     </row>
@@ -37790,7 +37790,7 @@
         <v>30</v>
       </c>
       <c r="C38" s="11"/>
-      <c r="D38" s="662"/>
+      <c r="D38" s="661"/>
       <c r="E38" s="28"/>
       <c r="K38" s="10"/>
     </row>
@@ -37800,7 +37800,7 @@
         <v>31</v>
       </c>
       <c r="C39" s="11"/>
-      <c r="D39" s="662"/>
+      <c r="D39" s="661"/>
       <c r="E39" s="28"/>
       <c r="K39" s="10"/>
     </row>
@@ -37810,7 +37810,7 @@
         <v>32</v>
       </c>
       <c r="C40" s="11"/>
-      <c r="D40" s="662"/>
+      <c r="D40" s="661"/>
       <c r="E40" s="28"/>
       <c r="K40" s="10"/>
     </row>
@@ -37820,16 +37820,16 @@
         <v>876</v>
       </c>
       <c r="C41" s="11"/>
-      <c r="D41" s="662"/>
+      <c r="D41" s="661"/>
       <c r="E41" s="28"/>
       <c r="K41" s="10"/>
     </row>
     <row r="42" spans="1:11" ht="14.35">
       <c r="A42" s="2"/>
-      <c r="B42" s="647" t="s">
+      <c r="B42" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="650"/>
+      <c r="C42" s="659"/>
       <c r="D42" s="28"/>
       <c r="E42" s="28"/>
       <c r="K42" s="10"/>
@@ -38068,10 +38068,10 @@
     </row>
     <row r="61" spans="1:11" ht="14.35">
       <c r="A61" s="2"/>
-      <c r="B61" s="647" t="s">
+      <c r="B61" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C61" s="650"/>
+      <c r="C61" s="659"/>
       <c r="D61" s="8"/>
       <c r="E61" s="23"/>
       <c r="F61" s="2"/>
@@ -38255,10 +38255,10 @@
       <c r="D75" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="E75" s="671" t="s">
+      <c r="E75" s="662" t="s">
         <v>59</v>
       </c>
-      <c r="F75" s="652"/>
+      <c r="F75" s="647"/>
       <c r="G75" s="44"/>
       <c r="H75" s="8"/>
       <c r="K75" s="10"/>
@@ -38356,7 +38356,7 @@
         <v>65</v>
       </c>
       <c r="C81" s="11"/>
-      <c r="D81" s="661"/>
+      <c r="D81" s="660"/>
       <c r="E81" s="49">
         <v>1</v>
       </c>
@@ -38373,7 +38373,7 @@
         <v>30</v>
       </c>
       <c r="C82" s="11"/>
-      <c r="D82" s="662"/>
+      <c r="D82" s="661"/>
       <c r="E82" s="29" t="s">
         <v>66</v>
       </c>
@@ -38388,7 +38388,7 @@
         <v>31</v>
       </c>
       <c r="C83" s="11"/>
-      <c r="D83" s="662"/>
+      <c r="D83" s="661"/>
       <c r="E83" s="29" t="s">
         <v>67</v>
       </c>
@@ -38403,7 +38403,7 @@
         <v>68</v>
       </c>
       <c r="C84" s="24"/>
-      <c r="D84" s="662"/>
+      <c r="D84" s="661"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
@@ -38412,10 +38412,10 @@
     </row>
     <row r="85" spans="1:11" ht="14.35">
       <c r="A85" s="2"/>
-      <c r="B85" s="647" t="s">
+      <c r="B85" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C85" s="650"/>
+      <c r="C85" s="659"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
@@ -38520,8 +38520,8 @@
       <c r="D94" s="37"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
-      <c r="G94" s="666"/>
-      <c r="H94" s="667"/>
+      <c r="G94" s="663"/>
+      <c r="H94" s="664"/>
       <c r="K94" s="10"/>
     </row>
     <row r="95" spans="1:11" ht="14.35">
@@ -38545,10 +38545,10 @@
       <c r="C96" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="D96" s="668" t="s">
+      <c r="D96" s="665" t="s">
         <v>59</v>
       </c>
-      <c r="E96" s="652"/>
+      <c r="E96" s="647"/>
       <c r="F96" s="2"/>
       <c r="G96" s="54"/>
       <c r="H96" s="12"/>
@@ -38694,10 +38694,10 @@
     </row>
     <row r="106" spans="1:11" ht="14.35">
       <c r="A106" s="2"/>
-      <c r="B106" s="669" t="s">
+      <c r="B106" s="666" t="s">
         <v>34</v>
       </c>
-      <c r="C106" s="670"/>
+      <c r="C106" s="667"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
@@ -38816,7 +38816,7 @@
         <v>80</v>
       </c>
       <c r="D116" s="23"/>
-      <c r="E116" s="665" t="s">
+      <c r="E116" s="668" t="s">
         <v>59</v>
       </c>
       <c r="F116" s="633"/>
@@ -39023,10 +39023,10 @@
     </row>
     <row r="130" spans="1:11" ht="14.35">
       <c r="A130" s="2"/>
-      <c r="B130" s="647" t="s">
+      <c r="B130" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C130" s="648"/>
+      <c r="C130" s="657"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
@@ -39313,10 +39313,10 @@
     </row>
     <row r="156" spans="1:11" ht="14.35">
       <c r="A156" s="2"/>
-      <c r="B156" s="647" t="s">
+      <c r="B156" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C156" s="648"/>
+      <c r="C156" s="657"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
       <c r="H156" s="10"/>
@@ -39511,10 +39511,10 @@
     </row>
     <row r="174" spans="1:11" ht="14.35">
       <c r="A174" s="2"/>
-      <c r="B174" s="647" t="s">
+      <c r="B174" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C174" s="650"/>
+      <c r="C174" s="659"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
@@ -39742,10 +39742,10 @@
     </row>
     <row r="192" spans="1:11" ht="14.35">
       <c r="A192" s="2"/>
-      <c r="B192" s="647" t="s">
+      <c r="B192" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C192" s="650"/>
+      <c r="C192" s="659"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
@@ -40073,10 +40073,10 @@
     </row>
     <row r="217" spans="1:11" ht="14.35">
       <c r="A217" s="2"/>
-      <c r="B217" s="647" t="s">
+      <c r="B217" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C217" s="648"/>
+      <c r="C217" s="657"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
@@ -40382,10 +40382,10 @@
     </row>
     <row r="242" spans="1:11" ht="14.35">
       <c r="A242" s="2"/>
-      <c r="B242" s="647" t="s">
+      <c r="B242" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C242" s="648"/>
+      <c r="C242" s="657"/>
       <c r="D242" s="2"/>
       <c r="F242" s="2"/>
       <c r="G242" s="2"/>
@@ -40748,7 +40748,7 @@
         <v>143</v>
       </c>
       <c r="C268" s="11"/>
-      <c r="D268" s="663"/>
+      <c r="D268" s="669"/>
       <c r="E268" s="2"/>
       <c r="F268" s="2"/>
       <c r="G268" s="2"/>
@@ -40761,7 +40761,7 @@
         <v>144</v>
       </c>
       <c r="C269" s="11"/>
-      <c r="D269" s="664"/>
+      <c r="D269" s="670"/>
       <c r="E269" s="2"/>
       <c r="F269" s="2"/>
       <c r="G269" s="2"/>
@@ -40774,7 +40774,7 @@
         <v>30</v>
       </c>
       <c r="C270" s="11"/>
-      <c r="D270" s="664"/>
+      <c r="D270" s="670"/>
       <c r="E270" s="2"/>
       <c r="F270" s="2"/>
       <c r="G270" s="2"/>
@@ -40787,7 +40787,7 @@
         <v>31</v>
       </c>
       <c r="C271" s="11"/>
-      <c r="D271" s="664"/>
+      <c r="D271" s="670"/>
       <c r="E271" s="2"/>
       <c r="F271" s="2"/>
       <c r="G271" s="2"/>
@@ -40800,7 +40800,7 @@
         <v>145</v>
       </c>
       <c r="C272" s="11"/>
-      <c r="D272" s="664"/>
+      <c r="D272" s="670"/>
       <c r="E272" s="2"/>
       <c r="F272" s="2"/>
       <c r="G272" s="2"/>
@@ -40822,10 +40822,10 @@
     </row>
     <row r="274" spans="1:11" ht="14.35">
       <c r="A274" s="2"/>
-      <c r="B274" s="647" t="s">
+      <c r="B274" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C274" s="650"/>
+      <c r="C274" s="659"/>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
       <c r="F274" s="2"/>
@@ -41249,7 +41249,7 @@
         <v>143</v>
       </c>
       <c r="C304" s="11"/>
-      <c r="D304" s="661"/>
+      <c r="D304" s="660"/>
       <c r="E304" s="84"/>
       <c r="F304" s="85"/>
       <c r="G304" s="2"/>
@@ -41262,7 +41262,7 @@
         <v>144</v>
       </c>
       <c r="C305" s="11"/>
-      <c r="D305" s="662"/>
+      <c r="D305" s="661"/>
       <c r="E305" s="84"/>
       <c r="F305" s="85"/>
       <c r="G305" s="2"/>
@@ -41275,7 +41275,7 @@
         <v>30</v>
       </c>
       <c r="C306" s="11"/>
-      <c r="D306" s="662"/>
+      <c r="D306" s="661"/>
       <c r="E306" s="84"/>
       <c r="F306" s="85"/>
       <c r="G306" s="2"/>
@@ -41288,7 +41288,7 @@
         <v>31</v>
       </c>
       <c r="C307" s="11"/>
-      <c r="D307" s="662"/>
+      <c r="D307" s="661"/>
       <c r="E307" s="84"/>
       <c r="F307" s="85"/>
       <c r="G307" s="2"/>
@@ -41301,7 +41301,7 @@
         <v>145</v>
       </c>
       <c r="C308" s="11"/>
-      <c r="D308" s="662"/>
+      <c r="D308" s="661"/>
       <c r="E308" s="84"/>
       <c r="F308" s="85"/>
       <c r="G308" s="2"/>
@@ -41323,10 +41323,10 @@
     </row>
     <row r="310" spans="1:11" ht="14.35">
       <c r="A310" s="2"/>
-      <c r="B310" s="647" t="s">
+      <c r="B310" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C310" s="650"/>
+      <c r="C310" s="659"/>
       <c r="D310" s="28"/>
       <c r="E310" s="2"/>
       <c r="F310" s="2"/>
@@ -41497,7 +41497,7 @@
         <v>64</v>
       </c>
       <c r="C324" s="11"/>
-      <c r="D324" s="661"/>
+      <c r="D324" s="660"/>
       <c r="F324" s="2"/>
       <c r="G324" s="2"/>
       <c r="H324" s="8"/>
@@ -41509,7 +41509,7 @@
         <v>65</v>
       </c>
       <c r="C325" s="11"/>
-      <c r="D325" s="662"/>
+      <c r="D325" s="661"/>
       <c r="F325" s="2"/>
       <c r="G325" s="2"/>
       <c r="H325" s="8"/>
@@ -41521,7 +41521,7 @@
         <v>30</v>
       </c>
       <c r="C326" s="11"/>
-      <c r="D326" s="662"/>
+      <c r="D326" s="661"/>
       <c r="F326" s="2"/>
       <c r="G326" s="2"/>
       <c r="H326" s="8"/>
@@ -41533,7 +41533,7 @@
         <v>31</v>
       </c>
       <c r="C327" s="11"/>
-      <c r="D327" s="662"/>
+      <c r="D327" s="661"/>
       <c r="F327" s="2"/>
       <c r="G327" s="2"/>
       <c r="H327" s="8"/>
@@ -41545,7 +41545,7 @@
         <v>68</v>
       </c>
       <c r="C328" s="11"/>
-      <c r="D328" s="662"/>
+      <c r="D328" s="661"/>
       <c r="F328" s="2"/>
       <c r="G328" s="2"/>
       <c r="H328" s="8"/>
@@ -41565,10 +41565,10 @@
     </row>
     <row r="330" spans="1:11" ht="14.35">
       <c r="A330" s="2"/>
-      <c r="B330" s="647" t="s">
+      <c r="B330" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C330" s="650"/>
+      <c r="C330" s="659"/>
       <c r="D330" s="28"/>
       <c r="F330" s="2"/>
       <c r="G330" s="2"/>
@@ -41827,10 +41827,10 @@
     </row>
     <row r="352" spans="1:11" ht="14.35">
       <c r="A352" s="2"/>
-      <c r="B352" s="647" t="s">
+      <c r="B352" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C352" s="648"/>
+      <c r="C352" s="657"/>
       <c r="D352" s="2"/>
       <c r="F352" s="2"/>
       <c r="G352" s="2"/>
@@ -42034,10 +42034,10 @@
     </row>
     <row r="370" spans="1:11" ht="14.35">
       <c r="A370" s="2"/>
-      <c r="B370" s="647" t="s">
+      <c r="B370" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C370" s="648"/>
+      <c r="C370" s="657"/>
       <c r="F370" s="2"/>
       <c r="G370" s="2"/>
       <c r="H370" s="8"/>
@@ -42517,10 +42517,10 @@
     </row>
     <row r="405" spans="1:11" ht="14.7">
       <c r="A405" s="2"/>
-      <c r="B405" s="659" t="s">
+      <c r="B405" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C405" s="641"/>
+      <c r="C405" s="644"/>
       <c r="D405" s="97"/>
       <c r="F405" s="2"/>
       <c r="G405" s="2"/>
@@ -43033,10 +43033,10 @@
     </row>
     <row r="440" spans="1:11" ht="14.7">
       <c r="A440" s="2"/>
-      <c r="B440" s="659" t="s">
+      <c r="B440" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C440" s="641"/>
+      <c r="C440" s="644"/>
       <c r="D440" s="97"/>
       <c r="E440" s="97"/>
       <c r="F440" s="2"/>
@@ -43512,10 +43512,10 @@
     </row>
     <row r="473" spans="1:11" ht="14.7">
       <c r="A473" s="2"/>
-      <c r="B473" s="659" t="s">
+      <c r="B473" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C473" s="641"/>
+      <c r="C473" s="644"/>
       <c r="D473" s="97"/>
       <c r="E473" s="97"/>
       <c r="F473" s="97"/>
@@ -43987,10 +43987,10 @@
     </row>
     <row r="506" spans="1:11" ht="14.7">
       <c r="A506" s="2"/>
-      <c r="B506" s="659" t="s">
+      <c r="B506" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C506" s="641"/>
+      <c r="C506" s="644"/>
       <c r="D506" s="97"/>
       <c r="E506" s="97"/>
       <c r="F506" s="97"/>
@@ -44861,10 +44861,10 @@
     </row>
     <row r="559" spans="1:11" ht="14.7">
       <c r="A559" s="2"/>
-      <c r="B559" s="659" t="s">
+      <c r="B559" s="645" t="s">
         <v>34</v>
       </c>
-      <c r="C559" s="641"/>
+      <c r="C559" s="644"/>
       <c r="D559" s="97"/>
       <c r="E559" s="97"/>
       <c r="F559" s="97"/>
@@ -45288,10 +45288,10 @@
     </row>
     <row r="597" spans="1:11" ht="14.35">
       <c r="A597" s="2"/>
-      <c r="B597" s="647" t="s">
+      <c r="B597" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C597" s="648"/>
+      <c r="C597" s="657"/>
       <c r="D597" s="2"/>
       <c r="E597" s="2"/>
       <c r="F597" s="2"/>
@@ -45533,10 +45533,10 @@
     </row>
     <row r="616" spans="1:11" ht="14.35">
       <c r="A616" s="2"/>
-      <c r="B616" s="647" t="s">
+      <c r="B616" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C616" s="648"/>
+      <c r="C616" s="657"/>
       <c r="D616" s="2"/>
       <c r="E616" s="2"/>
       <c r="F616" s="2"/>
@@ -45774,10 +45774,10 @@
     </row>
     <row r="635" spans="1:11" ht="14.35">
       <c r="A635" s="2"/>
-      <c r="B635" s="647" t="s">
+      <c r="B635" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C635" s="650"/>
+      <c r="C635" s="659"/>
       <c r="D635" s="127"/>
       <c r="E635" s="2"/>
       <c r="F635" s="2"/>
@@ -46034,10 +46034,10 @@
     </row>
     <row r="655" spans="1:11" ht="14.35">
       <c r="A655" s="2"/>
-      <c r="B655" s="647" t="s">
+      <c r="B655" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C655" s="648"/>
+      <c r="C655" s="657"/>
       <c r="D655" s="2"/>
       <c r="E655" s="2"/>
       <c r="F655" s="2"/>
@@ -46262,10 +46262,10 @@
     </row>
     <row r="673" spans="1:11" ht="14.35">
       <c r="A673" s="2"/>
-      <c r="B673" s="647" t="s">
+      <c r="B673" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C673" s="650"/>
+      <c r="C673" s="659"/>
       <c r="D673" s="2"/>
       <c r="E673" s="2"/>
       <c r="F673" s="2"/>
@@ -46501,10 +46501,10 @@
     </row>
     <row r="692" spans="1:11" ht="14.35">
       <c r="A692" s="2"/>
-      <c r="B692" s="660" t="s">
+      <c r="B692" s="671" t="s">
         <v>34</v>
       </c>
-      <c r="C692" s="641"/>
+      <c r="C692" s="644"/>
       <c r="D692" s="2"/>
       <c r="E692" s="2"/>
       <c r="F692" s="2"/>
@@ -46737,10 +46737,10 @@
     </row>
     <row r="710" spans="1:11" ht="14.35">
       <c r="A710" s="2"/>
-      <c r="B710" s="660" t="s">
+      <c r="B710" s="671" t="s">
         <v>34</v>
       </c>
-      <c r="C710" s="641"/>
+      <c r="C710" s="644"/>
       <c r="D710" s="2"/>
       <c r="E710" s="2"/>
       <c r="F710" s="2"/>
@@ -47059,10 +47059,10 @@
     </row>
     <row r="736" spans="1:11" ht="14.35">
       <c r="A736" s="2"/>
-      <c r="B736" s="647" t="s">
+      <c r="B736" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C736" s="648"/>
+      <c r="C736" s="657"/>
       <c r="D736" s="2"/>
       <c r="E736" s="2"/>
       <c r="F736" s="2"/>
@@ -47325,10 +47325,10 @@
     </row>
     <row r="756" spans="1:11" ht="14.35">
       <c r="A756" s="2"/>
-      <c r="B756" s="647" t="s">
+      <c r="B756" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C756" s="648"/>
+      <c r="C756" s="657"/>
       <c r="D756" s="2"/>
       <c r="E756" s="2"/>
       <c r="F756" s="2"/>
@@ -47616,10 +47616,10 @@
     </row>
     <row r="779" spans="1:11" ht="14.35">
       <c r="A779" s="2"/>
-      <c r="B779" s="647" t="s">
+      <c r="B779" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C779" s="648"/>
+      <c r="C779" s="657"/>
       <c r="D779" s="2"/>
       <c r="E779" s="2"/>
       <c r="F779" s="2"/>
@@ -47905,10 +47905,10 @@
     </row>
     <row r="802" spans="1:11" ht="14.35">
       <c r="A802" s="2"/>
-      <c r="B802" s="647" t="s">
+      <c r="B802" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C802" s="650"/>
+      <c r="C802" s="659"/>
       <c r="D802" s="2"/>
       <c r="E802" s="2"/>
       <c r="F802" s="2"/>
@@ -48187,10 +48187,10 @@
     </row>
     <row r="824" spans="1:11" ht="14.35">
       <c r="A824" s="2"/>
-      <c r="B824" s="647" t="s">
+      <c r="B824" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C824" s="650"/>
+      <c r="C824" s="659"/>
       <c r="D824" s="2"/>
       <c r="E824" s="2"/>
       <c r="F824" s="2"/>
@@ -48498,10 +48498,10 @@
     </row>
     <row r="849" spans="1:11" ht="14.35">
       <c r="A849" s="2"/>
-      <c r="B849" s="647" t="s">
+      <c r="B849" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C849" s="650"/>
+      <c r="C849" s="659"/>
       <c r="D849" s="149"/>
       <c r="E849" s="2"/>
       <c r="F849" s="2"/>
@@ -48806,10 +48806,10 @@
       <c r="K873" s="10"/>
     </row>
     <row r="874" spans="2:11" ht="14.35">
-      <c r="B874" s="647" t="s">
+      <c r="B874" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C874" s="650"/>
+      <c r="C874" s="659"/>
       <c r="D874" s="2"/>
       <c r="E874" s="2"/>
       <c r="F874" s="2"/>
@@ -49115,10 +49115,10 @@
       <c r="K899" s="10"/>
     </row>
     <row r="900" spans="1:11" ht="14.35">
-      <c r="B900" s="647" t="s">
+      <c r="B900" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C900" s="650"/>
+      <c r="C900" s="659"/>
       <c r="D900" s="2"/>
       <c r="E900" s="2"/>
       <c r="F900" s="2"/>
@@ -49348,10 +49348,10 @@
     </row>
     <row r="920" spans="1:11" ht="14.35">
       <c r="A920" s="2"/>
-      <c r="B920" s="647" t="s">
+      <c r="B920" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C920" s="650"/>
+      <c r="C920" s="659"/>
       <c r="D920" s="2"/>
       <c r="E920" s="2"/>
       <c r="F920" s="2"/>
@@ -49628,10 +49628,10 @@
     </row>
     <row r="942" spans="1:11" ht="14.35">
       <c r="A942" s="2"/>
-      <c r="B942" s="647" t="s">
+      <c r="B942" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C942" s="650"/>
+      <c r="C942" s="659"/>
       <c r="D942" s="2"/>
       <c r="E942" s="2"/>
       <c r="F942" s="2"/>
@@ -49875,10 +49875,10 @@
     </row>
     <row r="961" spans="1:11" ht="14.35">
       <c r="A961" s="2"/>
-      <c r="B961" s="647" t="s">
+      <c r="B961" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C961" s="650"/>
+      <c r="C961" s="659"/>
       <c r="D961" s="2"/>
       <c r="E961" s="2"/>
       <c r="F961" s="2"/>
@@ -50118,10 +50118,10 @@
     </row>
     <row r="980" spans="1:11" ht="14.35">
       <c r="A980" s="2"/>
-      <c r="B980" s="647" t="s">
+      <c r="B980" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C980" s="650"/>
+      <c r="C980" s="659"/>
       <c r="D980" s="2"/>
       <c r="E980" s="2"/>
       <c r="F980" s="2"/>
@@ -50262,10 +50262,10 @@
     </row>
     <row r="994" spans="1:11" ht="14.35">
       <c r="A994" s="2"/>
-      <c r="B994" s="647" t="s">
+      <c r="B994" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C994" s="650"/>
+      <c r="C994" s="659"/>
       <c r="F994" s="2"/>
       <c r="G994" s="2"/>
       <c r="H994" s="8"/>
@@ -50512,10 +50512,10 @@
     </row>
     <row r="1014" spans="1:11" ht="14.35">
       <c r="A1014" s="2"/>
-      <c r="B1014" s="647" t="s">
+      <c r="B1014" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C1014" s="648"/>
+      <c r="C1014" s="657"/>
       <c r="D1014" s="2"/>
       <c r="E1014" s="2"/>
       <c r="F1014" s="2"/>
@@ -50717,10 +50717,10 @@
     </row>
     <row r="1031" spans="1:11" ht="14.35">
       <c r="A1031" s="2"/>
-      <c r="B1031" s="647" t="s">
+      <c r="B1031" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C1031" s="650"/>
+      <c r="C1031" s="659"/>
       <c r="D1031" s="2"/>
       <c r="E1031" s="2"/>
       <c r="F1031" s="2"/>
@@ -50963,10 +50963,10 @@
       <c r="K1050" s="10"/>
     </row>
     <row r="1051" spans="2:11" ht="14.35">
-      <c r="B1051" s="647" t="s">
+      <c r="B1051" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C1051" s="648"/>
+      <c r="C1051" s="657"/>
       <c r="D1051" s="2"/>
       <c r="E1051" s="2"/>
       <c r="F1051" s="2"/>
@@ -51227,10 +51227,10 @@
     </row>
     <row r="1073" spans="1:11" ht="14.35">
       <c r="A1073" s="2"/>
-      <c r="B1073" s="647" t="s">
+      <c r="B1073" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C1073" s="648"/>
+      <c r="C1073" s="657"/>
       <c r="D1073" s="2"/>
       <c r="E1073" s="2"/>
       <c r="F1073" s="2"/>
@@ -51526,10 +51526,10 @@
     </row>
     <row r="1096" spans="1:11" ht="14.35">
       <c r="A1096" s="2"/>
-      <c r="B1096" s="647" t="s">
+      <c r="B1096" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="C1096" s="648"/>
+      <c r="C1096" s="657"/>
       <c r="D1096" s="2"/>
       <c r="E1096" s="2"/>
       <c r="F1096" s="2"/>
@@ -51553,61 +51553,61 @@
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="B1014:C1014"/>
+    <mergeCell ref="B1031:C1031"/>
+    <mergeCell ref="B1051:C1051"/>
+    <mergeCell ref="B1073:C1073"/>
+    <mergeCell ref="B1096:C1096"/>
+    <mergeCell ref="B920:C920"/>
+    <mergeCell ref="B942:C942"/>
+    <mergeCell ref="B961:C961"/>
+    <mergeCell ref="B980:C980"/>
+    <mergeCell ref="B994:C994"/>
+    <mergeCell ref="B802:C802"/>
+    <mergeCell ref="B824:C824"/>
+    <mergeCell ref="B849:C849"/>
+    <mergeCell ref="B874:C874"/>
+    <mergeCell ref="B900:C900"/>
+    <mergeCell ref="B692:C692"/>
+    <mergeCell ref="B710:C710"/>
+    <mergeCell ref="B736:C736"/>
+    <mergeCell ref="B756:C756"/>
+    <mergeCell ref="B779:C779"/>
+    <mergeCell ref="B597:C597"/>
+    <mergeCell ref="B616:C616"/>
+    <mergeCell ref="B635:C635"/>
+    <mergeCell ref="B655:C655"/>
+    <mergeCell ref="B673:C673"/>
+    <mergeCell ref="B405:C405"/>
+    <mergeCell ref="B440:C440"/>
+    <mergeCell ref="B473:C473"/>
+    <mergeCell ref="B506:C506"/>
+    <mergeCell ref="B559:C559"/>
+    <mergeCell ref="B310:C310"/>
+    <mergeCell ref="D324:D328"/>
+    <mergeCell ref="B330:C330"/>
+    <mergeCell ref="B352:C352"/>
+    <mergeCell ref="B370:C370"/>
+    <mergeCell ref="B217:C217"/>
+    <mergeCell ref="B242:C242"/>
+    <mergeCell ref="D268:D272"/>
+    <mergeCell ref="B274:C274"/>
+    <mergeCell ref="D304:D308"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="B106:C106"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D36:D41"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B61:C61"/>
     <mergeCell ref="E75:F75"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="B217:C217"/>
-    <mergeCell ref="B242:C242"/>
-    <mergeCell ref="D268:D272"/>
-    <mergeCell ref="B274:C274"/>
-    <mergeCell ref="D304:D308"/>
-    <mergeCell ref="B310:C310"/>
-    <mergeCell ref="D324:D328"/>
-    <mergeCell ref="B330:C330"/>
-    <mergeCell ref="B352:C352"/>
-    <mergeCell ref="B370:C370"/>
-    <mergeCell ref="B405:C405"/>
-    <mergeCell ref="B440:C440"/>
-    <mergeCell ref="B473:C473"/>
-    <mergeCell ref="B506:C506"/>
-    <mergeCell ref="B559:C559"/>
-    <mergeCell ref="B597:C597"/>
-    <mergeCell ref="B616:C616"/>
-    <mergeCell ref="B635:C635"/>
-    <mergeCell ref="B655:C655"/>
-    <mergeCell ref="B673:C673"/>
-    <mergeCell ref="B692:C692"/>
-    <mergeCell ref="B710:C710"/>
-    <mergeCell ref="B736:C736"/>
-    <mergeCell ref="B756:C756"/>
-    <mergeCell ref="B779:C779"/>
-    <mergeCell ref="B802:C802"/>
-    <mergeCell ref="B824:C824"/>
-    <mergeCell ref="B849:C849"/>
-    <mergeCell ref="B874:C874"/>
-    <mergeCell ref="B900:C900"/>
-    <mergeCell ref="B920:C920"/>
-    <mergeCell ref="B942:C942"/>
-    <mergeCell ref="B961:C961"/>
-    <mergeCell ref="B980:C980"/>
-    <mergeCell ref="B994:C994"/>
-    <mergeCell ref="B1014:C1014"/>
-    <mergeCell ref="B1031:C1031"/>
-    <mergeCell ref="B1051:C1051"/>
-    <mergeCell ref="B1073:C1073"/>
-    <mergeCell ref="B1096:C1096"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -51677,10 +51677,10 @@
       <c r="D2" s="246" t="s">
         <v>508</v>
       </c>
-      <c r="E2" s="682" t="s">
+      <c r="E2" s="698" t="s">
         <v>509</v>
       </c>
-      <c r="F2" s="683"/>
+      <c r="F2" s="699"/>
       <c r="G2" s="252" t="s">
         <v>510</v>
       </c>
@@ -51713,71 +51713,71 @@
       <c r="A3" s="253">
         <v>1</v>
       </c>
-      <c r="B3" s="694" t="s">
+      <c r="B3" s="681" t="s">
         <v>456</v>
       </c>
-      <c r="C3" s="695"/>
-      <c r="D3" s="695"/>
-      <c r="E3" s="695"/>
-      <c r="F3" s="695"/>
-      <c r="G3" s="695"/>
-      <c r="H3" s="695"/>
-      <c r="I3" s="695"/>
-      <c r="J3" s="695"/>
-      <c r="K3" s="688" t="s">
+      <c r="C3" s="682"/>
+      <c r="D3" s="682"/>
+      <c r="E3" s="682"/>
+      <c r="F3" s="682"/>
+      <c r="G3" s="682"/>
+      <c r="H3" s="682"/>
+      <c r="I3" s="682"/>
+      <c r="J3" s="682"/>
+      <c r="K3" s="683" t="s">
         <v>457</v>
       </c>
-      <c r="L3" s="687"/>
-      <c r="M3" s="687"/>
-      <c r="N3" s="687"/>
-      <c r="O3" s="687"/>
-      <c r="P3" s="687"/>
-      <c r="Q3" s="687"/>
-      <c r="R3" s="687"/>
-      <c r="S3" s="687"/>
-      <c r="T3" s="687"/>
-      <c r="U3" s="687"/>
-      <c r="V3" s="687"/>
-      <c r="W3" s="687"/>
+      <c r="L3" s="684"/>
+      <c r="M3" s="684"/>
+      <c r="N3" s="684"/>
+      <c r="O3" s="684"/>
+      <c r="P3" s="684"/>
+      <c r="Q3" s="684"/>
+      <c r="R3" s="684"/>
+      <c r="S3" s="684"/>
+      <c r="T3" s="684"/>
+      <c r="U3" s="684"/>
+      <c r="V3" s="684"/>
+      <c r="W3" s="684"/>
     </row>
     <row r="4" spans="1:23" ht="14">
       <c r="A4" s="244"/>
-      <c r="B4" s="696" t="s">
+      <c r="B4" s="685" t="s">
         <v>459</v>
       </c>
-      <c r="C4" s="693"/>
-      <c r="D4" s="693"/>
+      <c r="C4" s="686"/>
+      <c r="D4" s="686"/>
       <c r="E4" s="674" t="s">
         <v>515</v>
       </c>
-      <c r="F4" s="693"/>
-      <c r="G4" s="693"/>
-      <c r="H4" s="697" t="s">
+      <c r="F4" s="686"/>
+      <c r="G4" s="686"/>
+      <c r="H4" s="687" t="s">
         <v>516</v>
       </c>
-      <c r="I4" s="698"/>
-      <c r="J4" s="698"/>
+      <c r="I4" s="688"/>
+      <c r="J4" s="688"/>
       <c r="K4" s="674" t="s">
         <v>460</v>
       </c>
-      <c r="L4" s="693"/>
-      <c r="M4" s="693"/>
+      <c r="L4" s="686"/>
+      <c r="M4" s="686"/>
       <c r="N4" s="674" t="s">
         <v>517</v>
       </c>
-      <c r="O4" s="693"/>
-      <c r="P4" s="693"/>
+      <c r="O4" s="686"/>
+      <c r="P4" s="686"/>
       <c r="Q4" s="674" t="s">
         <v>518</v>
       </c>
-      <c r="R4" s="693"/>
-      <c r="S4" s="693"/>
-      <c r="T4" s="699" t="s">
+      <c r="R4" s="686"/>
+      <c r="S4" s="686"/>
+      <c r="T4" s="689" t="s">
         <v>519</v>
       </c>
-      <c r="U4" s="700"/>
-      <c r="V4" s="700"/>
-      <c r="W4" s="700"/>
+      <c r="U4" s="690"/>
+      <c r="V4" s="690"/>
+      <c r="W4" s="690"/>
     </row>
     <row r="5" spans="1:23" ht="15.35">
       <c r="A5" s="244"/>
@@ -51835,7 +51835,7 @@
       <c r="S5" s="259" t="s">
         <v>463</v>
       </c>
-      <c r="T5" s="681" t="s">
+      <c r="T5" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U5" s="171" t="s">
@@ -51880,7 +51880,7 @@
       <c r="Q6" s="184"/>
       <c r="R6" s="183"/>
       <c r="S6" s="268"/>
-      <c r="T6" s="641"/>
+      <c r="T6" s="644"/>
       <c r="U6" s="171" t="s">
         <v>524</v>
       </c>
@@ -52327,32 +52327,32 @@
       </c>
     </row>
     <row r="23" spans="1:23" ht="14">
-      <c r="B23" s="684" t="s">
+      <c r="B23" s="695" t="s">
         <v>456</v>
       </c>
-      <c r="C23" s="641"/>
-      <c r="D23" s="641"/>
-      <c r="E23" s="641"/>
-      <c r="F23" s="641"/>
-      <c r="G23" s="641"/>
-      <c r="H23" s="641"/>
-      <c r="I23" s="641"/>
-      <c r="J23" s="641"/>
-      <c r="K23" s="685" t="s">
+      <c r="C23" s="644"/>
+      <c r="D23" s="644"/>
+      <c r="E23" s="644"/>
+      <c r="F23" s="644"/>
+      <c r="G23" s="644"/>
+      <c r="H23" s="644"/>
+      <c r="I23" s="644"/>
+      <c r="J23" s="644"/>
+      <c r="K23" s="694" t="s">
         <v>911</v>
       </c>
-      <c r="L23" s="641"/>
-      <c r="M23" s="641"/>
-      <c r="N23" s="641"/>
-      <c r="O23" s="641"/>
-      <c r="P23" s="641"/>
-      <c r="Q23" s="641"/>
-      <c r="R23" s="641"/>
-      <c r="S23" s="641"/>
-      <c r="T23" s="641"/>
-      <c r="U23" s="641"/>
-      <c r="V23" s="641"/>
-      <c r="W23" s="641"/>
+      <c r="L23" s="644"/>
+      <c r="M23" s="644"/>
+      <c r="N23" s="644"/>
+      <c r="O23" s="644"/>
+      <c r="P23" s="644"/>
+      <c r="Q23" s="644"/>
+      <c r="R23" s="644"/>
+      <c r="S23" s="644"/>
+      <c r="T23" s="644"/>
+      <c r="U23" s="644"/>
+      <c r="V23" s="644"/>
+      <c r="W23" s="644"/>
     </row>
     <row r="24" spans="1:23" ht="14">
       <c r="A24" s="253">
@@ -52388,12 +52388,12 @@
       </c>
       <c r="R24" s="678"/>
       <c r="S24" s="678"/>
-      <c r="T24" s="679" t="s">
+      <c r="T24" s="692" t="s">
         <v>519</v>
       </c>
-      <c r="U24" s="680"/>
-      <c r="V24" s="680"/>
-      <c r="W24" s="680"/>
+      <c r="U24" s="693"/>
+      <c r="V24" s="693"/>
+      <c r="W24" s="693"/>
     </row>
     <row r="25" spans="1:23" ht="15.35">
       <c r="A25" s="288"/>
@@ -52451,7 +52451,7 @@
       <c r="S25" s="258" t="s">
         <v>914</v>
       </c>
-      <c r="T25" s="681" t="s">
+      <c r="T25" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U25" s="171" t="s">
@@ -52496,7 +52496,7 @@
       <c r="Q26" s="184"/>
       <c r="R26" s="188"/>
       <c r="S26" s="188"/>
-      <c r="T26" s="641"/>
+      <c r="T26" s="644"/>
       <c r="U26" s="171" t="s">
         <v>524</v>
       </c>
@@ -52760,32 +52760,32 @@
       <c r="E43" s="307"/>
     </row>
     <row r="44" spans="1:23" ht="14">
-      <c r="B44" s="684" t="s">
+      <c r="B44" s="695" t="s">
         <v>456</v>
       </c>
-      <c r="C44" s="641"/>
-      <c r="D44" s="641"/>
-      <c r="E44" s="641"/>
-      <c r="F44" s="641"/>
-      <c r="G44" s="641"/>
-      <c r="H44" s="641"/>
-      <c r="I44" s="641"/>
-      <c r="J44" s="641"/>
-      <c r="K44" s="684" t="s">
+      <c r="C44" s="644"/>
+      <c r="D44" s="644"/>
+      <c r="E44" s="644"/>
+      <c r="F44" s="644"/>
+      <c r="G44" s="644"/>
+      <c r="H44" s="644"/>
+      <c r="I44" s="644"/>
+      <c r="J44" s="644"/>
+      <c r="K44" s="695" t="s">
         <v>457</v>
       </c>
-      <c r="L44" s="641"/>
-      <c r="M44" s="641"/>
-      <c r="N44" s="641"/>
-      <c r="O44" s="641"/>
-      <c r="P44" s="641"/>
-      <c r="Q44" s="641"/>
-      <c r="R44" s="641"/>
-      <c r="S44" s="641"/>
-      <c r="T44" s="641"/>
-      <c r="U44" s="641"/>
-      <c r="V44" s="641"/>
-      <c r="W44" s="641"/>
+      <c r="L44" s="644"/>
+      <c r="M44" s="644"/>
+      <c r="N44" s="644"/>
+      <c r="O44" s="644"/>
+      <c r="P44" s="644"/>
+      <c r="Q44" s="644"/>
+      <c r="R44" s="644"/>
+      <c r="S44" s="644"/>
+      <c r="T44" s="644"/>
+      <c r="U44" s="644"/>
+      <c r="V44" s="644"/>
+      <c r="W44" s="644"/>
     </row>
     <row r="45" spans="1:23" ht="14">
       <c r="A45" s="253">
@@ -52821,12 +52821,12 @@
       </c>
       <c r="R45" s="678"/>
       <c r="S45" s="678"/>
-      <c r="T45" s="692" t="s">
+      <c r="T45" s="696" t="s">
         <v>519</v>
       </c>
-      <c r="U45" s="693"/>
-      <c r="V45" s="693"/>
-      <c r="W45" s="693"/>
+      <c r="U45" s="686"/>
+      <c r="V45" s="686"/>
+      <c r="W45" s="686"/>
     </row>
     <row r="46" spans="1:23" ht="15.35">
       <c r="A46" s="288"/>
@@ -52884,7 +52884,7 @@
       <c r="S46" s="287" t="s">
         <v>914</v>
       </c>
-      <c r="T46" s="689" t="s">
+      <c r="T46" s="701" t="s">
         <v>520</v>
       </c>
       <c r="U46" s="318" t="s">
@@ -52929,7 +52929,7 @@
       <c r="Q47" s="184"/>
       <c r="R47" s="188"/>
       <c r="S47" s="188"/>
-      <c r="T47" s="641"/>
+      <c r="T47" s="644"/>
       <c r="U47" s="171" t="s">
         <v>524</v>
       </c>
@@ -53161,32 +53161,32 @@
       <c r="C61" s="170"/>
     </row>
     <row r="62" spans="1:23" ht="14">
-      <c r="B62" s="684" t="s">
+      <c r="B62" s="695" t="s">
         <v>456</v>
       </c>
-      <c r="C62" s="641"/>
-      <c r="D62" s="641"/>
-      <c r="E62" s="641"/>
-      <c r="F62" s="641"/>
-      <c r="G62" s="641"/>
-      <c r="H62" s="641"/>
-      <c r="I62" s="641"/>
-      <c r="J62" s="641"/>
-      <c r="K62" s="684" t="s">
+      <c r="C62" s="644"/>
+      <c r="D62" s="644"/>
+      <c r="E62" s="644"/>
+      <c r="F62" s="644"/>
+      <c r="G62" s="644"/>
+      <c r="H62" s="644"/>
+      <c r="I62" s="644"/>
+      <c r="J62" s="644"/>
+      <c r="K62" s="695" t="s">
         <v>457</v>
       </c>
-      <c r="L62" s="641"/>
-      <c r="M62" s="641"/>
-      <c r="N62" s="641"/>
-      <c r="O62" s="641"/>
-      <c r="P62" s="641"/>
-      <c r="Q62" s="641"/>
-      <c r="R62" s="641"/>
-      <c r="S62" s="641"/>
-      <c r="T62" s="641"/>
-      <c r="U62" s="641"/>
-      <c r="V62" s="641"/>
-      <c r="W62" s="641"/>
+      <c r="L62" s="644"/>
+      <c r="M62" s="644"/>
+      <c r="N62" s="644"/>
+      <c r="O62" s="644"/>
+      <c r="P62" s="644"/>
+      <c r="Q62" s="644"/>
+      <c r="R62" s="644"/>
+      <c r="S62" s="644"/>
+      <c r="T62" s="644"/>
+      <c r="U62" s="644"/>
+      <c r="V62" s="644"/>
+      <c r="W62" s="644"/>
     </row>
     <row r="63" spans="1:23" ht="14">
       <c r="A63" s="253">
@@ -53222,12 +53222,12 @@
       </c>
       <c r="R63" s="678"/>
       <c r="S63" s="678"/>
-      <c r="T63" s="679" t="s">
+      <c r="T63" s="692" t="s">
         <v>519</v>
       </c>
-      <c r="U63" s="680"/>
-      <c r="V63" s="680"/>
-      <c r="W63" s="680"/>
+      <c r="U63" s="693"/>
+      <c r="V63" s="693"/>
+      <c r="W63" s="693"/>
     </row>
     <row r="64" spans="1:23" ht="15.35">
       <c r="A64" s="288"/>
@@ -53285,7 +53285,7 @@
       <c r="S64" s="254" t="s">
         <v>463</v>
       </c>
-      <c r="T64" s="681" t="s">
+      <c r="T64" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U64" s="171" t="s">
@@ -53330,7 +53330,7 @@
       <c r="Q65" s="184"/>
       <c r="R65" s="184"/>
       <c r="S65" s="184"/>
-      <c r="T65" s="641"/>
+      <c r="T65" s="644"/>
       <c r="U65" s="171" t="s">
         <v>524</v>
       </c>
@@ -53595,32 +53595,32 @@
       </c>
     </row>
     <row r="85" spans="1:23" ht="14">
-      <c r="B85" s="685" t="s">
+      <c r="B85" s="694" t="s">
         <v>919</v>
       </c>
-      <c r="C85" s="641"/>
-      <c r="D85" s="641"/>
-      <c r="E85" s="641"/>
-      <c r="F85" s="641"/>
-      <c r="G85" s="641"/>
-      <c r="H85" s="641"/>
-      <c r="I85" s="641"/>
-      <c r="J85" s="641"/>
-      <c r="K85" s="685" t="s">
+      <c r="C85" s="644"/>
+      <c r="D85" s="644"/>
+      <c r="E85" s="644"/>
+      <c r="F85" s="644"/>
+      <c r="G85" s="644"/>
+      <c r="H85" s="644"/>
+      <c r="I85" s="644"/>
+      <c r="J85" s="644"/>
+      <c r="K85" s="694" t="s">
         <v>911</v>
       </c>
-      <c r="L85" s="641"/>
-      <c r="M85" s="641"/>
-      <c r="N85" s="641"/>
-      <c r="O85" s="641"/>
-      <c r="P85" s="641"/>
-      <c r="Q85" s="641"/>
-      <c r="R85" s="641"/>
-      <c r="S85" s="641"/>
-      <c r="T85" s="641"/>
-      <c r="U85" s="641"/>
-      <c r="V85" s="641"/>
-      <c r="W85" s="641"/>
+      <c r="L85" s="644"/>
+      <c r="M85" s="644"/>
+      <c r="N85" s="644"/>
+      <c r="O85" s="644"/>
+      <c r="P85" s="644"/>
+      <c r="Q85" s="644"/>
+      <c r="R85" s="644"/>
+      <c r="S85" s="644"/>
+      <c r="T85" s="644"/>
+      <c r="U85" s="644"/>
+      <c r="V85" s="644"/>
+      <c r="W85" s="644"/>
     </row>
     <row r="86" spans="1:23" ht="14">
       <c r="A86" s="253">
@@ -53631,17 +53631,17 @@
       </c>
       <c r="C86" s="673"/>
       <c r="D86" s="673"/>
-      <c r="E86" s="690" t="s">
+      <c r="E86" s="680" t="s">
         <v>920</v>
       </c>
       <c r="F86" s="675"/>
       <c r="G86" s="675"/>
-      <c r="H86" s="691" t="s">
+      <c r="H86" s="697" t="s">
         <v>921</v>
       </c>
       <c r="I86" s="677"/>
       <c r="J86" s="677"/>
-      <c r="K86" s="690" t="s">
+      <c r="K86" s="680" t="s">
         <v>922</v>
       </c>
       <c r="L86" s="678"/>
@@ -53656,12 +53656,12 @@
       </c>
       <c r="R86" s="678"/>
       <c r="S86" s="678"/>
-      <c r="T86" s="679" t="s">
+      <c r="T86" s="692" t="s">
         <v>519</v>
       </c>
-      <c r="U86" s="680"/>
-      <c r="V86" s="680"/>
-      <c r="W86" s="680"/>
+      <c r="U86" s="693"/>
+      <c r="V86" s="693"/>
+      <c r="W86" s="693"/>
     </row>
     <row r="87" spans="1:23" ht="15.35">
       <c r="A87" s="288"/>
@@ -53719,7 +53719,7 @@
       <c r="S87" s="254" t="s">
         <v>463</v>
       </c>
-      <c r="T87" s="681" t="s">
+      <c r="T87" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U87" s="171" t="s">
@@ -53764,7 +53764,7 @@
       <c r="Q88" s="184"/>
       <c r="R88" s="184"/>
       <c r="S88" s="184"/>
-      <c r="T88" s="641"/>
+      <c r="T88" s="644"/>
       <c r="U88" s="171" t="s">
         <v>524</v>
       </c>
@@ -54028,32 +54028,32 @@
       <c r="C106" s="170"/>
     </row>
     <row r="107" spans="1:23" ht="14">
-      <c r="B107" s="685" t="s">
+      <c r="B107" s="694" t="s">
         <v>919</v>
       </c>
-      <c r="C107" s="641"/>
-      <c r="D107" s="641"/>
-      <c r="E107" s="641"/>
-      <c r="F107" s="641"/>
-      <c r="G107" s="641"/>
-      <c r="H107" s="641"/>
-      <c r="I107" s="641"/>
-      <c r="J107" s="641"/>
-      <c r="K107" s="684" t="s">
+      <c r="C107" s="644"/>
+      <c r="D107" s="644"/>
+      <c r="E107" s="644"/>
+      <c r="F107" s="644"/>
+      <c r="G107" s="644"/>
+      <c r="H107" s="644"/>
+      <c r="I107" s="644"/>
+      <c r="J107" s="644"/>
+      <c r="K107" s="695" t="s">
         <v>457</v>
       </c>
-      <c r="L107" s="641"/>
-      <c r="M107" s="641"/>
-      <c r="N107" s="641"/>
-      <c r="O107" s="641"/>
-      <c r="P107" s="641"/>
-      <c r="Q107" s="641"/>
-      <c r="R107" s="641"/>
-      <c r="S107" s="641"/>
-      <c r="T107" s="641"/>
-      <c r="U107" s="641"/>
-      <c r="V107" s="641"/>
-      <c r="W107" s="641"/>
+      <c r="L107" s="644"/>
+      <c r="M107" s="644"/>
+      <c r="N107" s="644"/>
+      <c r="O107" s="644"/>
+      <c r="P107" s="644"/>
+      <c r="Q107" s="644"/>
+      <c r="R107" s="644"/>
+      <c r="S107" s="644"/>
+      <c r="T107" s="644"/>
+      <c r="U107" s="644"/>
+      <c r="V107" s="644"/>
+      <c r="W107" s="644"/>
     </row>
     <row r="108" spans="1:23" ht="14">
       <c r="A108" s="253">
@@ -54064,7 +54064,7 @@
       </c>
       <c r="C108" s="673"/>
       <c r="D108" s="673"/>
-      <c r="E108" s="690" t="s">
+      <c r="E108" s="680" t="s">
         <v>920</v>
       </c>
       <c r="F108" s="675"/>
@@ -54089,12 +54089,12 @@
       </c>
       <c r="R108" s="678"/>
       <c r="S108" s="678"/>
-      <c r="T108" s="679" t="s">
+      <c r="T108" s="692" t="s">
         <v>519</v>
       </c>
-      <c r="U108" s="680"/>
-      <c r="V108" s="680"/>
-      <c r="W108" s="680"/>
+      <c r="U108" s="693"/>
+      <c r="V108" s="693"/>
+      <c r="W108" s="693"/>
     </row>
     <row r="109" spans="1:23" ht="15.35">
       <c r="A109" s="288"/>
@@ -54152,7 +54152,7 @@
       <c r="S109" s="346" t="s">
         <v>463</v>
       </c>
-      <c r="T109" s="681" t="s">
+      <c r="T109" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U109" s="171" t="s">
@@ -54197,7 +54197,7 @@
       <c r="Q110" s="184"/>
       <c r="R110" s="184"/>
       <c r="S110" s="184"/>
-      <c r="T110" s="641"/>
+      <c r="T110" s="644"/>
       <c r="U110" s="171" t="s">
         <v>524</v>
       </c>
@@ -54411,32 +54411,32 @@
       </c>
     </row>
     <row r="128" spans="1:23" ht="14">
-      <c r="B128" s="684" t="s">
+      <c r="B128" s="695" t="s">
         <v>456</v>
       </c>
-      <c r="C128" s="641"/>
-      <c r="D128" s="641"/>
-      <c r="E128" s="641"/>
-      <c r="F128" s="641"/>
-      <c r="G128" s="641"/>
-      <c r="H128" s="641"/>
-      <c r="I128" s="641"/>
-      <c r="J128" s="641"/>
-      <c r="K128" s="684" t="s">
+      <c r="C128" s="644"/>
+      <c r="D128" s="644"/>
+      <c r="E128" s="644"/>
+      <c r="F128" s="644"/>
+      <c r="G128" s="644"/>
+      <c r="H128" s="644"/>
+      <c r="I128" s="644"/>
+      <c r="J128" s="644"/>
+      <c r="K128" s="695" t="s">
         <v>457</v>
       </c>
-      <c r="L128" s="641"/>
-      <c r="M128" s="641"/>
-      <c r="N128" s="641"/>
-      <c r="O128" s="641"/>
-      <c r="P128" s="641"/>
-      <c r="Q128" s="641"/>
-      <c r="R128" s="641"/>
-      <c r="S128" s="641"/>
-      <c r="T128" s="641"/>
-      <c r="U128" s="641"/>
-      <c r="V128" s="641"/>
-      <c r="W128" s="641"/>
+      <c r="L128" s="644"/>
+      <c r="M128" s="644"/>
+      <c r="N128" s="644"/>
+      <c r="O128" s="644"/>
+      <c r="P128" s="644"/>
+      <c r="Q128" s="644"/>
+      <c r="R128" s="644"/>
+      <c r="S128" s="644"/>
+      <c r="T128" s="644"/>
+      <c r="U128" s="644"/>
+      <c r="V128" s="644"/>
+      <c r="W128" s="644"/>
     </row>
     <row r="129" spans="1:23" ht="14">
       <c r="A129" s="253">
@@ -54472,12 +54472,12 @@
       </c>
       <c r="R129" s="678"/>
       <c r="S129" s="678"/>
-      <c r="T129" s="679" t="s">
+      <c r="T129" s="692" t="s">
         <v>519</v>
       </c>
-      <c r="U129" s="680"/>
-      <c r="V129" s="680"/>
-      <c r="W129" s="680"/>
+      <c r="U129" s="693"/>
+      <c r="V129" s="693"/>
+      <c r="W129" s="693"/>
     </row>
     <row r="130" spans="1:23" ht="15.35">
       <c r="A130" s="288"/>
@@ -54535,7 +54535,7 @@
       <c r="S130" s="346" t="s">
         <v>463</v>
       </c>
-      <c r="T130" s="681" t="s">
+      <c r="T130" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U130" s="171" t="s">
@@ -54580,7 +54580,7 @@
       <c r="Q131" s="184"/>
       <c r="R131" s="184"/>
       <c r="S131" s="184"/>
-      <c r="T131" s="641"/>
+      <c r="T131" s="644"/>
       <c r="U131" s="171" t="s">
         <v>524</v>
       </c>
@@ -54780,32 +54780,32 @@
       </c>
     </row>
     <row r="142" spans="1:23" ht="14">
-      <c r="B142" s="684" t="s">
+      <c r="B142" s="695" t="s">
         <v>456</v>
       </c>
-      <c r="C142" s="641"/>
-      <c r="D142" s="641"/>
-      <c r="E142" s="641"/>
-      <c r="F142" s="641"/>
-      <c r="G142" s="641"/>
-      <c r="H142" s="641"/>
-      <c r="I142" s="641"/>
-      <c r="J142" s="641"/>
-      <c r="K142" s="684" t="s">
+      <c r="C142" s="644"/>
+      <c r="D142" s="644"/>
+      <c r="E142" s="644"/>
+      <c r="F142" s="644"/>
+      <c r="G142" s="644"/>
+      <c r="H142" s="644"/>
+      <c r="I142" s="644"/>
+      <c r="J142" s="644"/>
+      <c r="K142" s="695" t="s">
         <v>457</v>
       </c>
-      <c r="L142" s="641"/>
-      <c r="M142" s="641"/>
-      <c r="N142" s="641"/>
-      <c r="O142" s="641"/>
-      <c r="P142" s="641"/>
-      <c r="Q142" s="641"/>
-      <c r="R142" s="641"/>
-      <c r="S142" s="641"/>
-      <c r="T142" s="641"/>
-      <c r="U142" s="641"/>
-      <c r="V142" s="641"/>
-      <c r="W142" s="641"/>
+      <c r="L142" s="644"/>
+      <c r="M142" s="644"/>
+      <c r="N142" s="644"/>
+      <c r="O142" s="644"/>
+      <c r="P142" s="644"/>
+      <c r="Q142" s="644"/>
+      <c r="R142" s="644"/>
+      <c r="S142" s="644"/>
+      <c r="T142" s="644"/>
+      <c r="U142" s="644"/>
+      <c r="V142" s="644"/>
+      <c r="W142" s="644"/>
     </row>
     <row r="143" spans="1:23" ht="14">
       <c r="A143" s="253">
@@ -54839,14 +54839,14 @@
       <c r="Q143" s="674" t="s">
         <v>916</v>
       </c>
-      <c r="R143" s="701"/>
-      <c r="S143" s="701"/>
-      <c r="T143" s="679" t="s">
+      <c r="R143" s="679"/>
+      <c r="S143" s="679"/>
+      <c r="T143" s="692" t="s">
         <v>519</v>
       </c>
-      <c r="U143" s="680"/>
-      <c r="V143" s="680"/>
-      <c r="W143" s="680"/>
+      <c r="U143" s="693"/>
+      <c r="V143" s="693"/>
+      <c r="W143" s="693"/>
     </row>
     <row r="144" spans="1:23" ht="15.35">
       <c r="A144" s="288"/>
@@ -54904,7 +54904,7 @@
       <c r="S144" s="254" t="s">
         <v>463</v>
       </c>
-      <c r="T144" s="681" t="s">
+      <c r="T144" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U144" s="171" t="s">
@@ -54949,7 +54949,7 @@
       <c r="Q145" s="184"/>
       <c r="R145" s="184"/>
       <c r="S145" s="184"/>
-      <c r="T145" s="641"/>
+      <c r="T145" s="644"/>
       <c r="U145" s="171" t="s">
         <v>524</v>
       </c>
@@ -55141,32 +55141,32 @@
       </c>
     </row>
     <row r="157" spans="1:23" ht="14">
-      <c r="B157" s="686" t="s">
+      <c r="B157" s="700" t="s">
         <v>456</v>
       </c>
-      <c r="C157" s="687"/>
-      <c r="D157" s="687"/>
-      <c r="E157" s="687"/>
-      <c r="F157" s="687"/>
-      <c r="G157" s="687"/>
-      <c r="H157" s="687"/>
-      <c r="I157" s="687"/>
-      <c r="J157" s="687"/>
-      <c r="K157" s="688" t="s">
+      <c r="C157" s="684"/>
+      <c r="D157" s="684"/>
+      <c r="E157" s="684"/>
+      <c r="F157" s="684"/>
+      <c r="G157" s="684"/>
+      <c r="H157" s="684"/>
+      <c r="I157" s="684"/>
+      <c r="J157" s="684"/>
+      <c r="K157" s="683" t="s">
         <v>911</v>
       </c>
-      <c r="L157" s="687"/>
-      <c r="M157" s="687"/>
-      <c r="N157" s="687"/>
-      <c r="O157" s="687"/>
-      <c r="P157" s="687"/>
-      <c r="Q157" s="687"/>
-      <c r="R157" s="687"/>
-      <c r="S157" s="687"/>
-      <c r="T157" s="687"/>
-      <c r="U157" s="687"/>
-      <c r="V157" s="687"/>
-      <c r="W157" s="687"/>
+      <c r="L157" s="684"/>
+      <c r="M157" s="684"/>
+      <c r="N157" s="684"/>
+      <c r="O157" s="684"/>
+      <c r="P157" s="684"/>
+      <c r="Q157" s="684"/>
+      <c r="R157" s="684"/>
+      <c r="S157" s="684"/>
+      <c r="T157" s="684"/>
+      <c r="U157" s="684"/>
+      <c r="V157" s="684"/>
+      <c r="W157" s="684"/>
     </row>
     <row r="158" spans="1:23" ht="14">
       <c r="A158" s="253">
@@ -55202,12 +55202,12 @@
       </c>
       <c r="R158" s="678"/>
       <c r="S158" s="678"/>
-      <c r="T158" s="679" t="s">
+      <c r="T158" s="692" t="s">
         <v>519</v>
       </c>
-      <c r="U158" s="680"/>
-      <c r="V158" s="680"/>
-      <c r="W158" s="680"/>
+      <c r="U158" s="693"/>
+      <c r="V158" s="693"/>
+      <c r="W158" s="693"/>
     </row>
     <row r="159" spans="1:23" ht="15.35">
       <c r="A159" s="288"/>
@@ -55265,7 +55265,7 @@
       <c r="S159" s="258" t="s">
         <v>914</v>
       </c>
-      <c r="T159" s="681" t="s">
+      <c r="T159" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U159" s="171" t="s">
@@ -55310,7 +55310,7 @@
       <c r="Q160" s="321"/>
       <c r="R160" s="275"/>
       <c r="S160" s="275"/>
-      <c r="T160" s="641"/>
+      <c r="T160" s="644"/>
       <c r="U160" s="171"/>
       <c r="V160" s="266"/>
       <c r="W160" s="266"/>
@@ -55347,7 +55347,7 @@
       <c r="Q161" s="184"/>
       <c r="R161" s="188"/>
       <c r="S161" s="188"/>
-      <c r="T161" s="641"/>
+      <c r="T161" s="644"/>
       <c r="U161" s="171" t="s">
         <v>524</v>
       </c>
@@ -55548,32 +55548,32 @@
     </row>
     <row r="172" spans="1:23" ht="14">
       <c r="A172" s="293"/>
-      <c r="B172" s="684" t="s">
+      <c r="B172" s="695" t="s">
         <v>456</v>
       </c>
-      <c r="C172" s="641"/>
-      <c r="D172" s="641"/>
-      <c r="E172" s="641"/>
-      <c r="F172" s="641"/>
-      <c r="G172" s="641"/>
-      <c r="H172" s="641"/>
-      <c r="I172" s="641"/>
-      <c r="J172" s="641"/>
-      <c r="K172" s="685" t="s">
+      <c r="C172" s="644"/>
+      <c r="D172" s="644"/>
+      <c r="E172" s="644"/>
+      <c r="F172" s="644"/>
+      <c r="G172" s="644"/>
+      <c r="H172" s="644"/>
+      <c r="I172" s="644"/>
+      <c r="J172" s="644"/>
+      <c r="K172" s="694" t="s">
         <v>911</v>
       </c>
-      <c r="L172" s="641"/>
-      <c r="M172" s="641"/>
-      <c r="N172" s="641"/>
-      <c r="O172" s="641"/>
-      <c r="P172" s="641"/>
-      <c r="Q172" s="641"/>
-      <c r="R172" s="641"/>
-      <c r="S172" s="641"/>
-      <c r="T172" s="641"/>
-      <c r="U172" s="641"/>
-      <c r="V172" s="641"/>
-      <c r="W172" s="641"/>
+      <c r="L172" s="644"/>
+      <c r="M172" s="644"/>
+      <c r="N172" s="644"/>
+      <c r="O172" s="644"/>
+      <c r="P172" s="644"/>
+      <c r="Q172" s="644"/>
+      <c r="R172" s="644"/>
+      <c r="S172" s="644"/>
+      <c r="T172" s="644"/>
+      <c r="U172" s="644"/>
+      <c r="V172" s="644"/>
+      <c r="W172" s="644"/>
     </row>
     <row r="173" spans="1:23" ht="14">
       <c r="A173" s="293"/>
@@ -55607,12 +55607,12 @@
       </c>
       <c r="R173" s="678"/>
       <c r="S173" s="678"/>
-      <c r="T173" s="679" t="s">
+      <c r="T173" s="692" t="s">
         <v>519</v>
       </c>
-      <c r="U173" s="680"/>
-      <c r="V173" s="680"/>
-      <c r="W173" s="680"/>
+      <c r="U173" s="693"/>
+      <c r="V173" s="693"/>
+      <c r="W173" s="693"/>
     </row>
     <row r="174" spans="1:23" ht="15.35">
       <c r="A174" s="293"/>
@@ -55670,7 +55670,7 @@
       <c r="S174" s="258" t="s">
         <v>914</v>
       </c>
-      <c r="T174" s="681" t="s">
+      <c r="T174" s="691" t="s">
         <v>520</v>
       </c>
       <c r="U174" s="171" t="s">
@@ -55715,7 +55715,7 @@
       <c r="Q175" s="184"/>
       <c r="R175" s="188"/>
       <c r="S175" s="188"/>
-      <c r="T175" s="641"/>
+      <c r="T175" s="644"/>
       <c r="U175" s="171" t="s">
         <v>524</v>
       </c>
@@ -57861,50 +57861,39 @@
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="B143:D143"/>
-    <mergeCell ref="E143:G143"/>
-    <mergeCell ref="H143:J143"/>
-    <mergeCell ref="K143:M143"/>
-    <mergeCell ref="N143:P143"/>
-    <mergeCell ref="Q143:S143"/>
-    <mergeCell ref="K108:M108"/>
-    <mergeCell ref="H108:J108"/>
-    <mergeCell ref="E108:G108"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="Q129:S129"/>
-    <mergeCell ref="B129:D129"/>
-    <mergeCell ref="E129:G129"/>
-    <mergeCell ref="H129:J129"/>
-    <mergeCell ref="K129:M129"/>
-    <mergeCell ref="N129:P129"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="K3:W3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="K23:W23"/>
-    <mergeCell ref="B44:J44"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="T45:W45"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="B173:D173"/>
+    <mergeCell ref="E173:G173"/>
+    <mergeCell ref="H173:J173"/>
+    <mergeCell ref="K173:M173"/>
+    <mergeCell ref="N173:P173"/>
+    <mergeCell ref="Q173:S173"/>
+    <mergeCell ref="T173:W173"/>
+    <mergeCell ref="T174:T175"/>
+    <mergeCell ref="T159:T161"/>
+    <mergeCell ref="B158:D158"/>
+    <mergeCell ref="E158:G158"/>
+    <mergeCell ref="H158:J158"/>
+    <mergeCell ref="K158:M158"/>
+    <mergeCell ref="N158:P158"/>
+    <mergeCell ref="Q158:S158"/>
+    <mergeCell ref="T158:W158"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B172:J172"/>
+    <mergeCell ref="K172:W172"/>
+    <mergeCell ref="T129:W129"/>
+    <mergeCell ref="T130:T131"/>
+    <mergeCell ref="K128:W128"/>
+    <mergeCell ref="B142:J142"/>
+    <mergeCell ref="T143:W143"/>
+    <mergeCell ref="T144:T145"/>
+    <mergeCell ref="K142:W142"/>
+    <mergeCell ref="B157:J157"/>
+    <mergeCell ref="K157:W157"/>
+    <mergeCell ref="T46:T47"/>
+    <mergeCell ref="K44:W44"/>
+    <mergeCell ref="B62:J62"/>
+    <mergeCell ref="T63:W63"/>
+    <mergeCell ref="T64:T65"/>
     <mergeCell ref="K62:W62"/>
     <mergeCell ref="B85:J85"/>
     <mergeCell ref="B107:J107"/>
@@ -57929,39 +57918,50 @@
     <mergeCell ref="H86:J86"/>
     <mergeCell ref="E86:G86"/>
     <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B158:D158"/>
-    <mergeCell ref="E158:G158"/>
-    <mergeCell ref="H158:J158"/>
-    <mergeCell ref="K158:M158"/>
-    <mergeCell ref="N158:P158"/>
-    <mergeCell ref="Q158:S158"/>
-    <mergeCell ref="T158:W158"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B172:J172"/>
-    <mergeCell ref="K172:W172"/>
-    <mergeCell ref="T129:W129"/>
-    <mergeCell ref="T130:T131"/>
-    <mergeCell ref="K128:W128"/>
-    <mergeCell ref="B142:J142"/>
-    <mergeCell ref="T143:W143"/>
-    <mergeCell ref="T144:T145"/>
-    <mergeCell ref="K142:W142"/>
-    <mergeCell ref="B157:J157"/>
-    <mergeCell ref="K157:W157"/>
-    <mergeCell ref="T46:T47"/>
-    <mergeCell ref="K44:W44"/>
-    <mergeCell ref="B62:J62"/>
-    <mergeCell ref="T63:W63"/>
-    <mergeCell ref="T64:T65"/>
-    <mergeCell ref="B173:D173"/>
-    <mergeCell ref="E173:G173"/>
-    <mergeCell ref="H173:J173"/>
-    <mergeCell ref="K173:M173"/>
-    <mergeCell ref="N173:P173"/>
-    <mergeCell ref="Q173:S173"/>
-    <mergeCell ref="T173:W173"/>
-    <mergeCell ref="T174:T175"/>
-    <mergeCell ref="T159:T161"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="K23:W23"/>
+    <mergeCell ref="B44:J44"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="T45:W45"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="K3:W3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="B143:D143"/>
+    <mergeCell ref="E143:G143"/>
+    <mergeCell ref="H143:J143"/>
+    <mergeCell ref="K143:M143"/>
+    <mergeCell ref="N143:P143"/>
+    <mergeCell ref="Q143:S143"/>
+    <mergeCell ref="K108:M108"/>
+    <mergeCell ref="H108:J108"/>
+    <mergeCell ref="E108:G108"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="Q129:S129"/>
+    <mergeCell ref="B129:D129"/>
+    <mergeCell ref="E129:G129"/>
+    <mergeCell ref="H129:J129"/>
+    <mergeCell ref="K129:M129"/>
+    <mergeCell ref="N129:P129"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -58002,31 +58002,31 @@
       <c r="A2" s="196" t="s">
         <v>455</v>
       </c>
-      <c r="B2" s="709" t="s">
+      <c r="B2" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C2" s="710"/>
-      <c r="D2" s="710"/>
-      <c r="E2" s="711" t="s">
+      <c r="C2" s="705"/>
+      <c r="D2" s="705"/>
+      <c r="E2" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F2" s="698"/>
-      <c r="G2" s="698"/>
+      <c r="F2" s="688"/>
+      <c r="G2" s="688"/>
     </row>
     <row r="3" spans="1:7" ht="14">
       <c r="A3" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B3" s="707" t="s">
+      <c r="B3" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C3" s="693"/>
-      <c r="D3" s="693"/>
-      <c r="E3" s="708" t="s">
+      <c r="C3" s="686"/>
+      <c r="D3" s="686"/>
+      <c r="E3" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F3" s="693"/>
-      <c r="G3" s="693"/>
+      <c r="F3" s="686"/>
+      <c r="G3" s="686"/>
     </row>
     <row r="4" spans="1:7" ht="15.35">
       <c r="A4" s="197"/>
@@ -58163,31 +58163,31 @@
       <c r="A13" s="196" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="709" t="s">
+      <c r="B13" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C13" s="710"/>
-      <c r="D13" s="710"/>
-      <c r="E13" s="711" t="s">
+      <c r="C13" s="705"/>
+      <c r="D13" s="705"/>
+      <c r="E13" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F13" s="698"/>
-      <c r="G13" s="698"/>
+      <c r="F13" s="688"/>
+      <c r="G13" s="688"/>
     </row>
     <row r="14" spans="1:7" ht="14">
       <c r="A14" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B14" s="707" t="s">
+      <c r="B14" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C14" s="693"/>
-      <c r="D14" s="693"/>
-      <c r="E14" s="708" t="s">
+      <c r="C14" s="686"/>
+      <c r="D14" s="686"/>
+      <c r="E14" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F14" s="693"/>
-      <c r="G14" s="693"/>
+      <c r="F14" s="686"/>
+      <c r="G14" s="686"/>
     </row>
     <row r="15" spans="1:7" ht="15.35">
       <c r="A15" s="197"/>
@@ -58342,31 +58342,31 @@
       <c r="A24" s="196" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="709" t="s">
+      <c r="B24" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C24" s="710"/>
-      <c r="D24" s="710"/>
-      <c r="E24" s="711" t="s">
+      <c r="C24" s="705"/>
+      <c r="D24" s="705"/>
+      <c r="E24" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F24" s="698"/>
-      <c r="G24" s="698"/>
+      <c r="F24" s="688"/>
+      <c r="G24" s="688"/>
     </row>
     <row r="25" spans="1:7" ht="14">
       <c r="A25" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B25" s="707" t="s">
+      <c r="B25" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C25" s="693"/>
-      <c r="D25" s="693"/>
-      <c r="E25" s="708" t="s">
+      <c r="C25" s="686"/>
+      <c r="D25" s="686"/>
+      <c r="E25" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F25" s="693"/>
-      <c r="G25" s="693"/>
+      <c r="F25" s="686"/>
+      <c r="G25" s="686"/>
     </row>
     <row r="26" spans="1:7" ht="15.35">
       <c r="A26" s="197"/>
@@ -58503,31 +58503,31 @@
       <c r="A35" s="196" t="s">
         <v>92</v>
       </c>
-      <c r="B35" s="709" t="s">
+      <c r="B35" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C35" s="710"/>
-      <c r="D35" s="710"/>
-      <c r="E35" s="711" t="s">
+      <c r="C35" s="705"/>
+      <c r="D35" s="705"/>
+      <c r="E35" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F35" s="698"/>
-      <c r="G35" s="698"/>
+      <c r="F35" s="688"/>
+      <c r="G35" s="688"/>
     </row>
     <row r="36" spans="1:8" ht="25.35">
       <c r="A36" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B36" s="707" t="s">
+      <c r="B36" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C36" s="693"/>
-      <c r="D36" s="693"/>
-      <c r="E36" s="708" t="s">
+      <c r="C36" s="686"/>
+      <c r="D36" s="686"/>
+      <c r="E36" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F36" s="693"/>
-      <c r="G36" s="693"/>
+      <c r="F36" s="686"/>
+      <c r="G36" s="686"/>
     </row>
     <row r="37" spans="1:8" ht="15.35">
       <c r="B37" s="198" t="s">
@@ -58659,31 +58659,31 @@
       <c r="A48" s="196" t="s">
         <v>99</v>
       </c>
-      <c r="B48" s="709" t="s">
+      <c r="B48" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C48" s="710"/>
-      <c r="D48" s="710"/>
-      <c r="E48" s="711" t="s">
+      <c r="C48" s="705"/>
+      <c r="D48" s="705"/>
+      <c r="E48" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F48" s="698"/>
-      <c r="G48" s="698"/>
+      <c r="F48" s="688"/>
+      <c r="G48" s="688"/>
     </row>
     <row r="49" spans="1:8" ht="25.35">
       <c r="A49" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B49" s="707" t="s">
+      <c r="B49" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C49" s="693"/>
-      <c r="D49" s="693"/>
-      <c r="E49" s="708" t="s">
+      <c r="C49" s="686"/>
+      <c r="D49" s="686"/>
+      <c r="E49" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F49" s="693"/>
-      <c r="G49" s="693"/>
+      <c r="F49" s="686"/>
+      <c r="G49" s="686"/>
     </row>
     <row r="50" spans="1:8" ht="15.35">
       <c r="B50" s="198" t="s">
@@ -58815,31 +58815,31 @@
       <c r="A62" s="196" t="s">
         <v>104</v>
       </c>
-      <c r="B62" s="709" t="s">
+      <c r="B62" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C62" s="710"/>
-      <c r="D62" s="710"/>
-      <c r="E62" s="711" t="s">
+      <c r="C62" s="705"/>
+      <c r="D62" s="705"/>
+      <c r="E62" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F62" s="698"/>
-      <c r="G62" s="698"/>
+      <c r="F62" s="688"/>
+      <c r="G62" s="688"/>
     </row>
     <row r="63" spans="1:8" ht="25.35">
       <c r="A63" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B63" s="707" t="s">
+      <c r="B63" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C63" s="693"/>
-      <c r="D63" s="693"/>
-      <c r="E63" s="708" t="s">
+      <c r="C63" s="686"/>
+      <c r="D63" s="686"/>
+      <c r="E63" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F63" s="693"/>
-      <c r="G63" s="693"/>
+      <c r="F63" s="686"/>
+      <c r="G63" s="686"/>
     </row>
     <row r="64" spans="1:8" ht="15.35">
       <c r="B64" s="198" t="s">
@@ -58964,31 +58964,31 @@
       <c r="A79" s="191" t="s">
         <v>91</v>
       </c>
-      <c r="B79" s="709" t="s">
+      <c r="B79" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C79" s="710"/>
-      <c r="D79" s="710"/>
-      <c r="E79" s="711" t="s">
+      <c r="C79" s="705"/>
+      <c r="D79" s="705"/>
+      <c r="E79" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F79" s="698"/>
-      <c r="G79" s="698"/>
+      <c r="F79" s="688"/>
+      <c r="G79" s="688"/>
     </row>
     <row r="80" spans="1:9" ht="27.35">
       <c r="A80" s="196" t="s">
         <v>114</v>
       </c>
-      <c r="B80" s="707" t="s">
+      <c r="B80" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C80" s="693"/>
-      <c r="D80" s="693"/>
-      <c r="E80" s="708" t="s">
+      <c r="C80" s="686"/>
+      <c r="D80" s="686"/>
+      <c r="E80" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F80" s="693"/>
-      <c r="G80" s="693"/>
+      <c r="F80" s="686"/>
+      <c r="G80" s="686"/>
     </row>
     <row r="81" spans="1:7" ht="25.35">
       <c r="A81" s="10" t="s">
@@ -59126,31 +59126,31 @@
       <c r="A99" s="196" t="s">
         <v>119</v>
       </c>
-      <c r="B99" s="709" t="s">
+      <c r="B99" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C99" s="710"/>
-      <c r="D99" s="710"/>
-      <c r="E99" s="711" t="s">
+      <c r="C99" s="705"/>
+      <c r="D99" s="705"/>
+      <c r="E99" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F99" s="698"/>
-      <c r="G99" s="698"/>
+      <c r="F99" s="688"/>
+      <c r="G99" s="688"/>
     </row>
     <row r="100" spans="1:7" ht="14">
       <c r="A100" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B100" s="707" t="s">
+      <c r="B100" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C100" s="693"/>
-      <c r="D100" s="693"/>
-      <c r="E100" s="708" t="s">
+      <c r="C100" s="686"/>
+      <c r="D100" s="686"/>
+      <c r="E100" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F100" s="693"/>
-      <c r="G100" s="693"/>
+      <c r="F100" s="686"/>
+      <c r="G100" s="686"/>
     </row>
     <row r="101" spans="1:7" ht="15.35">
       <c r="A101" s="197"/>
@@ -59308,31 +59308,31 @@
       <c r="A112" s="196" t="s">
         <v>146</v>
       </c>
-      <c r="B112" s="709" t="s">
+      <c r="B112" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C112" s="710"/>
-      <c r="D112" s="710"/>
-      <c r="E112" s="711" t="s">
+      <c r="C112" s="705"/>
+      <c r="D112" s="705"/>
+      <c r="E112" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F112" s="698"/>
-      <c r="G112" s="698"/>
+      <c r="F112" s="688"/>
+      <c r="G112" s="688"/>
     </row>
     <row r="113" spans="1:7" ht="14">
       <c r="A113" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B113" s="707" t="s">
+      <c r="B113" s="702" t="s">
         <v>459</v>
       </c>
-      <c r="C113" s="693"/>
-      <c r="D113" s="693"/>
-      <c r="E113" s="708" t="s">
+      <c r="C113" s="686"/>
+      <c r="D113" s="686"/>
+      <c r="E113" s="703" t="s">
         <v>460</v>
       </c>
-      <c r="F113" s="693"/>
-      <c r="G113" s="693"/>
+      <c r="F113" s="686"/>
+      <c r="G113" s="686"/>
     </row>
     <row r="114" spans="1:7" ht="15.35">
       <c r="A114" s="197"/>
@@ -59461,31 +59461,31 @@
       <c r="A123" s="196" t="s">
         <v>163</v>
       </c>
-      <c r="B123" s="702" t="s">
+      <c r="B123" s="713" t="s">
         <v>456</v>
       </c>
-      <c r="C123" s="703"/>
-      <c r="D123" s="703"/>
-      <c r="E123" s="704" t="s">
+      <c r="C123" s="714"/>
+      <c r="D123" s="714"/>
+      <c r="E123" s="715" t="s">
         <v>457</v>
       </c>
-      <c r="F123" s="705"/>
-      <c r="G123" s="705"/>
+      <c r="F123" s="716"/>
+      <c r="G123" s="716"/>
     </row>
     <row r="124" spans="1:7" ht="14.35">
       <c r="A124" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B124" s="714" t="s">
+      <c r="B124" s="709" t="s">
         <v>459</v>
       </c>
-      <c r="C124" s="715"/>
-      <c r="D124" s="715"/>
-      <c r="E124" s="716" t="s">
+      <c r="C124" s="710"/>
+      <c r="D124" s="710"/>
+      <c r="E124" s="711" t="s">
         <v>460</v>
       </c>
-      <c r="F124" s="717"/>
-      <c r="G124" s="717"/>
+      <c r="F124" s="712"/>
+      <c r="G124" s="712"/>
     </row>
     <row r="125" spans="1:7" ht="14.35">
       <c r="A125" s="197"/>
@@ -59675,31 +59675,31 @@
       <c r="A136" s="196" t="s">
         <v>167</v>
       </c>
-      <c r="B136" s="709" t="s">
+      <c r="B136" s="704" t="s">
         <v>456</v>
       </c>
-      <c r="C136" s="710"/>
-      <c r="D136" s="710"/>
-      <c r="E136" s="711" t="s">
+      <c r="C136" s="705"/>
+      <c r="D136" s="705"/>
+      <c r="E136" s="706" t="s">
         <v>457</v>
       </c>
-      <c r="F136" s="712"/>
-      <c r="G136" s="712"/>
+      <c r="F136" s="707"/>
+      <c r="G136" s="707"/>
     </row>
     <row r="137" spans="1:7" ht="14">
       <c r="A137" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="B137" s="709" t="s">
+      <c r="B137" s="704" t="s">
         <v>459</v>
       </c>
-      <c r="C137" s="712"/>
-      <c r="D137" s="713"/>
-      <c r="E137" s="711" t="s">
+      <c r="C137" s="707"/>
+      <c r="D137" s="708"/>
+      <c r="E137" s="706" t="s">
         <v>460</v>
       </c>
-      <c r="F137" s="712"/>
-      <c r="G137" s="712"/>
+      <c r="F137" s="707"/>
+      <c r="G137" s="707"/>
     </row>
     <row r="138" spans="1:7" ht="15.35">
       <c r="A138" s="197"/>
@@ -59843,31 +59843,31 @@
       <c r="A152" s="196" t="s">
         <v>186</v>
       </c>
-      <c r="B152" s="702" t="s">
+      <c r="B152" s="713" t="s">
         <v>456</v>
       </c>
-      <c r="C152" s="703"/>
-      <c r="D152" s="703"/>
-      <c r="E152" s="704" t="s">
+      <c r="C152" s="714"/>
+      <c r="D152" s="714"/>
+      <c r="E152" s="715" t="s">
         <v>457</v>
       </c>
-      <c r="F152" s="705"/>
-      <c r="G152" s="705"/>
+      <c r="F152" s="716"/>
+      <c r="G152" s="716"/>
     </row>
     <row r="153" spans="1:7" ht="21" customHeight="1">
       <c r="A153" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B153" s="702" t="s">
+      <c r="B153" s="713" t="s">
         <v>459</v>
       </c>
-      <c r="C153" s="703"/>
-      <c r="D153" s="703"/>
-      <c r="E153" s="704" t="s">
+      <c r="C153" s="714"/>
+      <c r="D153" s="714"/>
+      <c r="E153" s="715" t="s">
         <v>460</v>
       </c>
-      <c r="F153" s="705"/>
-      <c r="G153" s="705"/>
+      <c r="F153" s="716"/>
+      <c r="G153" s="716"/>
     </row>
     <row r="154" spans="1:7" ht="14.35">
       <c r="B154" s="220" t="s">
@@ -60143,31 +60143,31 @@
       <c r="A171" s="196" t="s">
         <v>208</v>
       </c>
-      <c r="B171" s="702" t="s">
+      <c r="B171" s="713" t="s">
         <v>456</v>
       </c>
-      <c r="C171" s="703"/>
-      <c r="D171" s="703"/>
-      <c r="E171" s="704" t="s">
+      <c r="C171" s="714"/>
+      <c r="D171" s="714"/>
+      <c r="E171" s="715" t="s">
         <v>457</v>
       </c>
-      <c r="F171" s="705"/>
-      <c r="G171" s="705"/>
+      <c r="F171" s="716"/>
+      <c r="G171" s="716"/>
     </row>
     <row r="172" spans="1:7" ht="27.35">
       <c r="A172" s="197" t="s">
         <v>476</v>
       </c>
-      <c r="B172" s="702" t="s">
+      <c r="B172" s="713" t="s">
         <v>459</v>
       </c>
-      <c r="C172" s="703"/>
-      <c r="D172" s="703"/>
-      <c r="E172" s="704" t="s">
+      <c r="C172" s="714"/>
+      <c r="D172" s="714"/>
+      <c r="E172" s="715" t="s">
         <v>460</v>
       </c>
-      <c r="F172" s="705"/>
-      <c r="G172" s="705"/>
+      <c r="F172" s="716"/>
+      <c r="G172" s="716"/>
     </row>
     <row r="173" spans="1:7" ht="14.35">
       <c r="A173" s="201"/>
@@ -60443,31 +60443,31 @@
       <c r="A190" s="196" t="s">
         <v>210</v>
       </c>
-      <c r="B190" s="702" t="s">
+      <c r="B190" s="713" t="s">
         <v>456</v>
       </c>
-      <c r="C190" s="703"/>
-      <c r="D190" s="703"/>
-      <c r="E190" s="704" t="s">
+      <c r="C190" s="714"/>
+      <c r="D190" s="714"/>
+      <c r="E190" s="715" t="s">
         <v>457</v>
       </c>
-      <c r="F190" s="705"/>
-      <c r="G190" s="705"/>
+      <c r="F190" s="716"/>
+      <c r="G190" s="716"/>
     </row>
     <row r="191" spans="1:7" ht="25.35">
       <c r="A191" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B191" s="702" t="s">
+      <c r="B191" s="713" t="s">
         <v>459</v>
       </c>
-      <c r="C191" s="703"/>
-      <c r="D191" s="703"/>
-      <c r="E191" s="704" t="s">
+      <c r="C191" s="714"/>
+      <c r="D191" s="714"/>
+      <c r="E191" s="715" t="s">
         <v>460</v>
       </c>
-      <c r="F191" s="705"/>
-      <c r="G191" s="705"/>
+      <c r="F191" s="716"/>
+      <c r="G191" s="716"/>
     </row>
     <row r="192" spans="1:7" ht="14.35">
       <c r="B192" s="220" t="s">
@@ -60721,31 +60721,31 @@
       <c r="A208" s="196" t="s">
         <v>215</v>
       </c>
-      <c r="B208" s="702" t="s">
+      <c r="B208" s="713" t="s">
         <v>456</v>
       </c>
-      <c r="C208" s="703"/>
-      <c r="D208" s="703"/>
-      <c r="E208" s="704" t="s">
+      <c r="C208" s="714"/>
+      <c r="D208" s="714"/>
+      <c r="E208" s="715" t="s">
         <v>457</v>
       </c>
-      <c r="F208" s="705"/>
-      <c r="G208" s="705"/>
+      <c r="F208" s="716"/>
+      <c r="G208" s="716"/>
     </row>
     <row r="209" spans="1:7" ht="25.35">
       <c r="A209" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B209" s="702" t="s">
+      <c r="B209" s="713" t="s">
         <v>459</v>
       </c>
-      <c r="C209" s="703"/>
-      <c r="D209" s="703"/>
-      <c r="E209" s="704" t="s">
+      <c r="C209" s="714"/>
+      <c r="D209" s="714"/>
+      <c r="E209" s="715" t="s">
         <v>460</v>
       </c>
-      <c r="F209" s="705"/>
-      <c r="G209" s="705"/>
+      <c r="F209" s="716"/>
+      <c r="G209" s="716"/>
     </row>
     <row r="210" spans="1:7" ht="14.35">
       <c r="B210" s="220" t="s">
@@ -61009,31 +61009,31 @@
       <c r="A226" s="196" t="s">
         <v>218</v>
       </c>
-      <c r="B226" s="702" t="s">
+      <c r="B226" s="713" t="s">
         <v>456</v>
       </c>
-      <c r="C226" s="703"/>
-      <c r="D226" s="703"/>
-      <c r="E226" s="704" t="s">
+      <c r="C226" s="714"/>
+      <c r="D226" s="714"/>
+      <c r="E226" s="715" t="s">
         <v>457</v>
       </c>
-      <c r="F226" s="706"/>
-      <c r="G226" s="706"/>
+      <c r="F226" s="717"/>
+      <c r="G226" s="717"/>
     </row>
     <row r="227" spans="1:7" ht="27.35">
       <c r="A227" s="197" t="s">
         <v>476</v>
       </c>
-      <c r="B227" s="702" t="s">
+      <c r="B227" s="713" t="s">
         <v>459</v>
       </c>
-      <c r="C227" s="641"/>
-      <c r="D227" s="641"/>
-      <c r="E227" s="704" t="s">
+      <c r="C227" s="644"/>
+      <c r="D227" s="644"/>
+      <c r="E227" s="715" t="s">
         <v>460</v>
       </c>
-      <c r="F227" s="706"/>
-      <c r="G227" s="706"/>
+      <c r="F227" s="717"/>
+      <c r="G227" s="717"/>
     </row>
     <row r="228" spans="1:7" ht="14.35">
       <c r="A228" s="197"/>
@@ -61231,31 +61231,31 @@
       <c r="A240" s="196" t="s">
         <v>223</v>
       </c>
-      <c r="B240" s="702" t="s">
+      <c r="B240" s="713" t="s">
         <v>456</v>
       </c>
-      <c r="C240" s="703"/>
-      <c r="D240" s="703"/>
-      <c r="E240" s="704" t="s">
+      <c r="C240" s="714"/>
+      <c r="D240" s="714"/>
+      <c r="E240" s="715" t="s">
         <v>457</v>
       </c>
-      <c r="F240" s="706"/>
-      <c r="G240" s="706"/>
+      <c r="F240" s="717"/>
+      <c r="G240" s="717"/>
     </row>
     <row r="241" spans="1:7" ht="27.35">
       <c r="A241" s="197" t="s">
         <v>476</v>
       </c>
-      <c r="B241" s="702" t="s">
+      <c r="B241" s="713" t="s">
         <v>459</v>
       </c>
-      <c r="C241" s="641"/>
-      <c r="D241" s="641"/>
-      <c r="E241" s="704" t="s">
+      <c r="C241" s="644"/>
+      <c r="D241" s="644"/>
+      <c r="E241" s="715" t="s">
         <v>460</v>
       </c>
-      <c r="F241" s="706"/>
-      <c r="G241" s="706"/>
+      <c r="F241" s="717"/>
+      <c r="G241" s="717"/>
     </row>
     <row r="242" spans="1:7" ht="14.35">
       <c r="A242" s="197"/>
@@ -61514,18 +61514,46 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="B152:D152"/>
+    <mergeCell ref="E152:G152"/>
+    <mergeCell ref="B153:D153"/>
+    <mergeCell ref="E153:G153"/>
+    <mergeCell ref="B172:D172"/>
+    <mergeCell ref="E172:G172"/>
+    <mergeCell ref="B171:D171"/>
+    <mergeCell ref="E171:G171"/>
+    <mergeCell ref="B190:D190"/>
+    <mergeCell ref="E190:G190"/>
+    <mergeCell ref="B191:D191"/>
+    <mergeCell ref="E191:G191"/>
+    <mergeCell ref="B241:D241"/>
+    <mergeCell ref="E241:G241"/>
+    <mergeCell ref="B208:D208"/>
+    <mergeCell ref="E208:G208"/>
+    <mergeCell ref="B209:D209"/>
+    <mergeCell ref="E209:G209"/>
+    <mergeCell ref="B226:D226"/>
+    <mergeCell ref="E226:G226"/>
+    <mergeCell ref="B227:D227"/>
+    <mergeCell ref="E227:G227"/>
+    <mergeCell ref="B240:D240"/>
+    <mergeCell ref="E240:G240"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="E79:G79"/>
     <mergeCell ref="B137:D137"/>
     <mergeCell ref="E137:G137"/>
     <mergeCell ref="B124:D124"/>
@@ -61542,46 +61570,18 @@
     <mergeCell ref="E136:G136"/>
     <mergeCell ref="B123:D123"/>
     <mergeCell ref="E123:G123"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="B190:D190"/>
-    <mergeCell ref="E190:G190"/>
-    <mergeCell ref="B191:D191"/>
-    <mergeCell ref="E191:G191"/>
-    <mergeCell ref="B241:D241"/>
-    <mergeCell ref="E241:G241"/>
-    <mergeCell ref="B208:D208"/>
-    <mergeCell ref="E208:G208"/>
-    <mergeCell ref="B209:D209"/>
-    <mergeCell ref="E209:G209"/>
-    <mergeCell ref="B226:D226"/>
-    <mergeCell ref="E226:G226"/>
-    <mergeCell ref="B227:D227"/>
-    <mergeCell ref="E227:G227"/>
-    <mergeCell ref="B240:D240"/>
-    <mergeCell ref="E240:G240"/>
-    <mergeCell ref="B152:D152"/>
-    <mergeCell ref="E152:G152"/>
-    <mergeCell ref="B153:D153"/>
-    <mergeCell ref="E153:G153"/>
-    <mergeCell ref="B172:D172"/>
-    <mergeCell ref="E172:G172"/>
-    <mergeCell ref="B171:D171"/>
-    <mergeCell ref="E171:G171"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
   </mergeCells>
   <phoneticPr fontId="94" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -62324,9 +62324,9 @@
       <c r="A1" s="722" t="s">
         <v>448</v>
       </c>
-      <c r="B1" s="698"/>
-      <c r="C1" s="698"/>
-      <c r="D1" s="698"/>
+      <c r="B1" s="688"/>
+      <c r="C1" s="688"/>
+      <c r="D1" s="688"/>
       <c r="E1" s="723" t="s">
         <v>449</v>
       </c>

--- a/microgrid_base/设备信息库各参数.xlsx
+++ b/microgrid_base/设备信息库各参数.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\works\jubilant-adventure2\microgrid_base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9A7F0D-B26A-4C75-8839-6BDCC3144B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87962CDA-430F-4951-ADC9-1892A59A185F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="8180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7482,18 +7482,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7504,7 +7497,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7513,36 +7513,49 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7554,32 +7567,22 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7588,7 +7591,13 @@
     <xf numFmtId="0" fontId="17" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7606,17 +7615,8 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7635,11 +7635,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="86" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7648,17 +7682,8 @@
     <xf numFmtId="0" fontId="65" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7672,38 +7697,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7713,20 +7715,19 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7735,7 +7736,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -8079,7 +8079,7 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="12.7"/>
   <cols>
     <col min="1" max="1" width="8.375" customWidth="1"/>
     <col min="2" max="2" width="23.75" customWidth="1"/>
@@ -8090,14 +8090,14 @@
     <col min="7" max="7" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.7">
-      <c r="A1" s="706" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="711" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="708" t="s">
+      <c r="B1" s="706" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="711" t="s">
+      <c r="C1" s="708" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -8107,13 +8107,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="12.7">
-      <c r="A2" s="707"/>
-      <c r="B2" s="709"/>
-      <c r="C2" s="712"/>
-    </row>
-    <row r="3" spans="1:7" ht="12.7">
-      <c r="A3" s="710" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="712"/>
+      <c r="B2" s="707"/>
+      <c r="C2" s="709"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="713" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -8123,8 +8123,8 @@
         <v>953</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="12.7">
-      <c r="A4" s="709"/>
+    <row r="4" spans="1:7">
+      <c r="A4" s="707"/>
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
@@ -8135,8 +8135,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="12.7">
-      <c r="A5" s="709"/>
+    <row r="5" spans="1:7">
+      <c r="A5" s="707"/>
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
@@ -8147,8 +8147,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="12.7">
-      <c r="A6" s="709"/>
+    <row r="6" spans="1:7">
+      <c r="A6" s="707"/>
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
@@ -8159,8 +8159,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="12.7">
-      <c r="A7" s="709"/>
+    <row r="7" spans="1:7">
+      <c r="A7" s="707"/>
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
@@ -8171,8 +8171,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="12.7">
-      <c r="A8" s="709"/>
+    <row r="8" spans="1:7">
+      <c r="A8" s="707"/>
       <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
@@ -8183,8 +8183,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="12.7">
-      <c r="A9" s="713" t="s">
+    <row r="9" spans="1:7">
+      <c r="A9" s="710" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -8194,8 +8194,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="12.7">
-      <c r="A10" s="709"/>
+    <row r="10" spans="1:7">
+      <c r="A10" s="707"/>
       <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
@@ -8203,8 +8203,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="12.7">
-      <c r="A11" s="709"/>
+    <row r="11" spans="1:7">
+      <c r="A11" s="707"/>
       <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
@@ -8212,8 +8212,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="12.7">
-      <c r="A12" s="709"/>
+    <row r="12" spans="1:7">
+      <c r="A12" s="707"/>
       <c r="B12" s="8" t="s">
         <v>20</v>
       </c>
@@ -8230,8 +8230,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="12.7">
-      <c r="A13" s="709"/>
+    <row r="13" spans="1:7">
+      <c r="A13" s="707"/>
       <c r="B13" s="12" t="s">
         <v>23</v>
       </c>
@@ -8247,8 +8247,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="12.7">
-      <c r="A14" s="709"/>
+    <row r="14" spans="1:7">
+      <c r="A14" s="707"/>
       <c r="B14" s="12" t="s">
         <v>26</v>
       </c>
@@ -8264,8 +8264,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="12.7">
-      <c r="A15" s="709"/>
+    <row r="15" spans="1:7">
+      <c r="A15" s="707"/>
       <c r="B15" s="16" t="s">
         <v>28</v>
       </c>
@@ -8273,8 +8273,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="12.7">
-      <c r="A16" s="709"/>
+    <row r="16" spans="1:7">
+      <c r="A16" s="707"/>
       <c r="B16" s="17" t="s">
         <v>29</v>
       </c>
@@ -8285,8 +8285,8 @@
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
     </row>
-    <row r="17" spans="1:8" ht="12.7">
-      <c r="A17" s="709"/>
+    <row r="17" spans="1:8">
+      <c r="A17" s="707"/>
       <c r="B17" s="4" t="s">
         <v>30</v>
       </c>
@@ -8300,8 +8300,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="12.7">
-      <c r="A18" s="709"/>
+    <row r="18" spans="1:8">
+      <c r="A18" s="707"/>
       <c r="B18" s="20" t="s">
         <v>31</v>
       </c>
@@ -8324,8 +8324,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="12.7">
-      <c r="A19" s="709"/>
+    <row r="19" spans="1:8">
+      <c r="A19" s="707"/>
       <c r="B19" s="24" t="s">
         <v>35</v>
       </c>
@@ -8333,8 +8333,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="12.7">
-      <c r="A20" s="709"/>
+    <row r="20" spans="1:8">
+      <c r="A20" s="707"/>
       <c r="B20" s="16" t="s">
         <v>36</v>
       </c>
@@ -8342,8 +8342,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="12.7">
-      <c r="A21" s="709"/>
+    <row r="21" spans="1:8">
+      <c r="A21" s="707"/>
       <c r="B21" s="4" t="s">
         <v>37</v>
       </c>
@@ -8360,8 +8360,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="12.7">
-      <c r="A22" s="709"/>
+    <row r="22" spans="1:8">
+      <c r="A22" s="707"/>
       <c r="B22" s="4" t="s">
         <v>40</v>
       </c>
@@ -8372,8 +8372,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="12.7">
-      <c r="A23" s="709"/>
+    <row r="23" spans="1:8">
+      <c r="A23" s="707"/>
       <c r="B23" s="4" t="s">
         <v>41</v>
       </c>
@@ -8384,8 +8384,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="12.7">
-      <c r="A24" s="709"/>
+    <row r="24" spans="1:8">
+      <c r="A24" s="707"/>
       <c r="B24" s="2" t="s">
         <v>42</v>
       </c>
@@ -8402,8 +8402,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="12.7">
-      <c r="A25" s="709"/>
+    <row r="25" spans="1:8">
+      <c r="A25" s="707"/>
       <c r="B25" s="26" t="s">
         <v>44</v>
       </c>
@@ -8423,8 +8423,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="12.7">
-      <c r="A26" s="709"/>
+    <row r="26" spans="1:8">
+      <c r="A26" s="707"/>
       <c r="B26" s="26" t="s">
         <v>46</v>
       </c>
@@ -8440,8 +8440,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="12.7">
-      <c r="A27" s="709"/>
+    <row r="27" spans="1:8">
+      <c r="A27" s="707"/>
       <c r="B27" s="4" t="s">
         <v>48</v>
       </c>
@@ -8452,8 +8452,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="12.7">
-      <c r="A28" s="709"/>
+    <row r="28" spans="1:8">
+      <c r="A28" s="707"/>
       <c r="B28" s="2" t="s">
         <v>50</v>
       </c>
@@ -8464,8 +8464,8 @@
         <v>954</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="12.7">
-      <c r="A29" s="709"/>
+    <row r="29" spans="1:8">
+      <c r="A29" s="707"/>
       <c r="B29" s="29" t="s">
         <v>51</v>
       </c>
@@ -8476,8 +8476,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="12.7">
-      <c r="A30" s="709"/>
+    <row r="30" spans="1:8">
+      <c r="A30" s="707"/>
       <c r="B30" s="29" t="s">
         <v>52</v>
       </c>
@@ -8488,8 +8488,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="12.7">
-      <c r="A31" s="708" t="s">
+    <row r="31" spans="1:8">
+      <c r="A31" s="706" t="s">
         <v>53</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -8505,16 +8505,16 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="12.7">
-      <c r="A32" s="709"/>
+    <row r="32" spans="1:8">
+      <c r="A32" s="707"/>
       <c r="B32" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4" ht="12.7">
-      <c r="A33" s="708" t="s">
+    <row r="33" spans="1:4">
+      <c r="A33" s="706" t="s">
         <v>57</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -8522,51 +8522,51 @@
       </c>
       <c r="C33" s="7"/>
     </row>
-    <row r="34" spans="1:4" ht="12.7">
-      <c r="A34" s="709"/>
+    <row r="34" spans="1:4">
+      <c r="A34" s="707"/>
       <c r="B34" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" ht="12.7">
-      <c r="A35" s="709"/>
+    <row r="35" spans="1:4">
+      <c r="A35" s="707"/>
       <c r="B35" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C35" s="5"/>
     </row>
-    <row r="36" spans="1:4" ht="12.7">
-      <c r="A36" s="709"/>
+    <row r="36" spans="1:4">
+      <c r="A36" s="707"/>
       <c r="B36" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C36" s="5"/>
     </row>
-    <row r="37" spans="1:4" ht="12.7">
-      <c r="A37" s="709"/>
+    <row r="37" spans="1:4">
+      <c r="A37" s="707"/>
       <c r="B37" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:4" ht="12.7">
-      <c r="A38" s="709"/>
+    <row r="38" spans="1:4">
+      <c r="A38" s="707"/>
       <c r="B38" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="1:4" ht="12.7">
-      <c r="A39" s="709"/>
+    <row r="39" spans="1:4">
+      <c r="A39" s="707"/>
       <c r="B39" s="4" t="s">
         <v>64</v>
       </c>
       <c r="C39" s="3"/>
     </row>
-    <row r="40" spans="1:4" ht="12.7">
-      <c r="A40" s="708" t="s">
+    <row r="40" spans="1:4">
+      <c r="A40" s="706" t="s">
         <v>65</v>
       </c>
       <c r="B40" s="4" t="s">
@@ -8574,30 +8574,30 @@
       </c>
       <c r="C40" s="3"/>
     </row>
-    <row r="41" spans="1:4" ht="12.7">
-      <c r="A41" s="709"/>
+    <row r="41" spans="1:4">
+      <c r="A41" s="707"/>
       <c r="B41" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:4" ht="12.7">
-      <c r="A42" s="709"/>
+    <row r="42" spans="1:4">
+      <c r="A42" s="707"/>
       <c r="B42" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="1:4" ht="12.7">
-      <c r="A43" s="709"/>
+    <row r="43" spans="1:4">
+      <c r="A43" s="707"/>
       <c r="B43" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:4" ht="12.7">
-      <c r="A44" s="708" t="s">
+    <row r="44" spans="1:4">
+      <c r="A44" s="706" t="s">
         <v>70</v>
       </c>
       <c r="B44" s="4" t="s">
@@ -8605,496 +8605,496 @@
       </c>
       <c r="C44" s="3"/>
     </row>
-    <row r="45" spans="1:4" ht="12.7">
-      <c r="A45" s="709"/>
+    <row r="45" spans="1:4">
+      <c r="A45" s="707"/>
       <c r="B45" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="12.7">
-      <c r="A46" s="709"/>
+    <row r="46" spans="1:4">
+      <c r="A46" s="707"/>
       <c r="B46" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C46" s="3"/>
     </row>
-    <row r="47" spans="1:4" ht="12.7">
-      <c r="A47" s="709"/>
+    <row r="47" spans="1:4">
+      <c r="A47" s="707"/>
       <c r="B47" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="1:4" ht="12.7">
-      <c r="A48" s="709"/>
+    <row r="48" spans="1:4">
+      <c r="A48" s="707"/>
       <c r="B48" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C48" s="3"/>
     </row>
-    <row r="49" spans="3:3" ht="12.7">
+    <row r="49" spans="3:3">
       <c r="C49" s="3"/>
     </row>
-    <row r="50" spans="3:3" ht="12.7">
+    <row r="50" spans="3:3">
       <c r="C50" s="3"/>
     </row>
-    <row r="51" spans="3:3" ht="12.7">
+    <row r="51" spans="3:3">
       <c r="C51" s="3"/>
     </row>
-    <row r="52" spans="3:3" ht="12.7">
+    <row r="52" spans="3:3">
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="3:3" ht="12.7">
+    <row r="53" spans="3:3">
       <c r="C53" s="3"/>
     </row>
-    <row r="54" spans="3:3" ht="12.7">
+    <row r="54" spans="3:3">
       <c r="C54" s="3"/>
     </row>
-    <row r="55" spans="3:3" ht="12.7">
+    <row r="55" spans="3:3">
       <c r="C55" s="3"/>
     </row>
-    <row r="56" spans="3:3" ht="12.7">
+    <row r="56" spans="3:3">
       <c r="C56" s="3"/>
     </row>
-    <row r="57" spans="3:3" ht="12.7">
+    <row r="57" spans="3:3">
       <c r="C57" s="3"/>
     </row>
-    <row r="58" spans="3:3" ht="12.7">
+    <row r="58" spans="3:3">
       <c r="C58" s="3"/>
     </row>
-    <row r="59" spans="3:3" ht="12.7">
+    <row r="59" spans="3:3">
       <c r="C59" s="3"/>
     </row>
-    <row r="60" spans="3:3" ht="12.7">
+    <row r="60" spans="3:3">
       <c r="C60" s="3"/>
     </row>
-    <row r="61" spans="3:3" ht="12.7">
+    <row r="61" spans="3:3">
       <c r="C61" s="3"/>
     </row>
-    <row r="62" spans="3:3" ht="12.7">
+    <row r="62" spans="3:3">
       <c r="C62" s="3"/>
     </row>
-    <row r="63" spans="3:3" ht="12.7">
+    <row r="63" spans="3:3">
       <c r="C63" s="3"/>
     </row>
-    <row r="64" spans="3:3" ht="12.7">
+    <row r="64" spans="3:3">
       <c r="C64" s="3"/>
     </row>
-    <row r="65" spans="3:3" ht="12.7">
+    <row r="65" spans="3:3">
       <c r="C65" s="3"/>
     </row>
-    <row r="66" spans="3:3" ht="12.7">
+    <row r="66" spans="3:3">
       <c r="C66" s="3"/>
     </row>
-    <row r="67" spans="3:3" ht="12.7">
+    <row r="67" spans="3:3">
       <c r="C67" s="3"/>
     </row>
-    <row r="68" spans="3:3" ht="12.7">
+    <row r="68" spans="3:3">
       <c r="C68" s="3"/>
     </row>
-    <row r="69" spans="3:3" ht="12.7">
+    <row r="69" spans="3:3">
       <c r="C69" s="3"/>
     </row>
-    <row r="70" spans="3:3" ht="12.7">
+    <row r="70" spans="3:3">
       <c r="C70" s="3"/>
     </row>
-    <row r="71" spans="3:3" ht="12.7">
+    <row r="71" spans="3:3">
       <c r="C71" s="3"/>
     </row>
-    <row r="72" spans="3:3" ht="12.7">
+    <row r="72" spans="3:3">
       <c r="C72" s="3"/>
     </row>
-    <row r="73" spans="3:3" ht="12.7">
+    <row r="73" spans="3:3">
       <c r="C73" s="3"/>
     </row>
-    <row r="74" spans="3:3" ht="12.7">
+    <row r="74" spans="3:3">
       <c r="C74" s="3"/>
     </row>
-    <row r="75" spans="3:3" ht="12.7">
+    <row r="75" spans="3:3">
       <c r="C75" s="3"/>
     </row>
-    <row r="76" spans="3:3" ht="12.7">
+    <row r="76" spans="3:3">
       <c r="C76" s="3"/>
     </row>
-    <row r="77" spans="3:3" ht="12.7">
+    <row r="77" spans="3:3">
       <c r="C77" s="3"/>
     </row>
-    <row r="78" spans="3:3" ht="12.7">
+    <row r="78" spans="3:3">
       <c r="C78" s="3"/>
     </row>
-    <row r="79" spans="3:3" ht="12.7">
+    <row r="79" spans="3:3">
       <c r="C79" s="3"/>
     </row>
-    <row r="80" spans="3:3" ht="12.7">
+    <row r="80" spans="3:3">
       <c r="C80" s="3"/>
     </row>
-    <row r="81" spans="3:3" ht="12.7">
+    <row r="81" spans="3:3">
       <c r="C81" s="3"/>
     </row>
-    <row r="82" spans="3:3" ht="12.7">
+    <row r="82" spans="3:3">
       <c r="C82" s="3"/>
     </row>
-    <row r="83" spans="3:3" ht="12.7">
+    <row r="83" spans="3:3">
       <c r="C83" s="3"/>
     </row>
-    <row r="84" spans="3:3" ht="12.7">
+    <row r="84" spans="3:3">
       <c r="C84" s="3"/>
     </row>
-    <row r="85" spans="3:3" ht="12.7">
+    <row r="85" spans="3:3">
       <c r="C85" s="3"/>
     </row>
-    <row r="86" spans="3:3" ht="12.7">
+    <row r="86" spans="3:3">
       <c r="C86" s="3"/>
     </row>
-    <row r="87" spans="3:3" ht="12.7">
+    <row r="87" spans="3:3">
       <c r="C87" s="3"/>
     </row>
-    <row r="88" spans="3:3" ht="12.7">
+    <row r="88" spans="3:3">
       <c r="C88" s="3"/>
     </row>
-    <row r="89" spans="3:3" ht="12.7">
+    <row r="89" spans="3:3">
       <c r="C89" s="3"/>
     </row>
-    <row r="90" spans="3:3" ht="12.7">
+    <row r="90" spans="3:3">
       <c r="C90" s="3"/>
     </row>
-    <row r="91" spans="3:3" ht="12.7">
+    <row r="91" spans="3:3">
       <c r="C91" s="3"/>
     </row>
-    <row r="92" spans="3:3" ht="12.7">
+    <row r="92" spans="3:3">
       <c r="C92" s="3"/>
     </row>
-    <row r="93" spans="3:3" ht="12.7">
+    <row r="93" spans="3:3">
       <c r="C93" s="3"/>
     </row>
-    <row r="94" spans="3:3" ht="12.7">
+    <row r="94" spans="3:3">
       <c r="C94" s="3"/>
     </row>
-    <row r="95" spans="3:3" ht="12.7">
+    <row r="95" spans="3:3">
       <c r="C95" s="3"/>
     </row>
-    <row r="96" spans="3:3" ht="12.7">
+    <row r="96" spans="3:3">
       <c r="C96" s="3"/>
     </row>
-    <row r="97" spans="3:3" ht="12.7">
+    <row r="97" spans="3:3">
       <c r="C97" s="3"/>
     </row>
-    <row r="98" spans="3:3" ht="12.7">
+    <row r="98" spans="3:3">
       <c r="C98" s="3"/>
     </row>
-    <row r="99" spans="3:3" ht="12.7">
+    <row r="99" spans="3:3">
       <c r="C99" s="3"/>
     </row>
-    <row r="100" spans="3:3" ht="12.7">
+    <row r="100" spans="3:3">
       <c r="C100" s="3"/>
     </row>
-    <row r="101" spans="3:3" ht="12.7">
+    <row r="101" spans="3:3">
       <c r="C101" s="3"/>
     </row>
-    <row r="102" spans="3:3" ht="12.7">
+    <row r="102" spans="3:3">
       <c r="C102" s="3"/>
     </row>
-    <row r="103" spans="3:3" ht="12.7">
+    <row r="103" spans="3:3">
       <c r="C103" s="3"/>
     </row>
-    <row r="104" spans="3:3" ht="12.7">
+    <row r="104" spans="3:3">
       <c r="C104" s="3"/>
     </row>
-    <row r="105" spans="3:3" ht="12.7">
+    <row r="105" spans="3:3">
       <c r="C105" s="3"/>
     </row>
-    <row r="106" spans="3:3" ht="12.7">
+    <row r="106" spans="3:3">
       <c r="C106" s="3"/>
     </row>
-    <row r="107" spans="3:3" ht="12.7">
+    <row r="107" spans="3:3">
       <c r="C107" s="3"/>
     </row>
-    <row r="108" spans="3:3" ht="12.7">
+    <row r="108" spans="3:3">
       <c r="C108" s="3"/>
     </row>
-    <row r="109" spans="3:3" ht="12.7">
+    <row r="109" spans="3:3">
       <c r="C109" s="3"/>
     </row>
-    <row r="110" spans="3:3" ht="12.7">
+    <row r="110" spans="3:3">
       <c r="C110" s="3"/>
     </row>
-    <row r="111" spans="3:3" ht="12.7">
+    <row r="111" spans="3:3">
       <c r="C111" s="3"/>
     </row>
-    <row r="112" spans="3:3" ht="12.7">
+    <row r="112" spans="3:3">
       <c r="C112" s="3"/>
     </row>
-    <row r="113" spans="3:3" ht="12.7">
+    <row r="113" spans="3:3">
       <c r="C113" s="3"/>
     </row>
-    <row r="114" spans="3:3" ht="12.7">
+    <row r="114" spans="3:3">
       <c r="C114" s="3"/>
     </row>
-    <row r="115" spans="3:3" ht="12.7">
+    <row r="115" spans="3:3">
       <c r="C115" s="3"/>
     </row>
-    <row r="116" spans="3:3" ht="12.7">
+    <row r="116" spans="3:3">
       <c r="C116" s="3"/>
     </row>
-    <row r="117" spans="3:3" ht="12.7">
+    <row r="117" spans="3:3">
       <c r="C117" s="3"/>
     </row>
-    <row r="118" spans="3:3" ht="12.7">
+    <row r="118" spans="3:3">
       <c r="C118" s="3"/>
     </row>
-    <row r="119" spans="3:3" ht="12.7">
+    <row r="119" spans="3:3">
       <c r="C119" s="3"/>
     </row>
-    <row r="120" spans="3:3" ht="12.7">
+    <row r="120" spans="3:3">
       <c r="C120" s="3"/>
     </row>
-    <row r="121" spans="3:3" ht="12.7">
+    <row r="121" spans="3:3">
       <c r="C121" s="3"/>
     </row>
-    <row r="122" spans="3:3" ht="12.7">
+    <row r="122" spans="3:3">
       <c r="C122" s="3"/>
     </row>
-    <row r="123" spans="3:3" ht="12.7">
+    <row r="123" spans="3:3">
       <c r="C123" s="3"/>
     </row>
-    <row r="124" spans="3:3" ht="12.7">
+    <row r="124" spans="3:3">
       <c r="C124" s="3"/>
     </row>
-    <row r="125" spans="3:3" ht="12.7">
+    <row r="125" spans="3:3">
       <c r="C125" s="3"/>
     </row>
-    <row r="126" spans="3:3" ht="12.7">
+    <row r="126" spans="3:3">
       <c r="C126" s="3"/>
     </row>
-    <row r="127" spans="3:3" ht="12.7">
+    <row r="127" spans="3:3">
       <c r="C127" s="3"/>
     </row>
-    <row r="128" spans="3:3" ht="12.7">
+    <row r="128" spans="3:3">
       <c r="C128" s="3"/>
     </row>
-    <row r="129" spans="3:3" ht="12.7">
+    <row r="129" spans="3:3">
       <c r="C129" s="3"/>
     </row>
-    <row r="130" spans="3:3" ht="12.7">
+    <row r="130" spans="3:3">
       <c r="C130" s="3"/>
     </row>
-    <row r="131" spans="3:3" ht="12.7">
+    <row r="131" spans="3:3">
       <c r="C131" s="3"/>
     </row>
-    <row r="132" spans="3:3" ht="12.7">
+    <row r="132" spans="3:3">
       <c r="C132" s="3"/>
     </row>
-    <row r="133" spans="3:3" ht="12.7">
+    <row r="133" spans="3:3">
       <c r="C133" s="3"/>
     </row>
-    <row r="134" spans="3:3" ht="12.7">
+    <row r="134" spans="3:3">
       <c r="C134" s="3"/>
     </row>
-    <row r="135" spans="3:3" ht="12.7">
+    <row r="135" spans="3:3">
       <c r="C135" s="3"/>
     </row>
-    <row r="136" spans="3:3" ht="12.7">
+    <row r="136" spans="3:3">
       <c r="C136" s="3"/>
     </row>
-    <row r="137" spans="3:3" ht="12.7">
+    <row r="137" spans="3:3">
       <c r="C137" s="3"/>
     </row>
-    <row r="138" spans="3:3" ht="12.7">
+    <row r="138" spans="3:3">
       <c r="C138" s="3"/>
     </row>
-    <row r="139" spans="3:3" ht="12.7">
+    <row r="139" spans="3:3">
       <c r="C139" s="3"/>
     </row>
-    <row r="140" spans="3:3" ht="12.7">
+    <row r="140" spans="3:3">
       <c r="C140" s="3"/>
     </row>
-    <row r="141" spans="3:3" ht="12.7">
+    <row r="141" spans="3:3">
       <c r="C141" s="3"/>
     </row>
-    <row r="142" spans="3:3" ht="12.7">
+    <row r="142" spans="3:3">
       <c r="C142" s="3"/>
     </row>
-    <row r="143" spans="3:3" ht="12.7">
+    <row r="143" spans="3:3">
       <c r="C143" s="3"/>
     </row>
-    <row r="144" spans="3:3" ht="12.7">
+    <row r="144" spans="3:3">
       <c r="C144" s="3"/>
     </row>
-    <row r="145" spans="3:3" ht="12.7">
+    <row r="145" spans="3:3">
       <c r="C145" s="3"/>
     </row>
-    <row r="146" spans="3:3" ht="12.7">
+    <row r="146" spans="3:3">
       <c r="C146" s="3"/>
     </row>
-    <row r="147" spans="3:3" ht="12.7">
+    <row r="147" spans="3:3">
       <c r="C147" s="3"/>
     </row>
-    <row r="148" spans="3:3" ht="12.7">
+    <row r="148" spans="3:3">
       <c r="C148" s="3"/>
     </row>
-    <row r="149" spans="3:3" ht="12.7">
+    <row r="149" spans="3:3">
       <c r="C149" s="3"/>
     </row>
-    <row r="150" spans="3:3" ht="12.7">
+    <row r="150" spans="3:3">
       <c r="C150" s="3"/>
     </row>
-    <row r="151" spans="3:3" ht="12.7">
+    <row r="151" spans="3:3">
       <c r="C151" s="3"/>
     </row>
-    <row r="152" spans="3:3" ht="12.7">
+    <row r="152" spans="3:3">
       <c r="C152" s="3"/>
     </row>
-    <row r="153" spans="3:3" ht="12.7">
+    <row r="153" spans="3:3">
       <c r="C153" s="3"/>
     </row>
-    <row r="154" spans="3:3" ht="12.7">
+    <row r="154" spans="3:3">
       <c r="C154" s="3"/>
     </row>
-    <row r="155" spans="3:3" ht="12.7">
+    <row r="155" spans="3:3">
       <c r="C155" s="3"/>
     </row>
-    <row r="156" spans="3:3" ht="12.7">
+    <row r="156" spans="3:3">
       <c r="C156" s="3"/>
     </row>
-    <row r="157" spans="3:3" ht="12.7">
+    <row r="157" spans="3:3">
       <c r="C157" s="3"/>
     </row>
-    <row r="158" spans="3:3" ht="12.7">
+    <row r="158" spans="3:3">
       <c r="C158" s="3"/>
     </row>
-    <row r="159" spans="3:3" ht="12.7">
+    <row r="159" spans="3:3">
       <c r="C159" s="3"/>
     </row>
-    <row r="160" spans="3:3" ht="12.7">
+    <row r="160" spans="3:3">
       <c r="C160" s="3"/>
     </row>
-    <row r="161" spans="3:3" ht="12.7">
+    <row r="161" spans="3:3">
       <c r="C161" s="3"/>
     </row>
-    <row r="162" spans="3:3" ht="12.7">
+    <row r="162" spans="3:3">
       <c r="C162" s="3"/>
     </row>
-    <row r="163" spans="3:3" ht="12.7">
+    <row r="163" spans="3:3">
       <c r="C163" s="3"/>
     </row>
-    <row r="164" spans="3:3" ht="12.7">
+    <row r="164" spans="3:3">
       <c r="C164" s="3"/>
     </row>
-    <row r="165" spans="3:3" ht="12.7">
+    <row r="165" spans="3:3">
       <c r="C165" s="3"/>
     </row>
-    <row r="166" spans="3:3" ht="12.7">
+    <row r="166" spans="3:3">
       <c r="C166" s="3"/>
     </row>
-    <row r="167" spans="3:3" ht="12.7">
+    <row r="167" spans="3:3">
       <c r="C167" s="3"/>
     </row>
-    <row r="168" spans="3:3" ht="12.7">
+    <row r="168" spans="3:3">
       <c r="C168" s="3"/>
     </row>
-    <row r="169" spans="3:3" ht="12.7">
+    <row r="169" spans="3:3">
       <c r="C169" s="3"/>
     </row>
-    <row r="170" spans="3:3" ht="12.7">
+    <row r="170" spans="3:3">
       <c r="C170" s="3"/>
     </row>
-    <row r="171" spans="3:3" ht="12.7">
+    <row r="171" spans="3:3">
       <c r="C171" s="3"/>
     </row>
-    <row r="172" spans="3:3" ht="12.7">
+    <row r="172" spans="3:3">
       <c r="C172" s="3"/>
     </row>
-    <row r="173" spans="3:3" ht="12.7">
+    <row r="173" spans="3:3">
       <c r="C173" s="3"/>
     </row>
-    <row r="174" spans="3:3" ht="12.7">
+    <row r="174" spans="3:3">
       <c r="C174" s="3"/>
     </row>
-    <row r="175" spans="3:3" ht="12.7">
+    <row r="175" spans="3:3">
       <c r="C175" s="3"/>
     </row>
-    <row r="176" spans="3:3" ht="12.7">
+    <row r="176" spans="3:3">
       <c r="C176" s="3"/>
     </row>
-    <row r="177" spans="3:3" ht="12.7">
+    <row r="177" spans="3:3">
       <c r="C177" s="3"/>
     </row>
-    <row r="178" spans="3:3" ht="12.7">
+    <row r="178" spans="3:3">
       <c r="C178" s="3"/>
     </row>
-    <row r="179" spans="3:3" ht="12.7">
+    <row r="179" spans="3:3">
       <c r="C179" s="3"/>
     </row>
-    <row r="180" spans="3:3" ht="12.7">
+    <row r="180" spans="3:3">
       <c r="C180" s="3"/>
     </row>
-    <row r="181" spans="3:3" ht="12.7">
+    <row r="181" spans="3:3">
       <c r="C181" s="3"/>
     </row>
-    <row r="182" spans="3:3" ht="12.7">
+    <row r="182" spans="3:3">
       <c r="C182" s="3"/>
     </row>
-    <row r="183" spans="3:3" ht="12.7">
+    <row r="183" spans="3:3">
       <c r="C183" s="3"/>
     </row>
-    <row r="184" spans="3:3" ht="12.7">
+    <row r="184" spans="3:3">
       <c r="C184" s="3"/>
     </row>
-    <row r="185" spans="3:3" ht="12.7">
+    <row r="185" spans="3:3">
       <c r="C185" s="3"/>
     </row>
-    <row r="186" spans="3:3" ht="12.7">
+    <row r="186" spans="3:3">
       <c r="C186" s="3"/>
     </row>
-    <row r="187" spans="3:3" ht="12.7">
+    <row r="187" spans="3:3">
       <c r="C187" s="3"/>
     </row>
-    <row r="188" spans="3:3" ht="12.7">
+    <row r="188" spans="3:3">
       <c r="C188" s="3"/>
     </row>
-    <row r="189" spans="3:3" ht="12.7">
+    <row r="189" spans="3:3">
       <c r="C189" s="3"/>
     </row>
-    <row r="190" spans="3:3" ht="12.7">
+    <row r="190" spans="3:3">
       <c r="C190" s="3"/>
     </row>
-    <row r="191" spans="3:3" ht="12.7">
+    <row r="191" spans="3:3">
       <c r="C191" s="3"/>
     </row>
-    <row r="192" spans="3:3" ht="12.7">
+    <row r="192" spans="3:3">
       <c r="C192" s="3"/>
     </row>
-    <row r="193" spans="3:3" ht="12.7">
+    <row r="193" spans="3:3">
       <c r="C193" s="3"/>
     </row>
-    <row r="194" spans="3:3" ht="12.7">
+    <row r="194" spans="3:3">
       <c r="C194" s="3"/>
     </row>
-    <row r="195" spans="3:3" ht="12.7">
+    <row r="195" spans="3:3">
       <c r="C195" s="3"/>
     </row>
-    <row r="196" spans="3:3" ht="12.7">
+    <row r="196" spans="3:3">
       <c r="C196" s="3"/>
     </row>
-    <row r="197" spans="3:3" ht="12.7">
+    <row r="197" spans="3:3">
       <c r="C197" s="3"/>
     </row>
-    <row r="198" spans="3:3" ht="12.7">
+    <row r="198" spans="3:3">
       <c r="C198" s="3"/>
     </row>
-    <row r="199" spans="3:3" ht="12.7">
+    <row r="199" spans="3:3">
       <c r="C199" s="3"/>
     </row>
-    <row r="200" spans="3:3" ht="12.7">
+    <row r="200" spans="3:3">
       <c r="C200" s="3"/>
     </row>
-    <row r="201" spans="3:3" ht="12.7">
+    <row r="201" spans="3:3">
       <c r="C201" s="3"/>
     </row>
-    <row r="202" spans="3:3" ht="12.7">
+    <row r="202" spans="3:3">
       <c r="C202" s="3"/>
     </row>
-    <row r="203" spans="3:3" ht="12.7">
+    <row r="203" spans="3:3">
       <c r="C203" s="3"/>
     </row>
   </sheetData>
@@ -9123,9 +9123,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="12.7"/>
   <sheetData>
-    <row r="1" spans="1:24" ht="12.7">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>435</v>
       </c>
@@ -9199,7 +9199,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="12.7">
+    <row r="2" spans="1:24">
       <c r="A2" s="1" t="s">
         <v>459</v>
       </c>
@@ -9231,7 +9231,7 @@
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="1:24" ht="12.7">
+    <row r="3" spans="1:24">
       <c r="A3" s="1" t="s">
         <v>439</v>
       </c>
@@ -9261,7 +9261,7 @@
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:24" ht="12.7">
+    <row r="4" spans="1:24">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -9297,7 +9297,7 @@
       </c>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:24" ht="12.7">
+    <row r="5" spans="1:24">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -9333,7 +9333,7 @@
       </c>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:24" ht="12.7">
+    <row r="6" spans="1:24">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -9373,7 +9373,7 @@
       </c>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:24" ht="12.7">
+    <row r="7" spans="1:24">
       <c r="A7" s="1" t="s">
         <v>59</v>
       </c>
@@ -9409,7 +9409,7 @@
       </c>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:24" ht="12.7">
+    <row r="8" spans="1:24">
       <c r="A8" s="1" t="s">
         <v>66</v>
       </c>
@@ -9445,7 +9445,7 @@
       </c>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:24" ht="12.7">
+    <row r="9" spans="1:24">
       <c r="A9" s="1" t="s">
         <v>399</v>
       </c>
@@ -9481,7 +9481,7 @@
       </c>
       <c r="X9" s="1"/>
     </row>
-    <row r="10" spans="1:24" ht="12.7">
+    <row r="10" spans="1:24">
       <c r="A10" s="1" t="s">
         <v>404</v>
       </c>
@@ -9517,7 +9517,7 @@
       </c>
       <c r="X10" s="1"/>
     </row>
-    <row r="11" spans="1:24" ht="12.7">
+    <row r="11" spans="1:24">
       <c r="A11" s="1" t="s">
         <v>67</v>
       </c>
@@ -9569,7 +9569,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="12.7"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="44" customWidth="1"/>
@@ -9799,7 +9799,7 @@
       <c r="C15" s="39">
         <v>560</v>
       </c>
-      <c r="D15" s="714"/>
+      <c r="D15" s="723"/>
       <c r="E15" s="121"/>
       <c r="F15" s="30"/>
       <c r="G15" s="30"/>
@@ -9880,7 +9880,7 @@
       <c r="B21" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C21" s="717"/>
+      <c r="C21" s="718"/>
       <c r="D21" s="30"/>
       <c r="E21" s="30"/>
       <c r="F21" s="30"/>
@@ -10161,7 +10161,7 @@
       <c r="C41" s="77">
         <v>560</v>
       </c>
-      <c r="D41" s="718"/>
+      <c r="D41" s="714"/>
       <c r="E41" s="147"/>
       <c r="F41" s="30"/>
       <c r="G41" s="30"/>
@@ -10242,7 +10242,7 @@
       <c r="B47" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C47" s="717"/>
+      <c r="C47" s="718"/>
       <c r="D47" s="30"/>
       <c r="E47" s="30"/>
       <c r="F47" s="30"/>
@@ -10577,7 +10577,7 @@
       <c r="C71" s="39">
         <v>560</v>
       </c>
-      <c r="D71" s="718"/>
+      <c r="D71" s="714"/>
       <c r="E71" s="30"/>
       <c r="F71" s="30"/>
       <c r="G71" s="30"/>
@@ -10658,7 +10658,7 @@
       <c r="B77" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C77" s="717"/>
+      <c r="C77" s="718"/>
       <c r="D77" s="30"/>
       <c r="E77" s="30"/>
       <c r="F77" s="30"/>
@@ -10832,10 +10832,10 @@
       </c>
       <c r="E91" s="30"/>
       <c r="F91" s="30"/>
-      <c r="G91" s="719" t="s">
+      <c r="G91" s="721" t="s">
         <v>134</v>
       </c>
-      <c r="H91" s="720"/>
+      <c r="H91" s="722"/>
     </row>
     <row r="92" spans="1:8" ht="14.35">
       <c r="A92" s="30"/>
@@ -10963,7 +10963,7 @@
       <c r="C99" s="39">
         <v>560</v>
       </c>
-      <c r="D99" s="718"/>
+      <c r="D99" s="714"/>
       <c r="E99" s="30"/>
       <c r="F99" s="30"/>
       <c r="G99" s="30"/>
@@ -11044,7 +11044,7 @@
       <c r="B105" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C105" s="721"/>
+      <c r="C105" s="717"/>
       <c r="D105" s="30"/>
       <c r="E105" s="30"/>
       <c r="F105" s="30"/>
@@ -11343,7 +11343,7 @@
       <c r="C128" s="39">
         <v>560</v>
       </c>
-      <c r="D128" s="718"/>
+      <c r="D128" s="714"/>
       <c r="E128" s="30"/>
       <c r="F128" s="30"/>
       <c r="G128" s="30"/>
@@ -11424,7 +11424,7 @@
       <c r="B134" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C134" s="721"/>
+      <c r="C134" s="717"/>
       <c r="D134" s="30"/>
       <c r="E134" s="30"/>
       <c r="F134" s="30"/>
@@ -11697,7 +11697,7 @@
       <c r="C158" s="39">
         <v>560</v>
       </c>
-      <c r="D158" s="718"/>
+      <c r="D158" s="714"/>
       <c r="E158" s="30"/>
     </row>
     <row r="159" spans="1:8" ht="14.35">
@@ -11760,7 +11760,7 @@
       <c r="B164" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C164" s="721"/>
+      <c r="C164" s="717"/>
       <c r="D164" s="30"/>
       <c r="E164" s="30"/>
     </row>
@@ -11900,7 +11900,7 @@
       <c r="C179" s="77">
         <v>560</v>
       </c>
-      <c r="D179" s="718"/>
+      <c r="D179" s="714"/>
       <c r="E179" s="30"/>
       <c r="F179" s="30"/>
       <c r="G179" s="30"/>
@@ -11981,7 +11981,7 @@
       <c r="B185" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C185" s="717"/>
+      <c r="C185" s="718"/>
       <c r="D185" s="30"/>
       <c r="E185" s="30"/>
       <c r="F185" s="30"/>
@@ -12178,7 +12178,7 @@
       <c r="C201" s="77">
         <v>560</v>
       </c>
-      <c r="D201" s="718"/>
+      <c r="D201" s="714"/>
       <c r="E201" s="30"/>
       <c r="F201" s="30"/>
       <c r="G201" s="30"/>
@@ -12258,7 +12258,7 @@
       <c r="B207" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C207" s="717"/>
+      <c r="C207" s="718"/>
       <c r="D207" s="30"/>
       <c r="E207" s="30"/>
       <c r="F207" s="30"/>
@@ -12753,7 +12753,7 @@
       <c r="C242" s="39">
         <v>560</v>
       </c>
-      <c r="D242" s="718"/>
+      <c r="D242" s="714"/>
       <c r="E242" s="30"/>
       <c r="F242" s="30"/>
       <c r="G242" s="30"/>
@@ -12834,7 +12834,7 @@
       <c r="B248" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C248" s="721"/>
+      <c r="C248" s="717"/>
       <c r="D248" s="30"/>
       <c r="E248" s="30"/>
       <c r="F248" s="30"/>
@@ -13223,7 +13223,7 @@
       <c r="C278" s="39">
         <v>560</v>
       </c>
-      <c r="D278" s="718"/>
+      <c r="D278" s="714"/>
       <c r="E278" s="30"/>
       <c r="F278" s="30"/>
       <c r="G278" s="30"/>
@@ -13304,7 +13304,7 @@
       <c r="B284" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C284" s="721"/>
+      <c r="C284" s="717"/>
       <c r="D284" s="30"/>
       <c r="E284" s="30"/>
       <c r="F284" s="30"/>
@@ -13534,7 +13534,7 @@
       <c r="C304" s="39">
         <v>560</v>
       </c>
-      <c r="D304" s="718"/>
+      <c r="D304" s="714"/>
       <c r="E304" s="30"/>
       <c r="F304" s="30"/>
       <c r="G304" s="30"/>
@@ -13615,7 +13615,7 @@
       <c r="B310" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C310" s="721"/>
+      <c r="C310" s="717"/>
       <c r="D310" s="30"/>
       <c r="E310" s="30"/>
       <c r="F310" s="30"/>
@@ -13802,7 +13802,7 @@
       <c r="C327" s="39">
         <v>560</v>
       </c>
-      <c r="D327" s="718"/>
+      <c r="D327" s="714"/>
       <c r="E327" s="30"/>
       <c r="F327" s="30"/>
       <c r="G327" s="30"/>
@@ -13883,7 +13883,7 @@
       <c r="B333" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C333" s="721"/>
+      <c r="C333" s="717"/>
       <c r="D333" s="30"/>
       <c r="E333" s="30"/>
       <c r="F333" s="30"/>
@@ -14076,7 +14076,7 @@
       <c r="C349" s="39">
         <v>560</v>
       </c>
-      <c r="D349" s="718"/>
+      <c r="D349" s="714"/>
       <c r="F349" s="30"/>
       <c r="G349" s="30"/>
       <c r="H349" s="30"/>
@@ -14151,7 +14151,7 @@
       <c r="B355" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C355" s="721"/>
+      <c r="C355" s="717"/>
       <c r="D355" s="30"/>
       <c r="F355" s="30"/>
       <c r="G355" s="30"/>
@@ -14496,7 +14496,7 @@
       <c r="C383" s="39">
         <v>560</v>
       </c>
-      <c r="D383" s="718"/>
+      <c r="D383" s="714"/>
       <c r="E383" s="30"/>
       <c r="F383" s="30"/>
       <c r="G383" s="30"/>
@@ -14577,7 +14577,7 @@
       <c r="B389" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C389" s="721"/>
+      <c r="C389" s="717"/>
       <c r="D389" s="30"/>
       <c r="E389" s="30"/>
       <c r="F389" s="30"/>
@@ -14925,7 +14925,7 @@
       <c r="C418" s="39">
         <v>560</v>
       </c>
-      <c r="D418" s="718"/>
+      <c r="D418" s="714"/>
       <c r="E418" s="30"/>
       <c r="F418" s="30"/>
       <c r="G418" s="30"/>
@@ -15006,7 +15006,7 @@
       <c r="B424" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C424" s="721"/>
+      <c r="C424" s="717"/>
       <c r="D424" s="30"/>
       <c r="E424" s="30"/>
       <c r="F424" s="30"/>
@@ -15332,7 +15332,7 @@
       <c r="B451" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C451" s="721"/>
+      <c r="C451" s="717"/>
       <c r="D451" s="30"/>
       <c r="E451" s="30"/>
       <c r="F451" s="30"/>
@@ -15547,7 +15547,7 @@
       <c r="C469" s="39">
         <v>560</v>
       </c>
-      <c r="D469" s="718"/>
+      <c r="D469" s="714"/>
       <c r="E469" s="30"/>
       <c r="F469" s="30"/>
       <c r="G469" s="30"/>
@@ -15628,7 +15628,7 @@
       <c r="B475" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C475" s="721"/>
+      <c r="C475" s="717"/>
       <c r="D475" s="30"/>
       <c r="E475" s="30"/>
       <c r="F475" s="30"/>
@@ -15855,7 +15855,7 @@
       <c r="C494" s="39">
         <v>560</v>
       </c>
-      <c r="D494" s="718"/>
+      <c r="D494" s="714"/>
       <c r="E494" s="121" t="s">
         <v>670</v>
       </c>
@@ -15938,7 +15938,7 @@
       <c r="B500" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C500" s="721"/>
+      <c r="C500" s="717"/>
       <c r="D500" s="30"/>
       <c r="E500" s="30"/>
       <c r="F500" s="30"/>
@@ -15997,7 +15997,6 @@
       <c r="G505" s="30"/>
       <c r="H505" s="30"/>
     </row>
-    <row r="506" spans="1:8" ht="12.7"/>
     <row r="507" spans="1:8" ht="14.35">
       <c r="A507" s="30"/>
       <c r="F507" s="30"/>
@@ -16160,7 +16159,7 @@
       <c r="C519" s="39">
         <v>560</v>
       </c>
-      <c r="D519" s="718"/>
+      <c r="D519" s="714"/>
       <c r="E519" s="121" t="s">
         <v>672</v>
       </c>
@@ -16243,7 +16242,7 @@
       <c r="B525" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C525" s="721"/>
+      <c r="C525" s="717"/>
       <c r="D525" s="30"/>
       <c r="E525" s="30"/>
       <c r="F525" s="30"/>
@@ -16510,7 +16509,7 @@
       <c r="C547" s="39">
         <v>560</v>
       </c>
-      <c r="D547" s="718"/>
+      <c r="D547" s="714"/>
       <c r="E547" s="30"/>
       <c r="F547" s="30"/>
       <c r="G547" s="30"/>
@@ -16591,7 +16590,7 @@
       <c r="B553" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C553" s="721"/>
+      <c r="C553" s="717"/>
       <c r="D553" s="30"/>
       <c r="E553" s="30"/>
       <c r="F553" s="30"/>
@@ -16922,7 +16921,7 @@
       <c r="C580" s="39">
         <v>560</v>
       </c>
-      <c r="D580" s="718"/>
+      <c r="D580" s="714"/>
       <c r="E580" s="30"/>
       <c r="F580" s="30"/>
       <c r="G580" s="30"/>
@@ -17003,7 +17002,7 @@
       <c r="B586" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C586" s="721"/>
+      <c r="C586" s="717"/>
       <c r="D586" s="30"/>
       <c r="E586" s="30"/>
       <c r="F586" s="30"/>
@@ -17267,7 +17266,7 @@
       <c r="C608" s="39">
         <v>560</v>
       </c>
-      <c r="D608" s="718"/>
+      <c r="D608" s="714"/>
       <c r="E608" s="30"/>
       <c r="F608" s="30"/>
       <c r="G608" s="30"/>
@@ -17348,7 +17347,7 @@
       <c r="B614" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C614" s="721"/>
+      <c r="C614" s="717"/>
       <c r="D614" s="30"/>
       <c r="E614" s="30"/>
       <c r="F614" s="30"/>
@@ -17632,7 +17631,7 @@
       <c r="B637" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C637" s="721"/>
+      <c r="C637" s="717"/>
       <c r="D637" s="30"/>
       <c r="E637" s="30"/>
       <c r="F637" s="30"/>
@@ -17927,10 +17926,10 @@
     </row>
     <row r="660" spans="1:8" ht="14.35">
       <c r="A660" s="30"/>
-      <c r="B660" s="722" t="s">
+      <c r="B660" s="719" t="s">
         <v>109</v>
       </c>
-      <c r="C660" s="723"/>
+      <c r="C660" s="720"/>
       <c r="D660" s="30"/>
       <c r="E660" s="30"/>
       <c r="F660" s="30"/>
@@ -18229,10 +18228,10 @@
     </row>
     <row r="683" spans="1:8" ht="14.35">
       <c r="A683" s="30"/>
-      <c r="B683" s="722" t="s">
+      <c r="B683" s="719" t="s">
         <v>109</v>
       </c>
-      <c r="C683" s="723"/>
+      <c r="C683" s="720"/>
       <c r="D683" s="30"/>
       <c r="E683" s="30"/>
       <c r="F683" s="30"/>
@@ -18596,7 +18595,7 @@
       <c r="B711" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C711" s="721"/>
+      <c r="C711" s="717"/>
       <c r="D711" s="30"/>
       <c r="E711" s="30"/>
       <c r="F711" s="30"/>
@@ -18841,7 +18840,7 @@
       <c r="C729" s="39">
         <v>560</v>
       </c>
-      <c r="D729" s="718"/>
+      <c r="D729" s="714"/>
       <c r="E729" s="30"/>
       <c r="F729" s="30"/>
       <c r="G729" s="30"/>
@@ -18922,7 +18921,7 @@
       <c r="B735" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C735" s="721"/>
+      <c r="C735" s="717"/>
       <c r="D735" s="30"/>
       <c r="E735" s="30"/>
       <c r="F735" s="30"/>
@@ -19183,7 +19182,7 @@
       <c r="C756" s="39">
         <v>560</v>
       </c>
-      <c r="D756" s="718"/>
+      <c r="D756" s="714"/>
       <c r="E756" s="30"/>
       <c r="F756" s="30"/>
       <c r="G756" s="30"/>
@@ -19264,7 +19263,7 @@
       <c r="B762" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C762" s="721"/>
+      <c r="C762" s="717"/>
       <c r="D762" s="30"/>
       <c r="E762" s="30"/>
       <c r="F762" s="30"/>
@@ -19590,7 +19589,7 @@
       <c r="B789" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C789" s="717"/>
+      <c r="C789" s="718"/>
       <c r="D789" s="30"/>
       <c r="E789" s="30"/>
       <c r="F789" s="30"/>
@@ -19916,7 +19915,7 @@
       <c r="B816" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C816" s="717"/>
+      <c r="C816" s="718"/>
       <c r="D816" s="30"/>
       <c r="E816" s="30"/>
       <c r="F816" s="30"/>
@@ -20207,7 +20206,7 @@
       <c r="C839" s="77">
         <v>560</v>
       </c>
-      <c r="D839" s="718"/>
+      <c r="D839" s="714"/>
       <c r="E839" s="121"/>
       <c r="F839" s="30"/>
       <c r="G839" s="30"/>
@@ -20288,7 +20287,7 @@
       <c r="B845" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C845" s="717"/>
+      <c r="C845" s="718"/>
       <c r="D845" s="30"/>
       <c r="E845" s="30"/>
       <c r="F845" s="30"/>
@@ -20669,7 +20668,7 @@
       <c r="B876" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C876" s="717"/>
+      <c r="C876" s="718"/>
       <c r="D876" s="30"/>
       <c r="E876" s="30"/>
       <c r="F876" s="30"/>
@@ -21025,7 +21024,7 @@
       <c r="B907" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C907" s="717"/>
+      <c r="C907" s="718"/>
       <c r="D907" s="30"/>
       <c r="E907" s="30"/>
       <c r="F907" s="30"/>
@@ -21298,7 +21297,7 @@
       <c r="B931" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C931" s="717"/>
+      <c r="C931" s="718"/>
       <c r="D931" s="30"/>
       <c r="E931" s="30"/>
       <c r="F931" s="30"/>
@@ -21648,7 +21647,7 @@
       <c r="B958" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C958" s="717"/>
+      <c r="C958" s="718"/>
       <c r="D958" s="30"/>
       <c r="E958" s="30"/>
       <c r="F958" s="30"/>
@@ -21944,7 +21943,7 @@
       <c r="B981" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C981" s="717"/>
+      <c r="C981" s="718"/>
       <c r="D981" s="30"/>
       <c r="E981" s="30"/>
       <c r="F981" s="30"/>
@@ -22240,7 +22239,7 @@
       <c r="B1005" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C1005" s="717"/>
+      <c r="C1005" s="718"/>
       <c r="D1005" s="30"/>
       <c r="E1005" s="30"/>
       <c r="F1005" s="30"/>
@@ -22436,7 +22435,7 @@
       <c r="B1024" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C1024" s="717"/>
+      <c r="C1024" s="718"/>
       <c r="F1024" s="30"/>
       <c r="G1024" s="30"/>
       <c r="H1024" s="30"/>
@@ -22663,7 +22662,7 @@
       <c r="C1042" s="39">
         <v>560</v>
       </c>
-      <c r="D1042" s="718"/>
+      <c r="D1042" s="714"/>
       <c r="E1042" s="30"/>
       <c r="F1042" s="30"/>
       <c r="G1042" s="30"/>
@@ -22744,7 +22743,7 @@
       <c r="B1048" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C1048" s="721"/>
+      <c r="C1048" s="717"/>
       <c r="D1048" s="30"/>
       <c r="E1048" s="30"/>
       <c r="F1048" s="30"/>
@@ -23010,7 +23009,7 @@
       <c r="B1070" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C1070" s="717"/>
+      <c r="C1070" s="718"/>
       <c r="D1070" s="30"/>
       <c r="E1070" s="30"/>
       <c r="F1070" s="30"/>
@@ -23255,7 +23254,7 @@
       <c r="C1089" s="39">
         <v>560</v>
       </c>
-      <c r="D1089" s="718"/>
+      <c r="D1089" s="714"/>
       <c r="E1089" s="30"/>
       <c r="F1089" s="30"/>
       <c r="G1089" s="30"/>
@@ -23330,7 +23329,7 @@
       <c r="B1095" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C1095" s="721"/>
+      <c r="C1095" s="717"/>
       <c r="D1095" s="30"/>
       <c r="E1095" s="30"/>
       <c r="F1095" s="30"/>
@@ -23606,7 +23605,7 @@
       <c r="C1120" s="39">
         <v>560</v>
       </c>
-      <c r="D1120" s="718"/>
+      <c r="D1120" s="714"/>
       <c r="E1120" s="30"/>
       <c r="F1120" s="30"/>
       <c r="G1120" s="30"/>
@@ -23683,7 +23682,7 @@
       <c r="B1126" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C1126" s="721"/>
+      <c r="C1126" s="717"/>
       <c r="D1126" s="30"/>
       <c r="E1126" s="30"/>
       <c r="F1126" s="30"/>
@@ -24046,7 +24045,7 @@
       <c r="B1155" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C1155" s="721"/>
+      <c r="C1155" s="717"/>
       <c r="D1155" s="30"/>
       <c r="E1155" s="30"/>
       <c r="F1155" s="30"/>
@@ -24155,6 +24154,61 @@
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D41:D46"/>
+    <mergeCell ref="D71:D75"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="D99:D103"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="D128:D132"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="D158:D162"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="D179:D184"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="D201:D206"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="D242:D246"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="D278:D282"/>
+    <mergeCell ref="B284:C284"/>
+    <mergeCell ref="D304:D308"/>
+    <mergeCell ref="B310:C310"/>
+    <mergeCell ref="D327:D331"/>
+    <mergeCell ref="B333:C333"/>
+    <mergeCell ref="D383:D387"/>
+    <mergeCell ref="B389:C389"/>
+    <mergeCell ref="D418:D422"/>
+    <mergeCell ref="B424:C424"/>
+    <mergeCell ref="B451:C451"/>
+    <mergeCell ref="D469:D473"/>
+    <mergeCell ref="B475:C475"/>
+    <mergeCell ref="D494:D498"/>
+    <mergeCell ref="B500:C500"/>
+    <mergeCell ref="D519:D523"/>
+    <mergeCell ref="B525:C525"/>
+    <mergeCell ref="D547:D551"/>
+    <mergeCell ref="B553:C553"/>
+    <mergeCell ref="D580:D584"/>
+    <mergeCell ref="B586:C586"/>
+    <mergeCell ref="D608:D612"/>
+    <mergeCell ref="B614:C614"/>
+    <mergeCell ref="B637:C637"/>
+    <mergeCell ref="B660:C660"/>
+    <mergeCell ref="B683:C683"/>
+    <mergeCell ref="B711:C711"/>
+    <mergeCell ref="D839:D844"/>
+    <mergeCell ref="B845:C845"/>
+    <mergeCell ref="B876:C876"/>
+    <mergeCell ref="B907:C907"/>
+    <mergeCell ref="D729:D733"/>
+    <mergeCell ref="B735:C735"/>
+    <mergeCell ref="D756:D760"/>
+    <mergeCell ref="B762:C762"/>
+    <mergeCell ref="B789:C789"/>
     <mergeCell ref="D1120:D1124"/>
     <mergeCell ref="B1126:C1126"/>
     <mergeCell ref="B1155:C1155"/>
@@ -24171,61 +24225,6 @@
     <mergeCell ref="B1005:C1005"/>
     <mergeCell ref="B1024:C1024"/>
     <mergeCell ref="B816:C816"/>
-    <mergeCell ref="D839:D844"/>
-    <mergeCell ref="B845:C845"/>
-    <mergeCell ref="B876:C876"/>
-    <mergeCell ref="B907:C907"/>
-    <mergeCell ref="D729:D733"/>
-    <mergeCell ref="B735:C735"/>
-    <mergeCell ref="D756:D760"/>
-    <mergeCell ref="B762:C762"/>
-    <mergeCell ref="B789:C789"/>
-    <mergeCell ref="B614:C614"/>
-    <mergeCell ref="B637:C637"/>
-    <mergeCell ref="B660:C660"/>
-    <mergeCell ref="B683:C683"/>
-    <mergeCell ref="B711:C711"/>
-    <mergeCell ref="D547:D551"/>
-    <mergeCell ref="B553:C553"/>
-    <mergeCell ref="D580:D584"/>
-    <mergeCell ref="B586:C586"/>
-    <mergeCell ref="D608:D612"/>
-    <mergeCell ref="B475:C475"/>
-    <mergeCell ref="D494:D498"/>
-    <mergeCell ref="B500:C500"/>
-    <mergeCell ref="D519:D523"/>
-    <mergeCell ref="B525:C525"/>
-    <mergeCell ref="B389:C389"/>
-    <mergeCell ref="D418:D422"/>
-    <mergeCell ref="B424:C424"/>
-    <mergeCell ref="B451:C451"/>
-    <mergeCell ref="D469:D473"/>
-    <mergeCell ref="D304:D308"/>
-    <mergeCell ref="B310:C310"/>
-    <mergeCell ref="D327:D331"/>
-    <mergeCell ref="B333:C333"/>
-    <mergeCell ref="D383:D387"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="D242:D246"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="D278:D282"/>
-    <mergeCell ref="B284:C284"/>
-    <mergeCell ref="D158:D162"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="D179:D184"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="D201:D206"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="D99:D103"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="D128:D132"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D41:D46"/>
-    <mergeCell ref="D71:D75"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <phoneticPr fontId="95" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24241,7 +24240,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="12.7"/>
   <cols>
     <col min="1" max="1" width="13.375" customWidth="1"/>
     <col min="2" max="2" width="57.75" customWidth="1"/>
@@ -24571,7 +24570,7 @@
       <c r="B20" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C20" s="717"/>
+      <c r="C20" s="718"/>
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
@@ -24747,7 +24746,7 @@
         <v>104</v>
       </c>
       <c r="C37" s="77"/>
-      <c r="D37" s="724"/>
+      <c r="D37" s="727"/>
       <c r="E37" s="78"/>
       <c r="K37" s="37"/>
     </row>
@@ -24757,7 +24756,7 @@
         <v>119</v>
       </c>
       <c r="C38" s="39"/>
-      <c r="D38" s="725"/>
+      <c r="D38" s="728"/>
       <c r="E38" s="78"/>
       <c r="K38" s="37"/>
     </row>
@@ -24767,7 +24766,7 @@
         <v>105</v>
       </c>
       <c r="C39" s="39"/>
-      <c r="D39" s="725"/>
+      <c r="D39" s="728"/>
       <c r="E39" s="68"/>
       <c r="K39" s="37"/>
     </row>
@@ -24777,7 +24776,7 @@
         <v>106</v>
       </c>
       <c r="C40" s="39"/>
-      <c r="D40" s="725"/>
+      <c r="D40" s="728"/>
       <c r="E40" s="68"/>
       <c r="K40" s="37"/>
     </row>
@@ -24787,7 +24786,7 @@
         <v>107</v>
       </c>
       <c r="C41" s="39"/>
-      <c r="D41" s="725"/>
+      <c r="D41" s="728"/>
       <c r="E41" s="68"/>
       <c r="K41" s="37"/>
     </row>
@@ -24797,7 +24796,7 @@
         <v>956</v>
       </c>
       <c r="C42" s="39"/>
-      <c r="D42" s="725"/>
+      <c r="D42" s="728"/>
       <c r="E42" s="68"/>
       <c r="K42" s="37"/>
     </row>
@@ -24806,7 +24805,7 @@
       <c r="B43" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C43" s="717"/>
+      <c r="C43" s="718"/>
       <c r="D43" s="69"/>
       <c r="E43" s="68"/>
       <c r="K43" s="37"/>
@@ -24995,7 +24994,7 @@
         <v>104</v>
       </c>
       <c r="C58" s="77"/>
-      <c r="D58" s="724"/>
+      <c r="D58" s="727"/>
       <c r="E58" s="78"/>
       <c r="F58" s="63"/>
       <c r="G58" s="63"/>
@@ -25008,7 +25007,7 @@
         <v>119</v>
       </c>
       <c r="C59" s="39"/>
-      <c r="D59" s="725"/>
+      <c r="D59" s="728"/>
       <c r="E59" s="78"/>
       <c r="F59" s="63"/>
       <c r="G59" s="63"/>
@@ -25021,7 +25020,7 @@
         <v>105</v>
       </c>
       <c r="C60" s="39"/>
-      <c r="D60" s="725"/>
+      <c r="D60" s="728"/>
       <c r="E60" s="68"/>
       <c r="F60" s="63"/>
       <c r="G60" s="63"/>
@@ -25034,7 +25033,7 @@
         <v>106</v>
       </c>
       <c r="C61" s="39"/>
-      <c r="D61" s="725"/>
+      <c r="D61" s="728"/>
       <c r="E61" s="68"/>
       <c r="F61" s="63"/>
       <c r="G61" s="63"/>
@@ -25047,7 +25046,7 @@
         <v>107</v>
       </c>
       <c r="C62" s="39"/>
-      <c r="D62" s="725"/>
+      <c r="D62" s="728"/>
       <c r="E62" s="68"/>
       <c r="F62" s="63"/>
       <c r="G62" s="63"/>
@@ -25060,7 +25059,7 @@
         <v>956</v>
       </c>
       <c r="C63" s="39"/>
-      <c r="D63" s="725"/>
+      <c r="D63" s="728"/>
       <c r="E63" s="68"/>
       <c r="F63" s="63"/>
       <c r="G63" s="63"/>
@@ -25072,7 +25071,7 @@
       <c r="B64" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C64" s="717"/>
+      <c r="C64" s="718"/>
       <c r="D64" s="69"/>
       <c r="E64" s="68"/>
       <c r="F64" s="63"/>
@@ -25303,10 +25302,10 @@
     </row>
     <row r="82" spans="1:11" ht="14.35">
       <c r="A82" s="63"/>
-      <c r="B82" s="734" t="s">
+      <c r="B82" s="731" t="s">
         <v>109</v>
       </c>
-      <c r="C82" s="735"/>
+      <c r="C82" s="732"/>
       <c r="D82" s="82"/>
       <c r="E82" s="54"/>
       <c r="F82" s="63"/>
@@ -25492,10 +25491,10 @@
       <c r="D96" s="108" t="s">
         <v>133</v>
       </c>
-      <c r="E96" s="728" t="s">
+      <c r="E96" s="733" t="s">
         <v>134</v>
       </c>
-      <c r="F96" s="729"/>
+      <c r="F96" s="734"/>
       <c r="G96" s="111"/>
       <c r="H96" s="35"/>
       <c r="K96" s="37"/>
@@ -25592,7 +25591,7 @@
         <v>140</v>
       </c>
       <c r="C102" s="39"/>
-      <c r="D102" s="724"/>
+      <c r="D102" s="727"/>
       <c r="E102" s="116">
         <v>1</v>
       </c>
@@ -25609,7 +25608,7 @@
         <v>105</v>
       </c>
       <c r="C103" s="39"/>
-      <c r="D103" s="725"/>
+      <c r="D103" s="728"/>
       <c r="E103" s="117" t="s">
         <v>141</v>
       </c>
@@ -25624,7 +25623,7 @@
         <v>106</v>
       </c>
       <c r="C104" s="39"/>
-      <c r="D104" s="725"/>
+      <c r="D104" s="728"/>
       <c r="E104" s="119" t="s">
         <v>142</v>
       </c>
@@ -25639,7 +25638,7 @@
         <v>143</v>
       </c>
       <c r="C105" s="58"/>
-      <c r="D105" s="725"/>
+      <c r="D105" s="728"/>
       <c r="E105" s="30"/>
       <c r="F105" s="30"/>
       <c r="G105" s="30"/>
@@ -25651,7 +25650,7 @@
       <c r="B106" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C106" s="717"/>
+      <c r="C106" s="718"/>
       <c r="D106" s="30"/>
       <c r="E106" s="30"/>
       <c r="F106" s="30"/>
@@ -25758,8 +25757,8 @@
       <c r="D115" s="122"/>
       <c r="E115" s="30"/>
       <c r="F115" s="30"/>
-      <c r="G115" s="719"/>
-      <c r="H115" s="720"/>
+      <c r="G115" s="721"/>
+      <c r="H115" s="722"/>
       <c r="K115" s="37"/>
     </row>
     <row r="116" spans="1:11" ht="14.35">
@@ -25783,10 +25782,10 @@
       <c r="C117" s="107" t="s">
         <v>132</v>
       </c>
-      <c r="D117" s="730" t="s">
+      <c r="D117" s="735" t="s">
         <v>134</v>
       </c>
-      <c r="E117" s="729"/>
+      <c r="E117" s="734"/>
       <c r="F117" s="30"/>
       <c r="G117" s="127"/>
       <c r="H117" s="40"/>
@@ -25932,10 +25931,10 @@
     </row>
     <row r="127" spans="1:11" ht="14.35">
       <c r="A127" s="30"/>
-      <c r="B127" s="732" t="s">
+      <c r="B127" s="739" t="s">
         <v>109</v>
       </c>
-      <c r="C127" s="733"/>
+      <c r="C127" s="740"/>
       <c r="E127" s="30"/>
       <c r="F127" s="30"/>
       <c r="G127" s="30"/>
@@ -26054,10 +26053,10 @@
       </c>
       <c r="C137" s="133"/>
       <c r="D137" s="121"/>
-      <c r="E137" s="731" t="s">
+      <c r="E137" s="736" t="s">
         <v>134</v>
       </c>
-      <c r="F137" s="707"/>
+      <c r="F137" s="712"/>
       <c r="G137" s="30"/>
       <c r="H137" s="35"/>
       <c r="K137" s="37"/>
@@ -26221,7 +26220,7 @@
       <c r="B148" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C148" s="721"/>
+      <c r="C148" s="717"/>
       <c r="D148" s="30"/>
       <c r="E148" s="30"/>
       <c r="F148" s="30"/>
@@ -26499,7 +26498,7 @@
       <c r="B174" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C174" s="721"/>
+      <c r="C174" s="717"/>
       <c r="D174" s="30"/>
       <c r="E174" s="30"/>
       <c r="H174" s="37"/>
@@ -26699,7 +26698,7 @@
       <c r="B192" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C192" s="717"/>
+      <c r="C192" s="718"/>
       <c r="D192" s="30"/>
       <c r="E192" s="30"/>
       <c r="F192" s="30"/>
@@ -26932,7 +26931,7 @@
       <c r="B210" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C210" s="717"/>
+      <c r="C210" s="718"/>
       <c r="D210" s="30"/>
       <c r="E210" s="30"/>
       <c r="F210" s="30"/>
@@ -27221,7 +27220,7 @@
       <c r="B233" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C233" s="721"/>
+      <c r="C233" s="717"/>
       <c r="D233" s="30"/>
       <c r="E233" s="30"/>
       <c r="F233" s="30"/>
@@ -27490,7 +27489,7 @@
       <c r="B256" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C256" s="721"/>
+      <c r="C256" s="717"/>
       <c r="D256" s="30"/>
       <c r="F256" s="63"/>
       <c r="G256" s="63"/>
@@ -27855,7 +27854,7 @@
         <v>207</v>
       </c>
       <c r="C282" s="39"/>
-      <c r="D282" s="726"/>
+      <c r="D282" s="737"/>
       <c r="E282" s="30"/>
       <c r="F282" s="30"/>
       <c r="G282" s="30"/>
@@ -27868,7 +27867,7 @@
         <v>208</v>
       </c>
       <c r="C283" s="39"/>
-      <c r="D283" s="727"/>
+      <c r="D283" s="738"/>
       <c r="E283" s="30"/>
       <c r="F283" s="30"/>
       <c r="G283" s="30"/>
@@ -27881,7 +27880,7 @@
         <v>105</v>
       </c>
       <c r="C284" s="39"/>
-      <c r="D284" s="727"/>
+      <c r="D284" s="738"/>
       <c r="E284" s="30"/>
       <c r="F284" s="30"/>
       <c r="G284" s="30"/>
@@ -27894,7 +27893,7 @@
         <v>106</v>
       </c>
       <c r="C285" s="39"/>
-      <c r="D285" s="727"/>
+      <c r="D285" s="738"/>
       <c r="E285" s="30"/>
       <c r="F285" s="30"/>
       <c r="G285" s="30"/>
@@ -27907,7 +27906,7 @@
         <v>209</v>
       </c>
       <c r="C286" s="39"/>
-      <c r="D286" s="727"/>
+      <c r="D286" s="738"/>
       <c r="E286" s="30"/>
       <c r="F286" s="30"/>
       <c r="G286" s="30"/>
@@ -27932,7 +27931,7 @@
       <c r="B288" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C288" s="717"/>
+      <c r="C288" s="718"/>
       <c r="D288" s="30"/>
       <c r="E288" s="30"/>
       <c r="F288" s="30"/>
@@ -28358,7 +28357,7 @@
         <v>207</v>
       </c>
       <c r="C318" s="39"/>
-      <c r="D318" s="724"/>
+      <c r="D318" s="727"/>
       <c r="E318" s="172"/>
       <c r="F318" s="168"/>
       <c r="G318" s="30"/>
@@ -28371,7 +28370,7 @@
         <v>208</v>
       </c>
       <c r="C319" s="39"/>
-      <c r="D319" s="725"/>
+      <c r="D319" s="728"/>
       <c r="E319" s="172"/>
       <c r="F319" s="168"/>
       <c r="G319" s="30"/>
@@ -28384,7 +28383,7 @@
         <v>105</v>
       </c>
       <c r="C320" s="39"/>
-      <c r="D320" s="725"/>
+      <c r="D320" s="728"/>
       <c r="E320" s="172"/>
       <c r="F320" s="168"/>
       <c r="G320" s="30"/>
@@ -28397,7 +28396,7 @@
         <v>106</v>
       </c>
       <c r="C321" s="39"/>
-      <c r="D321" s="725"/>
+      <c r="D321" s="728"/>
       <c r="E321" s="172"/>
       <c r="F321" s="168"/>
       <c r="G321" s="30"/>
@@ -28410,7 +28409,7 @@
         <v>209</v>
       </c>
       <c r="C322" s="39"/>
-      <c r="D322" s="725"/>
+      <c r="D322" s="728"/>
       <c r="E322" s="172"/>
       <c r="F322" s="168"/>
       <c r="G322" s="30"/>
@@ -28435,7 +28434,7 @@
       <c r="B324" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C324" s="717"/>
+      <c r="C324" s="718"/>
       <c r="D324" s="69"/>
       <c r="E324" s="30"/>
       <c r="F324" s="30"/>
@@ -28616,7 +28615,7 @@
         <v>207</v>
       </c>
       <c r="C338" s="39"/>
-      <c r="D338" s="724"/>
+      <c r="D338" s="727"/>
       <c r="F338" s="30"/>
       <c r="G338" s="30"/>
       <c r="H338" s="35"/>
@@ -28628,7 +28627,7 @@
         <v>208</v>
       </c>
       <c r="C339" s="39"/>
-      <c r="D339" s="725"/>
+      <c r="D339" s="728"/>
       <c r="F339" s="30"/>
       <c r="G339" s="30"/>
       <c r="H339" s="35"/>
@@ -28640,7 +28639,7 @@
         <v>105</v>
       </c>
       <c r="C340" s="39"/>
-      <c r="D340" s="725"/>
+      <c r="D340" s="728"/>
       <c r="F340" s="30"/>
       <c r="G340" s="30"/>
       <c r="H340" s="35"/>
@@ -28652,7 +28651,7 @@
         <v>106</v>
       </c>
       <c r="C341" s="39"/>
-      <c r="D341" s="725"/>
+      <c r="D341" s="728"/>
       <c r="F341" s="30"/>
       <c r="G341" s="30"/>
       <c r="H341" s="35"/>
@@ -28664,7 +28663,7 @@
         <v>209</v>
       </c>
       <c r="C342" s="39"/>
-      <c r="D342" s="725"/>
+      <c r="D342" s="728"/>
       <c r="F342" s="30"/>
       <c r="G342" s="30"/>
       <c r="H342" s="35"/>
@@ -28687,7 +28686,7 @@
       <c r="B344" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C344" s="717"/>
+      <c r="C344" s="718"/>
       <c r="D344" s="69"/>
       <c r="F344" s="30"/>
       <c r="G344" s="30"/>
@@ -28950,10 +28949,10 @@
     </row>
     <row r="366" spans="1:11" ht="14.35">
       <c r="A366" s="63"/>
-      <c r="B366" s="736" t="s">
+      <c r="B366" s="729" t="s">
         <v>109</v>
       </c>
-      <c r="C366" s="737"/>
+      <c r="C366" s="730"/>
       <c r="D366" s="63"/>
       <c r="F366" s="30"/>
       <c r="G366" s="63"/>
@@ -29165,7 +29164,7 @@
       <c r="B384" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C384" s="721"/>
+      <c r="C384" s="717"/>
       <c r="F384" s="63"/>
       <c r="G384" s="63"/>
       <c r="H384" s="82"/>
@@ -29645,10 +29644,10 @@
     </row>
     <row r="417" spans="1:11" ht="14.7">
       <c r="A417" s="63"/>
-      <c r="B417" s="738" t="s">
+      <c r="B417" s="726" t="s">
         <v>109</v>
       </c>
-      <c r="C417" s="723"/>
+      <c r="C417" s="720"/>
       <c r="D417" s="206"/>
       <c r="E417" s="3" t="s">
         <v>277</v>
@@ -30161,10 +30160,10 @@
     </row>
     <row r="450" spans="1:11" ht="14.7">
       <c r="A450" s="63"/>
-      <c r="B450" s="738" t="s">
+      <c r="B450" s="726" t="s">
         <v>109</v>
       </c>
-      <c r="C450" s="723"/>
+      <c r="C450" s="720"/>
       <c r="D450" s="206"/>
       <c r="E450" s="206"/>
       <c r="F450" s="63"/>
@@ -30718,10 +30717,10 @@
     </row>
     <row r="486" spans="1:11" ht="14.7">
       <c r="A486" s="63"/>
-      <c r="B486" s="738" t="s">
+      <c r="B486" s="726" t="s">
         <v>109</v>
       </c>
-      <c r="C486" s="723"/>
+      <c r="C486" s="720"/>
       <c r="D486" s="206"/>
       <c r="E486" s="206"/>
       <c r="F486" s="206"/>
@@ -31271,10 +31270,10 @@
     </row>
     <row r="522" spans="1:11" ht="14.7">
       <c r="A522" s="63"/>
-      <c r="B522" s="738" t="s">
+      <c r="B522" s="726" t="s">
         <v>109</v>
       </c>
-      <c r="C522" s="723"/>
+      <c r="C522" s="720"/>
       <c r="D522" s="206"/>
       <c r="E522" s="206"/>
       <c r="F522" s="206"/>
@@ -32130,10 +32129,10 @@
     </row>
     <row r="575" spans="1:11" ht="14.7">
       <c r="A575" s="63"/>
-      <c r="B575" s="738" t="s">
+      <c r="B575" s="726" t="s">
         <v>109</v>
       </c>
-      <c r="C575" s="723"/>
+      <c r="C575" s="720"/>
       <c r="D575" s="206"/>
       <c r="E575" s="206"/>
       <c r="F575" s="206"/>
@@ -32537,7 +32536,7 @@
       <c r="B606" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C606" s="717"/>
+      <c r="C606" s="718"/>
       <c r="D606" s="231"/>
       <c r="E606" s="30"/>
       <c r="F606" s="30"/>
@@ -32953,7 +32952,7 @@
       <c r="B640" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C640" s="721"/>
+      <c r="C640" s="717"/>
       <c r="D640" s="30"/>
       <c r="E640" s="172"/>
       <c r="F640" s="30"/>
@@ -33307,7 +33306,7 @@
       <c r="B665" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C665" s="721"/>
+      <c r="C665" s="717"/>
       <c r="D665" s="30"/>
       <c r="E665" s="30"/>
       <c r="F665" s="30"/>
@@ -33643,7 +33642,7 @@
       <c r="B689" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C689" s="717"/>
+      <c r="C689" s="718"/>
       <c r="D689" s="231"/>
       <c r="E689" s="30"/>
       <c r="F689" s="30"/>
@@ -33854,7 +33853,7 @@
       <c r="B706" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C706" s="721"/>
+      <c r="C706" s="717"/>
       <c r="D706" s="30"/>
       <c r="E706" s="30"/>
       <c r="F706" s="30"/>
@@ -34106,7 +34105,7 @@
       <c r="B726" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C726" s="717"/>
+      <c r="C726" s="718"/>
       <c r="D726" s="30"/>
       <c r="E726" s="30"/>
       <c r="F726" s="30"/>
@@ -34327,10 +34326,10 @@
     </row>
     <row r="744" spans="1:11" ht="14.35">
       <c r="A744" s="30"/>
-      <c r="B744" s="722" t="s">
+      <c r="B744" s="719" t="s">
         <v>109</v>
       </c>
-      <c r="C744" s="739"/>
+      <c r="C744" s="725"/>
       <c r="D744" s="30"/>
       <c r="E744" s="30"/>
       <c r="F744" s="30"/>
@@ -34598,10 +34597,10 @@
     </row>
     <row r="765" spans="1:11" ht="14.35">
       <c r="A765" s="30"/>
-      <c r="B765" s="740" t="s">
+      <c r="B765" s="724" t="s">
         <v>109</v>
       </c>
-      <c r="C765" s="739"/>
+      <c r="C765" s="725"/>
       <c r="D765" s="30"/>
       <c r="E765" s="30"/>
       <c r="F765" s="30"/>
@@ -34879,7 +34878,7 @@
       <c r="B788" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C788" s="721"/>
+      <c r="C788" s="717"/>
       <c r="D788" s="30"/>
       <c r="E788" s="30"/>
       <c r="F788" s="30"/>
@@ -35081,7 +35080,7 @@
       <c r="B804" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C804" s="721"/>
+      <c r="C804" s="717"/>
       <c r="D804" s="30"/>
       <c r="E804" s="30"/>
       <c r="F804" s="30"/>
@@ -35311,7 +35310,7 @@
       <c r="B823" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C823" s="721"/>
+      <c r="C823" s="717"/>
       <c r="D823" s="30"/>
       <c r="E823" s="30"/>
       <c r="F823" s="30"/>
@@ -35600,7 +35599,7 @@
       <c r="B846" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C846" s="717"/>
+      <c r="C846" s="718"/>
       <c r="D846" s="30"/>
       <c r="E846" s="30"/>
       <c r="F846" s="30"/>
@@ -35882,7 +35881,7 @@
       <c r="B868" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C868" s="717"/>
+      <c r="C868" s="718"/>
       <c r="D868" s="30"/>
       <c r="E868" s="30"/>
       <c r="F868" s="30"/>
@@ -36193,7 +36192,7 @@
       <c r="B893" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C893" s="717"/>
+      <c r="C893" s="718"/>
       <c r="D893" s="298"/>
       <c r="E893" s="30"/>
       <c r="F893" s="30"/>
@@ -36502,7 +36501,7 @@
       <c r="B918" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C918" s="717"/>
+      <c r="C918" s="718"/>
       <c r="D918" s="30"/>
       <c r="E918" s="30"/>
       <c r="F918" s="30"/>
@@ -36811,7 +36810,7 @@
       <c r="B944" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C944" s="717"/>
+      <c r="C944" s="718"/>
       <c r="D944" s="30"/>
       <c r="E944" s="30"/>
       <c r="F944" s="30"/>
@@ -37043,7 +37042,7 @@
       <c r="B964" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C964" s="717"/>
+      <c r="C964" s="718"/>
       <c r="D964" s="30"/>
       <c r="E964" s="30"/>
       <c r="F964" s="30"/>
@@ -37323,7 +37322,7 @@
       <c r="B986" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C986" s="717"/>
+      <c r="C986" s="718"/>
       <c r="D986" s="30"/>
       <c r="E986" s="30"/>
       <c r="F986" s="30"/>
@@ -37570,7 +37569,7 @@
       <c r="B1005" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C1005" s="717"/>
+      <c r="C1005" s="718"/>
       <c r="D1005" s="30"/>
       <c r="E1005" s="30"/>
       <c r="F1005" s="30"/>
@@ -37813,7 +37812,7 @@
       <c r="B1024" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C1024" s="717"/>
+      <c r="C1024" s="718"/>
       <c r="D1024" s="30"/>
       <c r="E1024" s="30"/>
       <c r="F1024" s="30"/>
@@ -37957,7 +37956,7 @@
       <c r="B1038" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C1038" s="717"/>
+      <c r="C1038" s="718"/>
       <c r="F1038" s="30"/>
       <c r="G1038" s="30"/>
       <c r="H1038" s="35"/>
@@ -38207,7 +38206,7 @@
       <c r="B1058" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C1058" s="721"/>
+      <c r="C1058" s="717"/>
       <c r="D1058" s="30"/>
       <c r="E1058" s="30"/>
       <c r="F1058" s="30"/>
@@ -38412,7 +38411,7 @@
       <c r="B1075" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C1075" s="717"/>
+      <c r="C1075" s="718"/>
       <c r="D1075" s="30"/>
       <c r="E1075" s="30"/>
       <c r="F1075" s="30"/>
@@ -38652,7 +38651,7 @@
       <c r="B1095" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C1095" s="721"/>
+      <c r="C1095" s="717"/>
       <c r="D1095" s="30"/>
       <c r="E1095" s="30"/>
       <c r="F1095" s="30"/>
@@ -38916,7 +38915,7 @@
       <c r="B1117" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C1117" s="721"/>
+      <c r="C1117" s="717"/>
       <c r="D1117" s="30"/>
       <c r="E1117" s="30"/>
       <c r="F1117" s="30"/>
@@ -39215,7 +39214,7 @@
       <c r="B1140" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="C1140" s="721"/>
+      <c r="C1140" s="717"/>
       <c r="D1140" s="30"/>
       <c r="E1140" s="30"/>
       <c r="F1140" s="30"/>
@@ -39245,7 +39244,48 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="B256:C256"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="B417:C417"/>
+    <mergeCell ref="B450:C450"/>
+    <mergeCell ref="B384:C384"/>
+    <mergeCell ref="B288:C288"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="E137:F137"/>
+    <mergeCell ref="D338:D342"/>
+    <mergeCell ref="D282:D286"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="D102:D105"/>
+    <mergeCell ref="B366:C366"/>
+    <mergeCell ref="D37:D42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="D58:D63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D318:D322"/>
+    <mergeCell ref="B324:C324"/>
+    <mergeCell ref="B344:C344"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="B210:C210"/>
+    <mergeCell ref="B233:C233"/>
+    <mergeCell ref="B486:C486"/>
+    <mergeCell ref="B522:C522"/>
+    <mergeCell ref="B575:C575"/>
     <mergeCell ref="B1075:C1075"/>
+    <mergeCell ref="B788:C788"/>
+    <mergeCell ref="B804:C804"/>
+    <mergeCell ref="B823:C823"/>
+    <mergeCell ref="B846:C846"/>
+    <mergeCell ref="B665:C665"/>
+    <mergeCell ref="B689:C689"/>
+    <mergeCell ref="B706:C706"/>
+    <mergeCell ref="B726:C726"/>
+    <mergeCell ref="B744:C744"/>
     <mergeCell ref="B1095:C1095"/>
     <mergeCell ref="B1117:C1117"/>
     <mergeCell ref="B1140:C1140"/>
@@ -39261,48 +39301,7 @@
     <mergeCell ref="B944:C944"/>
     <mergeCell ref="B964:C964"/>
     <mergeCell ref="B765:C765"/>
-    <mergeCell ref="B788:C788"/>
-    <mergeCell ref="B804:C804"/>
-    <mergeCell ref="B823:C823"/>
-    <mergeCell ref="B846:C846"/>
-    <mergeCell ref="B665:C665"/>
-    <mergeCell ref="B689:C689"/>
-    <mergeCell ref="B706:C706"/>
-    <mergeCell ref="B726:C726"/>
-    <mergeCell ref="B744:C744"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="D102:D105"/>
-    <mergeCell ref="B366:C366"/>
-    <mergeCell ref="B384:C384"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="D58:D63"/>
-    <mergeCell ref="B64:C64"/>
     <mergeCell ref="B640:C640"/>
-    <mergeCell ref="G115:H115"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="E137:F137"/>
-    <mergeCell ref="D338:D342"/>
-    <mergeCell ref="B256:C256"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="B417:C417"/>
-    <mergeCell ref="B450:C450"/>
-    <mergeCell ref="B486:C486"/>
-    <mergeCell ref="B522:C522"/>
-    <mergeCell ref="B575:C575"/>
-    <mergeCell ref="D282:D286"/>
-    <mergeCell ref="B288:C288"/>
-    <mergeCell ref="D318:D322"/>
-    <mergeCell ref="B324:C324"/>
-    <mergeCell ref="B344:C344"/>
-    <mergeCell ref="D37:D42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="B210:C210"/>
-    <mergeCell ref="B233:C233"/>
-    <mergeCell ref="B82:C82"/>
   </mergeCells>
   <phoneticPr fontId="95" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39318,7 +39317,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="12.7"/>
   <cols>
     <col min="1" max="1" width="13.375" customWidth="1"/>
     <col min="2" max="2" width="57.75" customWidth="1"/>
@@ -39644,7 +39643,7 @@
     </row>
     <row r="20" spans="1:11" ht="14.35">
       <c r="A20" s="63"/>
-      <c r="B20" s="736" t="s">
+      <c r="B20" s="729" t="s">
         <v>109</v>
       </c>
       <c r="C20" s="741"/>
@@ -39820,7 +39819,7 @@
         <v>104</v>
       </c>
       <c r="C36" s="97"/>
-      <c r="D36" s="742"/>
+      <c r="D36" s="743"/>
       <c r="E36" s="78"/>
       <c r="K36" s="37"/>
     </row>
@@ -39830,7 +39829,7 @@
         <v>119</v>
       </c>
       <c r="C37" s="89"/>
-      <c r="D37" s="743"/>
+      <c r="D37" s="744"/>
       <c r="E37" s="78"/>
       <c r="K37" s="37"/>
     </row>
@@ -39840,7 +39839,7 @@
         <v>105</v>
       </c>
       <c r="C38" s="89"/>
-      <c r="D38" s="743"/>
+      <c r="D38" s="744"/>
       <c r="E38" s="68"/>
       <c r="K38" s="37"/>
     </row>
@@ -39850,7 +39849,7 @@
         <v>106</v>
       </c>
       <c r="C39" s="89"/>
-      <c r="D39" s="743"/>
+      <c r="D39" s="744"/>
       <c r="E39" s="68"/>
       <c r="K39" s="37"/>
     </row>
@@ -39860,7 +39859,7 @@
         <v>107</v>
       </c>
       <c r="C40" s="89"/>
-      <c r="D40" s="743"/>
+      <c r="D40" s="744"/>
       <c r="E40" s="68"/>
       <c r="K40" s="37"/>
     </row>
@@ -39870,13 +39869,13 @@
         <v>956</v>
       </c>
       <c r="C41" s="89"/>
-      <c r="D41" s="743"/>
+      <c r="D41" s="744"/>
       <c r="E41" s="68"/>
       <c r="K41" s="37"/>
     </row>
     <row r="42" spans="1:11" ht="14.35">
       <c r="A42" s="63"/>
-      <c r="B42" s="736" t="s">
+      <c r="B42" s="729" t="s">
         <v>109</v>
       </c>
       <c r="C42" s="741"/>
@@ -40118,7 +40117,7 @@
     </row>
     <row r="61" spans="1:11" ht="14.35">
       <c r="A61" s="63"/>
-      <c r="B61" s="736" t="s">
+      <c r="B61" s="729" t="s">
         <v>109</v>
       </c>
       <c r="C61" s="741"/>
@@ -40305,10 +40304,10 @@
       <c r="D75" s="373" t="s">
         <v>133</v>
       </c>
-      <c r="E75" s="744" t="s">
+      <c r="E75" s="753" t="s">
         <v>134</v>
       </c>
-      <c r="F75" s="729"/>
+      <c r="F75" s="734"/>
       <c r="G75" s="375"/>
       <c r="H75" s="82"/>
       <c r="K75" s="37"/>
@@ -40406,7 +40405,7 @@
         <v>140</v>
       </c>
       <c r="C81" s="89"/>
-      <c r="D81" s="742"/>
+      <c r="D81" s="743"/>
       <c r="E81" s="380">
         <v>1</v>
       </c>
@@ -40423,7 +40422,7 @@
         <v>105</v>
       </c>
       <c r="C82" s="89"/>
-      <c r="D82" s="743"/>
+      <c r="D82" s="744"/>
       <c r="E82" s="70" t="s">
         <v>141</v>
       </c>
@@ -40438,7 +40437,7 @@
         <v>106</v>
       </c>
       <c r="C83" s="89"/>
-      <c r="D83" s="743"/>
+      <c r="D83" s="744"/>
       <c r="E83" s="70" t="s">
         <v>142</v>
       </c>
@@ -40453,7 +40452,7 @@
         <v>143</v>
       </c>
       <c r="C84" s="362"/>
-      <c r="D84" s="743"/>
+      <c r="D84" s="744"/>
       <c r="E84" s="63"/>
       <c r="F84" s="63"/>
       <c r="G84" s="63"/>
@@ -40462,7 +40461,7 @@
     </row>
     <row r="85" spans="1:11" ht="14.35">
       <c r="A85" s="63"/>
-      <c r="B85" s="736" t="s">
+      <c r="B85" s="729" t="s">
         <v>109</v>
       </c>
       <c r="C85" s="741"/>
@@ -40570,8 +40569,8 @@
       <c r="D94" s="369"/>
       <c r="E94" s="63"/>
       <c r="F94" s="63"/>
-      <c r="G94" s="745"/>
-      <c r="H94" s="746"/>
+      <c r="G94" s="748"/>
+      <c r="H94" s="749"/>
       <c r="K94" s="37"/>
     </row>
     <row r="95" spans="1:11" ht="14.35">
@@ -40595,10 +40594,10 @@
       <c r="C96" s="372" t="s">
         <v>132</v>
       </c>
-      <c r="D96" s="747" t="s">
+      <c r="D96" s="750" t="s">
         <v>134</v>
       </c>
-      <c r="E96" s="729"/>
+      <c r="E96" s="734"/>
       <c r="F96" s="63"/>
       <c r="G96" s="383"/>
       <c r="H96" s="354"/>
@@ -40744,10 +40743,10 @@
     </row>
     <row r="106" spans="1:11" ht="14.35">
       <c r="A106" s="63"/>
-      <c r="B106" s="748" t="s">
+      <c r="B106" s="751" t="s">
         <v>109</v>
       </c>
-      <c r="C106" s="749"/>
+      <c r="C106" s="752"/>
       <c r="E106" s="63"/>
       <c r="F106" s="63"/>
       <c r="G106" s="63"/>
@@ -40866,10 +40865,10 @@
         <v>153</v>
       </c>
       <c r="D116" s="81"/>
-      <c r="E116" s="750" t="s">
+      <c r="E116" s="747" t="s">
         <v>134</v>
       </c>
-      <c r="F116" s="707"/>
+      <c r="F116" s="712"/>
       <c r="G116" s="63"/>
       <c r="H116" s="82"/>
       <c r="K116" s="37"/>
@@ -41073,10 +41072,10 @@
     </row>
     <row r="130" spans="1:11" ht="14.35">
       <c r="A130" s="63"/>
-      <c r="B130" s="736" t="s">
+      <c r="B130" s="729" t="s">
         <v>109</v>
       </c>
-      <c r="C130" s="737"/>
+      <c r="C130" s="730"/>
       <c r="D130" s="63"/>
       <c r="E130" s="63"/>
       <c r="F130" s="63"/>
@@ -41363,10 +41362,10 @@
     </row>
     <row r="156" spans="1:11" ht="14.35">
       <c r="A156" s="63"/>
-      <c r="B156" s="736" t="s">
+      <c r="B156" s="729" t="s">
         <v>109</v>
       </c>
-      <c r="C156" s="737"/>
+      <c r="C156" s="730"/>
       <c r="D156" s="63"/>
       <c r="E156" s="63"/>
       <c r="H156" s="37"/>
@@ -41561,7 +41560,7 @@
     </row>
     <row r="174" spans="1:11" ht="14.35">
       <c r="A174" s="63"/>
-      <c r="B174" s="736" t="s">
+      <c r="B174" s="729" t="s">
         <v>109</v>
       </c>
       <c r="C174" s="741"/>
@@ -41792,7 +41791,7 @@
     </row>
     <row r="192" spans="1:11" ht="14.35">
       <c r="A192" s="63"/>
-      <c r="B192" s="736" t="s">
+      <c r="B192" s="729" t="s">
         <v>109</v>
       </c>
       <c r="C192" s="741"/>
@@ -42123,10 +42122,10 @@
     </row>
     <row r="217" spans="1:11" ht="14.35">
       <c r="A217" s="63"/>
-      <c r="B217" s="736" t="s">
+      <c r="B217" s="729" t="s">
         <v>109</v>
       </c>
-      <c r="C217" s="737"/>
+      <c r="C217" s="730"/>
       <c r="D217" s="63"/>
       <c r="E217" s="63"/>
       <c r="F217" s="63"/>
@@ -42432,10 +42431,10 @@
     </row>
     <row r="242" spans="1:11" ht="14.35">
       <c r="A242" s="63"/>
-      <c r="B242" s="736" t="s">
+      <c r="B242" s="729" t="s">
         <v>109</v>
       </c>
-      <c r="C242" s="737"/>
+      <c r="C242" s="730"/>
       <c r="D242" s="63"/>
       <c r="F242" s="63"/>
       <c r="G242" s="63"/>
@@ -42798,7 +42797,7 @@
         <v>207</v>
       </c>
       <c r="C268" s="89"/>
-      <c r="D268" s="751"/>
+      <c r="D268" s="745"/>
       <c r="E268" s="63"/>
       <c r="F268" s="63"/>
       <c r="G268" s="63"/>
@@ -42811,7 +42810,7 @@
         <v>208</v>
       </c>
       <c r="C269" s="89"/>
-      <c r="D269" s="752"/>
+      <c r="D269" s="746"/>
       <c r="E269" s="63"/>
       <c r="F269" s="63"/>
       <c r="G269" s="63"/>
@@ -42824,7 +42823,7 @@
         <v>105</v>
       </c>
       <c r="C270" s="89"/>
-      <c r="D270" s="752"/>
+      <c r="D270" s="746"/>
       <c r="E270" s="63"/>
       <c r="F270" s="63"/>
       <c r="G270" s="63"/>
@@ -42837,7 +42836,7 @@
         <v>106</v>
       </c>
       <c r="C271" s="89"/>
-      <c r="D271" s="752"/>
+      <c r="D271" s="746"/>
       <c r="E271" s="63"/>
       <c r="F271" s="63"/>
       <c r="G271" s="63"/>
@@ -42850,7 +42849,7 @@
         <v>209</v>
       </c>
       <c r="C272" s="89"/>
-      <c r="D272" s="752"/>
+      <c r="D272" s="746"/>
       <c r="E272" s="63"/>
       <c r="F272" s="63"/>
       <c r="G272" s="63"/>
@@ -42872,7 +42871,7 @@
     </row>
     <row r="274" spans="1:11" ht="14.35">
       <c r="A274" s="63"/>
-      <c r="B274" s="736" t="s">
+      <c r="B274" s="729" t="s">
         <v>109</v>
       </c>
       <c r="C274" s="741"/>
@@ -43299,7 +43298,7 @@
         <v>207</v>
       </c>
       <c r="C304" s="89"/>
-      <c r="D304" s="742"/>
+      <c r="D304" s="743"/>
       <c r="E304" s="169"/>
       <c r="F304" s="170"/>
       <c r="G304" s="63"/>
@@ -43312,7 +43311,7 @@
         <v>208</v>
       </c>
       <c r="C305" s="89"/>
-      <c r="D305" s="743"/>
+      <c r="D305" s="744"/>
       <c r="E305" s="169"/>
       <c r="F305" s="170"/>
       <c r="G305" s="63"/>
@@ -43325,7 +43324,7 @@
         <v>105</v>
       </c>
       <c r="C306" s="89"/>
-      <c r="D306" s="743"/>
+      <c r="D306" s="744"/>
       <c r="E306" s="169"/>
       <c r="F306" s="170"/>
       <c r="G306" s="63"/>
@@ -43338,7 +43337,7 @@
         <v>106</v>
       </c>
       <c r="C307" s="89"/>
-      <c r="D307" s="743"/>
+      <c r="D307" s="744"/>
       <c r="E307" s="169"/>
       <c r="F307" s="170"/>
       <c r="G307" s="63"/>
@@ -43351,7 +43350,7 @@
         <v>209</v>
       </c>
       <c r="C308" s="89"/>
-      <c r="D308" s="743"/>
+      <c r="D308" s="744"/>
       <c r="E308" s="169"/>
       <c r="F308" s="170"/>
       <c r="G308" s="63"/>
@@ -43373,7 +43372,7 @@
     </row>
     <row r="310" spans="1:11" ht="14.35">
       <c r="A310" s="63"/>
-      <c r="B310" s="736" t="s">
+      <c r="B310" s="729" t="s">
         <v>109</v>
       </c>
       <c r="C310" s="741"/>
@@ -43547,7 +43546,7 @@
         <v>139</v>
       </c>
       <c r="C324" s="89"/>
-      <c r="D324" s="742"/>
+      <c r="D324" s="743"/>
       <c r="F324" s="63"/>
       <c r="G324" s="63"/>
       <c r="H324" s="82"/>
@@ -43559,7 +43558,7 @@
         <v>140</v>
       </c>
       <c r="C325" s="89"/>
-      <c r="D325" s="743"/>
+      <c r="D325" s="744"/>
       <c r="F325" s="63"/>
       <c r="G325" s="63"/>
       <c r="H325" s="82"/>
@@ -43571,7 +43570,7 @@
         <v>105</v>
       </c>
       <c r="C326" s="89"/>
-      <c r="D326" s="743"/>
+      <c r="D326" s="744"/>
       <c r="F326" s="63"/>
       <c r="G326" s="63"/>
       <c r="H326" s="82"/>
@@ -43583,7 +43582,7 @@
         <v>106</v>
       </c>
       <c r="C327" s="89"/>
-      <c r="D327" s="743"/>
+      <c r="D327" s="744"/>
       <c r="F327" s="63"/>
       <c r="G327" s="63"/>
       <c r="H327" s="82"/>
@@ -43595,7 +43594,7 @@
         <v>143</v>
       </c>
       <c r="C328" s="89"/>
-      <c r="D328" s="743"/>
+      <c r="D328" s="744"/>
       <c r="F328" s="63"/>
       <c r="G328" s="63"/>
       <c r="H328" s="82"/>
@@ -43615,7 +43614,7 @@
     </row>
     <row r="330" spans="1:11" ht="14.35">
       <c r="A330" s="63"/>
-      <c r="B330" s="736" t="s">
+      <c r="B330" s="729" t="s">
         <v>109</v>
       </c>
       <c r="C330" s="741"/>
@@ -43877,10 +43876,10 @@
     </row>
     <row r="352" spans="1:11" ht="14.35">
       <c r="A352" s="63"/>
-      <c r="B352" s="736" t="s">
+      <c r="B352" s="729" t="s">
         <v>109</v>
       </c>
-      <c r="C352" s="737"/>
+      <c r="C352" s="730"/>
       <c r="D352" s="63"/>
       <c r="F352" s="63"/>
       <c r="G352" s="63"/>
@@ -44084,10 +44083,10 @@
     </row>
     <row r="370" spans="1:11" ht="14.35">
       <c r="A370" s="63"/>
-      <c r="B370" s="736" t="s">
+      <c r="B370" s="729" t="s">
         <v>109</v>
       </c>
-      <c r="C370" s="737"/>
+      <c r="C370" s="730"/>
       <c r="F370" s="63"/>
       <c r="G370" s="63"/>
       <c r="H370" s="82"/>
@@ -44567,10 +44566,10 @@
     </row>
     <row r="405" spans="1:11" ht="14.7">
       <c r="A405" s="63"/>
-      <c r="B405" s="738" t="s">
+      <c r="B405" s="726" t="s">
         <v>109</v>
       </c>
-      <c r="C405" s="723"/>
+      <c r="C405" s="720"/>
       <c r="D405" s="206"/>
       <c r="F405" s="63"/>
       <c r="G405" s="63"/>
@@ -45083,10 +45082,10 @@
     </row>
     <row r="440" spans="1:11" ht="14.7">
       <c r="A440" s="63"/>
-      <c r="B440" s="738" t="s">
+      <c r="B440" s="726" t="s">
         <v>109</v>
       </c>
-      <c r="C440" s="723"/>
+      <c r="C440" s="720"/>
       <c r="D440" s="206"/>
       <c r="E440" s="206"/>
       <c r="F440" s="63"/>
@@ -45562,10 +45561,10 @@
     </row>
     <row r="473" spans="1:11" ht="14.7">
       <c r="A473" s="63"/>
-      <c r="B473" s="738" t="s">
+      <c r="B473" s="726" t="s">
         <v>109</v>
       </c>
-      <c r="C473" s="723"/>
+      <c r="C473" s="720"/>
       <c r="D473" s="206"/>
       <c r="E473" s="206"/>
       <c r="F473" s="206"/>
@@ -46037,10 +46036,10 @@
     </row>
     <row r="506" spans="1:11" ht="14.7">
       <c r="A506" s="63"/>
-      <c r="B506" s="738" t="s">
+      <c r="B506" s="726" t="s">
         <v>109</v>
       </c>
-      <c r="C506" s="723"/>
+      <c r="C506" s="720"/>
       <c r="D506" s="206"/>
       <c r="E506" s="206"/>
       <c r="F506" s="206"/>
@@ -46911,10 +46910,10 @@
     </row>
     <row r="559" spans="1:11" ht="14.7">
       <c r="A559" s="63"/>
-      <c r="B559" s="738" t="s">
+      <c r="B559" s="726" t="s">
         <v>109</v>
       </c>
-      <c r="C559" s="723"/>
+      <c r="C559" s="720"/>
       <c r="D559" s="206"/>
       <c r="E559" s="206"/>
       <c r="F559" s="206"/>
@@ -47338,10 +47337,10 @@
     </row>
     <row r="597" spans="1:11" ht="14.35">
       <c r="A597" s="63"/>
-      <c r="B597" s="736" t="s">
+      <c r="B597" s="729" t="s">
         <v>109</v>
       </c>
-      <c r="C597" s="737"/>
+      <c r="C597" s="730"/>
       <c r="D597" s="63"/>
       <c r="E597" s="63"/>
       <c r="F597" s="63"/>
@@ -47583,10 +47582,10 @@
     </row>
     <row r="616" spans="1:11" ht="14.35">
       <c r="A616" s="63"/>
-      <c r="B616" s="736" t="s">
+      <c r="B616" s="729" t="s">
         <v>109</v>
       </c>
-      <c r="C616" s="737"/>
+      <c r="C616" s="730"/>
       <c r="D616" s="63"/>
       <c r="E616" s="63"/>
       <c r="F616" s="63"/>
@@ -47824,7 +47823,7 @@
     </row>
     <row r="635" spans="1:11" ht="14.35">
       <c r="A635" s="63"/>
-      <c r="B635" s="736" t="s">
+      <c r="B635" s="729" t="s">
         <v>109</v>
       </c>
       <c r="C635" s="741"/>
@@ -48084,10 +48083,10 @@
     </row>
     <row r="655" spans="1:11" ht="14.35">
       <c r="A655" s="63"/>
-      <c r="B655" s="736" t="s">
+      <c r="B655" s="729" t="s">
         <v>109</v>
       </c>
-      <c r="C655" s="737"/>
+      <c r="C655" s="730"/>
       <c r="D655" s="63"/>
       <c r="E655" s="63"/>
       <c r="F655" s="63"/>
@@ -48312,7 +48311,7 @@
     </row>
     <row r="673" spans="1:11" ht="14.35">
       <c r="A673" s="63"/>
-      <c r="B673" s="736" t="s">
+      <c r="B673" s="729" t="s">
         <v>109</v>
       </c>
       <c r="C673" s="741"/>
@@ -48551,10 +48550,10 @@
     </row>
     <row r="692" spans="1:11" ht="14.35">
       <c r="A692" s="63"/>
-      <c r="B692" s="753" t="s">
+      <c r="B692" s="742" t="s">
         <v>109</v>
       </c>
-      <c r="C692" s="723"/>
+      <c r="C692" s="720"/>
       <c r="D692" s="63"/>
       <c r="E692" s="63"/>
       <c r="F692" s="63"/>
@@ -48787,10 +48786,10 @@
     </row>
     <row r="710" spans="1:11" ht="14.35">
       <c r="A710" s="63"/>
-      <c r="B710" s="753" t="s">
+      <c r="B710" s="742" t="s">
         <v>109</v>
       </c>
-      <c r="C710" s="723"/>
+      <c r="C710" s="720"/>
       <c r="D710" s="63"/>
       <c r="E710" s="63"/>
       <c r="F710" s="63"/>
@@ -49109,10 +49108,10 @@
     </row>
     <row r="736" spans="1:11" ht="14.35">
       <c r="A736" s="63"/>
-      <c r="B736" s="736" t="s">
+      <c r="B736" s="729" t="s">
         <v>109</v>
       </c>
-      <c r="C736" s="737"/>
+      <c r="C736" s="730"/>
       <c r="D736" s="63"/>
       <c r="E736" s="63"/>
       <c r="F736" s="63"/>
@@ -49375,10 +49374,10 @@
     </row>
     <row r="756" spans="1:11" ht="14.35">
       <c r="A756" s="63"/>
-      <c r="B756" s="736" t="s">
+      <c r="B756" s="729" t="s">
         <v>109</v>
       </c>
-      <c r="C756" s="737"/>
+      <c r="C756" s="730"/>
       <c r="D756" s="63"/>
       <c r="E756" s="63"/>
       <c r="F756" s="63"/>
@@ -49666,10 +49665,10 @@
     </row>
     <row r="779" spans="1:11" ht="14.35">
       <c r="A779" s="63"/>
-      <c r="B779" s="736" t="s">
+      <c r="B779" s="729" t="s">
         <v>109</v>
       </c>
-      <c r="C779" s="737"/>
+      <c r="C779" s="730"/>
       <c r="D779" s="63"/>
       <c r="E779" s="63"/>
       <c r="F779" s="63"/>
@@ -49955,7 +49954,7 @@
     </row>
     <row r="802" spans="1:11" ht="14.35">
       <c r="A802" s="63"/>
-      <c r="B802" s="736" t="s">
+      <c r="B802" s="729" t="s">
         <v>109</v>
       </c>
       <c r="C802" s="741"/>
@@ -50237,7 +50236,7 @@
     </row>
     <row r="824" spans="1:11" ht="14.35">
       <c r="A824" s="63"/>
-      <c r="B824" s="736" t="s">
+      <c r="B824" s="729" t="s">
         <v>109</v>
       </c>
       <c r="C824" s="741"/>
@@ -50548,7 +50547,7 @@
     </row>
     <row r="849" spans="1:11" ht="14.35">
       <c r="A849" s="63"/>
-      <c r="B849" s="736" t="s">
+      <c r="B849" s="729" t="s">
         <v>109</v>
       </c>
       <c r="C849" s="741"/>
@@ -50856,7 +50855,7 @@
       <c r="K873" s="37"/>
     </row>
     <row r="874" spans="2:11" ht="14.35">
-      <c r="B874" s="736" t="s">
+      <c r="B874" s="729" t="s">
         <v>109</v>
       </c>
       <c r="C874" s="741"/>
@@ -51165,7 +51164,7 @@
       <c r="K899" s="37"/>
     </row>
     <row r="900" spans="1:11" ht="14.35">
-      <c r="B900" s="736" t="s">
+      <c r="B900" s="729" t="s">
         <v>109</v>
       </c>
       <c r="C900" s="741"/>
@@ -51398,7 +51397,7 @@
     </row>
     <row r="920" spans="1:11" ht="14.35">
       <c r="A920" s="63"/>
-      <c r="B920" s="736" t="s">
+      <c r="B920" s="729" t="s">
         <v>109</v>
       </c>
       <c r="C920" s="741"/>
@@ -51678,7 +51677,7 @@
     </row>
     <row r="942" spans="1:11" ht="14.35">
       <c r="A942" s="63"/>
-      <c r="B942" s="736" t="s">
+      <c r="B942" s="729" t="s">
         <v>109</v>
       </c>
       <c r="C942" s="741"/>
@@ -51925,7 +51924,7 @@
     </row>
     <row r="961" spans="1:11" ht="14.35">
       <c r="A961" s="63"/>
-      <c r="B961" s="736" t="s">
+      <c r="B961" s="729" t="s">
         <v>109</v>
       </c>
       <c r="C961" s="741"/>
@@ -52168,7 +52167,7 @@
     </row>
     <row r="980" spans="1:11" ht="14.35">
       <c r="A980" s="63"/>
-      <c r="B980" s="736" t="s">
+      <c r="B980" s="729" t="s">
         <v>109</v>
       </c>
       <c r="C980" s="741"/>
@@ -52312,7 +52311,7 @@
     </row>
     <row r="994" spans="1:11" ht="14.35">
       <c r="A994" s="63"/>
-      <c r="B994" s="736" t="s">
+      <c r="B994" s="729" t="s">
         <v>109</v>
       </c>
       <c r="C994" s="741"/>
@@ -52562,10 +52561,10 @@
     </row>
     <row r="1014" spans="1:11" ht="14.35">
       <c r="A1014" s="63"/>
-      <c r="B1014" s="736" t="s">
+      <c r="B1014" s="729" t="s">
         <v>109</v>
       </c>
-      <c r="C1014" s="737"/>
+      <c r="C1014" s="730"/>
       <c r="D1014" s="63"/>
       <c r="E1014" s="63"/>
       <c r="F1014" s="63"/>
@@ -52767,7 +52766,7 @@
     </row>
     <row r="1031" spans="1:11" ht="14.35">
       <c r="A1031" s="63"/>
-      <c r="B1031" s="736" t="s">
+      <c r="B1031" s="729" t="s">
         <v>109</v>
       </c>
       <c r="C1031" s="741"/>
@@ -53013,10 +53012,10 @@
       <c r="K1050" s="37"/>
     </row>
     <row r="1051" spans="2:11" ht="14.35">
-      <c r="B1051" s="736" t="s">
+      <c r="B1051" s="729" t="s">
         <v>109</v>
       </c>
-      <c r="C1051" s="737"/>
+      <c r="C1051" s="730"/>
       <c r="D1051" s="63"/>
       <c r="E1051" s="63"/>
       <c r="F1051" s="63"/>
@@ -53277,10 +53276,10 @@
     </row>
     <row r="1073" spans="1:11" ht="14.35">
       <c r="A1073" s="63"/>
-      <c r="B1073" s="736" t="s">
+      <c r="B1073" s="729" t="s">
         <v>109</v>
       </c>
-      <c r="C1073" s="737"/>
+      <c r="C1073" s="730"/>
       <c r="D1073" s="63"/>
       <c r="E1073" s="63"/>
       <c r="F1073" s="63"/>
@@ -53576,10 +53575,10 @@
     </row>
     <row r="1096" spans="1:11" ht="14.35">
       <c r="A1096" s="63"/>
-      <c r="B1096" s="736" t="s">
+      <c r="B1096" s="729" t="s">
         <v>109</v>
       </c>
-      <c r="C1096" s="737"/>
+      <c r="C1096" s="730"/>
       <c r="D1096" s="63"/>
       <c r="E1096" s="63"/>
       <c r="F1096" s="63"/>
@@ -53603,61 +53602,61 @@
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D36:D41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="B217:C217"/>
+    <mergeCell ref="B242:C242"/>
+    <mergeCell ref="D268:D272"/>
+    <mergeCell ref="B274:C274"/>
+    <mergeCell ref="D304:D308"/>
+    <mergeCell ref="B310:C310"/>
+    <mergeCell ref="D324:D328"/>
+    <mergeCell ref="B330:C330"/>
+    <mergeCell ref="B352:C352"/>
+    <mergeCell ref="B370:C370"/>
+    <mergeCell ref="B405:C405"/>
+    <mergeCell ref="B440:C440"/>
+    <mergeCell ref="B473:C473"/>
+    <mergeCell ref="B506:C506"/>
+    <mergeCell ref="B559:C559"/>
+    <mergeCell ref="B597:C597"/>
+    <mergeCell ref="B616:C616"/>
+    <mergeCell ref="B635:C635"/>
+    <mergeCell ref="B655:C655"/>
+    <mergeCell ref="B673:C673"/>
+    <mergeCell ref="B692:C692"/>
+    <mergeCell ref="B710:C710"/>
+    <mergeCell ref="B736:C736"/>
+    <mergeCell ref="B756:C756"/>
+    <mergeCell ref="B779:C779"/>
+    <mergeCell ref="B802:C802"/>
+    <mergeCell ref="B824:C824"/>
+    <mergeCell ref="B849:C849"/>
+    <mergeCell ref="B874:C874"/>
+    <mergeCell ref="B900:C900"/>
+    <mergeCell ref="B920:C920"/>
+    <mergeCell ref="B942:C942"/>
+    <mergeCell ref="B961:C961"/>
+    <mergeCell ref="B980:C980"/>
+    <mergeCell ref="B994:C994"/>
     <mergeCell ref="B1014:C1014"/>
     <mergeCell ref="B1031:C1031"/>
     <mergeCell ref="B1051:C1051"/>
     <mergeCell ref="B1073:C1073"/>
     <mergeCell ref="B1096:C1096"/>
-    <mergeCell ref="B920:C920"/>
-    <mergeCell ref="B942:C942"/>
-    <mergeCell ref="B961:C961"/>
-    <mergeCell ref="B980:C980"/>
-    <mergeCell ref="B994:C994"/>
-    <mergeCell ref="B802:C802"/>
-    <mergeCell ref="B824:C824"/>
-    <mergeCell ref="B849:C849"/>
-    <mergeCell ref="B874:C874"/>
-    <mergeCell ref="B900:C900"/>
-    <mergeCell ref="B692:C692"/>
-    <mergeCell ref="B710:C710"/>
-    <mergeCell ref="B736:C736"/>
-    <mergeCell ref="B756:C756"/>
-    <mergeCell ref="B779:C779"/>
-    <mergeCell ref="B597:C597"/>
-    <mergeCell ref="B616:C616"/>
-    <mergeCell ref="B635:C635"/>
-    <mergeCell ref="B655:C655"/>
-    <mergeCell ref="B673:C673"/>
-    <mergeCell ref="B405:C405"/>
-    <mergeCell ref="B440:C440"/>
-    <mergeCell ref="B473:C473"/>
-    <mergeCell ref="B506:C506"/>
-    <mergeCell ref="B559:C559"/>
-    <mergeCell ref="B310:C310"/>
-    <mergeCell ref="D324:D328"/>
-    <mergeCell ref="B330:C330"/>
-    <mergeCell ref="B352:C352"/>
-    <mergeCell ref="B370:C370"/>
-    <mergeCell ref="B217:C217"/>
-    <mergeCell ref="B242:C242"/>
-    <mergeCell ref="D268:D272"/>
-    <mergeCell ref="B274:C274"/>
-    <mergeCell ref="D304:D308"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D36:D41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="E75:F75"/>
   </mergeCells>
   <phoneticPr fontId="95" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -53673,7 +53672,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="12.7"/>
   <cols>
     <col min="1" max="1" width="10.8125" customWidth="1"/>
     <col min="2" max="2" width="26.875" customWidth="1"/>
@@ -53727,10 +53726,10 @@
       <c r="D2" s="588" t="s">
         <v>887</v>
       </c>
-      <c r="E2" s="782" t="s">
+      <c r="E2" s="764" t="s">
         <v>888</v>
       </c>
-      <c r="F2" s="783"/>
+      <c r="F2" s="765"/>
       <c r="G2" s="594" t="s">
         <v>889</v>
       </c>
@@ -53759,75 +53758,75 @@
       <c r="V2" s="591"/>
       <c r="W2" s="591"/>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" ht="14">
       <c r="A3" s="595">
         <v>1</v>
       </c>
-      <c r="B3" s="764" t="s">
+      <c r="B3" s="776" t="s">
         <v>746</v>
       </c>
-      <c r="C3" s="765"/>
-      <c r="D3" s="765"/>
-      <c r="E3" s="765"/>
-      <c r="F3" s="765"/>
-      <c r="G3" s="765"/>
-      <c r="H3" s="765"/>
-      <c r="I3" s="765"/>
-      <c r="J3" s="765"/>
-      <c r="K3" s="766" t="s">
+      <c r="C3" s="777"/>
+      <c r="D3" s="777"/>
+      <c r="E3" s="777"/>
+      <c r="F3" s="777"/>
+      <c r="G3" s="777"/>
+      <c r="H3" s="777"/>
+      <c r="I3" s="777"/>
+      <c r="J3" s="777"/>
+      <c r="K3" s="770" t="s">
         <v>747</v>
       </c>
-      <c r="L3" s="767"/>
-      <c r="M3" s="767"/>
-      <c r="N3" s="767"/>
-      <c r="O3" s="767"/>
-      <c r="P3" s="767"/>
-      <c r="Q3" s="767"/>
-      <c r="R3" s="767"/>
-      <c r="S3" s="767"/>
-      <c r="T3" s="767"/>
-      <c r="U3" s="767"/>
-      <c r="V3" s="767"/>
-      <c r="W3" s="767"/>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="L3" s="769"/>
+      <c r="M3" s="769"/>
+      <c r="N3" s="769"/>
+      <c r="O3" s="769"/>
+      <c r="P3" s="769"/>
+      <c r="Q3" s="769"/>
+      <c r="R3" s="769"/>
+      <c r="S3" s="769"/>
+      <c r="T3" s="769"/>
+      <c r="U3" s="769"/>
+      <c r="V3" s="769"/>
+      <c r="W3" s="769"/>
+    </row>
+    <row r="4" spans="1:23" ht="14">
       <c r="A4" s="586"/>
-      <c r="B4" s="768" t="s">
+      <c r="B4" s="778" t="s">
         <v>749</v>
       </c>
-      <c r="C4" s="769"/>
-      <c r="D4" s="769"/>
+      <c r="C4" s="775"/>
+      <c r="D4" s="775"/>
       <c r="E4" s="756" t="s">
         <v>894</v>
       </c>
-      <c r="F4" s="769"/>
-      <c r="G4" s="769"/>
-      <c r="H4" s="770" t="s">
+      <c r="F4" s="775"/>
+      <c r="G4" s="775"/>
+      <c r="H4" s="779" t="s">
         <v>895</v>
       </c>
-      <c r="I4" s="771"/>
-      <c r="J4" s="771"/>
+      <c r="I4" s="780"/>
+      <c r="J4" s="780"/>
       <c r="K4" s="756" t="s">
         <v>750</v>
       </c>
-      <c r="L4" s="769"/>
-      <c r="M4" s="769"/>
+      <c r="L4" s="775"/>
+      <c r="M4" s="775"/>
       <c r="N4" s="756" t="s">
         <v>896</v>
       </c>
-      <c r="O4" s="769"/>
-      <c r="P4" s="769"/>
+      <c r="O4" s="775"/>
+      <c r="P4" s="775"/>
       <c r="Q4" s="756" t="s">
         <v>897</v>
       </c>
-      <c r="R4" s="769"/>
-      <c r="S4" s="769"/>
-      <c r="T4" s="772" t="s">
+      <c r="R4" s="775"/>
+      <c r="S4" s="775"/>
+      <c r="T4" s="781" t="s">
         <v>898</v>
       </c>
-      <c r="U4" s="773"/>
-      <c r="V4" s="773"/>
-      <c r="W4" s="773"/>
+      <c r="U4" s="782"/>
+      <c r="V4" s="782"/>
+      <c r="W4" s="782"/>
     </row>
     <row r="5" spans="1:23" ht="15.35">
       <c r="A5" s="586"/>
@@ -53885,7 +53884,7 @@
       <c r="S5" s="601" t="s">
         <v>4</v>
       </c>
-      <c r="T5" s="774" t="s">
+      <c r="T5" s="763" t="s">
         <v>899</v>
       </c>
       <c r="U5" s="345" t="s">
@@ -53930,7 +53929,7 @@
       <c r="Q6" s="569"/>
       <c r="R6" s="568"/>
       <c r="S6" s="610"/>
-      <c r="T6" s="723"/>
+      <c r="T6" s="720"/>
       <c r="U6" s="345" t="s">
         <v>903</v>
       </c>
@@ -54376,35 +54375,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
-      <c r="B23" s="778" t="s">
+    <row r="23" spans="1:23" ht="14">
+      <c r="B23" s="766" t="s">
         <v>746</v>
       </c>
-      <c r="C23" s="723"/>
-      <c r="D23" s="723"/>
-      <c r="E23" s="723"/>
-      <c r="F23" s="723"/>
-      <c r="G23" s="723"/>
-      <c r="H23" s="723"/>
-      <c r="I23" s="723"/>
-      <c r="J23" s="723"/>
-      <c r="K23" s="777" t="s">
+      <c r="C23" s="720"/>
+      <c r="D23" s="720"/>
+      <c r="E23" s="720"/>
+      <c r="F23" s="720"/>
+      <c r="G23" s="720"/>
+      <c r="H23" s="720"/>
+      <c r="I23" s="720"/>
+      <c r="J23" s="720"/>
+      <c r="K23" s="767" t="s">
         <v>1027</v>
       </c>
-      <c r="L23" s="723"/>
-      <c r="M23" s="723"/>
-      <c r="N23" s="723"/>
-      <c r="O23" s="723"/>
-      <c r="P23" s="723"/>
-      <c r="Q23" s="723"/>
-      <c r="R23" s="723"/>
-      <c r="S23" s="723"/>
-      <c r="T23" s="723"/>
-      <c r="U23" s="723"/>
-      <c r="V23" s="723"/>
-      <c r="W23" s="723"/>
-    </row>
-    <row r="24" spans="1:23">
+      <c r="L23" s="720"/>
+      <c r="M23" s="720"/>
+      <c r="N23" s="720"/>
+      <c r="O23" s="720"/>
+      <c r="P23" s="720"/>
+      <c r="Q23" s="720"/>
+      <c r="R23" s="720"/>
+      <c r="S23" s="720"/>
+      <c r="T23" s="720"/>
+      <c r="U23" s="720"/>
+      <c r="V23" s="720"/>
+      <c r="W23" s="720"/>
+    </row>
+    <row r="24" spans="1:23" ht="14">
       <c r="A24" s="595">
         <v>2</v>
       </c>
@@ -54438,12 +54437,12 @@
       </c>
       <c r="R24" s="760"/>
       <c r="S24" s="760"/>
-      <c r="T24" s="775" t="s">
+      <c r="T24" s="761" t="s">
         <v>898</v>
       </c>
-      <c r="U24" s="776"/>
-      <c r="V24" s="776"/>
-      <c r="W24" s="776"/>
+      <c r="U24" s="762"/>
+      <c r="V24" s="762"/>
+      <c r="W24" s="762"/>
     </row>
     <row r="25" spans="1:23" ht="15.35">
       <c r="A25" s="629"/>
@@ -54501,7 +54500,7 @@
       <c r="S25" s="600" t="s">
         <v>1030</v>
       </c>
-      <c r="T25" s="774" t="s">
+      <c r="T25" s="763" t="s">
         <v>899</v>
       </c>
       <c r="U25" s="345" t="s">
@@ -54546,7 +54545,7 @@
       <c r="Q26" s="569"/>
       <c r="R26" s="571"/>
       <c r="S26" s="571"/>
-      <c r="T26" s="723"/>
+      <c r="T26" s="720"/>
       <c r="U26" s="345" t="s">
         <v>903</v>
       </c>
@@ -54809,35 +54808,35 @@
       <c r="D43" s="648"/>
       <c r="E43" s="648"/>
     </row>
-    <row r="44" spans="1:23">
-      <c r="B44" s="778" t="s">
+    <row r="44" spans="1:23" ht="14">
+      <c r="B44" s="766" t="s">
         <v>746</v>
       </c>
-      <c r="C44" s="723"/>
-      <c r="D44" s="723"/>
-      <c r="E44" s="723"/>
-      <c r="F44" s="723"/>
-      <c r="G44" s="723"/>
-      <c r="H44" s="723"/>
-      <c r="I44" s="723"/>
-      <c r="J44" s="723"/>
-      <c r="K44" s="778" t="s">
+      <c r="C44" s="720"/>
+      <c r="D44" s="720"/>
+      <c r="E44" s="720"/>
+      <c r="F44" s="720"/>
+      <c r="G44" s="720"/>
+      <c r="H44" s="720"/>
+      <c r="I44" s="720"/>
+      <c r="J44" s="720"/>
+      <c r="K44" s="766" t="s">
         <v>747</v>
       </c>
-      <c r="L44" s="723"/>
-      <c r="M44" s="723"/>
-      <c r="N44" s="723"/>
-      <c r="O44" s="723"/>
-      <c r="P44" s="723"/>
-      <c r="Q44" s="723"/>
-      <c r="R44" s="723"/>
-      <c r="S44" s="723"/>
-      <c r="T44" s="723"/>
-      <c r="U44" s="723"/>
-      <c r="V44" s="723"/>
-      <c r="W44" s="723"/>
-    </row>
-    <row r="45" spans="1:23">
+      <c r="L44" s="720"/>
+      <c r="M44" s="720"/>
+      <c r="N44" s="720"/>
+      <c r="O44" s="720"/>
+      <c r="P44" s="720"/>
+      <c r="Q44" s="720"/>
+      <c r="R44" s="720"/>
+      <c r="S44" s="720"/>
+      <c r="T44" s="720"/>
+      <c r="U44" s="720"/>
+      <c r="V44" s="720"/>
+      <c r="W44" s="720"/>
+    </row>
+    <row r="45" spans="1:23" ht="14">
       <c r="A45" s="595">
         <v>3</v>
       </c>
@@ -54871,12 +54870,12 @@
       </c>
       <c r="R45" s="760"/>
       <c r="S45" s="760"/>
-      <c r="T45" s="779" t="s">
+      <c r="T45" s="774" t="s">
         <v>898</v>
       </c>
-      <c r="U45" s="769"/>
-      <c r="V45" s="769"/>
-      <c r="W45" s="769"/>
+      <c r="U45" s="775"/>
+      <c r="V45" s="775"/>
+      <c r="W45" s="775"/>
     </row>
     <row r="46" spans="1:23" ht="15.35">
       <c r="A46" s="629"/>
@@ -54934,7 +54933,7 @@
       <c r="S46" s="628" t="s">
         <v>1030</v>
       </c>
-      <c r="T46" s="780" t="s">
+      <c r="T46" s="771" t="s">
         <v>899</v>
       </c>
       <c r="U46" s="659" t="s">
@@ -54979,7 +54978,7 @@
       <c r="Q47" s="569"/>
       <c r="R47" s="571"/>
       <c r="S47" s="571"/>
-      <c r="T47" s="723"/>
+      <c r="T47" s="720"/>
       <c r="U47" s="345" t="s">
         <v>903</v>
       </c>
@@ -55327,35 +55326,35 @@
       </c>
       <c r="C66" s="2"/>
     </row>
-    <row r="67" spans="1:23">
-      <c r="B67" s="778" t="s">
+    <row r="67" spans="1:23" ht="14">
+      <c r="B67" s="766" t="s">
         <v>746</v>
       </c>
-      <c r="C67" s="723"/>
-      <c r="D67" s="723"/>
-      <c r="E67" s="723"/>
-      <c r="F67" s="723"/>
-      <c r="G67" s="723"/>
-      <c r="H67" s="723"/>
-      <c r="I67" s="723"/>
-      <c r="J67" s="723"/>
-      <c r="K67" s="778" t="s">
+      <c r="C67" s="720"/>
+      <c r="D67" s="720"/>
+      <c r="E67" s="720"/>
+      <c r="F67" s="720"/>
+      <c r="G67" s="720"/>
+      <c r="H67" s="720"/>
+      <c r="I67" s="720"/>
+      <c r="J67" s="720"/>
+      <c r="K67" s="766" t="s">
         <v>747</v>
       </c>
-      <c r="L67" s="723"/>
-      <c r="M67" s="723"/>
-      <c r="N67" s="723"/>
-      <c r="O67" s="723"/>
-      <c r="P67" s="723"/>
-      <c r="Q67" s="723"/>
-      <c r="R67" s="723"/>
-      <c r="S67" s="723"/>
-      <c r="T67" s="723"/>
-      <c r="U67" s="723"/>
-      <c r="V67" s="723"/>
-      <c r="W67" s="723"/>
-    </row>
-    <row r="68" spans="1:23">
+      <c r="L67" s="720"/>
+      <c r="M67" s="720"/>
+      <c r="N67" s="720"/>
+      <c r="O67" s="720"/>
+      <c r="P67" s="720"/>
+      <c r="Q67" s="720"/>
+      <c r="R67" s="720"/>
+      <c r="S67" s="720"/>
+      <c r="T67" s="720"/>
+      <c r="U67" s="720"/>
+      <c r="V67" s="720"/>
+      <c r="W67" s="720"/>
+    </row>
+    <row r="68" spans="1:23" ht="14">
       <c r="A68" s="595">
         <v>4</v>
       </c>
@@ -55389,12 +55388,12 @@
       </c>
       <c r="R68" s="760"/>
       <c r="S68" s="760"/>
-      <c r="T68" s="775" t="s">
+      <c r="T68" s="761" t="s">
         <v>898</v>
       </c>
-      <c r="U68" s="776"/>
-      <c r="V68" s="776"/>
-      <c r="W68" s="776"/>
+      <c r="U68" s="762"/>
+      <c r="V68" s="762"/>
+      <c r="W68" s="762"/>
     </row>
     <row r="69" spans="1:23" ht="15.35">
       <c r="A69" s="629"/>
@@ -55452,7 +55451,7 @@
       <c r="S69" s="596" t="s">
         <v>4</v>
       </c>
-      <c r="T69" s="774" t="s">
+      <c r="T69" s="763" t="s">
         <v>899</v>
       </c>
       <c r="U69" s="345" t="s">
@@ -55497,7 +55496,7 @@
       <c r="Q70" s="569"/>
       <c r="R70" s="569"/>
       <c r="S70" s="569"/>
-      <c r="T70" s="723"/>
+      <c r="T70" s="720"/>
       <c r="U70" s="345" t="s">
         <v>903</v>
       </c>
@@ -55761,35 +55760,35 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="90" spans="1:23">
-      <c r="B90" s="777" t="s">
+    <row r="90" spans="1:23" ht="14">
+      <c r="B90" s="767" t="s">
         <v>1035</v>
       </c>
-      <c r="C90" s="723"/>
-      <c r="D90" s="723"/>
-      <c r="E90" s="723"/>
-      <c r="F90" s="723"/>
-      <c r="G90" s="723"/>
-      <c r="H90" s="723"/>
-      <c r="I90" s="723"/>
-      <c r="J90" s="723"/>
-      <c r="K90" s="777" t="s">
+      <c r="C90" s="720"/>
+      <c r="D90" s="720"/>
+      <c r="E90" s="720"/>
+      <c r="F90" s="720"/>
+      <c r="G90" s="720"/>
+      <c r="H90" s="720"/>
+      <c r="I90" s="720"/>
+      <c r="J90" s="720"/>
+      <c r="K90" s="767" t="s">
         <v>1027</v>
       </c>
-      <c r="L90" s="723"/>
-      <c r="M90" s="723"/>
-      <c r="N90" s="723"/>
-      <c r="O90" s="723"/>
-      <c r="P90" s="723"/>
-      <c r="Q90" s="723"/>
-      <c r="R90" s="723"/>
-      <c r="S90" s="723"/>
-      <c r="T90" s="723"/>
-      <c r="U90" s="723"/>
-      <c r="V90" s="723"/>
-      <c r="W90" s="723"/>
-    </row>
-    <row r="91" spans="1:23">
+      <c r="L90" s="720"/>
+      <c r="M90" s="720"/>
+      <c r="N90" s="720"/>
+      <c r="O90" s="720"/>
+      <c r="P90" s="720"/>
+      <c r="Q90" s="720"/>
+      <c r="R90" s="720"/>
+      <c r="S90" s="720"/>
+      <c r="T90" s="720"/>
+      <c r="U90" s="720"/>
+      <c r="V90" s="720"/>
+      <c r="W90" s="720"/>
+    </row>
+    <row r="91" spans="1:23" ht="14">
       <c r="A91" s="595">
         <v>1</v>
       </c>
@@ -55798,17 +55797,17 @@
       </c>
       <c r="C91" s="755"/>
       <c r="D91" s="755"/>
-      <c r="E91" s="762" t="s">
+      <c r="E91" s="772" t="s">
         <v>1036</v>
       </c>
       <c r="F91" s="757"/>
       <c r="G91" s="757"/>
-      <c r="H91" s="763" t="s">
+      <c r="H91" s="773" t="s">
         <v>1037</v>
       </c>
       <c r="I91" s="759"/>
       <c r="J91" s="759"/>
-      <c r="K91" s="762" t="s">
+      <c r="K91" s="772" t="s">
         <v>1038</v>
       </c>
       <c r="L91" s="760"/>
@@ -55823,12 +55822,12 @@
       </c>
       <c r="R91" s="760"/>
       <c r="S91" s="760"/>
-      <c r="T91" s="775" t="s">
+      <c r="T91" s="761" t="s">
         <v>898</v>
       </c>
-      <c r="U91" s="776"/>
-      <c r="V91" s="776"/>
-      <c r="W91" s="776"/>
+      <c r="U91" s="762"/>
+      <c r="V91" s="762"/>
+      <c r="W91" s="762"/>
     </row>
     <row r="92" spans="1:23" ht="15.35">
       <c r="A92" s="629"/>
@@ -55886,7 +55885,7 @@
       <c r="S92" s="596" t="s">
         <v>4</v>
       </c>
-      <c r="T92" s="774" t="s">
+      <c r="T92" s="763" t="s">
         <v>899</v>
       </c>
       <c r="U92" s="345" t="s">
@@ -55931,7 +55930,7 @@
       <c r="Q93" s="569"/>
       <c r="R93" s="569"/>
       <c r="S93" s="569"/>
-      <c r="T93" s="723"/>
+      <c r="T93" s="720"/>
       <c r="U93" s="345" t="s">
         <v>903</v>
       </c>
@@ -56194,35 +56193,35 @@
       </c>
       <c r="C111" s="2"/>
     </row>
-    <row r="112" spans="1:23">
-      <c r="B112" s="777" t="s">
+    <row r="112" spans="1:23" ht="14">
+      <c r="B112" s="767" t="s">
         <v>1035</v>
       </c>
-      <c r="C112" s="723"/>
-      <c r="D112" s="723"/>
-      <c r="E112" s="723"/>
-      <c r="F112" s="723"/>
-      <c r="G112" s="723"/>
-      <c r="H112" s="723"/>
-      <c r="I112" s="723"/>
-      <c r="J112" s="723"/>
-      <c r="K112" s="778" t="s">
+      <c r="C112" s="720"/>
+      <c r="D112" s="720"/>
+      <c r="E112" s="720"/>
+      <c r="F112" s="720"/>
+      <c r="G112" s="720"/>
+      <c r="H112" s="720"/>
+      <c r="I112" s="720"/>
+      <c r="J112" s="720"/>
+      <c r="K112" s="766" t="s">
         <v>747</v>
       </c>
-      <c r="L112" s="723"/>
-      <c r="M112" s="723"/>
-      <c r="N112" s="723"/>
-      <c r="O112" s="723"/>
-      <c r="P112" s="723"/>
-      <c r="Q112" s="723"/>
-      <c r="R112" s="723"/>
-      <c r="S112" s="723"/>
-      <c r="T112" s="723"/>
-      <c r="U112" s="723"/>
-      <c r="V112" s="723"/>
-      <c r="W112" s="723"/>
-    </row>
-    <row r="113" spans="1:23">
+      <c r="L112" s="720"/>
+      <c r="M112" s="720"/>
+      <c r="N112" s="720"/>
+      <c r="O112" s="720"/>
+      <c r="P112" s="720"/>
+      <c r="Q112" s="720"/>
+      <c r="R112" s="720"/>
+      <c r="S112" s="720"/>
+      <c r="T112" s="720"/>
+      <c r="U112" s="720"/>
+      <c r="V112" s="720"/>
+      <c r="W112" s="720"/>
+    </row>
+    <row r="113" spans="1:23" ht="14">
       <c r="A113" s="595">
         <v>2</v>
       </c>
@@ -56231,7 +56230,7 @@
       </c>
       <c r="C113" s="755"/>
       <c r="D113" s="755"/>
-      <c r="E113" s="762" t="s">
+      <c r="E113" s="772" t="s">
         <v>1036</v>
       </c>
       <c r="F113" s="757"/>
@@ -56256,12 +56255,12 @@
       </c>
       <c r="R113" s="760"/>
       <c r="S113" s="760"/>
-      <c r="T113" s="775" t="s">
+      <c r="T113" s="761" t="s">
         <v>898</v>
       </c>
-      <c r="U113" s="776"/>
-      <c r="V113" s="776"/>
-      <c r="W113" s="776"/>
+      <c r="U113" s="762"/>
+      <c r="V113" s="762"/>
+      <c r="W113" s="762"/>
     </row>
     <row r="114" spans="1:23" ht="15.35">
       <c r="A114" s="629"/>
@@ -56319,7 +56318,7 @@
       <c r="S114" s="691" t="s">
         <v>4</v>
       </c>
-      <c r="T114" s="774" t="s">
+      <c r="T114" s="763" t="s">
         <v>899</v>
       </c>
       <c r="U114" s="345" t="s">
@@ -56364,7 +56363,7 @@
       <c r="Q115" s="569"/>
       <c r="R115" s="569"/>
       <c r="S115" s="569"/>
-      <c r="T115" s="723"/>
+      <c r="T115" s="720"/>
       <c r="U115" s="345" t="s">
         <v>903</v>
       </c>
@@ -56541,7 +56540,7 @@
       <c r="L122" s="689"/>
       <c r="M122" s="689"/>
     </row>
-    <row r="123" spans="1:23" ht="12.7">
+    <row r="123" spans="1:23">
       <c r="K123" s="688"/>
       <c r="L123" s="689"/>
       <c r="M123" s="689"/>
@@ -56577,35 +56576,35 @@
         <v>404</v>
       </c>
     </row>
-    <row r="133" spans="1:23">
-      <c r="B133" s="778" t="s">
+    <row r="133" spans="1:23" ht="14">
+      <c r="B133" s="766" t="s">
         <v>746</v>
       </c>
-      <c r="C133" s="723"/>
-      <c r="D133" s="723"/>
-      <c r="E133" s="723"/>
-      <c r="F133" s="723"/>
-      <c r="G133" s="723"/>
-      <c r="H133" s="723"/>
-      <c r="I133" s="723"/>
-      <c r="J133" s="723"/>
-      <c r="K133" s="778" t="s">
+      <c r="C133" s="720"/>
+      <c r="D133" s="720"/>
+      <c r="E133" s="720"/>
+      <c r="F133" s="720"/>
+      <c r="G133" s="720"/>
+      <c r="H133" s="720"/>
+      <c r="I133" s="720"/>
+      <c r="J133" s="720"/>
+      <c r="K133" s="766" t="s">
         <v>747</v>
       </c>
-      <c r="L133" s="723"/>
-      <c r="M133" s="723"/>
-      <c r="N133" s="723"/>
-      <c r="O133" s="723"/>
-      <c r="P133" s="723"/>
-      <c r="Q133" s="723"/>
-      <c r="R133" s="723"/>
-      <c r="S133" s="723"/>
-      <c r="T133" s="723"/>
-      <c r="U133" s="723"/>
-      <c r="V133" s="723"/>
-      <c r="W133" s="723"/>
-    </row>
-    <row r="134" spans="1:23">
+      <c r="L133" s="720"/>
+      <c r="M133" s="720"/>
+      <c r="N133" s="720"/>
+      <c r="O133" s="720"/>
+      <c r="P133" s="720"/>
+      <c r="Q133" s="720"/>
+      <c r="R133" s="720"/>
+      <c r="S133" s="720"/>
+      <c r="T133" s="720"/>
+      <c r="U133" s="720"/>
+      <c r="V133" s="720"/>
+      <c r="W133" s="720"/>
+    </row>
+    <row r="134" spans="1:23" ht="14">
       <c r="A134" s="595">
         <v>3</v>
       </c>
@@ -56639,12 +56638,12 @@
       </c>
       <c r="R134" s="760"/>
       <c r="S134" s="760"/>
-      <c r="T134" s="775" t="s">
+      <c r="T134" s="761" t="s">
         <v>898</v>
       </c>
-      <c r="U134" s="776"/>
-      <c r="V134" s="776"/>
-      <c r="W134" s="776"/>
+      <c r="U134" s="762"/>
+      <c r="V134" s="762"/>
+      <c r="W134" s="762"/>
     </row>
     <row r="135" spans="1:23" ht="15.35">
       <c r="A135" s="629"/>
@@ -56702,7 +56701,7 @@
       <c r="S135" s="691" t="s">
         <v>4</v>
       </c>
-      <c r="T135" s="774" t="s">
+      <c r="T135" s="763" t="s">
         <v>899</v>
       </c>
       <c r="U135" s="345" t="s">
@@ -56747,7 +56746,7 @@
       <c r="Q136" s="569"/>
